--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="11104" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13896" uniqueCount="179">
   <si>
     <t>y1</t>
   </si>
@@ -544,6 +544,15 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>bin_160</t>
+  </si>
+  <si>
+    <t>o.bin_162</t>
+  </si>
+  <si>
+    <t>o.bin_163</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,6 +1119,12 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -1620,12 +1635,18 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="FP2" t="s">
         <v>172</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1634,520 +1655,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.6485564832658387</v>
+        <v>0.64154509354104805</v>
       </c>
       <c r="C3">
-        <v>-0.92069494479173219</v>
+        <v>-0.9019880534998439</v>
       </c>
       <c r="D3">
-        <v>-0.88586662165888019</v>
+        <v>-0.9360896458648974</v>
       </c>
       <c r="E3">
-        <v>-0.89701221068642634</v>
+        <v>-0.93489293792572681</v>
       </c>
       <c r="F3">
-        <v>0.50651019435219724</v>
+        <v>0.51505364604480885</v>
       </c>
       <c r="G3">
-        <v>0.50773238820533062</v>
+        <v>0.51033100421034894</v>
       </c>
       <c r="H3">
-        <v>0.45789097942958495</v>
+        <v>0.46894939990243356</v>
       </c>
       <c r="I3">
-        <v>0.20861676858340689</v>
+        <v>0.19627750703372862</v>
       </c>
       <c r="J3">
-        <v>0.24069919669896667</v>
+        <v>0.23772409919057635</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.7474235297532252</v>
+        <v>-0.28727528177499939</v>
       </c>
       <c r="M3">
-        <v>-1.7384487916648979</v>
+        <v>-0.1488989415468033</v>
       </c>
       <c r="N3">
-        <v>-1.6912436135924842</v>
+        <v>-1.7620618807402932</v>
       </c>
       <c r="O3">
-        <v>-1.6731764808740504</v>
+        <v>-1.7281149742100681</v>
       </c>
       <c r="P3">
-        <v>-1.6698459554441916</v>
+        <v>-1.7084991680353732</v>
       </c>
       <c r="Q3">
-        <v>-1.6665194975685336</v>
+        <v>-1.7033219111181439</v>
       </c>
       <c r="R3">
-        <v>-1.614956020866164</v>
+        <v>-1.7214050866702957</v>
       </c>
       <c r="S3">
-        <v>-1.6615421347437092</v>
+        <v>-1.6895186726765705</v>
       </c>
       <c r="T3">
-        <v>-1.6998407162170257</v>
+        <v>-1.6713923421455092</v>
       </c>
       <c r="U3">
-        <v>-1.5877872511601414</v>
+        <v>-1.639251698161214</v>
       </c>
       <c r="V3">
-        <v>-1.6273714858611448</v>
+        <v>-1.617808672967967</v>
       </c>
       <c r="W3">
-        <v>-1.5735747152262711</v>
+        <v>-1.6202875316293655</v>
       </c>
       <c r="X3">
-        <v>-1.6224475830633034</v>
+        <v>-1.6277316030310989</v>
       </c>
       <c r="Y3">
-        <v>-1.5695965357079018</v>
+        <v>-1.6170604863258247</v>
       </c>
       <c r="Z3">
-        <v>-1.566417708383973</v>
+        <v>-1.6113574991438975</v>
       </c>
       <c r="AA3">
-        <v>-1.6077118012144982</v>
+        <v>-1.5992039470724648</v>
       </c>
       <c r="AB3">
-        <v>-1.6117867619542219</v>
+        <v>-1.5488508734062725</v>
       </c>
       <c r="AC3">
-        <v>-1.5183047076895568</v>
+        <v>-1.6015738178811465</v>
       </c>
       <c r="AD3">
-        <v>-1.558414644619625</v>
+        <v>-1.5791439356765649</v>
       </c>
       <c r="AE3">
-        <v>-1.5614468393903937</v>
+        <v>-1.5517387509917662</v>
       </c>
       <c r="AF3">
-        <v>-1.533735536437687</v>
+        <v>-1.594234758686403</v>
       </c>
       <c r="AG3">
-        <v>-1.5761997343208796</v>
+        <v>-1.5385644896212036</v>
       </c>
       <c r="AH3">
-        <v>-1.5274956758702676</v>
+        <v>-1.5877316762178695</v>
       </c>
       <c r="AI3">
-        <v>-1.59043136607703</v>
+        <v>-1.5781297182075888</v>
       </c>
       <c r="AJ3">
-        <v>-1.5078636243044872</v>
+        <v>-1.5678087326909891</v>
       </c>
       <c r="AK3">
-        <v>-1.6164145463381658</v>
+        <v>-1.5653963355256533</v>
       </c>
       <c r="AL3">
-        <v>-1.5362356437765088</v>
+        <v>-1.5443278812954218</v>
       </c>
       <c r="AM3">
-        <v>-1.5999832062597721</v>
+        <v>-1.5357964611600827</v>
       </c>
       <c r="AN3">
-        <v>-1.4905111759762457</v>
+        <v>-1.5250431728317624</v>
       </c>
       <c r="AO3">
-        <v>-1.5725433894719487</v>
+        <v>-1.5256817394310522</v>
       </c>
       <c r="AP3">
-        <v>-1.5350955559546131</v>
+        <v>-1.4993634753739129</v>
       </c>
       <c r="AQ3">
-        <v>-1.5100445452683366</v>
+        <v>-1.5688605455380458</v>
       </c>
       <c r="AR3">
-        <v>-1.594844551907505</v>
+        <v>-1.52686549764363</v>
       </c>
       <c r="AS3">
-        <v>-1.5620089661423795</v>
+        <v>-1.4871917964296482</v>
       </c>
       <c r="AT3">
-        <v>-1.5698648941786588</v>
+        <v>-1.5481690326168291</v>
       </c>
       <c r="AU3">
-        <v>-1.5714113252317288</v>
+        <v>-1.4774075125183235</v>
       </c>
       <c r="AV3">
-        <v>-1.5610595678572787</v>
+        <v>-1.4248444887642793</v>
       </c>
       <c r="AW3">
-        <v>-1.534508493417116</v>
+        <v>-1.5162698487548814</v>
       </c>
       <c r="AX3">
-        <v>-1.5609205761557305</v>
+        <v>-1.5360143361816541</v>
       </c>
       <c r="AY3">
-        <v>-1.5703987697101698</v>
+        <v>-1.4795948988001029</v>
       </c>
       <c r="AZ3">
-        <v>-1.5856561193812018</v>
+        <v>-1.5608271838246668</v>
       </c>
       <c r="BA3">
-        <v>-1.5272857235452195</v>
+        <v>-1.5357041665207141</v>
       </c>
       <c r="BB3">
-        <v>-1.5029392182809365</v>
+        <v>-1.5171979114714969</v>
       </c>
       <c r="BC3">
-        <v>-1.5072924846761764</v>
+        <v>-1.5661909536102414</v>
       </c>
       <c r="BD3">
-        <v>-1.5919433751268668</v>
+        <v>-1.5131960712061554</v>
       </c>
       <c r="BE3">
-        <v>-1.5361262103430671</v>
+        <v>-1.4987490460539308</v>
       </c>
       <c r="BF3">
-        <v>-1.5275316900330493</v>
+        <v>-1.4859481552199743</v>
       </c>
       <c r="BG3">
-        <v>-1.5068436820301043</v>
+        <v>-1.5460120919329516</v>
       </c>
       <c r="BH3">
-        <v>-1.5158054281672744</v>
+        <v>-1.486399939606571</v>
       </c>
       <c r="BI3">
-        <v>-1.5088413412948452</v>
+        <v>-1.5640860538248136</v>
       </c>
       <c r="BJ3">
-        <v>-1.1975608475472408</v>
+        <v>-1.5418304837699104</v>
       </c>
       <c r="BK3">
-        <v>-1.1975140920512726</v>
+        <v>-1.5315971661608747</v>
       </c>
       <c r="BL3">
-        <v>-1.1688332196595312</v>
+        <v>-1.1489068875362567</v>
       </c>
       <c r="BM3">
-        <v>-1.1363178164245917</v>
+        <v>-1.1854369521303485</v>
       </c>
       <c r="BN3">
-        <v>-1.173337001385246</v>
+        <v>-1.1471395419992663</v>
       </c>
       <c r="BO3">
-        <v>-1.1314596323569404</v>
+        <v>-1.1956640445255335</v>
       </c>
       <c r="BP3">
-        <v>-1.2052098500704831</v>
+        <v>-1.1948036693919815</v>
       </c>
       <c r="BQ3">
-        <v>-1.132707450216748</v>
+        <v>-1.1351044577688032</v>
       </c>
       <c r="BR3">
-        <v>-1.1558261843486293</v>
+        <v>-1.1519759012242781</v>
       </c>
       <c r="BS3">
-        <v>-1.2097161853851883</v>
+        <v>-1.235648025058419</v>
       </c>
       <c r="BT3">
-        <v>-0.86810301384060151</v>
+        <v>-1.1952560144958166</v>
       </c>
       <c r="BU3">
-        <v>-0.74083338266217225</v>
+        <v>-1.1197977449063101</v>
       </c>
       <c r="BV3">
-        <v>-0.78578180042463741</v>
+        <v>-0.8489633457979211</v>
       </c>
       <c r="BW3">
-        <v>-0.7429850781802857</v>
+        <v>-0.75558733861803118</v>
       </c>
       <c r="BX3">
-        <v>-0.784366874747636</v>
+        <v>-0.72030601879474732</v>
       </c>
       <c r="BY3">
-        <v>-0.74764836916212418</v>
+        <v>-0.76285222933257535</v>
       </c>
       <c r="BZ3">
-        <v>-0.73522074211141408</v>
+        <v>-0.74068712363782108</v>
       </c>
       <c r="CA3">
-        <v>-0.68983051303158138</v>
+        <v>-0.76242932399690555</v>
       </c>
       <c r="CB3">
-        <v>-0.68550531623426025</v>
+        <v>-0.7049209297817578</v>
       </c>
       <c r="CC3">
-        <v>-0.69046673287380955</v>
+        <v>-0.72822231488701616</v>
       </c>
       <c r="CD3">
-        <v>-0.45350040754357324</v>
+        <v>-0.72174259869867508</v>
       </c>
       <c r="CE3">
-        <v>-0.29365346571724449</v>
+        <v>-0.73396986246321128</v>
       </c>
       <c r="CF3">
-        <v>-0.23602325299179858</v>
+        <v>-0.46900927888941024</v>
       </c>
       <c r="CG3">
-        <v>-0.25462212061882245</v>
+        <v>-0.24752623660247472</v>
       </c>
       <c r="CH3">
-        <v>-0.29487127847778155</v>
+        <v>-0.27333583526933802</v>
       </c>
       <c r="CI3">
-        <v>-0.29435636019207639</v>
+        <v>-0.26382953853150015</v>
       </c>
       <c r="CJ3">
-        <v>-0.31898839129493528</v>
+        <v>-0.2602110652476553</v>
       </c>
       <c r="CK3">
-        <v>-0.29098532393274096</v>
+        <v>-0.28857999893768982</v>
       </c>
       <c r="CL3">
-        <v>-0.33283651769901484</v>
+        <v>-0.31719826344471935</v>
       </c>
       <c r="CM3">
-        <v>-0.27490063294611816</v>
+        <v>-0.29969543326849457</v>
       </c>
       <c r="CN3">
-        <v>-0.40479002761405752</v>
+        <v>-0.30209951260687312</v>
       </c>
       <c r="CO3">
-        <v>-0.25647128620744097</v>
+        <v>-0.32751195559695218</v>
       </c>
       <c r="CP3">
-        <v>-0.2652847152891098</v>
+        <v>-0.40997617607336634</v>
       </c>
       <c r="CQ3">
-        <v>-0.22518788799118067</v>
+        <v>-0.24233228233103118</v>
       </c>
       <c r="CR3">
-        <v>-0.26257838912006781</v>
+        <v>-0.26168113671397031</v>
       </c>
       <c r="CS3">
-        <v>-0.24750214387513297</v>
+        <v>-0.24341214406396805</v>
       </c>
       <c r="CT3">
-        <v>-0.21528811368922018</v>
+        <v>-0.23504289231869671</v>
       </c>
       <c r="CU3">
-        <v>-0.19814411598495743</v>
+        <v>-0.21774716796828431</v>
       </c>
       <c r="CV3">
-        <v>-0.22275822464533221</v>
+        <v>-0.24424288367556049</v>
       </c>
       <c r="CW3">
-        <v>-0.19735633481119214</v>
+        <v>-0.16910043627155666</v>
       </c>
       <c r="CX3">
-        <v>-0.19798385323281067</v>
+        <v>-0.22387762301954439</v>
       </c>
       <c r="CY3">
-        <v>-0.11993739658994344</v>
+        <v>-0.2398614134232615</v>
       </c>
       <c r="CZ3">
-        <v>-0.059391940341859996</v>
+        <v>-0.23829003811650051</v>
       </c>
       <c r="DA3">
-        <v>-0.073876282702940679</v>
+        <v>-0.073206648287331436</v>
       </c>
       <c r="DB3">
-        <v>-0.075520299212085612</v>
+        <v>-0.085567266197761185</v>
       </c>
       <c r="DC3">
-        <v>-0.09540169926390038</v>
+        <v>-0.053008262028549358</v>
       </c>
       <c r="DD3">
-        <v>-0.066219378625402517</v>
+        <v>-0.072794379978871518</v>
       </c>
       <c r="DE3">
-        <v>-0.088109601002422044</v>
+        <v>-0.090236963803114204</v>
       </c>
       <c r="DF3">
-        <v>-0.11496768303155873</v>
+        <v>-0.061335310935196091</v>
       </c>
       <c r="DG3">
-        <v>-0.088689920189285551</v>
+        <v>-0.11655205935054327</v>
       </c>
       <c r="DH3">
-        <v>-0.086345376413280925</v>
+        <v>-0.12590109417458861</v>
       </c>
       <c r="DI3">
-        <v>0.028538650274340625</v>
+        <v>-0.092579066921945743</v>
       </c>
       <c r="DJ3">
-        <v>0.025094785921240068</v>
+        <v>-0.10504209515966335</v>
       </c>
       <c r="DK3">
-        <v>0.04364507968414693</v>
+        <v>0.043115946124667064</v>
       </c>
       <c r="DL3">
-        <v>0.049374783867781089</v>
+        <v>0.020005422286028328</v>
       </c>
       <c r="DM3">
-        <v>0.035041941232770879</v>
+        <v>0.025656918569542823</v>
       </c>
       <c r="DN3">
-        <v>0.059316070624720149</v>
+        <v>0.034010342670135064</v>
       </c>
       <c r="DO3">
-        <v>0.057587354043627706</v>
+        <v>0.0023631379113363557</v>
       </c>
       <c r="DP3">
-        <v>0.038965661465685468</v>
+        <v>0.039160161833596149</v>
       </c>
       <c r="DQ3">
-        <v>0.034250059933557009</v>
+        <v>0.039124800737081925</v>
       </c>
       <c r="DR3">
-        <v>0.044650680650423602</v>
+        <v>0.0277878402146471</v>
       </c>
       <c r="DS3">
-        <v>-0.0043953903172724443</v>
+        <v>0.014170024246154725</v>
       </c>
       <c r="DT3">
-        <v>0.044352721959034655</v>
+        <v>0.0005813506329071206</v>
       </c>
       <c r="DU3">
-        <v>0.0071210734535541581</v>
+        <v>0.028647143512636451</v>
       </c>
       <c r="DV3">
-        <v>0.026142134148258406</v>
+        <v>0.039109310284749919</v>
       </c>
       <c r="DW3">
-        <v>0.019003179742647626</v>
+        <v>0.042122256835223179</v>
       </c>
       <c r="DX3">
-        <v>0.010474858553458305</v>
+        <v>0.034445725043945261</v>
       </c>
       <c r="DY3">
-        <v>0.044501560059307409</v>
+        <v>0.029011132655420921</v>
       </c>
       <c r="DZ3">
-        <v>0.013850943989001408</v>
+        <v>-0.0083128924559757959</v>
       </c>
       <c r="EA3">
-        <v>-0.00079358077672804506</v>
+        <v>-0.0051528433275503521</v>
       </c>
       <c r="EB3">
-        <v>0.023643419585651745</v>
+        <v>0.019622712164172391</v>
       </c>
       <c r="EC3">
-        <v>0.032717478608257265</v>
+        <v>0.027836927310144519</v>
       </c>
       <c r="ED3">
-        <v>0.028662905452513411</v>
+        <v>0.020041558148657251</v>
       </c>
       <c r="EE3">
-        <v>0.025356559407674124</v>
+        <v>0.031584605737884089</v>
       </c>
       <c r="EF3">
-        <v>0.032416629264923509</v>
+        <v>0.030386769332843185</v>
       </c>
       <c r="EG3">
-        <v>0.025319009700458032</v>
+        <v>0.012813457307213956</v>
       </c>
       <c r="EH3">
-        <v>0.029887594175604212</v>
+        <v>0.025311544701972187</v>
       </c>
       <c r="EI3">
-        <v>0.0081145896745428922</v>
+        <v>0.0074234573057151533</v>
       </c>
       <c r="EJ3">
-        <v>0.010036043558878389</v>
+        <v>0.002884747324595044</v>
       </c>
       <c r="EK3">
-        <v>-0.00681829127386668</v>
+        <v>-0.011377281743763889</v>
       </c>
       <c r="EL3">
-        <v>-0.0023603380535246513</v>
+        <v>0.026345241021128642</v>
       </c>
       <c r="EM3">
-        <v>-0.0022987855724416794</v>
+        <v>0.02494088795117573</v>
       </c>
       <c r="EN3">
-        <v>0.0083507559214064941</v>
+        <v>0.023499879578484532</v>
       </c>
       <c r="EO3">
-        <v>0.0066997605192659453</v>
+        <v>0.013770771685697873</v>
       </c>
       <c r="EP3">
-        <v>0.00010701849150982759</v>
+        <v>0.04241157342088453</v>
       </c>
       <c r="EQ3">
-        <v>0.02361867954714485</v>
+        <v>0.041071869448466587</v>
       </c>
       <c r="ER3">
-        <v>0.014084557691638331</v>
+        <v>0.0010996532799938765</v>
       </c>
       <c r="ES3">
-        <v>-0.0097367284477254297</v>
+        <v>0.022424939308554163</v>
       </c>
       <c r="ET3">
-        <v>0.020859096294606</v>
+        <v>0.020376936585713389</v>
       </c>
       <c r="EU3">
-        <v>0.032963442455926154</v>
+        <v>0.016946484089983543</v>
       </c>
       <c r="EV3">
-        <v>-0.021455395883498984</v>
+        <v>-0.012016242860582298</v>
       </c>
       <c r="EW3">
-        <v>0.018342876460772383</v>
+        <v>0.042698356331228204</v>
       </c>
       <c r="EX3">
-        <v>-0.050058604312706617</v>
+        <v>0.042519461402226968</v>
       </c>
       <c r="EY3">
-        <v>-0.0002175792152499616</v>
+        <v>-0.029054450821118287</v>
       </c>
       <c r="EZ3">
-        <v>0.025376605512235466</v>
+        <v>-0.003094616143112754</v>
       </c>
       <c r="FA3">
-        <v>-0.00086986654907578675</v>
+        <v>-0.0027928023114697879</v>
       </c>
       <c r="FB3">
-        <v>0.0031713654457999393</v>
+        <v>-0.0011025344659223559</v>
       </c>
       <c r="FC3">
-        <v>0.0090975974536337215</v>
+        <v>-0.00034691815422937215</v>
       </c>
       <c r="FD3">
-        <v>0.027084273269467777</v>
+        <v>-0.0147452331731209</v>
       </c>
       <c r="FE3">
-        <v>0.027551093808375296</v>
+        <v>0.01232888221184722</v>
       </c>
       <c r="FF3">
-        <v>-0.020929276041274533</v>
+        <v>0.0065758918634209263</v>
       </c>
       <c r="FG3">
-        <v>-0.010658964107835706</v>
+        <v>0.032055175551344135</v>
       </c>
       <c r="FH3">
-        <v>-0.015892251112585257</v>
+        <v>-0.029955921408705441</v>
       </c>
       <c r="FI3">
-        <v>-0.019262782775854349</v>
+        <v>-0.026535053384568654</v>
       </c>
       <c r="FJ3">
-        <v>-0.035668365802582459</v>
+        <v>0.019811040764790008</v>
       </c>
       <c r="FK3">
-        <v>-0.001115340254827272</v>
+        <v>-0.0043174479224737331</v>
       </c>
       <c r="FL3">
-        <v>-0.041371590167801925</v>
+        <v>-0.021893781152269292</v>
       </c>
       <c r="FM3">
-        <v>-0.0029797246380218099</v>
+        <v>0.021446337616015689</v>
       </c>
       <c r="FN3">
-        <v>-0.042660259936363194</v>
+        <v>0.011638649677727868</v>
       </c>
       <c r="FO3">
-        <v>0</v>
+        <v>-0.058015251319643843</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-5.5123571141976884</v>
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-5.5154236019226168</v>
       </c>
     </row>
     <row r="4">
@@ -2155,520 +2182,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.022288961366894091</v>
+        <v>0.022317854479426052</v>
       </c>
       <c r="C4">
-        <v>0.016232523580932422</v>
+        <v>0.01615935210920506</v>
       </c>
       <c r="D4">
-        <v>0.01984618546409464</v>
+        <v>0.020292471746830746</v>
       </c>
       <c r="E4">
-        <v>0.024715023203555404</v>
+        <v>0.025066590458341535</v>
       </c>
       <c r="F4">
-        <v>0.015108128054398149</v>
+        <v>0.014992593086116206</v>
       </c>
       <c r="G4">
-        <v>0.012312860864050383</v>
+        <v>0.012270672551255659</v>
       </c>
       <c r="H4">
-        <v>0.0096387028244262728</v>
+        <v>0.0097181366132456457</v>
       </c>
       <c r="I4">
-        <v>0.010963015504199158</v>
+        <v>0.010962331537414105</v>
       </c>
       <c r="J4">
-        <v>0.011015545564084329</v>
+        <v>0.011107495379269399</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.034191489019290096</v>
+        <v>0.021465249809976474</v>
       </c>
       <c r="M4">
-        <v>0.034080225643193067</v>
+        <v>0.02082648772509401</v>
       </c>
       <c r="N4">
-        <v>0.033465073493624299</v>
+        <v>0.034438395433120404</v>
       </c>
       <c r="O4">
-        <v>0.033240303819254635</v>
+        <v>0.033989721367157714</v>
       </c>
       <c r="P4">
-        <v>0.033207123979858963</v>
+        <v>0.033738724681249416</v>
       </c>
       <c r="Q4">
-        <v>0.033174081217240449</v>
+        <v>0.033680074116912304</v>
       </c>
       <c r="R4">
-        <v>0.03253055507569548</v>
+        <v>0.033929265797054672</v>
       </c>
       <c r="S4">
-        <v>0.033130235883250245</v>
+        <v>0.033518056866726945</v>
       </c>
       <c r="T4">
-        <v>0.033637842537388579</v>
+        <v>0.033292076989929677</v>
       </c>
       <c r="U4">
-        <v>0.032222885353746442</v>
+        <v>0.032890127543951958</v>
       </c>
       <c r="V4">
-        <v>0.032725387847478284</v>
+        <v>0.032629701776973163</v>
       </c>
       <c r="W4">
-        <v>0.032068824933861304</v>
+        <v>0.032670789622323802</v>
       </c>
       <c r="X4">
-        <v>0.03268396225460779</v>
+        <v>0.032774468858214077</v>
       </c>
       <c r="Y4">
-        <v>0.032040285663068636</v>
+        <v>0.032650218514541682</v>
       </c>
       <c r="Z4">
-        <v>0.032011854383014612</v>
+        <v>0.032588830530582036</v>
       </c>
       <c r="AA4">
-        <v>0.032530555085475775</v>
+        <v>0.032447460974108285</v>
       </c>
       <c r="AB4">
-        <v>0.032591553928763659</v>
+        <v>0.031841908216661774</v>
       </c>
       <c r="AC4">
-        <v>0.031464950826118367</v>
+        <v>0.032497652831309752</v>
       </c>
       <c r="AD4">
-        <v>0.031955313225359147</v>
+        <v>0.032230445068074286</v>
       </c>
       <c r="AE4">
-        <v>0.032002401181844747</v>
+        <v>0.031906832753284521</v>
       </c>
       <c r="AF4">
-        <v>0.031678872724357689</v>
+        <v>0.032437461836212426</v>
       </c>
       <c r="AG4">
-        <v>0.032203455375497243</v>
+        <v>0.031768397439370655</v>
       </c>
       <c r="AH4">
-        <v>0.031624803700552595</v>
+        <v>0.03237773931206573</v>
       </c>
       <c r="AI4">
-        <v>0.032400023996348316</v>
+        <v>0.032269445729478007</v>
       </c>
       <c r="AJ4">
-        <v>0.031412436351515083</v>
+        <v>0.032153040509921668</v>
       </c>
       <c r="AK4">
-        <v>0.032746183503052889</v>
+        <v>0.03213381252282977</v>
       </c>
       <c r="AL4">
-        <v>0.031769879015937572</v>
+        <v>0.031888225014320037</v>
       </c>
       <c r="AM4">
-        <v>0.032560994355235635</v>
+        <v>0.031795878580400512</v>
       </c>
       <c r="AN4">
-        <v>0.031248611422469447</v>
+        <v>0.031677525264579613</v>
       </c>
       <c r="AO4">
-        <v>0.03224236523878278</v>
+        <v>0.03169561030226313</v>
       </c>
       <c r="AP4">
-        <v>0.031797400842006544</v>
+        <v>0.031394082140010153</v>
       </c>
       <c r="AQ4">
-        <v>0.031509004497216435</v>
+        <v>0.032240176485815321</v>
       </c>
       <c r="AR4">
-        <v>0.032550834609717534</v>
+        <v>0.031741018078985841</v>
       </c>
       <c r="AS4">
-        <v>0.032155097264163698</v>
+        <v>0.03128202123140774</v>
       </c>
       <c r="AT4">
-        <v>0.032261895177937434</v>
+        <v>0.032019463935570626</v>
       </c>
       <c r="AU4">
-        <v>0.032291284410071362</v>
+        <v>0.031188545372485138</v>
       </c>
       <c r="AV4">
-        <v>0.032174403468462086</v>
+        <v>0.030597644292793328</v>
       </c>
       <c r="AW4">
-        <v>0.031862018373139872</v>
+        <v>0.03166849940207591</v>
       </c>
       <c r="AX4">
-        <v>0.032193759038016516</v>
+        <v>0.031916154107550616</v>
       </c>
       <c r="AY4">
-        <v>0.032320787460655774</v>
+        <v>0.031256406781491171</v>
       </c>
       <c r="AZ4">
-        <v>0.03252043530687649</v>
+        <v>0.032240176497467903</v>
       </c>
       <c r="BA4">
-        <v>0.031815805684130775</v>
+        <v>0.031944188201251514</v>
       </c>
       <c r="BB4">
-        <v>0.031535565078646126</v>
+        <v>0.03173191414470565</v>
       </c>
       <c r="BC4">
-        <v>0.03159791777291731</v>
+        <v>0.032338181739925559</v>
       </c>
       <c r="BD4">
-        <v>0.032642756061802544</v>
+        <v>0.031704669527372505</v>
       </c>
       <c r="BE4">
-        <v>0.031964707185343451</v>
+        <v>0.03154328951146998</v>
       </c>
       <c r="BF4">
-        <v>0.031871295497510485</v>
+        <v>0.031402774680805559</v>
       </c>
       <c r="BG4">
-        <v>0.031633787656610061</v>
+        <v>0.032133812551313742</v>
       </c>
       <c r="BH4">
-        <v>0.031751587852084748</v>
+        <v>0.03142891500493681</v>
       </c>
       <c r="BI4">
-        <v>0.031678872762900392</v>
+        <v>0.03237773934584854</v>
       </c>
       <c r="BJ4">
-        <v>0.032789464889784251</v>
+        <v>0.032114633431863639</v>
       </c>
       <c r="BK4">
-        <v>0.032799384643037707</v>
+        <v>0.032000573940391956</v>
       </c>
       <c r="BL4">
-        <v>0.032460734970639053</v>
+        <v>0.03218677864866016</v>
       </c>
       <c r="BM4">
-        <v>0.03208275641078058</v>
+        <v>0.03263681631219114</v>
       </c>
       <c r="BN4">
-        <v>0.03253687590990359</v>
+        <v>0.032186850414560764</v>
       </c>
       <c r="BO4">
-        <v>0.032131395036995219</v>
+        <v>0.032783272457708186</v>
       </c>
       <c r="BP4">
-        <v>0.033022201700652024</v>
+        <v>0.032783310759564907</v>
       </c>
       <c r="BQ4">
-        <v>0.032166421673503955</v>
+        <v>0.032381952055021118</v>
       </c>
       <c r="BR4">
-        <v>0.032786742363797042</v>
+        <v>0.032593266661939568</v>
       </c>
       <c r="BS4">
-        <v>0.03344296924303606</v>
+        <v>0.033631531141136255</v>
       </c>
       <c r="BT4">
-        <v>0.027280123066347316</v>
+        <v>0.033419470736836265</v>
       </c>
       <c r="BU4">
-        <v>0.024597669385310824</v>
+        <v>0.032531528990611555</v>
       </c>
       <c r="BV4">
-        <v>0.024856565832813024</v>
+        <v>0.027224737691682835</v>
       </c>
       <c r="BW4">
-        <v>0.023989913896768501</v>
+        <v>0.024658370883307745</v>
       </c>
       <c r="BX4">
-        <v>0.024238126917762462</v>
+        <v>0.024480118788221216</v>
       </c>
       <c r="BY4">
-        <v>0.024042661076064051</v>
+        <v>0.024115045109289752</v>
       </c>
       <c r="BZ4">
-        <v>0.023640329800056648</v>
+        <v>0.024003954844212291</v>
       </c>
       <c r="CA4">
-        <v>0.023394302855507688</v>
+        <v>0.024140152998133928</v>
       </c>
       <c r="CB4">
-        <v>0.023384891272153367</v>
+        <v>0.02347538020173244</v>
       </c>
       <c r="CC4">
-        <v>0.023428116350702192</v>
+        <v>0.023624248767560866</v>
       </c>
       <c r="CD4">
-        <v>0.02438406743142096</v>
+        <v>0.023601694596120527</v>
       </c>
       <c r="CE4">
-        <v>0.025316615849684729</v>
+        <v>0.023687910666675461</v>
       </c>
       <c r="CF4">
-        <v>0.025018799301982957</v>
+        <v>0.024447667716663034</v>
       </c>
       <c r="CG4">
-        <v>0.025138690116109374</v>
+        <v>0.025117567601956714</v>
       </c>
       <c r="CH4">
-        <v>0.025381704019619328</v>
+        <v>0.025278451761310199</v>
       </c>
       <c r="CI4">
-        <v>0.025217321590347754</v>
+        <v>0.025244316893214894</v>
       </c>
       <c r="CJ4">
-        <v>0.025445948057772127</v>
+        <v>0.025242991328614805</v>
       </c>
       <c r="CK4">
-        <v>0.025309045125813678</v>
+        <v>0.025351732598980103</v>
       </c>
       <c r="CL4">
-        <v>0.026022249245903885</v>
+        <v>0.025583117250895387</v>
       </c>
       <c r="CM4">
-        <v>0.025723151986194275</v>
+        <v>0.025503550247346313</v>
       </c>
       <c r="CN4">
-        <v>0.025495328833995027</v>
+        <v>0.025960729756946237</v>
       </c>
       <c r="CO4">
-        <v>0.022567126913299342</v>
+        <v>0.026124653550987635</v>
       </c>
       <c r="CP4">
-        <v>0.022617272073836136</v>
+        <v>0.025561291199055279</v>
       </c>
       <c r="CQ4">
-        <v>0.021803946825081542</v>
+        <v>0.022497045520049323</v>
       </c>
       <c r="CR4">
-        <v>0.021968704024674088</v>
+        <v>0.022587351611232018</v>
       </c>
       <c r="CS4">
-        <v>0.021924936427789244</v>
+        <v>0.021885169915374571</v>
       </c>
       <c r="CT4">
-        <v>0.021376762929941229</v>
+        <v>0.021868796577790717</v>
       </c>
       <c r="CU4">
-        <v>0.021324033988103865</v>
+        <v>0.021817751323660595</v>
       </c>
       <c r="CV4">
-        <v>0.021442586206464827</v>
+        <v>0.021513312962342643</v>
       </c>
       <c r="CW4">
-        <v>0.021355237921071035</v>
+        <v>0.021225013231336288</v>
       </c>
       <c r="CX4">
-        <v>0.02137532173560356</v>
+        <v>0.021464113535441944</v>
       </c>
       <c r="CY4">
-        <v>0.021717088370856872</v>
+        <v>0.021548232592842189</v>
       </c>
       <c r="CZ4">
-        <v>0.021477713274839751</v>
+        <v>0.021558964996447084</v>
       </c>
       <c r="DA4">
-        <v>0.021555840399231849</v>
+        <v>0.021560724153334997</v>
       </c>
       <c r="DB4">
-        <v>0.021580417700193411</v>
+        <v>0.02163060061025239</v>
       </c>
       <c r="DC4">
-        <v>0.021682984998777927</v>
+        <v>0.021510777634211924</v>
       </c>
       <c r="DD4">
-        <v>0.021534474707086668</v>
+        <v>0.021611763185001985</v>
       </c>
       <c r="DE4">
-        <v>0.021644340472426599</v>
+        <v>0.021704227143200593</v>
       </c>
       <c r="DF4">
-        <v>0.021777687399560337</v>
+        <v>0.021556741872453294</v>
       </c>
       <c r="DG4">
-        <v>0.021682137743861223</v>
+        <v>0.021809443447890504</v>
       </c>
       <c r="DH4">
-        <v>0.021690088700549108</v>
+        <v>0.021868105072909521</v>
       </c>
       <c r="DI4">
-        <v>0.020870669534615471</v>
+        <v>0.021740877730187579</v>
       </c>
       <c r="DJ4">
-        <v>0.02090514579394458</v>
+        <v>0.021812757799621971</v>
       </c>
       <c r="DK4">
-        <v>0.020840036082545851</v>
+        <v>0.020828164185242821</v>
       </c>
       <c r="DL4">
-        <v>0.020833278778318205</v>
+        <v>0.020951724410185366</v>
       </c>
       <c r="DM4">
-        <v>0.02091732347837881</v>
+        <v>0.020944700688156036</v>
       </c>
       <c r="DN4">
-        <v>0.020826539589021111</v>
+        <v>0.020925483909176722</v>
       </c>
       <c r="DO4">
-        <v>0.020853605498991932</v>
+        <v>0.021090779616045083</v>
       </c>
       <c r="DP4">
-        <v>0.020957747217495479</v>
+        <v>0.020939445596819508</v>
       </c>
       <c r="DQ4">
-        <v>0.020998813897233785</v>
+        <v>0.020958767695002416</v>
       </c>
       <c r="DR4">
-        <v>0.020970177081798404</v>
+        <v>0.021030273913693241</v>
       </c>
       <c r="DS4">
-        <v>0.021220224167849685</v>
+        <v>0.021113131513548513</v>
       </c>
       <c r="DT4">
-        <v>0.021009634791446075</v>
+        <v>0.021196734464393182</v>
       </c>
       <c r="DU4">
-        <v>0.021204618816636905</v>
+        <v>0.021083371233861375</v>
       </c>
       <c r="DV4">
-        <v>0.021133598285982921</v>
+        <v>0.021053943382689941</v>
       </c>
       <c r="DW4">
-        <v>0.021187169973431532</v>
+        <v>0.021059436107513294</v>
       </c>
       <c r="DX4">
-        <v>0.02124775223794205</v>
+        <v>0.021115002983512099</v>
       </c>
       <c r="DY4">
-        <v>0.021105335593338562</v>
+        <v>0.02116031178723813</v>
       </c>
       <c r="DZ4">
-        <v>0.021271571473816375</v>
+        <v>0.02135980348923628</v>
       </c>
       <c r="EA4">
-        <v>0.021362783008625524</v>
+        <v>0.021363904621549516</v>
       </c>
       <c r="EB4">
-        <v>0.021263608729083675</v>
+        <v>0.021263168402897464</v>
       </c>
       <c r="EC4">
-        <v>0.021239858902738662</v>
+        <v>0.021243459321364774</v>
       </c>
       <c r="ED4">
-        <v>0.021279557841077674</v>
+        <v>0.021301013569331978</v>
       </c>
       <c r="EE4">
-        <v>0.021315786495805983</v>
+        <v>0.02126514737275589</v>
       </c>
       <c r="EF4">
-        <v>0.021301640762724859</v>
+        <v>0.021291003484527688</v>
       </c>
       <c r="EG4">
-        <v>0.021356607862479001</v>
+        <v>0.02139693385654589</v>
       </c>
       <c r="EH4">
-        <v>0.021354552479243089</v>
+        <v>0.021355708922436982</v>
       </c>
       <c r="EI4">
-        <v>0.021482789899473886</v>
+        <v>0.021464189079825911</v>
       </c>
       <c r="EJ4">
-        <v>0.021493565146909529</v>
+        <v>0.021507055596109916</v>
       </c>
       <c r="EK4">
-        <v>0.021599133224566934</v>
+        <v>0.021599235575305409</v>
       </c>
       <c r="EL4">
-        <v>0.021596893858756083</v>
+        <v>0.021430359704444679</v>
       </c>
       <c r="EM4">
-        <v>0.021617111474173081</v>
+        <v>0.021457815151573138</v>
       </c>
       <c r="EN4">
-        <v>0.021583493846974781</v>
+        <v>0.021485541294503575</v>
       </c>
       <c r="EO4">
-        <v>0.021612606561411285</v>
+        <v>0.021554969569049221</v>
       </c>
       <c r="EP4">
-        <v>0.02166713407078142</v>
+        <v>0.021432462374793688</v>
       </c>
       <c r="EQ4">
-        <v>0.021567938978058414</v>
+        <v>0.021459938502537964</v>
       </c>
       <c r="ER4">
-        <v>0.021637471512462019</v>
+        <v>0.021682963109637198</v>
       </c>
       <c r="ES4">
-        <v>0.02178171753518145</v>
+        <v>0.021594778573628688</v>
       </c>
       <c r="ET4">
-        <v>0.021644290075692241</v>
+        <v>0.021626126558951877</v>
       </c>
       <c r="EU4">
-        <v>0.021603617862181648</v>
+        <v>0.021664654357885522</v>
       </c>
       <c r="EV4">
-        <v>0.021908346945840412</v>
+        <v>0.0218361081926336</v>
       </c>
       <c r="EW4">
-        <v>0.021720363733463803</v>
+        <v>0.02157480534844642</v>
       </c>
       <c r="EX4">
-        <v>0.022106101110319205</v>
+        <v>0.021597006739907502</v>
       </c>
       <c r="EY4">
-        <v>0.021859009977116577</v>
+        <v>0.021992421220919926</v>
       </c>
       <c r="EZ4">
-        <v>0.021746166209853174</v>
+        <v>0.021875047393095794</v>
       </c>
       <c r="FA4">
-        <v>0.021905861163479416</v>
+        <v>0.021894707710904696</v>
       </c>
       <c r="FB4">
-        <v>0.021905861222059335</v>
+        <v>0.021907060797444641</v>
       </c>
       <c r="FC4">
-        <v>0.021895937361828009</v>
+        <v>0.021924440275868651</v>
       </c>
       <c r="FD4">
-        <v>0.021822530801329464</v>
+        <v>0.022023127200975129</v>
       </c>
       <c r="FE4">
-        <v>0.021841931379629732</v>
+        <v>0.021899643095698449</v>
       </c>
       <c r="FF4">
-        <v>0.022124721449039788</v>
+        <v>0.021951953691038879</v>
       </c>
       <c r="FG4">
-        <v>0.022090229522926483</v>
+        <v>0.021838527760677056</v>
       </c>
       <c r="FH4">
-        <v>0.022140769997838431</v>
+        <v>0.022194949570324179</v>
       </c>
       <c r="FI4">
-        <v>0.022181253059393419</v>
+        <v>0.022197668045245072</v>
       </c>
       <c r="FJ4">
-        <v>0.02229461766809189</v>
+        <v>0.021967066639494263</v>
       </c>
       <c r="FK4">
-        <v>0.022124721738053722</v>
+        <v>0.022119771532065131</v>
       </c>
       <c r="FL4">
-        <v>0.022371521713776897</v>
+        <v>0.022238727002934479</v>
       </c>
       <c r="FM4">
-        <v>0.02217853819833944</v>
+        <v>0.022023127732422928</v>
       </c>
       <c r="FN4">
-        <v>0.022423822357852365</v>
+        <v>0.022098619439818303</v>
       </c>
       <c r="FO4">
-        <v>0</v>
+        <v>0.022511696479198696</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.015701867985782273</v>
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.015717375942081651</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3200,6 +3233,12 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -3710,12 +3749,18 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="FP2" t="s">
         <v>172</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3724,520 +3769,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.38812123828668138</v>
+        <v>0.37529169829509063</v>
       </c>
       <c r="C3">
-        <v>-0.29342845156428832</v>
+        <v>-0.2956040974791655</v>
       </c>
       <c r="D3">
-        <v>-0.30262167582904453</v>
+        <v>-0.28993627426109869</v>
       </c>
       <c r="E3">
-        <v>-0.30716183597960633</v>
+        <v>-0.32033143256123542</v>
       </c>
       <c r="F3">
-        <v>0.28375814319142695</v>
+        <v>0.28186512410901043</v>
       </c>
       <c r="G3">
-        <v>0.28335133098330678</v>
+        <v>0.27883078222207125</v>
       </c>
       <c r="H3">
-        <v>0.26063050926593545</v>
+        <v>0.26679135034744139</v>
       </c>
       <c r="I3">
-        <v>0.16505474655385649</v>
+        <v>0.16255935689662809</v>
       </c>
       <c r="J3">
-        <v>0.17506495446036768</v>
+        <v>0.16677202707043487</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.91831656648244753</v>
+        <v>0.533132854075544</v>
       </c>
       <c r="M3">
-        <v>-0.87239306493820545</v>
+        <v>0.6701521767280243</v>
       </c>
       <c r="N3">
-        <v>-0.84475236622646088</v>
+        <v>-0.88578464454858252</v>
       </c>
       <c r="O3">
-        <v>-0.88148162744718939</v>
+        <v>-0.90415906380571154</v>
       </c>
       <c r="P3">
-        <v>-0.86056762471226467</v>
+        <v>-0.8543985367087048</v>
       </c>
       <c r="Q3">
-        <v>-0.83239055774549409</v>
+        <v>-0.88258406149972624</v>
       </c>
       <c r="R3">
-        <v>-0.83891623033248397</v>
+        <v>-0.86053187631720984</v>
       </c>
       <c r="S3">
-        <v>-0.81015914535363875</v>
+        <v>-0.87596784288603446</v>
       </c>
       <c r="T3">
-        <v>-0.84442461597143648</v>
+        <v>-0.84869009534900131</v>
       </c>
       <c r="U3">
-        <v>-0.77802610589067489</v>
+        <v>-0.84066716644363482</v>
       </c>
       <c r="V3">
-        <v>-0.771590902236309</v>
+        <v>-0.7889170211011266</v>
       </c>
       <c r="W3">
-        <v>-0.77627162400708871</v>
+        <v>-0.84374988850663224</v>
       </c>
       <c r="X3">
-        <v>-0.78763940866577664</v>
+        <v>-0.77742124128333656</v>
       </c>
       <c r="Y3">
-        <v>-0.72259644587270544</v>
+        <v>-0.75988928312875892</v>
       </c>
       <c r="Z3">
-        <v>-0.71161263725349011</v>
+        <v>-0.78928173464850993</v>
       </c>
       <c r="AA3">
-        <v>-0.75330810625299149</v>
+        <v>-0.7043791364434776</v>
       </c>
       <c r="AB3">
-        <v>-0.7344046639760855</v>
+        <v>-0.74772244190752712</v>
       </c>
       <c r="AC3">
-        <v>-0.69255832907936021</v>
+        <v>-0.72541284372238413</v>
       </c>
       <c r="AD3">
-        <v>-0.71591911203921088</v>
+        <v>-0.74806082282971453</v>
       </c>
       <c r="AE3">
-        <v>-0.69009139078113479</v>
+        <v>-0.69477852119009809</v>
       </c>
       <c r="AF3">
-        <v>-0.6886772991285427</v>
+        <v>-0.70637851270396768</v>
       </c>
       <c r="AG3">
-        <v>-0.72632436284923185</v>
+        <v>-0.69478218990820773</v>
       </c>
       <c r="AH3">
-        <v>-0.73172664247731478</v>
+        <v>-0.73885252661674827</v>
       </c>
       <c r="AI3">
-        <v>-0.70192308611213605</v>
+        <v>-0.71204632964212378</v>
       </c>
       <c r="AJ3">
-        <v>-0.66283562642199678</v>
+        <v>-0.68640596493266204</v>
       </c>
       <c r="AK3">
-        <v>-0.72891327616901491</v>
+        <v>-0.673056719647664</v>
       </c>
       <c r="AL3">
-        <v>-0.68594673970493825</v>
+        <v>-0.67527044327165187</v>
       </c>
       <c r="AM3">
-        <v>-0.7278319209506684</v>
+        <v>-0.66682355561395812</v>
       </c>
       <c r="AN3">
-        <v>-0.63662908827739162</v>
+        <v>-0.67115203285929237</v>
       </c>
       <c r="AO3">
-        <v>-0.6773523470205316</v>
+        <v>-0.64882652290003096</v>
       </c>
       <c r="AP3">
-        <v>-0.61399431602884691</v>
+        <v>-0.65514082890822101</v>
       </c>
       <c r="AQ3">
-        <v>-0.63855934449106533</v>
+        <v>-0.69876822543564687</v>
       </c>
       <c r="AR3">
-        <v>-0.68651865280260005</v>
+        <v>-0.70374323319196463</v>
       </c>
       <c r="AS3">
-        <v>-0.67606369157890456</v>
+        <v>-0.64183130272722222</v>
       </c>
       <c r="AT3">
-        <v>-0.66473388800677347</v>
+        <v>-0.64181185922581663</v>
       </c>
       <c r="AU3">
-        <v>-0.6416438216013538</v>
+        <v>-0.63669161802466423</v>
       </c>
       <c r="AV3">
-        <v>-0.64465258741403775</v>
+        <v>-0.65666899394865363</v>
       </c>
       <c r="AW3">
-        <v>-0.64891279173898142</v>
+        <v>-0.65396768721228993</v>
       </c>
       <c r="AX3">
-        <v>-0.67023997039890681</v>
+        <v>-0.60289920189065638</v>
       </c>
       <c r="AY3">
-        <v>-0.69697883541696748</v>
+        <v>-0.66913683569314442</v>
       </c>
       <c r="AZ3">
-        <v>-0.65344729456392492</v>
+        <v>-0.67553447513189457</v>
       </c>
       <c r="BA3">
-        <v>-0.66249890084679552</v>
+        <v>-0.65756252142107019</v>
       </c>
       <c r="BB3">
-        <v>-0.63823067119235932</v>
+        <v>-0.62707672788221347</v>
       </c>
       <c r="BC3">
-        <v>-0.64774369220667594</v>
+        <v>-0.67050516497860413</v>
       </c>
       <c r="BD3">
-        <v>-0.68300589834480741</v>
+        <v>-0.6304197878443456</v>
       </c>
       <c r="BE3">
-        <v>-0.6650903680613004</v>
+        <v>-0.638029828968395</v>
       </c>
       <c r="BF3">
-        <v>-0.64397994176173956</v>
+        <v>-0.62554017803618178</v>
       </c>
       <c r="BG3">
-        <v>-0.64588361298779529</v>
+        <v>-0.66580508636969038</v>
       </c>
       <c r="BH3">
-        <v>-0.63296296963837118</v>
+        <v>-0.6237432231969382</v>
       </c>
       <c r="BI3">
-        <v>-0.61649180694296557</v>
+        <v>-0.66410957314351837</v>
       </c>
       <c r="BJ3">
-        <v>-0.49712895185470629</v>
+        <v>-0.62713726529167302</v>
       </c>
       <c r="BK3">
-        <v>-0.5052429929636072</v>
+        <v>-0.61039308084133304</v>
       </c>
       <c r="BL3">
-        <v>-0.45522748075510955</v>
+        <v>-0.51946777108242315</v>
       </c>
       <c r="BM3">
-        <v>-0.490008004667363</v>
+        <v>-0.50037614526354246</v>
       </c>
       <c r="BN3">
-        <v>-0.47007647408593889</v>
+        <v>-0.50608260533643001</v>
       </c>
       <c r="BO3">
-        <v>-0.48658805702985275</v>
+        <v>-0.50837511082101172</v>
       </c>
       <c r="BP3">
-        <v>-0.52888617823720063</v>
+        <v>-0.52540678356097559</v>
       </c>
       <c r="BQ3">
-        <v>-0.48733959268876115</v>
+        <v>-0.49098188019069117</v>
       </c>
       <c r="BR3">
-        <v>-0.48978477938426074</v>
+        <v>-0.50545921665275062</v>
       </c>
       <c r="BS3">
-        <v>-0.51794092329152586</v>
+        <v>-0.49389045095092465</v>
       </c>
       <c r="BT3">
-        <v>-0.49819211030495653</v>
+        <v>-0.5201447136851326</v>
       </c>
       <c r="BU3">
-        <v>-0.3967497001614147</v>
+        <v>-0.4708511221061642</v>
       </c>
       <c r="BV3">
-        <v>-0.43918534567766276</v>
+        <v>-0.47520093464952845</v>
       </c>
       <c r="BW3">
-        <v>-0.39624890020710291</v>
+        <v>-0.38824353012898166</v>
       </c>
       <c r="BX3">
-        <v>-0.43044925595361627</v>
+        <v>-0.36990277630381418</v>
       </c>
       <c r="BY3">
-        <v>-0.40121100293983691</v>
+        <v>-0.4111583867583587</v>
       </c>
       <c r="BZ3">
-        <v>-0.39735275051426722</v>
+        <v>-0.38918238033157687</v>
       </c>
       <c r="CA3">
-        <v>-0.36625860370615576</v>
+        <v>-0.38263620398431886</v>
       </c>
       <c r="CB3">
-        <v>-0.35542034677750212</v>
+        <v>-0.36787630070889599</v>
       </c>
       <c r="CC3">
-        <v>-0.35479877523261061</v>
+        <v>-0.38878957900099809</v>
       </c>
       <c r="CD3">
-        <v>-0.24838228111846952</v>
+        <v>-0.38177835104954333</v>
       </c>
       <c r="CE3">
-        <v>-0.20981419176560667</v>
+        <v>-0.39277400822359909</v>
       </c>
       <c r="CF3">
-        <v>-0.18905362946627657</v>
+        <v>-0.2573654162629086</v>
       </c>
       <c r="CG3">
-        <v>-0.19478102196610794</v>
+        <v>-0.20018907029086347</v>
       </c>
       <c r="CH3">
-        <v>-0.24046301810562204</v>
+        <v>-0.21348634604689321</v>
       </c>
       <c r="CI3">
-        <v>-0.21329730811693051</v>
+        <v>-0.20654311443939719</v>
       </c>
       <c r="CJ3">
-        <v>-0.23830744239567028</v>
+        <v>-0.21102384258422913</v>
       </c>
       <c r="CK3">
-        <v>-0.21687454606858483</v>
+        <v>-0.24986580925971152</v>
       </c>
       <c r="CL3">
-        <v>-0.25138262553965007</v>
+        <v>-0.22991537901185116</v>
       </c>
       <c r="CM3">
-        <v>-0.19046391129501686</v>
+        <v>-0.21834857793819587</v>
       </c>
       <c r="CN3">
-        <v>-0.22676785008113576</v>
+        <v>-0.20814390424983115</v>
       </c>
       <c r="CO3">
-        <v>-0.12339455413091961</v>
+        <v>-0.23552598258310303</v>
       </c>
       <c r="CP3">
-        <v>-0.13220798216697993</v>
+        <v>-0.22655181354277398</v>
       </c>
       <c r="CQ3">
-        <v>-0.09111629804330984</v>
+        <v>-0.10283651934112005</v>
       </c>
       <c r="CR3">
-        <v>-0.12850679453722902</v>
+        <v>-0.12218537124909583</v>
       </c>
       <c r="CS3">
-        <v>-0.11343055111956522</v>
+        <v>-0.10514163936007891</v>
       </c>
       <c r="CT3">
-        <v>-0.099142821549228335</v>
+        <v>-0.096772388689222527</v>
       </c>
       <c r="CU3">
-        <v>-0.081998825580324244</v>
+        <v>-0.079476666616984923</v>
       </c>
       <c r="CV3">
-        <v>-0.10661293176761064</v>
+        <v>-0.12479390860071597</v>
       </c>
       <c r="CW3">
-        <v>-0.081211044487739081</v>
+        <v>-0.049651469228226261</v>
       </c>
       <c r="CX3">
-        <v>-0.081838562844681925</v>
+        <v>-0.10442865000359416</v>
       </c>
       <c r="CY3">
-        <v>-0.096127632978309438</v>
+        <v>-0.12041243878432352</v>
       </c>
       <c r="CZ3">
-        <v>-0.035582177419010735</v>
+        <v>-0.11884106363482952</v>
       </c>
       <c r="DA3">
-        <v>-0.050066519607645153</v>
+        <v>-0.05483924267500067</v>
       </c>
       <c r="DB3">
-        <v>-0.051710536097531221</v>
+        <v>-0.067199860480781803</v>
       </c>
       <c r="DC3">
-        <v>-0.07159193592138266</v>
+        <v>-0.03464085659289156</v>
       </c>
       <c r="DD3">
-        <v>-0.030003755091283578</v>
+        <v>-0.054426974370075695</v>
       </c>
       <c r="DE3">
-        <v>-0.051893977026258337</v>
+        <v>-0.071869558047268398</v>
       </c>
       <c r="DF3">
-        <v>-0.07875205853881477</v>
+        <v>-0.022284355849003568</v>
       </c>
       <c r="DG3">
-        <v>-0.052474296201664078</v>
+        <v>-0.077501103128446075</v>
       </c>
       <c r="DH3">
-        <v>-0.050129752472031143</v>
+        <v>-0.08685013777227954</v>
       </c>
       <c r="DI3">
-        <v>0.028538650274337982</v>
+        <v>-0.053528111177647004</v>
       </c>
       <c r="DJ3">
-        <v>0.025094785921237019</v>
+        <v>-0.065991139164109897</v>
       </c>
       <c r="DK3">
-        <v>0.043645079684144619</v>
+        <v>0.04311594612466272</v>
       </c>
       <c r="DL3">
-        <v>0.049374783867778035</v>
+        <v>0.020005422286023943</v>
       </c>
       <c r="DM3">
-        <v>0.035041941232768194</v>
+        <v>0.025656918569538292</v>
       </c>
       <c r="DN3">
-        <v>0.059316070624717859</v>
+        <v>0.034010342670130339</v>
       </c>
       <c r="DO3">
-        <v>0.057587354043625347</v>
+        <v>0.002363137911331531</v>
       </c>
       <c r="DP3">
-        <v>0.038965661465682741</v>
+        <v>0.039160161833591507</v>
       </c>
       <c r="DQ3">
-        <v>0.034250059933553699</v>
+        <v>0.039124800737076915</v>
       </c>
       <c r="DR3">
-        <v>0.044650680650420882</v>
+        <v>0.027787840214642298</v>
       </c>
       <c r="DS3">
-        <v>-0.0043953903172754142</v>
+        <v>0.014170024246150088</v>
       </c>
       <c r="DT3">
-        <v>0.044352721959032136</v>
+        <v>0.00058135063290247154</v>
       </c>
       <c r="DU3">
-        <v>0.0071210734535505872</v>
+        <v>0.028647143512631597</v>
       </c>
       <c r="DV3">
-        <v>0.026142134148255527</v>
+        <v>0.039109310284745957</v>
       </c>
       <c r="DW3">
-        <v>0.019003179742644601</v>
+        <v>0.042122256835218364</v>
       </c>
       <c r="DX3">
-        <v>0.010474858553455049</v>
+        <v>0.03444572504394134</v>
       </c>
       <c r="DY3">
-        <v>0.044501560059304543</v>
+        <v>0.029011132655416799</v>
       </c>
       <c r="DZ3">
-        <v>0.013850943988998528</v>
+        <v>-0.008312892455980294</v>
       </c>
       <c r="EA3">
-        <v>-0.00079358077673126037</v>
+        <v>-0.0051528433275547314</v>
       </c>
       <c r="EB3">
-        <v>0.023643419585648664</v>
+        <v>0.019622712164167826</v>
       </c>
       <c r="EC3">
-        <v>0.032717478608254108</v>
+        <v>0.027836927310140737</v>
       </c>
       <c r="ED3">
-        <v>0.028662905452510656</v>
+        <v>0.02004155814865248</v>
       </c>
       <c r="EE3">
-        <v>0.025356559407671272</v>
+        <v>0.031584605737878774</v>
       </c>
       <c r="EF3">
-        <v>0.032416629264920137</v>
+        <v>0.030386769332838473</v>
       </c>
       <c r="EG3">
-        <v>0.02531900970045509</v>
+        <v>0.012813457307209491</v>
       </c>
       <c r="EH3">
-        <v>0.029887594175600874</v>
+        <v>0.025311544701968225</v>
       </c>
       <c r="EI3">
-        <v>0.0081145896745399501</v>
+        <v>0.0074234573057106092</v>
       </c>
       <c r="EJ3">
-        <v>0.010036043558875649</v>
+        <v>0.0028847473245908056</v>
       </c>
       <c r="EK3">
-        <v>-0.0068182912738701104</v>
+        <v>-0.011377281743768689</v>
       </c>
       <c r="EL3">
-        <v>-0.0023603380535268757</v>
+        <v>0.026345241021124486</v>
       </c>
       <c r="EM3">
-        <v>-0.0022987855724444866</v>
+        <v>0.024940887951171574</v>
       </c>
       <c r="EN3">
-        <v>0.0083507559214036301</v>
+        <v>0.023499879578480092</v>
       </c>
       <c r="EO3">
-        <v>0.0066997605192631775</v>
+        <v>0.013770771685693406</v>
       </c>
       <c r="EP3">
-        <v>0.0001070184915064972</v>
+        <v>0.042411573420880533</v>
       </c>
       <c r="EQ3">
-        <v>0.023618679547141534</v>
+        <v>0.041071869448461973</v>
       </c>
       <c r="ER3">
-        <v>0.014084557691635941</v>
+        <v>0.0010996532799897459</v>
       </c>
       <c r="ES3">
-        <v>-0.009736728447727978</v>
+        <v>0.022424939308549677</v>
       </c>
       <c r="ET3">
-        <v>0.020859096294602836</v>
+        <v>0.020376936585708653</v>
       </c>
       <c r="EU3">
-        <v>0.032963442455924037</v>
+        <v>0.016946484089978897</v>
       </c>
       <c r="EV3">
-        <v>-0.021455395883502093</v>
+        <v>-0.012016242860586588</v>
       </c>
       <c r="EW3">
-        <v>0.018342876460769257</v>
+        <v>0.042698356331223472</v>
       </c>
       <c r="EX3">
-        <v>-0.050058604312710323</v>
+        <v>0.042519461402221903</v>
       </c>
       <c r="EY3">
-        <v>-0.00021757921525271677</v>
+        <v>-0.029054450821123345</v>
       </c>
       <c r="EZ3">
-        <v>0.025376605512232357</v>
+        <v>-0.0030946161431174742</v>
       </c>
       <c r="FA3">
-        <v>-0.00086986654907906798</v>
+        <v>-0.0027928023114748958</v>
       </c>
       <c r="FB3">
-        <v>0.0031713654457971737</v>
+        <v>-0.0011025344659273606</v>
       </c>
       <c r="FC3">
-        <v>0.009097597453630462</v>
+        <v>-0.00034691815423369731</v>
       </c>
       <c r="FD3">
-        <v>0.027084273269464349</v>
+        <v>-0.014745233173125486</v>
       </c>
       <c r="FE3">
-        <v>0.02755109380837166</v>
+        <v>0.01232888221184323</v>
       </c>
       <c r="FF3">
-        <v>-0.020929276041277485</v>
+        <v>0.0065758918634162902</v>
       </c>
       <c r="FG3">
-        <v>-0.010658964107839022</v>
+        <v>0.032055175551339514</v>
       </c>
       <c r="FH3">
-        <v>-0.015892251112587855</v>
+        <v>-0.029955921408709434</v>
       </c>
       <c r="FI3">
-        <v>-0.019262782775857325</v>
+        <v>-0.026535053384573019</v>
       </c>
       <c r="FJ3">
-        <v>-0.035668365802584936</v>
+        <v>0.019811040764785876</v>
       </c>
       <c r="FK3">
-        <v>-0.0011153402548301403</v>
+        <v>-0.0043174479224780309</v>
       </c>
       <c r="FL3">
-        <v>-0.041371590167804256</v>
+        <v>-0.021893781152273681</v>
       </c>
       <c r="FM3">
-        <v>-0.0029797246380244883</v>
+        <v>0.021446337616011404</v>
       </c>
       <c r="FN3">
-        <v>-0.04266025993636597</v>
+        <v>0.0116386496777236</v>
       </c>
       <c r="FO3">
-        <v>0</v>
+        <v>-0.058015251319648055</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-5.5123571141976857</v>
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-5.5154236019226133</v>
       </c>
     </row>
     <row r="4">
@@ -4245,520 +4296,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.020662220247536858</v>
+        <v>0.020662221872950921</v>
       </c>
       <c r="C4">
-        <v>0.011376807568280247</v>
+        <v>0.011490882607003003</v>
       </c>
       <c r="D4">
-        <v>0.014251688866754883</v>
+        <v>0.014260807098068517</v>
       </c>
       <c r="E4">
-        <v>0.017670747601171037</v>
+        <v>0.017746788122354591</v>
       </c>
       <c r="F4">
-        <v>0.014098170764534483</v>
+        <v>0.013944617786986089</v>
       </c>
       <c r="G4">
-        <v>0.01148839668948857</v>
+        <v>0.011424998600117099</v>
       </c>
       <c r="H4">
-        <v>0.0089496262129897929</v>
+        <v>0.0090124903040400724</v>
       </c>
       <c r="I4">
-        <v>0.010052612268931446</v>
+        <v>0.010080641913445971</v>
       </c>
       <c r="J4">
-        <v>0.010268825220739354</v>
+        <v>0.010324471498482942</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.024851685102725875</v>
+        <v>0.018253321031347792</v>
       </c>
       <c r="M4">
-        <v>0.024526237336310951</v>
+        <v>0.017964071975721144</v>
       </c>
       <c r="N4">
-        <v>0.024340292053373423</v>
+        <v>0.024645412343295366</v>
       </c>
       <c r="O4">
-        <v>0.024617115437179187</v>
+        <v>0.024792802315632679</v>
       </c>
       <c r="P4">
-        <v>0.024477705218534502</v>
+        <v>0.024442205630782411</v>
       </c>
       <c r="Q4">
-        <v>0.024288996271692155</v>
+        <v>0.024658605398865625</v>
       </c>
       <c r="R4">
-        <v>0.024347672042126588</v>
+        <v>0.024510566356911841</v>
       </c>
       <c r="S4">
-        <v>0.024157597784466182</v>
+        <v>0.024634887058691782</v>
       </c>
       <c r="T4">
-        <v>0.024412184573887989</v>
+        <v>0.024449746717836156</v>
       </c>
       <c r="U4">
-        <v>0.023960288551530536</v>
+        <v>0.024404702354623654</v>
       </c>
       <c r="V4">
-        <v>0.023929067449285968</v>
+        <v>0.024054126165940111</v>
       </c>
       <c r="W4">
-        <v>0.023973744315778606</v>
+        <v>0.024452263434690046</v>
       </c>
       <c r="X4">
-        <v>0.024064623783435112</v>
+        <v>0.023999653511929606</v>
       </c>
       <c r="Y4">
-        <v>0.023638021571470529</v>
+        <v>0.023892890134921747</v>
       </c>
       <c r="Z4">
-        <v>0.023578691652829793</v>
+        <v>0.024107030710601458</v>
       </c>
       <c r="AA4">
-        <v>0.023869540445496731</v>
+        <v>0.023548653527900344</v>
       </c>
       <c r="AB4">
-        <v>0.023755245871322071</v>
+        <v>0.023849241614423082</v>
       </c>
       <c r="AC4">
-        <v>0.023492387564204333</v>
+        <v>0.023712750118877482</v>
       </c>
       <c r="AD4">
-        <v>0.023658695065713959</v>
+        <v>0.023877558108719343</v>
       </c>
       <c r="AE4">
-        <v>0.023502322443593699</v>
+        <v>0.023536626367168662</v>
       </c>
       <c r="AF4">
-        <v>0.023506303730459803</v>
+        <v>0.023625722774691525</v>
       </c>
       <c r="AG4">
-        <v>0.023768018538677205</v>
+        <v>0.023562733712296592</v>
       </c>
       <c r="AH4">
-        <v>0.023817371145146472</v>
+        <v>0.023868823659209781</v>
       </c>
       <c r="AI4">
-        <v>0.023631841260459988</v>
+        <v>0.023702286032857327</v>
       </c>
       <c r="AJ4">
-        <v>0.023390593231310521</v>
+        <v>0.023546646419063219</v>
       </c>
       <c r="AK4">
-        <v>0.023839024344005592</v>
+        <v>0.023473120394147666</v>
       </c>
       <c r="AL4">
-        <v>0.023566530871624206</v>
+        <v>0.023500772721123366</v>
       </c>
       <c r="AM4">
-        <v>0.023858614742934891</v>
+        <v>0.02345937019949073</v>
       </c>
       <c r="AN4">
-        <v>0.023274624733734074</v>
+        <v>0.023500772739905459</v>
       </c>
       <c r="AO4">
-        <v>0.023550376616059115</v>
+        <v>0.023370248875132244</v>
       </c>
       <c r="AP4">
-        <v>0.023158580576672215</v>
+        <v>0.023424242602602428</v>
       </c>
       <c r="AQ4">
-        <v>0.023327404882363817</v>
+        <v>0.023723242780659733</v>
       </c>
       <c r="AR4">
-        <v>0.023652481471637843</v>
+        <v>0.023769750427349502</v>
       </c>
       <c r="AS4">
-        <v>0.023597006209912764</v>
+        <v>0.023377914449270107</v>
       </c>
       <c r="AT4">
-        <v>0.023536297811137259</v>
+        <v>0.023391367354808051</v>
       </c>
       <c r="AU4">
-        <v>0.023400261779436556</v>
+        <v>0.023372163833607129</v>
       </c>
       <c r="AV4">
-        <v>0.023433323115410878</v>
+        <v>0.02351467549602481</v>
       </c>
       <c r="AW4">
-        <v>0.023474570716395783</v>
+        <v>0.023510698079821153</v>
       </c>
       <c r="AX4">
-        <v>0.023627726663267526</v>
+        <v>0.023198207674105995</v>
       </c>
       <c r="AY4">
-        <v>0.023819531247516665</v>
+        <v>0.023638035347755632</v>
       </c>
       <c r="AZ4">
-        <v>0.023544336532292223</v>
+        <v>0.023693935252889313</v>
       </c>
       <c r="BA4">
-        <v>0.023617459133579564</v>
+        <v>0.023589022005732898</v>
       </c>
       <c r="BB4">
-        <v>0.023472596290553385</v>
+        <v>0.023404869194395925</v>
       </c>
       <c r="BC4">
-        <v>0.023548362289228696</v>
+        <v>0.023702286219729415</v>
       </c>
       <c r="BD4">
-        <v>0.023795837106899288</v>
+        <v>0.023453492819569474</v>
       </c>
       <c r="BE4">
-        <v>0.023689915185181647</v>
+        <v>0.023516665873247283</v>
       </c>
       <c r="BF4">
-        <v>0.023564508025071325</v>
+        <v>0.023449579591385699</v>
       </c>
       <c r="BG4">
-        <v>0.023590891780866052</v>
+        <v>0.02372744793033971</v>
       </c>
       <c r="BH4">
-        <v>0.023520271600155997</v>
+        <v>0.023465257189612777</v>
       </c>
       <c r="BI4">
-        <v>0.023427467608855206</v>
+        <v>0.02374431372098092</v>
       </c>
       <c r="BJ4">
-        <v>0.024087129204778734</v>
+        <v>0.02351467563965012</v>
       </c>
       <c r="BK4">
-        <v>0.024153123912197687</v>
+        <v>0.023420360052612742</v>
       </c>
       <c r="BL4">
-        <v>0.023849427341070119</v>
+        <v>0.024278184203864208</v>
       </c>
       <c r="BM4">
-        <v>0.024083254208338897</v>
+        <v>0.024167907844673313</v>
       </c>
       <c r="BN4">
-        <v>0.023970304283879845</v>
+        <v>0.024218622262440148</v>
       </c>
       <c r="BO4">
-        <v>0.024397051071348836</v>
+        <v>0.024247385680664417</v>
       </c>
       <c r="BP4">
-        <v>0.024684173678832012</v>
+        <v>0.024372867791879999</v>
       </c>
       <c r="BQ4">
-        <v>0.024428912067251927</v>
+        <v>0.024430835582143238</v>
       </c>
       <c r="BR4">
-        <v>0.02488311365937625</v>
+        <v>0.024537213635620041</v>
       </c>
       <c r="BS4">
-        <v>0.025076297887159191</v>
+        <v>0.02447669110413718</v>
       </c>
       <c r="BT4">
-        <v>0.024990526222655803</v>
+        <v>0.025134511400881361</v>
       </c>
       <c r="BU4">
-        <v>0.022955700125501778</v>
+        <v>0.024833744943657126</v>
       </c>
       <c r="BV4">
-        <v>0.023169763059340778</v>
+        <v>0.024914185054817805</v>
       </c>
       <c r="BW4">
-        <v>0.022487715081789806</v>
+        <v>0.022912312115180727</v>
       </c>
       <c r="BX4">
-        <v>0.022667784792291756</v>
+        <v>0.022840744855722388</v>
       </c>
       <c r="BY4">
-        <v>0.022539495640565774</v>
+        <v>0.022584213921157687</v>
       </c>
       <c r="BZ4">
-        <v>0.022201049663622723</v>
+        <v>0.022492375647234612</v>
       </c>
       <c r="CA4">
-        <v>0.022063695298883319</v>
+        <v>0.022475317067285852</v>
       </c>
       <c r="CB4">
-        <v>0.022026517635210203</v>
+        <v>0.022078761151804117</v>
       </c>
       <c r="CC4">
-        <v>0.022038842376882386</v>
+        <v>0.02219613446362885</v>
       </c>
       <c r="CD4">
-        <v>0.022738962275822488</v>
+        <v>0.022176789269458708</v>
       </c>
       <c r="CE4">
-        <v>0.023394833149044236</v>
+        <v>0.022246416280351556</v>
       </c>
       <c r="CF4">
-        <v>0.02331335865210208</v>
+        <v>0.022813236994390113</v>
       </c>
       <c r="CG4">
-        <v>0.023356299051956048</v>
+        <v>0.023407952032431886</v>
       </c>
       <c r="CH4">
-        <v>0.023591316462649295</v>
+        <v>0.023486969359007476</v>
       </c>
       <c r="CI4">
-        <v>0.023466513454666653</v>
+        <v>0.023469890423164604</v>
       </c>
       <c r="CJ4">
-        <v>0.023804414423568312</v>
+        <v>0.023507337645127666</v>
       </c>
       <c r="CK4">
-        <v>0.023717748901683645</v>
+        <v>0.023657746598046727</v>
       </c>
       <c r="CL4">
-        <v>0.024428076120288682</v>
+        <v>0.023811064956107585</v>
       </c>
       <c r="CM4">
-        <v>0.02415778001425236</v>
+        <v>0.023771872409560479</v>
       </c>
       <c r="CN4">
-        <v>0.024412707462334805</v>
+        <v>0.024311788939676188</v>
       </c>
       <c r="CO4">
-        <v>0.022024622291709324</v>
+        <v>0.024459538541067694</v>
       </c>
       <c r="CP4">
-        <v>0.022075999755475875</v>
+        <v>0.024465001341021281</v>
       </c>
       <c r="CQ4">
-        <v>0.021430466046364335</v>
+        <v>0.021936569573440153</v>
       </c>
       <c r="CR4">
-        <v>0.021598072416602724</v>
+        <v>0.022029173349483427</v>
       </c>
       <c r="CS4">
-        <v>0.021553552230755835</v>
+        <v>0.021505013584595337</v>
       </c>
       <c r="CT4">
-        <v>0.021157986639984774</v>
+        <v>0.021488350594331906</v>
       </c>
       <c r="CU4">
-        <v>0.02110471111594401</v>
+        <v>0.021436399449171913</v>
       </c>
       <c r="CV4">
-        <v>0.02122448840913051</v>
+        <v>0.0212869801228192</v>
       </c>
       <c r="CW4">
-        <v>0.021136238841742108</v>
+        <v>0.020995572797788468</v>
       </c>
       <c r="CX4">
-        <v>0.021156530550940487</v>
+        <v>0.021237256379119142</v>
       </c>
       <c r="CY4">
-        <v>0.021554820539250983</v>
+        <v>0.021322270423613097</v>
       </c>
       <c r="CZ4">
-        <v>0.021313623094742523</v>
+        <v>0.021333116506208359</v>
       </c>
       <c r="DA4">
-        <v>0.021392349497783712</v>
+        <v>0.02140908365414353</v>
       </c>
       <c r="DB4">
-        <v>0.021417114413659975</v>
+        <v>0.021479453427008105</v>
       </c>
       <c r="DC4">
-        <v>0.021520460029951401</v>
+        <v>0.021358782538620526</v>
       </c>
       <c r="DD4">
-        <v>0.021374346197596927</v>
+        <v>0.021460483332232473</v>
       </c>
       <c r="DE4">
-        <v>0.021485030802437563</v>
+        <v>0.021553596279721938</v>
       </c>
       <c r="DF4">
-        <v>0.021619360354549939</v>
+        <v>0.021386593042521836</v>
       </c>
       <c r="DG4">
-        <v>0.021523107842843735</v>
+        <v>0.02164128148612815</v>
       </c>
       <c r="DH4">
-        <v>0.021531117526470848</v>
+        <v>0.02170039769630255</v>
       </c>
       <c r="DI4">
-        <v>0.02087066953461485</v>
+        <v>0.021572181292499545</v>
       </c>
       <c r="DJ4">
-        <v>0.020905145793943959</v>
+        <v>0.021644621591644257</v>
       </c>
       <c r="DK4">
-        <v>0.020840036082545234</v>
+        <v>0.02082816418524228</v>
       </c>
       <c r="DL4">
-        <v>0.020833278778317584</v>
+        <v>0.020951724410184832</v>
       </c>
       <c r="DM4">
-        <v>0.020917323478378175</v>
+        <v>0.020944700688155498</v>
       </c>
       <c r="DN4">
-        <v>0.02082653958902049</v>
+        <v>0.020925483909176184</v>
       </c>
       <c r="DO4">
-        <v>0.020853605498991311</v>
+        <v>0.021090779616044549</v>
       </c>
       <c r="DP4">
-        <v>0.020957747217494865</v>
+        <v>0.020939445596818967</v>
       </c>
       <c r="DQ4">
-        <v>0.020998813897233171</v>
+        <v>0.020958767695001879</v>
       </c>
       <c r="DR4">
-        <v>0.020970177081797783</v>
+        <v>0.02103027391369271</v>
       </c>
       <c r="DS4">
-        <v>0.021220224167849078</v>
+        <v>0.021113131513547986</v>
       </c>
       <c r="DT4">
-        <v>0.021009634791445443</v>
+        <v>0.021196734464392651</v>
       </c>
       <c r="DU4">
-        <v>0.021204618816636295</v>
+        <v>0.02108337123386083</v>
       </c>
       <c r="DV4">
-        <v>0.0211335982859823</v>
+        <v>0.021053943382689403</v>
       </c>
       <c r="DW4">
-        <v>0.021187169973430918</v>
+        <v>0.021059436107512756</v>
       </c>
       <c r="DX4">
-        <v>0.021247752237941418</v>
+        <v>0.021115002983511554</v>
       </c>
       <c r="DY4">
-        <v>0.021105335593337955</v>
+        <v>0.021160311787237578</v>
       </c>
       <c r="DZ4">
-        <v>0.021271571473815764</v>
+        <v>0.021359803489235742</v>
       </c>
       <c r="EA4">
-        <v>0.021362783008624927</v>
+        <v>0.021363904621548989</v>
       </c>
       <c r="EB4">
-        <v>0.021263608729083065</v>
+        <v>0.021263168402896934</v>
       </c>
       <c r="EC4">
-        <v>0.021239858902738058</v>
+        <v>0.021243459321364244</v>
       </c>
       <c r="ED4">
-        <v>0.021279557841077053</v>
+        <v>0.021301013569331437</v>
       </c>
       <c r="EE4">
-        <v>0.021315786495805358</v>
+        <v>0.021265147372755377</v>
       </c>
       <c r="EF4">
-        <v>0.021301640762724242</v>
+        <v>0.021291003484527143</v>
       </c>
       <c r="EG4">
-        <v>0.021356607862478387</v>
+        <v>0.021396933856545352</v>
       </c>
       <c r="EH4">
-        <v>0.021354552479242474</v>
+        <v>0.021355708922436434</v>
       </c>
       <c r="EI4">
-        <v>0.021482789899473283</v>
+        <v>0.021464189079825394</v>
       </c>
       <c r="EJ4">
-        <v>0.021493565146908922</v>
+        <v>0.021507055596109385</v>
       </c>
       <c r="EK4">
-        <v>0.021599133224566337</v>
+        <v>0.021599235575304902</v>
       </c>
       <c r="EL4">
-        <v>0.021596893858755462</v>
+        <v>0.021430359704444134</v>
       </c>
       <c r="EM4">
-        <v>0.021617111474172487</v>
+        <v>0.021457815151572589</v>
       </c>
       <c r="EN4">
-        <v>0.021583493846974177</v>
+        <v>0.021485541294503058</v>
       </c>
       <c r="EO4">
-        <v>0.02161260656141065</v>
+        <v>0.021554969569048697</v>
       </c>
       <c r="EP4">
-        <v>0.021667134070780823</v>
+        <v>0.021432462374793161</v>
       </c>
       <c r="EQ4">
-        <v>0.021567938978057817</v>
+        <v>0.021459938502537423</v>
       </c>
       <c r="ER4">
-        <v>0.021637471512461409</v>
+        <v>0.021682963109636692</v>
       </c>
       <c r="ES4">
-        <v>0.021781717535180836</v>
+        <v>0.02159477857362815</v>
       </c>
       <c r="ET4">
-        <v>0.021644290075691651</v>
+        <v>0.021626126558951363</v>
       </c>
       <c r="EU4">
-        <v>0.021603617862181023</v>
+        <v>0.021664654357885001</v>
       </c>
       <c r="EV4">
-        <v>0.021908346945839815</v>
+        <v>0.021836108192633069</v>
       </c>
       <c r="EW4">
-        <v>0.021720363733463192</v>
+        <v>0.021574805348445893</v>
       </c>
       <c r="EX4">
-        <v>0.022106101110318625</v>
+        <v>0.021597006739906961</v>
       </c>
       <c r="EY4">
-        <v>0.021859009977115981</v>
+        <v>0.021992421220919434</v>
       </c>
       <c r="EZ4">
-        <v>0.021746166209852563</v>
+        <v>0.021875047393095291</v>
       </c>
       <c r="FA4">
-        <v>0.021905861163478799</v>
+        <v>0.021894707710904168</v>
       </c>
       <c r="FB4">
-        <v>0.021905861222058717</v>
+        <v>0.02190706079744411</v>
       </c>
       <c r="FC4">
-        <v>0.021895937361827392</v>
+        <v>0.02192444027586813</v>
       </c>
       <c r="FD4">
-        <v>0.021822530801328857</v>
+        <v>0.022023127200974595</v>
       </c>
       <c r="FE4">
-        <v>0.021841931379629125</v>
+        <v>0.021899643095697922</v>
       </c>
       <c r="FF4">
-        <v>0.022124721449039191</v>
+        <v>0.021951953691038341</v>
       </c>
       <c r="FG4">
-        <v>0.02209022952292591</v>
+        <v>0.021838527760676536</v>
       </c>
       <c r="FH4">
-        <v>0.022140769997837831</v>
+        <v>0.022194949570323672</v>
       </c>
       <c r="FI4">
-        <v>0.022181253059392819</v>
+        <v>0.022197668045244558</v>
       </c>
       <c r="FJ4">
-        <v>0.02229461766809129</v>
+        <v>0.021967066639493743</v>
       </c>
       <c r="FK4">
-        <v>0.022124721738053119</v>
+        <v>0.022119771532064621</v>
       </c>
       <c r="FL4">
-        <v>0.022371521713776307</v>
+        <v>0.022238727002933983</v>
       </c>
       <c r="FM4">
-        <v>0.022178538198338843</v>
+        <v>0.02202312773242238</v>
       </c>
       <c r="FN4">
-        <v>0.022423822357851789</v>
+        <v>0.022098619439817786</v>
       </c>
       <c r="FO4">
-        <v>0</v>
+        <v>0.022511696479198193</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.01570186798578144</v>
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.015717375942080919</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5290,6 +5347,12 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -5800,12 +5863,18 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="FP2" t="s">
         <v>172</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5814,520 +5883,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.977155195629428</v>
+        <v>3.9939780263903315</v>
       </c>
       <c r="C3">
-        <v>-0.94788841560727022</v>
+        <v>-0.96396928977740248</v>
       </c>
       <c r="D3">
-        <v>-0.98479995079159632</v>
+        <v>-0.96223839771128628</v>
       </c>
       <c r="E3">
-        <v>-0.9819277350078458</v>
+        <v>-0.98097437010274602</v>
       </c>
       <c r="F3">
-        <v>0.55412814293697477</v>
+        <v>0.55519501033330321</v>
       </c>
       <c r="G3">
-        <v>0.55655920947202786</v>
+        <v>0.55966321182694345</v>
       </c>
       <c r="H3">
-        <v>0.50369946284500966</v>
+        <v>0.50902154753619566</v>
       </c>
       <c r="I3">
-        <v>0.2311899183022712</v>
+        <v>0.22137033523709371</v>
       </c>
       <c r="J3">
-        <v>0.27390920805687979</v>
+        <v>0.28078391162935279</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.8235745687651852</v>
+        <v>-0.40369407739555968</v>
       </c>
       <c r="M3">
-        <v>-1.8166397409393322</v>
+        <v>-0.25514584733031209</v>
       </c>
       <c r="N3">
-        <v>-1.7739314809909912</v>
+        <v>-1.7932587374518238</v>
       </c>
       <c r="O3">
-        <v>-1.829717570877829</v>
+        <v>-1.8502812350392637</v>
       </c>
       <c r="P3">
-        <v>-1.80220156261065</v>
+        <v>-1.7928323567270343</v>
       </c>
       <c r="Q3">
-        <v>-1.7659449081844643</v>
+        <v>-1.7687663999078742</v>
       </c>
       <c r="R3">
-        <v>-1.7712418564969947</v>
+        <v>-1.8038255661839968</v>
       </c>
       <c r="S3">
-        <v>-1.7384734516444149</v>
+        <v>-1.8328909282515486</v>
       </c>
       <c r="T3">
-        <v>-1.7827974646239331</v>
+        <v>-1.7633530909179647</v>
       </c>
       <c r="U3">
-        <v>-1.7165256911337519</v>
+        <v>-1.7660828089017861</v>
       </c>
       <c r="V3">
-        <v>-1.6948576753649429</v>
+        <v>-1.7177296573106109</v>
       </c>
       <c r="W3">
-        <v>-1.7506858497104101</v>
+        <v>-1.718641733922301</v>
       </c>
       <c r="X3">
-        <v>-1.7457761633527273</v>
+        <v>-1.7310935311955733</v>
       </c>
       <c r="Y3">
-        <v>-1.7104021271836507</v>
+        <v>-1.6858045504011134</v>
       </c>
       <c r="Z3">
-        <v>-1.6559689555953754</v>
+        <v>-1.7156434202649933</v>
       </c>
       <c r="AA3">
-        <v>-1.6816894248274736</v>
+        <v>-1.6748672400460298</v>
       </c>
       <c r="AB3">
-        <v>-1.6746414480361547</v>
+        <v>-1.701173332933396</v>
       </c>
       <c r="AC3">
-        <v>-1.6271327976854775</v>
+        <v>-1.5941503490334181</v>
       </c>
       <c r="AD3">
-        <v>-1.7488572425005862</v>
+        <v>-1.6899867700565157</v>
       </c>
       <c r="AE3">
-        <v>-1.6970122303196202</v>
+        <v>-1.6781197299294364</v>
       </c>
       <c r="AF3">
-        <v>-1.6354353751709425</v>
+        <v>-1.6462494356158652</v>
       </c>
       <c r="AG3">
-        <v>-1.6669466386308966</v>
+        <v>-1.6821386278551911</v>
       </c>
       <c r="AH3">
-        <v>-1.6811448332547185</v>
+        <v>-1.685370740039982</v>
       </c>
       <c r="AI3">
-        <v>-1.6701327202450611</v>
+        <v>-1.6680104796105</v>
       </c>
       <c r="AJ3">
-        <v>-1.6240845626369935</v>
+        <v>-1.6586574097524849</v>
       </c>
       <c r="AK3">
-        <v>-1.6980602934565854</v>
+        <v>-1.6416868554470518</v>
       </c>
       <c r="AL3">
-        <v>-1.6468579330724014</v>
+        <v>-1.607783492762918</v>
       </c>
       <c r="AM3">
-        <v>-1.7046631386224529</v>
+        <v>-1.6555272363148938</v>
       </c>
       <c r="AN3">
-        <v>-1.6538399682646601</v>
+        <v>-1.6720067314776819</v>
       </c>
       <c r="AO3">
-        <v>-1.6758132665612664</v>
+        <v>-1.6002816896903622</v>
       </c>
       <c r="AP3">
-        <v>-1.6068312878664921</v>
+        <v>-1.637762974864396</v>
       </c>
       <c r="AQ3">
-        <v>-1.5986384282427921</v>
+        <v>-1.6400466365268147</v>
       </c>
       <c r="AR3">
-        <v>-1.667104855759481</v>
+        <v>-1.6728362196337592</v>
       </c>
       <c r="AS3">
-        <v>-1.6592726150598438</v>
+        <v>-1.5964134102366185</v>
       </c>
       <c r="AT3">
-        <v>-1.6561586805659481</v>
+        <v>-1.6270030077743074</v>
       </c>
       <c r="AU3">
-        <v>-1.6148310383841438</v>
+        <v>-1.5955429348196488</v>
       </c>
       <c r="AV3">
-        <v>-1.6283787480240086</v>
+        <v>-1.6036059033644416</v>
       </c>
       <c r="AW3">
-        <v>-1.6413744527881786</v>
+        <v>-1.6499717141889521</v>
       </c>
       <c r="AX3">
-        <v>-1.6912151993762683</v>
+        <v>-1.6072391102231718</v>
       </c>
       <c r="AY3">
-        <v>-1.662469798031174</v>
+        <v>-1.6237653374327252</v>
       </c>
       <c r="AZ3">
-        <v>-1.6507191531162657</v>
+        <v>-1.632903084802404</v>
       </c>
       <c r="BA3">
-        <v>-1.6625080589441952</v>
+        <v>-1.6664814278463635</v>
       </c>
       <c r="BB3">
-        <v>-1.6229925336758653</v>
+        <v>-1.5914701699766494</v>
       </c>
       <c r="BC3">
-        <v>-1.6086052018099306</v>
+        <v>-1.6206048534047657</v>
       </c>
       <c r="BD3">
-        <v>-1.6784786092220136</v>
+        <v>-1.5593379954009852</v>
       </c>
       <c r="BE3">
-        <v>-1.6413719986863378</v>
+        <v>-1.6288935715502613</v>
       </c>
       <c r="BF3">
-        <v>-1.6328587000432089</v>
+        <v>-1.5889559994102653</v>
       </c>
       <c r="BG3">
-        <v>-1.6866712959284684</v>
+        <v>-1.6792823317050574</v>
       </c>
       <c r="BH3">
-        <v>-1.6002348097712864</v>
+        <v>-1.618121290750939</v>
       </c>
       <c r="BI3">
-        <v>-1.6274312739900512</v>
+        <v>-1.6585100575870539</v>
       </c>
       <c r="BJ3">
-        <v>-1.2895709870595427</v>
+        <v>-1.6257345039616169</v>
       </c>
       <c r="BK3">
-        <v>-1.2792840038772306</v>
+        <v>-1.6241742969548902</v>
       </c>
       <c r="BL3">
-        <v>-1.211382628566853</v>
+        <v>-1.2731746407972035</v>
       </c>
       <c r="BM3">
-        <v>-1.241274482782587</v>
+        <v>-1.2723915661449114</v>
       </c>
       <c r="BN3">
-        <v>-1.2488733872984452</v>
+        <v>-1.2382209292689479</v>
       </c>
       <c r="BO3">
-        <v>-1.2569819040990982</v>
+        <v>-1.3118964082175393</v>
       </c>
       <c r="BP3">
-        <v>-1.279930680237189</v>
+        <v>-1.2282859608594454</v>
       </c>
       <c r="BQ3">
-        <v>-1.2993845080147122</v>
+        <v>-1.2563927647323947</v>
       </c>
       <c r="BR3">
-        <v>-1.258591398096536</v>
+        <v>-1.2784611510101498</v>
       </c>
       <c r="BS3">
-        <v>-1.2704299322793573</v>
+        <v>-1.270539784648764</v>
       </c>
       <c r="BT3">
-        <v>-0.81887822929573695</v>
+        <v>-1.2958286835762156</v>
       </c>
       <c r="BU3">
-        <v>-0.81808126407962412</v>
+        <v>-1.2748553509806155</v>
       </c>
       <c r="BV3">
-        <v>-0.85851564085928467</v>
+        <v>-0.83499937501800658</v>
       </c>
       <c r="BW3">
-        <v>-0.82036190176463197</v>
+        <v>-0.81138708910276947</v>
       </c>
       <c r="BX3">
-        <v>-0.86980451938690695</v>
+        <v>-0.78982336889568716</v>
       </c>
       <c r="BY3">
-        <v>-0.81688179360481905</v>
+        <v>-0.84316142870429522</v>
       </c>
       <c r="BZ3">
-        <v>-0.81584826674338673</v>
+        <v>-0.82723044418048219</v>
       </c>
       <c r="CA3">
-        <v>-0.75972136420188952</v>
+        <v>-0.83034619774333851</v>
       </c>
       <c r="CB3">
-        <v>-0.75654886942433841</v>
+        <v>-0.78049598370853723</v>
       </c>
       <c r="CC3">
-        <v>-0.78197357158726322</v>
+        <v>-0.79360205714440946</v>
       </c>
       <c r="CD3">
-        <v>-0.50354475821565359</v>
+        <v>-0.79679514113537808</v>
       </c>
       <c r="CE3">
-        <v>-0.31609750262214448</v>
+        <v>-0.80307425701992186</v>
       </c>
       <c r="CF3">
-        <v>-0.275467720531898</v>
+        <v>-0.50368648983743813</v>
       </c>
       <c r="CG3">
-        <v>-0.28835591430845053</v>
+        <v>-0.30450833665470828</v>
       </c>
       <c r="CH3">
-        <v>-0.34450283684837529</v>
+        <v>-0.30065747916876817</v>
       </c>
       <c r="CI3">
-        <v>-0.31843988751493063</v>
+        <v>-0.28928269714675181</v>
       </c>
       <c r="CJ3">
-        <v>-0.35751073807142941</v>
+        <v>-0.29575430467447555</v>
       </c>
       <c r="CK3">
-        <v>-0.32371478461217296</v>
+        <v>-0.33212994442727273</v>
       </c>
       <c r="CL3">
-        <v>-0.37203341410549934</v>
+        <v>-0.38115289977461719</v>
       </c>
       <c r="CM3">
-        <v>-0.30773078403689041</v>
+        <v>-0.35321721760946556</v>
       </c>
       <c r="CN3">
-        <v>-0.52291871362881581</v>
+        <v>-0.34650454303898531</v>
       </c>
       <c r="CO3">
-        <v>-0.28644923687559304</v>
+        <v>-0.37501528492198766</v>
       </c>
       <c r="CP3">
-        <v>-0.29526266624631115</v>
+        <v>-0.53482537623490811</v>
       </c>
       <c r="CQ3">
-        <v>-0.25594766509917283</v>
+        <v>-0.2676483584444076</v>
       </c>
       <c r="CR3">
-        <v>-0.2933381675348703</v>
+        <v>-0.28699721337843681</v>
       </c>
       <c r="CS3">
-        <v>-0.27826192177474379</v>
+        <v>-0.27452307270861548</v>
       </c>
       <c r="CT3">
-        <v>-0.24359457006062127</v>
+        <v>-0.26615382066467219</v>
       </c>
       <c r="CU3">
-        <v>-0.22645057183326828</v>
+        <v>-0.24885809568096112</v>
       </c>
       <c r="CV3">
-        <v>-0.25106468123910719</v>
+        <v>-0.26908213782617096</v>
       </c>
       <c r="CW3">
-        <v>-0.22566279063503325</v>
+        <v>-0.19393968837038295</v>
       </c>
       <c r="CX3">
-        <v>-0.22629030907614678</v>
+        <v>-0.24871687664417544</v>
       </c>
       <c r="CY3">
-        <v>-0.13245995619567572</v>
+        <v>-0.26470066746251225</v>
       </c>
       <c r="CZ3">
-        <v>-0.071914499529328921</v>
+        <v>-0.26312929211557495</v>
       </c>
       <c r="DA3">
-        <v>-0.086398841995127526</v>
+        <v>-0.087058297654454789</v>
       </c>
       <c r="DB3">
-        <v>-0.088042858515968159</v>
+        <v>-0.099418915655188733</v>
       </c>
       <c r="DC3">
-        <v>-0.10792425870621228</v>
+        <v>-0.066859911243219022</v>
       </c>
       <c r="DD3">
-        <v>-0.084948890197869942</v>
+        <v>-0.086646029342944381</v>
       </c>
       <c r="DE3">
-        <v>-0.10683911284970314</v>
+        <v>-0.10408861329408045</v>
       </c>
       <c r="DF3">
-        <v>-0.13369719519999057</v>
+        <v>-0.085640433178061887</v>
       </c>
       <c r="DG3">
-        <v>-0.1074194320436891</v>
+        <v>-0.14085718246963075</v>
       </c>
       <c r="DH3">
-        <v>-0.10507488823885673</v>
+        <v>-0.15020621743268847</v>
       </c>
       <c r="DI3">
-        <v>0.028538650274337749</v>
+        <v>-0.11688418967246499</v>
       </c>
       <c r="DJ3">
-        <v>0.025094785921236425</v>
+        <v>-0.12934721810399771</v>
       </c>
       <c r="DK3">
-        <v>0.043645079684143592</v>
+        <v>0.043115946124661512</v>
       </c>
       <c r="DL3">
-        <v>0.049374783867777799</v>
+        <v>0.020005422286022683</v>
       </c>
       <c r="DM3">
-        <v>0.035041941232767583</v>
+        <v>0.025656918569535794</v>
       </c>
       <c r="DN3">
-        <v>0.059316070624717332</v>
+        <v>0.034010342670128403</v>
       </c>
       <c r="DO3">
-        <v>0.05758735404362432</v>
+        <v>0.0023631379113302547</v>
       </c>
       <c r="DP3">
-        <v>0.038965661465682311</v>
+        <v>0.039160161833589703</v>
       </c>
       <c r="DQ3">
-        <v>0.03425005993355331</v>
+        <v>0.039124800737074916</v>
       </c>
       <c r="DR3">
-        <v>0.044650680650419612</v>
+        <v>0.027787840214640654</v>
       </c>
       <c r="DS3">
-        <v>-0.0043953903172758773</v>
+        <v>0.014170024246147724</v>
       </c>
       <c r="DT3">
-        <v>0.044352721959030804</v>
+        <v>0.00058135063290065659</v>
       </c>
       <c r="DU3">
-        <v>0.0071210734535505221</v>
+        <v>0.028647143512629872</v>
       </c>
       <c r="DV3">
-        <v>0.026142134148255187</v>
+        <v>0.039109310284744285</v>
       </c>
       <c r="DW3">
-        <v>0.019003179742643539</v>
+        <v>0.042122256835216601</v>
       </c>
       <c r="DX3">
-        <v>0.010474858553454532</v>
+        <v>0.034445725043939404</v>
       </c>
       <c r="DY3">
-        <v>0.044501560059304439</v>
+        <v>0.029011132655414679</v>
       </c>
       <c r="DZ3">
-        <v>0.013850943988997919</v>
+        <v>-0.0083128924559820461</v>
       </c>
       <c r="EA3">
-        <v>-0.00079358077673187923</v>
+        <v>-0.0051528433275565399</v>
       </c>
       <c r="EB3">
-        <v>0.023643419585648095</v>
+        <v>0.019622712164166209</v>
       </c>
       <c r="EC3">
-        <v>0.032717478608253421</v>
+        <v>0.027836927310138888</v>
       </c>
       <c r="ED3">
-        <v>0.028662905452510361</v>
+        <v>0.020041558148650489</v>
       </c>
       <c r="EE3">
-        <v>0.025356559407670832</v>
+        <v>0.031584605737877323</v>
       </c>
       <c r="EF3">
-        <v>0.03241662926491954</v>
+        <v>0.030386769332837245</v>
       </c>
       <c r="EG3">
-        <v>0.02531900970045415</v>
+        <v>0.01281345730720734</v>
       </c>
       <c r="EH3">
-        <v>0.02988759417560035</v>
+        <v>0.025311544701966178</v>
       </c>
       <c r="EI3">
-        <v>0.0081145896745391279</v>
+        <v>0.0074234573057088589</v>
       </c>
       <c r="EJ3">
-        <v>0.010036043558875824</v>
+        <v>0.0028847473245886645</v>
       </c>
       <c r="EK3">
-        <v>-0.0068182912738704322</v>
+        <v>-0.011377281743769927</v>
       </c>
       <c r="EL3">
-        <v>-0.0023603380535278176</v>
+        <v>0.026345241021122748</v>
       </c>
       <c r="EM3">
-        <v>-0.0022987855724455452</v>
+        <v>0.024940887951169517</v>
       </c>
       <c r="EN3">
-        <v>0.0083507559214034931</v>
+        <v>0.023499879578478503</v>
       </c>
       <c r="EO3">
-        <v>0.0066997605192630214</v>
+        <v>0.013770771685691047</v>
       </c>
       <c r="EP3">
-        <v>0.00010701849150613263</v>
+        <v>0.042411573420878333</v>
       </c>
       <c r="EQ3">
-        <v>0.023618679547141339</v>
+        <v>0.041071869448460495</v>
       </c>
       <c r="ER3">
-        <v>0.014084557691635717</v>
+        <v>0.001099653279987401</v>
       </c>
       <c r="ES3">
-        <v>-0.0097367284477283718</v>
+        <v>0.022424939308547717</v>
       </c>
       <c r="ET3">
-        <v>0.020859096294602635</v>
+        <v>0.020376936585707113</v>
       </c>
       <c r="EU3">
-        <v>0.032963442455923045</v>
+        <v>0.016946484089977357</v>
       </c>
       <c r="EV3">
-        <v>-0.021455395883502412</v>
+        <v>-0.012016242860588231</v>
       </c>
       <c r="EW3">
-        <v>0.018342876460769462</v>
+        <v>0.042698356331221543</v>
       </c>
       <c r="EX3">
-        <v>-0.050058604312710392</v>
+        <v>0.042519461402220418</v>
       </c>
       <c r="EY3">
-        <v>-0.00021757921525322169</v>
+        <v>-0.029054450821125111</v>
       </c>
       <c r="EZ3">
-        <v>0.025376605512232461</v>
+        <v>-0.0030946161431190475</v>
       </c>
       <c r="FA3">
-        <v>-0.00086986654907935626</v>
+        <v>-0.0027928023114765286</v>
       </c>
       <c r="FB3">
-        <v>0.0031713654457967751</v>
+        <v>-0.0011025344659290636</v>
       </c>
       <c r="FC3">
-        <v>0.0090975974536300509</v>
+        <v>-0.00034691815423549155</v>
       </c>
       <c r="FD3">
-        <v>0.027084273269463739</v>
+        <v>-0.014745233173127129</v>
       </c>
       <c r="FE3">
-        <v>0.027551093808371282</v>
+        <v>0.012328882211841289</v>
       </c>
       <c r="FF3">
-        <v>-0.020929276041277846</v>
+        <v>0.0065758918634143369</v>
       </c>
       <c r="FG3">
-        <v>-0.010658964107839041</v>
+        <v>0.03205517555133746</v>
       </c>
       <c r="FH3">
-        <v>-0.015892251112588646</v>
+        <v>-0.029955921408711741</v>
       </c>
       <c r="FI3">
-        <v>-0.019262782775857606</v>
+        <v>-0.02653505338457535</v>
       </c>
       <c r="FJ3">
-        <v>-0.035668365802585478</v>
+        <v>0.019811040764783582</v>
       </c>
       <c r="FK3">
-        <v>-0.0011153402548309669</v>
+        <v>-0.0043174479224795496</v>
       </c>
       <c r="FL3">
-        <v>-0.041371590167805172</v>
+        <v>-0.021893781152275426</v>
       </c>
       <c r="FM3">
-        <v>-0.0029797246380250525</v>
+        <v>0.021446337616009059</v>
       </c>
       <c r="FN3">
-        <v>-0.042660259936366803</v>
+        <v>0.011638649677721375</v>
       </c>
       <c r="FO3">
-        <v>0</v>
+        <v>-0.058015251319649991</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-5.5123571141976848</v>
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-5.5154236019226106</v>
       </c>
     </row>
     <row r="4">
@@ -6335,520 +6410,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.018052647894973507</v>
+        <v>0.018175743424829451</v>
       </c>
       <c r="C4">
-        <v>0.016073661187717015</v>
+        <v>0.016187625481523842</v>
       </c>
       <c r="D4">
-        <v>0.020157038670114077</v>
+        <v>0.020141763431524219</v>
       </c>
       <c r="E4">
-        <v>0.024838355548533562</v>
+        <v>0.025108020965476933</v>
       </c>
       <c r="F4">
-        <v>0.015110272728743421</v>
+        <v>0.014956027329826677</v>
       </c>
       <c r="G4">
-        <v>0.012320263964417025</v>
+        <v>0.012280628623045343</v>
       </c>
       <c r="H4">
-        <v>0.009642276368867754</v>
+        <v>0.009713543019788046</v>
       </c>
       <c r="I4">
-        <v>0.010961015758016829</v>
+        <v>0.010968426681486619</v>
       </c>
       <c r="J4">
-        <v>0.010839849170247821</v>
+        <v>0.010923186872933997</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.033862053970486097</v>
+        <v>0.02154509928568335</v>
       </c>
       <c r="M4">
-        <v>0.033778736997826866</v>
+        <v>0.020850874791175394</v>
       </c>
       <c r="N4">
-        <v>0.033229228472379121</v>
+        <v>0.033506606539443214</v>
       </c>
       <c r="O4">
-        <v>0.033970423993544031</v>
+        <v>0.034273600952116651</v>
       </c>
       <c r="P4">
-        <v>0.033614593810160666</v>
+        <v>0.033518056754477797</v>
       </c>
       <c r="Q4">
-        <v>0.033152128304416689</v>
+        <v>0.033214459557122773</v>
       </c>
       <c r="R4">
-        <v>0.033229228475099779</v>
+        <v>0.03368007400959637</v>
       </c>
       <c r="S4">
-        <v>0.032819407020022638</v>
+        <v>0.034075104115973143</v>
       </c>
       <c r="T4">
-        <v>0.033396982233039225</v>
+        <v>0.033170442583406692</v>
       </c>
       <c r="U4">
-        <v>0.032560994211447397</v>
+        <v>0.033214459559845234</v>
       </c>
       <c r="V4">
-        <v>0.032301105921128774</v>
+        <v>0.032609239068123373</v>
       </c>
       <c r="W4">
-        <v>0.033010892341358199</v>
+        <v>0.032629701655500019</v>
       </c>
       <c r="X4">
-        <v>0.032957233735779613</v>
+        <v>0.032795370951086145</v>
       </c>
       <c r="Y4">
-        <v>0.032520435150049633</v>
+        <v>0.032240176335774029</v>
       </c>
       <c r="Z4">
-        <v>0.031862018209008275</v>
+        <v>0.032619463610236564</v>
       </c>
       <c r="AA4">
-        <v>0.032184074912586104</v>
+        <v>0.03212421672254228</v>
       </c>
       <c r="AB4">
-        <v>0.032107046284633137</v>
+        <v>0.032457473032322992</v>
       </c>
       <c r="AC4">
-        <v>0.031544439945812769</v>
+        <v>0.031180107578015929</v>
       </c>
       <c r="AD4">
-        <v>0.03305408267786393</v>
+        <v>0.032338181580507337</v>
       </c>
       <c r="AE4">
-        <v>0.032409986358970445</v>
+        <v>0.03220132542540971</v>
       </c>
       <c r="AF4">
-        <v>0.03166983342690443</v>
+        <v>0.031823461926347836</v>
       </c>
       <c r="AG4">
-        <v>0.032059299681448605</v>
+        <v>0.032269445596646025</v>
       </c>
       <c r="AH4">
-        <v>0.032242365098392942</v>
+        <v>0.032318479378769693</v>
       </c>
       <c r="AI4">
-        <v>0.032116632020802137</v>
+        <v>0.032114633263559025</v>
       </c>
       <c r="AJ4">
-        <v>0.031571129924323933</v>
+        <v>0.032010012827510967</v>
       </c>
       <c r="AK4">
-        <v>0.032480088244445322</v>
+        <v>0.031814256023251858</v>
       </c>
       <c r="AL4">
-        <v>0.031862018219984869</v>
+        <v>0.031420190906973254</v>
       </c>
       <c r="AM4">
-        <v>0.032581353867699246</v>
+        <v>0.032000573772285636</v>
       </c>
       <c r="AN4">
-        <v>0.031964707025375884</v>
+        <v>0.032211019514295461</v>
       </c>
       <c r="AO4">
-        <v>0.032242365104596681</v>
+        <v>0.031359416002641062</v>
       </c>
       <c r="AP4">
-        <v>0.031421162286363789</v>
+        <v>0.031814256028046467</v>
       </c>
       <c r="AQ4">
-        <v>0.031334371171258257</v>
+        <v>0.031851148391201907</v>
       </c>
       <c r="AR4">
-        <v>0.032164744068599746</v>
+        <v>0.032259676655164805</v>
       </c>
       <c r="AS4">
-        <v>0.032078362024401084</v>
+        <v>0.031350775432125368</v>
       </c>
       <c r="AT4">
-        <v>0.032049786610242756</v>
+        <v>0.031722821260892868</v>
       </c>
       <c r="AU4">
-        <v>0.031562222449108751</v>
+        <v>0.031359416008787881</v>
       </c>
       <c r="AV4">
-        <v>0.031733341642107254</v>
+        <v>0.031463915802077427</v>
       </c>
       <c r="AW4">
-        <v>0.031899196238434999</v>
+        <v>0.032028926685878811</v>
       </c>
       <c r="AX4">
-        <v>0.032520435171699488</v>
+        <v>0.031525575911335972</v>
       </c>
       <c r="AY4">
-        <v>0.032174403333850417</v>
+        <v>0.031731913995503805</v>
       </c>
       <c r="AZ4">
-        <v>0.032040285555838613</v>
+        <v>0.031851148400004435</v>
       </c>
       <c r="BA4">
-        <v>0.032193758903023326</v>
+        <v>0.032269445614919012</v>
       </c>
       <c r="BB4">
-        <v>0.031724235496911349</v>
+        <v>0.031376728233104688</v>
       </c>
       <c r="BC4">
-        <v>0.031562222457103446</v>
+        <v>0.031731913999486439</v>
       </c>
       <c r="BD4">
-        <v>0.032419961838144558</v>
+        <v>0.031021662293432537</v>
       </c>
       <c r="BE4">
-        <v>0.031974112776458959</v>
+        <v>0.03185114840500046</v>
       </c>
       <c r="BF4">
-        <v>0.031880584042090675</v>
+        <v>0.031385399919116527</v>
       </c>
       <c r="BG4">
-        <v>0.032550834492547753</v>
+        <v>0.032487588119198919</v>
       </c>
       <c r="BH4">
-        <v>0.031509004367713561</v>
+        <v>0.031750133141285677</v>
       </c>
       <c r="BI4">
-        <v>0.03184349865856629</v>
+        <v>0.032249920261750914</v>
       </c>
       <c r="BJ4">
-        <v>0.032618763652133946</v>
+        <v>0.03186040021376596</v>
       </c>
       <c r="BK4">
-        <v>0.032503079914019836</v>
+        <v>0.031851148410932451</v>
       </c>
       <c r="BL4">
-        <v>0.031705996588650198</v>
+        <v>0.032516894010695858</v>
       </c>
       <c r="BM4">
-        <v>0.03206653681718865</v>
+        <v>0.032516916651100965</v>
       </c>
       <c r="BN4">
-        <v>0.032166409366443459</v>
+        <v>0.032116101134024716</v>
       </c>
       <c r="BO4">
-        <v>0.032559471289530358</v>
+        <v>0.03302204523708481</v>
       </c>
       <c r="BP4">
-        <v>0.032846636209182031</v>
+        <v>0.032017044180185424</v>
       </c>
       <c r="BQ4">
-        <v>0.033094653836133775</v>
+        <v>0.032535006082595866</v>
       </c>
       <c r="BR4">
-        <v>0.032851483088591447</v>
+        <v>0.032810411412224981</v>
       </c>
       <c r="BS4">
-        <v>0.033002899494199649</v>
+        <v>0.032723852668975768</v>
       </c>
       <c r="BT4">
-        <v>0.023948034867756686</v>
+        <v>0.033358533096746724</v>
       </c>
       <c r="BU4">
-        <v>0.02451317072536633</v>
+        <v>0.033112971471696825</v>
       </c>
       <c r="BV4">
-        <v>0.024747624310786705</v>
+        <v>0.024052454935676652</v>
       </c>
       <c r="BW4">
-        <v>0.023935157532769657</v>
+        <v>0.0244643297830196</v>
       </c>
       <c r="BX4">
-        <v>0.024230534050730085</v>
+        <v>0.024359507204529007</v>
       </c>
       <c r="BY4">
-        <v>0.023941044562755205</v>
+        <v>0.024076124377489218</v>
       </c>
       <c r="BZ4">
-        <v>0.023631959144493491</v>
+        <v>0.023998783549402183</v>
       </c>
       <c r="CA4">
-        <v>0.023322925683635538</v>
+        <v>0.02402947189789395</v>
       </c>
       <c r="CB4">
-        <v>0.023319476137716122</v>
+        <v>0.023451429369145373</v>
       </c>
       <c r="CC4">
-        <v>0.023479101269274841</v>
+        <v>0.02354122691036371</v>
       </c>
       <c r="CD4">
-        <v>0.024347289936215984</v>
+        <v>0.023574159285297009</v>
       </c>
       <c r="CE4">
-        <v>0.025222166510735021</v>
+        <v>0.023625238782286388</v>
       </c>
       <c r="CF4">
-        <v>0.025019075620029439</v>
+        <v>0.024395264172396128</v>
       </c>
       <c r="CG4">
-        <v>0.025107414297183935</v>
+        <v>0.025258413111567967</v>
       </c>
       <c r="CH4">
-        <v>0.025438938857535804</v>
+        <v>0.025255597833091711</v>
       </c>
       <c r="CI4">
-        <v>0.025246721964141374</v>
+        <v>0.025211211997483034</v>
       </c>
       <c r="CJ4">
-        <v>0.02545419506157881</v>
+        <v>0.025265502733825027</v>
       </c>
       <c r="CK4">
-        <v>0.025284068529392485</v>
+        <v>0.025369141968654731</v>
       </c>
       <c r="CL4">
-        <v>0.026006082661028742</v>
+        <v>0.025580937844679019</v>
       </c>
       <c r="CM4">
-        <v>0.025670776264858905</v>
+        <v>0.025441519277008148</v>
       </c>
       <c r="CN4">
-        <v>0.023904149922172858</v>
+        <v>0.02589949095671374</v>
       </c>
       <c r="CO4">
-        <v>0.022638303418306711</v>
+        <v>0.026080351231128656</v>
       </c>
       <c r="CP4">
-        <v>0.02268829126986421</v>
+        <v>0.024006468306058459</v>
       </c>
       <c r="CQ4">
-        <v>0.021855428649184439</v>
+        <v>0.022546081797382957</v>
       </c>
       <c r="CR4">
-        <v>0.022019800661984272</v>
+        <v>0.022636192266609022</v>
       </c>
       <c r="CS4">
-        <v>0.021976134826224042</v>
+        <v>0.021937223673433294</v>
       </c>
       <c r="CT4">
-        <v>0.021406411284373206</v>
+        <v>0.021920889214715175</v>
       </c>
       <c r="CU4">
-        <v>0.021353755551787087</v>
+        <v>0.021869965543186643</v>
       </c>
       <c r="CV4">
-        <v>0.021472143674827124</v>
+        <v>0.021538182247031953</v>
       </c>
       <c r="CW4">
-        <v>0.021384916116835608</v>
+        <v>0.021250219910605595</v>
       </c>
       <c r="CX4">
-        <v>0.021404972085333023</v>
+        <v>0.021489039757318768</v>
       </c>
       <c r="CY4">
-        <v>0.021733885810491335</v>
+        <v>0.021573061622727874</v>
       </c>
       <c r="CZ4">
-        <v>0.021494697774186868</v>
+        <v>0.02158378168033237</v>
       </c>
       <c r="DA4">
-        <v>0.021572763389638521</v>
+        <v>0.021580762047524203</v>
       </c>
       <c r="DB4">
-        <v>0.021597321432811213</v>
+        <v>0.021650573834243746</v>
       </c>
       <c r="DC4">
-        <v>0.021699808835416022</v>
+        <v>0.021530862009671258</v>
       </c>
       <c r="DD4">
-        <v>0.021531656480945863</v>
+        <v>0.0216317538009957</v>
       </c>
       <c r="DE4">
-        <v>0.021641536555599639</v>
+        <v>0.021724132675518731</v>
       </c>
       <c r="DF4">
-        <v>0.021774900656176082</v>
+        <v>0.021560367580834246</v>
       </c>
       <c r="DG4">
-        <v>0.021679338715850781</v>
+        <v>0.02181302716035621</v>
       </c>
       <c r="DH4">
-        <v>0.021687290698600752</v>
+        <v>0.021871679174851364</v>
       </c>
       <c r="DI4">
-        <v>0.020870669534614823</v>
+        <v>0.021744472740179491</v>
       </c>
       <c r="DJ4">
-        <v>0.020905145793943931</v>
+        <v>0.021816340966600137</v>
       </c>
       <c r="DK4">
-        <v>0.020840036082545203</v>
+        <v>0.020828164185242571</v>
       </c>
       <c r="DL4">
-        <v>0.020833278778317556</v>
+        <v>0.02095172441018513</v>
       </c>
       <c r="DM4">
-        <v>0.020917323478378151</v>
+        <v>0.020944700688155793</v>
       </c>
       <c r="DN4">
-        <v>0.020826539589020459</v>
+        <v>0.020925483909176479</v>
       </c>
       <c r="DO4">
-        <v>0.020853605498991283</v>
+        <v>0.02109077961604483</v>
       </c>
       <c r="DP4">
-        <v>0.020957747217494833</v>
+        <v>0.020939445596819265</v>
       </c>
       <c r="DQ4">
-        <v>0.02099881389723314</v>
+        <v>0.02095876769500217</v>
       </c>
       <c r="DR4">
-        <v>0.020970177081797773</v>
+        <v>0.021030273913693002</v>
       </c>
       <c r="DS4">
-        <v>0.02122022416784905</v>
+        <v>0.021113131513548281</v>
       </c>
       <c r="DT4">
-        <v>0.021009634791445436</v>
+        <v>0.021196734464392939</v>
       </c>
       <c r="DU4">
-        <v>0.021204618816636267</v>
+        <v>0.021083371233861132</v>
       </c>
       <c r="DV4">
-        <v>0.021133598285982273</v>
+        <v>0.021053943382689698</v>
       </c>
       <c r="DW4">
-        <v>0.021187169973430894</v>
+        <v>0.021059436107513044</v>
       </c>
       <c r="DX4">
-        <v>0.021247752237941404</v>
+        <v>0.021115002983511856</v>
       </c>
       <c r="DY4">
-        <v>0.021105335593337927</v>
+        <v>0.021160311787237887</v>
       </c>
       <c r="DZ4">
-        <v>0.02127157147381574</v>
+        <v>0.021359803489236023</v>
       </c>
       <c r="EA4">
-        <v>0.021362783008624906</v>
+        <v>0.021363904621549291</v>
       </c>
       <c r="EB4">
-        <v>0.021263608729083047</v>
+        <v>0.021263168402897239</v>
       </c>
       <c r="EC4">
-        <v>0.021239858902738031</v>
+        <v>0.021243459321364531</v>
       </c>
       <c r="ED4">
-        <v>0.021279557841077028</v>
+        <v>0.021301013569331728</v>
       </c>
       <c r="EE4">
-        <v>0.021315786495805355</v>
+        <v>0.021265147372755668</v>
       </c>
       <c r="EF4">
-        <v>0.021301640762724217</v>
+        <v>0.021291003484527442</v>
       </c>
       <c r="EG4">
-        <v>0.021356607862478373</v>
+        <v>0.02139693385654564</v>
       </c>
       <c r="EH4">
-        <v>0.021354552479242447</v>
+        <v>0.021355708922436739</v>
       </c>
       <c r="EI4">
-        <v>0.021482789899473265</v>
+        <v>0.021464189079825672</v>
       </c>
       <c r="EJ4">
-        <v>0.021493565146908901</v>
+        <v>0.02150705559610968</v>
       </c>
       <c r="EK4">
-        <v>0.02159913322456631</v>
+        <v>0.021599235575305176</v>
       </c>
       <c r="EL4">
-        <v>0.021596893858755437</v>
+        <v>0.021430359704444436</v>
       </c>
       <c r="EM4">
-        <v>0.02161711147417246</v>
+        <v>0.021457815151572898</v>
       </c>
       <c r="EN4">
-        <v>0.021583493846974139</v>
+        <v>0.021485541294503346</v>
       </c>
       <c r="EO4">
-        <v>0.021612606561410647</v>
+        <v>0.021554969569048985</v>
       </c>
       <c r="EP4">
-        <v>0.021667134070780789</v>
+        <v>0.021432462374793453</v>
       </c>
       <c r="EQ4">
-        <v>0.021567938978057793</v>
+        <v>0.021459938502537728</v>
       </c>
       <c r="ER4">
-        <v>0.021637471512461391</v>
+        <v>0.021682963109636997</v>
       </c>
       <c r="ES4">
-        <v>0.021781717535180826</v>
+        <v>0.021594778573628456</v>
       </c>
       <c r="ET4">
-        <v>0.021644290075691613</v>
+        <v>0.021626126558951644</v>
       </c>
       <c r="EU4">
-        <v>0.021603617862181006</v>
+        <v>0.021664654357885265</v>
       </c>
       <c r="EV4">
-        <v>0.021908346945839791</v>
+        <v>0.021836108192633367</v>
       </c>
       <c r="EW4">
-        <v>0.021720363733463185</v>
+        <v>0.021574805348446191</v>
       </c>
       <c r="EX4">
-        <v>0.022106101110318608</v>
+        <v>0.021597006739907249</v>
       </c>
       <c r="EY4">
-        <v>0.021859009977115956</v>
+        <v>0.021992421220919715</v>
       </c>
       <c r="EZ4">
-        <v>0.021746166209852522</v>
+        <v>0.021875047393095561</v>
       </c>
       <c r="FA4">
-        <v>0.021905861163478795</v>
+        <v>0.021894707710904467</v>
       </c>
       <c r="FB4">
-        <v>0.021905861222058703</v>
+        <v>0.021907060797444422</v>
       </c>
       <c r="FC4">
-        <v>0.021895937361827354</v>
+        <v>0.021924440275868429</v>
       </c>
       <c r="FD4">
-        <v>0.021822530801328854</v>
+        <v>0.022023127200974921</v>
       </c>
       <c r="FE4">
-        <v>0.021841931379629115</v>
+        <v>0.021899643095698199</v>
       </c>
       <c r="FF4">
-        <v>0.022124721449039157</v>
+        <v>0.021951953691038646</v>
       </c>
       <c r="FG4">
-        <v>0.022090229522925862</v>
+        <v>0.021838527760676817</v>
       </c>
       <c r="FH4">
-        <v>0.02214076999783781</v>
+        <v>0.022194949570323964</v>
       </c>
       <c r="FI4">
-        <v>0.022181253059392805</v>
+        <v>0.022197668045244846</v>
       </c>
       <c r="FJ4">
-        <v>0.022294617668091279</v>
+        <v>0.021967066639494045</v>
       </c>
       <c r="FK4">
-        <v>0.022124721738053105</v>
+        <v>0.022119771532064902</v>
       </c>
       <c r="FL4">
-        <v>0.02237152171377628</v>
+        <v>0.02223872700293426</v>
       </c>
       <c r="FM4">
-        <v>0.022178538198338808</v>
+        <v>0.022023127732422685</v>
       </c>
       <c r="FN4">
-        <v>0.022423822357851762</v>
+        <v>0.022098619439818057</v>
       </c>
       <c r="FO4">
-        <v>0</v>
+        <v>0.022511696479198488</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.015701867985781413</v>
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.015717375942081321</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +6938,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FQ4"/>
+  <dimension ref="A1:FS4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7380,6 +7461,12 @@
       <c r="FQ1" t="s">
         <v>1</v>
       </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -7890,12 +7977,18 @@
         <v>170</v>
       </c>
       <c r="FO2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="FP2" t="s">
         <v>172</v>
       </c>
       <c r="FQ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -7904,520 +7997,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.7823420224273836</v>
+        <v>1.8093068258271563</v>
       </c>
       <c r="C3">
-        <v>-1.0147895834679515</v>
+        <v>-0.99593445228021171</v>
       </c>
       <c r="D3">
-        <v>-0.99986205520702742</v>
+        <v>-0.97519704460021428</v>
       </c>
       <c r="E3">
-        <v>-0.9781799288498314</v>
+        <v>-0.95429191883091913</v>
       </c>
       <c r="F3">
-        <v>1.3849028119358009</v>
+        <v>1.3827774319816037</v>
       </c>
       <c r="G3">
-        <v>1.2793243581844644</v>
+        <v>1.2641551536329838</v>
       </c>
       <c r="H3">
-        <v>1.0800615904543909</v>
+        <v>1.0946413746951089</v>
       </c>
       <c r="I3">
-        <v>0.65330404205269677</v>
+        <v>0.6626154223795413</v>
       </c>
       <c r="J3">
-        <v>0.59428140153951281</v>
+        <v>0.61078094518201609</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-1.856246300842155</v>
+        <v>-0.38881851914249826</v>
       </c>
       <c r="M3">
-        <v>-1.8611682527973807</v>
+        <v>-0.28192839637911288</v>
       </c>
       <c r="N3">
-        <v>-1.8213740789319304</v>
+        <v>-1.8221060376821938</v>
       </c>
       <c r="O3">
-        <v>-1.8645328735196631</v>
+        <v>-1.8793616188031115</v>
       </c>
       <c r="P3">
-        <v>-1.7893040508487332</v>
+        <v>-1.7969997474831152</v>
       </c>
       <c r="Q3">
-        <v>-1.7851662699069708</v>
+        <v>-1.8583887964790873</v>
       </c>
       <c r="R3">
-        <v>-1.8151581878801251</v>
+        <v>-1.8624058069540492</v>
       </c>
       <c r="S3">
-        <v>-1.7650115681152494</v>
+        <v>-1.7582456183146924</v>
       </c>
       <c r="T3">
-        <v>-1.7952829885081276</v>
+        <v>-1.762601940981257</v>
       </c>
       <c r="U3">
-        <v>-1.7092415285976246</v>
+        <v>-1.7576892173303411</v>
       </c>
       <c r="V3">
-        <v>-1.7527909641412229</v>
+        <v>-1.7411295303547238</v>
       </c>
       <c r="W3">
-        <v>-1.6871574897386821</v>
+        <v>-1.7504042077159394</v>
       </c>
       <c r="X3">
-        <v>-1.7768109902297133</v>
+        <v>-1.7380566422072623</v>
       </c>
       <c r="Y3">
-        <v>-1.6631832577560248</v>
+        <v>-1.7072109046938231</v>
       </c>
       <c r="Z3">
-        <v>-1.6701256170565986</v>
+        <v>-1.7357788594144496</v>
       </c>
       <c r="AA3">
-        <v>-1.7357826448136686</v>
+        <v>-1.6610452159140769</v>
       </c>
       <c r="AB3">
-        <v>-1.6464372217776151</v>
+        <v>-1.7098111063396086</v>
       </c>
       <c r="AC3">
-        <v>-1.6593785309368838</v>
+        <v>-1.6687871191836592</v>
       </c>
       <c r="AD3">
-        <v>-1.6953560433900419</v>
+        <v>-1.7010816609349406</v>
       </c>
       <c r="AE3">
-        <v>-1.6772388855405627</v>
+        <v>-1.6634159366576697</v>
       </c>
       <c r="AF3">
-        <v>-1.6874981317386379</v>
+        <v>-1.6797603045672751</v>
       </c>
       <c r="AG3">
-        <v>-1.7513079545927623</v>
+        <v>-1.6420329251524821</v>
       </c>
       <c r="AH3">
-        <v>-1.6908001175028329</v>
+        <v>-1.7101034763494625</v>
       </c>
       <c r="AI3">
-        <v>-1.6980342488032907</v>
+        <v>-1.6688878785539092</v>
       </c>
       <c r="AJ3">
-        <v>-1.6358878570940509</v>
+        <v>-1.6588306217700799</v>
       </c>
       <c r="AK3">
-        <v>-1.6909024650739382</v>
+        <v>-1.6503795735779476</v>
       </c>
       <c r="AL3">
-        <v>-1.6503041029026215</v>
+        <v>-1.6759474148092781</v>
       </c>
       <c r="AM3">
-        <v>-1.7275556096746729</v>
+        <v>-1.6314011120416982</v>
       </c>
       <c r="AN3">
-        <v>-1.6283295821247028</v>
+        <v>-1.6564929568926847</v>
       </c>
       <c r="AO3">
-        <v>-1.7071672416322237</v>
+        <v>-1.6351060871905174</v>
       </c>
       <c r="AP3">
-        <v>-1.6215542367231244</v>
+        <v>-1.6133781785267101</v>
       </c>
       <c r="AQ3">
-        <v>-1.5841015859222938</v>
+        <v>-1.6958540990698059</v>
       </c>
       <c r="AR3">
-        <v>-1.7064186516726993</v>
+        <v>-1.6650080341902755</v>
       </c>
       <c r="AS3">
-        <v>-1.6425938411428873</v>
+        <v>-1.638053692957538</v>
       </c>
       <c r="AT3">
-        <v>-1.6402797410752628</v>
+        <v>-1.6184377396037528</v>
       </c>
       <c r="AU3">
-        <v>-1.63872835009148</v>
+        <v>-1.6395040412830637</v>
       </c>
       <c r="AV3">
-        <v>-1.6704869612686828</v>
+        <v>-1.6131207452069862</v>
       </c>
       <c r="AW3">
-        <v>-1.6115785918711647</v>
+        <v>-1.6524992061885377</v>
       </c>
       <c r="AX3">
-        <v>-1.6855902788763037</v>
+        <v>-1.5909353695408273</v>
       </c>
       <c r="AY3">
-        <v>-1.6478830664700075</v>
+        <v>-1.6485746866389297</v>
       </c>
       <c r="AZ3">
-        <v>-1.6409441551293023</v>
+        <v>-1.6919813896020919</v>
       </c>
       <c r="BA3">
-        <v>-1.6470845645762406</v>
+        <v>-1.6696845137722429</v>
       </c>
       <c r="BB3">
-        <v>-1.6317303359164064</v>
+        <v>-1.603221003554183</v>
       </c>
       <c r="BC3">
-        <v>-1.6248627137212308</v>
+        <v>-1.6752332408191799</v>
       </c>
       <c r="BD3">
-        <v>-1.6800858653037058</v>
+        <v>-1.6180429253331936</v>
       </c>
       <c r="BE3">
-        <v>-1.6400921681159444</v>
+        <v>-1.5817946851151907</v>
       </c>
       <c r="BF3">
-        <v>-1.5985881130443529</v>
+        <v>-1.6323116657203915</v>
       </c>
       <c r="BG3">
-        <v>-1.5787376976096674</v>
+        <v>-1.6768198982895064</v>
       </c>
       <c r="BH3">
-        <v>-1.6500315006464861</v>
+        <v>-1.6148480118244521</v>
       </c>
       <c r="BI3">
-        <v>-1.5865869418860941</v>
+        <v>-1.6383853127003964</v>
       </c>
       <c r="BJ3">
-        <v>-1.2722781991675853</v>
+        <v>-1.655467444365837</v>
       </c>
       <c r="BK3">
-        <v>-1.2581243751982678</v>
+        <v>-1.6207764651372112</v>
       </c>
       <c r="BL3">
-        <v>-1.2011198676721733</v>
+        <v>-1.3065763311979008</v>
       </c>
       <c r="BM3">
-        <v>-1.2425424813775512</v>
+        <v>-1.2619284391124674</v>
       </c>
       <c r="BN3">
-        <v>-1.2401988281049803</v>
+        <v>-1.2379954840212493</v>
       </c>
       <c r="BO3">
-        <v>-1.2191781449216417</v>
+        <v>-1.2840647593573258</v>
       </c>
       <c r="BP3">
-        <v>-1.2779279378963768</v>
+        <v>-1.305941704264814</v>
       </c>
       <c r="BQ3">
-        <v>-1.2473091802494995</v>
+        <v>-1.2445209128806602</v>
       </c>
       <c r="BR3">
-        <v>-1.300894564126569</v>
+        <v>-1.2292823747920913</v>
       </c>
       <c r="BS3">
-        <v>-1.2896288640680025</v>
+        <v>-1.2598978728308745</v>
       </c>
       <c r="BT3">
-        <v>-0.77993224282950635</v>
+        <v>-1.2760018067339931</v>
       </c>
       <c r="BU3">
-        <v>-0.52180245453186813</v>
+        <v>-1.2557375424690498</v>
       </c>
       <c r="BV3">
-        <v>-0.58679975969335108</v>
+        <v>-0.8117654167145878</v>
       </c>
       <c r="BW3">
-        <v>-0.53844006207889938</v>
+        <v>-0.50154100585255557</v>
       </c>
       <c r="BX3">
-        <v>-0.59769731639006152</v>
+        <v>-0.56386345746401167</v>
       </c>
       <c r="BY3">
-        <v>-0.63741703338898792</v>
+        <v>-0.53416151226424569</v>
       </c>
       <c r="BZ3">
-        <v>-0.54130672950217829</v>
+        <v>-0.56689515287010706</v>
       </c>
       <c r="CA3">
-        <v>-0.57485245353173653</v>
+        <v>-0.62918424212597168</v>
       </c>
       <c r="CB3">
-        <v>-0.61074392898343743</v>
+        <v>-0.53000745614410594</v>
       </c>
       <c r="CC3">
-        <v>-0.65406529276632741</v>
+        <v>-0.59183740645412353</v>
       </c>
       <c r="CD3">
-        <v>-0.50679277821872348</v>
+        <v>-0.63974227813541329</v>
       </c>
       <c r="CE3">
-        <v>-0.19997065206067879</v>
+        <v>-0.67345619264515177</v>
       </c>
       <c r="CF3">
-        <v>-0.19512841812064974</v>
+        <v>-0.51911871202255522</v>
       </c>
       <c r="CG3">
-        <v>-0.22651452972908806</v>
+        <v>-0.20841724677020029</v>
       </c>
       <c r="CH3">
-        <v>-0.30633145278591978</v>
+        <v>-0.21909832730203038</v>
       </c>
       <c r="CI3">
-        <v>-0.30129408973806693</v>
+        <v>-0.26824377603604738</v>
       </c>
       <c r="CJ3">
-        <v>-0.29996694902573479</v>
+        <v>-0.29129320289713628</v>
       </c>
       <c r="CK3">
-        <v>-0.30378418759917941</v>
+        <v>-0.34427040961148386</v>
       </c>
       <c r="CL3">
-        <v>-0.339639758112733</v>
+        <v>-0.32391686201368103</v>
       </c>
       <c r="CM3">
-        <v>-0.33166220707593336</v>
+        <v>-0.34724580799599025</v>
       </c>
       <c r="CN3">
-        <v>-0.53033178771013922</v>
+        <v>-0.33520859495912225</v>
       </c>
       <c r="CO3">
-        <v>-0.14769742478073902</v>
+        <v>-0.39981676730891053</v>
       </c>
       <c r="CP3">
-        <v>-0.19606623877211418</v>
+        <v>-0.55725171041002741</v>
       </c>
       <c r="CQ3">
-        <v>-0.1385719330560406</v>
+        <v>-0.14672677575289875</v>
       </c>
       <c r="CR3">
-        <v>-0.19197536549214805</v>
+        <v>-0.19190516718715159</v>
       </c>
       <c r="CS3">
-        <v>-0.22613105746236858</v>
+        <v>-0.13433826279471295</v>
       </c>
       <c r="CT3">
-        <v>-0.10445012316805793</v>
+        <v>-0.16231625734063826</v>
       </c>
       <c r="CU3">
-        <v>-0.12258968629578236</v>
+        <v>-0.18559705764328085</v>
       </c>
       <c r="CV3">
-        <v>-0.15631846458084739</v>
+        <v>-0.12211812769358525</v>
       </c>
       <c r="CW3">
-        <v>-0.16631440944815182</v>
+        <v>-0.11231791385153636</v>
       </c>
       <c r="CX3">
-        <v>-0.20844092172323742</v>
+        <v>-0.17206696574912014</v>
       </c>
       <c r="CY3">
-        <v>0.03630635428661743</v>
+        <v>-0.22133932401452058</v>
       </c>
       <c r="CZ3">
-        <v>0.047742512187453935</v>
+        <v>-0.23677727664673379</v>
       </c>
       <c r="DA3">
-        <v>0.022111584794743646</v>
+        <v>0.045291555419849479</v>
       </c>
       <c r="DB3">
-        <v>-0.02202187847042204</v>
+        <v>0.024146030765231828</v>
       </c>
       <c r="DC3">
-        <v>-0.051126791562258404</v>
+        <v>0.007917236301683497</v>
       </c>
       <c r="DD3">
-        <v>-1.919783848714743e-05</v>
+        <v>-0.015015342022172622</v>
       </c>
       <c r="DE3">
-        <v>-0.035838026567318944</v>
+        <v>-0.063340904233195008</v>
       </c>
       <c r="DF3">
-        <v>-0.06741715188938377</v>
+        <v>-0.010225086860917909</v>
       </c>
       <c r="DG3">
-        <v>-0.065901586265498677</v>
+        <v>-0.052885422680759749</v>
       </c>
       <c r="DH3">
-        <v>-0.074795037915506152</v>
+        <v>-0.094959989780440332</v>
       </c>
       <c r="DI3">
-        <v>0.23021124803300541</v>
+        <v>-0.071478815463995871</v>
       </c>
       <c r="DJ3">
-        <v>0.23078651481966553</v>
+        <v>-0.10242475184978793</v>
       </c>
       <c r="DK3">
-        <v>0.2244408394391732</v>
+        <v>0.2550252232392089</v>
       </c>
       <c r="DL3">
-        <v>0.20807123207268036</v>
+        <v>0.21909399397988258</v>
       </c>
       <c r="DM3">
-        <v>0.19771798793134912</v>
+        <v>0.21176686258213617</v>
       </c>
       <c r="DN3">
-        <v>0.20092584315270073</v>
+        <v>0.20834401243968215</v>
       </c>
       <c r="DO3">
-        <v>0.19432375690332276</v>
+        <v>0.17031136202430452</v>
       </c>
       <c r="DP3">
-        <v>0.16503731499968582</v>
+        <v>0.1831481932688189</v>
       </c>
       <c r="DQ3">
-        <v>0.15856217349987278</v>
+        <v>0.17608146654982187</v>
       </c>
       <c r="DR3">
-        <v>0.1567115173799779</v>
+        <v>0.16012683115415158</v>
       </c>
       <c r="DS3">
-        <v>0.10773867141803971</v>
+        <v>0.13865988249533126</v>
       </c>
       <c r="DT3">
-        <v>0.13450515980876332</v>
+        <v>0.11496698899217744</v>
       </c>
       <c r="DU3">
-        <v>0.098792694841319542</v>
+        <v>0.12960711747223716</v>
       </c>
       <c r="DV3">
-        <v>0.11185858521531536</v>
+        <v>0.13757680594795521</v>
       </c>
       <c r="DW3">
-        <v>0.10289032745186927</v>
+        <v>0.14031834265561635</v>
       </c>
       <c r="DX3">
-        <v>0.086207456353940434</v>
+        <v>0.12137134350649821</v>
       </c>
       <c r="DY3">
-        <v>0.11680281161190641</v>
+        <v>0.11257434895952377</v>
       </c>
       <c r="DZ3">
-        <v>0.079124406947448031</v>
+        <v>0.063043703967427922</v>
       </c>
       <c r="EA3">
-        <v>0.060156369728963655</v>
+        <v>0.06487599193164939</v>
       </c>
       <c r="EB3">
-        <v>0.084991601035100756</v>
+        <v>0.07995621374684847</v>
       </c>
       <c r="EC3">
-        <v>0.08693408859616987</v>
+        <v>0.079777745974493608</v>
       </c>
       <c r="ED3">
-        <v>0.085408428345984777</v>
+        <v>0.082652236802760043</v>
       </c>
       <c r="EE3">
-        <v>0.071130475477562877</v>
+        <v>0.087457042177154137</v>
       </c>
       <c r="EF3">
-        <v>0.069385882944143787</v>
+        <v>0.081681539444881171</v>
       </c>
       <c r="EG3">
-        <v>0.063604153356229404</v>
+        <v>0.056004030278892891</v>
       </c>
       <c r="EH3">
-        <v>0.070542023183787939</v>
+        <v>0.064493037347430629</v>
       </c>
       <c r="EI3">
-        <v>0.043302229471667876</v>
+        <v>0.054616253580636133</v>
       </c>
       <c r="EJ3">
-        <v>0.041982377674061176</v>
+        <v>0.035242973498199923</v>
       </c>
       <c r="EK3">
-        <v>0.031424337084360342</v>
+        <v>0.019647870291065673</v>
       </c>
       <c r="EL3">
-        <v>0.0271890654980468</v>
+        <v>0.054903231107227078</v>
       </c>
       <c r="EM3">
-        <v>0.02691582466004256</v>
+        <v>0.052236564272471066</v>
       </c>
       <c r="EN3">
-        <v>0.032376413334316033</v>
+        <v>0.048266607661481713</v>
       </c>
       <c r="EO3">
-        <v>0.031683659463589545</v>
+        <v>0.042118522207820405</v>
       </c>
       <c r="EP3">
-        <v>0.018872222857477944</v>
+        <v>0.058647252363344657</v>
       </c>
       <c r="EQ3">
-        <v>0.043450874828328247</v>
+        <v>0.060684445878317131</v>
       </c>
       <c r="ER3">
-        <v>0.02988090663726212</v>
+        <v>0.0204820217602972</v>
       </c>
       <c r="ES3">
-        <v>0.003723052175210682</v>
+        <v>0.041406253703631483</v>
       </c>
       <c r="ET3">
-        <v>0.034476402446316091</v>
+        <v>0.034499298924667722</v>
       </c>
       <c r="EU3">
-        <v>0.042599700497247019</v>
+        <v>0.029180583507797661</v>
       </c>
       <c r="EV3">
-        <v>-0.0049370641459690785</v>
+        <v>0.0013038325675583879</v>
       </c>
       <c r="EW3">
-        <v>0.029889039739119588</v>
+        <v>0.052353688041702748</v>
       </c>
       <c r="EX3">
-        <v>-0.035284163901111533</v>
+        <v>0.051913422100609757</v>
       </c>
       <c r="EY3">
-        <v>0.0108878685638501</v>
+        <v>-0.01777951226176663</v>
       </c>
       <c r="EZ3">
-        <v>0.035700564505279635</v>
+        <v>0.0080148351395720706</v>
       </c>
       <c r="FA3">
-        <v>0.0084877954036525882</v>
+        <v>0.0029973601922630641</v>
       </c>
       <c r="FB3">
-        <v>0.011446516336103798</v>
+        <v>0.0050157980907587565</v>
       </c>
       <c r="FC3">
-        <v>0.017175360012163535</v>
+        <v>0.0045051983545595078</v>
       </c>
       <c r="FD3">
-        <v>0.033189298387134337</v>
+        <v>-0.0093193289295549504</v>
       </c>
       <c r="FE3">
-        <v>0.033307227826983796</v>
+        <v>0.017455617480856556</v>
       </c>
       <c r="FF3">
-        <v>-0.016305403134579732</v>
+        <v>0.0086640753258138206</v>
       </c>
       <c r="FG3">
-        <v>-0.0079801981010845409</v>
+        <v>0.036656859436924309</v>
       </c>
       <c r="FH3">
-        <v>-0.01211137007876939</v>
+        <v>-0.026230999448267314</v>
       </c>
       <c r="FI3">
-        <v>-0.017787357187766837</v>
+        <v>-0.024939837693759494</v>
       </c>
       <c r="FJ3">
-        <v>-0.034217937433845741</v>
+        <v>0.020031689984963363</v>
       </c>
       <c r="FK3">
-        <v>9.1514055432718384e-05</v>
+        <v>-0.0032843765160270313</v>
       </c>
       <c r="FL3">
-        <v>-0.040232960282737429</v>
+        <v>-0.021560674141605618</v>
       </c>
       <c r="FM3">
-        <v>0.00081298941709437018</v>
+        <v>0.020711872798887806</v>
       </c>
       <c r="FN3">
-        <v>-0.043912973880618912</v>
+        <v>0.012982591331539233</v>
       </c>
       <c r="FO3">
-        <v>0</v>
+        <v>-0.058346194217549253</v>
       </c>
       <c r="FP3">
         <v>0</v>
       </c>
       <c r="FQ3">
-        <v>-5.5053604946312795</v>
+        <v>0</v>
+      </c>
+      <c r="FR3">
+        <v>0</v>
+      </c>
+      <c r="FS3">
+        <v>-5.5062286804503486</v>
       </c>
     </row>
     <row r="4">
@@ -8425,520 +8524,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.017712566401821908</v>
+        <v>0.017861592916541481</v>
       </c>
       <c r="C4">
-        <v>0.015395526559408323</v>
+        <v>0.015445436430124655</v>
       </c>
       <c r="D4">
-        <v>0.019275435455506203</v>
+        <v>0.019315537645107125</v>
       </c>
       <c r="E4">
-        <v>0.024079434845289162</v>
+        <v>0.023998304198011845</v>
       </c>
       <c r="F4">
-        <v>0.012037251462771993</v>
+        <v>0.011978036274571984</v>
       </c>
       <c r="G4">
-        <v>0.010109735844174142</v>
+        <v>0.010028256429596533</v>
       </c>
       <c r="H4">
-        <v>0.0082230435797006948</v>
+        <v>0.0082815098676205876</v>
       </c>
       <c r="I4">
-        <v>0.0096447979793014265</v>
+        <v>0.0096696170385129031</v>
       </c>
       <c r="J4">
-        <v>0.0099559289755010247</v>
+        <v>0.010008953148724584</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.034176595064841983</v>
+        <v>0.021367570833177578</v>
       </c>
       <c r="M4">
-        <v>0.034251769628839142</v>
+        <v>0.020872011126970676</v>
       </c>
       <c r="N4">
-        <v>0.033727374046340589</v>
+        <v>0.033726486720257833</v>
       </c>
       <c r="O4">
-        <v>0.034314930231029168</v>
+        <v>0.034506413253545379</v>
       </c>
       <c r="P4">
-        <v>0.03332385758128309</v>
+        <v>0.033413445587212404</v>
       </c>
       <c r="Q4">
-        <v>0.033278993195204977</v>
+        <v>0.03423831986733613</v>
       </c>
       <c r="R4">
-        <v>0.033680236531143576</v>
+        <v>0.034301387896912457</v>
       </c>
       <c r="S4">
-        <v>0.033036626189561775</v>
+        <v>0.032938653589892695</v>
       </c>
       <c r="T4">
-        <v>0.033437121042386907</v>
+        <v>0.033003232573953864</v>
       </c>
       <c r="U4">
-        <v>0.032351247893707934</v>
+        <v>0.032949380253895752</v>
       </c>
       <c r="V4">
-        <v>0.032907470078797164</v>
+        <v>0.032748027972129869</v>
       </c>
       <c r="W4">
-        <v>0.032097111653450916</v>
+        <v>0.032874597603110595</v>
       </c>
       <c r="X4">
-        <v>0.033234377484211111</v>
+        <v>0.032727130147267199</v>
       </c>
       <c r="Y4">
-        <v>0.031823384140524505</v>
+        <v>0.032350322825238559</v>
       </c>
       <c r="Z4">
-        <v>0.031916648176541565</v>
+        <v>0.032716702131478391</v>
       </c>
       <c r="AA4">
-        <v>0.032738486217146368</v>
+        <v>0.031803929556339837</v>
       </c>
       <c r="AB4">
-        <v>0.031649342722167149</v>
+        <v>0.032410191924170537</v>
       </c>
       <c r="AC4">
-        <v>0.0318141215757341</v>
+        <v>0.031915710510553724</v>
       </c>
       <c r="AD4">
-        <v>0.032262314949420438</v>
+        <v>0.032320562621502805</v>
       </c>
       <c r="AE4">
-        <v>0.032049200241324793</v>
+        <v>0.031868931465224008</v>
       </c>
       <c r="AF4">
-        <v>0.032184124390767628</v>
+        <v>0.032076977639838668</v>
       </c>
       <c r="AG4">
-        <v>0.032993339881790561</v>
+        <v>0.031630312505602748</v>
       </c>
       <c r="AH4">
-        <v>0.032242691913730991</v>
+        <v>0.032470530749323427</v>
       </c>
       <c r="AI4">
-        <v>0.032341315268040433</v>
+        <v>0.031972233988016303</v>
       </c>
       <c r="AJ4">
-        <v>0.03159522316779452</v>
+        <v>0.03185961070978674</v>
       </c>
       <c r="AK4">
-        <v>0.032272145440156677</v>
+        <v>0.031767038958099021</v>
       </c>
       <c r="AL4">
-        <v>0.031786402878509021</v>
+        <v>0.032086572358088886</v>
       </c>
       <c r="AM4">
-        <v>0.032748941823448292</v>
+        <v>0.031558415232491699</v>
       </c>
       <c r="AN4">
-        <v>0.031541499198542496</v>
+        <v>0.031868931473548169</v>
       </c>
       <c r="AO4">
-        <v>0.032511940985213289</v>
+        <v>0.031621286818594829</v>
       </c>
       <c r="AP4">
-        <v>0.031479315142701053</v>
+        <v>0.031372977899992598</v>
       </c>
       <c r="AQ4">
-        <v>0.031050009454650772</v>
+        <v>0.032380199036358026</v>
       </c>
       <c r="AR4">
-        <v>0.032532265092582432</v>
+        <v>0.032010154188565718</v>
       </c>
       <c r="AS4">
-        <v>0.031758787206179612</v>
+        <v>0.03169380366033412</v>
       </c>
       <c r="AT4">
-        <v>0.031740433692701589</v>
+        <v>0.031469523779821623</v>
       </c>
       <c r="AU4">
-        <v>0.03173127395111882</v>
+        <v>0.031730330804512631</v>
       </c>
       <c r="AV4">
-        <v>0.032126005014708456</v>
+        <v>0.031425480467608048</v>
       </c>
       <c r="AW4">
-        <v>0.031426432764206001</v>
+        <v>0.031906331276329643</v>
       </c>
       <c r="AX4">
-        <v>0.032331395504925226</v>
+        <v>0.031183662564258866</v>
       </c>
       <c r="AY4">
-        <v>0.031879202666361496</v>
+        <v>0.031878263896473052</v>
       </c>
       <c r="AZ4">
-        <v>0.031804870544000961</v>
+        <v>0.032420215638503468</v>
       </c>
       <c r="BA4">
-        <v>0.031888546480914645</v>
+        <v>0.032154078320746522</v>
       </c>
       <c r="BB4">
-        <v>0.031712988391461958</v>
+        <v>0.031364264263182368</v>
       </c>
       <c r="BC4">
-        <v>0.031640295154399097</v>
+        <v>0.032241763746523273</v>
       </c>
       <c r="BD4">
-        <v>0.032321488568358488</v>
+        <v>0.031558415249451494</v>
       </c>
       <c r="BE4">
-        <v>0.031841943943439255</v>
+        <v>0.031141321991849037</v>
       </c>
       <c r="BF4">
-        <v>0.031356515492183469</v>
+        <v>0.031748662180813417</v>
       </c>
       <c r="BG4">
-        <v>0.031133845066367523</v>
+        <v>0.032300786595039169</v>
       </c>
       <c r="BH4">
-        <v>0.03199210565039088</v>
+        <v>0.031558415253575424</v>
       </c>
       <c r="BI4">
-        <v>0.03124431984513024</v>
+        <v>0.031850301603288146</v>
       </c>
       <c r="BJ4">
-        <v>0.032467880774830836</v>
+        <v>0.032067395129821138</v>
       </c>
       <c r="BK4">
-        <v>0.032305551008505538</v>
+        <v>0.031657456149320307</v>
       </c>
       <c r="BL4">
-        <v>0.031637808054283685</v>
+        <v>0.032841908970986641</v>
       </c>
       <c r="BM4">
-        <v>0.032137442893797163</v>
+        <v>0.03230434094020581</v>
       </c>
       <c r="BN4">
-        <v>0.032119015465041985</v>
+        <v>0.032026646889166545</v>
       </c>
       <c r="BO4">
-        <v>0.031997147148552743</v>
+        <v>0.032592785696498802</v>
       </c>
       <c r="BP4">
-        <v>0.032709024990048116</v>
+        <v>0.032872346022596949</v>
       </c>
       <c r="BQ4">
-        <v>0.032349102482872268</v>
+        <v>0.032237200441426805</v>
       </c>
       <c r="BR4">
-        <v>0.033197632602894211</v>
+        <v>0.032066714162856426</v>
       </c>
       <c r="BS4">
-        <v>0.033069777152750564</v>
+        <v>0.032439717812179199</v>
       </c>
       <c r="BT4">
-        <v>0.023889829078367363</v>
+        <v>0.03283795176913526</v>
       </c>
       <c r="BU4">
-        <v>0.020983763061330183</v>
+        <v>0.032606036790971162</v>
       </c>
       <c r="BV4">
-        <v>0.021160805519316345</v>
+        <v>0.024025043292047271</v>
       </c>
       <c r="BW4">
-        <v>0.020547249631661282</v>
+        <v>0.020915336478762651</v>
       </c>
       <c r="BX4">
-        <v>0.020734496284860002</v>
+        <v>0.021083214107024104</v>
       </c>
       <c r="BY4">
-        <v>0.020871533703833114</v>
+        <v>0.020535289719300267</v>
       </c>
       <c r="BZ4">
-        <v>0.020470209293220049</v>
+        <v>0.020645942856987051</v>
       </c>
       <c r="CA4">
-        <v>0.020602908836750845</v>
+        <v>0.020850522079909752</v>
       </c>
       <c r="CB4">
-        <v>0.020747975028267147</v>
+        <v>0.020418788252454037</v>
       </c>
       <c r="CC4">
-        <v>0.020925199125012096</v>
+        <v>0.020646512573873683</v>
       </c>
       <c r="CD4">
-        <v>0.021586692555479344</v>
+        <v>0.020835691339578716</v>
       </c>
       <c r="CE4">
-        <v>0.022501452610108195</v>
+        <v>0.020979184212602572</v>
       </c>
       <c r="CF4">
-        <v>0.022505534780032078</v>
+        <v>0.021598335126293715</v>
       </c>
       <c r="CG4">
-        <v>0.022652018343193938</v>
+        <v>0.022507825009404465</v>
       </c>
       <c r="CH4">
-        <v>0.023005341175197376</v>
+        <v>0.022572211047276743</v>
       </c>
       <c r="CI4">
-        <v>0.022876565729104778</v>
+        <v>0.022792128843574264</v>
       </c>
       <c r="CJ4">
-        <v>0.02335374887370513</v>
+        <v>0.022910381969199884</v>
       </c>
       <c r="CK4">
-        <v>0.023393344605774948</v>
+        <v>0.023021515817349226</v>
       </c>
       <c r="CL4">
-        <v>0.023868078501256117</v>
+        <v>0.023401649704477584</v>
       </c>
       <c r="CM4">
-        <v>0.023855591368900884</v>
+        <v>0.023529430194423277</v>
       </c>
       <c r="CN4">
-        <v>0.023120829202250354</v>
+        <v>0.023783658882965943</v>
       </c>
       <c r="CO4">
-        <v>0.020397588238908564</v>
+        <v>0.024104225907145005</v>
       </c>
       <c r="CP4">
-        <v>0.020503734512660785</v>
+        <v>0.023218428013179568</v>
       </c>
       <c r="CQ4">
-        <v>0.019807399178631724</v>
+        <v>0.0203735545597311</v>
       </c>
       <c r="CR4">
-        <v>0.0199394079116305</v>
+        <v>0.020473793457727693</v>
       </c>
       <c r="CS4">
-        <v>0.020033779048696257</v>
+        <v>0.01978703261160027</v>
       </c>
       <c r="CT4">
-        <v>0.019487537037252648</v>
+        <v>0.019864176411139464</v>
       </c>
       <c r="CU4">
-        <v>0.019551515444836558</v>
+        <v>0.019933038151478816</v>
       </c>
       <c r="CV4">
-        <v>0.019657067945340875</v>
+        <v>0.019525366413455179</v>
       </c>
       <c r="CW4">
-        <v>0.01970234315515252</v>
+        <v>0.019519770560392162</v>
       </c>
       <c r="CX4">
-        <v>0.019835810539620091</v>
+        <v>0.019691084025482395</v>
       </c>
       <c r="CY4">
-        <v>0.020098636416688832</v>
+        <v>0.019842732288398782</v>
       </c>
       <c r="CZ4">
-        <v>0.020082707328286684</v>
+        <v>0.019904713192061056</v>
       </c>
       <c r="DA4">
-        <v>0.020176216047007419</v>
+        <v>0.020065902434827004</v>
       </c>
       <c r="DB4">
-        <v>0.020329291448402315</v>
+        <v>0.020145264071661357</v>
       </c>
       <c r="DC4">
-        <v>0.020439680972506018</v>
+        <v>0.020211424863181816</v>
       </c>
       <c r="DD4">
-        <v>0.020441885685402214</v>
+        <v>0.020299303247762829</v>
       </c>
       <c r="DE4">
-        <v>0.020576665830226288</v>
+        <v>0.020470281959782954</v>
       </c>
       <c r="DF4">
-        <v>0.020701140445523753</v>
+        <v>0.020462600243313471</v>
       </c>
       <c r="DG4">
-        <v>0.020713958942508465</v>
+        <v>0.02061988383105421</v>
       </c>
       <c r="DH4">
-        <v>0.020762854613733679</v>
+        <v>0.020780975509704421</v>
       </c>
       <c r="DI4">
-        <v>0.019894269703293312</v>
+        <v>0.020718048546724641</v>
       </c>
       <c r="DJ4">
-        <v>0.019911555740981277</v>
+        <v>0.020843629557533019</v>
       </c>
       <c r="DK4">
-        <v>0.01995540006894864</v>
+        <v>0.019800163157133798</v>
       </c>
       <c r="DL4">
-        <v>0.02003850437497787</v>
+        <v>0.019955673124161494</v>
       </c>
       <c r="DM4">
-        <v>0.020098888219864514</v>
+        <v>0.02000350102845088</v>
       </c>
       <c r="DN4">
-        <v>0.020105842283715952</v>
+        <v>0.02003639692200495</v>
       </c>
       <c r="DO4">
-        <v>0.020151908427422472</v>
+        <v>0.020207393690875711</v>
       </c>
       <c r="DP4">
-        <v>0.020290575813377995</v>
+        <v>0.020175128623601317</v>
       </c>
       <c r="DQ4">
-        <v>0.020337104595566955</v>
+        <v>0.020223367717577632</v>
       </c>
       <c r="DR4">
-        <v>0.020364626545493897</v>
+        <v>0.020308432751088942</v>
       </c>
       <c r="DS4">
-        <v>0.02059328213080058</v>
+        <v>0.020417745530861731</v>
       </c>
       <c r="DT4">
-        <v>0.020497518918287758</v>
+        <v>0.02053849414244277</v>
       </c>
       <c r="DU4">
-        <v>0.020672703255167953</v>
+        <v>0.020495307769245921</v>
       </c>
       <c r="DV4">
-        <v>0.020635055232589058</v>
+        <v>0.020481083761420903</v>
       </c>
       <c r="DW4">
-        <v>0.020694593287373025</v>
+        <v>0.020489308489249545</v>
       </c>
       <c r="DX4">
-        <v>0.020789194579946602</v>
+        <v>0.020591047646038852</v>
       </c>
       <c r="DY4">
-        <v>0.020672703527058345</v>
+        <v>0.02064955627855504</v>
       </c>
       <c r="DZ4">
-        <v>0.020862110939976742</v>
+        <v>0.020892198491687084</v>
       </c>
       <c r="EA4">
-        <v>0.020969614295394144</v>
+        <v>0.020903677050783699</v>
       </c>
       <c r="EB4">
-        <v>0.020875197510579785</v>
+        <v>0.020854591716664317</v>
       </c>
       <c r="EC4">
-        <v>0.020886593310623182</v>
+        <v>0.020875513801762578</v>
       </c>
       <c r="ED4">
-        <v>0.02091397282260431</v>
+        <v>0.020882525907854749</v>
       </c>
       <c r="EE4">
-        <v>0.021000638686582515</v>
+        <v>0.020880771171628836</v>
       </c>
       <c r="EF4">
-        <v>0.021029248034042373</v>
+        <v>0.020927681327041821</v>
       </c>
       <c r="EG4">
-        <v>0.021076998433310734</v>
+        <v>0.021068030637740494</v>
       </c>
       <c r="EH4">
-        <v>0.021064745111477403</v>
+        <v>0.021048319178628996</v>
       </c>
       <c r="EI4">
-        <v>0.021215608999072801</v>
+        <v>0.021115557678485438</v>
       </c>
       <c r="EJ4">
-        <v>0.02124259365274124</v>
+        <v>0.021229157869900872</v>
       </c>
       <c r="EK4">
-        <v>0.021314842206430241</v>
+        <v>0.021325838162829736</v>
       </c>
       <c r="EL4">
-        <v>0.021356389743729103</v>
+        <v>0.021174702486219655</v>
       </c>
       <c r="EM4">
-        <v>0.021378451898061548</v>
+        <v>0.021208237455594119</v>
       </c>
       <c r="EN4">
-        <v>0.021372130778328936</v>
+        <v>0.02124822493597079</v>
       </c>
       <c r="EO4">
-        <v>0.021396439597280627</v>
+        <v>0.021299040928303477</v>
       </c>
       <c r="EP4">
-        <v>0.021481563350364392</v>
+        <v>0.021239176896855838</v>
       </c>
       <c r="EQ4">
-        <v>0.021379507058327557</v>
+        <v>0.021250239883764101</v>
       </c>
       <c r="ER4">
-        <v>0.021468467977277826</v>
+        <v>0.021470342265292458</v>
       </c>
       <c r="ES4">
-        <v>0.021622787787192631</v>
+        <v>0.021386561357813836</v>
       </c>
       <c r="ET4">
-        <v>0.021487037814904301</v>
+        <v>0.021442139536328269</v>
       </c>
       <c r="EU4">
-        <v>0.021467379579674942</v>
+        <v>0.021490032124741289</v>
       </c>
       <c r="EV4">
-        <v>0.021732780978197721</v>
+        <v>0.021653742656038179</v>
       </c>
       <c r="EW4">
-        <v>0.021573814210402248</v>
+        <v>0.021415283100572769</v>
       </c>
       <c r="EX4">
-        <v>0.021937485982374254</v>
+        <v>0.021438903532915058</v>
       </c>
       <c r="EY4">
-        <v>0.021713767622933304</v>
+        <v>0.021819727773409448</v>
       </c>
       <c r="EZ4">
-        <v>0.021606752742191263</v>
+        <v>0.02170529000441182</v>
       </c>
       <c r="FA4">
-        <v>0.021769968821770413</v>
+        <v>0.021752941782673684</v>
       </c>
       <c r="FB4">
-        <v>0.021776010428880773</v>
+        <v>0.021763769238936151</v>
       </c>
       <c r="FC4">
-        <v>0.021767555733455179</v>
+        <v>0.021787971252233165</v>
       </c>
       <c r="FD4">
-        <v>0.021705487637769565</v>
+        <v>0.021883005822416941</v>
       </c>
       <c r="FE4">
-        <v>0.021726826728956924</v>
+        <v>0.021762564438082842</v>
       </c>
       <c r="FF4">
-        <v>0.02201368050446106</v>
+        <v>0.021830799283049884</v>
       </c>
       <c r="FG4">
-        <v>0.021990235378332001</v>
+        <v>0.021705290434084014</v>
       </c>
       <c r="FH4">
-        <v>0.022034670247608967</v>
+        <v>0.022063735847507461</v>
       </c>
       <c r="FI4">
-        <v>0.02208776968502037</v>
+        <v>0.022078391640277285</v>
       </c>
       <c r="FJ4">
-        <v>0.022200888500606038</v>
+        <v>0.021856790664751494</v>
       </c>
       <c r="FK4">
-        <v>0.022033354423484988</v>
+        <v>0.022004485925179826</v>
       </c>
       <c r="FL4">
-        <v>0.022279539331810008</v>
+        <v>0.022126839043660893</v>
       </c>
       <c r="FM4">
-        <v>0.022073077673955083</v>
+        <v>0.021918314586604884</v>
       </c>
       <c r="FN4">
-        <v>0.022345608509228787</v>
+        <v>0.021982393090395933</v>
       </c>
       <c r="FO4">
-        <v>0</v>
+        <v>0.022402831562812673</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.015642205247907544</v>
+        <v>0</v>
+      </c>
+      <c r="FR4">
+        <v>0</v>
+      </c>
+      <c r="FS4">
+        <v>0.015640291926638347</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13896" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19512" uniqueCount="181">
   <si>
     <t>y1</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>o.bin_163</t>
+  </si>
+  <si>
+    <t>bin_161</t>
+  </si>
+  <si>
+    <t>min6b</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1638,7 +1644,7 @@
         <v>176</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -1655,517 +1661,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.64154509354104805</v>
+        <v>-0.0066646304388935226</v>
       </c>
       <c r="C3">
-        <v>-0.9019880534998439</v>
+        <v>-1.560929863184316</v>
       </c>
       <c r="D3">
-        <v>-0.9360896458648974</v>
+        <v>-1.6145071767247634</v>
       </c>
       <c r="E3">
-        <v>-0.93489293792572681</v>
+        <v>-1.609639481966356</v>
       </c>
       <c r="F3">
-        <v>0.51505364604480885</v>
+        <v>-0.0051228424951356502</v>
       </c>
       <c r="G3">
-        <v>0.51033100421034894</v>
+        <v>-0.00040818544912766099</v>
       </c>
       <c r="H3">
-        <v>0.46894939990243356</v>
+        <v>0.00036606970360182384</v>
       </c>
       <c r="I3">
-        <v>0.19627750703372862</v>
+        <v>0.0062414243510210132</v>
       </c>
       <c r="J3">
-        <v>0.23772409919057635</v>
+        <v>-0.0042649207976060127</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.28727528177499939</v>
+        <v>1.283882308378296</v>
       </c>
       <c r="M3">
-        <v>-0.1488989415468033</v>
+        <v>1.3602490020923195</v>
       </c>
       <c r="N3">
-        <v>-1.7620618807402932</v>
+        <v>-0.1927514584843095</v>
       </c>
       <c r="O3">
-        <v>-1.7281149742100681</v>
+        <v>-0.1489759824126991</v>
       </c>
       <c r="P3">
-        <v>-1.7084991680353732</v>
+        <v>-0.15004737741830398</v>
       </c>
       <c r="Q3">
-        <v>-1.7033219111181439</v>
+        <v>-0.14394525652002804</v>
       </c>
       <c r="R3">
-        <v>-1.7214050866702957</v>
+        <v>-0.13786745306243967</v>
       </c>
       <c r="S3">
-        <v>-1.6895186726765705</v>
+        <v>-0.1532700152176249</v>
       </c>
       <c r="T3">
-        <v>-1.6713923421455092</v>
+        <v>-0.12228602962190854</v>
       </c>
       <c r="U3">
-        <v>-1.639251698161214</v>
+        <v>-0.1076112364160203</v>
       </c>
       <c r="V3">
-        <v>-1.617808672967967</v>
+        <v>-0.052176396310074029</v>
       </c>
       <c r="W3">
-        <v>-1.6202875316293655</v>
+        <v>-0.023923812306447998</v>
       </c>
       <c r="X3">
-        <v>-1.6277316030310989</v>
+        <v>0.049100609696400642</v>
       </c>
       <c r="Y3">
-        <v>-1.6170604863258247</v>
+        <v>-0.032627819984870285</v>
       </c>
       <c r="Z3">
-        <v>-1.6113574991438975</v>
+        <v>-0.041518688372532975</v>
       </c>
       <c r="AA3">
-        <v>-1.5992039470724648</v>
+        <v>-0.028595375559516033</v>
       </c>
       <c r="AB3">
-        <v>-1.5488508734062725</v>
+        <v>-0.089883006429767542</v>
       </c>
       <c r="AC3">
-        <v>-1.6015738178811465</v>
+        <v>-0.056339208858439585</v>
       </c>
       <c r="AD3">
-        <v>-1.5791439356765649</v>
+        <v>-0.048951822878214736</v>
       </c>
       <c r="AE3">
-        <v>-1.5517387509917662</v>
+        <v>-0.094376368552005263</v>
       </c>
       <c r="AF3">
-        <v>-1.594234758686403</v>
+        <v>0.04587160777167424</v>
       </c>
       <c r="AG3">
-        <v>-1.5385644896212036</v>
+        <v>0.019445180051628121</v>
       </c>
       <c r="AH3">
-        <v>-1.5877316762178695</v>
+        <v>0.086502641300851252</v>
       </c>
       <c r="AI3">
-        <v>-1.5781297182075888</v>
+        <v>-0.017187325007651577</v>
       </c>
       <c r="AJ3">
-        <v>-1.5678087326909891</v>
+        <v>0.034275000854023657</v>
       </c>
       <c r="AK3">
-        <v>-1.5653963355256533</v>
+        <v>-0.017890299127277024</v>
       </c>
       <c r="AL3">
-        <v>-1.5443278812954218</v>
+        <v>0.091381477488580956</v>
       </c>
       <c r="AM3">
-        <v>-1.5357964611600827</v>
+        <v>0.048973963863859049</v>
       </c>
       <c r="AN3">
-        <v>-1.5250431728317624</v>
+        <v>0.050607472945109991</v>
       </c>
       <c r="AO3">
-        <v>-1.5256817394310522</v>
+        <v>0.068594254721700082</v>
       </c>
       <c r="AP3">
-        <v>-1.4993634753739129</v>
+        <v>0.052392962228250385</v>
       </c>
       <c r="AQ3">
-        <v>-1.5688605455380458</v>
+        <v>0.025138917521247004</v>
       </c>
       <c r="AR3">
-        <v>-1.52686549764363</v>
+        <v>0.032919495897670389</v>
       </c>
       <c r="AS3">
-        <v>-1.4871917964296482</v>
+        <v>0.060246922769151223</v>
       </c>
       <c r="AT3">
-        <v>-1.5481690326168291</v>
+        <v>0.0082920741204054703</v>
       </c>
       <c r="AU3">
-        <v>-1.4774075125183235</v>
+        <v>0.08339308565388738</v>
       </c>
       <c r="AV3">
-        <v>-1.4248444887642793</v>
+        <v>0.013195360081860515</v>
       </c>
       <c r="AW3">
-        <v>-1.5162698487548814</v>
+        <v>0.04947850337462277</v>
       </c>
       <c r="AX3">
-        <v>-1.5360143361816541</v>
+        <v>0.077977990231865746</v>
       </c>
       <c r="AY3">
-        <v>-1.4795948988001029</v>
+        <v>0.039855157362268578</v>
       </c>
       <c r="AZ3">
-        <v>-1.5608271838246668</v>
+        <v>0.039964668450505607</v>
       </c>
       <c r="BA3">
-        <v>-1.5357041665207141</v>
+        <v>0.056798781592564164</v>
       </c>
       <c r="BB3">
-        <v>-1.5171979114714969</v>
+        <v>0.0058574704681817304</v>
       </c>
       <c r="BC3">
-        <v>-1.5661909536102414</v>
+        <v>0.076467361369635084</v>
       </c>
       <c r="BD3">
-        <v>-1.5131960712061554</v>
+        <v>0.03270177183758316</v>
       </c>
       <c r="BE3">
-        <v>-1.4987490460539308</v>
+        <v>0.029691620934057431</v>
       </c>
       <c r="BF3">
-        <v>-1.4859481552199743</v>
+        <v>0.023537412274075232</v>
       </c>
       <c r="BG3">
-        <v>-1.5460120919329516</v>
+        <v>0.077747745778770028</v>
       </c>
       <c r="BH3">
-        <v>-1.486399939606571</v>
+        <v>0.034657447261403601</v>
       </c>
       <c r="BI3">
-        <v>-1.5640860538248136</v>
+        <v>0.054731048301936557</v>
       </c>
       <c r="BJ3">
-        <v>-1.5418304837699104</v>
+        <v>0.10606079538402585</v>
       </c>
       <c r="BK3">
-        <v>-1.5315971661608747</v>
+        <v>0.012221792662861922</v>
       </c>
       <c r="BL3">
-        <v>-1.1489068875362567</v>
+        <v>0.052066203885471327</v>
       </c>
       <c r="BM3">
-        <v>-1.1854369521303485</v>
+        <v>0.083088528980979404</v>
       </c>
       <c r="BN3">
-        <v>-1.1471395419992663</v>
+        <v>0.025945136056855438</v>
       </c>
       <c r="BO3">
-        <v>-1.1956640445255335</v>
+        <v>0.030733100120738089</v>
       </c>
       <c r="BP3">
-        <v>-1.1948036693919815</v>
+        <v>0.01421491816845114</v>
       </c>
       <c r="BQ3">
-        <v>-1.1351044577688032</v>
+        <v>0.079154734732097179</v>
       </c>
       <c r="BR3">
-        <v>-1.1519759012242781</v>
+        <v>0.063774042699276612</v>
       </c>
       <c r="BS3">
-        <v>-1.235648025058419</v>
+        <v>0.064647224675461482</v>
       </c>
       <c r="BT3">
-        <v>-1.1952560144958166</v>
+        <v>0.098364875387690495</v>
       </c>
       <c r="BU3">
-        <v>-1.1197977449063101</v>
+        <v>-0.0047123046504376331</v>
       </c>
       <c r="BV3">
-        <v>-0.8489633457979211</v>
+        <v>0.00054694402891961784</v>
       </c>
       <c r="BW3">
-        <v>-0.75558733861803118</v>
+        <v>0.024197346532307568</v>
       </c>
       <c r="BX3">
-        <v>-0.72030601879474732</v>
+        <v>0.02747200905253587</v>
       </c>
       <c r="BY3">
-        <v>-0.76285222933257535</v>
+        <v>0.020543571277410994</v>
       </c>
       <c r="BZ3">
-        <v>-0.74068712363782108</v>
+        <v>0.056221551135029718</v>
       </c>
       <c r="CA3">
-        <v>-0.76242932399690555</v>
+        <v>0.016756647320942064</v>
       </c>
       <c r="CB3">
-        <v>-0.7049209297817578</v>
+        <v>0.05128967210914348</v>
       </c>
       <c r="CC3">
-        <v>-0.72822231488701616</v>
+        <v>0.021892682845508694</v>
       </c>
       <c r="CD3">
-        <v>-0.72174259869867508</v>
+        <v>0.014283455341800019</v>
       </c>
       <c r="CE3">
-        <v>-0.73396986246321128</v>
+        <v>0.048516582484937773</v>
       </c>
       <c r="CF3">
-        <v>-0.46900927888941024</v>
+        <v>0.041228245486379142</v>
       </c>
       <c r="CG3">
-        <v>-0.24752623660247472</v>
+        <v>0.027236279697440566</v>
       </c>
       <c r="CH3">
-        <v>-0.27333583526933802</v>
+        <v>0.027767358310817902</v>
       </c>
       <c r="CI3">
-        <v>-0.26382953853150015</v>
+        <v>-0.018215034941384385</v>
       </c>
       <c r="CJ3">
-        <v>-0.2602110652476553</v>
+        <v>0.0536653657033287</v>
       </c>
       <c r="CK3">
-        <v>-0.28857999893768982</v>
+        <v>0.053870649932149607</v>
       </c>
       <c r="CL3">
-        <v>-0.31719826344471935</v>
+        <v>0.088326807806847193</v>
       </c>
       <c r="CM3">
-        <v>-0.29969543326849457</v>
+        <v>0.0070277943528498435</v>
       </c>
       <c r="CN3">
-        <v>-0.30209951260687312</v>
+        <v>0.022350875181141625</v>
       </c>
       <c r="CO3">
-        <v>-0.32751195559695218</v>
+        <v>0.066275445666931374</v>
       </c>
       <c r="CP3">
-        <v>-0.40997617607336634</v>
+        <v>0.029399213493777849</v>
       </c>
       <c r="CQ3">
-        <v>-0.24233228233103118</v>
+        <v>0.046301805176180356</v>
       </c>
       <c r="CR3">
-        <v>-0.26168113671397031</v>
+        <v>0.061167746898684851</v>
       </c>
       <c r="CS3">
-        <v>-0.24341214406396805</v>
+        <v>0.071934401496531575</v>
       </c>
       <c r="CT3">
-        <v>-0.23504289231869671</v>
+        <v>0.044166719515867314</v>
       </c>
       <c r="CU3">
-        <v>-0.21774716796828431</v>
+        <v>0.033529534121313105</v>
       </c>
       <c r="CV3">
-        <v>-0.24424288367556049</v>
+        <v>0.024402583092679071</v>
       </c>
       <c r="CW3">
-        <v>-0.16910043627155666</v>
+        <v>0.020556492062748601</v>
       </c>
       <c r="CX3">
-        <v>-0.22387762301954439</v>
+        <v>0.02137909605102048</v>
       </c>
       <c r="CY3">
-        <v>-0.2398614134232615</v>
+        <v>0.018898732316977106</v>
       </c>
       <c r="CZ3">
-        <v>-0.23829003811650051</v>
+        <v>0.063602628076563417</v>
       </c>
       <c r="DA3">
-        <v>-0.073206648287331436</v>
+        <v>0.05395787912213864</v>
       </c>
       <c r="DB3">
-        <v>-0.085567266197761185</v>
+        <v>0.03259798953438163</v>
       </c>
       <c r="DC3">
-        <v>-0.053008262028549358</v>
+        <v>-0.0015949823816159812</v>
       </c>
       <c r="DD3">
-        <v>-0.072794379978871518</v>
+        <v>0.044058148676577376</v>
       </c>
       <c r="DE3">
-        <v>-0.090236963803114204</v>
+        <v>0.063084665318838315</v>
       </c>
       <c r="DF3">
-        <v>-0.061335310935196091</v>
+        <v>0.057443957200934509</v>
       </c>
       <c r="DG3">
-        <v>-0.11655205935054327</v>
+        <v>0.039214599012162357</v>
       </c>
       <c r="DH3">
-        <v>-0.12590109417458861</v>
+        <v>0.018104410593582605</v>
       </c>
       <c r="DI3">
-        <v>-0.092579066921945743</v>
+        <v>0.087978211119827898</v>
       </c>
       <c r="DJ3">
-        <v>-0.10504209515966335</v>
+        <v>0.024641929034286705</v>
       </c>
       <c r="DK3">
-        <v>0.043115946124667064</v>
+        <v>0.058263356612028937</v>
       </c>
       <c r="DL3">
-        <v>0.020005422286028328</v>
+        <v>0.048323523470325286</v>
       </c>
       <c r="DM3">
-        <v>0.025656918569542823</v>
+        <v>0.00081930032537565461</v>
       </c>
       <c r="DN3">
-        <v>0.034010342670135064</v>
+        <v>0.025221428097309651</v>
       </c>
       <c r="DO3">
-        <v>0.0023631379113363557</v>
+        <v>0.045505724332950657</v>
       </c>
       <c r="DP3">
-        <v>0.039160161833596149</v>
+        <v>-0.0060438464957321292</v>
       </c>
       <c r="DQ3">
-        <v>0.039124800737081925</v>
+        <v>0.053312047656063781</v>
       </c>
       <c r="DR3">
-        <v>0.0277878402146471</v>
+        <v>0.01341722957468694</v>
       </c>
       <c r="DS3">
-        <v>0.014170024246154725</v>
+        <v>0.045435856570505265</v>
       </c>
       <c r="DT3">
-        <v>0.0005813506329071206</v>
+        <v>0.051187049960368013</v>
       </c>
       <c r="DU3">
-        <v>0.028647143512636451</v>
+        <v>0.040570198097632168</v>
       </c>
       <c r="DV3">
-        <v>0.039109310284749919</v>
+        <v>0.034069592041931128</v>
       </c>
       <c r="DW3">
-        <v>0.042122256835223179</v>
+        <v>0.032638755697356379</v>
       </c>
       <c r="DX3">
-        <v>0.034445725043945261</v>
+        <v>0.035584254248266348</v>
       </c>
       <c r="DY3">
-        <v>0.029011132655420921</v>
+        <v>0.049701643850841921</v>
       </c>
       <c r="DZ3">
-        <v>-0.0083128924559757959</v>
+        <v>0.032281572264392919</v>
       </c>
       <c r="EA3">
-        <v>-0.0051528433275503521</v>
+        <v>0.01016260652756726</v>
       </c>
       <c r="EB3">
-        <v>0.019622712164172391</v>
+        <v>0.013384201307586094</v>
       </c>
       <c r="EC3">
-        <v>0.027836927310144519</v>
+        <v>0.039674064575879034</v>
       </c>
       <c r="ED3">
-        <v>0.020041558148657251</v>
+        <v>0.017037851731755246</v>
       </c>
       <c r="EE3">
-        <v>0.031584605737884089</v>
+        <v>0.056845912279265214</v>
       </c>
       <c r="EF3">
-        <v>0.030386769332843185</v>
+        <v>0.018234639577197183</v>
       </c>
       <c r="EG3">
-        <v>0.012813457307213956</v>
+        <v>0.02442400557090332</v>
       </c>
       <c r="EH3">
-        <v>0.025311544701972187</v>
+        <v>0.035653155089215953</v>
       </c>
       <c r="EI3">
-        <v>0.0074234573057151533</v>
+        <v>0.030591184768874541</v>
       </c>
       <c r="EJ3">
-        <v>0.002884747324595044</v>
+        <v>0.035570247321326874</v>
       </c>
       <c r="EK3">
-        <v>-0.011377281743763889</v>
+        <v>0.014164141315776251</v>
       </c>
       <c r="EL3">
-        <v>0.026345241021128642</v>
+        <v>-0.013328046044076681</v>
       </c>
       <c r="EM3">
-        <v>0.02494088795117573</v>
+        <v>0.02477933069850537</v>
       </c>
       <c r="EN3">
-        <v>0.023499879578484532</v>
+        <v>0.022848328652619612</v>
       </c>
       <c r="EO3">
-        <v>0.013770771685697873</v>
+        <v>0.016506513286627854</v>
       </c>
       <c r="EP3">
-        <v>0.04241157342088453</v>
+        <v>0.023207888564533489</v>
       </c>
       <c r="EQ3">
-        <v>0.041071869448466587</v>
+        <v>0.026441471559679901</v>
       </c>
       <c r="ER3">
-        <v>0.0010996532799938765</v>
+        <v>0.037092666550314977</v>
       </c>
       <c r="ES3">
-        <v>0.022424939308554163</v>
+        <v>0.056760493353543807</v>
       </c>
       <c r="ET3">
-        <v>0.020376936585713389</v>
+        <v>0.010619441222962565</v>
       </c>
       <c r="EU3">
-        <v>0.016946484089983543</v>
+        <v>0.031164343757388753</v>
       </c>
       <c r="EV3">
-        <v>-0.012016242860582298</v>
+        <v>-0.014071306010436982</v>
       </c>
       <c r="EW3">
-        <v>0.042698356331228204</v>
+        <v>0.015555424133112186</v>
       </c>
       <c r="EX3">
-        <v>0.042519461402226968</v>
+        <v>0.036238789055158462</v>
       </c>
       <c r="EY3">
-        <v>-0.029054450821118287</v>
+        <v>0.011496432331654689</v>
       </c>
       <c r="EZ3">
-        <v>-0.003094616143112754</v>
+        <v>-0.01278990085611444</v>
       </c>
       <c r="FA3">
-        <v>-0.0027928023114697879</v>
+        <v>0.018141434963054925</v>
       </c>
       <c r="FB3">
-        <v>-0.0011025344659223559</v>
+        <v>0.00042827944214171283</v>
       </c>
       <c r="FC3">
-        <v>-0.00034691815422937215</v>
+        <v>0.018411453683013394</v>
       </c>
       <c r="FD3">
-        <v>-0.0147452331731209</v>
+        <v>0.016469154867701886</v>
       </c>
       <c r="FE3">
-        <v>0.01232888221184722</v>
+        <v>0.033030916349494448</v>
       </c>
       <c r="FF3">
-        <v>0.0065758918634209263</v>
+        <v>-0.027827135261069776</v>
       </c>
       <c r="FG3">
-        <v>0.032055175551344135</v>
+        <v>-0.053776150507363785</v>
       </c>
       <c r="FH3">
-        <v>-0.029955921408705441</v>
+        <v>0.048094801560845842</v>
       </c>
       <c r="FI3">
-        <v>-0.026535053384568654</v>
+        <v>0.038470362263584724</v>
       </c>
       <c r="FJ3">
-        <v>0.019811040764790008</v>
+        <v>-0.010273679468677114</v>
       </c>
       <c r="FK3">
-        <v>-0.0043174479224737331</v>
+        <v>0.021694273978267523</v>
       </c>
       <c r="FL3">
-        <v>-0.021893781152269292</v>
+        <v>0.012858924877151966</v>
       </c>
       <c r="FM3">
-        <v>0.021446337616015689</v>
+        <v>0.018368992572114228</v>
       </c>
       <c r="FN3">
-        <v>0.011638649677727868</v>
+        <v>-0.035524644555441451</v>
       </c>
       <c r="FO3">
-        <v>-0.058015251319643843</v>
+        <v>0.017623419444776769</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.035250685583651527</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -2174,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5154236019226168</v>
+        <v>-5.5203640040528006</v>
       </c>
     </row>
     <row r="4">
@@ -2182,517 +2188,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.022317854479426052</v>
+        <v>0.024688171493889962</v>
       </c>
       <c r="C4">
-        <v>0.01615935210920506</v>
+        <v>0.012512196778234926</v>
       </c>
       <c r="D4">
-        <v>0.020292471746830746</v>
+        <v>0.021808785280614876</v>
       </c>
       <c r="E4">
-        <v>0.025066590458341535</v>
+        <v>0.026567888272816031</v>
       </c>
       <c r="F4">
-        <v>0.014992593086116206</v>
+        <v>0.016281260997707749</v>
       </c>
       <c r="G4">
-        <v>0.012270672551255659</v>
+        <v>0.013484513556404832</v>
       </c>
       <c r="H4">
-        <v>0.0097181366132456457</v>
+        <v>0.010806270603994653</v>
       </c>
       <c r="I4">
-        <v>0.010962331537414105</v>
+        <v>0.010817714815051683</v>
       </c>
       <c r="J4">
-        <v>0.011107495379269399</v>
+        <v>0.011280492284554347</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.021465249809976474</v>
+        <v>0.02485868142917393</v>
       </c>
       <c r="M4">
-        <v>0.02082648772509401</v>
+        <v>0.024554710291606632</v>
       </c>
       <c r="N4">
-        <v>0.034438395433120404</v>
+        <v>0.036626732684059728</v>
       </c>
       <c r="O4">
-        <v>0.033989721367157714</v>
+        <v>0.036083915355012305</v>
       </c>
       <c r="P4">
-        <v>0.033738724681249416</v>
+        <v>0.036106239867546769</v>
       </c>
       <c r="Q4">
-        <v>0.033680074116912304</v>
+        <v>0.036039464621138412</v>
       </c>
       <c r="R4">
-        <v>0.033929265797054672</v>
+        <v>0.035973279669972692</v>
       </c>
       <c r="S4">
-        <v>0.033518056866726945</v>
+        <v>0.036173613691519516</v>
       </c>
       <c r="T4">
-        <v>0.033292076989929677</v>
+        <v>0.035799611049782909</v>
       </c>
       <c r="U4">
-        <v>0.032890127543951958</v>
+        <v>0.035629934012305478</v>
       </c>
       <c r="V4">
-        <v>0.032629701776973163</v>
+        <v>0.034978830320272422</v>
       </c>
       <c r="W4">
-        <v>0.032670789622323802</v>
+        <v>0.034660731530639172</v>
       </c>
       <c r="X4">
-        <v>0.032774468858214077</v>
+        <v>0.033851568803502569</v>
       </c>
       <c r="Y4">
-        <v>0.032650218514541682</v>
+        <v>0.034780643974229954</v>
       </c>
       <c r="Z4">
-        <v>0.032588830530582036</v>
+        <v>0.034893203499104408</v>
       </c>
       <c r="AA4">
-        <v>0.032447460974108285</v>
+        <v>0.034752786716009294</v>
       </c>
       <c r="AB4">
-        <v>0.031841908216661774</v>
+        <v>0.035484629469625252</v>
       </c>
       <c r="AC4">
-        <v>0.032497652831309752</v>
+        <v>0.035094646971704134</v>
       </c>
       <c r="AD4">
-        <v>0.032230445068074286</v>
+        <v>0.035017224730574815</v>
       </c>
       <c r="AE4">
-        <v>0.031906832753284521</v>
+        <v>0.035567305090193055</v>
       </c>
       <c r="AF4">
-        <v>0.032437461836212426</v>
+        <v>0.033957784471204185</v>
       </c>
       <c r="AG4">
-        <v>0.031768397439370655</v>
+        <v>0.034261165723208808</v>
       </c>
       <c r="AH4">
-        <v>0.03237773931206573</v>
+        <v>0.033535241648076558</v>
       </c>
       <c r="AI4">
-        <v>0.032269445729478007</v>
+        <v>0.034697406412706876</v>
       </c>
       <c r="AJ4">
-        <v>0.032153040509921668</v>
+        <v>0.034124615926847825</v>
       </c>
       <c r="AK4">
-        <v>0.03213381252282977</v>
+        <v>0.034725041101434657</v>
       </c>
       <c r="AL4">
-        <v>0.031888225014320037</v>
+        <v>0.033519826625174942</v>
       </c>
       <c r="AM4">
-        <v>0.031795878580400512</v>
+        <v>0.033990815188896205</v>
       </c>
       <c r="AN4">
-        <v>0.031677525264579613</v>
+        <v>0.033982541956832223</v>
       </c>
       <c r="AO4">
-        <v>0.03169561030226313</v>
+        <v>0.033795083179760141</v>
       </c>
       <c r="AP4">
-        <v>0.031394082140010153</v>
+        <v>0.033982541959406809</v>
       </c>
       <c r="AQ4">
-        <v>0.032240176485815321</v>
+        <v>0.034295743066311044</v>
       </c>
       <c r="AR4">
-        <v>0.031741018078985841</v>
+        <v>0.034218193316250242</v>
       </c>
       <c r="AS4">
-        <v>0.03128202123140774</v>
+        <v>0.033924918957026415</v>
       </c>
       <c r="AT4">
-        <v>0.032019463935570626</v>
+        <v>0.034515959941423903</v>
       </c>
       <c r="AU4">
-        <v>0.031188545372485138</v>
+        <v>0.033691467461080142</v>
       </c>
       <c r="AV4">
-        <v>0.030597644292793328</v>
+        <v>0.034480241132292144</v>
       </c>
       <c r="AW4">
-        <v>0.03166849940207591</v>
+        <v>0.034082511979259836</v>
       </c>
       <c r="AX4">
-        <v>0.031916154107550616</v>
+        <v>0.033779034106418561</v>
       </c>
       <c r="AY4">
-        <v>0.031256406781491171</v>
+        <v>0.034209631852398406</v>
       </c>
       <c r="AZ4">
-        <v>0.032240176497467903</v>
+        <v>0.034218193326237219</v>
       </c>
       <c r="BA4">
-        <v>0.031944188201251514</v>
+        <v>0.034040673817492276</v>
       </c>
       <c r="BB4">
-        <v>0.03173191414470565</v>
+        <v>0.034624251075419991</v>
       </c>
       <c r="BC4">
-        <v>0.032338181739925559</v>
+        <v>0.033843469420621802</v>
       </c>
       <c r="BD4">
-        <v>0.031704669527372505</v>
+        <v>0.034339216332093601</v>
       </c>
       <c r="BE4">
-        <v>0.03154328951146998</v>
+        <v>0.03438297176149082</v>
       </c>
       <c r="BF4">
-        <v>0.031402774680805559</v>
+        <v>0.034462451789628895</v>
       </c>
       <c r="BG4">
-        <v>0.032133812551313742</v>
+        <v>0.033867797909554395</v>
       </c>
       <c r="BH4">
-        <v>0.03142891500493681</v>
+        <v>0.034356684487470132</v>
       </c>
       <c r="BI4">
-        <v>0.03237773934584854</v>
+        <v>0.034141532556726507</v>
       </c>
       <c r="BJ4">
-        <v>0.032114633431863639</v>
+        <v>0.033589489028944208</v>
       </c>
       <c r="BK4">
-        <v>0.032000573940391956</v>
+        <v>0.034642467134765709</v>
       </c>
       <c r="BL4">
-        <v>0.03218677864866016</v>
+        <v>0.034201081349019127</v>
       </c>
       <c r="BM4">
-        <v>0.03263681631219114</v>
+        <v>0.033867797917646623</v>
       </c>
       <c r="BN4">
-        <v>0.032186850414560764</v>
+        <v>0.034515959965787206</v>
       </c>
       <c r="BO4">
-        <v>0.032783272457708186</v>
+        <v>0.034471340660575694</v>
       </c>
       <c r="BP4">
-        <v>0.032783310759564907</v>
+        <v>0.034669882014157945</v>
       </c>
       <c r="BQ4">
-        <v>0.032381952055021118</v>
+        <v>0.034859092217198025</v>
       </c>
       <c r="BR4">
-        <v>0.032593266661939568</v>
+        <v>0.035039324468967015</v>
       </c>
       <c r="BS4">
-        <v>0.033631531141136255</v>
+        <v>0.035039401043237418</v>
       </c>
       <c r="BT4">
-        <v>0.033419470736836265</v>
+        <v>0.035466931123620808</v>
       </c>
       <c r="BU4">
-        <v>0.032531528990611555</v>
+        <v>0.036612140136414943</v>
       </c>
       <c r="BV4">
-        <v>0.027224737691682835</v>
+        <v>0.031162410460107332</v>
       </c>
       <c r="BW4">
-        <v>0.024658370883307745</v>
+        <v>0.026843155896240017</v>
       </c>
       <c r="BX4">
-        <v>0.024480118788221216</v>
+        <v>0.026841757133850948</v>
       </c>
       <c r="BY4">
-        <v>0.024115045109289752</v>
+        <v>0.025778707158710289</v>
       </c>
       <c r="BZ4">
-        <v>0.024003954844212291</v>
+        <v>0.025608893549801545</v>
       </c>
       <c r="CA4">
-        <v>0.024140152998133928</v>
+        <v>0.025833956960980613</v>
       </c>
       <c r="CB4">
-        <v>0.02347538020173244</v>
+        <v>0.02477677581479831</v>
       </c>
       <c r="CC4">
-        <v>0.023624248767560866</v>
+        <v>0.024956828598435846</v>
       </c>
       <c r="CD4">
-        <v>0.023601694596120527</v>
+        <v>0.025018228987232077</v>
       </c>
       <c r="CE4">
-        <v>0.023687910666675461</v>
+        <v>0.024847858052544244</v>
       </c>
       <c r="CF4">
-        <v>0.024447667716663034</v>
+        <v>0.024907099880212714</v>
       </c>
       <c r="CG4">
-        <v>0.025117567601956714</v>
+        <v>0.024956662575652464</v>
       </c>
       <c r="CH4">
-        <v>0.025278451761310199</v>
+        <v>0.024972927416502196</v>
       </c>
       <c r="CI4">
-        <v>0.025244316893214894</v>
+        <v>0.025254163761751779</v>
       </c>
       <c r="CJ4">
-        <v>0.025242991328614805</v>
+        <v>0.024866877778109395</v>
       </c>
       <c r="CK4">
-        <v>0.025351732598980103</v>
+        <v>0.025141009150070594</v>
       </c>
       <c r="CL4">
-        <v>0.025583117250895387</v>
+        <v>0.025272364971622597</v>
       </c>
       <c r="CM4">
-        <v>0.025503550247346313</v>
+        <v>0.025744036963843198</v>
       </c>
       <c r="CN4">
-        <v>0.025960729756946237</v>
+        <v>0.02592789658223631</v>
       </c>
       <c r="CO4">
-        <v>0.026124653550987635</v>
+        <v>0.025705938380898834</v>
       </c>
       <c r="CP4">
-        <v>0.025561291199055279</v>
+        <v>0.025653729263207983</v>
       </c>
       <c r="CQ4">
-        <v>0.022497045520049323</v>
+        <v>0.022074317391328608</v>
       </c>
       <c r="CR4">
-        <v>0.022587351611232018</v>
+        <v>0.022032831668424423</v>
       </c>
       <c r="CS4">
-        <v>0.021885169915374571</v>
+        <v>0.021527872200806153</v>
       </c>
       <c r="CT4">
-        <v>0.021868796577790717</v>
+        <v>0.021655459023990971</v>
       </c>
       <c r="CU4">
-        <v>0.021817751323660595</v>
+        <v>0.021715578917442652</v>
       </c>
       <c r="CV4">
-        <v>0.021513312962342643</v>
+        <v>0.021392267450831826</v>
       </c>
       <c r="CW4">
-        <v>0.021225013231336288</v>
+        <v>0.021425749610578197</v>
       </c>
       <c r="CX4">
-        <v>0.021464113535441944</v>
+        <v>0.021439586000786656</v>
       </c>
       <c r="CY4">
-        <v>0.021548232592842189</v>
+        <v>0.021467505022525112</v>
       </c>
       <c r="CZ4">
-        <v>0.021558964996447084</v>
+        <v>0.021297525763057351</v>
       </c>
       <c r="DA4">
-        <v>0.021560724153334997</v>
+        <v>0.021348413353960458</v>
       </c>
       <c r="DB4">
-        <v>0.02163060061025239</v>
+        <v>0.021455859514935002</v>
       </c>
       <c r="DC4">
-        <v>0.021510777634211924</v>
+        <v>0.021620954335764227</v>
       </c>
       <c r="DD4">
-        <v>0.021611763185001985</v>
+        <v>0.021441963212606836</v>
       </c>
       <c r="DE4">
-        <v>0.021704227143200593</v>
+        <v>0.021379680123185908</v>
       </c>
       <c r="DF4">
-        <v>0.021556741872453294</v>
+        <v>0.021495628842929704</v>
       </c>
       <c r="DG4">
-        <v>0.021809443447890504</v>
+        <v>0.021591284615707734</v>
       </c>
       <c r="DH4">
-        <v>0.021868105072909521</v>
+        <v>0.0217009535903885</v>
       </c>
       <c r="DI4">
-        <v>0.021740877730187579</v>
+        <v>0.021420029341598864</v>
       </c>
       <c r="DJ4">
-        <v>0.021812757799621971</v>
+        <v>0.02170934015492082</v>
       </c>
       <c r="DK4">
-        <v>0.020828164185242821</v>
+        <v>0.020825014855072908</v>
       </c>
       <c r="DL4">
-        <v>0.020951724410185366</v>
+        <v>0.02088829378644479</v>
       </c>
       <c r="DM4">
-        <v>0.020944700688156036</v>
+        <v>0.021124904174614583</v>
       </c>
       <c r="DN4">
-        <v>0.020925483909176722</v>
+        <v>0.021030488823349885</v>
       </c>
       <c r="DO4">
-        <v>0.021090779616045083</v>
+        <v>0.020956667500915859</v>
       </c>
       <c r="DP4">
-        <v>0.020939445596819508</v>
+        <v>0.021215172931639832</v>
       </c>
       <c r="DQ4">
-        <v>0.020958767695002416</v>
+        <v>0.020958400764387698</v>
       </c>
       <c r="DR4">
-        <v>0.021030273913693241</v>
+        <v>0.021162143418153541</v>
       </c>
       <c r="DS4">
-        <v>0.021113131513548513</v>
+        <v>0.021032272818227959</v>
       </c>
       <c r="DT4">
-        <v>0.021196734464393182</v>
+        <v>0.021025145359250371</v>
       </c>
       <c r="DU4">
-        <v>0.021083371233861375</v>
+        <v>0.021093660693526958</v>
       </c>
       <c r="DV4">
-        <v>0.021053943382689941</v>
+        <v>0.02114345845910167</v>
       </c>
       <c r="DW4">
-        <v>0.021059436107513294</v>
+        <v>0.02116965486754363</v>
       </c>
       <c r="DX4">
-        <v>0.021115002983512099</v>
+        <v>0.021175302303592755</v>
       </c>
       <c r="DY4">
-        <v>0.02116031178723813</v>
+        <v>0.021128605145931938</v>
       </c>
       <c r="DZ4">
-        <v>0.02135980348923628</v>
+        <v>0.02123052050189686</v>
       </c>
       <c r="EA4">
-        <v>0.021363904621549516</v>
+        <v>0.021356545038124758</v>
       </c>
       <c r="EB4">
-        <v>0.021263168402897464</v>
+        <v>0.021360578980355958</v>
       </c>
       <c r="EC4">
-        <v>0.021243459321364774</v>
+        <v>0.021253707167513687</v>
       </c>
       <c r="ED4">
-        <v>0.021301013569331978</v>
+        <v>0.021382872063840118</v>
       </c>
       <c r="EE4">
-        <v>0.02126514737275589</v>
+        <v>0.021211350723110169</v>
       </c>
       <c r="EF4">
-        <v>0.021291003484527688</v>
+        <v>0.021417683771589559</v>
       </c>
       <c r="EG4">
-        <v>0.02139693385654589</v>
+        <v>0.021407399501221971</v>
       </c>
       <c r="EH4">
-        <v>0.021355708922436982</v>
+        <v>0.021372716693591459</v>
       </c>
       <c r="EI4">
-        <v>0.021464189079825911</v>
+        <v>0.021417683941658654</v>
       </c>
       <c r="EJ4">
-        <v>0.021507055596109916</v>
+        <v>0.021413565681201115</v>
       </c>
       <c r="EK4">
-        <v>0.021599235575305409</v>
+        <v>0.021539841226428987</v>
       </c>
       <c r="EL4">
-        <v>0.021430359704444679</v>
+        <v>0.021699201937642694</v>
       </c>
       <c r="EM4">
-        <v>0.021457815151573138</v>
+        <v>0.02152695489970622</v>
       </c>
       <c r="EN4">
-        <v>0.021485541294503575</v>
+        <v>0.021557115168300577</v>
       </c>
       <c r="EO4">
-        <v>0.021554969569049221</v>
+        <v>0.021609575800528209</v>
       </c>
       <c r="EP4">
-        <v>0.021432462374793688</v>
+        <v>0.021596369904186521</v>
       </c>
       <c r="EQ4">
-        <v>0.021459938502537964</v>
+        <v>0.02160076516745903</v>
       </c>
       <c r="ER4">
-        <v>0.021682963109637198</v>
+        <v>0.021567965213198034</v>
       </c>
       <c r="ES4">
-        <v>0.021594778573628688</v>
+        <v>0.02149076054367512</v>
       </c>
       <c r="ET4">
-        <v>0.021626126558951877</v>
+        <v>0.021745077743036193</v>
       </c>
       <c r="EU4">
-        <v>0.021664654357885522</v>
+        <v>0.021660770246326573</v>
       </c>
       <c r="EV4">
-        <v>0.0218361081926336</v>
+        <v>0.021916413237927378</v>
       </c>
       <c r="EW4">
-        <v>0.02157480534844642</v>
+        <v>0.021782303743474701</v>
       </c>
       <c r="EX4">
-        <v>0.021597006739907502</v>
+        <v>0.021696927735625312</v>
       </c>
       <c r="EY4">
-        <v>0.021992421220919926</v>
+        <v>0.021846209085167052</v>
       </c>
       <c r="EZ4">
-        <v>0.021875047393095794</v>
+        <v>0.021995831486614034</v>
       </c>
       <c r="FA4">
-        <v>0.021894707710904696</v>
+        <v>0.021853395606499848</v>
       </c>
       <c r="FB4">
-        <v>0.021907060797444641</v>
+        <v>0.021968295915647477</v>
       </c>
       <c r="FC4">
-        <v>0.021924440275868651</v>
+        <v>0.021894449217314729</v>
       </c>
       <c r="FD4">
-        <v>0.022023127200975129</v>
+        <v>0.021926227460171754</v>
       </c>
       <c r="FE4">
-        <v>0.021899643095698449</v>
+        <v>0.021860599649597759</v>
       </c>
       <c r="FF4">
-        <v>0.021951953691038879</v>
+        <v>0.022209267386718513</v>
       </c>
       <c r="FG4">
-        <v>0.021838527760677056</v>
+        <v>0.022375193514793289</v>
       </c>
       <c r="FH4">
-        <v>0.022194949570324179</v>
+        <v>0.021843818008255963</v>
       </c>
       <c r="FI4">
-        <v>0.022197668045245072</v>
+        <v>0.02191641399885106</v>
       </c>
       <c r="FJ4">
-        <v>0.021967066639494263</v>
+        <v>0.022201195140237086</v>
       </c>
       <c r="FK4">
-        <v>0.022119771532065131</v>
+        <v>0.022049101479656979</v>
       </c>
       <c r="FL4">
-        <v>0.022238727002934479</v>
+        <v>0.022118977376344114</v>
       </c>
       <c r="FM4">
-        <v>0.022023127732422928</v>
+        <v>0.022111134928870808</v>
       </c>
       <c r="FN4">
-        <v>0.022098619439818303</v>
+        <v>0.022432468766379134</v>
       </c>
       <c r="FO4">
-        <v>0.022511696479198696</v>
+        <v>0.022158489930708781</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.022476098174709861</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -2701,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015717375942081651</v>
+        <v>0.015768096060465628</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -3752,7 +3758,7 @@
         <v>176</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -3769,517 +3775,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.37529169829509063</v>
+        <v>-0.020577646241065044</v>
       </c>
       <c r="C3">
-        <v>-0.2956040974791655</v>
+        <v>-0.67305044944687997</v>
       </c>
       <c r="D3">
-        <v>-0.28993627426109869</v>
+        <v>-0.6864509416031197</v>
       </c>
       <c r="E3">
-        <v>-0.32033143256123542</v>
+        <v>-0.70716699062535304</v>
       </c>
       <c r="F3">
-        <v>0.28186512410901043</v>
+        <v>-0.0088124434553964858</v>
       </c>
       <c r="G3">
-        <v>0.27883078222207125</v>
+        <v>0.0051886507253508483</v>
       </c>
       <c r="H3">
-        <v>0.26679135034744139</v>
+        <v>0.0065667662149529321</v>
       </c>
       <c r="I3">
-        <v>0.16255935689662809</v>
+        <v>0.0038526548211879944</v>
       </c>
       <c r="J3">
-        <v>0.16677202707043487</v>
+        <v>-0.010196247786944808</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.533132854075544</v>
+        <v>1.2247955738841318</v>
       </c>
       <c r="M3">
-        <v>0.6701521767280243</v>
+        <v>1.3201764365671227</v>
       </c>
       <c r="N3">
-        <v>-0.88578464454858252</v>
+        <v>-0.2253008795864038</v>
       </c>
       <c r="O3">
-        <v>-0.90415906380571154</v>
+        <v>-0.20981383454278849</v>
       </c>
       <c r="P3">
-        <v>-0.8543985367087048</v>
+        <v>-0.19806857272229092</v>
       </c>
       <c r="Q3">
-        <v>-0.88258406149972624</v>
+        <v>-0.16186360371463301</v>
       </c>
       <c r="R3">
-        <v>-0.86053187631720984</v>
+        <v>-0.16637781452914735</v>
       </c>
       <c r="S3">
-        <v>-0.87596784288603446</v>
+        <v>-0.15977955556728268</v>
       </c>
       <c r="T3">
-        <v>-0.84869009534900131</v>
+        <v>-0.12965802867640924</v>
       </c>
       <c r="U3">
-        <v>-0.84066716644363482</v>
+        <v>-0.14178001376921931</v>
       </c>
       <c r="V3">
-        <v>-0.7889170211011266</v>
+        <v>-0.10375160208466283</v>
       </c>
       <c r="W3">
-        <v>-0.84374988850663224</v>
+        <v>-0.12829802401595999</v>
       </c>
       <c r="X3">
-        <v>-0.77742124128333656</v>
+        <v>-0.034706358355799015</v>
       </c>
       <c r="Y3">
-        <v>-0.75988928312875892</v>
+        <v>-0.1004453449377463</v>
       </c>
       <c r="Z3">
-        <v>-0.78928173464850993</v>
+        <v>-0.086443459800611008</v>
       </c>
       <c r="AA3">
-        <v>-0.7043791364434776</v>
+        <v>-0.066771504222779277</v>
       </c>
       <c r="AB3">
-        <v>-0.74772244190752712</v>
+        <v>-0.099444950491471049</v>
       </c>
       <c r="AC3">
-        <v>-0.72541284372238413</v>
+        <v>-0.040177958112649667</v>
       </c>
       <c r="AD3">
-        <v>-0.74806082282971453</v>
+        <v>-0.041668012889571747</v>
       </c>
       <c r="AE3">
-        <v>-0.69477852119009809</v>
+        <v>-0.048236391280574553</v>
       </c>
       <c r="AF3">
-        <v>-0.70637851270396768</v>
+        <v>-0.034617226298192492</v>
       </c>
       <c r="AG3">
-        <v>-0.69478218990820773</v>
+        <v>-0.0090878919502120556</v>
       </c>
       <c r="AH3">
-        <v>-0.73885252661674827</v>
+        <v>0.0045111430722308736</v>
       </c>
       <c r="AI3">
-        <v>-0.71204632964212378</v>
+        <v>-0.052682669756745605</v>
       </c>
       <c r="AJ3">
-        <v>-0.68640596493266204</v>
+        <v>0.0082024893304454474</v>
       </c>
       <c r="AK3">
-        <v>-0.673056719647664</v>
+        <v>-0.052543392404605357</v>
       </c>
       <c r="AL3">
-        <v>-0.67527044327165187</v>
+        <v>-0.016055638653227108</v>
       </c>
       <c r="AM3">
-        <v>-0.66682355561395812</v>
+        <v>0.010271671735299012</v>
       </c>
       <c r="AN3">
-        <v>-0.67115203285929237</v>
+        <v>0.025928798979785686</v>
       </c>
       <c r="AO3">
-        <v>-0.64882652290003096</v>
+        <v>0.060494241066716435</v>
       </c>
       <c r="AP3">
-        <v>-0.65514082890822101</v>
+        <v>-0.0027337830051510255</v>
       </c>
       <c r="AQ3">
-        <v>-0.69876822543564687</v>
+        <v>0.025013761570092375</v>
       </c>
       <c r="AR3">
-        <v>-0.70374323319196463</v>
+        <v>-0.030728461888402836</v>
       </c>
       <c r="AS3">
-        <v>-0.64183130272722222</v>
+        <v>0.013870658791637189</v>
       </c>
       <c r="AT3">
-        <v>-0.64181185922581663</v>
+        <v>-0.0085897129830484129</v>
       </c>
       <c r="AU3">
-        <v>-0.63669161802466423</v>
+        <v>0.011817084564788059</v>
       </c>
       <c r="AV3">
-        <v>-0.65666899394865363</v>
+        <v>0.038281077497688283</v>
       </c>
       <c r="AW3">
-        <v>-0.65396768721228993</v>
+        <v>0.016011108075357518</v>
       </c>
       <c r="AX3">
-        <v>-0.60289920189065638</v>
+        <v>0.020247492884784175</v>
       </c>
       <c r="AY3">
-        <v>-0.66913683569314442</v>
+        <v>0.049978726928687975</v>
       </c>
       <c r="AZ3">
-        <v>-0.67553447513189457</v>
+        <v>0.050028934369793221</v>
       </c>
       <c r="BA3">
-        <v>-0.65756252142107019</v>
+        <v>0.080597371383290733</v>
       </c>
       <c r="BB3">
-        <v>-0.62707672788221347</v>
+        <v>0.04109611325366478</v>
       </c>
       <c r="BC3">
-        <v>-0.67050516497860413</v>
+        <v>0.036510399292122075</v>
       </c>
       <c r="BD3">
-        <v>-0.6304197878443456</v>
+        <v>0.042910817737159129</v>
       </c>
       <c r="BE3">
-        <v>-0.638029828968395</v>
+        <v>0.04351925100933559</v>
       </c>
       <c r="BF3">
-        <v>-0.62554017803618178</v>
+        <v>0.052049947457085022</v>
       </c>
       <c r="BG3">
-        <v>-0.66580508636969038</v>
+        <v>0.049335785791142978</v>
       </c>
       <c r="BH3">
-        <v>-0.6237432231969382</v>
+        <v>0.030525223321640465</v>
       </c>
       <c r="BI3">
-        <v>-0.66410957314351837</v>
+        <v>0.076510212702908767</v>
       </c>
       <c r="BJ3">
-        <v>-0.62713726529167302</v>
+        <v>0.073636927340956046</v>
       </c>
       <c r="BK3">
-        <v>-0.61039308084133304</v>
+        <v>0.034859826506618986</v>
       </c>
       <c r="BL3">
-        <v>-0.51946777108242315</v>
+        <v>0.055839807247200592</v>
       </c>
       <c r="BM3">
-        <v>-0.50037614526354246</v>
+        <v>0.039139826251336648</v>
       </c>
       <c r="BN3">
-        <v>-0.50608260533643001</v>
+        <v>0.0362595803426876</v>
       </c>
       <c r="BO3">
-        <v>-0.50837511082101172</v>
+        <v>0.050540870670446762</v>
       </c>
       <c r="BP3">
-        <v>-0.52540678356097559</v>
+        <v>0.0083341780879151815</v>
       </c>
       <c r="BQ3">
-        <v>-0.49098188019069117</v>
+        <v>0.092090872033850857</v>
       </c>
       <c r="BR3">
-        <v>-0.50545921665275062</v>
+        <v>0.026860223037987196</v>
       </c>
       <c r="BS3">
-        <v>-0.49389045095092465</v>
+        <v>0.027981433753564322</v>
       </c>
       <c r="BT3">
-        <v>-0.5201447136851326</v>
+        <v>0.10472087678573408</v>
       </c>
       <c r="BU3">
-        <v>-0.4708511221061642</v>
+        <v>0.025541522120414471</v>
       </c>
       <c r="BV3">
-        <v>-0.47520093464952845</v>
+        <v>0.018238493283508211</v>
       </c>
       <c r="BW3">
-        <v>-0.38824353012898166</v>
+        <v>0.028252133135938856</v>
       </c>
       <c r="BX3">
-        <v>-0.36990277630381418</v>
+        <v>0.03429333058532244</v>
       </c>
       <c r="BY3">
-        <v>-0.4111583867583587</v>
+        <v>0.019408017841789985</v>
       </c>
       <c r="BZ3">
-        <v>-0.38918238033157687</v>
+        <v>0.0529181799082869</v>
       </c>
       <c r="CA3">
-        <v>-0.38263620398431886</v>
+        <v>-0.0038978191306077901</v>
       </c>
       <c r="CB3">
-        <v>-0.36787630070889599</v>
+        <v>0.0345594138746846</v>
       </c>
       <c r="CC3">
-        <v>-0.38878957900099809</v>
+        <v>0.0088185871303995047</v>
       </c>
       <c r="CD3">
-        <v>-0.38177835104954333</v>
+        <v>0.0043359913889429403</v>
       </c>
       <c r="CE3">
-        <v>-0.39277400822359909</v>
+        <v>0.050752257656204336</v>
       </c>
       <c r="CF3">
-        <v>-0.2573654162629086</v>
+        <v>0.033470294799975042</v>
       </c>
       <c r="CG3">
-        <v>-0.20018907029086347</v>
+        <v>0.025843237350716825</v>
       </c>
       <c r="CH3">
-        <v>-0.21348634604689321</v>
+        <v>0.026384897831511794</v>
       </c>
       <c r="CI3">
-        <v>-0.20654311443939719</v>
+        <v>-0.0031169865096666756</v>
       </c>
       <c r="CJ3">
-        <v>-0.21102384258422913</v>
+        <v>0.062263730513842382</v>
       </c>
       <c r="CK3">
-        <v>-0.24986580925971152</v>
+        <v>0.050879690579573117</v>
       </c>
       <c r="CL3">
-        <v>-0.22991537901185116</v>
+        <v>0.093862904298025851</v>
       </c>
       <c r="CM3">
-        <v>-0.21834857793819587</v>
+        <v>0.0062584331707077109</v>
       </c>
       <c r="CN3">
-        <v>-0.20814390424983115</v>
+        <v>0.041098654318437677</v>
       </c>
       <c r="CO3">
-        <v>-0.23552598258310303</v>
+        <v>0.076181550972639359</v>
       </c>
       <c r="CP3">
-        <v>-0.22655181354277398</v>
+        <v>0.039308633132167169</v>
       </c>
       <c r="CQ3">
-        <v>-0.10283651934112005</v>
+        <v>0.048140178747327976</v>
       </c>
       <c r="CR3">
-        <v>-0.12218537124909583</v>
+        <v>0.063006120470398164</v>
       </c>
       <c r="CS3">
-        <v>-0.10514163936007891</v>
+        <v>0.069132638988261275</v>
       </c>
       <c r="CT3">
-        <v>-0.096772388689222527</v>
+        <v>0.041364957007039078</v>
       </c>
       <c r="CU3">
-        <v>-0.079476666616984923</v>
+        <v>0.030727771612279058</v>
       </c>
       <c r="CV3">
-        <v>-0.12479390860071597</v>
+        <v>0.02129686131033685</v>
       </c>
       <c r="CW3">
-        <v>-0.049651469228226261</v>
+        <v>0.017450770280289987</v>
       </c>
       <c r="CX3">
-        <v>-0.10442865000359416</v>
+        <v>0.018273374268587259</v>
       </c>
       <c r="CY3">
-        <v>-0.12041243878432352</v>
+        <v>0.015793010534469385</v>
       </c>
       <c r="CZ3">
-        <v>-0.11884106363482952</v>
+        <v>0.060496906295451139</v>
       </c>
       <c r="DA3">
-        <v>-0.05483924267500067</v>
+        <v>0.055155277924864694</v>
       </c>
       <c r="DB3">
-        <v>-0.067199860480781803</v>
+        <v>0.033795388337485348</v>
       </c>
       <c r="DC3">
-        <v>-0.03464085659289156</v>
+        <v>-0.00039758357794020916</v>
       </c>
       <c r="DD3">
-        <v>-0.054426974370075695</v>
+        <v>0.045255547479480039</v>
       </c>
       <c r="DE3">
-        <v>-0.071869558047268398</v>
+        <v>0.064282064121397531</v>
       </c>
       <c r="DF3">
-        <v>-0.022284355849003568</v>
+        <v>0.060398899042238857</v>
       </c>
       <c r="DG3">
-        <v>-0.077501103128446075</v>
+        <v>0.042169540852321108</v>
       </c>
       <c r="DH3">
-        <v>-0.08685013777227954</v>
+        <v>0.021059352432466021</v>
       </c>
       <c r="DI3">
-        <v>-0.053528111177647004</v>
+        <v>0.09093315296314744</v>
       </c>
       <c r="DJ3">
-        <v>-0.065991139164109897</v>
+        <v>0.027596870873559429</v>
       </c>
       <c r="DK3">
-        <v>0.04311594612466272</v>
+        <v>0.058263356612029298</v>
       </c>
       <c r="DL3">
-        <v>0.020005422286023943</v>
+        <v>0.04832352347032514</v>
       </c>
       <c r="DM3">
-        <v>0.025656918569538292</v>
+        <v>0.00081930032537558186</v>
       </c>
       <c r="DN3">
-        <v>0.034010342670130339</v>
+        <v>0.025221428097310278</v>
       </c>
       <c r="DO3">
-        <v>0.002363137911331531</v>
+        <v>0.045505724332950553</v>
       </c>
       <c r="DP3">
-        <v>0.039160161833591507</v>
+        <v>-0.0060438464957324614</v>
       </c>
       <c r="DQ3">
-        <v>0.039124800737076915</v>
+        <v>0.053312047656064128</v>
       </c>
       <c r="DR3">
-        <v>0.027787840214642298</v>
+        <v>0.013417229574686379</v>
       </c>
       <c r="DS3">
-        <v>0.014170024246150088</v>
+        <v>0.045435856570504959</v>
       </c>
       <c r="DT3">
-        <v>0.00058135063290247154</v>
+        <v>0.051187049960367881</v>
       </c>
       <c r="DU3">
-        <v>0.028647143512631597</v>
+        <v>0.04057019809763273</v>
       </c>
       <c r="DV3">
-        <v>0.039109310284745957</v>
+        <v>0.034069592041931614</v>
       </c>
       <c r="DW3">
-        <v>0.042122256835218364</v>
+        <v>0.032638755697355935</v>
       </c>
       <c r="DX3">
-        <v>0.03444572504394134</v>
+        <v>0.035584254248266979</v>
       </c>
       <c r="DY3">
-        <v>0.029011132655416799</v>
+        <v>0.049701643850842116</v>
       </c>
       <c r="DZ3">
-        <v>-0.008312892455980294</v>
+        <v>0.032281572264393286</v>
       </c>
       <c r="EA3">
-        <v>-0.0051528433275547314</v>
+        <v>0.010162606527567815</v>
       </c>
       <c r="EB3">
-        <v>0.019622712164167826</v>
+        <v>0.013384201307586451</v>
       </c>
       <c r="EC3">
-        <v>0.027836927310140737</v>
+        <v>0.039674064575878382</v>
       </c>
       <c r="ED3">
-        <v>0.02004155814865248</v>
+        <v>0.017037851731755399</v>
       </c>
       <c r="EE3">
-        <v>0.031584605737878774</v>
+        <v>0.056845912279264797</v>
       </c>
       <c r="EF3">
-        <v>0.030386769332838473</v>
+        <v>0.018234639577197821</v>
       </c>
       <c r="EG3">
-        <v>0.012813457307209491</v>
+        <v>0.024424005570903046</v>
       </c>
       <c r="EH3">
-        <v>0.025311544701968225</v>
+        <v>0.035653155089215759</v>
       </c>
       <c r="EI3">
-        <v>0.0074234573057106092</v>
+        <v>0.030591184768874392</v>
       </c>
       <c r="EJ3">
-        <v>0.0028847473245908056</v>
+        <v>0.035570247321327325</v>
       </c>
       <c r="EK3">
-        <v>-0.011377281743768689</v>
+        <v>0.014164141315776002</v>
       </c>
       <c r="EL3">
-        <v>0.026345241021124486</v>
+        <v>-0.01332804604407687</v>
       </c>
       <c r="EM3">
-        <v>0.024940887951171574</v>
+        <v>0.024779330698505096</v>
       </c>
       <c r="EN3">
-        <v>0.023499879578480092</v>
+        <v>0.022848328652619376</v>
       </c>
       <c r="EO3">
-        <v>0.013770771685693406</v>
+        <v>0.016506513286628388</v>
       </c>
       <c r="EP3">
-        <v>0.042411573420880533</v>
+        <v>0.023207888564532809</v>
       </c>
       <c r="EQ3">
-        <v>0.041071869448461973</v>
+        <v>0.026441471559679741</v>
       </c>
       <c r="ER3">
-        <v>0.0010996532799897459</v>
+        <v>0.037092666550314624</v>
       </c>
       <c r="ES3">
-        <v>0.022424939308549677</v>
+        <v>0.056760493353543919</v>
       </c>
       <c r="ET3">
-        <v>0.020376936585708653</v>
+        <v>0.01061944122296278</v>
       </c>
       <c r="EU3">
-        <v>0.016946484089978897</v>
+        <v>0.031164343757388406</v>
       </c>
       <c r="EV3">
-        <v>-0.012016242860586588</v>
+        <v>-0.014071306010436791</v>
       </c>
       <c r="EW3">
-        <v>0.042698356331223472</v>
+        <v>0.015555424133113041</v>
       </c>
       <c r="EX3">
-        <v>0.042519461402221903</v>
+        <v>0.036238789055159246</v>
       </c>
       <c r="EY3">
-        <v>-0.029054450821123345</v>
+        <v>0.011496432331655024</v>
       </c>
       <c r="EZ3">
-        <v>-0.0030946161431174742</v>
+        <v>-0.012789900856114124</v>
       </c>
       <c r="FA3">
-        <v>-0.0027928023114748958</v>
+        <v>0.018141434963055439</v>
       </c>
       <c r="FB3">
-        <v>-0.0011025344659273606</v>
+        <v>0.00042827944214256046</v>
       </c>
       <c r="FC3">
-        <v>-0.00034691815423369731</v>
+        <v>0.018411453683013231</v>
       </c>
       <c r="FD3">
-        <v>-0.014745233173125486</v>
+        <v>0.016469154867702011</v>
       </c>
       <c r="FE3">
-        <v>0.01232888221184323</v>
+        <v>0.033030916349494982</v>
       </c>
       <c r="FF3">
-        <v>0.0065758918634162902</v>
+        <v>-0.027827135261070019</v>
       </c>
       <c r="FG3">
-        <v>0.032055175551339514</v>
+        <v>-0.053776150507364208</v>
       </c>
       <c r="FH3">
-        <v>-0.029955921408709434</v>
+        <v>0.048094801560845495</v>
       </c>
       <c r="FI3">
-        <v>-0.026535053384573019</v>
+        <v>0.038470362263585092</v>
       </c>
       <c r="FJ3">
-        <v>0.019811040764785876</v>
+        <v>-0.010273679468677634</v>
       </c>
       <c r="FK3">
-        <v>-0.0043174479224780309</v>
+        <v>0.021694273978267356</v>
       </c>
       <c r="FL3">
-        <v>-0.021893781152273681</v>
+        <v>0.012858924877151776</v>
       </c>
       <c r="FM3">
-        <v>0.021446337616011404</v>
+        <v>0.018368992572114225</v>
       </c>
       <c r="FN3">
-        <v>0.0116386496777236</v>
+        <v>-0.03552464455544118</v>
       </c>
       <c r="FO3">
-        <v>-0.058015251319648055</v>
+        <v>0.017623419444776793</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.035250685583651541</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -4288,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5154236019226133</v>
+        <v>-5.5203640040528006</v>
       </c>
     </row>
     <row r="4">
@@ -4296,517 +4302,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.020662221872950921</v>
+        <v>0.021887624342736389</v>
       </c>
       <c r="C4">
-        <v>0.011490882607003003</v>
+        <v>0.0098471823546582241</v>
       </c>
       <c r="D4">
-        <v>0.014260807098068517</v>
+        <v>0.015525133493260401</v>
       </c>
       <c r="E4">
-        <v>0.017746788122354591</v>
+        <v>0.018666178901793434</v>
       </c>
       <c r="F4">
-        <v>0.013944617786986089</v>
+        <v>0.014783182806256186</v>
       </c>
       <c r="G4">
-        <v>0.011424998600117099</v>
+        <v>0.012358727640901861</v>
       </c>
       <c r="H4">
-        <v>0.0090124903040400724</v>
+        <v>0.010040190851925724</v>
       </c>
       <c r="I4">
-        <v>0.010080641913445971</v>
+        <v>0.01002509445217902</v>
       </c>
       <c r="J4">
-        <v>0.010324471498482942</v>
+        <v>0.010611741546355056</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.018253321031347792</v>
+        <v>0.020751379488789499</v>
       </c>
       <c r="M4">
-        <v>0.017964071975721144</v>
+        <v>0.020577938119163031</v>
       </c>
       <c r="N4">
-        <v>0.024645412343295366</v>
+        <v>0.026691530354413674</v>
       </c>
       <c r="O4">
-        <v>0.024792802315632679</v>
+        <v>0.026596887733753741</v>
       </c>
       <c r="P4">
-        <v>0.024442205630782411</v>
+        <v>0.026528590739552008</v>
       </c>
       <c r="Q4">
-        <v>0.024658605398865625</v>
+        <v>0.026298682514514116</v>
       </c>
       <c r="R4">
-        <v>0.024510566356911841</v>
+        <v>0.026339881464304108</v>
       </c>
       <c r="S4">
-        <v>0.024634887058691782</v>
+        <v>0.026307798990768124</v>
       </c>
       <c r="T4">
-        <v>0.024449746717836156</v>
+        <v>0.026123048942946481</v>
       </c>
       <c r="U4">
-        <v>0.024404702354623654</v>
+        <v>0.026213164589384753</v>
       </c>
       <c r="V4">
-        <v>0.024054126165940111</v>
+        <v>0.025980390892822048</v>
       </c>
       <c r="W4">
-        <v>0.024452263434690046</v>
+        <v>0.026149197561741624</v>
       </c>
       <c r="X4">
-        <v>0.023999653511929606</v>
+        <v>0.025576291729576865</v>
       </c>
       <c r="Y4">
-        <v>0.023892890134921747</v>
+        <v>0.025995036231131023</v>
       </c>
       <c r="Z4">
-        <v>0.024107030710601458</v>
+        <v>0.025918291022377134</v>
       </c>
       <c r="AA4">
-        <v>0.023548653527900344</v>
+        <v>0.025807171021948818</v>
       </c>
       <c r="AB4">
-        <v>0.023849241614423082</v>
+        <v>0.026024505889262521</v>
       </c>
       <c r="AC4">
-        <v>0.023712750118877482</v>
+        <v>0.025666808266576118</v>
       </c>
       <c r="AD4">
-        <v>0.023877558108719343</v>
+        <v>0.025687890345046548</v>
       </c>
       <c r="AE4">
-        <v>0.023536626367168662</v>
+        <v>0.025740185791179253</v>
       </c>
       <c r="AF4">
-        <v>0.023625722774691525</v>
+        <v>0.025668719550836088</v>
       </c>
       <c r="AG4">
-        <v>0.023562733712296592</v>
+        <v>0.025526408094685763</v>
       </c>
       <c r="AH4">
-        <v>0.023868823659209781</v>
+        <v>0.025457421287745405</v>
       </c>
       <c r="AI4">
-        <v>0.023702286032857327</v>
+        <v>0.025817130282384734</v>
       </c>
       <c r="AJ4">
-        <v>0.023546646419063219</v>
+        <v>0.025459218791619349</v>
       </c>
       <c r="AK4">
-        <v>0.023473120394147666</v>
+        <v>0.025841147478652123</v>
       </c>
       <c r="AL4">
-        <v>0.023500772721123366</v>
+        <v>0.025628803402968629</v>
       </c>
       <c r="AM4">
-        <v>0.02345937019949073</v>
+        <v>0.02548267389226045</v>
       </c>
       <c r="AN4">
-        <v>0.023500772739905459</v>
+        <v>0.025402171680021013</v>
       </c>
       <c r="AO4">
-        <v>0.023370248875132244</v>
+        <v>0.025213236747367113</v>
       </c>
       <c r="AP4">
-        <v>0.023424242602602428</v>
+        <v>0.025598698489222322</v>
       </c>
       <c r="AQ4">
-        <v>0.023723242780659733</v>
+        <v>0.02544486579971178</v>
       </c>
       <c r="AR4">
-        <v>0.023769750427349502</v>
+        <v>0.025795257108062637</v>
       </c>
       <c r="AS4">
-        <v>0.023377914449270107</v>
+        <v>0.02553559095065687</v>
       </c>
       <c r="AT4">
-        <v>0.023391367354808051</v>
+        <v>0.02568404782777528</v>
       </c>
       <c r="AU4">
-        <v>0.023372163833607129</v>
+        <v>0.025572571704198573</v>
       </c>
       <c r="AV4">
-        <v>0.02351467549602481</v>
+        <v>0.025427010415001873</v>
       </c>
       <c r="AW4">
-        <v>0.023510698079821153</v>
+        <v>0.025572571722282143</v>
       </c>
       <c r="AX4">
-        <v>0.023198207674105995</v>
+        <v>0.02555958279818658</v>
       </c>
       <c r="AY4">
-        <v>0.023638035347755632</v>
+        <v>0.025395108822154878</v>
       </c>
       <c r="AZ4">
-        <v>0.023693935252889313</v>
+        <v>0.025407478839536771</v>
       </c>
       <c r="BA4">
-        <v>0.023589022005732898</v>
+        <v>0.025241734534820159</v>
       </c>
       <c r="BB4">
-        <v>0.023404869194395925</v>
+        <v>0.025486297028760638</v>
       </c>
       <c r="BC4">
-        <v>0.023702286219729415</v>
+        <v>0.025526408290130542</v>
       </c>
       <c r="BD4">
-        <v>0.023453492819569474</v>
+        <v>0.025500828025216058</v>
       </c>
       <c r="BE4">
-        <v>0.023516665873247283</v>
+        <v>0.025509941697450713</v>
       </c>
       <c r="BF4">
-        <v>0.023449579591385699</v>
+        <v>0.025471828356974549</v>
       </c>
       <c r="BG4">
-        <v>0.02372744793033971</v>
+        <v>0.025500828054493337</v>
       </c>
       <c r="BH4">
-        <v>0.023465257189612777</v>
+        <v>0.025626914301251302</v>
       </c>
       <c r="BI4">
-        <v>0.02374431372098092</v>
+        <v>0.025365257375223778</v>
       </c>
       <c r="BJ4">
-        <v>0.02351467563965012</v>
+        <v>0.025395108931895727</v>
       </c>
       <c r="BK4">
-        <v>0.023420360052612742</v>
+        <v>0.0256401612380894</v>
       </c>
       <c r="BL4">
-        <v>0.024278184203864208</v>
+        <v>0.025526408378513537</v>
       </c>
       <c r="BM4">
-        <v>0.024167907844673313</v>
+        <v>0.02564016125758109</v>
       </c>
       <c r="BN4">
-        <v>0.024218622262440148</v>
+        <v>0.025670632170325645</v>
       </c>
       <c r="BO4">
-        <v>0.024247385680664417</v>
+        <v>0.025596825897708845</v>
       </c>
       <c r="BP4">
-        <v>0.024372867791879999</v>
+        <v>0.025869375013799441</v>
       </c>
       <c r="BQ4">
-        <v>0.024430835582143238</v>
+        <v>0.025772171524974991</v>
       </c>
       <c r="BR4">
-        <v>0.024537213635620041</v>
+        <v>0.026175202632986293</v>
       </c>
       <c r="BS4">
-        <v>0.02447669110413718</v>
+        <v>0.026181121605851749</v>
       </c>
       <c r="BT4">
-        <v>0.025134511400881361</v>
+        <v>0.026282468721160707</v>
       </c>
       <c r="BU4">
-        <v>0.024833744943657126</v>
+        <v>0.02676427376622156</v>
       </c>
       <c r="BV4">
-        <v>0.024914185054817805</v>
+        <v>0.026789912752349272</v>
       </c>
       <c r="BW4">
-        <v>0.022912312115180727</v>
+        <v>0.024341350560312152</v>
       </c>
       <c r="BX4">
-        <v>0.022840744855722388</v>
+        <v>0.024327896035628595</v>
       </c>
       <c r="BY4">
-        <v>0.022584213921157687</v>
+        <v>0.023764099092706749</v>
       </c>
       <c r="BZ4">
-        <v>0.022492375647234612</v>
+        <v>0.023626246440010577</v>
       </c>
       <c r="CA4">
-        <v>0.022475317067285852</v>
+        <v>0.023903230776890196</v>
       </c>
       <c r="CB4">
-        <v>0.022078761151804117</v>
+        <v>0.023245930951209495</v>
       </c>
       <c r="CC4">
-        <v>0.02219613446362885</v>
+        <v>0.023383973725307986</v>
       </c>
       <c r="CD4">
-        <v>0.022176789269458708</v>
+        <v>0.02342151306169556</v>
       </c>
       <c r="CE4">
-        <v>0.022246416280351556</v>
+        <v>0.023217216129375804</v>
       </c>
       <c r="CF4">
-        <v>0.022813236994390113</v>
+        <v>0.02331466211572571</v>
       </c>
       <c r="CG4">
-        <v>0.023407952032431886</v>
+        <v>0.023342130330433961</v>
       </c>
       <c r="CH4">
-        <v>0.023486969359007476</v>
+        <v>0.023355712733833436</v>
       </c>
       <c r="CI4">
-        <v>0.023469890423164604</v>
+        <v>0.023515697000431407</v>
       </c>
       <c r="CJ4">
-        <v>0.023507337645127666</v>
+        <v>0.023216820359041442</v>
       </c>
       <c r="CK4">
-        <v>0.023657746598046727</v>
+        <v>0.023675111332228885</v>
       </c>
       <c r="CL4">
-        <v>0.023811064956107585</v>
+        <v>0.023794653770038615</v>
       </c>
       <c r="CM4">
-        <v>0.023771872409560479</v>
+        <v>0.024224132092649734</v>
       </c>
       <c r="CN4">
-        <v>0.024311788939676188</v>
+        <v>0.024510052516177723</v>
       </c>
       <c r="CO4">
-        <v>0.024459538541067694</v>
+        <v>0.024364358708276947</v>
       </c>
       <c r="CP4">
-        <v>0.024465001341021281</v>
+        <v>0.024684600703690635</v>
       </c>
       <c r="CQ4">
-        <v>0.021936569573440153</v>
+        <v>0.021805960018045856</v>
       </c>
       <c r="CR4">
-        <v>0.022029173349483427</v>
+        <v>0.021763962767774578</v>
       </c>
       <c r="CS4">
-        <v>0.021505013584595337</v>
+        <v>0.021363350106725972</v>
       </c>
       <c r="CT4">
-        <v>0.021488350594331906</v>
+        <v>0.02149191363895293</v>
       </c>
       <c r="CU4">
-        <v>0.021436399449171913</v>
+        <v>0.021552489741500144</v>
       </c>
       <c r="CV4">
-        <v>0.0212869801228192</v>
+        <v>0.021302386434271799</v>
       </c>
       <c r="CW4">
-        <v>0.020995572797788468</v>
+        <v>0.02133600964298767</v>
       </c>
       <c r="CX4">
-        <v>0.021237256379119142</v>
+        <v>0.021349904191703021</v>
       </c>
       <c r="CY4">
-        <v>0.021322270423613097</v>
+        <v>0.021377940335871041</v>
       </c>
       <c r="CZ4">
-        <v>0.021333116506208359</v>
+        <v>0.021207243213105534</v>
       </c>
       <c r="DA4">
-        <v>0.02140908365414353</v>
+        <v>0.02124943895539599</v>
       </c>
       <c r="DB4">
-        <v>0.021479453427008105</v>
+        <v>0.021357383048992713</v>
       </c>
       <c r="DC4">
-        <v>0.021358782538620526</v>
+        <v>0.021523233250366258</v>
       </c>
       <c r="DD4">
-        <v>0.021460483332232473</v>
+        <v>0.021343422630713742</v>
       </c>
       <c r="DE4">
-        <v>0.021553596279721938</v>
+        <v>0.021280851142799911</v>
       </c>
       <c r="DF4">
-        <v>0.021386593042521836</v>
+        <v>0.021406801887039268</v>
       </c>
       <c r="DG4">
-        <v>0.02164128148612815</v>
+        <v>0.021502852811157894</v>
       </c>
       <c r="DH4">
-        <v>0.02170039769630255</v>
+        <v>0.021612970512542972</v>
       </c>
       <c r="DI4">
-        <v>0.021572181292499545</v>
+        <v>0.021330887574158762</v>
       </c>
       <c r="DJ4">
-        <v>0.021644621591644257</v>
+        <v>0.021621391204347903</v>
       </c>
       <c r="DK4">
-        <v>0.02082816418524228</v>
+        <v>0.020825014855072998</v>
       </c>
       <c r="DL4">
-        <v>0.020951724410184832</v>
+        <v>0.020888293786444877</v>
       </c>
       <c r="DM4">
-        <v>0.020944700688155498</v>
+        <v>0.021124904174614677</v>
       </c>
       <c r="DN4">
-        <v>0.020925483909176184</v>
+        <v>0.021030488823349968</v>
       </c>
       <c r="DO4">
-        <v>0.021090779616044549</v>
+        <v>0.020956667500915946</v>
       </c>
       <c r="DP4">
-        <v>0.020939445596818967</v>
+        <v>0.021215172931639919</v>
       </c>
       <c r="DQ4">
-        <v>0.020958767695001879</v>
+        <v>0.020958400764387791</v>
       </c>
       <c r="DR4">
-        <v>0.02103027391369271</v>
+        <v>0.021162143418153628</v>
       </c>
       <c r="DS4">
-        <v>0.021113131513547986</v>
+        <v>0.021032272818228049</v>
       </c>
       <c r="DT4">
-        <v>0.021196734464392651</v>
+        <v>0.021025145359250451</v>
       </c>
       <c r="DU4">
-        <v>0.02108337123386083</v>
+        <v>0.021093660693527038</v>
       </c>
       <c r="DV4">
-        <v>0.021053943382689403</v>
+        <v>0.02114345845910175</v>
       </c>
       <c r="DW4">
-        <v>0.021059436107512756</v>
+        <v>0.021169654867543727</v>
       </c>
       <c r="DX4">
-        <v>0.021115002983511554</v>
+        <v>0.021175302303592835</v>
       </c>
       <c r="DY4">
-        <v>0.021160311787237578</v>
+        <v>0.021128605145932011</v>
       </c>
       <c r="DZ4">
-        <v>0.021359803489235742</v>
+        <v>0.021230520501896947</v>
       </c>
       <c r="EA4">
-        <v>0.021363904621548989</v>
+        <v>0.021356545038124834</v>
       </c>
       <c r="EB4">
-        <v>0.021263168402896934</v>
+        <v>0.021360578980356048</v>
       </c>
       <c r="EC4">
-        <v>0.021243459321364244</v>
+        <v>0.021253707167513777</v>
       </c>
       <c r="ED4">
-        <v>0.021301013569331437</v>
+        <v>0.021382872063840205</v>
       </c>
       <c r="EE4">
-        <v>0.021265147372755377</v>
+        <v>0.02121135072311027</v>
       </c>
       <c r="EF4">
-        <v>0.021291003484527143</v>
+        <v>0.021417683771589636</v>
       </c>
       <c r="EG4">
-        <v>0.021396933856545352</v>
+        <v>0.021407399501222078</v>
       </c>
       <c r="EH4">
-        <v>0.021355708922436434</v>
+        <v>0.021372716693591549</v>
       </c>
       <c r="EI4">
-        <v>0.021464189079825394</v>
+        <v>0.021417683941658744</v>
       </c>
       <c r="EJ4">
-        <v>0.021507055596109385</v>
+        <v>0.021413565681201199</v>
       </c>
       <c r="EK4">
-        <v>0.021599235575304902</v>
+        <v>0.021539841226429067</v>
       </c>
       <c r="EL4">
-        <v>0.021430359704444134</v>
+        <v>0.021699201937642767</v>
       </c>
       <c r="EM4">
-        <v>0.021457815151572589</v>
+        <v>0.02152695489970631</v>
       </c>
       <c r="EN4">
-        <v>0.021485541294503058</v>
+        <v>0.021557115168300667</v>
       </c>
       <c r="EO4">
-        <v>0.021554969569048697</v>
+        <v>0.021609575800528313</v>
       </c>
       <c r="EP4">
-        <v>0.021432462374793161</v>
+        <v>0.021596369904186608</v>
       </c>
       <c r="EQ4">
-        <v>0.021459938502537423</v>
+        <v>0.021600765167459093</v>
       </c>
       <c r="ER4">
-        <v>0.021682963109636692</v>
+        <v>0.021567965213198096</v>
       </c>
       <c r="ES4">
-        <v>0.02159477857362815</v>
+        <v>0.021490760543675207</v>
       </c>
       <c r="ET4">
-        <v>0.021626126558951363</v>
+        <v>0.021745077743036276</v>
       </c>
       <c r="EU4">
-        <v>0.021664654357885001</v>
+        <v>0.021660770246326656</v>
       </c>
       <c r="EV4">
-        <v>0.021836108192633069</v>
+        <v>0.021916413237927476</v>
       </c>
       <c r="EW4">
-        <v>0.021574805348445893</v>
+        <v>0.021782303743474781</v>
       </c>
       <c r="EX4">
-        <v>0.021597006739906961</v>
+        <v>0.021696927735625374</v>
       </c>
       <c r="EY4">
-        <v>0.021992421220919434</v>
+        <v>0.021846209085167149</v>
       </c>
       <c r="EZ4">
-        <v>0.021875047393095291</v>
+        <v>0.021995831486614107</v>
       </c>
       <c r="FA4">
-        <v>0.021894707710904168</v>
+        <v>0.0218533956064999</v>
       </c>
       <c r="FB4">
-        <v>0.02190706079744411</v>
+        <v>0.021968295915647543</v>
       </c>
       <c r="FC4">
-        <v>0.02192444027586813</v>
+        <v>0.021894449217314822</v>
       </c>
       <c r="FD4">
-        <v>0.022023127200974595</v>
+        <v>0.021926227460171838</v>
       </c>
       <c r="FE4">
-        <v>0.021899643095697922</v>
+        <v>0.021860599649597828</v>
       </c>
       <c r="FF4">
-        <v>0.021951953691038341</v>
+        <v>0.022209267386718596</v>
       </c>
       <c r="FG4">
-        <v>0.021838527760676536</v>
+        <v>0.022375193514793369</v>
       </c>
       <c r="FH4">
-        <v>0.022194949570323672</v>
+        <v>0.021843818008256043</v>
       </c>
       <c r="FI4">
-        <v>0.022197668045244558</v>
+        <v>0.021916413998851147</v>
       </c>
       <c r="FJ4">
-        <v>0.021967066639493743</v>
+        <v>0.022201195140237155</v>
       </c>
       <c r="FK4">
-        <v>0.022119771532064621</v>
+        <v>0.022049101479657066</v>
       </c>
       <c r="FL4">
-        <v>0.022238727002933983</v>
+        <v>0.022118977376344183</v>
       </c>
       <c r="FM4">
-        <v>0.02202312773242238</v>
+        <v>0.022111134928870898</v>
       </c>
       <c r="FN4">
-        <v>0.022098619439817786</v>
+        <v>0.022432468766379218</v>
       </c>
       <c r="FO4">
-        <v>0.022511696479198193</v>
+        <v>0.022158489930708878</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.022476098174709955</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -4815,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015717375942080919</v>
+        <v>0.015768096060465753</v>
       </c>
     </row>
   </sheetData>
@@ -5359,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -5866,7 +5872,7 @@
         <v>176</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -5883,517 +5889,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.9939780263903315</v>
+        <v>3.3796627246483388</v>
       </c>
       <c r="C3">
-        <v>-0.96396928977740248</v>
+        <v>-1.6873404641322549</v>
       </c>
       <c r="D3">
-        <v>-0.96223839771128628</v>
+        <v>-1.7438490813885694</v>
       </c>
       <c r="E3">
-        <v>-0.98097437010274602</v>
+        <v>-1.7620941415501579</v>
       </c>
       <c r="F3">
-        <v>0.55519501033330321</v>
+        <v>0.0058643596657083179</v>
       </c>
       <c r="G3">
-        <v>0.55966321182694345</v>
+        <v>-0.0038859798053937035</v>
       </c>
       <c r="H3">
-        <v>0.50902154753619566</v>
+        <v>0.002722773425149387</v>
       </c>
       <c r="I3">
-        <v>0.22137033523709371</v>
+        <v>0.0099136996251921218</v>
       </c>
       <c r="J3">
-        <v>0.28078391162935279</v>
+        <v>-0.012949655910350626</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.40369407739555968</v>
+        <v>1.330176949808749</v>
       </c>
       <c r="M3">
-        <v>-0.25514584733031209</v>
+        <v>1.391961995617687</v>
       </c>
       <c r="N3">
-        <v>-1.7932587374518238</v>
+        <v>-0.16826831231803371</v>
       </c>
       <c r="O3">
-        <v>-1.8502812350392637</v>
+        <v>-0.16110091958509934</v>
       </c>
       <c r="P3">
-        <v>-1.7928323567270343</v>
+        <v>-0.11941144371961242</v>
       </c>
       <c r="Q3">
-        <v>-1.7687663999078742</v>
+        <v>-0.10455183428599232</v>
       </c>
       <c r="R3">
-        <v>-1.8038255661839968</v>
+        <v>-0.10830079117267145</v>
       </c>
       <c r="S3">
-        <v>-1.8328909282515486</v>
+        <v>-0.088347350440007688</v>
       </c>
       <c r="T3">
-        <v>-1.7633530909179647</v>
+        <v>-0.055203968275127732</v>
       </c>
       <c r="U3">
-        <v>-1.7660828089017861</v>
+        <v>-0.029596259401070149</v>
       </c>
       <c r="V3">
-        <v>-1.7177296573106109</v>
+        <v>-0.014225123408733773</v>
       </c>
       <c r="W3">
-        <v>-1.718641733922301</v>
+        <v>0.035390932795563858</v>
       </c>
       <c r="X3">
-        <v>-1.7310935311955733</v>
+        <v>0.039232153564828155</v>
       </c>
       <c r="Y3">
-        <v>-1.6858045504011134</v>
+        <v>-0.029070428870073665</v>
       </c>
       <c r="Z3">
-        <v>-1.7156434202649933</v>
+        <v>-0.066040980923917567</v>
       </c>
       <c r="AA3">
-        <v>-1.6748672400460298</v>
+        <v>0.022051288538511359</v>
       </c>
       <c r="AB3">
-        <v>-1.701173332933396</v>
+        <v>-0.030192503715396331</v>
       </c>
       <c r="AC3">
-        <v>-1.5941503490334181</v>
+        <v>-0.018809360184410713</v>
       </c>
       <c r="AD3">
-        <v>-1.6899867700565157</v>
+        <v>-0.049578939560797883</v>
       </c>
       <c r="AE3">
-        <v>-1.6781197299294364</v>
+        <v>0.029642637392758506</v>
       </c>
       <c r="AF3">
-        <v>-1.6462494356158652</v>
+        <v>0.021805643391614848</v>
       </c>
       <c r="AG3">
-        <v>-1.6821386278551911</v>
+        <v>0.045846948880258566</v>
       </c>
       <c r="AH3">
-        <v>-1.685370740039982</v>
+        <v>0.065620621266654383</v>
       </c>
       <c r="AI3">
-        <v>-1.6680104796105</v>
+        <v>0.043571055917751192</v>
       </c>
       <c r="AJ3">
-        <v>-1.6586574097524849</v>
+        <v>0.027257484460851026</v>
       </c>
       <c r="AK3">
-        <v>-1.6416868554470518</v>
+        <v>0.032708400876052278</v>
       </c>
       <c r="AL3">
-        <v>-1.607783492762918</v>
+        <v>0.088096052835226382</v>
       </c>
       <c r="AM3">
-        <v>-1.6555272363148938</v>
+        <v>0.062725285533082056</v>
       </c>
       <c r="AN3">
-        <v>-1.6720067314776819</v>
+        <v>0.056670187719007871</v>
       </c>
       <c r="AO3">
-        <v>-1.6002816896903622</v>
+        <v>0.082324463688712032</v>
       </c>
       <c r="AP3">
-        <v>-1.637762974864396</v>
+        <v>0.012193683890943064</v>
       </c>
       <c r="AQ3">
-        <v>-1.6400466365268147</v>
+        <v>0.046725224152311312</v>
       </c>
       <c r="AR3">
-        <v>-1.6728362196337592</v>
+        <v>0.0048924289028442073</v>
       </c>
       <c r="AS3">
-        <v>-1.5964134102366185</v>
+        <v>0.053639548840050552</v>
       </c>
       <c r="AT3">
-        <v>-1.6270030077743074</v>
+        <v>0.060549532110958759</v>
       </c>
       <c r="AU3">
-        <v>-1.5955429348196488</v>
+        <v>0.031102068749489568</v>
       </c>
       <c r="AV3">
-        <v>-1.6036059033644416</v>
+        <v>0.12642763126210602</v>
       </c>
       <c r="AW3">
-        <v>-1.6499717141889521</v>
+        <v>0.10920360219865174</v>
       </c>
       <c r="AX3">
-        <v>-1.6072391102231718</v>
+        <v>0.070618652986084732</v>
       </c>
       <c r="AY3">
-        <v>-1.6237653374327252</v>
+        <v>0.07972242226357637</v>
       </c>
       <c r="AZ3">
-        <v>-1.632903084802404</v>
+        <v>0.054618470553417522</v>
       </c>
       <c r="BA3">
-        <v>-1.6664814278463635</v>
+        <v>0.12184565934428938</v>
       </c>
       <c r="BB3">
-        <v>-1.5914701699766494</v>
+        <v>0.063927863556408657</v>
       </c>
       <c r="BC3">
-        <v>-1.6206048534047657</v>
+        <v>0.039115239869363841</v>
       </c>
       <c r="BD3">
-        <v>-1.5593379954009852</v>
+        <v>0.081446738632109883</v>
       </c>
       <c r="BE3">
-        <v>-1.6288935715502613</v>
+        <v>0.074683419172376378</v>
       </c>
       <c r="BF3">
-        <v>-1.5889559994102653</v>
+        <v>0.070150632712899369</v>
       </c>
       <c r="BG3">
-        <v>-1.6792823317050574</v>
+        <v>0.048550722571855186</v>
       </c>
       <c r="BH3">
-        <v>-1.618121290750939</v>
+        <v>0.067898048432307567</v>
       </c>
       <c r="BI3">
-        <v>-1.6585100575870539</v>
+        <v>0.075566884907010051</v>
       </c>
       <c r="BJ3">
-        <v>-1.6257345039616169</v>
+        <v>0.03438557955023902</v>
       </c>
       <c r="BK3">
-        <v>-1.6241742969548902</v>
+        <v>0.060242078625535482</v>
       </c>
       <c r="BL3">
-        <v>-1.2731746407972035</v>
+        <v>0.064893270824939467</v>
       </c>
       <c r="BM3">
-        <v>-1.2723915661449114</v>
+        <v>0.088560112432209376</v>
       </c>
       <c r="BN3">
-        <v>-1.2382209292689479</v>
+        <v>0.012620053419577067</v>
       </c>
       <c r="BO3">
-        <v>-1.3118964082175393</v>
+        <v>0.053263568974316389</v>
       </c>
       <c r="BP3">
-        <v>-1.2282859608594454</v>
+        <v>0.058727291233289174</v>
       </c>
       <c r="BQ3">
-        <v>-1.2563927647323947</v>
+        <v>0.07377607550584786</v>
       </c>
       <c r="BR3">
-        <v>-1.2784611510101498</v>
+        <v>0.022699109669134673</v>
       </c>
       <c r="BS3">
-        <v>-1.270539784648764</v>
+        <v>0.064173651849966179</v>
       </c>
       <c r="BT3">
-        <v>-1.2958286835762156</v>
+        <v>0.074731627016293573</v>
       </c>
       <c r="BU3">
-        <v>-1.2748553509806155</v>
+        <v>0.043895341468463037</v>
       </c>
       <c r="BV3">
-        <v>-0.83499937501800658</v>
+        <v>-0.19996301834388011</v>
       </c>
       <c r="BW3">
-        <v>-0.81138708910276947</v>
+        <v>0.0030488904184806267</v>
       </c>
       <c r="BX3">
-        <v>-0.78982336889568716</v>
+        <v>0.016173515023686521</v>
       </c>
       <c r="BY3">
-        <v>-0.84316142870429522</v>
+        <v>0.026491984778904958</v>
       </c>
       <c r="BZ3">
-        <v>-0.82723044418048219</v>
+        <v>0.066312663645578487</v>
       </c>
       <c r="CA3">
-        <v>-0.83034619774333851</v>
+        <v>0.015773643442461065</v>
       </c>
       <c r="CB3">
-        <v>-0.78049598370853723</v>
+        <v>0.042061013932322672</v>
       </c>
       <c r="CC3">
-        <v>-0.79360205714440946</v>
+        <v>0.017113616730856197</v>
       </c>
       <c r="CD3">
-        <v>-0.79679514113537808</v>
+        <v>0.013379808664010579</v>
       </c>
       <c r="CE3">
-        <v>-0.80307425701992186</v>
+        <v>0.053824629652196254</v>
       </c>
       <c r="CF3">
-        <v>-0.50368648983743813</v>
+        <v>0.033680251508660275</v>
       </c>
       <c r="CG3">
-        <v>-0.30450833665470828</v>
+        <v>0.016524566810228</v>
       </c>
       <c r="CH3">
-        <v>-0.30065747916876817</v>
+        <v>0.01926127984951425</v>
       </c>
       <c r="CI3">
-        <v>-0.28928269714675181</v>
+        <v>-0.017352369333639737</v>
       </c>
       <c r="CJ3">
-        <v>-0.29575430467447555</v>
+        <v>0.057579256252259445</v>
       </c>
       <c r="CK3">
-        <v>-0.33212994442727273</v>
+        <v>0.041589701800869051</v>
       </c>
       <c r="CL3">
-        <v>-0.38115289977461719</v>
+        <v>0.091789326591426135</v>
       </c>
       <c r="CM3">
-        <v>-0.35321721760946556</v>
+        <v>0.0052690586444035558</v>
       </c>
       <c r="CN3">
-        <v>-0.34650454303898531</v>
+        <v>0.03360899942482324</v>
       </c>
       <c r="CO3">
-        <v>-0.37501528492198766</v>
+        <v>0.069109853991072154</v>
       </c>
       <c r="CP3">
-        <v>-0.53482537623490811</v>
+        <v>0.077226517818404117</v>
       </c>
       <c r="CQ3">
-        <v>-0.2676483584444076</v>
+        <v>0.040807185701423603</v>
       </c>
       <c r="CR3">
-        <v>-0.28699721337843681</v>
+        <v>0.055673127424017754</v>
       </c>
       <c r="CS3">
-        <v>-0.27452307270861548</v>
+        <v>0.073671431903659046</v>
       </c>
       <c r="CT3">
-        <v>-0.26615382066467219</v>
+        <v>0.045903749922683715</v>
       </c>
       <c r="CU3">
-        <v>-0.24885809568096112</v>
+        <v>0.035266564528014133</v>
       </c>
       <c r="CV3">
-        <v>-0.26908213782617096</v>
+        <v>0.023223321298741932</v>
       </c>
       <c r="CW3">
-        <v>-0.19393968837038295</v>
+        <v>0.019377230268791165</v>
       </c>
       <c r="CX3">
-        <v>-0.24871687664417544</v>
+        <v>0.02019983425706777</v>
       </c>
       <c r="CY3">
-        <v>-0.26470066746251225</v>
+        <v>0.01771947052301177</v>
       </c>
       <c r="CZ3">
-        <v>-0.26312929211557495</v>
+        <v>0.06242336628283477</v>
       </c>
       <c r="DA3">
-        <v>-0.087058297654454789</v>
+        <v>0.052114325791885317</v>
       </c>
       <c r="DB3">
-        <v>-0.099418915655188733</v>
+        <v>0.030754436203199263</v>
       </c>
       <c r="DC3">
-        <v>-0.066859911243219022</v>
+        <v>-0.0034385357142046546</v>
       </c>
       <c r="DD3">
-        <v>-0.086646029342944381</v>
+        <v>0.042214595345888624</v>
       </c>
       <c r="DE3">
-        <v>-0.10408861329408045</v>
+        <v>0.061241111988994602</v>
       </c>
       <c r="DF3">
-        <v>-0.085640433178061887</v>
+        <v>0.061767636953051451</v>
       </c>
       <c r="DG3">
-        <v>-0.14085718246963075</v>
+        <v>0.043538278762282175</v>
       </c>
       <c r="DH3">
-        <v>-0.15020621743268847</v>
+        <v>0.022428090341479131</v>
       </c>
       <c r="DI3">
-        <v>-0.11688418967246499</v>
+        <v>0.092301890875457329</v>
       </c>
       <c r="DJ3">
-        <v>-0.12934721810399771</v>
+        <v>0.028965608782861991</v>
       </c>
       <c r="DK3">
-        <v>0.043115946124661512</v>
+        <v>0.058263356612029582</v>
       </c>
       <c r="DL3">
-        <v>0.020005422286022683</v>
+        <v>0.048323523470325064</v>
       </c>
       <c r="DM3">
-        <v>0.025656918569535794</v>
+        <v>0.00081930032537623552</v>
       </c>
       <c r="DN3">
-        <v>0.034010342670128403</v>
+        <v>0.025221428097310188</v>
       </c>
       <c r="DO3">
-        <v>0.0023631379113302547</v>
+        <v>0.045505724332951317</v>
       </c>
       <c r="DP3">
-        <v>0.039160161833589703</v>
+        <v>-0.0060438464957326297</v>
       </c>
       <c r="DQ3">
-        <v>0.039124800737074916</v>
+        <v>0.053312047656064052</v>
       </c>
       <c r="DR3">
-        <v>0.027787840214640654</v>
+        <v>0.013417229574686553</v>
       </c>
       <c r="DS3">
-        <v>0.014170024246147724</v>
+        <v>0.045435856570505778</v>
       </c>
       <c r="DT3">
-        <v>0.00058135063290065659</v>
+        <v>0.051187049960367617</v>
       </c>
       <c r="DU3">
-        <v>0.028647143512629872</v>
+        <v>0.040570198097633091</v>
       </c>
       <c r="DV3">
-        <v>0.039109310284744285</v>
+        <v>0.034069592041931884</v>
       </c>
       <c r="DW3">
-        <v>0.042122256835216601</v>
+        <v>0.032638755697356137</v>
       </c>
       <c r="DX3">
-        <v>0.034445725043939404</v>
+        <v>0.035584254248267146</v>
       </c>
       <c r="DY3">
-        <v>0.029011132655414679</v>
+        <v>0.049701643850842282</v>
       </c>
       <c r="DZ3">
-        <v>-0.0083128924559820461</v>
+        <v>0.03228157226439328</v>
       </c>
       <c r="EA3">
-        <v>-0.0051528433275565399</v>
+        <v>0.010162606527567506</v>
       </c>
       <c r="EB3">
-        <v>0.019622712164166209</v>
+        <v>0.013384201307587027</v>
       </c>
       <c r="EC3">
-        <v>0.027836927310138888</v>
+        <v>0.039674064575878777</v>
       </c>
       <c r="ED3">
-        <v>0.020041558148650489</v>
+        <v>0.017037851731754795</v>
       </c>
       <c r="EE3">
-        <v>0.031584605737877323</v>
+        <v>0.056845912279265165</v>
       </c>
       <c r="EF3">
-        <v>0.030386769332837245</v>
+        <v>0.018234639577197783</v>
       </c>
       <c r="EG3">
-        <v>0.01281345730720734</v>
+        <v>0.024424005570903341</v>
       </c>
       <c r="EH3">
-        <v>0.025311544701966178</v>
+        <v>0.035653155089216411</v>
       </c>
       <c r="EI3">
-        <v>0.0074234573057088589</v>
+        <v>0.030591184768874253</v>
       </c>
       <c r="EJ3">
-        <v>0.0028847473245886645</v>
+        <v>0.035570247321327318</v>
       </c>
       <c r="EK3">
-        <v>-0.011377281743769927</v>
+        <v>0.014164141315776813</v>
       </c>
       <c r="EL3">
-        <v>0.026345241021122748</v>
+        <v>-0.013328046044076003</v>
       </c>
       <c r="EM3">
-        <v>0.024940887951169517</v>
+        <v>0.024779330698505509</v>
       </c>
       <c r="EN3">
-        <v>0.023499879578478503</v>
+        <v>0.022848328652619449</v>
       </c>
       <c r="EO3">
-        <v>0.013770771685691047</v>
+        <v>0.016506513286628475</v>
       </c>
       <c r="EP3">
-        <v>0.042411573420878333</v>
+        <v>0.023207888564533697</v>
       </c>
       <c r="EQ3">
-        <v>0.041071869448460495</v>
+        <v>0.026441471559679765</v>
       </c>
       <c r="ER3">
-        <v>0.001099653279987401</v>
+        <v>0.037092666550315137</v>
       </c>
       <c r="ES3">
-        <v>0.022424939308547717</v>
+        <v>0.056760493353543759</v>
       </c>
       <c r="ET3">
-        <v>0.020376936585707113</v>
+        <v>0.010619441222962588</v>
       </c>
       <c r="EU3">
-        <v>0.016946484089977357</v>
+        <v>0.031164343757388673</v>
       </c>
       <c r="EV3">
-        <v>-0.012016242860588231</v>
+        <v>-0.014071306010436747</v>
       </c>
       <c r="EW3">
-        <v>0.042698356331221543</v>
+        <v>0.015555424133112453</v>
       </c>
       <c r="EX3">
-        <v>0.042519461402220418</v>
+        <v>0.036238789055158774</v>
       </c>
       <c r="EY3">
-        <v>-0.029054450821125111</v>
+        <v>0.01149643233165536</v>
       </c>
       <c r="EZ3">
-        <v>-0.0030946161431190475</v>
+        <v>-0.012789900856114171</v>
       </c>
       <c r="FA3">
-        <v>-0.0027928023114765286</v>
+        <v>0.018141434963055009</v>
       </c>
       <c r="FB3">
-        <v>-0.0011025344659290636</v>
+        <v>0.00042827944214286144</v>
       </c>
       <c r="FC3">
-        <v>-0.00034691815423549155</v>
+        <v>0.018411453683013067</v>
       </c>
       <c r="FD3">
-        <v>-0.014745233173127129</v>
+        <v>0.016469154867702084</v>
       </c>
       <c r="FE3">
-        <v>0.012328882211841289</v>
+        <v>0.033030916349495162</v>
       </c>
       <c r="FF3">
-        <v>0.0065758918634143369</v>
+        <v>-0.027827135261069499</v>
       </c>
       <c r="FG3">
-        <v>0.03205517555133746</v>
+        <v>-0.053776150507363868</v>
       </c>
       <c r="FH3">
-        <v>-0.029955921408711741</v>
+        <v>0.048094801560846119</v>
       </c>
       <c r="FI3">
-        <v>-0.02653505338457535</v>
+        <v>0.038470362263585217</v>
       </c>
       <c r="FJ3">
-        <v>0.019811040764783582</v>
+        <v>-0.010273679468677169</v>
       </c>
       <c r="FK3">
-        <v>-0.0043174479224795496</v>
+        <v>0.021694273978267363</v>
       </c>
       <c r="FL3">
-        <v>-0.021893781152275426</v>
+        <v>0.012858924877151906</v>
       </c>
       <c r="FM3">
-        <v>0.021446337616009059</v>
+        <v>0.018368992572114655</v>
       </c>
       <c r="FN3">
-        <v>0.011638649677721375</v>
+        <v>-0.03552464455544075</v>
       </c>
       <c r="FO3">
-        <v>-0.058015251319649991</v>
+        <v>0.017623419444777376</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.035250685583651208</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -6402,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5154236019226106</v>
+        <v>-5.5203640040528015</v>
       </c>
     </row>
     <row r="4">
@@ -6410,517 +6416,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.018175743424829451</v>
+        <v>0.019999052349873925</v>
       </c>
       <c r="C4">
-        <v>0.016187625481523842</v>
+        <v>0.012522949637718881</v>
       </c>
       <c r="D4">
-        <v>0.020141763431524219</v>
+        <v>0.022001974008225515</v>
       </c>
       <c r="E4">
-        <v>0.025108020965476933</v>
+        <v>0.026810067251996722</v>
       </c>
       <c r="F4">
-        <v>0.014956027329826677</v>
+        <v>0.016310908701485542</v>
       </c>
       <c r="G4">
-        <v>0.012280628623045343</v>
+        <v>0.013484928966946252</v>
       </c>
       <c r="H4">
-        <v>0.009713543019788046</v>
+        <v>0.010810950838025876</v>
       </c>
       <c r="I4">
-        <v>0.010968426681486619</v>
+        <v>0.010823943675469714</v>
       </c>
       <c r="J4">
-        <v>0.010923186872933997</v>
+        <v>0.011268532889350948</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02154509928568335</v>
+        <v>0.024777426832921206</v>
       </c>
       <c r="M4">
-        <v>0.020850874791175394</v>
+        <v>0.024535650530951084</v>
       </c>
       <c r="N4">
-        <v>0.033506606539443214</v>
+        <v>0.036642383579563495</v>
       </c>
       <c r="O4">
-        <v>0.034273600952116651</v>
+        <v>0.036558936640985536</v>
       </c>
       <c r="P4">
-        <v>0.033518056754477797</v>
+        <v>0.036043199113599461</v>
       </c>
       <c r="Q4">
-        <v>0.033214459557122773</v>
+        <v>0.035868013917948263</v>
       </c>
       <c r="R4">
-        <v>0.03368007400959637</v>
+        <v>0.035922317656400943</v>
       </c>
       <c r="S4">
-        <v>0.034075104115973143</v>
+        <v>0.03568630983765754</v>
       </c>
       <c r="T4">
-        <v>0.033170442583406692</v>
+        <v>0.035295797056774832</v>
       </c>
       <c r="U4">
-        <v>0.033214459559845234</v>
+        <v>0.035001846915336261</v>
       </c>
       <c r="V4">
-        <v>0.032609239068123373</v>
+        <v>0.034831187168396956</v>
       </c>
       <c r="W4">
-        <v>0.032629701655500019</v>
+        <v>0.034273720661684728</v>
       </c>
       <c r="X4">
-        <v>0.032795370951086145</v>
+        <v>0.034239280433210721</v>
       </c>
       <c r="Y4">
-        <v>0.032240176335774029</v>
+        <v>0.035030698585619684</v>
       </c>
       <c r="Z4">
-        <v>0.032619463610236564</v>
+        <v>0.035478154912811796</v>
       </c>
       <c r="AA4">
-        <v>0.03212421672254228</v>
+        <v>0.034457480858985833</v>
       </c>
       <c r="AB4">
-        <v>0.032457473032322992</v>
+        <v>0.035069352215647227</v>
       </c>
       <c r="AC4">
-        <v>0.031180107578015929</v>
+        <v>0.034944496592253044</v>
       </c>
       <c r="AD4">
-        <v>0.032338181580507337</v>
+        <v>0.03531583210994875</v>
       </c>
       <c r="AE4">
-        <v>0.03220132542540971</v>
+        <v>0.034404465923786737</v>
       </c>
       <c r="AF4">
-        <v>0.031823461926347836</v>
+        <v>0.034501978419520726</v>
       </c>
       <c r="AG4">
-        <v>0.032269445596646025</v>
+        <v>0.03423928044058859</v>
       </c>
       <c r="AH4">
-        <v>0.032318479378769693</v>
+        <v>0.03402796802556031</v>
       </c>
       <c r="AI4">
-        <v>0.032114633263559025</v>
+        <v>0.034282358439020395</v>
       </c>
       <c r="AJ4">
-        <v>0.032010012827510967</v>
+        <v>0.034475244961117611</v>
       </c>
       <c r="AK4">
-        <v>0.031814256023251858</v>
+        <v>0.034422091538329772</v>
       </c>
       <c r="AL4">
-        <v>0.031420190906973254</v>
+        <v>0.033815152540451768</v>
       </c>
       <c r="AM4">
-        <v>0.032000573772285636</v>
+        <v>0.034103268433667712</v>
       </c>
       <c r="AN4">
-        <v>0.032211019514295461</v>
+        <v>0.03417943338559342</v>
       </c>
       <c r="AO4">
-        <v>0.031359416002641062</v>
+        <v>0.033904347511365465</v>
       </c>
       <c r="AP4">
-        <v>0.031814256028046467</v>
+        <v>0.034701285324377835</v>
       </c>
       <c r="AQ4">
-        <v>0.031851148391201907</v>
+        <v>0.034317021024283821</v>
       </c>
       <c r="AR4">
-        <v>0.032259676655164805</v>
+        <v>0.034803145417961368</v>
       </c>
       <c r="AS4">
-        <v>0.031350775432125368</v>
+        <v>0.034256478442112076</v>
       </c>
       <c r="AT4">
-        <v>0.031722821260892868</v>
+        <v>0.03418795020232987</v>
       </c>
       <c r="AU4">
-        <v>0.031359416008787881</v>
+        <v>0.034528817249742515</v>
       </c>
       <c r="AV4">
-        <v>0.031463915802077427</v>
+        <v>0.033485471127320539</v>
       </c>
       <c r="AW4">
-        <v>0.032028926685878811</v>
+        <v>0.033679669479327504</v>
       </c>
       <c r="AX4">
-        <v>0.031525575911335972</v>
+        <v>0.034111688241142024</v>
       </c>
       <c r="AY4">
-        <v>0.031731913995503805</v>
+        <v>0.034019654033865691</v>
       </c>
       <c r="AZ4">
-        <v>0.031851148400004435</v>
+        <v>0.034308338616706881</v>
       </c>
       <c r="BA4">
-        <v>0.032269445614919012</v>
+        <v>0.033577951453124602</v>
       </c>
       <c r="BB4">
-        <v>0.031376728233104688</v>
+        <v>0.03422212653932024</v>
       </c>
       <c r="BC4">
-        <v>0.031731913999486439</v>
+        <v>0.034510912973913191</v>
       </c>
       <c r="BD4">
-        <v>0.031021662293432537</v>
+        <v>0.034044627538044284</v>
       </c>
       <c r="BE4">
-        <v>0.03185114840500046</v>
+        <v>0.034128559946154068</v>
       </c>
       <c r="BF4">
-        <v>0.031385399919116527</v>
+        <v>0.034187950213502266</v>
       </c>
       <c r="BG4">
-        <v>0.032487588119198919</v>
+        <v>0.034439763141604268</v>
       </c>
       <c r="BH4">
-        <v>0.031750133141285677</v>
+        <v>0.034230698007080868</v>
       </c>
       <c r="BI4">
-        <v>0.032249920261750914</v>
+        <v>0.03415394807484752</v>
       </c>
       <c r="BJ4">
-        <v>0.03186040021376596</v>
+        <v>0.034628138176008808</v>
       </c>
       <c r="BK4">
-        <v>0.031851148410932451</v>
+        <v>0.034343135689465849</v>
       </c>
       <c r="BL4">
-        <v>0.032516894010695858</v>
+        <v>0.034299667407770316</v>
       </c>
       <c r="BM4">
-        <v>0.032516916651100965</v>
+        <v>0.034044627546580788</v>
       </c>
       <c r="BN4">
-        <v>0.032116101134024716</v>
+        <v>0.034915996467101543</v>
       </c>
       <c r="BO4">
-        <v>0.03302204523708481</v>
+        <v>0.034457480893918715</v>
       </c>
       <c r="BP4">
-        <v>0.032017044180185424</v>
+        <v>0.034404465956662064</v>
       </c>
       <c r="BQ4">
-        <v>0.032535006082595866</v>
+        <v>0.035152761542619995</v>
       </c>
       <c r="BR4">
-        <v>0.032810411412224981</v>
+        <v>0.035745054044896758</v>
       </c>
       <c r="BS4">
-        <v>0.032723852668975768</v>
+        <v>0.035278017956584633</v>
       </c>
       <c r="BT4">
-        <v>0.033358533096746724</v>
+        <v>0.03602290498296256</v>
       </c>
       <c r="BU4">
-        <v>0.033112971471696825</v>
+        <v>0.036376529164226977</v>
       </c>
       <c r="BV4">
-        <v>0.024052454935676652</v>
+        <v>0.025634974731973376</v>
       </c>
       <c r="BW4">
-        <v>0.0244643297830196</v>
+        <v>0.026932924483148313</v>
       </c>
       <c r="BX4">
-        <v>0.024359507204529007</v>
+        <v>0.026881177416099952</v>
       </c>
       <c r="BY4">
-        <v>0.024076124377489218</v>
+        <v>0.025768720323303119</v>
       </c>
       <c r="BZ4">
-        <v>0.023998783549402183</v>
+        <v>0.025577737777317526</v>
       </c>
       <c r="CA4">
-        <v>0.02402947189789395</v>
+        <v>0.025860794638416926</v>
       </c>
       <c r="CB4">
-        <v>0.023451429369145373</v>
+        <v>0.024823159120299539</v>
       </c>
       <c r="CC4">
-        <v>0.02354122691036371</v>
+        <v>0.024979382788208344</v>
       </c>
       <c r="CD4">
-        <v>0.023574159285297009</v>
+        <v>0.025019110614082758</v>
       </c>
       <c r="CE4">
-        <v>0.023625238782286388</v>
+        <v>0.024814832693083697</v>
       </c>
       <c r="CF4">
-        <v>0.024395264172396128</v>
+        <v>0.024944574400709095</v>
       </c>
       <c r="CG4">
-        <v>0.025258413111567967</v>
+        <v>0.02500667657869559</v>
       </c>
       <c r="CH4">
-        <v>0.025255597833091711</v>
+        <v>0.025010516865451592</v>
       </c>
       <c r="CI4">
-        <v>0.025211211997483034</v>
+        <v>0.02523849136785104</v>
       </c>
       <c r="CJ4">
-        <v>0.025265502733825027</v>
+        <v>0.024835399502361605</v>
       </c>
       <c r="CK4">
-        <v>0.025369141968654731</v>
+        <v>0.02520327440759047</v>
       </c>
       <c r="CL4">
-        <v>0.025580937844679019</v>
+        <v>0.025303519869145381</v>
       </c>
       <c r="CM4">
-        <v>0.025441519277008148</v>
+        <v>0.025806958445226558</v>
       </c>
       <c r="CN4">
-        <v>0.02589949095671374</v>
+        <v>0.025928821805731736</v>
       </c>
       <c r="CO4">
-        <v>0.026080351231128656</v>
+        <v>0.02575275682797255</v>
       </c>
       <c r="CP4">
-        <v>0.024006468306058459</v>
+        <v>0.02532905868172608</v>
       </c>
       <c r="CQ4">
-        <v>0.022546081797382957</v>
+        <v>0.022096305781003425</v>
       </c>
       <c r="CR4">
-        <v>0.022636192266609022</v>
+        <v>0.022054861417369807</v>
       </c>
       <c r="CS4">
-        <v>0.021937223673433294</v>
+        <v>0.021524268819867937</v>
       </c>
       <c r="CT4">
-        <v>0.021920889214715175</v>
+        <v>0.021651876875900058</v>
       </c>
       <c r="CU4">
-        <v>0.021869965543186643</v>
+        <v>0.021712006687991</v>
       </c>
       <c r="CV4">
-        <v>0.021538182247031953</v>
+        <v>0.021394469453772314</v>
       </c>
       <c r="CW4">
-        <v>0.021250219910605595</v>
+        <v>0.021427948172822182</v>
       </c>
       <c r="CX4">
-        <v>0.021489039757318768</v>
+        <v>0.021441783144290363</v>
       </c>
       <c r="CY4">
-        <v>0.021573061622727874</v>
+        <v>0.021469699308903731</v>
       </c>
       <c r="CZ4">
-        <v>0.02158378168033237</v>
+        <v>0.021299737560186136</v>
       </c>
       <c r="DA4">
-        <v>0.021580762047524203</v>
+        <v>0.021351736587242928</v>
       </c>
       <c r="DB4">
-        <v>0.021650573834243746</v>
+        <v>0.02145916610909241</v>
       </c>
       <c r="DC4">
-        <v>0.021530862009671258</v>
+        <v>0.0216242356855148</v>
       </c>
       <c r="DD4">
-        <v>0.0216317538009957</v>
+        <v>0.021445271949234544</v>
       </c>
       <c r="DE4">
-        <v>0.021724132675518731</v>
+        <v>0.021382998497014149</v>
       </c>
       <c r="DF4">
-        <v>0.021560367580834246</v>
+        <v>0.021487680765413388</v>
       </c>
       <c r="DG4">
-        <v>0.02181302716035621</v>
+        <v>0.02158337176278307</v>
       </c>
       <c r="DH4">
-        <v>0.021871679174851364</v>
+        <v>0.021693080740031952</v>
       </c>
       <c r="DI4">
-        <v>0.021744472740179491</v>
+        <v>0.021412053203045445</v>
       </c>
       <c r="DJ4">
-        <v>0.021816340966600137</v>
+        <v>0.021701470347270706</v>
       </c>
       <c r="DK4">
-        <v>0.020828164185242571</v>
+        <v>0.020825014855073237</v>
       </c>
       <c r="DL4">
-        <v>0.02095172441018513</v>
+        <v>0.020888293786445127</v>
       </c>
       <c r="DM4">
-        <v>0.020944700688155793</v>
+        <v>0.021124904174614913</v>
       </c>
       <c r="DN4">
-        <v>0.020925483909176479</v>
+        <v>0.021030488823350218</v>
       </c>
       <c r="DO4">
-        <v>0.02109077961604483</v>
+        <v>0.020956667500916178</v>
       </c>
       <c r="DP4">
-        <v>0.020939445596819265</v>
+        <v>0.021215172931640158</v>
       </c>
       <c r="DQ4">
-        <v>0.02095876769500217</v>
+        <v>0.020958400764388031</v>
       </c>
       <c r="DR4">
-        <v>0.021030273913693002</v>
+        <v>0.021162143418153877</v>
       </c>
       <c r="DS4">
-        <v>0.021113131513548281</v>
+        <v>0.021032272818228285</v>
       </c>
       <c r="DT4">
-        <v>0.021196734464392939</v>
+        <v>0.021025145359250694</v>
       </c>
       <c r="DU4">
-        <v>0.021083371233861132</v>
+        <v>0.021093660693527284</v>
       </c>
       <c r="DV4">
-        <v>0.021053943382689698</v>
+        <v>0.021143458459101989</v>
       </c>
       <c r="DW4">
-        <v>0.021059436107513044</v>
+        <v>0.021169654867543967</v>
       </c>
       <c r="DX4">
-        <v>0.021115002983511856</v>
+        <v>0.021175302303593074</v>
       </c>
       <c r="DY4">
-        <v>0.021160311787237887</v>
+        <v>0.021128605145932264</v>
       </c>
       <c r="DZ4">
-        <v>0.021359803489236023</v>
+        <v>0.021230520501897186</v>
       </c>
       <c r="EA4">
-        <v>0.021363904621549291</v>
+        <v>0.021356545038125091</v>
       </c>
       <c r="EB4">
-        <v>0.021263168402897239</v>
+        <v>0.021360578980356294</v>
       </c>
       <c r="EC4">
-        <v>0.021243459321364531</v>
+        <v>0.02125370716751402</v>
       </c>
       <c r="ED4">
-        <v>0.021301013569331728</v>
+        <v>0.021382872063840454</v>
       </c>
       <c r="EE4">
-        <v>0.021265147372755668</v>
+        <v>0.021211350723110506</v>
       </c>
       <c r="EF4">
-        <v>0.021291003484527442</v>
+        <v>0.021417683771589875</v>
       </c>
       <c r="EG4">
-        <v>0.02139693385654564</v>
+        <v>0.021407399501222311</v>
       </c>
       <c r="EH4">
-        <v>0.021355708922436739</v>
+        <v>0.021372716693591799</v>
       </c>
       <c r="EI4">
-        <v>0.021464189079825672</v>
+        <v>0.021417683941658976</v>
       </c>
       <c r="EJ4">
-        <v>0.02150705559610968</v>
+        <v>0.021413565681201452</v>
       </c>
       <c r="EK4">
-        <v>0.021599235575305176</v>
+        <v>0.021539841226429317</v>
       </c>
       <c r="EL4">
-        <v>0.021430359704444436</v>
+        <v>0.021699201937643013</v>
       </c>
       <c r="EM4">
-        <v>0.021457815151572898</v>
+        <v>0.021526954899706557</v>
       </c>
       <c r="EN4">
-        <v>0.021485541294503346</v>
+        <v>0.021557115168300903</v>
       </c>
       <c r="EO4">
-        <v>0.021554969569048985</v>
+        <v>0.021609575800528538</v>
       </c>
       <c r="EP4">
-        <v>0.021432462374793453</v>
+        <v>0.021596369904186837</v>
       </c>
       <c r="EQ4">
-        <v>0.021459938502537728</v>
+        <v>0.021600765167459336</v>
       </c>
       <c r="ER4">
-        <v>0.021682963109636997</v>
+        <v>0.021567965213198356</v>
       </c>
       <c r="ES4">
-        <v>0.021594778573628456</v>
+        <v>0.02149076054367545</v>
       </c>
       <c r="ET4">
-        <v>0.021626126558951644</v>
+        <v>0.02174507774303653</v>
       </c>
       <c r="EU4">
-        <v>0.021664654357885265</v>
+        <v>0.021660770246326899</v>
       </c>
       <c r="EV4">
-        <v>0.021836108192633367</v>
+        <v>0.021916413237927725</v>
       </c>
       <c r="EW4">
-        <v>0.021574805348446191</v>
+        <v>0.021782303743475021</v>
       </c>
       <c r="EX4">
-        <v>0.021597006739907249</v>
+        <v>0.021696927735625638</v>
       </c>
       <c r="EY4">
-        <v>0.021992421220919715</v>
+        <v>0.021846209085167396</v>
       </c>
       <c r="EZ4">
-        <v>0.021875047393095561</v>
+        <v>0.021995831486614357</v>
       </c>
       <c r="FA4">
-        <v>0.021894707710904467</v>
+        <v>0.021853395606500174</v>
       </c>
       <c r="FB4">
-        <v>0.021907060797444422</v>
+        <v>0.021968295915647796</v>
       </c>
       <c r="FC4">
-        <v>0.021924440275868429</v>
+        <v>0.021894449217315044</v>
       </c>
       <c r="FD4">
-        <v>0.022023127200974921</v>
+        <v>0.021926227460172074</v>
       </c>
       <c r="FE4">
-        <v>0.021899643095698199</v>
+        <v>0.021860599649598068</v>
       </c>
       <c r="FF4">
-        <v>0.021951953691038646</v>
+        <v>0.022209267386718832</v>
       </c>
       <c r="FG4">
-        <v>0.021838527760676817</v>
+        <v>0.022375193514793598</v>
       </c>
       <c r="FH4">
-        <v>0.022194949570323964</v>
+        <v>0.021843818008256289</v>
       </c>
       <c r="FI4">
-        <v>0.022197668045244846</v>
+        <v>0.021916413998851376</v>
       </c>
       <c r="FJ4">
-        <v>0.021967066639494045</v>
+        <v>0.022201195140237398</v>
       </c>
       <c r="FK4">
-        <v>0.022119771532064902</v>
+        <v>0.022049101479657312</v>
       </c>
       <c r="FL4">
-        <v>0.02223872700293426</v>
+        <v>0.02211897737634444</v>
       </c>
       <c r="FM4">
-        <v>0.022023127732422685</v>
+        <v>0.022111134928871123</v>
       </c>
       <c r="FN4">
-        <v>0.022098619439818057</v>
+        <v>0.02243246876637946</v>
       </c>
       <c r="FO4">
-        <v>0.022511696479198488</v>
+        <v>0.022158489930709114</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.022476098174710177</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -6929,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015717375942081321</v>
+        <v>0.015768096060466072</v>
       </c>
     </row>
   </sheetData>
@@ -7473,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -7980,7 +7986,7 @@
         <v>176</v>
       </c>
       <c r="FP2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="FQ2" t="s">
         <v>177</v>
@@ -7997,517 +8003,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.8093068258271563</v>
+        <v>1.2173317892165261</v>
       </c>
       <c r="C3">
-        <v>-0.99593445228021171</v>
+        <v>-1.7348151441197195</v>
       </c>
       <c r="D3">
-        <v>-0.97519704460021428</v>
+        <v>-1.709219592558193</v>
       </c>
       <c r="E3">
-        <v>-0.95429191883091913</v>
+        <v>-1.6818966981453471</v>
       </c>
       <c r="F3">
-        <v>1.3827774319816037</v>
+        <v>0.85118912529466706</v>
       </c>
       <c r="G3">
-        <v>1.2641551536329838</v>
+        <v>0.74452616797813975</v>
       </c>
       <c r="H3">
-        <v>1.0946413746951089</v>
+        <v>0.61934188521419298</v>
       </c>
       <c r="I3">
-        <v>0.6626154223795413</v>
+        <v>0.46731225021035488</v>
       </c>
       <c r="J3">
-        <v>0.61078094518201609</v>
+        <v>0.35562297050476704</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.38881851914249826</v>
+        <v>1.3637231025329253</v>
       </c>
       <c r="M3">
-        <v>-0.28192839637911288</v>
+        <v>1.4327429362745605</v>
       </c>
       <c r="N3">
-        <v>-1.8221060376821938</v>
+        <v>-0.084647180727600815</v>
       </c>
       <c r="O3">
-        <v>-1.8793616188031115</v>
+        <v>-0.075061299081254473</v>
       </c>
       <c r="P3">
-        <v>-1.7969997474831152</v>
+        <v>-0.068195678985747618</v>
       </c>
       <c r="Q3">
-        <v>-1.8583887964790873</v>
+        <v>-0.05960876992108697</v>
       </c>
       <c r="R3">
-        <v>-1.8624058069540492</v>
+        <v>-0.053691327108206309</v>
       </c>
       <c r="S3">
-        <v>-1.7582456183146924</v>
+        <v>-0.073279290403803779</v>
       </c>
       <c r="T3">
-        <v>-1.762601940981257</v>
+        <v>-0.079762736120788463</v>
       </c>
       <c r="U3">
-        <v>-1.7576892173303411</v>
+        <v>0.017378058091036954</v>
       </c>
       <c r="V3">
-        <v>-1.7411295303547238</v>
+        <v>-0.023446278193623465</v>
       </c>
       <c r="W3">
-        <v>-1.7504042077159394</v>
+        <v>0.0040386355377048993</v>
       </c>
       <c r="X3">
-        <v>-1.7380566422072623</v>
+        <v>0.064865967944392394</v>
       </c>
       <c r="Y3">
-        <v>-1.7072109046938231</v>
+        <v>0.017012028875029225</v>
       </c>
       <c r="Z3">
-        <v>-1.7357788594144496</v>
+        <v>0.033133156331360054</v>
       </c>
       <c r="AA3">
-        <v>-1.6610452159140769</v>
+        <v>0.037882006103710883</v>
       </c>
       <c r="AB3">
-        <v>-1.7098111063396086</v>
+        <v>-0.087546576286159319</v>
       </c>
       <c r="AC3">
-        <v>-1.6687871191836592</v>
+        <v>0.067700253097474641</v>
       </c>
       <c r="AD3">
-        <v>-1.7010816609349406</v>
+        <v>0.062997847235297375</v>
       </c>
       <c r="AE3">
-        <v>-1.6634159366576697</v>
+        <v>0.0032561164943319823</v>
       </c>
       <c r="AF3">
-        <v>-1.6797603045672751</v>
+        <v>0.053451556876918924</v>
       </c>
       <c r="AG3">
-        <v>-1.6420329251524821</v>
+        <v>0.079213622959614649</v>
       </c>
       <c r="AH3">
-        <v>-1.7101034763494625</v>
+        <v>0.061285208893715692</v>
       </c>
       <c r="AI3">
-        <v>-1.6688878785539092</v>
+        <v>0.076874673056955889</v>
       </c>
       <c r="AJ3">
-        <v>-1.6588306217700799</v>
+        <v>0.10666472624894206</v>
       </c>
       <c r="AK3">
-        <v>-1.6503795735779476</v>
+        <v>0.029201272840631631</v>
       </c>
       <c r="AL3">
-        <v>-1.6759474148092781</v>
+        <v>0.065123138489592211</v>
       </c>
       <c r="AM3">
-        <v>-1.6314011120416982</v>
+        <v>0.10517958293274296</v>
       </c>
       <c r="AN3">
-        <v>-1.6564929568926847</v>
+        <v>0.051630787582208494</v>
       </c>
       <c r="AO3">
-        <v>-1.6351060871905174</v>
+        <v>0.10217681070111292</v>
       </c>
       <c r="AP3">
-        <v>-1.6133781785267101</v>
+        <v>0.05316942811631347</v>
       </c>
       <c r="AQ3">
-        <v>-1.6958540990698059</v>
+        <v>0.10901575680453995</v>
       </c>
       <c r="AR3">
-        <v>-1.6650080341902755</v>
+        <v>0.0098475775737230896</v>
       </c>
       <c r="AS3">
-        <v>-1.638053692957538</v>
+        <v>0.072047870685077231</v>
       </c>
       <c r="AT3">
-        <v>-1.6184377396037528</v>
+        <v>0.12106192984400722</v>
       </c>
       <c r="AU3">
-        <v>-1.6395040412830637</v>
+        <v>0.08995975985199639</v>
       </c>
       <c r="AV3">
-        <v>-1.6131207452069862</v>
+        <v>0.075180523467052965</v>
       </c>
       <c r="AW3">
-        <v>-1.6524992061885377</v>
+        <v>0.1375188611634138</v>
       </c>
       <c r="AX3">
-        <v>-1.5909353695408273</v>
+        <v>0.15224610584370815</v>
       </c>
       <c r="AY3">
-        <v>-1.6485746866389297</v>
+        <v>0.11150950639871875</v>
       </c>
       <c r="AZ3">
-        <v>-1.6919813896020919</v>
+        <v>0.14364082564873532</v>
       </c>
       <c r="BA3">
-        <v>-1.6696845137722429</v>
+        <v>0.17769295086260464</v>
       </c>
       <c r="BB3">
-        <v>-1.603221003554183</v>
+        <v>0.13497724059408356</v>
       </c>
       <c r="BC3">
-        <v>-1.6752332408191799</v>
+        <v>0.13727551187137646</v>
       </c>
       <c r="BD3">
-        <v>-1.6180429253331936</v>
+        <v>0.049024032713889679</v>
       </c>
       <c r="BE3">
-        <v>-1.5817946851151907</v>
+        <v>0.11938541551623144</v>
       </c>
       <c r="BF3">
-        <v>-1.6323116657203915</v>
+        <v>0.11336436547162082</v>
       </c>
       <c r="BG3">
-        <v>-1.6768198982895064</v>
+        <v>0.071420380917075588</v>
       </c>
       <c r="BH3">
-        <v>-1.6148480118244521</v>
+        <v>0.064214048768347187</v>
       </c>
       <c r="BI3">
-        <v>-1.6383853127003964</v>
+        <v>0.13676406292860011</v>
       </c>
       <c r="BJ3">
-        <v>-1.655467444365837</v>
+        <v>0.085600182821424439</v>
       </c>
       <c r="BK3">
-        <v>-1.6207764651372112</v>
+        <v>0.10426142640428188</v>
       </c>
       <c r="BL3">
-        <v>-1.3065763311979008</v>
+        <v>0.092643712857614316</v>
       </c>
       <c r="BM3">
-        <v>-1.2619284391124674</v>
+        <v>0.13245123404529888</v>
       </c>
       <c r="BN3">
-        <v>-1.2379954840212493</v>
+        <v>0.08246398247152327</v>
       </c>
       <c r="BO3">
-        <v>-1.2840647593573258</v>
+        <v>0.14819638958778114</v>
       </c>
       <c r="BP3">
-        <v>-1.305941704264814</v>
+        <v>0.060091292461333511</v>
       </c>
       <c r="BQ3">
-        <v>-1.2445209128806602</v>
+        <v>0.1073833535193414</v>
       </c>
       <c r="BR3">
-        <v>-1.2292823747920913</v>
+        <v>0.10513449436815982</v>
       </c>
       <c r="BS3">
-        <v>-1.2598978728308745</v>
+        <v>0.06856273287825787</v>
       </c>
       <c r="BT3">
-        <v>-1.2760018067339931</v>
+        <v>0.094819505941493423</v>
       </c>
       <c r="BU3">
-        <v>-1.2557375424690498</v>
+        <v>0.010518187942454448</v>
       </c>
       <c r="BV3">
-        <v>-0.8117654167145878</v>
+        <v>-0.11395371689608277</v>
       </c>
       <c r="BW3">
-        <v>-0.50154100585255557</v>
+        <v>0.17709028185296757</v>
       </c>
       <c r="BX3">
-        <v>-0.56386345746401167</v>
+        <v>0.12701496814257582</v>
       </c>
       <c r="BY3">
-        <v>-0.53416151226424569</v>
+        <v>0.15665067389487522</v>
       </c>
       <c r="BZ3">
-        <v>-0.56689515287010706</v>
+        <v>0.12038409533978787</v>
       </c>
       <c r="CA3">
-        <v>-0.62918424212597168</v>
+        <v>0.05849411533358144</v>
       </c>
       <c r="CB3">
-        <v>-0.53000745614410594</v>
+        <v>0.14560390740850859</v>
       </c>
       <c r="CC3">
-        <v>-0.59183740645412353</v>
+        <v>0.075898187436640813</v>
       </c>
       <c r="CD3">
-        <v>-0.63974227813541329</v>
+        <v>0.043491577130625812</v>
       </c>
       <c r="CE3">
-        <v>-0.67345619264515177</v>
+        <v>0.024810172939228749</v>
       </c>
       <c r="CF3">
-        <v>-0.51911871202255522</v>
+        <v>-0.016691027866340424</v>
       </c>
       <c r="CG3">
-        <v>-0.20841724677020029</v>
+        <v>0.087510872123839636</v>
       </c>
       <c r="CH3">
-        <v>-0.21909832730203038</v>
+        <v>0.040834118728776812</v>
       </c>
       <c r="CI3">
-        <v>-0.26824377603604738</v>
+        <v>-0.010655233413259156</v>
       </c>
       <c r="CJ3">
-        <v>-0.29129320289713628</v>
+        <v>0.0068770982080609668</v>
       </c>
       <c r="CK3">
-        <v>-0.34427040961148386</v>
+        <v>-0.022514662283872687</v>
       </c>
       <c r="CL3">
-        <v>-0.32391686201368103</v>
+        <v>0.060765807249401768</v>
       </c>
       <c r="CM3">
-        <v>-0.34724580799599025</v>
+        <v>-0.022208008164437375</v>
       </c>
       <c r="CN3">
-        <v>-0.33520859495912225</v>
+        <v>-0.0067469922646344197</v>
       </c>
       <c r="CO3">
-        <v>-0.39981676730891053</v>
+        <v>-0.0072554880269833982</v>
       </c>
       <c r="CP3">
-        <v>-0.55725171041002741</v>
+        <v>-0.06128605735613734</v>
       </c>
       <c r="CQ3">
-        <v>-0.14672677575289875</v>
+        <v>0.27243736978636174</v>
       </c>
       <c r="CR3">
-        <v>-0.19190516718715159</v>
+        <v>0.23819031632207899</v>
       </c>
       <c r="CS3">
-        <v>-0.13433826279471295</v>
+        <v>0.27799026735979898</v>
       </c>
       <c r="CT3">
-        <v>-0.16231625734063826</v>
+        <v>0.21853420157987088</v>
       </c>
       <c r="CU3">
-        <v>-0.18559705764328085</v>
+        <v>0.17647112052488806</v>
       </c>
       <c r="CV3">
-        <v>-0.12211812769358525</v>
+        <v>0.23569173796614626</v>
       </c>
       <c r="CW3">
-        <v>-0.11231791385153636</v>
+        <v>0.18344924056364076</v>
       </c>
       <c r="CX3">
-        <v>-0.17206696574912014</v>
+        <v>0.16451183888464702</v>
       </c>
       <c r="CY3">
-        <v>-0.22133932401452058</v>
+        <v>0.13242323113657353</v>
       </c>
       <c r="CZ3">
-        <v>-0.23677727664673379</v>
+        <v>0.13053147060511988</v>
       </c>
       <c r="DA3">
-        <v>0.045291555419849479</v>
+        <v>0.18412961977260706</v>
       </c>
       <c r="DB3">
-        <v>0.024146030765231828</v>
+        <v>0.15775827569993456</v>
       </c>
       <c r="DC3">
-        <v>0.007917236301683497</v>
+        <v>0.11548866848830022</v>
       </c>
       <c r="DD3">
-        <v>-0.015015342022172622</v>
+        <v>0.12335501875091753</v>
       </c>
       <c r="DE3">
-        <v>-0.063340904233195008</v>
+        <v>0.11023892651758402</v>
       </c>
       <c r="DF3">
-        <v>-0.010225086860917909</v>
+        <v>0.1573780559545975</v>
       </c>
       <c r="DG3">
-        <v>-0.052885422680759749</v>
+        <v>0.12041361161933745</v>
       </c>
       <c r="DH3">
-        <v>-0.094959989780440332</v>
+        <v>0.092564911251141191</v>
       </c>
       <c r="DI3">
-        <v>-0.071478815463995871</v>
+        <v>0.11694100008181585</v>
       </c>
       <c r="DJ3">
-        <v>-0.10242475184978793</v>
+        <v>0.055329705570048196</v>
       </c>
       <c r="DK3">
-        <v>0.2550252232392089</v>
+        <v>0.26900492689667449</v>
       </c>
       <c r="DL3">
-        <v>0.21909399397988258</v>
+        <v>0.24282731258048584</v>
       </c>
       <c r="DM3">
-        <v>0.21176686258213617</v>
+        <v>0.19717543308983004</v>
       </c>
       <c r="DN3">
-        <v>0.20834401243968215</v>
+        <v>0.20718895943760396</v>
       </c>
       <c r="DO3">
-        <v>0.17031136202430452</v>
+        <v>0.20898858793379133</v>
       </c>
       <c r="DP3">
-        <v>0.1831481932688189</v>
+        <v>0.15349008437691466</v>
       </c>
       <c r="DQ3">
-        <v>0.17608146654982187</v>
+        <v>0.18750873348720562</v>
       </c>
       <c r="DR3">
-        <v>0.16012683115415158</v>
+        <v>0.14793378384235448</v>
       </c>
       <c r="DS3">
-        <v>0.13865988249533126</v>
+        <v>0.17047285542780491</v>
       </c>
       <c r="DT3">
-        <v>0.11496698899217744</v>
+        <v>0.16493769199816771</v>
       </c>
       <c r="DU3">
-        <v>0.12960711747223716</v>
+        <v>0.15063043378065055</v>
       </c>
       <c r="DV3">
-        <v>0.13757680594795521</v>
+        <v>0.13216401679738737</v>
       </c>
       <c r="DW3">
-        <v>0.14031834265561635</v>
+        <v>0.12714541925996065</v>
       </c>
       <c r="DX3">
-        <v>0.12137134350649821</v>
+        <v>0.12309577887044912</v>
       </c>
       <c r="DY3">
-        <v>0.11257434895952377</v>
+        <v>0.13055860832981958</v>
       </c>
       <c r="DZ3">
-        <v>0.063043703967427922</v>
+        <v>0.11071069836484281</v>
       </c>
       <c r="EA3">
-        <v>0.06487599193164939</v>
+        <v>0.083509867171313715</v>
       </c>
       <c r="EB3">
-        <v>0.07995621374684847</v>
+        <v>0.08427635012113617</v>
       </c>
       <c r="EC3">
-        <v>0.079777745974493608</v>
+        <v>0.1004710974782388</v>
       </c>
       <c r="ED3">
-        <v>0.082652236802760043</v>
+        <v>0.07069862074570421</v>
       </c>
       <c r="EE3">
-        <v>0.087457042177154137</v>
+        <v>0.1060620175470255</v>
       </c>
       <c r="EF3">
-        <v>0.081681539444881171</v>
+        <v>0.067129072345947824</v>
       </c>
       <c r="EG3">
-        <v>0.056004030278892891</v>
+        <v>0.067880630253264254</v>
       </c>
       <c r="EH3">
-        <v>0.064493037347430629</v>
+        <v>0.076771256100572588</v>
       </c>
       <c r="EI3">
-        <v>0.054616253580636133</v>
+        <v>0.073188453123996508</v>
       </c>
       <c r="EJ3">
-        <v>0.035242973498199923</v>
+        <v>0.069124193531442391</v>
       </c>
       <c r="EK3">
-        <v>0.019647870291065673</v>
+        <v>0.052311400377863131</v>
       </c>
       <c r="EL3">
-        <v>0.054903231107227078</v>
+        <v>0.024206226378201939</v>
       </c>
       <c r="EM3">
-        <v>0.052236564272471066</v>
+        <v>0.053289759711245416</v>
       </c>
       <c r="EN3">
-        <v>0.048266607661481713</v>
+        <v>0.051324935469861291</v>
       </c>
       <c r="EO3">
-        <v>0.042118522207820405</v>
+        <v>0.043848205287988905</v>
       </c>
       <c r="EP3">
-        <v>0.058647252363344657</v>
+        <v>0.050178128297749723</v>
       </c>
       <c r="EQ3">
-        <v>0.060684445878317131</v>
+        <v>0.051270001187780835</v>
       </c>
       <c r="ER3">
-        <v>0.0204820217602972</v>
+        <v>0.055948026431473862</v>
       </c>
       <c r="ES3">
-        <v>0.041406253703631483</v>
+        <v>0.077577214169936917</v>
       </c>
       <c r="ET3">
-        <v>0.034499298924667722</v>
+        <v>0.026773745801485935</v>
       </c>
       <c r="EU3">
-        <v>0.029180583507797661</v>
+        <v>0.045060904598400814</v>
       </c>
       <c r="EV3">
-        <v>0.0013038325675583879</v>
+        <v>0.0013058426000235066</v>
       </c>
       <c r="EW3">
-        <v>0.052353688041702748</v>
+        <v>0.031069409787556332</v>
       </c>
       <c r="EX3">
-        <v>0.051913422100609757</v>
+        <v>0.047310018404721647</v>
       </c>
       <c r="EY3">
-        <v>-0.01777951226176663</v>
+        <v>0.026144780526386819</v>
       </c>
       <c r="EZ3">
-        <v>0.0080148351395720706</v>
+        <v>-0.0040693460702977803</v>
       </c>
       <c r="FA3">
-        <v>0.0029973601922630641</v>
+        <v>0.023072644748142346</v>
       </c>
       <c r="FB3">
-        <v>0.0050157980907587565</v>
+        <v>0.011016358669217409</v>
       </c>
       <c r="FC3">
-        <v>0.0045051983545595078</v>
+        <v>0.026535619302018976</v>
       </c>
       <c r="FD3">
-        <v>-0.0093193289295549504</v>
+        <v>0.022011561629128394</v>
       </c>
       <c r="FE3">
-        <v>0.017455617480856556</v>
+        <v>0.041392002885561469</v>
       </c>
       <c r="FF3">
-        <v>0.0086640753258138206</v>
+        <v>-0.020194180464926357</v>
       </c>
       <c r="FG3">
-        <v>0.036656859436924309</v>
+        <v>-0.046340883167681084</v>
       </c>
       <c r="FH3">
-        <v>-0.026230999448267314</v>
+        <v>0.052073073896907358</v>
       </c>
       <c r="FI3">
-        <v>-0.024939837693759494</v>
+        <v>0.04014518056470523</v>
       </c>
       <c r="FJ3">
-        <v>0.020031689984963363</v>
+        <v>-0.0092243089989662089</v>
       </c>
       <c r="FK3">
-        <v>-0.0032843765160270313</v>
+        <v>0.022518042380602159</v>
       </c>
       <c r="FL3">
-        <v>-0.021560674141605618</v>
+        <v>0.015984142583415174</v>
       </c>
       <c r="FM3">
-        <v>0.020711872798887806</v>
+        <v>0.02033076776564836</v>
       </c>
       <c r="FN3">
-        <v>0.012982591331539233</v>
+        <v>-0.033419301655799621</v>
       </c>
       <c r="FO3">
-        <v>-0.058346194217549253</v>
+        <v>0.021192562895610202</v>
       </c>
       <c r="FP3">
-        <v>0</v>
+        <v>-0.035784184132231403</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -8516,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5062286804503486</v>
+        <v>-5.5127862986376419</v>
       </c>
     </row>
     <row r="4">
@@ -8524,517 +8530,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.017861592916541481</v>
+        <v>0.019697769793076143</v>
       </c>
       <c r="C4">
-        <v>0.015445436430124655</v>
+        <v>0.011560894381979088</v>
       </c>
       <c r="D4">
-        <v>0.019315537645107125</v>
+        <v>0.021211207287035343</v>
       </c>
       <c r="E4">
-        <v>0.023998304198011845</v>
+        <v>0.025888574032476873</v>
       </c>
       <c r="F4">
-        <v>0.011978036274571984</v>
+        <v>0.012609379707453166</v>
       </c>
       <c r="G4">
-        <v>0.010028256429596533</v>
+        <v>0.010754820837244614</v>
       </c>
       <c r="H4">
-        <v>0.0082815098676205876</v>
+        <v>0.0089236709740734797</v>
       </c>
       <c r="I4">
-        <v>0.0096696170385129031</v>
+        <v>0.0093669164844804448</v>
       </c>
       <c r="J4">
-        <v>0.010008953148724584</v>
+        <v>0.010063732022734371</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.021367570833177578</v>
+        <v>0.024289821265289488</v>
       </c>
       <c r="M4">
-        <v>0.020872011126970676</v>
+        <v>0.024011940095769194</v>
       </c>
       <c r="N4">
-        <v>0.033726486720257833</v>
+        <v>0.035736882300211659</v>
       </c>
       <c r="O4">
-        <v>0.034506413253545379</v>
+        <v>0.035625168900798129</v>
       </c>
       <c r="P4">
-        <v>0.033413445587212404</v>
+        <v>0.035547939415866078</v>
       </c>
       <c r="Q4">
-        <v>0.03423831986733613</v>
+        <v>0.035449794924312245</v>
       </c>
       <c r="R4">
-        <v>0.034301387896912457</v>
+        <v>0.035385072454391472</v>
       </c>
       <c r="S4">
-        <v>0.032938653589892695</v>
+        <v>0.035636266439797344</v>
       </c>
       <c r="T4">
-        <v>0.033003232573953864</v>
+        <v>0.035725636704578775</v>
       </c>
       <c r="U4">
-        <v>0.032949380253895752</v>
+        <v>0.034553341715488121</v>
       </c>
       <c r="V4">
-        <v>0.032748027972129869</v>
+        <v>0.035049111156912477</v>
       </c>
       <c r="W4">
-        <v>0.032874597603110595</v>
+        <v>0.034727908153465187</v>
       </c>
       <c r="X4">
-        <v>0.032727130147267199</v>
+        <v>0.034027470550641196</v>
       </c>
       <c r="Y4">
-        <v>0.032350322825238559</v>
+        <v>0.034591766423462025</v>
       </c>
       <c r="Z4">
-        <v>0.032716702131478391</v>
+        <v>0.034411078088161698</v>
       </c>
       <c r="AA4">
-        <v>0.031803929556339837</v>
+        <v>0.034364287958558497</v>
       </c>
       <c r="AB4">
-        <v>0.032410191924170537</v>
+        <v>0.035896085909943094</v>
       </c>
       <c r="AC4">
-        <v>0.031915710510553724</v>
+        <v>0.034036361326925141</v>
       </c>
       <c r="AD4">
-        <v>0.032320562621502805</v>
+        <v>0.034098920642038517</v>
       </c>
       <c r="AE4">
-        <v>0.031868931465224008</v>
+        <v>0.034806881053819697</v>
       </c>
       <c r="AF4">
-        <v>0.032076977639838668</v>
+        <v>0.034225765377887726</v>
       </c>
       <c r="AG4">
-        <v>0.031630312505602748</v>
+        <v>0.033939191423291347</v>
       </c>
       <c r="AH4">
-        <v>0.032470530749323427</v>
+        <v>0.034152998368489375</v>
       </c>
       <c r="AI4">
-        <v>0.031972233988016303</v>
+        <v>0.033983188706498593</v>
       </c>
       <c r="AJ4">
-        <v>0.03185961070978674</v>
+        <v>0.0336557457955311</v>
       </c>
       <c r="AK4">
-        <v>0.031767038958099021</v>
+        <v>0.034553341727919913</v>
       </c>
       <c r="AL4">
-        <v>0.032086572358088886</v>
+        <v>0.034143955984086975</v>
       </c>
       <c r="AM4">
-        <v>0.031558415232491699</v>
+        <v>0.03369793445366219</v>
       </c>
       <c r="AN4">
-        <v>0.031868931473548169</v>
+        <v>0.034317807931529887</v>
       </c>
       <c r="AO4">
-        <v>0.031621286818594829</v>
+        <v>0.033748912852841748</v>
       </c>
       <c r="AP4">
-        <v>0.031372977899992598</v>
+        <v>0.034317807933206657</v>
       </c>
       <c r="AQ4">
-        <v>0.032380199036358026</v>
+        <v>0.033689475489909144</v>
       </c>
       <c r="AR4">
-        <v>0.032010154188565718</v>
+        <v>0.034846694690995918</v>
       </c>
       <c r="AS4">
-        <v>0.03169380366033412</v>
+        <v>0.034125906607180768</v>
       </c>
       <c r="AT4">
-        <v>0.031469523779821623</v>
+        <v>0.033580469527406308</v>
       </c>
       <c r="AU4">
-        <v>0.031730330804512631</v>
+        <v>0.033939191435510961</v>
       </c>
       <c r="AV4">
-        <v>0.031425480467608048</v>
+        <v>0.034116899566683359</v>
       </c>
       <c r="AW4">
-        <v>0.031906331276329643</v>
+        <v>0.033424294379150996</v>
       </c>
       <c r="AX4">
-        <v>0.031183662564258866</v>
+        <v>0.03327172922583721</v>
       </c>
       <c r="AY4">
-        <v>0.031878263896473052</v>
+        <v>0.033731877142813872</v>
       </c>
       <c r="AZ4">
-        <v>0.032420215638503468</v>
+        <v>0.033383801011019482</v>
       </c>
       <c r="BA4">
-        <v>0.032154078320746522</v>
+        <v>0.033022583992410155</v>
       </c>
       <c r="BB4">
-        <v>0.031364264263182368</v>
+        <v>0.033497813983370664</v>
       </c>
       <c r="BC4">
-        <v>0.032241763746523273</v>
+        <v>0.033481405584621801</v>
       </c>
       <c r="BD4">
-        <v>0.031558415249451494</v>
+        <v>0.03449609216887841</v>
       </c>
       <c r="BE4">
-        <v>0.031141321991849037</v>
+        <v>0.033697934470494753</v>
       </c>
       <c r="BF4">
-        <v>0.031748662180813417</v>
+        <v>0.033774547399555141</v>
       </c>
       <c r="BG4">
-        <v>0.032300786595039169</v>
+        <v>0.034262436724925217</v>
       </c>
       <c r="BH4">
-        <v>0.031558415253575424</v>
+        <v>0.034354967274476469</v>
       </c>
       <c r="BI4">
-        <v>0.031850301603288146</v>
+        <v>0.033539013364693303</v>
       </c>
       <c r="BJ4">
-        <v>0.032067395129821138</v>
+        <v>0.034125906622581074</v>
       </c>
       <c r="BK4">
-        <v>0.031657456149320307</v>
+        <v>0.033921671579508261</v>
       </c>
       <c r="BL4">
-        <v>0.032841908970986641</v>
+        <v>0.034063102896090526</v>
       </c>
       <c r="BM4">
-        <v>0.03230434094020581</v>
+        <v>0.033622185030015669</v>
       </c>
       <c r="BN4">
-        <v>0.032026646889166545</v>
+        <v>0.034198388265530032</v>
       </c>
       <c r="BO4">
-        <v>0.032592785696498802</v>
+        <v>0.033465037732567919</v>
       </c>
       <c r="BP4">
-        <v>0.032872346022596949</v>
+        <v>0.034477111448955849</v>
       </c>
       <c r="BQ4">
-        <v>0.032237200441426805</v>
+        <v>0.034510099373036403</v>
       </c>
       <c r="BR4">
-        <v>0.032066714162856426</v>
+        <v>0.034543781660083886</v>
       </c>
       <c r="BS4">
-        <v>0.032439717812179199</v>
+        <v>0.034962189436402696</v>
       </c>
       <c r="BT4">
-        <v>0.03283795176913526</v>
+        <v>0.035391621950910536</v>
       </c>
       <c r="BU4">
-        <v>0.032606036790971162</v>
+        <v>0.036335210947367469</v>
       </c>
       <c r="BV4">
-        <v>0.024025043292047271</v>
+        <v>0.026390163872065619</v>
       </c>
       <c r="BW4">
-        <v>0.020915336478762651</v>
+        <v>0.022128337557201054</v>
       </c>
       <c r="BX4">
-        <v>0.021083214107024104</v>
+        <v>0.022266976930995958</v>
       </c>
       <c r="BY4">
-        <v>0.020535289719300267</v>
+        <v>0.021587343594055872</v>
       </c>
       <c r="BZ4">
-        <v>0.020645942856987051</v>
+        <v>0.021709939164437343</v>
       </c>
       <c r="CA4">
-        <v>0.020850522079909752</v>
+        <v>0.02191194790322195</v>
       </c>
       <c r="CB4">
-        <v>0.020418788252454037</v>
+        <v>0.021299087835585363</v>
       </c>
       <c r="CC4">
-        <v>0.020646512573873683</v>
+        <v>0.021552603240560159</v>
       </c>
       <c r="CD4">
-        <v>0.020835691339578716</v>
+        <v>0.021688769642432625</v>
       </c>
       <c r="CE4">
-        <v>0.020979184212602572</v>
+        <v>0.0217792617074761</v>
       </c>
       <c r="CF4">
-        <v>0.021598335126293715</v>
+        <v>0.021955401079007324</v>
       </c>
       <c r="CG4">
-        <v>0.022507825009404465</v>
+        <v>0.022222053954825724</v>
       </c>
       <c r="CH4">
-        <v>0.022572211047276743</v>
+        <v>0.0224286386945306</v>
       </c>
       <c r="CI4">
-        <v>0.022792128843574264</v>
+        <v>0.022663344443557151</v>
       </c>
       <c r="CJ4">
-        <v>0.022910381969199884</v>
+        <v>0.022613141147757056</v>
       </c>
       <c r="CK4">
-        <v>0.023021515817349226</v>
+        <v>0.022844573312115521</v>
       </c>
       <c r="CL4">
-        <v>0.023401649704477584</v>
+        <v>0.023250538513255502</v>
       </c>
       <c r="CM4">
-        <v>0.023529430194423277</v>
+        <v>0.023641407898517406</v>
       </c>
       <c r="CN4">
-        <v>0.023783658882965943</v>
+        <v>0.023745723545578783</v>
       </c>
       <c r="CO4">
-        <v>0.024104225907145005</v>
+        <v>0.02377202123016384</v>
       </c>
       <c r="CP4">
-        <v>0.023218428013179568</v>
+        <v>0.023776604717073963</v>
       </c>
       <c r="CQ4">
-        <v>0.0203735545597311</v>
+        <v>0.020106023617786389</v>
       </c>
       <c r="CR4">
-        <v>0.020473793457727693</v>
+        <v>0.020182932786239862</v>
       </c>
       <c r="CS4">
-        <v>0.01978703261160027</v>
+        <v>0.01961548278116531</v>
       </c>
       <c r="CT4">
-        <v>0.019864176411139464</v>
+        <v>0.019758718052517037</v>
       </c>
       <c r="CU4">
-        <v>0.019933038151478816</v>
+        <v>0.01986973191819728</v>
       </c>
       <c r="CV4">
-        <v>0.019525366413455179</v>
+        <v>0.019432616238889543</v>
       </c>
       <c r="CW4">
-        <v>0.019519770560392162</v>
+        <v>0.019581936029980256</v>
       </c>
       <c r="CX4">
-        <v>0.019691084025482395</v>
+        <v>0.019648992674103898</v>
       </c>
       <c r="CY4">
-        <v>0.019842732288398782</v>
+        <v>0.019753229474787019</v>
       </c>
       <c r="CZ4">
-        <v>0.019904713192061056</v>
+        <v>0.019776075191013012</v>
       </c>
       <c r="DA4">
-        <v>0.020065902434827004</v>
+        <v>0.019909172089806408</v>
       </c>
       <c r="DB4">
-        <v>0.020145264071661357</v>
+        <v>0.020004107912478978</v>
       </c>
       <c r="DC4">
-        <v>0.020211424863181816</v>
+        <v>0.020150284752571086</v>
       </c>
       <c r="DD4">
-        <v>0.020299303247762829</v>
+        <v>0.020143490934967416</v>
       </c>
       <c r="DE4">
-        <v>0.020470281959782954</v>
+        <v>0.020202320188063276</v>
       </c>
       <c r="DF4">
-        <v>0.020462600243313471</v>
+        <v>0.020335408137774545</v>
       </c>
       <c r="DG4">
-        <v>0.02061988383105421</v>
+        <v>0.020474132473256617</v>
       </c>
       <c r="DH4">
-        <v>0.020780975509704421</v>
+        <v>0.020586034025067663</v>
       </c>
       <c r="DI4">
-        <v>0.020718048546724641</v>
+        <v>0.020520810817741458</v>
       </c>
       <c r="DJ4">
-        <v>0.020843629557533019</v>
+        <v>0.02075287970233956</v>
       </c>
       <c r="DK4">
-        <v>0.019800163157133798</v>
+        <v>0.019825881304041133</v>
       </c>
       <c r="DL4">
-        <v>0.019955673124161494</v>
+        <v>0.019943311661295766</v>
       </c>
       <c r="DM4">
-        <v>0.02000350102845088</v>
+        <v>0.020139322004890315</v>
       </c>
       <c r="DN4">
-        <v>0.02003639692200495</v>
+        <v>0.020119333379261053</v>
       </c>
       <c r="DO4">
-        <v>0.020207393690875711</v>
+        <v>0.020131804941584976</v>
       </c>
       <c r="DP4">
-        <v>0.020175128623601317</v>
+        <v>0.020375440234861136</v>
       </c>
       <c r="DQ4">
-        <v>0.020223367717577632</v>
+        <v>0.020255929855551233</v>
       </c>
       <c r="DR4">
-        <v>0.020308432751088942</v>
+        <v>0.020438332744138813</v>
       </c>
       <c r="DS4">
-        <v>0.020417745530861731</v>
+        <v>0.020364313345416579</v>
       </c>
       <c r="DT4">
-        <v>0.02053849414244277</v>
+        <v>0.020407026634852856</v>
       </c>
       <c r="DU4">
-        <v>0.020495307769245921</v>
+        <v>0.020486825072030975</v>
       </c>
       <c r="DV4">
-        <v>0.020481083761420903</v>
+        <v>0.020585375650193607</v>
       </c>
       <c r="DW4">
-        <v>0.020489308489249545</v>
+        <v>0.020626891485583602</v>
       </c>
       <c r="DX4">
-        <v>0.020591047646038852</v>
+        <v>0.020664401603467206</v>
       </c>
       <c r="DY4">
-        <v>0.02064955627855504</v>
+        <v>0.020651833940875011</v>
       </c>
       <c r="DZ4">
-        <v>0.020892198491687084</v>
+        <v>0.020759132168692854</v>
       </c>
       <c r="EA4">
-        <v>0.020903677050783699</v>
+        <v>0.020901399858497517</v>
       </c>
       <c r="EB4">
-        <v>0.020854591716664317</v>
+        <v>0.020917905782634885</v>
       </c>
       <c r="EC4">
-        <v>0.020875513801762578</v>
+        <v>0.02086443442716936</v>
       </c>
       <c r="ED4">
-        <v>0.020882525907854749</v>
+        <v>0.021021040048967567</v>
       </c>
       <c r="EE4">
-        <v>0.020880771171628836</v>
+        <v>0.020878984723270412</v>
       </c>
       <c r="EF4">
-        <v>0.020927681327041821</v>
+        <v>0.021078813279392775</v>
       </c>
       <c r="EG4">
-        <v>0.021068030637740494</v>
+        <v>0.021095555594445221</v>
       </c>
       <c r="EH4">
-        <v>0.021048319178628996</v>
+        <v>0.021074181560247367</v>
       </c>
       <c r="EI4">
-        <v>0.021115557678485438</v>
+        <v>0.021111465709245873</v>
       </c>
       <c r="EJ4">
-        <v>0.021229157869900872</v>
+        <v>0.021151186039341876</v>
       </c>
       <c r="EK4">
-        <v>0.021325838162829736</v>
+        <v>0.021252149360474551</v>
       </c>
       <c r="EL4">
-        <v>0.021174702486219655</v>
+        <v>0.021409914348568818</v>
       </c>
       <c r="EM4">
-        <v>0.021208237455594119</v>
+        <v>0.021287993366991279</v>
       </c>
       <c r="EN4">
-        <v>0.02124822493597079</v>
+        <v>0.021318226145005462</v>
       </c>
       <c r="EO4">
-        <v>0.021299040928303477</v>
+        <v>0.021375563448374074</v>
       </c>
       <c r="EP4">
-        <v>0.021239176896855838</v>
+        <v>0.021365237245181169</v>
       </c>
       <c r="EQ4">
-        <v>0.021250239883764101</v>
+        <v>0.021380741131899608</v>
       </c>
       <c r="ER4">
-        <v>0.021470342265292458</v>
+        <v>0.021378669014645652</v>
       </c>
       <c r="ES4">
-        <v>0.021386561357813836</v>
+        <v>0.021294013700340106</v>
       </c>
       <c r="ET4">
-        <v>0.021442139536328269</v>
+        <v>0.021567133337992223</v>
       </c>
       <c r="EU4">
-        <v>0.021490032124741289</v>
+        <v>0.02149605970174694</v>
       </c>
       <c r="EV4">
-        <v>0.021653742656038179</v>
+        <v>0.021740504814035368</v>
       </c>
       <c r="EW4">
-        <v>0.021415283100572769</v>
+        <v>0.02160839238343654</v>
       </c>
       <c r="EX4">
-        <v>0.021438903532915058</v>
+        <v>0.02154727389447712</v>
       </c>
       <c r="EY4">
-        <v>0.021819727773409448</v>
+        <v>0.021676574907375054</v>
       </c>
       <c r="EZ4">
-        <v>0.02170529000441182</v>
+        <v>0.021855511306369202</v>
       </c>
       <c r="FA4">
-        <v>0.021752941782673684</v>
+        <v>0.021734635524331185</v>
       </c>
       <c r="FB4">
-        <v>0.021763769238936151</v>
+        <v>0.021819093331128993</v>
       </c>
       <c r="FC4">
-        <v>0.021787971252233165</v>
+        <v>0.021759366666727505</v>
       </c>
       <c r="FD4">
-        <v>0.021883005822416941</v>
+        <v>0.021804649400348566</v>
       </c>
       <c r="FE4">
-        <v>0.021762564438082842</v>
+        <v>0.021725268665338134</v>
       </c>
       <c r="FF4">
-        <v>0.021830799283049884</v>
+        <v>0.022074502476332213</v>
       </c>
       <c r="FG4">
-        <v>0.021705290434084014</v>
+        <v>0.022240180727949428</v>
       </c>
       <c r="FH4">
-        <v>0.022063735847507461</v>
+        <v>0.021732291389204912</v>
       </c>
       <c r="FI4">
-        <v>0.022078391640277285</v>
+        <v>0.021816681563556636</v>
       </c>
       <c r="FJ4">
-        <v>0.021856790664751494</v>
+        <v>0.02210350148115417</v>
       </c>
       <c r="FK4">
-        <v>0.022004485925179826</v>
+        <v>0.021953571169685913</v>
       </c>
       <c r="FL4">
-        <v>0.022126839043660893</v>
+        <v>0.022010872058505982</v>
       </c>
       <c r="FM4">
-        <v>0.021918314586604884</v>
+        <v>0.022009587082545325</v>
       </c>
       <c r="FN4">
-        <v>0.021982393090395933</v>
+        <v>0.022328511184710721</v>
       </c>
       <c r="FO4">
-        <v>0.022402831562812673</v>
+        <v>0.022048373096620541</v>
       </c>
       <c r="FP4">
-        <v>0</v>
+        <v>0.022387323764992327</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -9043,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015640291926638347</v>
+        <v>0.015703803969240957</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20916" uniqueCount="181">
   <si>
     <t>y1</t>
   </si>
@@ -1661,517 +1661,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.0066646304388935226</v>
+        <v>-0.0070868906147920864</v>
       </c>
       <c r="C3">
-        <v>-1.560929863184316</v>
+        <v>-1.5677086271263929</v>
       </c>
       <c r="D3">
-        <v>-1.6145071767247634</v>
+        <v>-1.6106247728642027</v>
       </c>
       <c r="E3">
-        <v>-1.609639481966356</v>
+        <v>-1.6173044184580083</v>
       </c>
       <c r="F3">
-        <v>-0.0051228424951356502</v>
+        <v>-0.0041999432989995918</v>
       </c>
       <c r="G3">
-        <v>-0.00040818544912766099</v>
+        <v>0.0045341537784226319</v>
       </c>
       <c r="H3">
-        <v>0.00036606970360182384</v>
+        <v>-0.0021406570362599814</v>
       </c>
       <c r="I3">
-        <v>0.0062414243510210132</v>
+        <v>0.0056618924726362678</v>
       </c>
       <c r="J3">
-        <v>-0.0042649207976060127</v>
+        <v>-0.0046807873547302804</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.283882308378296</v>
+        <v>1.3574105264385563</v>
       </c>
       <c r="M3">
-        <v>1.3602490020923195</v>
+        <v>1.4441667257264645</v>
       </c>
       <c r="N3">
-        <v>-0.1927514584843095</v>
+        <v>-0.054099226132392438</v>
       </c>
       <c r="O3">
-        <v>-0.1489759824126991</v>
+        <v>-0.010953688755434175</v>
       </c>
       <c r="P3">
-        <v>-0.15004737741830398</v>
+        <v>-0.073571968630257598</v>
       </c>
       <c r="Q3">
-        <v>-0.14394525652002804</v>
+        <v>-0.078157483640346623</v>
       </c>
       <c r="R3">
-        <v>-0.13786745306243967</v>
+        <v>-0.066811164650493277</v>
       </c>
       <c r="S3">
-        <v>-0.1532700152176249</v>
+        <v>-0.027241204928398939</v>
       </c>
       <c r="T3">
-        <v>-0.12228602962190854</v>
+        <v>-0.03839031043455398</v>
       </c>
       <c r="U3">
-        <v>-0.1076112364160203</v>
+        <v>-0.024017487103005712</v>
       </c>
       <c r="V3">
-        <v>-0.052176396310074029</v>
+        <v>-0.0064871600426464242</v>
       </c>
       <c r="W3">
-        <v>-0.023923812306447998</v>
+        <v>-0.0057005007202340962</v>
       </c>
       <c r="X3">
-        <v>0.049100609696400642</v>
+        <v>0.046109943655023106</v>
       </c>
       <c r="Y3">
-        <v>-0.032627819984870285</v>
+        <v>0.0066596449383637757</v>
       </c>
       <c r="Z3">
-        <v>-0.041518688372532975</v>
+        <v>0.020523372029528923</v>
       </c>
       <c r="AA3">
-        <v>-0.028595375559516033</v>
+        <v>0.054056357202880344</v>
       </c>
       <c r="AB3">
-        <v>-0.089883006429767542</v>
+        <v>-0.0033062185216488011</v>
       </c>
       <c r="AC3">
-        <v>-0.056339208858439585</v>
+        <v>0.093437745525182525</v>
       </c>
       <c r="AD3">
-        <v>-0.048951822878214736</v>
+        <v>0.098080919089954588</v>
       </c>
       <c r="AE3">
-        <v>-0.094376368552005263</v>
+        <v>0.0042068901872678701</v>
       </c>
       <c r="AF3">
-        <v>0.04587160777167424</v>
+        <v>0.077660618026799355</v>
       </c>
       <c r="AG3">
-        <v>0.019445180051628121</v>
+        <v>0.078516367448522847</v>
       </c>
       <c r="AH3">
-        <v>0.086502641300851252</v>
+        <v>0.090858980778020862</v>
       </c>
       <c r="AI3">
-        <v>-0.017187325007651577</v>
+        <v>0.069399327212800205</v>
       </c>
       <c r="AJ3">
-        <v>0.034275000854023657</v>
+        <v>0.17230224045152556</v>
       </c>
       <c r="AK3">
-        <v>-0.017890299127277024</v>
+        <v>0.080487881827507282</v>
       </c>
       <c r="AL3">
-        <v>0.091381477488580956</v>
+        <v>0.10948634690009416</v>
       </c>
       <c r="AM3">
-        <v>0.048973963863859049</v>
+        <v>0.035653197867908312</v>
       </c>
       <c r="AN3">
-        <v>0.050607472945109991</v>
+        <v>0.11642631753865018</v>
       </c>
       <c r="AO3">
-        <v>0.068594254721700082</v>
+        <v>0.13212666523494959</v>
       </c>
       <c r="AP3">
-        <v>0.052392962228250385</v>
+        <v>0.098631997447377009</v>
       </c>
       <c r="AQ3">
-        <v>0.025138917521247004</v>
+        <v>0.064671162135034585</v>
       </c>
       <c r="AR3">
-        <v>0.032919495897670389</v>
+        <v>0.14498763804723555</v>
       </c>
       <c r="AS3">
-        <v>0.060246922769151223</v>
+        <v>0.049750542254388075</v>
       </c>
       <c r="AT3">
-        <v>0.0082920741204054703</v>
+        <v>0.069623817474525784</v>
       </c>
       <c r="AU3">
-        <v>0.08339308565388738</v>
+        <v>0.072827580389145802</v>
       </c>
       <c r="AV3">
-        <v>0.013195360081860515</v>
+        <v>0.11062250430991269</v>
       </c>
       <c r="AW3">
-        <v>0.04947850337462277</v>
+        <v>0.094743676399457841</v>
       </c>
       <c r="AX3">
-        <v>0.077977990231865746</v>
+        <v>0.093306366935232449</v>
       </c>
       <c r="AY3">
-        <v>0.039855157362268578</v>
+        <v>0.088769940243655657</v>
       </c>
       <c r="AZ3">
-        <v>0.039964668450505607</v>
+        <v>0.15700573471329479</v>
       </c>
       <c r="BA3">
-        <v>0.056798781592564164</v>
+        <v>0.14774558053029632</v>
       </c>
       <c r="BB3">
-        <v>0.0058574704681817304</v>
+        <v>0.10302762044436337</v>
       </c>
       <c r="BC3">
-        <v>0.076467361369635084</v>
+        <v>0.10924920263867942</v>
       </c>
       <c r="BD3">
-        <v>0.03270177183758316</v>
+        <v>0.071320986985253618</v>
       </c>
       <c r="BE3">
-        <v>0.029691620934057431</v>
+        <v>0.092541000620608799</v>
       </c>
       <c r="BF3">
-        <v>0.023537412274075232</v>
+        <v>0.10880124167366398</v>
       </c>
       <c r="BG3">
-        <v>0.077747745778770028</v>
+        <v>0.077083627215766337</v>
       </c>
       <c r="BH3">
-        <v>0.034657447261403601</v>
+        <v>0.10594663993100867</v>
       </c>
       <c r="BI3">
-        <v>0.054731048301936557</v>
+        <v>0.11218305732045084</v>
       </c>
       <c r="BJ3">
-        <v>0.10606079538402585</v>
+        <v>0.10771277056841849</v>
       </c>
       <c r="BK3">
-        <v>0.012221792662861922</v>
+        <v>0.070277167227515133</v>
       </c>
       <c r="BL3">
-        <v>0.052066203885471327</v>
+        <v>0.099420350261829285</v>
       </c>
       <c r="BM3">
-        <v>0.083088528980979404</v>
+        <v>0.058357030139550931</v>
       </c>
       <c r="BN3">
-        <v>0.025945136056855438</v>
+        <v>0.12260059096956857</v>
       </c>
       <c r="BO3">
-        <v>0.030733100120738089</v>
+        <v>0.11051759008134381</v>
       </c>
       <c r="BP3">
-        <v>0.01421491816845114</v>
+        <v>0.058548592537401738</v>
       </c>
       <c r="BQ3">
-        <v>0.079154734732097179</v>
+        <v>0.10295227325595503</v>
       </c>
       <c r="BR3">
-        <v>0.063774042699276612</v>
+        <v>0.087023826522714454</v>
       </c>
       <c r="BS3">
-        <v>0.064647224675461482</v>
+        <v>0.11804323192389335</v>
       </c>
       <c r="BT3">
-        <v>0.098364875387690495</v>
+        <v>0.11443467397162231</v>
       </c>
       <c r="BU3">
-        <v>-0.0047123046504376331</v>
+        <v>0.06601720557993182</v>
       </c>
       <c r="BV3">
-        <v>0.00054694402891961784</v>
+        <v>0.052231355298072324</v>
       </c>
       <c r="BW3">
-        <v>0.024197346532307568</v>
+        <v>0.088652084356342323</v>
       </c>
       <c r="BX3">
-        <v>0.02747200905253587</v>
+        <v>0.08466995494159571</v>
       </c>
       <c r="BY3">
-        <v>0.020543571277410994</v>
+        <v>0.072797424533221439</v>
       </c>
       <c r="BZ3">
-        <v>0.056221551135029718</v>
+        <v>0.1166227134661024</v>
       </c>
       <c r="CA3">
-        <v>0.016756647320942064</v>
+        <v>0.043294338191005095</v>
       </c>
       <c r="CB3">
-        <v>0.05128967210914348</v>
+        <v>0.12569522981857745</v>
       </c>
       <c r="CC3">
-        <v>0.021892682845508694</v>
+        <v>0.074628429342226299</v>
       </c>
       <c r="CD3">
-        <v>0.014283455341800019</v>
+        <v>0.12421551080720818</v>
       </c>
       <c r="CE3">
-        <v>0.048516582484937773</v>
+        <v>0.078255144138539817</v>
       </c>
       <c r="CF3">
-        <v>0.041228245486379142</v>
+        <v>0.10641722003554575</v>
       </c>
       <c r="CG3">
-        <v>0.027236279697440566</v>
+        <v>0.056639015642490624</v>
       </c>
       <c r="CH3">
-        <v>0.027767358310817902</v>
+        <v>0.071809504667239552</v>
       </c>
       <c r="CI3">
-        <v>-0.018215034941384385</v>
+        <v>0.039684650666776101</v>
       </c>
       <c r="CJ3">
-        <v>0.0536653657033287</v>
+        <v>0.060864962211726194</v>
       </c>
       <c r="CK3">
-        <v>0.053870649932149607</v>
+        <v>0.081576804953664636</v>
       </c>
       <c r="CL3">
-        <v>0.088326807806847193</v>
+        <v>0.068991322282804191</v>
       </c>
       <c r="CM3">
-        <v>0.0070277943528498435</v>
+        <v>0.12266195045738286</v>
       </c>
       <c r="CN3">
-        <v>0.022350875181141625</v>
+        <v>0.10697494238368042</v>
       </c>
       <c r="CO3">
-        <v>0.066275445666931374</v>
+        <v>0.089980813378963354</v>
       </c>
       <c r="CP3">
-        <v>0.029399213493777849</v>
+        <v>0.10368992596670604</v>
       </c>
       <c r="CQ3">
-        <v>0.046301805176180356</v>
+        <v>0.1248956701232572</v>
       </c>
       <c r="CR3">
-        <v>0.061167746898684851</v>
+        <v>0.087866280548407311</v>
       </c>
       <c r="CS3">
-        <v>0.071934401496531575</v>
+        <v>0.12491612577640199</v>
       </c>
       <c r="CT3">
-        <v>0.044166719515867314</v>
+        <v>0.089145503678228419</v>
       </c>
       <c r="CU3">
-        <v>0.033529534121313105</v>
+        <v>0.090134680347668458</v>
       </c>
       <c r="CV3">
-        <v>0.024402583092679071</v>
+        <v>0.093036882552612665</v>
       </c>
       <c r="CW3">
-        <v>0.020556492062748601</v>
+        <v>0.086130020367117352</v>
       </c>
       <c r="CX3">
-        <v>0.02137909605102048</v>
+        <v>0.074701337818952343</v>
       </c>
       <c r="CY3">
-        <v>0.018898732316977106</v>
+        <v>0.14070696440922983</v>
       </c>
       <c r="CZ3">
-        <v>0.063602628076563417</v>
+        <v>0.072529950372921495</v>
       </c>
       <c r="DA3">
-        <v>0.05395787912213864</v>
+        <v>0.068645241619364278</v>
       </c>
       <c r="DB3">
-        <v>0.03259798953438163</v>
+        <v>0.099044672928978589</v>
       </c>
       <c r="DC3">
-        <v>-0.0015949823816159812</v>
+        <v>0.091645935336284096</v>
       </c>
       <c r="DD3">
-        <v>0.044058148676577376</v>
+        <v>0.11319198506450819</v>
       </c>
       <c r="DE3">
-        <v>0.063084665318838315</v>
+        <v>0.06783595285888068</v>
       </c>
       <c r="DF3">
-        <v>0.057443957200934509</v>
+        <v>0.074826771995840508</v>
       </c>
       <c r="DG3">
-        <v>0.039214599012162357</v>
+        <v>0.073614240493165256</v>
       </c>
       <c r="DH3">
-        <v>0.018104410593582605</v>
+        <v>0.11350451302186024</v>
       </c>
       <c r="DI3">
-        <v>0.087978211119827898</v>
+        <v>0.095526585997883287</v>
       </c>
       <c r="DJ3">
-        <v>0.024641929034286705</v>
+        <v>0.067343543431912886</v>
       </c>
       <c r="DK3">
-        <v>0.058263356612028937</v>
+        <v>0.098045752370346378</v>
       </c>
       <c r="DL3">
-        <v>0.048323523470325286</v>
+        <v>0.081735496938268551</v>
       </c>
       <c r="DM3">
-        <v>0.00081930032537565461</v>
+        <v>0.076613013095097077</v>
       </c>
       <c r="DN3">
-        <v>0.025221428097309651</v>
+        <v>0.072555067768606679</v>
       </c>
       <c r="DO3">
-        <v>0.045505724332950657</v>
+        <v>0.069593487119237851</v>
       </c>
       <c r="DP3">
-        <v>-0.0060438464957321292</v>
+        <v>0.084229303417383439</v>
       </c>
       <c r="DQ3">
-        <v>0.053312047656063781</v>
+        <v>0.080556618903087879</v>
       </c>
       <c r="DR3">
-        <v>0.01341722957468694</v>
+        <v>0.1155629447267203</v>
       </c>
       <c r="DS3">
-        <v>0.045435856570505265</v>
+        <v>0.092861392059273309</v>
       </c>
       <c r="DT3">
-        <v>0.051187049960368013</v>
+        <v>0.10326412770890012</v>
       </c>
       <c r="DU3">
-        <v>0.040570198097632168</v>
+        <v>0.11829039299600694</v>
       </c>
       <c r="DV3">
-        <v>0.034069592041931128</v>
+        <v>0.10514298621772766</v>
       </c>
       <c r="DW3">
-        <v>0.032638755697356379</v>
+        <v>0.05022910397203291</v>
       </c>
       <c r="DX3">
-        <v>0.035584254248266348</v>
+        <v>0.092045709447576382</v>
       </c>
       <c r="DY3">
-        <v>0.049701643850841921</v>
+        <v>0.095816790767828161</v>
       </c>
       <c r="DZ3">
-        <v>0.032281572264392919</v>
+        <v>0.083498971427752103</v>
       </c>
       <c r="EA3">
-        <v>0.01016260652756726</v>
+        <v>0.091279784195176558</v>
       </c>
       <c r="EB3">
-        <v>0.013384201307586094</v>
+        <v>0.084468367230960753</v>
       </c>
       <c r="EC3">
-        <v>0.039674064575879034</v>
+        <v>0.099989934372200495</v>
       </c>
       <c r="ED3">
-        <v>0.017037851731755246</v>
+        <v>0.076322000987328095</v>
       </c>
       <c r="EE3">
-        <v>0.056845912279265214</v>
+        <v>0.074173317531725902</v>
       </c>
       <c r="EF3">
-        <v>0.018234639577197183</v>
+        <v>0.079105629162143309</v>
       </c>
       <c r="EG3">
-        <v>0.02442400557090332</v>
+        <v>0.079454204841923046</v>
       </c>
       <c r="EH3">
-        <v>0.035653155089215953</v>
+        <v>0.083572158332682403</v>
       </c>
       <c r="EI3">
-        <v>0.030591184768874541</v>
+        <v>0.081395541385080442</v>
       </c>
       <c r="EJ3">
-        <v>0.035570247321326874</v>
+        <v>0.063760201446720177</v>
       </c>
       <c r="EK3">
-        <v>0.014164141315776251</v>
+        <v>0.084921466113582603</v>
       </c>
       <c r="EL3">
-        <v>-0.013328046044076681</v>
+        <v>0.075399271523758055</v>
       </c>
       <c r="EM3">
-        <v>0.02477933069850537</v>
+        <v>0.08720876157862531</v>
       </c>
       <c r="EN3">
-        <v>0.022848328652619612</v>
+        <v>0.078046399234876357</v>
       </c>
       <c r="EO3">
-        <v>0.016506513286627854</v>
+        <v>0.046965212732116179</v>
       </c>
       <c r="EP3">
-        <v>0.023207888564533489</v>
+        <v>0.048710160434635573</v>
       </c>
       <c r="EQ3">
-        <v>0.026441471559679901</v>
+        <v>0.061637818536621883</v>
       </c>
       <c r="ER3">
-        <v>0.037092666550314977</v>
+        <v>0.063010834512395877</v>
       </c>
       <c r="ES3">
-        <v>0.056760493353543807</v>
+        <v>0.064829301728375519</v>
       </c>
       <c r="ET3">
-        <v>0.010619441222962565</v>
+        <v>0.10229278499267304</v>
       </c>
       <c r="EU3">
-        <v>0.031164343757388753</v>
+        <v>0.091698608910327939</v>
       </c>
       <c r="EV3">
-        <v>-0.014071306010436982</v>
+        <v>0.052381025528887452</v>
       </c>
       <c r="EW3">
-        <v>0.015555424133112186</v>
+        <v>0.050414863339470303</v>
       </c>
       <c r="EX3">
-        <v>0.036238789055158462</v>
+        <v>0.050720693329217796</v>
       </c>
       <c r="EY3">
-        <v>0.011496432331654689</v>
+        <v>0.074419398503421927</v>
       </c>
       <c r="EZ3">
-        <v>-0.01278990085611444</v>
+        <v>0.06297373010910004</v>
       </c>
       <c r="FA3">
-        <v>0.018141434963054925</v>
+        <v>0.073453471618435559</v>
       </c>
       <c r="FB3">
-        <v>0.00042827944214171283</v>
+        <v>0.090283118940089183</v>
       </c>
       <c r="FC3">
-        <v>0.018411453683013394</v>
+        <v>0.12472116258691755</v>
       </c>
       <c r="FD3">
-        <v>0.016469154867701886</v>
+        <v>0.029525228200075276</v>
       </c>
       <c r="FE3">
-        <v>0.033030916349494448</v>
+        <v>0.077962256848783051</v>
       </c>
       <c r="FF3">
-        <v>-0.027827135261069776</v>
+        <v>0.096333840374686092</v>
       </c>
       <c r="FG3">
-        <v>-0.053776150507363785</v>
+        <v>0.039317024442793946</v>
       </c>
       <c r="FH3">
-        <v>0.048094801560845842</v>
+        <v>0.060598755460906553</v>
       </c>
       <c r="FI3">
-        <v>0.038470362263584724</v>
+        <v>0.035594178915709901</v>
       </c>
       <c r="FJ3">
-        <v>-0.010273679468677114</v>
+        <v>0.074290409478903294</v>
       </c>
       <c r="FK3">
-        <v>0.021694273978267523</v>
+        <v>0.034255629499734416</v>
       </c>
       <c r="FL3">
-        <v>0.012858924877151966</v>
+        <v>0.049529944523417815</v>
       </c>
       <c r="FM3">
-        <v>0.018368992572114228</v>
+        <v>0.060852721941782525</v>
       </c>
       <c r="FN3">
-        <v>-0.035524644555441451</v>
+        <v>0.048210418659812328</v>
       </c>
       <c r="FO3">
-        <v>0.017623419444776769</v>
+        <v>0.037246136164979335</v>
       </c>
       <c r="FP3">
-        <v>-0.035250685583651527</v>
+        <v>0.052182605049359711</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5203640040528006</v>
+        <v>-5.5739128527231632</v>
       </c>
     </row>
     <row r="4">
@@ -2188,517 +2188,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.024688171493889962</v>
+        <v>0.024580211183534598</v>
       </c>
       <c r="C4">
-        <v>0.012512196778234926</v>
+        <v>0.012548189366913758</v>
       </c>
       <c r="D4">
-        <v>0.021808785280614876</v>
+        <v>0.02195188232799444</v>
       </c>
       <c r="E4">
-        <v>0.026567888272816031</v>
+        <v>0.026712454964353764</v>
       </c>
       <c r="F4">
-        <v>0.016281260997707749</v>
+        <v>0.016281370408040716</v>
       </c>
       <c r="G4">
-        <v>0.013484513556404832</v>
+        <v>0.013496190976526049</v>
       </c>
       <c r="H4">
-        <v>0.010806270603994653</v>
+        <v>0.010766357268405916</v>
       </c>
       <c r="I4">
-        <v>0.010817714815051683</v>
+        <v>0.010854145645420079</v>
       </c>
       <c r="J4">
-        <v>0.011280492284554347</v>
+        <v>0.011356018344286038</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02485868142917393</v>
+        <v>0.025091854699719526</v>
       </c>
       <c r="M4">
-        <v>0.024554710291606632</v>
+        <v>0.024754277112077783</v>
       </c>
       <c r="N4">
-        <v>0.036626732684059728</v>
+        <v>0.035853175619644601</v>
       </c>
       <c r="O4">
-        <v>0.036083915355012305</v>
+        <v>0.03534861887974159</v>
       </c>
       <c r="P4">
-        <v>0.036106239867546769</v>
+        <v>0.036108484230955154</v>
       </c>
       <c r="Q4">
-        <v>0.036039464621138412</v>
+        <v>0.03617372284167699</v>
       </c>
       <c r="R4">
-        <v>0.035973279669972692</v>
+        <v>0.036043817939174154</v>
       </c>
       <c r="S4">
-        <v>0.036173613691519516</v>
+        <v>0.035576298657058386</v>
       </c>
       <c r="T4">
-        <v>0.035799611049782909</v>
+        <v>0.035718534692825474</v>
       </c>
       <c r="U4">
-        <v>0.035629934012305478</v>
+        <v>0.035556208069294187</v>
       </c>
       <c r="V4">
-        <v>0.034978830320272422</v>
+        <v>0.035358367079120871</v>
       </c>
       <c r="W4">
-        <v>0.034660731530639172</v>
+        <v>0.03535836708007499</v>
       </c>
       <c r="X4">
-        <v>0.033851568803502569</v>
+        <v>0.034769459637275152</v>
       </c>
       <c r="Y4">
-        <v>0.034780643974229954</v>
+        <v>0.035232684059759302</v>
       </c>
       <c r="Z4">
-        <v>0.034893203499104408</v>
+        <v>0.035081039720513484</v>
       </c>
       <c r="AA4">
-        <v>0.034752786716009294</v>
+        <v>0.034707041038694444</v>
       </c>
       <c r="AB4">
-        <v>0.035484629469625252</v>
+        <v>0.035377904039121721</v>
       </c>
       <c r="AC4">
-        <v>0.035094646971704134</v>
+        <v>0.034285671087494959</v>
       </c>
       <c r="AD4">
-        <v>0.035017224730574815</v>
+        <v>0.034244143903318945</v>
       </c>
       <c r="AE4">
-        <v>0.035567305090193055</v>
+        <v>0.035319455102899189</v>
       </c>
       <c r="AF4">
-        <v>0.033957784471204185</v>
+        <v>0.034488726901889463</v>
       </c>
       <c r="AG4">
-        <v>0.034261165723208808</v>
+        <v>0.034488726903052325</v>
       </c>
       <c r="AH4">
-        <v>0.033535241648076558</v>
+        <v>0.034361087743335628</v>
       </c>
       <c r="AI4">
-        <v>0.034697406412706876</v>
+        <v>0.034610106313833489</v>
       </c>
       <c r="AJ4">
-        <v>0.034124615926847825</v>
+        <v>0.033502090026057287</v>
       </c>
       <c r="AK4">
-        <v>0.034725041101434657</v>
+        <v>0.034505932331394255</v>
       </c>
       <c r="AL4">
-        <v>0.033519826625174942</v>
+        <v>0.03419465647973622</v>
       </c>
       <c r="AM4">
-        <v>0.033990815188896205</v>
+        <v>0.035034322935985601</v>
       </c>
       <c r="AN4">
-        <v>0.033982541956832223</v>
+        <v>0.034137391521512038</v>
       </c>
       <c r="AO4">
-        <v>0.033795083179760141</v>
+        <v>0.033976509577425741</v>
       </c>
       <c r="AP4">
-        <v>0.033982541959406809</v>
+        <v>0.034352665366292133</v>
       </c>
       <c r="AQ4">
-        <v>0.034295743066311044</v>
+        <v>0.034742638317087446</v>
       </c>
       <c r="AR4">
-        <v>0.034218193316250242</v>
+        <v>0.033866237961421443</v>
       </c>
       <c r="AS4">
-        <v>0.033924918957026415</v>
+        <v>0.034932647397930248</v>
       </c>
       <c r="AT4">
-        <v>0.034515959941423903</v>
+        <v>0.0347159228196917</v>
       </c>
       <c r="AU4">
-        <v>0.033691467461080142</v>
+        <v>0.034689312511738228</v>
       </c>
       <c r="AV4">
-        <v>0.034480241132292144</v>
+        <v>0.034277344615679967</v>
       </c>
       <c r="AW4">
-        <v>0.034082511979259836</v>
+        <v>0.034463001889779347</v>
       </c>
       <c r="AX4">
-        <v>0.033779034106418561</v>
+        <v>0.034488726923519203</v>
       </c>
       <c r="AY4">
-        <v>0.034209631852398406</v>
+        <v>0.034549141117452525</v>
       </c>
       <c r="AZ4">
-        <v>0.034218193326237219</v>
+        <v>0.033811807831068623</v>
       </c>
       <c r="BA4">
-        <v>0.034040673817492276</v>
+        <v>0.033921136463499466</v>
       </c>
       <c r="BB4">
-        <v>0.034624251075419991</v>
+        <v>0.034420346974086899</v>
       </c>
       <c r="BC4">
-        <v>0.033843469420621802</v>
+        <v>0.034361087769309788</v>
       </c>
       <c r="BD4">
-        <v>0.034339216332093601</v>
+        <v>0.034796387510597833</v>
       </c>
       <c r="BE4">
-        <v>0.03438297176149082</v>
+        <v>0.03456650319014655</v>
       </c>
       <c r="BF4">
-        <v>0.034462451789628895</v>
+        <v>0.034394885140265917</v>
       </c>
       <c r="BG4">
-        <v>0.033867797909554395</v>
+        <v>0.034760507430194772</v>
       </c>
       <c r="BH4">
-        <v>0.034356684487470132</v>
+        <v>0.034445907025003497</v>
       </c>
       <c r="BI4">
-        <v>0.034141532556726507</v>
+        <v>0.03438641958634428</v>
       </c>
       <c r="BJ4">
-        <v>0.033589489028944208</v>
+        <v>0.034445907027544936</v>
       </c>
       <c r="BK4">
-        <v>0.034642467134765709</v>
+        <v>0.034877816624997837</v>
       </c>
       <c r="BL4">
-        <v>0.034201081349019127</v>
+        <v>0.034557816532275867</v>
       </c>
       <c r="BM4">
-        <v>0.033867797917646623</v>
+        <v>0.035034322965887835</v>
       </c>
       <c r="BN4">
-        <v>0.034515959965787206</v>
+        <v>0.034319083028944812</v>
       </c>
       <c r="BO4">
-        <v>0.034471340660575694</v>
+        <v>0.034463001912312219</v>
       </c>
       <c r="BP4">
-        <v>0.034669882014157945</v>
+        <v>0.035062315131215702</v>
       </c>
       <c r="BQ4">
-        <v>0.034859092217198025</v>
+        <v>0.03543609423576289</v>
       </c>
       <c r="BR4">
-        <v>0.035039324468967015</v>
+        <v>0.035624823211687071</v>
       </c>
       <c r="BS4">
-        <v>0.035039401043237418</v>
+        <v>0.035287250182844766</v>
       </c>
       <c r="BT4">
-        <v>0.035466931123620808</v>
+        <v>0.036166198225543129</v>
       </c>
       <c r="BU4">
-        <v>0.036612140136414943</v>
+        <v>0.036712335869198968</v>
       </c>
       <c r="BV4">
-        <v>0.031162410460107332</v>
+        <v>0.031346114067770652</v>
       </c>
       <c r="BW4">
-        <v>0.026843155896240017</v>
+        <v>0.027050376089531425</v>
       </c>
       <c r="BX4">
-        <v>0.026841757133850948</v>
+        <v>0.027085325395667156</v>
       </c>
       <c r="BY4">
-        <v>0.025778707158710289</v>
+        <v>0.026041748435724339</v>
       </c>
       <c r="BZ4">
-        <v>0.025608893549801545</v>
+        <v>0.025832528834547581</v>
       </c>
       <c r="CA4">
-        <v>0.025833956960980613</v>
+        <v>0.026233977636626191</v>
       </c>
       <c r="CB4">
-        <v>0.02477677581479831</v>
+        <v>0.024946114524449007</v>
       </c>
       <c r="CC4">
-        <v>0.024956828598435846</v>
+        <v>0.025240529373543732</v>
       </c>
       <c r="CD4">
-        <v>0.025018228987232077</v>
+        <v>0.024990856268027523</v>
       </c>
       <c r="CE4">
-        <v>0.024847858052544244</v>
+        <v>0.025259015586278796</v>
       </c>
       <c r="CF4">
-        <v>0.024907099880212714</v>
+        <v>0.025123762097047527</v>
       </c>
       <c r="CG4">
-        <v>0.024956662575652464</v>
+        <v>0.025382125666291385</v>
       </c>
       <c r="CH4">
-        <v>0.024972927416502196</v>
+        <v>0.025316077610299678</v>
       </c>
       <c r="CI4">
-        <v>0.025254163761751779</v>
+        <v>0.025516734022335865</v>
       </c>
       <c r="CJ4">
-        <v>0.024866877778109395</v>
+        <v>0.025415185038731858</v>
       </c>
       <c r="CK4">
-        <v>0.025141009150070594</v>
+        <v>0.025563094702818999</v>
       </c>
       <c r="CL4">
-        <v>0.025272364971622597</v>
+        <v>0.0259679301628967</v>
       </c>
       <c r="CM4">
-        <v>0.025744036963843198</v>
+        <v>0.025692427751206073</v>
       </c>
       <c r="CN4">
-        <v>0.02592789658223631</v>
+        <v>0.026057057838491663</v>
       </c>
       <c r="CO4">
-        <v>0.025705938380898834</v>
+        <v>0.026171143882564484</v>
       </c>
       <c r="CP4">
-        <v>0.025653729263207983</v>
+        <v>0.025848844097473483</v>
       </c>
       <c r="CQ4">
-        <v>0.022074317391328608</v>
+        <v>0.022283073882960885</v>
       </c>
       <c r="CR4">
-        <v>0.022032831668424423</v>
+        <v>0.022441564148080153</v>
       </c>
       <c r="CS4">
-        <v>0.021527872200806153</v>
+        <v>0.021839622891814379</v>
       </c>
       <c r="CT4">
-        <v>0.021655459023990971</v>
+        <v>0.021997009601875901</v>
       </c>
       <c r="CU4">
-        <v>0.021715578917442652</v>
+        <v>0.022009710191519878</v>
       </c>
       <c r="CV4">
-        <v>0.021392267450831826</v>
+        <v>0.021642875779074502</v>
       </c>
       <c r="CW4">
-        <v>0.021425749610578197</v>
+        <v>0.021688357079514414</v>
       </c>
       <c r="CX4">
-        <v>0.021439586000786656</v>
+        <v>0.021752979904802478</v>
       </c>
       <c r="CY4">
-        <v>0.021467505022525112</v>
+        <v>0.021500776235316606</v>
       </c>
       <c r="CZ4">
-        <v>0.021297525763057351</v>
+        <v>0.02179760551726936</v>
       </c>
       <c r="DA4">
-        <v>0.021348413353960458</v>
+        <v>0.021830876875635955</v>
       </c>
       <c r="DB4">
-        <v>0.021455859514935002</v>
+        <v>0.021720916653249909</v>
       </c>
       <c r="DC4">
-        <v>0.021620954335764227</v>
+        <v>0.021769144404981445</v>
       </c>
       <c r="DD4">
-        <v>0.021441963212606836</v>
+        <v>0.021697177892481007</v>
       </c>
       <c r="DE4">
-        <v>0.021379680123185908</v>
+        <v>0.021905552515678224</v>
       </c>
       <c r="DF4">
-        <v>0.021495628842929704</v>
+        <v>0.021971514430095426</v>
       </c>
       <c r="DG4">
-        <v>0.021591284615707734</v>
+        <v>0.021994255298471477</v>
       </c>
       <c r="DH4">
-        <v>0.0217009535903885</v>
+        <v>0.021842548563866127</v>
       </c>
       <c r="DI4">
-        <v>0.021420029341598864</v>
+        <v>0.021936213332285119</v>
       </c>
       <c r="DJ4">
-        <v>0.02170934015492082</v>
+        <v>0.022075591817748898</v>
       </c>
       <c r="DK4">
-        <v>0.020825014855072908</v>
+        <v>0.021207060143306509</v>
       </c>
       <c r="DL4">
-        <v>0.02088829378644479</v>
+        <v>0.021298279411921545</v>
       </c>
       <c r="DM4">
-        <v>0.021124904174614583</v>
+        <v>0.02133991310613912</v>
       </c>
       <c r="DN4">
-        <v>0.021030488823349885</v>
+        <v>0.021376912974949876</v>
       </c>
       <c r="DO4">
-        <v>0.020956667500915859</v>
+        <v>0.021409060347585683</v>
       </c>
       <c r="DP4">
-        <v>0.021215172931639832</v>
+        <v>0.021360990003415403</v>
       </c>
       <c r="DQ4">
-        <v>0.020958400764387698</v>
+        <v>0.021396510662546889</v>
       </c>
       <c r="DR4">
-        <v>0.021162143418153541</v>
+        <v>0.02125732489173732</v>
       </c>
       <c r="DS4">
-        <v>0.021032272818227959</v>
+        <v>0.021378688632444364</v>
       </c>
       <c r="DT4">
-        <v>0.021025145359250371</v>
+        <v>0.021350429965317528</v>
       </c>
       <c r="DU4">
-        <v>0.021093660693526958</v>
+        <v>0.021301723213528342</v>
       </c>
       <c r="DV4">
-        <v>0.02114345845910167</v>
+        <v>0.021380465428428388</v>
       </c>
       <c r="DW4">
-        <v>0.02116965486754363</v>
+        <v>0.021655830129481253</v>
       </c>
       <c r="DX4">
-        <v>0.021175302303592755</v>
+        <v>0.021478276971823133</v>
       </c>
       <c r="DY4">
-        <v>0.021128605145931938</v>
+        <v>0.021480123746908789</v>
       </c>
       <c r="DZ4">
-        <v>0.02123052050189686</v>
+        <v>0.021556986447281566</v>
       </c>
       <c r="EA4">
-        <v>0.021356545038124758</v>
+        <v>0.021539920044565525</v>
       </c>
       <c r="EB4">
-        <v>0.021360578980355958</v>
+        <v>0.021591454264602565</v>
       </c>
       <c r="EC4">
-        <v>0.021253707167513687</v>
+        <v>0.021538030702850985</v>
       </c>
       <c r="ED4">
-        <v>0.021382872063840118</v>
+        <v>0.021669687538034905</v>
       </c>
       <c r="EE4">
-        <v>0.021211350723110169</v>
+        <v>0.02169962361618042</v>
       </c>
       <c r="EF4">
-        <v>0.021417683771589559</v>
+        <v>0.021695612960586991</v>
       </c>
       <c r="EG4">
-        <v>0.021407399501221971</v>
+        <v>0.021713708224225168</v>
       </c>
       <c r="EH4">
-        <v>0.021372716693591459</v>
+        <v>0.021713708280314992</v>
       </c>
       <c r="EI4">
-        <v>0.021417683941658654</v>
+        <v>0.021744137890620671</v>
       </c>
       <c r="EJ4">
-        <v>0.021413565681201115</v>
+        <v>0.021850204758964466</v>
       </c>
       <c r="EK4">
-        <v>0.021539841226428987</v>
+        <v>0.021766671078923331</v>
       </c>
       <c r="EL4">
-        <v>0.021699201937642694</v>
+        <v>0.021833294602402166</v>
       </c>
       <c r="EM4">
-        <v>0.02152695489970622</v>
+        <v>0.021795620619698221</v>
       </c>
       <c r="EN4">
-        <v>0.021557115168300577</v>
+        <v>0.021860826479801872</v>
       </c>
       <c r="EO4">
-        <v>0.021609575800528209</v>
+        <v>0.022036476492053678</v>
       </c>
       <c r="EP4">
-        <v>0.021596369904186521</v>
+        <v>0.022047824214797614</v>
       </c>
       <c r="EQ4">
-        <v>0.02160076516745903</v>
+        <v>0.022002701223096999</v>
       </c>
       <c r="ER4">
-        <v>0.021567965213198034</v>
+        <v>0.022016163525798826</v>
       </c>
       <c r="ES4">
-        <v>0.02149076054367512</v>
+        <v>0.022027430832954092</v>
       </c>
       <c r="ET4">
-        <v>0.021745077743036193</v>
+        <v>0.021860826823818891</v>
       </c>
       <c r="EU4">
-        <v>0.021660770246326573</v>
+        <v>0.021934145541190084</v>
       </c>
       <c r="EV4">
-        <v>0.021916413237927378</v>
+        <v>0.022154372694012017</v>
       </c>
       <c r="EW4">
-        <v>0.021782303743474701</v>
+        <v>0.022185205544204362</v>
       </c>
       <c r="EX4">
-        <v>0.021696927735625312</v>
+        <v>0.0222043420196875</v>
       </c>
       <c r="EY4">
-        <v>0.021846209085167052</v>
+        <v>0.022102925549686087</v>
       </c>
       <c r="EZ4">
-        <v>0.021995831486614034</v>
+        <v>0.022182822403071119</v>
       </c>
       <c r="FA4">
-        <v>0.021853395606499848</v>
+        <v>0.022149658195102034</v>
       </c>
       <c r="FB4">
-        <v>0.021968295915647477</v>
+        <v>0.022084441561745535</v>
       </c>
       <c r="FC4">
-        <v>0.021894449217314729</v>
+        <v>0.021931961999215325</v>
       </c>
       <c r="FD4">
-        <v>0.021926227460171754</v>
+        <v>0.022446718824691542</v>
       </c>
       <c r="FE4">
-        <v>0.021860599649597759</v>
+        <v>0.022211550800100933</v>
       </c>
       <c r="FF4">
-        <v>0.022209267386718513</v>
+        <v>0.022137904780259683</v>
       </c>
       <c r="FG4">
-        <v>0.022375193514793289</v>
+        <v>0.022459755472875063</v>
       </c>
       <c r="FH4">
-        <v>0.021843818008255963</v>
+        <v>0.022367114253598865</v>
       </c>
       <c r="FI4">
-        <v>0.02191641399885106</v>
+        <v>0.022523112450139438</v>
       </c>
       <c r="FJ4">
-        <v>0.022201195140237086</v>
+        <v>0.022336852805497635</v>
       </c>
       <c r="FK4">
-        <v>0.022049101479656979</v>
+        <v>0.022574207260603059</v>
       </c>
       <c r="FL4">
-        <v>0.022118977376344114</v>
+        <v>0.022512462300328637</v>
       </c>
       <c r="FM4">
-        <v>0.022111134928870808</v>
+        <v>0.022472847991421286</v>
       </c>
       <c r="FN4">
-        <v>0.022432468766379134</v>
+        <v>0.022563380640921216</v>
       </c>
       <c r="FO4">
-        <v>0.022158489930708781</v>
+        <v>0.022645510147448523</v>
       </c>
       <c r="FP4">
-        <v>0.022476098174709861</v>
+        <v>0.022585072058146985</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015768096060465628</v>
+        <v>0.01619235125801257</v>
       </c>
     </row>
   </sheetData>
@@ -3775,517 +3775,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.020577646241065044</v>
+        <v>-0.0049351281295277509</v>
       </c>
       <c r="C3">
-        <v>-0.67305044944687997</v>
+        <v>-0.6656611921913923</v>
       </c>
       <c r="D3">
-        <v>-0.6864509416031197</v>
+        <v>-0.68270125422868622</v>
       </c>
       <c r="E3">
-        <v>-0.70716699062535304</v>
+        <v>-0.70531441081534985</v>
       </c>
       <c r="F3">
-        <v>-0.0088124434553964858</v>
+        <v>-0.0046141299454171862</v>
       </c>
       <c r="G3">
-        <v>0.0051886507253508483</v>
+        <v>-0.0053554283769512885</v>
       </c>
       <c r="H3">
-        <v>0.0065667662149529321</v>
+        <v>-0.0047506678364310738</v>
       </c>
       <c r="I3">
-        <v>0.0038526548211879944</v>
+        <v>0.0076504820966349432</v>
       </c>
       <c r="J3">
-        <v>-0.010196247786944808</v>
+        <v>0.0026243184913788626</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2247955738841318</v>
+        <v>1.2633111604171825</v>
       </c>
       <c r="M3">
-        <v>1.3201764365671227</v>
+        <v>1.3702466795973192</v>
       </c>
       <c r="N3">
-        <v>-0.2253008795864038</v>
+        <v>-0.15946885227330182</v>
       </c>
       <c r="O3">
-        <v>-0.20981383454278849</v>
+        <v>-0.13537652683615317</v>
       </c>
       <c r="P3">
-        <v>-0.19806857272229092</v>
+        <v>-0.1134582785546918</v>
       </c>
       <c r="Q3">
-        <v>-0.16186360371463301</v>
+        <v>-0.12177087999290007</v>
       </c>
       <c r="R3">
-        <v>-0.16637781452914735</v>
+        <v>-0.15406888277778258</v>
       </c>
       <c r="S3">
-        <v>-0.15977955556728268</v>
+        <v>-0.11836874205531411</v>
       </c>
       <c r="T3">
-        <v>-0.12965802867640924</v>
+        <v>-0.071658310489455243</v>
       </c>
       <c r="U3">
-        <v>-0.14178001376921931</v>
+        <v>-0.10752520112174005</v>
       </c>
       <c r="V3">
-        <v>-0.10375160208466283</v>
+        <v>-0.039511114289391275</v>
       </c>
       <c r="W3">
-        <v>-0.12829802401595999</v>
+        <v>-0.026364026566581482</v>
       </c>
       <c r="X3">
-        <v>-0.034706358355799015</v>
+        <v>-0.043861019596844276</v>
       </c>
       <c r="Y3">
-        <v>-0.1004453449377463</v>
+        <v>-0.053153987902626099</v>
       </c>
       <c r="Z3">
-        <v>-0.086443459800611008</v>
+        <v>-0.01978190877560251</v>
       </c>
       <c r="AA3">
-        <v>-0.066771504222779277</v>
+        <v>-0.029127035911520167</v>
       </c>
       <c r="AB3">
-        <v>-0.099444950491471049</v>
+        <v>-0.024645781806895889</v>
       </c>
       <c r="AC3">
-        <v>-0.040177958112649667</v>
+        <v>-0.0064177691287133016</v>
       </c>
       <c r="AD3">
-        <v>-0.041668012889571747</v>
+        <v>0.008767969457225494</v>
       </c>
       <c r="AE3">
-        <v>-0.048236391280574553</v>
+        <v>-0.031822081733034718</v>
       </c>
       <c r="AF3">
-        <v>-0.034617226298192492</v>
+        <v>0.030945401614879024</v>
       </c>
       <c r="AG3">
-        <v>-0.0090878919502120556</v>
+        <v>0.013075492862835845</v>
       </c>
       <c r="AH3">
-        <v>0.0045111430722308736</v>
+        <v>0.041988284095867655</v>
       </c>
       <c r="AI3">
-        <v>-0.052682669756745605</v>
+        <v>0.017717547988198783</v>
       </c>
       <c r="AJ3">
-        <v>0.0082024893304454474</v>
+        <v>0.062974169746593131</v>
       </c>
       <c r="AK3">
-        <v>-0.052543392404605357</v>
+        <v>0.07402382006794693</v>
       </c>
       <c r="AL3">
-        <v>-0.016055638653227108</v>
+        <v>0.013484795733586283</v>
       </c>
       <c r="AM3">
-        <v>0.010271671735299012</v>
+        <v>0.026493432572493873</v>
       </c>
       <c r="AN3">
-        <v>0.025928798979785686</v>
+        <v>0.062392890799750619</v>
       </c>
       <c r="AO3">
-        <v>0.060494241066716435</v>
+        <v>0.072017302233007924</v>
       </c>
       <c r="AP3">
-        <v>-0.0027337830051510255</v>
+        <v>0.034553976644690253</v>
       </c>
       <c r="AQ3">
-        <v>0.025013761570092375</v>
+        <v>0.086607105071112425</v>
       </c>
       <c r="AR3">
-        <v>-0.030728461888402836</v>
+        <v>0.083365686053181481</v>
       </c>
       <c r="AS3">
-        <v>0.013870658791637189</v>
+        <v>0.042077525051745862</v>
       </c>
       <c r="AT3">
-        <v>-0.0085897129830484129</v>
+        <v>0.036272809612566514</v>
       </c>
       <c r="AU3">
-        <v>0.011817084564788059</v>
+        <v>0.044262594408481043</v>
       </c>
       <c r="AV3">
-        <v>0.038281077497688283</v>
+        <v>0.09933969332971318</v>
       </c>
       <c r="AW3">
-        <v>0.016011108075357518</v>
+        <v>0.064298248359410656</v>
       </c>
       <c r="AX3">
-        <v>0.020247492884784175</v>
+        <v>0.098817530450204916</v>
       </c>
       <c r="AY3">
-        <v>0.049978726928687975</v>
+        <v>0.063903868971444261</v>
       </c>
       <c r="AZ3">
-        <v>0.050028934369793221</v>
+        <v>0.12983864511898352</v>
       </c>
       <c r="BA3">
-        <v>0.080597371383290733</v>
+        <v>0.10617284221316042</v>
       </c>
       <c r="BB3">
-        <v>0.04109611325366478</v>
+        <v>0.082380225965054579</v>
       </c>
       <c r="BC3">
-        <v>0.036510399292122075</v>
+        <v>0.091510742369891845</v>
       </c>
       <c r="BD3">
-        <v>0.042910817737159129</v>
+        <v>0.053683854836250176</v>
       </c>
       <c r="BE3">
-        <v>0.04351925100933559</v>
+        <v>0.09388712327925279</v>
       </c>
       <c r="BF3">
-        <v>0.052049947457085022</v>
+        <v>0.058836962270730611</v>
       </c>
       <c r="BG3">
-        <v>0.049335785791142978</v>
+        <v>0.10023094407331573</v>
       </c>
       <c r="BH3">
-        <v>0.030525223321640465</v>
+        <v>0.11596083719961919</v>
       </c>
       <c r="BI3">
-        <v>0.076510212702908767</v>
+        <v>0.084029662870919231</v>
       </c>
       <c r="BJ3">
-        <v>0.073636927340956046</v>
+        <v>0.076499516770331802</v>
       </c>
       <c r="BK3">
-        <v>0.034859826506618986</v>
+        <v>0.090119457285859836</v>
       </c>
       <c r="BL3">
-        <v>0.055839807247200592</v>
+        <v>0.11186202429831073</v>
       </c>
       <c r="BM3">
-        <v>0.039139826251336648</v>
+        <v>0.065886015549156005</v>
       </c>
       <c r="BN3">
-        <v>0.0362595803426876</v>
+        <v>0.079365408366002296</v>
       </c>
       <c r="BO3">
-        <v>0.050540870670446762</v>
+        <v>0.069448950583325911</v>
       </c>
       <c r="BP3">
-        <v>0.0083341780879151815</v>
+        <v>0.022256050268009791</v>
       </c>
       <c r="BQ3">
-        <v>0.092090872033850857</v>
+        <v>0.099873064155810723</v>
       </c>
       <c r="BR3">
-        <v>0.026860223037987196</v>
+        <v>0.10482499208728295</v>
       </c>
       <c r="BS3">
-        <v>0.027981433753564322</v>
+        <v>0.078167524305825589</v>
       </c>
       <c r="BT3">
-        <v>0.10472087678573408</v>
+        <v>0.11606373777496086</v>
       </c>
       <c r="BU3">
-        <v>0.025541522120414471</v>
+        <v>0.068416482524672126</v>
       </c>
       <c r="BV3">
-        <v>0.018238493283508211</v>
+        <v>0.052577051045805179</v>
       </c>
       <c r="BW3">
-        <v>0.028252133135938856</v>
+        <v>0.085765407356595963</v>
       </c>
       <c r="BX3">
-        <v>0.03429333058532244</v>
+        <v>0.088790784981243778</v>
       </c>
       <c r="BY3">
-        <v>0.019408017841789985</v>
+        <v>0.098142904807467485</v>
       </c>
       <c r="BZ3">
-        <v>0.0529181799082869</v>
+        <v>0.11891293429308471</v>
       </c>
       <c r="CA3">
-        <v>-0.0038978191306077901</v>
+        <v>0.059665461925016004</v>
       </c>
       <c r="CB3">
-        <v>0.0345594138746846</v>
+        <v>0.13491122874381417</v>
       </c>
       <c r="CC3">
-        <v>0.0088185871303995047</v>
+        <v>0.087837262605690636</v>
       </c>
       <c r="CD3">
-        <v>0.0043359913889429403</v>
+        <v>0.1233783106032386</v>
       </c>
       <c r="CE3">
-        <v>0.050752257656204336</v>
+        <v>0.072830436600654053</v>
       </c>
       <c r="CF3">
-        <v>0.033470294799975042</v>
+        <v>0.10903519018069135</v>
       </c>
       <c r="CG3">
-        <v>0.025843237350716825</v>
+        <v>0.052215895209547961</v>
       </c>
       <c r="CH3">
-        <v>0.026384897831511794</v>
+        <v>0.06632834941277678</v>
       </c>
       <c r="CI3">
-        <v>-0.0031169865096666756</v>
+        <v>0.046081814822273567</v>
       </c>
       <c r="CJ3">
-        <v>0.062263730513842382</v>
+        <v>0.048280308368004836</v>
       </c>
       <c r="CK3">
-        <v>0.050879690579573117</v>
+        <v>0.083083405186729062</v>
       </c>
       <c r="CL3">
-        <v>0.093862904298025851</v>
+        <v>0.051513702962396941</v>
       </c>
       <c r="CM3">
-        <v>0.0062584331707077109</v>
+        <v>0.10992481913534981</v>
       </c>
       <c r="CN3">
-        <v>0.041098654318437677</v>
+        <v>0.09383940345714202</v>
       </c>
       <c r="CO3">
-        <v>0.076181550972639359</v>
+        <v>0.084863611224045898</v>
       </c>
       <c r="CP3">
-        <v>0.039308633132167169</v>
+        <v>0.098955072349057274</v>
       </c>
       <c r="CQ3">
-        <v>0.048140178747327976</v>
+        <v>0.12510230711467762</v>
       </c>
       <c r="CR3">
-        <v>0.063006120470398164</v>
+        <v>0.088072917539727694</v>
       </c>
       <c r="CS3">
-        <v>0.069132638988261275</v>
+        <v>0.12985990160148903</v>
       </c>
       <c r="CT3">
-        <v>0.041364957007039078</v>
+        <v>0.094089279503098297</v>
       </c>
       <c r="CU3">
-        <v>0.030727771612279058</v>
+        <v>0.095078456172544137</v>
       </c>
       <c r="CV3">
-        <v>0.02129686131033685</v>
+        <v>0.094339639657687144</v>
       </c>
       <c r="CW3">
-        <v>0.017450770280289987</v>
+        <v>0.087432777472102916</v>
       </c>
       <c r="CX3">
-        <v>0.018273374268587259</v>
+        <v>0.076004094923793425</v>
       </c>
       <c r="CY3">
-        <v>0.015793010534469385</v>
+        <v>0.14200972151495383</v>
       </c>
       <c r="CZ3">
-        <v>0.060496906295451139</v>
+        <v>0.073832707477735612</v>
       </c>
       <c r="DA3">
-        <v>0.055155277924864694</v>
+        <v>0.067647637722779208</v>
       </c>
       <c r="DB3">
-        <v>0.033795388337485348</v>
+        <v>0.098047069032967643</v>
       </c>
       <c r="DC3">
-        <v>-0.00039758357794020916</v>
+        <v>0.090648331440130736</v>
       </c>
       <c r="DD3">
-        <v>0.045255547479480039</v>
+        <v>0.1121943811687769</v>
       </c>
       <c r="DE3">
-        <v>0.064282064121397531</v>
+        <v>0.066838348962280317</v>
       </c>
       <c r="DF3">
-        <v>0.060398899042238857</v>
+        <v>0.071176096905660582</v>
       </c>
       <c r="DG3">
-        <v>0.042169540852321108</v>
+        <v>0.069963565402997155</v>
       </c>
       <c r="DH3">
-        <v>0.021059352432466021</v>
+        <v>0.10985383793126011</v>
       </c>
       <c r="DI3">
-        <v>0.09093315296314744</v>
+        <v>0.091875910907482317</v>
       </c>
       <c r="DJ3">
-        <v>0.027596870873559429</v>
+        <v>0.063692868341810233</v>
       </c>
       <c r="DK3">
-        <v>0.058263356612029298</v>
+        <v>0.098045752370346892</v>
       </c>
       <c r="DL3">
-        <v>0.04832352347032514</v>
+        <v>0.081735496938268704</v>
       </c>
       <c r="DM3">
-        <v>0.00081930032537558186</v>
+        <v>0.076613013095097549</v>
       </c>
       <c r="DN3">
-        <v>0.025221428097310278</v>
+        <v>0.072555067768606221</v>
       </c>
       <c r="DO3">
-        <v>0.045505724332950553</v>
+        <v>0.069593487119237463</v>
       </c>
       <c r="DP3">
-        <v>-0.0060438464957324614</v>
+        <v>0.084229303417384077</v>
       </c>
       <c r="DQ3">
-        <v>0.053312047656064128</v>
+        <v>0.080556618903087976</v>
       </c>
       <c r="DR3">
-        <v>0.013417229574686379</v>
+        <v>0.11556294472672</v>
       </c>
       <c r="DS3">
-        <v>0.045435856570504959</v>
+        <v>0.092861392059274031</v>
       </c>
       <c r="DT3">
-        <v>0.051187049960367881</v>
+        <v>0.10326412770890041</v>
       </c>
       <c r="DU3">
-        <v>0.04057019809763273</v>
+        <v>0.11829039299600735</v>
       </c>
       <c r="DV3">
-        <v>0.034069592041931614</v>
+        <v>0.10514298621772789</v>
       </c>
       <c r="DW3">
-        <v>0.032638755697355935</v>
+        <v>0.050229103972032896</v>
       </c>
       <c r="DX3">
-        <v>0.035584254248266979</v>
+        <v>0.092045709447575882</v>
       </c>
       <c r="DY3">
-        <v>0.049701643850842116</v>
+        <v>0.095816790767827745</v>
       </c>
       <c r="DZ3">
-        <v>0.032281572264393286</v>
+        <v>0.083498971427752797</v>
       </c>
       <c r="EA3">
-        <v>0.010162606527567815</v>
+        <v>0.091279784195176669</v>
       </c>
       <c r="EB3">
-        <v>0.013384201307586451</v>
+        <v>0.084468367230961738</v>
       </c>
       <c r="EC3">
-        <v>0.039674064575878382</v>
+        <v>0.099989934372200773</v>
       </c>
       <c r="ED3">
-        <v>0.017037851731755399</v>
+        <v>0.07632200098732754</v>
       </c>
       <c r="EE3">
-        <v>0.056845912279264797</v>
+        <v>0.074173317531726152</v>
       </c>
       <c r="EF3">
-        <v>0.018234639577197821</v>
+        <v>0.079105629162143351</v>
       </c>
       <c r="EG3">
-        <v>0.024424005570903046</v>
+        <v>0.079454204841923573</v>
       </c>
       <c r="EH3">
-        <v>0.035653155089215759</v>
+        <v>0.083572158332681709</v>
       </c>
       <c r="EI3">
-        <v>0.030591184768874392</v>
+        <v>0.081395541385080108</v>
       </c>
       <c r="EJ3">
-        <v>0.035570247321327325</v>
+        <v>0.063760201446720316</v>
       </c>
       <c r="EK3">
-        <v>0.014164141315776002</v>
+        <v>0.084921466113582506</v>
       </c>
       <c r="EL3">
-        <v>-0.01332804604407687</v>
+        <v>0.075399271523758263</v>
       </c>
       <c r="EM3">
-        <v>0.024779330698505096</v>
+        <v>0.087208761578625255</v>
       </c>
       <c r="EN3">
-        <v>0.022848328652619376</v>
+        <v>0.078046399234876898</v>
       </c>
       <c r="EO3">
-        <v>0.016506513286628388</v>
+        <v>0.046965212732116554</v>
       </c>
       <c r="EP3">
-        <v>0.023207888564532809</v>
+        <v>0.048710160434635982</v>
       </c>
       <c r="EQ3">
-        <v>0.026441471559679741</v>
+        <v>0.061637818536622146</v>
       </c>
       <c r="ER3">
-        <v>0.037092666550314624</v>
+        <v>0.063010834512396127</v>
       </c>
       <c r="ES3">
-        <v>0.056760493353543919</v>
+        <v>0.064829301728375324</v>
       </c>
       <c r="ET3">
-        <v>0.01061944122296278</v>
+        <v>0.10229278499267323</v>
       </c>
       <c r="EU3">
-        <v>0.031164343757388406</v>
+        <v>0.091698608910328105</v>
       </c>
       <c r="EV3">
-        <v>-0.014071306010436791</v>
+        <v>0.052381025528887432</v>
       </c>
       <c r="EW3">
-        <v>0.015555424133113041</v>
+        <v>0.050414863339469845</v>
       </c>
       <c r="EX3">
-        <v>0.036238789055159246</v>
+        <v>0.050720693329217623</v>
       </c>
       <c r="EY3">
-        <v>0.011496432331655024</v>
+        <v>0.074419398503422135</v>
       </c>
       <c r="EZ3">
-        <v>-0.012789900856114124</v>
+        <v>0.062973730109100623</v>
       </c>
       <c r="FA3">
-        <v>0.018141434963055439</v>
+        <v>0.073453471618436197</v>
       </c>
       <c r="FB3">
-        <v>0.00042827944214256046</v>
+        <v>0.090283118940089085</v>
       </c>
       <c r="FC3">
-        <v>0.018411453683013231</v>
+        <v>0.12472116258691826</v>
       </c>
       <c r="FD3">
-        <v>0.016469154867702011</v>
+        <v>0.029525228200074801</v>
       </c>
       <c r="FE3">
-        <v>0.033030916349494982</v>
+        <v>0.07796225684878344</v>
       </c>
       <c r="FF3">
-        <v>-0.027827135261070019</v>
+        <v>0.096333840374686341</v>
       </c>
       <c r="FG3">
-        <v>-0.053776150507364208</v>
+        <v>0.039317024442794328</v>
       </c>
       <c r="FH3">
-        <v>0.048094801560845495</v>
+        <v>0.060598755460906657</v>
       </c>
       <c r="FI3">
-        <v>0.038470362263585092</v>
+        <v>0.035594178915710539</v>
       </c>
       <c r="FJ3">
-        <v>-0.010273679468677634</v>
+        <v>0.074290409478903544</v>
       </c>
       <c r="FK3">
-        <v>0.021694273978267356</v>
+        <v>0.034255629499734756</v>
       </c>
       <c r="FL3">
-        <v>0.012858924877151776</v>
+        <v>0.0495299445234181</v>
       </c>
       <c r="FM3">
-        <v>0.018368992572114225</v>
+        <v>0.060852721941782144</v>
       </c>
       <c r="FN3">
-        <v>-0.03552464455544118</v>
+        <v>0.048210418659812966</v>
       </c>
       <c r="FO3">
-        <v>0.017623419444776793</v>
+        <v>0.037246136164979508</v>
       </c>
       <c r="FP3">
-        <v>-0.035250685583651541</v>
+        <v>0.052182605049359967</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5203640040528006</v>
+        <v>-5.5739128527231632</v>
       </c>
     </row>
     <row r="4">
@@ -4302,517 +4302,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.021887624342736389</v>
+        <v>0.021826375372030461</v>
       </c>
       <c r="C4">
-        <v>0.0098471823546582241</v>
+        <v>0.0098361828198968247</v>
       </c>
       <c r="D4">
-        <v>0.015525133493260401</v>
+        <v>0.015594608025837783</v>
       </c>
       <c r="E4">
-        <v>0.018666178901793434</v>
+        <v>0.018826196431484653</v>
       </c>
       <c r="F4">
-        <v>0.014783182806256186</v>
+        <v>0.014763196602707933</v>
       </c>
       <c r="G4">
-        <v>0.012358727640901861</v>
+        <v>0.012328861976822118</v>
       </c>
       <c r="H4">
-        <v>0.010040190851925724</v>
+        <v>0.0099873542827340761</v>
       </c>
       <c r="I4">
-        <v>0.01002509445217902</v>
+        <v>0.010057711868744454</v>
       </c>
       <c r="J4">
-        <v>0.010611741546355056</v>
+        <v>0.010680106899008392</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.020751379488789499</v>
+        <v>0.021085971440067044</v>
       </c>
       <c r="M4">
-        <v>0.020577938119163031</v>
+        <v>0.020892404134554805</v>
       </c>
       <c r="N4">
-        <v>0.026691530354413674</v>
+        <v>0.026807742255935598</v>
       </c>
       <c r="O4">
-        <v>0.026596887733753741</v>
+        <v>0.026658655917855219</v>
       </c>
       <c r="P4">
-        <v>0.026528590739552008</v>
+        <v>0.026526430969427899</v>
       </c>
       <c r="Q4">
-        <v>0.026298682514514116</v>
+        <v>0.026591958057197732</v>
       </c>
       <c r="R4">
-        <v>0.026339881464304108</v>
+        <v>0.026817407839244235</v>
       </c>
       <c r="S4">
-        <v>0.026307798990768124</v>
+        <v>0.026591958068307889</v>
       </c>
       <c r="T4">
-        <v>0.026123048942946481</v>
+        <v>0.026302705257940959</v>
       </c>
       <c r="U4">
-        <v>0.026213164589384753</v>
+        <v>0.026544392303252329</v>
       </c>
       <c r="V4">
-        <v>0.025980390892822048</v>
+        <v>0.026123987501830929</v>
       </c>
       <c r="W4">
-        <v>0.026149197561741624</v>
+        <v>0.026054566983844587</v>
       </c>
       <c r="X4">
-        <v>0.025576291729576865</v>
+        <v>0.026174428109736289</v>
       </c>
       <c r="Y4">
-        <v>0.025995036231131023</v>
+        <v>0.026244201820510224</v>
       </c>
       <c r="Z4">
-        <v>0.025918291022377134</v>
+        <v>0.026048680441772193</v>
       </c>
       <c r="AA4">
-        <v>0.025807171021948818</v>
+        <v>0.02611798296149127</v>
       </c>
       <c r="AB4">
-        <v>0.026024505889262521</v>
+        <v>0.026102020838139336</v>
       </c>
       <c r="AC4">
-        <v>0.025666808266576118</v>
+        <v>0.026001944023278122</v>
       </c>
       <c r="AD4">
-        <v>0.025687890345046548</v>
+        <v>0.025921648830981234</v>
       </c>
       <c r="AE4">
-        <v>0.025740185791179253</v>
+        <v>0.026182565973819592</v>
       </c>
       <c r="AF4">
-        <v>0.025668719550836088</v>
+        <v>0.025811952858789598</v>
       </c>
       <c r="AG4">
-        <v>0.025526408094685763</v>
+        <v>0.025931109841102952</v>
       </c>
       <c r="AH4">
-        <v>0.025457421287745405</v>
+        <v>0.025770137619079345</v>
       </c>
       <c r="AI4">
-        <v>0.025817130282384734</v>
+        <v>0.025927322319787571</v>
       </c>
       <c r="AJ4">
-        <v>0.025459218791619349</v>
+        <v>0.025670466350232929</v>
       </c>
       <c r="AK4">
-        <v>0.025841147478652123</v>
+        <v>0.025618282425647412</v>
       </c>
       <c r="AL4">
-        <v>0.025628803402968629</v>
+        <v>0.025990357961444568</v>
       </c>
       <c r="AM4">
-        <v>0.02548267389226045</v>
+        <v>0.025923539006231247</v>
       </c>
       <c r="AN4">
-        <v>0.025402171680021013</v>
+        <v>0.02572170831642916</v>
       </c>
       <c r="AO4">
-        <v>0.025213236747367113</v>
+        <v>0.025677487209607362</v>
       </c>
       <c r="AP4">
-        <v>0.025598698489222322</v>
+        <v>0.025912214068132149</v>
       </c>
       <c r="AQ4">
-        <v>0.02544486579971178</v>
+        <v>0.025616557230464444</v>
       </c>
       <c r="AR4">
-        <v>0.025795257108062637</v>
+        <v>0.025647751544608712</v>
       </c>
       <c r="AS4">
-        <v>0.02553559095065687</v>
+        <v>0.025904684944227527</v>
       </c>
       <c r="AT4">
-        <v>0.02568404782777528</v>
+        <v>0.025952016634308437</v>
       </c>
       <c r="AU4">
-        <v>0.025572571704198573</v>
+        <v>0.025915984926470858</v>
       </c>
       <c r="AV4">
-        <v>0.025427010415001873</v>
+        <v>0.025602787964156184</v>
       </c>
       <c r="AW4">
-        <v>0.025572571722282143</v>
+        <v>0.025821112565295942</v>
       </c>
       <c r="AX4">
-        <v>0.02555958279818658</v>
+        <v>0.025630384803408547</v>
       </c>
       <c r="AY4">
-        <v>0.025395108822154878</v>
+        <v>0.025848741518250635</v>
       </c>
       <c r="AZ4">
-        <v>0.025407478839536771</v>
+        <v>0.025476463465605531</v>
       </c>
       <c r="BA4">
-        <v>0.025241734534820159</v>
+        <v>0.025625192673456369</v>
       </c>
       <c r="BB4">
-        <v>0.025486297028760638</v>
+        <v>0.025777372648883943</v>
       </c>
       <c r="BC4">
-        <v>0.025526408290130542</v>
+        <v>0.025735984642342884</v>
       </c>
       <c r="BD4">
-        <v>0.025500828025216058</v>
+        <v>0.025974970248092311</v>
       </c>
       <c r="BE4">
-        <v>0.025509941697450713</v>
+        <v>0.025746732138306822</v>
       </c>
       <c r="BF4">
-        <v>0.025471828356974549</v>
+        <v>0.025969217498820727</v>
       </c>
       <c r="BG4">
-        <v>0.025500828054493337</v>
+        <v>0.025734196802027549</v>
       </c>
       <c r="BH4">
-        <v>0.025626914301251302</v>
+        <v>0.025654724206650534</v>
       </c>
       <c r="BI4">
-        <v>0.025365257375223778</v>
+        <v>0.025856147645931287</v>
       </c>
       <c r="BJ4">
-        <v>0.025395108931895727</v>
+        <v>0.025914099135762786</v>
       </c>
       <c r="BK4">
-        <v>0.0256401612380894</v>
+        <v>0.025845044686718999</v>
       </c>
       <c r="BL4">
-        <v>0.025526408378513537</v>
+        <v>0.02572883897384947</v>
       </c>
       <c r="BM4">
-        <v>0.02564016125758109</v>
+        <v>0.026017453192116374</v>
       </c>
       <c r="BN4">
-        <v>0.025670632170325645</v>
+        <v>0.025948206102953193</v>
       </c>
       <c r="BO4">
-        <v>0.025596825897708845</v>
+        <v>0.026021341312126418</v>
       </c>
       <c r="BP4">
-        <v>0.025869375013799441</v>
+        <v>0.026328073257757066</v>
       </c>
       <c r="BQ4">
-        <v>0.025772171524974991</v>
+        <v>0.026276339297655566</v>
       </c>
       <c r="BR4">
-        <v>0.026175202632986293</v>
+        <v>0.026259680303016612</v>
       </c>
       <c r="BS4">
-        <v>0.026181121605851749</v>
+        <v>0.026432369699177435</v>
       </c>
       <c r="BT4">
-        <v>0.026282468721160707</v>
+        <v>0.02677378800457365</v>
       </c>
       <c r="BU4">
-        <v>0.02676427376622156</v>
+        <v>0.027070467583063137</v>
       </c>
       <c r="BV4">
-        <v>0.026789912752349272</v>
+        <v>0.027057204256074985</v>
       </c>
       <c r="BW4">
-        <v>0.024341350560312152</v>
+        <v>0.024569273725618158</v>
       </c>
       <c r="BX4">
-        <v>0.024327896035628595</v>
+        <v>0.024569386722001589</v>
       </c>
       <c r="BY4">
-        <v>0.023764099092706749</v>
+        <v>0.02394045980492767</v>
       </c>
       <c r="BZ4">
-        <v>0.023626246440010577</v>
+        <v>0.023862625922163701</v>
       </c>
       <c r="CA4">
-        <v>0.023903230776890196</v>
+        <v>0.02414612061416679</v>
       </c>
       <c r="CB4">
-        <v>0.023245930951209495</v>
+        <v>0.023334940298434675</v>
       </c>
       <c r="CC4">
-        <v>0.023383973725307986</v>
+        <v>0.023565930135090549</v>
       </c>
       <c r="CD4">
-        <v>0.02342151306169556</v>
+        <v>0.02341799310185531</v>
       </c>
       <c r="CE4">
-        <v>0.023217216129375804</v>
+        <v>0.023668787499569851</v>
       </c>
       <c r="CF4">
-        <v>0.02331466211572571</v>
+        <v>0.023514959857651868</v>
       </c>
       <c r="CG4">
-        <v>0.023342130330433961</v>
+        <v>0.023738805657019271</v>
       </c>
       <c r="CH4">
-        <v>0.023355712733833436</v>
+        <v>0.023686870132503413</v>
       </c>
       <c r="CI4">
-        <v>0.023515697000431407</v>
+        <v>0.023800637589095772</v>
       </c>
       <c r="CJ4">
-        <v>0.023216820359041442</v>
+        <v>0.023805878368457323</v>
       </c>
       <c r="CK4">
-        <v>0.023675111332228885</v>
+        <v>0.024051355222290599</v>
       </c>
       <c r="CL4">
-        <v>0.023794653770038615</v>
+        <v>0.024496131298066205</v>
       </c>
       <c r="CM4">
-        <v>0.024224132092649734</v>
+        <v>0.02423827612314635</v>
       </c>
       <c r="CN4">
-        <v>0.024510052516177723</v>
+        <v>0.024773719074538292</v>
       </c>
       <c r="CO4">
-        <v>0.024364358708276947</v>
+        <v>0.024832717920259161</v>
       </c>
       <c r="CP4">
-        <v>0.024684600703690635</v>
+        <v>0.024900425619698373</v>
       </c>
       <c r="CQ4">
-        <v>0.021805960018045856</v>
+        <v>0.02201770959981534</v>
       </c>
       <c r="CR4">
-        <v>0.021763962767774578</v>
+        <v>0.022178096306188985</v>
       </c>
       <c r="CS4">
-        <v>0.021363350106725972</v>
+        <v>0.021656929769993054</v>
       </c>
       <c r="CT4">
-        <v>0.02149191363895293</v>
+        <v>0.0218156345390896</v>
       </c>
       <c r="CU4">
-        <v>0.021552489741500144</v>
+        <v>0.021828440659724981</v>
       </c>
       <c r="CV4">
-        <v>0.021302386434271799</v>
+        <v>0.021547991688275828</v>
       </c>
       <c r="CW4">
-        <v>0.02133600964298767</v>
+        <v>0.021593672837566288</v>
       </c>
       <c r="CX4">
-        <v>0.021349904191703021</v>
+        <v>0.021658578174534933</v>
       </c>
       <c r="CY4">
-        <v>0.021377940335871041</v>
+        <v>0.021405262262981277</v>
       </c>
       <c r="CZ4">
-        <v>0.021207243213105534</v>
+        <v>0.021703397892715363</v>
       </c>
       <c r="DA4">
-        <v>0.02124943895539599</v>
+        <v>0.021735922037454666</v>
       </c>
       <c r="DB4">
-        <v>0.021357383048992713</v>
+        <v>0.021625478998439182</v>
       </c>
       <c r="DC4">
-        <v>0.021523233250366258</v>
+        <v>0.021673919114470298</v>
       </c>
       <c r="DD4">
-        <v>0.021343422630713742</v>
+        <v>0.021601635358236934</v>
       </c>
       <c r="DE4">
-        <v>0.021280851142799911</v>
+        <v>0.02181092278369752</v>
       </c>
       <c r="DF4">
-        <v>0.021406801887039268</v>
+        <v>0.021891766573427042</v>
       </c>
       <c r="DG4">
-        <v>0.021502852811157894</v>
+        <v>0.021914590196701819</v>
       </c>
       <c r="DH4">
-        <v>0.021612970512542972</v>
+        <v>0.021762328116908626</v>
       </c>
       <c r="DI4">
-        <v>0.021330887574158762</v>
+        <v>0.021856336671239322</v>
       </c>
       <c r="DJ4">
-        <v>0.021621391204347903</v>
+        <v>0.02199622129972956</v>
       </c>
       <c r="DK4">
-        <v>0.020825014855072998</v>
+        <v>0.021207060143306779</v>
       </c>
       <c r="DL4">
-        <v>0.020888293786444877</v>
+        <v>0.021298279411921819</v>
       </c>
       <c r="DM4">
-        <v>0.021124904174614677</v>
+        <v>0.021339913106139401</v>
       </c>
       <c r="DN4">
-        <v>0.021030488823349968</v>
+        <v>0.021376912974950146</v>
       </c>
       <c r="DO4">
-        <v>0.020956667500915946</v>
+        <v>0.021409060347585954</v>
       </c>
       <c r="DP4">
-        <v>0.021215172931639919</v>
+        <v>0.021360990003415688</v>
       </c>
       <c r="DQ4">
-        <v>0.020958400764387791</v>
+        <v>0.021396510662547167</v>
       </c>
       <c r="DR4">
-        <v>0.021162143418153628</v>
+        <v>0.021257324891737595</v>
       </c>
       <c r="DS4">
-        <v>0.021032272818228049</v>
+        <v>0.021378688632444635</v>
       </c>
       <c r="DT4">
-        <v>0.021025145359250451</v>
+        <v>0.021350429965317802</v>
       </c>
       <c r="DU4">
-        <v>0.021093660693527038</v>
+        <v>0.021301723213528617</v>
       </c>
       <c r="DV4">
-        <v>0.02114345845910175</v>
+        <v>0.021380465428428669</v>
       </c>
       <c r="DW4">
-        <v>0.021169654867543727</v>
+        <v>0.021655830129481527</v>
       </c>
       <c r="DX4">
-        <v>0.021175302303592835</v>
+        <v>0.021478276971823407</v>
       </c>
       <c r="DY4">
-        <v>0.021128605145932011</v>
+        <v>0.02148012374690907</v>
       </c>
       <c r="DZ4">
-        <v>0.021230520501896947</v>
+        <v>0.02155698644728183</v>
       </c>
       <c r="EA4">
-        <v>0.021356545038124834</v>
+        <v>0.021539920044565813</v>
       </c>
       <c r="EB4">
-        <v>0.021360578980356048</v>
+        <v>0.021591454264602829</v>
       </c>
       <c r="EC4">
-        <v>0.021253707167513777</v>
+        <v>0.021538030702851249</v>
       </c>
       <c r="ED4">
-        <v>0.021382872063840205</v>
+        <v>0.021669687538035162</v>
       </c>
       <c r="EE4">
-        <v>0.02121135072311027</v>
+        <v>0.021699623616180691</v>
       </c>
       <c r="EF4">
-        <v>0.021417683771589636</v>
+        <v>0.021695612960587266</v>
       </c>
       <c r="EG4">
-        <v>0.021407399501222078</v>
+        <v>0.021713708224225442</v>
       </c>
       <c r="EH4">
-        <v>0.021372716693591549</v>
+        <v>0.021713708280315255</v>
       </c>
       <c r="EI4">
-        <v>0.021417683941658744</v>
+        <v>0.021744137890620952</v>
       </c>
       <c r="EJ4">
-        <v>0.021413565681201199</v>
+        <v>0.021850204758964729</v>
       </c>
       <c r="EK4">
-        <v>0.021539841226429067</v>
+        <v>0.021766671078923612</v>
       </c>
       <c r="EL4">
-        <v>0.021699201937642767</v>
+        <v>0.021833294602402433</v>
       </c>
       <c r="EM4">
-        <v>0.02152695489970631</v>
+        <v>0.021795620619698496</v>
       </c>
       <c r="EN4">
-        <v>0.021557115168300667</v>
+        <v>0.021860826479802135</v>
       </c>
       <c r="EO4">
-        <v>0.021609575800528313</v>
+        <v>0.022036476492053952</v>
       </c>
       <c r="EP4">
-        <v>0.021596369904186608</v>
+        <v>0.022047824214797864</v>
       </c>
       <c r="EQ4">
-        <v>0.021600765167459093</v>
+        <v>0.022002701223097255</v>
       </c>
       <c r="ER4">
-        <v>0.021567965213198096</v>
+        <v>0.022016163525799114</v>
       </c>
       <c r="ES4">
-        <v>0.021490760543675207</v>
+        <v>0.022027430832954359</v>
       </c>
       <c r="ET4">
-        <v>0.021745077743036276</v>
+        <v>0.021860826823819179</v>
       </c>
       <c r="EU4">
-        <v>0.021660770246326656</v>
+        <v>0.021934145541190341</v>
       </c>
       <c r="EV4">
-        <v>0.021916413237927476</v>
+        <v>0.022154372694012273</v>
       </c>
       <c r="EW4">
-        <v>0.021782303743474781</v>
+        <v>0.02218520554420465</v>
       </c>
       <c r="EX4">
-        <v>0.021696927735625374</v>
+        <v>0.022204342019687798</v>
       </c>
       <c r="EY4">
-        <v>0.021846209085167149</v>
+        <v>0.022102925549686344</v>
       </c>
       <c r="EZ4">
-        <v>0.021995831486614107</v>
+        <v>0.022182822403071383</v>
       </c>
       <c r="FA4">
-        <v>0.0218533956064999</v>
+        <v>0.022149658195102274</v>
       </c>
       <c r="FB4">
-        <v>0.021968295915647543</v>
+        <v>0.022084441561745796</v>
       </c>
       <c r="FC4">
-        <v>0.021894449217314822</v>
+        <v>0.021931961999215602</v>
       </c>
       <c r="FD4">
-        <v>0.021926227460171838</v>
+        <v>0.022446718824691812</v>
       </c>
       <c r="FE4">
-        <v>0.021860599649597828</v>
+        <v>0.022211550800101204</v>
       </c>
       <c r="FF4">
-        <v>0.022209267386718596</v>
+        <v>0.022137904780259947</v>
       </c>
       <c r="FG4">
-        <v>0.022375193514793369</v>
+        <v>0.022459755472875324</v>
       </c>
       <c r="FH4">
-        <v>0.021843818008256043</v>
+        <v>0.022367114253599132</v>
       </c>
       <c r="FI4">
-        <v>0.021916413998851147</v>
+        <v>0.022523112450139694</v>
       </c>
       <c r="FJ4">
-        <v>0.022201195140237155</v>
+        <v>0.022336852805497874</v>
       </c>
       <c r="FK4">
-        <v>0.022049101479657066</v>
+        <v>0.022574207260603316</v>
       </c>
       <c r="FL4">
-        <v>0.022118977376344183</v>
+        <v>0.022512462300328905</v>
       </c>
       <c r="FM4">
-        <v>0.022111134928870898</v>
+        <v>0.022472847991421539</v>
       </c>
       <c r="FN4">
-        <v>0.022432468766379218</v>
+        <v>0.022563380640921473</v>
       </c>
       <c r="FO4">
-        <v>0.022158489930708878</v>
+        <v>0.022645510147448793</v>
       </c>
       <c r="FP4">
-        <v>0.022476098174709955</v>
+        <v>0.022585072058147245</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015768096060465753</v>
+        <v>0.016192351258012928</v>
       </c>
     </row>
   </sheetData>
@@ -5889,517 +5889,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.3796627246483388</v>
+        <v>3.3679051833396318</v>
       </c>
       <c r="C3">
-        <v>-1.6873404641322549</v>
+        <v>-1.6448087324276934</v>
       </c>
       <c r="D3">
-        <v>-1.7438490813885694</v>
+        <v>-1.6883700980801049</v>
       </c>
       <c r="E3">
-        <v>-1.7620941415501579</v>
+        <v>-1.6977889566703379</v>
       </c>
       <c r="F3">
-        <v>0.0058643596657083179</v>
+        <v>-0.0053527358253411201</v>
       </c>
       <c r="G3">
-        <v>-0.0038859798053937035</v>
+        <v>-0.00073898559093304626</v>
       </c>
       <c r="H3">
-        <v>0.002722773425149387</v>
+        <v>0.0071531787194820231</v>
       </c>
       <c r="I3">
-        <v>0.0099136996251921218</v>
+        <v>0.0053848569474011319</v>
       </c>
       <c r="J3">
-        <v>-0.012949655910350626</v>
+        <v>-0.010250037813349436</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.330176949808749</v>
+        <v>1.2935997466240032</v>
       </c>
       <c r="M3">
-        <v>1.391961995617687</v>
+        <v>1.4275867791880528</v>
       </c>
       <c r="N3">
-        <v>-0.16826831231803371</v>
+        <v>-0.049996696629031077</v>
       </c>
       <c r="O3">
-        <v>-0.16110091958509934</v>
+        <v>-0.06201050442036752</v>
       </c>
       <c r="P3">
-        <v>-0.11941144371961242</v>
+        <v>-0.089867589365264372</v>
       </c>
       <c r="Q3">
-        <v>-0.10455183428599232</v>
+        <v>-0.11407390264096706</v>
       </c>
       <c r="R3">
-        <v>-0.10830079117267145</v>
+        <v>-0.089421513107191916</v>
       </c>
       <c r="S3">
-        <v>-0.088347350440007688</v>
+        <v>-0.069613733116882931</v>
       </c>
       <c r="T3">
-        <v>-0.055203968275127732</v>
+        <v>-0.015252037841143177</v>
       </c>
       <c r="U3">
-        <v>-0.029596259401070149</v>
+        <v>-0.048584525289843652</v>
       </c>
       <c r="V3">
-        <v>-0.014225123408733773</v>
+        <v>-0.026983880722220247</v>
       </c>
       <c r="W3">
-        <v>0.035390932795563858</v>
+        <v>0.018233567546363624</v>
       </c>
       <c r="X3">
-        <v>0.039232153564828155</v>
+        <v>0.011831685269122569</v>
       </c>
       <c r="Y3">
-        <v>-0.029070428870073665</v>
+        <v>-0.0010700052005997262</v>
       </c>
       <c r="Z3">
-        <v>-0.066040980923917567</v>
+        <v>0.0077102725706867416</v>
       </c>
       <c r="AA3">
-        <v>0.022051288538511359</v>
+        <v>0.014044330919984511</v>
       </c>
       <c r="AB3">
-        <v>-0.030192503715396331</v>
+        <v>-0.044315615239926595</v>
       </c>
       <c r="AC3">
-        <v>-0.018809360184410713</v>
+        <v>0.043781161243382404</v>
       </c>
       <c r="AD3">
-        <v>-0.049578939560797883</v>
+        <v>0.06752780323534352</v>
       </c>
       <c r="AE3">
-        <v>0.029642637392758506</v>
+        <v>0.0074276576447812881</v>
       </c>
       <c r="AF3">
-        <v>0.021805643391614848</v>
+        <v>-0.022063580212789546</v>
       </c>
       <c r="AG3">
-        <v>0.045846948880258566</v>
+        <v>0.046786722391235644</v>
       </c>
       <c r="AH3">
-        <v>0.065620621266654383</v>
+        <v>0.049103436297634286</v>
       </c>
       <c r="AI3">
-        <v>0.043571055917751192</v>
+        <v>0.056812474430478654</v>
       </c>
       <c r="AJ3">
-        <v>0.027257484460851026</v>
+        <v>0.080377320689775753</v>
       </c>
       <c r="AK3">
-        <v>0.032708400876052278</v>
+        <v>0.069082188518510543</v>
       </c>
       <c r="AL3">
-        <v>0.088096052835226382</v>
+        <v>0.02953657884492342</v>
       </c>
       <c r="AM3">
-        <v>0.062725285533082056</v>
+        <v>0.059923171800441467</v>
       </c>
       <c r="AN3">
-        <v>0.056670187719007871</v>
+        <v>0.069879428654446352</v>
       </c>
       <c r="AO3">
-        <v>0.082324463688712032</v>
+        <v>0.12547560260856128</v>
       </c>
       <c r="AP3">
-        <v>0.012193683890943064</v>
+        <v>-0.013473495992901867</v>
       </c>
       <c r="AQ3">
-        <v>0.046725224152311312</v>
+        <v>0.046774961433357513</v>
       </c>
       <c r="AR3">
-        <v>0.0048924289028442073</v>
+        <v>0.082836615843132802</v>
       </c>
       <c r="AS3">
-        <v>0.053639548840050552</v>
+        <v>0.073784215354159258</v>
       </c>
       <c r="AT3">
-        <v>0.060549532110958759</v>
+        <v>0.017393025387666974</v>
       </c>
       <c r="AU3">
-        <v>0.031102068749489568</v>
+        <v>0.051435107028389757</v>
       </c>
       <c r="AV3">
-        <v>0.12642763126210602</v>
+        <v>0.042806113225586327</v>
       </c>
       <c r="AW3">
-        <v>0.10920360219865174</v>
+        <v>0.023698090154637468</v>
       </c>
       <c r="AX3">
-        <v>0.070618652986084732</v>
+        <v>0.10612718762864883</v>
       </c>
       <c r="AY3">
-        <v>0.07972242226357637</v>
+        <v>0.09503256927073174</v>
       </c>
       <c r="AZ3">
-        <v>0.054618470553417522</v>
+        <v>0.11438587873232069</v>
       </c>
       <c r="BA3">
-        <v>0.12184565934428938</v>
+        <v>0.097409074715394242</v>
       </c>
       <c r="BB3">
-        <v>0.063927863556408657</v>
+        <v>0.096719496025366919</v>
       </c>
       <c r="BC3">
-        <v>0.039115239869363841</v>
+        <v>0.074022761372202567</v>
       </c>
       <c r="BD3">
-        <v>0.081446738632109883</v>
+        <v>0.05388104499745304</v>
       </c>
       <c r="BE3">
-        <v>0.074683419172376378</v>
+        <v>0.088543431212410498</v>
       </c>
       <c r="BF3">
-        <v>0.070150632712899369</v>
+        <v>0.031673522832116038</v>
       </c>
       <c r="BG3">
-        <v>0.048550722571855186</v>
+        <v>0.048347433352479756</v>
       </c>
       <c r="BH3">
-        <v>0.067898048432307567</v>
+        <v>0.036403233587801315</v>
       </c>
       <c r="BI3">
-        <v>0.075566884907010051</v>
+        <v>0.10367464007196862</v>
       </c>
       <c r="BJ3">
-        <v>0.03438557955023902</v>
+        <v>0.084078376549074824</v>
       </c>
       <c r="BK3">
-        <v>0.060242078625535482</v>
+        <v>0.072581890941710331</v>
       </c>
       <c r="BL3">
-        <v>0.064893270824939467</v>
+        <v>0.082604593241973584</v>
       </c>
       <c r="BM3">
-        <v>0.088560112432209376</v>
+        <v>0.081100098736999776</v>
       </c>
       <c r="BN3">
-        <v>0.012620053419577067</v>
+        <v>0.076506217622722167</v>
       </c>
       <c r="BO3">
-        <v>0.053263568974316389</v>
+        <v>0.084987016313850958</v>
       </c>
       <c r="BP3">
-        <v>0.058727291233289174</v>
+        <v>0.049119424097982554</v>
       </c>
       <c r="BQ3">
-        <v>0.07377607550584786</v>
+        <v>0.093828580728871999</v>
       </c>
       <c r="BR3">
-        <v>0.022699109669134673</v>
+        <v>0.10158804349195856</v>
       </c>
       <c r="BS3">
-        <v>0.064173651849966179</v>
+        <v>0.036170820484908758</v>
       </c>
       <c r="BT3">
-        <v>0.074731627016293573</v>
+        <v>0.051442738481922948</v>
       </c>
       <c r="BU3">
-        <v>0.043895341468463037</v>
+        <v>0.034896600085741102</v>
       </c>
       <c r="BV3">
-        <v>-0.19996301834388011</v>
+        <v>-0.13753813936260634</v>
       </c>
       <c r="BW3">
-        <v>0.0030488904184806267</v>
+        <v>0.082699876088170962</v>
       </c>
       <c r="BX3">
-        <v>0.016173515023686521</v>
+        <v>0.094015589848223668</v>
       </c>
       <c r="BY3">
-        <v>0.026491984778904958</v>
+        <v>0.084103312643814696</v>
       </c>
       <c r="BZ3">
-        <v>0.066312663645578487</v>
+        <v>0.11979685810335645</v>
       </c>
       <c r="CA3">
-        <v>0.015773643442461065</v>
+        <v>0.052272779027309771</v>
       </c>
       <c r="CB3">
-        <v>0.042061013932322672</v>
+        <v>0.10962969196709839</v>
       </c>
       <c r="CC3">
-        <v>0.017113616730856197</v>
+        <v>0.062932591612942401</v>
       </c>
       <c r="CD3">
-        <v>0.013379808664010579</v>
+        <v>0.11391535133671765</v>
       </c>
       <c r="CE3">
-        <v>0.053824629652196254</v>
+        <v>0.056155957867040064</v>
       </c>
       <c r="CF3">
-        <v>0.033680251508660275</v>
+        <v>0.098613672889759418</v>
       </c>
       <c r="CG3">
-        <v>0.016524566810228</v>
+        <v>0.0545661866017675</v>
       </c>
       <c r="CH3">
-        <v>0.01926127984951425</v>
+        <v>0.066263764807743541</v>
       </c>
       <c r="CI3">
-        <v>-0.017352369333639737</v>
+        <v>0.041450128596708311</v>
       </c>
       <c r="CJ3">
-        <v>0.057579256252259445</v>
+        <v>0.063291996544438012</v>
       </c>
       <c r="CK3">
-        <v>0.041589701800869051</v>
+        <v>0.087074958896758536</v>
       </c>
       <c r="CL3">
-        <v>0.091789326591426135</v>
+        <v>0.071287807391430244</v>
       </c>
       <c r="CM3">
-        <v>0.0052690586444035558</v>
+        <v>0.1210699581577611</v>
       </c>
       <c r="CN3">
-        <v>0.03360899942482324</v>
+        <v>0.099078307311199654</v>
       </c>
       <c r="CO3">
-        <v>0.069109853991072154</v>
+        <v>0.099797898768441917</v>
       </c>
       <c r="CP3">
-        <v>0.077226517818404117</v>
+        <v>0.14133596831254755</v>
       </c>
       <c r="CQ3">
-        <v>0.040807185701423603</v>
+        <v>0.12547068986117299</v>
       </c>
       <c r="CR3">
-        <v>0.055673127424017754</v>
+        <v>0.088441300286021457</v>
       </c>
       <c r="CS3">
-        <v>0.073671431903659046</v>
+        <v>0.12755519700748383</v>
       </c>
       <c r="CT3">
-        <v>0.045903749922683715</v>
+        <v>0.091784574909845332</v>
       </c>
       <c r="CU3">
-        <v>0.035266564528014133</v>
+        <v>0.092773751579270869</v>
       </c>
       <c r="CV3">
-        <v>0.023223321298741932</v>
+        <v>0.088384141510920083</v>
       </c>
       <c r="CW3">
-        <v>0.019377230268791165</v>
+        <v>0.081477279325193872</v>
       </c>
       <c r="CX3">
-        <v>0.02019983425706777</v>
+        <v>0.070048596776654079</v>
       </c>
       <c r="CY3">
-        <v>0.01771947052301177</v>
+        <v>0.1360542233692183</v>
       </c>
       <c r="CZ3">
-        <v>0.06242336628283477</v>
+        <v>0.067877209330553703</v>
       </c>
       <c r="DA3">
-        <v>0.052114325791885317</v>
+        <v>0.068784141922704156</v>
       </c>
       <c r="DB3">
-        <v>0.030754436203199263</v>
+        <v>0.099183573232251132</v>
       </c>
       <c r="DC3">
-        <v>-0.0034385357142046546</v>
+        <v>0.091784835639573639</v>
       </c>
       <c r="DD3">
-        <v>0.042214595345888624</v>
+        <v>0.11333088536774823</v>
       </c>
       <c r="DE3">
-        <v>0.061241111988994602</v>
+        <v>0.067974853162221613</v>
       </c>
       <c r="DF3">
-        <v>0.061767636953051451</v>
+        <v>0.077601003120896406</v>
       </c>
       <c r="DG3">
-        <v>0.043538278762282175</v>
+        <v>0.076388471618150308</v>
       </c>
       <c r="DH3">
-        <v>0.022428090341479131</v>
+        <v>0.11627874414923595</v>
       </c>
       <c r="DI3">
-        <v>0.092301890875457329</v>
+        <v>0.098300817124157655</v>
       </c>
       <c r="DJ3">
-        <v>0.028965608782861991</v>
+        <v>0.070117774556539447</v>
       </c>
       <c r="DK3">
-        <v>0.058263356612029582</v>
+        <v>0.098045752370346462</v>
       </c>
       <c r="DL3">
-        <v>0.048323523470325064</v>
+        <v>0.081735496938268384</v>
       </c>
       <c r="DM3">
-        <v>0.00081930032537623552</v>
+        <v>0.076613013095097701</v>
       </c>
       <c r="DN3">
-        <v>0.025221428097310188</v>
+        <v>0.072555067768606596</v>
       </c>
       <c r="DO3">
-        <v>0.045505724332951317</v>
+        <v>0.069593487119237435</v>
       </c>
       <c r="DP3">
-        <v>-0.0060438464957326297</v>
+        <v>0.084229303417383619</v>
       </c>
       <c r="DQ3">
-        <v>0.053312047656064052</v>
+        <v>0.080556618903088101</v>
       </c>
       <c r="DR3">
-        <v>0.013417229574686553</v>
+        <v>0.11556294472671969</v>
       </c>
       <c r="DS3">
-        <v>0.045435856570505778</v>
+        <v>0.092861392059273143</v>
       </c>
       <c r="DT3">
-        <v>0.051187049960367617</v>
+        <v>0.10326412770890031</v>
       </c>
       <c r="DU3">
-        <v>0.040570198097633091</v>
+        <v>0.11829039299600712</v>
       </c>
       <c r="DV3">
-        <v>0.034069592041931884</v>
+        <v>0.10514298621772761</v>
       </c>
       <c r="DW3">
-        <v>0.032638755697356137</v>
+        <v>0.050229103972032632</v>
       </c>
       <c r="DX3">
-        <v>0.035584254248267146</v>
+        <v>0.092045709447575758</v>
       </c>
       <c r="DY3">
-        <v>0.049701643850842282</v>
+        <v>0.095816790767827731</v>
       </c>
       <c r="DZ3">
-        <v>0.03228157226439328</v>
+        <v>0.083498971427752089</v>
       </c>
       <c r="EA3">
-        <v>0.010162606527567506</v>
+        <v>0.091279784195175961</v>
       </c>
       <c r="EB3">
-        <v>0.013384201307587027</v>
+        <v>0.084468367230960864</v>
       </c>
       <c r="EC3">
-        <v>0.039674064575878777</v>
+        <v>0.099989934372199926</v>
       </c>
       <c r="ED3">
-        <v>0.017037851731754795</v>
+        <v>0.076322000987327721</v>
       </c>
       <c r="EE3">
-        <v>0.056845912279265165</v>
+        <v>0.074173317531725777</v>
       </c>
       <c r="EF3">
-        <v>0.018234639577197783</v>
+        <v>0.079105629162143323</v>
       </c>
       <c r="EG3">
-        <v>0.024424005570903341</v>
+        <v>0.079454204841923046</v>
       </c>
       <c r="EH3">
-        <v>0.035653155089216411</v>
+        <v>0.083572158332682459</v>
       </c>
       <c r="EI3">
-        <v>0.030591184768874253</v>
+        <v>0.081395541385079984</v>
       </c>
       <c r="EJ3">
-        <v>0.035570247321327318</v>
+        <v>0.063760201446720621</v>
       </c>
       <c r="EK3">
-        <v>0.014164141315776813</v>
+        <v>0.084921466113582367</v>
       </c>
       <c r="EL3">
-        <v>-0.013328046044076003</v>
+        <v>0.075399271523758166</v>
       </c>
       <c r="EM3">
-        <v>0.024779330698505509</v>
+        <v>0.087208761578624491</v>
       </c>
       <c r="EN3">
-        <v>0.022848328652619449</v>
+        <v>0.078046399234876843</v>
       </c>
       <c r="EO3">
-        <v>0.016506513286628475</v>
+        <v>0.04696521273211627</v>
       </c>
       <c r="EP3">
-        <v>0.023207888564533697</v>
+        <v>0.048710160434635857</v>
       </c>
       <c r="EQ3">
-        <v>0.026441471559679765</v>
+        <v>0.061637818536622667</v>
       </c>
       <c r="ER3">
-        <v>0.037092666550315137</v>
+        <v>0.06301083451239585</v>
       </c>
       <c r="ES3">
-        <v>0.056760493353543759</v>
+        <v>0.064829301728375491</v>
       </c>
       <c r="ET3">
-        <v>0.010619441222962588</v>
+        <v>0.102292784992673</v>
       </c>
       <c r="EU3">
-        <v>0.031164343757388673</v>
+        <v>0.091698608910328105</v>
       </c>
       <c r="EV3">
-        <v>-0.014071306010436747</v>
+        <v>0.052381025528887175</v>
       </c>
       <c r="EW3">
-        <v>0.015555424133112453</v>
+        <v>0.050414863339469977</v>
       </c>
       <c r="EX3">
-        <v>0.036238789055158774</v>
+        <v>0.050720693329217886</v>
       </c>
       <c r="EY3">
-        <v>0.01149643233165536</v>
+        <v>0.074419398503422093</v>
       </c>
       <c r="EZ3">
-        <v>-0.012789900856114171</v>
+        <v>0.062973730109100096</v>
       </c>
       <c r="FA3">
-        <v>0.018141434963055009</v>
+        <v>0.073453471618435767</v>
       </c>
       <c r="FB3">
-        <v>0.00042827944214286144</v>
+        <v>0.090283118940088725</v>
       </c>
       <c r="FC3">
-        <v>0.018411453683013067</v>
+        <v>0.12472116258691816</v>
       </c>
       <c r="FD3">
-        <v>0.016469154867702084</v>
+        <v>0.029525228200075165</v>
       </c>
       <c r="FE3">
-        <v>0.033030916349495162</v>
+        <v>0.077962256848783176</v>
       </c>
       <c r="FF3">
-        <v>-0.027827135261069499</v>
+        <v>0.096333840374685703</v>
       </c>
       <c r="FG3">
-        <v>-0.053776150507363868</v>
+        <v>0.039317024442794467</v>
       </c>
       <c r="FH3">
-        <v>0.048094801560846119</v>
+        <v>0.060598755460906172</v>
       </c>
       <c r="FI3">
-        <v>0.038470362263585217</v>
+        <v>0.035594178915710283</v>
       </c>
       <c r="FJ3">
-        <v>-0.010273679468677169</v>
+        <v>0.074290409478903405</v>
       </c>
       <c r="FK3">
-        <v>0.021694273978267363</v>
+        <v>0.034255629499734187</v>
       </c>
       <c r="FL3">
-        <v>0.012858924877151906</v>
+        <v>0.04952994452341835</v>
       </c>
       <c r="FM3">
-        <v>0.018368992572114655</v>
+        <v>0.060852721941782269</v>
       </c>
       <c r="FN3">
-        <v>-0.03552464455544075</v>
+        <v>0.048210418659812522</v>
       </c>
       <c r="FO3">
-        <v>0.017623419444777376</v>
+        <v>0.037246136164979425</v>
       </c>
       <c r="FP3">
-        <v>-0.035250685583651208</v>
+        <v>0.052182605049359926</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5203640040528015</v>
+        <v>-5.5739128527231632</v>
       </c>
     </row>
     <row r="4">
@@ -6416,517 +6416,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019999052349873925</v>
+        <v>0.019861946333335927</v>
       </c>
       <c r="C4">
-        <v>0.012522949637718881</v>
+        <v>0.012366177523931966</v>
       </c>
       <c r="D4">
-        <v>0.022001974008225515</v>
+        <v>0.021691061204105622</v>
       </c>
       <c r="E4">
-        <v>0.026810067251996722</v>
+        <v>0.026538382826683266</v>
       </c>
       <c r="F4">
-        <v>0.016310908701485542</v>
+        <v>0.016211564991236761</v>
       </c>
       <c r="G4">
-        <v>0.013484928966946252</v>
+        <v>0.013437022662064778</v>
       </c>
       <c r="H4">
-        <v>0.010810950838025876</v>
+        <v>0.010737281247622139</v>
       </c>
       <c r="I4">
-        <v>0.010823943675469714</v>
+        <v>0.010816728432098301</v>
       </c>
       <c r="J4">
-        <v>0.011268532889350948</v>
+        <v>0.011312091614742644</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.024777426832921206</v>
+        <v>0.025173278506894249</v>
       </c>
       <c r="M4">
-        <v>0.024535650530951084</v>
+        <v>0.024633970980920735</v>
       </c>
       <c r="N4">
-        <v>0.036642383579563495</v>
+        <v>0.035452298397212811</v>
       </c>
       <c r="O4">
-        <v>0.036558936640985536</v>
+        <v>0.035603785452096276</v>
       </c>
       <c r="P4">
-        <v>0.036043199113599461</v>
+        <v>0.035948680101825434</v>
       </c>
       <c r="Q4">
-        <v>0.035868013917948263</v>
+        <v>0.036254588583611247</v>
       </c>
       <c r="R4">
-        <v>0.035922317656400943</v>
+        <v>0.035959390209151877</v>
       </c>
       <c r="S4">
-        <v>0.03568630983765754</v>
+        <v>0.035727315349280635</v>
       </c>
       <c r="T4">
-        <v>0.035295797056774832</v>
+        <v>0.035091895814495733</v>
       </c>
       <c r="U4">
-        <v>0.035001846915336261</v>
+        <v>0.035492382488369015</v>
       </c>
       <c r="V4">
-        <v>0.034831187168396956</v>
+        <v>0.035245488793142057</v>
       </c>
       <c r="W4">
-        <v>0.034273720661684728</v>
+        <v>0.034731165587042249</v>
       </c>
       <c r="X4">
-        <v>0.034239280433210721</v>
+        <v>0.034812747253342054</v>
       </c>
       <c r="Y4">
-        <v>0.035030698585619684</v>
+        <v>0.034969544814440118</v>
       </c>
       <c r="Z4">
-        <v>0.035478154912811796</v>
+        <v>0.03487687878102845</v>
       </c>
       <c r="AA4">
-        <v>0.034457480858985833</v>
+        <v>0.034812747255667402</v>
       </c>
       <c r="AB4">
-        <v>0.035069352215647227</v>
+        <v>0.035502438761943998</v>
       </c>
       <c r="AC4">
-        <v>0.034944496592253044</v>
+        <v>0.034492143484306965</v>
       </c>
       <c r="AD4">
-        <v>0.03531583210994875</v>
+        <v>0.034236192773008649</v>
       </c>
       <c r="AE4">
-        <v>0.034404465923786737</v>
+        <v>0.034923056161142045</v>
       </c>
       <c r="AF4">
-        <v>0.034501978419520726</v>
+        <v>0.035274665379929342</v>
       </c>
       <c r="AG4">
-        <v>0.03423928044058859</v>
+        <v>0.034492143487613161</v>
       </c>
       <c r="AH4">
-        <v>0.03402796802556031</v>
+        <v>0.034474770904824557</v>
       </c>
       <c r="AI4">
-        <v>0.034282358439020395</v>
+        <v>0.034397147839050471</v>
       </c>
       <c r="AJ4">
-        <v>0.034475244961117611</v>
+        <v>0.03414477084428609</v>
       </c>
       <c r="AK4">
-        <v>0.034422091538329772</v>
+        <v>0.034278171542603562</v>
       </c>
       <c r="AL4">
-        <v>0.033815152540451768</v>
+        <v>0.034731165599126014</v>
       </c>
       <c r="AM4">
-        <v>0.034103268433667712</v>
+        <v>0.03439714784254299</v>
       </c>
       <c r="AN4">
-        <v>0.03417943338559342</v>
+        <v>0.034295038016954271</v>
       </c>
       <c r="AO4">
-        <v>0.033904347511365465</v>
+        <v>0.033698304443207164</v>
       </c>
       <c r="AP4">
-        <v>0.034701285324377835</v>
+        <v>0.035264926430517769</v>
       </c>
       <c r="AQ4">
-        <v>0.034317021024283821</v>
+        <v>0.034579686942935187</v>
       </c>
       <c r="AR4">
-        <v>0.034803145417961368</v>
+        <v>0.034186168668716307</v>
       </c>
       <c r="AS4">
-        <v>0.034256478442112076</v>
+        <v>0.034295038021431225</v>
       </c>
       <c r="AT4">
-        <v>0.03418795020232987</v>
+        <v>0.03494161409994842</v>
       </c>
       <c r="AU4">
-        <v>0.034528817249742515</v>
+        <v>0.0345620869057401</v>
       </c>
       <c r="AV4">
-        <v>0.033485471127320539</v>
+        <v>0.034668381639963081</v>
       </c>
       <c r="AW4">
-        <v>0.033679669479327504</v>
+        <v>0.034895312604508663</v>
       </c>
       <c r="AX4">
-        <v>0.034111688241142024</v>
+        <v>0.033981753885712236</v>
       </c>
       <c r="AY4">
-        <v>0.034019654033865691</v>
+        <v>0.03411183988482927</v>
       </c>
       <c r="AZ4">
-        <v>0.034308338616706881</v>
+        <v>0.033909710771386097</v>
       </c>
       <c r="BA4">
-        <v>0.033577951453124602</v>
+        <v>0.034103632985340256</v>
       </c>
       <c r="BB4">
-        <v>0.03422212653932024</v>
+        <v>0.034120057105690056</v>
       </c>
       <c r="BC4">
-        <v>0.034510912973913191</v>
+        <v>0.03438002023336869</v>
       </c>
       <c r="BD4">
-        <v>0.034044627538044284</v>
+        <v>0.034615025366791889</v>
       </c>
       <c r="BE4">
-        <v>0.034128559946154068</v>
+        <v>0.034236192797310924</v>
       </c>
       <c r="BF4">
-        <v>0.034187950213502266</v>
+        <v>0.034886089536208302</v>
       </c>
       <c r="BG4">
-        <v>0.034439763141604268</v>
+        <v>0.034704187173179295</v>
       </c>
       <c r="BH4">
-        <v>0.034230698007080868</v>
+        <v>0.034849320450662802</v>
       </c>
       <c r="BI4">
-        <v>0.03415394807484752</v>
+        <v>0.034103632992854023</v>
       </c>
       <c r="BJ4">
-        <v>0.034628138176008808</v>
+        <v>0.03432890043172028</v>
       </c>
       <c r="BK4">
-        <v>0.034343135689465849</v>
+        <v>0.034466101503400341</v>
       </c>
       <c r="BL4">
-        <v>0.034299667407770316</v>
+        <v>0.034362936578565415</v>
       </c>
       <c r="BM4">
-        <v>0.034044627546580788</v>
+        <v>0.034388578548206046</v>
       </c>
       <c r="BN4">
-        <v>0.034915996467101543</v>
+        <v>0.034448796268073234</v>
       </c>
       <c r="BO4">
-        <v>0.034457480893918715</v>
+        <v>0.034362936581380753</v>
       </c>
       <c r="BP4">
-        <v>0.034404465956662064</v>
+        <v>0.034776368421080339</v>
       </c>
       <c r="BQ4">
-        <v>0.035152761542619995</v>
+        <v>0.035108392356700761</v>
       </c>
       <c r="BR4">
-        <v>0.035745054044896758</v>
+        <v>0.035031500871164786</v>
       </c>
       <c r="BS4">
-        <v>0.035278017956584633</v>
+        <v>0.035777173359225568</v>
       </c>
       <c r="BT4">
-        <v>0.03602290498296256</v>
+        <v>0.036424456738313425</v>
       </c>
       <c r="BU4">
-        <v>0.036376529164226977</v>
+        <v>0.036619435299431541</v>
       </c>
       <c r="BV4">
-        <v>0.025634974731973376</v>
+        <v>0.025789633689005061</v>
       </c>
       <c r="BW4">
-        <v>0.026932924483148313</v>
+        <v>0.026976874665551834</v>
       </c>
       <c r="BX4">
-        <v>0.026881177416099952</v>
+        <v>0.026935418072726793</v>
       </c>
       <c r="BY4">
-        <v>0.025768720323303119</v>
+        <v>0.025917506049962659</v>
       </c>
       <c r="BZ4">
-        <v>0.025577737777317526</v>
+        <v>0.02575111987442966</v>
       </c>
       <c r="CA4">
-        <v>0.025860794638416926</v>
+        <v>0.026119891695232308</v>
       </c>
       <c r="CB4">
-        <v>0.024823159120299539</v>
+        <v>0.024928113261316203</v>
       </c>
       <c r="CC4">
-        <v>0.024979382788208344</v>
+        <v>0.025198670596783421</v>
       </c>
       <c r="CD4">
-        <v>0.025019110614082758</v>
+        <v>0.024941885649464358</v>
       </c>
       <c r="CE4">
-        <v>0.024814832693083697</v>
+        <v>0.025274331358212453</v>
       </c>
       <c r="CF4">
-        <v>0.024944574400709095</v>
+        <v>0.025060450852904377</v>
       </c>
       <c r="CG4">
-        <v>0.02500667657869559</v>
+        <v>0.025325828773039741</v>
       </c>
       <c r="CH4">
-        <v>0.025010516865451592</v>
+        <v>0.025279095760562902</v>
       </c>
       <c r="CI4">
-        <v>0.02523849136785104</v>
+        <v>0.02543766162418485</v>
       </c>
       <c r="CJ4">
-        <v>0.024835399502361605</v>
+        <v>0.025332831973232897</v>
       </c>
       <c r="CK4">
-        <v>0.02520327440759047</v>
+        <v>0.025478196599038008</v>
       </c>
       <c r="CL4">
-        <v>0.025303519869145381</v>
+        <v>0.025924960657141727</v>
       </c>
       <c r="CM4">
-        <v>0.025806958445226558</v>
+        <v>0.025671259876941972</v>
       </c>
       <c r="CN4">
-        <v>0.025928821805731736</v>
+        <v>0.026091585631232532</v>
       </c>
       <c r="CO4">
-        <v>0.02575275682797255</v>
+        <v>0.026108528844598414</v>
       </c>
       <c r="CP4">
-        <v>0.02532905868172608</v>
+        <v>0.025490742506673731</v>
       </c>
       <c r="CQ4">
-        <v>0.022096305781003425</v>
+        <v>0.022268703460304178</v>
       </c>
       <c r="CR4">
-        <v>0.022054861417369807</v>
+        <v>0.022427295278874979</v>
       </c>
       <c r="CS4">
-        <v>0.021524268819867937</v>
+        <v>0.021825001159632842</v>
       </c>
       <c r="CT4">
-        <v>0.021651876875900058</v>
+        <v>0.021982492555099466</v>
       </c>
       <c r="CU4">
-        <v>0.021712006687991</v>
+        <v>0.021995201527288653</v>
       </c>
       <c r="CV4">
-        <v>0.021394469453772314</v>
+        <v>0.021645468350087203</v>
       </c>
       <c r="CW4">
-        <v>0.021427948172822182</v>
+        <v>0.021690944214702537</v>
       </c>
       <c r="CX4">
-        <v>0.021441783144290363</v>
+        <v>0.021755559355549289</v>
       </c>
       <c r="CY4">
-        <v>0.021469699308903731</v>
+        <v>0.0215033859368681</v>
       </c>
       <c r="CZ4">
-        <v>0.021299737560186136</v>
+        <v>0.021800179687879607</v>
       </c>
       <c r="DA4">
-        <v>0.021351736587242928</v>
+        <v>0.021826021033618602</v>
       </c>
       <c r="DB4">
-        <v>0.02145916610909241</v>
+        <v>0.02171603622348749</v>
       </c>
       <c r="DC4">
-        <v>0.0216242356855148</v>
+        <v>0.021764274789823006</v>
       </c>
       <c r="DD4">
-        <v>0.021445271949234544</v>
+        <v>0.021692292121883745</v>
       </c>
       <c r="DE4">
-        <v>0.021382998497014149</v>
+        <v>0.021900713230803139</v>
       </c>
       <c r="DF4">
-        <v>0.021487680765413388</v>
+        <v>0.021961834605618027</v>
       </c>
       <c r="DG4">
-        <v>0.02158337176278307</v>
+        <v>0.021984585486786067</v>
       </c>
       <c r="DH4">
-        <v>0.021693080740031952</v>
+        <v>0.021832811561889039</v>
       </c>
       <c r="DI4">
-        <v>0.021412053203045445</v>
+        <v>0.021926517924033127</v>
       </c>
       <c r="DJ4">
-        <v>0.021701470347270706</v>
+        <v>0.022065957649494788</v>
       </c>
       <c r="DK4">
-        <v>0.020825014855073237</v>
+        <v>0.021207060143307154</v>
       </c>
       <c r="DL4">
-        <v>0.020888293786445127</v>
+        <v>0.021298279411922184</v>
       </c>
       <c r="DM4">
-        <v>0.021124904174614913</v>
+        <v>0.021339913106139766</v>
       </c>
       <c r="DN4">
-        <v>0.021030488823350218</v>
+        <v>0.021376912974950511</v>
       </c>
       <c r="DO4">
-        <v>0.020956667500916178</v>
+        <v>0.021409060347586318</v>
       </c>
       <c r="DP4">
-        <v>0.021215172931640158</v>
+        <v>0.021360990003416042</v>
       </c>
       <c r="DQ4">
-        <v>0.020958400764388031</v>
+        <v>0.021396510662547535</v>
       </c>
       <c r="DR4">
-        <v>0.021162143418153877</v>
+        <v>0.021257324891737955</v>
       </c>
       <c r="DS4">
-        <v>0.021032272818228285</v>
+        <v>0.021378688632445006</v>
       </c>
       <c r="DT4">
-        <v>0.021025145359250694</v>
+        <v>0.021350429965318163</v>
       </c>
       <c r="DU4">
-        <v>0.021093660693527284</v>
+        <v>0.021301723213528988</v>
       </c>
       <c r="DV4">
-        <v>0.021143458459101989</v>
+        <v>0.021380465428429016</v>
       </c>
       <c r="DW4">
-        <v>0.021169654867543967</v>
+        <v>0.021655830129481888</v>
       </c>
       <c r="DX4">
-        <v>0.021175302303593074</v>
+        <v>0.021478276971823768</v>
       </c>
       <c r="DY4">
-        <v>0.021128605145932264</v>
+        <v>0.021480123746909434</v>
       </c>
       <c r="DZ4">
-        <v>0.021230520501897186</v>
+        <v>0.021556986447282194</v>
       </c>
       <c r="EA4">
-        <v>0.021356545038125091</v>
+        <v>0.021539920044566157</v>
       </c>
       <c r="EB4">
-        <v>0.021360578980356294</v>
+        <v>0.021591454264603214</v>
       </c>
       <c r="EC4">
-        <v>0.02125370716751402</v>
+        <v>0.021538030702851606</v>
       </c>
       <c r="ED4">
-        <v>0.021382872063840454</v>
+        <v>0.021669687538035526</v>
       </c>
       <c r="EE4">
-        <v>0.021211350723110506</v>
+        <v>0.021699623616181055</v>
       </c>
       <c r="EF4">
-        <v>0.021417683771589875</v>
+        <v>0.021695612960587644</v>
       </c>
       <c r="EG4">
-        <v>0.021407399501222311</v>
+        <v>0.021713708224225803</v>
       </c>
       <c r="EH4">
-        <v>0.021372716693591799</v>
+        <v>0.02171370828031562</v>
       </c>
       <c r="EI4">
-        <v>0.021417683941658976</v>
+        <v>0.021744137890621303</v>
       </c>
       <c r="EJ4">
-        <v>0.021413565681201452</v>
+        <v>0.02185020475896509</v>
       </c>
       <c r="EK4">
-        <v>0.021539841226429317</v>
+        <v>0.021766671078923952</v>
       </c>
       <c r="EL4">
-        <v>0.021699201937643013</v>
+        <v>0.021833294602402794</v>
       </c>
       <c r="EM4">
-        <v>0.021526954899706557</v>
+        <v>0.021795620619698867</v>
       </c>
       <c r="EN4">
-        <v>0.021557115168300903</v>
+        <v>0.021860826479802503</v>
       </c>
       <c r="EO4">
-        <v>0.021609575800528538</v>
+        <v>0.022036476492054306</v>
       </c>
       <c r="EP4">
-        <v>0.021596369904186837</v>
+        <v>0.022047824214798239</v>
       </c>
       <c r="EQ4">
-        <v>0.021600765167459336</v>
+        <v>0.02200270122309763</v>
       </c>
       <c r="ER4">
-        <v>0.021567965213198356</v>
+        <v>0.022016163525799461</v>
       </c>
       <c r="ES4">
-        <v>0.02149076054367545</v>
+        <v>0.022027430832954709</v>
       </c>
       <c r="ET4">
-        <v>0.02174507774303653</v>
+        <v>0.021860826823819544</v>
       </c>
       <c r="EU4">
-        <v>0.021660770246326899</v>
+        <v>0.021934145541190719</v>
       </c>
       <c r="EV4">
-        <v>0.021916413237927725</v>
+        <v>0.02215437269401262</v>
       </c>
       <c r="EW4">
-        <v>0.021782303743475021</v>
+        <v>0.022185205544204993</v>
       </c>
       <c r="EX4">
-        <v>0.021696927735625638</v>
+        <v>0.022204342019688138</v>
       </c>
       <c r="EY4">
-        <v>0.021846209085167396</v>
+        <v>0.022102925549686708</v>
       </c>
       <c r="EZ4">
-        <v>0.021995831486614357</v>
+        <v>0.022182822403071754</v>
       </c>
       <c r="FA4">
-        <v>0.021853395606500174</v>
+        <v>0.022149658195102631</v>
       </c>
       <c r="FB4">
-        <v>0.021968295915647796</v>
+        <v>0.022084441561746156</v>
       </c>
       <c r="FC4">
-        <v>0.021894449217315044</v>
+        <v>0.021931961999215932</v>
       </c>
       <c r="FD4">
-        <v>0.021926227460172074</v>
+        <v>0.022446718824692163</v>
       </c>
       <c r="FE4">
-        <v>0.021860599649598068</v>
+        <v>0.022211550800101565</v>
       </c>
       <c r="FF4">
-        <v>0.022209267386718832</v>
+        <v>0.022137904780260301</v>
       </c>
       <c r="FG4">
-        <v>0.022375193514793598</v>
+        <v>0.022459755472875674</v>
       </c>
       <c r="FH4">
-        <v>0.021843818008256289</v>
+        <v>0.022367114253599503</v>
       </c>
       <c r="FI4">
-        <v>0.021916413998851376</v>
+        <v>0.022523112450140038</v>
       </c>
       <c r="FJ4">
-        <v>0.022201195140237398</v>
+        <v>0.022336852805498231</v>
       </c>
       <c r="FK4">
-        <v>0.022049101479657312</v>
+        <v>0.022574207260603659</v>
       </c>
       <c r="FL4">
-        <v>0.02211897737634444</v>
+        <v>0.022512462300329258</v>
       </c>
       <c r="FM4">
-        <v>0.022111134928871123</v>
+        <v>0.0224728479914219</v>
       </c>
       <c r="FN4">
-        <v>0.02243246876637946</v>
+        <v>0.022563380640921823</v>
       </c>
       <c r="FO4">
-        <v>0.022158489930709114</v>
+        <v>0.022645510147449147</v>
       </c>
       <c r="FP4">
-        <v>0.022476098174710177</v>
+        <v>0.022585072058147585</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015768096060466072</v>
+        <v>0.016192351258013403</v>
       </c>
     </row>
   </sheetData>
@@ -8003,517 +8003,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.2173317892165261</v>
+        <v>1.1914278110858223</v>
       </c>
       <c r="C3">
-        <v>-1.7348151441197195</v>
+        <v>-1.716730524665139</v>
       </c>
       <c r="D3">
-        <v>-1.709219592558193</v>
+        <v>-1.7016458270272234</v>
       </c>
       <c r="E3">
-        <v>-1.6818966981453471</v>
+        <v>-1.6979845872725545</v>
       </c>
       <c r="F3">
-        <v>0.85118912529466706</v>
+        <v>0.84375647809837373</v>
       </c>
       <c r="G3">
-        <v>0.74452616797813975</v>
+        <v>0.74703175328920735</v>
       </c>
       <c r="H3">
-        <v>0.61934188521419298</v>
+        <v>0.61281473505158435</v>
       </c>
       <c r="I3">
-        <v>0.46731225021035488</v>
+        <v>0.46540097150389909</v>
       </c>
       <c r="J3">
-        <v>0.35562297050476704</v>
+        <v>0.35205758359197686</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.3637231025329253</v>
+        <v>1.3669762967726387</v>
       </c>
       <c r="M3">
-        <v>1.4327429362745605</v>
+        <v>1.5124563764018244</v>
       </c>
       <c r="N3">
-        <v>-0.084647180727600815</v>
+        <v>-0.043380710911535607</v>
       </c>
       <c r="O3">
-        <v>-0.075061299081254473</v>
+        <v>-0.04004577104035744</v>
       </c>
       <c r="P3">
-        <v>-0.068195678985747618</v>
+        <v>-0.050143212421599671</v>
       </c>
       <c r="Q3">
-        <v>-0.05960876992108697</v>
+        <v>-0.001972749882735758</v>
       </c>
       <c r="R3">
-        <v>-0.053691327108206309</v>
+        <v>-0.041622802928911143</v>
       </c>
       <c r="S3">
-        <v>-0.073279290403803779</v>
+        <v>0.0036573547294349424</v>
       </c>
       <c r="T3">
-        <v>-0.079762736120788463</v>
+        <v>-0.0016624121030042326</v>
       </c>
       <c r="U3">
-        <v>0.017378058091036954</v>
+        <v>-0.069563114739769893</v>
       </c>
       <c r="V3">
-        <v>-0.023446278193623465</v>
+        <v>0.055739909053815206</v>
       </c>
       <c r="W3">
-        <v>0.0040386355377048993</v>
+        <v>0.1025952602151811</v>
       </c>
       <c r="X3">
-        <v>0.064865967944392394</v>
+        <v>0.025806192433214525</v>
       </c>
       <c r="Y3">
-        <v>0.017012028875029225</v>
+        <v>0.055483826412707563</v>
       </c>
       <c r="Z3">
-        <v>0.033133156331360054</v>
+        <v>0.048838086691590649</v>
       </c>
       <c r="AA3">
-        <v>0.037882006103710883</v>
+        <v>0.058559501647796816</v>
       </c>
       <c r="AB3">
-        <v>-0.087546576286159319</v>
+        <v>0.083431898376343655</v>
       </c>
       <c r="AC3">
-        <v>0.067700253097474641</v>
+        <v>0.10230208285809995</v>
       </c>
       <c r="AD3">
-        <v>0.062997847235297375</v>
+        <v>0.12545650928706625</v>
       </c>
       <c r="AE3">
-        <v>0.0032561164943319823</v>
+        <v>0.040993546073211318</v>
       </c>
       <c r="AF3">
-        <v>0.053451556876918924</v>
+        <v>0.056565166530756404</v>
       </c>
       <c r="AG3">
-        <v>0.079213622959614649</v>
+        <v>0.086359337223054541</v>
       </c>
       <c r="AH3">
-        <v>0.061285208893715692</v>
+        <v>0.11844490385919169</v>
       </c>
       <c r="AI3">
-        <v>0.076874673056955889</v>
+        <v>0.11690037650896294</v>
       </c>
       <c r="AJ3">
-        <v>0.10666472624894206</v>
+        <v>0.1585711717322566</v>
       </c>
       <c r="AK3">
-        <v>0.029201272840631631</v>
+        <v>0.13989084329946164</v>
       </c>
       <c r="AL3">
-        <v>0.065123138489592211</v>
+        <v>0.094213772616683525</v>
       </c>
       <c r="AM3">
-        <v>0.10517958293274296</v>
+        <v>0.072522153899285291</v>
       </c>
       <c r="AN3">
-        <v>0.051630787582208494</v>
+        <v>0.11688180461837371</v>
       </c>
       <c r="AO3">
-        <v>0.10217681070111292</v>
+        <v>0.16538977787839654</v>
       </c>
       <c r="AP3">
-        <v>0.05316942811631347</v>
+        <v>0.12542244743260689</v>
       </c>
       <c r="AQ3">
-        <v>0.10901575680453995</v>
+        <v>0.12850941126989157</v>
       </c>
       <c r="AR3">
-        <v>0.0098475775737230896</v>
+        <v>0.1780623563287575</v>
       </c>
       <c r="AS3">
-        <v>0.072047870685077231</v>
+        <v>0.14537063666385699</v>
       </c>
       <c r="AT3">
-        <v>0.12106192984400722</v>
+        <v>0.084474017686185746</v>
       </c>
       <c r="AU3">
-        <v>0.08995975985199639</v>
+        <v>0.05080624319810164</v>
       </c>
       <c r="AV3">
-        <v>0.075180523467052965</v>
+        <v>0.14535718366068087</v>
       </c>
       <c r="AW3">
-        <v>0.1375188611634138</v>
+        <v>0.10112914986135572</v>
       </c>
       <c r="AX3">
-        <v>0.15224610584370815</v>
+        <v>0.18562012992538168</v>
       </c>
       <c r="AY3">
-        <v>0.11150950639871875</v>
+        <v>0.10350731999657184</v>
       </c>
       <c r="AZ3">
-        <v>0.14364082564873532</v>
+        <v>0.22024566086471675</v>
       </c>
       <c r="BA3">
-        <v>0.17769295086260464</v>
+        <v>0.17334917043831941</v>
       </c>
       <c r="BB3">
-        <v>0.13497724059408356</v>
+        <v>0.1990483823463815</v>
       </c>
       <c r="BC3">
-        <v>0.13727551187137646</v>
+        <v>0.15024358782690106</v>
       </c>
       <c r="BD3">
-        <v>0.049024032713889679</v>
+        <v>0.0931896020656518</v>
       </c>
       <c r="BE3">
-        <v>0.11938541551623144</v>
+        <v>0.10355381158054576</v>
       </c>
       <c r="BF3">
-        <v>0.11336436547162082</v>
+        <v>0.10271896760999355</v>
       </c>
       <c r="BG3">
-        <v>0.071420380917075588</v>
+        <v>0.1310395652392955</v>
       </c>
       <c r="BH3">
-        <v>0.064214048768347187</v>
+        <v>0.17737103807576024</v>
       </c>
       <c r="BI3">
-        <v>0.13676406292860011</v>
+        <v>0.094646533980625086</v>
       </c>
       <c r="BJ3">
-        <v>0.085600182821424439</v>
+        <v>0.1632362859423169</v>
       </c>
       <c r="BK3">
-        <v>0.10426142640428188</v>
+        <v>0.14808562629429997</v>
       </c>
       <c r="BL3">
-        <v>0.092643712857614316</v>
+        <v>0.17309761922025313</v>
       </c>
       <c r="BM3">
-        <v>0.13245123404529888</v>
+        <v>0.12252068259389105</v>
       </c>
       <c r="BN3">
-        <v>0.08246398247152327</v>
+        <v>0.10822839479570158</v>
       </c>
       <c r="BO3">
-        <v>0.14819638958778114</v>
+        <v>0.13268086720332314</v>
       </c>
       <c r="BP3">
-        <v>0.060091292461333511</v>
+        <v>0.064835106022628652</v>
       </c>
       <c r="BQ3">
-        <v>0.1073833535193414</v>
+        <v>0.10678774994843668</v>
       </c>
       <c r="BR3">
-        <v>0.10513449436815982</v>
+        <v>0.13348116345970074</v>
       </c>
       <c r="BS3">
-        <v>0.06856273287825787</v>
+        <v>0.097946626790939975</v>
       </c>
       <c r="BT3">
-        <v>0.094819505941493423</v>
+        <v>0.13160179013143156</v>
       </c>
       <c r="BU3">
-        <v>0.010518187942454448</v>
+        <v>0.11119766034052955</v>
       </c>
       <c r="BV3">
-        <v>-0.11395371689608277</v>
+        <v>-0.029786040016593539</v>
       </c>
       <c r="BW3">
-        <v>0.17709028185296757</v>
+        <v>0.25279865357052872</v>
       </c>
       <c r="BX3">
-        <v>0.12701496814257582</v>
+        <v>0.19152362714837753</v>
       </c>
       <c r="BY3">
-        <v>0.15665067389487522</v>
+        <v>0.2233100123185989</v>
       </c>
       <c r="BZ3">
-        <v>0.12038409533978787</v>
+        <v>0.19371743040825906</v>
       </c>
       <c r="CA3">
-        <v>0.05849411533358144</v>
+        <v>0.091702347448833044</v>
       </c>
       <c r="CB3">
-        <v>0.14560390740850859</v>
+        <v>0.19934941855160279</v>
       </c>
       <c r="CC3">
-        <v>0.075898187436640813</v>
+        <v>0.14297459930409262</v>
       </c>
       <c r="CD3">
-        <v>0.043491577130625812</v>
+        <v>0.11525018491235493</v>
       </c>
       <c r="CE3">
-        <v>0.024810172939228749</v>
+        <v>0.073231085091768428</v>
       </c>
       <c r="CF3">
-        <v>-0.016691027866340424</v>
+        <v>0.048218343170083028</v>
       </c>
       <c r="CG3">
-        <v>0.087510872123839636</v>
+        <v>0.1266063494976738</v>
       </c>
       <c r="CH3">
-        <v>0.040834118728776812</v>
+        <v>0.092547089596052165</v>
       </c>
       <c r="CI3">
-        <v>-0.010655233413259156</v>
+        <v>0.049570208165943624</v>
       </c>
       <c r="CJ3">
-        <v>0.0068770982080609668</v>
+        <v>0.035544096723809628</v>
       </c>
       <c r="CK3">
-        <v>-0.022514662283872687</v>
+        <v>0.01319332010910842</v>
       </c>
       <c r="CL3">
-        <v>0.060765807249401768</v>
+        <v>0.065626554203951248</v>
       </c>
       <c r="CM3">
-        <v>-0.022208008164437375</v>
+        <v>0.08892194045692689</v>
       </c>
       <c r="CN3">
-        <v>-0.0067469922646344197</v>
+        <v>0.04645975736925928</v>
       </c>
       <c r="CO3">
-        <v>-0.0072554880269833982</v>
+        <v>0.030107154805184892</v>
       </c>
       <c r="CP3">
-        <v>-0.06128605735613734</v>
+        <v>0.019663927713825215</v>
       </c>
       <c r="CQ3">
-        <v>0.27243736978636174</v>
+        <v>0.35064321883526339</v>
       </c>
       <c r="CR3">
-        <v>0.23819031632207899</v>
+        <v>0.28205449390245108</v>
       </c>
       <c r="CS3">
-        <v>0.27799026735979898</v>
+        <v>0.33805170478052515</v>
       </c>
       <c r="CT3">
-        <v>0.21853420157987088</v>
+        <v>0.27442390542370093</v>
       </c>
       <c r="CU3">
-        <v>0.17647112052488806</v>
+        <v>0.22866823756523225</v>
       </c>
       <c r="CV3">
-        <v>0.23569173796614626</v>
+        <v>0.30757693507090256</v>
       </c>
       <c r="CW3">
-        <v>0.18344924056364076</v>
+        <v>0.25765575596493956</v>
       </c>
       <c r="CX3">
-        <v>0.16451183888464702</v>
+        <v>0.22156805356002462</v>
       </c>
       <c r="CY3">
-        <v>0.13242323113657353</v>
+        <v>0.22700012610725309</v>
       </c>
       <c r="CZ3">
-        <v>0.13053147060511988</v>
+        <v>0.16620723446930691</v>
       </c>
       <c r="DA3">
-        <v>0.18412961977260706</v>
+        <v>0.22585099255067051</v>
       </c>
       <c r="DB3">
-        <v>0.15775827569993456</v>
+        <v>0.21967489774627302</v>
       </c>
       <c r="DC3">
-        <v>0.11548866848830022</v>
+        <v>0.20028780228126178</v>
       </c>
       <c r="DD3">
-        <v>0.12335501875091753</v>
+        <v>0.18419396977041858</v>
       </c>
       <c r="DE3">
-        <v>0.11023892651758402</v>
+        <v>0.13724047212825216</v>
       </c>
       <c r="DF3">
-        <v>0.1573780559545975</v>
+        <v>0.18064273272023351</v>
       </c>
       <c r="DG3">
-        <v>0.12041361161933745</v>
+        <v>0.15827649476380123</v>
       </c>
       <c r="DH3">
-        <v>0.092564911251141191</v>
+        <v>0.17929358389302566</v>
       </c>
       <c r="DI3">
-        <v>0.11694100008181585</v>
+        <v>0.14154849358619723</v>
       </c>
       <c r="DJ3">
-        <v>0.055329705570048196</v>
+        <v>0.099960240127065947</v>
       </c>
       <c r="DK3">
-        <v>0.26900492689667449</v>
+        <v>0.31504468554883858</v>
       </c>
       <c r="DL3">
-        <v>0.24282731258048584</v>
+        <v>0.28912586296766696</v>
       </c>
       <c r="DM3">
-        <v>0.19717543308983004</v>
+        <v>0.25891262867867421</v>
       </c>
       <c r="DN3">
-        <v>0.20718895943760396</v>
+        <v>0.24468221345729166</v>
       </c>
       <c r="DO3">
-        <v>0.20898858793379133</v>
+        <v>0.24471363513876632</v>
       </c>
       <c r="DP3">
-        <v>0.15349008437691466</v>
+        <v>0.23735975181034957</v>
       </c>
       <c r="DQ3">
-        <v>0.18750873348720562</v>
+        <v>0.22532047120945309</v>
       </c>
       <c r="DR3">
-        <v>0.14793378384235448</v>
+        <v>0.24057776369492559</v>
       </c>
       <c r="DS3">
-        <v>0.17047285542780491</v>
+        <v>0.2179694250186906</v>
       </c>
       <c r="DT3">
-        <v>0.16493769199816771</v>
+        <v>0.21949409771993503</v>
       </c>
       <c r="DU3">
-        <v>0.15063043378065055</v>
+        <v>0.22579049489883282</v>
       </c>
       <c r="DV3">
-        <v>0.13216401679738737</v>
+        <v>0.2012381938292232</v>
       </c>
       <c r="DW3">
-        <v>0.12714541925996065</v>
+        <v>0.15286294523996483</v>
       </c>
       <c r="DX3">
-        <v>0.12309577887044912</v>
+        <v>0.18751697600669745</v>
       </c>
       <c r="DY3">
-        <v>0.13055860832981958</v>
+        <v>0.18204460894217495</v>
       </c>
       <c r="DZ3">
-        <v>0.11071069836484281</v>
+        <v>0.16189343679950702</v>
       </c>
       <c r="EA3">
-        <v>0.083509867171313715</v>
+        <v>0.15931508549077039</v>
       </c>
       <c r="EB3">
-        <v>0.08427635012113617</v>
+        <v>0.15874269559802123</v>
       </c>
       <c r="EC3">
-        <v>0.1004710974782388</v>
+        <v>0.16528893067569619</v>
       </c>
       <c r="ED3">
-        <v>0.07069862074570421</v>
+        <v>0.13548796645465541</v>
       </c>
       <c r="EE3">
-        <v>0.1060620175470255</v>
+        <v>0.12875241120536429</v>
       </c>
       <c r="EF3">
-        <v>0.067129072345947824</v>
+        <v>0.12877919087855652</v>
       </c>
       <c r="EG3">
-        <v>0.067880630253264254</v>
+        <v>0.12977579284229157</v>
       </c>
       <c r="EH3">
-        <v>0.076771256100572588</v>
+        <v>0.13056720139286779</v>
       </c>
       <c r="EI3">
-        <v>0.073188453123996508</v>
+        <v>0.12736137989611365</v>
       </c>
       <c r="EJ3">
-        <v>0.069124193531442391</v>
+        <v>0.10620997458789694</v>
       </c>
       <c r="EK3">
-        <v>0.052311400377863131</v>
+        <v>0.12126597475336427</v>
       </c>
       <c r="EL3">
-        <v>0.024206226378201939</v>
+        <v>0.10820051105078358</v>
       </c>
       <c r="EM3">
-        <v>0.053289759711245416</v>
+        <v>0.11904130083071593</v>
       </c>
       <c r="EN3">
-        <v>0.051324935469861291</v>
+        <v>0.10556766513843449</v>
       </c>
       <c r="EO3">
-        <v>0.043848205287988905</v>
+        <v>0.08254066583895768</v>
       </c>
       <c r="EP3">
-        <v>0.050178128297749723</v>
+        <v>0.0696157081822983</v>
       </c>
       <c r="EQ3">
-        <v>0.051270001187780835</v>
+        <v>0.083694856080705163</v>
       </c>
       <c r="ER3">
-        <v>0.055948026431473862</v>
+        <v>0.086772768583544449</v>
       </c>
       <c r="ES3">
-        <v>0.077577214169936917</v>
+        <v>0.089862353048094923</v>
       </c>
       <c r="ET3">
-        <v>0.026773745801485935</v>
+        <v>0.12262535945473825</v>
       </c>
       <c r="EU3">
-        <v>0.045060904598400814</v>
+        <v>0.1074146201758832</v>
       </c>
       <c r="EV3">
-        <v>0.0013058426000235066</v>
+        <v>0.073209669912566042</v>
       </c>
       <c r="EW3">
-        <v>0.031069409787556332</v>
+        <v>0.066348085306557378</v>
       </c>
       <c r="EX3">
-        <v>0.047310018404721647</v>
+        <v>0.062974048372930511</v>
       </c>
       <c r="EY3">
-        <v>0.026144780526386819</v>
+        <v>0.086818766390900401</v>
       </c>
       <c r="EZ3">
-        <v>-0.0040693460702977803</v>
+        <v>0.073710151763647147</v>
       </c>
       <c r="FA3">
-        <v>0.023072644748142346</v>
+        <v>0.08391963146399381</v>
       </c>
       <c r="FB3">
-        <v>0.011016358669217409</v>
+        <v>0.099932435077955462</v>
       </c>
       <c r="FC3">
-        <v>0.026535619302018976</v>
+        <v>0.13438306562141542</v>
       </c>
       <c r="FD3">
-        <v>0.022011561629128394</v>
+        <v>0.038794286759235748</v>
       </c>
       <c r="FE3">
-        <v>0.041392002885561469</v>
+        <v>0.088202513878057234</v>
       </c>
       <c r="FF3">
-        <v>-0.020194180464926357</v>
+        <v>0.10460570918648103</v>
       </c>
       <c r="FG3">
-        <v>-0.046340883167681084</v>
+        <v>0.044494929575902314</v>
       </c>
       <c r="FH3">
-        <v>0.052073073896907358</v>
+        <v>0.065149767755896246</v>
       </c>
       <c r="FI3">
-        <v>0.04014518056470523</v>
+        <v>0.040504260855184382</v>
       </c>
       <c r="FJ3">
-        <v>-0.0092243089989662089</v>
+        <v>0.080033840959120375</v>
       </c>
       <c r="FK3">
-        <v>0.022518042380602159</v>
+        <v>0.038376418944100391</v>
       </c>
       <c r="FL3">
-        <v>0.015984142583415174</v>
+        <v>0.055027308468634295</v>
       </c>
       <c r="FM3">
-        <v>0.02033076776564836</v>
+        <v>0.067511259311222274</v>
       </c>
       <c r="FN3">
-        <v>-0.033419301655799621</v>
+        <v>0.049498632085086904</v>
       </c>
       <c r="FO3">
-        <v>0.021192562895610202</v>
+        <v>0.040663730330415031</v>
       </c>
       <c r="FP3">
-        <v>-0.035784184132231403</v>
+        <v>0.052081266278123255</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5127862986376419</v>
+        <v>-5.5685287908786156</v>
       </c>
     </row>
     <row r="4">
@@ -8530,517 +8530,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019697769793076143</v>
+        <v>0.019552643791440966</v>
       </c>
       <c r="C4">
-        <v>0.011560894381979088</v>
+        <v>0.011483151949403249</v>
       </c>
       <c r="D4">
-        <v>0.021211207287035343</v>
+        <v>0.021288161006366439</v>
       </c>
       <c r="E4">
-        <v>0.025888574032476873</v>
+        <v>0.02600707351432632</v>
       </c>
       <c r="F4">
-        <v>0.012609379707453166</v>
+        <v>0.012560480114708953</v>
       </c>
       <c r="G4">
-        <v>0.010754820837244614</v>
+        <v>0.010733462421229759</v>
       </c>
       <c r="H4">
-        <v>0.0089236709740734797</v>
+        <v>0.008877951762065267</v>
       </c>
       <c r="I4">
-        <v>0.0093669164844804448</v>
+        <v>0.0093674262343257843</v>
       </c>
       <c r="J4">
-        <v>0.010063732022734371</v>
+        <v>0.010118599766597158</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.024289821265289488</v>
+        <v>0.024688954944190246</v>
       </c>
       <c r="M4">
-        <v>0.024011940095769194</v>
+        <v>0.024097740610942827</v>
       </c>
       <c r="N4">
-        <v>0.035736882300211659</v>
+        <v>0.035862772515096189</v>
       </c>
       <c r="O4">
-        <v>0.035625168900798129</v>
+        <v>0.035829443207993458</v>
       </c>
       <c r="P4">
-        <v>0.035547939415866078</v>
+        <v>0.035963652540377422</v>
       </c>
       <c r="Q4">
-        <v>0.035449794924312245</v>
+        <v>0.035377816975490091</v>
       </c>
       <c r="R4">
-        <v>0.035385072454391472</v>
+        <v>0.035873915123482557</v>
       </c>
       <c r="S4">
-        <v>0.035636266439797344</v>
+        <v>0.035325846035373504</v>
       </c>
       <c r="T4">
-        <v>0.035725636704578775</v>
+        <v>0.03539870905491873</v>
       </c>
       <c r="U4">
-        <v>0.034553341715488121</v>
+        <v>0.036251101897882977</v>
       </c>
       <c r="V4">
-        <v>0.035049111156912477</v>
+        <v>0.034729714323255535</v>
       </c>
       <c r="W4">
-        <v>0.034727908153465187</v>
+        <v>0.03419772193568537</v>
       </c>
       <c r="X4">
-        <v>0.034027470550641196</v>
+        <v>0.035101481000175794</v>
       </c>
       <c r="Y4">
-        <v>0.034591766423462025</v>
+        <v>0.034758367223971277</v>
       </c>
       <c r="Z4">
-        <v>0.034411078088161698</v>
+        <v>0.034845029683529427</v>
       </c>
       <c r="AA4">
-        <v>0.034364287958558497</v>
+        <v>0.03473925236156112</v>
       </c>
       <c r="AB4">
-        <v>0.035896085909943094</v>
+        <v>0.034458612386921786</v>
       </c>
       <c r="AC4">
-        <v>0.034036361326925141</v>
+        <v>0.034250890990529019</v>
       </c>
       <c r="AD4">
-        <v>0.034098920642038517</v>
+        <v>0.033997679160157016</v>
       </c>
       <c r="AE4">
-        <v>0.034806881053819697</v>
+        <v>0.034981975386047005</v>
       </c>
       <c r="AF4">
-        <v>0.034225765377887726</v>
+        <v>0.034806381974378936</v>
       </c>
       <c r="AG4">
-        <v>0.033939191423291347</v>
+        <v>0.034467787230233624</v>
       </c>
       <c r="AH4">
-        <v>0.034152998368489375</v>
+        <v>0.034110019534236806</v>
       </c>
       <c r="AI4">
-        <v>0.033983188706498593</v>
+        <v>0.034136211513787533</v>
       </c>
       <c r="AJ4">
-        <v>0.0336557457955311</v>
+        <v>0.0336797145732547</v>
       </c>
       <c r="AK4">
-        <v>0.034553341727919913</v>
+        <v>0.033895620107319842</v>
       </c>
       <c r="AL4">
-        <v>0.034143955984086975</v>
+        <v>0.034422034158919208</v>
       </c>
       <c r="AM4">
-        <v>0.03369793445366219</v>
+        <v>0.034682217048432766</v>
       </c>
       <c r="AN4">
-        <v>0.034317807931529887</v>
+        <v>0.034180090691554026</v>
       </c>
       <c r="AO4">
-        <v>0.033748912852841748</v>
+        <v>0.033647115507381795</v>
       </c>
       <c r="AP4">
-        <v>0.034317807933206657</v>
+        <v>0.034101311333392198</v>
       </c>
       <c r="AQ4">
-        <v>0.033689475489909144</v>
+        <v>0.034075253751432645</v>
       </c>
       <c r="AR4">
-        <v>0.034846694690995918</v>
+        <v>0.033534278489826312</v>
       </c>
       <c r="AS4">
-        <v>0.034125906607180768</v>
+        <v>0.033904065860681752</v>
       </c>
       <c r="AT4">
-        <v>0.033580469527406308</v>
+        <v>0.034606883529600979</v>
       </c>
       <c r="AU4">
-        <v>0.033939191435510961</v>
+        <v>0.035011665779978947</v>
       </c>
       <c r="AV4">
-        <v>0.034116899566683359</v>
+        <v>0.033929467316699234</v>
       </c>
       <c r="AW4">
-        <v>0.033424294379150996</v>
+        <v>0.034440299112077147</v>
       </c>
       <c r="AX4">
-        <v>0.03327172922583721</v>
+        <v>0.033502394242286217</v>
       </c>
       <c r="AY4">
-        <v>0.033731877142813872</v>
+        <v>0.034431160610816178</v>
       </c>
       <c r="AZ4">
-        <v>0.033383801011019482</v>
+        <v>0.033146615263993852</v>
       </c>
       <c r="BA4">
-        <v>0.033022583992410155</v>
+        <v>0.033663394852590803</v>
       </c>
       <c r="BB4">
-        <v>0.033497813983370664</v>
+        <v>0.033392016500427564</v>
       </c>
       <c r="BC4">
-        <v>0.033481405584621801</v>
+        <v>0.033937955949969616</v>
       </c>
       <c r="BD4">
-        <v>0.03449609216887841</v>
+        <v>0.034597523588767949</v>
       </c>
       <c r="BE4">
-        <v>0.033697934470494753</v>
+        <v>0.034486173441249039</v>
       </c>
       <c r="BF4">
-        <v>0.033774547399555141</v>
+        <v>0.034504608483220532</v>
       </c>
       <c r="BG4">
-        <v>0.034262436724925217</v>
+        <v>0.034188900629797299</v>
       </c>
       <c r="BH4">
-        <v>0.034354967274476469</v>
+        <v>0.033679714595951031</v>
       </c>
       <c r="BI4">
-        <v>0.033539013364693303</v>
+        <v>0.034625641110273955</v>
       </c>
       <c r="BJ4">
-        <v>0.034125906622581074</v>
+        <v>0.033853550992082621</v>
       </c>
       <c r="BK4">
-        <v>0.033921671579508261</v>
+        <v>0.034032046597680617</v>
       </c>
       <c r="BL4">
-        <v>0.034063102896090526</v>
+        <v>0.033761924827589336</v>
       </c>
       <c r="BM4">
-        <v>0.033622185030015669</v>
+        <v>0.03434043494143945</v>
       </c>
       <c r="BN4">
-        <v>0.034198388265530032</v>
+        <v>0.034513844393197025</v>
       </c>
       <c r="BO4">
-        <v>0.033465037732567919</v>
+        <v>0.034242000705416373</v>
       </c>
       <c r="BP4">
-        <v>0.034477111448955849</v>
+        <v>0.035041479656691167</v>
       </c>
       <c r="BQ4">
-        <v>0.034510099373036403</v>
+        <v>0.035181623083714128</v>
       </c>
       <c r="BR4">
-        <v>0.034543781660083886</v>
+        <v>0.034891196684217488</v>
       </c>
       <c r="BS4">
-        <v>0.034962189436402696</v>
+        <v>0.035299599760545038</v>
       </c>
       <c r="BT4">
-        <v>0.035391621950910536</v>
+        <v>0.035740279218615431</v>
       </c>
       <c r="BU4">
-        <v>0.036335210947367469</v>
+        <v>0.035972142027064578</v>
       </c>
       <c r="BV4">
-        <v>0.026390163872065619</v>
+        <v>0.026523972962781951</v>
       </c>
       <c r="BW4">
-        <v>0.022128337557201054</v>
+        <v>0.022378856014398183</v>
       </c>
       <c r="BX4">
-        <v>0.022266976930995958</v>
+        <v>0.02254062372431789</v>
       </c>
       <c r="BY4">
-        <v>0.021587343594055872</v>
+        <v>0.021858634571466393</v>
       </c>
       <c r="BZ4">
-        <v>0.021709939164437343</v>
+        <v>0.021960141291310398</v>
       </c>
       <c r="CA4">
-        <v>0.02191194790322195</v>
+        <v>0.022273704614940222</v>
       </c>
       <c r="CB4">
-        <v>0.021299087835585363</v>
+        <v>0.021626517249832795</v>
       </c>
       <c r="CC4">
-        <v>0.021552603240560159</v>
+        <v>0.021833119692420109</v>
       </c>
       <c r="CD4">
-        <v>0.021688769642432625</v>
+        <v>0.021950661231015384</v>
       </c>
       <c r="CE4">
-        <v>0.0217792617074761</v>
+        <v>0.022121614490263168</v>
       </c>
       <c r="CF4">
-        <v>0.021955401079007324</v>
+        <v>0.022236001354801183</v>
       </c>
       <c r="CG4">
-        <v>0.022222053954825724</v>
+        <v>0.022593585449809873</v>
       </c>
       <c r="CH4">
-        <v>0.0224286386945306</v>
+        <v>0.022749430668240603</v>
       </c>
       <c r="CI4">
-        <v>0.022663344443557151</v>
+        <v>0.022946376986668821</v>
       </c>
       <c r="CJ4">
-        <v>0.022613141147757056</v>
+        <v>0.023027586720832958</v>
       </c>
       <c r="CK4">
-        <v>0.022844573312115521</v>
+        <v>0.023237158437241119</v>
       </c>
       <c r="CL4">
-        <v>0.023250538513255502</v>
+        <v>0.023801821726608188</v>
       </c>
       <c r="CM4">
-        <v>0.023641407898517406</v>
+        <v>0.023723028962628102</v>
       </c>
       <c r="CN4">
-        <v>0.023745723545578783</v>
+        <v>0.024089180742831676</v>
       </c>
       <c r="CO4">
-        <v>0.02377202123016384</v>
+        <v>0.024186655388757788</v>
       </c>
       <c r="CP4">
-        <v>0.023776604717073963</v>
+        <v>0.023966759136472431</v>
       </c>
       <c r="CQ4">
-        <v>0.020106023617786389</v>
+        <v>0.020396146942538506</v>
       </c>
       <c r="CR4">
-        <v>0.020182932786239862</v>
+        <v>0.02053643359875211</v>
       </c>
       <c r="CS4">
-        <v>0.01961548278116531</v>
+        <v>0.019953382602704156</v>
       </c>
       <c r="CT4">
-        <v>0.019758718052517037</v>
+        <v>0.020102511066659289</v>
       </c>
       <c r="CU4">
-        <v>0.01986973191819728</v>
+        <v>0.020219902016032069</v>
       </c>
       <c r="CV4">
-        <v>0.019432616238889543</v>
+        <v>0.019748394465179273</v>
       </c>
       <c r="CW4">
-        <v>0.019581936029980256</v>
+        <v>0.019887977958767174</v>
       </c>
       <c r="CX4">
-        <v>0.019648992674103898</v>
+        <v>0.019997769045843793</v>
       </c>
       <c r="CY4">
-        <v>0.019753229474787019</v>
+        <v>0.020000719503770786</v>
       </c>
       <c r="CZ4">
-        <v>0.019776075191013012</v>
+        <v>0.020182452297068346</v>
       </c>
       <c r="DA4">
-        <v>0.019909172089806408</v>
+        <v>0.020300898410639701</v>
       </c>
       <c r="DB4">
-        <v>0.020004107912478978</v>
+        <v>0.020335929303681641</v>
       </c>
       <c r="DC4">
-        <v>0.020150284752571086</v>
+        <v>0.02041037872630427</v>
       </c>
       <c r="DD4">
-        <v>0.020143490934967416</v>
+        <v>0.020476253282397765</v>
       </c>
       <c r="DE4">
-        <v>0.020202320188063276</v>
+        <v>0.020639814996689175</v>
       </c>
       <c r="DF4">
-        <v>0.020335408137774545</v>
+        <v>0.02079529143814985</v>
       </c>
       <c r="DG4">
-        <v>0.020474132473256617</v>
+        <v>0.020886271749834956</v>
       </c>
       <c r="DH4">
-        <v>0.020586034025067663</v>
+        <v>0.020833930174980086</v>
       </c>
       <c r="DI4">
-        <v>0.020520810817741458</v>
+        <v>0.020978074020481654</v>
       </c>
       <c r="DJ4">
-        <v>0.02075287970233956</v>
+        <v>0.021140563499868557</v>
       </c>
       <c r="DK4">
-        <v>0.019825881304041133</v>
+        <v>0.020210453806740209</v>
       </c>
       <c r="DL4">
-        <v>0.019943311661295766</v>
+        <v>0.020325592033842679</v>
       </c>
       <c r="DM4">
-        <v>0.020139322004890315</v>
+        <v>0.020459687125225629</v>
       </c>
       <c r="DN4">
-        <v>0.020119333379261053</v>
+        <v>0.020534154646456356</v>
       </c>
       <c r="DO4">
-        <v>0.020131804941584976</v>
+        <v>0.020553180058391504</v>
       </c>
       <c r="DP4">
-        <v>0.020375440234861136</v>
+        <v>0.020601482370102162</v>
       </c>
       <c r="DQ4">
-        <v>0.020255929855551233</v>
+        <v>0.02066892074425104</v>
       </c>
       <c r="DR4">
-        <v>0.020438332744138813</v>
+        <v>0.020627025883218044</v>
       </c>
       <c r="DS4">
-        <v>0.020364313345416579</v>
+        <v>0.020737767493942516</v>
       </c>
       <c r="DT4">
-        <v>0.020407026634852856</v>
+        <v>0.020750956955110245</v>
       </c>
       <c r="DU4">
-        <v>0.020486825072030975</v>
+        <v>0.020744699866253557</v>
       </c>
       <c r="DV4">
-        <v>0.020585375650193607</v>
+        <v>0.020865880719861396</v>
       </c>
       <c r="DW4">
-        <v>0.020626891485583602</v>
+        <v>0.021092291529508297</v>
       </c>
       <c r="DX4">
-        <v>0.020664401603467206</v>
+        <v>0.020962247743595099</v>
       </c>
       <c r="DY4">
-        <v>0.020651833940875011</v>
+        <v>0.021005335576930434</v>
       </c>
       <c r="DZ4">
-        <v>0.020759132168692854</v>
+        <v>0.021112496928288746</v>
       </c>
       <c r="EA4">
-        <v>0.020901399858497517</v>
+        <v>0.021143531929239876</v>
       </c>
       <c r="EB4">
-        <v>0.020917905782634885</v>
+        <v>0.021165823565221096</v>
       </c>
       <c r="EC4">
-        <v>0.02086443442716936</v>
+        <v>0.02115671754851008</v>
       </c>
       <c r="ED4">
-        <v>0.021021040048967567</v>
+        <v>0.021310076312625929</v>
       </c>
       <c r="EE4">
-        <v>0.020878984723270412</v>
+        <v>0.021360649030849544</v>
       </c>
       <c r="EF4">
-        <v>0.021078813279392775</v>
+        <v>0.021380438742596646</v>
       </c>
       <c r="EG4">
-        <v>0.021095555594445221</v>
+        <v>0.021395835715914326</v>
       </c>
       <c r="EH4">
-        <v>0.021074181560247367</v>
+        <v>0.021412239094707072</v>
       </c>
       <c r="EI4">
-        <v>0.021111465709245873</v>
+        <v>0.021447213015236482</v>
       </c>
       <c r="EJ4">
-        <v>0.021151186039341876</v>
+        <v>0.021566638053710837</v>
       </c>
       <c r="EK4">
-        <v>0.021252149360474551</v>
+        <v>0.021515743007181017</v>
       </c>
       <c r="EL4">
-        <v>0.021409914348568818</v>
+        <v>0.021597845491164839</v>
       </c>
       <c r="EM4">
-        <v>0.021287993366991279</v>
+        <v>0.021566638238669472</v>
       </c>
       <c r="EN4">
-        <v>0.021318226145005462</v>
+        <v>0.021651345715806829</v>
       </c>
       <c r="EO4">
-        <v>0.021375563448374074</v>
+        <v>0.021783586527979938</v>
       </c>
       <c r="EP4">
-        <v>0.021365237245181169</v>
+        <v>0.021867816553295307</v>
       </c>
       <c r="EQ4">
-        <v>0.021380741131899608</v>
+        <v>0.021818462082286865</v>
       </c>
       <c r="ER4">
-        <v>0.021378669014645652</v>
+        <v>0.02182378469499489</v>
       </c>
       <c r="ES4">
-        <v>0.021294013700340106</v>
+        <v>0.021829117497078089</v>
       </c>
       <c r="ET4">
-        <v>0.021567133337992223</v>
+        <v>0.021689639764450971</v>
       </c>
       <c r="EU4">
-        <v>0.02149605970174694</v>
+        <v>0.02178463730035983</v>
       </c>
       <c r="EV4">
-        <v>0.021740504814035368</v>
+        <v>0.021975939944418276</v>
       </c>
       <c r="EW4">
-        <v>0.02160839238343654</v>
+        <v>0.022031579951419401</v>
       </c>
       <c r="EX4">
-        <v>0.02154727389447712</v>
+        <v>0.022069666503748857</v>
       </c>
       <c r="EY4">
-        <v>0.021676574907375054</v>
+        <v>0.021969200710236728</v>
       </c>
       <c r="EZ4">
-        <v>0.021855511306369202</v>
+        <v>0.022056915358284069</v>
       </c>
       <c r="FA4">
-        <v>0.021734635524331185</v>
+        <v>0.022025853050836087</v>
       </c>
       <c r="FB4">
-        <v>0.021819093331128993</v>
+        <v>0.021965837144484975</v>
       </c>
       <c r="FC4">
-        <v>0.021759366666727505</v>
+        <v>0.02181527417453023</v>
       </c>
       <c r="FD4">
-        <v>0.021804649400348566</v>
+        <v>0.022326880681486194</v>
       </c>
       <c r="FE4">
-        <v>0.021725268665338134</v>
+        <v>0.022089484229584611</v>
       </c>
       <c r="FF4">
-        <v>0.022074502476332213</v>
+        <v>0.022026997880713762</v>
       </c>
       <c r="FG4">
-        <v>0.022240180727949428</v>
+        <v>0.02236256943445895</v>
       </c>
       <c r="FH4">
-        <v>0.021732291389204912</v>
+        <v>0.022274126193292599</v>
       </c>
       <c r="FI4">
-        <v>0.021816681563556636</v>
+        <v>0.022427358262323952</v>
       </c>
       <c r="FJ4">
-        <v>0.02210350148115417</v>
+        <v>0.022238234065115284</v>
       </c>
       <c r="FK4">
-        <v>0.021953571169685913</v>
+        <v>0.022482857819989474</v>
       </c>
       <c r="FL4">
-        <v>0.022010872058505982</v>
+        <v>0.022414290467837761</v>
       </c>
       <c r="FM4">
-        <v>0.022009587082545325</v>
+        <v>0.022368987121801895</v>
       </c>
       <c r="FN4">
-        <v>0.022328511184710721</v>
+        <v>0.022488196017868809</v>
       </c>
       <c r="FO4">
-        <v>0.022048373096620541</v>
+        <v>0.022558437095286522</v>
       </c>
       <c r="FP4">
-        <v>0.022387323764992327</v>
+        <v>0.022517720480759829</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.015703803969240957</v>
+        <v>0.016143747784583464</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20916" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25128" uniqueCount="181">
   <si>
     <t>y1</t>
   </si>
@@ -1661,517 +1661,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.0070868906147920864</v>
+        <v>0.0064612344623343936</v>
       </c>
       <c r="C3">
-        <v>-1.5677086271263929</v>
+        <v>-1.5693160011495952</v>
       </c>
       <c r="D3">
-        <v>-1.6106247728642027</v>
+        <v>-1.5892055209667737</v>
       </c>
       <c r="E3">
-        <v>-1.6173044184580083</v>
+        <v>-1.6231714092510301</v>
       </c>
       <c r="F3">
-        <v>-0.0041999432989995918</v>
+        <v>-0.012834186660308364</v>
       </c>
       <c r="G3">
-        <v>0.0045341537784226319</v>
+        <v>0.0050341079863161688</v>
       </c>
       <c r="H3">
-        <v>-0.0021406570362599814</v>
+        <v>-0.0015428973946674622</v>
       </c>
       <c r="I3">
-        <v>0.0056618924726362678</v>
+        <v>0.0015946673771893647</v>
       </c>
       <c r="J3">
-        <v>-0.0046807873547302804</v>
+        <v>0.0023857300201923118</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.3574105264385563</v>
+        <v>1.2774255484694981</v>
       </c>
       <c r="M3">
-        <v>1.4441667257264645</v>
+        <v>1.3596714440002526</v>
       </c>
       <c r="N3">
-        <v>-0.054099226132392438</v>
+        <v>-0.19426934105298518</v>
       </c>
       <c r="O3">
-        <v>-0.010953688755434175</v>
+        <v>-0.14081636346712575</v>
       </c>
       <c r="P3">
-        <v>-0.073571968630257598</v>
+        <v>-0.13126189764824472</v>
       </c>
       <c r="Q3">
-        <v>-0.078157483640346623</v>
+        <v>-0.12352028713952466</v>
       </c>
       <c r="R3">
-        <v>-0.066811164650493277</v>
+        <v>-0.12190289315445187</v>
       </c>
       <c r="S3">
-        <v>-0.027241204928398939</v>
+        <v>-0.079342999808918888</v>
       </c>
       <c r="T3">
-        <v>-0.03839031043455398</v>
+        <v>-0.11342971152759082</v>
       </c>
       <c r="U3">
-        <v>-0.024017487103005712</v>
+        <v>-0.1066371528685144</v>
       </c>
       <c r="V3">
-        <v>-0.0064871600426464242</v>
+        <v>-0.028919310203725287</v>
       </c>
       <c r="W3">
-        <v>-0.0057005007202340962</v>
+        <v>-0.062124779857335041</v>
       </c>
       <c r="X3">
-        <v>0.046109943655023106</v>
+        <v>-0.014643216202327548</v>
       </c>
       <c r="Y3">
-        <v>0.0066596449383637757</v>
+        <v>-0.11034019082454653</v>
       </c>
       <c r="Z3">
-        <v>0.020523372029528923</v>
+        <v>-0.012270091784720055</v>
       </c>
       <c r="AA3">
-        <v>0.054056357202880344</v>
+        <v>-0.053159864269365149</v>
       </c>
       <c r="AB3">
-        <v>-0.0033062185216488011</v>
+        <v>-0.057287967687031212</v>
       </c>
       <c r="AC3">
-        <v>0.093437745525182525</v>
+        <v>-0.043403263240088266</v>
       </c>
       <c r="AD3">
-        <v>0.098080919089954588</v>
+        <v>-0.036922809542328835</v>
       </c>
       <c r="AE3">
-        <v>0.0042068901872678701</v>
+        <v>0.015083756730089711</v>
       </c>
       <c r="AF3">
-        <v>0.077660618026799355</v>
+        <v>-0.028809362549031468</v>
       </c>
       <c r="AG3">
-        <v>0.078516367448522847</v>
+        <v>0.002064639537628372</v>
       </c>
       <c r="AH3">
-        <v>0.090858980778020862</v>
+        <v>-0.073147803531715266</v>
       </c>
       <c r="AI3">
-        <v>0.069399327212800205</v>
+        <v>0.0021347242172112305</v>
       </c>
       <c r="AJ3">
-        <v>0.17230224045152556</v>
+        <v>0.0037602628452040863</v>
       </c>
       <c r="AK3">
-        <v>0.080487881827507282</v>
+        <v>0.0038270630193457693</v>
       </c>
       <c r="AL3">
-        <v>0.10948634690009416</v>
+        <v>0.036168056234475152</v>
       </c>
       <c r="AM3">
-        <v>0.035653197867908312</v>
+        <v>0.010996410730620616</v>
       </c>
       <c r="AN3">
-        <v>0.11642631753865018</v>
+        <v>-0.0069531273705377584</v>
       </c>
       <c r="AO3">
-        <v>0.13212666523494959</v>
+        <v>-0.014055161349566955</v>
       </c>
       <c r="AP3">
-        <v>0.098631997447377009</v>
+        <v>0.052338969888727167</v>
       </c>
       <c r="AQ3">
-        <v>0.064671162135034585</v>
+        <v>0.06288705198303253</v>
       </c>
       <c r="AR3">
-        <v>0.14498763804723555</v>
+        <v>0.0082969877937435887</v>
       </c>
       <c r="AS3">
-        <v>0.049750542254388075</v>
+        <v>0.052734873197424856</v>
       </c>
       <c r="AT3">
-        <v>0.069623817474525784</v>
+        <v>0.030154671036106053</v>
       </c>
       <c r="AU3">
-        <v>0.072827580389145802</v>
+        <v>0.06046216296282516</v>
       </c>
       <c r="AV3">
-        <v>0.11062250430991269</v>
+        <v>0.055390066129652381</v>
       </c>
       <c r="AW3">
-        <v>0.094743676399457841</v>
+        <v>0.038921761241639492</v>
       </c>
       <c r="AX3">
-        <v>0.093306366935232449</v>
+        <v>0.048893918602282885</v>
       </c>
       <c r="AY3">
-        <v>0.088769940243655657</v>
+        <v>-0.00050367448690772341</v>
       </c>
       <c r="AZ3">
-        <v>0.15700573471329479</v>
+        <v>0.014519066640978535</v>
       </c>
       <c r="BA3">
-        <v>0.14774558053029632</v>
+        <v>-0.014798653328841926</v>
       </c>
       <c r="BB3">
-        <v>0.10302762044436337</v>
+        <v>0.050800395779153337</v>
       </c>
       <c r="BC3">
-        <v>0.10924920263867942</v>
+        <v>0.0295315687127676</v>
       </c>
       <c r="BD3">
-        <v>0.071320986985253618</v>
+        <v>0.0077424359253429756</v>
       </c>
       <c r="BE3">
-        <v>0.092541000620608799</v>
+        <v>0.042772273209043692</v>
       </c>
       <c r="BF3">
-        <v>0.10880124167366398</v>
+        <v>-0.0088690228743858526</v>
       </c>
       <c r="BG3">
-        <v>0.077083627215766337</v>
+        <v>0.013465378743040437</v>
       </c>
       <c r="BH3">
-        <v>0.10594663993100867</v>
+        <v>0.031502415466711724</v>
       </c>
       <c r="BI3">
-        <v>0.11218305732045084</v>
+        <v>0.029270979511849912</v>
       </c>
       <c r="BJ3">
-        <v>0.10771277056841849</v>
+        <v>0.050133795685075262</v>
       </c>
       <c r="BK3">
-        <v>0.070277167227515133</v>
+        <v>0.066883333248407395</v>
       </c>
       <c r="BL3">
-        <v>0.099420350261829285</v>
+        <v>0.033481107189070568</v>
       </c>
       <c r="BM3">
-        <v>0.058357030139550931</v>
+        <v>-0.0043877701191551858</v>
       </c>
       <c r="BN3">
-        <v>0.12260059096956857</v>
+        <v>0.0092680544631179619</v>
       </c>
       <c r="BO3">
-        <v>0.11051759008134381</v>
+        <v>-0.037974836923155106</v>
       </c>
       <c r="BP3">
-        <v>0.058548592537401738</v>
+        <v>0.071161657727627822</v>
       </c>
       <c r="BQ3">
-        <v>0.10295227325595503</v>
+        <v>0.0068229521252025907</v>
       </c>
       <c r="BR3">
-        <v>0.087023826522714454</v>
+        <v>0.045719694485956586</v>
       </c>
       <c r="BS3">
-        <v>0.11804323192389335</v>
+        <v>-0.026827402709491049</v>
       </c>
       <c r="BT3">
-        <v>0.11443467397162231</v>
+        <v>0.043408783479506816</v>
       </c>
       <c r="BU3">
-        <v>0.06601720557993182</v>
+        <v>0.10365536626995797</v>
       </c>
       <c r="BV3">
-        <v>0.052231355298072324</v>
+        <v>-0.00014151296337929035</v>
       </c>
       <c r="BW3">
-        <v>0.088652084356342323</v>
+        <v>0.044520986771579979</v>
       </c>
       <c r="BX3">
-        <v>0.08466995494159571</v>
+        <v>0.029659961846512119</v>
       </c>
       <c r="BY3">
-        <v>0.072797424533221439</v>
+        <v>0.0080124802081705682</v>
       </c>
       <c r="BZ3">
-        <v>0.1166227134661024</v>
+        <v>0.045437979919764733</v>
       </c>
       <c r="CA3">
-        <v>0.043294338191005095</v>
+        <v>-0.0017772100484301531</v>
       </c>
       <c r="CB3">
-        <v>0.12569522981857745</v>
+        <v>0.018030595385936463</v>
       </c>
       <c r="CC3">
-        <v>0.074628429342226299</v>
+        <v>0.026827518240879727</v>
       </c>
       <c r="CD3">
-        <v>0.12421551080720818</v>
+        <v>0.020828618900997013</v>
       </c>
       <c r="CE3">
-        <v>0.078255144138539817</v>
+        <v>0.002081866790201703</v>
       </c>
       <c r="CF3">
-        <v>0.10641722003554575</v>
+        <v>0.011221618203055625</v>
       </c>
       <c r="CG3">
-        <v>0.056639015642490624</v>
+        <v>0.0068125142238323133</v>
       </c>
       <c r="CH3">
-        <v>0.071809504667239552</v>
+        <v>0.042856879517035311</v>
       </c>
       <c r="CI3">
-        <v>0.039684650666776101</v>
+        <v>0.045435789275358511</v>
       </c>
       <c r="CJ3">
-        <v>0.060864962211726194</v>
+        <v>0.014054870156324936</v>
       </c>
       <c r="CK3">
-        <v>0.081576804953664636</v>
+        <v>0.090477872479589216</v>
       </c>
       <c r="CL3">
-        <v>0.068991322282804191</v>
+        <v>0.0090510550167949167</v>
       </c>
       <c r="CM3">
-        <v>0.12266195045738286</v>
+        <v>0.044044053502413742</v>
       </c>
       <c r="CN3">
-        <v>0.10697494238368042</v>
+        <v>0.018489413945898956</v>
       </c>
       <c r="CO3">
-        <v>0.089980813378963354</v>
+        <v>0.029560011633514047</v>
       </c>
       <c r="CP3">
-        <v>0.10368992596670604</v>
+        <v>0.034179326163344792</v>
       </c>
       <c r="CQ3">
-        <v>0.1248956701232572</v>
+        <v>0.043045202755349572</v>
       </c>
       <c r="CR3">
-        <v>0.087866280548407311</v>
+        <v>0.043808820732803178</v>
       </c>
       <c r="CS3">
-        <v>0.12491612577640199</v>
+        <v>0.021338664908431559</v>
       </c>
       <c r="CT3">
-        <v>0.089145503678228419</v>
+        <v>0.023384757720403104</v>
       </c>
       <c r="CU3">
-        <v>0.090134680347668458</v>
+        <v>0.0076294162421153312</v>
       </c>
       <c r="CV3">
-        <v>0.093036882552612665</v>
+        <v>0.038458714672646943</v>
       </c>
       <c r="CW3">
-        <v>0.086130020367117352</v>
+        <v>0.05661685154022332</v>
       </c>
       <c r="CX3">
-        <v>0.074701337818952343</v>
+        <v>0.01631688365973287</v>
       </c>
       <c r="CY3">
-        <v>0.14070696440922983</v>
+        <v>0.032669047794389505</v>
       </c>
       <c r="CZ3">
-        <v>0.072529950372921495</v>
+        <v>0.027160413675598082</v>
       </c>
       <c r="DA3">
-        <v>0.068645241619364278</v>
+        <v>0.025780696636757847</v>
       </c>
       <c r="DB3">
-        <v>0.099044672928978589</v>
+        <v>0.0259547105326342</v>
       </c>
       <c r="DC3">
-        <v>0.091645935336284096</v>
+        <v>-0.0016665865902297581</v>
       </c>
       <c r="DD3">
-        <v>0.11319198506450819</v>
+        <v>0.044316801094845891</v>
       </c>
       <c r="DE3">
-        <v>0.06783595285888068</v>
+        <v>0.039517415955577777</v>
       </c>
       <c r="DF3">
-        <v>0.074826771995840508</v>
+        <v>-0.0027667824742540251</v>
       </c>
       <c r="DG3">
-        <v>0.073614240493165256</v>
+        <v>0.023119616190015634</v>
       </c>
       <c r="DH3">
-        <v>0.11350451302186024</v>
+        <v>0.0321081016482056</v>
       </c>
       <c r="DI3">
-        <v>0.095526585997883287</v>
+        <v>0.010021786535617061</v>
       </c>
       <c r="DJ3">
-        <v>0.067343543431912886</v>
+        <v>0.021329000594479171</v>
       </c>
       <c r="DK3">
-        <v>0.098045752370346378</v>
+        <v>0.0099156236487462183</v>
       </c>
       <c r="DL3">
-        <v>0.081735496938268551</v>
+        <v>0.019759857341698512</v>
       </c>
       <c r="DM3">
-        <v>0.076613013095097077</v>
+        <v>0.0057888960326166689</v>
       </c>
       <c r="DN3">
-        <v>0.072555067768606679</v>
+        <v>0.059189937782175017</v>
       </c>
       <c r="DO3">
-        <v>0.069593487119237851</v>
+        <v>0.031525504470550435</v>
       </c>
       <c r="DP3">
-        <v>0.084229303417383439</v>
+        <v>0.010559995642498404</v>
       </c>
       <c r="DQ3">
-        <v>0.080556618903087879</v>
+        <v>-0.0059256279805214142</v>
       </c>
       <c r="DR3">
-        <v>0.1155629447267203</v>
+        <v>0.028835169658136529</v>
       </c>
       <c r="DS3">
-        <v>0.092861392059273309</v>
+        <v>0.041896808098456924</v>
       </c>
       <c r="DT3">
-        <v>0.10326412770890012</v>
+        <v>0.054935675037962067</v>
       </c>
       <c r="DU3">
-        <v>0.11829039299600694</v>
+        <v>0.015198704297012455</v>
       </c>
       <c r="DV3">
-        <v>0.10514298621772766</v>
+        <v>0.028044119357763065</v>
       </c>
       <c r="DW3">
-        <v>0.05022910397203291</v>
+        <v>0.023892831769875594</v>
       </c>
       <c r="DX3">
-        <v>0.092045709447576382</v>
+        <v>0.0067246066786081915</v>
       </c>
       <c r="DY3">
-        <v>0.095816790767828161</v>
+        <v>-0.0051759083238522218</v>
       </c>
       <c r="DZ3">
-        <v>0.083498971427752103</v>
+        <v>0.028180744881231099</v>
       </c>
       <c r="EA3">
-        <v>0.091279784195176558</v>
+        <v>0.023082979824316379</v>
       </c>
       <c r="EB3">
-        <v>0.084468367230960753</v>
+        <v>0.013780691028989754</v>
       </c>
       <c r="EC3">
-        <v>0.099989934372200495</v>
+        <v>-0.0070418318046894992</v>
       </c>
       <c r="ED3">
-        <v>0.076322000987328095</v>
+        <v>0.030103786969087342</v>
       </c>
       <c r="EE3">
-        <v>0.074173317531725902</v>
+        <v>0.027750814487884634</v>
       </c>
       <c r="EF3">
-        <v>0.079105629162143309</v>
+        <v>-0.0043815426024321254</v>
       </c>
       <c r="EG3">
-        <v>0.079454204841923046</v>
+        <v>0.0017821832776181634</v>
       </c>
       <c r="EH3">
-        <v>0.083572158332682403</v>
+        <v>0.032627634861044794</v>
       </c>
       <c r="EI3">
-        <v>0.081395541385080442</v>
+        <v>0.014273783036438982</v>
       </c>
       <c r="EJ3">
-        <v>0.063760201446720177</v>
+        <v>0.054065927022696053</v>
       </c>
       <c r="EK3">
-        <v>0.084921466113582603</v>
+        <v>0.018444216937142998</v>
       </c>
       <c r="EL3">
-        <v>0.075399271523758055</v>
+        <v>0.010634257951992751</v>
       </c>
       <c r="EM3">
-        <v>0.08720876157862531</v>
+        <v>-0.001704708462947731</v>
       </c>
       <c r="EN3">
-        <v>0.078046399234876357</v>
+        <v>0.014919173093800742</v>
       </c>
       <c r="EO3">
-        <v>0.046965212732116179</v>
+        <v>0.01903932272108539</v>
       </c>
       <c r="EP3">
-        <v>0.048710160434635573</v>
+        <v>0.0031608576671517783</v>
       </c>
       <c r="EQ3">
-        <v>0.061637818536621883</v>
+        <v>0.0028281752983531391</v>
       </c>
       <c r="ER3">
-        <v>0.063010834512395877</v>
+        <v>0.01262093861716437</v>
       </c>
       <c r="ES3">
-        <v>0.064829301728375519</v>
+        <v>-0.034595500504006504</v>
       </c>
       <c r="ET3">
-        <v>0.10229278499267304</v>
+        <v>-0.039024484785140805</v>
       </c>
       <c r="EU3">
-        <v>0.091698608910327939</v>
+        <v>0.032426394213967716</v>
       </c>
       <c r="EV3">
-        <v>0.052381025528887452</v>
+        <v>-0.010639211634446668</v>
       </c>
       <c r="EW3">
-        <v>0.050414863339470303</v>
+        <v>-0.0066232414014419424</v>
       </c>
       <c r="EX3">
-        <v>0.050720693329217796</v>
+        <v>-0.009921813749685187</v>
       </c>
       <c r="EY3">
-        <v>0.074419398503421927</v>
+        <v>0.016830308366147542</v>
       </c>
       <c r="EZ3">
-        <v>0.06297373010910004</v>
+        <v>-0.008233801509228169</v>
       </c>
       <c r="FA3">
-        <v>0.073453471618435559</v>
+        <v>0.024084725643545496</v>
       </c>
       <c r="FB3">
-        <v>0.090283118940089183</v>
+        <v>-0.014032031730837342</v>
       </c>
       <c r="FC3">
-        <v>0.12472116258691755</v>
+        <v>0.018198555995077248</v>
       </c>
       <c r="FD3">
-        <v>0.029525228200075276</v>
+        <v>0.00065297431106877692</v>
       </c>
       <c r="FE3">
-        <v>0.077962256848783051</v>
+        <v>-0.033298428208453794</v>
       </c>
       <c r="FF3">
-        <v>0.096333840374686092</v>
+        <v>-0.0087617131974859676</v>
       </c>
       <c r="FG3">
-        <v>0.039317024442793946</v>
+        <v>-0.013314637192209903</v>
       </c>
       <c r="FH3">
-        <v>0.060598755460906553</v>
+        <v>-0.011704846207044223</v>
       </c>
       <c r="FI3">
-        <v>0.035594178915709901</v>
+        <v>-4.7762531778700672e-05</v>
       </c>
       <c r="FJ3">
-        <v>0.074290409478903294</v>
+        <v>-0.021540751934893281</v>
       </c>
       <c r="FK3">
-        <v>0.034255629499734416</v>
+        <v>-0.020992346598465661</v>
       </c>
       <c r="FL3">
-        <v>0.049529944523417815</v>
+        <v>-0.025876293812559348</v>
       </c>
       <c r="FM3">
-        <v>0.060852721941782525</v>
+        <v>-0.014533636881743047</v>
       </c>
       <c r="FN3">
-        <v>0.048210418659812328</v>
+        <v>-0.021883291493390623</v>
       </c>
       <c r="FO3">
-        <v>0.037246136164979335</v>
+        <v>-0.011481296466768761</v>
       </c>
       <c r="FP3">
-        <v>0.052182605049359711</v>
+        <v>-0.0089491542363221988</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5739128527231632</v>
+        <v>-5.5088457542015261</v>
       </c>
     </row>
     <row r="4">
@@ -2188,517 +2188,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.024580211183534598</v>
+        <v>0.024474455133177808</v>
       </c>
       <c r="C4">
-        <v>0.012548189366913758</v>
+        <v>0.012514675530006661</v>
       </c>
       <c r="D4">
-        <v>0.02195188232799444</v>
+        <v>0.021745856381477809</v>
       </c>
       <c r="E4">
-        <v>0.026712454964353764</v>
+        <v>0.026566812674461465</v>
       </c>
       <c r="F4">
-        <v>0.016281370408040716</v>
+        <v>0.016264149773460575</v>
       </c>
       <c r="G4">
-        <v>0.013496190976526049</v>
+        <v>0.013580492335937437</v>
       </c>
       <c r="H4">
-        <v>0.010766357268405916</v>
+        <v>0.01074239925800134</v>
       </c>
       <c r="I4">
-        <v>0.010854145645420079</v>
+        <v>0.010807917664487387</v>
       </c>
       <c r="J4">
-        <v>0.011356018344286038</v>
+        <v>0.011332564027485717</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.025091854699719526</v>
+        <v>0.024800311731944632</v>
       </c>
       <c r="M4">
-        <v>0.024754277112077783</v>
+        <v>0.024471235695202317</v>
       </c>
       <c r="N4">
-        <v>0.035853175619644601</v>
+        <v>0.036545075410090423</v>
       </c>
       <c r="O4">
-        <v>0.03534861887974159</v>
+        <v>0.035882799714349246</v>
       </c>
       <c r="P4">
-        <v>0.036108484230955154</v>
+        <v>0.035774276355207392</v>
       </c>
       <c r="Q4">
-        <v>0.03617372284167699</v>
+        <v>0.035688587882513952</v>
       </c>
       <c r="R4">
-        <v>0.036043817939174154</v>
+        <v>0.035677946451539717</v>
       </c>
       <c r="S4">
-        <v>0.035576298657058386</v>
+        <v>0.035174672897846981</v>
       </c>
       <c r="T4">
-        <v>0.035718534692825474</v>
+        <v>0.03559336493150559</v>
       </c>
       <c r="U4">
-        <v>0.035556208069294187</v>
+        <v>0.035520148538565215</v>
       </c>
       <c r="V4">
-        <v>0.035358367079120871</v>
+        <v>0.034612339875459613</v>
       </c>
       <c r="W4">
-        <v>0.03535836708007499</v>
+        <v>0.035007984164766713</v>
       </c>
       <c r="X4">
-        <v>0.034769459637275152</v>
+        <v>0.034467365005629275</v>
       </c>
       <c r="Y4">
-        <v>0.035232684059759302</v>
+        <v>0.035603884480810422</v>
       </c>
       <c r="Z4">
-        <v>0.035081039720513484</v>
+        <v>0.034458405114524013</v>
       </c>
       <c r="AA4">
-        <v>0.034707041038694444</v>
+        <v>0.034940471459536625</v>
       </c>
       <c r="AB4">
-        <v>0.035377904039121721</v>
+        <v>0.034998299875251673</v>
       </c>
       <c r="AC4">
-        <v>0.034285671087494959</v>
+        <v>0.034845134697995259</v>
       </c>
       <c r="AD4">
-        <v>0.034244143903318945</v>
+        <v>0.034779162874985392</v>
       </c>
       <c r="AE4">
-        <v>0.035319455102899189</v>
+        <v>0.034194962178855773</v>
       </c>
       <c r="AF4">
-        <v>0.034488726901889463</v>
+        <v>0.034704523428085728</v>
       </c>
       <c r="AG4">
-        <v>0.034488726903052325</v>
+        <v>0.034360615956291446</v>
       </c>
       <c r="AH4">
-        <v>0.034361087743335628</v>
+        <v>0.035244458580742925</v>
       </c>
       <c r="AI4">
-        <v>0.034610106313833489</v>
+        <v>0.034378291563804043</v>
       </c>
       <c r="AJ4">
-        <v>0.033502090026057287</v>
+        <v>0.034369448010173331</v>
       </c>
       <c r="AK4">
-        <v>0.034505932331394255</v>
+        <v>0.034378291566071327</v>
       </c>
       <c r="AL4">
-        <v>0.03419465647973622</v>
+        <v>0.034024897208411307</v>
       </c>
       <c r="AM4">
-        <v>0.035034322935985601</v>
+        <v>0.034316627460186655</v>
       </c>
       <c r="AN4">
-        <v>0.034137391521512038</v>
+        <v>0.034530415047697889</v>
       </c>
       <c r="AO4">
-        <v>0.033976509577425741</v>
+        <v>0.034621503117132836</v>
       </c>
       <c r="AP4">
-        <v>0.034352665366292133</v>
+        <v>0.033883689129081726</v>
       </c>
       <c r="AQ4">
-        <v>0.034742638317087446</v>
+        <v>0.033777715034010815</v>
       </c>
       <c r="AR4">
-        <v>0.033866237961421443</v>
+        <v>0.034396013289959906</v>
       </c>
       <c r="AS4">
-        <v>0.034932647397930248</v>
+        <v>0.033908389651369934</v>
       </c>
       <c r="AT4">
-        <v>0.0347159228196917</v>
+        <v>0.034169174930698501</v>
       </c>
       <c r="AU4">
-        <v>0.034689312511738228</v>
+        <v>0.033842726791524898</v>
       </c>
       <c r="AV4">
-        <v>0.034277344615679967</v>
+        <v>0.03390838965523725</v>
       </c>
       <c r="AW4">
-        <v>0.034463001889779347</v>
+        <v>0.034100890597398348</v>
       </c>
       <c r="AX4">
-        <v>0.034488726923519203</v>
+        <v>0.033999758020148693</v>
       </c>
       <c r="AY4">
-        <v>0.034549141117452525</v>
+        <v>0.034566705681923805</v>
       </c>
       <c r="AZ4">
-        <v>0.033811807831068623</v>
+        <v>0.034404891507511817</v>
       </c>
       <c r="BA4">
-        <v>0.033921136463499466</v>
+        <v>0.034751079153004877</v>
       </c>
       <c r="BB4">
-        <v>0.034420346974086899</v>
+        <v>0.034016506901561515</v>
       </c>
       <c r="BC4">
-        <v>0.034361087769309788</v>
+        <v>0.034264216084904063</v>
       </c>
       <c r="BD4">
-        <v>0.034796387510597833</v>
+        <v>0.034521372310450042</v>
       </c>
       <c r="BE4">
-        <v>0.03456650319014655</v>
+        <v>0.034134945599446943</v>
       </c>
       <c r="BF4">
-        <v>0.034394885140265917</v>
+        <v>0.034732419427621578</v>
       </c>
       <c r="BG4">
-        <v>0.034760507430194772</v>
+        <v>0.034485320150830272</v>
       </c>
       <c r="BH4">
-        <v>0.034445907025003497</v>
+        <v>0.034290370952716309</v>
       </c>
       <c r="BI4">
-        <v>0.03438641958634428</v>
+        <v>0.034325402364516179</v>
       </c>
       <c r="BJ4">
-        <v>0.034445907027544936</v>
+        <v>0.034100890613611698</v>
       </c>
       <c r="BK4">
-        <v>0.034877816624997837</v>
+        <v>0.033924908317203711</v>
       </c>
       <c r="BL4">
-        <v>0.034557816532275867</v>
+        <v>0.03430786397816777</v>
       </c>
       <c r="BM4">
-        <v>0.035034322965887835</v>
+        <v>0.034751079167041926</v>
       </c>
       <c r="BN4">
-        <v>0.034319083028944812</v>
+        <v>0.034603188862934016</v>
       </c>
       <c r="BO4">
-        <v>0.034463001912312219</v>
+        <v>0.03516475892032931</v>
       </c>
       <c r="BP4">
-        <v>0.035062315131215702</v>
+        <v>0.033924908323630973</v>
       </c>
       <c r="BQ4">
-        <v>0.03543609423576289</v>
+        <v>0.035391953558901491</v>
       </c>
       <c r="BR4">
-        <v>0.035624823211687071</v>
+        <v>0.034963461473825626</v>
       </c>
       <c r="BS4">
-        <v>0.035287250182844766</v>
+        <v>0.035800288671721407</v>
       </c>
       <c r="BT4">
-        <v>0.036166198225543129</v>
+        <v>0.035990975943322644</v>
       </c>
       <c r="BU4">
-        <v>0.036712335869198968</v>
+        <v>0.03534940085836067</v>
       </c>
       <c r="BV4">
-        <v>0.031346114067770652</v>
+        <v>0.030931813236641962</v>
       </c>
       <c r="BW4">
-        <v>0.027050376089531425</v>
+        <v>0.026646404196414755</v>
       </c>
       <c r="BX4">
-        <v>0.027085325395667156</v>
+        <v>0.026736050867079534</v>
       </c>
       <c r="BY4">
-        <v>0.026041748435724339</v>
+        <v>0.025736471889548754</v>
       </c>
       <c r="BZ4">
-        <v>0.025832528834547581</v>
+        <v>0.025558072186961146</v>
       </c>
       <c r="CA4">
-        <v>0.026233977636626191</v>
+        <v>0.025823876326165028</v>
       </c>
       <c r="CB4">
-        <v>0.024946114524449007</v>
+        <v>0.024811300896146381</v>
       </c>
       <c r="CC4">
-        <v>0.025240529373543732</v>
+        <v>0.024781813346923417</v>
       </c>
       <c r="CD4">
-        <v>0.024990856268027523</v>
+        <v>0.024834107026932995</v>
       </c>
       <c r="CE4">
-        <v>0.025259015586278796</v>
+        <v>0.024958153699489897</v>
       </c>
       <c r="CF4">
-        <v>0.025123762097047527</v>
+        <v>0.024925726462939057</v>
       </c>
       <c r="CG4">
-        <v>0.025382125666291385</v>
+        <v>0.024957471193404378</v>
       </c>
       <c r="CH4">
-        <v>0.025316077610299678</v>
+        <v>0.024775804977998427</v>
       </c>
       <c r="CI4">
-        <v>0.025516734022335865</v>
+        <v>0.024780954144159498</v>
       </c>
       <c r="CJ4">
-        <v>0.025415185038731858</v>
+        <v>0.024975658258663783</v>
       </c>
       <c r="CK4">
-        <v>0.025563094702818999</v>
+        <v>0.0248052368340669</v>
       </c>
       <c r="CL4">
-        <v>0.0259679301628967</v>
+        <v>0.025535261064018835</v>
       </c>
       <c r="CM4">
-        <v>0.025692427751206073</v>
+        <v>0.025361296503372432</v>
       </c>
       <c r="CN4">
-        <v>0.026057057838491663</v>
+        <v>0.025798766058167749</v>
       </c>
       <c r="CO4">
-        <v>0.026171143882564484</v>
+        <v>0.025758389974601826</v>
       </c>
       <c r="CP4">
-        <v>0.025848844097473483</v>
+        <v>0.025475776934109649</v>
       </c>
       <c r="CQ4">
-        <v>0.022283073882960885</v>
+        <v>0.02195920706953667</v>
       </c>
       <c r="CR4">
-        <v>0.022441564148080153</v>
+        <v>0.021972675045799434</v>
       </c>
       <c r="CS4">
-        <v>0.021839622891814379</v>
+        <v>0.021608695832686032</v>
       </c>
       <c r="CT4">
-        <v>0.021997009601875901</v>
+        <v>0.021617252390145357</v>
       </c>
       <c r="CU4">
-        <v>0.022009710191519878</v>
+        <v>0.021698718847693393</v>
       </c>
       <c r="CV4">
-        <v>0.021642875779074502</v>
+        <v>0.021193288484549967</v>
       </c>
       <c r="CW4">
-        <v>0.021688357079514414</v>
+        <v>0.021136123244540388</v>
       </c>
       <c r="CX4">
-        <v>0.021752979904802478</v>
+        <v>0.02132122716602064</v>
       </c>
       <c r="CY4">
-        <v>0.021500776235316606</v>
+        <v>0.021269801053443706</v>
       </c>
       <c r="CZ4">
-        <v>0.02179760551726936</v>
+        <v>0.021310546765981916</v>
       </c>
       <c r="DA4">
-        <v>0.021830876875635955</v>
+        <v>0.021337760541083172</v>
       </c>
       <c r="DB4">
-        <v>0.021720916653249909</v>
+        <v>0.021354678708951365</v>
       </c>
       <c r="DC4">
-        <v>0.021769144404981445</v>
+        <v>0.021491265444622359</v>
       </c>
       <c r="DD4">
-        <v>0.021697177892481007</v>
+        <v>0.021311851677833886</v>
       </c>
       <c r="DE4">
-        <v>0.021905552515678224</v>
+        <v>0.021350052775487013</v>
       </c>
       <c r="DF4">
-        <v>0.021971514430095426</v>
+        <v>0.021617115652082967</v>
       </c>
       <c r="DG4">
-        <v>0.021994255298471477</v>
+        <v>0.021522239085183834</v>
       </c>
       <c r="DH4">
-        <v>0.021842548563866127</v>
+        <v>0.021501476408411806</v>
       </c>
       <c r="DI4">
-        <v>0.021936213332285119</v>
+        <v>0.021615448202835064</v>
       </c>
       <c r="DJ4">
-        <v>0.022075591817748898</v>
+        <v>0.021583978598433157</v>
       </c>
       <c r="DK4">
-        <v>0.021207060143306509</v>
+        <v>0.020901271612442707</v>
       </c>
       <c r="DL4">
-        <v>0.021298279411921545</v>
+        <v>0.020875048050181786</v>
       </c>
       <c r="DM4">
-        <v>0.02133991310613912</v>
+        <v>0.020958122695776925</v>
       </c>
       <c r="DN4">
-        <v>0.021376912974949876</v>
+        <v>0.020734637224074072</v>
       </c>
       <c r="DO4">
-        <v>0.021409060347585683</v>
+        <v>0.020878529256061443</v>
       </c>
       <c r="DP4">
-        <v>0.021360990003415403</v>
+        <v>0.020994296916359911</v>
       </c>
       <c r="DQ4">
-        <v>0.021396510662546889</v>
+        <v>0.021090747916365948</v>
       </c>
       <c r="DR4">
-        <v>0.02125732489173732</v>
+        <v>0.020947367955446116</v>
       </c>
       <c r="DS4">
-        <v>0.021378688632444364</v>
+        <v>0.020906549020066712</v>
       </c>
       <c r="DT4">
-        <v>0.021350429965317528</v>
+        <v>0.020866366537273306</v>
       </c>
       <c r="DU4">
-        <v>0.021301723213528342</v>
+        <v>0.021070049823918975</v>
       </c>
       <c r="DV4">
-        <v>0.021380465428428388</v>
+        <v>0.021029131713668912</v>
       </c>
       <c r="DW4">
-        <v>0.021655830129481253</v>
+        <v>0.021068176238498975</v>
       </c>
       <c r="DX4">
-        <v>0.021478276971823133</v>
+        <v>0.021169339590659864</v>
       </c>
       <c r="DY4">
-        <v>0.021480123746908789</v>
+        <v>0.021246280276670613</v>
       </c>
       <c r="DZ4">
-        <v>0.021556986447281566</v>
+        <v>0.021105903382228404</v>
       </c>
       <c r="EA4">
-        <v>0.021539920044565525</v>
+        <v>0.021149958115758885</v>
       </c>
       <c r="EB4">
-        <v>0.021591454264602565</v>
+        <v>0.021214451486162342</v>
       </c>
       <c r="EC4">
-        <v>0.021538030702850985</v>
+        <v>0.021335760187216536</v>
       </c>
       <c r="ED4">
-        <v>0.021669687538034905</v>
+        <v>0.021175181650221111</v>
       </c>
       <c r="EE4">
-        <v>0.02169962361618042</v>
+        <v>0.021206552115932507</v>
       </c>
       <c r="EF4">
-        <v>0.021695612960586991</v>
+        <v>0.021383708100868763</v>
       </c>
       <c r="EG4">
-        <v>0.021713708224225168</v>
+        <v>0.021373214532619558</v>
       </c>
       <c r="EH4">
-        <v>0.021713708280314992</v>
+        <v>0.021242281832269162</v>
       </c>
       <c r="EI4">
-        <v>0.021744137890620671</v>
+        <v>0.021352344755004287</v>
       </c>
       <c r="EJ4">
-        <v>0.021850204758964466</v>
+        <v>0.021179083507990294</v>
       </c>
       <c r="EK4">
-        <v>0.021766671078923331</v>
+        <v>0.021373214762798382</v>
       </c>
       <c r="EL4">
-        <v>0.021833294602402166</v>
+        <v>0.021432490311719482</v>
       </c>
       <c r="EM4">
-        <v>0.021795620619698221</v>
+        <v>0.021514973965704808</v>
       </c>
       <c r="EN4">
-        <v>0.021860826479801872</v>
+        <v>0.021451810864250655</v>
       </c>
       <c r="EO4">
-        <v>0.022036476492053678</v>
+        <v>0.021451810922656338</v>
       </c>
       <c r="EP4">
-        <v>0.022047824214797614</v>
+        <v>0.021552659393543391</v>
       </c>
       <c r="EQ4">
-        <v>0.022002701223096999</v>
+        <v>0.0215750596668574</v>
       </c>
       <c r="ER4">
-        <v>0.022016163525798826</v>
+        <v>0.02154597320018925</v>
       </c>
       <c r="ES4">
-        <v>0.022027430832954092</v>
+        <v>0.021811461461825013</v>
       </c>
       <c r="ET4">
-        <v>0.021860826823818891</v>
+        <v>0.021855637643008085</v>
       </c>
       <c r="EU4">
-        <v>0.021934145541190084</v>
+        <v>0.021506178741384736</v>
       </c>
       <c r="EV4">
-        <v>0.022154372694012017</v>
+        <v>0.021748777374248247</v>
       </c>
       <c r="EW4">
-        <v>0.022185205544204362</v>
+        <v>0.021748777430779929</v>
       </c>
       <c r="EX4">
-        <v>0.0222043420196875</v>
+        <v>0.021787196781613078</v>
       </c>
       <c r="EY4">
-        <v>0.022102925549686087</v>
+        <v>0.021668750159572359</v>
       </c>
       <c r="EZ4">
-        <v>0.022182822403071119</v>
+        <v>0.021821222981446065</v>
       </c>
       <c r="FA4">
-        <v>0.022149658195102034</v>
+        <v>0.021673398200012781</v>
       </c>
       <c r="FB4">
-        <v>0.022084441561745535</v>
+        <v>0.021895454514413354</v>
       </c>
       <c r="FC4">
-        <v>0.021931961999215325</v>
+        <v>0.021746392931378575</v>
       </c>
       <c r="FD4">
-        <v>0.022446718824691542</v>
+        <v>0.021860586784406562</v>
       </c>
       <c r="FE4">
-        <v>0.022211550800100933</v>
+        <v>0.022065392080481139</v>
       </c>
       <c r="FF4">
-        <v>0.022137904780259683</v>
+        <v>0.021953617512626322</v>
       </c>
       <c r="FG4">
-        <v>0.022459755472875063</v>
+        <v>0.021999917201714122</v>
       </c>
       <c r="FH4">
-        <v>0.022367114253598865</v>
+        <v>0.022012902354358231</v>
       </c>
       <c r="FI4">
-        <v>0.022523112450139438</v>
+        <v>0.02197154058159027</v>
       </c>
       <c r="FJ4">
-        <v>0.022336852805497635</v>
+        <v>0.022110712698523331</v>
       </c>
       <c r="FK4">
-        <v>0.022574207260603059</v>
+        <v>0.022129565690217588</v>
       </c>
       <c r="FL4">
-        <v>0.022512462300328637</v>
+        <v>0.022178567479301196</v>
       </c>
       <c r="FM4">
-        <v>0.022472847991421286</v>
+        <v>0.022137680256676218</v>
       </c>
       <c r="FN4">
-        <v>0.022563380640921216</v>
+        <v>0.022200591295169624</v>
       </c>
       <c r="FO4">
-        <v>0.022645510147448523</v>
+        <v>0.022164879889239222</v>
       </c>
       <c r="FP4">
-        <v>0.022585072058146985</v>
+        <v>0.022173085526684157</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.01619235125801257</v>
+        <v>0.015659456553450392</v>
       </c>
     </row>
   </sheetData>
@@ -3775,517 +3775,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.0049351281295277509</v>
+        <v>-0.0073372001291305286</v>
       </c>
       <c r="C3">
-        <v>-0.6656611921913923</v>
+        <v>-0.66423935945360968</v>
       </c>
       <c r="D3">
-        <v>-0.68270125422868622</v>
+        <v>-0.6746779669869547</v>
       </c>
       <c r="E3">
-        <v>-0.70531441081534985</v>
+        <v>-0.69029138707541904</v>
       </c>
       <c r="F3">
-        <v>-0.0046141299454171862</v>
+        <v>-0.0019704205937501546</v>
       </c>
       <c r="G3">
-        <v>-0.0053554283769512885</v>
+        <v>-0.00035513207932801809</v>
       </c>
       <c r="H3">
-        <v>-0.0047506678364310738</v>
+        <v>-0.00033893676445253379</v>
       </c>
       <c r="I3">
-        <v>0.0076504820966349432</v>
+        <v>0.0056105993540686268</v>
       </c>
       <c r="J3">
-        <v>0.0026243184913788626</v>
+        <v>-0.0043382145137063803</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2633111604171825</v>
+        <v>1.1764971536651778</v>
       </c>
       <c r="M3">
-        <v>1.3702466795973192</v>
+        <v>1.2898096143200071</v>
       </c>
       <c r="N3">
-        <v>-0.15946885227330182</v>
+        <v>-0.25297446270708812</v>
       </c>
       <c r="O3">
-        <v>-0.13537652683615317</v>
+        <v>-0.21507540287496352</v>
       </c>
       <c r="P3">
-        <v>-0.1134582785546918</v>
+        <v>-0.20417145995862115</v>
       </c>
       <c r="Q3">
-        <v>-0.12177087999290007</v>
+        <v>-0.20991151619814424</v>
       </c>
       <c r="R3">
-        <v>-0.15406888277778258</v>
+        <v>-0.15455514560297592</v>
       </c>
       <c r="S3">
-        <v>-0.11836874205531411</v>
+        <v>-0.14203728352395253</v>
       </c>
       <c r="T3">
-        <v>-0.071658310489455243</v>
+        <v>-0.14557755567016056</v>
       </c>
       <c r="U3">
-        <v>-0.10752520112174005</v>
+        <v>-0.16649514724312717</v>
       </c>
       <c r="V3">
-        <v>-0.039511114289391275</v>
+        <v>-0.15789185376091536</v>
       </c>
       <c r="W3">
-        <v>-0.026364026566581482</v>
+        <v>-0.12063441822576756</v>
       </c>
       <c r="X3">
-        <v>-0.043861019596844276</v>
+        <v>-0.14341783728240209</v>
       </c>
       <c r="Y3">
-        <v>-0.053153987902626099</v>
+        <v>-0.12324405052721528</v>
       </c>
       <c r="Z3">
-        <v>-0.01978190877560251</v>
+        <v>-0.086925587777292798</v>
       </c>
       <c r="AA3">
-        <v>-0.029127035911520167</v>
+        <v>-0.064445050701978299</v>
       </c>
       <c r="AB3">
-        <v>-0.024645781806895889</v>
+        <v>-0.11192049780050331</v>
       </c>
       <c r="AC3">
-        <v>-0.0064177691287133016</v>
+        <v>-0.10775408634181236</v>
       </c>
       <c r="AD3">
-        <v>0.008767969457225494</v>
+        <v>-0.09478056687192242</v>
       </c>
       <c r="AE3">
-        <v>-0.031822081733034718</v>
+        <v>-0.076459766679671595</v>
       </c>
       <c r="AF3">
-        <v>0.030945401614879024</v>
+        <v>-0.069429319410965945</v>
       </c>
       <c r="AG3">
-        <v>0.013075492862835845</v>
+        <v>-0.054537881681791134</v>
       </c>
       <c r="AH3">
-        <v>0.041988284095867655</v>
+        <v>-0.088325998657259874</v>
       </c>
       <c r="AI3">
-        <v>0.017717547988198783</v>
+        <v>-0.016422852213950692</v>
       </c>
       <c r="AJ3">
-        <v>0.062974169746593131</v>
+        <v>-0.085989670255213063</v>
       </c>
       <c r="AK3">
-        <v>0.07402382006794693</v>
+        <v>-0.041052924112798372</v>
       </c>
       <c r="AL3">
-        <v>0.013484795733586283</v>
+        <v>-0.04530821244197842</v>
       </c>
       <c r="AM3">
-        <v>0.026493432572493873</v>
+        <v>-0.015454473639014577</v>
       </c>
       <c r="AN3">
-        <v>0.062392890799750619</v>
+        <v>-0.043144021250919144</v>
       </c>
       <c r="AO3">
-        <v>0.072017302233007924</v>
+        <v>0.016299143769470475</v>
       </c>
       <c r="AP3">
-        <v>0.034553976644690253</v>
+        <v>-0.0037993556816145182</v>
       </c>
       <c r="AQ3">
-        <v>0.086607105071112425</v>
+        <v>-0.011177053437321147</v>
       </c>
       <c r="AR3">
-        <v>0.083365686053181481</v>
+        <v>-0.042140815189742414</v>
       </c>
       <c r="AS3">
-        <v>0.042077525051745862</v>
+        <v>-0.00496924986361553</v>
       </c>
       <c r="AT3">
-        <v>0.036272809612566514</v>
+        <v>-0.014892308262902592</v>
       </c>
       <c r="AU3">
-        <v>0.044262594408481043</v>
+        <v>0.015845516171954437</v>
       </c>
       <c r="AV3">
-        <v>0.09933969332971318</v>
+        <v>0.015858040379673543</v>
       </c>
       <c r="AW3">
-        <v>0.064298248359410656</v>
+        <v>0.023389590592622377</v>
       </c>
       <c r="AX3">
-        <v>0.098817530450204916</v>
+        <v>0.033290932833989484</v>
       </c>
       <c r="AY3">
-        <v>0.063903868971444261</v>
+        <v>0.024981731378190195</v>
       </c>
       <c r="AZ3">
-        <v>0.12983864511898352</v>
+        <v>0.018668570775416574</v>
       </c>
       <c r="BA3">
-        <v>0.10617284221316042</v>
+        <v>0.0030550016978805579</v>
       </c>
       <c r="BB3">
-        <v>0.082380225965054579</v>
+        <v>0.025613119991521174</v>
       </c>
       <c r="BC3">
-        <v>0.091510742369891845</v>
+        <v>-0.01014201950497602</v>
       </c>
       <c r="BD3">
-        <v>0.053683854836250176</v>
+        <v>0.011205228499471488</v>
       </c>
       <c r="BE3">
-        <v>0.09388712327925279</v>
+        <v>0.045146658654042097</v>
       </c>
       <c r="BF3">
-        <v>0.058836962270730611</v>
+        <v>-0.015150648417104482</v>
       </c>
       <c r="BG3">
-        <v>0.10023094407331573</v>
+        <v>0.022470972802696335</v>
       </c>
       <c r="BH3">
-        <v>0.11596083719961919</v>
+        <v>0.020920507990528806</v>
       </c>
       <c r="BI3">
-        <v>0.084029662870919231</v>
+        <v>0.0034803180308674913</v>
       </c>
       <c r="BJ3">
-        <v>0.076499516770331802</v>
+        <v>0.030668253110776814</v>
       </c>
       <c r="BK3">
-        <v>0.090119457285859836</v>
+        <v>0.013669391343791307</v>
       </c>
       <c r="BL3">
-        <v>0.11186202429831073</v>
+        <v>0.016096930822047176</v>
       </c>
       <c r="BM3">
-        <v>0.065886015549156005</v>
+        <v>0.010079061987477057</v>
       </c>
       <c r="BN3">
-        <v>0.079365408366002296</v>
+        <v>0.067222555677605156</v>
       </c>
       <c r="BO3">
-        <v>0.069448950583325911</v>
+        <v>-0.010401309299006021</v>
       </c>
       <c r="BP3">
-        <v>0.022256050268009791</v>
+        <v>0.0066936148109347704</v>
       </c>
       <c r="BQ3">
-        <v>0.099873064155810723</v>
+        <v>0.001007150704011621</v>
       </c>
       <c r="BR3">
-        <v>0.10482499208728295</v>
+        <v>0.024087242073114825</v>
       </c>
       <c r="BS3">
-        <v>0.078167524305825589</v>
+        <v>-0.014926304488726264</v>
       </c>
       <c r="BT3">
-        <v>0.11606373777496086</v>
+        <v>0.0067544386336357313</v>
       </c>
       <c r="BU3">
-        <v>0.068416482524672126</v>
+        <v>0.032858700654114004</v>
       </c>
       <c r="BV3">
-        <v>0.052577051045805179</v>
+        <v>0.017012949979619715</v>
       </c>
       <c r="BW3">
-        <v>0.085765407356595963</v>
+        <v>0.020970023433389256</v>
       </c>
       <c r="BX3">
-        <v>0.088790784981243778</v>
+        <v>0.021421370519610367</v>
       </c>
       <c r="BY3">
-        <v>0.098142904807467485</v>
+        <v>0.027900475125251133</v>
       </c>
       <c r="BZ3">
-        <v>0.11891293429308471</v>
+        <v>0.040601375457827632</v>
       </c>
       <c r="CA3">
-        <v>0.059665461925016004</v>
+        <v>0.0070389541291833767</v>
       </c>
       <c r="CB3">
-        <v>0.13491122874381417</v>
+        <v>0.012883925791856479</v>
       </c>
       <c r="CC3">
-        <v>0.087837262605690636</v>
+        <v>0.025116011994921302</v>
       </c>
       <c r="CD3">
-        <v>0.1233783106032386</v>
+        <v>0.026411505341752153</v>
       </c>
       <c r="CE3">
-        <v>0.072830436600654053</v>
+        <v>0.0070665396415485306</v>
       </c>
       <c r="CF3">
-        <v>0.10903519018069135</v>
+        <v>-0.0014660047483805966</v>
       </c>
       <c r="CG3">
-        <v>0.052215895209547961</v>
+        <v>0.0056581287478379696</v>
       </c>
       <c r="CH3">
-        <v>0.06632834941277678</v>
+        <v>0.036405570511368945</v>
       </c>
       <c r="CI3">
-        <v>0.046081814822273567</v>
+        <v>0.033357170532556178</v>
       </c>
       <c r="CJ3">
-        <v>0.048280308368004836</v>
+        <v>0.012566828282503316</v>
       </c>
       <c r="CK3">
-        <v>0.083083405186729062</v>
+        <v>0.082778964543467337</v>
       </c>
       <c r="CL3">
-        <v>0.051513702962396941</v>
+        <v>0.029826438949001863</v>
       </c>
       <c r="CM3">
-        <v>0.10992481913534981</v>
+        <v>0.04565123887375782</v>
       </c>
       <c r="CN3">
-        <v>0.09383940345714202</v>
+        <v>0.034597217860441017</v>
       </c>
       <c r="CO3">
-        <v>0.084863611224045898</v>
+        <v>0.029853626524723734</v>
       </c>
       <c r="CP3">
-        <v>0.098955072349057274</v>
+        <v>0.044441467697967058</v>
       </c>
       <c r="CQ3">
-        <v>0.12510230711467762</v>
+        <v>0.03763342374353397</v>
       </c>
       <c r="CR3">
-        <v>0.088072917539727694</v>
+        <v>0.038397041720897779</v>
       </c>
       <c r="CS3">
-        <v>0.12985990160148903</v>
+        <v>0.024036436941904025</v>
       </c>
       <c r="CT3">
-        <v>0.094089279503098297</v>
+        <v>0.026082529753838991</v>
       </c>
       <c r="CU3">
-        <v>0.095078456172544137</v>
+        <v>0.010327188275832178</v>
       </c>
       <c r="CV3">
-        <v>0.094339639657687144</v>
+        <v>0.037857017563433432</v>
       </c>
       <c r="CW3">
-        <v>0.087432777472102916</v>
+        <v>0.056015154430979049</v>
       </c>
       <c r="CX3">
-        <v>0.076004094923793425</v>
+        <v>0.015715186550555225</v>
       </c>
       <c r="CY3">
-        <v>0.14200972151495383</v>
+        <v>0.032067350685185958</v>
       </c>
       <c r="CZ3">
-        <v>0.073832707477735612</v>
+        <v>0.026558716566402751</v>
       </c>
       <c r="DA3">
-        <v>0.067647637722779208</v>
+        <v>0.023769113680007472</v>
       </c>
       <c r="DB3">
-        <v>0.098047069032967643</v>
+        <v>0.023943127575887305</v>
       </c>
       <c r="DC3">
-        <v>0.090648331440130736</v>
+        <v>-0.0036781695475380186</v>
       </c>
       <c r="DD3">
-        <v>0.1121943811687769</v>
+        <v>0.042305218138489462</v>
       </c>
       <c r="DE3">
-        <v>0.066838348962280317</v>
+        <v>0.037505832999118069</v>
       </c>
       <c r="DF3">
-        <v>0.071176096905660582</v>
+        <v>0.00059354874819442368</v>
       </c>
       <c r="DG3">
-        <v>0.069963565402997155</v>
+        <v>0.026479947412701939</v>
       </c>
       <c r="DH3">
-        <v>0.10985383793126011</v>
+        <v>0.035468432870977125</v>
       </c>
       <c r="DI3">
-        <v>0.091875910907482317</v>
+        <v>0.013382117758180838</v>
       </c>
       <c r="DJ3">
-        <v>0.063692868341810233</v>
+        <v>0.024689331817148202</v>
       </c>
       <c r="DK3">
-        <v>0.098045752370346892</v>
+        <v>0.0099156236487465532</v>
       </c>
       <c r="DL3">
-        <v>0.081735496938268704</v>
+        <v>0.019759857341699064</v>
       </c>
       <c r="DM3">
-        <v>0.076613013095097549</v>
+        <v>0.0057888960326163931</v>
       </c>
       <c r="DN3">
-        <v>0.072555067768606221</v>
+        <v>0.05918993778217517</v>
       </c>
       <c r="DO3">
-        <v>0.069593487119237463</v>
+        <v>0.031525504470549394</v>
       </c>
       <c r="DP3">
-        <v>0.084229303417384077</v>
+        <v>0.010559995642498897</v>
       </c>
       <c r="DQ3">
-        <v>0.080556618903087976</v>
+        <v>-0.0059256279805211514</v>
       </c>
       <c r="DR3">
-        <v>0.11556294472672</v>
+        <v>0.028835169658136699</v>
       </c>
       <c r="DS3">
-        <v>0.092861392059274031</v>
+        <v>0.041896808098457222</v>
       </c>
       <c r="DT3">
-        <v>0.10326412770890041</v>
+        <v>0.054935675037962289</v>
       </c>
       <c r="DU3">
-        <v>0.11829039299600735</v>
+        <v>0.015198704297012446</v>
       </c>
       <c r="DV3">
-        <v>0.10514298621772789</v>
+        <v>0.028044119357762971</v>
       </c>
       <c r="DW3">
-        <v>0.050229103972032896</v>
+        <v>0.023892831769874796</v>
       </c>
       <c r="DX3">
-        <v>0.092045709447575882</v>
+        <v>0.0067246066786076052</v>
       </c>
       <c r="DY3">
-        <v>0.095816790767827745</v>
+        <v>-0.0051759083238520848</v>
       </c>
       <c r="DZ3">
-        <v>0.083498971427752797</v>
+        <v>0.028180744881230721</v>
       </c>
       <c r="EA3">
-        <v>0.091279784195176669</v>
+        <v>0.023082979824315571</v>
       </c>
       <c r="EB3">
-        <v>0.084468367230961738</v>
+        <v>0.013780691028989316</v>
       </c>
       <c r="EC3">
-        <v>0.099989934372200773</v>
+        <v>-0.0070418318046895365</v>
       </c>
       <c r="ED3">
-        <v>0.07632200098732754</v>
+        <v>0.030103786969087658</v>
       </c>
       <c r="EE3">
-        <v>0.074173317531726152</v>
+        <v>0.027750814487884617</v>
       </c>
       <c r="EF3">
-        <v>0.079105629162143351</v>
+        <v>-0.0043815426024322816</v>
       </c>
       <c r="EG3">
-        <v>0.079454204841923573</v>
+        <v>0.0017821832776185914</v>
       </c>
       <c r="EH3">
-        <v>0.083572158332681709</v>
+        <v>0.03262763486104403</v>
       </c>
       <c r="EI3">
-        <v>0.081395541385080108</v>
+        <v>0.014273783036438432</v>
       </c>
       <c r="EJ3">
-        <v>0.063760201446720316</v>
+        <v>0.054065927022696136</v>
       </c>
       <c r="EK3">
-        <v>0.084921466113582506</v>
+        <v>0.018444216937142252</v>
       </c>
       <c r="EL3">
-        <v>0.075399271523758263</v>
+        <v>0.010634257951991997</v>
       </c>
       <c r="EM3">
-        <v>0.087208761578625255</v>
+        <v>-0.0017047084629474782</v>
       </c>
       <c r="EN3">
-        <v>0.078046399234876898</v>
+        <v>0.01491917309380127</v>
       </c>
       <c r="EO3">
-        <v>0.046965212732116554</v>
+        <v>0.019039322721085196</v>
       </c>
       <c r="EP3">
-        <v>0.048710160434635982</v>
+        <v>0.0031608576671511715</v>
       </c>
       <c r="EQ3">
-        <v>0.061637818536622146</v>
+        <v>0.002828175298353114</v>
       </c>
       <c r="ER3">
-        <v>0.063010834512396127</v>
+        <v>0.012620938617163865</v>
       </c>
       <c r="ES3">
-        <v>0.064829301728375324</v>
+        <v>-0.034595500504006491</v>
       </c>
       <c r="ET3">
-        <v>0.10229278499267323</v>
+        <v>-0.039024484785140742</v>
       </c>
       <c r="EU3">
-        <v>0.091698608910328105</v>
+        <v>0.032426394213967112</v>
       </c>
       <c r="EV3">
-        <v>0.052381025528887432</v>
+        <v>-0.010639211634446904</v>
       </c>
       <c r="EW3">
-        <v>0.050414863339469845</v>
+        <v>-0.00662324140144237</v>
       </c>
       <c r="EX3">
-        <v>0.050720693329217623</v>
+        <v>-0.0099218137496854923</v>
       </c>
       <c r="EY3">
-        <v>0.074419398503422135</v>
+        <v>0.016830308366146528</v>
       </c>
       <c r="EZ3">
-        <v>0.062973730109100623</v>
+        <v>-0.0082338015092288368</v>
       </c>
       <c r="FA3">
-        <v>0.073453471618436197</v>
+        <v>0.024084725643545642</v>
       </c>
       <c r="FB3">
-        <v>0.090283118940089085</v>
+        <v>-0.014032031730837117</v>
       </c>
       <c r="FC3">
-        <v>0.12472116258691826</v>
+        <v>0.018198555995077383</v>
       </c>
       <c r="FD3">
-        <v>0.029525228200074801</v>
+        <v>0.00065297431106862904</v>
       </c>
       <c r="FE3">
-        <v>0.07796225684878344</v>
+        <v>-0.03329842820845455</v>
       </c>
       <c r="FF3">
-        <v>0.096333840374686341</v>
+        <v>-0.0087617131974863458</v>
       </c>
       <c r="FG3">
-        <v>0.039317024442794328</v>
+        <v>-0.013314637192210621</v>
       </c>
       <c r="FH3">
-        <v>0.060598755460906657</v>
+        <v>-0.011704846207044917</v>
       </c>
       <c r="FI3">
-        <v>0.035594178915710539</v>
+        <v>-4.7762531779173262e-05</v>
       </c>
       <c r="FJ3">
-        <v>0.074290409478903544</v>
+        <v>-0.02154075193489341</v>
       </c>
       <c r="FK3">
-        <v>0.034255629499734756</v>
+        <v>-0.020992346598466126</v>
       </c>
       <c r="FL3">
-        <v>0.0495299445234181</v>
+        <v>-0.025876293812560087</v>
       </c>
       <c r="FM3">
-        <v>0.060852721941782144</v>
+        <v>-0.014533636881744036</v>
       </c>
       <c r="FN3">
-        <v>0.048210418659812966</v>
+        <v>-0.021883291493390938</v>
       </c>
       <c r="FO3">
-        <v>0.037246136164979508</v>
+        <v>-0.011481296466768777</v>
       </c>
       <c r="FP3">
-        <v>0.052182605049359967</v>
+        <v>-0.0089491542363216766</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5739128527231632</v>
+        <v>-5.5088457542015261</v>
       </c>
     </row>
     <row r="4">
@@ -4302,517 +4302,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.021826375372030461</v>
+        <v>0.021655567308068672</v>
       </c>
       <c r="C4">
-        <v>0.0098361828198968247</v>
+        <v>0.0098202651722070246</v>
       </c>
       <c r="D4">
-        <v>0.015594608025837783</v>
+        <v>0.01549266313042894</v>
       </c>
       <c r="E4">
-        <v>0.018826196431484653</v>
+        <v>0.018743579608443122</v>
       </c>
       <c r="F4">
-        <v>0.014763196602707933</v>
+        <v>0.014760531402403541</v>
       </c>
       <c r="G4">
-        <v>0.012328861976822118</v>
+        <v>0.0123923326061928</v>
       </c>
       <c r="H4">
-        <v>0.0099873542827340761</v>
+        <v>0.0099759272024818324</v>
       </c>
       <c r="I4">
-        <v>0.010057711868744454</v>
+        <v>0.010005513452358365</v>
       </c>
       <c r="J4">
-        <v>0.010680106899008392</v>
+        <v>0.010653329626711906</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.021085971440067044</v>
+        <v>0.020712508851734455</v>
       </c>
       <c r="M4">
-        <v>0.020892404134554805</v>
+        <v>0.020499052622599996</v>
       </c>
       <c r="N4">
-        <v>0.026807742255935598</v>
+        <v>0.026660760921111304</v>
       </c>
       <c r="O4">
-        <v>0.026658655917855219</v>
+        <v>0.026413156711621932</v>
       </c>
       <c r="P4">
-        <v>0.026526430969427899</v>
+        <v>0.026351280061870274</v>
       </c>
       <c r="Q4">
-        <v>0.026591958057197732</v>
+        <v>0.026401179889388268</v>
       </c>
       <c r="R4">
-        <v>0.026817407839244235</v>
+        <v>0.026047457063586698</v>
       </c>
       <c r="S4">
-        <v>0.026591958068307889</v>
+        <v>0.025978424467147716</v>
       </c>
       <c r="T4">
-        <v>0.026302705257940959</v>
+        <v>0.026012778671305845</v>
       </c>
       <c r="U4">
-        <v>0.026544392303252329</v>
+        <v>0.026160213232566582</v>
       </c>
       <c r="V4">
-        <v>0.026123987501830929</v>
+        <v>0.026115586813120782</v>
       </c>
       <c r="W4">
-        <v>0.026054566983844587</v>
+        <v>0.025887668743104345</v>
       </c>
       <c r="X4">
-        <v>0.026174428109736289</v>
+        <v>0.026045280108220506</v>
       </c>
       <c r="Y4">
-        <v>0.026244201820510224</v>
+        <v>0.025927491077587426</v>
       </c>
       <c r="Z4">
-        <v>0.026048680441772193</v>
+        <v>0.025710757832373966</v>
       </c>
       <c r="AA4">
-        <v>0.02611798296149127</v>
+        <v>0.025584124078358909</v>
       </c>
       <c r="AB4">
-        <v>0.026102020838139336</v>
+        <v>0.025891840050163272</v>
       </c>
       <c r="AC4">
-        <v>0.026001944023278122</v>
+        <v>0.02587726162615166</v>
       </c>
       <c r="AD4">
-        <v>0.025921648830981234</v>
+        <v>0.025807279549920428</v>
       </c>
       <c r="AE4">
-        <v>0.026182565973819592</v>
+        <v>0.025704811482881972</v>
       </c>
       <c r="AF4">
-        <v>0.025811952858789598</v>
+        <v>0.025673266384264572</v>
       </c>
       <c r="AG4">
-        <v>0.025931109841102952</v>
+        <v>0.025593703844306561</v>
       </c>
       <c r="AH4">
-        <v>0.025770137619079345</v>
+        <v>0.025815442263177502</v>
       </c>
       <c r="AI4">
-        <v>0.025927322319787571</v>
+        <v>0.025387064684516764</v>
       </c>
       <c r="AJ4">
-        <v>0.025670466350232929</v>
+        <v>0.025825672339714712</v>
       </c>
       <c r="AK4">
-        <v>0.025618282425647412</v>
+        <v>0.025559339786370931</v>
       </c>
       <c r="AL4">
-        <v>0.025990357961444568</v>
+        <v>0.025597543200152919</v>
       </c>
       <c r="AM4">
-        <v>0.025923539006231247</v>
+        <v>0.025428867906439962</v>
       </c>
       <c r="AN4">
-        <v>0.02572170831642916</v>
+        <v>0.025609086574713742</v>
       </c>
       <c r="AO4">
-        <v>0.025677487209607362</v>
+        <v>0.025264682472400584</v>
       </c>
       <c r="AP4">
-        <v>0.025912214068132149</v>
+        <v>0.025396108697520969</v>
       </c>
       <c r="AQ4">
-        <v>0.025616557230464444</v>
+        <v>0.025452725435688668</v>
       </c>
       <c r="AR4">
-        <v>0.025647751544608712</v>
+        <v>0.0256536934799757</v>
       </c>
       <c r="AS4">
-        <v>0.025904684944227527</v>
+        <v>0.02543985834365509</v>
       </c>
       <c r="AT4">
-        <v>0.025952016634308437</v>
+        <v>0.025512171725703997</v>
       </c>
       <c r="AU4">
-        <v>0.025915984926470858</v>
+        <v>0.025340423671825124</v>
       </c>
       <c r="AV4">
-        <v>0.025602787964156184</v>
+        <v>0.025352917490611436</v>
       </c>
       <c r="AW4">
-        <v>0.025821112565295942</v>
+        <v>0.025320884005110959</v>
       </c>
       <c r="AX4">
-        <v>0.025630384803408547</v>
+        <v>0.025275148357056534</v>
       </c>
       <c r="AY4">
-        <v>0.025848741518250635</v>
+        <v>0.02533686252116174</v>
       </c>
       <c r="AZ4">
-        <v>0.025476463465605531</v>
+        <v>0.025387064902305918</v>
       </c>
       <c r="BA4">
-        <v>0.025625192673456369</v>
+        <v>0.025493483610252492</v>
       </c>
       <c r="BB4">
-        <v>0.025777372648883943</v>
+        <v>0.025370846823453121</v>
       </c>
       <c r="BC4">
-        <v>0.025735984642342884</v>
+        <v>0.02559946455115213</v>
       </c>
       <c r="BD4">
-        <v>0.025974970248092311</v>
+        <v>0.025482319556189275</v>
       </c>
       <c r="BE4">
-        <v>0.025746732138306822</v>
+        <v>0.025292664997581871</v>
       </c>
       <c r="BF4">
-        <v>0.025969217498820727</v>
+        <v>0.025669343259951957</v>
       </c>
       <c r="BG4">
-        <v>0.025734196802027549</v>
+        <v>0.025452725577565845</v>
       </c>
       <c r="BH4">
-        <v>0.025654724206650534</v>
+        <v>0.025474897029254037</v>
       </c>
       <c r="BI4">
-        <v>0.025856147645931287</v>
+        <v>0.025593704054334771</v>
       </c>
       <c r="BJ4">
-        <v>0.025914099135762786</v>
+        <v>0.025441693791349553</v>
       </c>
       <c r="BK4">
-        <v>0.025845044686718999</v>
+        <v>0.025557440923092391</v>
       </c>
       <c r="BL4">
-        <v>0.02572883897384947</v>
+        <v>0.025555542776511245</v>
       </c>
       <c r="BM4">
-        <v>0.026017453192116374</v>
+        <v>0.025605234852463285</v>
       </c>
       <c r="BN4">
-        <v>0.025948206102953193</v>
+        <v>0.025275148551678582</v>
       </c>
       <c r="BO4">
-        <v>0.026021341312126418</v>
+        <v>0.025758691745526856</v>
       </c>
       <c r="BP4">
-        <v>0.026328073257757066</v>
+        <v>0.025665424377826422</v>
       </c>
       <c r="BQ4">
-        <v>0.026276339297655566</v>
+        <v>0.026095877656273879</v>
       </c>
       <c r="BR4">
-        <v>0.026259680303016612</v>
+        <v>0.025967844184512864</v>
       </c>
       <c r="BS4">
-        <v>0.026432369699177435</v>
+        <v>0.026220729767296225</v>
       </c>
       <c r="BT4">
-        <v>0.02677378800457365</v>
+        <v>0.026656312181249486</v>
       </c>
       <c r="BU4">
-        <v>0.027070467583063137</v>
+        <v>0.02651189009362169</v>
       </c>
       <c r="BV4">
-        <v>0.027057204256074985</v>
+        <v>0.026549160253011704</v>
       </c>
       <c r="BW4">
-        <v>0.024569273725618158</v>
+        <v>0.024201552105219955</v>
       </c>
       <c r="BX4">
-        <v>0.024569386722001589</v>
+        <v>0.024213116465276067</v>
       </c>
       <c r="BY4">
-        <v>0.02394045980492767</v>
+        <v>0.023600412890739875</v>
       </c>
       <c r="BZ4">
-        <v>0.023862625922163701</v>
+        <v>0.023557703939918188</v>
       </c>
       <c r="CA4">
-        <v>0.02414612061416679</v>
+        <v>0.023726360696525485</v>
       </c>
       <c r="CB4">
-        <v>0.023334940298434675</v>
+        <v>0.023198265417073514</v>
       </c>
       <c r="CC4">
-        <v>0.023565930135090549</v>
+        <v>0.02315639664794731</v>
       </c>
       <c r="CD4">
-        <v>0.02341799310185531</v>
+        <v>0.023166301477806236</v>
       </c>
       <c r="CE4">
-        <v>0.023668787499569851</v>
+        <v>0.023274463478416597</v>
       </c>
       <c r="CF4">
-        <v>0.023514959857651868</v>
+        <v>0.023331701130993306</v>
       </c>
       <c r="CG4">
-        <v>0.023738805657019271</v>
+        <v>0.023276757703822527</v>
       </c>
       <c r="CH4">
-        <v>0.023686870132503413</v>
+        <v>0.023146129153182125</v>
       </c>
       <c r="CI4">
-        <v>0.023800637589095772</v>
+        <v>0.023176862444279189</v>
       </c>
       <c r="CJ4">
-        <v>0.023805878368457323</v>
+        <v>0.023292868488596217</v>
       </c>
       <c r="CK4">
-        <v>0.024051355222290599</v>
+        <v>0.023373686792778247</v>
       </c>
       <c r="CL4">
-        <v>0.024496131298066205</v>
+        <v>0.023933775519110929</v>
       </c>
       <c r="CM4">
-        <v>0.02423827612314635</v>
+        <v>0.023876433105787739</v>
       </c>
       <c r="CN4">
-        <v>0.024773719074538292</v>
+        <v>0.024394842499414229</v>
       </c>
       <c r="CO4">
-        <v>0.024832717920259161</v>
+        <v>0.024434462685055593</v>
       </c>
       <c r="CP4">
-        <v>0.024900425619698373</v>
+        <v>0.0244913770566179</v>
       </c>
       <c r="CQ4">
-        <v>0.02201770959981534</v>
+        <v>0.021709057520609924</v>
       </c>
       <c r="CR4">
-        <v>0.022178096306188985</v>
+        <v>0.021722680589082423</v>
       </c>
       <c r="CS4">
-        <v>0.021656929769993054</v>
+        <v>0.021423695653814762</v>
       </c>
       <c r="CT4">
-        <v>0.0218156345390896</v>
+        <v>0.021432326070211623</v>
       </c>
       <c r="CU4">
-        <v>0.021828440659724981</v>
+        <v>0.021514492777890269</v>
       </c>
       <c r="CV4">
-        <v>0.021547991688275828</v>
+        <v>0.02110027334511054</v>
       </c>
       <c r="CW4">
-        <v>0.021593672837566288</v>
+        <v>0.021042855420628871</v>
       </c>
       <c r="CX4">
-        <v>0.021658578174534933</v>
+        <v>0.021228772605091595</v>
       </c>
       <c r="CY4">
-        <v>0.021405262262981277</v>
+        <v>0.021177121978760989</v>
       </c>
       <c r="CZ4">
-        <v>0.021703397892715363</v>
+        <v>0.021218045666755007</v>
       </c>
       <c r="DA4">
-        <v>0.021735922037454666</v>
+        <v>0.021241912754353325</v>
       </c>
       <c r="DB4">
-        <v>0.021625478998439182</v>
+        <v>0.021258907199510686</v>
       </c>
       <c r="DC4">
-        <v>0.021673919114470298</v>
+        <v>0.021396105322713681</v>
       </c>
       <c r="DD4">
-        <v>0.021601635358236934</v>
+        <v>0.021215886841768814</v>
       </c>
       <c r="DE4">
-        <v>0.02181092278369752</v>
+        <v>0.02125426042146665</v>
       </c>
       <c r="DF4">
-        <v>0.021891766573427042</v>
+        <v>0.021525954011855728</v>
       </c>
       <c r="DG4">
-        <v>0.021914590196701819</v>
+        <v>0.021430673864200722</v>
       </c>
       <c r="DH4">
-        <v>0.021762328116908626</v>
+        <v>0.021409822390337851</v>
       </c>
       <c r="DI4">
-        <v>0.021856336671239322</v>
+        <v>0.021524279500799937</v>
       </c>
       <c r="DJ4">
-        <v>0.02199622129972956</v>
+        <v>0.021492676407779136</v>
       </c>
       <c r="DK4">
-        <v>0.021207060143306779</v>
+        <v>0.020901271612443331</v>
       </c>
       <c r="DL4">
-        <v>0.021298279411921819</v>
+        <v>0.0208750480501824</v>
       </c>
       <c r="DM4">
-        <v>0.021339913106139401</v>
+        <v>0.02095812269577756</v>
       </c>
       <c r="DN4">
-        <v>0.021376912974950146</v>
+        <v>0.020734637224074697</v>
       </c>
       <c r="DO4">
-        <v>0.021409060347585954</v>
+        <v>0.020878529256062078</v>
       </c>
       <c r="DP4">
-        <v>0.021360990003415688</v>
+        <v>0.020994296916360514</v>
       </c>
       <c r="DQ4">
-        <v>0.021396510662547167</v>
+        <v>0.021090747916366562</v>
       </c>
       <c r="DR4">
-        <v>0.021257324891737595</v>
+        <v>0.020947367955446741</v>
       </c>
       <c r="DS4">
-        <v>0.021378688632444635</v>
+        <v>0.020906549020067337</v>
       </c>
       <c r="DT4">
-        <v>0.021350429965317802</v>
+        <v>0.020866366537273934</v>
       </c>
       <c r="DU4">
-        <v>0.021301723213528617</v>
+        <v>0.021070049823919603</v>
       </c>
       <c r="DV4">
-        <v>0.021380465428428669</v>
+        <v>0.02102913171366954</v>
       </c>
       <c r="DW4">
-        <v>0.021655830129481527</v>
+        <v>0.021068176238499596</v>
       </c>
       <c r="DX4">
-        <v>0.021478276971823407</v>
+        <v>0.021169339590660471</v>
       </c>
       <c r="DY4">
-        <v>0.02148012374690907</v>
+        <v>0.02124628027667123</v>
       </c>
       <c r="DZ4">
-        <v>0.02155698644728183</v>
+        <v>0.021105903382229039</v>
       </c>
       <c r="EA4">
-        <v>0.021539920044565813</v>
+        <v>0.021149958115759517</v>
       </c>
       <c r="EB4">
-        <v>0.021591454264602829</v>
+        <v>0.02121445148616298</v>
       </c>
       <c r="EC4">
-        <v>0.021538030702851249</v>
+        <v>0.021335760187217136</v>
       </c>
       <c r="ED4">
-        <v>0.021669687538035162</v>
+        <v>0.021175181650221718</v>
       </c>
       <c r="EE4">
-        <v>0.021699623616180691</v>
+        <v>0.021206552115933128</v>
       </c>
       <c r="EF4">
-        <v>0.021695612960587266</v>
+        <v>0.021383708100869349</v>
       </c>
       <c r="EG4">
-        <v>0.021713708224225442</v>
+        <v>0.021373214532620175</v>
       </c>
       <c r="EH4">
-        <v>0.021713708280315255</v>
+        <v>0.021242281832269783</v>
       </c>
       <c r="EI4">
-        <v>0.021744137890620952</v>
+        <v>0.021352344755004894</v>
       </c>
       <c r="EJ4">
-        <v>0.021850204758964729</v>
+        <v>0.021179083507990901</v>
       </c>
       <c r="EK4">
-        <v>0.021766671078923612</v>
+        <v>0.021373214762798999</v>
       </c>
       <c r="EL4">
-        <v>0.021833294602402433</v>
+        <v>0.021432490311720093</v>
       </c>
       <c r="EM4">
-        <v>0.021795620619698496</v>
+        <v>0.021514973965705404</v>
       </c>
       <c r="EN4">
-        <v>0.021860826479802135</v>
+        <v>0.021451810864251269</v>
       </c>
       <c r="EO4">
-        <v>0.022036476492053952</v>
+        <v>0.021451810922656956</v>
       </c>
       <c r="EP4">
-        <v>0.022047824214797864</v>
+        <v>0.021552659393543998</v>
       </c>
       <c r="EQ4">
-        <v>0.022002701223097255</v>
+        <v>0.021575059666857986</v>
       </c>
       <c r="ER4">
-        <v>0.022016163525799114</v>
+        <v>0.021545973200189885</v>
       </c>
       <c r="ES4">
-        <v>0.022027430832954359</v>
+        <v>0.021811461461825624</v>
       </c>
       <c r="ET4">
-        <v>0.021860826823819179</v>
+        <v>0.021855637643008664</v>
       </c>
       <c r="EU4">
-        <v>0.021934145541190341</v>
+        <v>0.021506178741385343</v>
       </c>
       <c r="EV4">
-        <v>0.022154372694012273</v>
+        <v>0.021748777374248841</v>
       </c>
       <c r="EW4">
-        <v>0.02218520554420465</v>
+        <v>0.021748777430780519</v>
       </c>
       <c r="EX4">
-        <v>0.022204342019687798</v>
+        <v>0.021787196781613685</v>
       </c>
       <c r="EY4">
-        <v>0.022102925549686344</v>
+        <v>0.021668750159572966</v>
       </c>
       <c r="EZ4">
-        <v>0.022182822403071383</v>
+        <v>0.021821222981446637</v>
       </c>
       <c r="FA4">
-        <v>0.022149658195102274</v>
+        <v>0.021673398200013391</v>
       </c>
       <c r="FB4">
-        <v>0.022084441561745796</v>
+        <v>0.021895454514413951</v>
       </c>
       <c r="FC4">
-        <v>0.021931961999215602</v>
+        <v>0.021746392931379178</v>
       </c>
       <c r="FD4">
-        <v>0.022446718824691812</v>
+        <v>0.021860586784407148</v>
       </c>
       <c r="FE4">
-        <v>0.022211550800101204</v>
+        <v>0.022065392080481736</v>
       </c>
       <c r="FF4">
-        <v>0.022137904780259947</v>
+        <v>0.021953617512626946</v>
       </c>
       <c r="FG4">
-        <v>0.022459755472875324</v>
+        <v>0.021999917201714705</v>
       </c>
       <c r="FH4">
-        <v>0.022367114253599132</v>
+        <v>0.022012902354358817</v>
       </c>
       <c r="FI4">
-        <v>0.022523112450139694</v>
+        <v>0.02197154058159087</v>
       </c>
       <c r="FJ4">
-        <v>0.022336852805497874</v>
+        <v>0.022110712698523931</v>
       </c>
       <c r="FK4">
-        <v>0.022574207260603316</v>
+        <v>0.022129565690218192</v>
       </c>
       <c r="FL4">
-        <v>0.022512462300328905</v>
+        <v>0.022178567479301792</v>
       </c>
       <c r="FM4">
-        <v>0.022472847991421539</v>
+        <v>0.022137680256676825</v>
       </c>
       <c r="FN4">
-        <v>0.022563380640921473</v>
+        <v>0.022200591295170238</v>
       </c>
       <c r="FO4">
-        <v>0.022645510147448793</v>
+        <v>0.022164879889239819</v>
       </c>
       <c r="FP4">
-        <v>0.022585072058147245</v>
+        <v>0.022173085526684753</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.016192351258012928</v>
+        <v>0.015659456553451231</v>
       </c>
     </row>
   </sheetData>
@@ -5889,517 +5889,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.3679051833396318</v>
+        <v>3.3472074541676546</v>
       </c>
       <c r="C3">
-        <v>-1.6448087324276934</v>
+        <v>-1.6533327693921491</v>
       </c>
       <c r="D3">
-        <v>-1.6883700980801049</v>
+        <v>-1.7002362719201329</v>
       </c>
       <c r="E3">
-        <v>-1.6977889566703379</v>
+        <v>-1.7308924531646672</v>
       </c>
       <c r="F3">
-        <v>-0.0053527358253411201</v>
+        <v>-0.0021318603821008125</v>
       </c>
       <c r="G3">
-        <v>-0.00073898559093304626</v>
+        <v>-0.0035201986843275009</v>
       </c>
       <c r="H3">
-        <v>0.0071531787194820231</v>
+        <v>0.0077238404216139027</v>
       </c>
       <c r="I3">
-        <v>0.0053848569474011319</v>
+        <v>0.0073305626156936581</v>
       </c>
       <c r="J3">
-        <v>-0.010250037813349436</v>
+        <v>-0.012560850037577738</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2935997466240032</v>
+        <v>1.2596455639953925</v>
       </c>
       <c r="M3">
-        <v>1.4275867791880528</v>
+        <v>1.345232484536625</v>
       </c>
       <c r="N3">
-        <v>-0.049996696629031077</v>
+        <v>-0.23106578485616644</v>
       </c>
       <c r="O3">
-        <v>-0.06201050442036752</v>
+        <v>-0.1429345889439527</v>
       </c>
       <c r="P3">
-        <v>-0.089867589365264372</v>
+        <v>-0.15632695098764984</v>
       </c>
       <c r="Q3">
-        <v>-0.11407390264096706</v>
+        <v>-0.13031512970666098</v>
       </c>
       <c r="R3">
-        <v>-0.089421513107191916</v>
+        <v>-0.06853151384590471</v>
       </c>
       <c r="S3">
-        <v>-0.069613733116882931</v>
+        <v>-0.078419083117104382</v>
       </c>
       <c r="T3">
-        <v>-0.015252037841143177</v>
+        <v>-0.1256069112555705</v>
       </c>
       <c r="U3">
-        <v>-0.048584525289843652</v>
+        <v>-0.12406232688899357</v>
       </c>
       <c r="V3">
-        <v>-0.026983880722220247</v>
+        <v>-0.087058296402083277</v>
       </c>
       <c r="W3">
-        <v>0.018233567546363624</v>
+        <v>-0.082208486148462767</v>
       </c>
       <c r="X3">
-        <v>0.011831685269122569</v>
+        <v>-0.048985486160274122</v>
       </c>
       <c r="Y3">
-        <v>-0.0010700052005997262</v>
+        <v>-0.06193424351295853</v>
       </c>
       <c r="Z3">
-        <v>0.0077102725706867416</v>
+        <v>-0.018359514823015233</v>
       </c>
       <c r="AA3">
-        <v>0.014044330919984511</v>
+        <v>-0.015270595094093271</v>
       </c>
       <c r="AB3">
-        <v>-0.044315615239926595</v>
+        <v>-0.040410413142882365</v>
       </c>
       <c r="AC3">
-        <v>0.043781161243382404</v>
+        <v>-0.088552914319022916</v>
       </c>
       <c r="AD3">
-        <v>0.06752780323534352</v>
+        <v>-0.062286485896785107</v>
       </c>
       <c r="AE3">
-        <v>0.0074276576447812881</v>
+        <v>-0.055876072903768587</v>
       </c>
       <c r="AF3">
-        <v>-0.022063580212789546</v>
+        <v>-0.047081546102416764</v>
       </c>
       <c r="AG3">
-        <v>0.046786722391235644</v>
+        <v>-0.054402600629676383</v>
       </c>
       <c r="AH3">
-        <v>0.049103436297634286</v>
+        <v>-0.056099049103682054</v>
       </c>
       <c r="AI3">
-        <v>0.056812474430478654</v>
+        <v>-0.037673821525120277</v>
       </c>
       <c r="AJ3">
-        <v>0.080377320689775753</v>
+        <v>-0.026617691872522265</v>
       </c>
       <c r="AK3">
-        <v>0.069082188518510543</v>
+        <v>0.01130787237583018</v>
       </c>
       <c r="AL3">
-        <v>0.02953657884492342</v>
+        <v>-0.016436984481891955</v>
       </c>
       <c r="AM3">
-        <v>0.059923171800441467</v>
+        <v>-0.0078827842084995183</v>
       </c>
       <c r="AN3">
-        <v>0.069879428654446352</v>
+        <v>0.019687975818782216</v>
       </c>
       <c r="AO3">
-        <v>0.12547560260856128</v>
+        <v>0.0098445632951821727</v>
       </c>
       <c r="AP3">
-        <v>-0.013473495992901867</v>
+        <v>-0.0078697872420042357</v>
       </c>
       <c r="AQ3">
-        <v>0.046774961433357513</v>
+        <v>-0.029917584541608436</v>
       </c>
       <c r="AR3">
-        <v>0.082836615843132802</v>
+        <v>-0.035551886591977631</v>
       </c>
       <c r="AS3">
-        <v>0.073784215354159258</v>
+        <v>0.03106088000564464</v>
       </c>
       <c r="AT3">
-        <v>0.017393025387666974</v>
+        <v>0.023577661547220567</v>
       </c>
       <c r="AU3">
-        <v>0.051435107028389757</v>
+        <v>0.087376016601550907</v>
       </c>
       <c r="AV3">
-        <v>0.042806113225586327</v>
+        <v>0.025974207896886623</v>
       </c>
       <c r="AW3">
-        <v>0.023698090154637468</v>
+        <v>0.020707260290706977</v>
       </c>
       <c r="AX3">
-        <v>0.10612718762864883</v>
+        <v>0.098998573427170042</v>
       </c>
       <c r="AY3">
-        <v>0.09503256927073174</v>
+        <v>0.024633496116579758</v>
       </c>
       <c r="AZ3">
-        <v>0.11438587873232069</v>
+        <v>-0.025126520526298768</v>
       </c>
       <c r="BA3">
-        <v>0.097409074715394242</v>
+        <v>-0.012474837014357115</v>
       </c>
       <c r="BB3">
-        <v>0.096719496025366919</v>
+        <v>0.027709158695684775</v>
       </c>
       <c r="BC3">
-        <v>0.074022761372202567</v>
+        <v>0.0047322423104501311</v>
       </c>
       <c r="BD3">
-        <v>0.05388104499745304</v>
+        <v>6.4104455822493406e-05</v>
       </c>
       <c r="BE3">
-        <v>0.088543431212410498</v>
+        <v>0.01324792213634084</v>
       </c>
       <c r="BF3">
-        <v>0.031673522832116038</v>
+        <v>0.010172901492279021</v>
       </c>
       <c r="BG3">
-        <v>0.048347433352479756</v>
+        <v>-0.054586998236911634</v>
       </c>
       <c r="BH3">
-        <v>0.036403233587801315</v>
+        <v>0.0062603631498994727</v>
       </c>
       <c r="BI3">
-        <v>0.10367464007196862</v>
+        <v>0.054886983652311046</v>
       </c>
       <c r="BJ3">
-        <v>0.084078376549074824</v>
+        <v>0.059407546792871253</v>
       </c>
       <c r="BK3">
-        <v>0.072581890941710331</v>
+        <v>-0.0022669447106248462</v>
       </c>
       <c r="BL3">
-        <v>0.082604593241973584</v>
+        <v>0.044616334351824063</v>
       </c>
       <c r="BM3">
-        <v>0.081100098736999776</v>
+        <v>-0.031834104660661527</v>
       </c>
       <c r="BN3">
-        <v>0.076506217622722167</v>
+        <v>0.043923071151372839</v>
       </c>
       <c r="BO3">
-        <v>0.084987016313850958</v>
+        <v>0.017260913697786609</v>
       </c>
       <c r="BP3">
-        <v>0.049119424097982554</v>
+        <v>0.068590148554682512</v>
       </c>
       <c r="BQ3">
-        <v>0.093828580728871999</v>
+        <v>0.038615502869934037</v>
       </c>
       <c r="BR3">
-        <v>0.10158804349195856</v>
+        <v>0.016621142070710127</v>
       </c>
       <c r="BS3">
-        <v>0.036170820484908758</v>
+        <v>-0.0059210962106544945</v>
       </c>
       <c r="BT3">
-        <v>0.051442738481922948</v>
+        <v>0.086657739810424558</v>
       </c>
       <c r="BU3">
-        <v>0.034896600085741102</v>
+        <v>0.0058907734455788128</v>
       </c>
       <c r="BV3">
-        <v>-0.13753813936260634</v>
+        <v>-0.18407457902695507</v>
       </c>
       <c r="BW3">
-        <v>0.082699876088170962</v>
+        <v>0.024989647100534588</v>
       </c>
       <c r="BX3">
-        <v>0.094015589848223668</v>
+        <v>0.017847455449656227</v>
       </c>
       <c r="BY3">
-        <v>0.084103312643814696</v>
+        <v>0.024438470573935511</v>
       </c>
       <c r="BZ3">
-        <v>0.11979685810335645</v>
+        <v>0.047198872564273638</v>
       </c>
       <c r="CA3">
-        <v>0.052272779027309771</v>
+        <v>0.017850077267831502</v>
       </c>
       <c r="CB3">
-        <v>0.10962969196709839</v>
+        <v>5.4493618786454051e-06</v>
       </c>
       <c r="CC3">
-        <v>0.062932591612942401</v>
+        <v>0.018886741402970399</v>
       </c>
       <c r="CD3">
-        <v>0.11391535133671765</v>
+        <v>0.018114779830489203</v>
       </c>
       <c r="CE3">
-        <v>0.056155957867040064</v>
+        <v>-0.022666586853411674</v>
       </c>
       <c r="CF3">
-        <v>0.098613672889759418</v>
+        <v>-0.0039145640367896578</v>
       </c>
       <c r="CG3">
-        <v>0.0545661866017675</v>
+        <v>0.0016050296432241851</v>
       </c>
       <c r="CH3">
-        <v>0.066263764807743541</v>
+        <v>0.033628610964390751</v>
       </c>
       <c r="CI3">
-        <v>0.041450128596708311</v>
+        <v>0.036723723378940649</v>
       </c>
       <c r="CJ3">
-        <v>0.063291996544438012</v>
+        <v>0.011869726423063489</v>
       </c>
       <c r="CK3">
-        <v>0.087074958896758536</v>
+        <v>0.074647732757244262</v>
       </c>
       <c r="CL3">
-        <v>0.071287807391430244</v>
+        <v>0.026804422553611141</v>
       </c>
       <c r="CM3">
-        <v>0.1210699581577611</v>
+        <v>0.052111194063261118</v>
       </c>
       <c r="CN3">
-        <v>0.099078307311199654</v>
+        <v>0.037782674480903271</v>
       </c>
       <c r="CO3">
-        <v>0.099797898768441917</v>
+        <v>0.035637353401146495</v>
       </c>
       <c r="CP3">
-        <v>0.14133596831254755</v>
+        <v>0.090993291251656158</v>
       </c>
       <c r="CQ3">
-        <v>0.12547068986117299</v>
+        <v>0.037714060855955113</v>
       </c>
       <c r="CR3">
-        <v>0.088441300286021457</v>
+        <v>0.03847767883331852</v>
       </c>
       <c r="CS3">
-        <v>0.12755519700748383</v>
+        <v>0.025617437042127406</v>
       </c>
       <c r="CT3">
-        <v>0.091784574909845332</v>
+        <v>0.027663529854080372</v>
       </c>
       <c r="CU3">
-        <v>0.092773751579270869</v>
+        <v>0.011908188375936459</v>
       </c>
       <c r="CV3">
-        <v>0.088384141510920083</v>
+        <v>0.03381818615681853</v>
       </c>
       <c r="CW3">
-        <v>0.081477279325193872</v>
+        <v>0.051976323025176172</v>
       </c>
       <c r="CX3">
-        <v>0.070048596776654079</v>
+        <v>0.01167635514299009</v>
       </c>
       <c r="CY3">
-        <v>0.1360542233692183</v>
+        <v>0.028028519278318616</v>
       </c>
       <c r="CZ3">
-        <v>0.067877209330553703</v>
+        <v>0.022519885159298099</v>
       </c>
       <c r="DA3">
-        <v>0.068784141922704156</v>
+        <v>0.022906349777947591</v>
       </c>
       <c r="DB3">
-        <v>0.099183573232251132</v>
+        <v>0.023080363673829624</v>
       </c>
       <c r="DC3">
-        <v>0.091784835639573639</v>
+        <v>-0.0045409334500260169</v>
       </c>
       <c r="DD3">
-        <v>0.11333088536774823</v>
+        <v>0.0414424542367322</v>
       </c>
       <c r="DE3">
-        <v>0.067974853162221613</v>
+        <v>0.03664306909728153</v>
       </c>
       <c r="DF3">
-        <v>0.077601003120896406</v>
+        <v>0.0046874973302626997</v>
       </c>
       <c r="DG3">
-        <v>0.076388471618150308</v>
+        <v>0.030573895997286077</v>
       </c>
       <c r="DH3">
-        <v>0.11627874414923595</v>
+        <v>0.039562381456465588</v>
       </c>
       <c r="DI3">
-        <v>0.098300817124157655</v>
+        <v>0.017476066341476297</v>
       </c>
       <c r="DJ3">
-        <v>0.070117774556539447</v>
+        <v>0.028783280401554385</v>
       </c>
       <c r="DK3">
-        <v>0.098045752370346462</v>
+        <v>0.0099156236487468307</v>
       </c>
       <c r="DL3">
-        <v>0.081735496938268384</v>
+        <v>0.019759857341698904</v>
       </c>
       <c r="DM3">
-        <v>0.076613013095097701</v>
+        <v>0.0057888960326165813</v>
       </c>
       <c r="DN3">
-        <v>0.072555067768606596</v>
+        <v>0.059189937782175905</v>
       </c>
       <c r="DO3">
-        <v>0.069593487119237435</v>
+        <v>0.031525504470550109</v>
       </c>
       <c r="DP3">
-        <v>0.084229303417383619</v>
+        <v>0.010559995642498328</v>
       </c>
       <c r="DQ3">
-        <v>0.080556618903088101</v>
+        <v>-0.0059256279805213171</v>
       </c>
       <c r="DR3">
-        <v>0.11556294472671969</v>
+        <v>0.028835169658137285</v>
       </c>
       <c r="DS3">
-        <v>0.092861392059273143</v>
+        <v>0.041896808098456501</v>
       </c>
       <c r="DT3">
-        <v>0.10326412770890031</v>
+        <v>0.054935675037962352</v>
       </c>
       <c r="DU3">
-        <v>0.11829039299600712</v>
+        <v>0.015198704297012151</v>
       </c>
       <c r="DV3">
-        <v>0.10514298621772761</v>
+        <v>0.028044119357763186</v>
       </c>
       <c r="DW3">
-        <v>0.050229103972032632</v>
+        <v>0.023892831769874751</v>
       </c>
       <c r="DX3">
-        <v>0.092045709447575758</v>
+        <v>0.0067246066786079374</v>
       </c>
       <c r="DY3">
-        <v>0.095816790767827731</v>
+        <v>-0.005175908323851632</v>
       </c>
       <c r="DZ3">
-        <v>0.083498971427752089</v>
+        <v>0.028180744881230284</v>
       </c>
       <c r="EA3">
-        <v>0.091279784195175961</v>
+        <v>0.023082979824315921</v>
       </c>
       <c r="EB3">
-        <v>0.084468367230960864</v>
+        <v>0.013780691028989503</v>
       </c>
       <c r="EC3">
-        <v>0.099989934372199926</v>
+        <v>-0.0070418318046893387</v>
       </c>
       <c r="ED3">
-        <v>0.076322000987327721</v>
+        <v>0.030103786969087273</v>
       </c>
       <c r="EE3">
-        <v>0.074173317531725777</v>
+        <v>0.027750814487884957</v>
       </c>
       <c r="EF3">
-        <v>0.079105629162143323</v>
+        <v>-0.0043815426024317013</v>
       </c>
       <c r="EG3">
-        <v>0.079454204841923046</v>
+        <v>0.0017821832776186107</v>
       </c>
       <c r="EH3">
-        <v>0.083572158332682459</v>
+        <v>0.032627634861044127</v>
       </c>
       <c r="EI3">
-        <v>0.081395541385079984</v>
+        <v>0.014273783036438939</v>
       </c>
       <c r="EJ3">
-        <v>0.063760201446720621</v>
+        <v>0.054065927022696497</v>
       </c>
       <c r="EK3">
-        <v>0.084921466113582367</v>
+        <v>0.018444216937142831</v>
       </c>
       <c r="EL3">
-        <v>0.075399271523758166</v>
+        <v>0.010634257951992217</v>
       </c>
       <c r="EM3">
-        <v>0.087208761578624491</v>
+        <v>-0.0017047084629474723</v>
       </c>
       <c r="EN3">
-        <v>0.078046399234876843</v>
+        <v>0.014919173093801566</v>
       </c>
       <c r="EO3">
-        <v>0.04696521273211627</v>
+        <v>0.019039322721085872</v>
       </c>
       <c r="EP3">
-        <v>0.048710160434635857</v>
+        <v>0.0031608576671517843</v>
       </c>
       <c r="EQ3">
-        <v>0.061637818536622667</v>
+        <v>0.0028281752983533308</v>
       </c>
       <c r="ER3">
-        <v>0.06301083451239585</v>
+        <v>0.012620938617164255</v>
       </c>
       <c r="ES3">
-        <v>0.064829301728375491</v>
+        <v>-0.034595500504006546</v>
       </c>
       <c r="ET3">
-        <v>0.102292784992673</v>
+        <v>-0.039024484785140909</v>
       </c>
       <c r="EU3">
-        <v>0.091698608910328105</v>
+        <v>0.032426394213967272</v>
       </c>
       <c r="EV3">
-        <v>0.052381025528887175</v>
+        <v>-0.010639211634447055</v>
       </c>
       <c r="EW3">
-        <v>0.050414863339469977</v>
+        <v>-0.0066232414014419259</v>
       </c>
       <c r="EX3">
-        <v>0.050720693329217886</v>
+        <v>-0.0099218137496851454</v>
       </c>
       <c r="EY3">
-        <v>0.074419398503422093</v>
+        <v>0.016830308366146934</v>
       </c>
       <c r="EZ3">
-        <v>0.062973730109100096</v>
+        <v>-0.0082338015092286131</v>
       </c>
       <c r="FA3">
-        <v>0.073453471618435767</v>
+        <v>0.024084725643545926</v>
       </c>
       <c r="FB3">
-        <v>0.090283118940088725</v>
+        <v>-0.014032031730837582</v>
       </c>
       <c r="FC3">
-        <v>0.12472116258691816</v>
+        <v>0.018198555995077866</v>
       </c>
       <c r="FD3">
-        <v>0.029525228200075165</v>
+        <v>0.00065297431106908939</v>
       </c>
       <c r="FE3">
-        <v>0.077962256848783176</v>
+        <v>-0.033298428208454578</v>
       </c>
       <c r="FF3">
-        <v>0.096333840374685703</v>
+        <v>-0.0087617131974866563</v>
       </c>
       <c r="FG3">
-        <v>0.039317024442794467</v>
+        <v>-0.013314637192209933</v>
       </c>
       <c r="FH3">
-        <v>0.060598755460906172</v>
+        <v>-0.011704846207044475</v>
       </c>
       <c r="FI3">
-        <v>0.035594178915710283</v>
+        <v>-4.7762531778409198e-05</v>
       </c>
       <c r="FJ3">
-        <v>0.074290409478903405</v>
+        <v>-0.021540751934893083</v>
       </c>
       <c r="FK3">
-        <v>0.034255629499734187</v>
+        <v>-0.020992346598465609</v>
       </c>
       <c r="FL3">
-        <v>0.04952994452341835</v>
+        <v>-0.025876293812559372</v>
       </c>
       <c r="FM3">
-        <v>0.060852721941782269</v>
+        <v>-0.014533636881743455</v>
       </c>
       <c r="FN3">
-        <v>0.048210418659812522</v>
+        <v>-0.021883291493390293</v>
       </c>
       <c r="FO3">
-        <v>0.037246136164979425</v>
+        <v>-0.01148129646676849</v>
       </c>
       <c r="FP3">
-        <v>0.052182605049359926</v>
+        <v>-0.0089491542363220097</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5739128527231632</v>
+        <v>-5.5088457542015261</v>
       </c>
     </row>
     <row r="4">
@@ -6416,517 +6416,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019861946333335927</v>
+        <v>0.019763894591170773</v>
       </c>
       <c r="C4">
-        <v>0.012366177523931966</v>
+        <v>0.012369681913974277</v>
       </c>
       <c r="D4">
-        <v>0.021691061204105622</v>
+        <v>0.021621237453793921</v>
       </c>
       <c r="E4">
-        <v>0.026538382826683266</v>
+        <v>0.026484541098720355</v>
       </c>
       <c r="F4">
-        <v>0.016211564991236761</v>
+        <v>0.01623026266631325</v>
       </c>
       <c r="G4">
-        <v>0.013437022662064778</v>
+        <v>0.013524947964991631</v>
       </c>
       <c r="H4">
-        <v>0.010737281247622139</v>
+        <v>0.010720540807043837</v>
       </c>
       <c r="I4">
-        <v>0.010816728432098301</v>
+        <v>0.010785554979616148</v>
       </c>
       <c r="J4">
-        <v>0.011312091614742644</v>
+        <v>0.011295975794063539</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.025173278506894249</v>
+        <v>0.02473298373202323</v>
       </c>
       <c r="M4">
-        <v>0.024633970980920735</v>
+        <v>0.024387878871041265</v>
       </c>
       <c r="N4">
-        <v>0.035452298397212811</v>
+        <v>0.036750627105395055</v>
       </c>
       <c r="O4">
-        <v>0.035603785452096276</v>
+        <v>0.035648674478713456</v>
       </c>
       <c r="P4">
-        <v>0.035948680101825434</v>
+        <v>0.03582154930828934</v>
       </c>
       <c r="Q4">
-        <v>0.036254588583611247</v>
+        <v>0.035511130834427466</v>
       </c>
       <c r="R4">
-        <v>0.035959390209151877</v>
+        <v>0.03478384621267306</v>
       </c>
       <c r="S4">
-        <v>0.035727315349280635</v>
+        <v>0.034908053369441978</v>
       </c>
       <c r="T4">
-        <v>0.035091895814495733</v>
+        <v>0.035479752559365058</v>
       </c>
       <c r="U4">
-        <v>0.035492382488369015</v>
+        <v>0.035469322966092842</v>
       </c>
       <c r="V4">
-        <v>0.035245488793142057</v>
+        <v>0.035034483604828644</v>
       </c>
       <c r="W4">
-        <v>0.034731165587042249</v>
+        <v>0.034985589559764337</v>
       </c>
       <c r="X4">
-        <v>0.034812747253342054</v>
+        <v>0.034606186702710255</v>
       </c>
       <c r="Y4">
-        <v>0.034969544814440118</v>
+        <v>0.034764930857779028</v>
       </c>
       <c r="Z4">
-        <v>0.03487687878102845</v>
+        <v>0.034272805009579937</v>
       </c>
       <c r="AA4">
-        <v>0.034812747255667402</v>
+        <v>0.034246474071628286</v>
       </c>
       <c r="AB4">
-        <v>0.035502438761943998</v>
+        <v>0.034541861654416139</v>
       </c>
       <c r="AC4">
-        <v>0.034492143484306965</v>
+        <v>0.035113418889856078</v>
       </c>
       <c r="AD4">
-        <v>0.034236192773008649</v>
+        <v>0.034812315296657376</v>
       </c>
       <c r="AE4">
-        <v>0.034923056161142045</v>
+        <v>0.034746066469787715</v>
       </c>
       <c r="AF4">
-        <v>0.035274665379929342</v>
+        <v>0.034652501570528162</v>
       </c>
       <c r="AG4">
-        <v>0.034492143487613161</v>
+        <v>0.03474606647122612</v>
       </c>
       <c r="AH4">
-        <v>0.034474770904824557</v>
+        <v>0.0347743821603212</v>
       </c>
       <c r="AI4">
-        <v>0.034397147839050471</v>
+        <v>0.034569356317821875</v>
       </c>
       <c r="AJ4">
-        <v>0.03414477084428609</v>
+        <v>0.034450996803971956</v>
       </c>
       <c r="AK4">
-        <v>0.034278171542603562</v>
+        <v>0.034030957503354907</v>
       </c>
       <c r="AL4">
-        <v>0.034731165599126014</v>
+        <v>0.034352415881252249</v>
       </c>
       <c r="AM4">
-        <v>0.03439714784254299</v>
+        <v>0.034264016672462407</v>
       </c>
       <c r="AN4">
-        <v>0.034295038016954271</v>
+        <v>0.033963431196274166</v>
       </c>
       <c r="AO4">
-        <v>0.033698304443207164</v>
+        <v>0.034082054337029856</v>
       </c>
       <c r="AP4">
-        <v>0.035264926430517769</v>
+        <v>0.034290415938314854</v>
       </c>
       <c r="AQ4">
-        <v>0.034579686942935187</v>
+        <v>0.034551014399480134</v>
       </c>
       <c r="AR4">
-        <v>0.034186168668716307</v>
+        <v>0.034624675593722641</v>
       </c>
       <c r="AS4">
-        <v>0.034295038021431225</v>
+        <v>0.033879976941714671</v>
       </c>
       <c r="AT4">
-        <v>0.03494161409994842</v>
+        <v>0.033971834637136322</v>
       </c>
       <c r="AU4">
-        <v>0.0345620869057401</v>
+        <v>0.033285895819358723</v>
       </c>
       <c r="AV4">
-        <v>0.034668381639963081</v>
+        <v>0.033963431203612969</v>
       </c>
       <c r="AW4">
-        <v>0.034895312604508663</v>
+        <v>0.03403095751421191</v>
       </c>
       <c r="AX4">
-        <v>0.033981753885712236</v>
+        <v>0.033188289103198376</v>
       </c>
       <c r="AY4">
-        <v>0.03411183988482927</v>
+        <v>0.03400555489659475</v>
       </c>
       <c r="AZ4">
-        <v>0.033909710771386097</v>
+        <v>0.034578545574699984</v>
       </c>
       <c r="BA4">
-        <v>0.034103632985340256</v>
+        <v>0.03444197603690069</v>
       </c>
       <c r="BB4">
-        <v>0.034120057105690056</v>
+        <v>0.033997108816700768</v>
       </c>
       <c r="BC4">
-        <v>0.03438002023336869</v>
+        <v>0.034264016686727357</v>
       </c>
       <c r="BD4">
-        <v>0.034615025366791889</v>
+        <v>0.034325775308566439</v>
       </c>
       <c r="BE4">
-        <v>0.034236192797310924</v>
+        <v>0.034185430734290818</v>
       </c>
       <c r="BF4">
-        <v>0.034886089536208302</v>
+        <v>0.034228976828043531</v>
       </c>
       <c r="BG4">
-        <v>0.034704187173179295</v>
+        <v>0.034985589588254096</v>
       </c>
       <c r="BH4">
-        <v>0.034849320450662802</v>
+        <v>0.034290415954348945</v>
       </c>
       <c r="BI4">
-        <v>0.034103632992854023</v>
+        <v>0.033756740008157093</v>
       </c>
       <c r="BJ4">
-        <v>0.03432890043172028</v>
+        <v>0.033716169549553018</v>
       </c>
       <c r="BK4">
-        <v>0.034466101503400341</v>
+        <v>0.034414984693048295</v>
       </c>
       <c r="BL4">
-        <v>0.034362936578565415</v>
+        <v>0.033896583929280806</v>
       </c>
       <c r="BM4">
-        <v>0.034388578548206046</v>
+        <v>0.034774382186277493</v>
       </c>
       <c r="BN4">
-        <v>0.034448796268073234</v>
+        <v>0.033921572768157757</v>
       </c>
       <c r="BO4">
-        <v>0.034362936581380753</v>
+        <v>0.034228976836291121</v>
       </c>
       <c r="BP4">
-        <v>0.034776368421080339</v>
+        <v>0.033667815047951258</v>
       </c>
       <c r="BQ4">
-        <v>0.035108392356700761</v>
+        <v>0.034842355525614745</v>
       </c>
       <c r="BR4">
-        <v>0.035031500871164786</v>
+        <v>0.035098052758914283</v>
       </c>
       <c r="BS4">
-        <v>0.035777173359225568</v>
+        <v>0.035363823676710149</v>
       </c>
       <c r="BT4">
-        <v>0.036424456738313425</v>
+        <v>0.035267537637853494</v>
       </c>
       <c r="BU4">
-        <v>0.036619435299431541</v>
+        <v>0.036163348382513588</v>
       </c>
       <c r="BV4">
-        <v>0.025789633689005061</v>
+        <v>0.025382149741307758</v>
       </c>
       <c r="BW4">
-        <v>0.026976874665551834</v>
+        <v>0.026627809322246072</v>
       </c>
       <c r="BX4">
-        <v>0.026935418072726793</v>
+        <v>0.026678625446977043</v>
       </c>
       <c r="BY4">
-        <v>0.025917506049962659</v>
+        <v>0.02561010169967462</v>
       </c>
       <c r="BZ4">
-        <v>0.02575111987442966</v>
+        <v>0.025508623456876548</v>
       </c>
       <c r="CA4">
-        <v>0.026119891695232308</v>
+        <v>0.025679141235403224</v>
       </c>
       <c r="CB4">
-        <v>0.024928113261316203</v>
+        <v>0.024816737750291105</v>
       </c>
       <c r="CC4">
-        <v>0.025198670596783421</v>
+        <v>0.024731404024697368</v>
       </c>
       <c r="CD4">
-        <v>0.024941885649464358</v>
+        <v>0.024754504455449366</v>
       </c>
       <c r="CE4">
-        <v>0.025274331358212453</v>
+        <v>0.025001838371631679</v>
       </c>
       <c r="CF4">
-        <v>0.025060450852904377</v>
+        <v>0.02491456506737157</v>
       </c>
       <c r="CG4">
-        <v>0.025325828773039741</v>
+        <v>0.024906196617300622</v>
       </c>
       <c r="CH4">
-        <v>0.025279095760562902</v>
+        <v>0.02474712013316779</v>
       </c>
       <c r="CI4">
-        <v>0.02543766162418485</v>
+        <v>0.024749220906414154</v>
       </c>
       <c r="CJ4">
-        <v>0.025332831973232897</v>
+        <v>0.024906696954875466</v>
       </c>
       <c r="CK4">
-        <v>0.025478196599038008</v>
+        <v>0.024842536620647376</v>
       </c>
       <c r="CL4">
-        <v>0.025924960657141727</v>
+        <v>0.02548463447918712</v>
       </c>
       <c r="CM4">
-        <v>0.025671259876941972</v>
+        <v>0.025364526652369167</v>
       </c>
       <c r="CN4">
-        <v>0.026091585631232532</v>
+        <v>0.025748723129911937</v>
       </c>
       <c r="CO4">
-        <v>0.026108528844598414</v>
+        <v>0.025781815393015568</v>
       </c>
       <c r="CP4">
-        <v>0.025490742506673731</v>
+        <v>0.025077480552101253</v>
       </c>
       <c r="CQ4">
-        <v>0.022268703460304178</v>
+        <v>0.021969004672860545</v>
       </c>
       <c r="CR4">
-        <v>0.022427295278874979</v>
+        <v>0.021982466646363056</v>
       </c>
       <c r="CS4">
-        <v>0.021825001159632842</v>
+        <v>0.021590880158721754</v>
       </c>
       <c r="CT4">
-        <v>0.021982492555099466</v>
+        <v>0.021599443773917169</v>
       </c>
       <c r="CU4">
-        <v>0.021995201527288653</v>
+        <v>0.021680977146786344</v>
       </c>
       <c r="CV4">
-        <v>0.021645468350087203</v>
+        <v>0.021196816673421378</v>
       </c>
       <c r="CW4">
-        <v>0.021690944214702537</v>
+        <v>0.021139660973549537</v>
       </c>
       <c r="CX4">
-        <v>0.021755559355549289</v>
+        <v>0.021324734188177399</v>
       </c>
       <c r="CY4">
-        <v>0.0215033859368681</v>
+        <v>0.021273316552889675</v>
       </c>
       <c r="CZ4">
-        <v>0.021800179687879607</v>
+        <v>0.021314055545109397</v>
       </c>
       <c r="DA4">
-        <v>0.021826021033618602</v>
+        <v>0.021338844689472197</v>
       </c>
       <c r="DB4">
-        <v>0.02171603622348749</v>
+        <v>0.021355761998467684</v>
       </c>
       <c r="DC4">
-        <v>0.021764274789823006</v>
+        <v>0.021492341850290485</v>
       </c>
       <c r="DD4">
-        <v>0.021692292121883745</v>
+        <v>0.021312937143732086</v>
       </c>
       <c r="DE4">
-        <v>0.021900713230803139</v>
+        <v>0.02135113629939981</v>
       </c>
       <c r="DF4">
-        <v>0.021961834605618027</v>
+        <v>0.021601311012128397</v>
       </c>
       <c r="DG4">
-        <v>0.021984585486786067</v>
+        <v>0.02150636472386885</v>
       </c>
       <c r="DH4">
-        <v>0.021832811561889039</v>
+        <v>0.021485586707432704</v>
       </c>
       <c r="DI4">
-        <v>0.021926517924033127</v>
+        <v>0.021599642343576038</v>
       </c>
       <c r="DJ4">
-        <v>0.022065957649494788</v>
+        <v>0.021568149677918844</v>
       </c>
       <c r="DK4">
-        <v>0.021207060143307154</v>
+        <v>0.020901271612442807</v>
       </c>
       <c r="DL4">
-        <v>0.021298279411922184</v>
+        <v>0.02087504805018189</v>
       </c>
       <c r="DM4">
-        <v>0.021339913106139766</v>
+        <v>0.020958122695777029</v>
       </c>
       <c r="DN4">
-        <v>0.021376912974950511</v>
+        <v>0.020734637224074176</v>
       </c>
       <c r="DO4">
-        <v>0.021409060347586318</v>
+        <v>0.020878529256061557</v>
       </c>
       <c r="DP4">
-        <v>0.021360990003416042</v>
+        <v>0.020994296916360004</v>
       </c>
       <c r="DQ4">
-        <v>0.021396510662547535</v>
+        <v>0.021090747916366042</v>
       </c>
       <c r="DR4">
-        <v>0.021257324891737955</v>
+        <v>0.020947367955446213</v>
       </c>
       <c r="DS4">
-        <v>0.021378688632445006</v>
+        <v>0.020906549020066823</v>
       </c>
       <c r="DT4">
-        <v>0.021350429965318163</v>
+        <v>0.020866366537273418</v>
       </c>
       <c r="DU4">
-        <v>0.021301723213528988</v>
+        <v>0.021070049823919086</v>
       </c>
       <c r="DV4">
-        <v>0.021380465428429016</v>
+        <v>0.021029131713669016</v>
       </c>
       <c r="DW4">
-        <v>0.021655830129481888</v>
+        <v>0.021068176238499079</v>
       </c>
       <c r="DX4">
-        <v>0.021478276971823768</v>
+        <v>0.021169339590659961</v>
       </c>
       <c r="DY4">
-        <v>0.021480123746909434</v>
+        <v>0.021246280276670703</v>
       </c>
       <c r="DZ4">
-        <v>0.021556986447282194</v>
+        <v>0.021105903382228512</v>
       </c>
       <c r="EA4">
-        <v>0.021539920044566157</v>
+        <v>0.021149958115758996</v>
       </c>
       <c r="EB4">
-        <v>0.021591454264603214</v>
+        <v>0.021214451486162449</v>
       </c>
       <c r="EC4">
-        <v>0.021538030702851606</v>
+        <v>0.02133576018721664</v>
       </c>
       <c r="ED4">
-        <v>0.021669687538035526</v>
+        <v>0.021175181650221208</v>
       </c>
       <c r="EE4">
-        <v>0.021699623616181055</v>
+        <v>0.0212065521159326</v>
       </c>
       <c r="EF4">
-        <v>0.021695612960587644</v>
+        <v>0.021383708100868835</v>
       </c>
       <c r="EG4">
-        <v>0.021713708224225803</v>
+        <v>0.021373214532619665</v>
       </c>
       <c r="EH4">
-        <v>0.02171370828031562</v>
+        <v>0.021242281832269259</v>
       </c>
       <c r="EI4">
-        <v>0.021744137890621303</v>
+        <v>0.021352344755004391</v>
       </c>
       <c r="EJ4">
-        <v>0.02185020475896509</v>
+        <v>0.021179083507990384</v>
       </c>
       <c r="EK4">
-        <v>0.021766671078923952</v>
+        <v>0.021373214762798499</v>
       </c>
       <c r="EL4">
-        <v>0.021833294602402794</v>
+        <v>0.021432490311719603</v>
       </c>
       <c r="EM4">
-        <v>0.021795620619698867</v>
+        <v>0.021514973965704898</v>
       </c>
       <c r="EN4">
-        <v>0.021860826479802503</v>
+        <v>0.021451810864250753</v>
       </c>
       <c r="EO4">
-        <v>0.022036476492054306</v>
+        <v>0.021451810922656453</v>
       </c>
       <c r="EP4">
-        <v>0.022047824214798239</v>
+        <v>0.021552659393543491</v>
       </c>
       <c r="EQ4">
-        <v>0.02200270122309763</v>
+        <v>0.02157505966685749</v>
       </c>
       <c r="ER4">
-        <v>0.022016163525799461</v>
+        <v>0.021545973200189351</v>
       </c>
       <c r="ES4">
-        <v>0.022027430832954709</v>
+        <v>0.021811461461825124</v>
       </c>
       <c r="ET4">
-        <v>0.021860826823819544</v>
+        <v>0.021855637643008168</v>
       </c>
       <c r="EU4">
-        <v>0.021934145541190719</v>
+        <v>0.021506178741384826</v>
       </c>
       <c r="EV4">
-        <v>0.02215437269401262</v>
+        <v>0.021748777374248355</v>
       </c>
       <c r="EW4">
-        <v>0.022185205544204993</v>
+        <v>0.021748777430780027</v>
       </c>
       <c r="EX4">
-        <v>0.022204342019688138</v>
+        <v>0.021787196781613179</v>
       </c>
       <c r="EY4">
-        <v>0.022102925549686708</v>
+        <v>0.021668750159572467</v>
       </c>
       <c r="EZ4">
-        <v>0.022182822403071754</v>
+        <v>0.021821222981446151</v>
       </c>
       <c r="FA4">
-        <v>0.022149658195102631</v>
+        <v>0.021673398200012878</v>
       </c>
       <c r="FB4">
-        <v>0.022084441561746156</v>
+        <v>0.021895454514413444</v>
       </c>
       <c r="FC4">
-        <v>0.021931961999215932</v>
+        <v>0.021746392931378686</v>
       </c>
       <c r="FD4">
-        <v>0.022446718824692163</v>
+        <v>0.021860586784406649</v>
       </c>
       <c r="FE4">
-        <v>0.022211550800101565</v>
+        <v>0.022065392080481257</v>
       </c>
       <c r="FF4">
-        <v>0.022137904780260301</v>
+        <v>0.021953617512626426</v>
       </c>
       <c r="FG4">
-        <v>0.022459755472875674</v>
+        <v>0.021999917201714202</v>
       </c>
       <c r="FH4">
-        <v>0.022367114253599503</v>
+        <v>0.022012902354358328</v>
       </c>
       <c r="FI4">
-        <v>0.022523112450140038</v>
+        <v>0.021971540581590357</v>
       </c>
       <c r="FJ4">
-        <v>0.022336852805498231</v>
+        <v>0.022110712698523442</v>
       </c>
       <c r="FK4">
-        <v>0.022574207260603659</v>
+        <v>0.022129565690217703</v>
       </c>
       <c r="FL4">
-        <v>0.022512462300329258</v>
+        <v>0.022178567479301286</v>
       </c>
       <c r="FM4">
-        <v>0.0224728479914219</v>
+        <v>0.022137680256676319</v>
       </c>
       <c r="FN4">
-        <v>0.022563380640921823</v>
+        <v>0.022200591295169728</v>
       </c>
       <c r="FO4">
-        <v>0.022645510147449147</v>
+        <v>0.022164879889239323</v>
       </c>
       <c r="FP4">
-        <v>0.022585072058147585</v>
+        <v>0.022173085526684264</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.016192351258013403</v>
+        <v>0.015659456553450531</v>
       </c>
     </row>
   </sheetData>
@@ -8003,517 +8003,517 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.1914278110858223</v>
+        <v>1.1861855828883623</v>
       </c>
       <c r="C3">
-        <v>-1.716730524665139</v>
+        <v>-1.7137839146087734</v>
       </c>
       <c r="D3">
-        <v>-1.7016458270272234</v>
+        <v>-1.7147339470532672</v>
       </c>
       <c r="E3">
-        <v>-1.6979845872725545</v>
+        <v>-1.6715153560582305</v>
       </c>
       <c r="F3">
-        <v>0.84375647809837373</v>
+        <v>0.82861627954147343</v>
       </c>
       <c r="G3">
-        <v>0.74703175328920735</v>
+        <v>0.75237977578747051</v>
       </c>
       <c r="H3">
-        <v>0.61281473505158435</v>
+        <v>0.61109476488742343</v>
       </c>
       <c r="I3">
-        <v>0.46540097150389909</v>
+        <v>0.46139310802983013</v>
       </c>
       <c r="J3">
-        <v>0.35205758359197686</v>
+        <v>0.3502736446256598</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.3669762967726387</v>
+        <v>1.3016347598036173</v>
       </c>
       <c r="M3">
-        <v>1.5124563764018244</v>
+        <v>1.3898551750210382</v>
       </c>
       <c r="N3">
-        <v>-0.043380710911535607</v>
+        <v>-0.17911843152472959</v>
       </c>
       <c r="O3">
-        <v>-0.04004577104035744</v>
+        <v>-0.15122440296795475</v>
       </c>
       <c r="P3">
-        <v>-0.050143212421599671</v>
+        <v>-0.11593706511501903</v>
       </c>
       <c r="Q3">
-        <v>-0.001972749882735758</v>
+        <v>-0.045190177041325649</v>
       </c>
       <c r="R3">
-        <v>-0.041622802928911143</v>
+        <v>-0.041149288398224793</v>
       </c>
       <c r="S3">
-        <v>0.0036573547294349424</v>
+        <v>-0.036286816043673675</v>
       </c>
       <c r="T3">
-        <v>-0.0016624121030042326</v>
+        <v>-0.12760705929695729</v>
       </c>
       <c r="U3">
-        <v>-0.069563114739769893</v>
+        <v>0.01600966512708905</v>
       </c>
       <c r="V3">
-        <v>0.055739909053815206</v>
+        <v>-0.067922793400023565</v>
       </c>
       <c r="W3">
-        <v>0.1025952602151811</v>
+        <v>-0.042659361768545491</v>
       </c>
       <c r="X3">
-        <v>0.025806192433214525</v>
+        <v>-0.0286489781947167</v>
       </c>
       <c r="Y3">
-        <v>0.055483826412707563</v>
+        <v>-0.027107924454598344</v>
       </c>
       <c r="Z3">
-        <v>0.048838086691590649</v>
+        <v>-0.014086771547580725</v>
       </c>
       <c r="AA3">
-        <v>0.058559501647796816</v>
+        <v>-0.0092927603708812742</v>
       </c>
       <c r="AB3">
-        <v>0.083431898376343655</v>
+        <v>0.0067465545688120618</v>
       </c>
       <c r="AC3">
-        <v>0.10230208285809995</v>
+        <v>-0.0013474397918266856</v>
       </c>
       <c r="AD3">
-        <v>0.12545650928706625</v>
+        <v>-0.0046541911929351811</v>
       </c>
       <c r="AE3">
-        <v>0.040993546073211318</v>
+        <v>-0.0039214777890182644</v>
       </c>
       <c r="AF3">
-        <v>0.056565166530756404</v>
+        <v>0.0056824906568347629</v>
       </c>
       <c r="AG3">
-        <v>0.086359337223054541</v>
+        <v>0.031007191979376101</v>
       </c>
       <c r="AH3">
-        <v>0.11844490385919169</v>
+        <v>0.023901865891823908</v>
       </c>
       <c r="AI3">
-        <v>0.11690037650896294</v>
+        <v>0.00068407287893572193</v>
       </c>
       <c r="AJ3">
-        <v>0.1585711717322566</v>
+        <v>0.0078695295888967613</v>
       </c>
       <c r="AK3">
-        <v>0.13989084329946164</v>
+        <v>0.041024800860722292</v>
       </c>
       <c r="AL3">
-        <v>0.094213772616683525</v>
+        <v>0.014187935276200051</v>
       </c>
       <c r="AM3">
-        <v>0.072522153899285291</v>
+        <v>0.03942197462075786</v>
       </c>
       <c r="AN3">
-        <v>0.11688180461837371</v>
+        <v>0.07243636870366002</v>
       </c>
       <c r="AO3">
-        <v>0.16538977787839654</v>
+        <v>0.038635431311654068</v>
       </c>
       <c r="AP3">
-        <v>0.12542244743260689</v>
+        <v>0.036267031357610516</v>
       </c>
       <c r="AQ3">
-        <v>0.12850941126989157</v>
+        <v>0.029943811207737054</v>
       </c>
       <c r="AR3">
-        <v>0.1780623563287575</v>
+        <v>0.0083287857265042006</v>
       </c>
       <c r="AS3">
-        <v>0.14537063666385699</v>
+        <v>0.07019413506499951</v>
       </c>
       <c r="AT3">
-        <v>0.084474017686185746</v>
+        <v>0.057206199227524734</v>
       </c>
       <c r="AU3">
-        <v>0.05080624319810164</v>
+        <v>0.046357648563296404</v>
       </c>
       <c r="AV3">
-        <v>0.14535718366068087</v>
+        <v>0.067962893839339344</v>
       </c>
       <c r="AW3">
-        <v>0.10112914986135572</v>
+        <v>0.096614710792036679</v>
       </c>
       <c r="AX3">
-        <v>0.18562012992538168</v>
+        <v>0.063433637554912617</v>
       </c>
       <c r="AY3">
-        <v>0.10350731999657184</v>
+        <v>0.090006777079588804</v>
       </c>
       <c r="AZ3">
-        <v>0.22024566086471675</v>
+        <v>0.048756624856973088</v>
       </c>
       <c r="BA3">
-        <v>0.17334917043831941</v>
+        <v>0.066564469298520251</v>
       </c>
       <c r="BB3">
-        <v>0.1990483823463815</v>
+        <v>0.040900908404828497</v>
       </c>
       <c r="BC3">
-        <v>0.15024358782690106</v>
+        <v>0.030569936655678278</v>
       </c>
       <c r="BD3">
-        <v>0.0931896020656518</v>
+        <v>0.058846165302990333</v>
       </c>
       <c r="BE3">
-        <v>0.10355381158054576</v>
+        <v>0.066582178767411765</v>
       </c>
       <c r="BF3">
-        <v>0.10271896760999355</v>
+        <v>0.075040793223899421</v>
       </c>
       <c r="BG3">
-        <v>0.1310395652392955</v>
+        <v>0.012747394186830885</v>
       </c>
       <c r="BH3">
-        <v>0.17737103807576024</v>
+        <v>0.0069599107648967481</v>
       </c>
       <c r="BI3">
-        <v>0.094646533980625086</v>
+        <v>0.053344661040347588</v>
       </c>
       <c r="BJ3">
-        <v>0.1632362859423169</v>
+        <v>0.097773407829414558</v>
       </c>
       <c r="BK3">
-        <v>0.14808562629429997</v>
+        <v>0.043121828231366878</v>
       </c>
       <c r="BL3">
-        <v>0.17309761922025313</v>
+        <v>0.054134710852167103</v>
       </c>
       <c r="BM3">
-        <v>0.12252068259389105</v>
+        <v>0.066603305777105992</v>
       </c>
       <c r="BN3">
-        <v>0.10822839479570158</v>
+        <v>0.13045239217591703</v>
       </c>
       <c r="BO3">
-        <v>0.13268086720332314</v>
+        <v>0.0042338239647962527</v>
       </c>
       <c r="BP3">
-        <v>0.064835106022628652</v>
+        <v>0.064307936023626125</v>
       </c>
       <c r="BQ3">
-        <v>0.10678774994843668</v>
+        <v>0.038750670800565781</v>
       </c>
       <c r="BR3">
-        <v>0.13348116345970074</v>
+        <v>0.031486759561174339</v>
       </c>
       <c r="BS3">
-        <v>0.097946626790939975</v>
+        <v>0.062418737020131433</v>
       </c>
       <c r="BT3">
-        <v>0.13160179013143156</v>
+        <v>0.010801555372487072</v>
       </c>
       <c r="BU3">
-        <v>0.11119766034052955</v>
+        <v>0.026761825739279373</v>
       </c>
       <c r="BV3">
-        <v>-0.029786040016593539</v>
+        <v>-0.087073593573825506</v>
       </c>
       <c r="BW3">
-        <v>0.25279865357052872</v>
+        <v>0.1688112730638624</v>
       </c>
       <c r="BX3">
-        <v>0.19152362714837753</v>
+        <v>0.14532435909574848</v>
       </c>
       <c r="BY3">
-        <v>0.2233100123185989</v>
+        <v>0.158807941316465</v>
       </c>
       <c r="BZ3">
-        <v>0.19371743040825906</v>
+        <v>0.092454814806987182</v>
       </c>
       <c r="CA3">
-        <v>0.091702347448833044</v>
+        <v>0.030167846586800672</v>
       </c>
       <c r="CB3">
-        <v>0.19934941855160279</v>
+        <v>0.11808879994002881</v>
       </c>
       <c r="CC3">
-        <v>0.14297459930409262</v>
+        <v>0.078183830409393432</v>
       </c>
       <c r="CD3">
-        <v>0.11525018491235493</v>
+        <v>0.041053746767560614</v>
       </c>
       <c r="CE3">
-        <v>0.073231085091768428</v>
+        <v>-0.017753537110095897</v>
       </c>
       <c r="CF3">
-        <v>0.048218343170083028</v>
+        <v>-0.048025884368301457</v>
       </c>
       <c r="CG3">
-        <v>0.1266063494976738</v>
+        <v>0.052198510583459277</v>
       </c>
       <c r="CH3">
-        <v>0.092547089596052165</v>
+        <v>0.042827118213313822</v>
       </c>
       <c r="CI3">
-        <v>0.049570208165943624</v>
+        <v>0.020575189305987621</v>
       </c>
       <c r="CJ3">
-        <v>0.035544096723809628</v>
+        <v>-0.03685269050391736</v>
       </c>
       <c r="CK3">
-        <v>0.01319332010910842</v>
+        <v>-0.0020934460302923343</v>
       </c>
       <c r="CL3">
-        <v>0.065626554203951248</v>
+        <v>0.023232455242584587</v>
       </c>
       <c r="CM3">
-        <v>0.08892194045692689</v>
+        <v>-0.0058851816253495792</v>
       </c>
       <c r="CN3">
-        <v>0.04645975736925928</v>
+        <v>-0.029560823770494529</v>
       </c>
       <c r="CO3">
-        <v>0.030107154805184892</v>
+        <v>-0.054568258096713514</v>
       </c>
       <c r="CP3">
-        <v>0.019663927713825215</v>
+        <v>-0.029958432382195657</v>
       </c>
       <c r="CQ3">
-        <v>0.35064321883526339</v>
+        <v>0.2764017246199329</v>
       </c>
       <c r="CR3">
-        <v>0.28205449390245108</v>
+        <v>0.22364333116052207</v>
       </c>
       <c r="CS3">
-        <v>0.33805170478052515</v>
+        <v>0.24243611183388267</v>
       </c>
       <c r="CT3">
-        <v>0.27442390542370093</v>
+        <v>0.21106037657749033</v>
       </c>
       <c r="CU3">
-        <v>0.22866823756523225</v>
+        <v>0.15597706394153302</v>
       </c>
       <c r="CV3">
-        <v>0.30757693507090256</v>
+        <v>0.23978211142312353</v>
       </c>
       <c r="CW3">
-        <v>0.25765575596493956</v>
+        <v>0.21360959065783383</v>
       </c>
       <c r="CX3">
-        <v>0.22156805356002462</v>
+        <v>0.14627835438723574</v>
       </c>
       <c r="CY3">
-        <v>0.22700012610725309</v>
+        <v>0.13199785493316415</v>
       </c>
       <c r="CZ3">
-        <v>0.16620723446930691</v>
+        <v>0.10251515920540778</v>
       </c>
       <c r="DA3">
-        <v>0.22585099255067051</v>
+        <v>0.17047730445456569</v>
       </c>
       <c r="DB3">
-        <v>0.21967489774627302</v>
+        <v>0.15325900029748762</v>
       </c>
       <c r="DC3">
-        <v>0.20028780228126178</v>
+        <v>0.10925030969242569</v>
       </c>
       <c r="DD3">
-        <v>0.18419396977041858</v>
+        <v>0.10819735492761275</v>
       </c>
       <c r="DE3">
-        <v>0.13724047212825216</v>
+        <v>0.092218811453849039</v>
       </c>
       <c r="DF3">
-        <v>0.18064273272023351</v>
+        <v>0.10596651812209128</v>
       </c>
       <c r="DG3">
-        <v>0.15827649476380123</v>
+        <v>0.10907019089771089</v>
       </c>
       <c r="DH3">
-        <v>0.17929358389302566</v>
+        <v>0.10693483324182353</v>
       </c>
       <c r="DI3">
-        <v>0.14154849358619723</v>
+        <v>0.06011763016118081</v>
       </c>
       <c r="DJ3">
-        <v>0.099960240127065947</v>
+        <v>0.057792424734380683</v>
       </c>
       <c r="DK3">
-        <v>0.31504468554883858</v>
+        <v>0.22232536276395076</v>
       </c>
       <c r="DL3">
-        <v>0.28912586296766696</v>
+        <v>0.21137609229792334</v>
       </c>
       <c r="DM3">
-        <v>0.25891262867867421</v>
+        <v>0.19618377068944789</v>
       </c>
       <c r="DN3">
-        <v>0.24468221345729166</v>
+        <v>0.22341875412348647</v>
       </c>
       <c r="DO3">
-        <v>0.24471363513876632</v>
+        <v>0.19138315257286964</v>
       </c>
       <c r="DP3">
-        <v>0.23735975181034957</v>
+        <v>0.15543257095431898</v>
       </c>
       <c r="DQ3">
-        <v>0.22532047120945309</v>
+        <v>0.13067418041918033</v>
       </c>
       <c r="DR3">
-        <v>0.24057776369492559</v>
+        <v>0.16388144775725855</v>
       </c>
       <c r="DS3">
-        <v>0.2179694250186906</v>
+        <v>0.16000798751510834</v>
       </c>
       <c r="DT3">
-        <v>0.21949409771993503</v>
+        <v>0.16548378025110536</v>
       </c>
       <c r="DU3">
-        <v>0.22579049489883282</v>
+        <v>0.11882917836046532</v>
       </c>
       <c r="DV3">
-        <v>0.2012381938292232</v>
+        <v>0.12854981844442437</v>
       </c>
       <c r="DW3">
-        <v>0.15286294523996483</v>
+        <v>0.11188582584930439</v>
       </c>
       <c r="DX3">
-        <v>0.18751697600669745</v>
+        <v>0.097430906059914585</v>
       </c>
       <c r="DY3">
-        <v>0.18204460894217495</v>
+        <v>0.079552883778319428</v>
       </c>
       <c r="DZ3">
-        <v>0.16189343679950702</v>
+        <v>0.10068618046965189</v>
       </c>
       <c r="EA3">
-        <v>0.15931508549077039</v>
+        <v>0.091687572677416063</v>
       </c>
       <c r="EB3">
-        <v>0.15874269559802123</v>
+        <v>0.075823236531663341</v>
       </c>
       <c r="EC3">
-        <v>0.16528893067569619</v>
+        <v>0.059467073786242552</v>
       </c>
       <c r="ED3">
-        <v>0.13548796645465541</v>
+        <v>0.0843921114340591</v>
       </c>
       <c r="EE3">
-        <v>0.12875241120536429</v>
+        <v>0.077934092582045714</v>
       </c>
       <c r="EF3">
-        <v>0.12877919087855652</v>
+        <v>0.050087456132628543</v>
       </c>
       <c r="EG3">
-        <v>0.12977579284229157</v>
+        <v>0.042594473421276237</v>
       </c>
       <c r="EH3">
-        <v>0.13056720139286779</v>
+        <v>0.073263241756420669</v>
       </c>
       <c r="EI3">
-        <v>0.12736137989611365</v>
+        <v>0.051470222652991372</v>
       </c>
       <c r="EJ3">
-        <v>0.10620997458789694</v>
+        <v>0.088420509296079142</v>
       </c>
       <c r="EK3">
-        <v>0.12126597475336427</v>
+        <v>0.047501907089076777</v>
       </c>
       <c r="EL3">
-        <v>0.10820051105078358</v>
+        <v>0.041559376227852739</v>
       </c>
       <c r="EM3">
-        <v>0.11904130083071593</v>
+        <v>0.028393489690491231</v>
       </c>
       <c r="EN3">
-        <v>0.10556766513843449</v>
+        <v>0.043431070778866238</v>
       </c>
       <c r="EO3">
-        <v>0.08254066583895768</v>
+        <v>0.046254725412038379</v>
       </c>
       <c r="EP3">
-        <v>0.0696157081822983</v>
+        <v>0.026827375520147717</v>
       </c>
       <c r="EQ3">
-        <v>0.083694856080705163</v>
+        <v>0.026135116268567935</v>
       </c>
       <c r="ER3">
-        <v>0.086772768583544449</v>
+        <v>0.032254782708973584</v>
       </c>
       <c r="ES3">
-        <v>0.089862353048094923</v>
+        <v>-0.013293798818430973</v>
       </c>
       <c r="ET3">
-        <v>0.12262535945473825</v>
+        <v>-0.023683016044952064</v>
       </c>
       <c r="EU3">
-        <v>0.1074146201758832</v>
+        <v>0.045794224010874331</v>
       </c>
       <c r="EV3">
-        <v>0.073209669912566042</v>
+        <v>0.0021535460098050935</v>
       </c>
       <c r="EW3">
-        <v>0.066348085306557378</v>
+        <v>0.0022304143047523887</v>
       </c>
       <c r="EX3">
-        <v>0.062974048372930511</v>
+        <v>0.0036400262674393673</v>
       </c>
       <c r="EY3">
-        <v>0.086818766390900401</v>
+        <v>0.026881771045228289</v>
       </c>
       <c r="EZ3">
-        <v>0.073710151763647147</v>
+        <v>0.0015647771775980396</v>
       </c>
       <c r="FA3">
-        <v>0.08391963146399381</v>
+        <v>0.033640945936311291</v>
       </c>
       <c r="FB3">
-        <v>0.099932435077955462</v>
+        <v>-0.0063495117090891402</v>
       </c>
       <c r="FC3">
-        <v>0.13438306562141542</v>
+        <v>0.021649960646385028</v>
       </c>
       <c r="FD3">
-        <v>0.038794286759235748</v>
+        <v>0.0099400794155136019</v>
       </c>
       <c r="FE3">
-        <v>0.088202513878057234</v>
+        <v>-0.026078643447595851</v>
       </c>
       <c r="FF3">
-        <v>0.10460570918648103</v>
+        <v>-0.00064859591096508881</v>
       </c>
       <c r="FG3">
-        <v>0.044494929575902314</v>
+        <v>-0.0097005860060760812</v>
       </c>
       <c r="FH3">
-        <v>0.065149767755896246</v>
+        <v>-0.0075393462279896495</v>
       </c>
       <c r="FI3">
-        <v>0.040504260855184382</v>
+        <v>0.0050061779679477962</v>
       </c>
       <c r="FJ3">
-        <v>0.080033840959120375</v>
+        <v>-0.018479054686255828</v>
       </c>
       <c r="FK3">
-        <v>0.038376418944100391</v>
+        <v>-0.018570875359243424</v>
       </c>
       <c r="FL3">
-        <v>0.055027308468634295</v>
+        <v>-0.024044814686771988</v>
       </c>
       <c r="FM3">
-        <v>0.067511259311222274</v>
+        <v>-0.013226832936353804</v>
       </c>
       <c r="FN3">
-        <v>0.049498632085086904</v>
+        <v>-0.02066800288122788</v>
       </c>
       <c r="FO3">
-        <v>0.040663730330415031</v>
+        <v>-0.010048770079804094</v>
       </c>
       <c r="FP3">
-        <v>0.052081266278123255</v>
+        <v>-0.011135411607251391</v>
       </c>
       <c r="FQ3">
         <v>0</v>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="FS3">
-        <v>-5.5685287908786156</v>
+        <v>-5.5006841963337942</v>
       </c>
     </row>
     <row r="4">
@@ -8530,517 +8530,517 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019552643791440966</v>
+        <v>0.01942186627301417</v>
       </c>
       <c r="C4">
-        <v>0.011483151949403249</v>
+        <v>0.011483342699671398</v>
       </c>
       <c r="D4">
-        <v>0.021288161006366439</v>
+        <v>0.021263243951504512</v>
       </c>
       <c r="E4">
-        <v>0.02600707351432632</v>
+        <v>0.026015529343153515</v>
       </c>
       <c r="F4">
-        <v>0.012560480114708953</v>
+        <v>0.0125663467320091</v>
       </c>
       <c r="G4">
-        <v>0.010733462421229759</v>
+        <v>0.0107672788451756</v>
       </c>
       <c r="H4">
-        <v>0.008877951762065267</v>
+        <v>0.0088829446533654106</v>
       </c>
       <c r="I4">
-        <v>0.0093674262343257843</v>
+        <v>0.0093552928975885567</v>
       </c>
       <c r="J4">
-        <v>0.010118599766597158</v>
+        <v>0.01009863694893256</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.024688954944190246</v>
+        <v>0.024306026638435081</v>
       </c>
       <c r="M4">
-        <v>0.024097740610942827</v>
+        <v>0.023939859038395187</v>
       </c>
       <c r="N4">
-        <v>0.035862772515096189</v>
+        <v>0.036444873570568484</v>
       </c>
       <c r="O4">
-        <v>0.035829443207993458</v>
+        <v>0.036091325117162516</v>
       </c>
       <c r="P4">
-        <v>0.035963652540377422</v>
+        <v>0.035651049251418522</v>
       </c>
       <c r="Q4">
-        <v>0.035377816975490091</v>
+        <v>0.034790255179940881</v>
       </c>
       <c r="R4">
-        <v>0.035873915123482557</v>
+        <v>0.034750243663987601</v>
       </c>
       <c r="S4">
-        <v>0.035325846035373504</v>
+        <v>0.034700538384017009</v>
       </c>
       <c r="T4">
-        <v>0.03539870905491873</v>
+        <v>0.035833376534513538</v>
       </c>
       <c r="U4">
-        <v>0.036251101897882977</v>
+        <v>0.034102229169448391</v>
       </c>
       <c r="V4">
-        <v>0.034729714323255535</v>
+        <v>0.035108017601122699</v>
       </c>
       <c r="W4">
-        <v>0.03419772193568537</v>
+        <v>0.034810344027968232</v>
       </c>
       <c r="X4">
-        <v>0.035101481000175794</v>
+        <v>0.034651173136316306</v>
       </c>
       <c r="Y4">
-        <v>0.034758367223971277</v>
+        <v>0.034641340570316703</v>
       </c>
       <c r="Z4">
-        <v>0.034845029683529427</v>
+        <v>0.034495447435374221</v>
       </c>
       <c r="AA4">
-        <v>0.03473925236156112</v>
+        <v>0.034447471324213726</v>
       </c>
       <c r="AB4">
-        <v>0.034458612386921786</v>
+        <v>0.034268067951711674</v>
       </c>
       <c r="AC4">
-        <v>0.034250890990529019</v>
+        <v>0.034371377367902634</v>
       </c>
       <c r="AD4">
-        <v>0.033997679160157016</v>
+        <v>0.034418840311397074</v>
       </c>
       <c r="AE4">
-        <v>0.034981975386047005</v>
+        <v>0.034418840312168561</v>
       </c>
       <c r="AF4">
-        <v>0.034806381974378936</v>
+        <v>0.034314839179568388</v>
       </c>
       <c r="AG4">
-        <v>0.034467787230233624</v>
+        <v>0.034029771184840012</v>
       </c>
       <c r="AH4">
-        <v>0.034110019534236806</v>
+        <v>0.03412046237944056</v>
       </c>
       <c r="AI4">
-        <v>0.034136211513787533</v>
+        <v>0.034399816959818412</v>
       </c>
       <c r="AJ4">
-        <v>0.0336797145732547</v>
+        <v>0.034324230817554154</v>
       </c>
       <c r="AK4">
-        <v>0.033895620107319842</v>
+        <v>0.03394915238637037</v>
       </c>
       <c r="AL4">
-        <v>0.034422034158919208</v>
+        <v>0.034268067959710387</v>
       </c>
       <c r="AM4">
-        <v>0.034682217048432766</v>
+        <v>0.033984866813417849</v>
       </c>
       <c r="AN4">
-        <v>0.034180090691554026</v>
+        <v>0.033618848603873507</v>
       </c>
       <c r="AO4">
-        <v>0.033647115507381795</v>
+        <v>0.03401177443003392</v>
       </c>
       <c r="AP4">
-        <v>0.034101311333392198</v>
+        <v>0.034047814856993708</v>
       </c>
       <c r="AQ4">
-        <v>0.034075253751432645</v>
+        <v>0.034129596925786668</v>
       </c>
       <c r="AR4">
-        <v>0.033534278489826312</v>
+        <v>0.034390324405309501</v>
       </c>
       <c r="AS4">
-        <v>0.033904065860681752</v>
+        <v>0.033687065646947532</v>
       </c>
       <c r="AT4">
-        <v>0.034606883529600979</v>
+        <v>0.03384310855438049</v>
       </c>
       <c r="AU4">
-        <v>0.035011665779978947</v>
+        <v>0.033975920861571043</v>
       </c>
       <c r="AV4">
-        <v>0.033929467316699234</v>
+        <v>0.033738683303873147</v>
       </c>
       <c r="AW4">
-        <v>0.034440299112077147</v>
+        <v>0.033426493549790326</v>
       </c>
       <c r="AX4">
-        <v>0.033502394242286217</v>
+        <v>0.033808122211732745</v>
       </c>
       <c r="AY4">
-        <v>0.034431160610816178</v>
+        <v>0.033517800754840413</v>
       </c>
       <c r="AZ4">
-        <v>0.033146615263993852</v>
+        <v>0.033993824391029208</v>
       </c>
       <c r="BA4">
-        <v>0.033663394852590803</v>
+        <v>0.033799403558636885</v>
       </c>
       <c r="BB4">
-        <v>0.033392016500427564</v>
+        <v>0.034102229196921928</v>
       </c>
       <c r="BC4">
-        <v>0.033937955949969616</v>
+        <v>0.03423087378695356</v>
       </c>
       <c r="BD4">
-        <v>0.034597523588767949</v>
+        <v>0.033913622200974936</v>
       </c>
       <c r="BE4">
-        <v>0.034486173441249039</v>
+        <v>0.03383434517470596</v>
       </c>
       <c r="BF4">
-        <v>0.034504608483220532</v>
+        <v>0.033747324537787872</v>
       </c>
       <c r="BG4">
-        <v>0.034188900629797299</v>
+        <v>0.034476218191359952</v>
       </c>
       <c r="BH4">
-        <v>0.033679714595951031</v>
+        <v>0.034553448300676366</v>
       </c>
       <c r="BI4">
-        <v>0.034625641110273955</v>
+        <v>0.034020766977454001</v>
       </c>
       <c r="BJ4">
-        <v>0.033853550992082621</v>
+        <v>0.033526163581671146</v>
       </c>
       <c r="BK4">
-        <v>0.034032046597680617</v>
+        <v>0.034157072610355728</v>
       </c>
       <c r="BL4">
-        <v>0.033761924827589336</v>
+        <v>0.034038787169354545</v>
       </c>
       <c r="BM4">
-        <v>0.03434043494143945</v>
+        <v>0.033904768269705288</v>
       </c>
       <c r="BN4">
-        <v>0.034513844393197025</v>
+        <v>0.033199588896028746</v>
       </c>
       <c r="BO4">
-        <v>0.034242000705416373</v>
+        <v>0.034651173170820081</v>
       </c>
       <c r="BP4">
-        <v>0.035041479656691167</v>
+        <v>0.033958063691255175</v>
       </c>
       <c r="BQ4">
-        <v>0.035181623083714128</v>
+        <v>0.034962099128169034</v>
       </c>
       <c r="BR4">
-        <v>0.034891196684217488</v>
+        <v>0.035054162792226257</v>
       </c>
       <c r="BS4">
-        <v>0.035299599760545038</v>
+        <v>0.03471103139083799</v>
       </c>
       <c r="BT4">
-        <v>0.035740279218615431</v>
+        <v>0.035948448593724078</v>
       </c>
       <c r="BU4">
-        <v>0.035972142027064578</v>
+        <v>0.035779093712020316</v>
       </c>
       <c r="BV4">
-        <v>0.026523972962781951</v>
+        <v>0.026086480732388093</v>
       </c>
       <c r="BW4">
-        <v>0.022378856014398183</v>
+        <v>0.022047238140972484</v>
       </c>
       <c r="BX4">
-        <v>0.02254062372431789</v>
+        <v>0.022123607716207347</v>
       </c>
       <c r="BY4">
-        <v>0.021858634571466393</v>
+        <v>0.021443299082185778</v>
       </c>
       <c r="BZ4">
-        <v>0.021960141291310398</v>
+        <v>0.021647991026014106</v>
       </c>
       <c r="CA4">
-        <v>0.022273704614940222</v>
+        <v>0.021852815389063144</v>
       </c>
       <c r="CB4">
-        <v>0.021626517249832795</v>
+        <v>0.021260815031823716</v>
       </c>
       <c r="CC4">
-        <v>0.021833119692420109</v>
+        <v>0.021417511881213918</v>
       </c>
       <c r="CD4">
-        <v>0.021950661231015384</v>
+        <v>0.021569829497100578</v>
       </c>
       <c r="CE4">
-        <v>0.022121614490263168</v>
+        <v>0.021806442148710341</v>
       </c>
       <c r="CF4">
-        <v>0.022236001354801183</v>
+        <v>0.021944723736760659</v>
       </c>
       <c r="CG4">
-        <v>0.022593585449809873</v>
+        <v>0.022230109060076018</v>
       </c>
       <c r="CH4">
-        <v>0.022749430668240603</v>
+        <v>0.02229043149668852</v>
       </c>
       <c r="CI4">
-        <v>0.022946376986668821</v>
+        <v>0.022403435174049521</v>
       </c>
       <c r="CJ4">
-        <v>0.023027586720832958</v>
+        <v>0.022667000561738912</v>
       </c>
       <c r="CK4">
-        <v>0.023237158437241119</v>
+        <v>0.022647364815776019</v>
       </c>
       <c r="CL4">
-        <v>0.023801821726608188</v>
+        <v>0.023315998185659041</v>
       </c>
       <c r="CM4">
-        <v>0.023723028962628102</v>
+        <v>0.023468898104852729</v>
       </c>
       <c r="CN4">
-        <v>0.024089180742831676</v>
+        <v>0.02374708642798062</v>
       </c>
       <c r="CO4">
-        <v>0.024186655388757788</v>
+        <v>0.023886427982081591</v>
       </c>
       <c r="CP4">
-        <v>0.023966759136472431</v>
+        <v>0.023508327627541115</v>
       </c>
       <c r="CQ4">
-        <v>0.020396146942538506</v>
+        <v>0.019975454962094862</v>
       </c>
       <c r="CR4">
-        <v>0.02053643359875211</v>
+        <v>0.020089330697513001</v>
       </c>
       <c r="CS4">
-        <v>0.019953382602704156</v>
+        <v>0.01957051201217332</v>
       </c>
       <c r="CT4">
-        <v>0.020102511066659289</v>
+        <v>0.01965357628492281</v>
       </c>
       <c r="CU4">
-        <v>0.020219902016032069</v>
+        <v>0.019794302022962885</v>
       </c>
       <c r="CV4">
-        <v>0.019748394465179273</v>
+        <v>0.019298673170337382</v>
       </c>
       <c r="CW4">
-        <v>0.019887977958767174</v>
+        <v>0.019381061547777498</v>
       </c>
       <c r="CX4">
-        <v>0.019997769045843793</v>
+        <v>0.019574335615656122</v>
       </c>
       <c r="CY4">
-        <v>0.020000719503770786</v>
+        <v>0.019630785958637639</v>
       </c>
       <c r="CZ4">
-        <v>0.020182452297068346</v>
+        <v>0.01973079939935975</v>
       </c>
       <c r="DA4">
-        <v>0.020300898410639701</v>
+        <v>0.019826307859362506</v>
       </c>
       <c r="DB4">
-        <v>0.020335929303681641</v>
+        <v>0.019894610676817612</v>
       </c>
       <c r="DC4">
-        <v>0.02041037872630427</v>
+        <v>0.020046326054044064</v>
       </c>
       <c r="DD4">
-        <v>0.020476253282397765</v>
+        <v>0.020067324377621838</v>
       </c>
       <c r="DE4">
-        <v>0.020639814996689175</v>
+        <v>0.020135697775337896</v>
       </c>
       <c r="DF4">
-        <v>0.02079529143814985</v>
+        <v>0.020386137083225838</v>
       </c>
       <c r="DG4">
-        <v>0.020886271749834956</v>
+        <v>0.020393315292710667</v>
       </c>
       <c r="DH4">
-        <v>0.020833930174980086</v>
+        <v>0.020418210281314762</v>
       </c>
       <c r="DI4">
-        <v>0.020978074020481654</v>
+        <v>0.020597597856517023</v>
       </c>
       <c r="DJ4">
-        <v>0.021140563499868557</v>
+        <v>0.020623698242928985</v>
       </c>
       <c r="DK4">
-        <v>0.020210453806740209</v>
+        <v>0.019860781378070534</v>
       </c>
       <c r="DL4">
-        <v>0.020325592033842679</v>
+        <v>0.019922238538946237</v>
       </c>
       <c r="DM4">
-        <v>0.020459687125225629</v>
+        <v>0.020000858152972239</v>
       </c>
       <c r="DN4">
-        <v>0.020534154646456356</v>
+        <v>0.019914532683627327</v>
       </c>
       <c r="DO4">
-        <v>0.020553180058391504</v>
+        <v>0.020059533175612113</v>
       </c>
       <c r="DP4">
-        <v>0.020601482370102162</v>
+        <v>0.020224258916490809</v>
       </c>
       <c r="DQ4">
-        <v>0.02066892074425104</v>
+        <v>0.020346597683946002</v>
       </c>
       <c r="DR4">
-        <v>0.020627025883218044</v>
+        <v>0.020228347699611134</v>
       </c>
       <c r="DS4">
-        <v>0.020737767493942516</v>
+        <v>0.020264091785081588</v>
       </c>
       <c r="DT4">
-        <v>0.020750956955110245</v>
+        <v>0.020261322478218546</v>
       </c>
       <c r="DU4">
-        <v>0.020744699866253557</v>
+        <v>0.020477955482770909</v>
       </c>
       <c r="DV4">
-        <v>0.020865880719861396</v>
+        <v>0.020456054099785789</v>
       </c>
       <c r="DW4">
-        <v>0.021092291529508297</v>
+        <v>0.020548000971456374</v>
       </c>
       <c r="DX4">
-        <v>0.020962247743595099</v>
+        <v>0.020631402936164413</v>
       </c>
       <c r="DY4">
-        <v>0.021005335576930434</v>
+        <v>0.020731125755206428</v>
       </c>
       <c r="DZ4">
-        <v>0.021112496928288746</v>
+        <v>0.020656575026517084</v>
       </c>
       <c r="EA4">
-        <v>0.021143531929239876</v>
+        <v>0.020716873513783114</v>
       </c>
       <c r="EB4">
-        <v>0.021165823565221096</v>
+        <v>0.020808810728107349</v>
       </c>
       <c r="EC4">
-        <v>0.02115671754851008</v>
+        <v>0.020904168619355321</v>
       </c>
       <c r="ED4">
-        <v>0.021310076312625929</v>
+        <v>0.020809677817889359</v>
       </c>
       <c r="EE4">
-        <v>0.021360649030849544</v>
+        <v>0.02085958412753602</v>
       </c>
       <c r="EF4">
-        <v>0.021380438742596646</v>
+        <v>0.021009689968944242</v>
       </c>
       <c r="EG4">
-        <v>0.021395835715914326</v>
+        <v>0.021065502535045705</v>
       </c>
       <c r="EH4">
-        <v>0.021412239094707072</v>
+        <v>0.020941305956825904</v>
       </c>
       <c r="EI4">
-        <v>0.021447213015236482</v>
+        <v>0.021064546924129762</v>
       </c>
       <c r="EJ4">
-        <v>0.021566638053710837</v>
+        <v>0.020911374034917156</v>
       </c>
       <c r="EK4">
-        <v>0.021515743007181017</v>
+        <v>0.021125430493914105</v>
       </c>
       <c r="EL4">
-        <v>0.021597845491164839</v>
+        <v>0.021174742906873007</v>
       </c>
       <c r="EM4">
-        <v>0.021566638238669472</v>
+        <v>0.021259637402431687</v>
       </c>
       <c r="EN4">
-        <v>0.021651345715806829</v>
+        <v>0.02120677613734202</v>
       </c>
       <c r="EO4">
-        <v>0.021783586527979938</v>
+        <v>0.021213833490049305</v>
       </c>
       <c r="EP4">
-        <v>0.021867816553295307</v>
+        <v>0.021330316149106687</v>
       </c>
       <c r="EQ4">
-        <v>0.021818462082286865</v>
+        <v>0.021354631216426029</v>
       </c>
       <c r="ER4">
-        <v>0.02182378469499489</v>
+        <v>0.021345091701631763</v>
       </c>
       <c r="ES4">
-        <v>0.021829117497078089</v>
+        <v>0.021597151096161133</v>
       </c>
       <c r="ET4">
-        <v>0.021689639764450971</v>
+        <v>0.021672016324883529</v>
       </c>
       <c r="EU4">
-        <v>0.02178463730035983</v>
+        <v>0.021338750058452201</v>
       </c>
       <c r="EV4">
-        <v>0.021975939944418276</v>
+        <v>0.021581025035743093</v>
       </c>
       <c r="EW4">
-        <v>0.022031579951419401</v>
+        <v>0.021601775144662185</v>
       </c>
       <c r="EX4">
-        <v>0.022069666503748857</v>
+        <v>0.021615690428660392</v>
       </c>
       <c r="EY4">
-        <v>0.021969200710236728</v>
+        <v>0.021517395786116597</v>
       </c>
       <c r="EZ4">
-        <v>0.022056915358284069</v>
+        <v>0.021669648254789918</v>
       </c>
       <c r="FA4">
-        <v>0.022025853050836087</v>
+        <v>0.021525273937114831</v>
       </c>
       <c r="FB4">
-        <v>0.021965837144484975</v>
+        <v>0.021754899853250693</v>
       </c>
       <c r="FC4">
-        <v>0.02181527417453023</v>
+        <v>0.021629671999714974</v>
       </c>
       <c r="FD4">
-        <v>0.022326880681486194</v>
+        <v>0.021712570945917779</v>
       </c>
       <c r="FE4">
-        <v>0.022089484229584611</v>
+        <v>0.021926517279234881</v>
       </c>
       <c r="FF4">
-        <v>0.022026997880713762</v>
+        <v>0.021811452332287221</v>
       </c>
       <c r="FG4">
-        <v>0.02236256943445895</v>
+        <v>0.02188174934258548</v>
       </c>
       <c r="FH4">
-        <v>0.022274126193292599</v>
+        <v>0.021891924881501417</v>
       </c>
       <c r="FI4">
-        <v>0.022427358262323952</v>
+        <v>0.021846398780685151</v>
       </c>
       <c r="FJ4">
-        <v>0.022238234065115284</v>
+        <v>0.021995565931232728</v>
       </c>
       <c r="FK4">
-        <v>0.022482857819989474</v>
+        <v>0.022018041490045465</v>
       </c>
       <c r="FL4">
-        <v>0.022414290467837761</v>
+        <v>0.022070219087399139</v>
       </c>
       <c r="FM4">
-        <v>0.022368987121801895</v>
+        <v>0.022032670937928062</v>
       </c>
       <c r="FN4">
-        <v>0.022488196017868809</v>
+        <v>0.02209595500027824</v>
       </c>
       <c r="FO4">
-        <v>0.022558437095286522</v>
+        <v>0.022059445491766007</v>
       </c>
       <c r="FP4">
-        <v>0.022517720480759829</v>
+        <v>0.022087805409360083</v>
       </c>
       <c r="FQ4">
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.016143747784583464</v>
+        <v>0.015590791302356993</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="25128" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35148" uniqueCount="186">
   <si>
     <t>y1</t>
   </si>
@@ -559,6 +559,21 @@
   </si>
   <si>
     <t>min6b</t>
+  </si>
+  <si>
+    <t>min21b</t>
+  </si>
+  <si>
+    <t>min1620b</t>
+  </si>
+  <si>
+    <t>min1115b</t>
+  </si>
+  <si>
+    <t>min_bin</t>
+  </si>
+  <si>
+    <t>o.min_sum</t>
   </si>
 </sst>
 </file>
@@ -602,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1131,528 +1146,558 @@
       <c r="FS1" t="s">
         <v>1</v>
       </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>89</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>90</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>91</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>92</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CR2" t="s">
         <v>93</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CS2" t="s">
         <v>94</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>95</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>96</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>97</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>100</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>102</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>103</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>104</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>105</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>106</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>107</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>108</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>109</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>110</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>111</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>112</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>113</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>114</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>115</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>116</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>117</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>118</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>119</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>120</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>121</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>123</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>124</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>126</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>127</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>128</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>129</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>130</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>131</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>132</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>135</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>136</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>138</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>139</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>140</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>141</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>142</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>143</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>144</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>145</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>146</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>147</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>148</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>149</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>150</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>151</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>152</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>153</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>154</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>155</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>156</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>157</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>158</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>159</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>160</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>161</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>162</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>163</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>164</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>165</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>166</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>167</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>168</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>169</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>170</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>176</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>179</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1661,526 +1706,541 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.0064612344623343936</v>
+        <v>-0.011159697295097139</v>
       </c>
       <c r="C3">
-        <v>-1.5693160011495952</v>
+        <v>-0.64002261745275713</v>
       </c>
       <c r="D3">
-        <v>-1.5892055209667737</v>
+        <v>-0.67128635711379758</v>
       </c>
       <c r="E3">
-        <v>-1.6231714092510301</v>
+        <v>-0.68312977159560317</v>
       </c>
       <c r="F3">
-        <v>-0.012834186660308364</v>
+        <v>-0.68458062625385829</v>
       </c>
       <c r="G3">
-        <v>0.0050341079863161688</v>
+        <v>-0.68331704244183622</v>
       </c>
       <c r="H3">
-        <v>-0.0015428973946674622</v>
+        <v>-0.66826740724711287</v>
       </c>
       <c r="I3">
-        <v>0.0015946673771893647</v>
+        <v>-0.0085277286798345585</v>
       </c>
       <c r="J3">
-        <v>0.0023857300201923118</v>
+        <v>-0.005991061372988782</v>
       </c>
       <c r="K3">
+        <v>-0.00074984077761190975</v>
+      </c>
+      <c r="L3">
+        <v>0.0015767848260818404</v>
+      </c>
+      <c r="M3">
+        <v>0.006704496256971686</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.2774255484694981</v>
-      </c>
-      <c r="M3">
-        <v>1.3596714440002526</v>
-      </c>
-      <c r="N3">
-        <v>-0.19426934105298518</v>
-      </c>
       <c r="O3">
-        <v>-0.14081636346712575</v>
+        <v>1.161248787994652</v>
       </c>
       <c r="P3">
-        <v>-0.13126189764824472</v>
+        <v>1.2907013545554955</v>
       </c>
       <c r="Q3">
-        <v>-0.12352028713952466</v>
+        <v>-0.25455333908223277</v>
       </c>
       <c r="R3">
-        <v>-0.12190289315445187</v>
+        <v>-0.22703436798987167</v>
       </c>
       <c r="S3">
-        <v>-0.079342999808918888</v>
+        <v>-0.2369223059880724</v>
       </c>
       <c r="T3">
-        <v>-0.11342971152759082</v>
+        <v>-0.26793508488723472</v>
       </c>
       <c r="U3">
-        <v>-0.1066371528685144</v>
+        <v>-0.25321991354066675</v>
       </c>
       <c r="V3">
-        <v>-0.028919310203725287</v>
+        <v>-0.2036620835344303</v>
       </c>
       <c r="W3">
-        <v>-0.062124779857335041</v>
+        <v>-0.20811428360684345</v>
       </c>
       <c r="X3">
-        <v>-0.014643216202327548</v>
+        <v>-0.20360231890531572</v>
       </c>
       <c r="Y3">
-        <v>-0.11034019082454653</v>
+        <v>-0.24304856145364914</v>
       </c>
       <c r="Z3">
-        <v>-0.012270091784720055</v>
+        <v>-0.12475103112484795</v>
       </c>
       <c r="AA3">
-        <v>-0.053159864269365149</v>
+        <v>-0.11393077883780837</v>
       </c>
       <c r="AB3">
-        <v>-0.057287967687031212</v>
+        <v>-0.10884327836371319</v>
       </c>
       <c r="AC3">
-        <v>-0.043403263240088266</v>
+        <v>-0.15483238447793671</v>
       </c>
       <c r="AD3">
-        <v>-0.036922809542328835</v>
+        <v>-0.1050686771127352</v>
       </c>
       <c r="AE3">
-        <v>0.015083756730089711</v>
+        <v>-0.14707874348924921</v>
       </c>
       <c r="AF3">
-        <v>-0.028809362549031468</v>
+        <v>-0.099061728290779541</v>
       </c>
       <c r="AG3">
-        <v>0.002064639537628372</v>
+        <v>-0.10885287225438953</v>
       </c>
       <c r="AH3">
-        <v>-0.073147803531715266</v>
+        <v>-0.09992459464301387</v>
       </c>
       <c r="AI3">
-        <v>0.0021347242172112305</v>
+        <v>-0.063703348400718604</v>
       </c>
       <c r="AJ3">
-        <v>0.0037602628452040863</v>
+        <v>-0.093424220037176958</v>
       </c>
       <c r="AK3">
-        <v>0.0038270630193457693</v>
+        <v>-0.086103034734330244</v>
       </c>
       <c r="AL3">
-        <v>0.036168056234475152</v>
+        <v>-0.077545495970379422</v>
       </c>
       <c r="AM3">
-        <v>0.010996410730620616</v>
+        <v>-0.044182645624389359</v>
       </c>
       <c r="AN3">
-        <v>-0.0069531273705377584</v>
+        <v>-0.053695536150634895</v>
       </c>
       <c r="AO3">
-        <v>-0.014055161349566955</v>
+        <v>-0.053801746632585017</v>
       </c>
       <c r="AP3">
-        <v>0.052338969888727167</v>
+        <v>-0.054220462245849456</v>
       </c>
       <c r="AQ3">
-        <v>0.06288705198303253</v>
+        <v>-0.04604566137367011</v>
       </c>
       <c r="AR3">
-        <v>0.0082969877937435887</v>
+        <v>-0.059089302687831968</v>
       </c>
       <c r="AS3">
-        <v>0.052734873197424856</v>
+        <v>-0.064852466560678848</v>
       </c>
       <c r="AT3">
-        <v>0.030154671036106053</v>
+        <v>-0.041779518478527726</v>
       </c>
       <c r="AU3">
-        <v>0.06046216296282516</v>
+        <v>-0.00035842625578490553</v>
       </c>
       <c r="AV3">
-        <v>0.055390066129652381</v>
+        <v>-0.058618154038744742</v>
       </c>
       <c r="AW3">
-        <v>0.038921761241639492</v>
+        <v>-0.0062429945719469863</v>
       </c>
       <c r="AX3">
-        <v>0.048893918602282885</v>
+        <v>-0.066410456868818968</v>
       </c>
       <c r="AY3">
-        <v>-0.00050367448690772341</v>
+        <v>-0.083256221112334272</v>
       </c>
       <c r="AZ3">
-        <v>0.014519066640978535</v>
+        <v>-0.03123776762869054</v>
       </c>
       <c r="BA3">
-        <v>-0.014798653328841926</v>
+        <v>-0.035000669269969462</v>
       </c>
       <c r="BB3">
-        <v>0.050800395779153337</v>
+        <v>-0.03261314364582793</v>
       </c>
       <c r="BC3">
-        <v>0.0295315687127676</v>
+        <v>0.0085193605820326583</v>
       </c>
       <c r="BD3">
-        <v>0.0077424359253429756</v>
+        <v>-0.033309196313096569</v>
       </c>
       <c r="BE3">
-        <v>0.042772273209043692</v>
+        <v>-0.0089177444842525166</v>
       </c>
       <c r="BF3">
-        <v>-0.0088690228743858526</v>
+        <v>0.012112199321468153</v>
       </c>
       <c r="BG3">
-        <v>0.013465378743040437</v>
+        <v>0.006668512113387314</v>
       </c>
       <c r="BH3">
-        <v>0.031502415466711724</v>
+        <v>0.0029959176606217412</v>
       </c>
       <c r="BI3">
-        <v>0.029270979511849912</v>
+        <v>-0.044516316409110794</v>
       </c>
       <c r="BJ3">
-        <v>0.050133795685075262</v>
+        <v>0.026776662726689042</v>
       </c>
       <c r="BK3">
-        <v>0.066883333248407395</v>
+        <v>0.015855406126222205</v>
       </c>
       <c r="BL3">
-        <v>0.033481107189070568</v>
+        <v>0.034102118378388079</v>
       </c>
       <c r="BM3">
-        <v>-0.0043877701191551858</v>
+        <v>0.0038096313201156995</v>
       </c>
       <c r="BN3">
-        <v>0.0092680544631179619</v>
+        <v>0.017380964008260679</v>
       </c>
       <c r="BO3">
-        <v>-0.037974836923155106</v>
+        <v>-0.029930662076851858</v>
       </c>
       <c r="BP3">
-        <v>0.071161657727627822</v>
+        <v>0.035140973350457093</v>
       </c>
       <c r="BQ3">
-        <v>0.0068229521252025907</v>
+        <v>0.0048921288285332949</v>
       </c>
       <c r="BR3">
-        <v>0.045719694485956586</v>
+        <v>0.010768486839128505</v>
       </c>
       <c r="BS3">
-        <v>-0.026827402709491049</v>
+        <v>0.009451260231275526</v>
       </c>
       <c r="BT3">
-        <v>0.043408783479506816</v>
+        <v>-0.0032760379592790085</v>
       </c>
       <c r="BU3">
-        <v>0.10365536626995797</v>
+        <v>-0.0059620429831304597</v>
       </c>
       <c r="BV3">
-        <v>-0.00014151296337929035</v>
+        <v>0.01231199117740887</v>
       </c>
       <c r="BW3">
-        <v>0.044520986771579979</v>
+        <v>-0.0083198091210597482</v>
       </c>
       <c r="BX3">
-        <v>0.029659961846512119</v>
+        <v>0.023068093293212012</v>
       </c>
       <c r="BY3">
-        <v>0.0080124802081705682</v>
+        <v>0.028262723573257618</v>
       </c>
       <c r="BZ3">
-        <v>0.045437979919764733</v>
+        <v>0.016890789756974514</v>
       </c>
       <c r="CA3">
-        <v>-0.0017772100484301531</v>
+        <v>0.030877389955826815</v>
       </c>
       <c r="CB3">
-        <v>0.018030595385936463</v>
+        <v>0.0033911735839851883</v>
       </c>
       <c r="CC3">
-        <v>0.026827518240879727</v>
+        <v>0.032250833173884608</v>
       </c>
       <c r="CD3">
-        <v>0.020828618900997013</v>
+        <v>0.024110669879197546</v>
       </c>
       <c r="CE3">
-        <v>0.002081866790201703</v>
+        <v>0.013109706016190246</v>
       </c>
       <c r="CF3">
-        <v>0.011221618203055625</v>
+        <v>0.028836974331473465</v>
       </c>
       <c r="CG3">
-        <v>0.0068125142238323133</v>
+        <v>0.026231124545158961</v>
       </c>
       <c r="CH3">
-        <v>0.042856879517035311</v>
+        <v>0.012274082124723031</v>
       </c>
       <c r="CI3">
-        <v>0.045435789275358511</v>
+        <v>0.017333197932962684</v>
       </c>
       <c r="CJ3">
-        <v>0.014054870156324936</v>
+        <v>0.013450644929369981</v>
       </c>
       <c r="CK3">
-        <v>0.090477872479589216</v>
+        <v>0.023841586154289718</v>
       </c>
       <c r="CL3">
-        <v>0.0090510550167949167</v>
+        <v>-0.00040010410370234985</v>
       </c>
       <c r="CM3">
-        <v>0.044044053502413742</v>
+        <v>0.0098441148386862048</v>
       </c>
       <c r="CN3">
-        <v>0.018489413945898956</v>
+        <v>0.0094607410824717204</v>
       </c>
       <c r="CO3">
-        <v>0.029560011633514047</v>
+        <v>-0.016825200081397977</v>
       </c>
       <c r="CP3">
-        <v>0.034179326163344792</v>
+        <v>0.022632694802545643</v>
       </c>
       <c r="CQ3">
-        <v>0.043045202755349572</v>
+        <v>0.031430307848693224</v>
       </c>
       <c r="CR3">
-        <v>0.043808820732803178</v>
+        <v>-0.018704117868000188</v>
       </c>
       <c r="CS3">
-        <v>0.021338664908431559</v>
+        <v>0.05561492684217529</v>
       </c>
       <c r="CT3">
-        <v>0.023384757720403104</v>
+        <v>0.026923469067579947</v>
       </c>
       <c r="CU3">
-        <v>0.0076294162421153312</v>
+        <v>0.063158983384041995</v>
       </c>
       <c r="CV3">
-        <v>0.038458714672646943</v>
+        <v>0.028267901208578441</v>
       </c>
       <c r="CW3">
-        <v>0.05661685154022332</v>
+        <v>0.018066247085298172</v>
       </c>
       <c r="CX3">
-        <v>0.01631688365973287</v>
+        <v>0.00041130202223678208</v>
       </c>
       <c r="CY3">
-        <v>0.032669047794389505</v>
+        <v>0.042590862145053858</v>
       </c>
       <c r="CZ3">
-        <v>0.027160413675598082</v>
+        <v>0.034986611048616043</v>
       </c>
       <c r="DA3">
-        <v>0.025780696636757847</v>
+        <v>0.01900137495308139</v>
       </c>
       <c r="DB3">
-        <v>0.0259547105326342</v>
+        <v>0.021372440619530319</v>
       </c>
       <c r="DC3">
-        <v>-0.0016665865902297581</v>
+        <v>0.067374122950500701</v>
       </c>
       <c r="DD3">
-        <v>0.044316801094845891</v>
+        <v>0.015020877802715138</v>
       </c>
       <c r="DE3">
-        <v>0.039517415955577777</v>
+        <v>-0.0040160150770521879</v>
       </c>
       <c r="DF3">
-        <v>-0.0027667824742540251</v>
+        <v>-0.0025521512189291139</v>
       </c>
       <c r="DG3">
-        <v>0.023119616190015634</v>
+        <v>0.028418248370477062</v>
       </c>
       <c r="DH3">
-        <v>0.0321081016482056</v>
+        <v>0.035892657133212484</v>
       </c>
       <c r="DI3">
-        <v>0.010021786535617061</v>
+        <v>0.019651957005907231</v>
       </c>
       <c r="DJ3">
-        <v>0.021329000594479171</v>
+        <v>0.011215298931147536</v>
       </c>
       <c r="DK3">
-        <v>0.0099156236487462183</v>
+        <v>0.008240895810704231</v>
       </c>
       <c r="DL3">
-        <v>0.019759857341698512</v>
+        <v>0.044579186812367715</v>
       </c>
       <c r="DM3">
-        <v>0.0057888960326166689</v>
+        <v>0.0011214482716510046</v>
       </c>
       <c r="DN3">
-        <v>0.059189937782175017</v>
+        <v>-0.00062606137452448404</v>
       </c>
       <c r="DO3">
-        <v>0.031525504470550435</v>
+        <v>0.019522398053593751</v>
       </c>
       <c r="DP3">
-        <v>0.010559995642498404</v>
+        <v>0.049535805942588072</v>
       </c>
       <c r="DQ3">
-        <v>-0.0059256279805214142</v>
+        <v>0.01037726520000689</v>
       </c>
       <c r="DR3">
-        <v>0.028835169658136529</v>
+        <v>-0.040656466454949178</v>
       </c>
       <c r="DS3">
-        <v>0.041896808098456924</v>
+        <v>0.052224378378929112</v>
       </c>
       <c r="DT3">
-        <v>0.054935675037962067</v>
+        <v>0.019643583049834348</v>
       </c>
       <c r="DU3">
-        <v>0.015198704297012455</v>
+        <v>0.020319584445981285</v>
       </c>
       <c r="DV3">
-        <v>0.028044119357763065</v>
+        <v>-0.00070006231164952833</v>
       </c>
       <c r="DW3">
-        <v>0.023892831769875594</v>
+        <v>-0.005825519394488241</v>
       </c>
       <c r="DX3">
-        <v>0.0067246066786081915</v>
+        <v>0.01420070148347702</v>
       </c>
       <c r="DY3">
-        <v>-0.0051759083238522218</v>
+        <v>-0.019166568679167609</v>
       </c>
       <c r="DZ3">
-        <v>0.028180744881231099</v>
+        <v>-0.0029024586488996581</v>
       </c>
       <c r="EA3">
-        <v>0.023082979824316379</v>
+        <v>0.00076660382113691902</v>
       </c>
       <c r="EB3">
-        <v>0.013780691028989754</v>
+        <v>-0.0065812351179134962</v>
       </c>
       <c r="EC3">
-        <v>-0.0070418318046894992</v>
+        <v>-0.04190228798821994</v>
       </c>
       <c r="ED3">
-        <v>0.030103786969087342</v>
+        <v>0.012023708591128265</v>
       </c>
       <c r="EE3">
-        <v>0.027750814487884634</v>
+        <v>0.015346905520976345</v>
       </c>
       <c r="EF3">
-        <v>-0.0043815426024321254</v>
+        <v>0.026390086985527011</v>
       </c>
       <c r="EG3">
-        <v>0.0017821832776181634</v>
+        <v>0.033008165788874298</v>
       </c>
       <c r="EH3">
-        <v>0.032627634861044794</v>
+        <v>0.033598125225884658</v>
       </c>
       <c r="EI3">
-        <v>0.014273783036438982</v>
+        <v>0.014081519572666673</v>
       </c>
       <c r="EJ3">
-        <v>0.054065927022696053</v>
+        <v>0.030987073244003741</v>
       </c>
       <c r="EK3">
-        <v>0.018444216937142998</v>
+        <v>0.0078377429853600418</v>
       </c>
       <c r="EL3">
-        <v>0.010634257951992751</v>
+        <v>-0.035377709295342535</v>
       </c>
       <c r="EM3">
-        <v>-0.001704708462947731</v>
+        <v>-0.014827399306661108</v>
       </c>
       <c r="EN3">
-        <v>0.014919173093800742</v>
+        <v>0.02913416159720723</v>
       </c>
       <c r="EO3">
-        <v>0.01903932272108539</v>
+        <v>-0.013551395827774936</v>
       </c>
       <c r="EP3">
-        <v>0.0031608576671517783</v>
+        <v>0.023957048964907624</v>
       </c>
       <c r="EQ3">
-        <v>0.0028281752983531391</v>
+        <v>0.002491628851973013</v>
       </c>
       <c r="ER3">
-        <v>0.01262093861716437</v>
+        <v>-0.0029834985703767673</v>
       </c>
       <c r="ES3">
-        <v>-0.034595500504006504</v>
+        <v>-0.012553925478837241</v>
       </c>
       <c r="ET3">
-        <v>-0.039024484785140805</v>
+        <v>0.022464673162549346</v>
       </c>
       <c r="EU3">
-        <v>0.032426394213967716</v>
+        <v>-0.00079897109535725496</v>
       </c>
       <c r="EV3">
-        <v>-0.010639211634446668</v>
+        <v>-0.022661887128649239</v>
       </c>
       <c r="EW3">
-        <v>-0.0066232414014419424</v>
+        <v>0.0055121908144502765</v>
       </c>
       <c r="EX3">
-        <v>-0.009921813749685187</v>
+        <v>-0.031466947290997943</v>
       </c>
       <c r="EY3">
-        <v>0.016830308366147542</v>
+        <v>-0.0065263295815795562</v>
       </c>
       <c r="EZ3">
-        <v>-0.008233801509228169</v>
+        <v>-0.029456195878637154</v>
       </c>
       <c r="FA3">
-        <v>0.024084725643545496</v>
+        <v>-0.039025320259009649</v>
       </c>
       <c r="FB3">
-        <v>-0.014032031730837342</v>
+        <v>-0.046438094725196388</v>
       </c>
       <c r="FC3">
-        <v>0.018198555995077248</v>
+        <v>-0.0038413951095403326</v>
       </c>
       <c r="FD3">
-        <v>0.00065297431106877692</v>
+        <v>-0.025713686416887527</v>
       </c>
       <c r="FE3">
-        <v>-0.033298428208453794</v>
+        <v>-0.023139565806614654</v>
       </c>
       <c r="FF3">
-        <v>-0.0087617131974859676</v>
+        <v>0.012314543357686922</v>
       </c>
       <c r="FG3">
-        <v>-0.013314637192209903</v>
+        <v>-0.016419651861022507</v>
       </c>
       <c r="FH3">
-        <v>-0.011704846207044223</v>
+        <v>-0.016644140220784507</v>
       </c>
       <c r="FI3">
-        <v>-4.7762531778700672e-05</v>
+        <v>0.01717813719488186</v>
       </c>
       <c r="FJ3">
-        <v>-0.021540751934893281</v>
+        <v>-0.010833024802816513</v>
       </c>
       <c r="FK3">
-        <v>-0.020992346598465661</v>
+        <v>0.016160420000660536</v>
       </c>
       <c r="FL3">
-        <v>-0.025876293812559348</v>
+        <v>-0.0021629004057257002</v>
       </c>
       <c r="FM3">
-        <v>-0.014533636881743047</v>
+        <v>-0.02107668842584709</v>
       </c>
       <c r="FN3">
-        <v>-0.021883291493390623</v>
+        <v>-0.046576066806184417</v>
       </c>
       <c r="FO3">
-        <v>-0.011481296466768761</v>
+        <v>0.014542679517835186</v>
       </c>
       <c r="FP3">
-        <v>-0.0089491542363221988</v>
+        <v>0.0058820403099501756</v>
       </c>
       <c r="FQ3">
+        <v>0.013329481431561652</v>
+      </c>
+      <c r="FR3">
+        <v>-0.012471451806377192</v>
+      </c>
+      <c r="FS3">
+        <v>-0.013349461545773647</v>
+      </c>
+      <c r="FT3">
         <v>0</v>
       </c>
-      <c r="FR3">
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.5088457542015261</v>
+      <c r="FV3">
+        <v>-5.501981235490585</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.6003612144372159</v>
       </c>
     </row>
     <row r="4">
@@ -2188,526 +2248,541 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.024474455133177808</v>
+        <v>0.021909281092731169</v>
       </c>
       <c r="C4">
-        <v>0.012514675530006661</v>
+        <v>0.012215080468331654</v>
       </c>
       <c r="D4">
-        <v>0.021745856381477809</v>
+        <v>0.013763840860840858</v>
       </c>
       <c r="E4">
-        <v>0.026566812674461465</v>
+        <v>0.013470512089848605</v>
       </c>
       <c r="F4">
-        <v>0.016264149773460575</v>
+        <v>0.01356433500166942</v>
       </c>
       <c r="G4">
-        <v>0.013580492335937437</v>
+        <v>0.016057871369671049</v>
       </c>
       <c r="H4">
-        <v>0.01074239925800134</v>
+        <v>0.019092472681078426</v>
       </c>
       <c r="I4">
-        <v>0.010807917664487387</v>
+        <v>0.015233989868067767</v>
       </c>
       <c r="J4">
-        <v>0.011332564027485717</v>
+        <v>0.012638584167905371</v>
       </c>
       <c r="K4">
+        <v>0.010324370239452565</v>
+      </c>
+      <c r="L4">
+        <v>0.010534038260415919</v>
+      </c>
+      <c r="M4">
+        <v>0.010714363270728524</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.024800311731944632</v>
-      </c>
-      <c r="M4">
-        <v>0.024471235695202317</v>
-      </c>
-      <c r="N4">
-        <v>0.036545075410090423</v>
-      </c>
       <c r="O4">
-        <v>0.035882799714349246</v>
+        <v>0.021879439128762918</v>
       </c>
       <c r="P4">
-        <v>0.035774276355207392</v>
+        <v>0.021652470973517867</v>
       </c>
       <c r="Q4">
-        <v>0.035688587882513952</v>
+        <v>0.027407619029258423</v>
       </c>
       <c r="R4">
-        <v>0.035677946451539717</v>
+        <v>0.027240385680709085</v>
       </c>
       <c r="S4">
-        <v>0.035174672897846981</v>
+        <v>0.027315042274014802</v>
       </c>
       <c r="T4">
-        <v>0.03559336493150559</v>
+        <v>0.027529100819534431</v>
       </c>
       <c r="U4">
-        <v>0.035520148538565215</v>
+        <v>0.027442940864606323</v>
       </c>
       <c r="V4">
-        <v>0.034612339875459613</v>
+        <v>0.0271344653318795</v>
       </c>
       <c r="W4">
-        <v>0.035007984164766713</v>
+        <v>0.027173821762511149</v>
       </c>
       <c r="X4">
-        <v>0.034467365005629275</v>
+        <v>0.027156276794343823</v>
       </c>
       <c r="Y4">
-        <v>0.035603884480810422</v>
+        <v>0.027421707586474154</v>
       </c>
       <c r="Z4">
-        <v>0.034458405114524013</v>
+        <v>0.026691716868060097</v>
       </c>
       <c r="AA4">
-        <v>0.034940471459536625</v>
+        <v>0.026638533109430759</v>
       </c>
       <c r="AB4">
-        <v>0.034998299875251673</v>
+        <v>0.026619741360998907</v>
       </c>
       <c r="AC4">
-        <v>0.034845134697995259</v>
+        <v>0.02690910468450956</v>
       </c>
       <c r="AD4">
-        <v>0.034779162874985392</v>
+        <v>0.026619741302684293</v>
       </c>
       <c r="AE4">
-        <v>0.034194962178855773</v>
+        <v>0.026884710618504688</v>
       </c>
       <c r="AF4">
-        <v>0.034704523428085728</v>
+        <v>0.026606649856021094</v>
       </c>
       <c r="AG4">
-        <v>0.034360615956291446</v>
+        <v>0.026676435669695308</v>
       </c>
       <c r="AH4">
-        <v>0.035244458580742925</v>
+        <v>0.026634766304316888</v>
       </c>
       <c r="AI4">
-        <v>0.034378291563804043</v>
+        <v>0.026433921734228261</v>
       </c>
       <c r="AJ4">
-        <v>0.034369448010173331</v>
+        <v>0.026619741429254579</v>
       </c>
       <c r="AK4">
-        <v>0.034378291566071327</v>
+        <v>0.026588036476081142</v>
       </c>
       <c r="AL4">
-        <v>0.034024897208411307</v>
+        <v>0.026549284833200824</v>
       </c>
       <c r="AM4">
-        <v>0.034316627460186655</v>
+        <v>0.02636730944931788</v>
       </c>
       <c r="AN4">
-        <v>0.034530415047697889</v>
+        <v>0.026433921707655097</v>
       </c>
       <c r="AO4">
-        <v>0.034621503117132836</v>
+        <v>0.026446343136886895</v>
       </c>
       <c r="AP4">
-        <v>0.033883689129081726</v>
+        <v>0.026460597331610717</v>
       </c>
       <c r="AQ4">
-        <v>0.033777715034010815</v>
+        <v>0.026425078331423869</v>
       </c>
       <c r="AR4">
-        <v>0.034396013289959906</v>
+        <v>0.026512796251004129</v>
       </c>
       <c r="AS4">
-        <v>0.033908389651369934</v>
+        <v>0.026558470424493559</v>
       </c>
       <c r="AT4">
-        <v>0.034169174930698501</v>
+        <v>0.026435693353124234</v>
       </c>
       <c r="AU4">
-        <v>0.033842726791524898</v>
+        <v>0.026211551539799139</v>
       </c>
       <c r="AV4">
-        <v>0.03390838965523725</v>
+        <v>0.02655847045059273</v>
       </c>
       <c r="AW4">
-        <v>0.034100890597398348</v>
+        <v>0.02626822857278582</v>
       </c>
       <c r="AX4">
-        <v>0.033999758020148693</v>
+        <v>0.026629124081317002</v>
       </c>
       <c r="AY4">
-        <v>0.034566705681923805</v>
+        <v>0.026741864800283358</v>
       </c>
       <c r="AZ4">
-        <v>0.034404891507511817</v>
+        <v>0.026446343338877788</v>
       </c>
       <c r="BA4">
-        <v>0.034751079153004877</v>
+        <v>0.02648029915296812</v>
       </c>
       <c r="BB4">
-        <v>0.034016506901561515</v>
+        <v>0.026478503172452726</v>
       </c>
       <c r="BC4">
-        <v>0.034264216084904063</v>
+        <v>0.026254801086120907</v>
       </c>
       <c r="BD4">
-        <v>0.034521372310450042</v>
+        <v>0.026507357874679761</v>
       </c>
       <c r="BE4">
-        <v>0.034134945599446943</v>
+        <v>0.026085046026577234</v>
       </c>
       <c r="BF4">
-        <v>0.034732419427621578</v>
+        <v>0.025974289877685179</v>
       </c>
       <c r="BG4">
-        <v>0.034485320150830272</v>
+        <v>0.026018536659015018</v>
       </c>
       <c r="BH4">
-        <v>0.034290370952716309</v>
+        <v>0.026052570305507079</v>
       </c>
       <c r="BI4">
-        <v>0.034325402364516179</v>
+        <v>0.026349616325903137</v>
       </c>
       <c r="BJ4">
-        <v>0.034100890613611698</v>
+        <v>0.02591491626941838</v>
       </c>
       <c r="BK4">
-        <v>0.033924908317203711</v>
+        <v>0.025991492860699579</v>
       </c>
       <c r="BL4">
-        <v>0.03430786397816777</v>
+        <v>0.025897398280844482</v>
       </c>
       <c r="BM4">
-        <v>0.034751079167041926</v>
+        <v>0.026088388567908679</v>
       </c>
       <c r="BN4">
-        <v>0.034603188862934016</v>
+        <v>0.026020499315176669</v>
       </c>
       <c r="BO4">
-        <v>0.03516475892032931</v>
+        <v>0.026334147297318811</v>
       </c>
       <c r="BP4">
-        <v>0.033924908323630973</v>
+        <v>0.025956882596667726</v>
       </c>
       <c r="BQ4">
-        <v>0.035391953558901491</v>
+        <v>0.026148729276103483</v>
       </c>
       <c r="BR4">
-        <v>0.034963461473825626</v>
+        <v>0.026126258482740642</v>
       </c>
       <c r="BS4">
-        <v>0.035800288671721407</v>
+        <v>0.026146880677202184</v>
       </c>
       <c r="BT4">
-        <v>0.035990975943322644</v>
+        <v>0.026577394386779675</v>
       </c>
       <c r="BU4">
-        <v>0.03534940085836067</v>
+        <v>0.026606067356194026</v>
       </c>
       <c r="BV4">
-        <v>0.030931813236641962</v>
+        <v>0.026509656535713376</v>
       </c>
       <c r="BW4">
-        <v>0.026646404196414755</v>
+        <v>0.027108989477713511</v>
       </c>
       <c r="BX4">
-        <v>0.026736050867079534</v>
+        <v>0.02693873300345077</v>
       </c>
       <c r="BY4">
-        <v>0.025736471889548754</v>
+        <v>0.027089408318309877</v>
       </c>
       <c r="BZ4">
-        <v>0.025558072186961146</v>
+        <v>0.024869005429433794</v>
       </c>
       <c r="CA4">
-        <v>0.025823876326165028</v>
+        <v>0.024822425321427803</v>
       </c>
       <c r="CB4">
-        <v>0.024811300896146381</v>
+        <v>0.024136130156101353</v>
       </c>
       <c r="CC4">
-        <v>0.024781813346923417</v>
+        <v>0.024021232833912689</v>
       </c>
       <c r="CD4">
-        <v>0.024834107026932995</v>
+        <v>0.02389226360238807</v>
       </c>
       <c r="CE4">
-        <v>0.024958153699489897</v>
+        <v>0.023661451064489619</v>
       </c>
       <c r="CF4">
-        <v>0.024925726462939057</v>
+        <v>0.023604968364917305</v>
       </c>
       <c r="CG4">
-        <v>0.024957471193404378</v>
+        <v>0.02363335298916314</v>
       </c>
       <c r="CH4">
-        <v>0.024775804977998427</v>
+        <v>0.023714778513821498</v>
       </c>
       <c r="CI4">
-        <v>0.024780954144159498</v>
+        <v>0.023423714219650608</v>
       </c>
       <c r="CJ4">
-        <v>0.024975658258663783</v>
+        <v>0.023801164350841484</v>
       </c>
       <c r="CK4">
-        <v>0.0248052368340669</v>
+        <v>0.023768983524668982</v>
       </c>
       <c r="CL4">
-        <v>0.025535261064018835</v>
+        <v>0.023899986863999044</v>
       </c>
       <c r="CM4">
-        <v>0.025361296503372432</v>
+        <v>0.023867644932299367</v>
       </c>
       <c r="CN4">
-        <v>0.025798766058167749</v>
+        <v>0.023820047718603281</v>
       </c>
       <c r="CO4">
-        <v>0.025758389974601826</v>
+        <v>0.024153654558045495</v>
       </c>
       <c r="CP4">
-        <v>0.025475776934109649</v>
+        <v>0.023982545543095736</v>
       </c>
       <c r="CQ4">
-        <v>0.02195920706953667</v>
+        <v>0.024364049467435811</v>
       </c>
       <c r="CR4">
-        <v>0.021972675045799434</v>
+        <v>0.024616130361918981</v>
       </c>
       <c r="CS4">
-        <v>0.021608695832686032</v>
+        <v>0.024443471652685414</v>
       </c>
       <c r="CT4">
-        <v>0.021617252390145357</v>
+        <v>0.021770674214555873</v>
       </c>
       <c r="CU4">
-        <v>0.021698718847693393</v>
+        <v>0.02164531414095637</v>
       </c>
       <c r="CV4">
-        <v>0.021193288484549967</v>
+        <v>0.021381165387474407</v>
       </c>
       <c r="CW4">
-        <v>0.021136123244540388</v>
+        <v>0.02143992219712576</v>
       </c>
       <c r="CX4">
-        <v>0.02132122716602064</v>
+        <v>0.021530241947557066</v>
       </c>
       <c r="CY4">
-        <v>0.021269801053443706</v>
+        <v>0.021054809427658465</v>
       </c>
       <c r="CZ4">
-        <v>0.021310546765981916</v>
+        <v>0.021103732305778344</v>
       </c>
       <c r="DA4">
-        <v>0.021337760541083172</v>
+        <v>0.021188151465175744</v>
       </c>
       <c r="DB4">
-        <v>0.021354678708951365</v>
+        <v>0.021195704716717736</v>
       </c>
       <c r="DC4">
-        <v>0.021491265444622359</v>
+        <v>0.021022300022544283</v>
       </c>
       <c r="DD4">
-        <v>0.021311851677833886</v>
+        <v>0.021281117938548578</v>
       </c>
       <c r="DE4">
-        <v>0.021350052775487013</v>
+        <v>0.021380748522368688</v>
       </c>
       <c r="DF4">
-        <v>0.021617115652082967</v>
+        <v>0.02139207787665668</v>
       </c>
       <c r="DG4">
-        <v>0.021522239085183834</v>
+        <v>0.021276476008116964</v>
       </c>
       <c r="DH4">
-        <v>0.021501476408411806</v>
+        <v>0.021262604196844601</v>
       </c>
       <c r="DI4">
-        <v>0.021615448202835064</v>
+        <v>0.021365047766588676</v>
       </c>
       <c r="DJ4">
-        <v>0.021583978598433157</v>
+        <v>0.021419554593375727</v>
       </c>
       <c r="DK4">
-        <v>0.020901271612442707</v>
+        <v>0.021450558340522098</v>
       </c>
       <c r="DL4">
-        <v>0.020875048050181786</v>
+        <v>0.021311754187727544</v>
       </c>
       <c r="DM4">
-        <v>0.020958122695776925</v>
+        <v>0.021518833416967455</v>
       </c>
       <c r="DN4">
-        <v>0.020734637224074072</v>
+        <v>0.020878896509593344</v>
       </c>
       <c r="DO4">
-        <v>0.020878529256061443</v>
+        <v>0.020805500887189538</v>
       </c>
       <c r="DP4">
-        <v>0.020994296916359911</v>
+        <v>0.020689332885836395</v>
       </c>
       <c r="DQ4">
-        <v>0.021090747916365948</v>
+        <v>0.020885996933389991</v>
       </c>
       <c r="DR4">
-        <v>0.020947367955446116</v>
+        <v>0.021145441350458316</v>
       </c>
       <c r="DS4">
-        <v>0.020906549020066712</v>
+        <v>0.020732481164371611</v>
       </c>
       <c r="DT4">
-        <v>0.020866366537273306</v>
+        <v>0.02090025619752971</v>
       </c>
       <c r="DU4">
-        <v>0.021070049823918975</v>
+        <v>0.020916391786592738</v>
       </c>
       <c r="DV4">
-        <v>0.021029131713668912</v>
+        <v>0.021034088528681189</v>
       </c>
       <c r="DW4">
-        <v>0.021068176238498975</v>
+        <v>0.021077695420353891</v>
       </c>
       <c r="DX4">
-        <v>0.021169339590659864</v>
+        <v>0.021002309990313883</v>
       </c>
       <c r="DY4">
-        <v>0.021246280276670613</v>
+        <v>0.021180953180288821</v>
       </c>
       <c r="DZ4">
-        <v>0.021105903382228404</v>
+        <v>0.021122022628712416</v>
       </c>
       <c r="EA4">
-        <v>0.021149958115758885</v>
+        <v>0.021123966563513605</v>
       </c>
       <c r="EB4">
-        <v>0.021214451486162342</v>
+        <v>0.021178968301795283</v>
       </c>
       <c r="EC4">
-        <v>0.021335760187216536</v>
+        <v>0.021372090582320064</v>
       </c>
       <c r="ED4">
-        <v>0.021175181650221111</v>
+        <v>0.021127858681439841</v>
       </c>
       <c r="EE4">
-        <v>0.021206552115932507</v>
+        <v>0.021131756295327812</v>
       </c>
       <c r="EF4">
-        <v>0.021383708100868763</v>
+        <v>0.021098804840552515</v>
       </c>
       <c r="EG4">
-        <v>0.021373214532619558</v>
+        <v>0.021087270401837319</v>
       </c>
       <c r="EH4">
-        <v>0.021242281832269162</v>
+        <v>0.021104590787268038</v>
       </c>
       <c r="EI4">
-        <v>0.021352344755004287</v>
+        <v>0.021218945421076017</v>
       </c>
       <c r="EJ4">
-        <v>0.021179083507990294</v>
+        <v>0.021157228114515682</v>
       </c>
       <c r="EK4">
-        <v>0.021373214762798382</v>
+        <v>0.021290331298465619</v>
       </c>
       <c r="EL4">
-        <v>0.021432490311719482</v>
+        <v>0.021527273881671055</v>
       </c>
       <c r="EM4">
-        <v>0.021514973965704808</v>
+        <v>0.021443172215267179</v>
       </c>
       <c r="EN4">
-        <v>0.021451810864250655</v>
+        <v>0.021245245869223755</v>
       </c>
       <c r="EO4">
-        <v>0.021451810922656338</v>
+        <v>0.021478284300552188</v>
       </c>
       <c r="EP4">
-        <v>0.021552659393543391</v>
+        <v>0.021311069187712927</v>
       </c>
       <c r="EQ4">
-        <v>0.0215750596668574</v>
+        <v>0.021438813578303358</v>
       </c>
       <c r="ER4">
-        <v>0.02154597320018925</v>
+        <v>0.021487130001752147</v>
       </c>
       <c r="ES4">
-        <v>0.021811461461825013</v>
+        <v>0.02155661742506166</v>
       </c>
       <c r="ET4">
-        <v>0.021855637643008085</v>
+        <v>0.021399881121148639</v>
       </c>
       <c r="EU4">
-        <v>0.021506178741384736</v>
+        <v>0.02153852514712017</v>
       </c>
       <c r="EV4">
-        <v>0.021748777374248247</v>
+        <v>0.021672302245619689</v>
       </c>
       <c r="EW4">
-        <v>0.021748777430779929</v>
+        <v>0.021547557381874971</v>
       </c>
       <c r="EX4">
-        <v>0.021787196781613078</v>
+        <v>0.021760916055783286</v>
       </c>
       <c r="EY4">
-        <v>0.021668750159572359</v>
+        <v>0.021651140876081026</v>
       </c>
       <c r="EZ4">
-        <v>0.021821222981446065</v>
+        <v>0.021792683037067571</v>
       </c>
       <c r="FA4">
-        <v>0.021673398200012781</v>
+        <v>0.021864771769253</v>
       </c>
       <c r="FB4">
-        <v>0.021895454514413354</v>
+        <v>0.02192574555946462</v>
       </c>
       <c r="FC4">
-        <v>0.021746392931378575</v>
+        <v>0.021719875235942699</v>
       </c>
       <c r="FD4">
-        <v>0.021860586784406562</v>
+        <v>0.021857234813367134</v>
       </c>
       <c r="FE4">
-        <v>0.022065392080481139</v>
+        <v>0.021864771991238773</v>
       </c>
       <c r="FF4">
-        <v>0.021953617512626322</v>
+        <v>0.021698373626312589</v>
       </c>
       <c r="FG4">
-        <v>0.021999917201714122</v>
+        <v>0.021872327861936908</v>
       </c>
       <c r="FH4">
-        <v>0.022012902354358231</v>
+        <v>0.021895107688398096</v>
       </c>
       <c r="FI4">
-        <v>0.02197154058159027</v>
+        <v>0.021736706862756951</v>
       </c>
       <c r="FJ4">
-        <v>0.022110712698523331</v>
+        <v>0.021907836678264819</v>
       </c>
       <c r="FK4">
-        <v>0.022129565690217588</v>
+        <v>0.021785323112077697</v>
       </c>
       <c r="FL4">
-        <v>0.022178567479301196</v>
+        <v>0.021905286805286493</v>
       </c>
       <c r="FM4">
-        <v>0.022137680256676218</v>
+        <v>0.022030119978616342</v>
       </c>
       <c r="FN4">
-        <v>0.022200591295169624</v>
+        <v>0.022193482520427847</v>
       </c>
       <c r="FO4">
-        <v>0.022164879889239222</v>
+        <v>0.021879902800801279</v>
       </c>
       <c r="FP4">
-        <v>0.022173085526684157</v>
+        <v>0.021948926460355008</v>
       </c>
       <c r="FQ4">
+        <v>0.021930882561742346</v>
+      </c>
+      <c r="FR4">
+        <v>0.022094458443100713</v>
+      </c>
+      <c r="FS4">
+        <v>0.022121657756931194</v>
+      </c>
+      <c r="FT4">
         <v>0</v>
       </c>
-      <c r="FR4">
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.015659456553450392</v>
+      <c r="FV4">
+        <v>0.015605972184672469</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.019519964288580639</v>
       </c>
     </row>
   </sheetData>
@@ -2716,7 +2791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3245,528 +3320,558 @@
       <c r="FS1" t="s">
         <v>1</v>
       </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>89</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>90</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>91</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>92</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CR2" t="s">
         <v>93</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CS2" t="s">
         <v>94</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>95</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>96</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>97</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>100</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>102</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>103</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>104</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>105</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>106</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>107</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>108</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>109</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>110</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>111</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>112</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>113</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>114</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>115</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>116</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>117</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>118</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>119</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>120</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>121</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>123</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>124</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>126</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>127</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>128</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>129</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>130</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>131</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>132</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>135</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>136</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>138</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>139</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>140</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>141</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>142</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>143</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>144</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>145</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>146</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>147</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>148</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>149</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>150</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>151</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>152</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>153</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>154</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>155</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>156</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>157</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>158</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>159</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>160</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>161</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>162</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>163</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>164</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>165</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>166</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>167</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>168</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>169</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>170</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>176</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>179</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3775,526 +3880,541 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.0073372001291305286</v>
+        <v>0.0025622891665721451</v>
       </c>
       <c r="C3">
-        <v>-0.66423935945360968</v>
+        <v>-0.64308970255587827</v>
       </c>
       <c r="D3">
-        <v>-0.6746779669869547</v>
+        <v>-0.65322977510472768</v>
       </c>
       <c r="E3">
-        <v>-0.69029138707541904</v>
+        <v>-0.67750812566021967</v>
       </c>
       <c r="F3">
-        <v>-0.0019704205937501546</v>
+        <v>-0.69039647861084696</v>
       </c>
       <c r="G3">
-        <v>-0.00035513207932801809</v>
+        <v>-0.68022602237466223</v>
       </c>
       <c r="H3">
-        <v>-0.00033893676445253379</v>
+        <v>-0.70606517564221483</v>
       </c>
       <c r="I3">
-        <v>0.0056105993540686268</v>
+        <v>-0.00026882147039241575</v>
       </c>
       <c r="J3">
-        <v>-0.0043382145137063803</v>
+        <v>-0.0015258349062261642</v>
       </c>
       <c r="K3">
+        <v>-0.0012872811962941879</v>
+      </c>
+      <c r="L3">
+        <v>0.00049706010766450471</v>
+      </c>
+      <c r="M3">
+        <v>0.0019333386020427275</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.1764971536651778</v>
-      </c>
-      <c r="M3">
-        <v>1.2898096143200071</v>
-      </c>
-      <c r="N3">
-        <v>-0.25297446270708812</v>
-      </c>
       <c r="O3">
-        <v>-0.21507540287496352</v>
+        <v>1.1891553474940237</v>
       </c>
       <c r="P3">
-        <v>-0.20417145995862115</v>
+        <v>1.3137418042731892</v>
       </c>
       <c r="Q3">
-        <v>-0.20991151619814424</v>
+        <v>-0.21484176880592837</v>
       </c>
       <c r="R3">
-        <v>-0.15455514560297592</v>
+        <v>-0.22973190830686124</v>
       </c>
       <c r="S3">
-        <v>-0.14203728352395253</v>
+        <v>-0.18383695755976401</v>
       </c>
       <c r="T3">
-        <v>-0.14557755567016056</v>
+        <v>-0.23318757697468523</v>
       </c>
       <c r="U3">
-        <v>-0.16649514724312717</v>
+        <v>-0.21403077978942803</v>
       </c>
       <c r="V3">
-        <v>-0.15789185376091536</v>
+        <v>-0.18106265282084774</v>
       </c>
       <c r="W3">
-        <v>-0.12063441822576756</v>
+        <v>-0.15203716061128156</v>
       </c>
       <c r="X3">
-        <v>-0.14341783728240209</v>
+        <v>-0.15360065510956719</v>
       </c>
       <c r="Y3">
-        <v>-0.12324405052721528</v>
+        <v>-0.15346798130059652</v>
       </c>
       <c r="Z3">
-        <v>-0.086925587777292798</v>
+        <v>-0.097077132838761987</v>
       </c>
       <c r="AA3">
-        <v>-0.064445050701978299</v>
+        <v>-0.081943750591630352</v>
       </c>
       <c r="AB3">
-        <v>-0.11192049780050331</v>
+        <v>-0.085412713575700142</v>
       </c>
       <c r="AC3">
-        <v>-0.10775408634181236</v>
+        <v>-0.12008313684948756</v>
       </c>
       <c r="AD3">
-        <v>-0.09478056687192242</v>
+        <v>-0.073858687407227286</v>
       </c>
       <c r="AE3">
-        <v>-0.076459766679671595</v>
+        <v>-0.094106821797928966</v>
       </c>
       <c r="AF3">
-        <v>-0.069429319410965945</v>
+        <v>-0.066411349101048192</v>
       </c>
       <c r="AG3">
-        <v>-0.054537881681791134</v>
+        <v>-0.088842292539857426</v>
       </c>
       <c r="AH3">
-        <v>-0.088325998657259874</v>
+        <v>-0.079742569244166395</v>
       </c>
       <c r="AI3">
-        <v>-0.016422852213950692</v>
+        <v>-0.035050410041709681</v>
       </c>
       <c r="AJ3">
-        <v>-0.085989670255213063</v>
+        <v>-0.0485853548667299</v>
       </c>
       <c r="AK3">
-        <v>-0.041052924112798372</v>
+        <v>-0.065275757444401131</v>
       </c>
       <c r="AL3">
-        <v>-0.04530821244197842</v>
+        <v>-0.041075789587284008</v>
       </c>
       <c r="AM3">
-        <v>-0.015454473639014577</v>
+        <v>-0.00057425971180104891</v>
       </c>
       <c r="AN3">
-        <v>-0.043144021250919144</v>
+        <v>-0.019466445799725573</v>
       </c>
       <c r="AO3">
-        <v>0.016299143769470475</v>
+        <v>-0.025404631184500918</v>
       </c>
       <c r="AP3">
-        <v>-0.0037993556816145182</v>
+        <v>-0.0057628462368613268</v>
       </c>
       <c r="AQ3">
-        <v>-0.011177053437321147</v>
+        <v>0.0033663528590613537</v>
       </c>
       <c r="AR3">
-        <v>-0.042140815189742414</v>
+        <v>0.0030923333044387078</v>
       </c>
       <c r="AS3">
-        <v>-0.00496924986361553</v>
+        <v>-0.053886983838566362</v>
       </c>
       <c r="AT3">
-        <v>-0.014892308262902592</v>
+        <v>-0.010808464072422874</v>
       </c>
       <c r="AU3">
-        <v>0.015845516171954437</v>
+        <v>0.011829930978646113</v>
       </c>
       <c r="AV3">
-        <v>0.015858040379673543</v>
+        <v>-0.031572332408132203</v>
       </c>
       <c r="AW3">
-        <v>0.023389590592622377</v>
+        <v>0.02212492269819491</v>
       </c>
       <c r="AX3">
-        <v>0.033290932833989484</v>
+        <v>-0.020029620639766283</v>
       </c>
       <c r="AY3">
-        <v>0.024981731378190195</v>
+        <v>-0.019186276985164112</v>
       </c>
       <c r="AZ3">
-        <v>0.018668570775416574</v>
+        <v>0.02611571389072426</v>
       </c>
       <c r="BA3">
-        <v>0.0030550016978805579</v>
+        <v>-0.0039027475589165101</v>
       </c>
       <c r="BB3">
-        <v>0.025613119991521174</v>
+        <v>0.013093796067540625</v>
       </c>
       <c r="BC3">
-        <v>-0.01014201950497602</v>
+        <v>0.016496772954741331</v>
       </c>
       <c r="BD3">
-        <v>0.011205228499471488</v>
+        <v>0.038731973636421974</v>
       </c>
       <c r="BE3">
-        <v>0.045146658654042097</v>
+        <v>0.013826385425069684</v>
       </c>
       <c r="BF3">
-        <v>-0.015150648417104482</v>
+        <v>0.041935470877852418</v>
       </c>
       <c r="BG3">
-        <v>0.022470972802696335</v>
+        <v>0.057933205829386783</v>
       </c>
       <c r="BH3">
-        <v>0.020920507990528806</v>
+        <v>0.055741648463480058</v>
       </c>
       <c r="BI3">
-        <v>0.0034803180308674913</v>
+        <v>-0.0025684561134160359</v>
       </c>
       <c r="BJ3">
-        <v>0.030668253110776814</v>
+        <v>0.03721302841522215</v>
       </c>
       <c r="BK3">
-        <v>0.013669391343791307</v>
+        <v>0.04157572567759172</v>
       </c>
       <c r="BL3">
-        <v>0.016096930822047176</v>
+        <v>0.041983626323786903</v>
       </c>
       <c r="BM3">
-        <v>0.010079061987477057</v>
+        <v>0.0276031815411403</v>
       </c>
       <c r="BN3">
-        <v>0.067222555677605156</v>
+        <v>0.042146364369360687</v>
       </c>
       <c r="BO3">
-        <v>-0.010401309299006021</v>
+        <v>0.00052535262806971742</v>
       </c>
       <c r="BP3">
-        <v>0.0066936148109347704</v>
+        <v>0.076131219170706421</v>
       </c>
       <c r="BQ3">
-        <v>0.001007150704011621</v>
+        <v>0.040847341927099788</v>
       </c>
       <c r="BR3">
-        <v>0.024087242073114825</v>
+        <v>0.027513558013025494</v>
       </c>
       <c r="BS3">
-        <v>-0.014926304488726264</v>
+        <v>0.025631758147047448</v>
       </c>
       <c r="BT3">
-        <v>0.0067544386336357313</v>
+        <v>0.018971736242278416</v>
       </c>
       <c r="BU3">
-        <v>0.032858700654114004</v>
+        <v>0.019886772030771667</v>
       </c>
       <c r="BV3">
-        <v>0.017012949979619715</v>
+        <v>0.015689674933851476</v>
       </c>
       <c r="BW3">
-        <v>0.020970023433389256</v>
+        <v>0.024256575712575116</v>
       </c>
       <c r="BX3">
-        <v>0.021421370519610367</v>
+        <v>0.039422341221280632</v>
       </c>
       <c r="BY3">
-        <v>0.027900475125251133</v>
+        <v>0.034800845983715627</v>
       </c>
       <c r="BZ3">
-        <v>0.040601375457827632</v>
+        <v>0.021306723731239693</v>
       </c>
       <c r="CA3">
-        <v>0.0070389541291833767</v>
+        <v>0.028643326136167001</v>
       </c>
       <c r="CB3">
-        <v>0.012883925791856479</v>
+        <v>-0.0078182217467104038</v>
       </c>
       <c r="CC3">
-        <v>0.025116011994921302</v>
+        <v>0.041280987769949151</v>
       </c>
       <c r="CD3">
-        <v>0.026411505341752153</v>
+        <v>0.0067665120087873872</v>
       </c>
       <c r="CE3">
-        <v>0.0070665396415485306</v>
+        <v>0.036618278277401557</v>
       </c>
       <c r="CF3">
-        <v>-0.0014660047483805966</v>
+        <v>0.041732686754347451</v>
       </c>
       <c r="CG3">
-        <v>0.0056581287478379696</v>
+        <v>0.004539327942138508</v>
       </c>
       <c r="CH3">
-        <v>0.036405570511368945</v>
+        <v>0.0073334744853546865</v>
       </c>
       <c r="CI3">
-        <v>0.033357170532556178</v>
+        <v>0.021285038307453551</v>
       </c>
       <c r="CJ3">
-        <v>0.012566828282503316</v>
+        <v>0.038416074590537919</v>
       </c>
       <c r="CK3">
-        <v>0.082778964543467337</v>
+        <v>0.032962275035975118</v>
       </c>
       <c r="CL3">
-        <v>0.029826438949001863</v>
+        <v>-0.0022026483145735111</v>
       </c>
       <c r="CM3">
-        <v>0.04565123887375782</v>
+        <v>0.025493145963121123</v>
       </c>
       <c r="CN3">
-        <v>0.034597217860441017</v>
+        <v>0.013420062891826802</v>
       </c>
       <c r="CO3">
-        <v>0.029853626524723734</v>
+        <v>-0.014833792677596436</v>
       </c>
       <c r="CP3">
-        <v>0.044441467697967058</v>
+        <v>0.013200201485878183</v>
       </c>
       <c r="CQ3">
-        <v>0.03763342374353397</v>
+        <v>0.029221007130787999</v>
       </c>
       <c r="CR3">
-        <v>0.038397041720897779</v>
+        <v>-0.010098298578799167</v>
       </c>
       <c r="CS3">
-        <v>0.024036436941904025</v>
+        <v>0.050589474577211538</v>
       </c>
       <c r="CT3">
-        <v>0.026082529753838991</v>
+        <v>0.025950008419243827</v>
       </c>
       <c r="CU3">
-        <v>0.010327188275832178</v>
+        <v>0.056483230532259017</v>
       </c>
       <c r="CV3">
-        <v>0.037857017563433432</v>
+        <v>0.026779383111539649</v>
       </c>
       <c r="CW3">
-        <v>0.056015154430979049</v>
+        <v>0.021215778381087957</v>
       </c>
       <c r="CX3">
-        <v>0.015715186550555225</v>
+        <v>-0.003624963965088102</v>
       </c>
       <c r="CY3">
-        <v>0.032067350685185958</v>
+        <v>0.0358237627940379</v>
       </c>
       <c r="CZ3">
-        <v>0.026558716566402751</v>
+        <v>0.046123411879201236</v>
       </c>
       <c r="DA3">
-        <v>0.023769113680007472</v>
+        <v>0.022850258777227829</v>
       </c>
       <c r="DB3">
-        <v>0.023943127575887305</v>
+        <v>0.017717527980275104</v>
       </c>
       <c r="DC3">
-        <v>-0.0036781695475380186</v>
+        <v>0.070185978493812931</v>
       </c>
       <c r="DD3">
-        <v>0.042305218138489462</v>
+        <v>0.011917569222882335</v>
       </c>
       <c r="DE3">
-        <v>0.037505832999118069</v>
+        <v>-0.008628890608379897</v>
       </c>
       <c r="DF3">
-        <v>0.00059354874819442368</v>
+        <v>0.00099906630711779632</v>
       </c>
       <c r="DG3">
-        <v>0.026479947412701939</v>
+        <v>0.027058551566292572</v>
       </c>
       <c r="DH3">
-        <v>0.035468432870977125</v>
+        <v>0.04167102871866523</v>
       </c>
       <c r="DI3">
-        <v>0.013382117758180838</v>
+        <v>0.017038759065760314</v>
       </c>
       <c r="DJ3">
-        <v>0.024689331817148202</v>
+        <v>0.015573108550168278</v>
       </c>
       <c r="DK3">
-        <v>0.0099156236487465532</v>
+        <v>0.011145348694186858</v>
       </c>
       <c r="DL3">
-        <v>0.019759857341699064</v>
+        <v>0.041674183114403789</v>
       </c>
       <c r="DM3">
-        <v>0.0057888960326163931</v>
+        <v>0.0022314518282557337</v>
       </c>
       <c r="DN3">
-        <v>0.05918993778217517</v>
+        <v>-0.00049165967242576804</v>
       </c>
       <c r="DO3">
-        <v>0.031525504470549394</v>
+        <v>0.019656799755693014</v>
       </c>
       <c r="DP3">
-        <v>0.010559995642498897</v>
+        <v>0.05029843237510017</v>
       </c>
       <c r="DQ3">
-        <v>-0.0059256279805211514</v>
+        <v>0.011139891632451835</v>
       </c>
       <c r="DR3">
-        <v>0.028835169658136699</v>
+        <v>-0.039893840022583928</v>
       </c>
       <c r="DS3">
-        <v>0.041896808098457222</v>
+        <v>0.052867811841117718</v>
       </c>
       <c r="DT3">
-        <v>0.054935675037962289</v>
+        <v>0.020287016511983533</v>
       </c>
       <c r="DU3">
-        <v>0.015198704297012446</v>
+        <v>0.020963017908130526</v>
       </c>
       <c r="DV3">
-        <v>0.028044119357762971</v>
+        <v>-5.6628849525290948e-05</v>
       </c>
       <c r="DW3">
-        <v>0.023892831769874796</v>
+        <v>-0.0051820859323697859</v>
       </c>
       <c r="DX3">
-        <v>0.0067246066786076052</v>
+        <v>0.013952140546139359</v>
       </c>
       <c r="DY3">
-        <v>-0.0051759083238520848</v>
+        <v>-0.019415129616511283</v>
       </c>
       <c r="DZ3">
-        <v>0.028180744881230721</v>
+        <v>-0.0031510195862396438</v>
       </c>
       <c r="EA3">
-        <v>0.023082979824315571</v>
+        <v>0.00051804288379663952</v>
       </c>
       <c r="EB3">
-        <v>0.013780691028989316</v>
+        <v>-0.0068297960552549507</v>
       </c>
       <c r="EC3">
-        <v>-0.0070418318046895365</v>
+        <v>-0.04286942451274621</v>
       </c>
       <c r="ED3">
-        <v>0.030103786969087658</v>
+        <v>0.011056572066737165</v>
       </c>
       <c r="EE3">
-        <v>0.027750814487884617</v>
+        <v>0.014379768996594993</v>
       </c>
       <c r="EF3">
-        <v>-0.0043815426024322816</v>
+        <v>0.025422950461175348</v>
       </c>
       <c r="EG3">
-        <v>0.0017821832776185914</v>
+        <v>0.032041029264540374</v>
       </c>
       <c r="EH3">
-        <v>0.03262763486104403</v>
+        <v>0.033598125225884332</v>
       </c>
       <c r="EI3">
-        <v>0.014273783036438432</v>
+        <v>0.014081519572666517</v>
       </c>
       <c r="EJ3">
-        <v>0.054065927022696136</v>
+        <v>0.030987073244003988</v>
       </c>
       <c r="EK3">
-        <v>0.018444216937142252</v>
+        <v>0.0078377429853593635</v>
       </c>
       <c r="EL3">
-        <v>0.010634257951991997</v>
+        <v>-0.035377709295342723</v>
       </c>
       <c r="EM3">
-        <v>-0.0017047084629474782</v>
+        <v>-0.014827399306661649</v>
       </c>
       <c r="EN3">
-        <v>0.01491917309380127</v>
+        <v>0.02913416159720713</v>
       </c>
       <c r="EO3">
-        <v>0.019039322721085196</v>
+        <v>-0.013551395827774889</v>
       </c>
       <c r="EP3">
-        <v>0.0031608576671511715</v>
+        <v>0.023957048964907898</v>
       </c>
       <c r="EQ3">
-        <v>0.002828175298353114</v>
+        <v>0.00249162885197335</v>
       </c>
       <c r="ER3">
-        <v>0.012620938617163865</v>
+        <v>-0.0029834985703767612</v>
       </c>
       <c r="ES3">
-        <v>-0.034595500504006491</v>
+        <v>-0.012553925478837089</v>
       </c>
       <c r="ET3">
-        <v>-0.039024484785140742</v>
+        <v>0.022464673162548986</v>
       </c>
       <c r="EU3">
-        <v>0.032426394213967112</v>
+        <v>-0.00079897109535775261</v>
       </c>
       <c r="EV3">
-        <v>-0.010639211634446904</v>
+        <v>-0.02266188712864918</v>
       </c>
       <c r="EW3">
-        <v>-0.00662324140144237</v>
+        <v>0.0055121908144500197</v>
       </c>
       <c r="EX3">
-        <v>-0.0099218137496854923</v>
+        <v>-0.031466947290997853</v>
       </c>
       <c r="EY3">
-        <v>0.016830308366146528</v>
+        <v>-0.006526329581579309</v>
       </c>
       <c r="EZ3">
-        <v>-0.0082338015092288368</v>
+        <v>-0.029456195878636661</v>
       </c>
       <c r="FA3">
-        <v>0.024084725643545642</v>
+        <v>-0.039025320259009545</v>
       </c>
       <c r="FB3">
-        <v>-0.014032031730837117</v>
+        <v>-0.04643809472519695</v>
       </c>
       <c r="FC3">
-        <v>0.018198555995077383</v>
+        <v>-0.0038413951095405</v>
       </c>
       <c r="FD3">
-        <v>0.00065297431106862904</v>
+        <v>-0.025713686416887076</v>
       </c>
       <c r="FE3">
-        <v>-0.03329842820845455</v>
+        <v>-0.023139565806615383</v>
       </c>
       <c r="FF3">
-        <v>-0.0087617131974863458</v>
+        <v>0.012314543357686641</v>
       </c>
       <c r="FG3">
-        <v>-0.013314637192210621</v>
+        <v>-0.016419651861022365</v>
       </c>
       <c r="FH3">
-        <v>-0.011704846207044917</v>
+        <v>-0.016644140220784497</v>
       </c>
       <c r="FI3">
-        <v>-4.7762531779173262e-05</v>
+        <v>0.017178137194881659</v>
       </c>
       <c r="FJ3">
-        <v>-0.02154075193489341</v>
+        <v>-0.010833024802816801</v>
       </c>
       <c r="FK3">
-        <v>-0.020992346598466126</v>
+        <v>0.01616042000066038</v>
       </c>
       <c r="FL3">
-        <v>-0.025876293812560087</v>
+        <v>-0.0021629004057261586</v>
       </c>
       <c r="FM3">
-        <v>-0.014533636881744036</v>
+        <v>-0.021076688425846583</v>
       </c>
       <c r="FN3">
-        <v>-0.021883291493390938</v>
+        <v>-0.046576066806184528</v>
       </c>
       <c r="FO3">
-        <v>-0.011481296466768777</v>
+        <v>0.014542679517835444</v>
       </c>
       <c r="FP3">
-        <v>-0.0089491542363216766</v>
+        <v>0.0058820403099499327</v>
       </c>
       <c r="FQ3">
+        <v>0.013329481431561175</v>
+      </c>
+      <c r="FR3">
+        <v>-0.012471451806377529</v>
+      </c>
+      <c r="FS3">
+        <v>-0.013349461545773296</v>
+      </c>
+      <c r="FT3">
         <v>0</v>
       </c>
-      <c r="FR3">
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.5088457542015261</v>
+      <c r="FV3">
+        <v>-5.501981235490585</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.6387349681393406</v>
       </c>
     </row>
     <row r="4">
@@ -4302,526 +4422,541 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.021655567308068672</v>
+        <v>0.022970250047894464</v>
       </c>
       <c r="C4">
-        <v>0.0098202651722070246</v>
+        <v>0.012706381490167118</v>
       </c>
       <c r="D4">
-        <v>0.01549266313042894</v>
+        <v>0.014259880661483234</v>
       </c>
       <c r="E4">
-        <v>0.018743579608443122</v>
+        <v>0.014049079025219235</v>
       </c>
       <c r="F4">
-        <v>0.014760531402403541</v>
+        <v>0.014116198335513783</v>
       </c>
       <c r="G4">
-        <v>0.0123923326061928</v>
+        <v>0.016657302341505215</v>
       </c>
       <c r="H4">
-        <v>0.0099759272024818324</v>
+        <v>0.020001743794404409</v>
       </c>
       <c r="I4">
-        <v>0.010005513452358365</v>
+        <v>0.015984039340189712</v>
       </c>
       <c r="J4">
-        <v>0.010653329626711906</v>
+        <v>0.013193142004716647</v>
       </c>
       <c r="K4">
+        <v>0.010827083687345723</v>
+      </c>
+      <c r="L4">
+        <v>0.011039603658280779</v>
+      </c>
+      <c r="M4">
+        <v>0.011208632343265983</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.020712508851734455</v>
-      </c>
-      <c r="M4">
-        <v>0.020499052622599996</v>
-      </c>
-      <c r="N4">
-        <v>0.026660760921111304</v>
-      </c>
       <c r="O4">
-        <v>0.026413156711621932</v>
+        <v>0.0221778536238934</v>
       </c>
       <c r="P4">
-        <v>0.026351280061870274</v>
+        <v>0.021960435978502672</v>
       </c>
       <c r="Q4">
-        <v>0.026401179889388268</v>
+        <v>0.027623116038442055</v>
       </c>
       <c r="R4">
-        <v>0.026047457063586698</v>
+        <v>0.02773142761495543</v>
       </c>
       <c r="S4">
-        <v>0.025978424467147716</v>
+        <v>0.027446480355743184</v>
       </c>
       <c r="T4">
-        <v>0.026012778671305845</v>
+        <v>0.027777103906651755</v>
       </c>
       <c r="U4">
-        <v>0.026160213232566582</v>
+        <v>0.027662775274600763</v>
       </c>
       <c r="V4">
-        <v>0.026115586813120782</v>
+        <v>0.027461984682359192</v>
       </c>
       <c r="W4">
-        <v>0.025887668743104345</v>
+        <v>0.027290802938949088</v>
       </c>
       <c r="X4">
-        <v>0.026045280108220506</v>
+        <v>0.027312019871209844</v>
       </c>
       <c r="Y4">
-        <v>0.025927491077587426</v>
+        <v>0.027322676466599988</v>
       </c>
       <c r="Z4">
-        <v>0.025710757832373966</v>
+        <v>0.026989143477160131</v>
       </c>
       <c r="AA4">
-        <v>0.025584124078358909</v>
+        <v>0.026910620468251229</v>
       </c>
       <c r="AB4">
-        <v>0.025891840050163272</v>
+        <v>0.026942955738155423</v>
       </c>
       <c r="AC4">
-        <v>0.02587726162615166</v>
+        <v>0.02716409540899372</v>
       </c>
       <c r="AD4">
-        <v>0.025807279549920428</v>
+        <v>0.026897396551072077</v>
       </c>
       <c r="AE4">
-        <v>0.025704811482881972</v>
+        <v>0.027030083858377123</v>
       </c>
       <c r="AF4">
-        <v>0.025673266384264572</v>
+        <v>0.02687672177263033</v>
       </c>
       <c r="AG4">
-        <v>0.025593703844306561</v>
+        <v>0.027022247403397859</v>
       </c>
       <c r="AH4">
-        <v>0.025815442263177502</v>
+        <v>0.02697946860550476</v>
       </c>
       <c r="AI4">
-        <v>0.025387064684516764</v>
+        <v>0.026728347302003262</v>
       </c>
       <c r="AJ4">
-        <v>0.025825672339714712</v>
+        <v>0.02681914174185155</v>
       </c>
       <c r="AK4">
-        <v>0.025559339786370931</v>
+        <v>0.026929603361485664</v>
       </c>
       <c r="AL4">
-        <v>0.025597543200152919</v>
+        <v>0.026798949630571979</v>
       </c>
       <c r="AM4">
-        <v>0.025428867906439962</v>
+        <v>0.026577904188587142</v>
       </c>
       <c r="AN4">
-        <v>0.025609086574713742</v>
+        <v>0.026698045306583273</v>
       </c>
       <c r="AO4">
-        <v>0.025264682472400584</v>
+        <v>0.026744504972288016</v>
       </c>
       <c r="AP4">
-        <v>0.025396108697520969</v>
+        <v>0.026643510704000416</v>
       </c>
       <c r="AQ4">
-        <v>0.025452725435688668</v>
+        <v>0.02660364047099012</v>
       </c>
       <c r="AR4">
-        <v>0.0256536934799757</v>
+        <v>0.026617452018406821</v>
       </c>
       <c r="AS4">
-        <v>0.02543985834365509</v>
+        <v>0.026962123631933566</v>
       </c>
       <c r="AT4">
-        <v>0.025512171725703997</v>
+        <v>0.026721191965057661</v>
       </c>
       <c r="AU4">
-        <v>0.025340423671825124</v>
+        <v>0.026603640508451976</v>
       </c>
       <c r="AV4">
-        <v>0.025352917490611436</v>
+        <v>0.026867366694345494</v>
       </c>
       <c r="AW4">
-        <v>0.025320884005110959</v>
+        <v>0.02656937166854843</v>
       </c>
       <c r="AX4">
-        <v>0.025275148357056534</v>
+        <v>0.026824670409456904</v>
       </c>
       <c r="AY4">
-        <v>0.02533686252116174</v>
+        <v>0.026832056284109528</v>
       </c>
       <c r="AZ4">
-        <v>0.025387064902305918</v>
+        <v>0.026583034915968494</v>
       </c>
       <c r="BA4">
-        <v>0.025493483610252492</v>
+        <v>0.026767986412163852</v>
       </c>
       <c r="BB4">
-        <v>0.025370846823453121</v>
+        <v>0.026682117422079071</v>
       </c>
       <c r="BC4">
-        <v>0.02559946455115213</v>
+        <v>0.0266750634895777</v>
       </c>
       <c r="BD4">
-        <v>0.025482319556189275</v>
+        <v>0.026560862034378716</v>
       </c>
       <c r="BE4">
-        <v>0.025292664997581871</v>
+        <v>0.026715835838960936</v>
       </c>
       <c r="BF4">
-        <v>0.025669343259951957</v>
+        <v>0.026567667988227534</v>
       </c>
       <c r="BG4">
-        <v>0.025452725577565845</v>
+        <v>0.026490272385944147</v>
       </c>
       <c r="BH4">
-        <v>0.025474897029254037</v>
+        <v>0.026515301604762079</v>
       </c>
       <c r="BI4">
-        <v>0.025593704054334771</v>
+        <v>0.026863632117517092</v>
       </c>
       <c r="BJ4">
-        <v>0.025441693791349553</v>
+        <v>0.026645255712914706</v>
       </c>
       <c r="BK4">
-        <v>0.025557440923092391</v>
+        <v>0.026633061942751231</v>
       </c>
       <c r="BL4">
-        <v>0.025555542776511245</v>
+        <v>0.026643510921095289</v>
       </c>
       <c r="BM4">
-        <v>0.025605234852463285</v>
+        <v>0.026739110400361255</v>
       </c>
       <c r="BN4">
-        <v>0.025275148551678582</v>
+        <v>0.026668025080781785</v>
       </c>
       <c r="BO4">
-        <v>0.025758691745526856</v>
+        <v>0.026923897448771092</v>
       </c>
       <c r="BP4">
-        <v>0.025665424377826422</v>
+        <v>0.026500260216217496</v>
       </c>
       <c r="BQ4">
-        <v>0.026095877656273879</v>
+        <v>0.026714052519356338</v>
       </c>
       <c r="BR4">
-        <v>0.025967844184512864</v>
+        <v>0.026804444577431665</v>
       </c>
       <c r="BS4">
-        <v>0.026220729767296225</v>
+        <v>0.026828361480775657</v>
       </c>
       <c r="BT4">
-        <v>0.026656312181249486</v>
+        <v>0.026880471634117966</v>
       </c>
       <c r="BU4">
-        <v>0.02651189009362169</v>
+        <v>0.026887983356786289</v>
       </c>
       <c r="BV4">
-        <v>0.026549160253011704</v>
+        <v>0.026925798500552281</v>
       </c>
       <c r="BW4">
-        <v>0.024201552105219955</v>
+        <v>0.026887983377475017</v>
       </c>
       <c r="BX4">
-        <v>0.024213116465276067</v>
+        <v>0.02681178516493463</v>
       </c>
       <c r="BY4">
-        <v>0.023600412890739875</v>
+        <v>0.026479418469404287</v>
       </c>
       <c r="BZ4">
-        <v>0.023557703939918188</v>
+        <v>0.026574090922062248</v>
       </c>
       <c r="CA4">
-        <v>0.023726360696525485</v>
+        <v>0.02654288564476677</v>
       </c>
       <c r="CB4">
-        <v>0.023198265417073514</v>
+        <v>0.026779937125391812</v>
       </c>
       <c r="CC4">
-        <v>0.02315639664794731</v>
+        <v>0.026492804559501659</v>
       </c>
       <c r="CD4">
-        <v>0.023166301477806236</v>
+        <v>0.026735300099407645</v>
       </c>
       <c r="CE4">
-        <v>0.023274463478416597</v>
+        <v>0.026563968746013356</v>
       </c>
       <c r="CF4">
-        <v>0.023331701130993306</v>
+        <v>0.026546112281459207</v>
       </c>
       <c r="CG4">
-        <v>0.023276757703822527</v>
+        <v>0.026790116467143434</v>
       </c>
       <c r="CH4">
-        <v>0.023146129153182125</v>
+        <v>0.02678587830583995</v>
       </c>
       <c r="CI4">
-        <v>0.023176862444279189</v>
+        <v>0.026761116467316742</v>
       </c>
       <c r="CJ4">
-        <v>0.023292868488596217</v>
+        <v>0.026667889145567416</v>
       </c>
       <c r="CK4">
-        <v>0.023373686792778247</v>
+        <v>0.026715260209672621</v>
       </c>
       <c r="CL4">
-        <v>0.023933775519110929</v>
+        <v>0.026950891567259827</v>
       </c>
       <c r="CM4">
-        <v>0.023876433105787739</v>
+        <v>0.02678858613552474</v>
       </c>
       <c r="CN4">
-        <v>0.024394842499414229</v>
+        <v>0.02719768336178419</v>
       </c>
       <c r="CO4">
-        <v>0.024434462685055593</v>
+        <v>0.02738959911795617</v>
       </c>
       <c r="CP4">
-        <v>0.0244913770566179</v>
+        <v>0.027225481813926533</v>
       </c>
       <c r="CQ4">
-        <v>0.021709057520609924</v>
+        <v>0.027750314165130508</v>
       </c>
       <c r="CR4">
-        <v>0.021722680589082423</v>
+        <v>0.028009019838124632</v>
       </c>
       <c r="CS4">
-        <v>0.021423695653814762</v>
+        <v>0.027766574860726253</v>
       </c>
       <c r="CT4">
-        <v>0.021432326070211623</v>
+        <v>0.025456147060923629</v>
       </c>
       <c r="CU4">
-        <v>0.021514492777890269</v>
+        <v>0.025334536500985494</v>
       </c>
       <c r="CV4">
-        <v>0.02110027334511054</v>
+        <v>0.024582691482895186</v>
       </c>
       <c r="CW4">
-        <v>0.021042855420628871</v>
+        <v>0.024625027725545971</v>
       </c>
       <c r="CX4">
-        <v>0.021228772605091595</v>
+        <v>0.024595280183521705</v>
       </c>
       <c r="CY4">
-        <v>0.021177121978760989</v>
+        <v>0.024144280481447195</v>
       </c>
       <c r="CZ4">
-        <v>0.021218045666755007</v>
+        <v>0.024111954097772451</v>
       </c>
       <c r="DA4">
-        <v>0.021241912754353325</v>
+        <v>0.02424240382640416</v>
       </c>
       <c r="DB4">
-        <v>0.021258907199510686</v>
+        <v>0.024285075936596078</v>
       </c>
       <c r="DC4">
-        <v>0.021396105322713681</v>
+        <v>0.023758585266139554</v>
       </c>
       <c r="DD4">
-        <v>0.021215886841768814</v>
+        <v>0.024416791292023107</v>
       </c>
       <c r="DE4">
-        <v>0.02125426042146665</v>
+        <v>0.024537922733158576</v>
       </c>
       <c r="DF4">
-        <v>0.021525954011855728</v>
+        <v>0.024506408964438942</v>
       </c>
       <c r="DG4">
-        <v>0.021430673864200722</v>
+        <v>0.024392983290462356</v>
       </c>
       <c r="DH4">
-        <v>0.021409822390337851</v>
+        <v>0.024256741252783719</v>
       </c>
       <c r="DI4">
-        <v>0.021524279500799937</v>
+        <v>0.024605812391666471</v>
       </c>
       <c r="DJ4">
-        <v>0.021492676407779136</v>
+        <v>0.024631102413199407</v>
       </c>
       <c r="DK4">
-        <v>0.020901271612443331</v>
+        <v>0.025159766429590696</v>
       </c>
       <c r="DL4">
-        <v>0.0208750480501824</v>
+        <v>0.025027633712389575</v>
       </c>
       <c r="DM4">
-        <v>0.02095812269577756</v>
+        <v>0.025302332388600843</v>
       </c>
       <c r="DN4">
-        <v>0.020734637224074697</v>
+        <v>0.022355838807801651</v>
       </c>
       <c r="DO4">
-        <v>0.020878529256062078</v>
+        <v>0.022287307520445384</v>
       </c>
       <c r="DP4">
-        <v>0.020994296916360514</v>
+        <v>0.021713978757260957</v>
       </c>
       <c r="DQ4">
-        <v>0.021090747916366562</v>
+        <v>0.021901443927195743</v>
       </c>
       <c r="DR4">
-        <v>0.020947367955446741</v>
+        <v>0.022148996999457216</v>
       </c>
       <c r="DS4">
-        <v>0.020906549020067337</v>
+        <v>0.021426723901786512</v>
       </c>
       <c r="DT4">
-        <v>0.020866366537273934</v>
+        <v>0.021589104452186536</v>
       </c>
       <c r="DU4">
-        <v>0.021070049823919603</v>
+        <v>0.02160472557787842</v>
       </c>
       <c r="DV4">
-        <v>0.02102913171366954</v>
+        <v>0.021718692459563572</v>
       </c>
       <c r="DW4">
-        <v>0.021068176238499596</v>
+        <v>0.021760927511318296</v>
       </c>
       <c r="DX4">
-        <v>0.021169339590660471</v>
+        <v>0.021715901628380992</v>
       </c>
       <c r="DY4">
-        <v>0.02124628027667123</v>
+        <v>0.021888721667394331</v>
       </c>
       <c r="DZ4">
-        <v>0.021105903382229039</v>
+        <v>0.021831701686620162</v>
       </c>
       <c r="EA4">
-        <v>0.021149958115759517</v>
+        <v>0.021833582435822764</v>
       </c>
       <c r="EB4">
-        <v>0.02121445148616298</v>
+        <v>0.021886800975347915</v>
       </c>
       <c r="EC4">
-        <v>0.021335760187217136</v>
+        <v>0.022096048691581608</v>
       </c>
       <c r="ED4">
-        <v>0.021175181650221718</v>
+        <v>0.021859906778554889</v>
       </c>
       <c r="EE4">
-        <v>0.021206552115933128</v>
+        <v>0.021863673891370446</v>
       </c>
       <c r="EF4">
-        <v>0.021383708100869349</v>
+        <v>0.021831827170415971</v>
       </c>
       <c r="EG4">
-        <v>0.021373214532620175</v>
+        <v>0.021820680211602727</v>
       </c>
       <c r="EH4">
-        <v>0.021242281832269783</v>
+        <v>0.021104590787268427</v>
       </c>
       <c r="EI4">
-        <v>0.021352344755004894</v>
+        <v>0.021218945421076409</v>
       </c>
       <c r="EJ4">
-        <v>0.021179083507990901</v>
+        <v>0.02115722811451606</v>
       </c>
       <c r="EK4">
-        <v>0.021373214762798999</v>
+        <v>0.021290331298466008</v>
       </c>
       <c r="EL4">
-        <v>0.021432490311720093</v>
+        <v>0.02152727388167143</v>
       </c>
       <c r="EM4">
-        <v>0.021514973965705404</v>
+        <v>0.021443172215267568</v>
       </c>
       <c r="EN4">
-        <v>0.021451810864251269</v>
+        <v>0.021245245869224147</v>
       </c>
       <c r="EO4">
-        <v>0.021451810922656956</v>
+        <v>0.021478284300552548</v>
       </c>
       <c r="EP4">
-        <v>0.021552659393543998</v>
+        <v>0.021311069187713298</v>
       </c>
       <c r="EQ4">
-        <v>0.021575059666857986</v>
+        <v>0.021438813578303739</v>
       </c>
       <c r="ER4">
-        <v>0.021545973200189885</v>
+        <v>0.021487130001752532</v>
       </c>
       <c r="ES4">
-        <v>0.021811461461825624</v>
+        <v>0.02155661742506202</v>
       </c>
       <c r="ET4">
-        <v>0.021855637643008664</v>
+        <v>0.021399881121149014</v>
       </c>
       <c r="EU4">
-        <v>0.021506178741385343</v>
+        <v>0.021538525147120541</v>
       </c>
       <c r="EV4">
-        <v>0.021748777374248841</v>
+        <v>0.021672302245620053</v>
       </c>
       <c r="EW4">
-        <v>0.021748777430780519</v>
+        <v>0.021547557381875332</v>
       </c>
       <c r="EX4">
-        <v>0.021787196781613685</v>
+        <v>0.02176091605578364</v>
       </c>
       <c r="EY4">
-        <v>0.021668750159572966</v>
+        <v>0.021651140876081394</v>
       </c>
       <c r="EZ4">
-        <v>0.021821222981446637</v>
+        <v>0.021792683037067929</v>
       </c>
       <c r="FA4">
-        <v>0.021673398200013391</v>
+        <v>0.021864771769253367</v>
       </c>
       <c r="FB4">
-        <v>0.021895454514413951</v>
+        <v>0.021925745559464971</v>
       </c>
       <c r="FC4">
-        <v>0.021746392931379178</v>
+        <v>0.021719875235943053</v>
       </c>
       <c r="FD4">
-        <v>0.021860586784407148</v>
+        <v>0.021857234813367491</v>
       </c>
       <c r="FE4">
-        <v>0.022065392080481736</v>
+        <v>0.021864771991239138</v>
       </c>
       <c r="FF4">
-        <v>0.021953617512626946</v>
+        <v>0.02169837362631296</v>
       </c>
       <c r="FG4">
-        <v>0.021999917201714705</v>
+        <v>0.021872327861937272</v>
       </c>
       <c r="FH4">
-        <v>0.022012902354358817</v>
+        <v>0.02189510768839845</v>
       </c>
       <c r="FI4">
-        <v>0.02197154058159087</v>
+        <v>0.021736706862757308</v>
       </c>
       <c r="FJ4">
-        <v>0.022110712698523931</v>
+        <v>0.021907836678265184</v>
       </c>
       <c r="FK4">
-        <v>0.022129565690218192</v>
+        <v>0.021785323112078054</v>
       </c>
       <c r="FL4">
-        <v>0.022178567479301792</v>
+        <v>0.021905286805286861</v>
       </c>
       <c r="FM4">
-        <v>0.022137680256676825</v>
+        <v>0.022030119978616699</v>
       </c>
       <c r="FN4">
-        <v>0.022200591295170238</v>
+        <v>0.022193482520428215</v>
       </c>
       <c r="FO4">
-        <v>0.022164879889239819</v>
+        <v>0.021879902800801664</v>
       </c>
       <c r="FP4">
-        <v>0.022173085526684753</v>
+        <v>0.021948926460355365</v>
       </c>
       <c r="FQ4">
+        <v>0.021930882561742717</v>
+      </c>
+      <c r="FR4">
+        <v>0.022094458443101078</v>
+      </c>
+      <c r="FS4">
+        <v>0.022121657756931545</v>
+      </c>
+      <c r="FT4">
         <v>0</v>
       </c>
-      <c r="FR4">
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.015659456553451231</v>
+      <c r="FV4">
+        <v>0.015605972184672986</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.021891347790536673</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4965,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5359,528 +5494,558 @@
       <c r="FS1" t="s">
         <v>1</v>
       </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>89</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>90</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>91</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>92</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CR2" t="s">
         <v>93</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CS2" t="s">
         <v>94</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>95</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>96</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>97</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>100</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>102</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>103</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>104</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>105</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>106</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>107</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>108</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>109</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>110</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>111</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>112</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>113</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>114</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>115</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>116</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>117</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>118</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>119</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>120</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>121</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>123</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>124</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>126</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>127</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>128</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>129</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>130</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>131</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>132</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>135</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>136</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>138</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>139</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>140</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>141</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>142</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>143</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>144</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>145</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>146</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>147</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>148</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>149</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>150</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>151</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>152</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>153</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>154</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>155</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>156</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>157</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>158</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>159</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>160</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>161</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>162</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>163</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>164</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>165</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>166</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>167</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>168</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>169</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>170</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>176</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>179</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5889,526 +6054,541 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>3.3472074541676546</v>
+        <v>2.3252920272737563</v>
       </c>
       <c r="C3">
-        <v>-1.6533327693921491</v>
+        <v>-0.89263244584318158</v>
       </c>
       <c r="D3">
-        <v>-1.7002362719201329</v>
+        <v>-0.89365818290991328</v>
       </c>
       <c r="E3">
-        <v>-1.7308924531646672</v>
+        <v>-0.92549524289597318</v>
       </c>
       <c r="F3">
-        <v>-0.0021318603821008125</v>
+        <v>-0.95296989407151245</v>
       </c>
       <c r="G3">
-        <v>-0.0035201986843275009</v>
+        <v>-0.92800459365655374</v>
       </c>
       <c r="H3">
-        <v>0.0077238404216139027</v>
+        <v>-0.94856892097289736</v>
       </c>
       <c r="I3">
-        <v>0.0073305626156936581</v>
+        <v>0.0038546240971386002</v>
       </c>
       <c r="J3">
-        <v>-0.012560850037577738</v>
+        <v>0.0045475951252475057</v>
       </c>
       <c r="K3">
+        <v>0.0045140529044581041</v>
+      </c>
+      <c r="L3">
+        <v>-0.0020627915378532754</v>
+      </c>
+      <c r="M3">
+        <v>-0.0072450008787118755</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.2596455639953925</v>
-      </c>
-      <c r="M3">
-        <v>1.345232484536625</v>
-      </c>
-      <c r="N3">
-        <v>-0.23106578485616644</v>
-      </c>
       <c r="O3">
-        <v>-0.1429345889439527</v>
+        <v>1.1788098878784163</v>
       </c>
       <c r="P3">
-        <v>-0.15632695098764984</v>
+        <v>1.320266238187694</v>
       </c>
       <c r="Q3">
-        <v>-0.13031512970666098</v>
+        <v>-0.21587232095983597</v>
       </c>
       <c r="R3">
-        <v>-0.06853151384590471</v>
+        <v>-0.20529828781049134</v>
       </c>
       <c r="S3">
-        <v>-0.078419083117104382</v>
+        <v>-0.24272905683445822</v>
       </c>
       <c r="T3">
-        <v>-0.1256069112555705</v>
+        <v>-0.26023350027162534</v>
       </c>
       <c r="U3">
-        <v>-0.12406232688899357</v>
+        <v>-0.21321577368151357</v>
       </c>
       <c r="V3">
-        <v>-0.087058296402083277</v>
+        <v>-0.19041011939366739</v>
       </c>
       <c r="W3">
-        <v>-0.082208486148462767</v>
+        <v>-0.19249988015838498</v>
       </c>
       <c r="X3">
-        <v>-0.048985486160274122</v>
+        <v>-0.19416848362601083</v>
       </c>
       <c r="Y3">
-        <v>-0.06193424351295853</v>
+        <v>-0.20023190497481846</v>
       </c>
       <c r="Z3">
-        <v>-0.018359514823015233</v>
+        <v>-0.15293013810111236</v>
       </c>
       <c r="AA3">
-        <v>-0.015270595094093271</v>
+        <v>-0.10797844438022412</v>
       </c>
       <c r="AB3">
-        <v>-0.040410413142882365</v>
+        <v>-0.098076425640710979</v>
       </c>
       <c r="AC3">
-        <v>-0.088552914319022916</v>
+        <v>-0.14805979083201773</v>
       </c>
       <c r="AD3">
-        <v>-0.062286485896785107</v>
+        <v>-0.076176552475282322</v>
       </c>
       <c r="AE3">
-        <v>-0.055876072903768587</v>
+        <v>-0.1496932185398766</v>
       </c>
       <c r="AF3">
-        <v>-0.047081546102416764</v>
+        <v>-0.080643272701150473</v>
       </c>
       <c r="AG3">
-        <v>-0.054402600629676383</v>
+        <v>-0.099391471898722938</v>
       </c>
       <c r="AH3">
-        <v>-0.056099049103682054</v>
+        <v>-0.08153359899310883</v>
       </c>
       <c r="AI3">
-        <v>-0.037673821525120277</v>
+        <v>-0.078017601648137341</v>
       </c>
       <c r="AJ3">
-        <v>-0.026617691872522265</v>
+        <v>-0.069784960370036703</v>
       </c>
       <c r="AK3">
-        <v>0.01130787237583018</v>
+        <v>-0.077282685151011221</v>
       </c>
       <c r="AL3">
-        <v>-0.016436984481891955</v>
+        <v>-0.088874594178126223</v>
       </c>
       <c r="AM3">
-        <v>-0.0078827842084995183</v>
+        <v>-0.033129718693502549</v>
       </c>
       <c r="AN3">
-        <v>0.019687975818782216</v>
+        <v>-0.0041729446257733711</v>
       </c>
       <c r="AO3">
-        <v>0.0098445632951821727</v>
+        <v>-0.032889372342426233</v>
       </c>
       <c r="AP3">
-        <v>-0.0078697872420042357</v>
+        <v>-0.016153225880915337</v>
       </c>
       <c r="AQ3">
-        <v>-0.029917584541608436</v>
+        <v>-0.057428277746367426</v>
       </c>
       <c r="AR3">
-        <v>-0.035551886591977631</v>
+        <v>-0.023109354835999758</v>
       </c>
       <c r="AS3">
-        <v>0.03106088000564464</v>
+        <v>-0.054999472401779319</v>
       </c>
       <c r="AT3">
-        <v>0.023577661547220567</v>
+        <v>-0.030943641694477345</v>
       </c>
       <c r="AU3">
-        <v>0.087376016601550907</v>
+        <v>0.0082785322569749291</v>
       </c>
       <c r="AV3">
-        <v>0.025974207896886623</v>
+        <v>-0.061935566251352367</v>
       </c>
       <c r="AW3">
-        <v>0.020707260290706977</v>
+        <v>-0.020715500905399399</v>
       </c>
       <c r="AX3">
-        <v>0.098998573427170042</v>
+        <v>-0.037152603035859731</v>
       </c>
       <c r="AY3">
-        <v>0.024633496116579758</v>
+        <v>-0.030895773113529063</v>
       </c>
       <c r="AZ3">
-        <v>-0.025126520526298768</v>
+        <v>-0.035085543642911783</v>
       </c>
       <c r="BA3">
-        <v>-0.012474837014357115</v>
+        <v>-0.041271851803535341</v>
       </c>
       <c r="BB3">
-        <v>0.027709158695684775</v>
+        <v>0.0073711307383543681</v>
       </c>
       <c r="BC3">
-        <v>0.0047322423104501311</v>
+        <v>0.0094289578375964557</v>
       </c>
       <c r="BD3">
-        <v>6.4104455822493406e-05</v>
+        <v>-0.0046922451536421678</v>
       </c>
       <c r="BE3">
-        <v>0.01324792213634084</v>
+        <v>-0.033326233129642321</v>
       </c>
       <c r="BF3">
-        <v>0.010172901492279021</v>
+        <v>0.0013844519159753026</v>
       </c>
       <c r="BG3">
-        <v>-0.054586998236911634</v>
+        <v>-0.020302899824136765</v>
       </c>
       <c r="BH3">
-        <v>0.0062603631498994727</v>
+        <v>0.01710963586639053</v>
       </c>
       <c r="BI3">
-        <v>0.054886983652311046</v>
+        <v>-0.025526283830897362</v>
       </c>
       <c r="BJ3">
-        <v>0.059407546792871253</v>
+        <v>-0.010155383675891442</v>
       </c>
       <c r="BK3">
-        <v>-0.0022669447106248462</v>
+        <v>-0.022729058804664096</v>
       </c>
       <c r="BL3">
-        <v>0.044616334351824063</v>
+        <v>0.031505137817610357</v>
       </c>
       <c r="BM3">
-        <v>-0.031834104660661527</v>
+        <v>0.0041356619905577171</v>
       </c>
       <c r="BN3">
-        <v>0.043923071151372839</v>
+        <v>0.0065632105606595091</v>
       </c>
       <c r="BO3">
-        <v>0.017260913697786609</v>
+        <v>0.014116954182425272</v>
       </c>
       <c r="BP3">
-        <v>0.068590148554682512</v>
+        <v>0.059351693491309039</v>
       </c>
       <c r="BQ3">
-        <v>0.038615502869934037</v>
+        <v>0.030685538643301764</v>
       </c>
       <c r="BR3">
-        <v>0.016621142070710127</v>
+        <v>0.027332935114809911</v>
       </c>
       <c r="BS3">
-        <v>-0.0059210962106544945</v>
+        <v>0.014556064323261727</v>
       </c>
       <c r="BT3">
-        <v>0.086657739810424558</v>
+        <v>-0.011282298100011006</v>
       </c>
       <c r="BU3">
-        <v>0.0058907734455788128</v>
+        <v>-0.024538787445025478</v>
       </c>
       <c r="BV3">
-        <v>-0.18407457902695507</v>
+        <v>-0.023746658017632025</v>
       </c>
       <c r="BW3">
-        <v>0.024989647100534588</v>
+        <v>-0.011488274891490581</v>
       </c>
       <c r="BX3">
-        <v>0.017847455449656227</v>
+        <v>0.045318388036195555</v>
       </c>
       <c r="BY3">
-        <v>0.024438470573935511</v>
+        <v>-0.15562705676825159</v>
       </c>
       <c r="BZ3">
-        <v>0.047198872564273638</v>
+        <v>0.0065814076578695332</v>
       </c>
       <c r="CA3">
-        <v>0.017850077267831502</v>
+        <v>0.0047130259691955442</v>
       </c>
       <c r="CB3">
-        <v>5.4493618786454051e-06</v>
+        <v>-0.012630900178745989</v>
       </c>
       <c r="CC3">
-        <v>0.018886741402970399</v>
+        <v>0.0202037661336344</v>
       </c>
       <c r="CD3">
-        <v>0.018114779830489203</v>
+        <v>0.005943485733915321</v>
       </c>
       <c r="CE3">
-        <v>-0.022666586853411674</v>
+        <v>0.0020731632580383141</v>
       </c>
       <c r="CF3">
-        <v>-0.0039145640367896578</v>
+        <v>0.02885484037340658</v>
       </c>
       <c r="CG3">
-        <v>0.0016050296432241851</v>
+        <v>0.020012605191898139</v>
       </c>
       <c r="CH3">
-        <v>0.033628610964390751</v>
+        <v>-0.0025940483849368947</v>
       </c>
       <c r="CI3">
-        <v>0.036723723378940649</v>
+        <v>0.010534961994907903</v>
       </c>
       <c r="CJ3">
-        <v>0.011869726423063489</v>
+        <v>0.025137790833566744</v>
       </c>
       <c r="CK3">
-        <v>0.074647732757244262</v>
+        <v>0.034048810916686476</v>
       </c>
       <c r="CL3">
-        <v>0.026804422553611141</v>
+        <v>0.00061734489435661191</v>
       </c>
       <c r="CM3">
-        <v>0.052111194063261118</v>
+        <v>0.00078694124342500562</v>
       </c>
       <c r="CN3">
-        <v>0.037782674480903271</v>
+        <v>0.021810778376991573</v>
       </c>
       <c r="CO3">
-        <v>0.035637353401146495</v>
+        <v>-0.00085583763860345562</v>
       </c>
       <c r="CP3">
-        <v>0.090993291251656158</v>
+        <v>0.02479577958795624</v>
       </c>
       <c r="CQ3">
-        <v>0.037714060855955113</v>
+        <v>0.045304187597411616</v>
       </c>
       <c r="CR3">
-        <v>0.03847767883331852</v>
+        <v>-0.0055946349574711122</v>
       </c>
       <c r="CS3">
-        <v>0.025617437042127406</v>
+        <v>0.11017154126736668</v>
       </c>
       <c r="CT3">
-        <v>0.027663529854080372</v>
+        <v>0.020739525640656176</v>
       </c>
       <c r="CU3">
-        <v>0.011908188375936459</v>
+        <v>0.056975039955540104</v>
       </c>
       <c r="CV3">
-        <v>0.03381818615681853</v>
+        <v>0.023000474479754528</v>
       </c>
       <c r="CW3">
-        <v>0.051976323025176172</v>
+        <v>0.012798820356586381</v>
       </c>
       <c r="CX3">
-        <v>0.01167635514299009</v>
+        <v>-0.0048561247062863045</v>
       </c>
       <c r="CY3">
-        <v>0.028028519278318616</v>
+        <v>0.039956438514910951</v>
       </c>
       <c r="CZ3">
-        <v>0.022519885159298099</v>
+        <v>0.032352187418360746</v>
       </c>
       <c r="DA3">
-        <v>0.022906349777947591</v>
+        <v>0.0163669513225943</v>
       </c>
       <c r="DB3">
-        <v>0.023080363673829624</v>
+        <v>0.018738016989076896</v>
       </c>
       <c r="DC3">
-        <v>-0.0045409334500260169</v>
+        <v>0.064739699320736893</v>
       </c>
       <c r="DD3">
-        <v>0.0414424542367322</v>
+        <v>0.016840444878090312</v>
       </c>
       <c r="DE3">
-        <v>0.03664306909728153</v>
+        <v>-0.0021964480017008735</v>
       </c>
       <c r="DF3">
-        <v>0.0046874973302626997</v>
+        <v>-0.00073258414357603506</v>
       </c>
       <c r="DG3">
-        <v>0.030573895997286077</v>
+        <v>0.030237815445869377</v>
       </c>
       <c r="DH3">
-        <v>0.039562381456465588</v>
+        <v>0.037712224208614593</v>
       </c>
       <c r="DI3">
-        <v>0.017476066341476297</v>
+        <v>0.026625763111506072</v>
       </c>
       <c r="DJ3">
-        <v>0.028783280401554385</v>
+        <v>0.018189105036700161</v>
       </c>
       <c r="DK3">
-        <v>0.0099156236487468307</v>
+        <v>0.015214701916241588</v>
       </c>
       <c r="DL3">
-        <v>0.019759857341698904</v>
+        <v>0.051552992918105556</v>
       </c>
       <c r="DM3">
-        <v>0.0057888960326165813</v>
+        <v>0.0080952543771507495</v>
       </c>
       <c r="DN3">
-        <v>0.059189937782175905</v>
+        <v>-0.00062606137452398238</v>
       </c>
       <c r="DO3">
-        <v>0.031525504470550109</v>
+        <v>0.01952239805359389</v>
       </c>
       <c r="DP3">
-        <v>0.010559995642498328</v>
+        <v>0.049535805942587788</v>
       </c>
       <c r="DQ3">
-        <v>-0.0059256279805213171</v>
+        <v>0.010377265200007051</v>
       </c>
       <c r="DR3">
-        <v>0.028835169658137285</v>
+        <v>-0.040656466454948373</v>
       </c>
       <c r="DS3">
-        <v>0.041896808098456501</v>
+        <v>0.052224378378929237</v>
       </c>
       <c r="DT3">
-        <v>0.054935675037962352</v>
+        <v>0.019643583049835048</v>
       </c>
       <c r="DU3">
-        <v>0.015198704297012151</v>
+        <v>0.020319584445981174</v>
       </c>
       <c r="DV3">
-        <v>0.028044119357763186</v>
+        <v>-0.00070006231165016292</v>
       </c>
       <c r="DW3">
-        <v>0.023892831769874751</v>
+        <v>-0.0058255193944888274</v>
       </c>
       <c r="DX3">
-        <v>0.0067246066786079374</v>
+        <v>0.014200701483477596</v>
       </c>
       <c r="DY3">
-        <v>-0.005175908323851632</v>
+        <v>-0.019166568679167644</v>
       </c>
       <c r="DZ3">
-        <v>0.028180744881230284</v>
+        <v>-0.0029024586488990219</v>
       </c>
       <c r="EA3">
-        <v>0.023082979824315921</v>
+        <v>0.00076660382113637583</v>
       </c>
       <c r="EB3">
-        <v>0.013780691028989503</v>
+        <v>-0.0065812351179137755</v>
       </c>
       <c r="EC3">
-        <v>-0.0070418318046893387</v>
+        <v>-0.04190228798821951</v>
       </c>
       <c r="ED3">
-        <v>0.030103786969087273</v>
+        <v>0.012023708591128227</v>
       </c>
       <c r="EE3">
-        <v>0.027750814487884957</v>
+        <v>0.015346905520976131</v>
       </c>
       <c r="EF3">
-        <v>-0.0043815426024317013</v>
+        <v>0.026390086985527354</v>
       </c>
       <c r="EG3">
-        <v>0.0017821832776186107</v>
+        <v>0.033008165788874139</v>
       </c>
       <c r="EH3">
-        <v>0.032627634861044127</v>
+        <v>0.03359812522588481</v>
       </c>
       <c r="EI3">
-        <v>0.014273783036438939</v>
+        <v>0.014081519572666588</v>
       </c>
       <c r="EJ3">
-        <v>0.054065927022696497</v>
+        <v>0.030987073244003651</v>
       </c>
       <c r="EK3">
-        <v>0.018444216937142831</v>
+        <v>0.0078377429853600748</v>
       </c>
       <c r="EL3">
-        <v>0.010634257951992217</v>
+        <v>-0.03537770929534291</v>
       </c>
       <c r="EM3">
-        <v>-0.0017047084629474723</v>
+        <v>-0.014827399306661071</v>
       </c>
       <c r="EN3">
-        <v>0.014919173093801566</v>
+        <v>0.029134161597207154</v>
       </c>
       <c r="EO3">
-        <v>0.019039322721085872</v>
+        <v>-0.013551395827774575</v>
       </c>
       <c r="EP3">
-        <v>0.0031608576671517843</v>
+        <v>0.023957048964908374</v>
       </c>
       <c r="EQ3">
-        <v>0.0028281752983533308</v>
+        <v>0.0024916288519736141</v>
       </c>
       <c r="ER3">
-        <v>0.012620938617164255</v>
+        <v>-0.0029834985703765448</v>
       </c>
       <c r="ES3">
-        <v>-0.034595500504006546</v>
+        <v>-0.012553925478836369</v>
       </c>
       <c r="ET3">
-        <v>-0.039024484785140909</v>
+        <v>0.022464673162549461</v>
       </c>
       <c r="EU3">
-        <v>0.032426394213967272</v>
+        <v>-0.00079897109535716194</v>
       </c>
       <c r="EV3">
-        <v>-0.010639211634447055</v>
+        <v>-0.022661887128648518</v>
       </c>
       <c r="EW3">
-        <v>-0.0066232414014419259</v>
+        <v>0.0055121908144499339</v>
       </c>
       <c r="EX3">
-        <v>-0.0099218137496851454</v>
+        <v>-0.031466947290997714</v>
       </c>
       <c r="EY3">
-        <v>0.016830308366146934</v>
+        <v>-0.0065263295815796516</v>
       </c>
       <c r="EZ3">
-        <v>-0.0082338015092286131</v>
+        <v>-0.029456195878636612</v>
       </c>
       <c r="FA3">
-        <v>0.024084725643545926</v>
+        <v>-0.039025320259008768</v>
       </c>
       <c r="FB3">
-        <v>-0.014032031730837582</v>
+        <v>-0.046438094725197117</v>
       </c>
       <c r="FC3">
-        <v>0.018198555995077866</v>
+        <v>-0.0038413951095402519</v>
       </c>
       <c r="FD3">
-        <v>0.00065297431106908939</v>
+        <v>-0.025713686416886799</v>
       </c>
       <c r="FE3">
-        <v>-0.033298428208454578</v>
+        <v>-0.02313956580661479</v>
       </c>
       <c r="FF3">
-        <v>-0.0087617131974866563</v>
+        <v>0.012314543357686336</v>
       </c>
       <c r="FG3">
-        <v>-0.013314637192209933</v>
+        <v>-0.016419651861022722</v>
       </c>
       <c r="FH3">
-        <v>-0.011704846207044475</v>
+        <v>-0.016644140220783536</v>
       </c>
       <c r="FI3">
-        <v>-4.7762531778409198e-05</v>
+        <v>0.017178137194881791</v>
       </c>
       <c r="FJ3">
-        <v>-0.021540751934893083</v>
+        <v>-0.010833024802816546</v>
       </c>
       <c r="FK3">
-        <v>-0.020992346598465609</v>
+        <v>0.016160420000660754</v>
       </c>
       <c r="FL3">
-        <v>-0.025876293812559372</v>
+        <v>-0.0021629004057259738</v>
       </c>
       <c r="FM3">
-        <v>-0.014533636881743455</v>
+        <v>-0.021076688425847149</v>
       </c>
       <c r="FN3">
-        <v>-0.021883291493390293</v>
+        <v>-0.046576066806184424</v>
       </c>
       <c r="FO3">
-        <v>-0.01148129646676849</v>
+        <v>0.014542679517835569</v>
       </c>
       <c r="FP3">
-        <v>-0.0089491542363220097</v>
+        <v>0.0058820403099499163</v>
       </c>
       <c r="FQ3">
+        <v>0.013329481431561478</v>
+      </c>
+      <c r="FR3">
+        <v>-0.012471451806376833</v>
+      </c>
+      <c r="FS3">
+        <v>-0.01334946154577343</v>
+      </c>
+      <c r="FT3">
         <v>0</v>
       </c>
-      <c r="FR3">
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.5088457542015261</v>
+      <c r="FV3">
+        <v>-5.5019812354905859</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.6040492786081666</v>
       </c>
     </row>
     <row r="4">
@@ -6416,526 +6596,541 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019763894591170773</v>
+        <v>0.018613301109860848</v>
       </c>
       <c r="C4">
-        <v>0.012369681913974277</v>
+        <v>0.013124862646756356</v>
       </c>
       <c r="D4">
-        <v>0.021621237453793921</v>
+        <v>0.014446179252917229</v>
       </c>
       <c r="E4">
-        <v>0.026484541098720355</v>
+        <v>0.01441935766784096</v>
       </c>
       <c r="F4">
-        <v>0.01623026266631325</v>
+        <v>0.014511338118122417</v>
       </c>
       <c r="G4">
-        <v>0.013524947964991631</v>
+        <v>0.017270062657317092</v>
       </c>
       <c r="H4">
-        <v>0.010720540807043837</v>
+        <v>0.020674355256169476</v>
       </c>
       <c r="I4">
-        <v>0.010785554979616148</v>
+        <v>0.015536980516142811</v>
       </c>
       <c r="J4">
-        <v>0.011295975794063539</v>
+        <v>0.012889472957979637</v>
       </c>
       <c r="K4">
+        <v>0.010504903098109688</v>
+      </c>
+      <c r="L4">
+        <v>0.010712917625320896</v>
+      </c>
+      <c r="M4">
+        <v>0.010809118110692538</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.02473298373202323</v>
-      </c>
-      <c r="M4">
-        <v>0.024387878871041265</v>
-      </c>
-      <c r="N4">
-        <v>0.036750627105395055</v>
-      </c>
       <c r="O4">
-        <v>0.035648674478713456</v>
+        <v>0.022893575792214512</v>
       </c>
       <c r="P4">
-        <v>0.03582154930828934</v>
+        <v>0.022591597694253746</v>
       </c>
       <c r="Q4">
-        <v>0.035511130834427466</v>
+        <v>0.029273196873165666</v>
       </c>
       <c r="R4">
-        <v>0.03478384621267306</v>
+        <v>0.029203961919613688</v>
       </c>
       <c r="S4">
-        <v>0.034908053369441978</v>
+        <v>0.02949826078256565</v>
       </c>
       <c r="T4">
-        <v>0.035479752559365058</v>
+        <v>0.02964407890738183</v>
       </c>
       <c r="U4">
-        <v>0.035469322966092842</v>
+        <v>0.029293184028044955</v>
       </c>
       <c r="V4">
-        <v>0.035034483604828644</v>
+        <v>0.029132608688818618</v>
       </c>
       <c r="W4">
-        <v>0.034985589559764337</v>
+        <v>0.029158417676565487</v>
       </c>
       <c r="X4">
-        <v>0.034606186702710255</v>
+        <v>0.029181129236906789</v>
       </c>
       <c r="Y4">
-        <v>0.034764930857779028</v>
+        <v>0.029236792206040498</v>
       </c>
       <c r="Z4">
-        <v>0.034272805009579937</v>
+        <v>0.028898021919822606</v>
       </c>
       <c r="AA4">
-        <v>0.034246474071628286</v>
+        <v>0.028587648823930424</v>
       </c>
       <c r="AB4">
-        <v>0.034541861654416139</v>
+        <v>0.028528891240076418</v>
       </c>
       <c r="AC4">
-        <v>0.035113418889856078</v>
+        <v>0.028894981285089921</v>
       </c>
       <c r="AD4">
-        <v>0.034812315296657376</v>
+        <v>0.028397772189555585</v>
       </c>
       <c r="AE4">
-        <v>0.034746066469787715</v>
+        <v>0.028928551493087363</v>
       </c>
       <c r="AF4">
-        <v>0.034652501570528162</v>
+        <v>0.028449153121060295</v>
       </c>
       <c r="AG4">
-        <v>0.03474606647122612</v>
+        <v>0.028590468509403014</v>
       </c>
       <c r="AH4">
-        <v>0.0347743821603212</v>
+        <v>0.028476467759788647</v>
       </c>
       <c r="AI4">
-        <v>0.034569356317821875</v>
+        <v>0.028462786798558942</v>
       </c>
       <c r="AJ4">
-        <v>0.034450996803971956</v>
+        <v>0.028416623839225458</v>
       </c>
       <c r="AK4">
-        <v>0.034030957503354907</v>
+        <v>0.028479209663831655</v>
       </c>
       <c r="AL4">
-        <v>0.034352415881252249</v>
+        <v>0.028570772512912249</v>
       </c>
       <c r="AM4">
-        <v>0.034264016672462407</v>
+        <v>0.028198779062313786</v>
       </c>
       <c r="AN4">
-        <v>0.033963431196274166</v>
+        <v>0.028016930175893934</v>
       </c>
       <c r="AO4">
-        <v>0.034082054337029856</v>
+        <v>0.028219248288859883</v>
       </c>
       <c r="AP4">
-        <v>0.034290415938314854</v>
+        <v>0.028117984732589845</v>
       </c>
       <c r="AQ4">
-        <v>0.034551014399480134</v>
+        <v>0.028408533492004454</v>
       </c>
       <c r="AR4">
-        <v>0.034624675593722641</v>
+        <v>0.028186041301727076</v>
       </c>
       <c r="AS4">
-        <v>0.033879976941714671</v>
+        <v>0.028413925231262811</v>
       </c>
       <c r="AT4">
-        <v>0.033971834637136322</v>
+        <v>0.028260517742116915</v>
       </c>
       <c r="AU4">
-        <v>0.033285895819358723</v>
+        <v>0.028009641874348304</v>
       </c>
       <c r="AV4">
-        <v>0.033963431203612969</v>
+        <v>0.028495701117869133</v>
       </c>
       <c r="AW4">
-        <v>0.03403095751421191</v>
+        <v>0.028224382788474969</v>
       </c>
       <c r="AX4">
-        <v>0.033188289103198376</v>
+        <v>0.028347057340638641</v>
       </c>
       <c r="AY4">
-        <v>0.03400555489659475</v>
+        <v>0.028315364059632097</v>
       </c>
       <c r="AZ4">
-        <v>0.034578545574699984</v>
+        <v>0.028355021235210796</v>
       </c>
       <c r="BA4">
-        <v>0.03444197603690069</v>
+        <v>0.028408533538887757</v>
       </c>
       <c r="BB4">
-        <v>0.033997108816700768</v>
+        <v>0.028090604923659338</v>
       </c>
       <c r="BC4">
-        <v>0.034264016686727357</v>
+        <v>0.028088125678119445</v>
       </c>
       <c r="BD4">
-        <v>0.034325775308566439</v>
+        <v>0.028193678928424476</v>
       </c>
       <c r="BE4">
-        <v>0.034185430734290818</v>
+        <v>0.027880243786478333</v>
       </c>
       <c r="BF4">
-        <v>0.034228976828043531</v>
+        <v>0.027651279844076858</v>
       </c>
       <c r="BG4">
-        <v>0.034985589588254096</v>
+        <v>0.02781233098892464</v>
       </c>
       <c r="BH4">
-        <v>0.034290415954348945</v>
+        <v>0.027566860743832317</v>
       </c>
       <c r="BI4">
-        <v>0.033756740008157093</v>
+        <v>0.027872063537959575</v>
       </c>
       <c r="BJ4">
-        <v>0.033716169549553018</v>
+        <v>0.027874228575951537</v>
       </c>
       <c r="BK4">
-        <v>0.034414984693048295</v>
+        <v>0.027974389123796628</v>
       </c>
       <c r="BL4">
-        <v>0.033896583929280806</v>
+        <v>0.027608551932420199</v>
       </c>
       <c r="BM4">
-        <v>0.034774382186277493</v>
+        <v>0.02780885304915073</v>
       </c>
       <c r="BN4">
-        <v>0.033921572768157757</v>
+        <v>0.027803460855197599</v>
       </c>
       <c r="BO4">
-        <v>0.034228976836291121</v>
+        <v>0.027878065388637262</v>
       </c>
       <c r="BP4">
-        <v>0.033667815047951258</v>
+        <v>0.027578011127744058</v>
       </c>
       <c r="BQ4">
-        <v>0.034842355525614745</v>
+        <v>0.027786185632688313</v>
       </c>
       <c r="BR4">
-        <v>0.035098052758914283</v>
+        <v>0.027821090458595803</v>
       </c>
       <c r="BS4">
-        <v>0.035363823676710149</v>
+        <v>0.027922119790130477</v>
       </c>
       <c r="BT4">
-        <v>0.035267537637853494</v>
+        <v>0.028406522482620249</v>
       </c>
       <c r="BU4">
-        <v>0.036163348382513588</v>
+        <v>0.028511522095626171</v>
       </c>
       <c r="BV4">
-        <v>0.025382149741307758</v>
+        <v>0.028517299131372721</v>
       </c>
       <c r="BW4">
-        <v>0.026627809322246072</v>
+        <v>0.029065202109977734</v>
       </c>
       <c r="BX4">
-        <v>0.026678625446977043</v>
+        <v>0.028688912474447985</v>
       </c>
       <c r="BY4">
-        <v>0.02561010169967462</v>
+        <v>0.02460727151382644</v>
       </c>
       <c r="BZ4">
-        <v>0.025508623456876548</v>
+        <v>0.02538993808052625</v>
       </c>
       <c r="CA4">
-        <v>0.025679141235403224</v>
+        <v>0.025412287711651899</v>
       </c>
       <c r="CB4">
-        <v>0.024816737750291105</v>
+        <v>0.024598525555893574</v>
       </c>
       <c r="CC4">
-        <v>0.024731404024697368</v>
+        <v>0.024458952646324954</v>
       </c>
       <c r="CD4">
-        <v>0.024754504455449366</v>
+        <v>0.024425059104412037</v>
       </c>
       <c r="CE4">
-        <v>0.025001838371631679</v>
+        <v>0.024093492604380644</v>
       </c>
       <c r="CF4">
-        <v>0.02491456506737157</v>
+        <v>0.023980331571824776</v>
       </c>
       <c r="CG4">
-        <v>0.024906196617300622</v>
+        <v>0.024040016672413813</v>
       </c>
       <c r="CH4">
-        <v>0.02474712013316779</v>
+        <v>0.024168007577374404</v>
       </c>
       <c r="CI4">
-        <v>0.024749220906414154</v>
+        <v>0.023873502725030901</v>
       </c>
       <c r="CJ4">
-        <v>0.024906696954875466</v>
+        <v>0.024190071683194061</v>
       </c>
       <c r="CK4">
-        <v>0.024842536620647376</v>
+        <v>0.024163485221757042</v>
       </c>
       <c r="CL4">
-        <v>0.02548463447918712</v>
+        <v>0.02434661435938924</v>
       </c>
       <c r="CM4">
-        <v>0.025364526652369167</v>
+        <v>0.024362886349704956</v>
       </c>
       <c r="CN4">
-        <v>0.025748723129911937</v>
+        <v>0.024163764915625038</v>
       </c>
       <c r="CO4">
-        <v>0.025781815393015568</v>
+        <v>0.024506102231065925</v>
       </c>
       <c r="CP4">
-        <v>0.025077480552101253</v>
+        <v>0.024395411013596428</v>
       </c>
       <c r="CQ4">
-        <v>0.021969004672860545</v>
+        <v>0.024720622422259364</v>
       </c>
       <c r="CR4">
-        <v>0.021982466646363056</v>
+        <v>0.024990870711226975</v>
       </c>
       <c r="CS4">
-        <v>0.021590880158721754</v>
+        <v>0.023998403940799409</v>
       </c>
       <c r="CT4">
-        <v>0.021599443773917169</v>
+        <v>0.021840779294389812</v>
       </c>
       <c r="CU4">
-        <v>0.021680977146786344</v>
+        <v>0.021715823920179358</v>
       </c>
       <c r="CV4">
-        <v>0.021196816673421378</v>
+        <v>0.021428564807877755</v>
       </c>
       <c r="CW4">
-        <v>0.021139660973549537</v>
+        <v>0.021487192004607771</v>
       </c>
       <c r="CX4">
-        <v>0.021324734188177399</v>
+        <v>0.021577313891836113</v>
       </c>
       <c r="CY4">
-        <v>0.021273316552889675</v>
+        <v>0.021080553714870148</v>
       </c>
       <c r="CZ4">
-        <v>0.021314055545109397</v>
+        <v>0.021129416985119238</v>
       </c>
       <c r="DA4">
-        <v>0.021338844689472197</v>
+        <v>0.021213733933983268</v>
       </c>
       <c r="DB4">
-        <v>0.021355761998467684</v>
+        <v>0.021221278079958366</v>
       </c>
       <c r="DC4">
-        <v>0.021492341850290485</v>
+        <v>0.021048084072101139</v>
       </c>
       <c r="DD4">
-        <v>0.021312937143732086</v>
+        <v>0.021301014707168893</v>
       </c>
       <c r="DE4">
-        <v>0.02135113629939981</v>
+        <v>0.021400552661237041</v>
       </c>
       <c r="DF4">
-        <v>0.021601311012128397</v>
+        <v>0.021411871536869097</v>
       </c>
       <c r="DG4">
-        <v>0.02150636472386885</v>
+        <v>0.021296377113786007</v>
       </c>
       <c r="DH4">
-        <v>0.021485586707432704</v>
+        <v>0.021282518274039881</v>
       </c>
       <c r="DI4">
-        <v>0.021599642343576038</v>
+        <v>0.021367525759706116</v>
       </c>
       <c r="DJ4">
-        <v>0.021568149677918844</v>
+        <v>0.021422026280958222</v>
       </c>
       <c r="DK4">
-        <v>0.020901271612442807</v>
+        <v>0.021453026455881749</v>
       </c>
       <c r="DL4">
-        <v>0.02087504805018189</v>
+        <v>0.021314238378163486</v>
       </c>
       <c r="DM4">
-        <v>0.020958122695777029</v>
+        <v>0.02152129370199677</v>
       </c>
       <c r="DN4">
-        <v>0.020734637224074176</v>
+        <v>0.020878896509593611</v>
       </c>
       <c r="DO4">
-        <v>0.020878529256061557</v>
+        <v>0.020805500887189816</v>
       </c>
       <c r="DP4">
-        <v>0.020994296916360004</v>
+        <v>0.020689332885836666</v>
       </c>
       <c r="DQ4">
-        <v>0.021090747916366042</v>
+        <v>0.020885996933390261</v>
       </c>
       <c r="DR4">
-        <v>0.020947367955446213</v>
+        <v>0.021145441350458573</v>
       </c>
       <c r="DS4">
-        <v>0.020906549020066823</v>
+        <v>0.020732481164371881</v>
       </c>
       <c r="DT4">
-        <v>0.020866366537273418</v>
+        <v>0.020900256197529967</v>
       </c>
       <c r="DU4">
-        <v>0.021070049823919086</v>
+        <v>0.020916391786593005</v>
       </c>
       <c r="DV4">
-        <v>0.021029131713669016</v>
+        <v>0.021034088528681463</v>
       </c>
       <c r="DW4">
-        <v>0.021068176238499079</v>
+        <v>0.021077695420354165</v>
       </c>
       <c r="DX4">
-        <v>0.021169339590659961</v>
+        <v>0.02100230999031415</v>
       </c>
       <c r="DY4">
-        <v>0.021246280276670703</v>
+        <v>0.021180953180289088</v>
       </c>
       <c r="DZ4">
-        <v>0.021105903382228512</v>
+        <v>0.021122022628712669</v>
       </c>
       <c r="EA4">
-        <v>0.021149958115758996</v>
+        <v>0.021123966563513879</v>
       </c>
       <c r="EB4">
-        <v>0.021214451486162449</v>
+        <v>0.021178968301795571</v>
       </c>
       <c r="EC4">
-        <v>0.02133576018721664</v>
+        <v>0.021372090582320331</v>
       </c>
       <c r="ED4">
-        <v>0.021175181650221208</v>
+        <v>0.021127858681440102</v>
       </c>
       <c r="EE4">
-        <v>0.0212065521159326</v>
+        <v>0.021131756295328083</v>
       </c>
       <c r="EF4">
-        <v>0.021383708100868835</v>
+        <v>0.021098804840552775</v>
       </c>
       <c r="EG4">
-        <v>0.021373214532619665</v>
+        <v>0.021087270401837582</v>
       </c>
       <c r="EH4">
-        <v>0.021242281832269259</v>
+        <v>0.021104590787268306</v>
       </c>
       <c r="EI4">
-        <v>0.021352344755004391</v>
+        <v>0.021218945421076298</v>
       </c>
       <c r="EJ4">
-        <v>0.021179083507990384</v>
+        <v>0.021157228114515956</v>
       </c>
       <c r="EK4">
-        <v>0.021373214762798499</v>
+        <v>0.021290331298465897</v>
       </c>
       <c r="EL4">
-        <v>0.021432490311719603</v>
+        <v>0.021527273881671315</v>
       </c>
       <c r="EM4">
-        <v>0.021514973965704898</v>
+        <v>0.021443172215267453</v>
       </c>
       <c r="EN4">
-        <v>0.021451810864250753</v>
+        <v>0.021245245869224039</v>
       </c>
       <c r="EO4">
-        <v>0.021451810922656453</v>
+        <v>0.021478284300552441</v>
       </c>
       <c r="EP4">
-        <v>0.021552659393543491</v>
+        <v>0.021311069187713166</v>
       </c>
       <c r="EQ4">
-        <v>0.02157505966685749</v>
+        <v>0.021438813578303621</v>
       </c>
       <c r="ER4">
-        <v>0.021545973200189351</v>
+        <v>0.0214871300017524</v>
       </c>
       <c r="ES4">
-        <v>0.021811461461825124</v>
+        <v>0.02155661742506192</v>
       </c>
       <c r="ET4">
-        <v>0.021855637643008168</v>
+        <v>0.021399881121148906</v>
       </c>
       <c r="EU4">
-        <v>0.021506178741384826</v>
+        <v>0.021538525147120416</v>
       </c>
       <c r="EV4">
-        <v>0.021748777374248355</v>
+        <v>0.021672302245619945</v>
       </c>
       <c r="EW4">
-        <v>0.021748777430780027</v>
+        <v>0.021547557381875224</v>
       </c>
       <c r="EX4">
-        <v>0.021787196781613179</v>
+        <v>0.021760916055783525</v>
       </c>
       <c r="EY4">
-        <v>0.021668750159572467</v>
+        <v>0.02165114087608129</v>
       </c>
       <c r="EZ4">
-        <v>0.021821222981446151</v>
+        <v>0.021792683037067814</v>
       </c>
       <c r="FA4">
-        <v>0.021673398200012878</v>
+        <v>0.02186477176925326</v>
       </c>
       <c r="FB4">
-        <v>0.021895454514413444</v>
+        <v>0.021925745559464877</v>
       </c>
       <c r="FC4">
-        <v>0.021746392931378686</v>
+        <v>0.021719875235942959</v>
       </c>
       <c r="FD4">
-        <v>0.021860586784406649</v>
+        <v>0.02185723481336739</v>
       </c>
       <c r="FE4">
-        <v>0.022065392080481257</v>
+        <v>0.021864771991239023</v>
       </c>
       <c r="FF4">
-        <v>0.021953617512626426</v>
+        <v>0.021698373626312856</v>
       </c>
       <c r="FG4">
-        <v>0.021999917201714202</v>
+        <v>0.021872327861937161</v>
       </c>
       <c r="FH4">
-        <v>0.022012902354358328</v>
+        <v>0.021895107688398325</v>
       </c>
       <c r="FI4">
-        <v>0.021971540581590357</v>
+        <v>0.021736706862757211</v>
       </c>
       <c r="FJ4">
-        <v>0.022110712698523442</v>
+        <v>0.021907836678265069</v>
       </c>
       <c r="FK4">
-        <v>0.022129565690217703</v>
+        <v>0.021785323112077939</v>
       </c>
       <c r="FL4">
-        <v>0.022178567479301286</v>
+        <v>0.021905286805286753</v>
       </c>
       <c r="FM4">
-        <v>0.022137680256676319</v>
+        <v>0.022030119978616591</v>
       </c>
       <c r="FN4">
-        <v>0.022200591295169728</v>
+        <v>0.022193482520428114</v>
       </c>
       <c r="FO4">
-        <v>0.022164879889239323</v>
+        <v>0.021879902800801564</v>
       </c>
       <c r="FP4">
-        <v>0.022173085526684264</v>
+        <v>0.021948926460355258</v>
       </c>
       <c r="FQ4">
+        <v>0.021930882561742603</v>
+      </c>
+      <c r="FR4">
+        <v>0.022094458443100977</v>
+      </c>
+      <c r="FS4">
+        <v>0.022121657756931437</v>
+      </c>
+      <c r="FT4">
         <v>0</v>
       </c>
-      <c r="FR4">
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.015659456553450531</v>
+      <c r="FV4">
+        <v>0.015605972184672827</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.019759324195373011</v>
       </c>
     </row>
   </sheetData>
@@ -6944,7 +7139,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FS4"/>
+  <dimension ref="A1:FX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7473,528 +7668,558 @@
       <c r="FS1" t="s">
         <v>1</v>
       </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>23</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AL2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AM2" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AO2" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AV2" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AW2" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AY2" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BA2" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BB2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BC2" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BE2" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BF2" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BG2" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BI2" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BK2" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BM2" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BN2" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BO2" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BQ2" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BR2" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BS2" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BT2" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BU2" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BV2" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BW2" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BX2" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BY2" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BZ2" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CA2" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CC2" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CD2" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CE2" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CF2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CG2" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CH2" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CI2" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CJ2" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CK2" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CL2" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CM2" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CN2" t="s">
         <v>89</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CO2" t="s">
         <v>90</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CP2" t="s">
         <v>91</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CQ2" t="s">
         <v>92</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CR2" t="s">
         <v>93</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CS2" t="s">
         <v>94</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CT2" t="s">
         <v>95</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CU2" t="s">
         <v>96</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CV2" t="s">
         <v>97</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CW2" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CX2" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CY2" t="s">
         <v>100</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CZ2" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DA2" t="s">
         <v>102</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DB2" t="s">
         <v>103</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DC2" t="s">
         <v>104</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DD2" t="s">
         <v>105</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DE2" t="s">
         <v>106</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DF2" t="s">
         <v>107</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DG2" t="s">
         <v>108</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DH2" t="s">
         <v>109</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DI2" t="s">
         <v>110</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DJ2" t="s">
         <v>111</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DK2" t="s">
         <v>112</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DL2" t="s">
         <v>113</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DM2" t="s">
         <v>114</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DN2" t="s">
         <v>115</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DO2" t="s">
         <v>116</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DP2" t="s">
         <v>117</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DQ2" t="s">
         <v>118</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="DR2" t="s">
         <v>119</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="DS2" t="s">
         <v>120</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DT2" t="s">
         <v>121</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DU2" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DV2" t="s">
         <v>123</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="DW2" t="s">
         <v>124</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="DX2" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="DY2" t="s">
         <v>126</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>127</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EA2" t="s">
         <v>128</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EB2" t="s">
         <v>129</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EC2" t="s">
         <v>130</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="ED2" t="s">
         <v>131</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>132</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="EF2" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EG2" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EH2" t="s">
         <v>135</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EI2" t="s">
         <v>136</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EJ2" t="s">
         <v>137</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EK2" t="s">
         <v>138</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EL2" t="s">
         <v>139</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EM2" t="s">
         <v>140</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="EN2" t="s">
         <v>141</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="EO2" t="s">
         <v>142</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EP2" t="s">
         <v>143</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EQ2" t="s">
         <v>144</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="ER2" t="s">
         <v>145</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="ES2" t="s">
         <v>146</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ET2" t="s">
         <v>147</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="EU2" t="s">
         <v>148</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="EV2" t="s">
         <v>149</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="EW2" t="s">
         <v>150</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="EX2" t="s">
         <v>151</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EY2" t="s">
         <v>152</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EZ2" t="s">
         <v>153</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FA2" t="s">
         <v>154</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FB2" t="s">
         <v>155</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FC2" t="s">
         <v>156</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FD2" t="s">
         <v>157</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
         <v>158</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FF2" t="s">
         <v>159</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FG2" t="s">
         <v>160</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FH2" t="s">
         <v>161</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FI2" t="s">
         <v>162</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FJ2" t="s">
         <v>163</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FK2" t="s">
         <v>164</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FL2" t="s">
         <v>165</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="FM2" t="s">
         <v>166</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="FN2" t="s">
         <v>167</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="FO2" t="s">
         <v>168</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="FP2" t="s">
         <v>169</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FQ2" t="s">
         <v>170</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="FR2" t="s">
         <v>176</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FS2" t="s">
         <v>179</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FT2" t="s">
         <v>177</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FU2" t="s">
         <v>178</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8003,526 +8228,541 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.1861855828883623</v>
+        <v>1.1421821005990427</v>
       </c>
       <c r="C3">
-        <v>-1.7137839146087734</v>
+        <v>-1.6999079313364538</v>
       </c>
       <c r="D3">
-        <v>-1.7147339470532672</v>
+        <v>-1.7691442898516627</v>
       </c>
       <c r="E3">
-        <v>-1.6715153560582305</v>
+        <v>-1.7344092746969535</v>
       </c>
       <c r="F3">
-        <v>0.82861627954147343</v>
+        <v>-1.7237268213570827</v>
       </c>
       <c r="G3">
-        <v>0.75237977578747051</v>
+        <v>-1.7348934227237727</v>
       </c>
       <c r="H3">
-        <v>0.61109476488742343</v>
+        <v>-1.6938979398190386</v>
       </c>
       <c r="I3">
-        <v>0.46139310802983013</v>
+        <v>0.82709641123447342</v>
       </c>
       <c r="J3">
-        <v>0.3502736446256598</v>
+        <v>0.76206104233794725</v>
       </c>
       <c r="K3">
+        <v>0.61496463626136977</v>
+      </c>
+      <c r="L3">
+        <v>0.47474721148946769</v>
+      </c>
+      <c r="M3">
+        <v>0.3410114545653663</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>1.3016347598036173</v>
-      </c>
-      <c r="M3">
-        <v>1.3898551750210382</v>
-      </c>
-      <c r="N3">
-        <v>-0.17911843152472959</v>
-      </c>
       <c r="O3">
-        <v>-0.15122440296795475</v>
+        <v>1.2699417837390241</v>
       </c>
       <c r="P3">
-        <v>-0.11593706511501903</v>
+        <v>1.4050233860349839</v>
       </c>
       <c r="Q3">
-        <v>-0.045190177041325649</v>
+        <v>-0.18530559372944863</v>
       </c>
       <c r="R3">
-        <v>-0.041149288398224793</v>
+        <v>-0.11209785513431118</v>
       </c>
       <c r="S3">
-        <v>-0.036286816043673675</v>
+        <v>-0.13803363696314827</v>
       </c>
       <c r="T3">
-        <v>-0.12760705929695729</v>
+        <v>-0.1546044184827732</v>
       </c>
       <c r="U3">
-        <v>0.01600966512708905</v>
+        <v>-0.16869992316618929</v>
       </c>
       <c r="V3">
-        <v>-0.067922793400023565</v>
+        <v>-0.12983293162361079</v>
       </c>
       <c r="W3">
-        <v>-0.042659361768545491</v>
+        <v>-0.060991957127771959</v>
       </c>
       <c r="X3">
-        <v>-0.0286489781947167</v>
+        <v>-0.078811987687744139</v>
       </c>
       <c r="Y3">
-        <v>-0.027107924454598344</v>
+        <v>-0.10133379853259414</v>
       </c>
       <c r="Z3">
-        <v>-0.014086771547580725</v>
+        <v>-0.029322125322812718</v>
       </c>
       <c r="AA3">
-        <v>-0.0092927603708812742</v>
+        <v>-0.026975209904007168</v>
       </c>
       <c r="AB3">
-        <v>0.0067465545688120618</v>
+        <v>-0.040088549423908534</v>
       </c>
       <c r="AC3">
-        <v>-0.0013474397918266856</v>
+        <v>-0.058407375096911907</v>
       </c>
       <c r="AD3">
-        <v>-0.0046541911929351811</v>
+        <v>-0.015961134620477459</v>
       </c>
       <c r="AE3">
-        <v>-0.0039214777890182644</v>
+        <v>-0.035465943699113919</v>
       </c>
       <c r="AF3">
-        <v>0.0056824906568347629</v>
+        <v>0.0061275965428913507</v>
       </c>
       <c r="AG3">
-        <v>0.031007191979376101</v>
+        <v>-0.074892378560681858</v>
       </c>
       <c r="AH3">
-        <v>0.023901865891823908</v>
+        <v>0.006792323880342177</v>
       </c>
       <c r="AI3">
-        <v>0.00068407287893572193</v>
+        <v>0.0059743945312127249</v>
       </c>
       <c r="AJ3">
-        <v>0.0078695295888967613</v>
+        <v>-0.0067418296420443677</v>
       </c>
       <c r="AK3">
-        <v>0.041024800860722292</v>
+        <v>0.0098320670712489927</v>
       </c>
       <c r="AL3">
-        <v>0.014187935276200051</v>
+        <v>0.026171944795215833</v>
       </c>
       <c r="AM3">
-        <v>0.03942197462075786</v>
+        <v>0.072284552552895981</v>
       </c>
       <c r="AN3">
-        <v>0.07243636870366002</v>
+        <v>0.070130892255156368</v>
       </c>
       <c r="AO3">
-        <v>0.038635431311654068</v>
+        <v>0.064243599389729164</v>
       </c>
       <c r="AP3">
-        <v>0.036267031357610516</v>
+        <v>0.031668427687951063</v>
       </c>
       <c r="AQ3">
-        <v>0.029943811207737054</v>
+        <v>0.020024783649323759</v>
       </c>
       <c r="AR3">
-        <v>0.0083287857265042006</v>
+        <v>0.093084718616383497</v>
       </c>
       <c r="AS3">
-        <v>0.07019413506499951</v>
+        <v>-0.015781277451418239</v>
       </c>
       <c r="AT3">
-        <v>0.057206199227524734</v>
+        <v>0.036310120627039186</v>
       </c>
       <c r="AU3">
-        <v>0.046357648563296404</v>
+        <v>0.045523432878868821</v>
       </c>
       <c r="AV3">
-        <v>0.067962893839339344</v>
+        <v>0.0057886859023801402</v>
       </c>
       <c r="AW3">
-        <v>0.096614710792036679</v>
+        <v>0.078632936302668696</v>
       </c>
       <c r="AX3">
-        <v>0.063433637554912617</v>
+        <v>0.00017151698251338958</v>
       </c>
       <c r="AY3">
-        <v>0.090006777079588804</v>
+        <v>-0.017671779056803675</v>
       </c>
       <c r="AZ3">
-        <v>0.048756624856973088</v>
+        <v>0.069769793164124266</v>
       </c>
       <c r="BA3">
-        <v>0.066564469298520251</v>
+        <v>0.026988509295261857</v>
       </c>
       <c r="BB3">
-        <v>0.040900908404828497</v>
+        <v>0.061569539159463657</v>
       </c>
       <c r="BC3">
-        <v>0.030569936655678278</v>
+        <v>0.088469283556602829</v>
       </c>
       <c r="BD3">
-        <v>0.058846165302990333</v>
+        <v>0.054077933976197458</v>
       </c>
       <c r="BE3">
-        <v>0.066582178767411765</v>
+        <v>0.081090511834516474</v>
       </c>
       <c r="BF3">
-        <v>0.075040793223899421</v>
+        <v>0.10016312426751997</v>
       </c>
       <c r="BG3">
-        <v>0.012747394186830885</v>
+        <v>0.069519904529095053</v>
       </c>
       <c r="BH3">
-        <v>0.0069599107648967481</v>
+        <v>0.081145544954820251</v>
       </c>
       <c r="BI3">
-        <v>0.053344661040347588</v>
+        <v>0.068742593636289651</v>
       </c>
       <c r="BJ3">
-        <v>0.097773407829414558</v>
+        <v>0.0958392014791737</v>
       </c>
       <c r="BK3">
-        <v>0.043121828231366878</v>
+        <v>0.036562107058411793</v>
       </c>
       <c r="BL3">
-        <v>0.054134710852167103</v>
+        <v>0.10856718916106711</v>
       </c>
       <c r="BM3">
-        <v>0.066603305777105992</v>
+        <v>0.032574849128627896</v>
       </c>
       <c r="BN3">
-        <v>0.13045239217591703</v>
+        <v>0.079366282231358762</v>
       </c>
       <c r="BO3">
-        <v>0.0042338239647962527</v>
+        <v>0.02957221926781407</v>
       </c>
       <c r="BP3">
-        <v>0.064307936023626125</v>
+        <v>0.098930234126734226</v>
       </c>
       <c r="BQ3">
-        <v>0.038750670800565781</v>
+        <v>0.090769421362408689</v>
       </c>
       <c r="BR3">
-        <v>0.031486759561174339</v>
+        <v>0.055616215695236393</v>
       </c>
       <c r="BS3">
-        <v>0.062418737020131433</v>
+        <v>0.01097439530446814</v>
       </c>
       <c r="BT3">
-        <v>0.010801555372487072</v>
+        <v>0.023017951642411865</v>
       </c>
       <c r="BU3">
-        <v>0.026761825739279373</v>
+        <v>0.026201502699117932</v>
       </c>
       <c r="BV3">
-        <v>-0.087073593573825506</v>
+        <v>-0.017693726975031489</v>
       </c>
       <c r="BW3">
-        <v>0.1688112730638624</v>
+        <v>0.062789518783784734</v>
       </c>
       <c r="BX3">
-        <v>0.14532435909574848</v>
+        <v>0.058222260346785328</v>
       </c>
       <c r="BY3">
-        <v>0.158807941316465</v>
+        <v>-0.036878982070539718</v>
       </c>
       <c r="BZ3">
-        <v>0.092454814806987182</v>
+        <v>0.190033037521914</v>
       </c>
       <c r="CA3">
-        <v>0.030167846586800672</v>
+        <v>0.12460147565909548</v>
       </c>
       <c r="CB3">
-        <v>0.11808879994002881</v>
+        <v>0.1487609031333286</v>
       </c>
       <c r="CC3">
-        <v>0.078183830409393432</v>
+        <v>0.088837970881768646</v>
       </c>
       <c r="CD3">
-        <v>0.041053746767560614</v>
+        <v>0.012748914189722488</v>
       </c>
       <c r="CE3">
-        <v>-0.017753537110095897</v>
+        <v>0.11590053340493368</v>
       </c>
       <c r="CF3">
-        <v>-0.048025884368301457</v>
+        <v>0.075677636544016616</v>
       </c>
       <c r="CG3">
-        <v>0.052198510583459277</v>
+        <v>0.030111352802989103</v>
       </c>
       <c r="CH3">
-        <v>0.042827118213313822</v>
+        <v>0.0039162719297104638</v>
       </c>
       <c r="CI3">
-        <v>0.020575189305987621</v>
+        <v>-0.035968232550527043</v>
       </c>
       <c r="CJ3">
-        <v>-0.03685269050391736</v>
+        <v>0.049993483289678835</v>
       </c>
       <c r="CK3">
-        <v>-0.0020934460302923343</v>
+        <v>0.02426285065024723</v>
       </c>
       <c r="CL3">
-        <v>0.023232455242584587</v>
+        <v>-0.028333209747292989</v>
       </c>
       <c r="CM3">
-        <v>-0.0058851816253495792</v>
+        <v>-0.054285491328044867</v>
       </c>
       <c r="CN3">
-        <v>-0.029560823770494529</v>
+        <v>-0.063610765828009314</v>
       </c>
       <c r="CO3">
-        <v>-0.054568258096713514</v>
+        <v>0.019062266637911076</v>
       </c>
       <c r="CP3">
-        <v>-0.029958432382195657</v>
+        <v>0.0069836891188112052</v>
       </c>
       <c r="CQ3">
-        <v>0.2764017246199329</v>
+        <v>0.0016024035940153266</v>
       </c>
       <c r="CR3">
-        <v>0.22364333116052207</v>
+        <v>-0.077182062764259637</v>
       </c>
       <c r="CS3">
-        <v>0.24243611183388267</v>
+        <v>0.0019358858824625512</v>
       </c>
       <c r="CT3">
-        <v>0.21106037657749033</v>
+        <v>0.27405424012455853</v>
       </c>
       <c r="CU3">
-        <v>0.15597706394153302</v>
+        <v>0.24238768621003559</v>
       </c>
       <c r="CV3">
-        <v>0.23978211142312353</v>
+        <v>0.24447707625127058</v>
       </c>
       <c r="CW3">
-        <v>0.21360959065783383</v>
+        <v>0.19635712201892136</v>
       </c>
       <c r="CX3">
-        <v>0.14627835438723574</v>
+        <v>0.14537554146240667</v>
       </c>
       <c r="CY3">
-        <v>0.13199785493316415</v>
+        <v>0.24172896291882057</v>
       </c>
       <c r="CZ3">
-        <v>0.10251515920540778</v>
+        <v>0.20046827910836509</v>
       </c>
       <c r="DA3">
-        <v>0.17047730445456569</v>
+        <v>0.15086066184956595</v>
       </c>
       <c r="DB3">
-        <v>0.15325900029748762</v>
+        <v>0.13621435301256826</v>
       </c>
       <c r="DC3">
-        <v>0.10925030969242569</v>
+        <v>0.12649086275160856</v>
       </c>
       <c r="DD3">
-        <v>0.10819735492761275</v>
+        <v>0.15967271795860591</v>
       </c>
       <c r="DE3">
-        <v>0.092218811453849039</v>
+        <v>0.12455666681743173</v>
       </c>
       <c r="DF3">
-        <v>0.10596651812209128</v>
+        <v>0.097305505481091653</v>
       </c>
       <c r="DG3">
-        <v>0.10907019089771089</v>
+        <v>0.097536847865087789</v>
       </c>
       <c r="DH3">
-        <v>0.10693483324182353</v>
+        <v>0.08715196907602954</v>
       </c>
       <c r="DI3">
-        <v>0.06011763016118081</v>
+        <v>0.13086891675094017</v>
       </c>
       <c r="DJ3">
-        <v>0.057792424734380683</v>
+        <v>0.11058069756426173</v>
       </c>
       <c r="DK3">
-        <v>0.22232536276395076</v>
+        <v>0.088340270634294532</v>
       </c>
       <c r="DL3">
-        <v>0.21137609229792334</v>
+        <v>0.099121366552552839</v>
       </c>
       <c r="DM3">
-        <v>0.19618377068944789</v>
+        <v>0.044634986189573934</v>
       </c>
       <c r="DN3">
-        <v>0.22341875412348647</v>
+        <v>0.21538798292296002</v>
       </c>
       <c r="DO3">
-        <v>0.19138315257286964</v>
+        <v>0.21606837353392105</v>
       </c>
       <c r="DP3">
-        <v>0.15543257095431898</v>
+        <v>0.22376819760680319</v>
       </c>
       <c r="DQ3">
-        <v>0.13067418041918033</v>
+        <v>0.18657721899043661</v>
       </c>
       <c r="DR3">
-        <v>0.16388144775725855</v>
+        <v>0.12227300392062465</v>
       </c>
       <c r="DS3">
-        <v>0.16000798751510834</v>
+        <v>0.19522771715835743</v>
       </c>
       <c r="DT3">
-        <v>0.16548378025110536</v>
+        <v>0.15664983272261812</v>
       </c>
       <c r="DU3">
-        <v>0.11882917836046532</v>
+        <v>0.15612809212608275</v>
       </c>
       <c r="DV3">
-        <v>0.12854981844442437</v>
+        <v>0.12574337067127916</v>
       </c>
       <c r="DW3">
-        <v>0.11188582584930439</v>
+        <v>0.1215435481176704</v>
       </c>
       <c r="DX3">
-        <v>0.097430906059914585</v>
+        <v>0.12915062135103031</v>
       </c>
       <c r="DY3">
-        <v>0.079552883778319428</v>
+        <v>0.084606059751109866</v>
       </c>
       <c r="DZ3">
-        <v>0.10068618046965189</v>
+        <v>0.091454665751209391</v>
       </c>
       <c r="EA3">
-        <v>0.091687572677416063</v>
+        <v>0.082189496926359948</v>
       </c>
       <c r="EB3">
-        <v>0.075823236531663341</v>
+        <v>0.084062117870003894</v>
       </c>
       <c r="EC3">
-        <v>0.059467073786242552</v>
+        <v>0.041285935712827522</v>
       </c>
       <c r="ED3">
-        <v>0.0843921114340591</v>
+        <v>0.08631151269954572</v>
       </c>
       <c r="EE3">
-        <v>0.077934092582045714</v>
+        <v>0.074619812906329602</v>
       </c>
       <c r="EF3">
-        <v>0.050087456132628543</v>
+        <v>0.090174915598616331</v>
       </c>
       <c r="EG3">
-        <v>0.042594473421276237</v>
+        <v>0.085255392597691923</v>
       </c>
       <c r="EH3">
-        <v>0.073263241756420669</v>
+        <v>0.092946076981169745</v>
       </c>
       <c r="EI3">
-        <v>0.051470222652991372</v>
+        <v>0.060367175428382637</v>
       </c>
       <c r="EJ3">
-        <v>0.088420509296079142</v>
+        <v>0.073118300895084462</v>
       </c>
       <c r="EK3">
-        <v>0.047501907089076777</v>
+        <v>0.053372844693257926</v>
       </c>
       <c r="EL3">
-        <v>0.041559376227852739</v>
+        <v>0.010683837054892089</v>
       </c>
       <c r="EM3">
-        <v>0.028393489690491231</v>
+        <v>0.027061535068329409</v>
       </c>
       <c r="EN3">
-        <v>0.043431070778866238</v>
+        <v>0.065692855065287062</v>
       </c>
       <c r="EO3">
-        <v>0.046254725412038379</v>
+        <v>0.020323066408494194</v>
       </c>
       <c r="EP3">
-        <v>0.026827375520147717</v>
+        <v>0.052354987005444185</v>
       </c>
       <c r="EQ3">
-        <v>0.026135116268567935</v>
+        <v>0.030940124827242701</v>
       </c>
       <c r="ER3">
-        <v>0.032254782708973584</v>
+        <v>0.026168814152300154</v>
       </c>
       <c r="ES3">
-        <v>-0.013293798818430973</v>
+        <v>0.014474260441722436</v>
       </c>
       <c r="ET3">
-        <v>-0.023683016044952064</v>
+        <v>0.044198932361504725</v>
       </c>
       <c r="EU3">
-        <v>0.045794224010874331</v>
+        <v>0.026785701550004825</v>
       </c>
       <c r="EV3">
-        <v>0.0021535460098050935</v>
+        <v>-0.0021334265900418621</v>
       </c>
       <c r="EW3">
-        <v>0.0022304143047523887</v>
+        <v>0.024616000328463266</v>
       </c>
       <c r="EX3">
-        <v>0.0036400262674393673</v>
+        <v>-0.015410347279189504</v>
       </c>
       <c r="EY3">
-        <v>0.026881771045228289</v>
+        <v>0.011111989008837116</v>
       </c>
       <c r="EZ3">
-        <v>0.0015647771775980396</v>
+        <v>-0.01148946771043278</v>
       </c>
       <c r="FA3">
-        <v>0.033640945936311291</v>
+        <v>-0.024059495298931831</v>
       </c>
       <c r="FB3">
-        <v>-0.0063495117090891402</v>
+        <v>-0.033461814176463836</v>
       </c>
       <c r="FC3">
-        <v>0.021649960646385028</v>
+        <v>0.0070968439933590532</v>
       </c>
       <c r="FD3">
-        <v>0.0099400794155136019</v>
+        <v>-0.013079274158342893</v>
       </c>
       <c r="FE3">
-        <v>-0.026078643447595851</v>
+        <v>-0.01340169956131643</v>
       </c>
       <c r="FF3">
-        <v>-0.00064859591096508881</v>
+        <v>0.021146898545315509</v>
       </c>
       <c r="FG3">
-        <v>-0.0097005860060760812</v>
+        <v>-0.0065333321808816588</v>
       </c>
       <c r="FH3">
-        <v>-0.0075393462279896495</v>
+        <v>-0.0087152483215955749</v>
       </c>
       <c r="FI3">
-        <v>0.0050061779679477962</v>
+        <v>0.022916782528470868</v>
       </c>
       <c r="FJ3">
-        <v>-0.018479054686255828</v>
+        <v>-0.0027639721346630285</v>
       </c>
       <c r="FK3">
-        <v>-0.018570875359243424</v>
+        <v>0.02417707514075958</v>
       </c>
       <c r="FL3">
-        <v>-0.024044814686771988</v>
+        <v>0.0018071462696909266</v>
       </c>
       <c r="FM3">
-        <v>-0.013226832936353804</v>
+        <v>-0.01825510462729275</v>
       </c>
       <c r="FN3">
-        <v>-0.02066800288122788</v>
+        <v>-0.044669004585149698</v>
       </c>
       <c r="FO3">
-        <v>-0.010048770079804094</v>
+        <v>0.019034850714610238</v>
       </c>
       <c r="FP3">
-        <v>-0.011135411607251391</v>
+        <v>0.010325255004209406</v>
       </c>
       <c r="FQ3">
+        <v>0.015423145719498028</v>
+      </c>
+      <c r="FR3">
+        <v>-0.0091090704253619162</v>
+      </c>
+      <c r="FS3">
+        <v>-0.01136480446881442</v>
+      </c>
+      <c r="FT3">
         <v>0</v>
       </c>
-      <c r="FR3">
+      <c r="FU3">
         <v>0</v>
       </c>
-      <c r="FS3">
-        <v>-5.5006841963337942</v>
+      <c r="FV3">
+        <v>-5.4960660157264751</v>
+      </c>
+      <c r="FW3">
+        <v>0</v>
+      </c>
+      <c r="FX3">
+        <v>-5.8529438642246303</v>
       </c>
     </row>
     <row r="4">
@@ -8530,526 +8770,541 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.01942186627301417</v>
+        <v>0.019448426843772588</v>
       </c>
       <c r="C4">
-        <v>0.011483342699671398</v>
+        <v>0.016540567331613552</v>
       </c>
       <c r="D4">
-        <v>0.021263243951504512</v>
+        <v>0.017169785852335546</v>
       </c>
       <c r="E4">
-        <v>0.026015529343153515</v>
+        <v>0.017305845387023306</v>
       </c>
       <c r="F4">
-        <v>0.0125663467320091</v>
+        <v>0.017756595888976958</v>
       </c>
       <c r="G4">
-        <v>0.0107672788451756</v>
+        <v>0.022103627562934207</v>
       </c>
       <c r="H4">
-        <v>0.0088829446533654106</v>
+        <v>0.026403955689366057</v>
       </c>
       <c r="I4">
-        <v>0.0093552928975885567</v>
+        <v>0.012762898556887585</v>
       </c>
       <c r="J4">
-        <v>0.01009863694893256</v>
+        <v>0.010892583551064516</v>
       </c>
       <c r="K4">
+        <v>0.0090577293500787911</v>
+      </c>
+      <c r="L4">
+        <v>0.0096708086409178946</v>
+      </c>
+      <c r="M4">
+        <v>0.01011764906251532</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.024306026638435081</v>
-      </c>
-      <c r="M4">
-        <v>0.023939859038395187</v>
-      </c>
-      <c r="N4">
-        <v>0.036444873570568484</v>
-      </c>
       <c r="O4">
-        <v>0.036091325117162516</v>
+        <v>0.027092979830643269</v>
       </c>
       <c r="P4">
-        <v>0.035651049251418522</v>
+        <v>0.026588908370671058</v>
       </c>
       <c r="Q4">
-        <v>0.034790255179940881</v>
+        <v>0.038161230407153739</v>
       </c>
       <c r="R4">
-        <v>0.034750243663987601</v>
+        <v>0.037288555547867225</v>
       </c>
       <c r="S4">
-        <v>0.034700538384017009</v>
+        <v>0.037603435108291797</v>
       </c>
       <c r="T4">
-        <v>0.035833376534513538</v>
+        <v>0.037810349341212794</v>
       </c>
       <c r="U4">
-        <v>0.034102229169448391</v>
+        <v>0.03798933428241677</v>
       </c>
       <c r="V4">
-        <v>0.035108017601122699</v>
+        <v>0.037528694069223177</v>
       </c>
       <c r="W4">
-        <v>0.034810344027968232</v>
+        <v>0.036736549851114596</v>
       </c>
       <c r="X4">
-        <v>0.034651173136316306</v>
+        <v>0.036948117806819662</v>
       </c>
       <c r="Y4">
-        <v>0.034641340570316703</v>
+        <v>0.037217078795578992</v>
       </c>
       <c r="Z4">
-        <v>0.034495447435374221</v>
+        <v>0.036404152762878124</v>
       </c>
       <c r="AA4">
-        <v>0.034447471324213726</v>
+        <v>0.036386167380622475</v>
       </c>
       <c r="AB4">
-        <v>0.034268067951711674</v>
+        <v>0.036540633136397487</v>
       </c>
       <c r="AC4">
-        <v>0.034371377367902634</v>
+        <v>0.03675551150911284</v>
       </c>
       <c r="AD4">
-        <v>0.034418840311397074</v>
+        <v>0.036288121900430854</v>
       </c>
       <c r="AE4">
-        <v>0.034418840312168561</v>
+        <v>0.036513110347469367</v>
       </c>
       <c r="AF4">
-        <v>0.034314839179568388</v>
+        <v>0.03606210056281621</v>
       </c>
       <c r="AG4">
-        <v>0.034029771184840012</v>
+        <v>0.03697748631481617</v>
       </c>
       <c r="AH4">
-        <v>0.03412046237944056</v>
+        <v>0.036070648665665395</v>
       </c>
       <c r="AI4">
-        <v>0.034399816959818412</v>
+        <v>0.036087779123827587</v>
       </c>
       <c r="AJ4">
-        <v>0.034324230817554154</v>
+        <v>0.036235257776740977</v>
       </c>
       <c r="AK4">
-        <v>0.03394915238637037</v>
+        <v>0.036062100566652912</v>
       </c>
       <c r="AL4">
-        <v>0.034268067959710387</v>
+        <v>0.035893498974270806</v>
       </c>
       <c r="AM4">
-        <v>0.033984866813417849</v>
+        <v>0.035413248659534796</v>
       </c>
       <c r="AN4">
-        <v>0.033618848603873507</v>
+        <v>0.035444131870956193</v>
       </c>
       <c r="AO4">
-        <v>0.03401177443003392</v>
+        <v>0.035514192912762234</v>
       </c>
       <c r="AP4">
-        <v>0.034047814856993708</v>
+        <v>0.035868590229204994</v>
       </c>
       <c r="AQ4">
-        <v>0.034129596925786668</v>
+        <v>0.036002581385042642</v>
       </c>
       <c r="AR4">
-        <v>0.034390324405309501</v>
+        <v>0.035238645786856926</v>
       </c>
       <c r="AS4">
-        <v>0.033687065646947532</v>
+        <v>0.036413163988845323</v>
       </c>
       <c r="AT4">
-        <v>0.03384310855438049</v>
+        <v>0.035852038755459427</v>
       </c>
       <c r="AU4">
-        <v>0.033975920861571043</v>
+        <v>0.035761774581452507</v>
       </c>
       <c r="AV4">
-        <v>0.033738683303873147</v>
+        <v>0.036200252771367562</v>
       </c>
       <c r="AW4">
-        <v>0.033426493549790326</v>
+        <v>0.035428670796174219</v>
       </c>
       <c r="AX4">
-        <v>0.033808122211732745</v>
+        <v>0.036279281323504955</v>
       </c>
       <c r="AY4">
-        <v>0.033517800754840413</v>
+        <v>0.036485701657762132</v>
       </c>
       <c r="AZ4">
-        <v>0.033993824391029208</v>
+        <v>0.035545589037519094</v>
       </c>
       <c r="BA4">
-        <v>0.033799403558636885</v>
+        <v>0.036011050276937538</v>
       </c>
       <c r="BB4">
-        <v>0.034102229196921928</v>
+        <v>0.035648741247082671</v>
       </c>
       <c r="BC4">
-        <v>0.03423087378695356</v>
+        <v>0.035374862791014455</v>
       </c>
       <c r="BD4">
-        <v>0.033913622200974936</v>
+        <v>0.035745501327501386</v>
       </c>
       <c r="BE4">
-        <v>0.03383434517470596</v>
+        <v>0.034778718124978569</v>
       </c>
       <c r="BF4">
-        <v>0.033747324537787872</v>
+        <v>0.034577981923686066</v>
       </c>
       <c r="BG4">
-        <v>0.034476218191359952</v>
+        <v>0.0349247222014522</v>
       </c>
       <c r="BH4">
-        <v>0.034553448300676366</v>
+        <v>0.03480425486411487</v>
       </c>
       <c r="BI4">
-        <v>0.034020766977454001</v>
+        <v>0.034950826927098021</v>
       </c>
       <c r="BJ4">
-        <v>0.033526163581671146</v>
+        <v>0.034505215170040224</v>
       </c>
       <c r="BK4">
-        <v>0.034157072610355728</v>
+        <v>0.035169252186146263</v>
       </c>
       <c r="BL4">
-        <v>0.034038787169354545</v>
+        <v>0.034384934066246618</v>
       </c>
       <c r="BM4">
-        <v>0.033904768269705288</v>
+        <v>0.035232231892537741</v>
       </c>
       <c r="BN4">
-        <v>0.033199588896028746</v>
+        <v>0.034719170499714416</v>
       </c>
       <c r="BO4">
-        <v>0.034651173170820081</v>
+        <v>0.035312674864795744</v>
       </c>
       <c r="BP4">
-        <v>0.033958063691255175</v>
+        <v>0.034556316972250846</v>
       </c>
       <c r="BQ4">
-        <v>0.034962099128169034</v>
+        <v>0.034653321289495789</v>
       </c>
       <c r="BR4">
-        <v>0.035054162792226257</v>
+        <v>0.035047886449514003</v>
       </c>
       <c r="BS4">
-        <v>0.03471103139083799</v>
+        <v>0.03556029652642069</v>
       </c>
       <c r="BT4">
-        <v>0.035948448593724078</v>
+        <v>0.036095467940792006</v>
       </c>
       <c r="BU4">
-        <v>0.035779093712020316</v>
+        <v>0.036068281047157251</v>
       </c>
       <c r="BV4">
-        <v>0.026086480732388093</v>
+        <v>0.036576289718134751</v>
       </c>
       <c r="BW4">
-        <v>0.022047238140972484</v>
+        <v>0.036273212371147806</v>
       </c>
       <c r="BX4">
-        <v>0.022123607716207347</v>
+        <v>0.036329874383101403</v>
       </c>
       <c r="BY4">
-        <v>0.021443299082185778</v>
+        <v>0.026130159559302958</v>
       </c>
       <c r="BZ4">
-        <v>0.021647991026014106</v>
+        <v>0.022190271998833586</v>
       </c>
       <c r="CA4">
-        <v>0.021852815389063144</v>
+        <v>0.022365623162701548</v>
       </c>
       <c r="CB4">
-        <v>0.021260815031823716</v>
+        <v>0.021557454636715722</v>
       </c>
       <c r="CC4">
-        <v>0.021417511881213918</v>
+        <v>0.021744005348299886</v>
       </c>
       <c r="CD4">
-        <v>0.021569829497100578</v>
+        <v>0.021921754375272565</v>
       </c>
       <c r="CE4">
-        <v>0.021806442148710341</v>
+        <v>0.021407119541471349</v>
       </c>
       <c r="CF4">
-        <v>0.021944723736760659</v>
+        <v>0.021564163485766674</v>
       </c>
       <c r="CG4">
-        <v>0.022230109060076018</v>
+        <v>0.021745173466201351</v>
       </c>
       <c r="CH4">
-        <v>0.02229043149668852</v>
+        <v>0.021863136590222442</v>
       </c>
       <c r="CI4">
-        <v>0.022403435174049521</v>
+        <v>0.02191977533250708</v>
       </c>
       <c r="CJ4">
-        <v>0.022667000561738912</v>
+        <v>0.022441265027069196</v>
       </c>
       <c r="CK4">
-        <v>0.022647364815776019</v>
+        <v>0.022565569898941849</v>
       </c>
       <c r="CL4">
-        <v>0.023315998185659041</v>
+        <v>0.02280232053177279</v>
       </c>
       <c r="CM4">
-        <v>0.023468898104852729</v>
+        <v>0.022935206210961262</v>
       </c>
       <c r="CN4">
-        <v>0.02374708642798062</v>
+        <v>0.022937635363425767</v>
       </c>
       <c r="CO4">
-        <v>0.023886427982081591</v>
+        <v>0.023373780384417359</v>
       </c>
       <c r="CP4">
-        <v>0.023508327627541115</v>
+        <v>0.02345100293796035</v>
       </c>
       <c r="CQ4">
-        <v>0.019975454962094862</v>
+        <v>0.023634283265460687</v>
       </c>
       <c r="CR4">
-        <v>0.020089330697513001</v>
+        <v>0.024022824026235293</v>
       </c>
       <c r="CS4">
-        <v>0.01957051201217332</v>
+        <v>0.023443464191725522</v>
       </c>
       <c r="CT4">
-        <v>0.01965357628492281</v>
+        <v>0.020006776771614231</v>
       </c>
       <c r="CU4">
-        <v>0.019794302022962885</v>
+        <v>0.020078688947747815</v>
       </c>
       <c r="CV4">
-        <v>0.019298673170337382</v>
+        <v>0.01955529268661255</v>
       </c>
       <c r="CW4">
-        <v>0.019381061547777498</v>
+        <v>0.019674026574714565</v>
       </c>
       <c r="CX4">
-        <v>0.019574335615656122</v>
+        <v>0.019805265239820406</v>
       </c>
       <c r="CY4">
-        <v>0.019630785958637639</v>
+        <v>0.019284792371278527</v>
       </c>
       <c r="CZ4">
-        <v>0.01973079939935975</v>
+        <v>0.019404397823032573</v>
       </c>
       <c r="DA4">
-        <v>0.019826307859362506</v>
+        <v>0.019550793705770435</v>
       </c>
       <c r="DB4">
-        <v>0.019894610676817612</v>
+        <v>0.019607677553496343</v>
       </c>
       <c r="DC4">
-        <v>0.020046326054044064</v>
+        <v>0.019651920060896402</v>
       </c>
       <c r="DD4">
-        <v>0.020067324377621838</v>
+        <v>0.019859918193513522</v>
       </c>
       <c r="DE4">
-        <v>0.020135697775337896</v>
+        <v>0.019981292823658799</v>
       </c>
       <c r="DF4">
-        <v>0.020386137083225838</v>
+        <v>0.020082124291508362</v>
       </c>
       <c r="DG4">
-        <v>0.020393315292710667</v>
+        <v>0.020098979347827169</v>
       </c>
       <c r="DH4">
-        <v>0.020418210281314762</v>
+        <v>0.02014933286695017</v>
       </c>
       <c r="DI4">
-        <v>0.020597597856517023</v>
+        <v>0.02027567051098924</v>
       </c>
       <c r="DJ4">
-        <v>0.020623698242928985</v>
+        <v>0.02036069116614448</v>
       </c>
       <c r="DK4">
-        <v>0.019860781378070534</v>
+        <v>0.020453991932716131</v>
       </c>
       <c r="DL4">
-        <v>0.019922238538946237</v>
+        <v>0.020434854723791394</v>
       </c>
       <c r="DM4">
-        <v>0.020000858152972239</v>
+        <v>0.020643999090183166</v>
       </c>
       <c r="DN4">
-        <v>0.019914532683627327</v>
+        <v>0.019841893339551202</v>
       </c>
       <c r="DO4">
-        <v>0.020059533175612113</v>
+        <v>0.019858787860629241</v>
       </c>
       <c r="DP4">
-        <v>0.020224258916490809</v>
+        <v>0.019848867990184853</v>
       </c>
       <c r="DQ4">
-        <v>0.020346597683946002</v>
+        <v>0.02001336527840054</v>
       </c>
       <c r="DR4">
-        <v>0.020228347699611134</v>
+        <v>0.020294806590741069</v>
       </c>
       <c r="DS4">
-        <v>0.020264091785081588</v>
+        <v>0.020017138244953239</v>
       </c>
       <c r="DT4">
-        <v>0.020261322478218546</v>
+        <v>0.020192527015242802</v>
       </c>
       <c r="DU4">
-        <v>0.020477955482770909</v>
+        <v>0.020214408770260754</v>
       </c>
       <c r="DV4">
-        <v>0.020456054099785789</v>
+        <v>0.020361183102462013</v>
       </c>
       <c r="DW4">
-        <v>0.020548000971456374</v>
+        <v>0.020398798834207518</v>
       </c>
       <c r="DX4">
-        <v>0.020631402936164413</v>
+        <v>0.020386194061678242</v>
       </c>
       <c r="DY4">
-        <v>0.020731125755206428</v>
+        <v>0.020599455005273982</v>
       </c>
       <c r="DZ4">
-        <v>0.020656575026517084</v>
+        <v>0.02058898131804197</v>
       </c>
       <c r="EA4">
-        <v>0.020716873513783114</v>
+        <v>0.020650023030426422</v>
       </c>
       <c r="EB4">
-        <v>0.020808810728107349</v>
+        <v>0.020661584736451341</v>
       </c>
       <c r="EC4">
-        <v>0.020904168619355321</v>
+        <v>0.02087652331156355</v>
       </c>
       <c r="ED4">
-        <v>0.020809677817889359</v>
+        <v>0.020690723903500328</v>
       </c>
       <c r="EE4">
-        <v>0.02085958412753602</v>
+        <v>0.020763781138783098</v>
       </c>
       <c r="EF4">
-        <v>0.021009689968944242</v>
+        <v>0.020713434990738622</v>
       </c>
       <c r="EG4">
-        <v>0.021065502535045705</v>
+        <v>0.020756036775412358</v>
       </c>
       <c r="EH4">
-        <v>0.020941305956825904</v>
+        <v>0.020741472123883636</v>
       </c>
       <c r="EI4">
-        <v>0.021064546924129762</v>
+        <v>0.020911869821110398</v>
       </c>
       <c r="EJ4">
-        <v>0.020911374034917156</v>
+        <v>0.020872925366908896</v>
       </c>
       <c r="EK4">
-        <v>0.021125430493914105</v>
+        <v>0.020985893341959213</v>
       </c>
       <c r="EL4">
-        <v>0.021174742906873007</v>
+        <v>0.021211843925116745</v>
       </c>
       <c r="EM4">
-        <v>0.021259637402431687</v>
+        <v>0.021152328929140568</v>
       </c>
       <c r="EN4">
-        <v>0.02120677613734202</v>
+        <v>0.020987770842554192</v>
       </c>
       <c r="EO4">
-        <v>0.021213833490049305</v>
+        <v>0.021227181562785791</v>
       </c>
       <c r="EP4">
-        <v>0.021330316149106687</v>
+        <v>0.021092124828731969</v>
       </c>
       <c r="EQ4">
-        <v>0.021354631216426029</v>
+        <v>0.021216947302273966</v>
       </c>
       <c r="ER4">
-        <v>0.021345091701631763</v>
+        <v>0.0212612247986993</v>
       </c>
       <c r="ES4">
-        <v>0.021597151096161133</v>
+        <v>0.021340169067505858</v>
       </c>
       <c r="ET4">
-        <v>0.021672016324883529</v>
+        <v>0.02121388452004027</v>
       </c>
       <c r="EU4">
-        <v>0.021338750058452201</v>
+        <v>0.021321019827829635</v>
       </c>
       <c r="EV4">
-        <v>0.021581025035743093</v>
+        <v>0.021488039988833713</v>
       </c>
       <c r="EW4">
-        <v>0.021601775144662185</v>
+        <v>0.021373455087284672</v>
       </c>
       <c r="EX4">
-        <v>0.021615690428660392</v>
+        <v>0.021599151566962987</v>
       </c>
       <c r="EY4">
-        <v>0.021517395786116597</v>
+        <v>0.021483547818150896</v>
       </c>
       <c r="EZ4">
-        <v>0.021669648254789918</v>
+        <v>0.02162141624552729</v>
       </c>
       <c r="FA4">
-        <v>0.021525273937114831</v>
+        <v>0.021708543193224523</v>
       </c>
       <c r="FB4">
-        <v>0.021754899853250693</v>
+        <v>0.021779615319765071</v>
       </c>
       <c r="FC4">
-        <v>0.021629671999714974</v>
+        <v>0.021587500670114803</v>
       </c>
       <c r="FD4">
-        <v>0.021712570945917779</v>
+        <v>0.02171460478334437</v>
       </c>
       <c r="FE4">
-        <v>0.021926517279234881</v>
+        <v>0.021737750119646283</v>
       </c>
       <c r="FF4">
-        <v>0.021811452332287221</v>
+        <v>0.021578212924777972</v>
       </c>
       <c r="FG4">
-        <v>0.02188174934258548</v>
+        <v>0.021745096310410238</v>
       </c>
       <c r="FH4">
-        <v>0.021891924881501417</v>
+        <v>0.02177837605330022</v>
       </c>
       <c r="FI4">
-        <v>0.021846398780685151</v>
+        <v>0.021633202507915738</v>
       </c>
       <c r="FJ4">
-        <v>0.021995565931232728</v>
+        <v>0.021790795152116089</v>
       </c>
       <c r="FK4">
-        <v>0.022018041490045465</v>
+        <v>0.021670037946334417</v>
       </c>
       <c r="FL4">
-        <v>0.022070219087399139</v>
+        <v>0.02181077154941314</v>
       </c>
       <c r="FM4">
-        <v>0.022032670937928062</v>
+        <v>0.021941268450008589</v>
       </c>
       <c r="FN4">
-        <v>0.02209595500027824</v>
+        <v>0.022109009056426033</v>
       </c>
       <c r="FO4">
-        <v>0.022059445491766007</v>
+        <v>0.021783337995197979</v>
       </c>
       <c r="FP4">
-        <v>0.022087805409360083</v>
+        <v>0.021852389650728988</v>
       </c>
       <c r="FQ4">
+        <v>0.021847314944312687</v>
+      </c>
+      <c r="FR4">
+        <v>0.022003296605304756</v>
+      </c>
+      <c r="FS4">
+        <v>0.022038143622209627</v>
+      </c>
+      <c r="FT4">
         <v>0</v>
       </c>
-      <c r="FR4">
+      <c r="FU4">
         <v>0</v>
       </c>
-      <c r="FS4">
-        <v>0.015590791302356993</v>
+      <c r="FV4">
+        <v>0.015554913557645765</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0.020120937763617841</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35148" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38004" uniqueCount="186">
   <si>
     <t>y1</t>
   </si>
@@ -1706,526 +1706,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>-0.011159697295097139</v>
+        <v>0.0029545076938346858</v>
       </c>
       <c r="C3">
-        <v>-0.64002261745275713</v>
+        <v>-0.63640703581598157</v>
       </c>
       <c r="D3">
-        <v>-0.67128635711379758</v>
+        <v>-0.66997875235351434</v>
       </c>
       <c r="E3">
-        <v>-0.68312977159560317</v>
+        <v>-0.67077122657054844</v>
       </c>
       <c r="F3">
-        <v>-0.68458062625385829</v>
+        <v>-0.68047231691411114</v>
       </c>
       <c r="G3">
-        <v>-0.68331704244183622</v>
+        <v>-0.68106158958578145</v>
       </c>
       <c r="H3">
-        <v>-0.66826740724711287</v>
+        <v>-0.67821798264016075</v>
       </c>
       <c r="I3">
-        <v>-0.0085277286798345585</v>
+        <v>-0.0084281370692196045</v>
       </c>
       <c r="J3">
-        <v>-0.005991061372988782</v>
+        <v>-0.002718514568635662</v>
       </c>
       <c r="K3">
-        <v>-0.00074984077761190975</v>
+        <v>0.0036576063985799541</v>
       </c>
       <c r="L3">
-        <v>0.0015767848260818404</v>
+        <v>-0.0032341526957270854</v>
       </c>
       <c r="M3">
-        <v>0.006704496256971686</v>
+        <v>0.0047980199127355926</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.161248787994652</v>
+        <v>1.214451882999132</v>
       </c>
       <c r="P3">
-        <v>1.2907013545554955</v>
+        <v>1.3145683943216875</v>
       </c>
       <c r="Q3">
-        <v>-0.25455333908223277</v>
+        <v>-0.18853234005821609</v>
       </c>
       <c r="R3">
-        <v>-0.22703436798987167</v>
+        <v>-0.23066341310291177</v>
       </c>
       <c r="S3">
-        <v>-0.2369223059880724</v>
+        <v>-0.21372300880550002</v>
       </c>
       <c r="T3">
-        <v>-0.26793508488723472</v>
+        <v>-0.16680269053678903</v>
       </c>
       <c r="U3">
-        <v>-0.25321991354066675</v>
+        <v>-0.18708330584761609</v>
       </c>
       <c r="V3">
-        <v>-0.2036620835344303</v>
+        <v>-0.16232042348722775</v>
       </c>
       <c r="W3">
-        <v>-0.20811428360684345</v>
+        <v>-0.17939795813622705</v>
       </c>
       <c r="X3">
-        <v>-0.20360231890531572</v>
+        <v>-0.1619669511721584</v>
       </c>
       <c r="Y3">
-        <v>-0.24304856145364914</v>
+        <v>-0.091925318477928536</v>
       </c>
       <c r="Z3">
-        <v>-0.12475103112484795</v>
+        <v>-0.11230065130224202</v>
       </c>
       <c r="AA3">
-        <v>-0.11393077883780837</v>
+        <v>-0.1134451770482333</v>
       </c>
       <c r="AB3">
-        <v>-0.10884327836371319</v>
+        <v>-0.10268877701515541</v>
       </c>
       <c r="AC3">
-        <v>-0.15483238447793671</v>
+        <v>-0.083873241591989445</v>
       </c>
       <c r="AD3">
-        <v>-0.1050686771127352</v>
+        <v>-0.10124744041373934</v>
       </c>
       <c r="AE3">
-        <v>-0.14707874348924921</v>
+        <v>-0.079477401387881758</v>
       </c>
       <c r="AF3">
-        <v>-0.099061728290779541</v>
+        <v>-0.025620885335695169</v>
       </c>
       <c r="AG3">
-        <v>-0.10885287225438953</v>
+        <v>-0.078162781004593465</v>
       </c>
       <c r="AH3">
-        <v>-0.09992459464301387</v>
+        <v>-0.045312338227965758</v>
       </c>
       <c r="AI3">
-        <v>-0.063703348400718604</v>
+        <v>-0.040523370419969056</v>
       </c>
       <c r="AJ3">
-        <v>-0.093424220037176958</v>
+        <v>-0.033548335605523817</v>
       </c>
       <c r="AK3">
-        <v>-0.086103034734330244</v>
+        <v>-0.051394369686029957</v>
       </c>
       <c r="AL3">
-        <v>-0.077545495970379422</v>
+        <v>-0.049759010338824052</v>
       </c>
       <c r="AM3">
-        <v>-0.044182645624389359</v>
+        <v>-0.0094237606953116448</v>
       </c>
       <c r="AN3">
-        <v>-0.053695536150634895</v>
+        <v>0.012916557812357576</v>
       </c>
       <c r="AO3">
-        <v>-0.053801746632585017</v>
+        <v>-0.012060779124766042</v>
       </c>
       <c r="AP3">
-        <v>-0.054220462245849456</v>
+        <v>0.0025280386208173539</v>
       </c>
       <c r="AQ3">
-        <v>-0.04604566137367011</v>
+        <v>0.026862855033503025</v>
       </c>
       <c r="AR3">
-        <v>-0.059089302687831968</v>
+        <v>0.017298586004183093</v>
       </c>
       <c r="AS3">
-        <v>-0.064852466560678848</v>
+        <v>0.010922920687210477</v>
       </c>
       <c r="AT3">
-        <v>-0.041779518478527726</v>
+        <v>-0.018152397530074093</v>
       </c>
       <c r="AU3">
-        <v>-0.00035842625578490553</v>
+        <v>0.014717815318142645</v>
       </c>
       <c r="AV3">
-        <v>-0.058618154038744742</v>
+        <v>-0.034620662623159</v>
       </c>
       <c r="AW3">
-        <v>-0.0062429945719469863</v>
+        <v>-0.0086189985440435213</v>
       </c>
       <c r="AX3">
-        <v>-0.066410456868818968</v>
+        <v>0.013512238780381105</v>
       </c>
       <c r="AY3">
-        <v>-0.083256221112334272</v>
+        <v>0.014065400718890949</v>
       </c>
       <c r="AZ3">
-        <v>-0.03123776762869054</v>
+        <v>0.047233983102557789</v>
       </c>
       <c r="BA3">
-        <v>-0.035000669269969462</v>
+        <v>0.041334874778867235</v>
       </c>
       <c r="BB3">
-        <v>-0.03261314364582793</v>
+        <v>0.0071832061540208908</v>
       </c>
       <c r="BC3">
-        <v>0.0085193605820326583</v>
+        <v>0.040745487029194907</v>
       </c>
       <c r="BD3">
-        <v>-0.033309196313096569</v>
+        <v>0.0061025711184036239</v>
       </c>
       <c r="BE3">
-        <v>-0.0089177444842525166</v>
+        <v>0.038482842638940459</v>
       </c>
       <c r="BF3">
-        <v>0.012112199321468153</v>
+        <v>0.026623105324151436</v>
       </c>
       <c r="BG3">
-        <v>0.006668512113387314</v>
+        <v>0.018020915539164503</v>
       </c>
       <c r="BH3">
-        <v>0.0029959176606217412</v>
+        <v>0.047797956421472505</v>
       </c>
       <c r="BI3">
-        <v>-0.044516316409110794</v>
+        <v>0.049612461567421912</v>
       </c>
       <c r="BJ3">
-        <v>0.026776662726689042</v>
+        <v>0.042564274322134554</v>
       </c>
       <c r="BK3">
-        <v>0.015855406126222205</v>
+        <v>0.031244811028638398</v>
       </c>
       <c r="BL3">
-        <v>0.034102118378388079</v>
+        <v>0.042718680357264074</v>
       </c>
       <c r="BM3">
-        <v>0.0038096313201156995</v>
+        <v>0.035441085462889967</v>
       </c>
       <c r="BN3">
-        <v>0.017380964008260679</v>
+        <v>0.037535926046490482</v>
       </c>
       <c r="BO3">
-        <v>-0.029930662076851858</v>
+        <v>0.01998166986966873</v>
       </c>
       <c r="BP3">
-        <v>0.035140973350457093</v>
+        <v>0.039283202141896775</v>
       </c>
       <c r="BQ3">
-        <v>0.0048921288285332949</v>
+        <v>0.062373340793556331</v>
       </c>
       <c r="BR3">
-        <v>0.010768486839128505</v>
+        <v>0.054855524070117748</v>
       </c>
       <c r="BS3">
-        <v>0.009451260231275526</v>
+        <v>0.051958610204008257</v>
       </c>
       <c r="BT3">
-        <v>-0.0032760379592790085</v>
+        <v>0.049007663836370938</v>
       </c>
       <c r="BU3">
-        <v>-0.0059620429831304597</v>
+        <v>-0.010872635283332681</v>
       </c>
       <c r="BV3">
-        <v>0.01231199117740887</v>
+        <v>0.030390614879249031</v>
       </c>
       <c r="BW3">
-        <v>-0.0083198091210597482</v>
+        <v>0.047415382987455061</v>
       </c>
       <c r="BX3">
-        <v>0.023068093293212012</v>
+        <v>0.093140735593982879</v>
       </c>
       <c r="BY3">
-        <v>0.028262723573257618</v>
+        <v>0.045468680662751587</v>
       </c>
       <c r="BZ3">
-        <v>0.016890789756974514</v>
+        <v>0.074658996878071468</v>
       </c>
       <c r="CA3">
-        <v>0.030877389955826815</v>
+        <v>0.093441867557490246</v>
       </c>
       <c r="CB3">
-        <v>0.0033911735839851883</v>
+        <v>0.10471190513523651</v>
       </c>
       <c r="CC3">
-        <v>0.032250833173884608</v>
+        <v>0.037271977823348963</v>
       </c>
       <c r="CD3">
-        <v>0.024110669879197546</v>
+        <v>0.057991305887892558</v>
       </c>
       <c r="CE3">
-        <v>0.013109706016190246</v>
+        <v>0.074193273487409048</v>
       </c>
       <c r="CF3">
-        <v>0.028836974331473465</v>
+        <v>0.054300421756729354</v>
       </c>
       <c r="CG3">
-        <v>0.026231124545158961</v>
+        <v>0.024884286396619378</v>
       </c>
       <c r="CH3">
-        <v>0.012274082124723031</v>
+        <v>0.032340224807560512</v>
       </c>
       <c r="CI3">
-        <v>0.017333197932962684</v>
+        <v>0.060585108360370919</v>
       </c>
       <c r="CJ3">
-        <v>0.013450644929369981</v>
+        <v>0.10091145347994411</v>
       </c>
       <c r="CK3">
-        <v>0.023841586154289718</v>
+        <v>0.092760275797846542</v>
       </c>
       <c r="CL3">
-        <v>-0.00040010410370234985</v>
+        <v>0.074444915450457796</v>
       </c>
       <c r="CM3">
-        <v>0.0098441148386862048</v>
+        <v>0.1164803388807176</v>
       </c>
       <c r="CN3">
-        <v>0.0094607410824717204</v>
+        <v>0.025743748245189085</v>
       </c>
       <c r="CO3">
-        <v>-0.016825200081397977</v>
+        <v>0.060132264354894466</v>
       </c>
       <c r="CP3">
-        <v>0.022632694802545643</v>
+        <v>0.095643598937882116</v>
       </c>
       <c r="CQ3">
-        <v>0.031430307848693224</v>
+        <v>0.048079897301425686</v>
       </c>
       <c r="CR3">
-        <v>-0.018704117868000188</v>
+        <v>0.087042470985147752</v>
       </c>
       <c r="CS3">
-        <v>0.05561492684217529</v>
+        <v>0.048178472029603625</v>
       </c>
       <c r="CT3">
-        <v>0.026923469067579947</v>
+        <v>0.070165407743367533</v>
       </c>
       <c r="CU3">
-        <v>0.063158983384041995</v>
+        <v>0.077800356397910803</v>
       </c>
       <c r="CV3">
-        <v>0.028267901208578441</v>
+        <v>0.089163814095070806</v>
       </c>
       <c r="CW3">
-        <v>0.018066247085298172</v>
+        <v>0.029885080972683751</v>
       </c>
       <c r="CX3">
-        <v>0.00041130202223678208</v>
+        <v>0.11311060902407973</v>
       </c>
       <c r="CY3">
-        <v>0.042590862145053858</v>
+        <v>0.076321005996799821</v>
       </c>
       <c r="CZ3">
-        <v>0.034986611048616043</v>
+        <v>0.041085022260067744</v>
       </c>
       <c r="DA3">
-        <v>0.01900137495308139</v>
+        <v>0.069710759705745806</v>
       </c>
       <c r="DB3">
-        <v>0.021372440619530319</v>
+        <v>0.083479147690497177</v>
       </c>
       <c r="DC3">
-        <v>0.067374122950500701</v>
+        <v>0.080977233435982218</v>
       </c>
       <c r="DD3">
-        <v>0.015020877802715138</v>
+        <v>0.089361181881672538</v>
       </c>
       <c r="DE3">
-        <v>-0.0040160150770521879</v>
+        <v>0.068036670592831777</v>
       </c>
       <c r="DF3">
-        <v>-0.0025521512189291139</v>
+        <v>0.050437276286760244</v>
       </c>
       <c r="DG3">
-        <v>0.028418248370477062</v>
+        <v>0.054521989996734882</v>
       </c>
       <c r="DH3">
-        <v>0.035892657133212484</v>
+        <v>0.058250598532984817</v>
       </c>
       <c r="DI3">
-        <v>0.019651957005907231</v>
+        <v>0.07315728501807188</v>
       </c>
       <c r="DJ3">
-        <v>0.011215298931147536</v>
+        <v>0.072195042755997155</v>
       </c>
       <c r="DK3">
-        <v>0.008240895810704231</v>
+        <v>0.070087615461075961</v>
       </c>
       <c r="DL3">
-        <v>0.044579186812367715</v>
+        <v>0.058536413617814184</v>
       </c>
       <c r="DM3">
-        <v>0.0011214482716510046</v>
+        <v>0.073187760245563838</v>
       </c>
       <c r="DN3">
-        <v>-0.00062606137452448404</v>
+        <v>0.1063335459005026</v>
       </c>
       <c r="DO3">
-        <v>0.019522398053593751</v>
+        <v>0.047586029141645267</v>
       </c>
       <c r="DP3">
-        <v>0.049535805942588072</v>
+        <v>0.063989404289825649</v>
       </c>
       <c r="DQ3">
-        <v>0.01037726520000689</v>
+        <v>0.060452031296431542</v>
       </c>
       <c r="DR3">
-        <v>-0.040656466454949178</v>
+        <v>0.054505766917718364</v>
       </c>
       <c r="DS3">
-        <v>0.052224378378929112</v>
+        <v>0.060171020549438695</v>
       </c>
       <c r="DT3">
-        <v>0.019643583049834348</v>
+        <v>0.05019975955907293</v>
       </c>
       <c r="DU3">
-        <v>0.020319584445981285</v>
+        <v>0.037983564662114479</v>
       </c>
       <c r="DV3">
-        <v>-0.00070006231164952833</v>
+        <v>0.082882500180143467</v>
       </c>
       <c r="DW3">
-        <v>-0.005825519394488241</v>
+        <v>0.092867302273433025</v>
       </c>
       <c r="DX3">
-        <v>0.01420070148347702</v>
+        <v>0.073510463884525479</v>
       </c>
       <c r="DY3">
-        <v>-0.019166568679167609</v>
+        <v>0.033225644452710895</v>
       </c>
       <c r="DZ3">
-        <v>-0.0029024586488996581</v>
+        <v>0.069892623329373044</v>
       </c>
       <c r="EA3">
-        <v>0.00076660382113691902</v>
+        <v>0.029053014884046109</v>
       </c>
       <c r="EB3">
-        <v>-0.0065812351179134962</v>
+        <v>0.039259500806882695</v>
       </c>
       <c r="EC3">
-        <v>-0.04190228798821994</v>
+        <v>0.079733365156529554</v>
       </c>
       <c r="ED3">
-        <v>0.012023708591128265</v>
+        <v>0.043387766631655569</v>
       </c>
       <c r="EE3">
-        <v>0.015346905520976345</v>
+        <v>0.067123243564886345</v>
       </c>
       <c r="EF3">
-        <v>0.026390086985527011</v>
+        <v>0.079368282320932307</v>
       </c>
       <c r="EG3">
-        <v>0.033008165788874298</v>
+        <v>0.056649348396961459</v>
       </c>
       <c r="EH3">
-        <v>0.033598125225884658</v>
+        <v>0.054127306029443413</v>
       </c>
       <c r="EI3">
-        <v>0.014081519572666673</v>
+        <v>0.064872773243641949</v>
       </c>
       <c r="EJ3">
-        <v>0.030987073244003741</v>
+        <v>0.021167680699215707</v>
       </c>
       <c r="EK3">
-        <v>0.0078377429853600418</v>
+        <v>0.055475069006784311</v>
       </c>
       <c r="EL3">
-        <v>-0.035377709295342535</v>
+        <v>0.046881315748218605</v>
       </c>
       <c r="EM3">
-        <v>-0.014827399306661108</v>
+        <v>0.094334572668344233</v>
       </c>
       <c r="EN3">
-        <v>0.02913416159720723</v>
+        <v>0.037603966128098784</v>
       </c>
       <c r="EO3">
-        <v>-0.013551395827774936</v>
+        <v>0.040340846213098601</v>
       </c>
       <c r="EP3">
-        <v>0.023957048964907624</v>
+        <v>0.081066575634955548</v>
       </c>
       <c r="EQ3">
-        <v>0.002491628851973013</v>
+        <v>0.055103701503608681</v>
       </c>
       <c r="ER3">
-        <v>-0.0029834985703767673</v>
+        <v>0.016906322104199973</v>
       </c>
       <c r="ES3">
-        <v>-0.012553925478837241</v>
+        <v>0.089156411866823382</v>
       </c>
       <c r="ET3">
-        <v>0.022464673162549346</v>
+        <v>0.039860606855443154</v>
       </c>
       <c r="EU3">
-        <v>-0.00079897109535725496</v>
+        <v>0.065846054280633892</v>
       </c>
       <c r="EV3">
-        <v>-0.022661887128649239</v>
+        <v>0.011015135715324155</v>
       </c>
       <c r="EW3">
-        <v>0.0055121908144502765</v>
+        <v>0.070020824303523216</v>
       </c>
       <c r="EX3">
-        <v>-0.031466947290997943</v>
+        <v>0.076369343187928221</v>
       </c>
       <c r="EY3">
-        <v>-0.0065263295815795562</v>
+        <v>0.039299792881507957</v>
       </c>
       <c r="EZ3">
-        <v>-0.029456195878637154</v>
+        <v>0.012526709750224716</v>
       </c>
       <c r="FA3">
-        <v>-0.039025320259009649</v>
+        <v>0.059441921083077692</v>
       </c>
       <c r="FB3">
-        <v>-0.046438094725196388</v>
+        <v>0.054127461854632831</v>
       </c>
       <c r="FC3">
-        <v>-0.0038413951095403326</v>
+        <v>0.035848780015899591</v>
       </c>
       <c r="FD3">
-        <v>-0.025713686416887527</v>
+        <v>0.065423650281083823</v>
       </c>
       <c r="FE3">
-        <v>-0.023139565806614654</v>
+        <v>0.078544224318255265</v>
       </c>
       <c r="FF3">
-        <v>0.012314543357686922</v>
+        <v>0.045929090475182836</v>
       </c>
       <c r="FG3">
-        <v>-0.016419651861022507</v>
+        <v>0.032250020666131737</v>
       </c>
       <c r="FH3">
-        <v>-0.016644140220784507</v>
+        <v>0.031069571741201066</v>
       </c>
       <c r="FI3">
-        <v>0.01717813719488186</v>
+        <v>-0.0015853848467512091</v>
       </c>
       <c r="FJ3">
-        <v>-0.010833024802816513</v>
+        <v>0.044164057419228561</v>
       </c>
       <c r="FK3">
-        <v>0.016160420000660536</v>
+        <v>-0.014992062854864874</v>
       </c>
       <c r="FL3">
-        <v>-0.0021629004057257002</v>
+        <v>0.027248692666454962</v>
       </c>
       <c r="FM3">
-        <v>-0.02107668842584709</v>
+        <v>0.051808517180760544</v>
       </c>
       <c r="FN3">
-        <v>-0.046576066806184417</v>
+        <v>0.039681634223112348</v>
       </c>
       <c r="FO3">
-        <v>0.014542679517835186</v>
+        <v>0.029680788548292352</v>
       </c>
       <c r="FP3">
-        <v>0.0058820403099501756</v>
+        <v>0.0064920233418086721</v>
       </c>
       <c r="FQ3">
-        <v>0.013329481431561652</v>
+        <v>0.042955126306253179</v>
       </c>
       <c r="FR3">
-        <v>-0.012471451806377192</v>
+        <v>0.063857548412562429</v>
       </c>
       <c r="FS3">
-        <v>-0.013349461545773647</v>
+        <v>0.076557008722096975</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.501981235490585</v>
+        <v>-5.5513681958301131</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2248,526 +2248,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.021909281092731169</v>
+        <v>0.022280533995520248</v>
       </c>
       <c r="C4">
-        <v>0.012215080468331654</v>
+        <v>0.012234174695470968</v>
       </c>
       <c r="D4">
-        <v>0.013763840860840858</v>
+        <v>0.013782291754751937</v>
       </c>
       <c r="E4">
-        <v>0.013470512089848605</v>
+        <v>0.013541421865732735</v>
       </c>
       <c r="F4">
-        <v>0.01356433500166942</v>
+        <v>0.013508804967903817</v>
       </c>
       <c r="G4">
-        <v>0.016057871369671049</v>
+        <v>0.016096872659461178</v>
       </c>
       <c r="H4">
-        <v>0.019092472681078426</v>
+        <v>0.019041837483714005</v>
       </c>
       <c r="I4">
-        <v>0.015233989868067767</v>
+        <v>0.015322190860850581</v>
       </c>
       <c r="J4">
-        <v>0.012638584167905371</v>
+        <v>0.01257771799869469</v>
       </c>
       <c r="K4">
-        <v>0.010324370239452565</v>
+        <v>0.010383996528120828</v>
       </c>
       <c r="L4">
-        <v>0.010534038260415919</v>
+        <v>0.010535827240563104</v>
       </c>
       <c r="M4">
-        <v>0.010714363270728524</v>
+        <v>0.010708061283027153</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.021879439128762918</v>
+        <v>0.022156095519416108</v>
       </c>
       <c r="P4">
-        <v>0.021652470973517867</v>
+        <v>0.021984713761602999</v>
       </c>
       <c r="Q4">
-        <v>0.027407619029258423</v>
+        <v>0.027510138613392607</v>
       </c>
       <c r="R4">
-        <v>0.027240385680709085</v>
+        <v>0.027794482791423762</v>
       </c>
       <c r="S4">
-        <v>0.027315042274014802</v>
+        <v>0.027694097544401993</v>
       </c>
       <c r="T4">
-        <v>0.027529100819534431</v>
+        <v>0.027404086293572407</v>
       </c>
       <c r="U4">
-        <v>0.027442940864606323</v>
+        <v>0.027543931187604027</v>
       </c>
       <c r="V4">
-        <v>0.0271344653318795</v>
+        <v>0.027397561303601332</v>
       </c>
       <c r="W4">
-        <v>0.027173821762511149</v>
+        <v>0.027516871948259414</v>
       </c>
       <c r="X4">
-        <v>0.027156276794343823</v>
+        <v>0.027417172288907641</v>
       </c>
       <c r="Y4">
-        <v>0.027421707586474154</v>
+        <v>0.026997620476761582</v>
       </c>
       <c r="Z4">
-        <v>0.026691716868060097</v>
+        <v>0.027131887521577979</v>
       </c>
       <c r="AA4">
-        <v>0.026638533109430759</v>
+        <v>0.027150060679276888</v>
       </c>
       <c r="AB4">
-        <v>0.026619741360998907</v>
+        <v>0.027095827698540329</v>
       </c>
       <c r="AC4">
-        <v>0.02690910468450956</v>
+        <v>0.026993750913067011</v>
       </c>
       <c r="AD4">
-        <v>0.026619741302684293</v>
+        <v>0.027109805863972544</v>
       </c>
       <c r="AE4">
-        <v>0.026884710618504688</v>
+        <v>0.026989885780775966</v>
       </c>
       <c r="AF4">
-        <v>0.026606649856021094</v>
+        <v>0.026685599300747983</v>
       </c>
       <c r="AG4">
-        <v>0.026676435669695308</v>
+        <v>0.027005373073567918</v>
       </c>
       <c r="AH4">
-        <v>0.026634766304316888</v>
+        <v>0.026822267079150572</v>
       </c>
       <c r="AI4">
-        <v>0.026433921734228261</v>
+        <v>0.026805780386013368</v>
       </c>
       <c r="AJ4">
-        <v>0.026619741429254579</v>
+        <v>0.026776674156061539</v>
       </c>
       <c r="AK4">
-        <v>0.026588036476081142</v>
+        <v>0.02689280245053299</v>
       </c>
       <c r="AL4">
-        <v>0.026549284833200824</v>
+        <v>0.02689467912472791</v>
       </c>
       <c r="AM4">
-        <v>0.02636730944931788</v>
+        <v>0.026671543230755712</v>
       </c>
       <c r="AN4">
-        <v>0.026433921707655097</v>
+        <v>0.02655618922143357</v>
       </c>
       <c r="AO4">
-        <v>0.026446343136886895</v>
+        <v>0.026710346203513136</v>
       </c>
       <c r="AP4">
-        <v>0.026460597331610717</v>
+        <v>0.0266384047005464</v>
       </c>
       <c r="AQ4">
-        <v>0.026425078331423869</v>
+        <v>0.026512532488198678</v>
       </c>
       <c r="AR4">
-        <v>0.026512796251004129</v>
+        <v>0.026578246430987464</v>
       </c>
       <c r="AS4">
-        <v>0.026558470424493559</v>
+        <v>0.026626281800610337</v>
       </c>
       <c r="AT4">
-        <v>0.026435693353124234</v>
+        <v>0.026805780472653792</v>
       </c>
       <c r="AU4">
-        <v>0.026211551539799139</v>
+        <v>0.026628010847750638</v>
       </c>
       <c r="AV4">
-        <v>0.02655847045059273</v>
+        <v>0.026926745773482155</v>
       </c>
       <c r="AW4">
-        <v>0.02626822857278582</v>
+        <v>0.026785742142298747</v>
       </c>
       <c r="AX4">
-        <v>0.026629124081317002</v>
+        <v>0.026669790622016028</v>
       </c>
       <c r="AY4">
-        <v>0.026741864800283358</v>
+        <v>0.026678563710777533</v>
       </c>
       <c r="AZ4">
-        <v>0.026446343338877788</v>
+        <v>0.026502543525573716</v>
       </c>
       <c r="BA4">
-        <v>0.02648029915296812</v>
+        <v>0.026547746651237419</v>
       </c>
       <c r="BB4">
-        <v>0.026478503172452726</v>
+        <v>0.026755013749867138</v>
       </c>
       <c r="BC4">
-        <v>0.026254801086120907</v>
+        <v>0.026574843087654142</v>
       </c>
       <c r="BD4">
-        <v>0.026507357874679761</v>
+        <v>0.026785742202443136</v>
       </c>
       <c r="BE4">
-        <v>0.026085046026577234</v>
+        <v>0.026323971843909857</v>
       </c>
       <c r="BF4">
-        <v>0.025974289877685179</v>
+        <v>0.026405971242372855</v>
       </c>
       <c r="BG4">
-        <v>0.026018536659015018</v>
+        <v>0.026469300454472166</v>
       </c>
       <c r="BH4">
-        <v>0.026052570305507079</v>
+        <v>0.026306079145490147</v>
       </c>
       <c r="BI4">
-        <v>0.026349616325903137</v>
+        <v>0.026307887071599721</v>
       </c>
       <c r="BJ4">
-        <v>0.02591491626941838</v>
+        <v>0.0263128906805132</v>
       </c>
       <c r="BK4">
-        <v>0.025991492860699579</v>
+        <v>0.026392299230467427</v>
       </c>
       <c r="BL4">
-        <v>0.025897398280844482</v>
+        <v>0.026336716615667478</v>
       </c>
       <c r="BM4">
-        <v>0.026088388567908679</v>
+        <v>0.026392331077358736</v>
       </c>
       <c r="BN4">
-        <v>0.026020499315176669</v>
+        <v>0.026392346298790503</v>
       </c>
       <c r="BO4">
-        <v>0.026334147297318811</v>
+        <v>0.026528980805071978</v>
       </c>
       <c r="BP4">
-        <v>0.025956882596667726</v>
+        <v>0.026425163349734399</v>
       </c>
       <c r="BQ4">
-        <v>0.026148729276103483</v>
+        <v>0.026300651641180447</v>
       </c>
       <c r="BR4">
-        <v>0.026126258482740642</v>
+        <v>0.026357718256646272</v>
       </c>
       <c r="BS4">
-        <v>0.026146880677202184</v>
+        <v>0.026387559274395483</v>
       </c>
       <c r="BT4">
-        <v>0.026577394386779675</v>
+        <v>0.026774603245158068</v>
       </c>
       <c r="BU4">
-        <v>0.026606067356194026</v>
+        <v>0.027149086027025742</v>
       </c>
       <c r="BV4">
-        <v>0.026509656535713376</v>
+        <v>0.026909816412557106</v>
       </c>
       <c r="BW4">
-        <v>0.027108989477713511</v>
+        <v>0.02729911274394916</v>
       </c>
       <c r="BX4">
-        <v>0.02693873300345077</v>
+        <v>0.027049676496961803</v>
       </c>
       <c r="BY4">
-        <v>0.027089408318309877</v>
+        <v>0.027569344261392154</v>
       </c>
       <c r="BZ4">
-        <v>0.024869005429433794</v>
+        <v>0.025115757478921953</v>
       </c>
       <c r="CA4">
-        <v>0.024822425321427803</v>
+        <v>0.025049987738842573</v>
       </c>
       <c r="CB4">
-        <v>0.024136130156101353</v>
+        <v>0.024134957302484519</v>
       </c>
       <c r="CC4">
-        <v>0.024021232833912689</v>
+        <v>0.024449404363995592</v>
       </c>
       <c r="CD4">
-        <v>0.02389226360238807</v>
+        <v>0.0241751673143214</v>
       </c>
       <c r="CE4">
-        <v>0.023661451064489619</v>
+        <v>0.023856667393733166</v>
       </c>
       <c r="CF4">
-        <v>0.023604968364917305</v>
+        <v>0.023963673543980175</v>
       </c>
       <c r="CG4">
-        <v>0.02363335298916314</v>
+        <v>0.024117182703880975</v>
       </c>
       <c r="CH4">
-        <v>0.023714778513821498</v>
+        <v>0.024097980386357735</v>
       </c>
       <c r="CI4">
-        <v>0.023423714219650608</v>
+        <v>0.023698633564283953</v>
       </c>
       <c r="CJ4">
-        <v>0.023801164350841484</v>
+        <v>0.023897590637263565</v>
       </c>
       <c r="CK4">
-        <v>0.023768983524668982</v>
+        <v>0.023950828169371597</v>
       </c>
       <c r="CL4">
-        <v>0.023899986863999044</v>
+        <v>0.024051277848274735</v>
       </c>
       <c r="CM4">
-        <v>0.023867644932299367</v>
+        <v>0.02387586926631281</v>
       </c>
       <c r="CN4">
-        <v>0.023820047718603281</v>
+        <v>0.024247641286457722</v>
       </c>
       <c r="CO4">
-        <v>0.024153654558045495</v>
+        <v>0.024291906095262106</v>
       </c>
       <c r="CP4">
-        <v>0.023982545543095736</v>
+        <v>0.02414473101571861</v>
       </c>
       <c r="CQ4">
-        <v>0.024364049467435811</v>
+        <v>0.024775121021380131</v>
       </c>
       <c r="CR4">
-        <v>0.024616130361918981</v>
+        <v>0.02461312030289323</v>
       </c>
       <c r="CS4">
-        <v>0.024443471652685414</v>
+        <v>0.024973344019456258</v>
       </c>
       <c r="CT4">
-        <v>0.021770674214555873</v>
+        <v>0.02209067087676897</v>
       </c>
       <c r="CU4">
-        <v>0.02164531414095637</v>
+        <v>0.022077022548119794</v>
       </c>
       <c r="CV4">
-        <v>0.021381165387474407</v>
+        <v>0.021608185846070854</v>
       </c>
       <c r="CW4">
-        <v>0.02143992219712576</v>
+        <v>0.021866494659015769</v>
       </c>
       <c r="CX4">
-        <v>0.021530241947557066</v>
+        <v>0.021546395832090906</v>
       </c>
       <c r="CY4">
-        <v>0.021054809427658465</v>
+        <v>0.02140981251898412</v>
       </c>
       <c r="CZ4">
-        <v>0.021103732305778344</v>
+        <v>0.021573669589574799</v>
       </c>
       <c r="DA4">
-        <v>0.021188151465175744</v>
+        <v>0.021471007291054885</v>
       </c>
       <c r="DB4">
-        <v>0.021195704716717736</v>
+        <v>0.021431479737373443</v>
       </c>
       <c r="DC4">
-        <v>0.021022300022544283</v>
+        <v>0.021459224108426052</v>
       </c>
       <c r="DD4">
-        <v>0.021281117938548578</v>
+        <v>0.021470397957042031</v>
       </c>
       <c r="DE4">
-        <v>0.021380748522368688</v>
+        <v>0.021576930445846281</v>
       </c>
       <c r="DF4">
-        <v>0.02139207787665668</v>
+        <v>0.021669312014456425</v>
       </c>
       <c r="DG4">
-        <v>0.021276476008116964</v>
+        <v>0.021669312063256424</v>
       </c>
       <c r="DH4">
-        <v>0.021262604196844601</v>
+        <v>0.021670909393683092</v>
       </c>
       <c r="DI4">
-        <v>0.021365047766588676</v>
+        <v>0.021634254501212799</v>
       </c>
       <c r="DJ4">
-        <v>0.021419554593375727</v>
+        <v>0.021656110580481329</v>
       </c>
       <c r="DK4">
-        <v>0.021450558340522098</v>
+        <v>0.021682925111708246</v>
       </c>
       <c r="DL4">
-        <v>0.021311754187727544</v>
+        <v>0.021750498257054825</v>
       </c>
       <c r="DM4">
-        <v>0.021518833416967455</v>
+        <v>0.0217052376768988</v>
       </c>
       <c r="DN4">
-        <v>0.020878896509593344</v>
+        <v>0.020915068010950343</v>
       </c>
       <c r="DO4">
-        <v>0.020805500887189538</v>
+        <v>0.021195158717094056</v>
       </c>
       <c r="DP4">
-        <v>0.020689332885836395</v>
+        <v>0.021139334011325211</v>
       </c>
       <c r="DQ4">
-        <v>0.020885996933389991</v>
+        <v>0.021174080680920377</v>
       </c>
       <c r="DR4">
-        <v>0.021145441350458316</v>
+        <v>0.021219971752319988</v>
       </c>
       <c r="DS4">
-        <v>0.020732481164371611</v>
+        <v>0.021212857859284638</v>
       </c>
       <c r="DT4">
-        <v>0.02090025619752971</v>
+        <v>0.021277602115091016</v>
       </c>
       <c r="DU4">
-        <v>0.020916391786592738</v>
+        <v>0.021353360106996129</v>
       </c>
       <c r="DV4">
-        <v>0.021034088528681189</v>
+        <v>0.021165349607817185</v>
       </c>
       <c r="DW4">
-        <v>0.021077695420353891</v>
+        <v>0.021139334394696084</v>
       </c>
       <c r="DX4">
-        <v>0.021002309990313883</v>
+        <v>0.021246826106033817</v>
       </c>
       <c r="DY4">
-        <v>0.021180953180288821</v>
+        <v>0.021454634257742463</v>
       </c>
       <c r="DZ4">
-        <v>0.021122022628712416</v>
+        <v>0.021301386087763698</v>
       </c>
       <c r="EA4">
-        <v>0.021123966563513605</v>
+        <v>0.021513707318360002</v>
       </c>
       <c r="EB4">
-        <v>0.021178968301795283</v>
+        <v>0.021484008946353276</v>
       </c>
       <c r="EC4">
-        <v>0.021372090582320064</v>
+        <v>0.021312437010607831</v>
       </c>
       <c r="ED4">
-        <v>0.021127858681439841</v>
+        <v>0.021503771679716257</v>
       </c>
       <c r="EE4">
-        <v>0.021131756295327812</v>
+        <v>0.021410210501554269</v>
       </c>
       <c r="EF4">
-        <v>0.021098804840552515</v>
+        <v>0.021372175124135289</v>
       </c>
       <c r="EG4">
-        <v>0.021087270401837319</v>
+        <v>0.021499807727321216</v>
       </c>
       <c r="EH4">
-        <v>0.021104590787268038</v>
+        <v>0.021531684490905201</v>
       </c>
       <c r="EI4">
-        <v>0.021218945421076017</v>
+        <v>0.02149980783925937</v>
       </c>
       <c r="EJ4">
-        <v>0.021157228114515682</v>
+        <v>0.021733296684549364</v>
       </c>
       <c r="EK4">
-        <v>0.021290331298465619</v>
+        <v>0.021584294741716522</v>
       </c>
       <c r="EL4">
-        <v>0.021527273881671055</v>
+        <v>0.021646279942294025</v>
       </c>
       <c r="EM4">
-        <v>0.021443172215267179</v>
+        <v>0.021437163557919952</v>
       </c>
       <c r="EN4">
-        <v>0.021245245869223755</v>
+        <v>0.021733296902592222</v>
       </c>
       <c r="EO4">
-        <v>0.021478284300552188</v>
+        <v>0.021739771525256843</v>
       </c>
       <c r="EP4">
-        <v>0.021311069187712927</v>
+        <v>0.021559887361024457</v>
       </c>
       <c r="EQ4">
-        <v>0.021438813578303358</v>
+        <v>0.021707547013816896</v>
       </c>
       <c r="ER4">
-        <v>0.021487130001752147</v>
+        <v>0.02192040432289432</v>
       </c>
       <c r="ES4">
-        <v>0.02155661742506166</v>
+        <v>0.021580212113552297</v>
       </c>
       <c r="ET4">
-        <v>0.021399881121148639</v>
+        <v>0.021845431112743428</v>
       </c>
       <c r="EU4">
-        <v>0.02153852514712017</v>
+        <v>0.021735453834566452</v>
       </c>
       <c r="EV4">
-        <v>0.021672302245619689</v>
+        <v>0.02203542245386108</v>
       </c>
       <c r="EW4">
-        <v>0.021547557381874971</v>
+        <v>0.021754937442894036</v>
       </c>
       <c r="EX4">
-        <v>0.021760916055783286</v>
+        <v>0.021744096711886991</v>
       </c>
       <c r="EY4">
-        <v>0.021651140876081026</v>
+        <v>0.021952807903137913</v>
       </c>
       <c r="EZ4">
-        <v>0.021792683037067571</v>
+        <v>0.022113032763761826</v>
       </c>
       <c r="FA4">
-        <v>0.021864771769253</v>
+        <v>0.021890636812430961</v>
       </c>
       <c r="FB4">
-        <v>0.02192574555946462</v>
+        <v>0.021938876771938724</v>
       </c>
       <c r="FC4">
-        <v>0.021719875235942699</v>
+        <v>0.022054636092514356</v>
       </c>
       <c r="FD4">
-        <v>0.021857234813367134</v>
+        <v>0.021922707577652207</v>
       </c>
       <c r="FE4">
-        <v>0.021864771991238773</v>
+        <v>0.021877000736920987</v>
       </c>
       <c r="FF4">
-        <v>0.021698373626312589</v>
+        <v>0.022066708120336589</v>
       </c>
       <c r="FG4">
-        <v>0.021872327861936908</v>
+        <v>0.022160086707074755</v>
       </c>
       <c r="FH4">
-        <v>0.021895107688398096</v>
+        <v>0.022187668197820601</v>
       </c>
       <c r="FI4">
-        <v>0.021736706862756951</v>
+        <v>0.022385357624247364</v>
       </c>
       <c r="FJ4">
-        <v>0.021907836678264819</v>
+        <v>0.02216008687849132</v>
       </c>
       <c r="FK4">
-        <v>0.021785323112077697</v>
+        <v>0.022503044061826676</v>
       </c>
       <c r="FL4">
-        <v>0.021905286805286493</v>
+        <v>0.022292735207620248</v>
       </c>
       <c r="FM4">
-        <v>0.022030119978616342</v>
+        <v>0.022182634919328884</v>
       </c>
       <c r="FN4">
-        <v>0.022193482520427847</v>
+        <v>0.022269360503686952</v>
       </c>
       <c r="FO4">
-        <v>0.021879902800801279</v>
+        <v>0.022345323174416599</v>
       </c>
       <c r="FP4">
-        <v>0.021948926460355008</v>
+        <v>0.022494689717847825</v>
       </c>
       <c r="FQ4">
-        <v>0.021930882561742346</v>
+        <v>0.022316289268398019</v>
       </c>
       <c r="FR4">
-        <v>0.022094458443100713</v>
+        <v>0.022225689248903117</v>
       </c>
       <c r="FS4">
-        <v>0.022121657756931194</v>
+        <v>0.022180121642785697</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015605972184672469</v>
+        <v>0.015996427248878408</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3880,526 +3880,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.0025622891665721451</v>
+        <v>0.0057128317526568342</v>
       </c>
       <c r="C3">
-        <v>-0.64308970255587827</v>
+        <v>-0.62906185751690957</v>
       </c>
       <c r="D3">
-        <v>-0.65322977510472768</v>
+        <v>-0.66618793505793428</v>
       </c>
       <c r="E3">
-        <v>-0.67750812566021967</v>
+        <v>-0.6631988680429094</v>
       </c>
       <c r="F3">
-        <v>-0.69039647861084696</v>
+        <v>-0.6750528293497845</v>
       </c>
       <c r="G3">
-        <v>-0.68022602237466223</v>
+        <v>-0.68493137064195453</v>
       </c>
       <c r="H3">
-        <v>-0.70606517564221483</v>
+        <v>-0.6610848030123202</v>
       </c>
       <c r="I3">
-        <v>-0.00026882147039241575</v>
+        <v>0.0012214615023713046</v>
       </c>
       <c r="J3">
-        <v>-0.0015258349062261642</v>
+        <v>-0.0080679077210301792</v>
       </c>
       <c r="K3">
-        <v>-0.0012872811962941879</v>
+        <v>-0.0015122731531431515</v>
       </c>
       <c r="L3">
-        <v>0.00049706010766450471</v>
+        <v>0.0042055953956843303</v>
       </c>
       <c r="M3">
-        <v>0.0019333386020427275</v>
+        <v>0.0019207079580928167</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1891553474940237</v>
+        <v>1.2395855493894323</v>
       </c>
       <c r="P3">
-        <v>1.3137418042731892</v>
+        <v>1.3371788955424606</v>
       </c>
       <c r="Q3">
-        <v>-0.21484176880592837</v>
+        <v>-0.14285824122464977</v>
       </c>
       <c r="R3">
-        <v>-0.22973190830686124</v>
+        <v>-0.23666174182332106</v>
       </c>
       <c r="S3">
-        <v>-0.18383695755976401</v>
+        <v>-0.15298877640644187</v>
       </c>
       <c r="T3">
-        <v>-0.23318757697468523</v>
+        <v>-0.17101032057160642</v>
       </c>
       <c r="U3">
-        <v>-0.21403077978942803</v>
+        <v>-0.16002343559864896</v>
       </c>
       <c r="V3">
-        <v>-0.18106265282084774</v>
+        <v>-0.1058753642876861</v>
       </c>
       <c r="W3">
-        <v>-0.15203716061128156</v>
+        <v>-0.13124035465080822</v>
       </c>
       <c r="X3">
-        <v>-0.15360065510956719</v>
+        <v>-0.13739081514011128</v>
       </c>
       <c r="Y3">
-        <v>-0.15346798130059652</v>
+        <v>-0.10510162321392445</v>
       </c>
       <c r="Z3">
-        <v>-0.097077132838761987</v>
+        <v>-0.08783742149726681</v>
       </c>
       <c r="AA3">
-        <v>-0.081943750591630352</v>
+        <v>-0.073066960281515256</v>
       </c>
       <c r="AB3">
-        <v>-0.085412713575700142</v>
+        <v>-0.072454131331706376</v>
       </c>
       <c r="AC3">
-        <v>-0.12008313684948756</v>
+        <v>-0.081423635935168243</v>
       </c>
       <c r="AD3">
-        <v>-0.073858687407227286</v>
+        <v>-0.069932299150061508</v>
       </c>
       <c r="AE3">
-        <v>-0.094106821797928966</v>
+        <v>-0.052663519739333073</v>
       </c>
       <c r="AF3">
-        <v>-0.066411349101048192</v>
+        <v>0.017522566599912741</v>
       </c>
       <c r="AG3">
-        <v>-0.088842292539857426</v>
+        <v>-0.014211962847193576</v>
       </c>
       <c r="AH3">
-        <v>-0.079742569244166395</v>
+        <v>-0.042024147708809058</v>
       </c>
       <c r="AI3">
-        <v>-0.035050410041709681</v>
+        <v>-0.015516921183015352</v>
       </c>
       <c r="AJ3">
-        <v>-0.0485853548667299</v>
+        <v>-0.01284818874777143</v>
       </c>
       <c r="AK3">
-        <v>-0.065275757444401131</v>
+        <v>-0.0067241956529738873</v>
       </c>
       <c r="AL3">
-        <v>-0.041075789587284008</v>
+        <v>-0.019491979839687614</v>
       </c>
       <c r="AM3">
-        <v>-0.00057425971180104891</v>
+        <v>0.026374238373392016</v>
       </c>
       <c r="AN3">
-        <v>-0.019466445799725573</v>
+        <v>0.047782366588709518</v>
       </c>
       <c r="AO3">
-        <v>-0.025404631184500918</v>
+        <v>0.025489980618030043</v>
       </c>
       <c r="AP3">
-        <v>-0.0057628462368613268</v>
+        <v>0.027920921590354145</v>
       </c>
       <c r="AQ3">
-        <v>0.0033663528590613537</v>
+        <v>0.04491829920906084</v>
       </c>
       <c r="AR3">
-        <v>0.0030923333044387078</v>
+        <v>0.028236645063013047</v>
       </c>
       <c r="AS3">
-        <v>-0.053886983838566362</v>
+        <v>0.058807767379665483</v>
       </c>
       <c r="AT3">
-        <v>-0.010808464072422874</v>
+        <v>0.01335493297226031</v>
       </c>
       <c r="AU3">
-        <v>0.011829930978646113</v>
+        <v>0.02912528427268004</v>
       </c>
       <c r="AV3">
-        <v>-0.031572332408132203</v>
+        <v>-0.055729945791948191</v>
       </c>
       <c r="AW3">
-        <v>0.02212492269819491</v>
+        <v>0.039983826845384089</v>
       </c>
       <c r="AX3">
-        <v>-0.020029620639766283</v>
+        <v>0.061567587989093175</v>
       </c>
       <c r="AY3">
-        <v>-0.019186276985164112</v>
+        <v>0.060156883182811427</v>
       </c>
       <c r="AZ3">
-        <v>0.02611571389072426</v>
+        <v>0.079409225236828376</v>
       </c>
       <c r="BA3">
-        <v>-0.0039027475589165101</v>
+        <v>0.083726576019324442</v>
       </c>
       <c r="BB3">
-        <v>0.013093796067540625</v>
+        <v>0.032477464256152597</v>
       </c>
       <c r="BC3">
-        <v>0.016496772954741331</v>
+        <v>0.075009517111888177</v>
       </c>
       <c r="BD3">
-        <v>0.038731973636421974</v>
+        <v>0.04493654450504804</v>
       </c>
       <c r="BE3">
-        <v>0.013826385425069684</v>
+        <v>0.0758043589510181</v>
       </c>
       <c r="BF3">
-        <v>0.041935470877852418</v>
+        <v>0.031841044583411533</v>
       </c>
       <c r="BG3">
-        <v>0.057933205829386783</v>
+        <v>0.021930118435058953</v>
       </c>
       <c r="BH3">
-        <v>0.055741648463480058</v>
+        <v>0.063151401232438148</v>
       </c>
       <c r="BI3">
-        <v>-0.0025684561134160359</v>
+        <v>0.085706268130398888</v>
       </c>
       <c r="BJ3">
-        <v>0.03721302841522215</v>
+        <v>0.056819359021955743</v>
       </c>
       <c r="BK3">
-        <v>0.04157572567759172</v>
+        <v>0.070115232413357362</v>
       </c>
       <c r="BL3">
-        <v>0.041983626323786903</v>
+        <v>0.067418080957667034</v>
       </c>
       <c r="BM3">
-        <v>0.0276031815411403</v>
+        <v>0.056292378974188109</v>
       </c>
       <c r="BN3">
-        <v>0.042146364369360687</v>
+        <v>0.021903766127274623</v>
       </c>
       <c r="BO3">
-        <v>0.00052535262806971742</v>
+        <v>0.051817504698841034</v>
       </c>
       <c r="BP3">
-        <v>0.076131219170706421</v>
+        <v>0.053053722047055191</v>
       </c>
       <c r="BQ3">
-        <v>0.040847341927099788</v>
+        <v>0.038701678353505443</v>
       </c>
       <c r="BR3">
-        <v>0.027513558013025494</v>
+        <v>0.052966533850078934</v>
       </c>
       <c r="BS3">
-        <v>0.025631758147047448</v>
+        <v>0.057998197430390731</v>
       </c>
       <c r="BT3">
-        <v>0.018971736242278416</v>
+        <v>0.073686361181318549</v>
       </c>
       <c r="BU3">
-        <v>0.019886772030771667</v>
+        <v>0.04296610439813954</v>
       </c>
       <c r="BV3">
-        <v>0.015689674933851476</v>
+        <v>0.032161346656216727</v>
       </c>
       <c r="BW3">
-        <v>0.024256575712575116</v>
+        <v>0.083641675943190233</v>
       </c>
       <c r="BX3">
-        <v>0.039422341221280632</v>
+        <v>0.076845588337515786</v>
       </c>
       <c r="BY3">
-        <v>0.034800845983715627</v>
+        <v>0.052964241894965972</v>
       </c>
       <c r="BZ3">
-        <v>0.021306723731239693</v>
+        <v>0.080675454621839213</v>
       </c>
       <c r="CA3">
-        <v>0.028643326136167001</v>
+        <v>0.097472100069154716</v>
       </c>
       <c r="CB3">
-        <v>-0.0078182217467104038</v>
+        <v>0.1019167951362898</v>
       </c>
       <c r="CC3">
-        <v>0.041280987769949151</v>
+        <v>0.033888365050240891</v>
       </c>
       <c r="CD3">
-        <v>0.0067665120087873872</v>
+        <v>0.048884318330163844</v>
       </c>
       <c r="CE3">
-        <v>0.036618278277401557</v>
+        <v>0.091717136336451233</v>
       </c>
       <c r="CF3">
-        <v>0.041732686754347451</v>
+        <v>0.064489722549958856</v>
       </c>
       <c r="CG3">
-        <v>0.004539327942138508</v>
+        <v>0.03427588501185333</v>
       </c>
       <c r="CH3">
-        <v>0.0073334744853546865</v>
+        <v>0.035704786799524123</v>
       </c>
       <c r="CI3">
-        <v>0.021285038307453551</v>
+        <v>0.049159913131508456</v>
       </c>
       <c r="CJ3">
-        <v>0.038416074590537919</v>
+        <v>0.09393525722289682</v>
       </c>
       <c r="CK3">
-        <v>0.032962275035975118</v>
+        <v>0.086402592309433021</v>
       </c>
       <c r="CL3">
-        <v>-0.0022026483145735111</v>
+        <v>0.035936661970496546</v>
       </c>
       <c r="CM3">
-        <v>0.025493145963121123</v>
+        <v>0.094950112293742561</v>
       </c>
       <c r="CN3">
-        <v>0.013420062891826802</v>
+        <v>0.021472976401021887</v>
       </c>
       <c r="CO3">
-        <v>-0.014833792677596436</v>
+        <v>0.021767408345518022</v>
       </c>
       <c r="CP3">
-        <v>0.013200201485878183</v>
+        <v>0.086821134651166268</v>
       </c>
       <c r="CQ3">
-        <v>0.029221007130787999</v>
+        <v>0.0091632050314219456</v>
       </c>
       <c r="CR3">
-        <v>-0.010098298578799167</v>
+        <v>0.061769224077244313</v>
       </c>
       <c r="CS3">
-        <v>0.050589474577211538</v>
+        <v>0.044554559832340225</v>
       </c>
       <c r="CT3">
-        <v>0.025950008419243827</v>
+        <v>0.068335142264695045</v>
       </c>
       <c r="CU3">
-        <v>0.056483230532259017</v>
+        <v>0.067641721458421816</v>
       </c>
       <c r="CV3">
-        <v>0.026779383111539649</v>
+        <v>0.10335852487775182</v>
       </c>
       <c r="CW3">
-        <v>0.021215778381087957</v>
+        <v>0.038494143743000336</v>
       </c>
       <c r="CX3">
-        <v>-0.003624963965088102</v>
+        <v>0.121279490409582</v>
       </c>
       <c r="CY3">
-        <v>0.0358237627940379</v>
+        <v>0.083729651514919456</v>
       </c>
       <c r="CZ3">
-        <v>0.046123411879201236</v>
+        <v>0.041000171303448435</v>
       </c>
       <c r="DA3">
-        <v>0.022850258777227829</v>
+        <v>0.08574488828949485</v>
       </c>
       <c r="DB3">
-        <v>0.017717527980275104</v>
+        <v>0.080816845828266842</v>
       </c>
       <c r="DC3">
-        <v>0.070185978493812931</v>
+        <v>0.080255884029897404</v>
       </c>
       <c r="DD3">
-        <v>0.011917569222882335</v>
+        <v>0.093911254096693972</v>
       </c>
       <c r="DE3">
-        <v>-0.008628890608379897</v>
+        <v>0.064546844771184303</v>
       </c>
       <c r="DF3">
-        <v>0.00099906630711779632</v>
+        <v>0.028438855700497954</v>
       </c>
       <c r="DG3">
-        <v>0.027058551566292572</v>
+        <v>0.046840875540498698</v>
       </c>
       <c r="DH3">
-        <v>0.04167102871866523</v>
+        <v>0.047321747692876177</v>
       </c>
       <c r="DI3">
-        <v>0.017038759065760314</v>
+        <v>0.0669269091179749</v>
       </c>
       <c r="DJ3">
-        <v>0.015573108550168278</v>
+        <v>0.071640599290041115</v>
       </c>
       <c r="DK3">
-        <v>0.011145348694186858</v>
+        <v>0.074212644938234193</v>
       </c>
       <c r="DL3">
-        <v>0.041674183114403789</v>
+        <v>0.060696053879310617</v>
       </c>
       <c r="DM3">
-        <v>0.0022314518282557337</v>
+        <v>0.071771080440744039</v>
       </c>
       <c r="DN3">
-        <v>-0.00049165967242576804</v>
+        <v>0.10572262865388229</v>
       </c>
       <c r="DO3">
-        <v>0.019656799755693014</v>
+        <v>0.046975111894961043</v>
       </c>
       <c r="DP3">
-        <v>0.05029843237510017</v>
+        <v>0.06801522180376092</v>
       </c>
       <c r="DQ3">
-        <v>0.011139891632451835</v>
+        <v>0.064477848810202992</v>
       </c>
       <c r="DR3">
-        <v>-0.039893840022583928</v>
+        <v>0.058531584431217275</v>
       </c>
       <c r="DS3">
-        <v>0.052867811841117718</v>
+        <v>0.060926871255585789</v>
       </c>
       <c r="DT3">
-        <v>0.020287016511983533</v>
+        <v>0.050955610265204947</v>
       </c>
       <c r="DU3">
-        <v>0.020963017908130526</v>
+        <v>0.038739415368226754</v>
       </c>
       <c r="DV3">
-        <v>-5.6628849525290948e-05</v>
+        <v>0.083638350886328719</v>
       </c>
       <c r="DW3">
-        <v>-0.0051820859323697859</v>
+        <v>0.093623152979635665</v>
       </c>
       <c r="DX3">
-        <v>0.013952140546139359</v>
+        <v>0.071405455315666513</v>
       </c>
       <c r="DY3">
-        <v>-0.019415129616511283</v>
+        <v>0.031120635883354127</v>
       </c>
       <c r="DZ3">
-        <v>-0.0031510195862396438</v>
+        <v>0.067787614760467921</v>
       </c>
       <c r="EA3">
-        <v>0.00051804288379663952</v>
+        <v>0.026948006314639887</v>
       </c>
       <c r="EB3">
-        <v>-0.0068297960552549507</v>
+        <v>0.037154492237597911</v>
       </c>
       <c r="EC3">
-        <v>-0.04286942451274621</v>
+        <v>0.078772550039029984</v>
       </c>
       <c r="ED3">
-        <v>0.011056572066737165</v>
+        <v>0.042426951514060895</v>
       </c>
       <c r="EE3">
-        <v>0.014379768996594993</v>
+        <v>0.066162428447353067</v>
       </c>
       <c r="EF3">
-        <v>0.025422950461175348</v>
+        <v>0.078407467203432307</v>
       </c>
       <c r="EG3">
-        <v>0.032041029264540374</v>
+        <v>0.055688533279401244</v>
       </c>
       <c r="EH3">
-        <v>0.033598125225884332</v>
+        <v>0.054127306029443024</v>
       </c>
       <c r="EI3">
-        <v>0.014081519572666517</v>
+        <v>0.064872773243641671</v>
       </c>
       <c r="EJ3">
-        <v>0.030987073244003988</v>
+        <v>0.021167680699216453</v>
       </c>
       <c r="EK3">
-        <v>0.0078377429853593635</v>
+        <v>0.055475069006784103</v>
       </c>
       <c r="EL3">
-        <v>-0.035377709295342723</v>
+        <v>0.046881315748218515</v>
       </c>
       <c r="EM3">
-        <v>-0.014827399306661649</v>
+        <v>0.094334572668344024</v>
       </c>
       <c r="EN3">
-        <v>0.02913416159720713</v>
+        <v>0.037603966128098902</v>
       </c>
       <c r="EO3">
-        <v>-0.013551395827774889</v>
+        <v>0.040340846213099114</v>
       </c>
       <c r="EP3">
-        <v>0.023957048964907898</v>
+        <v>0.081066575634955187</v>
       </c>
       <c r="EQ3">
-        <v>0.00249162885197335</v>
+        <v>0.055103701503608715</v>
       </c>
       <c r="ER3">
-        <v>-0.0029834985703767612</v>
+        <v>0.016906322104199376</v>
       </c>
       <c r="ES3">
-        <v>-0.012553925478837089</v>
+        <v>0.08915641186682316</v>
       </c>
       <c r="ET3">
-        <v>0.022464673162548986</v>
+        <v>0.039860606855443334</v>
       </c>
       <c r="EU3">
-        <v>-0.00079897109535775261</v>
+        <v>0.06584605428063392</v>
       </c>
       <c r="EV3">
-        <v>-0.02266188712864918</v>
+        <v>0.011015135715323889</v>
       </c>
       <c r="EW3">
-        <v>0.0055121908144500197</v>
+        <v>0.070020824303523035</v>
       </c>
       <c r="EX3">
-        <v>-0.031466947290997853</v>
+        <v>0.07636934318792879</v>
       </c>
       <c r="EY3">
-        <v>-0.006526329581579309</v>
+        <v>0.039299792881507721</v>
       </c>
       <c r="EZ3">
-        <v>-0.029456195878636661</v>
+        <v>0.012526709750225211</v>
       </c>
       <c r="FA3">
-        <v>-0.039025320259009545</v>
+        <v>0.059441921083077255</v>
       </c>
       <c r="FB3">
-        <v>-0.04643809472519695</v>
+        <v>0.054127461854632831</v>
       </c>
       <c r="FC3">
-        <v>-0.0038413951095405</v>
+        <v>0.035848780015899299</v>
       </c>
       <c r="FD3">
-        <v>-0.025713686416887076</v>
+        <v>0.065423650281083351</v>
       </c>
       <c r="FE3">
-        <v>-0.023139565806615383</v>
+        <v>0.078544224318255002</v>
       </c>
       <c r="FF3">
-        <v>0.012314543357686641</v>
+        <v>0.045929090475182906</v>
       </c>
       <c r="FG3">
-        <v>-0.016419651861022365</v>
+        <v>0.032250020666131654</v>
       </c>
       <c r="FH3">
-        <v>-0.016644140220784497</v>
+        <v>0.031069571741200952</v>
       </c>
       <c r="FI3">
-        <v>0.017178137194881659</v>
+        <v>-0.0015853848467511774</v>
       </c>
       <c r="FJ3">
-        <v>-0.010833024802816801</v>
+        <v>0.04416405741922793</v>
       </c>
       <c r="FK3">
-        <v>0.01616042000066038</v>
+        <v>-0.014992062854865002</v>
       </c>
       <c r="FL3">
-        <v>-0.0021629004057261586</v>
+        <v>0.027248692666454681</v>
       </c>
       <c r="FM3">
-        <v>-0.021076688425846583</v>
+        <v>0.051808517180761092</v>
       </c>
       <c r="FN3">
-        <v>-0.046576066806184528</v>
+        <v>0.039681634223111911</v>
       </c>
       <c r="FO3">
-        <v>0.014542679517835444</v>
+        <v>0.029680788548292477</v>
       </c>
       <c r="FP3">
-        <v>0.0058820403099499327</v>
+        <v>0.0064920233418084578</v>
       </c>
       <c r="FQ3">
-        <v>0.013329481431561175</v>
+        <v>0.042955126306253005</v>
       </c>
       <c r="FR3">
-        <v>-0.012471451806377529</v>
+        <v>0.063857548412562457</v>
       </c>
       <c r="FS3">
-        <v>-0.013349461545773296</v>
+        <v>0.07655700872209692</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.501981235490585</v>
+        <v>-5.5513681958301131</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4422,526 +4422,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.022970250047894464</v>
+        <v>0.023079738713095568</v>
       </c>
       <c r="C4">
-        <v>0.012706381490167118</v>
+        <v>0.01268723043388304</v>
       </c>
       <c r="D4">
-        <v>0.014259880661483234</v>
+        <v>0.014295619829982264</v>
       </c>
       <c r="E4">
-        <v>0.014049079025219235</v>
+        <v>0.013974174108816836</v>
       </c>
       <c r="F4">
-        <v>0.014116198335513783</v>
+        <v>0.014085055306626326</v>
       </c>
       <c r="G4">
-        <v>0.016657302341505215</v>
+        <v>0.016723424300094596</v>
       </c>
       <c r="H4">
-        <v>0.020001743794404409</v>
+        <v>0.019875229502837231</v>
       </c>
       <c r="I4">
-        <v>0.015984039340189712</v>
+        <v>0.015937757101288787</v>
       </c>
       <c r="J4">
-        <v>0.013193142004716647</v>
+        <v>0.013140093035436411</v>
       </c>
       <c r="K4">
-        <v>0.010827083687345723</v>
+        <v>0.010827278449335755</v>
       </c>
       <c r="L4">
-        <v>0.011039603658280779</v>
+        <v>0.011033950094648371</v>
       </c>
       <c r="M4">
-        <v>0.011208632343265983</v>
+        <v>0.011186000762127028</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0221778536238934</v>
+        <v>0.022414007838139103</v>
       </c>
       <c r="P4">
-        <v>0.021960435978502672</v>
+        <v>0.022249037134746612</v>
       </c>
       <c r="Q4">
-        <v>0.027623116038442055</v>
+        <v>0.027602846878884726</v>
       </c>
       <c r="R4">
-        <v>0.02773142761495543</v>
+        <v>0.028222372447339081</v>
       </c>
       <c r="S4">
-        <v>0.027446480355743184</v>
+        <v>0.027687980072986774</v>
       </c>
       <c r="T4">
-        <v>0.027777103906651755</v>
+        <v>0.027813885109573725</v>
       </c>
       <c r="U4">
-        <v>0.027662775274600763</v>
+        <v>0.027754880437638279</v>
       </c>
       <c r="V4">
-        <v>0.027461984682359192</v>
+        <v>0.027428260931496577</v>
       </c>
       <c r="W4">
-        <v>0.027290802938949088</v>
+        <v>0.02759638230947413</v>
       </c>
       <c r="X4">
-        <v>0.027312019871209844</v>
+        <v>0.027646249498999201</v>
       </c>
       <c r="Y4">
-        <v>0.027322676466599988</v>
+        <v>0.027457100725226374</v>
       </c>
       <c r="Z4">
-        <v>0.026989143477160131</v>
+        <v>0.027363236674900124</v>
       </c>
       <c r="AA4">
-        <v>0.026910620468251229</v>
+        <v>0.027285629903579488</v>
       </c>
       <c r="AB4">
-        <v>0.026942955738155423</v>
+        <v>0.027293508232074992</v>
       </c>
       <c r="AC4">
-        <v>0.02716409540899372</v>
+        <v>0.027359213437920207</v>
       </c>
       <c r="AD4">
-        <v>0.026897396551072077</v>
+        <v>0.027301404990479613</v>
       </c>
       <c r="AE4">
-        <v>0.027030083858377123</v>
+        <v>0.027209768488735568</v>
       </c>
       <c r="AF4">
-        <v>0.02687672177263033</v>
+        <v>0.026815251575988425</v>
       </c>
       <c r="AG4">
-        <v>0.027022247403397859</v>
+        <v>0.027008319015306672</v>
       </c>
       <c r="AH4">
-        <v>0.02697946860550476</v>
+        <v>0.027182950504310698</v>
       </c>
       <c r="AI4">
-        <v>0.026728347302003262</v>
+        <v>0.027039219028642026</v>
       </c>
       <c r="AJ4">
-        <v>0.02681914174185155</v>
+        <v>0.027035568457547277</v>
       </c>
       <c r="AK4">
-        <v>0.026929603361485664</v>
+        <v>0.027011939112668189</v>
       </c>
       <c r="AL4">
-        <v>0.026798949630571979</v>
+        <v>0.027098190479178066</v>
       </c>
       <c r="AM4">
-        <v>0.026577904188587142</v>
+        <v>0.026846054171088211</v>
       </c>
       <c r="AN4">
-        <v>0.026698045306583273</v>
+        <v>0.026737879702904029</v>
       </c>
       <c r="AO4">
-        <v>0.026744504972288016</v>
+        <v>0.02687542353369695</v>
       </c>
       <c r="AP4">
-        <v>0.026643510704000416</v>
+        <v>0.026873688386639942</v>
       </c>
       <c r="AQ4">
-        <v>0.02660364047099012</v>
+        <v>0.026789811064718758</v>
       </c>
       <c r="AR4">
-        <v>0.026617452018406821</v>
+        <v>0.026896319617774767</v>
       </c>
       <c r="AS4">
-        <v>0.026962123631933566</v>
+        <v>0.026736218856525017</v>
       </c>
       <c r="AT4">
-        <v>0.026721191965057661</v>
+        <v>0.027006510610711767</v>
       </c>
       <c r="AU4">
-        <v>0.026603640508451976</v>
+        <v>0.026927922740264995</v>
       </c>
       <c r="AV4">
-        <v>0.026867366694345494</v>
+        <v>0.027442650861551249</v>
       </c>
       <c r="AW4">
-        <v>0.02656937166854843</v>
+        <v>0.026889339056444174</v>
       </c>
       <c r="AX4">
-        <v>0.026824670409456904</v>
+        <v>0.026779692349578846</v>
       </c>
       <c r="AY4">
-        <v>0.026832056284109528</v>
+        <v>0.026799962676637878</v>
       </c>
       <c r="AZ4">
-        <v>0.026583034915968494</v>
+        <v>0.026704829545662386</v>
       </c>
       <c r="BA4">
-        <v>0.026767986412163852</v>
+        <v>0.026693344739409479</v>
       </c>
       <c r="BB4">
-        <v>0.026682117422079071</v>
+        <v>0.02699568074130556</v>
       </c>
       <c r="BC4">
-        <v>0.0266750634895777</v>
+        <v>0.02676625136660964</v>
       </c>
       <c r="BD4">
-        <v>0.026560862034378716</v>
+        <v>0.026949166262084417</v>
       </c>
       <c r="BE4">
-        <v>0.026715835838960936</v>
+        <v>0.026786434643128659</v>
       </c>
       <c r="BF4">
-        <v>0.026567667988227534</v>
+        <v>0.027050195591466011</v>
       </c>
       <c r="BG4">
-        <v>0.026490272385944147</v>
+        <v>0.027120581382058074</v>
       </c>
       <c r="BH4">
-        <v>0.026515301604762079</v>
+        <v>0.026894573185757852</v>
       </c>
       <c r="BI4">
-        <v>0.026863632117517092</v>
+        <v>0.026779692461530797</v>
       </c>
       <c r="BJ4">
-        <v>0.026645255712914706</v>
+        <v>0.026956278822064413</v>
       </c>
       <c r="BK4">
-        <v>0.026633061942751231</v>
+        <v>0.026892827587317026</v>
       </c>
       <c r="BL4">
-        <v>0.026643510921095289</v>
+        <v>0.026920872942015762</v>
       </c>
       <c r="BM4">
-        <v>0.026739110400361255</v>
+        <v>0.026997483326101922</v>
       </c>
       <c r="BN4">
-        <v>0.026668025080781785</v>
+        <v>0.027211692651497307</v>
       </c>
       <c r="BO4">
-        <v>0.026923897448771092</v>
+        <v>0.027048363718430647</v>
       </c>
       <c r="BP4">
-        <v>0.026500260216217496</v>
+        <v>0.02705386270428544</v>
       </c>
       <c r="BQ4">
-        <v>0.026714052519356338</v>
+        <v>0.027150674384436198</v>
       </c>
       <c r="BR4">
-        <v>0.026804444577431665</v>
+        <v>0.027079647755893409</v>
       </c>
       <c r="BS4">
-        <v>0.026828361480775657</v>
+        <v>0.027063048337566377</v>
       </c>
       <c r="BT4">
-        <v>0.026880471634117966</v>
+        <v>0.026984887116459192</v>
       </c>
       <c r="BU4">
-        <v>0.026887983356786289</v>
+        <v>0.027177232156785344</v>
       </c>
       <c r="BV4">
-        <v>0.026925798500552281</v>
+        <v>0.027254299955684236</v>
       </c>
       <c r="BW4">
-        <v>0.026887983377475017</v>
+        <v>0.026965191758249914</v>
       </c>
       <c r="BX4">
-        <v>0.02681178516493463</v>
+        <v>0.027017377173177475</v>
       </c>
       <c r="BY4">
-        <v>0.026479418469404287</v>
+        <v>0.026893522054990612</v>
       </c>
       <c r="BZ4">
-        <v>0.026574090922062248</v>
+        <v>0.026739594219268633</v>
       </c>
       <c r="CA4">
-        <v>0.02654288564476677</v>
+        <v>0.026653105606976663</v>
       </c>
       <c r="CB4">
-        <v>0.026779937125391812</v>
+        <v>0.026640162453336686</v>
       </c>
       <c r="CC4">
-        <v>0.026492804559501659</v>
+        <v>0.027065222568771412</v>
       </c>
       <c r="CD4">
-        <v>0.026735300099407645</v>
+        <v>0.026899572568456088</v>
       </c>
       <c r="CE4">
-        <v>0.026563968746013356</v>
+        <v>0.026652708747317514</v>
       </c>
       <c r="CF4">
-        <v>0.026546112281459207</v>
+        <v>0.026830680413685606</v>
       </c>
       <c r="CG4">
-        <v>0.026790116467143434</v>
+        <v>0.027031055454666233</v>
       </c>
       <c r="CH4">
-        <v>0.02678587830583995</v>
+        <v>0.027035319268300047</v>
       </c>
       <c r="CI4">
-        <v>0.026761116467316742</v>
+        <v>0.027024683385567752</v>
       </c>
       <c r="CJ4">
-        <v>0.026667889145567416</v>
+        <v>0.026763091547840876</v>
       </c>
       <c r="CK4">
-        <v>0.026715260209672621</v>
+        <v>0.026822202456911318</v>
       </c>
       <c r="CL4">
-        <v>0.026950891567259827</v>
+        <v>0.027149026484590801</v>
       </c>
       <c r="CM4">
-        <v>0.02678858613552474</v>
+        <v>0.026796501880118305</v>
       </c>
       <c r="CN4">
-        <v>0.02719768336178419</v>
+        <v>0.027649536114299874</v>
       </c>
       <c r="CO4">
-        <v>0.02738959911795617</v>
+        <v>0.027660841416898518</v>
       </c>
       <c r="CP4">
-        <v>0.027225481813926533</v>
+        <v>0.027268985199760204</v>
       </c>
       <c r="CQ4">
-        <v>0.027750314165130508</v>
+        <v>0.028217663165306904</v>
       </c>
       <c r="CR4">
-        <v>0.028009019838124632</v>
+        <v>0.027906525061262486</v>
       </c>
       <c r="CS4">
-        <v>0.027766574860726253</v>
+        <v>0.028269063438878455</v>
       </c>
       <c r="CT4">
-        <v>0.025456147060923629</v>
+        <v>0.025722732365869375</v>
       </c>
       <c r="CU4">
-        <v>0.025334536500985494</v>
+        <v>0.025740346153373984</v>
       </c>
       <c r="CV4">
-        <v>0.024582691482895186</v>
+        <v>0.024732546091903122</v>
       </c>
       <c r="CW4">
-        <v>0.024625027725545971</v>
+        <v>0.02505448879068051</v>
       </c>
       <c r="CX4">
-        <v>0.024595280183521705</v>
+        <v>0.02447208978890613</v>
       </c>
       <c r="CY4">
-        <v>0.024144280481447195</v>
+        <v>0.024373518990425894</v>
       </c>
       <c r="CZ4">
-        <v>0.024111954097772451</v>
+        <v>0.024598301837992817</v>
       </c>
       <c r="DA4">
-        <v>0.02424240382640416</v>
+        <v>0.024397337315435495</v>
       </c>
       <c r="DB4">
-        <v>0.024285075936596078</v>
+        <v>0.024438180640086224</v>
       </c>
       <c r="DC4">
-        <v>0.023758585266139554</v>
+        <v>0.024173686684386027</v>
       </c>
       <c r="DD4">
-        <v>0.024416791292023107</v>
+        <v>0.024469691036893247</v>
       </c>
       <c r="DE4">
-        <v>0.024537922733158576</v>
+        <v>0.02462946220060145</v>
       </c>
       <c r="DF4">
-        <v>0.024506408964438942</v>
+        <v>0.024827140873029934</v>
       </c>
       <c r="DG4">
-        <v>0.024392983290462356</v>
+        <v>0.024751595802082957</v>
       </c>
       <c r="DH4">
-        <v>0.024256741252783719</v>
+        <v>0.024715286220192093</v>
       </c>
       <c r="DI4">
-        <v>0.024605812391666471</v>
+        <v>0.02485902159437162</v>
       </c>
       <c r="DJ4">
-        <v>0.024631102413199407</v>
+        <v>0.024853530362532971</v>
       </c>
       <c r="DK4">
-        <v>0.025159766429590696</v>
+        <v>0.025276352415558846</v>
       </c>
       <c r="DL4">
-        <v>0.025027633712389575</v>
+        <v>0.025360364495232698</v>
       </c>
       <c r="DM4">
-        <v>0.025302332388600843</v>
+        <v>0.025506607392097702</v>
       </c>
       <c r="DN4">
-        <v>0.022355838807801651</v>
+        <v>0.022383491353981967</v>
       </c>
       <c r="DO4">
-        <v>0.022287307520445384</v>
+        <v>0.022645427096008645</v>
       </c>
       <c r="DP4">
-        <v>0.021713978757260957</v>
+        <v>0.022128926852084837</v>
       </c>
       <c r="DQ4">
-        <v>0.021901443927195743</v>
+        <v>0.022162122052224561</v>
       </c>
       <c r="DR4">
-        <v>0.022148996999457216</v>
+        <v>0.022205971321543196</v>
       </c>
       <c r="DS4">
-        <v>0.021426723901786512</v>
+        <v>0.02189174557164628</v>
       </c>
       <c r="DT4">
-        <v>0.021589104452186536</v>
+        <v>0.021954487864241517</v>
       </c>
       <c r="DU4">
-        <v>0.02160472557787842</v>
+        <v>0.022027918046630859</v>
       </c>
       <c r="DV4">
-        <v>0.021718692459563572</v>
+        <v>0.02184571375905222</v>
       </c>
       <c r="DW4">
-        <v>0.021760927511318296</v>
+        <v>0.021820509716199293</v>
       </c>
       <c r="DX4">
-        <v>0.021715901628380992</v>
+        <v>0.021954333810012844</v>
       </c>
       <c r="DY4">
-        <v>0.021888721667394331</v>
+        <v>0.022155506869033191</v>
       </c>
       <c r="DZ4">
-        <v>0.021831701686620162</v>
+        <v>0.022007139812435943</v>
       </c>
       <c r="EA4">
-        <v>0.021833582435822764</v>
+        <v>0.022212716089510632</v>
       </c>
       <c r="EB4">
-        <v>0.021886800975347915</v>
+        <v>0.022183953522605257</v>
       </c>
       <c r="EC4">
-        <v>0.022096048691581608</v>
+        <v>0.022035465417574188</v>
       </c>
       <c r="ED4">
-        <v>0.021859906778554889</v>
+        <v>0.022220575179408883</v>
       </c>
       <c r="EE4">
-        <v>0.021863673891370446</v>
+        <v>0.022130044703146379</v>
       </c>
       <c r="EF4">
-        <v>0.021831827170415971</v>
+        <v>0.022093248615240379</v>
       </c>
       <c r="EG4">
-        <v>0.021820680211602727</v>
+        <v>0.022216739120711537</v>
       </c>
       <c r="EH4">
-        <v>0.021104590787268427</v>
+        <v>0.021531684490905287</v>
       </c>
       <c r="EI4">
-        <v>0.021218945421076409</v>
+        <v>0.021499807839259432</v>
       </c>
       <c r="EJ4">
-        <v>0.02115722811451606</v>
+        <v>0.021733296684549413</v>
       </c>
       <c r="EK4">
-        <v>0.021290331298466008</v>
+        <v>0.021584294741716609</v>
       </c>
       <c r="EL4">
-        <v>0.02152727388167143</v>
+        <v>0.021646279942294091</v>
       </c>
       <c r="EM4">
-        <v>0.021443172215267568</v>
+        <v>0.021437163557920021</v>
       </c>
       <c r="EN4">
-        <v>0.021245245869224147</v>
+        <v>0.021733296902592302</v>
       </c>
       <c r="EO4">
-        <v>0.021478284300552548</v>
+        <v>0.021739771525256919</v>
       </c>
       <c r="EP4">
-        <v>0.021311069187713298</v>
+        <v>0.02155988736102453</v>
       </c>
       <c r="EQ4">
-        <v>0.021438813578303739</v>
+        <v>0.021707547013816969</v>
       </c>
       <c r="ER4">
-        <v>0.021487130001752532</v>
+        <v>0.021920404322894379</v>
       </c>
       <c r="ES4">
-        <v>0.02155661742506202</v>
+        <v>0.021580212113552367</v>
       </c>
       <c r="ET4">
-        <v>0.021399881121149014</v>
+        <v>0.021845431112743507</v>
       </c>
       <c r="EU4">
-        <v>0.021538525147120541</v>
+        <v>0.021735453834566525</v>
       </c>
       <c r="EV4">
-        <v>0.021672302245620053</v>
+        <v>0.022035422453861146</v>
       </c>
       <c r="EW4">
-        <v>0.021547557381875332</v>
+        <v>0.021754937442894116</v>
       </c>
       <c r="EX4">
-        <v>0.02176091605578364</v>
+        <v>0.021744096711887068</v>
       </c>
       <c r="EY4">
-        <v>0.021651140876081394</v>
+        <v>0.021952807903138003</v>
       </c>
       <c r="EZ4">
-        <v>0.021792683037067929</v>
+        <v>0.022113032763761909</v>
       </c>
       <c r="FA4">
-        <v>0.021864771769253367</v>
+        <v>0.02189063681243103</v>
       </c>
       <c r="FB4">
-        <v>0.021925745559464971</v>
+        <v>0.021938876771938776</v>
       </c>
       <c r="FC4">
-        <v>0.021719875235943053</v>
+        <v>0.02205463609251444</v>
       </c>
       <c r="FD4">
-        <v>0.021857234813367491</v>
+        <v>0.021922707577652287</v>
       </c>
       <c r="FE4">
-        <v>0.021864771991239138</v>
+        <v>0.02187700073692106</v>
       </c>
       <c r="FF4">
-        <v>0.02169837362631296</v>
+        <v>0.022066708120336672</v>
       </c>
       <c r="FG4">
-        <v>0.021872327861937272</v>
+        <v>0.022160086707074842</v>
       </c>
       <c r="FH4">
-        <v>0.02189510768839845</v>
+        <v>0.022187668197820674</v>
       </c>
       <c r="FI4">
-        <v>0.021736706862757308</v>
+        <v>0.02238535762424743</v>
       </c>
       <c r="FJ4">
-        <v>0.021907836678265184</v>
+        <v>0.02216008687849139</v>
       </c>
       <c r="FK4">
-        <v>0.021785323112078054</v>
+        <v>0.022503044061826745</v>
       </c>
       <c r="FL4">
-        <v>0.021905286805286861</v>
+        <v>0.022292735207620314</v>
       </c>
       <c r="FM4">
-        <v>0.022030119978616699</v>
+        <v>0.022182634919328953</v>
       </c>
       <c r="FN4">
-        <v>0.022193482520428215</v>
+        <v>0.022269360503687032</v>
       </c>
       <c r="FO4">
-        <v>0.021879902800801664</v>
+        <v>0.022345323174416658</v>
       </c>
       <c r="FP4">
-        <v>0.021948926460355365</v>
+        <v>0.022494689717847887</v>
       </c>
       <c r="FQ4">
-        <v>0.021930882561742717</v>
+        <v>0.022316289268398095</v>
       </c>
       <c r="FR4">
-        <v>0.022094458443101078</v>
+        <v>0.02222568924890319</v>
       </c>
       <c r="FS4">
-        <v>0.022121657756931545</v>
+        <v>0.022180121642785801</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015605972184672986</v>
+        <v>0.015996427248878505</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -6054,526 +6054,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>2.3252920272737563</v>
+        <v>2.3494998626991741</v>
       </c>
       <c r="C3">
-        <v>-0.89263244584318158</v>
+        <v>-0.88063956869139848</v>
       </c>
       <c r="D3">
-        <v>-0.89365818290991328</v>
+        <v>-0.9060951640314292</v>
       </c>
       <c r="E3">
-        <v>-0.92549524289597318</v>
+        <v>-0.92987506855166135</v>
       </c>
       <c r="F3">
-        <v>-0.95296989407151245</v>
+        <v>-0.93264248831605279</v>
       </c>
       <c r="G3">
-        <v>-0.92800459365655374</v>
+        <v>-0.92516036079754171</v>
       </c>
       <c r="H3">
-        <v>-0.94856892097289736</v>
+        <v>-0.93324998634363998</v>
       </c>
       <c r="I3">
-        <v>0.0038546240971386002</v>
+        <v>0.0021403865343412581</v>
       </c>
       <c r="J3">
-        <v>0.0045475951252475057</v>
+        <v>0.012340338269512672</v>
       </c>
       <c r="K3">
-        <v>0.0045140529044581041</v>
+        <v>0.0030497470196786947</v>
       </c>
       <c r="L3">
-        <v>-0.0020627915378532754</v>
+        <v>0.0029945926657409354</v>
       </c>
       <c r="M3">
-        <v>-0.0072450008787118755</v>
+        <v>-0.015010776636666827</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1788098878784163</v>
+        <v>1.2314271214968768</v>
       </c>
       <c r="P3">
-        <v>1.320266238187694</v>
+        <v>1.3444740463049085</v>
       </c>
       <c r="Q3">
-        <v>-0.21587232095983597</v>
+        <v>-0.16856340147113433</v>
       </c>
       <c r="R3">
-        <v>-0.20529828781049134</v>
+        <v>-0.22244755816086095</v>
       </c>
       <c r="S3">
-        <v>-0.24272905683445822</v>
+        <v>-0.18443712938856394</v>
       </c>
       <c r="T3">
-        <v>-0.26023350027162534</v>
+        <v>-0.18265301403985351</v>
       </c>
       <c r="U3">
-        <v>-0.21321577368151357</v>
+        <v>-0.1875601698859182</v>
       </c>
       <c r="V3">
-        <v>-0.19041011939366739</v>
+        <v>-0.12416394784815836</v>
       </c>
       <c r="W3">
-        <v>-0.19249988015838498</v>
+        <v>-0.15872954991003677</v>
       </c>
       <c r="X3">
-        <v>-0.19416848362601083</v>
+        <v>-0.17008653329788456</v>
       </c>
       <c r="Y3">
-        <v>-0.20023190497481846</v>
+        <v>-0.12169382700720668</v>
       </c>
       <c r="Z3">
-        <v>-0.15293013810111236</v>
+        <v>-0.10686903641845612</v>
       </c>
       <c r="AA3">
-        <v>-0.10797844438022412</v>
+        <v>-0.074299924217782878</v>
       </c>
       <c r="AB3">
-        <v>-0.098076425640710979</v>
+        <v>-0.063174413726909587</v>
       </c>
       <c r="AC3">
-        <v>-0.14805979083201773</v>
+        <v>-0.062861321307784074</v>
       </c>
       <c r="AD3">
-        <v>-0.076176552475282322</v>
+        <v>-0.10465312422390402</v>
       </c>
       <c r="AE3">
-        <v>-0.1496932185398766</v>
+        <v>-0.059898587048863826</v>
       </c>
       <c r="AF3">
-        <v>-0.080643272701150473</v>
+        <v>0.0077555665360870621</v>
       </c>
       <c r="AG3">
-        <v>-0.099391471898722938</v>
+        <v>-0.044835327183554936</v>
       </c>
       <c r="AH3">
-        <v>-0.08153359899310883</v>
+        <v>-0.0405336410495519</v>
       </c>
       <c r="AI3">
-        <v>-0.078017601648137341</v>
+        <v>-0.023349641206963985</v>
       </c>
       <c r="AJ3">
-        <v>-0.069784960370036703</v>
+        <v>-0.049304343397158147</v>
       </c>
       <c r="AK3">
-        <v>-0.077282685151011221</v>
+        <v>-0.04657594650862492</v>
       </c>
       <c r="AL3">
-        <v>-0.088874594178126223</v>
+        <v>-0.019094100653569368</v>
       </c>
       <c r="AM3">
-        <v>-0.033129718693502549</v>
+        <v>0.0032246461184526468</v>
       </c>
       <c r="AN3">
-        <v>-0.0041729446257733711</v>
+        <v>-0.0020249479604621578</v>
       </c>
       <c r="AO3">
-        <v>-0.032889372342426233</v>
+        <v>0.029369596026950107</v>
       </c>
       <c r="AP3">
-        <v>-0.016153225880915337</v>
+        <v>0.017187334290775104</v>
       </c>
       <c r="AQ3">
-        <v>-0.057428277746367426</v>
+        <v>0.0036443969664830583</v>
       </c>
       <c r="AR3">
-        <v>-0.023109354835999758</v>
+        <v>0.020442208044041874</v>
       </c>
       <c r="AS3">
-        <v>-0.054999472401779319</v>
+        <v>0.019445814770935505</v>
       </c>
       <c r="AT3">
-        <v>-0.030943641694477345</v>
+        <v>-0.023313704372895882</v>
       </c>
       <c r="AU3">
-        <v>0.0082785322569749291</v>
+        <v>0.012793557119703234</v>
       </c>
       <c r="AV3">
-        <v>-0.061935566251352367</v>
+        <v>-0.054649737138161743</v>
       </c>
       <c r="AW3">
-        <v>-0.020715500905399399</v>
+        <v>0.018996338671113021</v>
       </c>
       <c r="AX3">
-        <v>-0.037152603035859731</v>
+        <v>0.046537370355758396</v>
       </c>
       <c r="AY3">
-        <v>-0.030895773113529063</v>
+        <v>0.0035172003453692643</v>
       </c>
       <c r="AZ3">
-        <v>-0.035085543642911783</v>
+        <v>0.0707424832273819</v>
       </c>
       <c r="BA3">
-        <v>-0.041271851803535341</v>
+        <v>0.030222522320164681</v>
       </c>
       <c r="BB3">
-        <v>0.0073711307383543681</v>
+        <v>-0.01977115524581707</v>
       </c>
       <c r="BC3">
-        <v>0.0094289578375964557</v>
+        <v>0.045875751210667282</v>
       </c>
       <c r="BD3">
-        <v>-0.0046922451536421678</v>
+        <v>0.026021509411661117</v>
       </c>
       <c r="BE3">
-        <v>-0.033326233129642321</v>
+        <v>0.066210004226975205</v>
       </c>
       <c r="BF3">
-        <v>0.0013844519159753026</v>
+        <v>0.036518226992447687</v>
       </c>
       <c r="BG3">
-        <v>-0.020302899824136765</v>
+        <v>0.010116405258501916</v>
       </c>
       <c r="BH3">
-        <v>0.01710963586639053</v>
+        <v>0.048571978855499583</v>
       </c>
       <c r="BI3">
-        <v>-0.025526283830897362</v>
+        <v>0.030628339744155266</v>
       </c>
       <c r="BJ3">
-        <v>-0.010155383675891442</v>
+        <v>0.029299107328285407</v>
       </c>
       <c r="BK3">
-        <v>-0.022729058804664096</v>
+        <v>0.049661940764688349</v>
       </c>
       <c r="BL3">
-        <v>0.031505137817610357</v>
+        <v>0.040422439513521785</v>
       </c>
       <c r="BM3">
-        <v>0.0041356619905577171</v>
+        <v>0.050239000004824515</v>
       </c>
       <c r="BN3">
-        <v>0.0065632105606595091</v>
+        <v>0.0058516160482447628</v>
       </c>
       <c r="BO3">
-        <v>0.014116954182425272</v>
+        <v>0.021320732341227128</v>
       </c>
       <c r="BP3">
-        <v>0.059351693491309039</v>
+        <v>0.036470691206902231</v>
       </c>
       <c r="BQ3">
-        <v>0.030685538643301764</v>
+        <v>0.028955218690706233</v>
       </c>
       <c r="BR3">
-        <v>0.027332935114809911</v>
+        <v>0.044452537689776597</v>
       </c>
       <c r="BS3">
-        <v>0.014556064323261727</v>
+        <v>0.034207867959305222</v>
       </c>
       <c r="BT3">
-        <v>-0.011282298100011006</v>
+        <v>0.04281121731023136</v>
       </c>
       <c r="BU3">
-        <v>-0.024538787445025478</v>
+        <v>0.013621863578603321</v>
       </c>
       <c r="BV3">
-        <v>-0.023746658017632025</v>
+        <v>0.05975968519263495</v>
       </c>
       <c r="BW3">
-        <v>-0.011488274891490581</v>
+        <v>0.054114314657529423</v>
       </c>
       <c r="BX3">
-        <v>0.045318388036195555</v>
+        <v>0.052618345759021454</v>
       </c>
       <c r="BY3">
-        <v>-0.15562705676825159</v>
+        <v>-0.13169044240367653</v>
       </c>
       <c r="BZ3">
-        <v>0.0065814076578695332</v>
+        <v>0.061228319359660617</v>
       </c>
       <c r="CA3">
-        <v>0.0047130259691955442</v>
+        <v>0.076068646879988544</v>
       </c>
       <c r="CB3">
-        <v>-0.012630900178745989</v>
+        <v>0.077040914010042719</v>
       </c>
       <c r="CC3">
-        <v>0.0202037661336344</v>
+        <v>0.014096340249925236</v>
       </c>
       <c r="CD3">
-        <v>0.005943485733915321</v>
+        <v>0.042801629877059114</v>
       </c>
       <c r="CE3">
-        <v>0.0020731632580383141</v>
+        <v>0.075799334171420985</v>
       </c>
       <c r="CF3">
-        <v>0.02885484037340658</v>
+        <v>0.049463968603829386</v>
       </c>
       <c r="CG3">
-        <v>0.020012605191898139</v>
+        <v>0.015213487772120334</v>
       </c>
       <c r="CH3">
-        <v>-0.0025940483849368947</v>
+        <v>0.043899709193696713</v>
       </c>
       <c r="CI3">
-        <v>0.010534961994907903</v>
+        <v>0.066231931625276116</v>
       </c>
       <c r="CJ3">
-        <v>0.025137790833566744</v>
+        <v>0.084075485585464946</v>
       </c>
       <c r="CK3">
-        <v>0.034048810916686476</v>
+        <v>0.081962770696188042</v>
       </c>
       <c r="CL3">
-        <v>0.00061734489435661191</v>
+        <v>0.067443660802699812</v>
       </c>
       <c r="CM3">
-        <v>0.00078694124342500562</v>
+        <v>0.1056750924467455</v>
       </c>
       <c r="CN3">
-        <v>0.021810778376991573</v>
+        <v>0.026793291946048542</v>
       </c>
       <c r="CO3">
-        <v>-0.00085583763860345562</v>
+        <v>0.072689978957057394</v>
       </c>
       <c r="CP3">
-        <v>0.02479577958795624</v>
+        <v>0.11446795945797965</v>
       </c>
       <c r="CQ3">
-        <v>0.045304187597411616</v>
+        <v>0.05966849620800365</v>
       </c>
       <c r="CR3">
-        <v>-0.0055946349574711122</v>
+        <v>0.11246983405196788</v>
       </c>
       <c r="CS3">
-        <v>0.11017154126736668</v>
+        <v>0.12406186648393205</v>
       </c>
       <c r="CT3">
-        <v>0.020739525640656176</v>
+        <v>0.064889452421649688</v>
       </c>
       <c r="CU3">
-        <v>0.056975039955540104</v>
+        <v>0.072524401075826028</v>
       </c>
       <c r="CV3">
-        <v>0.023000474479754528</v>
+        <v>0.081616276147343625</v>
       </c>
       <c r="CW3">
-        <v>0.012798820356586381</v>
+        <v>0.022337543018894384</v>
       </c>
       <c r="CX3">
-        <v>-0.0048561247062863045</v>
+        <v>0.10556307107901357</v>
       </c>
       <c r="CY3">
-        <v>0.039956438514910951</v>
+        <v>0.076625445325234118</v>
       </c>
       <c r="CZ3">
-        <v>0.032352187418360746</v>
+        <v>0.041389461588603418</v>
       </c>
       <c r="DA3">
-        <v>0.0163669513225943</v>
+        <v>0.070015199034199047</v>
       </c>
       <c r="DB3">
-        <v>0.018738016989076896</v>
+        <v>0.083783587018909478</v>
       </c>
       <c r="DC3">
-        <v>0.064739699320736893</v>
+        <v>0.081281672764402485</v>
       </c>
       <c r="DD3">
-        <v>0.016840444878090312</v>
+        <v>0.086246995720032887</v>
       </c>
       <c r="DE3">
-        <v>-0.0021964480017008735</v>
+        <v>0.0649224844312149</v>
       </c>
       <c r="DF3">
-        <v>-0.00073258414357603506</v>
+        <v>0.047323090125162719</v>
       </c>
       <c r="DG3">
-        <v>0.030237815445869377</v>
+        <v>0.051407803835132777</v>
       </c>
       <c r="DH3">
-        <v>0.037712224208614593</v>
+        <v>0.055136412371378882</v>
       </c>
       <c r="DI3">
-        <v>0.026625763111506072</v>
+        <v>0.083036395825862822</v>
       </c>
       <c r="DJ3">
-        <v>0.018189105036700161</v>
+        <v>0.082074153563646113</v>
       </c>
       <c r="DK3">
-        <v>0.015214701916241588</v>
+        <v>0.079966726268414862</v>
       </c>
       <c r="DL3">
-        <v>0.051552992918105556</v>
+        <v>0.068415524423476134</v>
       </c>
       <c r="DM3">
-        <v>0.0080952543771507495</v>
+        <v>0.083066871053359637</v>
       </c>
       <c r="DN3">
-        <v>-0.00062606137452398238</v>
+        <v>0.10633354590050201</v>
       </c>
       <c r="DO3">
-        <v>0.01952239805359389</v>
+        <v>0.047586029141644975</v>
       </c>
       <c r="DP3">
-        <v>0.049535805942587788</v>
+        <v>0.063989404289825663</v>
       </c>
       <c r="DQ3">
-        <v>0.010377265200007051</v>
+        <v>0.060452031296431161</v>
       </c>
       <c r="DR3">
-        <v>-0.040656466454948373</v>
+        <v>0.054505766917718558</v>
       </c>
       <c r="DS3">
-        <v>0.052224378378929237</v>
+        <v>0.060171020549438264</v>
       </c>
       <c r="DT3">
-        <v>0.019643583049835048</v>
+        <v>0.050199759559073326</v>
       </c>
       <c r="DU3">
-        <v>0.020319584445981174</v>
+        <v>0.037983564662114271</v>
       </c>
       <c r="DV3">
-        <v>-0.00070006231165016292</v>
+        <v>0.082882500180143148</v>
       </c>
       <c r="DW3">
-        <v>-0.0058255193944888274</v>
+        <v>0.092867302273432636</v>
       </c>
       <c r="DX3">
-        <v>0.014200701483477596</v>
+        <v>0.073510463884525326</v>
       </c>
       <c r="DY3">
-        <v>-0.019166568679167644</v>
+        <v>0.033225644452710909</v>
       </c>
       <c r="DZ3">
-        <v>-0.0029024586488990219</v>
+        <v>0.069892623329372724</v>
       </c>
       <c r="EA3">
-        <v>0.00076660382113637583</v>
+        <v>0.029053014884045745</v>
       </c>
       <c r="EB3">
-        <v>-0.0065812351179137755</v>
+        <v>0.03925950080688264</v>
       </c>
       <c r="EC3">
-        <v>-0.04190228798821951</v>
+        <v>0.079733365156528999</v>
       </c>
       <c r="ED3">
-        <v>0.012023708591128227</v>
+        <v>0.043387766631654716</v>
       </c>
       <c r="EE3">
-        <v>0.015346905520976131</v>
+        <v>0.067123243564886248</v>
       </c>
       <c r="EF3">
-        <v>0.026390086985527354</v>
+        <v>0.079368282320932279</v>
       </c>
       <c r="EG3">
-        <v>0.033008165788874139</v>
+        <v>0.056649348396961959</v>
       </c>
       <c r="EH3">
-        <v>0.03359812522588481</v>
+        <v>0.054127306029443038</v>
       </c>
       <c r="EI3">
-        <v>0.014081519572666588</v>
+        <v>0.064872773243641352</v>
       </c>
       <c r="EJ3">
-        <v>0.030987073244003651</v>
+        <v>0.021167680699215864</v>
       </c>
       <c r="EK3">
-        <v>0.0078377429853600748</v>
+        <v>0.055475069006784214</v>
       </c>
       <c r="EL3">
-        <v>-0.03537770929534291</v>
+        <v>0.046881315748217488</v>
       </c>
       <c r="EM3">
-        <v>-0.014827399306661071</v>
+        <v>0.094334572668343844</v>
       </c>
       <c r="EN3">
-        <v>0.029134161597207154</v>
+        <v>0.037603966128098625</v>
       </c>
       <c r="EO3">
-        <v>-0.013551395827774575</v>
+        <v>0.040340846213098053</v>
       </c>
       <c r="EP3">
-        <v>0.023957048964908374</v>
+        <v>0.081066575634954383</v>
       </c>
       <c r="EQ3">
-        <v>0.0024916288519736141</v>
+        <v>0.055103701503608056</v>
       </c>
       <c r="ER3">
-        <v>-0.0029834985703765448</v>
+        <v>0.016906322104199515</v>
       </c>
       <c r="ES3">
-        <v>-0.012553925478836369</v>
+        <v>0.089156411866823021</v>
       </c>
       <c r="ET3">
-        <v>0.022464673162549461</v>
+        <v>0.039860606855442446</v>
       </c>
       <c r="EU3">
-        <v>-0.00079897109535716194</v>
+        <v>0.065846054280633032</v>
       </c>
       <c r="EV3">
-        <v>-0.022661887128648518</v>
+        <v>0.011015135715323237</v>
       </c>
       <c r="EW3">
-        <v>0.0055121908144499339</v>
+        <v>0.070020824303522994</v>
       </c>
       <c r="EX3">
-        <v>-0.031466947290997714</v>
+        <v>0.076369343187928249</v>
       </c>
       <c r="EY3">
-        <v>-0.0065263295815796516</v>
+        <v>0.039299792881506923</v>
       </c>
       <c r="EZ3">
-        <v>-0.029456195878636612</v>
+        <v>0.012526709750224449</v>
       </c>
       <c r="FA3">
-        <v>-0.039025320259008768</v>
+        <v>0.059441921083077456</v>
       </c>
       <c r="FB3">
-        <v>-0.046438094725197117</v>
+        <v>0.054127461854632498</v>
       </c>
       <c r="FC3">
-        <v>-0.0038413951095402519</v>
+        <v>0.035848780015899452</v>
       </c>
       <c r="FD3">
-        <v>-0.025713686416886799</v>
+        <v>0.065423650281083545</v>
       </c>
       <c r="FE3">
-        <v>-0.02313956580661479</v>
+        <v>0.078544224318254682</v>
       </c>
       <c r="FF3">
-        <v>0.012314543357686336</v>
+        <v>0.0459290904751826</v>
       </c>
       <c r="FG3">
-        <v>-0.016419651861022722</v>
+        <v>0.032250020666131807</v>
       </c>
       <c r="FH3">
-        <v>-0.016644140220783536</v>
+        <v>0.031069571741200761</v>
       </c>
       <c r="FI3">
-        <v>0.017178137194881791</v>
+        <v>-0.0015853848467514164</v>
       </c>
       <c r="FJ3">
-        <v>-0.010833024802816546</v>
+        <v>0.044164057419228256</v>
       </c>
       <c r="FK3">
-        <v>0.016160420000660754</v>
+        <v>-0.014992062854865032</v>
       </c>
       <c r="FL3">
-        <v>-0.0021629004057259738</v>
+        <v>0.027248692666454143</v>
       </c>
       <c r="FM3">
-        <v>-0.021076688425847149</v>
+        <v>0.051808517180760356</v>
       </c>
       <c r="FN3">
-        <v>-0.046576066806184424</v>
+        <v>0.039681634223111856</v>
       </c>
       <c r="FO3">
-        <v>0.014542679517835569</v>
+        <v>0.029680788548292224</v>
       </c>
       <c r="FP3">
-        <v>0.0058820403099499163</v>
+        <v>0.0064920233418084682</v>
       </c>
       <c r="FQ3">
-        <v>0.013329481431561478</v>
+        <v>0.042955126306252867</v>
       </c>
       <c r="FR3">
-        <v>-0.012471451806376833</v>
+        <v>0.063857548412562207</v>
       </c>
       <c r="FS3">
-        <v>-0.01334946154577343</v>
+        <v>0.076557008722096767</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5019812354905859</v>
+        <v>-5.5513681958301131</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6596,526 +6596,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.018613301109860848</v>
+        <v>0.01888704555221973</v>
       </c>
       <c r="C4">
-        <v>0.013124862646756356</v>
+        <v>0.01314110160921517</v>
       </c>
       <c r="D4">
-        <v>0.014446179252917229</v>
+        <v>0.014498800196895818</v>
       </c>
       <c r="E4">
-        <v>0.01441935766784096</v>
+        <v>0.014501106998201301</v>
       </c>
       <c r="F4">
-        <v>0.014511338118122417</v>
+        <v>0.014455635616735006</v>
       </c>
       <c r="G4">
-        <v>0.017270062657317092</v>
+        <v>0.017214198053879675</v>
       </c>
       <c r="H4">
-        <v>0.020674355256169476</v>
+        <v>0.020556513109723829</v>
       </c>
       <c r="I4">
-        <v>0.015536980516142811</v>
+        <v>0.015648125125570952</v>
       </c>
       <c r="J4">
-        <v>0.012889472957979637</v>
+        <v>0.012844922166760022</v>
       </c>
       <c r="K4">
-        <v>0.010504903098109688</v>
+        <v>0.010561661514021296</v>
       </c>
       <c r="L4">
-        <v>0.010712917625320896</v>
+        <v>0.010717986501477483</v>
       </c>
       <c r="M4">
-        <v>0.010809118110692538</v>
+        <v>0.010802977597511946</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022893575792214512</v>
+        <v>0.023135033963735872</v>
       </c>
       <c r="P4">
-        <v>0.022591597694253746</v>
+        <v>0.02289950902497952</v>
       </c>
       <c r="Q4">
-        <v>0.029273196873165666</v>
+        <v>0.029415226094770645</v>
       </c>
       <c r="R4">
-        <v>0.029203961919613688</v>
+        <v>0.02983356778192001</v>
       </c>
       <c r="S4">
-        <v>0.02949826078256565</v>
+        <v>0.029553581174974065</v>
       </c>
       <c r="T4">
-        <v>0.02964407890738183</v>
+        <v>0.02955023461770442</v>
       </c>
       <c r="U4">
-        <v>0.029293184028044955</v>
+        <v>0.029597324129890315</v>
       </c>
       <c r="V4">
-        <v>0.029132608688818618</v>
+        <v>0.029139247650185673</v>
       </c>
       <c r="W4">
-        <v>0.029158417676565487</v>
+        <v>0.029402280446829424</v>
       </c>
       <c r="X4">
-        <v>0.029181129236906789</v>
+        <v>0.029497040661520778</v>
       </c>
       <c r="Y4">
-        <v>0.029236792206040498</v>
+        <v>0.02915140303777753</v>
       </c>
       <c r="Z4">
-        <v>0.028898021919822606</v>
+        <v>0.02905515283622272</v>
       </c>
       <c r="AA4">
-        <v>0.028587648823930424</v>
+        <v>0.028835311643082197</v>
       </c>
       <c r="AB4">
-        <v>0.028528891240076418</v>
+        <v>0.028768326517329502</v>
       </c>
       <c r="AC4">
-        <v>0.028894981285089921</v>
+        <v>0.02877663787818564</v>
       </c>
       <c r="AD4">
-        <v>0.028397772189555585</v>
+        <v>0.029081995480282022</v>
       </c>
       <c r="AE4">
-        <v>0.028928551493087363</v>
+        <v>0.028776637886036672</v>
       </c>
       <c r="AF4">
-        <v>0.028449153121060295</v>
+        <v>0.0283292410127127</v>
       </c>
       <c r="AG4">
-        <v>0.028590468509403014</v>
+        <v>0.028694304349792813</v>
       </c>
       <c r="AH4">
-        <v>0.028476467759788647</v>
+        <v>0.028675339613998901</v>
       </c>
       <c r="AI4">
-        <v>0.028462786798558942</v>
+        <v>0.028568710423867091</v>
       </c>
       <c r="AJ4">
-        <v>0.028416623839225458</v>
+        <v>0.028757271926182597</v>
       </c>
       <c r="AK4">
-        <v>0.028479209663831655</v>
+        <v>0.028749001278564772</v>
       </c>
       <c r="AL4">
-        <v>0.028570772512912249</v>
+        <v>0.028571340633670061</v>
       </c>
       <c r="AM4">
-        <v>0.028198779062313786</v>
+        <v>0.028431834789016137</v>
       </c>
       <c r="AN4">
-        <v>0.028016930175893934</v>
+        <v>0.028477771967664774</v>
       </c>
       <c r="AO4">
-        <v>0.028219248288859883</v>
+        <v>0.028280197486626388</v>
       </c>
       <c r="AP4">
-        <v>0.028117984732589845</v>
+        <v>0.028371440586510921</v>
       </c>
       <c r="AQ4">
-        <v>0.028408533492004454</v>
+        <v>0.028472640324979429</v>
       </c>
       <c r="AR4">
-        <v>0.028186041301727076</v>
+        <v>0.028371440596185949</v>
       </c>
       <c r="AS4">
-        <v>0.028413925231262811</v>
+        <v>0.028388955800820452</v>
       </c>
       <c r="AT4">
-        <v>0.028260517742116915</v>
+        <v>0.028688876503549721</v>
       </c>
       <c r="AU4">
-        <v>0.028009641874348304</v>
+        <v>0.028454733904564749</v>
       </c>
       <c r="AV4">
-        <v>0.028495701117869133</v>
+        <v>0.028929297361147424</v>
       </c>
       <c r="AW4">
-        <v>0.028224382788474969</v>
+        <v>0.028434372353262311</v>
       </c>
       <c r="AX4">
-        <v>0.028347057340638641</v>
+        <v>0.028263184018558471</v>
       </c>
       <c r="AY4">
-        <v>0.028315364059632097</v>
+        <v>0.028560830677307587</v>
       </c>
       <c r="AZ4">
-        <v>0.028355021235210796</v>
+        <v>0.028127493795650476</v>
       </c>
       <c r="BA4">
-        <v>0.028408533538887757</v>
+        <v>0.028404034026123574</v>
       </c>
       <c r="BB4">
-        <v>0.028090604923659338</v>
+        <v>0.028754513192143821</v>
       </c>
       <c r="BC4">
-        <v>0.028088125678119445</v>
+        <v>0.028321843314207843</v>
       </c>
       <c r="BD4">
-        <v>0.028193678928424476</v>
+        <v>0.028464955863502315</v>
       </c>
       <c r="BE4">
-        <v>0.027880243786478333</v>
+        <v>0.027773090532173101</v>
       </c>
       <c r="BF4">
-        <v>0.027651279844076858</v>
+        <v>0.027985685307980433</v>
       </c>
       <c r="BG4">
-        <v>0.02781233098892464</v>
+        <v>0.028179967962636839</v>
       </c>
       <c r="BH4">
-        <v>0.027566860743832317</v>
+        <v>0.027925620633347418</v>
       </c>
       <c r="BI4">
-        <v>0.027872063537959575</v>
+        <v>0.028060148697499381</v>
       </c>
       <c r="BJ4">
-        <v>0.027874228575951537</v>
+        <v>0.028151085067730092</v>
       </c>
       <c r="BK4">
-        <v>0.027974389123796628</v>
+        <v>0.028021004716841443</v>
       </c>
       <c r="BL4">
-        <v>0.027608551932420199</v>
+        <v>0.028096383060659657</v>
       </c>
       <c r="BM4">
-        <v>0.02780885304915073</v>
+        <v>0.028039736237633773</v>
       </c>
       <c r="BN4">
-        <v>0.027803460855197599</v>
+        <v>0.028363266460126317</v>
       </c>
       <c r="BO4">
-        <v>0.027878065388637262</v>
+        <v>0.028261030998653271</v>
       </c>
       <c r="BP4">
-        <v>0.027578011127744058</v>
+        <v>0.028165549898631806</v>
       </c>
       <c r="BQ4">
-        <v>0.027786185632688313</v>
+        <v>0.02822991083670396</v>
       </c>
       <c r="BR4">
-        <v>0.027821090458595803</v>
+        <v>0.028132404975498657</v>
       </c>
       <c r="BS4">
-        <v>0.027922119790130477</v>
+        <v>0.02821586466597038</v>
       </c>
       <c r="BT4">
-        <v>0.028406522482620249</v>
+        <v>0.028531707787239138</v>
       </c>
       <c r="BU4">
-        <v>0.028511522095626171</v>
+        <v>0.028746960045478075</v>
       </c>
       <c r="BV4">
-        <v>0.028517299131372721</v>
+        <v>0.02843767147874467</v>
       </c>
       <c r="BW4">
-        <v>0.029065202109977734</v>
+        <v>0.029053693129453415</v>
       </c>
       <c r="BX4">
-        <v>0.028688912474447985</v>
+        <v>0.02907507136977705</v>
       </c>
       <c r="BY4">
-        <v>0.02460727151382644</v>
+        <v>0.025063347298627716</v>
       </c>
       <c r="BZ4">
-        <v>0.02538993808052625</v>
+        <v>0.025686818282380171</v>
       </c>
       <c r="CA4">
-        <v>0.025412287711651899</v>
+        <v>0.025634720750801733</v>
       </c>
       <c r="CB4">
-        <v>0.024598525555893574</v>
+        <v>0.024642020077169639</v>
       </c>
       <c r="CC4">
-        <v>0.024458952646324954</v>
+        <v>0.024953132873242301</v>
       </c>
       <c r="CD4">
-        <v>0.024425059104412037</v>
+        <v>0.024707980834251145</v>
       </c>
       <c r="CE4">
-        <v>0.024093492604380644</v>
+        <v>0.024261393780880013</v>
       </c>
       <c r="CF4">
-        <v>0.023980331571824776</v>
+        <v>0.024405050125079739</v>
       </c>
       <c r="CG4">
-        <v>0.024040016672413813</v>
+        <v>0.024591268879730177</v>
       </c>
       <c r="CH4">
-        <v>0.024168007577374404</v>
+        <v>0.024465259717806116</v>
       </c>
       <c r="CI4">
-        <v>0.023873502725030901</v>
+        <v>0.024083692922487295</v>
       </c>
       <c r="CJ4">
-        <v>0.024190071683194061</v>
+        <v>0.024359190893479016</v>
       </c>
       <c r="CK4">
-        <v>0.024163485221757042</v>
+        <v>0.024386288013076712</v>
       </c>
       <c r="CL4">
-        <v>0.02434661435938924</v>
+        <v>0.024473560073186417</v>
       </c>
       <c r="CM4">
-        <v>0.024362886349704956</v>
+        <v>0.024306652989121585</v>
       </c>
       <c r="CN4">
-        <v>0.024163764915625038</v>
+        <v>0.024606337205713376</v>
       </c>
       <c r="CO4">
-        <v>0.024506102231065925</v>
+        <v>0.024665736889102188</v>
       </c>
       <c r="CP4">
-        <v>0.024395411013596428</v>
+        <v>0.024480932930960167</v>
       </c>
       <c r="CQ4">
-        <v>0.024720622422259364</v>
+        <v>0.025153555598657489</v>
       </c>
       <c r="CR4">
-        <v>0.024990870711226975</v>
+        <v>0.024916606425385589</v>
       </c>
       <c r="CS4">
-        <v>0.023998403940799409</v>
+        <v>0.024461570676871911</v>
       </c>
       <c r="CT4">
-        <v>0.021840779294389812</v>
+        <v>0.022161814634788959</v>
       </c>
       <c r="CU4">
-        <v>0.021715823920179358</v>
+        <v>0.022148210146277072</v>
       </c>
       <c r="CV4">
-        <v>0.021428564807877755</v>
+        <v>0.021661716787885043</v>
       </c>
       <c r="CW4">
-        <v>0.021487192004607771</v>
+        <v>0.021919394779962235</v>
       </c>
       <c r="CX4">
-        <v>0.021577313891836113</v>
+        <v>0.021600079905006307</v>
       </c>
       <c r="CY4">
-        <v>0.021080553714870148</v>
+        <v>0.021431211483966747</v>
       </c>
       <c r="CZ4">
-        <v>0.021129416985119238</v>
+        <v>0.021594906184790298</v>
       </c>
       <c r="DA4">
-        <v>0.021213733933983268</v>
+        <v>0.021492345327219796</v>
       </c>
       <c r="DB4">
-        <v>0.021221278079958366</v>
+        <v>0.021452857089592475</v>
       </c>
       <c r="DC4">
-        <v>0.021048084072101139</v>
+        <v>0.021480573849608418</v>
       </c>
       <c r="DD4">
-        <v>0.021301014707168893</v>
+        <v>0.02149701435456439</v>
       </c>
       <c r="DE4">
-        <v>0.021400552661237041</v>
+        <v>0.021603415591369999</v>
       </c>
       <c r="DF4">
-        <v>0.021411871536869097</v>
+        <v>0.021695684385284165</v>
       </c>
       <c r="DG4">
-        <v>0.021296377113786007</v>
+        <v>0.021695684433932796</v>
       </c>
       <c r="DH4">
-        <v>0.021282518274039881</v>
+        <v>0.021697279822769321</v>
       </c>
       <c r="DI4">
-        <v>0.021367525759706116</v>
+        <v>0.021632785295333645</v>
       </c>
       <c r="DJ4">
-        <v>0.021422026280958222</v>
+        <v>0.021654642857401749</v>
       </c>
       <c r="DK4">
-        <v>0.021453026455881749</v>
+        <v>0.021681459203673058</v>
       </c>
       <c r="DL4">
-        <v>0.021314238378163486</v>
+        <v>0.021749036902646315</v>
       </c>
       <c r="DM4">
-        <v>0.02152129370199677</v>
+        <v>0.021703773276132297</v>
       </c>
       <c r="DN4">
-        <v>0.020878896509593611</v>
+        <v>0.020915068010950159</v>
       </c>
       <c r="DO4">
-        <v>0.020805500887189816</v>
+        <v>0.021195158717093886</v>
       </c>
       <c r="DP4">
-        <v>0.020689332885836666</v>
+        <v>0.021139334011325023</v>
       </c>
       <c r="DQ4">
-        <v>0.020885996933390261</v>
+        <v>0.021174080680920204</v>
       </c>
       <c r="DR4">
-        <v>0.021145441350458573</v>
+        <v>0.021219971752319801</v>
       </c>
       <c r="DS4">
-        <v>0.020732481164371881</v>
+        <v>0.021212857859284458</v>
       </c>
       <c r="DT4">
-        <v>0.020900256197529967</v>
+        <v>0.021277602115090843</v>
       </c>
       <c r="DU4">
-        <v>0.020916391786593005</v>
+        <v>0.021353360106995942</v>
       </c>
       <c r="DV4">
-        <v>0.021034088528681463</v>
+        <v>0.021165349607817002</v>
       </c>
       <c r="DW4">
-        <v>0.021077695420354165</v>
+        <v>0.0211393343946959</v>
       </c>
       <c r="DX4">
-        <v>0.02100230999031415</v>
+        <v>0.021246826106033623</v>
       </c>
       <c r="DY4">
-        <v>0.021180953180289088</v>
+        <v>0.021454634257742269</v>
       </c>
       <c r="DZ4">
-        <v>0.021122022628712669</v>
+        <v>0.021301386087763521</v>
       </c>
       <c r="EA4">
-        <v>0.021123966563513879</v>
+        <v>0.021513707318359832</v>
       </c>
       <c r="EB4">
-        <v>0.021178968301795571</v>
+        <v>0.021484008946353092</v>
       </c>
       <c r="EC4">
-        <v>0.021372090582320331</v>
+        <v>0.02131243701060765</v>
       </c>
       <c r="ED4">
-        <v>0.021127858681440102</v>
+        <v>0.02150377167971609</v>
       </c>
       <c r="EE4">
-        <v>0.021131756295328083</v>
+        <v>0.021410210501554089</v>
       </c>
       <c r="EF4">
-        <v>0.021098804840552775</v>
+        <v>0.021372175124135105</v>
       </c>
       <c r="EG4">
-        <v>0.021087270401837582</v>
+        <v>0.021499807727321033</v>
       </c>
       <c r="EH4">
-        <v>0.021104590787268306</v>
+        <v>0.021531684490905034</v>
       </c>
       <c r="EI4">
-        <v>0.021218945421076298</v>
+        <v>0.021499807839259193</v>
       </c>
       <c r="EJ4">
-        <v>0.021157228114515956</v>
+        <v>0.021733296684549163</v>
       </c>
       <c r="EK4">
-        <v>0.021290331298465897</v>
+        <v>0.021584294741716345</v>
       </c>
       <c r="EL4">
-        <v>0.021527273881671315</v>
+        <v>0.021646279942293848</v>
       </c>
       <c r="EM4">
-        <v>0.021443172215267453</v>
+        <v>0.021437163557919765</v>
       </c>
       <c r="EN4">
-        <v>0.021245245869224039</v>
+        <v>0.021733296902592063</v>
       </c>
       <c r="EO4">
-        <v>0.021478284300552441</v>
+        <v>0.02173977152525668</v>
       </c>
       <c r="EP4">
-        <v>0.021311069187713166</v>
+        <v>0.02155988736102428</v>
       </c>
       <c r="EQ4">
-        <v>0.021438813578303621</v>
+        <v>0.021707547013816716</v>
       </c>
       <c r="ER4">
-        <v>0.0214871300017524</v>
+        <v>0.021920404322894133</v>
       </c>
       <c r="ES4">
-        <v>0.02155661742506192</v>
+        <v>0.021580212113552141</v>
       </c>
       <c r="ET4">
-        <v>0.021399881121148906</v>
+        <v>0.021845431112743272</v>
       </c>
       <c r="EU4">
-        <v>0.021538525147120416</v>
+        <v>0.021735453834566276</v>
       </c>
       <c r="EV4">
-        <v>0.021672302245619945</v>
+        <v>0.022035422453860896</v>
       </c>
       <c r="EW4">
-        <v>0.021547557381875224</v>
+        <v>0.021754937442893866</v>
       </c>
       <c r="EX4">
-        <v>0.021760916055783525</v>
+        <v>0.021744096711886814</v>
       </c>
       <c r="EY4">
-        <v>0.02165114087608129</v>
+        <v>0.021952807903137746</v>
       </c>
       <c r="EZ4">
-        <v>0.021792683037067814</v>
+        <v>0.022113032763761673</v>
       </c>
       <c r="FA4">
-        <v>0.02186477176925326</v>
+        <v>0.021890636812430777</v>
       </c>
       <c r="FB4">
-        <v>0.021925745559464877</v>
+        <v>0.021938876771938527</v>
       </c>
       <c r="FC4">
-        <v>0.021719875235942959</v>
+        <v>0.022054636092514197</v>
       </c>
       <c r="FD4">
-        <v>0.02185723481336739</v>
+        <v>0.021922707577652037</v>
       </c>
       <c r="FE4">
-        <v>0.021864771991239023</v>
+        <v>0.021877000736920817</v>
       </c>
       <c r="FF4">
-        <v>0.021698373626312856</v>
+        <v>0.022066708120336401</v>
       </c>
       <c r="FG4">
-        <v>0.021872327861937161</v>
+        <v>0.022160086707074582</v>
       </c>
       <c r="FH4">
-        <v>0.021895107688398325</v>
+        <v>0.022187668197820427</v>
       </c>
       <c r="FI4">
-        <v>0.021736706862757211</v>
+        <v>0.02238535762424719</v>
       </c>
       <c r="FJ4">
-        <v>0.021907836678265069</v>
+        <v>0.022160086878491147</v>
       </c>
       <c r="FK4">
-        <v>0.021785323112077939</v>
+        <v>0.022503044061826502</v>
       </c>
       <c r="FL4">
-        <v>0.021905286805286753</v>
+        <v>0.022292735207620061</v>
       </c>
       <c r="FM4">
-        <v>0.022030119978616591</v>
+        <v>0.022182634919328703</v>
       </c>
       <c r="FN4">
-        <v>0.022193482520428114</v>
+        <v>0.022269360503686771</v>
       </c>
       <c r="FO4">
-        <v>0.021879902800801564</v>
+        <v>0.022345323174416412</v>
       </c>
       <c r="FP4">
-        <v>0.021948926460355258</v>
+        <v>0.022494689717847641</v>
       </c>
       <c r="FQ4">
-        <v>0.021930882561742603</v>
+        <v>0.022316289268397856</v>
       </c>
       <c r="FR4">
-        <v>0.022094458443100977</v>
+        <v>0.022225689248902954</v>
       </c>
       <c r="FS4">
-        <v>0.022121657756931437</v>
+        <v>0.022180121642785534</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015605972184672827</v>
+        <v>0.015996427248878158</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -8228,526 +8228,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.1421821005990427</v>
+        <v>1.2011152031803138</v>
       </c>
       <c r="C3">
-        <v>-1.6999079313364538</v>
+        <v>-1.7003101024177456</v>
       </c>
       <c r="D3">
-        <v>-1.7691442898516627</v>
+        <v>-1.7548610342662267</v>
       </c>
       <c r="E3">
-        <v>-1.7344092746969535</v>
+        <v>-1.7325769208099846</v>
       </c>
       <c r="F3">
-        <v>-1.7237268213570827</v>
+        <v>-1.7086967245285452</v>
       </c>
       <c r="G3">
-        <v>-1.7348934227237727</v>
+        <v>-1.7067263872782625</v>
       </c>
       <c r="H3">
-        <v>-1.6938979398190386</v>
+        <v>-1.6935180320025647</v>
       </c>
       <c r="I3">
-        <v>0.82709641123447342</v>
+        <v>0.83960839564012535</v>
       </c>
       <c r="J3">
-        <v>0.76206104233794725</v>
+        <v>0.75067236699979234</v>
       </c>
       <c r="K3">
-        <v>0.61496463626136977</v>
+        <v>0.60786272196226565</v>
       </c>
       <c r="L3">
-        <v>0.47474721148946769</v>
+        <v>0.469586877096139</v>
       </c>
       <c r="M3">
-        <v>0.3410114545653663</v>
+        <v>0.35109921488606088</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2699417837390241</v>
+        <v>1.3384660505154187</v>
       </c>
       <c r="P3">
-        <v>1.4050233860349839</v>
+        <v>1.4529149938237962</v>
       </c>
       <c r="Q3">
-        <v>-0.18530559372944863</v>
+        <v>-0.079806798040216287</v>
       </c>
       <c r="R3">
-        <v>-0.11209785513431118</v>
+        <v>-0.15499399853356183</v>
       </c>
       <c r="S3">
-        <v>-0.13803363696314827</v>
+        <v>-0.08658619050619247</v>
       </c>
       <c r="T3">
-        <v>-0.1546044184827732</v>
+        <v>-0.082346485379581169</v>
       </c>
       <c r="U3">
-        <v>-0.16869992316618929</v>
+        <v>-0.15115165807265241</v>
       </c>
       <c r="V3">
-        <v>-0.12983293162361079</v>
+        <v>-0.073055512310282344</v>
       </c>
       <c r="W3">
-        <v>-0.060991957127771959</v>
+        <v>-0.066198268477451555</v>
       </c>
       <c r="X3">
-        <v>-0.078811987687744139</v>
+        <v>-0.069950883865431593</v>
       </c>
       <c r="Y3">
-        <v>-0.10133379853259414</v>
+        <v>0.027748003234622346</v>
       </c>
       <c r="Z3">
-        <v>-0.029322125322812718</v>
+        <v>0.006530435716147716</v>
       </c>
       <c r="AA3">
-        <v>-0.026975209904007168</v>
+        <v>0.029199759574421134</v>
       </c>
       <c r="AB3">
-        <v>-0.040088549423908534</v>
+        <v>0.0063379184982376808</v>
       </c>
       <c r="AC3">
-        <v>-0.058407375096911907</v>
+        <v>0.033863902496645649</v>
       </c>
       <c r="AD3">
-        <v>-0.015961134620477459</v>
+        <v>0.0053209487267701448</v>
       </c>
       <c r="AE3">
-        <v>-0.035465943699113919</v>
+        <v>0.043303143587324441</v>
       </c>
       <c r="AF3">
-        <v>0.0061275965428913507</v>
+        <v>0.076901778305149271</v>
       </c>
       <c r="AG3">
-        <v>-0.074892378560681858</v>
+        <v>0.097482667882884844</v>
       </c>
       <c r="AH3">
-        <v>0.006792323880342177</v>
+        <v>0.055890025923402149</v>
       </c>
       <c r="AI3">
-        <v>0.0059743945312127249</v>
+        <v>0.060572227674557964</v>
       </c>
       <c r="AJ3">
-        <v>-0.0067418296420443677</v>
+        <v>0.063679523502134239</v>
       </c>
       <c r="AK3">
-        <v>0.0098320670712489927</v>
+        <v>0.047878339050672472</v>
       </c>
       <c r="AL3">
-        <v>0.026171944795215833</v>
+        <v>0.013834958246651721</v>
       </c>
       <c r="AM3">
-        <v>0.072284552552895981</v>
+        <v>0.10276844070374921</v>
       </c>
       <c r="AN3">
-        <v>0.070130892255156368</v>
+        <v>0.053316821835050675</v>
       </c>
       <c r="AO3">
-        <v>0.064243599389729164</v>
+        <v>0.049301919822312475</v>
       </c>
       <c r="AP3">
-        <v>0.031668427687951063</v>
+        <v>0.075219601715182091</v>
       </c>
       <c r="AQ3">
-        <v>0.020024783649323759</v>
+        <v>0.099781367280840416</v>
       </c>
       <c r="AR3">
-        <v>0.093084718616383497</v>
+        <v>0.12306843445785098</v>
       </c>
       <c r="AS3">
-        <v>-0.015781277451418239</v>
+        <v>0.097577276017537615</v>
       </c>
       <c r="AT3">
-        <v>0.036310120627039186</v>
+        <v>0.070573584314822149</v>
       </c>
       <c r="AU3">
-        <v>0.045523432878868821</v>
+        <v>0.078359543886509703</v>
       </c>
       <c r="AV3">
-        <v>0.0057886859023801402</v>
+        <v>0.069759870321751641</v>
       </c>
       <c r="AW3">
-        <v>0.078632936302668696</v>
+        <v>0.10446584121279347</v>
       </c>
       <c r="AX3">
-        <v>0.00017151698251338958</v>
+        <v>0.13367186125625038</v>
       </c>
       <c r="AY3">
-        <v>-0.017671779056803675</v>
+        <v>0.097695578626581403</v>
       </c>
       <c r="AZ3">
-        <v>0.069769793164124266</v>
+        <v>0.12042009967957525</v>
       </c>
       <c r="BA3">
-        <v>0.026988509295261857</v>
+        <v>0.061090903384372806</v>
       </c>
       <c r="BB3">
-        <v>0.061569539159463657</v>
+        <v>0.064230276546403897</v>
       </c>
       <c r="BC3">
-        <v>0.088469283556602829</v>
+        <v>0.14127773009817293</v>
       </c>
       <c r="BD3">
-        <v>0.054077933976197458</v>
+        <v>0.13842020306914568</v>
       </c>
       <c r="BE3">
-        <v>0.081090511834516474</v>
+        <v>0.12063149523738884</v>
       </c>
       <c r="BF3">
-        <v>0.10016312426751997</v>
+        <v>0.094819743832236833</v>
       </c>
       <c r="BG3">
-        <v>0.069519904529095053</v>
+        <v>0.075566525056603759</v>
       </c>
       <c r="BH3">
-        <v>0.081145544954820251</v>
+        <v>0.15333610336437317</v>
       </c>
       <c r="BI3">
-        <v>0.068742593636289651</v>
+        <v>0.079548339971561008</v>
       </c>
       <c r="BJ3">
-        <v>0.0958392014791737</v>
+        <v>0.10485633891190083</v>
       </c>
       <c r="BK3">
-        <v>0.036562107058411793</v>
+        <v>0.13554638195485497</v>
       </c>
       <c r="BL3">
-        <v>0.10856718916106711</v>
+        <v>0.10954862152725943</v>
       </c>
       <c r="BM3">
-        <v>0.032574849128627896</v>
+        <v>0.10877881494729132</v>
       </c>
       <c r="BN3">
-        <v>0.079366282231358762</v>
+        <v>0.10097494770890546</v>
       </c>
       <c r="BO3">
-        <v>0.02957221926781407</v>
+        <v>0.10989217906672963</v>
       </c>
       <c r="BP3">
-        <v>0.098930234126734226</v>
+        <v>0.073107505936298861</v>
       </c>
       <c r="BQ3">
-        <v>0.090769421362408689</v>
+        <v>0.048830880140173782</v>
       </c>
       <c r="BR3">
-        <v>0.055616215695236393</v>
+        <v>0.12365524460338156</v>
       </c>
       <c r="BS3">
-        <v>0.01097439530446814</v>
+        <v>0.080990932137849969</v>
       </c>
       <c r="BT3">
-        <v>0.023017951642411865</v>
+        <v>0.06072931107496727</v>
       </c>
       <c r="BU3">
-        <v>0.026201502699117932</v>
+        <v>0.036904599524740948</v>
       </c>
       <c r="BV3">
-        <v>-0.017693726975031489</v>
+        <v>0.039300122487223609</v>
       </c>
       <c r="BW3">
-        <v>0.062789518783784734</v>
+        <v>0.075474337911904874</v>
       </c>
       <c r="BX3">
-        <v>0.058222260346785328</v>
+        <v>0.099010278792841175</v>
       </c>
       <c r="BY3">
-        <v>-0.036878982070539718</v>
+        <v>-0.062484237088453166</v>
       </c>
       <c r="BZ3">
-        <v>0.190033037521914</v>
+        <v>0.22183490016257312</v>
       </c>
       <c r="CA3">
-        <v>0.12460147565909548</v>
+        <v>0.17786137189465454</v>
       </c>
       <c r="CB3">
-        <v>0.1487609031333286</v>
+        <v>0.2160330395906063</v>
       </c>
       <c r="CC3">
-        <v>0.088837970881768646</v>
+        <v>0.11496493679906893</v>
       </c>
       <c r="CD3">
-        <v>0.012748914189722488</v>
+        <v>0.080074035715949163</v>
       </c>
       <c r="CE3">
-        <v>0.11590053340493368</v>
+        <v>0.1810405390937361</v>
       </c>
       <c r="CF3">
-        <v>0.075677636544016616</v>
+        <v>0.12425495249793762</v>
       </c>
       <c r="CG3">
-        <v>0.030111352802989103</v>
+        <v>0.054997868157415045</v>
       </c>
       <c r="CH3">
-        <v>0.0039162719297104638</v>
+        <v>0.041423169934279538</v>
       </c>
       <c r="CI3">
-        <v>-0.035968232550527043</v>
+        <v>-0.00068533676770910173</v>
       </c>
       <c r="CJ3">
-        <v>0.049993483289678835</v>
+        <v>0.10113099431400464</v>
       </c>
       <c r="CK3">
-        <v>0.02426285065024723</v>
+        <v>0.082834599483610716</v>
       </c>
       <c r="CL3">
-        <v>-0.028333209747292989</v>
+        <v>0.050224239005611154</v>
       </c>
       <c r="CM3">
-        <v>-0.054285491328044867</v>
+        <v>0.039392919810999141</v>
       </c>
       <c r="CN3">
-        <v>-0.063610765828009314</v>
+        <v>-0.040556717455825848</v>
       </c>
       <c r="CO3">
-        <v>0.019062266637911076</v>
+        <v>0.083960968298803645</v>
       </c>
       <c r="CP3">
-        <v>0.0069836891188112052</v>
+        <v>0.059304792416173688</v>
       </c>
       <c r="CQ3">
-        <v>0.0016024035940153266</v>
+        <v>0.00656376517256059</v>
       </c>
       <c r="CR3">
-        <v>-0.077182062764259637</v>
+        <v>0.020929002849445096</v>
       </c>
       <c r="CS3">
-        <v>0.0019358858824625512</v>
+        <v>-0.021966110883382611</v>
       </c>
       <c r="CT3">
-        <v>0.27405424012455853</v>
+        <v>0.30192015237380104</v>
       </c>
       <c r="CU3">
-        <v>0.24238768621003559</v>
+        <v>0.27704867773384445</v>
       </c>
       <c r="CV3">
-        <v>0.24447707625127058</v>
+        <v>0.29639750334466025</v>
       </c>
       <c r="CW3">
-        <v>0.19635712201892136</v>
+        <v>0.22702152446112231</v>
       </c>
       <c r="CX3">
-        <v>0.14537554146240667</v>
+        <v>0.23978632758370733</v>
       </c>
       <c r="CY3">
-        <v>0.24172896291882057</v>
+        <v>0.2528201532163033</v>
       </c>
       <c r="CZ3">
-        <v>0.20046827910836509</v>
+        <v>0.22742643481659106</v>
       </c>
       <c r="DA3">
-        <v>0.15086066184956595</v>
+        <v>0.2078992660618551</v>
       </c>
       <c r="DB3">
-        <v>0.13621435301256826</v>
+        <v>0.19374903123290035</v>
       </c>
       <c r="DC3">
-        <v>0.12649086275160856</v>
+        <v>0.15023406186739771</v>
       </c>
       <c r="DD3">
-        <v>0.15967271795860591</v>
+        <v>0.23246500204479503</v>
       </c>
       <c r="DE3">
-        <v>0.12455666681743173</v>
+        <v>0.18438970068925106</v>
       </c>
       <c r="DF3">
-        <v>0.097305505481091653</v>
+        <v>0.14305212459143316</v>
       </c>
       <c r="DG3">
-        <v>0.097536847865087789</v>
+        <v>0.13159852462623242</v>
       </c>
       <c r="DH3">
-        <v>0.08715196907602954</v>
+        <v>0.11070424121122689</v>
       </c>
       <c r="DI3">
-        <v>0.13086891675094017</v>
+        <v>0.17598225657162339</v>
       </c>
       <c r="DJ3">
-        <v>0.11058069756426173</v>
+        <v>0.16109521351564587</v>
       </c>
       <c r="DK3">
-        <v>0.088340270634294532</v>
+        <v>0.1452597189990773</v>
       </c>
       <c r="DL3">
-        <v>0.099121366552552839</v>
+        <v>0.1194256841741736</v>
       </c>
       <c r="DM3">
-        <v>0.044634986189573934</v>
+        <v>0.10464194879990936</v>
       </c>
       <c r="DN3">
-        <v>0.21538798292296002</v>
+        <v>0.31271686039583829</v>
       </c>
       <c r="DO3">
-        <v>0.21606837353392105</v>
+        <v>0.25463872436782442</v>
       </c>
       <c r="DP3">
-        <v>0.22376819760680319</v>
+        <v>0.25333798105043731</v>
       </c>
       <c r="DQ3">
-        <v>0.18657721899043661</v>
+        <v>0.23415987697072743</v>
       </c>
       <c r="DR3">
-        <v>0.12227300392062465</v>
+        <v>0.21787073850822461</v>
       </c>
       <c r="DS3">
-        <v>0.19522771715835743</v>
+        <v>0.20981032337243485</v>
       </c>
       <c r="DT3">
-        <v>0.15664983272261812</v>
+        <v>0.19299541888464433</v>
       </c>
       <c r="DU3">
-        <v>0.15612809212608275</v>
+        <v>0.17854355116147549</v>
       </c>
       <c r="DV3">
-        <v>0.12574337067127916</v>
+        <v>0.1961770749544102</v>
       </c>
       <c r="DW3">
-        <v>0.1215435481176704</v>
+        <v>0.20178674468244229</v>
       </c>
       <c r="DX3">
-        <v>0.12915062135103031</v>
+        <v>0.17913171221251842</v>
       </c>
       <c r="DY3">
-        <v>0.084606059751109866</v>
+        <v>0.13755169750870877</v>
       </c>
       <c r="DZ3">
-        <v>0.091454665751209391</v>
+        <v>0.16757352284341637</v>
       </c>
       <c r="EA3">
-        <v>0.082189496926359948</v>
+        <v>0.11466406657390539</v>
       </c>
       <c r="EB3">
-        <v>0.084062117870003894</v>
+        <v>0.12224449567130004</v>
       </c>
       <c r="EC3">
-        <v>0.041285935712827522</v>
+        <v>0.15037293144355385</v>
       </c>
       <c r="ED3">
-        <v>0.08631151269954572</v>
+        <v>0.11229953695249195</v>
       </c>
       <c r="EE3">
-        <v>0.074619812906329602</v>
+        <v>0.13672001294252212</v>
       </c>
       <c r="EF3">
-        <v>0.090174915598616331</v>
+        <v>0.14083324465720201</v>
       </c>
       <c r="EG3">
-        <v>0.085255392597691923</v>
+        <v>0.11298840524783778</v>
       </c>
       <c r="EH3">
-        <v>0.092946076981169745</v>
+        <v>0.11465936589637687</v>
       </c>
       <c r="EI3">
-        <v>0.060367175428382637</v>
+        <v>0.11106637880288434</v>
       </c>
       <c r="EJ3">
-        <v>0.073118300895084462</v>
+        <v>0.07067084574553413</v>
       </c>
       <c r="EK3">
-        <v>0.053372844693257926</v>
+        <v>0.098304416532666264</v>
       </c>
       <c r="EL3">
-        <v>0.010683837054892089</v>
+        <v>0.090974199901000363</v>
       </c>
       <c r="EM3">
-        <v>0.027061535068329409</v>
+        <v>0.1315637988561161</v>
       </c>
       <c r="EN3">
-        <v>0.065692855065287062</v>
+        <v>0.07124591589674785</v>
       </c>
       <c r="EO3">
-        <v>0.020323066408494194</v>
+        <v>0.07607186351619892</v>
       </c>
       <c r="EP3">
-        <v>0.052354987005444185</v>
+        <v>0.10936258433488036</v>
       </c>
       <c r="EQ3">
-        <v>0.030940124827242701</v>
+        <v>0.089839964882294024</v>
       </c>
       <c r="ER3">
-        <v>0.026168814152300154</v>
+        <v>0.047818805448157656</v>
       </c>
       <c r="ES3">
-        <v>0.014474260441722436</v>
+        <v>0.11116133091060593</v>
       </c>
       <c r="ET3">
-        <v>0.044198932361504725</v>
+        <v>0.064057344411172723</v>
       </c>
       <c r="EU3">
-        <v>0.026785701550004825</v>
+        <v>0.087160296081019675</v>
       </c>
       <c r="EV3">
-        <v>-0.0021334265900418621</v>
+        <v>0.031969502159025866</v>
       </c>
       <c r="EW3">
-        <v>0.024616000328463266</v>
+        <v>0.091036774048104868</v>
       </c>
       <c r="EX3">
-        <v>-0.015410347279189504</v>
+        <v>0.09171916972850562</v>
       </c>
       <c r="EY3">
-        <v>0.011111989008837116</v>
+        <v>0.051714596437370829</v>
       </c>
       <c r="EZ3">
-        <v>-0.01148946771043278</v>
+        <v>0.02449499534105631</v>
       </c>
       <c r="FA3">
-        <v>-0.024059495298931831</v>
+        <v>0.073735473599718868</v>
       </c>
       <c r="FB3">
-        <v>-0.033461814176463836</v>
+        <v>0.065833861799667354</v>
       </c>
       <c r="FC3">
-        <v>0.0070968439933590532</v>
+        <v>0.045790657613178694</v>
       </c>
       <c r="FD3">
-        <v>-0.013079274158342893</v>
+        <v>0.07985616095705296</v>
       </c>
       <c r="FE3">
-        <v>-0.01340169956131643</v>
+        <v>0.087395002654477985</v>
       </c>
       <c r="FF3">
-        <v>0.021146898545315509</v>
+        <v>0.053390339071114963</v>
       </c>
       <c r="FG3">
-        <v>-0.0065333321808816588</v>
+        <v>0.04280914723630945</v>
       </c>
       <c r="FH3">
-        <v>-0.0087152483215955749</v>
+        <v>0.04038998269532048</v>
       </c>
       <c r="FI3">
-        <v>0.022916782528470868</v>
+        <v>0.0038036383531085483</v>
       </c>
       <c r="FJ3">
-        <v>-0.0027639721346630285</v>
+        <v>0.04699388754831578</v>
       </c>
       <c r="FK3">
-        <v>0.02417707514075958</v>
+        <v>-0.008265533982554852</v>
       </c>
       <c r="FL3">
-        <v>0.0018071462696909266</v>
+        <v>0.033036108736360051</v>
       </c>
       <c r="FM3">
-        <v>-0.01825510462729275</v>
+        <v>0.057153279864335937</v>
       </c>
       <c r="FN3">
-        <v>-0.044669004585149698</v>
+        <v>0.045271227438929022</v>
       </c>
       <c r="FO3">
-        <v>0.019034850714610238</v>
+        <v>0.03356284880979489</v>
       </c>
       <c r="FP3">
-        <v>0.010325255004209406</v>
+        <v>0.007477707845515668</v>
       </c>
       <c r="FQ3">
-        <v>0.015423145719498028</v>
+        <v>0.043481420906766099</v>
       </c>
       <c r="FR3">
-        <v>-0.0091090704253619162</v>
+        <v>0.063579261062435652</v>
       </c>
       <c r="FS3">
-        <v>-0.01136480446881442</v>
+        <v>0.078127029608600837</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4960660157264751</v>
+        <v>-5.5453806994137027</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8770,526 +8770,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019448426843772588</v>
+        <v>0.019836169157411886</v>
       </c>
       <c r="C4">
-        <v>0.016540567331613552</v>
+        <v>0.0165765969381843</v>
       </c>
       <c r="D4">
-        <v>0.017169785852335546</v>
+        <v>0.017224530714128584</v>
       </c>
       <c r="E4">
-        <v>0.017305845387023306</v>
+        <v>0.017331385165794085</v>
       </c>
       <c r="F4">
-        <v>0.017756595888976958</v>
+        <v>0.017662956823373679</v>
       </c>
       <c r="G4">
-        <v>0.022103627562934207</v>
+        <v>0.021967148345809547</v>
       </c>
       <c r="H4">
-        <v>0.026403955689366057</v>
+        <v>0.02648431835841868</v>
       </c>
       <c r="I4">
-        <v>0.012762898556887585</v>
+        <v>0.012844042237493679</v>
       </c>
       <c r="J4">
-        <v>0.010892583551064516</v>
+        <v>0.010860981022698451</v>
       </c>
       <c r="K4">
-        <v>0.0090577293500787911</v>
+        <v>0.0091253673045217018</v>
       </c>
       <c r="L4">
-        <v>0.0096708086409178946</v>
+        <v>0.0096800875269693349</v>
       </c>
       <c r="M4">
-        <v>0.01011764906251532</v>
+        <v>0.010115389207286244</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.027092979830643269</v>
+        <v>0.027268489149038875</v>
       </c>
       <c r="P4">
-        <v>0.026588908370671058</v>
+        <v>0.026849894262647285</v>
       </c>
       <c r="Q4">
-        <v>0.038161230407153739</v>
+        <v>0.037675589920141812</v>
       </c>
       <c r="R4">
-        <v>0.037288555547867225</v>
+        <v>0.038595244744049156</v>
       </c>
       <c r="S4">
-        <v>0.037603435108291797</v>
+        <v>0.037770943776164856</v>
       </c>
       <c r="T4">
-        <v>0.037810349341212794</v>
+        <v>0.037728404531648919</v>
       </c>
       <c r="U4">
-        <v>0.03798933428241677</v>
+        <v>0.038571374028043649</v>
       </c>
       <c r="V4">
-        <v>0.037528694069223177</v>
+        <v>0.037633622896761455</v>
       </c>
       <c r="W4">
-        <v>0.036736549851114596</v>
+        <v>0.037560781959801635</v>
       </c>
       <c r="X4">
-        <v>0.036948117806819662</v>
+        <v>0.037612733465185851</v>
       </c>
       <c r="Y4">
-        <v>0.037217078795578992</v>
+        <v>0.036508035422888226</v>
       </c>
       <c r="Z4">
-        <v>0.036404152762878124</v>
+        <v>0.036751473654038497</v>
       </c>
       <c r="AA4">
-        <v>0.036386167380622475</v>
+        <v>0.036508035424329829</v>
       </c>
       <c r="AB4">
-        <v>0.036540633136397487</v>
+        <v>0.036769870768641334</v>
       </c>
       <c r="AC4">
-        <v>0.03675551150911284</v>
+        <v>0.036472732021985206</v>
       </c>
       <c r="AD4">
-        <v>0.036288121900430854</v>
+        <v>0.036797562923573467</v>
       </c>
       <c r="AE4">
-        <v>0.036513110347469367</v>
+        <v>0.03638530870945339</v>
       </c>
       <c r="AF4">
-        <v>0.03606210056281621</v>
+        <v>0.036030666116226386</v>
       </c>
       <c r="AG4">
-        <v>0.03697748631481617</v>
+        <v>0.035820747414600611</v>
       </c>
       <c r="AH4">
-        <v>0.036070648665665395</v>
+        <v>0.036273408885630715</v>
       </c>
       <c r="AI4">
-        <v>0.036087779123827587</v>
+        <v>0.036230887245272805</v>
       </c>
       <c r="AJ4">
-        <v>0.036235257776740977</v>
+        <v>0.036205510077007556</v>
       </c>
       <c r="AK4">
-        <v>0.036062100566652912</v>
+        <v>0.036385308714094254</v>
       </c>
       <c r="AL4">
-        <v>0.035893498974270806</v>
+        <v>0.0367698707759005</v>
       </c>
       <c r="AM4">
-        <v>0.035413248659534796</v>
+        <v>0.035812813843513085</v>
       </c>
       <c r="AN4">
-        <v>0.035444131870956193</v>
+        <v>0.036350669289982644</v>
       </c>
       <c r="AO4">
-        <v>0.035514192912762234</v>
+        <v>0.036402698728464383</v>
       </c>
       <c r="AP4">
-        <v>0.035868590229204994</v>
+        <v>0.036129982664008693</v>
       </c>
       <c r="AQ4">
-        <v>0.036002581385042642</v>
+        <v>0.035876569602986928</v>
       </c>
       <c r="AR4">
-        <v>0.035238645786856926</v>
+        <v>0.035640818986677321</v>
       </c>
       <c r="AS4">
-        <v>0.036413163988845323</v>
+        <v>0.035916752920355462</v>
       </c>
       <c r="AT4">
-        <v>0.035852038755459427</v>
+        <v>0.036213957877797472</v>
       </c>
       <c r="AU4">
-        <v>0.035761774581452507</v>
+        <v>0.036138330191713544</v>
       </c>
       <c r="AV4">
-        <v>0.036200252771367562</v>
+        <v>0.036239368885704629</v>
       </c>
       <c r="AW4">
-        <v>0.035428670796174219</v>
+        <v>0.035876569608134512</v>
       </c>
       <c r="AX4">
-        <v>0.036279281323504955</v>
+        <v>0.03557945769804232</v>
       </c>
       <c r="AY4">
-        <v>0.036485701657762132</v>
+        <v>0.035965318388751458</v>
       </c>
       <c r="AZ4">
-        <v>0.035545589037519094</v>
+        <v>0.035734035458909574</v>
       </c>
       <c r="BA4">
-        <v>0.036011050276937538</v>
+        <v>0.036376631332498459</v>
       </c>
       <c r="BB4">
-        <v>0.035648741247082671</v>
+        <v>0.036350669301325973</v>
       </c>
       <c r="BC4">
-        <v>0.035374862791014455</v>
+        <v>0.035541419856372873</v>
       </c>
       <c r="BD4">
-        <v>0.035745501327501386</v>
+        <v>0.035579457703515276</v>
       </c>
       <c r="BE4">
-        <v>0.034778718124978569</v>
+        <v>0.035005240528358225</v>
       </c>
       <c r="BF4">
-        <v>0.034577981923686066</v>
+        <v>0.035300920593029798</v>
       </c>
       <c r="BG4">
-        <v>0.0349247222014522</v>
+        <v>0.035527022329083412</v>
       </c>
       <c r="BH4">
-        <v>0.03480425486411487</v>
+        <v>0.034673690918319712</v>
       </c>
       <c r="BI4">
-        <v>0.034950826927098021</v>
+        <v>0.035499488906344932</v>
       </c>
       <c r="BJ4">
-        <v>0.034505215170040224</v>
+        <v>0.035131682729788311</v>
       </c>
       <c r="BK4">
-        <v>0.035169252186146263</v>
+        <v>0.034803906746151594</v>
       </c>
       <c r="BL4">
-        <v>0.034384934066246618</v>
+        <v>0.03509729147024946</v>
       </c>
       <c r="BM4">
-        <v>0.035232231892537741</v>
+        <v>0.035114466156347834</v>
       </c>
       <c r="BN4">
-        <v>0.034719170499714416</v>
+        <v>0.035209721403565833</v>
       </c>
       <c r="BO4">
-        <v>0.035312674864795744</v>
+        <v>0.035051518364273372</v>
       </c>
       <c r="BP4">
-        <v>0.034556316972250846</v>
+        <v>0.035468410391911523</v>
       </c>
       <c r="BQ4">
-        <v>0.034653321289495789</v>
+        <v>0.035752226401017259</v>
       </c>
       <c r="BR4">
-        <v>0.035047886449514003</v>
+        <v>0.034926523837662954</v>
       </c>
       <c r="BS4">
-        <v>0.03556029652642069</v>
+        <v>0.03540597077101619</v>
       </c>
       <c r="BT4">
-        <v>0.036095467940792006</v>
+        <v>0.036244630238075067</v>
       </c>
       <c r="BU4">
-        <v>0.036068281047157251</v>
+        <v>0.036521219821967314</v>
       </c>
       <c r="BV4">
-        <v>0.036576289718134751</v>
+        <v>0.036502416744501033</v>
       </c>
       <c r="BW4">
-        <v>0.036273212371147806</v>
+        <v>0.036852179651635009</v>
       </c>
       <c r="BX4">
-        <v>0.036329874383101403</v>
+        <v>0.036609187011223704</v>
       </c>
       <c r="BY4">
-        <v>0.026130159559302958</v>
+        <v>0.026678478820777597</v>
       </c>
       <c r="BZ4">
-        <v>0.022190271998833586</v>
+        <v>0.022519811480412794</v>
       </c>
       <c r="CA4">
-        <v>0.022365623162701548</v>
+        <v>0.022642519194188509</v>
       </c>
       <c r="CB4">
-        <v>0.021557454636715722</v>
+        <v>0.021802682071809725</v>
       </c>
       <c r="CC4">
-        <v>0.021744005348299886</v>
+        <v>0.022100468989090832</v>
       </c>
       <c r="CD4">
-        <v>0.021921754375272565</v>
+        <v>0.022162347466351529</v>
       </c>
       <c r="CE4">
-        <v>0.021407119541471349</v>
+        <v>0.021687873971365245</v>
       </c>
       <c r="CF4">
-        <v>0.021564163485766674</v>
+        <v>0.021896124589470094</v>
       </c>
       <c r="CG4">
-        <v>0.021745173466201351</v>
+        <v>0.022158264656250995</v>
       </c>
       <c r="CH4">
-        <v>0.021863136590222442</v>
+        <v>0.022231228748402575</v>
       </c>
       <c r="CI4">
-        <v>0.02191977533250708</v>
+        <v>0.022287744317775027</v>
       </c>
       <c r="CJ4">
-        <v>0.022441265027069196</v>
+        <v>0.022722192282419864</v>
       </c>
       <c r="CK4">
-        <v>0.022565569898941849</v>
+        <v>0.022816173562321188</v>
       </c>
       <c r="CL4">
-        <v>0.02280232053177279</v>
+        <v>0.022968456762558782</v>
       </c>
       <c r="CM4">
-        <v>0.022935206210961262</v>
+        <v>0.023035763355062241</v>
       </c>
       <c r="CN4">
-        <v>0.022937635363425767</v>
+        <v>0.023323130944939541</v>
       </c>
       <c r="CO4">
-        <v>0.023373780384417359</v>
+        <v>0.023515654792383215</v>
       </c>
       <c r="CP4">
-        <v>0.02345100293796035</v>
+        <v>0.023645629357406876</v>
       </c>
       <c r="CQ4">
-        <v>0.023634283265460687</v>
+        <v>0.02405198095480492</v>
       </c>
       <c r="CR4">
-        <v>0.024022824026235293</v>
+        <v>0.024010619027005863</v>
       </c>
       <c r="CS4">
-        <v>0.023443464191725522</v>
+        <v>0.023995129858765264</v>
       </c>
       <c r="CT4">
-        <v>0.020006776771614231</v>
+        <v>0.020374478311254173</v>
       </c>
       <c r="CU4">
-        <v>0.020078688947747815</v>
+        <v>0.020432781115773957</v>
       </c>
       <c r="CV4">
-        <v>0.01955529268661255</v>
+        <v>0.019858573697026902</v>
       </c>
       <c r="CW4">
-        <v>0.019674026574714565</v>
+        <v>0.020023091310059041</v>
       </c>
       <c r="CX4">
-        <v>0.019805265239820406</v>
+        <v>0.020009439165332793</v>
       </c>
       <c r="CY4">
-        <v>0.019284792371278527</v>
+        <v>0.019713749809685627</v>
       </c>
       <c r="CZ4">
-        <v>0.019404397823032573</v>
+        <v>0.019794514132274146</v>
       </c>
       <c r="DA4">
-        <v>0.019550793705770435</v>
+        <v>0.019861983381058736</v>
       </c>
       <c r="DB4">
-        <v>0.019607677553496343</v>
+        <v>0.019916499911050108</v>
       </c>
       <c r="DC4">
-        <v>0.019651920060896402</v>
+        <v>0.020052458390941719</v>
       </c>
       <c r="DD4">
-        <v>0.019859918193513522</v>
+        <v>0.020105531729542131</v>
       </c>
       <c r="DE4">
-        <v>0.019981292823658799</v>
+        <v>0.020261265274922328</v>
       </c>
       <c r="DF4">
-        <v>0.020082124291508362</v>
+        <v>0.020403044091373328</v>
       </c>
       <c r="DG4">
-        <v>0.020098979347827169</v>
+        <v>0.020455846493082783</v>
       </c>
       <c r="DH4">
-        <v>0.02014933286695017</v>
+        <v>0.020539258853605958</v>
       </c>
       <c r="DI4">
-        <v>0.02027567051098924</v>
+        <v>0.020574751299975158</v>
       </c>
       <c r="DJ4">
-        <v>0.02036069116614448</v>
+        <v>0.02064062519848547</v>
       </c>
       <c r="DK4">
-        <v>0.020453991932716131</v>
+        <v>0.02071062120070314</v>
       </c>
       <c r="DL4">
-        <v>0.020434854723791394</v>
+        <v>0.020815811338940542</v>
       </c>
       <c r="DM4">
-        <v>0.020643999090183166</v>
+        <v>0.020884716946408925</v>
       </c>
       <c r="DN4">
-        <v>0.019841893339551202</v>
+        <v>0.019969654995789253</v>
       </c>
       <c r="DO4">
-        <v>0.019858787860629241</v>
+        <v>0.020204717008852176</v>
       </c>
       <c r="DP4">
-        <v>0.019848867990184853</v>
+        <v>0.020228929303814092</v>
       </c>
       <c r="DQ4">
-        <v>0.02001336527840054</v>
+        <v>0.020322416941368313</v>
       </c>
       <c r="DR4">
-        <v>0.020294806590741069</v>
+        <v>0.020405902278658124</v>
       </c>
       <c r="DS4">
-        <v>0.020017138244953239</v>
+        <v>0.020457428475655206</v>
       </c>
       <c r="DT4">
-        <v>0.020192527015242802</v>
+        <v>0.020544896189679741</v>
       </c>
       <c r="DU4">
-        <v>0.020214408770260754</v>
+        <v>0.020623767796214172</v>
       </c>
       <c r="DV4">
-        <v>0.020361183102462013</v>
+        <v>0.020570423007732635</v>
       </c>
       <c r="DW4">
-        <v>0.020398798834207518</v>
+        <v>0.02056695675772606</v>
       </c>
       <c r="DX4">
-        <v>0.020386194061678242</v>
+        <v>0.020680557886387157</v>
       </c>
       <c r="DY4">
-        <v>0.020599455005273982</v>
+        <v>0.02087776036924157</v>
       </c>
       <c r="DZ4">
-        <v>0.02058898131804197</v>
+        <v>0.020768037579532023</v>
       </c>
       <c r="EA4">
-        <v>0.020650023030426422</v>
+        <v>0.021018489348688506</v>
       </c>
       <c r="EB4">
-        <v>0.020661584736451341</v>
+        <v>0.021004300036899633</v>
       </c>
       <c r="EC4">
-        <v>0.02087652331156355</v>
+        <v>0.020899997332504947</v>
       </c>
       <c r="ED4">
-        <v>0.020690723903500328</v>
+        <v>0.021088945235370429</v>
       </c>
       <c r="EE4">
-        <v>0.020763781138783098</v>
+        <v>0.02099931145507342</v>
       </c>
       <c r="EF4">
-        <v>0.020713434990738622</v>
+        <v>0.021000973336599834</v>
       </c>
       <c r="EG4">
-        <v>0.020756036775412358</v>
+        <v>0.021146406787001033</v>
       </c>
       <c r="EH4">
-        <v>0.020741472123883636</v>
+        <v>0.021158763877290987</v>
       </c>
       <c r="EI4">
-        <v>0.020911869821110398</v>
+        <v>0.02119529836579637</v>
       </c>
       <c r="EJ4">
-        <v>0.020872925366908896</v>
+        <v>0.021404475869046972</v>
       </c>
       <c r="EK4">
-        <v>0.020985893341959213</v>
+        <v>0.021294076941790856</v>
       </c>
       <c r="EL4">
-        <v>0.021211843925116745</v>
+        <v>0.021348702500561059</v>
       </c>
       <c r="EM4">
-        <v>0.021152328929140568</v>
+        <v>0.021180087183499167</v>
       </c>
       <c r="EN4">
-        <v>0.020987770842554192</v>
+        <v>0.021484358499359694</v>
       </c>
       <c r="EO4">
-        <v>0.021227181562785791</v>
+        <v>0.021481357503537211</v>
       </c>
       <c r="EP4">
-        <v>0.021092124828731969</v>
+        <v>0.021342999222467008</v>
       </c>
       <c r="EQ4">
-        <v>0.021216947302273966</v>
+        <v>0.021456477067141991</v>
       </c>
       <c r="ER4">
-        <v>0.0212612247986993</v>
+        <v>0.021682502447733572</v>
       </c>
       <c r="ES4">
-        <v>0.021340169067505858</v>
+        <v>0.02139477681238652</v>
       </c>
       <c r="ET4">
-        <v>0.02121388452004027</v>
+        <v>0.021644057990495132</v>
       </c>
       <c r="EU4">
-        <v>0.021321019827829635</v>
+        <v>0.021551231262018685</v>
       </c>
       <c r="EV4">
-        <v>0.021488039988833713</v>
+        <v>0.021847414280096063</v>
       </c>
       <c r="EW4">
-        <v>0.021373455087284672</v>
+        <v>0.021572855428211853</v>
       </c>
       <c r="EX4">
-        <v>0.021599151566962987</v>
+        <v>0.021590485612903904</v>
       </c>
       <c r="EY4">
-        <v>0.021483547818150896</v>
+        <v>0.021811186307632787</v>
       </c>
       <c r="EZ4">
-        <v>0.02162141624552729</v>
+        <v>0.02197194258935508</v>
       </c>
       <c r="FA4">
-        <v>0.021708543193224523</v>
+        <v>0.02174117228345632</v>
       </c>
       <c r="FB4">
-        <v>0.021779615319765071</v>
+        <v>0.021802200258630541</v>
       </c>
       <c r="FC4">
-        <v>0.021587500670114803</v>
+        <v>0.021925937230181148</v>
       </c>
       <c r="FD4">
-        <v>0.02171460478334437</v>
+        <v>0.021773188197665157</v>
       </c>
       <c r="FE4">
-        <v>0.021737750119646283</v>
+        <v>0.021756583475635353</v>
       </c>
       <c r="FF4">
-        <v>0.021578212924777972</v>
+        <v>0.021951800668189549</v>
       </c>
       <c r="FG4">
-        <v>0.021745096310410238</v>
+        <v>0.02202835563165528</v>
       </c>
       <c r="FH4">
-        <v>0.02177837605330022</v>
+        <v>0.022062479177607404</v>
       </c>
       <c r="FI4">
-        <v>0.021633202507915738</v>
+        <v>0.022279681994042965</v>
       </c>
       <c r="FJ4">
-        <v>0.021790795152116089</v>
+        <v>0.022069842440066451</v>
       </c>
       <c r="FK4">
-        <v>0.021670037946334417</v>
+        <v>0.022389538877895007</v>
       </c>
       <c r="FL4">
-        <v>0.02181077154941314</v>
+        <v>0.022186333922878349</v>
       </c>
       <c r="FM4">
-        <v>0.021941268450008589</v>
+        <v>0.02207968837531046</v>
       </c>
       <c r="FN4">
-        <v>0.022109009056426033</v>
+        <v>0.022164702610456187</v>
       </c>
       <c r="FO4">
-        <v>0.021783337995197979</v>
+        <v>0.022249553682041043</v>
       </c>
       <c r="FP4">
-        <v>0.021852389650728988</v>
+        <v>0.022414178408666684</v>
       </c>
       <c r="FQ4">
-        <v>0.021847314944312687</v>
+        <v>0.022239142882567845</v>
       </c>
       <c r="FR4">
-        <v>0.022003296605304756</v>
+        <v>0.022153312880623378</v>
       </c>
       <c r="FS4">
-        <v>0.022038143622209627</v>
+        <v>0.022098237029194941</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015554913557645765</v>
+        <v>0.015943479151854258</v>
       </c>
       <c r="FW4">
         <v>0</v>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -10,13 +10,15 @@
     <sheet name="S2" sheetId="2" r:id="rId4"/>
     <sheet name="S3" sheetId="3" r:id="rId5"/>
     <sheet name="S4" sheetId="4" r:id="rId6"/>
+    <sheet name="S5" sheetId="5" r:id="rId7"/>
+    <sheet name="S6" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38004" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="43716" uniqueCount="186">
   <si>
     <t>y1</t>
   </si>
@@ -1706,526 +1708,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.0029545076938346858</v>
+        <v>0.0027618497960025328</v>
       </c>
       <c r="C3">
-        <v>-0.63640703581598157</v>
+        <v>-0.62492515988217723</v>
       </c>
       <c r="D3">
-        <v>-0.66997875235351434</v>
+        <v>-0.6636122039735598</v>
       </c>
       <c r="E3">
-        <v>-0.67077122657054844</v>
+        <v>-0.67207547302063997</v>
       </c>
       <c r="F3">
-        <v>-0.68047231691411114</v>
+        <v>-0.67893808308638315</v>
       </c>
       <c r="G3">
-        <v>-0.68106158958578145</v>
+        <v>-0.67702783465362659</v>
       </c>
       <c r="H3">
-        <v>-0.67821798264016075</v>
+        <v>-0.68847755084983553</v>
       </c>
       <c r="I3">
-        <v>-0.0084281370692196045</v>
+        <v>-0.013486234707469272</v>
       </c>
       <c r="J3">
-        <v>-0.002718514568635662</v>
+        <v>-0.0037298231273262786</v>
       </c>
       <c r="K3">
-        <v>0.0036576063985799541</v>
+        <v>0.000644273528487906</v>
       </c>
       <c r="L3">
-        <v>-0.0032341526957270854</v>
+        <v>0.0054027514173585374</v>
       </c>
       <c r="M3">
-        <v>0.0047980199127355926</v>
+        <v>0.0021008958754598012</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.214451882999132</v>
+        <v>1.2181725823439882</v>
       </c>
       <c r="P3">
-        <v>1.3145683943216875</v>
+        <v>1.3086750195176287</v>
       </c>
       <c r="Q3">
-        <v>-0.18853234005821609</v>
+        <v>-0.24682239773061002</v>
       </c>
       <c r="R3">
-        <v>-0.23066341310291177</v>
+        <v>-0.25075474386945462</v>
       </c>
       <c r="S3">
-        <v>-0.21372300880550002</v>
+        <v>-0.18004285223263908</v>
       </c>
       <c r="T3">
-        <v>-0.16680269053678903</v>
+        <v>-0.21563183669394567</v>
       </c>
       <c r="U3">
-        <v>-0.18708330584761609</v>
+        <v>-0.13547355490617533</v>
       </c>
       <c r="V3">
-        <v>-0.16232042348722775</v>
+        <v>-0.16287168204927088</v>
       </c>
       <c r="W3">
-        <v>-0.17939795813622705</v>
+        <v>-0.16451798381937227</v>
       </c>
       <c r="X3">
-        <v>-0.1619669511721584</v>
+        <v>-0.11369177677336939</v>
       </c>
       <c r="Y3">
-        <v>-0.091925318477928536</v>
+        <v>-0.14158910729243546</v>
       </c>
       <c r="Z3">
-        <v>-0.11230065130224202</v>
+        <v>-0.090011521294566965</v>
       </c>
       <c r="AA3">
-        <v>-0.1134451770482333</v>
+        <v>-0.10633921616290769</v>
       </c>
       <c r="AB3">
-        <v>-0.10268877701515541</v>
+        <v>-0.10606966843661135</v>
       </c>
       <c r="AC3">
-        <v>-0.083873241591989445</v>
+        <v>-0.11576545338446385</v>
       </c>
       <c r="AD3">
-        <v>-0.10124744041373934</v>
+        <v>-0.047679536259421784</v>
       </c>
       <c r="AE3">
-        <v>-0.079477401387881758</v>
+        <v>-0.097253137416516519</v>
       </c>
       <c r="AF3">
-        <v>-0.025620885335695169</v>
+        <v>-0.074483711236780784</v>
       </c>
       <c r="AG3">
-        <v>-0.078162781004593465</v>
+        <v>-0.030545666928267292</v>
       </c>
       <c r="AH3">
-        <v>-0.045312338227965758</v>
+        <v>-0.030951493210478798</v>
       </c>
       <c r="AI3">
-        <v>-0.040523370419969056</v>
+        <v>-0.023323787503939257</v>
       </c>
       <c r="AJ3">
-        <v>-0.033548335605523817</v>
+        <v>-0.063066563429652472</v>
       </c>
       <c r="AK3">
-        <v>-0.051394369686029957</v>
+        <v>-0.054023552847784512</v>
       </c>
       <c r="AL3">
-        <v>-0.049759010338824052</v>
+        <v>-0.049454768324635121</v>
       </c>
       <c r="AM3">
-        <v>-0.0094237606953116448</v>
+        <v>-0.0020280809171542911</v>
       </c>
       <c r="AN3">
-        <v>0.012916557812357576</v>
+        <v>0.00070856652928567116</v>
       </c>
       <c r="AO3">
-        <v>-0.012060779124766042</v>
+        <v>0.0016272458744253273</v>
       </c>
       <c r="AP3">
-        <v>0.0025280386208173539</v>
+        <v>-0.0461271716220489</v>
       </c>
       <c r="AQ3">
-        <v>0.026862855033503025</v>
+        <v>-0.011070499565547528</v>
       </c>
       <c r="AR3">
-        <v>0.017298586004183093</v>
+        <v>0.020905939293443438</v>
       </c>
       <c r="AS3">
-        <v>0.010922920687210477</v>
+        <v>-0.051378875253137099</v>
       </c>
       <c r="AT3">
-        <v>-0.018152397530074093</v>
+        <v>0.0066248034461783897</v>
       </c>
       <c r="AU3">
-        <v>0.014717815318142645</v>
+        <v>0.01790616892445453</v>
       </c>
       <c r="AV3">
-        <v>-0.034620662623159</v>
+        <v>0.016738426907358789</v>
       </c>
       <c r="AW3">
-        <v>-0.0086189985440435213</v>
+        <v>0.016776692689527868</v>
       </c>
       <c r="AX3">
-        <v>0.013512238780381105</v>
+        <v>0.012832478135175615</v>
       </c>
       <c r="AY3">
-        <v>0.014065400718890949</v>
+        <v>0.072198267689299656</v>
       </c>
       <c r="AZ3">
-        <v>0.047233983102557789</v>
+        <v>0.031896434070459272</v>
       </c>
       <c r="BA3">
-        <v>0.041334874778867235</v>
+        <v>0.017647104124991715</v>
       </c>
       <c r="BB3">
-        <v>0.0071832061540208908</v>
+        <v>0.052753357268893533</v>
       </c>
       <c r="BC3">
-        <v>0.040745487029194907</v>
+        <v>0.05648733374538488</v>
       </c>
       <c r="BD3">
-        <v>0.0061025711184036239</v>
+        <v>0.034410173489278162</v>
       </c>
       <c r="BE3">
-        <v>0.038482842638940459</v>
+        <v>0.018513492070164939</v>
       </c>
       <c r="BF3">
-        <v>0.026623105324151436</v>
+        <v>0.03330234171390388</v>
       </c>
       <c r="BG3">
-        <v>0.018020915539164503</v>
+        <v>0.028142237572338035</v>
       </c>
       <c r="BH3">
-        <v>0.047797956421472505</v>
+        <v>0.027869072401893284</v>
       </c>
       <c r="BI3">
-        <v>0.049612461567421912</v>
+        <v>0.050540899108075278</v>
       </c>
       <c r="BJ3">
-        <v>0.042564274322134554</v>
+        <v>0.01392008783149175</v>
       </c>
       <c r="BK3">
-        <v>0.031244811028638398</v>
+        <v>0.01261759442175704</v>
       </c>
       <c r="BL3">
-        <v>0.042718680357264074</v>
+        <v>0.044013629799998552</v>
       </c>
       <c r="BM3">
-        <v>0.035441085462889967</v>
+        <v>0.020158098716265768</v>
       </c>
       <c r="BN3">
-        <v>0.037535926046490482</v>
+        <v>0.048419592172613789</v>
       </c>
       <c r="BO3">
-        <v>0.01998166986966873</v>
+        <v>0.011590999414476472</v>
       </c>
       <c r="BP3">
-        <v>0.039283202141896775</v>
+        <v>0.045741768320369892</v>
       </c>
       <c r="BQ3">
-        <v>0.062373340793556331</v>
+        <v>0.061161907153221992</v>
       </c>
       <c r="BR3">
-        <v>0.054855524070117748</v>
+        <v>0.019842146904623291</v>
       </c>
       <c r="BS3">
-        <v>0.051958610204008257</v>
+        <v>0.022654323251352707</v>
       </c>
       <c r="BT3">
-        <v>0.049007663836370938</v>
+        <v>0.0023248155573271727</v>
       </c>
       <c r="BU3">
-        <v>-0.010872635283332681</v>
+        <v>0.033630656642074666</v>
       </c>
       <c r="BV3">
-        <v>0.030390614879249031</v>
+        <v>0.057091467024321919</v>
       </c>
       <c r="BW3">
-        <v>0.047415382987455061</v>
+        <v>-0.010779058493145239</v>
       </c>
       <c r="BX3">
-        <v>0.093140735593982879</v>
+        <v>0.017521609695962413</v>
       </c>
       <c r="BY3">
-        <v>0.045468680662751587</v>
+        <v>0.059060309395806664</v>
       </c>
       <c r="BZ3">
-        <v>0.074658996878071468</v>
+        <v>0.049809904148494906</v>
       </c>
       <c r="CA3">
-        <v>0.093441867557490246</v>
+        <v>0.020102237419678703</v>
       </c>
       <c r="CB3">
-        <v>0.10471190513523651</v>
+        <v>0.064664213147500052</v>
       </c>
       <c r="CC3">
-        <v>0.037271977823348963</v>
+        <v>0.073219240576778644</v>
       </c>
       <c r="CD3">
-        <v>0.057991305887892558</v>
+        <v>0.013930005932899517</v>
       </c>
       <c r="CE3">
-        <v>0.074193273487409048</v>
+        <v>0.067207419476957048</v>
       </c>
       <c r="CF3">
-        <v>0.054300421756729354</v>
+        <v>0.047128203207903466</v>
       </c>
       <c r="CG3">
-        <v>0.024884286396619378</v>
+        <v>0.041106452534263947</v>
       </c>
       <c r="CH3">
-        <v>0.032340224807560512</v>
+        <v>0.043937164794199908</v>
       </c>
       <c r="CI3">
-        <v>0.060585108360370919</v>
+        <v>0.052815978412725367</v>
       </c>
       <c r="CJ3">
-        <v>0.10091145347994411</v>
+        <v>0.038453250305854191</v>
       </c>
       <c r="CK3">
-        <v>0.092760275797846542</v>
+        <v>0.063057908589813069</v>
       </c>
       <c r="CL3">
-        <v>0.074444915450457796</v>
+        <v>0.06852958295078497</v>
       </c>
       <c r="CM3">
-        <v>0.1164803388807176</v>
+        <v>0.0045183770203709303</v>
       </c>
       <c r="CN3">
-        <v>0.025743748245189085</v>
+        <v>0.039825152882344249</v>
       </c>
       <c r="CO3">
-        <v>0.060132264354894466</v>
+        <v>-0.028277014951207567</v>
       </c>
       <c r="CP3">
-        <v>0.095643598937882116</v>
+        <v>0.054370232991849878</v>
       </c>
       <c r="CQ3">
-        <v>0.048079897301425686</v>
+        <v>0.0054719253959234614</v>
       </c>
       <c r="CR3">
-        <v>0.087042470985147752</v>
+        <v>0.021527798530782918</v>
       </c>
       <c r="CS3">
-        <v>0.048178472029603625</v>
+        <v>0.041527538652088969</v>
       </c>
       <c r="CT3">
-        <v>0.070165407743367533</v>
+        <v>0.084179671571437478</v>
       </c>
       <c r="CU3">
-        <v>0.077800356397910803</v>
+        <v>0.06889654258533387</v>
       </c>
       <c r="CV3">
-        <v>0.089163814095070806</v>
+        <v>0.04647981287183945</v>
       </c>
       <c r="CW3">
-        <v>0.029885080972683751</v>
+        <v>0.025580253190473256</v>
       </c>
       <c r="CX3">
-        <v>0.11311060902407973</v>
+        <v>0.057847427392195297</v>
       </c>
       <c r="CY3">
-        <v>0.076321005996799821</v>
+        <v>0.052827761914706686</v>
       </c>
       <c r="CZ3">
-        <v>0.041085022260067744</v>
+        <v>0.037138161210941198</v>
       </c>
       <c r="DA3">
-        <v>0.069710759705745806</v>
+        <v>0.011446140117106601</v>
       </c>
       <c r="DB3">
-        <v>0.083479147690497177</v>
+        <v>0.022689392433531085</v>
       </c>
       <c r="DC3">
-        <v>0.080977233435982218</v>
+        <v>0.065841536686165242</v>
       </c>
       <c r="DD3">
-        <v>0.089361181881672538</v>
+        <v>0.043341373913558752</v>
       </c>
       <c r="DE3">
-        <v>0.068036670592831777</v>
+        <v>0.042735176251629425</v>
       </c>
       <c r="DF3">
-        <v>0.050437276286760244</v>
+        <v>0.050583859095207233</v>
       </c>
       <c r="DG3">
-        <v>0.054521989996734882</v>
+        <v>0.024511992082498272</v>
       </c>
       <c r="DH3">
-        <v>0.058250598532984817</v>
+        <v>0.041848245230415033</v>
       </c>
       <c r="DI3">
-        <v>0.07315728501807188</v>
+        <v>-0.015576290110760336</v>
       </c>
       <c r="DJ3">
-        <v>0.072195042755997155</v>
+        <v>0.070692026886219506</v>
       </c>
       <c r="DK3">
-        <v>0.070087615461075961</v>
+        <v>0.031953695677919627</v>
       </c>
       <c r="DL3">
-        <v>0.058536413617814184</v>
+        <v>0.052084679423244358</v>
       </c>
       <c r="DM3">
-        <v>0.073187760245563838</v>
+        <v>0.044797393938165259</v>
       </c>
       <c r="DN3">
-        <v>0.1063335459005026</v>
+        <v>0.066348280420602979</v>
       </c>
       <c r="DO3">
-        <v>0.047586029141645267</v>
+        <v>0.059736653205604166</v>
       </c>
       <c r="DP3">
-        <v>0.063989404289825649</v>
+        <v>0.071789947979092647</v>
       </c>
       <c r="DQ3">
-        <v>0.060452031296431542</v>
+        <v>0.05277940060821925</v>
       </c>
       <c r="DR3">
-        <v>0.054505766917718364</v>
+        <v>0.052787942784279701</v>
       </c>
       <c r="DS3">
-        <v>0.060171020549438695</v>
+        <v>0.054800076399946364</v>
       </c>
       <c r="DT3">
-        <v>0.05019975955907293</v>
+        <v>0.070021500859791933</v>
       </c>
       <c r="DU3">
-        <v>0.037983564662114479</v>
+        <v>0.04907514052103143</v>
       </c>
       <c r="DV3">
-        <v>0.082882500180143467</v>
+        <v>0.081507929830088283</v>
       </c>
       <c r="DW3">
-        <v>0.092867302273433025</v>
+        <v>0.028934575911425717</v>
       </c>
       <c r="DX3">
-        <v>0.073510463884525479</v>
+        <v>0.065109542417670946</v>
       </c>
       <c r="DY3">
-        <v>0.033225644452710895</v>
+        <v>-0.0040538457818303985</v>
       </c>
       <c r="DZ3">
-        <v>0.069892623329373044</v>
+        <v>0.027697227354942233</v>
       </c>
       <c r="EA3">
-        <v>0.029053014884046109</v>
+        <v>0.037832557147794675</v>
       </c>
       <c r="EB3">
-        <v>0.039259500806882695</v>
+        <v>0.040784808543260671</v>
       </c>
       <c r="EC3">
-        <v>0.079733365156529554</v>
+        <v>0.05140372167901807</v>
       </c>
       <c r="ED3">
-        <v>0.043387766631655569</v>
+        <v>0.06355470709092953</v>
       </c>
       <c r="EE3">
-        <v>0.067123243564886345</v>
+        <v>0.0032437079218597732</v>
       </c>
       <c r="EF3">
-        <v>0.079368282320932307</v>
+        <v>0.040868619744329669</v>
       </c>
       <c r="EG3">
-        <v>0.056649348396961459</v>
+        <v>0.053968499639103794</v>
       </c>
       <c r="EH3">
-        <v>0.054127306029443413</v>
+        <v>7.6770418586377621e-05</v>
       </c>
       <c r="EI3">
-        <v>0.064872773243641949</v>
+        <v>0.028232547392874723</v>
       </c>
       <c r="EJ3">
-        <v>0.021167680699215707</v>
+        <v>0.052655797633664556</v>
       </c>
       <c r="EK3">
-        <v>0.055475069006784311</v>
+        <v>0.019215775567741903</v>
       </c>
       <c r="EL3">
-        <v>0.046881315748218605</v>
+        <v>0.05475011675668718</v>
       </c>
       <c r="EM3">
-        <v>0.094334572668344233</v>
+        <v>-0.016503222950130729</v>
       </c>
       <c r="EN3">
-        <v>0.037603966128098784</v>
+        <v>0.0098782418686696391</v>
       </c>
       <c r="EO3">
-        <v>0.040340846213098601</v>
+        <v>0.047732657152307303</v>
       </c>
       <c r="EP3">
-        <v>0.081066575634955548</v>
+        <v>0.0093428822244636962</v>
       </c>
       <c r="EQ3">
-        <v>0.055103701503608681</v>
+        <v>0.026895530486398863</v>
       </c>
       <c r="ER3">
-        <v>0.016906322104199973</v>
+        <v>0.0095280068608920507</v>
       </c>
       <c r="ES3">
-        <v>0.089156411866823382</v>
+        <v>0.02105419573390355</v>
       </c>
       <c r="ET3">
-        <v>0.039860606855443154</v>
+        <v>0.014968348890419777</v>
       </c>
       <c r="EU3">
-        <v>0.065846054280633892</v>
+        <v>0.00064766889478587713</v>
       </c>
       <c r="EV3">
-        <v>0.011015135715324155</v>
+        <v>0.0014687621038307012</v>
       </c>
       <c r="EW3">
-        <v>0.070020824303523216</v>
+        <v>0.030991258824583652</v>
       </c>
       <c r="EX3">
-        <v>0.076369343187928221</v>
+        <v>0.016809143842658896</v>
       </c>
       <c r="EY3">
-        <v>0.039299792881507957</v>
+        <v>0.0373918722595145</v>
       </c>
       <c r="EZ3">
-        <v>0.012526709750224716</v>
+        <v>-0.0060946163700298173</v>
       </c>
       <c r="FA3">
-        <v>0.059441921083077692</v>
+        <v>0.016281080360072496</v>
       </c>
       <c r="FB3">
-        <v>0.054127461854632831</v>
+        <v>0.024885950096764812</v>
       </c>
       <c r="FC3">
-        <v>0.035848780015899591</v>
+        <v>0.069028805042356464</v>
       </c>
       <c r="FD3">
-        <v>0.065423650281083823</v>
+        <v>0.02458533962078659</v>
       </c>
       <c r="FE3">
-        <v>0.078544224318255265</v>
+        <v>0.00081193937548936607</v>
       </c>
       <c r="FF3">
-        <v>0.045929090475182836</v>
+        <v>0.044050345532128332</v>
       </c>
       <c r="FG3">
-        <v>0.032250020666131737</v>
+        <v>0.0051981598047861604</v>
       </c>
       <c r="FH3">
-        <v>0.031069571741201066</v>
+        <v>0.0063677684787878056</v>
       </c>
       <c r="FI3">
-        <v>-0.0015853848467512091</v>
+        <v>-0.050686979966289583</v>
       </c>
       <c r="FJ3">
-        <v>0.044164057419228561</v>
+        <v>-0.0030368296220054706</v>
       </c>
       <c r="FK3">
-        <v>-0.014992062854864874</v>
+        <v>-0.019027389273463563</v>
       </c>
       <c r="FL3">
-        <v>0.027248692666454962</v>
+        <v>0.031499462333223018</v>
       </c>
       <c r="FM3">
-        <v>0.051808517180760544</v>
+        <v>-0.061432362548777882</v>
       </c>
       <c r="FN3">
-        <v>0.039681634223112348</v>
+        <v>0.020884838488535246</v>
       </c>
       <c r="FO3">
-        <v>0.029680788548292352</v>
+        <v>0.064812099601581102</v>
       </c>
       <c r="FP3">
-        <v>0.0064920233418086721</v>
+        <v>0.011358668572189106</v>
       </c>
       <c r="FQ3">
-        <v>0.042955126306253179</v>
+        <v>-0.046355266228435936</v>
       </c>
       <c r="FR3">
-        <v>0.063857548412562429</v>
+        <v>-0.010947687705908853</v>
       </c>
       <c r="FS3">
-        <v>0.076557008722096975</v>
+        <v>0.00198845069638027</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -2234,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5513681958301131</v>
+        <v>-5.5262916386107346</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2248,526 +2250,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.022280533995520248</v>
+        <v>0.023007754825985542</v>
       </c>
       <c r="C4">
-        <v>0.012234174695470968</v>
+        <v>0.012667929415906717</v>
       </c>
       <c r="D4">
-        <v>0.013782291754751937</v>
+        <v>0.014241162477802565</v>
       </c>
       <c r="E4">
-        <v>0.013541421865732735</v>
+        <v>0.014010813682273443</v>
       </c>
       <c r="F4">
-        <v>0.013508804967903817</v>
+        <v>0.014053454414179933</v>
       </c>
       <c r="G4">
-        <v>0.016096872659461178</v>
+        <v>0.016682866816088195</v>
       </c>
       <c r="H4">
-        <v>0.019041837483714005</v>
+        <v>0.019981194492940939</v>
       </c>
       <c r="I4">
-        <v>0.015322190860850581</v>
+        <v>0.015864480101476112</v>
       </c>
       <c r="J4">
-        <v>0.01257771799869469</v>
+        <v>0.013070561921111635</v>
       </c>
       <c r="K4">
-        <v>0.010383996528120828</v>
+        <v>0.010767198699748711</v>
       </c>
       <c r="L4">
-        <v>0.010535827240563104</v>
+        <v>0.010979100943037135</v>
       </c>
       <c r="M4">
-        <v>0.010708061283027153</v>
+        <v>0.011175699211026619</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022156095519416108</v>
+        <v>0.022248261324353331</v>
       </c>
       <c r="P4">
-        <v>0.021984713761602999</v>
+        <v>0.022095875903794776</v>
       </c>
       <c r="Q4">
-        <v>0.027510138613392607</v>
+        <v>0.027964046061868704</v>
       </c>
       <c r="R4">
-        <v>0.027794482791423762</v>
+        <v>0.028001321233774086</v>
       </c>
       <c r="S4">
-        <v>0.027694097544401993</v>
+        <v>0.027552541783483146</v>
       </c>
       <c r="T4">
-        <v>0.027404086293572407</v>
+        <v>0.027792467623952977</v>
       </c>
       <c r="U4">
-        <v>0.027543931187604027</v>
+        <v>0.027296717730611614</v>
       </c>
       <c r="V4">
-        <v>0.027397561303601332</v>
+        <v>0.02747815413201302</v>
       </c>
       <c r="W4">
-        <v>0.027516871948259414</v>
+        <v>0.02749987189583054</v>
       </c>
       <c r="X4">
-        <v>0.027417172288907641</v>
+        <v>0.027197432174795637</v>
       </c>
       <c r="Y4">
-        <v>0.026997620476761582</v>
+        <v>0.027379937867554938</v>
       </c>
       <c r="Z4">
-        <v>0.027131887521577979</v>
+        <v>0.027077743741942467</v>
       </c>
       <c r="AA4">
-        <v>0.027150060679276888</v>
+        <v>0.02718746104425989</v>
       </c>
       <c r="AB4">
-        <v>0.027095827698540329</v>
+        <v>0.02719743220285219</v>
       </c>
       <c r="AC4">
-        <v>0.026993750913067011</v>
+        <v>0.027268056560129726</v>
       </c>
       <c r="AD4">
-        <v>0.027109805863972544</v>
+        <v>0.026874007832985866</v>
       </c>
       <c r="AE4">
-        <v>0.026989885780775966</v>
+        <v>0.027179505122161374</v>
       </c>
       <c r="AF4">
-        <v>0.026685599300747983</v>
+        <v>0.027054691095038868</v>
       </c>
       <c r="AG4">
-        <v>0.027005373073567918</v>
+        <v>0.026809409022814833</v>
       </c>
       <c r="AH4">
-        <v>0.026822267079150572</v>
+        <v>0.026823653323523839</v>
       </c>
       <c r="AI4">
-        <v>0.026805780386013368</v>
+        <v>0.026791691730677948</v>
       </c>
       <c r="AJ4">
-        <v>0.026776674156061539</v>
+        <v>0.027035601279098619</v>
       </c>
       <c r="AK4">
-        <v>0.02689280245053299</v>
+        <v>0.026993985053352668</v>
       </c>
       <c r="AL4">
-        <v>0.02689467912472791</v>
+        <v>0.0269789804242677</v>
       </c>
       <c r="AM4">
-        <v>0.026671543230755712</v>
+        <v>0.026716603496666543</v>
       </c>
       <c r="AN4">
-        <v>0.02655618922143357</v>
+        <v>0.026713153661615339</v>
       </c>
       <c r="AO4">
-        <v>0.026710346203513136</v>
+        <v>0.026720057106033004</v>
       </c>
       <c r="AP4">
-        <v>0.0266384047005464</v>
+        <v>0.027009058009635042</v>
       </c>
       <c r="AQ4">
-        <v>0.026512532488198678</v>
+        <v>0.026816523397595837</v>
       </c>
       <c r="AR4">
-        <v>0.026578246430987464</v>
+        <v>0.026646621874375245</v>
       </c>
       <c r="AS4">
-        <v>0.026626281800610337</v>
+        <v>0.02707774389341161</v>
       </c>
       <c r="AT4">
-        <v>0.026805780472653792</v>
+        <v>0.026751309105235571</v>
       </c>
       <c r="AU4">
-        <v>0.026628010847750638</v>
+        <v>0.026699391694605022</v>
       </c>
       <c r="AV4">
-        <v>0.026926745773482155</v>
+        <v>0.026718329906680958</v>
       </c>
       <c r="AW4">
-        <v>0.026785742142298747</v>
+        <v>0.026730440496555073</v>
       </c>
       <c r="AX4">
-        <v>0.026669790622016028</v>
+        <v>0.02676529767279099</v>
       </c>
       <c r="AY4">
-        <v>0.026678563710777533</v>
+        <v>0.026445615988550445</v>
       </c>
       <c r="AZ4">
-        <v>0.026502543525573716</v>
+        <v>0.026682272771022482</v>
       </c>
       <c r="BA4">
-        <v>0.026547746651237419</v>
+        <v>0.026775829343023156</v>
       </c>
       <c r="BB4">
-        <v>0.026755013749867138</v>
+        <v>0.026589745501645581</v>
       </c>
       <c r="BC4">
-        <v>0.026574843087654142</v>
+        <v>0.026581467904820511</v>
       </c>
       <c r="BD4">
-        <v>0.026785742202443136</v>
+        <v>0.026718329986698715</v>
       </c>
       <c r="BE4">
-        <v>0.026323971843909857</v>
+        <v>0.026821869558285364</v>
       </c>
       <c r="BF4">
-        <v>0.026405971242372855</v>
+        <v>0.026749564951599386</v>
       </c>
       <c r="BG4">
-        <v>0.026469300454472166</v>
+        <v>0.026791691955511621</v>
       </c>
       <c r="BH4">
-        <v>0.026306079145490147</v>
+        <v>0.026805858006902786</v>
       </c>
       <c r="BI4">
-        <v>0.026307887071599721</v>
+        <v>0.026689109352999767</v>
       </c>
       <c r="BJ4">
-        <v>0.0263128906805132</v>
+        <v>0.026912292212795209</v>
       </c>
       <c r="BK4">
-        <v>0.026392299230467427</v>
+        <v>0.026932526084590454</v>
       </c>
       <c r="BL4">
-        <v>0.026336716615667478</v>
+        <v>0.026763545901047115</v>
       </c>
       <c r="BM4">
-        <v>0.026392331077358736</v>
+        <v>0.026914126530768214</v>
       </c>
       <c r="BN4">
-        <v>0.026392346298790503</v>
+        <v>0.02676354592196729</v>
       </c>
       <c r="BO4">
-        <v>0.026528980805071978</v>
+        <v>0.026990227789858497</v>
       </c>
       <c r="BP4">
-        <v>0.026425163349734399</v>
+        <v>0.02680408392209235</v>
       </c>
       <c r="BQ4">
-        <v>0.026300651641180447</v>
+        <v>0.026728707796552686</v>
       </c>
       <c r="BR4">
-        <v>0.026357718256646272</v>
+        <v>0.026980852587552052</v>
       </c>
       <c r="BS4">
-        <v>0.026387559274395483</v>
+        <v>0.026977109933670508</v>
       </c>
       <c r="BT4">
-        <v>0.026774603245158068</v>
+        <v>0.027110675762201997</v>
       </c>
       <c r="BU4">
-        <v>0.027149086027025742</v>
+        <v>0.026938066239432405</v>
       </c>
       <c r="BV4">
-        <v>0.026909816412557106</v>
+        <v>0.026814743664335384</v>
       </c>
       <c r="BW4">
-        <v>0.02729911274394916</v>
+        <v>0.027229537481281884</v>
       </c>
       <c r="BX4">
-        <v>0.027049676496961803</v>
+        <v>0.027071966118775978</v>
       </c>
       <c r="BY4">
-        <v>0.027569344261392154</v>
+        <v>0.026556343524855152</v>
       </c>
       <c r="BZ4">
-        <v>0.025115757478921953</v>
+        <v>0.026624931498971674</v>
       </c>
       <c r="CA4">
-        <v>0.025049987738842573</v>
+        <v>0.026818921734405202</v>
       </c>
       <c r="CB4">
-        <v>0.024134957302484519</v>
+        <v>0.026562050052350544</v>
       </c>
       <c r="CC4">
-        <v>0.024449404363995592</v>
+        <v>0.026524509310132924</v>
       </c>
       <c r="CD4">
-        <v>0.0241751673143214</v>
+        <v>0.026866760273446061</v>
       </c>
       <c r="CE4">
-        <v>0.023856667393733166</v>
+        <v>0.026553268594341289</v>
       </c>
       <c r="CF4">
-        <v>0.023963673543980175</v>
+        <v>0.026688468842058919</v>
       </c>
       <c r="CG4">
-        <v>0.024117182703880975</v>
+        <v>0.026738810188158942</v>
       </c>
       <c r="CH4">
-        <v>0.024097980386357735</v>
+        <v>0.026734773787632348</v>
       </c>
       <c r="CI4">
-        <v>0.023698633564283953</v>
+        <v>0.026719583840252088</v>
       </c>
       <c r="CJ4">
-        <v>0.023897590637263565</v>
+        <v>0.026821729657610576</v>
       </c>
       <c r="CK4">
-        <v>0.023950828169371597</v>
+        <v>0.026683579437337932</v>
       </c>
       <c r="CL4">
-        <v>0.024051277848274735</v>
+        <v>0.02666373732544234</v>
       </c>
       <c r="CM4">
-        <v>0.02387586926631281</v>
+        <v>0.027077412715726602</v>
       </c>
       <c r="CN4">
-        <v>0.024247641286457722</v>
+        <v>0.02722177791304059</v>
       </c>
       <c r="CO4">
-        <v>0.024291906095262106</v>
+        <v>0.027666369230504334</v>
       </c>
       <c r="CP4">
-        <v>0.02414473101571861</v>
+        <v>0.027158345964973126</v>
       </c>
       <c r="CQ4">
-        <v>0.024775121021380131</v>
+        <v>0.028031126433119884</v>
       </c>
       <c r="CR4">
-        <v>0.02461312030289323</v>
+        <v>0.027944193509959483</v>
       </c>
       <c r="CS4">
-        <v>0.024973344019456258</v>
+        <v>0.028035622318308771</v>
       </c>
       <c r="CT4">
-        <v>0.02209067087676897</v>
+        <v>0.025431895955466782</v>
       </c>
       <c r="CU4">
-        <v>0.022077022548119794</v>
+        <v>0.025514577608624266</v>
       </c>
       <c r="CV4">
-        <v>0.021608185846070854</v>
+        <v>0.024706365507177391</v>
       </c>
       <c r="CW4">
-        <v>0.021866494659015769</v>
+        <v>0.024822187657472336</v>
       </c>
       <c r="CX4">
-        <v>0.021546395832090906</v>
+        <v>0.024503632481624345</v>
       </c>
       <c r="CY4">
-        <v>0.02140981251898412</v>
+        <v>0.024260554376189836</v>
       </c>
       <c r="CZ4">
-        <v>0.021573669589574799</v>
+        <v>0.024354177641857228</v>
       </c>
       <c r="DA4">
-        <v>0.021471007291054885</v>
+        <v>0.024498910630107885</v>
       </c>
       <c r="DB4">
-        <v>0.021431479737373443</v>
+        <v>0.024459835887688738</v>
       </c>
       <c r="DC4">
-        <v>0.021459224108426052</v>
+        <v>0.023973816225220525</v>
       </c>
       <c r="DD4">
-        <v>0.021470397957042031</v>
+        <v>0.024450604715877327</v>
       </c>
       <c r="DE4">
-        <v>0.021576930445846281</v>
+        <v>0.024470989516996385</v>
       </c>
       <c r="DF4">
-        <v>0.021669312014456425</v>
+        <v>0.024449772127486832</v>
       </c>
       <c r="DG4">
-        <v>0.021669312063256424</v>
+        <v>0.024597063167346975</v>
       </c>
       <c r="DH4">
-        <v>0.021670909393683092</v>
+        <v>0.024463145633454496</v>
       </c>
       <c r="DI4">
-        <v>0.021634254501212799</v>
+        <v>0.02500276670766706</v>
       </c>
       <c r="DJ4">
-        <v>0.021656110580481329</v>
+        <v>0.024586275071774077</v>
       </c>
       <c r="DK4">
-        <v>0.021682925111708246</v>
+        <v>0.025267027479754501</v>
       </c>
       <c r="DL4">
-        <v>0.021750498257054825</v>
+        <v>0.025186350928948976</v>
       </c>
       <c r="DM4">
-        <v>0.0217052376768988</v>
+        <v>0.025365465869783329</v>
       </c>
       <c r="DN4">
-        <v>0.020915068010950343</v>
+        <v>0.02230019149104618</v>
       </c>
       <c r="DO4">
-        <v>0.021195158717094056</v>
+        <v>0.022345428532027877</v>
       </c>
       <c r="DP4">
-        <v>0.021139334011325211</v>
+        <v>0.021850188018064726</v>
       </c>
       <c r="DQ4">
-        <v>0.021174080680920377</v>
+        <v>0.021949631413809942</v>
       </c>
       <c r="DR4">
-        <v>0.021219971752319988</v>
+        <v>0.021967716574370043</v>
       </c>
       <c r="DS4">
-        <v>0.021212857859284638</v>
+        <v>0.021657138448097704</v>
       </c>
       <c r="DT4">
-        <v>0.021277602115091016</v>
+        <v>0.021609070148024954</v>
       </c>
       <c r="DU4">
-        <v>0.021353360106996129</v>
+        <v>0.021719869920763444</v>
       </c>
       <c r="DV4">
-        <v>0.021165349607817185</v>
+        <v>0.021595975754199557</v>
       </c>
       <c r="DW4">
-        <v>0.021139334394696084</v>
+        <v>0.021848481123840014</v>
       </c>
       <c r="DX4">
-        <v>0.021246826106033817</v>
+        <v>0.021724103356999484</v>
       </c>
       <c r="DY4">
-        <v>0.021454634257742463</v>
+        <v>0.022057559472969192</v>
       </c>
       <c r="DZ4">
-        <v>0.021301386087763698</v>
+        <v>0.02192918146597192</v>
       </c>
       <c r="EA4">
-        <v>0.021513707318360002</v>
+        <v>0.021901704528145324</v>
       </c>
       <c r="EB4">
-        <v>0.021484008946353276</v>
+        <v>0.0219071763497714</v>
       </c>
       <c r="EC4">
-        <v>0.021312437010607831</v>
+        <v>0.021908000026242457</v>
       </c>
       <c r="ED4">
-        <v>0.021503771679716257</v>
+        <v>0.0218720880998312</v>
       </c>
       <c r="EE4">
-        <v>0.021410210501554269</v>
+        <v>0.02217049533892133</v>
       </c>
       <c r="EF4">
-        <v>0.021372175124135289</v>
+        <v>0.022013220289103869</v>
       </c>
       <c r="EG4">
-        <v>0.021499807727321216</v>
+        <v>0.021972095257222934</v>
       </c>
       <c r="EH4">
-        <v>0.021531684490905201</v>
+        <v>0.0215350629535409</v>
       </c>
       <c r="EI4">
-        <v>0.02149980783925937</v>
+        <v>0.021416262131557159</v>
       </c>
       <c r="EJ4">
-        <v>0.021733296684549364</v>
+        <v>0.02131807393290663</v>
       </c>
       <c r="EK4">
-        <v>0.021584294741716522</v>
+        <v>0.02150120090571685</v>
       </c>
       <c r="EL4">
-        <v>0.021646279942294025</v>
+        <v>0.021347758009360961</v>
       </c>
       <c r="EM4">
-        <v>0.021437163557919952</v>
+        <v>0.02172207166533199</v>
       </c>
       <c r="EN4">
-        <v>0.021733296902592222</v>
+        <v>0.021608401408405892</v>
       </c>
       <c r="EO4">
-        <v>0.021739771525256843</v>
+        <v>0.021440854230025751</v>
       </c>
       <c r="EP4">
-        <v>0.021559887361024457</v>
+        <v>0.021652443061947562</v>
       </c>
       <c r="EQ4">
-        <v>0.021707547013816896</v>
+        <v>0.021584465905615462</v>
       </c>
       <c r="ER4">
-        <v>0.02192040432289432</v>
+        <v>0.021692667794379471</v>
       </c>
       <c r="ES4">
-        <v>0.021580212113552297</v>
+        <v>0.021654663214800838</v>
       </c>
       <c r="ET4">
-        <v>0.021845431112743428</v>
+        <v>0.021706201904923769</v>
       </c>
       <c r="EU4">
-        <v>0.021735453834566452</v>
+        <v>0.021800411890163535</v>
       </c>
       <c r="EV4">
-        <v>0.02203542245386108</v>
+        <v>0.021816804401796865</v>
       </c>
       <c r="EW4">
-        <v>0.021754937442894036</v>
+        <v>0.021685924803275237</v>
       </c>
       <c r="EX4">
-        <v>0.021744096711886991</v>
+        <v>0.021779469674571103</v>
       </c>
       <c r="EY4">
-        <v>0.021952807903137913</v>
+        <v>0.021694919459165161</v>
       </c>
       <c r="EZ4">
-        <v>0.022113032763761826</v>
+        <v>0.021941504605965022</v>
       </c>
       <c r="FA4">
-        <v>0.021890636812430961</v>
+        <v>0.021845120040523008</v>
       </c>
       <c r="FB4">
-        <v>0.021938876771938724</v>
+        <v>0.021821505129205457</v>
       </c>
       <c r="FC4">
-        <v>0.022054636092514356</v>
+        <v>0.021617156377456048</v>
       </c>
       <c r="FD4">
-        <v>0.021922707577652207</v>
+        <v>0.02186653616546471</v>
       </c>
       <c r="FE4">
-        <v>0.021877000736920987</v>
+        <v>0.022013373391691831</v>
       </c>
       <c r="FF4">
-        <v>0.022066708120336589</v>
+        <v>0.021807426678411311</v>
       </c>
       <c r="FG4">
-        <v>0.022160086707074755</v>
+        <v>0.022033503184743584</v>
       </c>
       <c r="FH4">
-        <v>0.022187668197820601</v>
+        <v>0.022048688307007944</v>
       </c>
       <c r="FI4">
-        <v>0.022385357624247364</v>
+        <v>0.022383225763227092</v>
       </c>
       <c r="FJ4">
-        <v>0.02216008687849132</v>
+        <v>0.022141413324475584</v>
       </c>
       <c r="FK4">
-        <v>0.022503044061826676</v>
+        <v>0.022250510368668906</v>
       </c>
       <c r="FL4">
-        <v>0.022292735207620248</v>
+        <v>0.021998363609659878</v>
       </c>
       <c r="FM4">
-        <v>0.022182634919328884</v>
+        <v>0.022533471178714005</v>
       </c>
       <c r="FN4">
-        <v>0.022269360503686952</v>
+        <v>0.02209727821202942</v>
       </c>
       <c r="FO4">
-        <v>0.022345323174416599</v>
+        <v>0.021885703878201906</v>
       </c>
       <c r="FP4">
-        <v>0.022494689717847825</v>
+        <v>0.022194155628788303</v>
       </c>
       <c r="FQ4">
-        <v>0.022316289268398019</v>
+        <v>0.022539390744069569</v>
       </c>
       <c r="FR4">
-        <v>0.022225689248903117</v>
+        <v>0.02236071953450049</v>
       </c>
       <c r="FS4">
-        <v>0.022180121642785697</v>
+        <v>0.022310651673240447</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015996427248878408</v>
+        <v>0.01579955351557686</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3880,526 +3882,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.0057128317526568342</v>
+        <v>1.9439989988325808</v>
       </c>
       <c r="C3">
-        <v>-0.62906185751690957</v>
+        <v>-0.75093832622202705</v>
       </c>
       <c r="D3">
-        <v>-0.66618793505793428</v>
+        <v>-0.77530051316712556</v>
       </c>
       <c r="E3">
-        <v>-0.6631988680429094</v>
+        <v>-0.79586670041669416</v>
       </c>
       <c r="F3">
-        <v>-0.6750528293497845</v>
+        <v>-0.77954054012783169</v>
       </c>
       <c r="G3">
-        <v>-0.68493137064195453</v>
+        <v>-0.81051923152225713</v>
       </c>
       <c r="H3">
-        <v>-0.6610848030123202</v>
+        <v>-0.79611092463199906</v>
       </c>
       <c r="I3">
-        <v>0.0012214615023713046</v>
+        <v>0.0038159101307648096</v>
       </c>
       <c r="J3">
-        <v>-0.0080679077210301792</v>
+        <v>-0.0015918192933466596</v>
       </c>
       <c r="K3">
-        <v>-0.0015122731531431515</v>
+        <v>0.0066053167837117014</v>
       </c>
       <c r="L3">
-        <v>0.0042055953956843303</v>
+        <v>0.0075121024900850503</v>
       </c>
       <c r="M3">
-        <v>0.0019207079580928167</v>
+        <v>-0.015221456580912033</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2395855493894323</v>
+        <v>1.234170738923797</v>
       </c>
       <c r="P3">
-        <v>1.3371788955424606</v>
+        <v>1.3421647878709535</v>
       </c>
       <c r="Q3">
-        <v>-0.14285824122464977</v>
+        <v>-0.21389149057711659</v>
       </c>
       <c r="R3">
-        <v>-0.23666174182332106</v>
+        <v>-0.25351431032674659</v>
       </c>
       <c r="S3">
-        <v>-0.15298877640644187</v>
+        <v>-0.18876818529703188</v>
       </c>
       <c r="T3">
-        <v>-0.17101032057160642</v>
+        <v>-0.1924020943619692</v>
       </c>
       <c r="U3">
-        <v>-0.16002343559864896</v>
+        <v>-0.11049734566835771</v>
       </c>
       <c r="V3">
-        <v>-0.1058753642876861</v>
+        <v>-0.14837736378622607</v>
       </c>
       <c r="W3">
-        <v>-0.13124035465080822</v>
+        <v>-0.15060725607003883</v>
       </c>
       <c r="X3">
-        <v>-0.13739081514011128</v>
+        <v>-0.11709462419417067</v>
       </c>
       <c r="Y3">
-        <v>-0.10510162321392445</v>
+        <v>-0.11654401697661512</v>
       </c>
       <c r="Z3">
-        <v>-0.08783742149726681</v>
+        <v>-0.047590589434257237</v>
       </c>
       <c r="AA3">
-        <v>-0.073066960281515256</v>
+        <v>-0.077427755502148601</v>
       </c>
       <c r="AB3">
-        <v>-0.072454131331706376</v>
+        <v>-0.089136887409938734</v>
       </c>
       <c r="AC3">
-        <v>-0.081423635935168243</v>
+        <v>-0.078309902142718102</v>
       </c>
       <c r="AD3">
-        <v>-0.069932299150061508</v>
+        <v>-0.011974732456221387</v>
       </c>
       <c r="AE3">
-        <v>-0.052663519739333073</v>
+        <v>-0.079074538416245857</v>
       </c>
       <c r="AF3">
-        <v>0.017522566599912741</v>
+        <v>-0.054650399411876785</v>
       </c>
       <c r="AG3">
-        <v>-0.014211962847193576</v>
+        <v>-0.029641405456003276</v>
       </c>
       <c r="AH3">
-        <v>-0.042024147708809058</v>
+        <v>0.0073919324312475493</v>
       </c>
       <c r="AI3">
-        <v>-0.015516921183015352</v>
+        <v>-0.0049213318173022495</v>
       </c>
       <c r="AJ3">
-        <v>-0.01284818874777143</v>
+        <v>-0.035597751811228789</v>
       </c>
       <c r="AK3">
-        <v>-0.0067241956529738873</v>
+        <v>-0.013231182752657089</v>
       </c>
       <c r="AL3">
-        <v>-0.019491979839687614</v>
+        <v>-0.035453187029179066</v>
       </c>
       <c r="AM3">
-        <v>0.026374238373392016</v>
+        <v>-0.01787007837546517</v>
       </c>
       <c r="AN3">
-        <v>0.047782366588709518</v>
+        <v>0.00052736879648380443</v>
       </c>
       <c r="AO3">
-        <v>0.025489980618030043</v>
+        <v>0.013292392234925718</v>
       </c>
       <c r="AP3">
-        <v>0.027920921590354145</v>
+        <v>-0.023072234612967049</v>
       </c>
       <c r="AQ3">
-        <v>0.04491829920906084</v>
+        <v>0.027802190965507002</v>
       </c>
       <c r="AR3">
-        <v>0.028236645063013047</v>
+        <v>0.040056738425665359</v>
       </c>
       <c r="AS3">
-        <v>0.058807767379665483</v>
+        <v>-0.01910306200912017</v>
       </c>
       <c r="AT3">
-        <v>0.01335493297226031</v>
+        <v>0.040873359128032589</v>
       </c>
       <c r="AU3">
-        <v>0.02912528427268004</v>
+        <v>0.034827058399565521</v>
       </c>
       <c r="AV3">
-        <v>-0.055729945791948191</v>
+        <v>0.0047896915573890425</v>
       </c>
       <c r="AW3">
-        <v>0.039983826845384089</v>
+        <v>0.03329101929600492</v>
       </c>
       <c r="AX3">
-        <v>0.061567587989093175</v>
+        <v>0.020651895934932059</v>
       </c>
       <c r="AY3">
-        <v>0.060156883182811427</v>
+        <v>0.086747000300348598</v>
       </c>
       <c r="AZ3">
-        <v>0.079409225236828376</v>
+        <v>0.04390820076552681</v>
       </c>
       <c r="BA3">
-        <v>0.083726576019324442</v>
+        <v>0.013866571397005579</v>
       </c>
       <c r="BB3">
-        <v>0.032477464256152597</v>
+        <v>0.047444585493759246</v>
       </c>
       <c r="BC3">
-        <v>0.075009517111888177</v>
+        <v>0.04773886549458093</v>
       </c>
       <c r="BD3">
-        <v>0.04493654450504804</v>
+        <v>0.053398154969410132</v>
       </c>
       <c r="BE3">
-        <v>0.0758043589510181</v>
+        <v>0.010567418233098556</v>
       </c>
       <c r="BF3">
-        <v>0.031841044583411533</v>
+        <v>0.035296526058458844</v>
       </c>
       <c r="BG3">
-        <v>0.021930118435058953</v>
+        <v>0.046774487692001203</v>
       </c>
       <c r="BH3">
-        <v>0.063151401232438148</v>
+        <v>0.045351810142928668</v>
       </c>
       <c r="BI3">
-        <v>0.085706268130398888</v>
+        <v>0.014146617431798923</v>
       </c>
       <c r="BJ3">
-        <v>0.056819359021955743</v>
+        <v>0.024450567725938</v>
       </c>
       <c r="BK3">
-        <v>0.070115232413357362</v>
+        <v>0.0088040945720587703</v>
       </c>
       <c r="BL3">
-        <v>0.067418080957667034</v>
+        <v>0.063196146315110766</v>
       </c>
       <c r="BM3">
-        <v>0.056292378974188109</v>
+        <v>0.038259096010041384</v>
       </c>
       <c r="BN3">
-        <v>0.021903766127274623</v>
+        <v>0.021724318396877933</v>
       </c>
       <c r="BO3">
-        <v>0.051817504698841034</v>
+        <v>0.019765638752444848</v>
       </c>
       <c r="BP3">
-        <v>0.053053722047055191</v>
+        <v>0.012451563384890708</v>
       </c>
       <c r="BQ3">
-        <v>0.038701678353505443</v>
+        <v>0.061050645119820925</v>
       </c>
       <c r="BR3">
-        <v>0.052966533850078934</v>
+        <v>0.031576990876409188</v>
       </c>
       <c r="BS3">
-        <v>0.057998197430390731</v>
+        <v>0.036674832028749542</v>
       </c>
       <c r="BT3">
-        <v>0.073686361181318549</v>
+        <v>0.0065977025000092358</v>
       </c>
       <c r="BU3">
-        <v>0.04296610439813954</v>
+        <v>0.034194197346333353</v>
       </c>
       <c r="BV3">
-        <v>0.032161346656216727</v>
+        <v>0.031193463308616418</v>
       </c>
       <c r="BW3">
-        <v>0.083641675943190233</v>
+        <v>0.01994156919608232</v>
       </c>
       <c r="BX3">
-        <v>0.076845588337515786</v>
+        <v>0.012847029928926485</v>
       </c>
       <c r="BY3">
-        <v>0.052964241894965972</v>
+        <v>0.038613388756296663</v>
       </c>
       <c r="BZ3">
-        <v>0.080675454621839213</v>
+        <v>0.026847695548072779</v>
       </c>
       <c r="CA3">
-        <v>0.097472100069154716</v>
+        <v>0.053136491398074102</v>
       </c>
       <c r="CB3">
-        <v>0.1019167951362898</v>
+        <v>0.062506871512776216</v>
       </c>
       <c r="CC3">
-        <v>0.033888365050240891</v>
+        <v>0.092908496771171398</v>
       </c>
       <c r="CD3">
-        <v>0.048884318330163844</v>
+        <v>0.022278461193949693</v>
       </c>
       <c r="CE3">
-        <v>0.091717136336451233</v>
+        <v>0.052346209984841088</v>
       </c>
       <c r="CF3">
-        <v>0.064489722549958856</v>
+        <v>0.036438274495828274</v>
       </c>
       <c r="CG3">
-        <v>0.03427588501185333</v>
+        <v>0.056552042315118192</v>
       </c>
       <c r="CH3">
-        <v>0.035704786799524123</v>
+        <v>0.041760688440954138</v>
       </c>
       <c r="CI3">
-        <v>0.049159913131508456</v>
+        <v>0.032197592842840517</v>
       </c>
       <c r="CJ3">
-        <v>0.09393525722289682</v>
+        <v>0.014032890003788394</v>
       </c>
       <c r="CK3">
-        <v>0.086402592309433021</v>
+        <v>0.033042464007846779</v>
       </c>
       <c r="CL3">
-        <v>0.035936661970496546</v>
+        <v>0.044512228939323793</v>
       </c>
       <c r="CM3">
-        <v>0.094950112293742561</v>
+        <v>0.0038658056818408476</v>
       </c>
       <c r="CN3">
-        <v>0.021472976401021887</v>
+        <v>0.033316180464375983</v>
       </c>
       <c r="CO3">
-        <v>0.021767408345518022</v>
+        <v>0.013481411363665555</v>
       </c>
       <c r="CP3">
-        <v>0.086821134651166268</v>
+        <v>0.050164076504886308</v>
       </c>
       <c r="CQ3">
-        <v>0.0091632050314219456</v>
+        <v>-0.010929991090831136</v>
       </c>
       <c r="CR3">
-        <v>0.061769224077244313</v>
+        <v>0.01383675255716834</v>
       </c>
       <c r="CS3">
-        <v>0.044554559832340225</v>
+        <v>-0.081861560606036818</v>
       </c>
       <c r="CT3">
-        <v>0.068335142264695045</v>
+        <v>0.052784280056602649</v>
       </c>
       <c r="CU3">
-        <v>0.067641721458421816</v>
+        <v>0.049892954346534402</v>
       </c>
       <c r="CV3">
-        <v>0.10335852487775182</v>
+        <v>0.049941810491784124</v>
       </c>
       <c r="CW3">
-        <v>0.038494143743000336</v>
+        <v>0.02744851848346222</v>
       </c>
       <c r="CX3">
-        <v>0.121279490409582</v>
+        <v>0.043157434091257128</v>
       </c>
       <c r="CY3">
-        <v>0.083729651514919456</v>
+        <v>0.054545291467135472</v>
       </c>
       <c r="CZ3">
-        <v>0.041000171303448435</v>
+        <v>0.012181873149532625</v>
       </c>
       <c r="DA3">
-        <v>0.08574488828949485</v>
+        <v>0.017067961387058923</v>
       </c>
       <c r="DB3">
-        <v>0.080816845828266842</v>
+        <v>0.010577277033501318</v>
       </c>
       <c r="DC3">
-        <v>0.080255884029897404</v>
+        <v>0.051699603018443459</v>
       </c>
       <c r="DD3">
-        <v>0.093911254096693972</v>
+        <v>0.039842591047267811</v>
       </c>
       <c r="DE3">
-        <v>0.064546844771184303</v>
+        <v>0.030864338812696561</v>
       </c>
       <c r="DF3">
-        <v>0.028438855700497954</v>
+        <v>0.057098456270925899</v>
       </c>
       <c r="DG3">
-        <v>0.046840875540498698</v>
+        <v>0.019105321025410394</v>
       </c>
       <c r="DH3">
-        <v>0.047321747692876177</v>
+        <v>0.04059783872220165</v>
       </c>
       <c r="DI3">
-        <v>0.0669269091179749</v>
+        <v>0.00075647981888711567</v>
       </c>
       <c r="DJ3">
-        <v>0.071640599290041115</v>
+        <v>0.075274623258996726</v>
       </c>
       <c r="DK3">
-        <v>0.074212644938234193</v>
+        <v>0.03389020297273896</v>
       </c>
       <c r="DL3">
-        <v>0.060696053879310617</v>
+        <v>0.080320653825505947</v>
       </c>
       <c r="DM3">
-        <v>0.071771080440744039</v>
+        <v>0.11873281465184864</v>
       </c>
       <c r="DN3">
-        <v>0.10572262865388229</v>
+        <v>0.057718122437646471</v>
       </c>
       <c r="DO3">
-        <v>0.046975111894961043</v>
+        <v>0.051106495223465019</v>
       </c>
       <c r="DP3">
-        <v>0.06801522180376092</v>
+        <v>0.070722368268304733</v>
       </c>
       <c r="DQ3">
-        <v>0.064477848810202992</v>
+        <v>0.05171182089759209</v>
       </c>
       <c r="DR3">
-        <v>0.058531584431217275</v>
+        <v>0.05172036307365304</v>
       </c>
       <c r="DS3">
-        <v>0.060926871255585789</v>
+        <v>0.051814152907998845</v>
       </c>
       <c r="DT3">
-        <v>0.050955610265204947</v>
+        <v>0.067035577368336499</v>
       </c>
       <c r="DU3">
-        <v>0.038739415368226754</v>
+        <v>0.046089217028902549</v>
       </c>
       <c r="DV3">
-        <v>0.083638350886328719</v>
+        <v>0.078522006339014044</v>
       </c>
       <c r="DW3">
-        <v>0.093623152979635665</v>
+        <v>0.025948652418674688</v>
       </c>
       <c r="DX3">
-        <v>0.071405455315666513</v>
+        <v>0.064051461658637843</v>
       </c>
       <c r="DY3">
-        <v>0.031120635883354127</v>
+        <v>-0.0051119265421939912</v>
       </c>
       <c r="DZ3">
-        <v>0.067787614760467921</v>
+        <v>0.026639146595166731</v>
       </c>
       <c r="EA3">
-        <v>0.026948006314639887</v>
+        <v>0.036774476388215051</v>
       </c>
       <c r="EB3">
-        <v>0.037154492237597911</v>
+        <v>0.039726727783738709</v>
       </c>
       <c r="EC3">
-        <v>0.078772550039029984</v>
+        <v>0.060036488397923568</v>
       </c>
       <c r="ED3">
-        <v>0.042426951514060895</v>
+        <v>0.072187473811884603</v>
       </c>
       <c r="EE3">
-        <v>0.066162428447353067</v>
+        <v>0.011876474633113268</v>
       </c>
       <c r="EF3">
-        <v>0.078407467203432307</v>
+        <v>0.049501386461497279</v>
       </c>
       <c r="EG3">
-        <v>0.055688533279401244</v>
+        <v>0.062601266358437574</v>
       </c>
       <c r="EH3">
-        <v>0.054127306029443024</v>
+        <v>7.677041858698449e-05</v>
       </c>
       <c r="EI3">
-        <v>0.064872773243641671</v>
+        <v>0.028232547392874761</v>
       </c>
       <c r="EJ3">
-        <v>0.021167680699216453</v>
+        <v>0.05265579763366416</v>
       </c>
       <c r="EK3">
-        <v>0.055475069006784103</v>
+        <v>0.019215775567742111</v>
       </c>
       <c r="EL3">
-        <v>0.046881315748218515</v>
+        <v>0.054750116756687207</v>
       </c>
       <c r="EM3">
-        <v>0.094334572668344024</v>
+        <v>-0.016503222950130941</v>
       </c>
       <c r="EN3">
-        <v>0.037603966128098902</v>
+        <v>0.0098782418686694483</v>
       </c>
       <c r="EO3">
-        <v>0.040340846213099114</v>
+        <v>0.047732657152307623</v>
       </c>
       <c r="EP3">
-        <v>0.081066575634955187</v>
+        <v>0.0093428822244635973</v>
       </c>
       <c r="EQ3">
-        <v>0.055103701503608715</v>
+        <v>0.026895530486398787</v>
       </c>
       <c r="ER3">
-        <v>0.016906322104199376</v>
+        <v>0.00952800686089199</v>
       </c>
       <c r="ES3">
-        <v>0.08915641186682316</v>
+        <v>0.02105419573390279</v>
       </c>
       <c r="ET3">
-        <v>0.039860606855443334</v>
+        <v>0.014968348890419359</v>
       </c>
       <c r="EU3">
-        <v>0.06584605428063392</v>
+        <v>0.00064766889478686928</v>
       </c>
       <c r="EV3">
-        <v>0.011015135715323889</v>
+        <v>0.0014687621038312192</v>
       </c>
       <c r="EW3">
-        <v>0.070020824303523035</v>
+        <v>0.030991258824584308</v>
       </c>
       <c r="EX3">
-        <v>0.07636934318792879</v>
+        <v>0.016809143842658372</v>
       </c>
       <c r="EY3">
-        <v>0.039299792881507721</v>
+        <v>0.03739187225951502</v>
       </c>
       <c r="EZ3">
-        <v>0.012526709750225211</v>
+        <v>-0.0060946163700293472</v>
       </c>
       <c r="FA3">
-        <v>0.059441921083077255</v>
+        <v>0.016281080360071986</v>
       </c>
       <c r="FB3">
-        <v>0.054127461854632831</v>
+        <v>0.024885950096764843</v>
       </c>
       <c r="FC3">
-        <v>0.035848780015899299</v>
+        <v>0.069028805042356048</v>
       </c>
       <c r="FD3">
-        <v>0.065423650281083351</v>
+        <v>0.024585339620787287</v>
       </c>
       <c r="FE3">
-        <v>0.078544224318255002</v>
+        <v>0.00081193937548922892</v>
       </c>
       <c r="FF3">
-        <v>0.045929090475182906</v>
+        <v>0.044050345532127951</v>
       </c>
       <c r="FG3">
-        <v>0.032250020666131654</v>
+        <v>0.0051981598047860077</v>
       </c>
       <c r="FH3">
-        <v>0.031069571741200952</v>
+        <v>0.0063677684787877857</v>
       </c>
       <c r="FI3">
-        <v>-0.0015853848467511774</v>
+        <v>-0.050686979966289347</v>
       </c>
       <c r="FJ3">
-        <v>0.04416405741922793</v>
+        <v>-0.0030368296220047511</v>
       </c>
       <c r="FK3">
-        <v>-0.014992062854865002</v>
+        <v>-0.019027389273463306</v>
       </c>
       <c r="FL3">
-        <v>0.027248692666454681</v>
+        <v>0.031499462333223947</v>
       </c>
       <c r="FM3">
-        <v>0.051808517180761092</v>
+        <v>-0.061432362548778187</v>
       </c>
       <c r="FN3">
-        <v>0.039681634223111911</v>
+        <v>0.020884838488534955</v>
       </c>
       <c r="FO3">
-        <v>0.029680788548292477</v>
+        <v>0.064812099601581075</v>
       </c>
       <c r="FP3">
-        <v>0.0064920233418084578</v>
+        <v>0.011358668572189453</v>
       </c>
       <c r="FQ3">
-        <v>0.042955126306253005</v>
+        <v>-0.046355266228436214</v>
       </c>
       <c r="FR3">
-        <v>0.063857548412562457</v>
+        <v>-0.010947687705909152</v>
       </c>
       <c r="FS3">
-        <v>0.07655700872209692</v>
+        <v>0.0019884506963801568</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -4408,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5513681958301131</v>
+        <v>-5.5262916386107346</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4422,526 +4424,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.023079738713095568</v>
+        <v>0.019365325621117497</v>
       </c>
       <c r="C4">
-        <v>0.01268723043388304</v>
+        <v>0.013063668446218923</v>
       </c>
       <c r="D4">
-        <v>0.014295619829982264</v>
+        <v>0.014423564036526382</v>
       </c>
       <c r="E4">
-        <v>0.013974174108816836</v>
+        <v>0.014458287047772527</v>
       </c>
       <c r="F4">
-        <v>0.014085055306626326</v>
+        <v>0.014459215473732174</v>
       </c>
       <c r="G4">
-        <v>0.016723424300094596</v>
+        <v>0.017259271810959088</v>
       </c>
       <c r="H4">
-        <v>0.019875229502837231</v>
+        <v>0.02061109952132447</v>
       </c>
       <c r="I4">
-        <v>0.015937757101288787</v>
+        <v>0.016015564732281249</v>
       </c>
       <c r="J4">
-        <v>0.013140093035436411</v>
+        <v>0.01317747710067458</v>
       </c>
       <c r="K4">
-        <v>0.010827278449335755</v>
+        <v>0.010852028531032974</v>
       </c>
       <c r="L4">
-        <v>0.011033950094648371</v>
+        <v>0.011064879480627897</v>
       </c>
       <c r="M4">
-        <v>0.011186000762127028</v>
+        <v>0.011172805845623137</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022414007838139103</v>
+        <v>0.022690071821834235</v>
       </c>
       <c r="P4">
-        <v>0.022249037134746612</v>
+        <v>0.022488689832962403</v>
       </c>
       <c r="Q4">
-        <v>0.027602846878884726</v>
+        <v>0.028759697975291352</v>
       </c>
       <c r="R4">
-        <v>0.028222372447339081</v>
+        <v>0.029055013946444587</v>
       </c>
       <c r="S4">
-        <v>0.027687980072986774</v>
+        <v>0.028604478055736557</v>
       </c>
       <c r="T4">
-        <v>0.027813885109573725</v>
+        <v>0.0286406250739497</v>
       </c>
       <c r="U4">
-        <v>0.027754880437638279</v>
+        <v>0.028096713608965339</v>
       </c>
       <c r="V4">
-        <v>0.027428260931496577</v>
+        <v>0.02836035941374403</v>
       </c>
       <c r="W4">
-        <v>0.02759638230947413</v>
+        <v>0.0283864478231701</v>
       </c>
       <c r="X4">
-        <v>0.027646249498999201</v>
+        <v>0.028172653517662447</v>
       </c>
       <c r="Y4">
-        <v>0.027457100725226374</v>
+        <v>0.028180084942176182</v>
       </c>
       <c r="Z4">
-        <v>0.027363236674900124</v>
+        <v>0.027745514142660872</v>
       </c>
       <c r="AA4">
-        <v>0.027285629903579488</v>
+        <v>0.027947017303976189</v>
       </c>
       <c r="AB4">
-        <v>0.027293508232074992</v>
+        <v>0.02803419568162796</v>
       </c>
       <c r="AC4">
-        <v>0.027359213437920207</v>
+        <v>0.027975064901664078</v>
       </c>
       <c r="AD4">
-        <v>0.027301404990479613</v>
+        <v>0.027567359959557326</v>
       </c>
       <c r="AE4">
-        <v>0.027209768488735568</v>
+        <v>0.028003328995915497</v>
       </c>
       <c r="AF4">
-        <v>0.026815251575988425</v>
+        <v>0.027857327666688744</v>
       </c>
       <c r="AG4">
-        <v>0.027008319015306672</v>
+        <v>0.027710462105367002</v>
       </c>
       <c r="AH4">
-        <v>0.027182950504310698</v>
+        <v>0.02749283351206392</v>
       </c>
       <c r="AI4">
-        <v>0.027039219028642026</v>
+        <v>0.027579938736130582</v>
       </c>
       <c r="AJ4">
-        <v>0.027035568457547277</v>
+        <v>0.027783139871001956</v>
       </c>
       <c r="AK4">
-        <v>0.027011939112668189</v>
+        <v>0.02765423403165056</v>
       </c>
       <c r="AL4">
-        <v>0.027098190479178066</v>
+        <v>0.027805459396630545</v>
       </c>
       <c r="AM4">
-        <v>0.026846054171088211</v>
+        <v>0.02770610493194452</v>
       </c>
       <c r="AN4">
-        <v>0.026737879702904029</v>
+        <v>0.027603118708222962</v>
       </c>
       <c r="AO4">
-        <v>0.02687542353369695</v>
+        <v>0.027536111516445329</v>
       </c>
       <c r="AP4">
-        <v>0.026873688386639942</v>
+        <v>0.027774251001179046</v>
       </c>
       <c r="AQ4">
-        <v>0.026789811064718758</v>
+        <v>0.027470379882215738</v>
       </c>
       <c r="AR4">
-        <v>0.026896319617774767</v>
+        <v>0.027407884163398375</v>
       </c>
       <c r="AS4">
-        <v>0.026736218856525017</v>
+        <v>0.027785365620562347</v>
       </c>
       <c r="AT4">
-        <v>0.027006510610711767</v>
+        <v>0.027425910224252458</v>
       </c>
       <c r="AU4">
-        <v>0.026927922740264995</v>
+        <v>0.027474451470115874</v>
       </c>
       <c r="AV4">
-        <v>0.027442650861551249</v>
+        <v>0.02767143961704191</v>
       </c>
       <c r="AW4">
-        <v>0.026889339056444174</v>
+        <v>0.027507199218327293</v>
       </c>
       <c r="AX4">
-        <v>0.026779692349578846</v>
+        <v>0.027596781651089981</v>
       </c>
       <c r="AY4">
-        <v>0.026799962676637878</v>
+        <v>0.02721006926338472</v>
       </c>
       <c r="AZ4">
-        <v>0.026704829545662386</v>
+        <v>0.027478527914319845</v>
       </c>
       <c r="BA4">
-        <v>0.026693344739409479</v>
+        <v>0.027675754220982889</v>
       </c>
       <c r="BB4">
-        <v>0.02699568074130556</v>
+        <v>0.02748056795341532</v>
       </c>
       <c r="BC4">
-        <v>0.02676625136660964</v>
+        <v>0.027490786331747678</v>
       </c>
       <c r="BD4">
-        <v>0.026949166262084417</v>
+        <v>0.027468346016217469</v>
       </c>
       <c r="BE4">
-        <v>0.026786434643128659</v>
+        <v>0.027745514350415564</v>
       </c>
       <c r="BF4">
-        <v>0.027050195591466011</v>
+        <v>0.027603118839426365</v>
       </c>
       <c r="BG4">
-        <v>0.027120581382058074</v>
+        <v>0.027544417026206788</v>
       </c>
       <c r="BH4">
-        <v>0.026894573185757852</v>
+        <v>0.027565268142388622</v>
       </c>
       <c r="BI4">
-        <v>0.026779692461530797</v>
+        <v>0.027772032366286909</v>
       </c>
       <c r="BJ4">
-        <v>0.026956278822064413</v>
+        <v>0.027719192871197281</v>
       </c>
       <c r="BK4">
-        <v>0.026892827587317026</v>
+        <v>0.027830172762002909</v>
       </c>
       <c r="BL4">
-        <v>0.026920872942015762</v>
+        <v>0.027503088745074046</v>
       </c>
       <c r="BM4">
-        <v>0.026997483326101922</v>
+        <v>0.027669284443132922</v>
       </c>
       <c r="BN4">
-        <v>0.027211692651497307</v>
+        <v>0.027785365773004042</v>
       </c>
       <c r="BO4">
-        <v>0.027048363718430647</v>
+        <v>0.027809940259397155</v>
       </c>
       <c r="BP4">
-        <v>0.02705386270428544</v>
+        <v>0.027868703225510473</v>
       </c>
       <c r="BQ4">
-        <v>0.027150674384436198</v>
+        <v>0.027575741005620331</v>
       </c>
       <c r="BR4">
-        <v>0.027079647755893409</v>
+        <v>0.027772032434109178</v>
       </c>
       <c r="BS4">
-        <v>0.027063048337566377</v>
+        <v>0.027752125446322343</v>
       </c>
       <c r="BT4">
-        <v>0.026984887116459192</v>
+        <v>0.027956342903248013</v>
       </c>
       <c r="BU4">
-        <v>0.027177232156785344</v>
+        <v>0.027792051228805206</v>
       </c>
       <c r="BV4">
-        <v>0.027254299955684236</v>
+        <v>0.027823415985207503</v>
       </c>
       <c r="BW4">
-        <v>0.026965191758249914</v>
+        <v>0.027907649245970133</v>
       </c>
       <c r="BX4">
-        <v>0.027017377173177475</v>
+        <v>0.027965692096903239</v>
       </c>
       <c r="BY4">
-        <v>0.026893522054990612</v>
+        <v>0.027408326592395511</v>
       </c>
       <c r="BZ4">
-        <v>0.026739594219268633</v>
+        <v>0.027498104893420233</v>
       </c>
       <c r="CA4">
-        <v>0.026653105606976663</v>
+        <v>0.027339030893679537</v>
       </c>
       <c r="CB4">
-        <v>0.026640162453336686</v>
+        <v>0.027291277246914221</v>
       </c>
       <c r="CC4">
-        <v>0.027065222568771412</v>
+        <v>0.02711053993786245</v>
       </c>
       <c r="CD4">
-        <v>0.026899572568456088</v>
+        <v>0.027640713712569837</v>
       </c>
       <c r="CE4">
-        <v>0.026652708747317514</v>
+        <v>0.027453778722721235</v>
       </c>
       <c r="CF4">
-        <v>0.026830680413685606</v>
+        <v>0.027571675711890089</v>
       </c>
       <c r="CG4">
-        <v>0.027031055454666233</v>
+        <v>0.027451430900473629</v>
       </c>
       <c r="CH4">
-        <v>0.027035319268300047</v>
+        <v>0.027561941929577453</v>
       </c>
       <c r="CI4">
-        <v>0.027024683385567752</v>
+        <v>0.027581163684834296</v>
       </c>
       <c r="CJ4">
-        <v>0.026763091547840876</v>
+        <v>0.027715941796934707</v>
       </c>
       <c r="CK4">
-        <v>0.026822202456911318</v>
+        <v>0.027600849376460561</v>
       </c>
       <c r="CL4">
-        <v>0.027149026484590801</v>
+        <v>0.027537301097085735</v>
       </c>
       <c r="CM4">
-        <v>0.026796501880118305</v>
+        <v>0.02782413033909922</v>
       </c>
       <c r="CN4">
-        <v>0.027649536114299874</v>
+        <v>0.028130032547776424</v>
       </c>
       <c r="CO4">
-        <v>0.027660841416898518</v>
+        <v>0.02827658950755578</v>
       </c>
       <c r="CP4">
-        <v>0.027268985199760204</v>
+        <v>0.028042881700317972</v>
       </c>
       <c r="CQ4">
-        <v>0.028217663165306904</v>
+        <v>0.028963979977596269</v>
       </c>
       <c r="CR4">
-        <v>0.027906525061262486</v>
+        <v>0.028809828657556956</v>
       </c>
       <c r="CS4">
-        <v>0.028269063438878455</v>
+        <v>0.025370899081674756</v>
       </c>
       <c r="CT4">
-        <v>0.025722732365869375</v>
+        <v>0.025756477955680177</v>
       </c>
       <c r="CU4">
-        <v>0.025740346153373984</v>
+        <v>0.025784303593767995</v>
       </c>
       <c r="CV4">
-        <v>0.024732546091903122</v>
+        <v>0.024871050886240587</v>
       </c>
       <c r="CW4">
-        <v>0.02505448879068051</v>
+        <v>0.024996443339055097</v>
       </c>
       <c r="CX4">
-        <v>0.02447208978890613</v>
+        <v>0.024804526618629731</v>
       </c>
       <c r="CY4">
-        <v>0.024373518990425894</v>
+        <v>0.024431865274275794</v>
       </c>
       <c r="CZ4">
-        <v>0.024598301837992817</v>
+        <v>0.024661927597373387</v>
       </c>
       <c r="DA4">
-        <v>0.024397337315435495</v>
+        <v>0.024654417301129574</v>
       </c>
       <c r="DB4">
-        <v>0.024438180640086224</v>
+        <v>0.024705150895667116</v>
       </c>
       <c r="DC4">
-        <v>0.024173686684386027</v>
+        <v>0.024184628354668704</v>
       </c>
       <c r="DD4">
-        <v>0.024469691036893247</v>
+        <v>0.024632242339128935</v>
       </c>
       <c r="DE4">
-        <v>0.02462946220060145</v>
+        <v>0.024695093556196878</v>
       </c>
       <c r="DF4">
-        <v>0.024827140873029934</v>
+        <v>0.024581047971692284</v>
       </c>
       <c r="DG4">
-        <v>0.024751595802082957</v>
+        <v>0.024790835985384452</v>
       </c>
       <c r="DH4">
-        <v>0.024715286220192093</v>
+        <v>0.024671269881989474</v>
       </c>
       <c r="DI4">
-        <v>0.02485902159437162</v>
+        <v>0.02518508958307929</v>
       </c>
       <c r="DJ4">
-        <v>0.024853530362532971</v>
+        <v>0.02481758996068429</v>
       </c>
       <c r="DK4">
-        <v>0.025276352415558846</v>
+        <v>0.025473849209506128</v>
       </c>
       <c r="DL4">
-        <v>0.025360364495232698</v>
+        <v>0.025259846837162769</v>
       </c>
       <c r="DM4">
-        <v>0.025506607392097702</v>
+        <v>0.024589482426086964</v>
       </c>
       <c r="DN4">
-        <v>0.022383491353981967</v>
+        <v>0.022351583752082519</v>
       </c>
       <c r="DO4">
-        <v>0.022645427096008645</v>
+        <v>0.022396716991817098</v>
       </c>
       <c r="DP4">
-        <v>0.022128926852084837</v>
+        <v>0.021868296013398448</v>
       </c>
       <c r="DQ4">
-        <v>0.022162122052224561</v>
+        <v>0.021967657438087405</v>
       </c>
       <c r="DR4">
-        <v>0.022205971321543196</v>
+        <v>0.021985727770689991</v>
       </c>
       <c r="DS4">
-        <v>0.02189174557164628</v>
+        <v>0.021671784645920931</v>
       </c>
       <c r="DT4">
-        <v>0.021954487864241517</v>
+        <v>0.021623748903123685</v>
       </c>
       <c r="DU4">
-        <v>0.022027918046630859</v>
+        <v>0.021734473845941588</v>
       </c>
       <c r="DV4">
-        <v>0.02184571375905222</v>
+        <v>0.021610663403205686</v>
       </c>
       <c r="DW4">
-        <v>0.021820509716199293</v>
+        <v>0.021862999140650832</v>
       </c>
       <c r="DX4">
-        <v>0.021954333810012844</v>
+        <v>0.02173652961217697</v>
       </c>
       <c r="DY4">
-        <v>0.022155506869033191</v>
+        <v>0.022069797979258631</v>
       </c>
       <c r="DZ4">
-        <v>0.022007139812435943</v>
+        <v>0.02194149157868824</v>
       </c>
       <c r="EA4">
-        <v>0.022212716089510632</v>
+        <v>0.021914030075831488</v>
       </c>
       <c r="EB4">
-        <v>0.022183953522605257</v>
+        <v>0.021919498820573386</v>
       </c>
       <c r="EC4">
-        <v>0.022035465417574188</v>
+        <v>0.021895329531944709</v>
       </c>
       <c r="ED4">
-        <v>0.022220575179408883</v>
+        <v>0.02185939679058899</v>
       </c>
       <c r="EE4">
-        <v>0.022130044703146379</v>
+        <v>0.022157974943357212</v>
       </c>
       <c r="EF4">
-        <v>0.022093248615240379</v>
+        <v>0.022000610392132601</v>
       </c>
       <c r="EG4">
-        <v>0.022216739120711537</v>
+        <v>0.021959461745760321</v>
       </c>
       <c r="EH4">
-        <v>0.021531684490905287</v>
+        <v>0.021535062953540754</v>
       </c>
       <c r="EI4">
-        <v>0.021499807839259432</v>
+        <v>0.021416262131556979</v>
       </c>
       <c r="EJ4">
-        <v>0.021733296684549413</v>
+        <v>0.021318073932906471</v>
       </c>
       <c r="EK4">
-        <v>0.021584294741716609</v>
+        <v>0.02150120090571667</v>
       </c>
       <c r="EL4">
-        <v>0.021646279942294091</v>
+        <v>0.021347758009360791</v>
       </c>
       <c r="EM4">
-        <v>0.021437163557920021</v>
+        <v>0.021722071665331827</v>
       </c>
       <c r="EN4">
-        <v>0.021733296902592302</v>
+        <v>0.021608401408405718</v>
       </c>
       <c r="EO4">
-        <v>0.021739771525256919</v>
+        <v>0.021440854230025581</v>
       </c>
       <c r="EP4">
-        <v>0.02155988736102453</v>
+        <v>0.021652443061947385</v>
       </c>
       <c r="EQ4">
-        <v>0.021707547013816969</v>
+        <v>0.021584465905615299</v>
       </c>
       <c r="ER4">
-        <v>0.021920404322894379</v>
+        <v>0.02169266779437929</v>
       </c>
       <c r="ES4">
-        <v>0.021580212113552367</v>
+        <v>0.021654663214800678</v>
       </c>
       <c r="ET4">
-        <v>0.021845431112743507</v>
+        <v>0.02170620190492361</v>
       </c>
       <c r="EU4">
-        <v>0.021735453834566525</v>
+        <v>0.021800411890163345</v>
       </c>
       <c r="EV4">
-        <v>0.022035422453861146</v>
+        <v>0.021816804401796706</v>
       </c>
       <c r="EW4">
-        <v>0.021754937442894116</v>
+        <v>0.02168592480327506</v>
       </c>
       <c r="EX4">
-        <v>0.021744096711887068</v>
+        <v>0.021779469674570937</v>
       </c>
       <c r="EY4">
-        <v>0.021952807903138003</v>
+        <v>0.021694919459165008</v>
       </c>
       <c r="EZ4">
-        <v>0.022113032763761909</v>
+        <v>0.021941504605964845</v>
       </c>
       <c r="FA4">
-        <v>0.02189063681243103</v>
+        <v>0.021845120040522831</v>
       </c>
       <c r="FB4">
-        <v>0.021938876771938776</v>
+        <v>0.021821505129205269</v>
       </c>
       <c r="FC4">
-        <v>0.02205463609251444</v>
+        <v>0.021617156377455881</v>
       </c>
       <c r="FD4">
-        <v>0.021922707577652287</v>
+        <v>0.021866536165464551</v>
       </c>
       <c r="FE4">
-        <v>0.02187700073692106</v>
+        <v>0.022013373391691668</v>
       </c>
       <c r="FF4">
-        <v>0.022066708120336672</v>
+        <v>0.021807426678411141</v>
       </c>
       <c r="FG4">
-        <v>0.022160086707074842</v>
+        <v>0.022033503184743432</v>
       </c>
       <c r="FH4">
-        <v>0.022187668197820674</v>
+        <v>0.022048688307007756</v>
       </c>
       <c r="FI4">
-        <v>0.02238535762424743</v>
+        <v>0.022383225763226936</v>
       </c>
       <c r="FJ4">
-        <v>0.02216008687849139</v>
+        <v>0.022141413324475407</v>
       </c>
       <c r="FK4">
-        <v>0.022503044061826745</v>
+        <v>0.022250510368668746</v>
       </c>
       <c r="FL4">
-        <v>0.022292735207620314</v>
+        <v>0.021998363609659708</v>
       </c>
       <c r="FM4">
-        <v>0.022182634919328953</v>
+        <v>0.022533471178713849</v>
       </c>
       <c r="FN4">
-        <v>0.022269360503687032</v>
+        <v>0.022097278212029246</v>
       </c>
       <c r="FO4">
-        <v>0.022345323174416658</v>
+        <v>0.021885703878201723</v>
       </c>
       <c r="FP4">
-        <v>0.022494689717847887</v>
+        <v>0.02219415562878815</v>
       </c>
       <c r="FQ4">
-        <v>0.022316289268398095</v>
+        <v>0.022539390744069399</v>
       </c>
       <c r="FR4">
-        <v>0.02222568924890319</v>
+        <v>0.022360719534500317</v>
       </c>
       <c r="FS4">
-        <v>0.022180121642785801</v>
+        <v>0.022310651673240284</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -4950,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015996427248878505</v>
+        <v>0.015799553515576634</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -6054,526 +6056,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>2.3494998626991741</v>
+        <v>1.1587190102659171</v>
       </c>
       <c r="C3">
-        <v>-0.88063956869139848</v>
+        <v>-1.8093271874850474</v>
       </c>
       <c r="D3">
-        <v>-0.9060951640314292</v>
+        <v>-1.8973116489384174</v>
       </c>
       <c r="E3">
-        <v>-0.92987506855166135</v>
+        <v>-1.8733838529845936</v>
       </c>
       <c r="F3">
-        <v>-0.93264248831605279</v>
+        <v>-1.8341317059180273</v>
       </c>
       <c r="G3">
-        <v>-0.92516036079754171</v>
+        <v>-1.8262224790751003</v>
       </c>
       <c r="H3">
-        <v>-0.93324998634363998</v>
+        <v>-1.8556225282316736</v>
       </c>
       <c r="I3">
-        <v>0.0021403865343412581</v>
+        <v>0.77465490997979203</v>
       </c>
       <c r="J3">
-        <v>0.012340338269512672</v>
+        <v>0.72416390583651513</v>
       </c>
       <c r="K3">
-        <v>0.0030497470196786947</v>
+        <v>0.6200607778944488</v>
       </c>
       <c r="L3">
-        <v>0.0029945926657409354</v>
+        <v>0.49958555477022598</v>
       </c>
       <c r="M3">
-        <v>-0.015010776636666827</v>
+        <v>0.40086216615973208</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2314271214968768</v>
+        <v>1.4287599962570479</v>
       </c>
       <c r="P3">
-        <v>1.3444740463049085</v>
+        <v>1.5172440140726917</v>
       </c>
       <c r="Q3">
-        <v>-0.16856340147113433</v>
+        <v>-0.018063912627827642</v>
       </c>
       <c r="R3">
-        <v>-0.22244755816086095</v>
+        <v>-0.056375458441558057</v>
       </c>
       <c r="S3">
-        <v>-0.18443712938856394</v>
+        <v>0.037283234981727788</v>
       </c>
       <c r="T3">
-        <v>-0.18265301403985351</v>
+        <v>0.0028849093468050402</v>
       </c>
       <c r="U3">
-        <v>-0.1875601698859182</v>
+        <v>0.068406541579588101</v>
       </c>
       <c r="V3">
-        <v>-0.12416394784815836</v>
+        <v>0.0016105802228436391</v>
       </c>
       <c r="W3">
-        <v>-0.15872954991003677</v>
+        <v>0.05633001605635183</v>
       </c>
       <c r="X3">
-        <v>-0.17008653329788456</v>
+        <v>0.065497785794270014</v>
       </c>
       <c r="Y3">
-        <v>-0.12169382700720668</v>
+        <v>0.10662264323530443</v>
       </c>
       <c r="Z3">
-        <v>-0.10686903641845612</v>
+        <v>0.12102204279591458</v>
       </c>
       <c r="AA3">
-        <v>-0.074299924217782878</v>
+        <v>0.12972842399102405</v>
       </c>
       <c r="AB3">
-        <v>-0.063174413726909587</v>
+        <v>0.10972643288765832</v>
       </c>
       <c r="AC3">
-        <v>-0.062861321307784074</v>
+        <v>0.11772501457615733</v>
       </c>
       <c r="AD3">
-        <v>-0.10465312422390402</v>
+        <v>0.17460079122859276</v>
       </c>
       <c r="AE3">
-        <v>-0.059898587048863826</v>
+        <v>0.086709806145676097</v>
       </c>
       <c r="AF3">
-        <v>0.0077555665360870621</v>
+        <v>0.12881801312550609</v>
       </c>
       <c r="AG3">
-        <v>-0.044835327183554936</v>
+        <v>0.18597702704525215</v>
       </c>
       <c r="AH3">
-        <v>-0.0405336410495519</v>
+        <v>0.17242246522681179</v>
       </c>
       <c r="AI3">
-        <v>-0.023349641206963985</v>
+        <v>0.10546081609779615</v>
       </c>
       <c r="AJ3">
-        <v>-0.049304343397158147</v>
+        <v>0.15319836890368477</v>
       </c>
       <c r="AK3">
-        <v>-0.04657594650862492</v>
+        <v>0.13117259635999953</v>
       </c>
       <c r="AL3">
-        <v>-0.019094100653569368</v>
+        <v>0.1271606489714113</v>
       </c>
       <c r="AM3">
-        <v>0.0032246461184526468</v>
+        <v>0.083790680534248152</v>
       </c>
       <c r="AN3">
-        <v>-0.0020249479604621578</v>
+        <v>0.19817106407796678</v>
       </c>
       <c r="AO3">
-        <v>0.029369596026950107</v>
+        <v>0.18472362720892024</v>
       </c>
       <c r="AP3">
-        <v>0.017187334290775104</v>
+        <v>0.12148113287990363</v>
       </c>
       <c r="AQ3">
-        <v>0.0036443969664830583</v>
+        <v>0.16797945115492199</v>
       </c>
       <c r="AR3">
-        <v>0.020442208044041874</v>
+        <v>0.20659598872707011</v>
       </c>
       <c r="AS3">
-        <v>0.019445814770935505</v>
+        <v>0.13909944629033832</v>
       </c>
       <c r="AT3">
-        <v>-0.023313704372895882</v>
+        <v>0.17960542030841589</v>
       </c>
       <c r="AU3">
-        <v>0.012793557119703234</v>
+        <v>0.21641927388783752</v>
       </c>
       <c r="AV3">
-        <v>-0.054649737138161743</v>
+        <v>0.19114080979499229</v>
       </c>
       <c r="AW3">
-        <v>0.018996338671113021</v>
+        <v>0.15184923491903693</v>
       </c>
       <c r="AX3">
-        <v>0.046537370355758396</v>
+        <v>0.15421297475735302</v>
       </c>
       <c r="AY3">
-        <v>0.0035172003453692643</v>
+        <v>0.22481240842162403</v>
       </c>
       <c r="AZ3">
-        <v>0.0707424832273819</v>
+        <v>0.21756839521015975</v>
       </c>
       <c r="BA3">
-        <v>0.030222522320164681</v>
+        <v>0.17074719999378724</v>
       </c>
       <c r="BB3">
-        <v>-0.01977115524581707</v>
+        <v>0.16767103470502495</v>
       </c>
       <c r="BC3">
-        <v>0.045875751210667282</v>
+        <v>0.19836246506953087</v>
       </c>
       <c r="BD3">
-        <v>0.026021509411661117</v>
+        <v>0.20295896859695595</v>
       </c>
       <c r="BE3">
-        <v>0.066210004226975205</v>
+        <v>0.16467485583209324</v>
       </c>
       <c r="BF3">
-        <v>0.036518226992447687</v>
+        <v>0.14572794353370738</v>
       </c>
       <c r="BG3">
-        <v>0.010116405258501916</v>
+        <v>0.21510929090280695</v>
       </c>
       <c r="BH3">
-        <v>0.048571978855499583</v>
+        <v>0.19182598776689166</v>
       </c>
       <c r="BI3">
-        <v>0.030628339744155266</v>
+        <v>0.21229530504470559</v>
       </c>
       <c r="BJ3">
-        <v>0.029299107328285407</v>
+        <v>0.16876738024705051</v>
       </c>
       <c r="BK3">
-        <v>0.049661940764688349</v>
+        <v>0.17968864105212912</v>
       </c>
       <c r="BL3">
-        <v>0.040422439513521785</v>
+        <v>0.18590730100108008</v>
       </c>
       <c r="BM3">
-        <v>0.050239000004824515</v>
+        <v>0.18209396997902033</v>
       </c>
       <c r="BN3">
-        <v>0.0058516160482447628</v>
+        <v>0.22309790045393929</v>
       </c>
       <c r="BO3">
-        <v>0.021320732341227128</v>
+        <v>0.16501476410335675</v>
       </c>
       <c r="BP3">
-        <v>0.036470691206902231</v>
+        <v>0.14992376219777023</v>
       </c>
       <c r="BQ3">
-        <v>0.028955218690706233</v>
+        <v>0.21206882799485097</v>
       </c>
       <c r="BR3">
-        <v>0.044452537689776597</v>
+        <v>0.16586726996360923</v>
       </c>
       <c r="BS3">
-        <v>0.034207867959305222</v>
+        <v>0.17296603850606099</v>
       </c>
       <c r="BT3">
-        <v>0.04281121731023136</v>
+        <v>0.045891849146395915</v>
       </c>
       <c r="BU3">
-        <v>0.013621863578603321</v>
+        <v>0.17370006553215614</v>
       </c>
       <c r="BV3">
-        <v>0.05975968519263495</v>
+        <v>0.18776928310552696</v>
       </c>
       <c r="BW3">
-        <v>0.054114314657529423</v>
+        <v>0.16506742078063863</v>
       </c>
       <c r="BX3">
-        <v>0.052618345759021454</v>
+        <v>0.11793175787921852</v>
       </c>
       <c r="BY3">
-        <v>-0.13169044240367653</v>
+        <v>0.22539597302207595</v>
       </c>
       <c r="BZ3">
-        <v>0.061228319359660617</v>
+        <v>0.21836497306394423</v>
       </c>
       <c r="CA3">
-        <v>0.076068646879988544</v>
+        <v>0.19848139588759703</v>
       </c>
       <c r="CB3">
-        <v>0.077040914010042719</v>
+        <v>0.2024867936176907</v>
       </c>
       <c r="CC3">
-        <v>0.014096340249925236</v>
+        <v>0.25483825103573443</v>
       </c>
       <c r="CD3">
-        <v>0.042801629877059114</v>
+        <v>0.12698295753407962</v>
       </c>
       <c r="CE3">
-        <v>0.075799334171420985</v>
+        <v>0.16716422096346442</v>
       </c>
       <c r="CF3">
-        <v>0.049463968603829386</v>
+        <v>0.15719043510594238</v>
       </c>
       <c r="CG3">
-        <v>0.015213487772120334</v>
+        <v>0.19469956074454187</v>
       </c>
       <c r="CH3">
-        <v>0.043899709193696713</v>
+        <v>0.1529231832538957</v>
       </c>
       <c r="CI3">
-        <v>0.066231931625276116</v>
+        <v>0.13498552513504647</v>
       </c>
       <c r="CJ3">
-        <v>0.084075485585464946</v>
+        <v>0.14324706661292344</v>
       </c>
       <c r="CK3">
-        <v>0.081962770696188042</v>
+        <v>0.1456789971302232</v>
       </c>
       <c r="CL3">
-        <v>0.067443660802699812</v>
+        <v>0.17583287100702899</v>
       </c>
       <c r="CM3">
-        <v>0.1056750924467455</v>
+        <v>0.14144184547960498</v>
       </c>
       <c r="CN3">
-        <v>0.026793291946048542</v>
+        <v>0.089588617192838352</v>
       </c>
       <c r="CO3">
-        <v>0.072689978957057394</v>
+        <v>0.05833957870960356</v>
       </c>
       <c r="CP3">
-        <v>0.11446795945797965</v>
+        <v>0.097142063899161288</v>
       </c>
       <c r="CQ3">
-        <v>0.05966849620800365</v>
+        <v>0.12299282747944533</v>
       </c>
       <c r="CR3">
-        <v>0.11246983405196788</v>
+        <v>0.12374410394499805</v>
       </c>
       <c r="CS3">
-        <v>0.12406186648393205</v>
+        <v>-0.0083073859515898525</v>
       </c>
       <c r="CT3">
-        <v>0.064889452421649688</v>
+        <v>0.30478916390110056</v>
       </c>
       <c r="CU3">
-        <v>0.072524401075826028</v>
+        <v>0.26572260638775175</v>
       </c>
       <c r="CV3">
-        <v>0.081616276147343625</v>
+        <v>0.23964584282369736</v>
       </c>
       <c r="CW3">
-        <v>0.022337543018894384</v>
+        <v>0.2141782391130041</v>
       </c>
       <c r="CX3">
-        <v>0.10556307107901357</v>
+        <v>0.18049208815433607</v>
       </c>
       <c r="CY3">
-        <v>0.076625445325234118</v>
+        <v>0.21649456974377645</v>
       </c>
       <c r="CZ3">
-        <v>0.041389461588603418</v>
+        <v>0.16459588654326346</v>
       </c>
       <c r="DA3">
-        <v>0.070015199034199047</v>
+        <v>0.122428349782955</v>
       </c>
       <c r="DB3">
-        <v>0.083783587018909478</v>
+        <v>0.10225879686177661</v>
       </c>
       <c r="DC3">
-        <v>0.081281672764402485</v>
+        <v>0.068435303702722688</v>
       </c>
       <c r="DD3">
-        <v>0.086246995720032887</v>
+        <v>0.14294598817582505</v>
       </c>
       <c r="DE3">
-        <v>0.0649224844312149</v>
+        <v>0.11505889623876596</v>
       </c>
       <c r="DF3">
-        <v>0.047323090125162719</v>
+        <v>0.079481459388853121</v>
       </c>
       <c r="DG3">
-        <v>0.051407803835132777</v>
+        <v>0.038406977977560645</v>
       </c>
       <c r="DH3">
-        <v>0.055136412371378882</v>
+        <v>0.011927697586312052</v>
       </c>
       <c r="DI3">
-        <v>0.083036395825862822</v>
+        <v>0.044975058761217809</v>
       </c>
       <c r="DJ3">
-        <v>0.082074153563646113</v>
+        <v>0.082063385635290378</v>
       </c>
       <c r="DK3">
-        <v>0.079966726268414862</v>
+        <v>0.02129616159889507</v>
       </c>
       <c r="DL3">
-        <v>0.068415524423476134</v>
+        <v>0.025113611114150693</v>
       </c>
       <c r="DM3">
-        <v>0.083066871053359637</v>
+        <v>0.016178312416939043</v>
       </c>
       <c r="DN3">
-        <v>0.10633354590050201</v>
+        <v>0.36627939099808132</v>
       </c>
       <c r="DO3">
-        <v>0.047586029141644975</v>
+        <v>0.33120809980335175</v>
       </c>
       <c r="DP3">
-        <v>0.063989404289825663</v>
+        <v>0.3348580245768929</v>
       </c>
       <c r="DQ3">
-        <v>0.060452031296431161</v>
+        <v>0.28176271581745949</v>
       </c>
       <c r="DR3">
-        <v>0.054505766917718558</v>
+        <v>0.25893664585436116</v>
       </c>
       <c r="DS3">
-        <v>0.060171020549438264</v>
+        <v>0.29797437497884177</v>
       </c>
       <c r="DT3">
-        <v>0.050199759559073326</v>
+        <v>0.27378827893790003</v>
       </c>
       <c r="DU3">
-        <v>0.037983564662114271</v>
+        <v>0.24223874369745629</v>
       </c>
       <c r="DV3">
-        <v>0.082882500180143148</v>
+        <v>0.23170616337916192</v>
       </c>
       <c r="DW3">
-        <v>0.092867302273432636</v>
+        <v>0.17108235580016581</v>
       </c>
       <c r="DX3">
-        <v>0.073510463884525326</v>
+        <v>0.24736222355452334</v>
       </c>
       <c r="DY3">
-        <v>0.033225644452710909</v>
+        <v>0.17069792971151956</v>
       </c>
       <c r="DZ3">
-        <v>0.069892623329372724</v>
+        <v>0.17116639052722835</v>
       </c>
       <c r="EA3">
-        <v>0.029053014884045745</v>
+        <v>0.15062445353197204</v>
       </c>
       <c r="EB3">
-        <v>0.03925950080688264</v>
+        <v>0.12953352200039026</v>
       </c>
       <c r="EC3">
-        <v>0.079733365156528999</v>
+        <v>0.18065025516565911</v>
       </c>
       <c r="ED3">
-        <v>0.043387766631654716</v>
+        <v>0.16930051704314941</v>
       </c>
       <c r="EE3">
-        <v>0.067123243564886248</v>
+        <v>0.10833678313493854</v>
       </c>
       <c r="EF3">
-        <v>0.079368282320932279</v>
+        <v>0.11081767940683845</v>
       </c>
       <c r="EG3">
-        <v>0.056649348396961959</v>
+        <v>0.10971105402134523</v>
       </c>
       <c r="EH3">
-        <v>0.054127306029443038</v>
+        <v>0.27432808272008019</v>
       </c>
       <c r="EI3">
-        <v>0.064872773243641352</v>
+        <v>0.26781389384742732</v>
       </c>
       <c r="EJ3">
-        <v>0.021167680699215864</v>
+        <v>0.27293987166242689</v>
       </c>
       <c r="EK3">
-        <v>0.055475069006784214</v>
+        <v>0.23834060721725597</v>
       </c>
       <c r="EL3">
-        <v>0.046881315748217488</v>
+        <v>0.25831358524168746</v>
       </c>
       <c r="EM3">
-        <v>0.094334572668343844</v>
+        <v>0.17627318149403454</v>
       </c>
       <c r="EN3">
-        <v>0.037603966128098625</v>
+        <v>0.19685199771873202</v>
       </c>
       <c r="EO3">
-        <v>0.040340846213098053</v>
+        <v>0.21662413897871011</v>
       </c>
       <c r="EP3">
-        <v>0.081066575634954383</v>
+        <v>0.16498831396666699</v>
       </c>
       <c r="EQ3">
-        <v>0.055103701503608056</v>
+        <v>0.16204545830268341</v>
       </c>
       <c r="ER3">
-        <v>0.016906322104199515</v>
+        <v>0.14283892446760998</v>
       </c>
       <c r="ES3">
-        <v>0.089156411866823021</v>
+        <v>0.15184239891197995</v>
       </c>
       <c r="ET3">
-        <v>0.039860606855442446</v>
+        <v>0.13825386893705219</v>
       </c>
       <c r="EU3">
-        <v>0.065846054280633032</v>
+        <v>0.11109543903883201</v>
       </c>
       <c r="EV3">
-        <v>0.011015135715323237</v>
+        <v>0.11420335746331904</v>
       </c>
       <c r="EW3">
-        <v>0.070020824303522994</v>
+        <v>0.12518797043828866</v>
       </c>
       <c r="EX3">
-        <v>0.076369343187928249</v>
+        <v>0.10865808949463659</v>
       </c>
       <c r="EY3">
-        <v>0.039299792881506923</v>
+        <v>0.11563085260671511</v>
       </c>
       <c r="EZ3">
-        <v>0.012526709750224449</v>
+        <v>0.063008436997002343</v>
       </c>
       <c r="FA3">
-        <v>0.059441921083077456</v>
+        <v>0.085615181177431915</v>
       </c>
       <c r="FB3">
-        <v>0.054127461854632498</v>
+        <v>0.093780294371434342</v>
       </c>
       <c r="FC3">
-        <v>0.035848780015899452</v>
+        <v>0.12324772036113704</v>
       </c>
       <c r="FD3">
-        <v>0.065423650281083545</v>
+        <v>0.080609992543364276</v>
       </c>
       <c r="FE3">
-        <v>0.078544224318254682</v>
+        <v>0.048139532106708419</v>
       </c>
       <c r="FF3">
-        <v>0.0459290904751826</v>
+        <v>0.091537012659128739</v>
       </c>
       <c r="FG3">
-        <v>0.032250020666131807</v>
+        <v>0.043697908724420802</v>
       </c>
       <c r="FH3">
-        <v>0.031069571741200761</v>
+        <v>0.048473104286964372</v>
       </c>
       <c r="FI3">
-        <v>-0.0015853848467514164</v>
+        <v>-0.01185430616485024</v>
       </c>
       <c r="FJ3">
-        <v>0.044164057419228256</v>
+        <v>0.021419188709275911</v>
       </c>
       <c r="FK3">
-        <v>-0.014992062854865032</v>
+        <v>0.0061617801526763693</v>
       </c>
       <c r="FL3">
-        <v>0.027248692666454143</v>
+        <v>0.048978016687016464</v>
       </c>
       <c r="FM3">
-        <v>0.051808517180760356</v>
+        <v>-0.045941133577363839</v>
       </c>
       <c r="FN3">
-        <v>0.039681634223111856</v>
+        <v>0.032323317482699801</v>
       </c>
       <c r="FO3">
-        <v>0.029680788548292224</v>
+        <v>0.074304927495613682</v>
       </c>
       <c r="FP3">
-        <v>0.0064920233418084682</v>
+        <v>0.015696991537833705</v>
       </c>
       <c r="FQ3">
-        <v>0.042955126306252867</v>
+        <v>-0.031176001348387838</v>
       </c>
       <c r="FR3">
-        <v>0.063857548412562207</v>
+        <v>-0.0056811603967108866</v>
       </c>
       <c r="FS3">
-        <v>0.076557008722096767</v>
+        <v>0.0053477556087189494</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -6582,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5513681958301131</v>
+        <v>-5.4853957316276452</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6596,526 +6598,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.01888704555221973</v>
+        <v>0.019588822529782241</v>
       </c>
       <c r="C4">
-        <v>0.01314110160921517</v>
+        <v>0.016997427183705439</v>
       </c>
       <c r="D4">
-        <v>0.014498800196895818</v>
+        <v>0.017552733723179333</v>
       </c>
       <c r="E4">
-        <v>0.014501106998201301</v>
+        <v>0.017771147858713771</v>
       </c>
       <c r="F4">
-        <v>0.014455635616735006</v>
+        <v>0.018131645395222534</v>
       </c>
       <c r="G4">
-        <v>0.017214198053879675</v>
+        <v>0.022750698093959042</v>
       </c>
       <c r="H4">
-        <v>0.020556513109723829</v>
+        <v>0.027834934537543723</v>
       </c>
       <c r="I4">
-        <v>0.015648125125570952</v>
+        <v>0.012687775393918294</v>
       </c>
       <c r="J4">
-        <v>0.012844922166760022</v>
+        <v>0.010792127292920834</v>
       </c>
       <c r="K4">
-        <v>0.010561661514021296</v>
+        <v>0.0090174807392242404</v>
       </c>
       <c r="L4">
-        <v>0.010717986501477483</v>
+        <v>0.009653772236485109</v>
       </c>
       <c r="M4">
-        <v>0.010802977597511946</v>
+        <v>0.010152049290475397</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.023135033963735872</v>
+        <v>0.027217159856930049</v>
       </c>
       <c r="P4">
-        <v>0.02289950902497952</v>
+        <v>0.026894397969202372</v>
       </c>
       <c r="Q4">
-        <v>0.029415226094770645</v>
+        <v>0.037915807700168724</v>
       </c>
       <c r="R4">
-        <v>0.02983356778192001</v>
+        <v>0.038389636084432945</v>
       </c>
       <c r="S4">
-        <v>0.029553581174974065</v>
+        <v>0.037279476038028364</v>
       </c>
       <c r="T4">
-        <v>0.02955023461770442</v>
+        <v>0.037690151363807323</v>
       </c>
       <c r="U4">
-        <v>0.029597324129890315</v>
+        <v>0.036939280623946281</v>
       </c>
       <c r="V4">
-        <v>0.029139247650185673</v>
+        <v>0.03772195003826339</v>
       </c>
       <c r="W4">
-        <v>0.029402280446829424</v>
+        <v>0.03709267838316125</v>
       </c>
       <c r="X4">
-        <v>0.029497040661520778</v>
+        <v>0.036996395263471024</v>
       </c>
       <c r="Y4">
-        <v>0.02915140303777753</v>
+        <v>0.036543738362797056</v>
       </c>
       <c r="Z4">
-        <v>0.02905515283622272</v>
+        <v>0.036393723641172861</v>
       </c>
       <c r="AA4">
-        <v>0.028835311643082197</v>
+        <v>0.03630708203408254</v>
       </c>
       <c r="AB4">
-        <v>0.028768326517329502</v>
+        <v>0.036534817272089119</v>
       </c>
       <c r="AC4">
-        <v>0.02877663787818564</v>
+        <v>0.036455074032418495</v>
       </c>
       <c r="AD4">
-        <v>0.029081995480282022</v>
+        <v>0.035850608520858286</v>
       </c>
       <c r="AE4">
-        <v>0.028776637886036672</v>
+        <v>0.036817182671034954</v>
       </c>
       <c r="AF4">
-        <v>0.0283292410127127</v>
+        <v>0.036358926654803003</v>
       </c>
       <c r="AG4">
-        <v>0.028694304349792813</v>
+        <v>0.035755295063252493</v>
       </c>
       <c r="AH4">
-        <v>0.028675339613998901</v>
+        <v>0.035906893443748436</v>
       </c>
       <c r="AI4">
-        <v>0.028568710423867091</v>
+        <v>0.036642684074095752</v>
       </c>
       <c r="AJ4">
-        <v>0.028757271926182597</v>
+        <v>0.036128871415088519</v>
       </c>
       <c r="AK4">
-        <v>0.028749001278564772</v>
+        <v>0.036376301632963744</v>
       </c>
       <c r="AL4">
-        <v>0.028571340633670061</v>
+        <v>0.036428709607464402</v>
       </c>
       <c r="AM4">
-        <v>0.028431834789016137</v>
+        <v>0.036920350194368956</v>
       </c>
       <c r="AN4">
-        <v>0.028477771967664774</v>
+        <v>0.03568476607970749</v>
       </c>
       <c r="AO4">
-        <v>0.028280197486626388</v>
+        <v>0.035834620502569747</v>
       </c>
       <c r="AP4">
-        <v>0.028371440586510921</v>
+        <v>0.036525908405917455</v>
       </c>
       <c r="AQ4">
-        <v>0.028472640324979429</v>
+        <v>0.036029243657631375</v>
       </c>
       <c r="AR4">
-        <v>0.028371440596185949</v>
+        <v>0.035630466432050728</v>
       </c>
       <c r="AS4">
-        <v>0.028388955800820452</v>
+        <v>0.03635892666608749</v>
       </c>
       <c r="AT4">
-        <v>0.028688876503549721</v>
+        <v>0.03593117244259976</v>
       </c>
       <c r="AU4">
-        <v>0.028454733904564749</v>
+        <v>0.035553725558968886</v>
       </c>
       <c r="AV4">
-        <v>0.028929297361147424</v>
+        <v>0.035826641954655396</v>
       </c>
       <c r="AW4">
-        <v>0.028434372353262311</v>
+        <v>0.036255653832107208</v>
       </c>
       <c r="AX4">
-        <v>0.028263184018558471</v>
+        <v>0.036238602732340704</v>
       </c>
       <c r="AY4">
-        <v>0.028560830677307587</v>
+        <v>0.035500578998058877</v>
       </c>
       <c r="AZ4">
-        <v>0.028127493795650476</v>
+        <v>0.035584305719492164</v>
       </c>
       <c r="BA4">
-        <v>0.028404034026123574</v>
+        <v>0.036087168257440946</v>
       </c>
       <c r="BB4">
-        <v>0.028754513192143821</v>
+        <v>0.036128871431590041</v>
       </c>
       <c r="BC4">
-        <v>0.028321843314207843</v>
+        <v>0.035810715668893142</v>
       </c>
       <c r="BD4">
-        <v>0.028464955863502315</v>
+        <v>0.035771078751821811</v>
       </c>
       <c r="BE4">
-        <v>0.027773090532173101</v>
+        <v>0.036187721716055388</v>
       </c>
       <c r="BF4">
-        <v>0.027985685307980433</v>
+        <v>0.03640245238090372</v>
       </c>
       <c r="BG4">
-        <v>0.028179967962636839</v>
+        <v>0.035669202606466228</v>
       </c>
       <c r="BH4">
-        <v>0.027925620633347418</v>
+        <v>0.035923068938555895</v>
       </c>
       <c r="BI4">
-        <v>0.028060148697499381</v>
+        <v>0.035716012273587651</v>
       </c>
       <c r="BJ4">
-        <v>0.028151085067730092</v>
+        <v>0.036187721720790836</v>
       </c>
       <c r="BK4">
-        <v>0.028021004716841443</v>
+        <v>0.036078860612772858</v>
       </c>
       <c r="BL4">
-        <v>0.028096383060659657</v>
+        <v>0.036021012146950852</v>
       </c>
       <c r="BM4">
-        <v>0.028039736237633773</v>
+        <v>0.036070563901662467</v>
       </c>
       <c r="BN4">
-        <v>0.028363266460126317</v>
+        <v>0.035645931431042742</v>
       </c>
       <c r="BO4">
-        <v>0.028261030998653271</v>
+        <v>0.036272750642897041</v>
       </c>
       <c r="BP4">
-        <v>0.028165549898631806</v>
+        <v>0.036446273971366752</v>
       </c>
       <c r="BQ4">
-        <v>0.02822991083670396</v>
+        <v>0.035786902979687119</v>
       </c>
       <c r="BR4">
-        <v>0.028132404975498657</v>
+        <v>0.03628989332250275</v>
       </c>
       <c r="BS4">
-        <v>0.02821586466597038</v>
+        <v>0.036221597156227671</v>
       </c>
       <c r="BT4">
-        <v>0.028531707787239138</v>
+        <v>0.037669031938059337</v>
       </c>
       <c r="BU4">
-        <v>0.028746960045478075</v>
+        <v>0.036230094279643452</v>
       </c>
       <c r="BV4">
-        <v>0.02843767147874467</v>
+        <v>0.036087168277539265</v>
       </c>
       <c r="BW4">
-        <v>0.029053693129453415</v>
+        <v>0.036341598567396861</v>
       </c>
       <c r="BX4">
-        <v>0.02907507136977705</v>
+        <v>0.036873257631250329</v>
       </c>
       <c r="BY4">
-        <v>0.025063347298627716</v>
+        <v>0.035071537915694721</v>
       </c>
       <c r="BZ4">
-        <v>0.025686818282380171</v>
+        <v>0.035159130016701921</v>
       </c>
       <c r="CA4">
-        <v>0.025634720750801733</v>
+        <v>0.03539239243022916</v>
       </c>
       <c r="CB4">
-        <v>0.024642020077169639</v>
+        <v>0.035355976358838061</v>
       </c>
       <c r="CC4">
-        <v>0.024953132873242301</v>
+        <v>0.034782151770968023</v>
       </c>
       <c r="CD4">
-        <v>0.024707980834251145</v>
+        <v>0.036129508075963199</v>
       </c>
       <c r="CE4">
-        <v>0.024261393780880013</v>
+        <v>0.035669008530024304</v>
       </c>
       <c r="CF4">
-        <v>0.024405050125079739</v>
+        <v>0.035793369660143286</v>
       </c>
       <c r="CG4">
-        <v>0.024591268879730177</v>
+        <v>0.035372199512975232</v>
       </c>
       <c r="CH4">
-        <v>0.024465259717806116</v>
+        <v>0.03586127484179736</v>
       </c>
       <c r="CI4">
-        <v>0.024083692922487295</v>
+        <v>0.035933781155992855</v>
       </c>
       <c r="CJ4">
-        <v>0.024359190893479016</v>
+        <v>0.035846929267153424</v>
       </c>
       <c r="CK4">
-        <v>0.024386288013076712</v>
+        <v>0.035827776931080101</v>
       </c>
       <c r="CL4">
-        <v>0.024473560073186417</v>
+        <v>0.035491886905362653</v>
       </c>
       <c r="CM4">
-        <v>0.024306652989121585</v>
+        <v>0.035895063809821652</v>
       </c>
       <c r="CN4">
-        <v>0.024606337205713376</v>
+        <v>0.037120603114730352</v>
       </c>
       <c r="CO4">
-        <v>0.024665736889102188</v>
+        <v>0.037501235380381207</v>
       </c>
       <c r="CP4">
-        <v>0.024480932930960167</v>
+        <v>0.037048968306562478</v>
       </c>
       <c r="CQ4">
-        <v>0.025153555598657489</v>
+        <v>0.037791600246230711</v>
       </c>
       <c r="CR4">
-        <v>0.024916606425385589</v>
+        <v>0.03779169483221119</v>
       </c>
       <c r="CS4">
-        <v>0.024461570676871911</v>
+        <v>0.026238104267819022</v>
       </c>
       <c r="CT4">
-        <v>0.022161814634788959</v>
+        <v>0.022066879311257375</v>
       </c>
       <c r="CU4">
-        <v>0.022148210146277072</v>
+        <v>0.02218020849002942</v>
       </c>
       <c r="CV4">
-        <v>0.021661716787885043</v>
+        <v>0.021447965070577189</v>
       </c>
       <c r="CW4">
-        <v>0.021919394779962235</v>
+        <v>0.021542027264109878</v>
       </c>
       <c r="CX4">
-        <v>0.021600079905006307</v>
+        <v>0.021607365624650265</v>
       </c>
       <c r="CY4">
-        <v>0.021431211483966747</v>
+        <v>0.021175920161884746</v>
       </c>
       <c r="CZ4">
-        <v>0.021594906184790298</v>
+        <v>0.021368583927886937</v>
       </c>
       <c r="DA4">
-        <v>0.021492345327219796</v>
+        <v>0.021536668774468026</v>
       </c>
       <c r="DB4">
-        <v>0.021452857089592475</v>
+        <v>0.021633614384329748</v>
       </c>
       <c r="DC4">
-        <v>0.021480573849608418</v>
+        <v>0.021666968806366746</v>
       </c>
       <c r="DD4">
-        <v>0.02149701435456439</v>
+        <v>0.022172338502539569</v>
       </c>
       <c r="DE4">
-        <v>0.021603415591369999</v>
+        <v>0.022303375605493676</v>
       </c>
       <c r="DF4">
-        <v>0.021695684385284165</v>
+        <v>0.022467540699805194</v>
       </c>
       <c r="DG4">
-        <v>0.021695684433932796</v>
+        <v>0.022658913602463537</v>
       </c>
       <c r="DH4">
-        <v>0.021697279822769321</v>
+        <v>0.022729282219135723</v>
       </c>
       <c r="DI4">
-        <v>0.021632785295333645</v>
+        <v>0.023262013166741882</v>
       </c>
       <c r="DJ4">
-        <v>0.021654642857401749</v>
+        <v>0.023127478818206121</v>
       </c>
       <c r="DK4">
-        <v>0.021681459203673058</v>
+        <v>0.02356886960117319</v>
       </c>
       <c r="DL4">
-        <v>0.021749036902646315</v>
+        <v>0.023578520358634884</v>
       </c>
       <c r="DM4">
-        <v>0.021703773276132297</v>
+        <v>0.023413764124110639</v>
       </c>
       <c r="DN4">
-        <v>0.020915068010950159</v>
+        <v>0.019848868131288857</v>
       </c>
       <c r="DO4">
-        <v>0.021195158717093886</v>
+        <v>0.019928459849643559</v>
       </c>
       <c r="DP4">
-        <v>0.021139334011325023</v>
+        <v>0.019397931382995341</v>
       </c>
       <c r="DQ4">
-        <v>0.021174080680920204</v>
+        <v>0.019528074469231972</v>
       </c>
       <c r="DR4">
-        <v>0.021219971752319801</v>
+        <v>0.019595536407769638</v>
       </c>
       <c r="DS4">
-        <v>0.021212857859284458</v>
+        <v>0.019188758027105877</v>
       </c>
       <c r="DT4">
-        <v>0.021277602115090843</v>
+        <v>0.019266581131231961</v>
       </c>
       <c r="DU4">
-        <v>0.021353360106995942</v>
+        <v>0.019365225029495808</v>
       </c>
       <c r="DV4">
-        <v>0.021165349607817002</v>
+        <v>0.019411401707303998</v>
       </c>
       <c r="DW4">
-        <v>0.0211393343946959</v>
+        <v>0.019594355109007325</v>
       </c>
       <c r="DX4">
-        <v>0.021246826106033623</v>
+        <v>0.019668236303471077</v>
       </c>
       <c r="DY4">
-        <v>0.021454634257742269</v>
+        <v>0.019909657641194588</v>
       </c>
       <c r="DZ4">
-        <v>0.021301386087763521</v>
+        <v>0.0199269759459621</v>
       </c>
       <c r="EA4">
-        <v>0.021513707318359832</v>
+        <v>0.02000883867785639</v>
       </c>
       <c r="EB4">
-        <v>0.021484008946353092</v>
+        <v>0.020094056023815466</v>
       </c>
       <c r="EC4">
-        <v>0.02131243701060765</v>
+        <v>0.020170352487688392</v>
       </c>
       <c r="ED4">
-        <v>0.02150377167971609</v>
+        <v>0.020226032818409928</v>
       </c>
       <c r="EE4">
-        <v>0.021410210501554089</v>
+        <v>0.020449777318798722</v>
       </c>
       <c r="EF4">
-        <v>0.021372175124135105</v>
+        <v>0.020460324949526675</v>
       </c>
       <c r="EG4">
-        <v>0.021499807727321033</v>
+        <v>0.020483463455020601</v>
       </c>
       <c r="EH4">
-        <v>0.021531684490905034</v>
+        <v>0.019776276259696458</v>
       </c>
       <c r="EI4">
-        <v>0.021499807839259193</v>
+        <v>0.019822528626612931</v>
       </c>
       <c r="EJ4">
-        <v>0.021733296684549163</v>
+        <v>0.019823727886546894</v>
       </c>
       <c r="EK4">
-        <v>0.021584294741716345</v>
+        <v>0.019981642941404153</v>
       </c>
       <c r="EL4">
-        <v>0.021646279942293848</v>
+        <v>0.019923126182587413</v>
       </c>
       <c r="EM4">
-        <v>0.021437163557919765</v>
+        <v>0.020281536113424644</v>
       </c>
       <c r="EN4">
-        <v>0.021733296902592063</v>
+        <v>0.020215657982590139</v>
       </c>
       <c r="EO4">
-        <v>0.02173977152525668</v>
+        <v>0.020154360034556784</v>
       </c>
       <c r="EP4">
-        <v>0.02155988736102428</v>
+        <v>0.020395035184188171</v>
       </c>
       <c r="EQ4">
-        <v>0.021707547013816716</v>
+        <v>0.02042913566443056</v>
       </c>
       <c r="ER4">
-        <v>0.021920404322894133</v>
+        <v>0.020535185079506198</v>
       </c>
       <c r="ES4">
-        <v>0.021580212113552141</v>
+        <v>0.020516518166937225</v>
       </c>
       <c r="ET4">
-        <v>0.021845431112743272</v>
+        <v>0.020598711345170471</v>
       </c>
       <c r="EU4">
-        <v>0.021735453834566276</v>
+        <v>0.020743971008552072</v>
       </c>
       <c r="EV4">
-        <v>0.022035422453860896</v>
+        <v>0.020751054648415368</v>
       </c>
       <c r="EW4">
-        <v>0.021754937442893866</v>
+        <v>0.020721958843818115</v>
       </c>
       <c r="EX4">
-        <v>0.021744096711886814</v>
+        <v>0.020820235305648482</v>
       </c>
       <c r="EY4">
-        <v>0.021952807903137746</v>
+        <v>0.020809333161843697</v>
       </c>
       <c r="EZ4">
-        <v>0.022113032763761673</v>
+        <v>0.021082096958966321</v>
       </c>
       <c r="FA4">
-        <v>0.021890636812430777</v>
+        <v>0.020994226425331247</v>
       </c>
       <c r="FB4">
-        <v>0.021938876771938527</v>
+        <v>0.020976793974565706</v>
       </c>
       <c r="FC4">
-        <v>0.022054636092514197</v>
+        <v>0.020858752243156257</v>
       </c>
       <c r="FD4">
-        <v>0.021922707577652037</v>
+        <v>0.021085108759993962</v>
       </c>
       <c r="FE4">
-        <v>0.021877000736920817</v>
+        <v>0.021267733040025581</v>
       </c>
       <c r="FF4">
-        <v>0.022066708120336401</v>
+        <v>0.021075083315745306</v>
       </c>
       <c r="FG4">
-        <v>0.022160086707074582</v>
+        <v>0.021334983382352634</v>
       </c>
       <c r="FH4">
-        <v>0.022187668197820427</v>
+        <v>0.021332789285563064</v>
       </c>
       <c r="FI4">
-        <v>0.02238535762424719</v>
+        <v>0.021668222302965348</v>
       </c>
       <c r="FJ4">
-        <v>0.022160086878491147</v>
+        <v>0.021514945585996946</v>
       </c>
       <c r="FK4">
-        <v>0.022503044061826502</v>
+        <v>0.021617061057084917</v>
       </c>
       <c r="FL4">
-        <v>0.022292735207620061</v>
+        <v>0.021416232583463868</v>
       </c>
       <c r="FM4">
-        <v>0.022182634919328703</v>
+        <v>0.021944372675282018</v>
       </c>
       <c r="FN4">
-        <v>0.022269360503686771</v>
+        <v>0.021545451028314851</v>
       </c>
       <c r="FO4">
-        <v>0.022345323174416412</v>
+        <v>0.021351493681069873</v>
       </c>
       <c r="FP4">
-        <v>0.022494689717847641</v>
+        <v>0.021679299258367001</v>
       </c>
       <c r="FQ4">
-        <v>0.022316289268397856</v>
+        <v>0.021956482678781159</v>
       </c>
       <c r="FR4">
-        <v>0.022225689248902954</v>
+        <v>0.02183872889980976</v>
       </c>
       <c r="FS4">
-        <v>0.022180121642785534</v>
+        <v>0.021801297957224148</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -7124,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015996427248878158</v>
+        <v>0.01545243675251802</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -8228,526 +8230,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.2011152031803138</v>
+        <v>0.010387514447273294</v>
       </c>
       <c r="C3">
-        <v>-1.7003101024177456</v>
+        <v>-0.62559818723639649</v>
       </c>
       <c r="D3">
-        <v>-1.7548610342662267</v>
+        <v>-0.64816924969874767</v>
       </c>
       <c r="E3">
-        <v>-1.7325769208099846</v>
+        <v>-0.6751152158013547</v>
       </c>
       <c r="F3">
-        <v>-1.7086967245285452</v>
+        <v>-0.66320432241101013</v>
       </c>
       <c r="G3">
-        <v>-1.7067263872782625</v>
+        <v>-0.68160480117366462</v>
       </c>
       <c r="H3">
-        <v>-1.6935180320025647</v>
+        <v>-0.69468864225209981</v>
       </c>
       <c r="I3">
-        <v>0.83960839564012535</v>
+        <v>-0.0041976560575084773</v>
       </c>
       <c r="J3">
-        <v>0.75067236699979234</v>
+        <v>-0.0041750701664155128</v>
       </c>
       <c r="K3">
-        <v>0.60786272196226565</v>
+        <v>-0.0010130078277553441</v>
       </c>
       <c r="L3">
-        <v>0.469586877096139</v>
+        <v>-0.00042959179187472888</v>
       </c>
       <c r="M3">
-        <v>0.35109921488606088</v>
+        <v>0.0059848896817826149</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.3384660505154187</v>
+        <v>1.2455345977680568</v>
       </c>
       <c r="P3">
-        <v>1.4529149938237962</v>
+        <v>1.3473810097220813</v>
       </c>
       <c r="Q3">
-        <v>-0.079806798040216287</v>
+        <v>-0.20821421811868668</v>
       </c>
       <c r="R3">
-        <v>-0.15499399853356183</v>
+        <v>-0.2640826447067296</v>
       </c>
       <c r="S3">
-        <v>-0.08658619050619247</v>
+        <v>-0.16452268207002266</v>
       </c>
       <c r="T3">
-        <v>-0.082346485379581169</v>
+        <v>-0.17742081281081279</v>
       </c>
       <c r="U3">
-        <v>-0.15115165807265241</v>
+        <v>-0.093796835060174263</v>
       </c>
       <c r="V3">
-        <v>-0.073055512310282344</v>
+        <v>-0.11475935292807582</v>
       </c>
       <c r="W3">
-        <v>-0.066198268477451555</v>
+        <v>-0.13594934739231723</v>
       </c>
       <c r="X3">
-        <v>-0.069950883865431593</v>
+        <v>-0.093102523005303445</v>
       </c>
       <c r="Y3">
-        <v>0.027748003234622346</v>
+        <v>-0.085487338068006305</v>
       </c>
       <c r="Z3">
-        <v>0.006530435716147716</v>
+        <v>-0.036404228509531095</v>
       </c>
       <c r="AA3">
-        <v>0.029199759574421134</v>
+        <v>-0.063991548829681694</v>
       </c>
       <c r="AB3">
-        <v>0.0063379184982376808</v>
+        <v>-0.085148875630881152</v>
       </c>
       <c r="AC3">
-        <v>0.033863902496645649</v>
+        <v>-0.055141188536584042</v>
       </c>
       <c r="AD3">
-        <v>0.0053209487267701448</v>
+        <v>-0.017009490169881611</v>
       </c>
       <c r="AE3">
-        <v>0.043303143587324441</v>
+        <v>-0.057230548836292403</v>
       </c>
       <c r="AF3">
-        <v>0.076901778305149271</v>
+        <v>-0.05489012335055022</v>
       </c>
       <c r="AG3">
-        <v>0.097482667882884844</v>
+        <v>-0.020027741736476114</v>
       </c>
       <c r="AH3">
-        <v>0.055890025923402149</v>
+        <v>0.026368149428264726</v>
       </c>
       <c r="AI3">
-        <v>0.060572227674557964</v>
+        <v>-0.0044097400565759719</v>
       </c>
       <c r="AJ3">
-        <v>0.063679523502134239</v>
+        <v>-0.015847354435239089</v>
       </c>
       <c r="AK3">
-        <v>0.047878339050672472</v>
+        <v>-0.0042694134968055209</v>
       </c>
       <c r="AL3">
-        <v>0.013834958246651721</v>
+        <v>-0.030535903471748095</v>
       </c>
       <c r="AM3">
-        <v>0.10276844070374921</v>
+        <v>0.031192680359858647</v>
       </c>
       <c r="AN3">
-        <v>0.053316821835050675</v>
+        <v>0.02297342070237875</v>
       </c>
       <c r="AO3">
-        <v>0.049301919822312475</v>
+        <v>0.030990258887828658</v>
       </c>
       <c r="AP3">
-        <v>0.075219601715182091</v>
+        <v>-0.0042504626009115982</v>
       </c>
       <c r="AQ3">
-        <v>0.099781367280840416</v>
+        <v>0.0045259473622485807</v>
       </c>
       <c r="AR3">
-        <v>0.12306843445785098</v>
+        <v>0.0478119153583779</v>
       </c>
       <c r="AS3">
-        <v>0.097577276017537615</v>
+        <v>0.01457176869266643</v>
       </c>
       <c r="AT3">
-        <v>0.070573584314822149</v>
+        <v>0.064561772942122009</v>
       </c>
       <c r="AU3">
-        <v>0.078359543886509703</v>
+        <v>0.039830089671538595</v>
       </c>
       <c r="AV3">
-        <v>0.069759870321751641</v>
+        <v>0.0741309944071111</v>
       </c>
       <c r="AW3">
-        <v>0.10446584121279347</v>
+        <v>0.064440645031424243</v>
       </c>
       <c r="AX3">
-        <v>0.13367186125625038</v>
+        <v>0.024854126778316318</v>
       </c>
       <c r="AY3">
-        <v>0.097695578626581403</v>
+        <v>0.10792280652961377</v>
       </c>
       <c r="AZ3">
-        <v>0.12042009967957525</v>
+        <v>0.033179001716873956</v>
       </c>
       <c r="BA3">
-        <v>0.061090903384372806</v>
+        <v>0.065002002884227819</v>
       </c>
       <c r="BB3">
-        <v>0.064230276546403897</v>
+        <v>0.077259858689947086</v>
       </c>
       <c r="BC3">
-        <v>0.14127773009817293</v>
+        <v>0.093314624161826912</v>
       </c>
       <c r="BD3">
-        <v>0.13842020306914568</v>
+        <v>0.064291066136820799</v>
       </c>
       <c r="BE3">
-        <v>0.12063149523738884</v>
+        <v>0.056403755451300643</v>
       </c>
       <c r="BF3">
-        <v>0.094819743832236833</v>
+        <v>0.072489524995871565</v>
       </c>
       <c r="BG3">
-        <v>0.075566525056603759</v>
+        <v>0.069579344102285764</v>
       </c>
       <c r="BH3">
-        <v>0.15333610336437317</v>
+        <v>0.081635229563447057</v>
       </c>
       <c r="BI3">
-        <v>0.079548339971561008</v>
+        <v>0.054346819429554875</v>
       </c>
       <c r="BJ3">
-        <v>0.10485633891190083</v>
+        <v>0.078574487305169416</v>
       </c>
       <c r="BK3">
-        <v>0.13554638195485497</v>
+        <v>0.045038551388783932</v>
       </c>
       <c r="BL3">
-        <v>0.10954862152725943</v>
+        <v>0.10311666954998329</v>
       </c>
       <c r="BM3">
-        <v>0.10877881494729132</v>
+        <v>0.081178786647015916</v>
       </c>
       <c r="BN3">
-        <v>0.10097494770890546</v>
+        <v>0.081336307497535287</v>
       </c>
       <c r="BO3">
-        <v>0.10989217906672963</v>
+        <v>0.054891023543262807</v>
       </c>
       <c r="BP3">
-        <v>0.073107505936298861</v>
+        <v>0.065039822217089607</v>
       </c>
       <c r="BQ3">
-        <v>0.048830880140173782</v>
+        <v>0.10891415198081701</v>
       </c>
       <c r="BR3">
-        <v>0.12365524460338156</v>
+        <v>0.083130616759720111</v>
       </c>
       <c r="BS3">
-        <v>0.080990932137849969</v>
+        <v>0.039066721014938126</v>
       </c>
       <c r="BT3">
-        <v>0.06072931107496727</v>
+        <v>0.049701691163043016</v>
       </c>
       <c r="BU3">
-        <v>0.036904599524740948</v>
+        <v>0.060290290454270076</v>
       </c>
       <c r="BV3">
-        <v>0.039300122487223609</v>
+        <v>0.11972648679924142</v>
       </c>
       <c r="BW3">
-        <v>0.075474337911904874</v>
+        <v>0.026830832958480638</v>
       </c>
       <c r="BX3">
-        <v>0.099010278792841175</v>
+        <v>0.04973051573796132</v>
       </c>
       <c r="BY3">
-        <v>-0.062484237088453166</v>
+        <v>0.077984420419869027</v>
       </c>
       <c r="BZ3">
-        <v>0.22183490016257312</v>
+        <v>0.050037209037481857</v>
       </c>
       <c r="CA3">
-        <v>0.17786137189465454</v>
+        <v>0.033479202621700677</v>
       </c>
       <c r="CB3">
-        <v>0.2160330395906063</v>
+        <v>0.075498946988330359</v>
       </c>
       <c r="CC3">
-        <v>0.11496493679906893</v>
+        <v>0.07266557614049815</v>
       </c>
       <c r="CD3">
-        <v>0.080074035715949163</v>
+        <v>0.020097728343766382</v>
       </c>
       <c r="CE3">
-        <v>0.1810405390937361</v>
+        <v>0.071004173072878138</v>
       </c>
       <c r="CF3">
-        <v>0.12425495249793762</v>
+        <v>0.038393177395902443</v>
       </c>
       <c r="CG3">
-        <v>0.054997868157415045</v>
+        <v>0.058210254764534473</v>
       </c>
       <c r="CH3">
-        <v>0.041423169934279538</v>
+        <v>0.045544802144879368</v>
       </c>
       <c r="CI3">
-        <v>-0.00068533676770910173</v>
+        <v>0.045769055445769175</v>
       </c>
       <c r="CJ3">
-        <v>0.10113099431400464</v>
+        <v>0.055339874306428435</v>
       </c>
       <c r="CK3">
-        <v>0.082834599483610716</v>
+        <v>0.055929751201344455</v>
       </c>
       <c r="CL3">
-        <v>0.050224239005611154</v>
+        <v>0.080246144062567359</v>
       </c>
       <c r="CM3">
-        <v>0.039392919810999141</v>
+        <v>0.034183026688641122</v>
       </c>
       <c r="CN3">
-        <v>-0.040556717455825848</v>
+        <v>0.032279058041826098</v>
       </c>
       <c r="CO3">
-        <v>0.083960968298803645</v>
+        <v>-0.0047137037391600306</v>
       </c>
       <c r="CP3">
-        <v>0.059304792416173688</v>
+        <v>0.062351907107395389</v>
       </c>
       <c r="CQ3">
-        <v>0.00656376517256059</v>
+        <v>0.039557696744842004</v>
       </c>
       <c r="CR3">
-        <v>0.020929002849445096</v>
+        <v>0.031779906433076321</v>
       </c>
       <c r="CS3">
-        <v>-0.021966110883382611</v>
+        <v>0.042299420004116635</v>
       </c>
       <c r="CT3">
-        <v>0.30192015237380104</v>
+        <v>0.069549187696929957</v>
       </c>
       <c r="CU3">
-        <v>0.27704867773384445</v>
+        <v>0.086945231677972454</v>
       </c>
       <c r="CV3">
-        <v>0.29639750334466025</v>
+        <v>0.054602288322560012</v>
       </c>
       <c r="CW3">
-        <v>0.22702152446112231</v>
+        <v>-0.0044451582192220956</v>
       </c>
       <c r="CX3">
-        <v>0.23978632758370733</v>
+        <v>0.060602826098058206</v>
       </c>
       <c r="CY3">
-        <v>0.2528201532163033</v>
+        <v>0.068044618866308942</v>
       </c>
       <c r="CZ3">
-        <v>0.22742643481659106</v>
+        <v>0.053434948500025108</v>
       </c>
       <c r="DA3">
-        <v>0.2078992660618551</v>
+        <v>0.03019434781208544</v>
       </c>
       <c r="DB3">
-        <v>0.19374903123290035</v>
+        <v>0.038487485973149604</v>
       </c>
       <c r="DC3">
-        <v>0.15023406186739771</v>
+        <v>0.037945232596962752</v>
       </c>
       <c r="DD3">
-        <v>0.23246500204479503</v>
+        <v>0.033989200495126402</v>
       </c>
       <c r="DE3">
-        <v>0.18438970068925106</v>
+        <v>0.047303081512986692</v>
       </c>
       <c r="DF3">
-        <v>0.14305212459143316</v>
+        <v>0.046989725848019484</v>
       </c>
       <c r="DG3">
-        <v>0.13159852462623242</v>
+        <v>-0.025224248146238182</v>
       </c>
       <c r="DH3">
-        <v>0.11070424121122689</v>
+        <v>0.028332465521626292</v>
       </c>
       <c r="DI3">
-        <v>0.17598225657162339</v>
+        <v>-0.020803287235086784</v>
       </c>
       <c r="DJ3">
-        <v>0.16109521351564587</v>
+        <v>0.043542173348166971</v>
       </c>
       <c r="DK3">
-        <v>0.1452597189990773</v>
+        <v>-0.0066355761157276321</v>
       </c>
       <c r="DL3">
-        <v>0.1194256841741736</v>
+        <v>0.067683287818935609</v>
       </c>
       <c r="DM3">
-        <v>0.10464194879990936</v>
+        <v>0.034798562586310762</v>
       </c>
       <c r="DN3">
-        <v>0.31271686039583829</v>
+        <v>0.067878951921486866</v>
       </c>
       <c r="DO3">
-        <v>0.25463872436782442</v>
+        <v>0.05683078776335692</v>
       </c>
       <c r="DP3">
-        <v>0.25333798105043731</v>
+        <v>0.084018114833827942</v>
       </c>
       <c r="DQ3">
-        <v>0.23415987697072743</v>
+        <v>0.052922213413208428</v>
       </c>
       <c r="DR3">
-        <v>0.21787073850822461</v>
+        <v>0.052768234683659515</v>
       </c>
       <c r="DS3">
-        <v>0.20981032337243485</v>
+        <v>0.053910690632416797</v>
       </c>
       <c r="DT3">
-        <v>0.19299541888464433</v>
+        <v>0.070133834674388287</v>
       </c>
       <c r="DU3">
-        <v>0.17854355116147549</v>
+        <v>0.04607817089630125</v>
       </c>
       <c r="DV3">
-        <v>0.1961770749544102</v>
+        <v>0.095954029502071894</v>
       </c>
       <c r="DW3">
-        <v>0.20178674468244229</v>
+        <v>0.026672065198680612</v>
       </c>
       <c r="DX3">
-        <v>0.17913171221251842</v>
+        <v>0.066703907505406501</v>
       </c>
       <c r="DY3">
-        <v>0.13755169750870877</v>
+        <v>-0.0051229531559649393</v>
       </c>
       <c r="DZ3">
-        <v>0.16757352284341637</v>
+        <v>0.033147163401283063</v>
       </c>
       <c r="EA3">
-        <v>0.11466406657390539</v>
+        <v>0.047183062547359655</v>
       </c>
       <c r="EB3">
-        <v>0.12224449567130004</v>
+        <v>0.041996158511348587</v>
       </c>
       <c r="EC3">
-        <v>0.15037293144355385</v>
+        <v>0.047857715259234442</v>
       </c>
       <c r="ED3">
-        <v>0.11229953695249195</v>
+        <v>0.048448648974749618</v>
       </c>
       <c r="EE3">
-        <v>0.13672001294252212</v>
+        <v>-0.0012496908973518238</v>
       </c>
       <c r="EF3">
-        <v>0.14083324465720201</v>
+        <v>0.033204442955604867</v>
       </c>
       <c r="EG3">
-        <v>0.11298840524783778</v>
+        <v>0.046830874352009375</v>
       </c>
       <c r="EH3">
-        <v>0.11465936589637687</v>
+        <v>0.002173395915228399</v>
       </c>
       <c r="EI3">
-        <v>0.11106637880288434</v>
+        <v>0.030329172889853716</v>
       </c>
       <c r="EJ3">
-        <v>0.07067084574553413</v>
+        <v>0.054741153823486204</v>
       </c>
       <c r="EK3">
-        <v>0.098304416532666264</v>
+        <v>0.021301131757150787</v>
       </c>
       <c r="EL3">
-        <v>0.090974199901000363</v>
+        <v>0.056835472946535903</v>
       </c>
       <c r="EM3">
-        <v>0.1315637988561161</v>
+        <v>-0.015996847309026938</v>
       </c>
       <c r="EN3">
-        <v>0.07124591589674785</v>
+        <v>0.010384617509790972</v>
       </c>
       <c r="EO3">
-        <v>0.07607186351619892</v>
+        <v>0.048239032793455448</v>
       </c>
       <c r="EP3">
-        <v>0.10936258433488036</v>
+        <v>0.0098492578655842225</v>
       </c>
       <c r="EQ3">
-        <v>0.089839964882294024</v>
+        <v>0.027401906127531621</v>
       </c>
       <c r="ER3">
-        <v>0.047818805448157656</v>
+        <v>0.0097427796882534022</v>
       </c>
       <c r="ES3">
-        <v>0.11116133091060593</v>
+        <v>0.021268968561265741</v>
       </c>
       <c r="ET3">
-        <v>0.064057344411172723</v>
+        <v>0.015183121717781592</v>
       </c>
       <c r="EU3">
-        <v>0.087160296081019675</v>
+        <v>0.0008624417221463085</v>
       </c>
       <c r="EV3">
-        <v>0.031969502159025866</v>
+        <v>0.0016835349311912593</v>
       </c>
       <c r="EW3">
-        <v>0.091036774048104868</v>
+        <v>0.027994336639892762</v>
       </c>
       <c r="EX3">
-        <v>0.09171916972850562</v>
+        <v>0.013812221657615862</v>
       </c>
       <c r="EY3">
-        <v>0.051714596437370829</v>
+        <v>0.034394950074986087</v>
       </c>
       <c r="EZ3">
-        <v>0.02449499534105631</v>
+        <v>-0.0090915385556200028</v>
       </c>
       <c r="FA3">
-        <v>0.073735473599718868</v>
+        <v>0.0132841581750165</v>
       </c>
       <c r="FB3">
-        <v>0.065833861799667354</v>
+        <v>0.024885950096764805</v>
       </c>
       <c r="FC3">
-        <v>0.045790657613178694</v>
+        <v>0.069028805042355562</v>
       </c>
       <c r="FD3">
-        <v>0.07985616095705296</v>
+        <v>0.024585339620786188</v>
       </c>
       <c r="FE3">
-        <v>0.087395002654477985</v>
+        <v>0.00081193937548925017</v>
       </c>
       <c r="FF3">
-        <v>0.053390339071114963</v>
+        <v>0.04405034553212811</v>
       </c>
       <c r="FG3">
-        <v>0.04280914723630945</v>
+        <v>0.0051981598047864284</v>
       </c>
       <c r="FH3">
-        <v>0.04038998269532048</v>
+        <v>0.0063677684787875524</v>
       </c>
       <c r="FI3">
-        <v>0.0038036383531085483</v>
+        <v>-0.050686979966289167</v>
       </c>
       <c r="FJ3">
-        <v>0.04699388754831578</v>
+        <v>-0.0030368296220058925</v>
       </c>
       <c r="FK3">
-        <v>-0.008265533982554852</v>
+        <v>-0.019027389273464035</v>
       </c>
       <c r="FL3">
-        <v>0.033036108736360051</v>
+        <v>0.031499462333223059</v>
       </c>
       <c r="FM3">
-        <v>0.057153279864335937</v>
+        <v>-0.061432362548778499</v>
       </c>
       <c r="FN3">
-        <v>0.045271227438929022</v>
+        <v>0.02088483848853483</v>
       </c>
       <c r="FO3">
-        <v>0.03356284880979489</v>
+        <v>0.064812099601580964</v>
       </c>
       <c r="FP3">
-        <v>0.007477707845515668</v>
+        <v>0.011358668572189552</v>
       </c>
       <c r="FQ3">
-        <v>0.043481420906766099</v>
+        <v>-0.046355266228436783</v>
       </c>
       <c r="FR3">
-        <v>0.063579261062435652</v>
+        <v>-0.010947687705909011</v>
       </c>
       <c r="FS3">
-        <v>0.078127029608600837</v>
+        <v>0.0019884506963798979</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -8756,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5453806994137027</v>
+        <v>-5.5262916386107346</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8770,526 +8772,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019836169157411886</v>
+        <v>0.023939441718636507</v>
       </c>
       <c r="C4">
-        <v>0.0165765969381843</v>
+        <v>0.013232343348981412</v>
       </c>
       <c r="D4">
-        <v>0.017224530714128584</v>
+        <v>0.014831507026556683</v>
       </c>
       <c r="E4">
-        <v>0.017331385165794085</v>
+        <v>0.014596628292472897</v>
       </c>
       <c r="F4">
-        <v>0.017662956823373679</v>
+        <v>0.014727477333385319</v>
       </c>
       <c r="G4">
-        <v>0.021967148345809547</v>
+        <v>0.017404626860206156</v>
       </c>
       <c r="H4">
-        <v>0.02648431835841868</v>
+        <v>0.020943291125361377</v>
       </c>
       <c r="I4">
-        <v>0.012844042237493679</v>
+        <v>0.016767682895614516</v>
       </c>
       <c r="J4">
-        <v>0.010860981022698451</v>
+        <v>0.013666800079711902</v>
       </c>
       <c r="K4">
-        <v>0.0091253673045217018</v>
+        <v>0.011398417846284575</v>
       </c>
       <c r="L4">
-        <v>0.0096800875269693349</v>
+        <v>0.011564036156810212</v>
       </c>
       <c r="M4">
-        <v>0.010115389207286244</v>
+        <v>0.011751059570619464</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.027268489149038875</v>
+        <v>0.022587090768694848</v>
       </c>
       <c r="P4">
-        <v>0.026849894262647285</v>
+        <v>0.022416644014012822</v>
       </c>
       <c r="Q4">
-        <v>0.037675589920141812</v>
+        <v>0.028197362721608579</v>
       </c>
       <c r="R4">
-        <v>0.038595244744049156</v>
+        <v>0.02858376461032348</v>
       </c>
       <c r="S4">
-        <v>0.037770943776164856</v>
+        <v>0.02793682488953805</v>
       </c>
       <c r="T4">
-        <v>0.037728404531648919</v>
+        <v>0.028030906653023401</v>
       </c>
       <c r="U4">
-        <v>0.038571374028043649</v>
+        <v>0.02752069954311168</v>
       </c>
       <c r="V4">
-        <v>0.037633622896761455</v>
+        <v>0.027660233206584169</v>
       </c>
       <c r="W4">
-        <v>0.037560781959801635</v>
+        <v>0.027803445743660452</v>
       </c>
       <c r="X4">
-        <v>0.037612733465185851</v>
+        <v>0.027550993612429259</v>
       </c>
       <c r="Y4">
-        <v>0.036508035422888226</v>
+        <v>0.027516680689902321</v>
       </c>
       <c r="Z4">
-        <v>0.036751473654038497</v>
+        <v>0.027237459044520219</v>
       </c>
       <c r="AA4">
-        <v>0.036508035424329829</v>
+        <v>0.027411886735428683</v>
       </c>
       <c r="AB4">
-        <v>0.036769870768641334</v>
+        <v>0.027550993642947465</v>
       </c>
       <c r="AC4">
-        <v>0.036472732021985206</v>
+        <v>0.02738281287735583</v>
       </c>
       <c r="AD4">
-        <v>0.036797562923573467</v>
+        <v>0.027171655092080367</v>
       </c>
       <c r="AE4">
-        <v>0.03638530870945339</v>
+        <v>0.027419682741965285</v>
       </c>
       <c r="AF4">
-        <v>0.036030666116226386</v>
+        <v>0.027417732052427625</v>
       </c>
       <c r="AG4">
-        <v>0.035820747414600611</v>
+        <v>0.027224559002614522</v>
       </c>
       <c r="AH4">
-        <v>0.036273408885630715</v>
+        <v>0.026971762892793273</v>
       </c>
       <c r="AI4">
-        <v>0.036230887245272805</v>
+        <v>0.027159013842309704</v>
       </c>
       <c r="AJ4">
-        <v>0.036205510077007556</v>
+        <v>0.027237459130374311</v>
       </c>
       <c r="AK4">
-        <v>0.036385308714094254</v>
+        <v>0.02718253009637682</v>
       </c>
       <c r="AL4">
-        <v>0.0367698707759005</v>
+        <v>0.027348256292749309</v>
       </c>
       <c r="AM4">
-        <v>0.035812813843513085</v>
+        <v>0.027004214919505283</v>
       </c>
       <c r="AN4">
-        <v>0.036350669289982644</v>
+        <v>0.027063134172288578</v>
       </c>
       <c r="AO4">
-        <v>0.036402698728464383</v>
+        <v>0.027030073454294146</v>
       </c>
       <c r="AP4">
-        <v>0.036129982664008693</v>
+        <v>0.02724485366631902</v>
       </c>
       <c r="AQ4">
-        <v>0.035876569602986928</v>
+        <v>0.027206218688665604</v>
       </c>
       <c r="AR4">
-        <v>0.035640818986677321</v>
+        <v>0.026971762990762066</v>
       </c>
       <c r="AS4">
-        <v>0.035916752920355462</v>
+        <v>0.027173465180343751</v>
       </c>
       <c r="AT4">
-        <v>0.036213957877797472</v>
+        <v>0.026902862163269616</v>
       </c>
       <c r="AU4">
-        <v>0.036138330191713544</v>
+        <v>0.027054400558395517</v>
       </c>
       <c r="AV4">
-        <v>0.036239368885704629</v>
+        <v>0.02687473588842167</v>
       </c>
       <c r="AW4">
-        <v>0.035876569608134512</v>
+        <v>0.026941326127092977</v>
       </c>
       <c r="AX4">
-        <v>0.03557945769804232</v>
+        <v>0.027178901174086157</v>
       </c>
       <c r="AY4">
-        <v>0.035965318388751458</v>
+        <v>0.026726843830746274</v>
       </c>
       <c r="AZ4">
-        <v>0.035734035458909574</v>
+        <v>0.027157212150201827</v>
       </c>
       <c r="BA4">
-        <v>0.036376631332498459</v>
+        <v>0.026988801260135812</v>
       </c>
       <c r="BB4">
-        <v>0.036350669301325973</v>
+        <v>0.026932923896178202</v>
       </c>
       <c r="BC4">
-        <v>0.035541419856372873</v>
+        <v>0.026856672205535333</v>
       </c>
       <c r="BD4">
-        <v>0.035579457703515276</v>
+        <v>0.027031805069463684</v>
       </c>
       <c r="BE4">
-        <v>0.035005240528358225</v>
+        <v>0.027089480308330409</v>
       </c>
       <c r="BF4">
-        <v>0.035300920593029798</v>
+        <v>0.027011090014274982</v>
       </c>
       <c r="BG4">
-        <v>0.035527022329083412</v>
+        <v>0.027040476638186563</v>
       </c>
       <c r="BH4">
-        <v>0.034673690918319712</v>
+        <v>0.026985386293146705</v>
       </c>
       <c r="BI4">
-        <v>0.035499488906344932</v>
+        <v>0.027153611550989172</v>
       </c>
       <c r="BJ4">
-        <v>0.035131682729788311</v>
+        <v>0.027028343171109876</v>
       </c>
       <c r="BK4">
-        <v>0.034803906746151594</v>
+        <v>0.027233768443518911</v>
       </c>
       <c r="BL4">
-        <v>0.03509729147024946</v>
+        <v>0.026916187190265357</v>
       </c>
       <c r="BM4">
-        <v>0.035114466156347834</v>
+        <v>0.027052656901637429</v>
       </c>
       <c r="BN4">
-        <v>0.035209721403565833</v>
+        <v>0.027064884075823317</v>
       </c>
       <c r="BO4">
-        <v>0.035051518364273372</v>
+        <v>0.027230081705708231</v>
       </c>
       <c r="BP4">
-        <v>0.035468410391911523</v>
+        <v>0.027184346473264422</v>
       </c>
       <c r="BQ4">
-        <v>0.035752226401017259</v>
+        <v>0.02694806453001309</v>
       </c>
       <c r="BR4">
-        <v>0.034926523837662954</v>
+        <v>0.027107166202751148</v>
       </c>
       <c r="BS4">
-        <v>0.03540597077101619</v>
+        <v>0.027377028828517669</v>
       </c>
       <c r="BT4">
-        <v>0.036244630238075067</v>
+        <v>0.027327314684091754</v>
       </c>
       <c r="BU4">
-        <v>0.036521219821967314</v>
+        <v>0.027278337840514647</v>
       </c>
       <c r="BV4">
-        <v>0.036502416744501033</v>
+        <v>0.026951439141863577</v>
       </c>
       <c r="BW4">
-        <v>0.036852179651635009</v>
+        <v>0.027504653013657992</v>
       </c>
       <c r="BX4">
-        <v>0.036609187011223704</v>
+        <v>0.027380884073584973</v>
       </c>
       <c r="BY4">
-        <v>0.026678478820777597</v>
+        <v>0.027228239992981254</v>
       </c>
       <c r="BZ4">
-        <v>0.022519811480412794</v>
+        <v>0.027406052165302165</v>
       </c>
       <c r="CA4">
-        <v>0.022642519194188509</v>
+        <v>0.027518690054440031</v>
       </c>
       <c r="CB4">
-        <v>0.021802682071809725</v>
+        <v>0.027282079573714414</v>
       </c>
       <c r="CC4">
-        <v>0.022100468989090832</v>
+        <v>0.027312167232830593</v>
       </c>
       <c r="CD4">
-        <v>0.022162347466351529</v>
+        <v>0.027641437473180146</v>
       </c>
       <c r="CE4">
-        <v>0.021687873971365245</v>
+        <v>0.027348256765752445</v>
       </c>
       <c r="CF4">
-        <v>0.021896124589470094</v>
+        <v>0.02755708547317064</v>
       </c>
       <c r="CG4">
-        <v>0.022158264656250995</v>
+        <v>0.027451049871250091</v>
       </c>
       <c r="CH4">
-        <v>0.022231228748402575</v>
+        <v>0.027540866201257473</v>
       </c>
       <c r="CI4">
-        <v>0.022287744317775027</v>
+        <v>0.027553023442600202</v>
       </c>
       <c r="CJ4">
-        <v>0.022722192282419864</v>
+        <v>0.027508657801204851</v>
       </c>
       <c r="CK4">
-        <v>0.022816173562321188</v>
+        <v>0.027518690166561208</v>
       </c>
       <c r="CL4">
-        <v>0.022968456762558782</v>
+        <v>0.027386675404599915</v>
       </c>
       <c r="CM4">
-        <v>0.023035763355062241</v>
+        <v>0.027679132783186969</v>
       </c>
       <c r="CN4">
-        <v>0.023323130944939541</v>
+        <v>0.027704492481214829</v>
       </c>
       <c r="CO4">
-        <v>0.023515654792383215</v>
+        <v>0.027950441393814234</v>
       </c>
       <c r="CP4">
-        <v>0.023645629357406876</v>
+        <v>0.027546939485006458</v>
       </c>
       <c r="CQ4">
-        <v>0.02405198095480492</v>
+        <v>0.027700253036870268</v>
       </c>
       <c r="CR4">
-        <v>0.024010619027005863</v>
+        <v>0.027762235183390507</v>
       </c>
       <c r="CS4">
-        <v>0.023995129858765264</v>
+        <v>0.027358003504488242</v>
       </c>
       <c r="CT4">
-        <v>0.020374478311254173</v>
+        <v>0.027200804778460756</v>
       </c>
       <c r="CU4">
-        <v>0.020432781115773957</v>
+        <v>0.027107298364841149</v>
       </c>
       <c r="CV4">
-        <v>0.019858573697026902</v>
+        <v>0.02732300216687315</v>
       </c>
       <c r="CW4">
-        <v>0.020023091310059041</v>
+        <v>0.027718849838465509</v>
       </c>
       <c r="CX4">
-        <v>0.020009439165332793</v>
+        <v>0.027334573978001472</v>
       </c>
       <c r="CY4">
-        <v>0.019713749809685627</v>
+        <v>0.027301270736573541</v>
       </c>
       <c r="CZ4">
-        <v>0.019794514132274146</v>
+        <v>0.02740901900913259</v>
       </c>
       <c r="DA4">
-        <v>0.019861983381058736</v>
+        <v>0.027574427818608548</v>
       </c>
       <c r="DB4">
-        <v>0.019916499911050108</v>
+        <v>0.027534161816813962</v>
       </c>
       <c r="DC4">
-        <v>0.020052458390941719</v>
+        <v>0.02753400096597302</v>
       </c>
       <c r="DD4">
-        <v>0.020105531729542131</v>
+        <v>0.02757403619666373</v>
       </c>
       <c r="DE4">
-        <v>0.020261265274922328</v>
+        <v>0.027501398939430138</v>
       </c>
       <c r="DF4">
-        <v>0.020403044091373328</v>
+        <v>0.02751768820593925</v>
       </c>
       <c r="DG4">
-        <v>0.020455846493082783</v>
+        <v>0.028015358741918316</v>
       </c>
       <c r="DH4">
-        <v>0.020539258853605958</v>
+        <v>0.028090625556153447</v>
       </c>
       <c r="DI4">
-        <v>0.020574751299975158</v>
+        <v>0.028434475225679254</v>
       </c>
       <c r="DJ4">
-        <v>0.02064062519848547</v>
+        <v>0.02801839567677946</v>
       </c>
       <c r="DK4">
-        <v>0.02071062120070314</v>
+        <v>0.028987373683448815</v>
       </c>
       <c r="DL4">
-        <v>0.020815811338940542</v>
+        <v>0.028517708008134145</v>
       </c>
       <c r="DM4">
-        <v>0.020884716946408925</v>
+        <v>0.028805406861523934</v>
       </c>
       <c r="DN4">
-        <v>0.019969654995789253</v>
+        <v>0.02620026468676433</v>
       </c>
       <c r="DO4">
-        <v>0.020204717008852176</v>
+        <v>0.026267667544309075</v>
       </c>
       <c r="DP4">
-        <v>0.020228929303814092</v>
+        <v>0.025148932546171562</v>
       </c>
       <c r="DQ4">
-        <v>0.020322416941368313</v>
+        <v>0.02531848937855807</v>
       </c>
       <c r="DR4">
-        <v>0.020405902278658124</v>
+        <v>0.025165465234912747</v>
       </c>
       <c r="DS4">
-        <v>0.020457428475655206</v>
+        <v>0.024929515757163605</v>
       </c>
       <c r="DT4">
-        <v>0.020544896189679741</v>
+        <v>0.02486515754203969</v>
       </c>
       <c r="DU4">
-        <v>0.020623767796214172</v>
+        <v>0.025006670503550838</v>
       </c>
       <c r="DV4">
-        <v>0.020570423007732635</v>
+        <v>0.024771415973722923</v>
       </c>
       <c r="DW4">
-        <v>0.02056695675772606</v>
+        <v>0.024794378123402315</v>
       </c>
       <c r="DX4">
-        <v>0.020680557886387157</v>
+        <v>0.024986169210807464</v>
       </c>
       <c r="DY4">
-        <v>0.02087776036924157</v>
+        <v>0.025382579358016567</v>
       </c>
       <c r="DZ4">
-        <v>0.020768037579532023</v>
+        <v>0.025196153395974311</v>
       </c>
       <c r="EA4">
-        <v>0.021018489348688506</v>
+        <v>0.025140784298642187</v>
       </c>
       <c r="EB4">
-        <v>0.021004300036899633</v>
+        <v>0.025137147477763803</v>
       </c>
       <c r="EC4">
-        <v>0.020899997332504947</v>
+        <v>0.025338335493391196</v>
       </c>
       <c r="ED4">
-        <v>0.021088945235370429</v>
+        <v>0.025354255267407227</v>
       </c>
       <c r="EE4">
-        <v>0.02099931145507342</v>
+        <v>0.026131071983531148</v>
       </c>
       <c r="EF4">
-        <v>0.021000973336599834</v>
+        <v>0.025967188584594507</v>
       </c>
       <c r="EG4">
-        <v>0.021146406787001033</v>
+        <v>0.026026415999333738</v>
       </c>
       <c r="EH4">
-        <v>0.021158763877290987</v>
+        <v>0.023103094954522958</v>
       </c>
       <c r="EI4">
-        <v>0.02119529836579637</v>
+        <v>0.022992397521732991</v>
       </c>
       <c r="EJ4">
-        <v>0.021404475869046972</v>
+        <v>0.022382155398204307</v>
       </c>
       <c r="EK4">
-        <v>0.021294076941790856</v>
+        <v>0.02255664523841085</v>
       </c>
       <c r="EL4">
-        <v>0.021348702500561059</v>
+        <v>0.022410430073720986</v>
       </c>
       <c r="EM4">
-        <v>0.021180087183499167</v>
+        <v>0.022456546589222161</v>
       </c>
       <c r="EN4">
-        <v>0.021484358499359694</v>
+        <v>0.022346612689878503</v>
       </c>
       <c r="EO4">
-        <v>0.021481357503537211</v>
+        <v>0.022184641475688206</v>
       </c>
       <c r="EP4">
-        <v>0.021342999222467008</v>
+        <v>0.022389202259916013</v>
       </c>
       <c r="EQ4">
-        <v>0.021456477067141991</v>
+        <v>0.022323468720572684</v>
       </c>
       <c r="ER4">
-        <v>0.021682502447733572</v>
+        <v>0.022449703977548977</v>
       </c>
       <c r="ES4">
-        <v>0.02139477681238652</v>
+        <v>0.02241298310331806</v>
       </c>
       <c r="ET4">
-        <v>0.021644057990495132</v>
+        <v>0.022462781968848169</v>
       </c>
       <c r="EU4">
-        <v>0.021551231262018685</v>
+        <v>0.022553831852312203</v>
       </c>
       <c r="EV4">
-        <v>0.021847414280096063</v>
+        <v>0.022569677156484017</v>
       </c>
       <c r="EW4">
-        <v>0.021572855428211853</v>
+        <v>0.022472385325827578</v>
       </c>
       <c r="EX4">
-        <v>0.021590485612903904</v>
+        <v>0.022562669766252864</v>
       </c>
       <c r="EY4">
-        <v>0.021811186307632787</v>
+        <v>0.022481065321540362</v>
       </c>
       <c r="EZ4">
-        <v>0.02197194258935508</v>
+        <v>0.022719119526828157</v>
       </c>
       <c r="FA4">
-        <v>0.02174117228345632</v>
+        <v>0.022626047760510627</v>
       </c>
       <c r="FB4">
-        <v>0.021802200258630541</v>
+        <v>0.021821505129206404</v>
       </c>
       <c r="FC4">
-        <v>0.021925937230181148</v>
+        <v>0.021617156377457019</v>
       </c>
       <c r="FD4">
-        <v>0.021773188197665157</v>
+        <v>0.021866536165465685</v>
       </c>
       <c r="FE4">
-        <v>0.021756583475635353</v>
+        <v>0.022013373391692792</v>
       </c>
       <c r="FF4">
-        <v>0.021951800668189549</v>
+        <v>0.021807426678412276</v>
       </c>
       <c r="FG4">
-        <v>0.02202835563165528</v>
+        <v>0.022033503184744552</v>
       </c>
       <c r="FH4">
-        <v>0.022062479177607404</v>
+        <v>0.022048688307008873</v>
       </c>
       <c r="FI4">
-        <v>0.022279681994042965</v>
+        <v>0.022383225763228036</v>
       </c>
       <c r="FJ4">
-        <v>0.022069842440066451</v>
+        <v>0.022141413324476538</v>
       </c>
       <c r="FK4">
-        <v>0.022389538877895007</v>
+        <v>0.022250510368669856</v>
       </c>
       <c r="FL4">
-        <v>0.022186333922878349</v>
+        <v>0.021998363609660836</v>
       </c>
       <c r="FM4">
-        <v>0.02207968837531046</v>
+        <v>0.022533471178714938</v>
       </c>
       <c r="FN4">
-        <v>0.022164702610456187</v>
+        <v>0.02209727821203037</v>
       </c>
       <c r="FO4">
-        <v>0.022249553682041043</v>
+        <v>0.021885703878202864</v>
       </c>
       <c r="FP4">
-        <v>0.022414178408666684</v>
+        <v>0.022194155628789257</v>
       </c>
       <c r="FQ4">
-        <v>0.022239142882567845</v>
+        <v>0.022539390744070506</v>
       </c>
       <c r="FR4">
-        <v>0.022153312880623378</v>
+        <v>0.022360719534501434</v>
       </c>
       <c r="FS4">
-        <v>0.022098237029194941</v>
+        <v>0.022310651673241397</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -9298,13 +9300,4313 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015943479151854258</v>
+        <v>0.015799553515578189</v>
       </c>
       <c r="FW4">
         <v>0</v>
       </c>
       <c r="FX4">
         <v>0.020120937763617841</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FV4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>144</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>152</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>160</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>162</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>164</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>165</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>166</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>2.1500373012999416</v>
+      </c>
+      <c r="C3">
+        <v>-0.76214560728213021</v>
+      </c>
+      <c r="D3">
+        <v>-0.77670460301708988</v>
+      </c>
+      <c r="E3">
+        <v>-0.80517321994764934</v>
+      </c>
+      <c r="F3">
+        <v>-0.81740799406932452</v>
+      </c>
+      <c r="G3">
+        <v>-0.82735893897115642</v>
+      </c>
+      <c r="H3">
+        <v>-0.82812833332244529</v>
+      </c>
+      <c r="I3">
+        <v>0.0080244938485252229</v>
+      </c>
+      <c r="J3">
+        <v>0.0059099687328395588</v>
+      </c>
+      <c r="K3">
+        <v>-0.0015659378104239661</v>
+      </c>
+      <c r="L3">
+        <v>0.00677409981498381</v>
+      </c>
+      <c r="M3">
+        <v>-0.012477223602135729</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.2775600565323824</v>
+      </c>
+      <c r="P3">
+        <v>1.3701852241934138</v>
+      </c>
+      <c r="Q3">
+        <v>-0.17467087034261586</v>
+      </c>
+      <c r="R3">
+        <v>-0.1950600948820258</v>
+      </c>
+      <c r="S3">
+        <v>-0.13814323369752585</v>
+      </c>
+      <c r="T3">
+        <v>-0.18274128191092759</v>
+      </c>
+      <c r="U3">
+        <v>-0.086257739433977895</v>
+      </c>
+      <c r="V3">
+        <v>-0.09976288758748697</v>
+      </c>
+      <c r="W3">
+        <v>-0.1170337619907548</v>
+      </c>
+      <c r="X3">
+        <v>-0.065488946631061418</v>
+      </c>
+      <c r="Y3">
+        <v>-0.098524003326326007</v>
+      </c>
+      <c r="Z3">
+        <v>-0.029531434721300421</v>
+      </c>
+      <c r="AA3">
+        <v>-0.029886425436222719</v>
+      </c>
+      <c r="AB3">
+        <v>-0.048839710219890982</v>
+      </c>
+      <c r="AC3">
+        <v>-0.032819901943883706</v>
+      </c>
+      <c r="AD3">
+        <v>0.036657040847409783</v>
+      </c>
+      <c r="AE3">
+        <v>-0.021502339364259222</v>
+      </c>
+      <c r="AF3">
+        <v>-0.017524626503902657</v>
+      </c>
+      <c r="AG3">
+        <v>0.0024594606765451837</v>
+      </c>
+      <c r="AH3">
+        <v>0.046129453982392404</v>
+      </c>
+      <c r="AI3">
+        <v>0.027909744640063454</v>
+      </c>
+      <c r="AJ3">
+        <v>0.0018117482092472042</v>
+      </c>
+      <c r="AK3">
+        <v>0.017427284947774645</v>
+      </c>
+      <c r="AL3">
+        <v>-0.0051424539415320051</v>
+      </c>
+      <c r="AM3">
+        <v>0.04641510816498421</v>
+      </c>
+      <c r="AN3">
+        <v>0.049386937613635044</v>
+      </c>
+      <c r="AO3">
+        <v>0.016276415099062722</v>
+      </c>
+      <c r="AP3">
+        <v>0.023452128619739391</v>
+      </c>
+      <c r="AQ3">
+        <v>0.061256406799504698</v>
+      </c>
+      <c r="AR3">
+        <v>0.089339247164441304</v>
+      </c>
+      <c r="AS3">
+        <v>0.035672167377558621</v>
+      </c>
+      <c r="AT3">
+        <v>0.059364099217898321</v>
+      </c>
+      <c r="AU3">
+        <v>0.080294897060635168</v>
+      </c>
+      <c r="AV3">
+        <v>0.061984348743417655</v>
+      </c>
+      <c r="AW3">
+        <v>0.074854355494492986</v>
+      </c>
+      <c r="AX3">
+        <v>0.070065037131458827</v>
+      </c>
+      <c r="AY3">
+        <v>0.12806406484426197</v>
+      </c>
+      <c r="AZ3">
+        <v>0.069390150238710729</v>
+      </c>
+      <c r="BA3">
+        <v>0.06726535811941696</v>
+      </c>
+      <c r="BB3">
+        <v>0.080878037416951834</v>
+      </c>
+      <c r="BC3">
+        <v>0.0906816113309966</v>
+      </c>
+      <c r="BD3">
+        <v>0.081184346572609326</v>
+      </c>
+      <c r="BE3">
+        <v>0.052718668982610614</v>
+      </c>
+      <c r="BF3">
+        <v>0.095344722021449071</v>
+      </c>
+      <c r="BG3">
+        <v>0.099751619612777342</v>
+      </c>
+      <c r="BH3">
+        <v>0.089602639871606715</v>
+      </c>
+      <c r="BI3">
+        <v>0.08890428242993352</v>
+      </c>
+      <c r="BJ3">
+        <v>0.075080176656619063</v>
+      </c>
+      <c r="BK3">
+        <v>0.032684028952190344</v>
+      </c>
+      <c r="BL3">
+        <v>0.09622965986586221</v>
+      </c>
+      <c r="BM3">
+        <v>0.10542365383928247</v>
+      </c>
+      <c r="BN3">
+        <v>0.098634266329762299</v>
+      </c>
+      <c r="BO3">
+        <v>0.048008648566603619</v>
+      </c>
+      <c r="BP3">
+        <v>0.058576392701161863</v>
+      </c>
+      <c r="BQ3">
+        <v>0.08874715242589272</v>
+      </c>
+      <c r="BR3">
+        <v>0.089039889274492134</v>
+      </c>
+      <c r="BS3">
+        <v>0.069249509046680077</v>
+      </c>
+      <c r="BT3">
+        <v>0.045288097818121605</v>
+      </c>
+      <c r="BU3">
+        <v>0.073188022450688256</v>
+      </c>
+      <c r="BV3">
+        <v>0.12448644722088061</v>
+      </c>
+      <c r="BW3">
+        <v>0.031051012165184685</v>
+      </c>
+      <c r="BX3">
+        <v>0.063793362254478847</v>
+      </c>
+      <c r="BY3">
+        <v>0.079770558374471764</v>
+      </c>
+      <c r="BZ3">
+        <v>0.042168589967530173</v>
+      </c>
+      <c r="CA3">
+        <v>0.062111205610603001</v>
+      </c>
+      <c r="CB3">
+        <v>0.086415296376354589</v>
+      </c>
+      <c r="CC3">
+        <v>0.097658938068424767</v>
+      </c>
+      <c r="CD3">
+        <v>0.032586591063069728</v>
+      </c>
+      <c r="CE3">
+        <v>0.083112295683369725</v>
+      </c>
+      <c r="CF3">
+        <v>0.042546834243940942</v>
+      </c>
+      <c r="CG3">
+        <v>0.068206457526996986</v>
+      </c>
+      <c r="CH3">
+        <v>0.057666248161939909</v>
+      </c>
+      <c r="CI3">
+        <v>0.091034097195827529</v>
+      </c>
+      <c r="CJ3">
+        <v>0.071636727443838977</v>
+      </c>
+      <c r="CK3">
+        <v>0.058837426541460291</v>
+      </c>
+      <c r="CL3">
+        <v>0.061554670862844309</v>
+      </c>
+      <c r="CM3">
+        <v>0.04928044285539207</v>
+      </c>
+      <c r="CN3">
+        <v>0.069202688583511598</v>
+      </c>
+      <c r="CO3">
+        <v>0.0028777442212424421</v>
+      </c>
+      <c r="CP3">
+        <v>0.069343276132752193</v>
+      </c>
+      <c r="CQ3">
+        <v>0.020149886768767902</v>
+      </c>
+      <c r="CR3">
+        <v>0.055576400341172019</v>
+      </c>
+      <c r="CS3">
+        <v>0.050042766780551078</v>
+      </c>
+      <c r="CT3">
+        <v>0.058884278033291063</v>
+      </c>
+      <c r="CU3">
+        <v>0.063513179523290525</v>
+      </c>
+      <c r="CV3">
+        <v>0.033737704076495519</v>
+      </c>
+      <c r="CW3">
+        <v>-0.0032487036439294717</v>
+      </c>
+      <c r="CX3">
+        <v>0.043101785401544565</v>
+      </c>
+      <c r="CY3">
+        <v>0.065422693847719537</v>
+      </c>
+      <c r="CZ3">
+        <v>0.031755283605835107</v>
+      </c>
+      <c r="DA3">
+        <v>0.014932519618786923</v>
+      </c>
+      <c r="DB3">
+        <v>0.024954244819414769</v>
+      </c>
+      <c r="DC3">
+        <v>0.063374825845177257</v>
+      </c>
+      <c r="DD3">
+        <v>0.069636616497864123</v>
+      </c>
+      <c r="DE3">
+        <v>0.057321728189973539</v>
+      </c>
+      <c r="DF3">
+        <v>0.069158833208596837</v>
+      </c>
+      <c r="DG3">
+        <v>0.022558727130568983</v>
+      </c>
+      <c r="DH3">
+        <v>0.051062304804801222</v>
+      </c>
+      <c r="DI3">
+        <v>0.0030667983889959252</v>
+      </c>
+      <c r="DJ3">
+        <v>0.08472921848908227</v>
+      </c>
+      <c r="DK3">
+        <v>0.0067864384979698204</v>
+      </c>
+      <c r="DL3">
+        <v>0.033865477394404979</v>
+      </c>
+      <c r="DM3">
+        <v>-0.061588946057420157</v>
+      </c>
+      <c r="DN3">
+        <v>0.044051686117398972</v>
+      </c>
+      <c r="DO3">
+        <v>0.045480179409853737</v>
+      </c>
+      <c r="DP3">
+        <v>0.067087454019908663</v>
+      </c>
+      <c r="DQ3">
+        <v>0.039141012207820056</v>
+      </c>
+      <c r="DR3">
+        <v>0.039589585120684057</v>
+      </c>
+      <c r="DS3">
+        <v>0.067664785261059401</v>
+      </c>
+      <c r="DT3">
+        <v>0.071187116348443699</v>
+      </c>
+      <c r="DU3">
+        <v>0.052612415940095206</v>
+      </c>
+      <c r="DV3">
+        <v>0.072989398466788938</v>
+      </c>
+      <c r="DW3">
+        <v>0.032908475431817977</v>
+      </c>
+      <c r="DX3">
+        <v>0.053883435558069445</v>
+      </c>
+      <c r="DY3">
+        <v>-0.00056277992557389662</v>
+      </c>
+      <c r="DZ3">
+        <v>0.021604821130599292</v>
+      </c>
+      <c r="EA3">
+        <v>0.030282527246478584</v>
+      </c>
+      <c r="EB3">
+        <v>0.02703407489605163</v>
+      </c>
+      <c r="EC3">
+        <v>0.05707778576358203</v>
+      </c>
+      <c r="ED3">
+        <v>0.069610937433246631</v>
+      </c>
+      <c r="EE3">
+        <v>0.0027375855963437693</v>
+      </c>
+      <c r="EF3">
+        <v>0.060885835134603127</v>
+      </c>
+      <c r="EG3">
+        <v>0.11668855636907156</v>
+      </c>
+      <c r="EH3">
+        <v>-0.0039435255255045485</v>
+      </c>
+      <c r="EI3">
+        <v>0.024212251450015002</v>
+      </c>
+      <c r="EJ3">
+        <v>0.049696447320109603</v>
+      </c>
+      <c r="EK3">
+        <v>0.016256425253358658</v>
+      </c>
+      <c r="EL3">
+        <v>0.051790766443186149</v>
+      </c>
+      <c r="EM3">
+        <v>-0.015720560564256816</v>
+      </c>
+      <c r="EN3">
+        <v>0.010660904254584954</v>
+      </c>
+      <c r="EO3">
+        <v>0.048515319538287999</v>
+      </c>
+      <c r="EP3">
+        <v>0.010125544610378677</v>
+      </c>
+      <c r="EQ3">
+        <v>0.027678192872343459</v>
+      </c>
+      <c r="ER3">
+        <v>0.0061352209262705458</v>
+      </c>
+      <c r="ES3">
+        <v>0.017661409799641082</v>
+      </c>
+      <c r="ET3">
+        <v>0.011575562955967086</v>
+      </c>
+      <c r="EU3">
+        <v>-0.0027451170401074114</v>
+      </c>
+      <c r="EV3">
+        <v>-0.0019240238310375506</v>
+      </c>
+      <c r="EW3">
+        <v>0.037210410667969915</v>
+      </c>
+      <c r="EX3">
+        <v>0.023028295684515684</v>
+      </c>
+      <c r="EY3">
+        <v>0.04361102410360531</v>
+      </c>
+      <c r="EZ3">
+        <v>0.00012453546944717466</v>
+      </c>
+      <c r="FA3">
+        <v>0.02250023220187292</v>
+      </c>
+      <c r="FB3">
+        <v>0.024885950096764486</v>
+      </c>
+      <c r="FC3">
+        <v>0.069028805042356173</v>
+      </c>
+      <c r="FD3">
+        <v>0.024585339620787218</v>
+      </c>
+      <c r="FE3">
+        <v>0.00081193937548965545</v>
+      </c>
+      <c r="FF3">
+        <v>0.04405034553212811</v>
+      </c>
+      <c r="FG3">
+        <v>0.0051981598047866626</v>
+      </c>
+      <c r="FH3">
+        <v>0.0063677684787875957</v>
+      </c>
+      <c r="FI3">
+        <v>-0.050686979966289208</v>
+      </c>
+      <c r="FJ3">
+        <v>-0.003036829622005255</v>
+      </c>
+      <c r="FK3">
+        <v>-0.019027389273463848</v>
+      </c>
+      <c r="FL3">
+        <v>0.031499462333223413</v>
+      </c>
+      <c r="FM3">
+        <v>-0.061432362548778256</v>
+      </c>
+      <c r="FN3">
+        <v>0.020884838488535225</v>
+      </c>
+      <c r="FO3">
+        <v>0.064812099601581172</v>
+      </c>
+      <c r="FP3">
+        <v>0.011358668572189003</v>
+      </c>
+      <c r="FQ3">
+        <v>-0.046355266228436026</v>
+      </c>
+      <c r="FR3">
+        <v>-0.010947687705909025</v>
+      </c>
+      <c r="FS3">
+        <v>0.0019884506963803567</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>-5.5262916386107346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>0.020024818760022479</v>
+      </c>
+      <c r="C4">
+        <v>0.013671120026824872</v>
+      </c>
+      <c r="D4">
+        <v>0.015059193466437798</v>
+      </c>
+      <c r="E4">
+        <v>0.015071246386103233</v>
+      </c>
+      <c r="F4">
+        <v>0.015218655942293239</v>
+      </c>
+      <c r="G4">
+        <v>0.017997237218061412</v>
+      </c>
+      <c r="H4">
+        <v>0.02171544933522785</v>
+      </c>
+      <c r="I4">
+        <v>0.016940950344559284</v>
+      </c>
+      <c r="J4">
+        <v>0.013795487139144968</v>
+      </c>
+      <c r="K4">
+        <v>0.01149939654066285</v>
+      </c>
+      <c r="L4">
+        <v>0.011673365396798963</v>
+      </c>
+      <c r="M4">
+        <v>0.011744804612249875</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.023048658807679073</v>
+      </c>
+      <c r="P4">
+        <v>0.022879405650665062</v>
+      </c>
+      <c r="Q4">
+        <v>0.029083642905278404</v>
+      </c>
+      <c r="R4">
+        <v>0.029239280726056371</v>
+      </c>
+      <c r="S4">
+        <v>0.028851487294909009</v>
+      </c>
+      <c r="T4">
+        <v>0.029173947195780623</v>
+      </c>
+      <c r="U4">
+        <v>0.028523664067224879</v>
+      </c>
+      <c r="V4">
+        <v>0.028624707794130899</v>
+      </c>
+      <c r="W4">
+        <v>0.028752274258019187</v>
+      </c>
+      <c r="X4">
+        <v>0.028420428505255727</v>
+      </c>
+      <c r="Y4">
+        <v>0.028650397185190385</v>
+      </c>
+      <c r="Z4">
+        <v>0.028210813201365138</v>
+      </c>
+      <c r="AA4">
+        <v>0.028224569790503275</v>
+      </c>
+      <c r="AB4">
+        <v>0.028357936610238089</v>
+      </c>
+      <c r="AC4">
+        <v>0.028266157764926497</v>
+      </c>
+      <c r="AD4">
+        <v>0.027843830671098704</v>
+      </c>
+      <c r="AE4">
+        <v>0.028217684940217067</v>
+      </c>
+      <c r="AF4">
+        <v>0.02820395466265422</v>
+      </c>
+      <c r="AG4">
+        <v>0.028089331343625224</v>
+      </c>
+      <c r="AH4">
+        <v>0.027831489030992709</v>
+      </c>
+      <c r="AI4">
+        <v>0.027954821628111463</v>
+      </c>
+      <c r="AJ4">
+        <v>0.028129366120661265</v>
+      </c>
+      <c r="AK4">
+        <v>0.02804319079135131</v>
+      </c>
+      <c r="AL4">
+        <v>0.02819710921829293</v>
+      </c>
+      <c r="AM4">
+        <v>0.027887380770072689</v>
+      </c>
+      <c r="AN4">
+        <v>0.027881125361881968</v>
+      </c>
+      <c r="AO4">
+        <v>0.028098188959341287</v>
+      </c>
+      <c r="AP4">
+        <v>0.028065087126330459</v>
+      </c>
+      <c r="AQ4">
+        <v>0.02784383076602737</v>
+      </c>
+      <c r="AR4">
+        <v>0.02768679343760937</v>
+      </c>
+      <c r="AS4">
+        <v>0.02802577162087418</v>
+      </c>
+      <c r="AT4">
+        <v>0.027891557438206042</v>
+      </c>
+      <c r="AU4">
+        <v>0.027776499102870042</v>
+      </c>
+      <c r="AV4">
+        <v>0.027899925936317193</v>
+      </c>
+      <c r="AW4">
+        <v>0.027833542991719966</v>
+      </c>
+      <c r="AX4">
+        <v>0.027874881403759679</v>
+      </c>
+      <c r="AY4">
+        <v>0.027540570714931187</v>
+      </c>
+      <c r="AZ4">
+        <v>0.027904117855157378</v>
+      </c>
+      <c r="BA4">
+        <v>0.027929376811888448</v>
+      </c>
+      <c r="BB4">
+        <v>0.027858286069436126</v>
+      </c>
+      <c r="BC4">
+        <v>0.027811018571027985</v>
+      </c>
+      <c r="BD4">
+        <v>0.027881125489277021</v>
+      </c>
+      <c r="BE4">
+        <v>0.028069482907665637</v>
+      </c>
+      <c r="BF4">
+        <v>0.027819192076951809</v>
+      </c>
+      <c r="BG4">
+        <v>0.027804901366249239</v>
+      </c>
+      <c r="BH4">
+        <v>0.027879042914824674</v>
+      </c>
+      <c r="BI4">
+        <v>0.027895739257478819</v>
+      </c>
+      <c r="BJ4">
+        <v>0.027993342616919221</v>
+      </c>
+      <c r="BK4">
+        <v>0.028273136153258566</v>
+      </c>
+      <c r="BL4">
+        <v>0.027887380972287913</v>
+      </c>
+      <c r="BM4">
+        <v>0.02784383094864222</v>
+      </c>
+      <c r="BN4">
+        <v>0.027897832056507029</v>
+      </c>
+      <c r="BO4">
+        <v>0.02822686797473736</v>
+      </c>
+      <c r="BP4">
+        <v>0.028172120734747209</v>
+      </c>
+      <c r="BQ4">
+        <v>0.027995495272413226</v>
+      </c>
+      <c r="BR4">
+        <v>0.028006278234698583</v>
+      </c>
+      <c r="BS4">
+        <v>0.028142812375646753</v>
+      </c>
+      <c r="BT4">
+        <v>0.028308229948685967</v>
+      </c>
+      <c r="BU4">
+        <v>0.028142812392143886</v>
+      </c>
+      <c r="BV4">
+        <v>0.027837654613410853</v>
+      </c>
+      <c r="BW4">
+        <v>0.028439872486801146</v>
+      </c>
+      <c r="BX4">
+        <v>0.028240686293892609</v>
+      </c>
+      <c r="BY4">
+        <v>0.028151804740901822</v>
+      </c>
+      <c r="BZ4">
+        <v>0.028405913122650589</v>
+      </c>
+      <c r="CA4">
+        <v>0.028289471109759948</v>
+      </c>
+      <c r="CB4">
+        <v>0.028147305769097228</v>
+      </c>
+      <c r="CC4">
+        <v>0.028089331723921546</v>
+      </c>
+      <c r="CD4">
+        <v>0.028521172926866459</v>
+      </c>
+      <c r="CE4">
+        <v>0.028206239793709967</v>
+      </c>
+      <c r="CF4">
+        <v>0.028481532494833199</v>
+      </c>
+      <c r="CG4">
+        <v>0.028327086241965969</v>
+      </c>
+      <c r="CH4">
+        <v>0.028408328515757968</v>
+      </c>
+      <c r="CI4">
+        <v>0.02820623982822756</v>
+      </c>
+      <c r="CJ4">
+        <v>0.028343665844252925</v>
+      </c>
+      <c r="CK4">
+        <v>0.028439872601258454</v>
+      </c>
+      <c r="CL4">
+        <v>0.028435002103112613</v>
+      </c>
+      <c r="CM4">
+        <v>0.028528652691724787</v>
+      </c>
+      <c r="CN4">
+        <v>0.0284107454786818</v>
+      </c>
+      <c r="CO4">
+        <v>0.028867818166268471</v>
+      </c>
+      <c r="CP4">
+        <v>0.02843500213651529</v>
+      </c>
+      <c r="CQ4">
+        <v>0.028776174336762265</v>
+      </c>
+      <c r="CR4">
+        <v>0.028551181912989335</v>
+      </c>
+      <c r="CS4">
+        <v>0.02812674311890526</v>
+      </c>
+      <c r="CT4">
+        <v>0.028079785823376127</v>
+      </c>
+      <c r="CU4">
+        <v>0.028061688499390409</v>
+      </c>
+      <c r="CV4">
+        <v>0.028279395282203496</v>
+      </c>
+      <c r="CW4">
+        <v>0.028553359275800029</v>
+      </c>
+      <c r="CX4">
+        <v>0.028325880599753432</v>
+      </c>
+      <c r="CY4">
+        <v>0.028184254600710539</v>
+      </c>
+      <c r="CZ4">
+        <v>0.028432692527882476</v>
+      </c>
+      <c r="DA4">
+        <v>0.028565863067441258</v>
+      </c>
+      <c r="DB4">
+        <v>0.028507445109656242</v>
+      </c>
+      <c r="DC4">
+        <v>0.028328277172558574</v>
+      </c>
+      <c r="DD4">
+        <v>0.028298192024667736</v>
+      </c>
+      <c r="DE4">
+        <v>0.028397563017215594</v>
+      </c>
+      <c r="DF4">
+        <v>0.028328319726901439</v>
+      </c>
+      <c r="DG4">
+        <v>0.028672229776035008</v>
+      </c>
+      <c r="DH4">
+        <v>0.028897046076543125</v>
+      </c>
+      <c r="DI4">
+        <v>0.029253191894637945</v>
+      </c>
+      <c r="DJ4">
+        <v>0.028689628541942003</v>
+      </c>
+      <c r="DK4">
+        <v>0.029862303513600041</v>
+      </c>
+      <c r="DL4">
+        <v>0.029684050523406041</v>
+      </c>
+      <c r="DM4">
+        <v>0.025827790580902378</v>
+      </c>
+      <c r="DN4">
+        <v>0.026559698147109061</v>
+      </c>
+      <c r="DO4">
+        <v>0.026567996111303293</v>
+      </c>
+      <c r="DP4">
+        <v>0.025417171475952231</v>
+      </c>
+      <c r="DQ4">
+        <v>0.025575571643762077</v>
+      </c>
+      <c r="DR4">
+        <v>0.025455223867954728</v>
+      </c>
+      <c r="DS4">
+        <v>0.02508148560548569</v>
+      </c>
+      <c r="DT4">
+        <v>0.025081683483403717</v>
+      </c>
+      <c r="DU4">
+        <v>0.025197292852508244</v>
+      </c>
+      <c r="DV4">
+        <v>0.025109158948817715</v>
+      </c>
+      <c r="DW4">
+        <v>0.025029055383659276</v>
+      </c>
+      <c r="DX4">
+        <v>0.025282917664252613</v>
+      </c>
+      <c r="DY4">
+        <v>0.025596399615420252</v>
+      </c>
+      <c r="DZ4">
+        <v>0.025493043581434952</v>
+      </c>
+      <c r="EA4">
+        <v>0.025464480460162094</v>
+      </c>
+      <c r="EB4">
+        <v>0.025424254867512583</v>
+      </c>
+      <c r="EC4">
+        <v>0.02557256710030803</v>
+      </c>
+      <c r="ED4">
+        <v>0.025524550241510541</v>
+      </c>
+      <c r="EE4">
+        <v>0.026376475699864729</v>
+      </c>
+      <c r="EF4">
+        <v>0.026079989713063426</v>
+      </c>
+      <c r="EG4">
+        <v>0.025168077188712463</v>
+      </c>
+      <c r="EH4">
+        <v>0.023153504820257208</v>
+      </c>
+      <c r="EI4">
+        <v>0.023043049551827434</v>
+      </c>
+      <c r="EJ4">
+        <v>0.022412513156329923</v>
+      </c>
+      <c r="EK4">
+        <v>0.022586768476593709</v>
+      </c>
+      <c r="EL4">
+        <v>0.022440749581878455</v>
+      </c>
+      <c r="EM4">
+        <v>0.02246899373932414</v>
+      </c>
+      <c r="EN4">
+        <v>0.022359121039475873</v>
+      </c>
+      <c r="EO4">
+        <v>0.022197241097832755</v>
+      </c>
+      <c r="EP4">
+        <v>0.022401686828939206</v>
+      </c>
+      <c r="EQ4">
+        <v>0.022335990031038259</v>
+      </c>
+      <c r="ER4">
+        <v>0.022469309348884723</v>
+      </c>
+      <c r="ES4">
+        <v>0.022432620567168212</v>
+      </c>
+      <c r="ET4">
+        <v>0.022482375935588186</v>
+      </c>
+      <c r="EU4">
+        <v>0.022573346787092448</v>
+      </c>
+      <c r="EV4">
+        <v>0.022589178402386126</v>
+      </c>
+      <c r="EW4">
+        <v>0.022457415566691886</v>
+      </c>
+      <c r="EX4">
+        <v>0.0225477599471351</v>
+      </c>
+      <c r="EY4">
+        <v>0.022466101346631271</v>
+      </c>
+      <c r="EZ4">
+        <v>0.022704312446079213</v>
+      </c>
+      <c r="FA4">
+        <v>0.022611179732862977</v>
+      </c>
+      <c r="FB4">
+        <v>0.021821505129206394</v>
+      </c>
+      <c r="FC4">
+        <v>0.021617156377457016</v>
+      </c>
+      <c r="FD4">
+        <v>0.021866536165465671</v>
+      </c>
+      <c r="FE4">
+        <v>0.022013373391692792</v>
+      </c>
+      <c r="FF4">
+        <v>0.021807426678412269</v>
+      </c>
+      <c r="FG4">
+        <v>0.022033503184744559</v>
+      </c>
+      <c r="FH4">
+        <v>0.02204868830700888</v>
+      </c>
+      <c r="FI4">
+        <v>0.022383225763228033</v>
+      </c>
+      <c r="FJ4">
+        <v>0.022141413324476542</v>
+      </c>
+      <c r="FK4">
+        <v>0.02225051036866986</v>
+      </c>
+      <c r="FL4">
+        <v>0.021998363609660836</v>
+      </c>
+      <c r="FM4">
+        <v>0.022533471178714942</v>
+      </c>
+      <c r="FN4">
+        <v>0.022097278212030363</v>
+      </c>
+      <c r="FO4">
+        <v>0.021885703878202857</v>
+      </c>
+      <c r="FP4">
+        <v>0.02219415562878926</v>
+      </c>
+      <c r="FQ4">
+        <v>0.022539390744070506</v>
+      </c>
+      <c r="FR4">
+        <v>0.02236071953450142</v>
+      </c>
+      <c r="FS4">
+        <v>0.02231065167324138</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0.015799553515578182</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FV4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>109</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>127</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>129</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>130</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>131</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>132</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>135</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>136</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>140</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>141</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>142</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>144</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>145</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>146</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>149</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>152</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>155</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>158</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>160</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>162</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>164</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>165</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>166</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>176</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>179</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>177</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>1.0993034820803169</v>
+      </c>
+      <c r="C3">
+        <v>-1.9535750560518759</v>
+      </c>
+      <c r="D3">
+        <v>-2.0369182753650761</v>
+      </c>
+      <c r="E3">
+        <v>-2.0020163140668541</v>
+      </c>
+      <c r="F3">
+        <v>-1.9751591060281168</v>
+      </c>
+      <c r="G3">
+        <v>-1.9504556815354011</v>
+      </c>
+      <c r="H3">
+        <v>-1.9629960420655648</v>
+      </c>
+      <c r="I3">
+        <v>0.72571035833358921</v>
+      </c>
+      <c r="J3">
+        <v>0.68091946284525073</v>
+      </c>
+      <c r="K3">
+        <v>0.60058229177105305</v>
+      </c>
+      <c r="L3">
+        <v>0.52345304213581867</v>
+      </c>
+      <c r="M3">
+        <v>0.42111239804515826</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.4781300768938666</v>
+      </c>
+      <c r="P3">
+        <v>1.582571825596462</v>
+      </c>
+      <c r="Q3">
+        <v>0.095857286019352284</v>
+      </c>
+      <c r="R3">
+        <v>0.0037195774762829601</v>
+      </c>
+      <c r="S3">
+        <v>0.079192651485384083</v>
+      </c>
+      <c r="T3">
+        <v>0.035527789390565202</v>
+      </c>
+      <c r="U3">
+        <v>0.14533462586850163</v>
+      </c>
+      <c r="V3">
+        <v>0.10030641349261485</v>
+      </c>
+      <c r="W3">
+        <v>0.082121476894259429</v>
+      </c>
+      <c r="X3">
+        <v>0.10941109909829334</v>
+      </c>
+      <c r="Y3">
+        <v>0.12192627252154563</v>
+      </c>
+      <c r="Z3">
+        <v>0.15070073993478525</v>
+      </c>
+      <c r="AA3">
+        <v>0.12345894788599952</v>
+      </c>
+      <c r="AB3">
+        <v>0.15952196890067988</v>
+      </c>
+      <c r="AC3">
+        <v>0.084928313895420396</v>
+      </c>
+      <c r="AD3">
+        <v>0.19044803377278127</v>
+      </c>
+      <c r="AE3">
+        <v>0.16747451975681529</v>
+      </c>
+      <c r="AF3">
+        <v>0.18260220998629087</v>
+      </c>
+      <c r="AG3">
+        <v>0.14388389716953554</v>
+      </c>
+      <c r="AH3">
+        <v>0.16178496586720192</v>
+      </c>
+      <c r="AI3">
+        <v>0.20376516765139743</v>
+      </c>
+      <c r="AJ3">
+        <v>0.21462387713052208</v>
+      </c>
+      <c r="AK3">
+        <v>0.19055774980725271</v>
+      </c>
+      <c r="AL3">
+        <v>0.13631500622703202</v>
+      </c>
+      <c r="AM3">
+        <v>0.22696714166000714</v>
+      </c>
+      <c r="AN3">
+        <v>0.23915321021991176</v>
+      </c>
+      <c r="AO3">
+        <v>0.19066543790702864</v>
+      </c>
+      <c r="AP3">
+        <v>0.19147451814220179</v>
+      </c>
+      <c r="AQ3">
+        <v>0.19544011033465708</v>
+      </c>
+      <c r="AR3">
+        <v>0.25810716603067563</v>
+      </c>
+      <c r="AS3">
+        <v>0.20261751499701361</v>
+      </c>
+      <c r="AT3">
+        <v>0.23656828234509594</v>
+      </c>
+      <c r="AU3">
+        <v>0.24871975510510569</v>
+      </c>
+      <c r="AV3">
+        <v>0.18934878780699105</v>
+      </c>
+      <c r="AW3">
+        <v>0.20907761533915356</v>
+      </c>
+      <c r="AX3">
+        <v>0.26829852911701918</v>
+      </c>
+      <c r="AY3">
+        <v>0.31383677019197553</v>
+      </c>
+      <c r="AZ3">
+        <v>0.24169456831934732</v>
+      </c>
+      <c r="BA3">
+        <v>0.23340966826367326</v>
+      </c>
+      <c r="BB3">
+        <v>0.23272322848218219</v>
+      </c>
+      <c r="BC3">
+        <v>0.2879802460698857</v>
+      </c>
+      <c r="BD3">
+        <v>0.24739722240076098</v>
+      </c>
+      <c r="BE3">
+        <v>0.23531519050841429</v>
+      </c>
+      <c r="BF3">
+        <v>0.21369637664257332</v>
+      </c>
+      <c r="BG3">
+        <v>0.24992754532261574</v>
+      </c>
+      <c r="BH3">
+        <v>0.22007225709767797</v>
+      </c>
+      <c r="BI3">
+        <v>0.23868091221563908</v>
+      </c>
+      <c r="BJ3">
+        <v>0.2622506066555918</v>
+      </c>
+      <c r="BK3">
+        <v>0.22573765799373169</v>
+      </c>
+      <c r="BL3">
+        <v>0.25644129875464355</v>
+      </c>
+      <c r="BM3">
+        <v>0.2336391053083246</v>
+      </c>
+      <c r="BN3">
+        <v>0.25815004079185855</v>
+      </c>
+      <c r="BO3">
+        <v>0.18788998645387572</v>
+      </c>
+      <c r="BP3">
+        <v>0.19917237258317064</v>
+      </c>
+      <c r="BQ3">
+        <v>0.26440379078828569</v>
+      </c>
+      <c r="BR3">
+        <v>0.204060678730623</v>
+      </c>
+      <c r="BS3">
+        <v>0.22778892773599543</v>
+      </c>
+      <c r="BT3">
+        <v>0.16992975582323838</v>
+      </c>
+      <c r="BU3">
+        <v>0.21842739284060239</v>
+      </c>
+      <c r="BV3">
+        <v>0.2442126076433091</v>
+      </c>
+      <c r="BW3">
+        <v>0.12665796865482382</v>
+      </c>
+      <c r="BX3">
+        <v>0.23420567647416993</v>
+      </c>
+      <c r="BY3">
+        <v>0.23036495240310695</v>
+      </c>
+      <c r="BZ3">
+        <v>0.22728512826311889</v>
+      </c>
+      <c r="CA3">
+        <v>0.20346083655690136</v>
+      </c>
+      <c r="CB3">
+        <v>0.24299064542979157</v>
+      </c>
+      <c r="CC3">
+        <v>0.20754642518701008</v>
+      </c>
+      <c r="CD3">
+        <v>0.20111113799107735</v>
+      </c>
+      <c r="CE3">
+        <v>0.23222249218670796</v>
+      </c>
+      <c r="CF3">
+        <v>0.21883046678088483</v>
+      </c>
+      <c r="CG3">
+        <v>0.15891398728690803</v>
+      </c>
+      <c r="CH3">
+        <v>0.1698028488934904</v>
+      </c>
+      <c r="CI3">
+        <v>0.17810762817318382</v>
+      </c>
+      <c r="CJ3">
+        <v>0.16382496386640932</v>
+      </c>
+      <c r="CK3">
+        <v>0.21322144936226919</v>
+      </c>
+      <c r="CL3">
+        <v>0.2035395201663121</v>
+      </c>
+      <c r="CM3">
+        <v>0.12665227970885398</v>
+      </c>
+      <c r="CN3">
+        <v>0.177098248733081</v>
+      </c>
+      <c r="CO3">
+        <v>0.18870269200358097</v>
+      </c>
+      <c r="CP3">
+        <v>0.17367677184411776</v>
+      </c>
+      <c r="CQ3">
+        <v>0.11743990857401072</v>
+      </c>
+      <c r="CR3">
+        <v>0.15913621168128511</v>
+      </c>
+      <c r="CS3">
+        <v>0.1988769910041448</v>
+      </c>
+      <c r="CT3">
+        <v>0.21747162625316216</v>
+      </c>
+      <c r="CU3">
+        <v>0.098759078845136017</v>
+      </c>
+      <c r="CV3">
+        <v>0.14935713457855287</v>
+      </c>
+      <c r="CW3">
+        <v>0.14195790793308208</v>
+      </c>
+      <c r="CX3">
+        <v>0.13456557470705288</v>
+      </c>
+      <c r="CY3">
+        <v>0.16721395540578624</v>
+      </c>
+      <c r="CZ3">
+        <v>0.14326160196583998</v>
+      </c>
+      <c r="DA3">
+        <v>0.18259701191512381</v>
+      </c>
+      <c r="DB3">
+        <v>0.11853092543900522</v>
+      </c>
+      <c r="DC3">
+        <v>0.16724290691093105</v>
+      </c>
+      <c r="DD3">
+        <v>0.12119921018239954</v>
+      </c>
+      <c r="DE3">
+        <v>0.095365710666084985</v>
+      </c>
+      <c r="DF3">
+        <v>0.16083037487168517</v>
+      </c>
+      <c r="DG3">
+        <v>0.099653220917725147</v>
+      </c>
+      <c r="DH3">
+        <v>0.11798346561329799</v>
+      </c>
+      <c r="DI3">
+        <v>0.032429294851848839</v>
+      </c>
+      <c r="DJ3">
+        <v>0.16166766385971684</v>
+      </c>
+      <c r="DK3">
+        <v>0.080604633534501341</v>
+      </c>
+      <c r="DL3">
+        <v>0.10916738098743428</v>
+      </c>
+      <c r="DM3">
+        <v>-0.040979042608559203</v>
+      </c>
+      <c r="DN3">
+        <v>0.28189137197788361</v>
+      </c>
+      <c r="DO3">
+        <v>0.22977057558109923</v>
+      </c>
+      <c r="DP3">
+        <v>0.22240740220746855</v>
+      </c>
+      <c r="DQ3">
+        <v>0.19098033271909337</v>
+      </c>
+      <c r="DR3">
+        <v>0.15800823042659454</v>
+      </c>
+      <c r="DS3">
+        <v>0.19930727286335123</v>
+      </c>
+      <c r="DT3">
+        <v>0.16051825602894365</v>
+      </c>
+      <c r="DU3">
+        <v>0.10286369018106359</v>
+      </c>
+      <c r="DV3">
+        <v>0.096678200539164427</v>
+      </c>
+      <c r="DW3">
+        <v>0.04959714690314692</v>
+      </c>
+      <c r="DX3">
+        <v>0.10403525752378573</v>
+      </c>
+      <c r="DY3">
+        <v>0.03781148620898532</v>
+      </c>
+      <c r="DZ3">
+        <v>0.0345443421204958</v>
+      </c>
+      <c r="EA3">
+        <v>0.0053960553951958269</v>
+      </c>
+      <c r="EB3">
+        <v>-0.038107767893256823</v>
+      </c>
+      <c r="EC3">
+        <v>0.048798700887754932</v>
+      </c>
+      <c r="ED3">
+        <v>0.048855201453800956</v>
+      </c>
+      <c r="EE3">
+        <v>-0.013042569083964041</v>
+      </c>
+      <c r="EF3">
+        <v>-0.016663865534634333</v>
+      </c>
+      <c r="EG3">
+        <v>-0.037557773745900573</v>
+      </c>
+      <c r="EH3">
+        <v>0.30932562391861063</v>
+      </c>
+      <c r="EI3">
+        <v>0.29375359044398858</v>
+      </c>
+      <c r="EJ3">
+        <v>0.30197109113577636</v>
+      </c>
+      <c r="EK3">
+        <v>0.24937017227119565</v>
+      </c>
+      <c r="EL3">
+        <v>0.22874040400546583</v>
+      </c>
+      <c r="EM3">
+        <v>0.22707758659331295</v>
+      </c>
+      <c r="EN3">
+        <v>0.20925767482136756</v>
+      </c>
+      <c r="EO3">
+        <v>0.18356663564522638</v>
+      </c>
+      <c r="EP3">
+        <v>0.15008660811787955</v>
+      </c>
+      <c r="EQ3">
+        <v>0.13616182840788799</v>
+      </c>
+      <c r="ER3">
+        <v>0.15895542823854594</v>
+      </c>
+      <c r="ES3">
+        <v>0.13888770060937281</v>
+      </c>
+      <c r="ET3">
+        <v>0.098570267155887778</v>
+      </c>
+      <c r="EU3">
+        <v>0.078958090167667139</v>
+      </c>
+      <c r="EV3">
+        <v>0.057163088204607637</v>
+      </c>
+      <c r="EW3">
+        <v>0.1003964805834594</v>
+      </c>
+      <c r="EX3">
+        <v>0.08141702771429396</v>
+      </c>
+      <c r="EY3">
+        <v>0.055673739310871072</v>
+      </c>
+      <c r="EZ3">
+        <v>0.030512079534393464</v>
+      </c>
+      <c r="FA3">
+        <v>0.021844821054605518</v>
+      </c>
+      <c r="FB3">
+        <v>0.24850636871379969</v>
+      </c>
+      <c r="FC3">
+        <v>0.25633804977362729</v>
+      </c>
+      <c r="FD3">
+        <v>0.20720503995880246</v>
+      </c>
+      <c r="FE3">
+        <v>0.18349777815529211</v>
+      </c>
+      <c r="FF3">
+        <v>0.18853687411476699</v>
+      </c>
+      <c r="FG3">
+        <v>0.17006828834298507</v>
+      </c>
+      <c r="FH3">
+        <v>0.12997808816921536</v>
+      </c>
+      <c r="FI3">
+        <v>0.083335884451786746</v>
+      </c>
+      <c r="FJ3">
+        <v>0.11261655344828048</v>
+      </c>
+      <c r="FK3">
+        <v>0.075866478167882986</v>
+      </c>
+      <c r="FL3">
+        <v>0.10643657182661377</v>
+      </c>
+      <c r="FM3">
+        <v>0.038102244955929856</v>
+      </c>
+      <c r="FN3">
+        <v>0.071408932638152553</v>
+      </c>
+      <c r="FO3">
+        <v>0.11392683777210438</v>
+      </c>
+      <c r="FP3">
+        <v>0.04854013371973654</v>
+      </c>
+      <c r="FQ3">
+        <v>-0.0085936488077716904</v>
+      </c>
+      <c r="FR3">
+        <v>0.0037077904488910705</v>
+      </c>
+      <c r="FS3">
+        <v>0.0072198947529342489</v>
+      </c>
+      <c r="FT3">
+        <v>0</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>-5.3571074168606447</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>0.019673686598949202</v>
+      </c>
+      <c r="C4">
+        <v>0.017618926209333485</v>
+      </c>
+      <c r="D4">
+        <v>0.018235347444543405</v>
+      </c>
+      <c r="E4">
+        <v>0.018270429462803228</v>
+      </c>
+      <c r="F4">
+        <v>0.018849885423200249</v>
+      </c>
+      <c r="G4">
+        <v>0.023330962549043655</v>
+      </c>
+      <c r="H4">
+        <v>0.028684313953013379</v>
+      </c>
+      <c r="I4">
+        <v>0.012726526057052821</v>
+      </c>
+      <c r="J4">
+        <v>0.010747551012801077</v>
+      </c>
+      <c r="K4">
+        <v>0.0090666440013790067</v>
+      </c>
+      <c r="L4">
+        <v>0.0096784801270642165</v>
+      </c>
+      <c r="M4">
+        <v>0.010230311964535022</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.027030090610985484</v>
+      </c>
+      <c r="P4">
+        <v>0.026647807578751584</v>
+      </c>
+      <c r="Q4">
+        <v>0.03701673609695931</v>
+      </c>
+      <c r="R4">
+        <v>0.038120565629905658</v>
+      </c>
+      <c r="S4">
+        <v>0.037226057906177397</v>
+      </c>
+      <c r="T4">
+        <v>0.037751355557391168</v>
+      </c>
+      <c r="U4">
+        <v>0.03648826502380801</v>
+      </c>
+      <c r="V4">
+        <v>0.037006926229556251</v>
+      </c>
+      <c r="W4">
+        <v>0.037226057909164806</v>
+      </c>
+      <c r="X4">
+        <v>0.03691926828364174</v>
+      </c>
+      <c r="Y4">
+        <v>0.036785129081732801</v>
+      </c>
+      <c r="Z4">
+        <v>0.036470145592048905</v>
+      </c>
+      <c r="AA4">
+        <v>0.036785129083388941</v>
+      </c>
+      <c r="AB4">
+        <v>0.036389221591358274</v>
+      </c>
+      <c r="AC4">
+        <v>0.037246329343617525</v>
+      </c>
+      <c r="AD4">
+        <v>0.036066732493917952</v>
+      </c>
+      <c r="AE4">
+        <v>0.03632696594314147</v>
+      </c>
+      <c r="AF4">
+        <v>0.036169568288967203</v>
+      </c>
+      <c r="AG4">
+        <v>0.036607270530492515</v>
+      </c>
+      <c r="AH4">
+        <v>0.036416085357409762</v>
+      </c>
+      <c r="AI4">
+        <v>0.035965525539014803</v>
+      </c>
+      <c r="AJ4">
+        <v>0.035857676903052894</v>
+      </c>
+      <c r="AK4">
+        <v>0.036126519504814249</v>
+      </c>
+      <c r="AL4">
+        <v>0.036737863164625031</v>
+      </c>
+      <c r="AM4">
+        <v>0.035751644887399618</v>
+      </c>
+      <c r="AN4">
+        <v>0.035631496435361058</v>
+      </c>
+      <c r="AO4">
+        <v>0.036160935446352245</v>
+      </c>
+      <c r="AP4">
+        <v>0.036160935447316342</v>
+      </c>
+      <c r="AQ4">
+        <v>0.036126519510641705</v>
+      </c>
+      <c r="AR4">
+        <v>0.035467115614716105</v>
+      </c>
+      <c r="AS4">
+        <v>0.036066732508490372</v>
+      </c>
+      <c r="AT4">
+        <v>0.035711337088637059</v>
+      </c>
+      <c r="AU4">
+        <v>0.035591958503107306</v>
+      </c>
+      <c r="AV4">
+        <v>0.036239050558164843</v>
+      </c>
+      <c r="AW4">
+        <v>0.036032817859109806</v>
+      </c>
+      <c r="AX4">
+        <v>0.035413286570654637</v>
+      </c>
+      <c r="AY4">
+        <v>0.034956389902837885</v>
+      </c>
+      <c r="AZ4">
+        <v>0.035711337095167939</v>
+      </c>
+      <c r="BA4">
+        <v>0.035808516209051525</v>
+      </c>
+      <c r="BB4">
+        <v>0.035824860408531452</v>
+      </c>
+      <c r="BC4">
+        <v>0.035254602586746703</v>
+      </c>
+      <c r="BD4">
+        <v>0.035687276986114604</v>
+      </c>
+      <c r="BE4">
+        <v>0.035824860411824561</v>
+      </c>
+      <c r="BF4">
+        <v>0.036066732522068816</v>
+      </c>
+      <c r="BG4">
+        <v>0.035687276989395028</v>
+      </c>
+      <c r="BH4">
+        <v>0.036015927944295305</v>
+      </c>
+      <c r="BI4">
+        <v>0.035824860416126328</v>
+      </c>
+      <c r="BJ4">
+        <v>0.035584081200861699</v>
+      </c>
+      <c r="BK4">
+        <v>0.035982281976677015</v>
+      </c>
+      <c r="BL4">
+        <v>0.035663309628748766</v>
+      </c>
+      <c r="BM4">
+        <v>0.035915520487493857</v>
+      </c>
+      <c r="BN4">
+        <v>0.035663309630999049</v>
+      </c>
+      <c r="BO4">
+        <v>0.036434056003965716</v>
+      </c>
+      <c r="BP4">
+        <v>0.036318120677230704</v>
+      </c>
+      <c r="BQ4">
+        <v>0.035623568633418978</v>
+      </c>
+      <c r="BR4">
+        <v>0.036282859359005902</v>
+      </c>
+      <c r="BS4">
+        <v>0.036032817882468662</v>
+      </c>
+      <c r="BT4">
+        <v>0.036681581299666519</v>
+      </c>
+      <c r="BU4">
+        <v>0.036152314198842177</v>
+      </c>
+      <c r="BV4">
+        <v>0.035882402110874456</v>
+      </c>
+      <c r="BW4">
+        <v>0.037205845802682304</v>
+      </c>
+      <c r="BX4">
+        <v>0.036007499767536817</v>
+      </c>
+      <c r="BY4">
+        <v>0.036058236970935319</v>
+      </c>
+      <c r="BZ4">
+        <v>0.036100828166797438</v>
+      </c>
+      <c r="CA4">
+        <v>0.036371373604924415</v>
+      </c>
+      <c r="CB4">
+        <v>0.035948813321093745</v>
+      </c>
+      <c r="CC4">
+        <v>0.036344692741975625</v>
+      </c>
+      <c r="CD4">
+        <v>0.03642506455069857</v>
+      </c>
+      <c r="CE4">
+        <v>0.036092287218585907</v>
+      </c>
+      <c r="CF4">
+        <v>0.036247788672965686</v>
+      </c>
+      <c r="CG4">
+        <v>0.036928952405383395</v>
+      </c>
+      <c r="CH4">
+        <v>0.036813649311464997</v>
+      </c>
+      <c r="CI4">
+        <v>0.036728449917595413</v>
+      </c>
+      <c r="CJ4">
+        <v>0.036899941652425224</v>
+      </c>
+      <c r="CK4">
+        <v>0.036353574247342348</v>
+      </c>
+      <c r="CL4">
+        <v>0.036470145654515042</v>
+      </c>
+      <c r="CM4">
+        <v>0.037358894007612775</v>
+      </c>
+      <c r="CN4">
+        <v>0.036785129144665696</v>
+      </c>
+      <c r="CO4">
+        <v>0.036662925683601279</v>
+      </c>
+      <c r="CP4">
+        <v>0.036842290925080366</v>
+      </c>
+      <c r="CQ4">
+        <v>0.037504836015612011</v>
+      </c>
+      <c r="CR4">
+        <v>0.037026560173793618</v>
+      </c>
+      <c r="CS4">
+        <v>0.035869424223291847</v>
+      </c>
+      <c r="CT4">
+        <v>0.035658376273488682</v>
+      </c>
+      <c r="CU4">
+        <v>0.037123488404064348</v>
+      </c>
+      <c r="CV4">
+        <v>0.036497734406978233</v>
+      </c>
+      <c r="CW4">
+        <v>0.036598483044317558</v>
+      </c>
+      <c r="CX4">
+        <v>0.036497620960773081</v>
+      </c>
+      <c r="CY4">
+        <v>0.036108532147211027</v>
+      </c>
+      <c r="CZ4">
+        <v>0.036409361898213997</v>
+      </c>
+      <c r="DA4">
+        <v>0.035942062561253041</v>
+      </c>
+      <c r="DB4">
+        <v>0.036734425328625218</v>
+      </c>
+      <c r="DC4">
+        <v>0.036104488741085586</v>
+      </c>
+      <c r="DD4">
+        <v>0.036672614819596799</v>
+      </c>
+      <c r="DE4">
+        <v>0.03700306975286332</v>
+      </c>
+      <c r="DF4">
+        <v>0.036208349266678139</v>
+      </c>
+      <c r="DG4">
+        <v>0.036968220274052541</v>
+      </c>
+      <c r="DH4">
+        <v>0.037270226358530445</v>
+      </c>
+      <c r="DI4">
+        <v>0.038340970010770317</v>
+      </c>
+      <c r="DJ4">
+        <v>0.036768500007096382</v>
+      </c>
+      <c r="DK4">
+        <v>0.038772095890823394</v>
+      </c>
+      <c r="DL4">
+        <v>0.03843780689147841</v>
+      </c>
+      <c r="DM4">
+        <v>0.025761665498083633</v>
+      </c>
+      <c r="DN4">
+        <v>0.021385368152435781</v>
+      </c>
+      <c r="DO4">
+        <v>0.021535785362881425</v>
+      </c>
+      <c r="DP4">
+        <v>0.020672260277896291</v>
+      </c>
+      <c r="DQ4">
+        <v>0.020787791915134069</v>
+      </c>
+      <c r="DR4">
+        <v>0.020853436354106126</v>
+      </c>
+      <c r="DS4">
+        <v>0.020354152599447034</v>
+      </c>
+      <c r="DT4">
+        <v>0.020508881901829177</v>
+      </c>
+      <c r="DU4">
+        <v>0.020733129200308769</v>
+      </c>
+      <c r="DV4">
+        <v>0.020785102830897514</v>
+      </c>
+      <c r="DW4">
+        <v>0.020879694866417366</v>
+      </c>
+      <c r="DX4">
+        <v>0.021317801205488804</v>
+      </c>
+      <c r="DY4">
+        <v>0.021599616368073737</v>
+      </c>
+      <c r="DZ4">
+        <v>0.02164232987908694</v>
+      </c>
+      <c r="EA4">
+        <v>0.021789296488058257</v>
+      </c>
+      <c r="EB4">
+        <v>0.021926682903516258</v>
+      </c>
+      <c r="EC4">
+        <v>0.022280822323795101</v>
+      </c>
+      <c r="ED4">
+        <v>0.022309918867123975</v>
+      </c>
+      <c r="EE4">
+        <v>0.022744181106270835</v>
+      </c>
+      <c r="EF4">
+        <v>0.022790510244651972</v>
+      </c>
+      <c r="EG4">
+        <v>0.022700531574220077</v>
+      </c>
+      <c r="EH4">
+        <v>0.01904843862724924</v>
+      </c>
+      <c r="EI4">
+        <v>0.019093785300214057</v>
+      </c>
+      <c r="EJ4">
+        <v>0.018511926116609293</v>
+      </c>
+      <c r="EK4">
+        <v>0.018647127013423775</v>
+      </c>
+      <c r="EL4">
+        <v>0.018713204969609314</v>
+      </c>
+      <c r="EM4">
+        <v>0.018394393629209353</v>
+      </c>
+      <c r="EN4">
+        <v>0.018460904117915448</v>
+      </c>
+      <c r="EO4">
+        <v>0.018549863492630898</v>
+      </c>
+      <c r="EP4">
+        <v>0.018662781082674888</v>
+      </c>
+      <c r="EQ4">
+        <v>0.018723120241492665</v>
+      </c>
+      <c r="ER4">
+        <v>0.018901837882067375</v>
+      </c>
+      <c r="ES4">
+        <v>0.018982032351995172</v>
+      </c>
+      <c r="ET4">
+        <v>0.019126409943717008</v>
+      </c>
+      <c r="EU4">
+        <v>0.019209424015832418</v>
+      </c>
+      <c r="EV4">
+        <v>0.019301131469185395</v>
+      </c>
+      <c r="EW4">
+        <v>0.019428659919863478</v>
+      </c>
+      <c r="EX4">
+        <v>0.019513823689082447</v>
+      </c>
+      <c r="EY4">
+        <v>0.019624159923991</v>
+      </c>
+      <c r="EZ4">
+        <v>0.019734953724691827</v>
+      </c>
+      <c r="FA4">
+        <v>0.019787712023617909</v>
+      </c>
+      <c r="FB4">
+        <v>0.018824933834494257</v>
+      </c>
+      <c r="FC4">
+        <v>0.01881804999432261</v>
+      </c>
+      <c r="FD4">
+        <v>0.019037663600398817</v>
+      </c>
+      <c r="FE4">
+        <v>0.019159008103025534</v>
+      </c>
+      <c r="FF4">
+        <v>0.019161674433972119</v>
+      </c>
+      <c r="FG4">
+        <v>0.019263203186203635</v>
+      </c>
+      <c r="FH4">
+        <v>0.019460386086161862</v>
+      </c>
+      <c r="FI4">
+        <v>0.019693542884538194</v>
+      </c>
+      <c r="FJ4">
+        <v>0.019584181158475076</v>
+      </c>
+      <c r="FK4">
+        <v>0.019775929150861161</v>
+      </c>
+      <c r="FL4">
+        <v>0.019659018342728651</v>
+      </c>
+      <c r="FM4">
+        <v>0.020003111257652514</v>
+      </c>
+      <c r="FN4">
+        <v>0.019868041123576295</v>
+      </c>
+      <c r="FO4">
+        <v>0.019694371180657311</v>
+      </c>
+      <c r="FP4">
+        <v>0.02002644570505914</v>
+      </c>
+      <c r="FQ4">
+        <v>0.020333240559556175</v>
+      </c>
+      <c r="FR4">
+        <v>0.020294833485266665</v>
+      </c>
+      <c r="FS4">
+        <v>0.020301027125705508</v>
+      </c>
+      <c r="FT4">
+        <v>0</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0.014397820427034868</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="43716" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48000" uniqueCount="186">
   <si>
     <t>y1</t>
   </si>
@@ -1708,526 +1708,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.0027618497960025328</v>
+        <v>0.010236323081266723</v>
       </c>
       <c r="C3">
-        <v>-0.62492515988217723</v>
+        <v>-0.62261373668942499</v>
       </c>
       <c r="D3">
-        <v>-0.6636122039735598</v>
+        <v>-0.66677847512415112</v>
       </c>
       <c r="E3">
-        <v>-0.67207547302063997</v>
+        <v>-0.65672214689241371</v>
       </c>
       <c r="F3">
-        <v>-0.67893808308638315</v>
+        <v>-0.66835437712777412</v>
       </c>
       <c r="G3">
-        <v>-0.67702783465362659</v>
+        <v>-0.6866843359582272</v>
       </c>
       <c r="H3">
-        <v>-0.68847755084983553</v>
+        <v>-0.65219943764692101</v>
       </c>
       <c r="I3">
-        <v>-0.013486234707469272</v>
+        <v>-0.0040641906354114202</v>
       </c>
       <c r="J3">
-        <v>-0.0037298231273262786</v>
+        <v>-0.0025331187672562607</v>
       </c>
       <c r="K3">
-        <v>0.000644273528487906</v>
+        <v>-0.0017453813303823847</v>
       </c>
       <c r="L3">
-        <v>0.0054027514173585374</v>
+        <v>0.0016874448228573478</v>
       </c>
       <c r="M3">
-        <v>0.0021008958754598012</v>
+        <v>0.0034913427859800052</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2181725823439882</v>
+        <v>1.2002835618371912</v>
       </c>
       <c r="P3">
-        <v>1.3086750195176287</v>
+        <v>1.3252312792661445</v>
       </c>
       <c r="Q3">
-        <v>-0.24682239773061002</v>
+        <v>-0.25389339633319619</v>
       </c>
       <c r="R3">
-        <v>-0.25075474386945462</v>
+        <v>-0.18981937991674488</v>
       </c>
       <c r="S3">
-        <v>-0.18004285223263908</v>
+        <v>-0.16992173280382206</v>
       </c>
       <c r="T3">
-        <v>-0.21563183669394567</v>
+        <v>-0.1740080729062787</v>
       </c>
       <c r="U3">
-        <v>-0.13547355490617533</v>
+        <v>-0.16908811174113475</v>
       </c>
       <c r="V3">
-        <v>-0.16287168204927088</v>
+        <v>-0.17948207683189865</v>
       </c>
       <c r="W3">
-        <v>-0.16451798381937227</v>
+        <v>-0.13143517594431176</v>
       </c>
       <c r="X3">
-        <v>-0.11369177677336939</v>
+        <v>-0.14406399949123824</v>
       </c>
       <c r="Y3">
-        <v>-0.14158910729243546</v>
+        <v>-0.11275104091927016</v>
       </c>
       <c r="Z3">
-        <v>-0.090011521294566965</v>
+        <v>-0.12178711060776364</v>
       </c>
       <c r="AA3">
-        <v>-0.10633921616290769</v>
+        <v>-0.10073283670707461</v>
       </c>
       <c r="AB3">
-        <v>-0.10606966843661135</v>
+        <v>-0.07935569298344114</v>
       </c>
       <c r="AC3">
-        <v>-0.11576545338446385</v>
+        <v>-0.10867326722203711</v>
       </c>
       <c r="AD3">
-        <v>-0.047679536259421784</v>
+        <v>-0.069063370263952858</v>
       </c>
       <c r="AE3">
-        <v>-0.097253137416516519</v>
+        <v>-0.092581831654217725</v>
       </c>
       <c r="AF3">
-        <v>-0.074483711236780784</v>
+        <v>-0.068631609225117407</v>
       </c>
       <c r="AG3">
-        <v>-0.030545666928267292</v>
+        <v>-0.05517994916450502</v>
       </c>
       <c r="AH3">
-        <v>-0.030951493210478798</v>
+        <v>-0.077817929719954701</v>
       </c>
       <c r="AI3">
-        <v>-0.023323787503939257</v>
+        <v>-0.022485330221037683</v>
       </c>
       <c r="AJ3">
-        <v>-0.063066563429652472</v>
+        <v>-0.038386491964912055</v>
       </c>
       <c r="AK3">
-        <v>-0.054023552847784512</v>
+        <v>-0.055287488272428319</v>
       </c>
       <c r="AL3">
-        <v>-0.049454768324635121</v>
+        <v>-0.029620061148138813</v>
       </c>
       <c r="AM3">
-        <v>-0.0020280809171542911</v>
+        <v>-0.0071888318871735496</v>
       </c>
       <c r="AN3">
-        <v>0.00070856652928567116</v>
+        <v>-0.034810721139540507</v>
       </c>
       <c r="AO3">
-        <v>0.0016272458744253273</v>
+        <v>0.008535134497586451</v>
       </c>
       <c r="AP3">
-        <v>-0.0461271716220489</v>
+        <v>-0.013129102166944909</v>
       </c>
       <c r="AQ3">
-        <v>-0.011070499565547528</v>
+        <v>-0.0020950878105754404</v>
       </c>
       <c r="AR3">
-        <v>0.020905939293443438</v>
+        <v>-0.036774957125487749</v>
       </c>
       <c r="AS3">
-        <v>-0.051378875253137099</v>
+        <v>0.034649883847032617</v>
       </c>
       <c r="AT3">
-        <v>0.0066248034461783897</v>
+        <v>0.040711906565148871</v>
       </c>
       <c r="AU3">
-        <v>0.01790616892445453</v>
+        <v>-0.00052713943011561406</v>
       </c>
       <c r="AV3">
-        <v>0.016738426907358789</v>
+        <v>0.018739253261481976</v>
       </c>
       <c r="AW3">
-        <v>0.016776692689527868</v>
+        <v>0.0071778093212507355</v>
       </c>
       <c r="AX3">
-        <v>0.012832478135175615</v>
+        <v>-0.0096004040166983162</v>
       </c>
       <c r="AY3">
-        <v>0.072198267689299656</v>
+        <v>0.033346684933542106</v>
       </c>
       <c r="AZ3">
-        <v>0.031896434070459272</v>
+        <v>0.032243808497858115</v>
       </c>
       <c r="BA3">
-        <v>0.017647104124991715</v>
+        <v>0.0016273980636945962</v>
       </c>
       <c r="BB3">
-        <v>0.052753357268893533</v>
+        <v>0.011845578438063435</v>
       </c>
       <c r="BC3">
-        <v>0.05648733374538488</v>
+        <v>0.052250284475509723</v>
       </c>
       <c r="BD3">
-        <v>0.034410173489278162</v>
+        <v>0.0047515743554647771</v>
       </c>
       <c r="BE3">
-        <v>0.018513492070164939</v>
+        <v>0.0081516673084098355</v>
       </c>
       <c r="BF3">
-        <v>0.03330234171390388</v>
+        <v>0.041691134082548931</v>
       </c>
       <c r="BG3">
-        <v>0.028142237572338035</v>
+        <v>0.023417969999701284</v>
       </c>
       <c r="BH3">
-        <v>0.027869072401893284</v>
+        <v>0.0090861259050263096</v>
       </c>
       <c r="BI3">
-        <v>0.050540899108075278</v>
+        <v>0.0033558611050461618</v>
       </c>
       <c r="BJ3">
-        <v>0.01392008783149175</v>
+        <v>0.015588535709432695</v>
       </c>
       <c r="BK3">
-        <v>0.01261759442175704</v>
+        <v>-0.006041133046479537</v>
       </c>
       <c r="BL3">
-        <v>0.044013629799998552</v>
+        <v>0.008532635850837968</v>
       </c>
       <c r="BM3">
-        <v>0.020158098716265768</v>
+        <v>0.045601046308083454</v>
       </c>
       <c r="BN3">
-        <v>0.048419592172613789</v>
+        <v>0.013562883059741472</v>
       </c>
       <c r="BO3">
-        <v>0.011590999414476472</v>
+        <v>0.031457030989645272</v>
       </c>
       <c r="BP3">
-        <v>0.045741768320369892</v>
+        <v>0.051909178233697881</v>
       </c>
       <c r="BQ3">
-        <v>0.061161907153221992</v>
+        <v>0.042139353223132829</v>
       </c>
       <c r="BR3">
-        <v>0.019842146904623291</v>
+        <v>0.018929278162234518</v>
       </c>
       <c r="BS3">
-        <v>0.022654323251352707</v>
+        <v>0.040640392266990143</v>
       </c>
       <c r="BT3">
-        <v>0.0023248155573271727</v>
+        <v>-0.0037471566041983929</v>
       </c>
       <c r="BU3">
-        <v>0.033630656642074666</v>
+        <v>0.0078171822489484198</v>
       </c>
       <c r="BV3">
-        <v>0.057091467024321919</v>
+        <v>0.044343321941235067</v>
       </c>
       <c r="BW3">
-        <v>-0.010779058493145239</v>
+        <v>0.06824302912474034</v>
       </c>
       <c r="BX3">
-        <v>0.017521609695962413</v>
+        <v>0.051369157548705136</v>
       </c>
       <c r="BY3">
-        <v>0.059060309395806664</v>
+        <v>0.041927690950866563</v>
       </c>
       <c r="BZ3">
-        <v>0.049809904148494906</v>
+        <v>0.022574563328811983</v>
       </c>
       <c r="CA3">
-        <v>0.020102237419678703</v>
+        <v>0.068914255769260732</v>
       </c>
       <c r="CB3">
-        <v>0.064664213147500052</v>
+        <v>0.08836606518879217</v>
       </c>
       <c r="CC3">
-        <v>0.073219240576778644</v>
+        <v>0.081927752572975229</v>
       </c>
       <c r="CD3">
-        <v>0.013930005932899517</v>
+        <v>0.052210150367476775</v>
       </c>
       <c r="CE3">
-        <v>0.067207419476957048</v>
+        <v>0.071321209792806012</v>
       </c>
       <c r="CF3">
-        <v>0.047128203207903466</v>
+        <v>0.017009169025775608</v>
       </c>
       <c r="CG3">
-        <v>0.041106452534263947</v>
+        <v>0.0073733004716856742</v>
       </c>
       <c r="CH3">
-        <v>0.043937164794199908</v>
+        <v>0.02760215140074938</v>
       </c>
       <c r="CI3">
-        <v>0.052815978412725367</v>
+        <v>0.047473565067814263</v>
       </c>
       <c r="CJ3">
-        <v>0.038453250305854191</v>
+        <v>-0.020033025207171339</v>
       </c>
       <c r="CK3">
-        <v>0.063057908589813069</v>
+        <v>0.051059081327970136</v>
       </c>
       <c r="CL3">
-        <v>0.06852958295078497</v>
+        <v>0.024588507529298673</v>
       </c>
       <c r="CM3">
-        <v>0.0045183770203709303</v>
+        <v>0.036826854350500107</v>
       </c>
       <c r="CN3">
-        <v>0.039825152882344249</v>
+        <v>0.015079649856114636</v>
       </c>
       <c r="CO3">
-        <v>-0.028277014951207567</v>
+        <v>0.047853334237936133</v>
       </c>
       <c r="CP3">
-        <v>0.054370232991849878</v>
+        <v>0.025569827766672406</v>
       </c>
       <c r="CQ3">
-        <v>0.0054719253959234614</v>
+        <v>0.026879693199197932</v>
       </c>
       <c r="CR3">
-        <v>0.021527798530782918</v>
+        <v>0.020550535668008942</v>
       </c>
       <c r="CS3">
-        <v>0.041527538652088969</v>
+        <v>0.046420711175145971</v>
       </c>
       <c r="CT3">
-        <v>0.084179671571437478</v>
+        <v>0.046339801948864015</v>
       </c>
       <c r="CU3">
-        <v>0.06889654258533387</v>
+        <v>0.036222353184734789</v>
       </c>
       <c r="CV3">
-        <v>0.04647981287183945</v>
+        <v>0.088419123533498081</v>
       </c>
       <c r="CW3">
-        <v>0.025580253190473256</v>
+        <v>0.068407659267527121</v>
       </c>
       <c r="CX3">
-        <v>0.057847427392195297</v>
+        <v>0.037294520642514185</v>
       </c>
       <c r="CY3">
-        <v>0.052827761914706686</v>
+        <v>0.058589522336512052</v>
       </c>
       <c r="CZ3">
-        <v>0.037138161210941198</v>
+        <v>0.05932119306863546</v>
       </c>
       <c r="DA3">
-        <v>0.011446140117106601</v>
+        <v>0.020845214626253078</v>
       </c>
       <c r="DB3">
-        <v>0.022689392433531085</v>
+        <v>0.016428477530145993</v>
       </c>
       <c r="DC3">
-        <v>0.065841536686165242</v>
+        <v>0.026678985224114916</v>
       </c>
       <c r="DD3">
-        <v>0.043341373913558752</v>
+        <v>0.047227687636612899</v>
       </c>
       <c r="DE3">
-        <v>0.042735176251629425</v>
+        <v>0.052654042474319769</v>
       </c>
       <c r="DF3">
-        <v>0.050583859095207233</v>
+        <v>0.029442099765385237</v>
       </c>
       <c r="DG3">
-        <v>0.024511992082498272</v>
+        <v>0.032149420928822253</v>
       </c>
       <c r="DH3">
-        <v>0.041848245230415033</v>
+        <v>0.067527552215945336</v>
       </c>
       <c r="DI3">
-        <v>-0.015576290110760336</v>
+        <v>0.041377320811016464</v>
       </c>
       <c r="DJ3">
-        <v>0.070692026886219506</v>
+        <v>0.043863983639149139</v>
       </c>
       <c r="DK3">
-        <v>0.031953695677919627</v>
+        <v>0.058949566856170983</v>
       </c>
       <c r="DL3">
-        <v>0.052084679423244358</v>
+        <v>0.054741091648286409</v>
       </c>
       <c r="DM3">
-        <v>0.044797393938165259</v>
+        <v>-0.028842393332357105</v>
       </c>
       <c r="DN3">
-        <v>0.066348280420602979</v>
+        <v>0.085706211204309934</v>
       </c>
       <c r="DO3">
-        <v>0.059736653205604166</v>
+        <v>0.043894017362171661</v>
       </c>
       <c r="DP3">
-        <v>0.071789947979092647</v>
+        <v>0.036569331138002446</v>
       </c>
       <c r="DQ3">
-        <v>0.05277940060821925</v>
+        <v>0.088808463905412333</v>
       </c>
       <c r="DR3">
-        <v>0.052787942784279701</v>
+        <v>0.062234919954395916</v>
       </c>
       <c r="DS3">
-        <v>0.054800076399946364</v>
+        <v>0.021194728413238568</v>
       </c>
       <c r="DT3">
-        <v>0.070021500859791933</v>
+        <v>0.052209210929476002</v>
       </c>
       <c r="DU3">
-        <v>0.04907514052103143</v>
+        <v>0.044784713038594492</v>
       </c>
       <c r="DV3">
-        <v>0.081507929830088283</v>
+        <v>0.07169137607471536</v>
       </c>
       <c r="DW3">
-        <v>0.028934575911425717</v>
+        <v>0.047766259212387946</v>
       </c>
       <c r="DX3">
-        <v>0.065109542417670946</v>
+        <v>0.094319022319309387</v>
       </c>
       <c r="DY3">
-        <v>-0.0040538457818303985</v>
+        <v>0.062817670432191733</v>
       </c>
       <c r="DZ3">
-        <v>0.027697227354942233</v>
+        <v>0.045062725740136929</v>
       </c>
       <c r="EA3">
-        <v>0.037832557147794675</v>
+        <v>0.032412212610004688</v>
       </c>
       <c r="EB3">
-        <v>0.040784808543260671</v>
+        <v>0.06600161812599438</v>
       </c>
       <c r="EC3">
-        <v>0.05140372167901807</v>
+        <v>0.053147304341611919</v>
       </c>
       <c r="ED3">
-        <v>0.06355470709092953</v>
+        <v>0.053767797736672118</v>
       </c>
       <c r="EE3">
-        <v>0.0032437079218597732</v>
+        <v>0.028337831470293003</v>
       </c>
       <c r="EF3">
-        <v>0.040868619744329669</v>
+        <v>0.038614259091307897</v>
       </c>
       <c r="EG3">
-        <v>0.053968499639103794</v>
+        <v>0.032888334067731555</v>
       </c>
       <c r="EH3">
-        <v>7.6770418586377621e-05</v>
+        <v>0.012356922115517928</v>
       </c>
       <c r="EI3">
-        <v>0.028232547392874723</v>
+        <v>0.041979020275388801</v>
       </c>
       <c r="EJ3">
-        <v>0.052655797633664556</v>
+        <v>0.016301589255880322</v>
       </c>
       <c r="EK3">
-        <v>0.019215775567741903</v>
+        <v>0.037696713961095196</v>
       </c>
       <c r="EL3">
-        <v>0.05475011675668718</v>
+        <v>0.032573768658610856</v>
       </c>
       <c r="EM3">
-        <v>-0.016503222950130729</v>
+        <v>-0.0069801690103823985</v>
       </c>
       <c r="EN3">
-        <v>0.0098782418686696391</v>
+        <v>0.049926107439312022</v>
       </c>
       <c r="EO3">
-        <v>0.047732657152307303</v>
+        <v>0.018268127463738706</v>
       </c>
       <c r="EP3">
-        <v>0.0093428822244636962</v>
+        <v>0.058185292579182153</v>
       </c>
       <c r="EQ3">
-        <v>0.026895530486398863</v>
+        <v>0.037366696122825512</v>
       </c>
       <c r="ER3">
-        <v>0.0095280068608920507</v>
+        <v>0.028528869894853023</v>
       </c>
       <c r="ES3">
-        <v>0.02105419573390355</v>
+        <v>0.018601563777478781</v>
       </c>
       <c r="ET3">
-        <v>0.014968348890419777</v>
+        <v>0.022225150042762366</v>
       </c>
       <c r="EU3">
-        <v>0.00064766889478587713</v>
+        <v>0.053761081002108538</v>
       </c>
       <c r="EV3">
-        <v>0.0014687621038307012</v>
+        <v>0.015829024276772762</v>
       </c>
       <c r="EW3">
-        <v>0.030991258824583652</v>
+        <v>0.031472676888959036</v>
       </c>
       <c r="EX3">
-        <v>0.016809143842658896</v>
+        <v>0.016350157022059924</v>
       </c>
       <c r="EY3">
-        <v>0.0373918722595145</v>
+        <v>0.036095185905822232</v>
       </c>
       <c r="EZ3">
-        <v>-0.0060946163700298173</v>
+        <v>0.0049265263511719939</v>
       </c>
       <c r="FA3">
-        <v>0.016281080360072496</v>
+        <v>0.034409554405712153</v>
       </c>
       <c r="FB3">
-        <v>0.024885950096764812</v>
+        <v>0.010760364350222297</v>
       </c>
       <c r="FC3">
-        <v>0.069028805042356464</v>
+        <v>0.01756060950639431</v>
       </c>
       <c r="FD3">
-        <v>0.02458533962078659</v>
+        <v>0.039422268285408665</v>
       </c>
       <c r="FE3">
-        <v>0.00081193937548936607</v>
+        <v>0.020231286686716473</v>
       </c>
       <c r="FF3">
-        <v>0.044050345532128332</v>
+        <v>0.018265452942142039</v>
       </c>
       <c r="FG3">
-        <v>0.0051981598047861604</v>
+        <v>-0.04162259262097695</v>
       </c>
       <c r="FH3">
-        <v>0.0063677684787878056</v>
+        <v>-0.0026697043016993037</v>
       </c>
       <c r="FI3">
-        <v>-0.050686979966289583</v>
+        <v>0.037100552500577637</v>
       </c>
       <c r="FJ3">
-        <v>-0.0030368296220054706</v>
+        <v>0.037998207001359058</v>
       </c>
       <c r="FK3">
-        <v>-0.019027389273463563</v>
+        <v>-0.012213865482386867</v>
       </c>
       <c r="FL3">
-        <v>0.031499462333223018</v>
+        <v>0.023080842862387652</v>
       </c>
       <c r="FM3">
-        <v>-0.061432362548777882</v>
+        <v>0.011851310508820439</v>
       </c>
       <c r="FN3">
-        <v>0.020884838488535246</v>
+        <v>-0.027971438328572726</v>
       </c>
       <c r="FO3">
-        <v>0.064812099601581102</v>
+        <v>0.011051976133711738</v>
       </c>
       <c r="FP3">
-        <v>0.011358668572189106</v>
+        <v>-0.010032363356660204</v>
       </c>
       <c r="FQ3">
-        <v>-0.046355266228435936</v>
+        <v>0.0048308575583631275</v>
       </c>
       <c r="FR3">
-        <v>-0.010947687705908853</v>
+        <v>0.010319438690994789</v>
       </c>
       <c r="FS3">
-        <v>0.00198845069638027</v>
+        <v>0.013365388929582301</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5262916386107346</v>
+        <v>-5.525901394428006</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -2250,526 +2250,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.023007754825985542</v>
+        <v>0.023394803691524326</v>
       </c>
       <c r="C4">
-        <v>0.012667929415906717</v>
+        <v>0.012645763704728136</v>
       </c>
       <c r="D4">
-        <v>0.014241162477802565</v>
+        <v>0.014221552602532184</v>
       </c>
       <c r="E4">
-        <v>0.014010813682273443</v>
+        <v>0.01399446989379975</v>
       </c>
       <c r="F4">
-        <v>0.014053454414179933</v>
+        <v>0.014061969807760746</v>
       </c>
       <c r="G4">
-        <v>0.016682866816088195</v>
+        <v>0.016631966353882106</v>
       </c>
       <c r="H4">
-        <v>0.019981194492940939</v>
+        <v>0.019724636725553413</v>
       </c>
       <c r="I4">
-        <v>0.015864480101476112</v>
+        <v>0.015890046145407694</v>
       </c>
       <c r="J4">
-        <v>0.013070561921111635</v>
+        <v>0.013036662310426113</v>
       </c>
       <c r="K4">
-        <v>0.010767198699748711</v>
+        <v>0.010819253231228985</v>
       </c>
       <c r="L4">
-        <v>0.010979100943037135</v>
+        <v>0.010884629881256283</v>
       </c>
       <c r="M4">
-        <v>0.011175699211026619</v>
+        <v>0.011179711677149215</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022248261324353331</v>
+        <v>0.022284583486058367</v>
       </c>
       <c r="P4">
-        <v>0.022095875903794776</v>
+        <v>0.022069062250555736</v>
       </c>
       <c r="Q4">
-        <v>0.027964046061868704</v>
+        <v>0.028007192018875485</v>
       </c>
       <c r="R4">
-        <v>0.028001321233774086</v>
+        <v>0.02760045605133557</v>
       </c>
       <c r="S4">
-        <v>0.027552541783483146</v>
+        <v>0.027485923691768936</v>
       </c>
       <c r="T4">
-        <v>0.027792467623952977</v>
+        <v>0.027522964037288999</v>
       </c>
       <c r="U4">
-        <v>0.027296717730611614</v>
+        <v>0.027503306362344587</v>
       </c>
       <c r="V4">
-        <v>0.02747815413201302</v>
+        <v>0.027580368941820369</v>
       </c>
       <c r="W4">
-        <v>0.02749987189583054</v>
+        <v>0.027291965581307562</v>
       </c>
       <c r="X4">
-        <v>0.027197432174795637</v>
+        <v>0.027381282725256067</v>
       </c>
       <c r="Y4">
-        <v>0.027379937867554938</v>
+        <v>0.027200904848082668</v>
       </c>
       <c r="Z4">
-        <v>0.027077743741942467</v>
+        <v>0.027267445654411419</v>
       </c>
       <c r="AA4">
-        <v>0.02718746104425989</v>
+        <v>0.027151345319195747</v>
       </c>
       <c r="AB4">
-        <v>0.02719743220285219</v>
+        <v>0.027035290268370257</v>
       </c>
       <c r="AC4">
-        <v>0.027268056560129726</v>
+        <v>0.027222941730660977</v>
       </c>
       <c r="AD4">
-        <v>0.026874007832985866</v>
+        <v>0.02699748383366116</v>
       </c>
       <c r="AE4">
-        <v>0.027179505122161374</v>
+        <v>0.027149377945655317</v>
       </c>
       <c r="AF4">
-        <v>0.027054691095038868</v>
+        <v>0.027018224119236166</v>
       </c>
       <c r="AG4">
-        <v>0.026809409022814833</v>
+        <v>0.026950824984963956</v>
       </c>
       <c r="AH4">
-        <v>0.026823653323523839</v>
+        <v>0.027096686860754678</v>
       </c>
       <c r="AI4">
-        <v>0.026791691730677948</v>
+        <v>0.026784634638789898</v>
       </c>
       <c r="AJ4">
-        <v>0.027035601279098619</v>
+        <v>0.02688841346604013</v>
       </c>
       <c r="AK4">
-        <v>0.026993985053352668</v>
+        <v>0.026999364016566212</v>
       </c>
       <c r="AL4">
-        <v>0.0269789804242677</v>
+        <v>0.026861253709619354</v>
       </c>
       <c r="AM4">
-        <v>0.026716603496666543</v>
+        <v>0.026744389617690652</v>
       </c>
       <c r="AN4">
-        <v>0.026713153661615339</v>
+        <v>0.026915801461632954</v>
       </c>
       <c r="AO4">
-        <v>0.026720057106033004</v>
+        <v>0.026678991529678692</v>
       </c>
       <c r="AP4">
-        <v>0.027009058009635042</v>
+        <v>0.026814708890892366</v>
       </c>
       <c r="AQ4">
-        <v>0.026816523397595837</v>
+        <v>0.026763574160601673</v>
       </c>
       <c r="AR4">
-        <v>0.026646621874375245</v>
+        <v>0.026976872753791695</v>
       </c>
       <c r="AS4">
-        <v>0.02707774389341161</v>
+        <v>0.026580065565853801</v>
       </c>
       <c r="AT4">
-        <v>0.026751309105235571</v>
+        <v>0.026558683107326307</v>
       </c>
       <c r="AU4">
-        <v>0.026699391694605022</v>
+        <v>0.026804062395094599</v>
       </c>
       <c r="AV4">
-        <v>0.026718329906680958</v>
+        <v>0.026706363605674924</v>
       </c>
       <c r="AW4">
-        <v>0.026730440496555073</v>
+        <v>0.026784634766242661</v>
       </c>
       <c r="AX4">
-        <v>0.02676529767279099</v>
+        <v>0.026893872835573013</v>
       </c>
       <c r="AY4">
-        <v>0.026445615988550445</v>
+        <v>0.026660309925678187</v>
       </c>
       <c r="AZ4">
-        <v>0.026682272771022482</v>
+        <v>0.026678991635855479</v>
       </c>
       <c r="BA4">
-        <v>0.026775829343023156</v>
+        <v>0.026866667686145939</v>
       </c>
       <c r="BB4">
-        <v>0.026589745501645581</v>
+        <v>0.026820045489741862</v>
       </c>
       <c r="BC4">
-        <v>0.026581467904820511</v>
+        <v>0.026603258415797644</v>
       </c>
       <c r="BD4">
-        <v>0.026718329986698715</v>
+        <v>0.026886595930701789</v>
       </c>
       <c r="BE4">
-        <v>0.026821869558285364</v>
+        <v>0.02687933519049375</v>
       </c>
       <c r="BF4">
-        <v>0.026749564951599386</v>
+        <v>0.02669949849417742</v>
       </c>
       <c r="BG4">
-        <v>0.026791691955511621</v>
+        <v>0.026816486901778104</v>
       </c>
       <c r="BH4">
-        <v>0.026805858006902786</v>
+        <v>0.026912136631723656</v>
       </c>
       <c r="BI4">
-        <v>0.026689109352999767</v>
+        <v>0.026958246443513439</v>
       </c>
       <c r="BJ4">
-        <v>0.026912292212795209</v>
+        <v>0.026899341346646583</v>
       </c>
       <c r="BK4">
-        <v>0.026932526084590454</v>
+        <v>0.027039094974229645</v>
       </c>
       <c r="BL4">
-        <v>0.026763545901047115</v>
+        <v>0.0269656844389012</v>
       </c>
       <c r="BM4">
-        <v>0.026914126530768214</v>
+        <v>0.02676357437737337</v>
       </c>
       <c r="BN4">
-        <v>0.02676354592196729</v>
+        <v>0.026961963377091849</v>
       </c>
       <c r="BO4">
-        <v>0.026990227789858497</v>
+        <v>0.026870282068665482</v>
       </c>
       <c r="BP4">
-        <v>0.02680408392209235</v>
+        <v>0.02676532417652391</v>
       </c>
       <c r="BQ4">
-        <v>0.026728707796552686</v>
+        <v>0.02683431954363124</v>
       </c>
       <c r="BR4">
-        <v>0.026980852587552052</v>
+        <v>0.02698248150741258</v>
       </c>
       <c r="BS4">
-        <v>0.026977109933670508</v>
+        <v>0.026868474486603035</v>
       </c>
       <c r="BT4">
-        <v>0.027110675762201997</v>
+        <v>0.027143482956469549</v>
       </c>
       <c r="BU4">
-        <v>0.026938066239432405</v>
+        <v>0.027087019475809847</v>
       </c>
       <c r="BV4">
-        <v>0.026814743664335384</v>
+        <v>0.026884779407992661</v>
       </c>
       <c r="BW4">
-        <v>0.027229537481281884</v>
+        <v>0.026760077817774407</v>
       </c>
       <c r="BX4">
-        <v>0.027071966118775978</v>
+        <v>0.02687028216414215</v>
       </c>
       <c r="BY4">
-        <v>0.026556343524855152</v>
+        <v>0.026675639051796513</v>
       </c>
       <c r="BZ4">
-        <v>0.026624931498971674</v>
+        <v>0.026806793569271199</v>
       </c>
       <c r="CA4">
-        <v>0.026818921734405202</v>
+        <v>0.026540049110397076</v>
       </c>
       <c r="CB4">
-        <v>0.026562050052350544</v>
+        <v>0.026438637631796963</v>
       </c>
       <c r="CC4">
-        <v>0.026524509310132924</v>
+        <v>0.026489901244014343</v>
       </c>
       <c r="CD4">
-        <v>0.026866760273446061</v>
+        <v>0.026593527410470118</v>
       </c>
       <c r="CE4">
-        <v>0.026553268594341289</v>
+        <v>0.026492299364883145</v>
       </c>
       <c r="CF4">
-        <v>0.026688468842058919</v>
+        <v>0.026836530587493333</v>
       </c>
       <c r="CG4">
-        <v>0.026738810188158942</v>
+        <v>0.026910107101970122</v>
       </c>
       <c r="CH4">
-        <v>0.026734773787632348</v>
+        <v>0.026797268455464426</v>
       </c>
       <c r="CI4">
-        <v>0.026719583840252088</v>
+        <v>0.026728081972473134</v>
       </c>
       <c r="CJ4">
-        <v>0.026821729657610576</v>
+        <v>0.027167047441142116</v>
       </c>
       <c r="CK4">
-        <v>0.026683579437337932</v>
+        <v>0.026732141954096685</v>
       </c>
       <c r="CL4">
-        <v>0.02666373732544234</v>
+        <v>0.026909969998043213</v>
       </c>
       <c r="CM4">
-        <v>0.027077412715726602</v>
+        <v>0.026846931824600517</v>
       </c>
       <c r="CN4">
-        <v>0.02722177791304059</v>
+        <v>0.027398782620296061</v>
       </c>
       <c r="CO4">
-        <v>0.027666369230504334</v>
+        <v>0.027207889689100422</v>
       </c>
       <c r="CP4">
-        <v>0.027158345964973126</v>
+        <v>0.027359931064388214</v>
       </c>
       <c r="CQ4">
-        <v>0.028031126433119884</v>
+        <v>0.027785832717258506</v>
       </c>
       <c r="CR4">
-        <v>0.027944193509959483</v>
+        <v>0.027837621294487126</v>
       </c>
       <c r="CS4">
-        <v>0.028035622318308771</v>
+        <v>0.028204692554721206</v>
       </c>
       <c r="CT4">
-        <v>0.025431895955466782</v>
+        <v>0.025593487731059184</v>
       </c>
       <c r="CU4">
-        <v>0.025514577608624266</v>
+        <v>0.025654299599981535</v>
       </c>
       <c r="CV4">
-        <v>0.024706365507177391</v>
+        <v>0.024537205907446985</v>
       </c>
       <c r="CW4">
-        <v>0.024822187657472336</v>
+        <v>0.024645747354065634</v>
       </c>
       <c r="CX4">
-        <v>0.024503632481624345</v>
+        <v>0.024581366042856465</v>
       </c>
       <c r="CY4">
-        <v>0.024260554376189836</v>
+        <v>0.024259037425263114</v>
       </c>
       <c r="CZ4">
-        <v>0.024354177641857228</v>
+        <v>0.024272672825018847</v>
       </c>
       <c r="DA4">
-        <v>0.024498910630107885</v>
+        <v>0.024477921253638242</v>
       </c>
       <c r="DB4">
-        <v>0.024459835887688738</v>
+        <v>0.024517117345487165</v>
       </c>
       <c r="DC4">
-        <v>0.023973816225220525</v>
+        <v>0.024191592154465535</v>
       </c>
       <c r="DD4">
-        <v>0.024450604715877327</v>
+        <v>0.02442567382386936</v>
       </c>
       <c r="DE4">
-        <v>0.024470989516996385</v>
+        <v>0.024416473885781265</v>
       </c>
       <c r="DF4">
-        <v>0.024449772127486832</v>
+        <v>0.024548918385544814</v>
       </c>
       <c r="DG4">
-        <v>0.024597063167346975</v>
+        <v>0.024552821806124989</v>
       </c>
       <c r="DH4">
-        <v>0.024463145633454496</v>
+        <v>0.024357983451819203</v>
       </c>
       <c r="DI4">
-        <v>0.02500276670766706</v>
+        <v>0.024742841957177509</v>
       </c>
       <c r="DJ4">
-        <v>0.024586275071774077</v>
+        <v>0.024748325209647412</v>
       </c>
       <c r="DK4">
-        <v>0.025267027479754501</v>
+        <v>0.025099616577035869</v>
       </c>
       <c r="DL4">
-        <v>0.025186350928948976</v>
+        <v>0.025138447729862325</v>
       </c>
       <c r="DM4">
-        <v>0.025365465869783329</v>
+        <v>0.025733679324138177</v>
       </c>
       <c r="DN4">
-        <v>0.02230019149104618</v>
+        <v>0.022242560306239192</v>
       </c>
       <c r="DO4">
-        <v>0.022345428532027877</v>
+        <v>0.022434016234026157</v>
       </c>
       <c r="DP4">
-        <v>0.021850188018064726</v>
+        <v>0.022019157613291405</v>
       </c>
       <c r="DQ4">
-        <v>0.021949631413809942</v>
+        <v>0.021813765906974598</v>
       </c>
       <c r="DR4">
-        <v>0.021967716574370043</v>
+        <v>0.021944908502975452</v>
       </c>
       <c r="DS4">
-        <v>0.021657138448097704</v>
+        <v>0.021841738152200019</v>
       </c>
       <c r="DT4">
-        <v>0.021609070148024954</v>
+        <v>0.021721485621769836</v>
       </c>
       <c r="DU4">
-        <v>0.021719869920763444</v>
+        <v>0.021773057610452316</v>
       </c>
       <c r="DV4">
-        <v>0.021595975754199557</v>
+        <v>0.021672638458993369</v>
       </c>
       <c r="DW4">
-        <v>0.021848481123840014</v>
+        <v>0.021797496050012164</v>
       </c>
       <c r="DX4">
-        <v>0.021724103356999484</v>
+        <v>0.021614132755511554</v>
       </c>
       <c r="DY4">
-        <v>0.022057559472969192</v>
+        <v>0.021771398112506765</v>
       </c>
       <c r="DZ4">
-        <v>0.02192918146597192</v>
+        <v>0.021870078354639434</v>
       </c>
       <c r="EA4">
-        <v>0.021901704528145324</v>
+        <v>0.02194670533679334</v>
       </c>
       <c r="EB4">
-        <v>0.0219071763497714</v>
+        <v>0.021813214388154988</v>
       </c>
       <c r="EC4">
-        <v>0.021908000026242457</v>
+        <v>0.021924808847292816</v>
       </c>
       <c r="ED4">
-        <v>0.0218720880998312</v>
+        <v>0.021941111539040627</v>
       </c>
       <c r="EE4">
-        <v>0.02217049533892133</v>
+        <v>0.02207733078206545</v>
       </c>
       <c r="EF4">
-        <v>0.022013220289103869</v>
+        <v>0.022048746776467405</v>
       </c>
       <c r="EG4">
-        <v>0.021972095257222934</v>
+        <v>0.022094633280521206</v>
       </c>
       <c r="EH4">
-        <v>0.0215350629535409</v>
+        <v>0.021501869668296574</v>
       </c>
       <c r="EI4">
-        <v>0.021416262131557159</v>
+        <v>0.021377272076586414</v>
       </c>
       <c r="EJ4">
-        <v>0.02131807393290663</v>
+        <v>0.02152284180923085</v>
       </c>
       <c r="EK4">
-        <v>0.02150120090571685</v>
+        <v>0.021437845350506361</v>
       </c>
       <c r="EL4">
-        <v>0.021347758009360961</v>
+        <v>0.021483129211148918</v>
       </c>
       <c r="EM4">
-        <v>0.02172207166533199</v>
+        <v>0.021700967312053697</v>
       </c>
       <c r="EN4">
-        <v>0.021608401408405892</v>
+        <v>0.021437845522670664</v>
       </c>
       <c r="EO4">
-        <v>0.021440854230025751</v>
+        <v>0.021614852846943429</v>
       </c>
       <c r="EP4">
-        <v>0.021652443061947562</v>
+        <v>0.021437845641347941</v>
       </c>
       <c r="EQ4">
-        <v>0.021584465905615462</v>
+        <v>0.02156099288521008</v>
       </c>
       <c r="ER4">
-        <v>0.021692667794379471</v>
+        <v>0.021625749136691869</v>
       </c>
       <c r="ES4">
-        <v>0.021654663214800838</v>
+        <v>0.021696487945458538</v>
       </c>
       <c r="ET4">
-        <v>0.021706201904923769</v>
+        <v>0.021698726981277262</v>
       </c>
       <c r="EU4">
-        <v>0.021800411890163535</v>
+        <v>0.021560993121329735</v>
       </c>
       <c r="EV4">
-        <v>0.021816804401796865</v>
+        <v>0.021773604339133154</v>
       </c>
       <c r="EW4">
-        <v>0.021685924803275237</v>
+        <v>0.021714448956321204</v>
       </c>
       <c r="EX4">
-        <v>0.021779469674571103</v>
+        <v>0.02181294376833276</v>
       </c>
       <c r="EY4">
-        <v>0.021694919459165161</v>
+        <v>0.021732522401466704</v>
       </c>
       <c r="EZ4">
-        <v>0.021941504605965022</v>
+        <v>0.021914863871595632</v>
       </c>
       <c r="FA4">
-        <v>0.021845120040523008</v>
+        <v>0.021782813368712371</v>
       </c>
       <c r="FB4">
-        <v>0.021821505129205457</v>
+        <v>0.021926945795050085</v>
       </c>
       <c r="FC4">
-        <v>0.021617156377456048</v>
+        <v>0.021912453548399199</v>
       </c>
       <c r="FD4">
-        <v>0.02186653616546471</v>
+        <v>0.021819941597747791</v>
       </c>
       <c r="FE4">
-        <v>0.022013373391691831</v>
+        <v>0.02194150898685325</v>
       </c>
       <c r="FF4">
-        <v>0.021807426678411311</v>
+        <v>0.021973307354501308</v>
       </c>
       <c r="FG4">
-        <v>0.022033503184743584</v>
+        <v>0.022319190507017146</v>
       </c>
       <c r="FH4">
-        <v>0.022048688307007944</v>
+        <v>0.02212714754467731</v>
       </c>
       <c r="FI4">
-        <v>0.022383225763227092</v>
+        <v>0.021936646993826556</v>
       </c>
       <c r="FJ4">
-        <v>0.022141413324475584</v>
+        <v>0.021953699526954036</v>
       </c>
       <c r="FK4">
-        <v>0.022250510368668906</v>
+        <v>0.022245785826815436</v>
       </c>
       <c r="FL4">
-        <v>0.021998363609659878</v>
+        <v>0.022075847590285254</v>
       </c>
       <c r="FM4">
-        <v>0.022533471178714005</v>
+        <v>0.022158343727374772</v>
       </c>
       <c r="FN4">
-        <v>0.02209727821202942</v>
+        <v>0.022399973497532918</v>
       </c>
       <c r="FO4">
-        <v>0.021885703878201906</v>
+        <v>0.022205735042147172</v>
       </c>
       <c r="FP4">
-        <v>0.022194155628788303</v>
+        <v>0.022344042973933755</v>
       </c>
       <c r="FQ4">
-        <v>0.022539390744069569</v>
+        <v>0.0222836345435551</v>
       </c>
       <c r="FR4">
-        <v>0.02236071953450049</v>
+        <v>0.022275485811693304</v>
       </c>
       <c r="FS4">
-        <v>0.022310651673240447</v>
+        <v>0.022280916057168712</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01579955351557686</v>
+        <v>0.015823270655197147</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -3882,526 +3882,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.9439989988325808</v>
+        <v>1.9878932008517127</v>
       </c>
       <c r="C3">
-        <v>-0.75093832622202705</v>
+        <v>-0.76774402222822669</v>
       </c>
       <c r="D3">
-        <v>-0.77530051316712556</v>
+        <v>-0.76481987277589092</v>
       </c>
       <c r="E3">
-        <v>-0.79586670041669416</v>
+        <v>-0.79435150794111109</v>
       </c>
       <c r="F3">
-        <v>-0.77954054012783169</v>
+        <v>-0.80756568793231553</v>
       </c>
       <c r="G3">
-        <v>-0.81051923152225713</v>
+        <v>-0.82049158113072984</v>
       </c>
       <c r="H3">
-        <v>-0.79611092463199906</v>
+        <v>-0.82381740304553941</v>
       </c>
       <c r="I3">
-        <v>0.0038159101307648096</v>
+        <v>0.015146851269952409</v>
       </c>
       <c r="J3">
-        <v>-0.0015918192933466596</v>
+        <v>0.0054043361377234516</v>
       </c>
       <c r="K3">
-        <v>0.0066053167837117014</v>
+        <v>0.0089194675525334447</v>
       </c>
       <c r="L3">
-        <v>0.0075121024900850503</v>
+        <v>-0.0016838062835473359</v>
       </c>
       <c r="M3">
-        <v>-0.015221456580912033</v>
+        <v>-0.017711891707241162</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.234170738923797</v>
+        <v>1.2420484016060842</v>
       </c>
       <c r="P3">
-        <v>1.3421647878709535</v>
+        <v>1.3497214752020763</v>
       </c>
       <c r="Q3">
-        <v>-0.21389149057711659</v>
+        <v>-0.23322465121249938</v>
       </c>
       <c r="R3">
-        <v>-0.25351431032674659</v>
+        <v>-0.19525959373744992</v>
       </c>
       <c r="S3">
-        <v>-0.18876818529703188</v>
+        <v>-0.17557495572980142</v>
       </c>
       <c r="T3">
-        <v>-0.1924020943619692</v>
+        <v>-0.16446925476066726</v>
       </c>
       <c r="U3">
-        <v>-0.11049734566835771</v>
+        <v>-0.11079332477838999</v>
       </c>
       <c r="V3">
-        <v>-0.14837736378622607</v>
+        <v>-0.11177399295858012</v>
       </c>
       <c r="W3">
-        <v>-0.15060725607003883</v>
+        <v>-0.094405686286305399</v>
       </c>
       <c r="X3">
-        <v>-0.11709462419417067</v>
+        <v>-0.11297260519330307</v>
       </c>
       <c r="Y3">
-        <v>-0.11654401697661512</v>
+        <v>-0.098523063237499806</v>
       </c>
       <c r="Z3">
-        <v>-0.047590589434257237</v>
+        <v>-0.051869396348193708</v>
       </c>
       <c r="AA3">
-        <v>-0.077427755502148601</v>
+        <v>-0.040150590612667743</v>
       </c>
       <c r="AB3">
-        <v>-0.089136887409938734</v>
+        <v>-0.049051836858510472</v>
       </c>
       <c r="AC3">
-        <v>-0.078309902142718102</v>
+        <v>-0.069360383050987545</v>
       </c>
       <c r="AD3">
-        <v>-0.011974732456221387</v>
+        <v>-0.0066118352867924153</v>
       </c>
       <c r="AE3">
-        <v>-0.079074538416245857</v>
+        <v>-0.049109649713382948</v>
       </c>
       <c r="AF3">
-        <v>-0.054650399411876785</v>
+        <v>-0.044833417561102908</v>
       </c>
       <c r="AG3">
-        <v>-0.029641405456003276</v>
+        <v>0.021891522591069659</v>
       </c>
       <c r="AH3">
-        <v>0.0073919324312475493</v>
+        <v>-0.029755775432389383</v>
       </c>
       <c r="AI3">
-        <v>-0.0049213318173022495</v>
+        <v>0.0048480146279529755</v>
       </c>
       <c r="AJ3">
-        <v>-0.035597751811228789</v>
+        <v>0.00085232911123596649</v>
       </c>
       <c r="AK3">
-        <v>-0.013231182752657089</v>
+        <v>0.020504590557314899</v>
       </c>
       <c r="AL3">
-        <v>-0.035453187029179066</v>
+        <v>-0.016701564700830725</v>
       </c>
       <c r="AM3">
-        <v>-0.01787007837546517</v>
+        <v>0.0064107661749186143</v>
       </c>
       <c r="AN3">
-        <v>0.00052736879648380443</v>
+        <v>0.030812490073798441</v>
       </c>
       <c r="AO3">
-        <v>0.013292392234925718</v>
+        <v>0.03272014811456251</v>
       </c>
       <c r="AP3">
-        <v>-0.023072234612967049</v>
+        <v>0.022741510106767036</v>
       </c>
       <c r="AQ3">
-        <v>0.027802190965507002</v>
+        <v>0.039895158577251059</v>
       </c>
       <c r="AR3">
-        <v>0.040056738425665359</v>
+        <v>0.026558871209860103</v>
       </c>
       <c r="AS3">
-        <v>-0.01910306200912017</v>
+        <v>0.064702619858306235</v>
       </c>
       <c r="AT3">
-        <v>0.040873359128032589</v>
+        <v>0.050394236431048421</v>
       </c>
       <c r="AU3">
-        <v>0.034827058399565521</v>
+        <v>0.042238969719564493</v>
       </c>
       <c r="AV3">
-        <v>0.0047896915573890425</v>
+        <v>0.065594979965127642</v>
       </c>
       <c r="AW3">
-        <v>0.03329101929600492</v>
+        <v>0.04445037755340029</v>
       </c>
       <c r="AX3">
-        <v>0.020651895934932059</v>
+        <v>0.021676495468378031</v>
       </c>
       <c r="AY3">
-        <v>0.086747000300348598</v>
+        <v>0.019737747416438623</v>
       </c>
       <c r="AZ3">
-        <v>0.04390820076552681</v>
+        <v>0.054220652665823203</v>
       </c>
       <c r="BA3">
-        <v>0.013866571397005579</v>
+        <v>0.055498112818742569</v>
       </c>
       <c r="BB3">
-        <v>0.047444585493759246</v>
+        <v>0.076195386014909508</v>
       </c>
       <c r="BC3">
-        <v>0.04773886549458093</v>
+        <v>0.083152900059112453</v>
       </c>
       <c r="BD3">
-        <v>0.053398154969410132</v>
+        <v>0.036490005415306295</v>
       </c>
       <c r="BE3">
-        <v>0.010567418233098556</v>
+        <v>0.041520875385180872</v>
       </c>
       <c r="BF3">
-        <v>0.035296526058458844</v>
+        <v>0.042758293602565403</v>
       </c>
       <c r="BG3">
-        <v>0.046774487692001203</v>
+        <v>0.048826564638608599</v>
       </c>
       <c r="BH3">
-        <v>0.045351810142928668</v>
+        <v>0.046976718526278653</v>
       </c>
       <c r="BI3">
-        <v>0.014146617431798923</v>
+        <v>0.074827961093961698</v>
       </c>
       <c r="BJ3">
-        <v>0.024450567725938</v>
+        <v>0.052289681205006461</v>
       </c>
       <c r="BK3">
-        <v>0.0088040945720587703</v>
+        <v>0.0032959837462047093</v>
       </c>
       <c r="BL3">
-        <v>0.063196146315110766</v>
+        <v>0.036590191292834862</v>
       </c>
       <c r="BM3">
-        <v>0.038259096010041384</v>
+        <v>0.022198300434690284</v>
       </c>
       <c r="BN3">
-        <v>0.021724318396877933</v>
+        <v>0.064722217212171584</v>
       </c>
       <c r="BO3">
-        <v>0.019765638752444848</v>
+        <v>0.06909578236265744</v>
       </c>
       <c r="BP3">
-        <v>0.012451563384890708</v>
+        <v>0.084683329348909431</v>
       </c>
       <c r="BQ3">
-        <v>0.061050645119820925</v>
+        <v>0.04988004224451998</v>
       </c>
       <c r="BR3">
-        <v>0.031576990876409188</v>
+        <v>0.056719218175590412</v>
       </c>
       <c r="BS3">
-        <v>0.036674832028749542</v>
+        <v>0.053081015386749704</v>
       </c>
       <c r="BT3">
-        <v>0.0065977025000092358</v>
+        <v>0.042680385430945454</v>
       </c>
       <c r="BU3">
-        <v>0.034194197346333353</v>
+        <v>0.032464841234720619</v>
       </c>
       <c r="BV3">
-        <v>0.031193463308616418</v>
+        <v>0.085863079254913988</v>
       </c>
       <c r="BW3">
-        <v>0.01994156919608232</v>
+        <v>0.082057990662493446</v>
       </c>
       <c r="BX3">
-        <v>0.012847029928926485</v>
+        <v>0.062195003906415788</v>
       </c>
       <c r="BY3">
-        <v>0.038613388756296663</v>
+        <v>0.034914133839964855</v>
       </c>
       <c r="BZ3">
-        <v>0.026847695548072779</v>
+        <v>0.032855351323425902</v>
       </c>
       <c r="CA3">
-        <v>0.053136491398074102</v>
+        <v>0.065450549297051755</v>
       </c>
       <c r="CB3">
-        <v>0.062506871512776216</v>
+        <v>0.081384684474473834</v>
       </c>
       <c r="CC3">
-        <v>0.092908496771171398</v>
+        <v>0.070842493199987297</v>
       </c>
       <c r="CD3">
-        <v>0.022278461193949693</v>
+        <v>0.077578795816396817</v>
       </c>
       <c r="CE3">
-        <v>0.052346209984841088</v>
+        <v>0.10163687307924486</v>
       </c>
       <c r="CF3">
-        <v>0.036438274495828274</v>
+        <v>0.038847653308669308</v>
       </c>
       <c r="CG3">
-        <v>0.056552042315118192</v>
+        <v>0.043330955240069725</v>
       </c>
       <c r="CH3">
-        <v>0.041760688440954138</v>
+        <v>0.026617597281322056</v>
       </c>
       <c r="CI3">
-        <v>0.032197592842840517</v>
+        <v>0.069482335549673785</v>
       </c>
       <c r="CJ3">
-        <v>0.014032890003788394</v>
+        <v>0.021918004998170811</v>
       </c>
       <c r="CK3">
-        <v>0.033042464007846779</v>
+        <v>0.053102822214395724</v>
       </c>
       <c r="CL3">
-        <v>0.044512228939323793</v>
+        <v>0.029492974037139019</v>
       </c>
       <c r="CM3">
-        <v>0.0038658056818408476</v>
+        <v>0.054285683079995414</v>
       </c>
       <c r="CN3">
-        <v>0.033316180464375983</v>
+        <v>0.041239514710931971</v>
       </c>
       <c r="CO3">
-        <v>0.013481411363665555</v>
+        <v>0.043117505658264416</v>
       </c>
       <c r="CP3">
-        <v>0.050164076504886308</v>
+        <v>0.05481958819897946</v>
       </c>
       <c r="CQ3">
-        <v>-0.010929991090831136</v>
+        <v>0.04703457878915393</v>
       </c>
       <c r="CR3">
-        <v>0.01383675255716834</v>
+        <v>0.032825386705588031</v>
       </c>
       <c r="CS3">
-        <v>-0.081861560606036818</v>
+        <v>-0.09156099119673404</v>
       </c>
       <c r="CT3">
-        <v>0.052784280056602649</v>
+        <v>0.010058720452281155</v>
       </c>
       <c r="CU3">
-        <v>0.049892954346534402</v>
+        <v>0.015911848301548577</v>
       </c>
       <c r="CV3">
-        <v>0.049941810491784124</v>
+        <v>0.072240526192855883</v>
       </c>
       <c r="CW3">
-        <v>0.02744851848346222</v>
+        <v>0.059869257741686076</v>
       </c>
       <c r="CX3">
-        <v>0.043157434091257128</v>
+        <v>0.027390136272939781</v>
       </c>
       <c r="CY3">
-        <v>0.054545291467135472</v>
+        <v>0.048960116093727891</v>
       </c>
       <c r="CZ3">
-        <v>0.012181873149532625</v>
+        <v>0.036090136699784343</v>
       </c>
       <c r="DA3">
-        <v>0.017067961387058923</v>
+        <v>0.023897728169644371</v>
       </c>
       <c r="DB3">
-        <v>0.010577277033501318</v>
+        <v>-0.013542308882774107</v>
       </c>
       <c r="DC3">
-        <v>0.051699603018443459</v>
+        <v>0.0078381360895224128</v>
       </c>
       <c r="DD3">
-        <v>0.039842591047267811</v>
+        <v>0.048663854985391865</v>
       </c>
       <c r="DE3">
-        <v>0.030864338812696561</v>
+        <v>0.058098148600366065</v>
       </c>
       <c r="DF3">
-        <v>0.057098456270925899</v>
+        <v>0.032654943781249737</v>
       </c>
       <c r="DG3">
-        <v>0.019105321025410394</v>
+        <v>0.050250061898767538</v>
       </c>
       <c r="DH3">
-        <v>0.04059783872220165</v>
+        <v>0.064256906029575192</v>
       </c>
       <c r="DI3">
-        <v>0.00075647981888711567</v>
+        <v>0.049626062627810899</v>
       </c>
       <c r="DJ3">
-        <v>0.075274623258996726</v>
+        <v>0.0540739772316923</v>
       </c>
       <c r="DK3">
-        <v>0.03389020297273896</v>
+        <v>0.087938699054447927</v>
       </c>
       <c r="DL3">
-        <v>0.080320653825505947</v>
+        <v>0.070024998326515681</v>
       </c>
       <c r="DM3">
-        <v>0.11873281465184864</v>
+        <v>0.065999738955356033</v>
       </c>
       <c r="DN3">
-        <v>0.057718122437646471</v>
+        <v>0.076074076925318812</v>
       </c>
       <c r="DO3">
-        <v>0.051106495223465019</v>
+        <v>0.034261883076509216</v>
       </c>
       <c r="DP3">
-        <v>0.070722368268304733</v>
+        <v>0.032597754928051288</v>
       </c>
       <c r="DQ3">
-        <v>0.05171182089759209</v>
+        <v>0.084836887696351088</v>
       </c>
       <c r="DR3">
-        <v>0.05172036307365304</v>
+        <v>0.05826334374487023</v>
       </c>
       <c r="DS3">
-        <v>0.051814152907998845</v>
+        <v>0.015852740212846786</v>
       </c>
       <c r="DT3">
-        <v>0.067035577368336499</v>
+        <v>0.046867222730768744</v>
       </c>
       <c r="DU3">
-        <v>0.046089217028902549</v>
+        <v>0.039442724839474502</v>
       </c>
       <c r="DV3">
-        <v>0.078522006339014044</v>
+        <v>0.066349387877121274</v>
       </c>
       <c r="DW3">
-        <v>0.025948652418674688</v>
+        <v>0.042424271013433129</v>
       </c>
       <c r="DX3">
-        <v>0.064051461658637843</v>
+        <v>0.096004649405811632</v>
       </c>
       <c r="DY3">
-        <v>-0.0051119265421939912</v>
+        <v>0.064503297518693922</v>
       </c>
       <c r="DZ3">
-        <v>0.026639146595166731</v>
+        <v>0.046748352826639313</v>
       </c>
       <c r="EA3">
-        <v>0.036774476388215051</v>
+        <v>0.034097839696506906</v>
       </c>
       <c r="EB3">
-        <v>0.039726727783738709</v>
+        <v>0.06768724521249643</v>
       </c>
       <c r="EC3">
-        <v>0.060036488397923568</v>
+        <v>0.063711232007097857</v>
       </c>
       <c r="ED3">
-        <v>0.072187473811884603</v>
+        <v>0.064331725402296105</v>
       </c>
       <c r="EE3">
-        <v>0.011876474633113268</v>
+        <v>0.03890175913039709</v>
       </c>
       <c r="EF3">
-        <v>0.049501386461497279</v>
+        <v>0.049178186753608556</v>
       </c>
       <c r="EG3">
-        <v>0.062601266358437574</v>
+        <v>0.043452261728802927</v>
       </c>
       <c r="EH3">
-        <v>7.677041858698449e-05</v>
+        <v>0.012356922115518925</v>
       </c>
       <c r="EI3">
-        <v>0.028232547392874761</v>
+        <v>0.041979020275388676</v>
       </c>
       <c r="EJ3">
-        <v>0.05265579763366416</v>
+        <v>0.016301589255880378</v>
       </c>
       <c r="EK3">
-        <v>0.019215775567742111</v>
+        <v>0.03769671396109571</v>
       </c>
       <c r="EL3">
-        <v>0.054750116756687207</v>
+        <v>0.032573768658610586</v>
       </c>
       <c r="EM3">
-        <v>-0.016503222950130941</v>
+        <v>-0.006980169010382265</v>
       </c>
       <c r="EN3">
-        <v>0.0098782418686694483</v>
+        <v>0.049926107439312785</v>
       </c>
       <c r="EO3">
-        <v>0.047732657152307623</v>
+        <v>0.018268127463738515</v>
       </c>
       <c r="EP3">
-        <v>0.0093428822244635973</v>
+        <v>0.058185292579182007</v>
       </c>
       <c r="EQ3">
-        <v>0.026895530486398787</v>
+        <v>0.037366696122826136</v>
       </c>
       <c r="ER3">
-        <v>0.00952800686089199</v>
+        <v>0.028528869894853742</v>
       </c>
       <c r="ES3">
-        <v>0.02105419573390279</v>
+        <v>0.018601563777479149</v>
       </c>
       <c r="ET3">
-        <v>0.014968348890419359</v>
+        <v>0.022225150042762581</v>
       </c>
       <c r="EU3">
-        <v>0.00064766889478686928</v>
+        <v>0.053761081002108975</v>
       </c>
       <c r="EV3">
-        <v>0.0014687621038312192</v>
+        <v>0.015829024276772918</v>
       </c>
       <c r="EW3">
-        <v>0.030991258824584308</v>
+        <v>0.031472676888960077</v>
       </c>
       <c r="EX3">
-        <v>0.016809143842658372</v>
+        <v>0.016350157022060205</v>
       </c>
       <c r="EY3">
-        <v>0.03739187225951502</v>
+        <v>0.036095185905822155</v>
       </c>
       <c r="EZ3">
-        <v>-0.0060946163700293472</v>
+        <v>0.0049265263511725499</v>
       </c>
       <c r="FA3">
-        <v>0.016281080360071986</v>
+        <v>0.034409554405711959</v>
       </c>
       <c r="FB3">
-        <v>0.024885950096764843</v>
+        <v>0.010760364350222136</v>
       </c>
       <c r="FC3">
-        <v>0.069028805042356048</v>
+        <v>0.017560609506395274</v>
       </c>
       <c r="FD3">
-        <v>0.024585339620787287</v>
+        <v>0.039422268285408915</v>
       </c>
       <c r="FE3">
-        <v>0.00081193937548922892</v>
+        <v>0.020231286686716584</v>
       </c>
       <c r="FF3">
-        <v>0.044050345532127951</v>
+        <v>0.018265452942141998</v>
       </c>
       <c r="FG3">
-        <v>0.0051981598047860077</v>
+        <v>-0.041622592620976284</v>
       </c>
       <c r="FH3">
-        <v>0.0063677684787877857</v>
+        <v>-0.0026697043016986285</v>
       </c>
       <c r="FI3">
-        <v>-0.050686979966289347</v>
+        <v>0.037100552500577935</v>
       </c>
       <c r="FJ3">
-        <v>-0.0030368296220047511</v>
+        <v>0.037998207001359502</v>
       </c>
       <c r="FK3">
-        <v>-0.019027389273463306</v>
+        <v>-0.012213865482387305</v>
       </c>
       <c r="FL3">
-        <v>0.031499462333223947</v>
+        <v>0.02308084286238871</v>
       </c>
       <c r="FM3">
-        <v>-0.061432362548778187</v>
+        <v>0.011851310508820869</v>
       </c>
       <c r="FN3">
-        <v>0.020884838488534955</v>
+        <v>-0.027971438328571928</v>
       </c>
       <c r="FO3">
-        <v>0.064812099601581075</v>
+        <v>0.011051976133712444</v>
       </c>
       <c r="FP3">
-        <v>0.011358668572189453</v>
+        <v>-0.010032363356660129</v>
       </c>
       <c r="FQ3">
-        <v>-0.046355266228436214</v>
+        <v>0.0048308575583631596</v>
       </c>
       <c r="FR3">
-        <v>-0.010947687705909152</v>
+        <v>0.010319438690994656</v>
       </c>
       <c r="FS3">
-        <v>0.0019884506963801568</v>
+        <v>0.013365388929582391</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5262916386107346</v>
+        <v>-5.5259013944280069</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -4424,526 +4424,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019365325621117497</v>
+        <v>0.019619407624078426</v>
       </c>
       <c r="C4">
-        <v>0.013063668446218923</v>
+        <v>0.013067131835279112</v>
       </c>
       <c r="D4">
-        <v>0.014423564036526382</v>
+        <v>0.014419315254148779</v>
       </c>
       <c r="E4">
-        <v>0.014458287047772527</v>
+        <v>0.014473494004770144</v>
       </c>
       <c r="F4">
-        <v>0.014459215473732174</v>
+        <v>0.014526547134213997</v>
       </c>
       <c r="G4">
-        <v>0.017259271810959088</v>
+        <v>0.017229077923884208</v>
       </c>
       <c r="H4">
-        <v>0.02061109952132447</v>
+        <v>0.020563706091563168</v>
       </c>
       <c r="I4">
-        <v>0.016015564732281249</v>
+        <v>0.016033368674490546</v>
       </c>
       <c r="J4">
-        <v>0.01317747710067458</v>
+        <v>0.013150421048055949</v>
       </c>
       <c r="K4">
-        <v>0.010852028531032974</v>
+        <v>0.010920548615102228</v>
       </c>
       <c r="L4">
-        <v>0.011064879480627897</v>
+        <v>0.01097919926408417</v>
       </c>
       <c r="M4">
-        <v>0.011172805845623137</v>
+        <v>0.011183881186210489</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022690071821834235</v>
+        <v>0.022729051432327035</v>
       </c>
       <c r="P4">
-        <v>0.022488689832962403</v>
+        <v>0.022526533450133539</v>
       </c>
       <c r="Q4">
-        <v>0.028759697975291352</v>
+        <v>0.029038680093063339</v>
       </c>
       <c r="R4">
-        <v>0.029055013946444587</v>
+        <v>0.02877718391385187</v>
       </c>
       <c r="S4">
-        <v>0.028604478055736557</v>
+        <v>0.02864971491110636</v>
       </c>
       <c r="T4">
-        <v>0.0286406250739497</v>
+        <v>0.028583364539508188</v>
       </c>
       <c r="U4">
-        <v>0.028096713608965339</v>
+        <v>0.028229850978836773</v>
       </c>
       <c r="V4">
-        <v>0.02836035941374403</v>
+        <v>0.028247401043252372</v>
       </c>
       <c r="W4">
-        <v>0.0283864478231701</v>
+        <v>0.02814330821586462</v>
       </c>
       <c r="X4">
-        <v>0.028172653517662447</v>
+        <v>0.028277677593222007</v>
       </c>
       <c r="Y4">
-        <v>0.028180084942176182</v>
+        <v>0.02819251662563247</v>
       </c>
       <c r="Z4">
-        <v>0.027745514142660872</v>
+        <v>0.027899755805740129</v>
       </c>
       <c r="AA4">
-        <v>0.027947017303976189</v>
+        <v>0.027836267579765508</v>
       </c>
       <c r="AB4">
-        <v>0.02803419568162796</v>
+        <v>0.027904333740470685</v>
       </c>
       <c r="AC4">
-        <v>0.027975064901664078</v>
+        <v>0.028046800088368219</v>
       </c>
       <c r="AD4">
-        <v>0.027567359959557326</v>
+        <v>0.027658721586813623</v>
       </c>
       <c r="AE4">
-        <v>0.028003328995915497</v>
+        <v>0.027938853803236571</v>
       </c>
       <c r="AF4">
-        <v>0.027857327666688744</v>
+        <v>0.027922703559148151</v>
       </c>
       <c r="AG4">
-        <v>0.027710462105367002</v>
+        <v>0.027516312142339645</v>
       </c>
       <c r="AH4">
-        <v>0.02749283351206392</v>
+        <v>0.027849778260087846</v>
       </c>
       <c r="AI4">
-        <v>0.027579938736130582</v>
+        <v>0.027643789545802242</v>
       </c>
       <c r="AJ4">
-        <v>0.027783139871001956</v>
+        <v>0.027680164187674949</v>
       </c>
       <c r="AK4">
-        <v>0.02765423403165056</v>
+        <v>0.027570073993138895</v>
       </c>
       <c r="AL4">
-        <v>0.027805459396630545</v>
+        <v>0.027813862461638417</v>
       </c>
       <c r="AM4">
-        <v>0.02770610493194452</v>
+        <v>0.027680164207539083</v>
       </c>
       <c r="AN4">
-        <v>0.027603118708222962</v>
+        <v>0.027541021169847156</v>
       </c>
       <c r="AO4">
-        <v>0.027536111516445329</v>
+        <v>0.02754102117693422</v>
       </c>
       <c r="AP4">
-        <v>0.027774251001179046</v>
+        <v>0.027614115629587516</v>
       </c>
       <c r="AQ4">
-        <v>0.027470379882215738</v>
+        <v>0.027520418063956321</v>
       </c>
       <c r="AR4">
-        <v>0.027407884163398375</v>
+        <v>0.027614115643698527</v>
       </c>
       <c r="AS4">
-        <v>0.027785365620562347</v>
+        <v>0.027393397808276577</v>
       </c>
       <c r="AT4">
-        <v>0.027425910224252458</v>
+        <v>0.027491779778570844</v>
       </c>
       <c r="AU4">
-        <v>0.027474451470115874</v>
+        <v>0.027553442512840372</v>
       </c>
       <c r="AV4">
-        <v>0.02767143961704191</v>
+        <v>0.027423213165482539</v>
       </c>
       <c r="AW4">
-        <v>0.027507199218327293</v>
+        <v>0.027563827863692797</v>
       </c>
       <c r="AX4">
-        <v>0.027596781651089981</v>
+        <v>0.027716919608549363</v>
       </c>
       <c r="AY4">
-        <v>0.02721006926338472</v>
+        <v>0.02774090819587937</v>
       </c>
       <c r="AZ4">
-        <v>0.027478527914319845</v>
+        <v>0.027538955386308177</v>
       </c>
       <c r="BA4">
-        <v>0.027675754220982889</v>
+        <v>0.027543088375416157</v>
       </c>
       <c r="BB4">
-        <v>0.02748056795341532</v>
+        <v>0.027429207915299569</v>
       </c>
       <c r="BC4">
-        <v>0.027490786331747678</v>
+        <v>0.027399339955110198</v>
       </c>
       <c r="BD4">
-        <v>0.027468346016217469</v>
+        <v>0.027697413160894028</v>
       </c>
       <c r="BE4">
-        <v>0.027745514350415564</v>
+        <v>0.027678014173454973</v>
       </c>
       <c r="BF4">
-        <v>0.027603118839426365</v>
+        <v>0.027682315825040008</v>
       </c>
       <c r="BG4">
-        <v>0.027544417026206788</v>
+        <v>0.027656584731665525</v>
       </c>
       <c r="BH4">
-        <v>0.027565268142388622</v>
+        <v>0.02768016435939356</v>
       </c>
       <c r="BI4">
-        <v>0.027772032366286909</v>
+        <v>0.027520418200219162</v>
       </c>
       <c r="BJ4">
-        <v>0.027719192871197281</v>
+        <v>0.027671571612073606</v>
       </c>
       <c r="BK4">
-        <v>0.027830172762002909</v>
+        <v>0.027994776536978547</v>
       </c>
       <c r="BL4">
-        <v>0.027503088745074046</v>
+        <v>0.027793817308203912</v>
       </c>
       <c r="BM4">
-        <v>0.027669284443132922</v>
+        <v>0.027897469276377429</v>
       </c>
       <c r="BN4">
-        <v>0.027785365773004042</v>
+        <v>0.02764166181390634</v>
       </c>
       <c r="BO4">
-        <v>0.027809940259397155</v>
+        <v>0.027626802322855429</v>
       </c>
       <c r="BP4">
-        <v>0.027868703225510473</v>
+        <v>0.027543088492524574</v>
       </c>
       <c r="BQ4">
-        <v>0.027575741005620331</v>
+        <v>0.027771676124290479</v>
       </c>
       <c r="BR4">
-        <v>0.027772032434109178</v>
+        <v>0.027740908338608747</v>
       </c>
       <c r="BS4">
-        <v>0.027752125446322343</v>
+        <v>0.027776093380481526</v>
       </c>
       <c r="BT4">
-        <v>0.027956342903248013</v>
+        <v>0.027854293393796588</v>
       </c>
       <c r="BU4">
-        <v>0.027792051228805206</v>
+        <v>0.027931923760476655</v>
       </c>
       <c r="BV4">
-        <v>0.027823415985207503</v>
+        <v>0.027607789913960051</v>
       </c>
       <c r="BW4">
-        <v>0.027907649245970133</v>
+        <v>0.027643789843543761</v>
       </c>
       <c r="BX4">
-        <v>0.027965692096903239</v>
+        <v>0.027780516152129228</v>
       </c>
       <c r="BY4">
-        <v>0.027408326592395511</v>
+        <v>0.027477662840452929</v>
       </c>
       <c r="BZ4">
-        <v>0.027498104893420233</v>
+        <v>0.027503782733543435</v>
       </c>
       <c r="CA4">
-        <v>0.027339030893679537</v>
+        <v>0.027304468796708992</v>
       </c>
       <c r="CB4">
-        <v>0.027291277246914221</v>
+        <v>0.027215343462128214</v>
       </c>
       <c r="CC4">
-        <v>0.02711053993786245</v>
+        <v>0.027295472192475016</v>
       </c>
       <c r="CD4">
-        <v>0.027640713712569837</v>
+        <v>0.027358993063669085</v>
       </c>
       <c r="CE4">
-        <v>0.027453778722721235</v>
+        <v>0.027217410679182971</v>
       </c>
       <c r="CF4">
-        <v>0.027571675711890089</v>
+        <v>0.027639764946795851</v>
       </c>
       <c r="CG4">
-        <v>0.027451430900473629</v>
+        <v>0.027622512389788662</v>
       </c>
       <c r="CH4">
-        <v>0.027561941929577453</v>
+        <v>0.027747505916583339</v>
       </c>
       <c r="CI4">
-        <v>0.027581163684834296</v>
+        <v>0.027516565523348382</v>
       </c>
       <c r="CJ4">
-        <v>0.027715941796934707</v>
+        <v>0.027848885071239421</v>
       </c>
       <c r="CK4">
-        <v>0.027600849376460561</v>
+        <v>0.027650526085625675</v>
       </c>
       <c r="CL4">
-        <v>0.027537301097085735</v>
+        <v>0.027822902365119709</v>
       </c>
       <c r="CM4">
-        <v>0.02782413033909922</v>
+        <v>0.027667940478282096</v>
       </c>
       <c r="CN4">
-        <v>0.028130032547776424</v>
+        <v>0.028186835360487487</v>
       </c>
       <c r="CO4">
-        <v>0.02827658950755578</v>
+        <v>0.028186872775757668</v>
       </c>
       <c r="CP4">
-        <v>0.028042881700317972</v>
+        <v>0.028121151129535674</v>
       </c>
       <c r="CQ4">
-        <v>0.028963979977596269</v>
+        <v>0.028733085054307685</v>
       </c>
       <c r="CR4">
-        <v>0.028809828657556956</v>
+        <v>0.028840091091092385</v>
       </c>
       <c r="CS4">
-        <v>0.025370899081674756</v>
+        <v>0.025550425564115093</v>
       </c>
       <c r="CT4">
-        <v>0.025756477955680177</v>
+        <v>0.025917097714556359</v>
       </c>
       <c r="CU4">
-        <v>0.025784303593767995</v>
+        <v>0.025904107981498531</v>
       </c>
       <c r="CV4">
-        <v>0.024871050886240587</v>
+        <v>0.024752705952498028</v>
       </c>
       <c r="CW4">
-        <v>0.024996443339055097</v>
+        <v>0.024827384366708775</v>
       </c>
       <c r="CX4">
-        <v>0.024804526618629731</v>
+        <v>0.024875436641963084</v>
       </c>
       <c r="CY4">
-        <v>0.024431865274275794</v>
+        <v>0.024495187450794716</v>
       </c>
       <c r="CZ4">
-        <v>0.024661927597373387</v>
+        <v>0.024576670242880887</v>
       </c>
       <c r="DA4">
-        <v>0.024654417301129574</v>
+        <v>0.024655521986221798</v>
       </c>
       <c r="DB4">
-        <v>0.024705150895667116</v>
+        <v>0.024865850538625389</v>
       </c>
       <c r="DC4">
-        <v>0.024184628354668704</v>
+        <v>0.024486623154717578</v>
       </c>
       <c r="DD4">
-        <v>0.024632242339128935</v>
+        <v>0.024663140221981961</v>
       </c>
       <c r="DE4">
-        <v>0.024695093556196878</v>
+        <v>0.02463332151285836</v>
       </c>
       <c r="DF4">
-        <v>0.024581047971692284</v>
+        <v>0.024780363819149477</v>
       </c>
       <c r="DG4">
-        <v>0.024790835985384452</v>
+        <v>0.024708109233911306</v>
       </c>
       <c r="DH4">
-        <v>0.024671269881989474</v>
+        <v>0.024597258584673397</v>
       </c>
       <c r="DI4">
-        <v>0.02518508958307929</v>
+        <v>0.024977634190350345</v>
       </c>
       <c r="DJ4">
-        <v>0.02481758996068429</v>
+        <v>0.024972994618237033</v>
       </c>
       <c r="DK4">
-        <v>0.025473849209506128</v>
+        <v>0.025258871048149802</v>
       </c>
       <c r="DL4">
-        <v>0.025259846837162769</v>
+        <v>0.025367107236536235</v>
       </c>
       <c r="DM4">
-        <v>0.024589482426086964</v>
+        <v>0.024819150068766352</v>
       </c>
       <c r="DN4">
-        <v>0.022351583752082519</v>
+        <v>0.022295935039745425</v>
       </c>
       <c r="DO4">
-        <v>0.022396716991817098</v>
+        <v>0.022486936541420359</v>
       </c>
       <c r="DP4">
-        <v>0.021868296013398448</v>
+        <v>0.022043810398224759</v>
       </c>
       <c r="DQ4">
-        <v>0.021967657438087405</v>
+        <v>0.021838650549233316</v>
       </c>
       <c r="DR4">
-        <v>0.021985727770689991</v>
+        <v>0.021969644604018339</v>
       </c>
       <c r="DS4">
-        <v>0.021671784645920931</v>
+        <v>0.021861601867467644</v>
       </c>
       <c r="DT4">
-        <v>0.021623748903123685</v>
+        <v>0.02174145920271435</v>
       </c>
       <c r="DU4">
-        <v>0.021734473845941588</v>
+        <v>0.021792983925298777</v>
       </c>
       <c r="DV4">
-        <v>0.021610663403205686</v>
+        <v>0.021692657015310632</v>
       </c>
       <c r="DW4">
-        <v>0.021862999140650832</v>
+        <v>0.021817400044577297</v>
       </c>
       <c r="DX4">
-        <v>0.02173652961217697</v>
+        <v>0.021623758342073644</v>
       </c>
       <c r="DY4">
-        <v>0.022069797979258631</v>
+        <v>0.021780954198958383</v>
       </c>
       <c r="DZ4">
-        <v>0.02194149157868824</v>
+        <v>0.021879591341507715</v>
       </c>
       <c r="EA4">
-        <v>0.021914030075831488</v>
+        <v>0.021956185123241552</v>
       </c>
       <c r="EB4">
-        <v>0.021919498820573386</v>
+        <v>0.021822752163496772</v>
       </c>
       <c r="EC4">
-        <v>0.021895329531944709</v>
+        <v>0.021910271299361468</v>
       </c>
       <c r="ED4">
-        <v>0.02185939679058899</v>
+        <v>0.02192658480001922</v>
       </c>
       <c r="EE4">
-        <v>0.022157974943357212</v>
+        <v>0.022062893731051816</v>
       </c>
       <c r="EF4">
-        <v>0.022000610392132601</v>
+        <v>0.022034290997860844</v>
       </c>
       <c r="EG4">
-        <v>0.021959461745760321</v>
+        <v>0.022080207543065274</v>
       </c>
       <c r="EH4">
-        <v>0.021535062953540754</v>
+        <v>0.021501869668296238</v>
       </c>
       <c r="EI4">
-        <v>0.021416262131556979</v>
+        <v>0.02137727207658608</v>
       </c>
       <c r="EJ4">
-        <v>0.021318073932906471</v>
+        <v>0.021522841809230513</v>
       </c>
       <c r="EK4">
-        <v>0.02150120090571667</v>
+        <v>0.021437845350506027</v>
       </c>
       <c r="EL4">
-        <v>0.021347758009360791</v>
+        <v>0.021483129211148606</v>
       </c>
       <c r="EM4">
-        <v>0.021722071665331827</v>
+        <v>0.02170096731205335</v>
       </c>
       <c r="EN4">
-        <v>0.021608401408405718</v>
+        <v>0.021437845522670324</v>
       </c>
       <c r="EO4">
-        <v>0.021440854230025581</v>
+        <v>0.021614852846943117</v>
       </c>
       <c r="EP4">
-        <v>0.021652443061947385</v>
+        <v>0.021437845641347611</v>
       </c>
       <c r="EQ4">
-        <v>0.021584465905615299</v>
+        <v>0.021560992885209747</v>
       </c>
       <c r="ER4">
-        <v>0.02169266779437929</v>
+        <v>0.021625749136691529</v>
       </c>
       <c r="ES4">
-        <v>0.021654663214800678</v>
+        <v>0.021696487945458181</v>
       </c>
       <c r="ET4">
-        <v>0.02170620190492361</v>
+        <v>0.021698726981276936</v>
       </c>
       <c r="EU4">
-        <v>0.021800411890163345</v>
+        <v>0.021560993121329405</v>
       </c>
       <c r="EV4">
-        <v>0.021816804401796706</v>
+        <v>0.021773604339132835</v>
       </c>
       <c r="EW4">
-        <v>0.02168592480327506</v>
+        <v>0.021714448956320867</v>
       </c>
       <c r="EX4">
-        <v>0.021779469674570937</v>
+        <v>0.021812943768332441</v>
       </c>
       <c r="EY4">
-        <v>0.021694919459165008</v>
+        <v>0.021732522401466375</v>
       </c>
       <c r="EZ4">
-        <v>0.021941504605964845</v>
+        <v>0.02191486387159531</v>
       </c>
       <c r="FA4">
-        <v>0.021845120040522831</v>
+        <v>0.021782813368712049</v>
       </c>
       <c r="FB4">
-        <v>0.021821505129205269</v>
+        <v>0.021926945795049755</v>
       </c>
       <c r="FC4">
-        <v>0.021617156377455881</v>
+        <v>0.02191245354839887</v>
       </c>
       <c r="FD4">
-        <v>0.021866536165464551</v>
+        <v>0.021819941597747469</v>
       </c>
       <c r="FE4">
-        <v>0.022013373391691668</v>
+        <v>0.021941508986852917</v>
       </c>
       <c r="FF4">
-        <v>0.021807426678411141</v>
+        <v>0.021973307354501009</v>
       </c>
       <c r="FG4">
-        <v>0.022033503184743432</v>
+        <v>0.022319190507016827</v>
       </c>
       <c r="FH4">
-        <v>0.022048688307007756</v>
+        <v>0.022127147544676987</v>
       </c>
       <c r="FI4">
-        <v>0.022383225763226936</v>
+        <v>0.02193664699382623</v>
       </c>
       <c r="FJ4">
-        <v>0.022141413324475407</v>
+        <v>0.021953699526953713</v>
       </c>
       <c r="FK4">
-        <v>0.022250510368668746</v>
+        <v>0.022245785826815117</v>
       </c>
       <c r="FL4">
-        <v>0.021998363609659708</v>
+        <v>0.022075847590284917</v>
       </c>
       <c r="FM4">
-        <v>0.022533471178713849</v>
+        <v>0.022158343727374449</v>
       </c>
       <c r="FN4">
-        <v>0.022097278212029246</v>
+        <v>0.022399973497532588</v>
       </c>
       <c r="FO4">
-        <v>0.021885703878201723</v>
+        <v>0.022205735042146835</v>
       </c>
       <c r="FP4">
-        <v>0.02219415562878815</v>
+        <v>0.022344042973933439</v>
       </c>
       <c r="FQ4">
-        <v>0.022539390744069399</v>
+        <v>0.022283634543554771</v>
       </c>
       <c r="FR4">
-        <v>0.022360719534500317</v>
+        <v>0.022275485811692992</v>
       </c>
       <c r="FS4">
-        <v>0.022310651673240284</v>
+        <v>0.022280916057168389</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015799553515576634</v>
+        <v>0.015823270655196692</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -6056,526 +6056,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.1587190102659171</v>
+        <v>1.1686237026742841</v>
       </c>
       <c r="C3">
-        <v>-1.8093271874850474</v>
+        <v>-1.7986532179587666</v>
       </c>
       <c r="D3">
-        <v>-1.8973116489384174</v>
+        <v>-1.8692202560949822</v>
       </c>
       <c r="E3">
-        <v>-1.8733838529845936</v>
+        <v>-1.8714869871024102</v>
       </c>
       <c r="F3">
-        <v>-1.8341317059180273</v>
+        <v>-1.8549950907263839</v>
       </c>
       <c r="G3">
-        <v>-1.8262224790751003</v>
+        <v>-1.8314881335579343</v>
       </c>
       <c r="H3">
-        <v>-1.8556225282316736</v>
+        <v>-1.7820120905636128</v>
       </c>
       <c r="I3">
-        <v>0.77465490997979203</v>
+        <v>0.76523034112690791</v>
       </c>
       <c r="J3">
-        <v>0.72416390583651513</v>
+        <v>0.7147545930849668</v>
       </c>
       <c r="K3">
-        <v>0.6200607778944488</v>
+        <v>0.62434466318935511</v>
       </c>
       <c r="L3">
-        <v>0.49958555477022598</v>
+        <v>0.50507997153962902</v>
       </c>
       <c r="M3">
-        <v>0.40086216615973208</v>
+        <v>0.40164537656296606</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4287599962570479</v>
+        <v>1.4170581298481624</v>
       </c>
       <c r="P3">
-        <v>1.5172440140726917</v>
+        <v>1.5402505906459516</v>
       </c>
       <c r="Q3">
-        <v>-0.018063912627827642</v>
+        <v>-0.033005538780338302</v>
       </c>
       <c r="R3">
-        <v>-0.056375458441558057</v>
+        <v>0.025446512356704996</v>
       </c>
       <c r="S3">
-        <v>0.037283234981727788</v>
+        <v>-0.0018819585598926845</v>
       </c>
       <c r="T3">
-        <v>0.0028849093468050402</v>
+        <v>0.012041273210660118</v>
       </c>
       <c r="U3">
-        <v>0.068406541579588101</v>
+        <v>0.045509133192780521</v>
       </c>
       <c r="V3">
-        <v>0.0016105802228436391</v>
+        <v>0.037706532674574272</v>
       </c>
       <c r="W3">
-        <v>0.05633001605635183</v>
+        <v>0.030687911280061309</v>
       </c>
       <c r="X3">
-        <v>0.065497785794270014</v>
+        <v>-0.011778726985100362</v>
       </c>
       <c r="Y3">
-        <v>0.10662264323530443</v>
+        <v>0.048326531546924185</v>
       </c>
       <c r="Z3">
-        <v>0.12102204279591458</v>
+        <v>0.025871632871392759</v>
       </c>
       <c r="AA3">
-        <v>0.12972842399102405</v>
+        <v>0.12491688000724251</v>
       </c>
       <c r="AB3">
-        <v>0.10972643288765832</v>
+        <v>0.085545556222468705</v>
       </c>
       <c r="AC3">
-        <v>0.11772501457615733</v>
+        <v>0.080541652087645021</v>
       </c>
       <c r="AD3">
-        <v>0.17460079122859276</v>
+        <v>0.078810513583383576</v>
       </c>
       <c r="AE3">
-        <v>0.086709806145676097</v>
+        <v>0.11923352770880578</v>
       </c>
       <c r="AF3">
-        <v>0.12881801312550609</v>
+        <v>0.13027549058440446</v>
       </c>
       <c r="AG3">
-        <v>0.18597702704525215</v>
+        <v>0.1365433625680722</v>
       </c>
       <c r="AH3">
-        <v>0.17242246522681179</v>
+        <v>0.11440447730719004</v>
       </c>
       <c r="AI3">
-        <v>0.10546081609779615</v>
+        <v>0.14975512971141755</v>
       </c>
       <c r="AJ3">
-        <v>0.15319836890368477</v>
+        <v>0.15363775458951628</v>
       </c>
       <c r="AK3">
-        <v>0.13117259635999953</v>
+        <v>0.15058012459931447</v>
       </c>
       <c r="AL3">
-        <v>0.1271606489714113</v>
+        <v>0.12394689270455736</v>
       </c>
       <c r="AM3">
-        <v>0.083790680534248152</v>
+        <v>0.16826012297347723</v>
       </c>
       <c r="AN3">
-        <v>0.19817106407796678</v>
+        <v>0.198310933331769</v>
       </c>
       <c r="AO3">
-        <v>0.18472362720892024</v>
+        <v>0.22107193354635513</v>
       </c>
       <c r="AP3">
-        <v>0.12148113287990363</v>
+        <v>0.1414308454227024</v>
       </c>
       <c r="AQ3">
-        <v>0.16797945115492199</v>
+        <v>0.1761106634382604</v>
       </c>
       <c r="AR3">
-        <v>0.20659598872707011</v>
+        <v>0.096539514610896007</v>
       </c>
       <c r="AS3">
-        <v>0.13909944629033832</v>
+        <v>0.19047756378236488</v>
       </c>
       <c r="AT3">
-        <v>0.17960542030841589</v>
+        <v>0.20909376756871903</v>
       </c>
       <c r="AU3">
-        <v>0.21641927388783752</v>
+        <v>0.20404636400190704</v>
       </c>
       <c r="AV3">
-        <v>0.19114080979499229</v>
+        <v>0.17564957717256752</v>
       </c>
       <c r="AW3">
-        <v>0.15184923491903693</v>
+        <v>0.12094107612157003</v>
       </c>
       <c r="AX3">
-        <v>0.15421297475735302</v>
+        <v>0.17648150666474555</v>
       </c>
       <c r="AY3">
-        <v>0.22481240842162403</v>
+        <v>0.16504417201123961</v>
       </c>
       <c r="AZ3">
-        <v>0.21756839521015975</v>
+        <v>0.19696505572671347</v>
       </c>
       <c r="BA3">
-        <v>0.17074719999378724</v>
+        <v>0.20003987639936086</v>
       </c>
       <c r="BB3">
-        <v>0.16767103470502495</v>
+        <v>0.25245462508595146</v>
       </c>
       <c r="BC3">
-        <v>0.19836246506953087</v>
+        <v>0.22387984986593251</v>
       </c>
       <c r="BD3">
-        <v>0.20295896859695595</v>
+        <v>0.18456757111750713</v>
       </c>
       <c r="BE3">
-        <v>0.16467485583209324</v>
+        <v>0.20270055632778705</v>
       </c>
       <c r="BF3">
-        <v>0.14572794353370738</v>
+        <v>0.18926545534319156</v>
       </c>
       <c r="BG3">
-        <v>0.21510929090280695</v>
+        <v>0.15779610391406815</v>
       </c>
       <c r="BH3">
-        <v>0.19182598776689166</v>
+        <v>0.20666552787472392</v>
       </c>
       <c r="BI3">
-        <v>0.21229530504470559</v>
+        <v>0.1586620707969997</v>
       </c>
       <c r="BJ3">
-        <v>0.16876738024705051</v>
+        <v>0.14687284287829605</v>
       </c>
       <c r="BK3">
-        <v>0.17968864105212912</v>
+        <v>0.11710692955808613</v>
       </c>
       <c r="BL3">
-        <v>0.18590730100108008</v>
+        <v>0.18575512615272716</v>
       </c>
       <c r="BM3">
-        <v>0.18209396997902033</v>
+        <v>0.14688714335627256</v>
       </c>
       <c r="BN3">
-        <v>0.22309790045393929</v>
+        <v>0.14450129326589928</v>
       </c>
       <c r="BO3">
-        <v>0.16501476410335675</v>
+        <v>0.12192539841391563</v>
       </c>
       <c r="BP3">
-        <v>0.14992376219777023</v>
+        <v>0.16734748336313732</v>
       </c>
       <c r="BQ3">
-        <v>0.21206882799485097</v>
+        <v>0.10624263572753909</v>
       </c>
       <c r="BR3">
-        <v>0.16586726996360923</v>
+        <v>0.16579856575191443</v>
       </c>
       <c r="BS3">
-        <v>0.17296603850606099</v>
+        <v>0.20572540157465222</v>
       </c>
       <c r="BT3">
-        <v>0.045891849146395915</v>
+        <v>0.16038759552136148</v>
       </c>
       <c r="BU3">
-        <v>0.17370006553215614</v>
+        <v>0.13566358637141898</v>
       </c>
       <c r="BV3">
-        <v>0.18776928310552696</v>
+        <v>0.21266381433991113</v>
       </c>
       <c r="BW3">
-        <v>0.16506742078063863</v>
+        <v>0.16754398705421808</v>
       </c>
       <c r="BX3">
-        <v>0.11793175787921852</v>
+        <v>0.14455434133883846</v>
       </c>
       <c r="BY3">
-        <v>0.22539597302207595</v>
+        <v>0.17660366996734578</v>
       </c>
       <c r="BZ3">
-        <v>0.21836497306394423</v>
+        <v>0.17497384986681208</v>
       </c>
       <c r="CA3">
-        <v>0.19848139588759703</v>
+        <v>0.21692545934749471</v>
       </c>
       <c r="CB3">
-        <v>0.2024867936176907</v>
+        <v>0.22007281586386016</v>
       </c>
       <c r="CC3">
-        <v>0.25483825103573443</v>
+        <v>0.22630019744872051</v>
       </c>
       <c r="CD3">
-        <v>0.12698295753407962</v>
+        <v>0.21974222203936289</v>
       </c>
       <c r="CE3">
-        <v>0.16716422096346442</v>
+        <v>0.189831443835731</v>
       </c>
       <c r="CF3">
-        <v>0.15719043510594238</v>
+        <v>0.17612291327919213</v>
       </c>
       <c r="CG3">
-        <v>0.19469956074454187</v>
+        <v>0.15971454974682917</v>
       </c>
       <c r="CH3">
-        <v>0.1529231832538957</v>
+        <v>0.17443793620818854</v>
       </c>
       <c r="CI3">
-        <v>0.13498552513504647</v>
+        <v>0.15892189962439848</v>
       </c>
       <c r="CJ3">
-        <v>0.14324706661292344</v>
+        <v>0.15476522104249715</v>
       </c>
       <c r="CK3">
-        <v>0.1456789971302232</v>
+        <v>0.17839409743472293</v>
       </c>
       <c r="CL3">
-        <v>0.17583287100702899</v>
+        <v>0.15303633557537574</v>
       </c>
       <c r="CM3">
-        <v>0.14144184547960498</v>
+        <v>0.1175555262622994</v>
       </c>
       <c r="CN3">
-        <v>0.089588617192838352</v>
+        <v>0.11345183788083703</v>
       </c>
       <c r="CO3">
-        <v>0.05833957870960356</v>
+        <v>0.12776162190687498</v>
       </c>
       <c r="CP3">
-        <v>0.097142063899161288</v>
+        <v>0.13105021820199991</v>
       </c>
       <c r="CQ3">
-        <v>0.12299282747944533</v>
+        <v>0.12668123980085771</v>
       </c>
       <c r="CR3">
-        <v>0.12374410394499805</v>
+        <v>0.11671445873434366</v>
       </c>
       <c r="CS3">
-        <v>-0.0083073859515898525</v>
+        <v>-0.0098555285255167956</v>
       </c>
       <c r="CT3">
-        <v>0.30478916390110056</v>
+        <v>0.31194476892566914</v>
       </c>
       <c r="CU3">
-        <v>0.26572260638775175</v>
+        <v>0.25825903632494251</v>
       </c>
       <c r="CV3">
-        <v>0.23964584282369736</v>
+        <v>0.29069655881393608</v>
       </c>
       <c r="CW3">
-        <v>0.2141782391130041</v>
+        <v>0.23922634191417233</v>
       </c>
       <c r="CX3">
-        <v>0.18049208815433607</v>
+        <v>0.17480216818566077</v>
       </c>
       <c r="CY3">
-        <v>0.21649456974377645</v>
+        <v>0.2285387672947426</v>
       </c>
       <c r="CZ3">
-        <v>0.16459588654326346</v>
+        <v>0.16991574926282593</v>
       </c>
       <c r="DA3">
-        <v>0.122428349782955</v>
+        <v>0.11610549107919561</v>
       </c>
       <c r="DB3">
-        <v>0.10225879686177661</v>
+        <v>0.068416359184814021</v>
       </c>
       <c r="DC3">
-        <v>0.068435303702722688</v>
+        <v>0.048579379706799611</v>
       </c>
       <c r="DD3">
-        <v>0.14294598817582505</v>
+        <v>0.15019899790781405</v>
       </c>
       <c r="DE3">
-        <v>0.11505889623876596</v>
+        <v>0.11066023061811443</v>
       </c>
       <c r="DF3">
-        <v>0.079481459388853121</v>
+        <v>0.060397013264990973</v>
       </c>
       <c r="DG3">
-        <v>0.038406977977560645</v>
+        <v>0.049735853109704561</v>
       </c>
       <c r="DH3">
-        <v>0.011927697586312052</v>
+        <v>0.020219108096295742</v>
       </c>
       <c r="DI3">
-        <v>0.044975058761217809</v>
+        <v>0.0878099025648343</v>
       </c>
       <c r="DJ3">
-        <v>0.082063385635290378</v>
+        <v>0.057565762064100912</v>
       </c>
       <c r="DK3">
-        <v>0.02129616159889507</v>
+        <v>0.034793524602749558</v>
       </c>
       <c r="DL3">
-        <v>0.025113611114150693</v>
+        <v>0.027569037086773863</v>
       </c>
       <c r="DM3">
-        <v>0.016178312416939043</v>
+        <v>-0.022633552462485475</v>
       </c>
       <c r="DN3">
-        <v>0.36627939099808132</v>
+        <v>0.37552918912321415</v>
       </c>
       <c r="DO3">
-        <v>0.33120809980335175</v>
+        <v>0.33343372407158905</v>
       </c>
       <c r="DP3">
-        <v>0.3348580245768929</v>
+        <v>0.33437662169818683</v>
       </c>
       <c r="DQ3">
-        <v>0.28176271581745949</v>
+        <v>0.31730903614828437</v>
       </c>
       <c r="DR3">
-        <v>0.25893664585436116</v>
+        <v>0.27027894821988963</v>
       </c>
       <c r="DS3">
-        <v>0.29797437497884177</v>
+        <v>0.29576006012445732</v>
       </c>
       <c r="DT3">
-        <v>0.27378827893790003</v>
+        <v>0.26602968727735649</v>
       </c>
       <c r="DU3">
-        <v>0.24223874369745629</v>
+        <v>0.23506226579302536</v>
       </c>
       <c r="DV3">
-        <v>0.23170616337916192</v>
+        <v>0.21931625482852801</v>
       </c>
       <c r="DW3">
-        <v>0.17108235580016581</v>
+        <v>0.19046063302160421</v>
       </c>
       <c r="DX3">
-        <v>0.24736222355452334</v>
+        <v>0.26628201999014794</v>
       </c>
       <c r="DY3">
-        <v>0.17069792971151956</v>
+        <v>0.21218153317719998</v>
       </c>
       <c r="DZ3">
-        <v>0.17116639052722835</v>
+        <v>0.18774568114675835</v>
       </c>
       <c r="EA3">
-        <v>0.15062445353197204</v>
+        <v>0.14685354968464651</v>
       </c>
       <c r="EB3">
-        <v>0.12953352200039026</v>
+        <v>0.13996611505485484</v>
       </c>
       <c r="EC3">
-        <v>0.18065025516565911</v>
+        <v>0.18533929516428482</v>
       </c>
       <c r="ED3">
-        <v>0.16930051704314941</v>
+        <v>0.16370718633835687</v>
       </c>
       <c r="EE3">
-        <v>0.10833678313493854</v>
+        <v>0.12630010964063401</v>
       </c>
       <c r="EF3">
-        <v>0.11081767940683845</v>
+        <v>0.11329703108005973</v>
       </c>
       <c r="EG3">
-        <v>0.10971105402134523</v>
+        <v>0.079778945794969747</v>
       </c>
       <c r="EH3">
-        <v>0.27432808272008019</v>
+        <v>0.28388849124784654</v>
       </c>
       <c r="EI3">
-        <v>0.26781389384742732</v>
+        <v>0.28423972491395805</v>
       </c>
       <c r="EJ3">
-        <v>0.27293987166242689</v>
+        <v>0.24645829139868311</v>
       </c>
       <c r="EK3">
-        <v>0.23834060721725597</v>
+        <v>0.24922650545318967</v>
       </c>
       <c r="EL3">
-        <v>0.25831358524168746</v>
+        <v>0.23960747074473804</v>
       </c>
       <c r="EM3">
-        <v>0.17627318149403454</v>
+        <v>0.19627249349118647</v>
       </c>
       <c r="EN3">
-        <v>0.19685199771873202</v>
+        <v>0.21718490521945635</v>
       </c>
       <c r="EO3">
-        <v>0.21662413897871011</v>
+        <v>0.18986629451757475</v>
       </c>
       <c r="EP3">
-        <v>0.16498831396666699</v>
+        <v>0.20964739934674056</v>
       </c>
       <c r="EQ3">
-        <v>0.16204545830268341</v>
+        <v>0.18082090691432126</v>
       </c>
       <c r="ER3">
-        <v>0.14283892446760998</v>
+        <v>0.16461254453380458</v>
       </c>
       <c r="ES3">
-        <v>0.15184239891197995</v>
+        <v>0.14418333892444912</v>
       </c>
       <c r="ET3">
-        <v>0.13825386893705219</v>
+        <v>0.1489833694508069</v>
       </c>
       <c r="EU3">
-        <v>0.11109543903883201</v>
+        <v>0.16116117170167257</v>
       </c>
       <c r="EV3">
-        <v>0.11420335746331904</v>
+        <v>0.11493620902582426</v>
       </c>
       <c r="EW3">
-        <v>0.12518797043828866</v>
+        <v>0.12593851242561555</v>
       </c>
       <c r="EX3">
-        <v>0.10865808949463659</v>
+        <v>0.10327376765450018</v>
       </c>
       <c r="EY3">
-        <v>0.11563085260671511</v>
+        <v>0.11337742303440181</v>
       </c>
       <c r="EZ3">
-        <v>0.063008436997002343</v>
+        <v>0.084996655101957669</v>
       </c>
       <c r="FA3">
-        <v>0.085615181177431915</v>
+        <v>0.10736680622413128</v>
       </c>
       <c r="FB3">
-        <v>0.093780294371434342</v>
+        <v>0.074327111600061266</v>
       </c>
       <c r="FC3">
-        <v>0.12324772036113704</v>
+        <v>0.079627611352955208</v>
       </c>
       <c r="FD3">
-        <v>0.080609992543364276</v>
+        <v>0.091522203401300475</v>
       </c>
       <c r="FE3">
-        <v>0.048139532106708419</v>
+        <v>0.067846930737373287</v>
       </c>
       <c r="FF3">
-        <v>0.091537012659128739</v>
+        <v>0.061712428544648118</v>
       </c>
       <c r="FG3">
-        <v>0.043697908724420802</v>
+        <v>0.0029140727003618434</v>
       </c>
       <c r="FH3">
-        <v>0.048473104286964372</v>
+        <v>0.035449464554911519</v>
       </c>
       <c r="FI3">
-        <v>-0.01185430616485024</v>
+        <v>0.064769071772438791</v>
       </c>
       <c r="FJ3">
-        <v>0.021419188709275911</v>
+        <v>0.06963142621417362</v>
       </c>
       <c r="FK3">
-        <v>0.0061617801526763693</v>
+        <v>0.017320980382629667</v>
       </c>
       <c r="FL3">
-        <v>0.048978016687016464</v>
+        <v>0.042461778909343516</v>
       </c>
       <c r="FM3">
-        <v>-0.045941133577363839</v>
+        <v>0.025427887365210452</v>
       </c>
       <c r="FN3">
-        <v>0.032323317482699801</v>
+        <v>-0.006889443076794061</v>
       </c>
       <c r="FO3">
-        <v>0.074304927495613682</v>
+        <v>0.028115377245903187</v>
       </c>
       <c r="FP3">
-        <v>0.015696991537833705</v>
+        <v>9.3075041474301016e-05</v>
       </c>
       <c r="FQ3">
-        <v>-0.031176001348387838</v>
+        <v>0.011071825255103605</v>
       </c>
       <c r="FR3">
-        <v>-0.0056811603967108866</v>
+        <v>0.012454154498420078</v>
       </c>
       <c r="FS3">
-        <v>0.0053477556087189494</v>
+        <v>0.023224107777662619</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4853957316276452</v>
+        <v>-5.4857173259748464</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -6598,526 +6598,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019588822529782241</v>
+        <v>0.019797234270688822</v>
       </c>
       <c r="C4">
-        <v>0.016997427183705439</v>
+        <v>0.016883389226448636</v>
       </c>
       <c r="D4">
-        <v>0.017552733723179333</v>
+        <v>0.017329481319254988</v>
       </c>
       <c r="E4">
-        <v>0.017771147858713771</v>
+        <v>0.017738183646021644</v>
       </c>
       <c r="F4">
-        <v>0.018131645395222534</v>
+        <v>0.018238659082603786</v>
       </c>
       <c r="G4">
-        <v>0.022750698093959042</v>
+        <v>0.022596099290999469</v>
       </c>
       <c r="H4">
-        <v>0.027834934537543723</v>
+        <v>0.027106045061627806</v>
       </c>
       <c r="I4">
-        <v>0.012687775393918294</v>
+        <v>0.012661395519232071</v>
       </c>
       <c r="J4">
-        <v>0.010792127292920834</v>
+        <v>0.010724379803279487</v>
       </c>
       <c r="K4">
-        <v>0.0090174807392242404</v>
+        <v>0.0090321108867556441</v>
       </c>
       <c r="L4">
-        <v>0.009653772236485109</v>
+        <v>0.009586106447633613</v>
       </c>
       <c r="M4">
-        <v>0.010152049290475397</v>
+        <v>0.010159992206672594</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.027217159856930049</v>
+        <v>0.02717026686127846</v>
       </c>
       <c r="P4">
-        <v>0.026894397969202372</v>
+        <v>0.026721586152067756</v>
       </c>
       <c r="Q4">
-        <v>0.037915807700168724</v>
+        <v>0.037942035336555512</v>
       </c>
       <c r="R4">
-        <v>0.038389636084432945</v>
+        <v>0.037259130728548737</v>
       </c>
       <c r="S4">
-        <v>0.037279476038028364</v>
+        <v>0.03758702476219495</v>
       </c>
       <c r="T4">
-        <v>0.037690151363807323</v>
+        <v>0.037431392615720024</v>
       </c>
       <c r="U4">
-        <v>0.036939280623946281</v>
+        <v>0.037052144145308163</v>
       </c>
       <c r="V4">
-        <v>0.03772195003826339</v>
+        <v>0.037149925409988863</v>
       </c>
       <c r="W4">
-        <v>0.03709267838316125</v>
+        <v>0.037239145131184197</v>
       </c>
       <c r="X4">
-        <v>0.036996395263471024</v>
+        <v>0.037746191491507708</v>
       </c>
       <c r="Y4">
-        <v>0.036543738362797056</v>
+        <v>0.037052144148087732</v>
       </c>
       <c r="Z4">
-        <v>0.036393723641172861</v>
+        <v>0.037319438903093617</v>
       </c>
       <c r="AA4">
-        <v>0.03630708203408254</v>
+        <v>0.03621418271367724</v>
       </c>
       <c r="AB4">
-        <v>0.036534817272089119</v>
+        <v>0.03665631986097919</v>
       </c>
       <c r="AC4">
-        <v>0.036455074032418495</v>
+        <v>0.036720678038165318</v>
       </c>
       <c r="AD4">
-        <v>0.035850608520858286</v>
+        <v>0.036748453002735319</v>
       </c>
       <c r="AE4">
-        <v>0.036817182671034954</v>
+        <v>0.036308893701068823</v>
       </c>
       <c r="AF4">
-        <v>0.036358926654803003</v>
+        <v>0.036197112081670674</v>
       </c>
       <c r="AG4">
-        <v>0.035755295063252493</v>
+        <v>0.036137722242791687</v>
       </c>
       <c r="AH4">
-        <v>0.035906893443748436</v>
+        <v>0.036387435738687988</v>
       </c>
       <c r="AI4">
-        <v>0.036642684074095752</v>
+        <v>0.036012299866822688</v>
       </c>
       <c r="AJ4">
-        <v>0.036128871415088519</v>
+        <v>0.035979270565322088</v>
       </c>
       <c r="AK4">
-        <v>0.036376301632963744</v>
+        <v>0.036020584346235597</v>
       </c>
       <c r="AL4">
-        <v>0.036428709607464402</v>
+        <v>0.036317573488422149</v>
       </c>
       <c r="AM4">
-        <v>0.036920350194368956</v>
+        <v>0.035848866706739445</v>
       </c>
       <c r="AN4">
-        <v>0.03568476607970749</v>
+        <v>0.035542051276259742</v>
       </c>
       <c r="AO4">
-        <v>0.035834620502569747</v>
+        <v>0.035316119907679813</v>
       </c>
       <c r="AP4">
-        <v>0.036525908405917455</v>
+        <v>0.036163107246098232</v>
       </c>
       <c r="AQ4">
-        <v>0.036029243657631375</v>
+        <v>0.035800659796552232</v>
       </c>
       <c r="AR4">
-        <v>0.035630466432050728</v>
+        <v>0.036674643997863771</v>
       </c>
       <c r="AS4">
-        <v>0.03635892666608749</v>
+        <v>0.035666078099457661</v>
       </c>
       <c r="AT4">
-        <v>0.03593117244259976</v>
+        <v>0.035480971843876545</v>
       </c>
       <c r="AU4">
-        <v>0.035553725558968886</v>
+        <v>0.035542051283280696</v>
       </c>
       <c r="AV4">
-        <v>0.035826641954655396</v>
+        <v>0.035848866715409371</v>
       </c>
       <c r="AW4">
-        <v>0.036255653832107208</v>
+        <v>0.036449190521657716</v>
       </c>
       <c r="AX4">
-        <v>0.036238602732340704</v>
+        <v>0.035856937665235157</v>
       </c>
       <c r="AY4">
-        <v>0.035500578998058877</v>
+        <v>0.035987511657829249</v>
       </c>
       <c r="AZ4">
-        <v>0.035584305719492164</v>
+        <v>0.035658252363418207</v>
       </c>
       <c r="BA4">
-        <v>0.036087168257440946</v>
+        <v>0.035634834854401692</v>
       </c>
       <c r="BB4">
-        <v>0.036128871431590041</v>
+        <v>0.035105541701222626</v>
       </c>
       <c r="BC4">
-        <v>0.035810715668893142</v>
+        <v>0.035405479055223191</v>
       </c>
       <c r="BD4">
-        <v>0.035771078751821811</v>
+        <v>0.03582471651118025</v>
       </c>
       <c r="BE4">
-        <v>0.036187721716055388</v>
+        <v>0.035642630761668688</v>
       </c>
       <c r="BF4">
-        <v>0.03640245238090372</v>
+        <v>0.035792661594205889</v>
       </c>
       <c r="BG4">
-        <v>0.035669202606466228</v>
+        <v>0.036137722266998171</v>
       </c>
       <c r="BH4">
-        <v>0.035923068938555895</v>
+        <v>0.035627048866158591</v>
       </c>
       <c r="BI4">
-        <v>0.035716012273587651</v>
+        <v>0.036146172681557988</v>
       </c>
       <c r="BJ4">
-        <v>0.036187721720790836</v>
+        <v>0.036282924464041577</v>
       </c>
       <c r="BK4">
-        <v>0.036078860612772858</v>
+        <v>0.03661982386240778</v>
       </c>
       <c r="BL4">
-        <v>0.036021012146950852</v>
+        <v>0.035881213447938175</v>
       </c>
       <c r="BM4">
-        <v>0.036070563901662467</v>
+        <v>0.036308893732021494</v>
       </c>
       <c r="BN4">
-        <v>0.035645931431042742</v>
+        <v>0.036343683278872885</v>
       </c>
       <c r="BO4">
-        <v>0.036272750642897041</v>
+        <v>0.036601651526226145</v>
       </c>
       <c r="BP4">
-        <v>0.036446273971366752</v>
+        <v>0.036112438275050417</v>
       </c>
       <c r="BQ4">
-        <v>0.035786902979687119</v>
+        <v>0.036795004623005972</v>
       </c>
       <c r="BR4">
-        <v>0.03628989332250275</v>
+        <v>0.036146172689930166</v>
       </c>
       <c r="BS4">
-        <v>0.036221597156227671</v>
+        <v>0.035729045220717764</v>
       </c>
       <c r="BT4">
-        <v>0.037669031938059337</v>
+        <v>0.036222735208709694</v>
       </c>
       <c r="BU4">
-        <v>0.036230094279643452</v>
+        <v>0.036502594604074935</v>
       </c>
       <c r="BV4">
-        <v>0.036087168277539265</v>
+        <v>0.035681759591804398</v>
       </c>
       <c r="BW4">
-        <v>0.036341598567396861</v>
+        <v>0.036171591493458652</v>
       </c>
       <c r="BX4">
-        <v>0.036873257631250329</v>
+        <v>0.036431486230508507</v>
       </c>
       <c r="BY4">
-        <v>0.035071537915694721</v>
+        <v>0.035365522065313772</v>
       </c>
       <c r="BZ4">
-        <v>0.035159130016701921</v>
+        <v>0.035393119746344757</v>
       </c>
       <c r="CA4">
-        <v>0.03539239243022916</v>
+        <v>0.034930106804425494</v>
       </c>
       <c r="CB4">
-        <v>0.035355976358838061</v>
+        <v>0.034904352294523336</v>
       </c>
       <c r="CC4">
-        <v>0.034782151770968023</v>
+        <v>0.034844646611899621</v>
       </c>
       <c r="CD4">
-        <v>0.036129508075963199</v>
+        <v>0.035007770099327373</v>
       </c>
       <c r="CE4">
-        <v>0.035669008530024304</v>
+        <v>0.03535178725777692</v>
       </c>
       <c r="CF4">
-        <v>0.035793369660143286</v>
+        <v>0.035516724006426866</v>
       </c>
       <c r="CG4">
-        <v>0.035372199512975232</v>
+        <v>0.035714333753488446</v>
       </c>
       <c r="CH4">
-        <v>0.03586127484179736</v>
+        <v>0.035553936139980792</v>
       </c>
       <c r="CI4">
-        <v>0.035933781155992855</v>
+        <v>0.035737086770281604</v>
       </c>
       <c r="CJ4">
-        <v>0.035846929267153424</v>
+        <v>0.035793921378875403</v>
       </c>
       <c r="CK4">
-        <v>0.035827776931080101</v>
+        <v>0.035532731101620786</v>
       </c>
       <c r="CL4">
-        <v>0.035491886905362653</v>
+        <v>0.035832081608242319</v>
       </c>
       <c r="CM4">
-        <v>0.035895063809821652</v>
+        <v>0.036255936142174851</v>
       </c>
       <c r="CN4">
-        <v>0.037120603114730352</v>
+        <v>0.036797787980268851</v>
       </c>
       <c r="CO4">
-        <v>0.037501235380381207</v>
+        <v>0.036641606110432982</v>
       </c>
       <c r="CP4">
-        <v>0.037048968306562478</v>
+        <v>0.036612758294673052</v>
       </c>
       <c r="CQ4">
-        <v>0.037791600246230711</v>
+        <v>0.037232054403814725</v>
       </c>
       <c r="CR4">
-        <v>0.03779169483221119</v>
+        <v>0.037351223376827475</v>
       </c>
       <c r="CS4">
-        <v>0.026238104267819022</v>
+        <v>0.02637628298372437</v>
       </c>
       <c r="CT4">
-        <v>0.022066879311257375</v>
+        <v>0.022066511128586784</v>
       </c>
       <c r="CU4">
-        <v>0.02218020849002942</v>
+        <v>0.022214416029313226</v>
       </c>
       <c r="CV4">
-        <v>0.021447965070577189</v>
+        <v>0.021323824121208361</v>
       </c>
       <c r="CW4">
-        <v>0.021542027264109878</v>
+        <v>0.021484292233033542</v>
       </c>
       <c r="CX4">
-        <v>0.021607365624650265</v>
+        <v>0.021641998807982569</v>
       </c>
       <c r="CY4">
-        <v>0.021175920161884746</v>
+        <v>0.021157528538782187</v>
       </c>
       <c r="CZ4">
-        <v>0.021368583927886937</v>
+        <v>0.021369897491250272</v>
       </c>
       <c r="DA4">
-        <v>0.021536668774468026</v>
+        <v>0.021576451132705569</v>
       </c>
       <c r="DB4">
-        <v>0.021633614384329748</v>
+        <v>0.021770571192151623</v>
       </c>
       <c r="DC4">
-        <v>0.021666968806366746</v>
+        <v>0.021766185943187393</v>
       </c>
       <c r="DD4">
-        <v>0.022172338502539569</v>
+        <v>0.022134502309035707</v>
       </c>
       <c r="DE4">
-        <v>0.022303375605493676</v>
+        <v>0.022309177714975578</v>
       </c>
       <c r="DF4">
-        <v>0.022467540699805194</v>
+        <v>0.022532076158564576</v>
       </c>
       <c r="DG4">
-        <v>0.022658913602463537</v>
+        <v>0.022601476830679364</v>
       </c>
       <c r="DH4">
-        <v>0.022729282219135723</v>
+        <v>0.022676495219325649</v>
       </c>
       <c r="DI4">
-        <v>0.023262013166741882</v>
+        <v>0.023105055211295255</v>
       </c>
       <c r="DJ4">
-        <v>0.023127478818206121</v>
+        <v>0.023261167393078003</v>
       </c>
       <c r="DK4">
-        <v>0.02356886960117319</v>
+        <v>0.023508903069981529</v>
       </c>
       <c r="DL4">
-        <v>0.023578520358634884</v>
+        <v>0.023567651453642778</v>
       </c>
       <c r="DM4">
-        <v>0.023413764124110639</v>
+        <v>0.023584663028459806</v>
       </c>
       <c r="DN4">
-        <v>0.019848868131288857</v>
+        <v>0.019850127067633321</v>
       </c>
       <c r="DO4">
-        <v>0.019928459849643559</v>
+        <v>0.019943476333544652</v>
       </c>
       <c r="DP4">
-        <v>0.019397931382995341</v>
+        <v>0.019412478163400502</v>
       </c>
       <c r="DQ4">
-        <v>0.019528074469231972</v>
+        <v>0.0194647862923264</v>
       </c>
       <c r="DR4">
-        <v>0.019595536407769638</v>
+        <v>0.0195852725687303</v>
       </c>
       <c r="DS4">
-        <v>0.019188758027105877</v>
+        <v>0.019220197528626762</v>
       </c>
       <c r="DT4">
-        <v>0.019266581131231961</v>
+        <v>0.019311785667136139</v>
       </c>
       <c r="DU4">
-        <v>0.019365225029495808</v>
+        <v>0.019409300560776273</v>
       </c>
       <c r="DV4">
-        <v>0.019411401707303998</v>
+        <v>0.019469316883532959</v>
       </c>
       <c r="DW4">
-        <v>0.019594355109007325</v>
+        <v>0.019565866975238048</v>
       </c>
       <c r="DX4">
-        <v>0.019668236303471077</v>
+        <v>0.019624025608838816</v>
       </c>
       <c r="DY4">
-        <v>0.019909657641194588</v>
+        <v>0.019795641545354469</v>
       </c>
       <c r="DZ4">
-        <v>0.0199269759459621</v>
+        <v>0.019886352485696656</v>
       </c>
       <c r="EA4">
-        <v>0.02000883867785639</v>
+        <v>0.020029743569995817</v>
       </c>
       <c r="EB4">
-        <v>0.020094056023815466</v>
+        <v>0.02007036542388739</v>
       </c>
       <c r="EC4">
-        <v>0.020170352487688392</v>
+        <v>0.020185693798814224</v>
       </c>
       <c r="ED4">
-        <v>0.020226032818409928</v>
+        <v>0.020274784261895527</v>
       </c>
       <c r="EE4">
-        <v>0.020449777318798722</v>
+        <v>0.020418877250858579</v>
       </c>
       <c r="EF4">
-        <v>0.020460324949526675</v>
+        <v>0.020482649852178365</v>
       </c>
       <c r="EG4">
-        <v>0.020483463455020601</v>
+        <v>0.020619775569381125</v>
       </c>
       <c r="EH4">
-        <v>0.019776276259696458</v>
+        <v>0.019771179126802183</v>
       </c>
       <c r="EI4">
-        <v>0.019822528626612931</v>
+        <v>0.019790944537651293</v>
       </c>
       <c r="EJ4">
-        <v>0.019823727886546894</v>
+        <v>0.019959755177435173</v>
       </c>
       <c r="EK4">
-        <v>0.019981642941404153</v>
+        <v>0.019969880039971542</v>
       </c>
       <c r="EL4">
-        <v>0.019923126182587413</v>
+        <v>0.020029661972589336</v>
       </c>
       <c r="EM4">
-        <v>0.020281536113424644</v>
+        <v>0.020229043662736337</v>
       </c>
       <c r="EN4">
-        <v>0.020215657982590139</v>
+        <v>0.020163172073557865</v>
       </c>
       <c r="EO4">
-        <v>0.020154360034556784</v>
+        <v>0.020299020931597397</v>
       </c>
       <c r="EP4">
-        <v>0.020395035184188171</v>
+        <v>0.020236875553246193</v>
       </c>
       <c r="EQ4">
-        <v>0.02042913566443056</v>
+        <v>0.020380956370668203</v>
       </c>
       <c r="ER4">
-        <v>0.020535185079506198</v>
+        <v>0.020472846440290449</v>
       </c>
       <c r="ES4">
-        <v>0.020516518166937225</v>
+        <v>0.020584720179279956</v>
       </c>
       <c r="ET4">
-        <v>0.020598711345170471</v>
+        <v>0.020584720261477941</v>
       </c>
       <c r="EU4">
-        <v>0.020743971008552072</v>
+        <v>0.020552007106595913</v>
       </c>
       <c r="EV4">
-        <v>0.020751054648415368</v>
+        <v>0.020783265762061617</v>
       </c>
       <c r="EW4">
-        <v>0.020721958843818115</v>
+        <v>0.020754070037209024</v>
       </c>
       <c r="EX4">
-        <v>0.020820235305648482</v>
+        <v>0.020881162113977461</v>
       </c>
       <c r="EY4">
-        <v>0.020809333161843697</v>
+        <v>0.020855429694745225</v>
       </c>
       <c r="EZ4">
-        <v>0.021082096958966321</v>
+        <v>0.021011747302000873</v>
       </c>
       <c r="FA4">
-        <v>0.020994226425331247</v>
+        <v>0.020926803738925422</v>
       </c>
       <c r="FB4">
-        <v>0.020976793974565706</v>
+        <v>0.021107459521373176</v>
       </c>
       <c r="FC4">
-        <v>0.020858752243156257</v>
+        <v>0.021103445931620009</v>
       </c>
       <c r="FD4">
-        <v>0.021085108759993962</v>
+        <v>0.021067584227433593</v>
       </c>
       <c r="FE4">
-        <v>0.021267733040025581</v>
+        <v>0.021205573535082334</v>
       </c>
       <c r="FF4">
-        <v>0.021075083315745306</v>
+        <v>0.021258071362937305</v>
       </c>
       <c r="FG4">
-        <v>0.021334983382352634</v>
+        <v>0.021580716185287504</v>
       </c>
       <c r="FH4">
-        <v>0.021332789285563064</v>
+        <v>0.02143400696343482</v>
       </c>
       <c r="FI4">
-        <v>0.021668222302965348</v>
+        <v>0.021307245681731861</v>
       </c>
       <c r="FJ4">
-        <v>0.021514945585996946</v>
+        <v>0.021305089974505972</v>
       </c>
       <c r="FK4">
-        <v>0.021617061057084917</v>
+        <v>0.021596152496595813</v>
       </c>
       <c r="FL4">
-        <v>0.021416232583463868</v>
+        <v>0.021487452521195789</v>
       </c>
       <c r="FM4">
-        <v>0.021944372675282018</v>
+        <v>0.021598534505278332</v>
       </c>
       <c r="FN4">
-        <v>0.021545451028314851</v>
+        <v>0.021792901295060726</v>
       </c>
       <c r="FO4">
-        <v>0.021351493681069873</v>
+        <v>0.02162846908026396</v>
       </c>
       <c r="FP4">
-        <v>0.021679299258367001</v>
+        <v>0.021800532139387947</v>
       </c>
       <c r="FQ4">
-        <v>0.021956482678781159</v>
+        <v>0.021763824451822827</v>
       </c>
       <c r="FR4">
-        <v>0.02183872889980976</v>
+        <v>0.021778960826724786</v>
       </c>
       <c r="FS4">
-        <v>0.021801297957224148</v>
+        <v>0.021743758371525639</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01545243675251802</v>
+        <v>0.01548018400557287</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -8230,526 +8230,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>0.010387514447273294</v>
+        <v>-0.012904177921916877</v>
       </c>
       <c r="C3">
-        <v>-0.62559818723639649</v>
+        <v>-0.63333988756436821</v>
       </c>
       <c r="D3">
-        <v>-0.64816924969874767</v>
+        <v>-0.65221373159382667</v>
       </c>
       <c r="E3">
-        <v>-0.6751152158013547</v>
+        <v>-0.67289210510564179</v>
       </c>
       <c r="F3">
-        <v>-0.66320432241101013</v>
+        <v>-0.67571377897576301</v>
       </c>
       <c r="G3">
-        <v>-0.68160480117366462</v>
+        <v>-0.66890687117789471</v>
       </c>
       <c r="H3">
-        <v>-0.69468864225209981</v>
+        <v>-0.67549784219650899</v>
       </c>
       <c r="I3">
-        <v>-0.0041976560575084773</v>
+        <v>-0.005769690915765683</v>
       </c>
       <c r="J3">
-        <v>-0.0041750701664155128</v>
+        <v>0.0080423227627771758</v>
       </c>
       <c r="K3">
-        <v>-0.0010130078277553441</v>
+        <v>-0.0056160299827053006</v>
       </c>
       <c r="L3">
-        <v>-0.00042959179187472888</v>
+        <v>0.0023636770117829698</v>
       </c>
       <c r="M3">
-        <v>0.0059848896817826149</v>
+        <v>0.00081513361257799842</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2455345977680568</v>
+        <v>1.2564980351771569</v>
       </c>
       <c r="P3">
-        <v>1.3473810097220813</v>
+        <v>1.3699860385925986</v>
       </c>
       <c r="Q3">
-        <v>-0.20821421811868668</v>
+        <v>-0.20198273005333883</v>
       </c>
       <c r="R3">
-        <v>-0.2640826447067296</v>
+        <v>-0.16198511353195219</v>
       </c>
       <c r="S3">
-        <v>-0.16452268207002266</v>
+        <v>-0.15057699237616257</v>
       </c>
       <c r="T3">
-        <v>-0.17742081281081279</v>
+        <v>-0.11909517917084898</v>
       </c>
       <c r="U3">
-        <v>-0.093796835060174263</v>
+        <v>-0.11207241137691105</v>
       </c>
       <c r="V3">
-        <v>-0.11475935292807582</v>
+        <v>-0.11566927979391184</v>
       </c>
       <c r="W3">
-        <v>-0.13594934739231723</v>
+        <v>-0.088648941480303695</v>
       </c>
       <c r="X3">
-        <v>-0.093102523005303445</v>
+        <v>-0.10090124553114653</v>
       </c>
       <c r="Y3">
-        <v>-0.085487338068006305</v>
+        <v>-0.07978060598673023</v>
       </c>
       <c r="Z3">
-        <v>-0.036404228509531095</v>
+        <v>-0.057016982900606132</v>
       </c>
       <c r="AA3">
-        <v>-0.063991548829681694</v>
+        <v>-0.04331806993625191</v>
       </c>
       <c r="AB3">
-        <v>-0.085148875630881152</v>
+        <v>-0.052665153977976664</v>
       </c>
       <c r="AC3">
-        <v>-0.055141188536584042</v>
+        <v>-0.048046689625272275</v>
       </c>
       <c r="AD3">
-        <v>-0.017009490169881611</v>
+        <v>-0.0076593872875834338</v>
       </c>
       <c r="AE3">
-        <v>-0.057230548836292403</v>
+        <v>-0.035167714546543327</v>
       </c>
       <c r="AF3">
-        <v>-0.05489012335055022</v>
+        <v>-0.021240167229616882</v>
       </c>
       <c r="AG3">
-        <v>-0.020027741736476114</v>
+        <v>0.019970802504451494</v>
       </c>
       <c r="AH3">
-        <v>0.026368149428264726</v>
+        <v>-0.017329216594961248</v>
       </c>
       <c r="AI3">
-        <v>-0.0044097400565759719</v>
+        <v>0.023902289746680187</v>
       </c>
       <c r="AJ3">
-        <v>-0.015847354435239089</v>
+        <v>0.029136687824626174</v>
       </c>
       <c r="AK3">
-        <v>-0.0042694134968055209</v>
+        <v>0.0046267241687448285</v>
       </c>
       <c r="AL3">
-        <v>-0.030535903471748095</v>
+        <v>0.0058086873772377453</v>
       </c>
       <c r="AM3">
-        <v>0.031192680359858647</v>
+        <v>0.023554826014264202</v>
       </c>
       <c r="AN3">
-        <v>0.02297342070237875</v>
+        <v>0.022306330457698743</v>
       </c>
       <c r="AO3">
-        <v>0.030990258887828658</v>
+        <v>0.048742282574456751</v>
       </c>
       <c r="AP3">
-        <v>-0.0042504626009115982</v>
+        <v>0.044874699724947086</v>
       </c>
       <c r="AQ3">
-        <v>0.0045259473622485807</v>
+        <v>0.0094358292184443075</v>
       </c>
       <c r="AR3">
-        <v>0.0478119153583779</v>
+        <v>0.013156230756030214</v>
       </c>
       <c r="AS3">
-        <v>0.01457176869266643</v>
+        <v>0.10285785317986895</v>
       </c>
       <c r="AT3">
-        <v>0.064561772942122009</v>
+        <v>0.087643850520044517</v>
       </c>
       <c r="AU3">
-        <v>0.039830089671538595</v>
+        <v>0.058464324568513706</v>
       </c>
       <c r="AV3">
-        <v>0.0741309944071111</v>
+        <v>0.041017341787426172</v>
       </c>
       <c r="AW3">
-        <v>0.064440645031424243</v>
+        <v>0.060777887144274567</v>
       </c>
       <c r="AX3">
-        <v>0.024854126778316318</v>
+        <v>0.034850731564554566</v>
       </c>
       <c r="AY3">
-        <v>0.10792280652961377</v>
+        <v>0.059400180382284659</v>
       </c>
       <c r="AZ3">
-        <v>0.033179001716873956</v>
+        <v>0.09099992204508979</v>
       </c>
       <c r="BA3">
-        <v>0.065002002884227819</v>
+        <v>0.087635383779073511</v>
       </c>
       <c r="BB3">
-        <v>0.077259858689947086</v>
+        <v>0.092042811049359519</v>
       </c>
       <c r="BC3">
-        <v>0.093314624161826912</v>
+        <v>0.11773337773062147</v>
       </c>
       <c r="BD3">
-        <v>0.064291066136820799</v>
+        <v>0.043894804812801537</v>
       </c>
       <c r="BE3">
-        <v>0.056403755451300643</v>
+        <v>0.068568930407595485</v>
       </c>
       <c r="BF3">
-        <v>0.072489524995871565</v>
+        <v>0.085231761500998607</v>
       </c>
       <c r="BG3">
-        <v>0.069579344102285764</v>
+        <v>0.074065049955728934</v>
       </c>
       <c r="BH3">
-        <v>0.081635229563447057</v>
+        <v>0.051692900090280221</v>
       </c>
       <c r="BI3">
-        <v>0.054346819429554875</v>
+        <v>0.080112541072845087</v>
       </c>
       <c r="BJ3">
-        <v>0.078574487305169416</v>
+        <v>0.058738213415951035</v>
       </c>
       <c r="BK3">
-        <v>0.045038551388783932</v>
+        <v>0.049254822266225587</v>
       </c>
       <c r="BL3">
-        <v>0.10311666954998329</v>
+        <v>0.10728369583231255</v>
       </c>
       <c r="BM3">
-        <v>0.081178786647015916</v>
+        <v>0.077464967223063855</v>
       </c>
       <c r="BN3">
-        <v>0.081336307497535287</v>
+        <v>0.054844293258998179</v>
       </c>
       <c r="BO3">
-        <v>0.054891023543262807</v>
+        <v>0.053562071295211983</v>
       </c>
       <c r="BP3">
-        <v>0.065039822217089607</v>
+        <v>0.072946454001843228</v>
       </c>
       <c r="BQ3">
-        <v>0.10891415198081701</v>
+        <v>0.071436643270640518</v>
       </c>
       <c r="BR3">
-        <v>0.083130616759720111</v>
+        <v>0.075919984540426047</v>
       </c>
       <c r="BS3">
-        <v>0.039066721014938126</v>
+        <v>0.082609363423077384</v>
       </c>
       <c r="BT3">
-        <v>0.049701691163043016</v>
+        <v>0.060108693582973612</v>
       </c>
       <c r="BU3">
-        <v>0.060290290454270076</v>
+        <v>0.073559865559509552</v>
       </c>
       <c r="BV3">
-        <v>0.11972648679924142</v>
+        <v>0.12369905114250414</v>
       </c>
       <c r="BW3">
-        <v>0.026830832958480638</v>
+        <v>0.080140758960647096</v>
       </c>
       <c r="BX3">
-        <v>0.04973051573796132</v>
+        <v>0.09349272960867544</v>
       </c>
       <c r="BY3">
-        <v>0.077984420419869027</v>
+        <v>0.079980070451505111</v>
       </c>
       <c r="BZ3">
-        <v>0.050037209037481857</v>
+        <v>0.061303900647508347</v>
       </c>
       <c r="CA3">
-        <v>0.033479202621700677</v>
+        <v>0.10286988351690757</v>
       </c>
       <c r="CB3">
-        <v>0.075498946988330359</v>
+        <v>0.11333239591040277</v>
       </c>
       <c r="CC3">
-        <v>0.07266557614049815</v>
+        <v>0.091470733989012731</v>
       </c>
       <c r="CD3">
-        <v>0.020097728343766382</v>
+        <v>0.085473386096404216</v>
       </c>
       <c r="CE3">
-        <v>0.071004173072878138</v>
+        <v>0.093862664101403925</v>
       </c>
       <c r="CF3">
-        <v>0.038393177395902443</v>
+        <v>0.057126031296177299</v>
       </c>
       <c r="CG3">
-        <v>0.058210254764534473</v>
+        <v>0.038911168900155647</v>
       </c>
       <c r="CH3">
-        <v>0.045544802144879368</v>
+        <v>0.048536955020455734</v>
       </c>
       <c r="CI3">
-        <v>0.045769055445769175</v>
+        <v>0.067433046921438283</v>
       </c>
       <c r="CJ3">
-        <v>0.055339874306428435</v>
+        <v>0.024368719185695439</v>
       </c>
       <c r="CK3">
-        <v>0.055929751201344455</v>
+        <v>0.070210341534705151</v>
       </c>
       <c r="CL3">
-        <v>0.080246144062567359</v>
+        <v>0.055441063301503071</v>
       </c>
       <c r="CM3">
-        <v>0.034183026688641122</v>
+        <v>0.076703161787875548</v>
       </c>
       <c r="CN3">
-        <v>0.032279058041826098</v>
+        <v>0.039194287582969493</v>
       </c>
       <c r="CO3">
-        <v>-0.0047137037391600306</v>
+        <v>0.053703936089764689</v>
       </c>
       <c r="CP3">
-        <v>0.062351907107395389</v>
+        <v>0.065070388459093464</v>
       </c>
       <c r="CQ3">
-        <v>0.039557696744842004</v>
+        <v>0.070690684877988019</v>
       </c>
       <c r="CR3">
-        <v>0.031779906433076321</v>
+        <v>0.057403559446657634</v>
       </c>
       <c r="CS3">
-        <v>0.042299420004116635</v>
+        <v>0.056185363528020969</v>
       </c>
       <c r="CT3">
-        <v>0.069549187696929957</v>
+        <v>0.033225344257118553</v>
       </c>
       <c r="CU3">
-        <v>0.086945231677972454</v>
+        <v>0.033620311616720362</v>
       </c>
       <c r="CV3">
-        <v>0.054602288322560012</v>
+        <v>0.087635263158252222</v>
       </c>
       <c r="CW3">
-        <v>-0.0044451582192220956</v>
+        <v>0.07293746252259789</v>
       </c>
       <c r="CX3">
-        <v>0.060602826098058206</v>
+        <v>0.055677998238719245</v>
       </c>
       <c r="CY3">
-        <v>0.068044618866308942</v>
+        <v>0.074673650452363974</v>
       </c>
       <c r="CZ3">
-        <v>0.053434948500025108</v>
+        <v>0.045887559496328084</v>
       </c>
       <c r="DA3">
-        <v>0.03019434781208544</v>
+        <v>0.033999150276270561</v>
       </c>
       <c r="DB3">
-        <v>0.038487485973149604</v>
+        <v>-0.0061268269240009054</v>
       </c>
       <c r="DC3">
-        <v>0.037945232596962752</v>
+        <v>0.032329623835436271</v>
       </c>
       <c r="DD3">
-        <v>0.033989200495126402</v>
+        <v>0.057250928288647827</v>
       </c>
       <c r="DE3">
-        <v>0.047303081512986692</v>
+        <v>0.054427155029579934</v>
       </c>
       <c r="DF3">
-        <v>0.046989725848019484</v>
+        <v>0.02188468777565487</v>
       </c>
       <c r="DG3">
-        <v>-0.025224248146238182</v>
+        <v>0.031785039526399064</v>
       </c>
       <c r="DH3">
-        <v>0.028332465521626292</v>
+        <v>0.036039898141669018</v>
       </c>
       <c r="DI3">
-        <v>-0.020803287235086784</v>
+        <v>0.025635428719711653</v>
       </c>
       <c r="DJ3">
-        <v>0.043542173348166971</v>
+        <v>0.02441713352514642</v>
       </c>
       <c r="DK3">
-        <v>-0.0066355761157276321</v>
+        <v>0.05562022497548616</v>
       </c>
       <c r="DL3">
-        <v>0.067683287818935609</v>
+        <v>0.06613692127983524</v>
       </c>
       <c r="DM3">
-        <v>0.034798562586310762</v>
+        <v>-0.0024159752796176809</v>
       </c>
       <c r="DN3">
-        <v>0.067878951921486866</v>
+        <v>0.091719101592850044</v>
       </c>
       <c r="DO3">
-        <v>0.05683078776335692</v>
+        <v>0.050486604174879032</v>
       </c>
       <c r="DP3">
-        <v>0.084018114833827942</v>
+        <v>0.028272663716129177</v>
       </c>
       <c r="DQ3">
-        <v>0.052922213413208428</v>
+        <v>0.072938834967395338</v>
       </c>
       <c r="DR3">
-        <v>0.052768234683659515</v>
+        <v>0.047872033507610746</v>
       </c>
       <c r="DS3">
-        <v>0.053910690632416797</v>
+        <v>0.030774885921853425</v>
       </c>
       <c r="DT3">
-        <v>0.070133834674388287</v>
+        <v>0.060123158488865285</v>
       </c>
       <c r="DU3">
-        <v>0.04607817089630125</v>
+        <v>0.045574196304692956</v>
       </c>
       <c r="DV3">
-        <v>0.095954029502071894</v>
+        <v>0.081611910530925702</v>
       </c>
       <c r="DW3">
-        <v>0.026672065198680612</v>
+        <v>0.055934044818136436</v>
       </c>
       <c r="DX3">
-        <v>0.066703907505406501</v>
+        <v>0.090635338393615913</v>
       </c>
       <c r="DY3">
-        <v>-0.0051229531559649393</v>
+        <v>0.060646208046933908</v>
       </c>
       <c r="DZ3">
-        <v>0.033147163401283063</v>
+        <v>0.042445893354100386</v>
       </c>
       <c r="EA3">
-        <v>0.047183062547359655</v>
+        <v>0.02883283199915105</v>
       </c>
       <c r="EB3">
-        <v>0.041996158511348587</v>
+        <v>0.065205002725060732</v>
       </c>
       <c r="EC3">
-        <v>0.047857715259234442</v>
+        <v>0.063788170233242805</v>
       </c>
       <c r="ED3">
-        <v>0.048448648974749618</v>
+        <v>0.044575230038282461</v>
       </c>
       <c r="EE3">
-        <v>-0.0012496908973518238</v>
+        <v>0.023429681824717035</v>
       </c>
       <c r="EF3">
-        <v>0.033204442955604867</v>
+        <v>0.036971457480537533</v>
       </c>
       <c r="EG3">
-        <v>0.046830874352009375</v>
+        <v>0.040656524107139116</v>
       </c>
       <c r="EH3">
-        <v>0.002173395915228399</v>
+        <v>0.015237606423788181</v>
       </c>
       <c r="EI3">
-        <v>0.030329172889853716</v>
+        <v>0.044859704584347196</v>
       </c>
       <c r="EJ3">
-        <v>0.054741153823486204</v>
+        <v>0.012272343048930053</v>
       </c>
       <c r="EK3">
-        <v>0.021301131757150787</v>
+        <v>0.033667467755109579</v>
       </c>
       <c r="EL3">
-        <v>0.056835472946535903</v>
+        <v>0.028544522452389906</v>
       </c>
       <c r="EM3">
-        <v>-0.015996847309026938</v>
+        <v>-0.004176096477669135</v>
       </c>
       <c r="EN3">
-        <v>0.010384617509790972</v>
+        <v>0.05273017997326445</v>
       </c>
       <c r="EO3">
-        <v>0.048239032793455448</v>
+        <v>0.021072199996984002</v>
       </c>
       <c r="EP3">
-        <v>0.0098492578655842225</v>
+        <v>0.060989365113326102</v>
       </c>
       <c r="EQ3">
-        <v>0.027401906127531621</v>
+        <v>0.040170768656492467</v>
       </c>
       <c r="ER3">
-        <v>0.0097427796882534022</v>
+        <v>0.027346333019951357</v>
       </c>
       <c r="ES3">
-        <v>0.021268968561265741</v>
+        <v>0.017419026902538742</v>
       </c>
       <c r="ET3">
-        <v>0.015183121717781592</v>
+        <v>0.02104261316783575</v>
       </c>
       <c r="EU3">
-        <v>0.0008624417221463085</v>
+        <v>0.052578544127308349</v>
       </c>
       <c r="EV3">
-        <v>0.0016835349311912593</v>
+        <v>0.014646487401821661</v>
       </c>
       <c r="EW3">
-        <v>0.027994336639892762</v>
+        <v>0.031065027027555845</v>
       </c>
       <c r="EX3">
-        <v>0.013812221657615862</v>
+        <v>0.015942507160648357</v>
       </c>
       <c r="EY3">
-        <v>0.034394950074986087</v>
+        <v>0.035687536044420182</v>
       </c>
       <c r="EZ3">
-        <v>-0.0090915385556200028</v>
+        <v>0.0045188764897560654</v>
       </c>
       <c r="FA3">
-        <v>0.0132841581750165</v>
+        <v>0.034001904544309097</v>
       </c>
       <c r="FB3">
-        <v>0.024885950096764805</v>
+        <v>0.010760364350222408</v>
       </c>
       <c r="FC3">
-        <v>0.069028805042355562</v>
+        <v>0.017560609506394934</v>
       </c>
       <c r="FD3">
-        <v>0.024585339620786188</v>
+        <v>0.039422268285408811</v>
       </c>
       <c r="FE3">
-        <v>0.00081193937548925017</v>
+        <v>0.020231286686715783</v>
       </c>
       <c r="FF3">
-        <v>0.04405034553212811</v>
+        <v>0.018265452942142119</v>
       </c>
       <c r="FG3">
-        <v>0.0051981598047864284</v>
+        <v>-0.041622592620976985</v>
       </c>
       <c r="FH3">
-        <v>0.0063677684787875524</v>
+        <v>-0.0026697043016996095</v>
       </c>
       <c r="FI3">
-        <v>-0.050686979966289167</v>
+        <v>0.037100552500578067</v>
       </c>
       <c r="FJ3">
-        <v>-0.0030368296220058925</v>
+        <v>0.037998207001359155</v>
       </c>
       <c r="FK3">
-        <v>-0.019027389273464035</v>
+        <v>-0.012213865482387527</v>
       </c>
       <c r="FL3">
-        <v>0.031499462333223059</v>
+        <v>0.023080842862387908</v>
       </c>
       <c r="FM3">
-        <v>-0.061432362548778499</v>
+        <v>0.011851310508820127</v>
       </c>
       <c r="FN3">
-        <v>0.02088483848853483</v>
+        <v>-0.027971438328572733</v>
       </c>
       <c r="FO3">
-        <v>0.064812099601580964</v>
+        <v>0.011051976133711753</v>
       </c>
       <c r="FP3">
-        <v>0.011358668572189552</v>
+        <v>-0.010032363356660225</v>
       </c>
       <c r="FQ3">
-        <v>-0.046355266228436783</v>
+        <v>0.0048308575583630095</v>
       </c>
       <c r="FR3">
-        <v>-0.010947687705909011</v>
+        <v>0.010319438690994689</v>
       </c>
       <c r="FS3">
-        <v>0.0019884506963798979</v>
+        <v>0.0133653889295817</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5262916386107346</v>
+        <v>-5.525901394428006</v>
       </c>
       <c r="FW3">
         <v>0</v>
@@ -8772,526 +8772,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.023939441718636507</v>
+        <v>0.024267941963805297</v>
       </c>
       <c r="C4">
-        <v>0.013232343348981412</v>
+        <v>0.013212959906207343</v>
       </c>
       <c r="D4">
-        <v>0.014831507026556683</v>
+        <v>0.014868716600746549</v>
       </c>
       <c r="E4">
-        <v>0.014596628292472897</v>
+        <v>0.014623207411548081</v>
       </c>
       <c r="F4">
-        <v>0.014727477333385319</v>
+        <v>0.014664774787960499</v>
       </c>
       <c r="G4">
-        <v>0.017404626860206156</v>
+        <v>0.017295530274256076</v>
       </c>
       <c r="H4">
-        <v>0.020943291125361377</v>
+        <v>0.02071453892031697</v>
       </c>
       <c r="I4">
-        <v>0.016767682895614516</v>
+        <v>0.016707629580019485</v>
       </c>
       <c r="J4">
-        <v>0.013666800079711902</v>
+        <v>0.013754277091233181</v>
       </c>
       <c r="K4">
-        <v>0.011398417846284575</v>
+        <v>0.011339866380956645</v>
       </c>
       <c r="L4">
-        <v>0.011564036156810212</v>
+        <v>0.011479428886318652</v>
       </c>
       <c r="M4">
-        <v>0.011751059570619464</v>
+        <v>0.011730945364471937</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022587090768694848</v>
+        <v>0.022587347994518673</v>
       </c>
       <c r="P4">
-        <v>0.022416644014012822</v>
+        <v>0.022397449910756054</v>
       </c>
       <c r="Q4">
-        <v>0.028197362721608579</v>
+        <v>0.028216192951862836</v>
       </c>
       <c r="R4">
-        <v>0.02858376461032348</v>
+        <v>0.027968352716326635</v>
       </c>
       <c r="S4">
-        <v>0.02793682488953805</v>
+        <v>0.027907263265440751</v>
       </c>
       <c r="T4">
-        <v>0.028030906653023401</v>
+        <v>0.027721523524547865</v>
       </c>
       <c r="U4">
-        <v>0.02752069954311168</v>
+        <v>0.027689741874490002</v>
       </c>
       <c r="V4">
-        <v>0.027660233206584169</v>
+        <v>0.027723652662080347</v>
       </c>
       <c r="W4">
-        <v>0.027803445743660452</v>
+        <v>0.027569529405770045</v>
       </c>
       <c r="X4">
-        <v>0.027550993612429259</v>
+        <v>0.027656159057224031</v>
       </c>
       <c r="Y4">
-        <v>0.027516680689902321</v>
+        <v>0.027539113839337243</v>
       </c>
       <c r="Z4">
-        <v>0.027237459044520219</v>
+        <v>0.027414270814374763</v>
       </c>
       <c r="AA4">
-        <v>0.027411886735428683</v>
+        <v>0.027344966812802744</v>
       </c>
       <c r="AB4">
-        <v>0.027550993642947465</v>
+        <v>0.027412326113503464</v>
       </c>
       <c r="AC4">
-        <v>0.02738281287735583</v>
+        <v>0.027396809038731058</v>
       </c>
       <c r="AD4">
-        <v>0.027171655092080367</v>
+        <v>0.027172407029464649</v>
       </c>
       <c r="AE4">
-        <v>0.027419682741965285</v>
+        <v>0.027344966845923857</v>
       </c>
       <c r="AF4">
-        <v>0.027417732052427625</v>
+        <v>0.027275219227264683</v>
       </c>
       <c r="AG4">
-        <v>0.027224559002614522</v>
+        <v>0.027050079276142388</v>
       </c>
       <c r="AH4">
-        <v>0.026971762892793273</v>
+        <v>0.027277084981060858</v>
       </c>
       <c r="AI4">
-        <v>0.027159013842309704</v>
+        <v>0.027051819038921406</v>
       </c>
       <c r="AJ4">
-        <v>0.027237459130374311</v>
+        <v>0.027034464496542412</v>
       </c>
       <c r="AK4">
-        <v>0.02718253009637682</v>
+        <v>0.027186896562836901</v>
       </c>
       <c r="AL4">
-        <v>0.027348256292749309</v>
+        <v>0.027192346919311432</v>
       </c>
       <c r="AM4">
-        <v>0.027004214919505283</v>
+        <v>0.027102690784772229</v>
       </c>
       <c r="AN4">
-        <v>0.027063134172288578</v>
+        <v>0.0271222013806953</v>
       </c>
       <c r="AO4">
-        <v>0.027030073454294146</v>
+        <v>0.0269846696720762</v>
       </c>
       <c r="AP4">
-        <v>0.02724485366631902</v>
+        <v>0.027018926540965382</v>
       </c>
       <c r="AQ4">
-        <v>0.027206218688665604</v>
+        <v>0.02723444029577967</v>
       </c>
       <c r="AR4">
-        <v>0.026971762990762066</v>
+        <v>0.027225243049145795</v>
       </c>
       <c r="AS4">
-        <v>0.027173465180343751</v>
+        <v>0.026734423822155982</v>
       </c>
       <c r="AT4">
-        <v>0.026902862163269616</v>
+        <v>0.026830143396176565</v>
       </c>
       <c r="AU4">
-        <v>0.027054400558395517</v>
+        <v>0.027005179030054068</v>
       </c>
       <c r="AV4">
-        <v>0.02687473588842167</v>
+        <v>0.027116868575019531</v>
       </c>
       <c r="AW4">
-        <v>0.026941326127092977</v>
+        <v>0.027017204883219379</v>
       </c>
       <c r="AX4">
-        <v>0.027178901174086157</v>
+        <v>0.027177833155303897</v>
       </c>
       <c r="AY4">
-        <v>0.026726843830746274</v>
+        <v>0.027050079456438589</v>
       </c>
       <c r="AZ4">
-        <v>0.027157212150201827</v>
+        <v>0.026885746282337138</v>
       </c>
       <c r="BA4">
-        <v>0.026988801260135812</v>
+        <v>0.026917260704098642</v>
       </c>
       <c r="BB4">
-        <v>0.026932923896178202</v>
+        <v>0.026905612792000811</v>
       </c>
       <c r="BC4">
-        <v>0.026856672205535333</v>
+        <v>0.02677712486624103</v>
       </c>
       <c r="BD4">
-        <v>0.027031805069463684</v>
+        <v>0.027205100389576332</v>
       </c>
       <c r="BE4">
-        <v>0.027089480308330409</v>
+        <v>0.027076276427703917</v>
       </c>
       <c r="BF4">
-        <v>0.027011090014274982</v>
+        <v>0.026994907760804897</v>
       </c>
       <c r="BG4">
-        <v>0.027040476638186563</v>
+        <v>0.027071019745457781</v>
       </c>
       <c r="BH4">
-        <v>0.026985386293146705</v>
+        <v>0.027212410625347773</v>
       </c>
       <c r="BI4">
-        <v>0.027153611550989172</v>
+        <v>0.02706227787952217</v>
       </c>
       <c r="BJ4">
-        <v>0.027028343171109876</v>
+        <v>0.027197806712128066</v>
       </c>
       <c r="BK4">
-        <v>0.027233768443518911</v>
+        <v>0.027265906773019141</v>
       </c>
       <c r="BL4">
-        <v>0.026916187190265357</v>
+        <v>0.02694741475519629</v>
       </c>
       <c r="BM4">
-        <v>0.027052656901637429</v>
+        <v>0.027129326007288804</v>
       </c>
       <c r="BN4">
-        <v>0.027064884075823317</v>
+        <v>0.027273354895129717</v>
       </c>
       <c r="BO4">
-        <v>0.027230081705708231</v>
+        <v>0.027293924898063739</v>
       </c>
       <c r="BP4">
-        <v>0.027184346473264422</v>
+        <v>0.02719416605905051</v>
       </c>
       <c r="BQ4">
-        <v>0.02694806453001309</v>
+        <v>0.027216072007750759</v>
       </c>
       <c r="BR4">
-        <v>0.027107166202751148</v>
+        <v>0.027203275568190459</v>
       </c>
       <c r="BS4">
-        <v>0.027377028828517669</v>
+        <v>0.027177833386226247</v>
       </c>
       <c r="BT4">
-        <v>0.027327314684091754</v>
+        <v>0.027322184156786986</v>
       </c>
       <c r="BU4">
-        <v>0.027278337840514647</v>
+        <v>0.027256620566805598</v>
       </c>
       <c r="BV4">
-        <v>0.026951439141863577</v>
+        <v>0.026982966969827681</v>
       </c>
       <c r="BW4">
-        <v>0.027504653013657992</v>
+        <v>0.027245511755499174</v>
       </c>
       <c r="BX4">
-        <v>0.027380884073584973</v>
+        <v>0.027181455808073598</v>
       </c>
       <c r="BY4">
-        <v>0.027228239992981254</v>
+        <v>0.027273355020370798</v>
       </c>
       <c r="BZ4">
-        <v>0.027406052165302165</v>
+        <v>0.02739680953012966</v>
       </c>
       <c r="CA4">
-        <v>0.027518690054440031</v>
+        <v>0.027166990726278064</v>
       </c>
       <c r="CB4">
-        <v>0.027282079573714414</v>
+        <v>0.027120423208049974</v>
       </c>
       <c r="CC4">
-        <v>0.027312167232830593</v>
+        <v>0.027260332022881077</v>
       </c>
       <c r="CD4">
-        <v>0.027641437473180146</v>
+        <v>0.027308966439234958</v>
       </c>
       <c r="CE4">
-        <v>0.027348256765752445</v>
+        <v>0.027273355092289005</v>
       </c>
       <c r="CF4">
-        <v>0.02755708547317064</v>
+        <v>0.027504969166587543</v>
       </c>
       <c r="CG4">
-        <v>0.027451049871250091</v>
+        <v>0.027629111737194158</v>
       </c>
       <c r="CH4">
-        <v>0.027540866201257473</v>
+        <v>0.027583817255674124</v>
       </c>
       <c r="CI4">
-        <v>0.027553023442600202</v>
+        <v>0.027483057271483646</v>
       </c>
       <c r="CJ4">
-        <v>0.027508657801204851</v>
+        <v>0.027760048297364396</v>
       </c>
       <c r="CK4">
-        <v>0.027518690166561208</v>
+        <v>0.027492999651187452</v>
       </c>
       <c r="CL4">
-        <v>0.027386675404599915</v>
+        <v>0.027596111165936219</v>
       </c>
       <c r="CM4">
-        <v>0.027679132783186969</v>
+        <v>0.027481072355837716</v>
       </c>
       <c r="CN4">
-        <v>0.027704492481214829</v>
+        <v>0.027723653326890304</v>
       </c>
       <c r="CO4">
-        <v>0.027950441393814234</v>
+        <v>0.027647814694953286</v>
       </c>
       <c r="CP4">
-        <v>0.027546939485006458</v>
+        <v>0.027592008352207813</v>
       </c>
       <c r="CQ4">
-        <v>0.027700253036870268</v>
+        <v>0.02757156750028875</v>
       </c>
       <c r="CR4">
-        <v>0.027762235183390507</v>
+        <v>0.027666619462273296</v>
       </c>
       <c r="CS4">
-        <v>0.027358003504488242</v>
+        <v>0.02733659116460815</v>
       </c>
       <c r="CT4">
-        <v>0.027200804778460756</v>
+        <v>0.027496817682964126</v>
       </c>
       <c r="CU4">
-        <v>0.027107298364841149</v>
+        <v>0.027508227127418416</v>
       </c>
       <c r="CV4">
-        <v>0.02732300216687315</v>
+        <v>0.027181216532311044</v>
       </c>
       <c r="CW4">
-        <v>0.027718849838465509</v>
+        <v>0.027286932183869666</v>
       </c>
       <c r="CX4">
-        <v>0.027334573978001472</v>
+        <v>0.02740579868514367</v>
       </c>
       <c r="CY4">
-        <v>0.027301270736573541</v>
+        <v>0.027298525179115837</v>
       </c>
       <c r="CZ4">
-        <v>0.02740901900913259</v>
+        <v>0.027497706810483562</v>
       </c>
       <c r="DA4">
-        <v>0.027574427818608548</v>
+        <v>0.027589579864763476</v>
       </c>
       <c r="DB4">
-        <v>0.027534161816813962</v>
+        <v>0.027871682605688657</v>
       </c>
       <c r="DC4">
-        <v>0.02753400096597302</v>
+        <v>0.027641946522539925</v>
       </c>
       <c r="DD4">
-        <v>0.02757403619666373</v>
+        <v>0.027492849371344379</v>
       </c>
       <c r="DE4">
-        <v>0.027501398939430138</v>
+        <v>0.027525483231034299</v>
       </c>
       <c r="DF4">
-        <v>0.02751768820593925</v>
+        <v>0.027754734799059485</v>
       </c>
       <c r="DG4">
-        <v>0.028015358741918316</v>
+        <v>0.02770287285161685</v>
       </c>
       <c r="DH4">
-        <v>0.028090625556153447</v>
+        <v>0.028037145037498892</v>
       </c>
       <c r="DI4">
-        <v>0.028434475225679254</v>
+        <v>0.02811962523408424</v>
       </c>
       <c r="DJ4">
-        <v>0.02801839567677946</v>
+        <v>0.028141788669144709</v>
       </c>
       <c r="DK4">
-        <v>0.028987373683448815</v>
+        <v>0.028558330983978458</v>
       </c>
       <c r="DL4">
-        <v>0.028517708008134145</v>
+        <v>0.028505696244506412</v>
       </c>
       <c r="DM4">
-        <v>0.028805406861523934</v>
+        <v>0.029142728800902927</v>
       </c>
       <c r="DN4">
-        <v>0.02620026468676433</v>
+        <v>0.026111212019797121</v>
       </c>
       <c r="DO4">
-        <v>0.026267667544309075</v>
+        <v>0.02632023013592312</v>
       </c>
       <c r="DP4">
-        <v>0.025148932546171562</v>
+        <v>0.025442573519847002</v>
       </c>
       <c r="DQ4">
-        <v>0.02531848937855807</v>
+        <v>0.025238615736608398</v>
       </c>
       <c r="DR4">
-        <v>0.025165465234912747</v>
+        <v>0.025198576885427693</v>
       </c>
       <c r="DS4">
-        <v>0.024929515757163605</v>
+        <v>0.025066020659723746</v>
       </c>
       <c r="DT4">
-        <v>0.02486515754203969</v>
+        <v>0.024932245019785363</v>
       </c>
       <c r="DU4">
-        <v>0.025006670503550838</v>
+        <v>0.025025587524386519</v>
       </c>
       <c r="DV4">
-        <v>0.024771415973722923</v>
+        <v>0.024859019703461979</v>
       </c>
       <c r="DW4">
-        <v>0.024794378123402315</v>
+        <v>0.024679723852853937</v>
       </c>
       <c r="DX4">
-        <v>0.024986169210807464</v>
+        <v>0.024868880023284311</v>
       </c>
       <c r="DY4">
-        <v>0.025382579358016567</v>
+        <v>0.025040364919737674</v>
       </c>
       <c r="DZ4">
-        <v>0.025196153395974311</v>
+        <v>0.025153739223443463</v>
       </c>
       <c r="EA4">
-        <v>0.025140784298642187</v>
+        <v>0.02524428701890322</v>
       </c>
       <c r="EB4">
-        <v>0.025137147477763803</v>
+        <v>0.024983166849518543</v>
       </c>
       <c r="EC4">
-        <v>0.025338335493391196</v>
+        <v>0.025266080590953928</v>
       </c>
       <c r="ED4">
-        <v>0.025354255267407227</v>
+        <v>0.025385275169651764</v>
       </c>
       <c r="EE4">
-        <v>0.026131071983531148</v>
+        <v>0.025998188843082543</v>
       </c>
       <c r="EF4">
-        <v>0.025967188584594507</v>
+        <v>0.025946506871966694</v>
       </c>
       <c r="EG4">
-        <v>0.026026415999333738</v>
+        <v>0.026166423393338675</v>
       </c>
       <c r="EH4">
-        <v>0.023103094954522958</v>
+        <v>0.023058936637185959</v>
       </c>
       <c r="EI4">
-        <v>0.022992397521732991</v>
+        <v>0.022942796715052297</v>
       </c>
       <c r="EJ4">
-        <v>0.022382155398204307</v>
+        <v>0.022603293514570862</v>
       </c>
       <c r="EK4">
-        <v>0.02255664523841085</v>
+        <v>0.022522374905578357</v>
       </c>
       <c r="EL4">
-        <v>0.022410430073720986</v>
+        <v>0.022565482463913968</v>
       </c>
       <c r="EM4">
-        <v>0.022456546589222161</v>
+        <v>0.022425428293857942</v>
       </c>
       <c r="EN4">
-        <v>0.022346612689878503</v>
+        <v>0.022170905993998975</v>
       </c>
       <c r="EO4">
-        <v>0.022184641475688206</v>
+        <v>0.022342106335427318</v>
       </c>
       <c r="EP4">
-        <v>0.022389202259916013</v>
+        <v>0.02217090610895071</v>
       </c>
       <c r="EQ4">
-        <v>0.022323468720572684</v>
+        <v>0.022290003726421505</v>
       </c>
       <c r="ER4">
-        <v>0.022449703977548977</v>
+        <v>0.022376220930022426</v>
       </c>
       <c r="ES4">
-        <v>0.02241298310331806</v>
+        <v>0.022444594595531421</v>
       </c>
       <c r="ET4">
-        <v>0.022462781968848169</v>
+        <v>0.022446759008747541</v>
       </c>
       <c r="EU4">
-        <v>0.022553831852312203</v>
+        <v>0.022313642951181167</v>
       </c>
       <c r="EV4">
-        <v>0.022569677156484017</v>
+        <v>0.022519149258101102</v>
       </c>
       <c r="EW4">
-        <v>0.022472385325827578</v>
+        <v>0.022493312618782277</v>
       </c>
       <c r="EX4">
-        <v>0.022562669766252864</v>
+        <v>0.022588411518572781</v>
       </c>
       <c r="EY4">
-        <v>0.022481065321540362</v>
+        <v>0.022510760738347131</v>
       </c>
       <c r="EZ4">
-        <v>0.022719119526828157</v>
+        <v>0.022686848119653855</v>
       </c>
       <c r="FA4">
-        <v>0.022626047760510627</v>
+        <v>0.022559316863444302</v>
       </c>
       <c r="FB4">
-        <v>0.021821505129206404</v>
+        <v>0.021926945795050494</v>
       </c>
       <c r="FC4">
-        <v>0.021617156377457019</v>
+        <v>0.021912453548399602</v>
       </c>
       <c r="FD4">
-        <v>0.021866536165465685</v>
+        <v>0.021819941597748201</v>
       </c>
       <c r="FE4">
-        <v>0.022013373391692792</v>
+        <v>0.021941508986853656</v>
       </c>
       <c r="FF4">
-        <v>0.021807426678412276</v>
+        <v>0.021973307354501728</v>
       </c>
       <c r="FG4">
-        <v>0.022033503184744552</v>
+        <v>0.022319190507017559</v>
       </c>
       <c r="FH4">
-        <v>0.022048688307008873</v>
+        <v>0.022127147544677719</v>
       </c>
       <c r="FI4">
-        <v>0.022383225763228036</v>
+        <v>0.021936646993826962</v>
       </c>
       <c r="FJ4">
-        <v>0.022141413324476538</v>
+        <v>0.021953699526954442</v>
       </c>
       <c r="FK4">
-        <v>0.022250510368669856</v>
+        <v>0.022245785826815842</v>
       </c>
       <c r="FL4">
-        <v>0.021998363609660836</v>
+        <v>0.022075847590285663</v>
       </c>
       <c r="FM4">
-        <v>0.022533471178714938</v>
+        <v>0.022158343727375171</v>
       </c>
       <c r="FN4">
-        <v>0.02209727821203037</v>
+        <v>0.022399973497533317</v>
       </c>
       <c r="FO4">
-        <v>0.021885703878202864</v>
+        <v>0.022205735042147578</v>
       </c>
       <c r="FP4">
-        <v>0.022194155628789257</v>
+        <v>0.022344042973934164</v>
       </c>
       <c r="FQ4">
-        <v>0.022539390744070506</v>
+        <v>0.022283634543555503</v>
       </c>
       <c r="FR4">
-        <v>0.022360719534501434</v>
+        <v>0.02227548581169372</v>
       </c>
       <c r="FS4">
-        <v>0.022310651673241397</v>
+        <v>0.022280916057169114</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015799553515578189</v>
+        <v>0.015823270655197709</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -10392,526 +10392,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>2.1500373012999416</v>
+        <v>2.1841180438094812</v>
       </c>
       <c r="C3">
-        <v>-0.76214560728213021</v>
+        <v>-0.74832175871484408</v>
       </c>
       <c r="D3">
-        <v>-0.77670460301708988</v>
+        <v>-0.78942015579198432</v>
       </c>
       <c r="E3">
-        <v>-0.80517321994764934</v>
+        <v>-0.78678493393445692</v>
       </c>
       <c r="F3">
-        <v>-0.81740799406932452</v>
+        <v>-0.80425343758559809</v>
       </c>
       <c r="G3">
-        <v>-0.82735893897115642</v>
+        <v>-0.82412413100569148</v>
       </c>
       <c r="H3">
-        <v>-0.82812833332244529</v>
+        <v>-0.80772434854460351</v>
       </c>
       <c r="I3">
-        <v>0.0080244938485252229</v>
+        <v>0.0059332718244024755</v>
       </c>
       <c r="J3">
-        <v>0.0059099687328395588</v>
+        <v>0.0078088071643452068</v>
       </c>
       <c r="K3">
-        <v>-0.0015659378104239661</v>
+        <v>0.0028278536815628604</v>
       </c>
       <c r="L3">
-        <v>0.00677409981498381</v>
+        <v>0.0012348105017312356</v>
       </c>
       <c r="M3">
-        <v>-0.012477223602135729</v>
+        <v>-0.011759367802298601</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2775600565323824</v>
+        <v>1.2505455172663076</v>
       </c>
       <c r="P3">
-        <v>1.3701852241934138</v>
+        <v>1.3644847860774676</v>
       </c>
       <c r="Q3">
-        <v>-0.17467087034261586</v>
+        <v>-0.20224596406622977</v>
       </c>
       <c r="R3">
-        <v>-0.1950600948820258</v>
+        <v>-0.18667958869574225</v>
       </c>
       <c r="S3">
-        <v>-0.13814323369752585</v>
+        <v>-0.13206131861062476</v>
       </c>
       <c r="T3">
-        <v>-0.18274128191092759</v>
+        <v>-0.13313214404839163</v>
       </c>
       <c r="U3">
-        <v>-0.086257739433977895</v>
+        <v>-0.11755386184593733</v>
       </c>
       <c r="V3">
-        <v>-0.09976288758748697</v>
+        <v>-0.12165681356954626</v>
       </c>
       <c r="W3">
-        <v>-0.1170337619907548</v>
+        <v>-0.065100747135412335</v>
       </c>
       <c r="X3">
-        <v>-0.065488946631061418</v>
+        <v>-0.098703779808461733</v>
       </c>
       <c r="Y3">
-        <v>-0.098524003326326007</v>
+        <v>-0.087940966458222095</v>
       </c>
       <c r="Z3">
-        <v>-0.029531434721300421</v>
+        <v>-0.082465279433546729</v>
       </c>
       <c r="AA3">
-        <v>-0.029886425436222719</v>
+        <v>-0.033946166559355902</v>
       </c>
       <c r="AB3">
-        <v>-0.048839710219890982</v>
+        <v>-0.021820792197209372</v>
       </c>
       <c r="AC3">
-        <v>-0.032819901943883706</v>
+        <v>-0.070348221578375877</v>
       </c>
       <c r="AD3">
-        <v>0.036657040847409783</v>
+        <v>-0.033531749160969321</v>
       </c>
       <c r="AE3">
-        <v>-0.021502339364259222</v>
+        <v>-0.023131687199715815</v>
       </c>
       <c r="AF3">
-        <v>-0.017524626503902657</v>
+        <v>-0.017028049221704037</v>
       </c>
       <c r="AG3">
-        <v>0.0024594606765451837</v>
+        <v>0.04298358036807922</v>
       </c>
       <c r="AH3">
-        <v>0.046129453982392404</v>
+        <v>-0.00755204224840322</v>
       </c>
       <c r="AI3">
-        <v>0.027909744640063454</v>
+        <v>0.016962696108908694</v>
       </c>
       <c r="AJ3">
-        <v>0.0018117482092472042</v>
+        <v>0.018536518991852411</v>
       </c>
       <c r="AK3">
-        <v>0.017427284947774645</v>
+        <v>0.0020274291430598958</v>
       </c>
       <c r="AL3">
-        <v>-0.0051424539415320051</v>
+        <v>-0.0038337987377958585</v>
       </c>
       <c r="AM3">
-        <v>0.04641510816498421</v>
+        <v>0.041308508715431749</v>
       </c>
       <c r="AN3">
-        <v>0.049386937613635044</v>
+        <v>0.011265208758057768</v>
       </c>
       <c r="AO3">
-        <v>0.016276415099062722</v>
+        <v>0.070270641147965857</v>
       </c>
       <c r="AP3">
-        <v>0.023452128619739391</v>
+        <v>0.03081197645880869</v>
       </c>
       <c r="AQ3">
-        <v>0.061256406799504698</v>
+        <v>0.018539052062490922</v>
       </c>
       <c r="AR3">
-        <v>0.089339247164441304</v>
+        <v>0.02185645295536031</v>
       </c>
       <c r="AS3">
-        <v>0.035672167377558621</v>
+        <v>0.10706837471169377</v>
       </c>
       <c r="AT3">
-        <v>0.059364099217898321</v>
+        <v>0.096246718074455603</v>
       </c>
       <c r="AU3">
-        <v>0.080294897060635168</v>
+        <v>0.08193426725829106</v>
       </c>
       <c r="AV3">
-        <v>0.061984348743417655</v>
+        <v>0.059899838570855429</v>
       </c>
       <c r="AW3">
-        <v>0.074854355494492986</v>
+        <v>0.062917457713333083</v>
       </c>
       <c r="AX3">
-        <v>0.070065037131458827</v>
+        <v>0.026667153456548697</v>
       </c>
       <c r="AY3">
-        <v>0.12806406484426197</v>
+        <v>0.053586691454468233</v>
       </c>
       <c r="AZ3">
-        <v>0.069390150238710729</v>
+        <v>0.061385505001275702</v>
       </c>
       <c r="BA3">
-        <v>0.06726535811941696</v>
+        <v>0.056210493103155859</v>
       </c>
       <c r="BB3">
-        <v>0.080878037416951834</v>
+        <v>0.077913902396387735</v>
       </c>
       <c r="BC3">
-        <v>0.0906816113309966</v>
+        <v>0.097298756637909697</v>
       </c>
       <c r="BD3">
-        <v>0.081184346572609326</v>
+        <v>0.038361113198865857</v>
       </c>
       <c r="BE3">
-        <v>0.052718668982610614</v>
+        <v>0.05046205940322903</v>
       </c>
       <c r="BF3">
-        <v>0.095344722021449071</v>
+        <v>0.059034755161982901</v>
       </c>
       <c r="BG3">
-        <v>0.099751619612777342</v>
+        <v>0.057573121495011988</v>
       </c>
       <c r="BH3">
-        <v>0.089602639871606715</v>
+        <v>0.081866209548592667</v>
       </c>
       <c r="BI3">
-        <v>0.08890428242993352</v>
+        <v>0.059534835689308022</v>
       </c>
       <c r="BJ3">
-        <v>0.075080176656619063</v>
+        <v>0.084217678699232745</v>
       </c>
       <c r="BK3">
-        <v>0.032684028952190344</v>
+        <v>0.045703758742122541</v>
       </c>
       <c r="BL3">
-        <v>0.09622965986586221</v>
+        <v>0.06382353705947208</v>
       </c>
       <c r="BM3">
-        <v>0.10542365383928247</v>
+        <v>0.078978104695348675</v>
       </c>
       <c r="BN3">
-        <v>0.098634266329762299</v>
+        <v>0.082736017565575595</v>
       </c>
       <c r="BO3">
-        <v>0.048008648566603619</v>
+        <v>0.088209559219130387</v>
       </c>
       <c r="BP3">
-        <v>0.058576392701161863</v>
+        <v>0.092660019087472262</v>
       </c>
       <c r="BQ3">
-        <v>0.08874715242589272</v>
+        <v>0.060381549410480066</v>
       </c>
       <c r="BR3">
-        <v>0.089039889274492134</v>
+        <v>0.067314428569299922</v>
       </c>
       <c r="BS3">
-        <v>0.069249509046680077</v>
+        <v>0.073188040964370135</v>
       </c>
       <c r="BT3">
-        <v>0.045288097818121605</v>
+        <v>0.063250216272163581</v>
       </c>
       <c r="BU3">
-        <v>0.073188022450688256</v>
+        <v>0.055295682463331199</v>
       </c>
       <c r="BV3">
-        <v>0.12448644722088061</v>
+        <v>0.12303349378372133</v>
       </c>
       <c r="BW3">
-        <v>0.031051012165184685</v>
+        <v>0.12884405111201211</v>
       </c>
       <c r="BX3">
-        <v>0.063793362254478847</v>
+        <v>0.087688710592571453</v>
       </c>
       <c r="BY3">
-        <v>0.079770558374471764</v>
+        <v>0.042666428725063751</v>
       </c>
       <c r="BZ3">
-        <v>0.042168589967530173</v>
+        <v>0.03877461017951582</v>
       </c>
       <c r="CA3">
-        <v>0.062111205610603001</v>
+        <v>0.069342291074920001</v>
       </c>
       <c r="CB3">
-        <v>0.086415296376354589</v>
+        <v>0.090458492804404836</v>
       </c>
       <c r="CC3">
-        <v>0.097658938068424767</v>
+        <v>0.073428621845680067</v>
       </c>
       <c r="CD3">
-        <v>0.032586591063069728</v>
+        <v>0.08752343739773305</v>
       </c>
       <c r="CE3">
-        <v>0.083112295683369725</v>
+        <v>0.089229372536802562</v>
       </c>
       <c r="CF3">
-        <v>0.042546834243940942</v>
+        <v>0.032808985052473538</v>
       </c>
       <c r="CG3">
-        <v>0.068206457526996986</v>
+        <v>0.022337440348799253</v>
       </c>
       <c r="CH3">
-        <v>0.057666248161939909</v>
+        <v>0.046735676133102318</v>
       </c>
       <c r="CI3">
-        <v>0.091034097195827529</v>
+        <v>0.041651029163011465</v>
       </c>
       <c r="CJ3">
-        <v>0.071636727443838977</v>
+        <v>0.031988836547947729</v>
       </c>
       <c r="CK3">
-        <v>0.058837426541460291</v>
+        <v>0.078579965665932436</v>
       </c>
       <c r="CL3">
-        <v>0.061554670862844309</v>
+        <v>0.043868656878763693</v>
       </c>
       <c r="CM3">
-        <v>0.04928044285539207</v>
+        <v>0.043590786708152765</v>
       </c>
       <c r="CN3">
-        <v>0.069202688583511598</v>
+        <v>0.056011353867228261</v>
       </c>
       <c r="CO3">
-        <v>0.0028777442212424421</v>
+        <v>0.047555707505306341</v>
       </c>
       <c r="CP3">
-        <v>0.069343276132752193</v>
+        <v>0.060355373058664695</v>
       </c>
       <c r="CQ3">
-        <v>0.020149886768767902</v>
+        <v>0.047024794164720225</v>
       </c>
       <c r="CR3">
-        <v>0.055576400341172019</v>
+        <v>0.013714737916627433</v>
       </c>
       <c r="CS3">
-        <v>0.050042766780551078</v>
+        <v>0.075023936489903853</v>
       </c>
       <c r="CT3">
-        <v>0.058884278033291063</v>
+        <v>0.024585574001384961</v>
       </c>
       <c r="CU3">
-        <v>0.063513179523290525</v>
+        <v>0.054964027539073597</v>
       </c>
       <c r="CV3">
-        <v>0.033737704076495519</v>
+        <v>0.078984731612454007</v>
       </c>
       <c r="CW3">
-        <v>-0.0032487036439294717</v>
+        <v>0.069631530572278957</v>
       </c>
       <c r="CX3">
-        <v>0.043101785401544565</v>
+        <v>0.059198184092060326</v>
       </c>
       <c r="CY3">
-        <v>0.065422693847719537</v>
+        <v>0.043692483142370259</v>
       </c>
       <c r="CZ3">
-        <v>0.031755283605835107</v>
+        <v>0.03973396930178217</v>
       </c>
       <c r="DA3">
-        <v>0.014932519618786923</v>
+        <v>-0.0018147160510849278</v>
       </c>
       <c r="DB3">
-        <v>0.024954244819414769</v>
+        <v>-0.023275552476868386</v>
       </c>
       <c r="DC3">
-        <v>0.063374825845177257</v>
+        <v>0.033312243530571758</v>
       </c>
       <c r="DD3">
-        <v>0.069636616497864123</v>
+        <v>0.042022832982823541</v>
       </c>
       <c r="DE3">
-        <v>0.057321728189973539</v>
+        <v>0.072678712075138568</v>
       </c>
       <c r="DF3">
-        <v>0.069158833208596837</v>
+        <v>0.0034846139731232097</v>
       </c>
       <c r="DG3">
-        <v>0.022558727130568983</v>
+        <v>0.0011507161338690361</v>
       </c>
       <c r="DH3">
-        <v>0.051062304804801222</v>
+        <v>0.05819332784758887</v>
       </c>
       <c r="DI3">
-        <v>0.0030667983889959252</v>
+        <v>0.032962084158715793</v>
       </c>
       <c r="DJ3">
-        <v>0.08472921848908227</v>
+        <v>0.037302682526931467</v>
       </c>
       <c r="DK3">
-        <v>0.0067864384979698204</v>
+        <v>0.048174018759634604</v>
       </c>
       <c r="DL3">
-        <v>0.033865477394404979</v>
+        <v>0.011064138640950643</v>
       </c>
       <c r="DM3">
-        <v>-0.061588946057420157</v>
+        <v>-0.11072726523123257</v>
       </c>
       <c r="DN3">
-        <v>0.044051686117398972</v>
+        <v>0.080211489214624621</v>
       </c>
       <c r="DO3">
-        <v>0.045480179409853737</v>
+        <v>0.027921972004654662</v>
       </c>
       <c r="DP3">
-        <v>0.067087454019908663</v>
+        <v>0.031115767012530295</v>
       </c>
       <c r="DQ3">
-        <v>0.039141012207820056</v>
+        <v>0.071710178367855232</v>
       </c>
       <c r="DR3">
-        <v>0.039589585120684057</v>
+        <v>0.047340620071569375</v>
       </c>
       <c r="DS3">
-        <v>0.067664785261059401</v>
+        <v>0.015532970917283881</v>
       </c>
       <c r="DT3">
-        <v>0.071187116348443699</v>
+        <v>0.041794346207714078</v>
       </c>
       <c r="DU3">
-        <v>0.052612415940095206</v>
+        <v>0.043922345100103774</v>
       </c>
       <c r="DV3">
-        <v>0.072989398466788938</v>
+        <v>0.067962552777404442</v>
       </c>
       <c r="DW3">
-        <v>0.032908475431817977</v>
+        <v>0.043525100461113117</v>
       </c>
       <c r="DX3">
-        <v>0.053883435558069445</v>
+        <v>0.10016034987329875</v>
       </c>
       <c r="DY3">
-        <v>-0.00056277992557389662</v>
+        <v>0.070174778423304829</v>
       </c>
       <c r="DZ3">
-        <v>0.021604821130599292</v>
+        <v>0.039745891072776061</v>
       </c>
       <c r="EA3">
-        <v>0.030282527246478584</v>
+        <v>0.024927543753958139</v>
       </c>
       <c r="EB3">
-        <v>0.02703407489605163</v>
+        <v>0.060164340056671803</v>
       </c>
       <c r="EC3">
-        <v>0.05707778576358203</v>
+        <v>0.065785121808081867</v>
       </c>
       <c r="ED3">
-        <v>0.069610937433246631</v>
+        <v>0.063218173763516058</v>
       </c>
       <c r="EE3">
-        <v>0.0027375855963437693</v>
+        <v>0.044820615756015515</v>
       </c>
       <c r="EF3">
-        <v>0.060885835134603127</v>
+        <v>0.041761239809245315</v>
       </c>
       <c r="EG3">
-        <v>0.11668855636907156</v>
+        <v>0.085174152210500773</v>
       </c>
       <c r="EH3">
-        <v>-0.0039435255255045485</v>
+        <v>0.0093858857573765175</v>
       </c>
       <c r="EI3">
-        <v>0.024212251450015002</v>
+        <v>0.039007983917974443</v>
       </c>
       <c r="EJ3">
-        <v>0.049696447320109603</v>
+        <v>0.012389563530221569</v>
       </c>
       <c r="EK3">
-        <v>0.016256425253358658</v>
+        <v>0.033784688236346547</v>
       </c>
       <c r="EL3">
-        <v>0.051790766443186149</v>
+        <v>0.028661742933639805</v>
       </c>
       <c r="EM3">
-        <v>-0.015720560564256816</v>
+        <v>-0.0083950954427817349</v>
       </c>
       <c r="EN3">
-        <v>0.010660904254584954</v>
+        <v>0.048511181007227608</v>
       </c>
       <c r="EO3">
-        <v>0.048515319538287999</v>
+        <v>0.01685320103147445</v>
       </c>
       <c r="EP3">
-        <v>0.010125544610378677</v>
+        <v>0.056770366147146249</v>
       </c>
       <c r="EQ3">
-        <v>0.027678192872343459</v>
+        <v>0.035951769690668718</v>
       </c>
       <c r="ER3">
-        <v>0.0061352209262705458</v>
+        <v>0.027911274049911124</v>
       </c>
       <c r="ES3">
-        <v>0.017661409799641082</v>
+        <v>0.01798396793252572</v>
       </c>
       <c r="ET3">
-        <v>0.011575562955967086</v>
+        <v>0.021607554197813423</v>
       </c>
       <c r="EU3">
-        <v>-0.0027451170401074114</v>
+        <v>0.053143485157193991</v>
       </c>
       <c r="EV3">
-        <v>-0.0019240238310375506</v>
+        <v>0.015211428431816918</v>
       </c>
       <c r="EW3">
-        <v>0.037210410667969915</v>
+        <v>0.037335075596968748</v>
       </c>
       <c r="EX3">
-        <v>0.023028295684515684</v>
+        <v>0.022212555728619153</v>
       </c>
       <c r="EY3">
-        <v>0.04361102410360531</v>
+        <v>0.041957584614283103</v>
       </c>
       <c r="EZ3">
-        <v>0.00012453546944717466</v>
+        <v>0.010788925056665477</v>
       </c>
       <c r="FA3">
-        <v>0.02250023220187292</v>
+        <v>0.040271953114007795</v>
       </c>
       <c r="FB3">
-        <v>0.024885950096764486</v>
+        <v>0.010760364350222351</v>
       </c>
       <c r="FC3">
-        <v>0.069028805042356173</v>
+        <v>0.017560609506395007</v>
       </c>
       <c r="FD3">
-        <v>0.024585339620787218</v>
+        <v>0.039422268285408277</v>
       </c>
       <c r="FE3">
-        <v>0.00081193937548965545</v>
+        <v>0.020231286686715637</v>
       </c>
       <c r="FF3">
-        <v>0.04405034553212811</v>
+        <v>0.018265452942142071</v>
       </c>
       <c r="FG3">
-        <v>0.0051981598047866626</v>
+        <v>-0.041622592620977422</v>
       </c>
       <c r="FH3">
-        <v>0.0063677684787875957</v>
+        <v>-0.002669704301699881</v>
       </c>
       <c r="FI3">
-        <v>-0.050686979966289208</v>
+        <v>0.037100552500578081</v>
       </c>
       <c r="FJ3">
-        <v>-0.003036829622005255</v>
+        <v>0.03799820700135955</v>
       </c>
       <c r="FK3">
-        <v>-0.019027389273463848</v>
+        <v>-0.012213865482387232</v>
       </c>
       <c r="FL3">
-        <v>0.031499462333223413</v>
+        <v>0.023080842862387742</v>
       </c>
       <c r="FM3">
-        <v>-0.061432362548778256</v>
+        <v>0.011851310508820181</v>
       </c>
       <c r="FN3">
-        <v>0.020884838488535225</v>
+        <v>-0.027971438328572872</v>
       </c>
       <c r="FO3">
-        <v>0.064812099601581172</v>
+        <v>0.011051976133712151</v>
       </c>
       <c r="FP3">
-        <v>0.011358668572189003</v>
+        <v>-0.010032363356660277</v>
       </c>
       <c r="FQ3">
-        <v>-0.046355266228436026</v>
+        <v>0.0048308575583630156</v>
       </c>
       <c r="FR3">
-        <v>-0.010947687705909025</v>
+        <v>0.010319438690994234</v>
       </c>
       <c r="FS3">
-        <v>0.0019884506963803567</v>
+        <v>0.013365388929581619</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5262916386107346</v>
+        <v>-5.525901394428006</v>
       </c>
     </row>
     <row r="4">
@@ -10928,526 +10928,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.020024818760022479</v>
+        <v>0.020313792013380759</v>
       </c>
       <c r="C4">
-        <v>0.013671120026824872</v>
+        <v>0.013628873656956619</v>
       </c>
       <c r="D4">
-        <v>0.015059193466437798</v>
+        <v>0.015079683282141132</v>
       </c>
       <c r="E4">
-        <v>0.015071246386103233</v>
+        <v>0.015050691955195971</v>
       </c>
       <c r="F4">
-        <v>0.015218655942293239</v>
+        <v>0.015104494303835592</v>
       </c>
       <c r="G4">
-        <v>0.017997237218061412</v>
+        <v>0.01792230358127863</v>
       </c>
       <c r="H4">
-        <v>0.02171544933522785</v>
+        <v>0.021502841186695307</v>
       </c>
       <c r="I4">
-        <v>0.016940950344559284</v>
+        <v>0.016884330845358904</v>
       </c>
       <c r="J4">
-        <v>0.013795487139144968</v>
+        <v>0.013867196046513482</v>
       </c>
       <c r="K4">
-        <v>0.01149939654066285</v>
+        <v>0.011429682343414927</v>
       </c>
       <c r="L4">
-        <v>0.011673365396798963</v>
+        <v>0.011577911417780725</v>
       </c>
       <c r="M4">
-        <v>0.011744804612249875</v>
+        <v>0.011735816708752329</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.023048658807679073</v>
+        <v>0.023067712627686733</v>
       </c>
       <c r="P4">
-        <v>0.022879405650665062</v>
+        <v>0.022855665198436643</v>
       </c>
       <c r="Q4">
-        <v>0.029083642905278404</v>
+        <v>0.029175883491236371</v>
       </c>
       <c r="R4">
-        <v>0.029239280726056371</v>
+        <v>0.029076708244132325</v>
       </c>
       <c r="S4">
-        <v>0.028851487294909009</v>
+        <v>0.028710989835672277</v>
       </c>
       <c r="T4">
-        <v>0.029173947195780623</v>
+        <v>0.028729404791570795</v>
       </c>
       <c r="U4">
-        <v>0.028523664067224879</v>
+        <v>0.028635630610741807</v>
       </c>
       <c r="V4">
-        <v>0.028624707794130899</v>
+        <v>0.028674423569589273</v>
       </c>
       <c r="W4">
-        <v>0.028752274258019187</v>
+        <v>0.028312881562027343</v>
       </c>
       <c r="X4">
-        <v>0.028420428505255727</v>
+        <v>0.028544117365984965</v>
       </c>
       <c r="Y4">
-        <v>0.028650397185190385</v>
+        <v>0.028484323865507411</v>
       </c>
       <c r="Z4">
-        <v>0.028210813201365138</v>
+        <v>0.02845969010501476</v>
       </c>
       <c r="AA4">
-        <v>0.028224569790503275</v>
+        <v>0.028158174721361302</v>
       </c>
       <c r="AB4">
-        <v>0.028357936610238089</v>
+        <v>0.028093229362774891</v>
       </c>
       <c r="AC4">
-        <v>0.028266157764926497</v>
+        <v>0.028415757470263762</v>
       </c>
       <c r="AD4">
-        <v>0.027843830671098704</v>
+        <v>0.028189956415736059</v>
       </c>
       <c r="AE4">
-        <v>0.028217684940217067</v>
+        <v>0.028135645518148598</v>
       </c>
       <c r="AF4">
-        <v>0.02820395466265422</v>
+        <v>0.028108797439505295</v>
       </c>
       <c r="AG4">
-        <v>0.028089331343625224</v>
+        <v>0.027751099709410868</v>
       </c>
       <c r="AH4">
-        <v>0.027831489030992709</v>
+        <v>0.028073313490330029</v>
       </c>
       <c r="AI4">
-        <v>0.027954821628111463</v>
+        <v>0.027932737416161642</v>
       </c>
       <c r="AJ4">
-        <v>0.028129366120661265</v>
+        <v>0.027934857727456207</v>
       </c>
       <c r="AK4">
-        <v>0.02804319079135131</v>
+        <v>0.028049123544092815</v>
       </c>
       <c r="AL4">
-        <v>0.02819710921829293</v>
+        <v>0.028097670465585978</v>
       </c>
       <c r="AM4">
-        <v>0.027887380770072689</v>
+        <v>0.027830409188476006</v>
       </c>
       <c r="AN4">
-        <v>0.027881125361881968</v>
+        <v>0.028027276123481458</v>
       </c>
       <c r="AO4">
-        <v>0.028098188959341287</v>
+        <v>0.027679508793796732</v>
       </c>
       <c r="AP4">
-        <v>0.028065087126330459</v>
+        <v>0.027930618461714834</v>
       </c>
       <c r="AQ4">
-        <v>0.02784383076602737</v>
+        <v>0.028018575117653023</v>
       </c>
       <c r="AR4">
-        <v>0.02768679343760937</v>
+        <v>0.028009895659037838</v>
       </c>
       <c r="AS4">
-        <v>0.02802577162087418</v>
+        <v>0.027508867494206626</v>
       </c>
       <c r="AT4">
-        <v>0.027891557438206042</v>
+        <v>0.027584469921546156</v>
       </c>
       <c r="AU4">
-        <v>0.027776499102870042</v>
+        <v>0.027681476974668766</v>
       </c>
       <c r="AV4">
-        <v>0.027899925936317193</v>
+        <v>0.027826296782184821</v>
       </c>
       <c r="AW4">
-        <v>0.027833542991719966</v>
+        <v>0.027820137357346304</v>
       </c>
       <c r="AX4">
-        <v>0.027874881403759679</v>
+        <v>0.028055704445337001</v>
       </c>
       <c r="AY4">
-        <v>0.027540570714931187</v>
+        <v>0.027901088059741685</v>
       </c>
       <c r="AZ4">
-        <v>0.027904117855157378</v>
+        <v>0.027865566605543797</v>
       </c>
       <c r="BA4">
-        <v>0.027929376811888448</v>
+        <v>0.027909499611125495</v>
       </c>
       <c r="BB4">
-        <v>0.027858286069436126</v>
+        <v>0.027789506317813413</v>
       </c>
       <c r="BC4">
-        <v>0.027811018571027985</v>
+        <v>0.027685416786207138</v>
       </c>
       <c r="BD4">
-        <v>0.027881125489277021</v>
+        <v>0.028057900831331278</v>
       </c>
       <c r="BE4">
-        <v>0.028069482907665637</v>
+        <v>0.027994758336781788</v>
       </c>
       <c r="BF4">
-        <v>0.027819192076951809</v>
+        <v>0.027953999244401753</v>
       </c>
       <c r="BG4">
-        <v>0.027804901366249239</v>
+        <v>0.027975391917087696</v>
       </c>
       <c r="BH4">
-        <v>0.027879042914824674</v>
+        <v>0.027838649208594642</v>
       </c>
       <c r="BI4">
-        <v>0.027895739257478819</v>
+        <v>0.027988290932626</v>
       </c>
       <c r="BJ4">
-        <v>0.027993342616919221</v>
+        <v>0.027848977058522625</v>
       </c>
       <c r="BK4">
-        <v>0.028273136153258566</v>
+        <v>0.028099893267886811</v>
       </c>
       <c r="BL4">
-        <v>0.027887380972287913</v>
+        <v>0.02799907668590999</v>
       </c>
       <c r="BM4">
-        <v>0.02784383094864222</v>
+        <v>0.027917931802596031</v>
       </c>
       <c r="BN4">
-        <v>0.027897832056507029</v>
+        <v>0.027907394912558538</v>
       </c>
       <c r="BO4">
-        <v>0.02822686797473736</v>
+        <v>0.0278864172416141</v>
       </c>
       <c r="BP4">
-        <v>0.028172120734747209</v>
+        <v>0.027871808611420693</v>
       </c>
       <c r="BQ4">
-        <v>0.027995495272413226</v>
+        <v>0.028084364297370702</v>
       </c>
       <c r="BR4">
-        <v>0.028006278234698583</v>
+        <v>0.0280535096403534</v>
       </c>
       <c r="BS4">
-        <v>0.028142812375646753</v>
+        <v>0.028029455009247108</v>
       </c>
       <c r="BT4">
-        <v>0.028308229948685967</v>
+        <v>0.02810434274978716</v>
       </c>
       <c r="BU4">
-        <v>0.028142812392143886</v>
+        <v>0.028167226757069778</v>
       </c>
       <c r="BV4">
-        <v>0.027837654613410853</v>
+        <v>0.027761164808336201</v>
       </c>
       <c r="BW4">
-        <v>0.028439872486801146</v>
+        <v>0.027739061850205513</v>
       </c>
       <c r="BX4">
-        <v>0.028240686293892609</v>
+        <v>0.02800340042708686</v>
       </c>
       <c r="BY4">
-        <v>0.028151804740901822</v>
+        <v>0.02830110532872019</v>
       </c>
       <c r="BZ4">
-        <v>0.028405913122650589</v>
+        <v>0.028338925275661279</v>
       </c>
       <c r="CA4">
-        <v>0.028289471109759948</v>
+        <v>0.028155915781279631</v>
       </c>
       <c r="CB4">
-        <v>0.028147305769097228</v>
+        <v>0.02803599912484548</v>
       </c>
       <c r="CC4">
-        <v>0.028089331723921546</v>
+        <v>0.028155915798943661</v>
       </c>
       <c r="CD4">
-        <v>0.028521172926866459</v>
+        <v>0.028079940047263628</v>
       </c>
       <c r="CE4">
-        <v>0.028206239793709967</v>
+        <v>0.028082151545704009</v>
       </c>
       <c r="CF4">
-        <v>0.028481532494833199</v>
+        <v>0.028457236112711476</v>
       </c>
       <c r="CG4">
-        <v>0.028327086241965969</v>
+        <v>0.028539098357199262</v>
       </c>
       <c r="CH4">
-        <v>0.028408328515757968</v>
+        <v>0.028391574736974221</v>
       </c>
       <c r="CI4">
-        <v>0.02820623982822756</v>
+        <v>0.02843765905670801</v>
       </c>
       <c r="CJ4">
-        <v>0.028343665844252925</v>
+        <v>0.028514101522293726</v>
       </c>
       <c r="CK4">
-        <v>0.028439872601258454</v>
+        <v>0.02822432431355015</v>
       </c>
       <c r="CL4">
-        <v>0.028435002103112613</v>
+        <v>0.028462146622093287</v>
       </c>
       <c r="CM4">
-        <v>0.028528652691724787</v>
+        <v>0.028476917074799643</v>
       </c>
       <c r="CN4">
-        <v>0.0284107454786818</v>
+        <v>0.02840848632790207</v>
       </c>
       <c r="CO4">
-        <v>0.028867818166268471</v>
+        <v>0.028476917091713353</v>
       </c>
       <c r="CP4">
-        <v>0.02843500213651529</v>
+        <v>0.028406065653698912</v>
       </c>
       <c r="CQ4">
-        <v>0.028776174336762265</v>
+        <v>0.028506634979638491</v>
       </c>
       <c r="CR4">
-        <v>0.028551181912989335</v>
+        <v>0.028742613148616092</v>
       </c>
       <c r="CS4">
-        <v>0.02812674311890526</v>
+        <v>0.027977341342263273</v>
       </c>
       <c r="CT4">
-        <v>0.028079785823376127</v>
+        <v>0.028335694019305965</v>
       </c>
       <c r="CU4">
-        <v>0.028061688499390409</v>
+        <v>0.028139286619475162</v>
       </c>
       <c r="CV4">
-        <v>0.028279395282203496</v>
+        <v>0.027990015054374689</v>
       </c>
       <c r="CW4">
-        <v>0.028553359275800029</v>
+        <v>0.028066533818906666</v>
       </c>
       <c r="CX4">
-        <v>0.028325880599753432</v>
+        <v>0.028116199617649485</v>
       </c>
       <c r="CY4">
-        <v>0.028184254600710539</v>
+        <v>0.02823633543269664</v>
       </c>
       <c r="CZ4">
-        <v>0.028432692527882476</v>
+        <v>0.028277213190243441</v>
       </c>
       <c r="DA4">
-        <v>0.028565863067441258</v>
+        <v>0.028584441393918556</v>
       </c>
       <c r="DB4">
-        <v>0.028507445109656242</v>
+        <v>0.028753319449354046</v>
       </c>
       <c r="DC4">
-        <v>0.028328277172558574</v>
+        <v>0.028427779225082765</v>
       </c>
       <c r="DD4">
-        <v>0.028298192024667736</v>
+        <v>0.028379819718812156</v>
       </c>
       <c r="DE4">
-        <v>0.028397563017215594</v>
+        <v>0.028180139248836108</v>
       </c>
       <c r="DF4">
-        <v>0.028328319726901439</v>
+        <v>0.028682642148503457</v>
       </c>
       <c r="DG4">
-        <v>0.028672229776035008</v>
+        <v>0.02871298802560774</v>
       </c>
       <c r="DH4">
-        <v>0.028897046076543125</v>
+        <v>0.028780492545787562</v>
       </c>
       <c r="DI4">
-        <v>0.029253191894637945</v>
+        <v>0.028970839462627313</v>
       </c>
       <c r="DJ4">
-        <v>0.028689628541942003</v>
+        <v>0.028953473226559501</v>
       </c>
       <c r="DK4">
-        <v>0.029862303513600041</v>
+        <v>0.029437827392351519</v>
       </c>
       <c r="DL4">
-        <v>0.029684050523406041</v>
+        <v>0.029708586288959938</v>
       </c>
       <c r="DM4">
-        <v>0.025827790580902378</v>
+        <v>0.026083678879974918</v>
       </c>
       <c r="DN4">
-        <v>0.026559698147109061</v>
+        <v>0.026422271375000826</v>
       </c>
       <c r="DO4">
-        <v>0.026567996111303293</v>
+        <v>0.026690833407880702</v>
       </c>
       <c r="DP4">
-        <v>0.025417171475952231</v>
+        <v>0.025662429633745428</v>
       </c>
       <c r="DQ4">
-        <v>0.025575571643762077</v>
+        <v>0.025473651136548116</v>
       </c>
       <c r="DR4">
-        <v>0.025455223867954728</v>
+        <v>0.025420860603647132</v>
       </c>
       <c r="DS4">
-        <v>0.02508148560548569</v>
+        <v>0.025305481339502642</v>
       </c>
       <c r="DT4">
-        <v>0.025081683483403717</v>
+        <v>0.025184056168596518</v>
       </c>
       <c r="DU4">
-        <v>0.025197292852508244</v>
+        <v>0.025191291934908343</v>
       </c>
       <c r="DV4">
-        <v>0.025109158948817715</v>
+        <v>0.025083888746779148</v>
       </c>
       <c r="DW4">
-        <v>0.025029055383659276</v>
+        <v>0.024925708181696024</v>
       </c>
       <c r="DX4">
-        <v>0.025282917664252613</v>
+        <v>0.025036278573530042</v>
       </c>
       <c r="DY4">
-        <v>0.025596399615420252</v>
+        <v>0.025210310711969441</v>
       </c>
       <c r="DZ4">
-        <v>0.025493043581434952</v>
+        <v>0.025390878837945535</v>
       </c>
       <c r="EA4">
-        <v>0.025464480460162094</v>
+        <v>0.025490064715197654</v>
       </c>
       <c r="EB4">
-        <v>0.025424254867512583</v>
+        <v>0.025259715041513139</v>
       </c>
       <c r="EC4">
-        <v>0.02557256710030803</v>
+        <v>0.025532002731840805</v>
       </c>
       <c r="ED4">
-        <v>0.025524550241510541</v>
+        <v>0.025565088687437364</v>
       </c>
       <c r="EE4">
-        <v>0.026376475699864729</v>
+        <v>0.026127188080659159</v>
       </c>
       <c r="EF4">
-        <v>0.026079989713063426</v>
+        <v>0.026163532649166422</v>
       </c>
       <c r="EG4">
-        <v>0.025168077188712463</v>
+        <v>0.02540447222536011</v>
       </c>
       <c r="EH4">
-        <v>0.023153504820257208</v>
+        <v>0.023108960303824668</v>
       </c>
       <c r="EI4">
-        <v>0.023043049551827434</v>
+        <v>0.022993073053806688</v>
       </c>
       <c r="EJ4">
-        <v>0.022412513156329923</v>
+        <v>0.022620425233000657</v>
       </c>
       <c r="EK4">
-        <v>0.022586768476593709</v>
+        <v>0.0225395681281596</v>
       </c>
       <c r="EL4">
-        <v>0.022440749581878455</v>
+        <v>0.022582642866714811</v>
       </c>
       <c r="EM4">
-        <v>0.02246899373932414</v>
+        <v>0.02244290116982664</v>
       </c>
       <c r="EN4">
-        <v>0.022359121039475873</v>
+        <v>0.022188579298022933</v>
       </c>
       <c r="EO4">
-        <v>0.022197241097832755</v>
+        <v>0.022359644322357566</v>
       </c>
       <c r="EP4">
-        <v>0.022401686828939206</v>
+        <v>0.022188579412583707</v>
       </c>
       <c r="EQ4">
-        <v>0.022335990031038259</v>
+        <v>0.02230758267525958</v>
       </c>
       <c r="ER4">
-        <v>0.022469309348884723</v>
+        <v>0.022388086732806893</v>
       </c>
       <c r="ES4">
-        <v>0.022432620567168212</v>
+        <v>0.022456424270178459</v>
       </c>
       <c r="ET4">
-        <v>0.022482375935588186</v>
+        <v>0.022458587543343352</v>
       </c>
       <c r="EU4">
-        <v>0.022573346787092448</v>
+        <v>0.022325542013679995</v>
       </c>
       <c r="EV4">
-        <v>0.022589178402386126</v>
+        <v>0.022530939788490401</v>
       </c>
       <c r="EW4">
-        <v>0.022457415566691886</v>
+        <v>0.022484348676672768</v>
       </c>
       <c r="EX4">
-        <v>0.0225477599471351</v>
+        <v>0.022579485329477587</v>
       </c>
       <c r="EY4">
-        <v>0.022466101346631271</v>
+        <v>0.022501803747220606</v>
       </c>
       <c r="EZ4">
-        <v>0.022704312446079213</v>
+        <v>0.022677960675275669</v>
       </c>
       <c r="FA4">
-        <v>0.022611179732862977</v>
+        <v>0.022550379158687236</v>
       </c>
       <c r="FB4">
-        <v>0.021821505129206394</v>
+        <v>0.021926945795050046</v>
       </c>
       <c r="FC4">
-        <v>0.021617156377457016</v>
+        <v>0.021912453548399154</v>
       </c>
       <c r="FD4">
-        <v>0.021866536165465671</v>
+        <v>0.021819941597747753</v>
       </c>
       <c r="FE4">
-        <v>0.022013373391692792</v>
+        <v>0.021941508986853205</v>
       </c>
       <c r="FF4">
-        <v>0.021807426678412269</v>
+        <v>0.021973307354501277</v>
       </c>
       <c r="FG4">
-        <v>0.022033503184744559</v>
+        <v>0.022319190507017101</v>
       </c>
       <c r="FH4">
-        <v>0.02204868830700888</v>
+        <v>0.022127147544677272</v>
       </c>
       <c r="FI4">
-        <v>0.022383225763228033</v>
+        <v>0.021936646993826508</v>
       </c>
       <c r="FJ4">
-        <v>0.022141413324476542</v>
+        <v>0.021953699526953998</v>
       </c>
       <c r="FK4">
-        <v>0.02225051036866986</v>
+        <v>0.022245785826815391</v>
       </c>
       <c r="FL4">
-        <v>0.021998363609660836</v>
+        <v>0.022075847590285202</v>
       </c>
       <c r="FM4">
-        <v>0.022533471178714942</v>
+        <v>0.022158343727374727</v>
       </c>
       <c r="FN4">
-        <v>0.022097278212030363</v>
+        <v>0.022399973497532869</v>
       </c>
       <c r="FO4">
-        <v>0.021885703878202857</v>
+        <v>0.022205735042147134</v>
       </c>
       <c r="FP4">
-        <v>0.02219415562878926</v>
+        <v>0.022344042973933716</v>
       </c>
       <c r="FQ4">
-        <v>0.022539390744070506</v>
+        <v>0.022283634543555052</v>
       </c>
       <c r="FR4">
-        <v>0.02236071953450142</v>
+        <v>0.022275485811693269</v>
       </c>
       <c r="FS4">
-        <v>0.02231065167324138</v>
+        <v>0.02228091605716867</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015799553515578182</v>
+        <v>0.015823270655197081</v>
       </c>
     </row>
   </sheetData>
@@ -12542,526 +12542,526 @@
         <v>174</v>
       </c>
       <c r="B3">
-        <v>1.0993034820803169</v>
+        <v>1.1233340667801315</v>
       </c>
       <c r="C3">
-        <v>-1.9535750560518759</v>
+        <v>-1.9503239150424134</v>
       </c>
       <c r="D3">
-        <v>-2.0369182753650761</v>
+        <v>-2.0497684413922781</v>
       </c>
       <c r="E3">
-        <v>-2.0020163140668541</v>
+        <v>-2.0038135046690426</v>
       </c>
       <c r="F3">
-        <v>-1.9751591060281168</v>
+        <v>-1.9783702835298933</v>
       </c>
       <c r="G3">
-        <v>-1.9504556815354011</v>
+        <v>-1.9143523325656853</v>
       </c>
       <c r="H3">
-        <v>-1.9629960420655648</v>
+        <v>-1.9124139473405746</v>
       </c>
       <c r="I3">
-        <v>0.72571035833358921</v>
+        <v>0.72376256775520176</v>
       </c>
       <c r="J3">
-        <v>0.68091946284525073</v>
+        <v>0.67426897447259715</v>
       </c>
       <c r="K3">
-        <v>0.60058229177105305</v>
+        <v>0.61346828733855063</v>
       </c>
       <c r="L3">
-        <v>0.52345304213581867</v>
+        <v>0.51964316455387349</v>
       </c>
       <c r="M3">
-        <v>0.42111239804515826</v>
+        <v>0.43804393882822018</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4781300768938666</v>
+        <v>1.4552894480127656</v>
       </c>
       <c r="P3">
-        <v>1.582571825596462</v>
+        <v>1.5689846879310241</v>
       </c>
       <c r="Q3">
-        <v>0.095857286019352284</v>
+        <v>-0.018481825186044465</v>
       </c>
       <c r="R3">
-        <v>0.0037195774762829601</v>
+        <v>0.047923743687723647</v>
       </c>
       <c r="S3">
-        <v>0.079192651485384083</v>
+        <v>0.031702465453823409</v>
       </c>
       <c r="T3">
-        <v>0.035527789390565202</v>
+        <v>0.063375856927487567</v>
       </c>
       <c r="U3">
-        <v>0.14533462586850163</v>
+        <v>0.10507502226275145</v>
       </c>
       <c r="V3">
-        <v>0.10030641349261485</v>
+        <v>0.047270561116437723</v>
       </c>
       <c r="W3">
-        <v>0.082121476894259429</v>
+        <v>0.08455254404539625</v>
       </c>
       <c r="X3">
-        <v>0.10941109909829334</v>
+        <v>0.030823976674963761</v>
       </c>
       <c r="Y3">
-        <v>0.12192627252154563</v>
+        <v>0.10797737578220082</v>
       </c>
       <c r="Z3">
-        <v>0.15070073993478525</v>
+        <v>0.12942848331542511</v>
       </c>
       <c r="AA3">
-        <v>0.12345894788599952</v>
+        <v>0.18286515334140074</v>
       </c>
       <c r="AB3">
-        <v>0.15952196890067988</v>
+        <v>0.12113455168757178</v>
       </c>
       <c r="AC3">
-        <v>0.084928313895420396</v>
+        <v>0.13831382487257193</v>
       </c>
       <c r="AD3">
-        <v>0.19044803377278127</v>
+        <v>0.15524151725303192</v>
       </c>
       <c r="AE3">
-        <v>0.16747451975681529</v>
+        <v>0.10762512194645774</v>
       </c>
       <c r="AF3">
-        <v>0.18260220998629087</v>
+        <v>0.15197185891666987</v>
       </c>
       <c r="AG3">
-        <v>0.14388389716953554</v>
+        <v>0.22718729361125875</v>
       </c>
       <c r="AH3">
-        <v>0.16178496586720192</v>
+        <v>0.11505276780215365</v>
       </c>
       <c r="AI3">
-        <v>0.20376516765139743</v>
+        <v>0.19691720546030544</v>
       </c>
       <c r="AJ3">
-        <v>0.21462387713052208</v>
+        <v>0.19542652249932041</v>
       </c>
       <c r="AK3">
-        <v>0.19055774980725271</v>
+        <v>0.18145319726745693</v>
       </c>
       <c r="AL3">
-        <v>0.13631500622703202</v>
+        <v>0.20553293657228752</v>
       </c>
       <c r="AM3">
-        <v>0.22696714166000714</v>
+        <v>0.22233662799609349</v>
       </c>
       <c r="AN3">
-        <v>0.23915321021991176</v>
+        <v>0.20106162656970056</v>
       </c>
       <c r="AO3">
-        <v>0.19066543790702864</v>
+        <v>0.24195868599308792</v>
       </c>
       <c r="AP3">
-        <v>0.19147451814220179</v>
+        <v>0.22713820075589597</v>
       </c>
       <c r="AQ3">
-        <v>0.19544011033465708</v>
+        <v>0.23772796236740928</v>
       </c>
       <c r="AR3">
-        <v>0.25810716603067563</v>
+        <v>0.21825533125672958</v>
       </c>
       <c r="AS3">
-        <v>0.20261751499701361</v>
+        <v>0.18189896013474394</v>
       </c>
       <c r="AT3">
-        <v>0.23656828234509594</v>
+        <v>0.2587114141714294</v>
       </c>
       <c r="AU3">
-        <v>0.24871975510510569</v>
+        <v>0.24929135928383195</v>
       </c>
       <c r="AV3">
-        <v>0.18934878780699105</v>
+        <v>0.21937691765884909</v>
       </c>
       <c r="AW3">
-        <v>0.20907761533915356</v>
+        <v>0.25837356156822489</v>
       </c>
       <c r="AX3">
-        <v>0.26829852911701918</v>
+        <v>0.1614031773000954</v>
       </c>
       <c r="AY3">
-        <v>0.31383677019197553</v>
+        <v>0.18064514670078374</v>
       </c>
       <c r="AZ3">
-        <v>0.24169456831934732</v>
+        <v>0.22651519109016</v>
       </c>
       <c r="BA3">
-        <v>0.23340966826367326</v>
+        <v>0.20896691603154993</v>
       </c>
       <c r="BB3">
-        <v>0.23272322848218219</v>
+        <v>0.23123589942417475</v>
       </c>
       <c r="BC3">
-        <v>0.2879802460698857</v>
+        <v>0.28230778870273232</v>
       </c>
       <c r="BD3">
-        <v>0.24739722240076098</v>
+        <v>0.18727997649017059</v>
       </c>
       <c r="BE3">
-        <v>0.23531519050841429</v>
+        <v>0.19441976453134968</v>
       </c>
       <c r="BF3">
-        <v>0.21369637664257332</v>
+        <v>0.21242533178575412</v>
       </c>
       <c r="BG3">
-        <v>0.24992754532261574</v>
+        <v>0.21093857265791843</v>
       </c>
       <c r="BH3">
-        <v>0.22007225709767797</v>
+        <v>0.2453558467146654</v>
       </c>
       <c r="BI3">
-        <v>0.23868091221563908</v>
+        <v>0.16577144988555334</v>
       </c>
       <c r="BJ3">
-        <v>0.2622506066555918</v>
+        <v>0.19464144437657582</v>
       </c>
       <c r="BK3">
-        <v>0.22573765799373169</v>
+        <v>0.19229717919266176</v>
       </c>
       <c r="BL3">
-        <v>0.25644129875464355</v>
+        <v>0.19944609412859721</v>
       </c>
       <c r="BM3">
-        <v>0.2336391053083246</v>
+        <v>0.23969336804906796</v>
       </c>
       <c r="BN3">
-        <v>0.25815004079185855</v>
+        <v>0.21444924334157539</v>
       </c>
       <c r="BO3">
-        <v>0.18788998645387572</v>
+        <v>0.2519508610758181</v>
       </c>
       <c r="BP3">
-        <v>0.19917237258317064</v>
+        <v>0.19652280805354999</v>
       </c>
       <c r="BQ3">
-        <v>0.26440379078828569</v>
+        <v>0.15190462868127924</v>
       </c>
       <c r="BR3">
-        <v>0.204060678730623</v>
+        <v>0.1845594551907086</v>
       </c>
       <c r="BS3">
-        <v>0.22778892773599543</v>
+        <v>0.21703662510330463</v>
       </c>
       <c r="BT3">
-        <v>0.16992975582323838</v>
+        <v>0.18299612526967812</v>
       </c>
       <c r="BU3">
-        <v>0.21842739284060239</v>
+        <v>0.16343516430895022</v>
       </c>
       <c r="BV3">
-        <v>0.2442126076433091</v>
+        <v>0.23801970567107983</v>
       </c>
       <c r="BW3">
-        <v>0.12665796865482382</v>
+        <v>0.25330811787575014</v>
       </c>
       <c r="BX3">
-        <v>0.23420567647416993</v>
+        <v>0.21340537454377248</v>
       </c>
       <c r="BY3">
-        <v>0.23036495240310695</v>
+        <v>0.18879596749459537</v>
       </c>
       <c r="BZ3">
-        <v>0.22728512826311889</v>
+        <v>0.1750105258096174</v>
       </c>
       <c r="CA3">
-        <v>0.20346083655690136</v>
+        <v>0.22990828634917948</v>
       </c>
       <c r="CB3">
-        <v>0.24299064542979157</v>
+        <v>0.24077791833888379</v>
       </c>
       <c r="CC3">
-        <v>0.20754642518701008</v>
+        <v>0.13921397235208893</v>
       </c>
       <c r="CD3">
-        <v>0.20111113799107735</v>
+        <v>0.17667896941878458</v>
       </c>
       <c r="CE3">
-        <v>0.23222249218670796</v>
+        <v>0.22387883597096625</v>
       </c>
       <c r="CF3">
-        <v>0.21883046678088483</v>
+        <v>0.17505692652109311</v>
       </c>
       <c r="CG3">
-        <v>0.15891398728690803</v>
+        <v>0.17832606296549208</v>
       </c>
       <c r="CH3">
-        <v>0.1698028488934904</v>
+        <v>0.2310248510569814</v>
       </c>
       <c r="CI3">
-        <v>0.17810762817318382</v>
+        <v>0.16513371578319491</v>
       </c>
       <c r="CJ3">
-        <v>0.16382496386640932</v>
+        <v>0.16093184078370198</v>
       </c>
       <c r="CK3">
-        <v>0.21322144936226919</v>
+        <v>0.19137240380714399</v>
       </c>
       <c r="CL3">
-        <v>0.2035395201663121</v>
+        <v>0.16171391541436247</v>
       </c>
       <c r="CM3">
-        <v>0.12665227970885398</v>
+        <v>0.13193665553030398</v>
       </c>
       <c r="CN3">
-        <v>0.177098248733081</v>
+        <v>0.17161510127851587</v>
       </c>
       <c r="CO3">
-        <v>0.18870269200358097</v>
+        <v>0.17655947509569825</v>
       </c>
       <c r="CP3">
-        <v>0.17367677184411776</v>
+        <v>0.17736880544899342</v>
       </c>
       <c r="CQ3">
-        <v>0.11743990857401072</v>
+        <v>0.13599729700795898</v>
       </c>
       <c r="CR3">
-        <v>0.15913621168128511</v>
+        <v>0.12898928895014528</v>
       </c>
       <c r="CS3">
-        <v>0.1988769910041448</v>
+        <v>0.16510764233667855</v>
       </c>
       <c r="CT3">
-        <v>0.21747162625316216</v>
+        <v>0.12543740066072623</v>
       </c>
       <c r="CU3">
-        <v>0.098759078845136017</v>
+        <v>0.17537171006601707</v>
       </c>
       <c r="CV3">
-        <v>0.14935713457855287</v>
+        <v>0.18656189852272501</v>
       </c>
       <c r="CW3">
-        <v>0.14195790793308208</v>
+        <v>0.18127517474197841</v>
       </c>
       <c r="CX3">
-        <v>0.13456557470705288</v>
+        <v>0.1446698523348201</v>
       </c>
       <c r="CY3">
-        <v>0.16721395540578624</v>
+        <v>0.10124570510152861</v>
       </c>
       <c r="CZ3">
-        <v>0.14326160196583998</v>
+        <v>0.1705650748016676</v>
       </c>
       <c r="DA3">
-        <v>0.18259701191512381</v>
+        <v>0.079440212073816074</v>
       </c>
       <c r="DB3">
-        <v>0.11853092543900522</v>
+        <v>0.13612779231803851</v>
       </c>
       <c r="DC3">
-        <v>0.16724290691093105</v>
+        <v>0.097066176525915482</v>
       </c>
       <c r="DD3">
-        <v>0.12119921018239954</v>
+        <v>0.19473319123883143</v>
       </c>
       <c r="DE3">
-        <v>0.095365710666084985</v>
+        <v>0.12307240224527422</v>
       </c>
       <c r="DF3">
-        <v>0.16083037487168517</v>
+        <v>0.13804472212767627</v>
       </c>
       <c r="DG3">
-        <v>0.099653220917725147</v>
+        <v>0.075073451851343814</v>
       </c>
       <c r="DH3">
-        <v>0.11798346561329799</v>
+        <v>0.058096010458194472</v>
       </c>
       <c r="DI3">
-        <v>0.032429294851848839</v>
+        <v>0.091630387039074196</v>
       </c>
       <c r="DJ3">
-        <v>0.16166766385971684</v>
+        <v>0.070639404780016041</v>
       </c>
       <c r="DK3">
-        <v>0.080604633534501341</v>
+        <v>0.070377448871968479</v>
       </c>
       <c r="DL3">
-        <v>0.10916738098743428</v>
+        <v>0.08205271555086957</v>
       </c>
       <c r="DM3">
-        <v>-0.040979042608559203</v>
+        <v>-0.097727628954653117</v>
       </c>
       <c r="DN3">
-        <v>0.28189137197788361</v>
+        <v>0.28380961875451227</v>
       </c>
       <c r="DO3">
-        <v>0.22977057558109923</v>
+        <v>0.21991941870445442</v>
       </c>
       <c r="DP3">
-        <v>0.22240740220746855</v>
+        <v>0.2284344785714037</v>
       </c>
       <c r="DQ3">
-        <v>0.19098033271909337</v>
+        <v>0.21568394343574976</v>
       </c>
       <c r="DR3">
-        <v>0.15800823042659454</v>
+        <v>0.18016251096481373</v>
       </c>
       <c r="DS3">
-        <v>0.19930727286335123</v>
+        <v>0.16094243611564565</v>
       </c>
       <c r="DT3">
-        <v>0.16051825602894365</v>
+        <v>0.15505347065900477</v>
       </c>
       <c r="DU3">
-        <v>0.10286369018106359</v>
+        <v>0.1158118583612229</v>
       </c>
       <c r="DV3">
-        <v>0.096678200539164427</v>
+        <v>0.09710358717122175</v>
       </c>
       <c r="DW3">
-        <v>0.04959714690314692</v>
+        <v>0.02368871034653363</v>
       </c>
       <c r="DX3">
-        <v>0.10403525752378573</v>
+        <v>0.11618085266228922</v>
       </c>
       <c r="DY3">
-        <v>0.03781148620898532</v>
+        <v>0.067660785579432781</v>
       </c>
       <c r="DZ3">
-        <v>0.0345443421204958</v>
+        <v>0.018966637644209368</v>
       </c>
       <c r="EA3">
-        <v>0.0053960553951958269</v>
+        <v>-0.0098243897845617725</v>
       </c>
       <c r="EB3">
-        <v>-0.038107767893256823</v>
+        <v>-0.049704949238520604</v>
       </c>
       <c r="EC3">
-        <v>0.048798700887754932</v>
+        <v>0.014198834259106343</v>
       </c>
       <c r="ED3">
-        <v>0.048855201453800956</v>
+        <v>0.005070779813180817</v>
       </c>
       <c r="EE3">
-        <v>-0.013042569083964041</v>
+        <v>-0.057869777476446733</v>
       </c>
       <c r="EF3">
-        <v>-0.016663865534634333</v>
+        <v>-0.073387896653248491</v>
       </c>
       <c r="EG3">
-        <v>-0.037557773745900573</v>
+        <v>-0.068908594064301554</v>
       </c>
       <c r="EH3">
-        <v>0.30932562391861063</v>
+        <v>0.29969257901565804</v>
       </c>
       <c r="EI3">
-        <v>0.29375359044398858</v>
+        <v>0.28945717324509834</v>
       </c>
       <c r="EJ3">
-        <v>0.30197109113577636</v>
+        <v>0.27349057627089174</v>
       </c>
       <c r="EK3">
-        <v>0.24937017227119565</v>
+        <v>0.25380088510240029</v>
       </c>
       <c r="EL3">
-        <v>0.22874040400546583</v>
+        <v>0.2209065357905787</v>
       </c>
       <c r="EM3">
-        <v>0.22707758659331295</v>
+        <v>0.21285641936747818</v>
       </c>
       <c r="EN3">
-        <v>0.20925767482136756</v>
+        <v>0.20793590558851055</v>
       </c>
       <c r="EO3">
-        <v>0.18356663564522638</v>
+        <v>0.16369630577720545</v>
       </c>
       <c r="EP3">
-        <v>0.15008660811787955</v>
+        <v>0.1651123000617814</v>
       </c>
       <c r="EQ3">
-        <v>0.13616182840788799</v>
+        <v>0.11669253142543162</v>
       </c>
       <c r="ER3">
-        <v>0.15895542823854594</v>
+        <v>0.15579951840794709</v>
       </c>
       <c r="ES3">
-        <v>0.13888770060937281</v>
+        <v>0.13208847605727547</v>
       </c>
       <c r="ET3">
-        <v>0.098570267155887778</v>
+        <v>0.10678182669271707</v>
       </c>
       <c r="EU3">
-        <v>0.078958090167667139</v>
+        <v>0.10000982049140793</v>
       </c>
       <c r="EV3">
-        <v>0.057163088204607637</v>
+        <v>0.049647937605358933</v>
       </c>
       <c r="EW3">
-        <v>0.1003964805834594</v>
+        <v>0.088899856866535593</v>
       </c>
       <c r="EX3">
-        <v>0.08141702771429396</v>
+        <v>0.058684035223032699</v>
       </c>
       <c r="EY3">
-        <v>0.055673739310871072</v>
+        <v>0.05508038181303726</v>
       </c>
       <c r="EZ3">
-        <v>0.030512079534393464</v>
+        <v>0.030240827442349589</v>
       </c>
       <c r="FA3">
-        <v>0.021844821054605518</v>
+        <v>0.020589254881638135</v>
       </c>
       <c r="FB3">
-        <v>0.24850636871379969</v>
+        <v>0.23137585116603987</v>
       </c>
       <c r="FC3">
-        <v>0.25633804977362729</v>
+        <v>0.20394413593163319</v>
       </c>
       <c r="FD3">
-        <v>0.20720503995880246</v>
+        <v>0.20919133187035863</v>
       </c>
       <c r="FE3">
-        <v>0.18349777815529211</v>
+        <v>0.18839336993832628</v>
       </c>
       <c r="FF3">
-        <v>0.18853687411476699</v>
+        <v>0.17709583959849401</v>
       </c>
       <c r="FG3">
-        <v>0.17006828834298507</v>
+        <v>0.10453537908494842</v>
       </c>
       <c r="FH3">
-        <v>0.12997808816921536</v>
+        <v>0.12056803942942435</v>
       </c>
       <c r="FI3">
-        <v>0.083335884451786746</v>
+        <v>0.12819545802609364</v>
       </c>
       <c r="FJ3">
-        <v>0.11261655344828048</v>
+        <v>0.12049509032103795</v>
       </c>
       <c r="FK3">
-        <v>0.075866478167882986</v>
+        <v>0.07247952971447455</v>
       </c>
       <c r="FL3">
-        <v>0.10643657182661377</v>
+        <v>0.084201318059151958</v>
       </c>
       <c r="FM3">
-        <v>0.038102244955929856</v>
+        <v>0.067288463898476841</v>
       </c>
       <c r="FN3">
-        <v>0.071408932638152553</v>
+        <v>0.031328638788372276</v>
       </c>
       <c r="FO3">
-        <v>0.11392683777210438</v>
+        <v>0.048222077596734837</v>
       </c>
       <c r="FP3">
-        <v>0.04854013371973654</v>
+        <v>0.030543163151190926</v>
       </c>
       <c r="FQ3">
-        <v>-0.0085936488077716904</v>
+        <v>0.023828879675029307</v>
       </c>
       <c r="FR3">
-        <v>0.0037077904488910705</v>
+        <v>0.025940877628424366</v>
       </c>
       <c r="FS3">
-        <v>0.0072198947529342489</v>
+        <v>0.005859106091174621</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.3571074168606447</v>
+        <v>-5.3459436290713693</v>
       </c>
     </row>
     <row r="4">
@@ -13078,526 +13078,526 @@
         <v>175</v>
       </c>
       <c r="B4">
-        <v>0.019673686598949202</v>
+        <v>0.019744585420745319</v>
       </c>
       <c r="C4">
-        <v>0.017618926209333485</v>
+        <v>0.017592653850081689</v>
       </c>
       <c r="D4">
-        <v>0.018235347444543405</v>
+        <v>0.018250445598303144</v>
       </c>
       <c r="E4">
-        <v>0.018270429462803228</v>
+        <v>0.018238911588988858</v>
       </c>
       <c r="F4">
-        <v>0.018849885423200249</v>
+        <v>0.018810249003493061</v>
       </c>
       <c r="G4">
-        <v>0.023330962549043655</v>
+        <v>0.023237473593228104</v>
       </c>
       <c r="H4">
-        <v>0.028684313953013379</v>
+        <v>0.028549724012156028</v>
       </c>
       <c r="I4">
-        <v>0.012726526057052821</v>
+        <v>0.012722574537550305</v>
       </c>
       <c r="J4">
-        <v>0.010747551012801077</v>
+        <v>0.010758694296175941</v>
       </c>
       <c r="K4">
-        <v>0.0090666440013790067</v>
+        <v>0.0090457729731078171</v>
       </c>
       <c r="L4">
-        <v>0.0096784801270642165</v>
+        <v>0.0096342256448523778</v>
       </c>
       <c r="M4">
-        <v>0.010230311964535022</v>
+        <v>0.010200708741580891</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.027030090610985484</v>
+        <v>0.027022740859362883</v>
       </c>
       <c r="P4">
-        <v>0.026647807578751584</v>
+        <v>0.026602890793142247</v>
       </c>
       <c r="Q4">
-        <v>0.03701673609695931</v>
+        <v>0.038191846096115492</v>
       </c>
       <c r="R4">
-        <v>0.038120565629905658</v>
+        <v>0.037398036183468528</v>
       </c>
       <c r="S4">
-        <v>0.037226057906177397</v>
+        <v>0.037599115418369716</v>
       </c>
       <c r="T4">
-        <v>0.037751355557391168</v>
+        <v>0.037233063589210011</v>
       </c>
       <c r="U4">
-        <v>0.03648826502380801</v>
+        <v>0.036760594225953049</v>
       </c>
       <c r="V4">
-        <v>0.037006926229556251</v>
+        <v>0.037439894591330583</v>
       </c>
       <c r="W4">
-        <v>0.037226057909164806</v>
+        <v>0.037012453856263151</v>
       </c>
       <c r="X4">
-        <v>0.03691926828364174</v>
+        <v>0.03765299403196512</v>
       </c>
       <c r="Y4">
-        <v>0.036785129081732801</v>
+        <v>0.036760594229086688</v>
       </c>
       <c r="Z4">
-        <v>0.036470145592048905</v>
+        <v>0.036526999693807169</v>
       </c>
       <c r="AA4">
-        <v>0.036785129083388941</v>
+        <v>0.035947484847996071</v>
       </c>
       <c r="AB4">
-        <v>0.036389221591358274</v>
+        <v>0.036638105119490623</v>
       </c>
       <c r="AC4">
-        <v>0.037246329343617525</v>
+        <v>0.036453950927332869</v>
       </c>
       <c r="AD4">
-        <v>0.036066732493917952</v>
+        <v>0.036274803944817358</v>
       </c>
       <c r="AE4">
-        <v>0.03632696594314147</v>
+        <v>0.036817889963491564</v>
       </c>
       <c r="AF4">
-        <v>0.036169568288967203</v>
+        <v>0.036328034877170172</v>
       </c>
       <c r="AG4">
-        <v>0.036607270530492515</v>
+        <v>0.035525299176747523</v>
       </c>
       <c r="AH4">
-        <v>0.036416085357409762</v>
+        <v>0.036760594236792954</v>
       </c>
       <c r="AI4">
-        <v>0.035965525539014803</v>
+        <v>0.03586406159248258</v>
       </c>
       <c r="AJ4">
-        <v>0.035857676903052894</v>
+        <v>0.035888973484872085</v>
       </c>
       <c r="AK4">
-        <v>0.036126519504814249</v>
+        <v>0.036049058457442849</v>
       </c>
       <c r="AL4">
-        <v>0.036737863164625031</v>
+        <v>0.035798106321024675</v>
       </c>
       <c r="AM4">
-        <v>0.035751644887399618</v>
+        <v>0.035628200979376259</v>
       </c>
       <c r="AN4">
-        <v>0.035631496435361058</v>
+        <v>0.035864061597563064</v>
       </c>
       <c r="AO4">
-        <v>0.036160935446352245</v>
+        <v>0.035439549006257384</v>
       </c>
       <c r="AP4">
-        <v>0.036160935447316342</v>
+        <v>0.035604302269426909</v>
       </c>
       <c r="AQ4">
-        <v>0.036126519510641705</v>
+        <v>0.035501793979625627</v>
       </c>
       <c r="AR4">
-        <v>0.035467115614716105</v>
+        <v>0.0357166231022377</v>
       </c>
       <c r="AS4">
-        <v>0.036066732508490372</v>
+        <v>0.036117680893512673</v>
       </c>
       <c r="AT4">
-        <v>0.035711337088637059</v>
+        <v>0.035309344222094134</v>
       </c>
       <c r="AU4">
-        <v>0.035591958503107306</v>
+        <v>0.035416369007518766</v>
       </c>
       <c r="AV4">
-        <v>0.036239050558164843</v>
+        <v>0.035740957097129052</v>
       </c>
       <c r="AW4">
-        <v>0.036032817859109806</v>
+        <v>0.035339731315375454</v>
       </c>
       <c r="AX4">
-        <v>0.035413286570654637</v>
+        <v>0.036390690821452888</v>
       </c>
       <c r="AY4">
-        <v>0.034956389902837885</v>
+        <v>0.036187042794243458</v>
       </c>
       <c r="AZ4">
-        <v>0.035711337095167939</v>
+        <v>0.035700452874117966</v>
       </c>
       <c r="BA4">
-        <v>0.035808516209051525</v>
+        <v>0.035897299298637456</v>
       </c>
       <c r="BB4">
-        <v>0.035824860408531452</v>
+        <v>0.035668237467604447</v>
       </c>
       <c r="BC4">
-        <v>0.035254602586746703</v>
+        <v>0.035144890099446179</v>
       </c>
       <c r="BD4">
-        <v>0.035687276986114604</v>
+        <v>0.036160944651320269</v>
       </c>
       <c r="BE4">
-        <v>0.035824860411824561</v>
+        <v>0.036091861496610554</v>
       </c>
       <c r="BF4">
-        <v>0.036066732522068816</v>
+        <v>0.035905636053177162</v>
       </c>
       <c r="BG4">
-        <v>0.035687276989395028</v>
+        <v>0.035930712244180117</v>
       </c>
       <c r="BH4">
-        <v>0.036015927944295305</v>
+        <v>0.035572579901070565</v>
       </c>
       <c r="BI4">
-        <v>0.035824860416126328</v>
+        <v>0.036444876463736793</v>
       </c>
       <c r="BJ4">
-        <v>0.035584081200861699</v>
+        <v>0.036134951579809824</v>
       </c>
       <c r="BK4">
-        <v>0.035982281976677015</v>
+        <v>0.036169632334228353</v>
       </c>
       <c r="BL4">
-        <v>0.035663309628748766</v>
+        <v>0.036100456459583451</v>
       </c>
       <c r="BM4">
-        <v>0.035915520487493857</v>
+        <v>0.035676275750637913</v>
       </c>
       <c r="BN4">
-        <v>0.035663309630999049</v>
+        <v>0.03595588782664038</v>
       </c>
       <c r="BO4">
-        <v>0.036434056003965716</v>
+        <v>0.035564674635448983</v>
       </c>
       <c r="BP4">
-        <v>0.036318120677230704</v>
+        <v>0.036169632339465026</v>
       </c>
       <c r="BQ4">
-        <v>0.035623568633418978</v>
+        <v>0.036675556011280988</v>
       </c>
       <c r="BR4">
-        <v>0.036282859359005902</v>
+        <v>0.036319132870026194</v>
       </c>
       <c r="BS4">
-        <v>0.036032817882468662</v>
+        <v>0.035972727063930413</v>
       </c>
       <c r="BT4">
-        <v>0.036681581299666519</v>
+        <v>0.036354814047629254</v>
       </c>
       <c r="BU4">
-        <v>0.036152314198842177</v>
+        <v>0.036582320295415943</v>
       </c>
       <c r="BV4">
-        <v>0.035882402110874456</v>
+        <v>0.035773550117587948</v>
       </c>
       <c r="BW4">
-        <v>0.037205845802682304</v>
+        <v>0.035620224557647746</v>
       </c>
       <c r="BX4">
-        <v>0.036007499767536817</v>
+        <v>0.036057596279045444</v>
       </c>
       <c r="BY4">
-        <v>0.036058236970935319</v>
+        <v>0.036336949115837985</v>
       </c>
       <c r="BZ4">
-        <v>0.036100828166797438</v>
+        <v>0.036499511714514189</v>
       </c>
       <c r="CA4">
-        <v>0.036371373604924415</v>
+        <v>0.035905636075650962</v>
       </c>
       <c r="CB4">
-        <v>0.035948813321093745</v>
+        <v>0.035798106366195181</v>
       </c>
       <c r="CC4">
-        <v>0.036344692741975625</v>
+        <v>0.0369339589616711</v>
       </c>
       <c r="CD4">
-        <v>0.03642506455069857</v>
+        <v>0.036517824376430419</v>
       </c>
       <c r="CE4">
-        <v>0.036092287218585907</v>
+        <v>0.036006539597962205</v>
       </c>
       <c r="CF4">
-        <v>0.036247788672965686</v>
+        <v>0.03655460236443675</v>
       </c>
       <c r="CG4">
-        <v>0.036928952405383395</v>
+        <v>0.03652699975097836</v>
       </c>
       <c r="CH4">
-        <v>0.036813649311464997</v>
+        <v>0.035955887848084428</v>
       </c>
       <c r="CI4">
-        <v>0.036728449917595413</v>
+        <v>0.036694360420071542</v>
       </c>
       <c r="CJ4">
-        <v>0.036899941652425224</v>
+        <v>0.036751092217727058</v>
       </c>
       <c r="CK4">
-        <v>0.036353574247342348</v>
+        <v>0.036417727834870441</v>
       </c>
       <c r="CL4">
-        <v>0.036470145654515042</v>
+        <v>0.036760594290441408</v>
       </c>
       <c r="CM4">
-        <v>0.037358894007612775</v>
+        <v>0.037111855996445765</v>
       </c>
       <c r="CN4">
-        <v>0.036785129144665696</v>
+        <v>0.03666617362244394</v>
       </c>
       <c r="CO4">
-        <v>0.036662925683601279</v>
+        <v>0.036619458264180955</v>
       </c>
       <c r="CP4">
-        <v>0.036842290925080366</v>
+        <v>0.036619458265177152</v>
       </c>
       <c r="CQ4">
-        <v>0.037504836015612011</v>
+        <v>0.037101850803144577</v>
       </c>
       <c r="CR4">
-        <v>0.037026560173793618</v>
+        <v>0.037192424572529574</v>
       </c>
       <c r="CS4">
-        <v>0.035869424223291847</v>
+        <v>0.036194696048586952</v>
       </c>
       <c r="CT4">
-        <v>0.035658376273488682</v>
+        <v>0.036692844289681475</v>
       </c>
       <c r="CU4">
-        <v>0.037123488404064348</v>
+        <v>0.036088433022956522</v>
       </c>
       <c r="CV4">
-        <v>0.036497734406978233</v>
+        <v>0.035962932354088664</v>
       </c>
       <c r="CW4">
-        <v>0.036598483044317558</v>
+        <v>0.036035877425539521</v>
       </c>
       <c r="CX4">
-        <v>0.036497620960773081</v>
+        <v>0.036205281862561264</v>
       </c>
       <c r="CY4">
-        <v>0.036108532147211027</v>
+        <v>0.036751154519659074</v>
       </c>
       <c r="CZ4">
-        <v>0.036409361898213997</v>
+        <v>0.035910633413156715</v>
       </c>
       <c r="DA4">
-        <v>0.035942062561253041</v>
+        <v>0.03704571037673092</v>
       </c>
       <c r="DB4">
-        <v>0.036734425328625218</v>
+        <v>0.036346238178755805</v>
       </c>
       <c r="DC4">
-        <v>0.036104488741085586</v>
+        <v>0.036809584016097234</v>
       </c>
       <c r="DD4">
-        <v>0.036672614819596799</v>
+        <v>0.035641305378892228</v>
       </c>
       <c r="DE4">
-        <v>0.03700306975286332</v>
+        <v>0.036507685386548069</v>
       </c>
       <c r="DF4">
-        <v>0.036208349266678139</v>
+        <v>0.036334447518961255</v>
       </c>
       <c r="DG4">
-        <v>0.036968220274052541</v>
+        <v>0.037124227365173922</v>
       </c>
       <c r="DH4">
-        <v>0.037270226358530445</v>
+        <v>0.037614278549214793</v>
       </c>
       <c r="DI4">
-        <v>0.038340970010770317</v>
+        <v>0.037215117335875264</v>
       </c>
       <c r="DJ4">
-        <v>0.036768500007096382</v>
+        <v>0.037478784783773721</v>
       </c>
       <c r="DK4">
-        <v>0.038772095890823394</v>
+        <v>0.038481448296878634</v>
       </c>
       <c r="DL4">
-        <v>0.03843780689147841</v>
+        <v>0.038351890692808803</v>
       </c>
       <c r="DM4">
-        <v>0.025761665498083633</v>
+        <v>0.025840004336707915</v>
       </c>
       <c r="DN4">
-        <v>0.021385368152435781</v>
+        <v>0.021327068612630638</v>
       </c>
       <c r="DO4">
-        <v>0.021535785362881425</v>
+        <v>0.021505587895450512</v>
       </c>
       <c r="DP4">
-        <v>0.020672260277896291</v>
+        <v>0.020618497521063501</v>
       </c>
       <c r="DQ4">
-        <v>0.020787791915134069</v>
+        <v>0.020681930835452139</v>
       </c>
       <c r="DR4">
-        <v>0.020853436354106126</v>
+        <v>0.020748514672238608</v>
       </c>
       <c r="DS4">
-        <v>0.020354152599447034</v>
+        <v>0.020361471614125732</v>
       </c>
       <c r="DT4">
-        <v>0.020508881901829177</v>
+        <v>0.02041124005381412</v>
       </c>
       <c r="DU4">
-        <v>0.020733129200308769</v>
+        <v>0.02057163774483289</v>
       </c>
       <c r="DV4">
-        <v>0.020785102830897514</v>
+        <v>0.020666183395024722</v>
       </c>
       <c r="DW4">
-        <v>0.020879694866417366</v>
+        <v>0.020855545981068497</v>
       </c>
       <c r="DX4">
-        <v>0.021317801205488804</v>
+        <v>0.021201397929659211</v>
       </c>
       <c r="DY4">
-        <v>0.021599616368073737</v>
+        <v>0.021412855632916852</v>
       </c>
       <c r="DZ4">
-        <v>0.02164232987908694</v>
+        <v>0.021633460870629884</v>
       </c>
       <c r="EA4">
-        <v>0.021789296488058257</v>
+        <v>0.021780238924328951</v>
       </c>
       <c r="EB4">
-        <v>0.021926682903516258</v>
+        <v>0.021888271026104762</v>
       </c>
       <c r="EC4">
-        <v>0.022280822323795101</v>
+        <v>0.022263729176528881</v>
       </c>
       <c r="ED4">
-        <v>0.022309918867123975</v>
+        <v>0.02233240473242892</v>
       </c>
       <c r="EE4">
-        <v>0.022744181106270835</v>
+        <v>0.022773859000494993</v>
       </c>
       <c r="EF4">
-        <v>0.022790510244651972</v>
+        <v>0.022875147687390074</v>
       </c>
       <c r="EG4">
-        <v>0.022700531574220077</v>
+        <v>0.02270883687318449</v>
       </c>
       <c r="EH4">
-        <v>0.01904843862724924</v>
+        <v>0.019008000881679504</v>
       </c>
       <c r="EI4">
-        <v>0.019093785300214057</v>
+        <v>0.01904272964651137</v>
       </c>
       <c r="EJ4">
-        <v>0.018511926116609293</v>
+        <v>0.018519487791276719</v>
       </c>
       <c r="EK4">
-        <v>0.018647127013423775</v>
+        <v>0.018581586148169505</v>
       </c>
       <c r="EL4">
-        <v>0.018713204969609314</v>
+        <v>0.018676252644615938</v>
       </c>
       <c r="EM4">
-        <v>0.018394393629209353</v>
+        <v>0.0183465834769342</v>
       </c>
       <c r="EN4">
-        <v>0.018460904117915448</v>
+        <v>0.018379661185989625</v>
       </c>
       <c r="EO4">
-        <v>0.018549863492630898</v>
+        <v>0.018517710540322793</v>
       </c>
       <c r="EP4">
-        <v>0.018662781082674888</v>
+        <v>0.018534748790896068</v>
       </c>
       <c r="EQ4">
-        <v>0.018723120241492665</v>
+        <v>0.018691363295873242</v>
       </c>
       <c r="ER4">
-        <v>0.018901837882067375</v>
+        <v>0.01883919449456695</v>
       </c>
       <c r="ES4">
-        <v>0.018982032351995172</v>
+        <v>0.018930456240701089</v>
       </c>
       <c r="ET4">
-        <v>0.019126409943717008</v>
+        <v>0.019028719577546111</v>
       </c>
       <c r="EU4">
-        <v>0.019209424015832418</v>
+        <v>0.019070958461413736</v>
       </c>
       <c r="EV4">
-        <v>0.019301131469185395</v>
+        <v>0.019254050671904731</v>
       </c>
       <c r="EW4">
-        <v>0.019428659919863478</v>
+        <v>0.01937125747370573</v>
       </c>
       <c r="EX4">
-        <v>0.019513823689082447</v>
+        <v>0.019494665398735737</v>
       </c>
       <c r="EY4">
-        <v>0.019624159923991</v>
+        <v>0.019528316210906522</v>
       </c>
       <c r="EZ4">
-        <v>0.019734953724691827</v>
+        <v>0.01963692331339886</v>
       </c>
       <c r="FA4">
-        <v>0.019787712023617909</v>
+        <v>0.019692932424535896</v>
       </c>
       <c r="FB4">
-        <v>0.018824933834494257</v>
+        <v>0.018819561059658634</v>
       </c>
       <c r="FC4">
-        <v>0.01881804999432261</v>
+        <v>0.018952882503815344</v>
       </c>
       <c r="FD4">
-        <v>0.019037663600398817</v>
+        <v>0.018955370136479043</v>
       </c>
       <c r="FE4">
-        <v>0.019159008103025534</v>
+        <v>0.019064325797072221</v>
       </c>
       <c r="FF4">
-        <v>0.019161674433972119</v>
+        <v>0.019135208294764026</v>
       </c>
       <c r="FG4">
-        <v>0.019263203186203635</v>
+        <v>0.019472552962366333</v>
       </c>
       <c r="FH4">
-        <v>0.019460386086161862</v>
+        <v>0.01942510455315866</v>
       </c>
       <c r="FI4">
-        <v>0.019693542884538194</v>
+        <v>0.019415269069049543</v>
       </c>
       <c r="FJ4">
-        <v>0.019584181158475076</v>
+        <v>0.019473326038663696</v>
       </c>
       <c r="FK4">
-        <v>0.019775929150861161</v>
+        <v>0.019715536883268672</v>
       </c>
       <c r="FL4">
-        <v>0.019659018342728651</v>
+        <v>0.019685144519360775</v>
       </c>
       <c r="FM4">
-        <v>0.020003111257652514</v>
+        <v>0.019787845851409809</v>
       </c>
       <c r="FN4">
-        <v>0.019868041123576295</v>
+        <v>0.019983258244990337</v>
       </c>
       <c r="FO4">
-        <v>0.019694371180657311</v>
+        <v>0.019925714690289805</v>
       </c>
       <c r="FP4">
-        <v>0.02002644570505914</v>
+        <v>0.020035330985426349</v>
       </c>
       <c r="FQ4">
-        <v>0.020333240559556175</v>
+        <v>0.020092296251040545</v>
       </c>
       <c r="FR4">
-        <v>0.020294833485266665</v>
+        <v>0.020105985304681717</v>
       </c>
       <c r="FS4">
-        <v>0.020301027125705508</v>
+        <v>0.020230209880338759</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.014397820427034868</v>
+        <v>0.014342920814519334</v>
       </c>
     </row>
   </sheetData>

--- a/tables/glm_coefficients.xlsx
+++ b/tables/glm_coefficients.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="758268" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1197510" uniqueCount="197">
   <si>
     <t>y1</t>
   </si>
@@ -561,6 +561,54 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>min_interaction</t>
+  </si>
+  <si>
+    <t>min21b_interaction</t>
+  </si>
+  <si>
+    <t>min1620b_interaction</t>
+  </si>
+  <si>
+    <t>min1115b_interaction</t>
+  </si>
+  <si>
+    <t>min610b_interaction</t>
+  </si>
+  <si>
+    <t>min35b_interaction</t>
+  </si>
+  <si>
+    <t>min12b_interaction</t>
+  </si>
+  <si>
+    <t>min12a_interaction</t>
+  </si>
+  <si>
+    <t>min35a_interaction</t>
+  </si>
+  <si>
+    <t>min610a_interaction</t>
+  </si>
+  <si>
+    <t>min1115a_interaction</t>
+  </si>
+  <si>
+    <t>min1620a_interaction</t>
+  </si>
+  <si>
+    <t>o.bin_82</t>
+  </si>
+  <si>
+    <t>o.bin_103</t>
+  </si>
+  <si>
+    <t>o.bin_102</t>
+  </si>
+  <si>
+    <t>o.bin_123</t>
   </si>
 </sst>
 </file>
@@ -604,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1142,6 +1190,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -1675,529 +1759,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>-0.0027391809632809345</v>
+        <v>0.0027910082444544738</v>
       </c>
       <c r="C3">
-        <v>-0.63062860017890243</v>
+        <v>-0.63295718361969211</v>
       </c>
       <c r="D3">
-        <v>-0.66894834150689264</v>
+        <v>-0.66947872535688968</v>
       </c>
       <c r="E3">
-        <v>-0.67554253747518045</v>
+        <v>-0.6700800340402322</v>
       </c>
       <c r="F3">
-        <v>-0.66686694004090685</v>
+        <v>-0.67665350253688017</v>
       </c>
       <c r="G3">
-        <v>-0.66870404903775249</v>
+        <v>-0.69917164197438209</v>
       </c>
       <c r="H3">
-        <v>-0.69149842876534617</v>
+        <v>-0.66831749150519282</v>
       </c>
       <c r="I3">
-        <v>-0.0017100207021415053</v>
+        <v>-0.014514162843770285</v>
       </c>
       <c r="J3">
-        <v>0.001540989115343454</v>
+        <v>-0.0074976416365369492</v>
       </c>
       <c r="K3">
-        <v>-0.003973559556047267</v>
+        <v>0.0069005133580477499</v>
       </c>
       <c r="L3">
-        <v>0.0033954729935568909</v>
+        <v>0.001630458020122253</v>
       </c>
       <c r="M3">
-        <v>0.0004153558709399037</v>
+        <v>0.0021636748335779957</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2258431596124768</v>
+        <v>1.2189937990135198</v>
       </c>
       <c r="P3">
-        <v>1.3370733607294532</v>
+        <v>1.3492084473386676</v>
       </c>
       <c r="Q3">
-        <v>-0.22643747106103065</v>
+        <v>-0.19507971084218398</v>
       </c>
       <c r="R3">
-        <v>-0.19281697753093835</v>
+        <v>-0.20934378222127659</v>
       </c>
       <c r="S3">
-        <v>-0.23637787021425266</v>
+        <v>-0.21832405505113625</v>
       </c>
       <c r="T3">
-        <v>-0.18300036871444239</v>
+        <v>-0.2122109577011434</v>
       </c>
       <c r="U3">
-        <v>-0.16051775148011363</v>
+        <v>-0.14940830845541087</v>
       </c>
       <c r="V3">
-        <v>-0.13162460971440193</v>
+        <v>-0.12396627401664806</v>
       </c>
       <c r="W3">
-        <v>-0.10934236872924814</v>
+        <v>-0.12959564999886741</v>
       </c>
       <c r="X3">
-        <v>-0.10944105893208844</v>
+        <v>-0.11994242404069495</v>
       </c>
       <c r="Y3">
-        <v>-0.13927339565449609</v>
+        <v>-0.06309566818732365</v>
       </c>
       <c r="Z3">
-        <v>-0.082073796624997433</v>
+        <v>-0.09039243358037162</v>
       </c>
       <c r="AA3">
-        <v>-0.07366047068627557</v>
+        <v>-0.069203223472591696</v>
       </c>
       <c r="AB3">
-        <v>-0.075898766256669595</v>
+        <v>-0.068870714328360255</v>
       </c>
       <c r="AC3">
-        <v>-0.081089296708594383</v>
+        <v>-0.088875060149789742</v>
       </c>
       <c r="AD3">
-        <v>-0.062650326742624121</v>
+        <v>-0.03593225852561021</v>
       </c>
       <c r="AE3">
-        <v>-0.07033553585169941</v>
+        <v>-0.068186090169987487</v>
       </c>
       <c r="AF3">
-        <v>-0.034615588555697657</v>
+        <v>-0.044316504943646091</v>
       </c>
       <c r="AG3">
-        <v>-0.031011667455221711</v>
+        <v>-0.044549339817557376</v>
       </c>
       <c r="AH3">
-        <v>-0.039650743909598198</v>
+        <v>-0.051857303432570175</v>
       </c>
       <c r="AI3">
-        <v>0.017699011207926666</v>
+        <v>0.029162267000226311</v>
       </c>
       <c r="AJ3">
-        <v>-0.026977011651675237</v>
+        <v>-0.069889988043572909</v>
       </c>
       <c r="AK3">
-        <v>-0.020856986865387252</v>
+        <v>-0.020294346238057061</v>
       </c>
       <c r="AL3">
-        <v>-0.0057682565897824627</v>
+        <v>-0.0051261989672265647</v>
       </c>
       <c r="AM3">
-        <v>-0.014507884063626627</v>
+        <v>0.010822366131865838</v>
       </c>
       <c r="AN3">
-        <v>-0.017734090378736224</v>
+        <v>-0.011850191246273024</v>
       </c>
       <c r="AO3">
-        <v>0.010904765529230552</v>
+        <v>-0.010096653085715755</v>
       </c>
       <c r="AP3">
-        <v>-0.0044884029018416255</v>
+        <v>-0.024158949651659437</v>
       </c>
       <c r="AQ3">
-        <v>-0.030063722353456251</v>
+        <v>0.0098939079726342687</v>
       </c>
       <c r="AR3">
-        <v>0.011075196698537702</v>
+        <v>-0.0063845657840377237</v>
       </c>
       <c r="AS3">
-        <v>-0.011945597756734818</v>
+        <v>0.018400300259758372</v>
       </c>
       <c r="AT3">
-        <v>0.012224966387017519</v>
+        <v>0.018067747521248914</v>
       </c>
       <c r="AU3">
-        <v>0.072335636371140474</v>
+        <v>0.015562609828569007</v>
       </c>
       <c r="AV3">
-        <v>0.016939977594370062</v>
+        <v>0.034579683915610102</v>
       </c>
       <c r="AW3">
-        <v>0.03161846841073318</v>
+        <v>0.016750869981300723</v>
       </c>
       <c r="AX3">
-        <v>0.028621118786862378</v>
+        <v>0.047968101208896767</v>
       </c>
       <c r="AY3">
-        <v>0.05164154267970774</v>
+        <v>0.056480995758516554</v>
       </c>
       <c r="AZ3">
-        <v>0.014218713589666461</v>
+        <v>0.040536373260632551</v>
       </c>
       <c r="BA3">
-        <v>0.021325522075008083</v>
+        <v>-2.2893789606367527e-05</v>
       </c>
       <c r="BB3">
-        <v>0.011023500714013939</v>
+        <v>0.03065929765769753</v>
       </c>
       <c r="BC3">
-        <v>0.04158619539557866</v>
+        <v>0.048490010394751551</v>
       </c>
       <c r="BD3">
-        <v>0.0049629170566816115</v>
+        <v>0.043647876507977974</v>
       </c>
       <c r="BE3">
-        <v>0.030559710909733501</v>
+        <v>0.077569300110801348</v>
       </c>
       <c r="BF3">
-        <v>0.030878913390067052</v>
+        <v>0.055437151829007061</v>
       </c>
       <c r="BG3">
-        <v>0.063881229345290766</v>
+        <v>0.061299961774473569</v>
       </c>
       <c r="BH3">
-        <v>0.026591553874968091</v>
+        <v>0.028915115297612516</v>
       </c>
       <c r="BI3">
-        <v>0.027195568423590957</v>
+        <v>-0.00022719599156802937</v>
       </c>
       <c r="BJ3">
-        <v>0.054718840208673465</v>
+        <v>0.039741024111432335</v>
       </c>
       <c r="BK3">
-        <v>0.10289771503877368</v>
+        <v>0.014046861528081666</v>
       </c>
       <c r="BL3">
-        <v>0.040801462758965457</v>
+        <v>0.058613666220674043</v>
       </c>
       <c r="BM3">
-        <v>0.041444789242165006</v>
+        <v>0.039991254477113575</v>
       </c>
       <c r="BN3">
-        <v>0.051093549781801556</v>
+        <v>0.058381158870530671</v>
       </c>
       <c r="BO3">
-        <v>0.041184850343133489</v>
+        <v>0.066458022034054598</v>
       </c>
       <c r="BP3">
-        <v>0.010299030980029187</v>
+        <v>0.074824494619570012</v>
       </c>
       <c r="BQ3">
-        <v>0.030383696965180548</v>
+        <v>0.03749716776177895</v>
       </c>
       <c r="BR3">
-        <v>0.064145678364301573</v>
+        <v>0.049161253809807966</v>
       </c>
       <c r="BS3">
-        <v>0.05057259132487392</v>
+        <v>0.083890613765967403</v>
       </c>
       <c r="BT3">
-        <v>0.04178727036186488</v>
+        <v>0.058973147219133604</v>
       </c>
       <c r="BU3">
-        <v>0.065263452808485403</v>
+        <v>0.031951906300468111</v>
       </c>
       <c r="BV3">
-        <v>-0.0010201375555486619</v>
+        <v>0.051694954299366123</v>
       </c>
       <c r="BW3">
-        <v>0.026293207667912346</v>
+        <v>0.05040599320365844</v>
       </c>
       <c r="BX3">
-        <v>0.050836425603333978</v>
+        <v>0.041735064464149742</v>
       </c>
       <c r="BY3">
-        <v>0.058723504705400123</v>
+        <v>0.12135651839576635</v>
       </c>
       <c r="BZ3">
-        <v>0.029013430396979529</v>
+        <v>0.054996081549287722</v>
       </c>
       <c r="CA3">
-        <v>0.078633886680822079</v>
+        <v>0.07358695082938442</v>
       </c>
       <c r="CB3">
-        <v>0.048816519743933161</v>
+        <v>0.072920326015891823</v>
       </c>
       <c r="CC3">
-        <v>0.094657392571408941</v>
+        <v>0.056381531198674055</v>
       </c>
       <c r="CD3">
-        <v>0.04113451431125608</v>
+        <v>0.077284813034381949</v>
       </c>
       <c r="CE3">
-        <v>0.042293520120845501</v>
+        <v>0.0740427358172695</v>
       </c>
       <c r="CF3">
-        <v>0.033124919447605705</v>
+        <v>0.089056634929390227</v>
       </c>
       <c r="CG3">
-        <v>0.072086231374293361</v>
+        <v>0.02626899889868432</v>
       </c>
       <c r="CH3">
-        <v>0.044821726340194497</v>
+        <v>0.052848082493060694</v>
       </c>
       <c r="CI3">
-        <v>0.091631454753026281</v>
+        <v>0.053652525491911227</v>
       </c>
       <c r="CJ3">
-        <v>0.024428649130566929</v>
+        <v>0.075252115765305105</v>
       </c>
       <c r="CK3">
-        <v>0.070049975556165725</v>
+        <v>0.034456383907288189</v>
       </c>
       <c r="CL3">
-        <v>0.022991831268283414</v>
+        <v>0.051451148357908823</v>
       </c>
       <c r="CM3">
-        <v>0.043711876209741346</v>
+        <v>0.036342949173066637</v>
       </c>
       <c r="CN3">
-        <v>0.020319507132767849</v>
+        <v>0.052711262313149647</v>
       </c>
       <c r="CO3">
-        <v>0.067173854613509887</v>
+        <v>0.085352384153604285</v>
       </c>
       <c r="CP3">
-        <v>0.042043073372503757</v>
+        <v>0.078936688393443935</v>
       </c>
       <c r="CQ3">
-        <v>0.044673322319718621</v>
+        <v>0.067442939462632329</v>
       </c>
       <c r="CR3">
-        <v>0.029927758417659558</v>
+        <v>0.068644267712464305</v>
       </c>
       <c r="CS3">
-        <v>0.056182964623345294</v>
+        <v>0.053212958002799515</v>
       </c>
       <c r="CT3">
-        <v>0.058083266857240981</v>
+        <v>0.080268244416831336</v>
       </c>
       <c r="CU3">
-        <v>0.043652170136576886</v>
+        <v>0.075043519673459264</v>
       </c>
       <c r="CV3">
-        <v>0.056417232664247134</v>
+        <v>0.1175527792767104</v>
       </c>
       <c r="CW3">
-        <v>0.077926161993363649</v>
+        <v>0.033832342676178226</v>
       </c>
       <c r="CX3">
-        <v>0.058961172164263248</v>
+        <v>0.091277682282956768</v>
       </c>
       <c r="CY3">
-        <v>0.052266026418920121</v>
+        <v>0.045796480405877638</v>
       </c>
       <c r="CZ3">
-        <v>0.037790049847760236</v>
+        <v>0.025909290143444327</v>
       </c>
       <c r="DA3">
-        <v>0.079871315948605151</v>
+        <v>0.042885135465086377</v>
       </c>
       <c r="DB3">
-        <v>0.071043941494061597</v>
+        <v>0.05735601188355792</v>
       </c>
       <c r="DC3">
-        <v>0.02443702083029509</v>
+        <v>0.03995780685364534</v>
       </c>
       <c r="DD3">
-        <v>0.045629427936507982</v>
+        <v>0.022289029227480103</v>
       </c>
       <c r="DE3">
-        <v>0.047668266900974227</v>
+        <v>0.07150346315854636</v>
       </c>
       <c r="DF3">
-        <v>0.029673577814209793</v>
+        <v>0.063303496252117827</v>
       </c>
       <c r="DG3">
-        <v>0.035087577960290169</v>
+        <v>0.064653248527934304</v>
       </c>
       <c r="DH3">
-        <v>0.089143365464495486</v>
+        <v>0.062274866783714106</v>
       </c>
       <c r="DI3">
-        <v>0.014239288944032953</v>
+        <v>0.038618056533042594</v>
       </c>
       <c r="DJ3">
-        <v>0.05671539431424244</v>
+        <v>0.039529706492905464</v>
       </c>
       <c r="DK3">
-        <v>0.050871064540853328</v>
+        <v>0.03388835315017192</v>
       </c>
       <c r="DL3">
-        <v>0.063264623838152331</v>
+        <v>0.055269430431289714</v>
       </c>
       <c r="DM3">
-        <v>0.029045312694223502</v>
+        <v>0.04868978593175214</v>
       </c>
       <c r="DN3">
-        <v>0.012618115635647105</v>
+        <v>0.061414324338032393</v>
       </c>
       <c r="DO3">
-        <v>0.078286672181174008</v>
+        <v>0.067467174001035635</v>
       </c>
       <c r="DP3">
-        <v>0.05174044416025441</v>
+        <v>0.056010839479897559</v>
       </c>
       <c r="DQ3">
-        <v>0.058582307427280364</v>
+        <v>0.050179781986330954</v>
       </c>
       <c r="DR3">
-        <v>0.062038060302451292</v>
+        <v>0.065443026090392584</v>
       </c>
       <c r="DS3">
-        <v>0.072430294154942482</v>
+        <v>0.067010318812879791</v>
       </c>
       <c r="DT3">
-        <v>0.012699444517881114</v>
+        <v>0.068959252467359691</v>
       </c>
       <c r="DU3">
-        <v>0.026336395710900622</v>
+        <v>0.02602011141944216</v>
       </c>
       <c r="DV3">
-        <v>0.036769976582145029</v>
+        <v>0.035257955198799776</v>
       </c>
       <c r="DW3">
-        <v>0.04483917996629521</v>
+        <v>0.055119482899936963</v>
       </c>
       <c r="DX3">
-        <v>0.016450673784146701</v>
+        <v>0.037403128890085617</v>
       </c>
       <c r="DY3">
-        <v>0.039819247589426995</v>
+        <v>0.03466577789905316</v>
       </c>
       <c r="DZ3">
-        <v>0.028690404061279658</v>
+        <v>0.073248229088552205</v>
       </c>
       <c r="EA3">
-        <v>0.027099680006913561</v>
+        <v>0.038145740897506525</v>
       </c>
       <c r="EB3">
-        <v>0.055324548021334165</v>
+        <v>0.043461252689706249</v>
       </c>
       <c r="EC3">
-        <v>0.068149985602875274</v>
+        <v>0.035096107150382722</v>
       </c>
       <c r="ED3">
-        <v>0.028019166641943857</v>
+        <v>0.048567129138515783</v>
       </c>
       <c r="EE3">
-        <v>0.017978719079527659</v>
+        <v>0.042509061832199248</v>
       </c>
       <c r="EF3">
-        <v>0.054542450511503852</v>
+        <v>0.057236702182146701</v>
       </c>
       <c r="EG3">
-        <v>0.037863908027472519</v>
+        <v>0.064658908960097766</v>
       </c>
       <c r="EH3">
-        <v>0.032221800087348526</v>
+        <v>0.072377486218492187</v>
       </c>
       <c r="EI3">
-        <v>0.030457973532081808</v>
+        <v>0.027402912000705801</v>
       </c>
       <c r="EJ3">
-        <v>0.049150329407102331</v>
+        <v>0.035685654676944283</v>
       </c>
       <c r="EK3">
-        <v>0.011034701126181833</v>
+        <v>0.0084768481191324282</v>
       </c>
       <c r="EL3">
-        <v>0.060231236681264677</v>
+        <v>0.038671453560614383</v>
       </c>
       <c r="EM3">
-        <v>0.023146630070500038</v>
+        <v>0.011313190033151033</v>
       </c>
       <c r="EN3">
-        <v>0.060221000144855243</v>
+        <v>0.043359100452049826</v>
       </c>
       <c r="EO3">
-        <v>0.0021794796461129117</v>
+        <v>0.095681337200866051</v>
       </c>
       <c r="EP3">
-        <v>0.0057158382623868466</v>
+        <v>0.056488597653083977</v>
       </c>
       <c r="EQ3">
-        <v>0.022917182935324354</v>
+        <v>-0.023716890725237836</v>
       </c>
       <c r="ER3">
-        <v>0.00038829430659416268</v>
+        <v>0.020335339720517528</v>
       </c>
       <c r="ES3">
-        <v>0.033573546712619182</v>
+        <v>0.017250035682916012</v>
       </c>
       <c r="ET3">
-        <v>0.045069099415089249</v>
+        <v>0.04636376506300522</v>
       </c>
       <c r="EU3">
-        <v>0.0094719643206194071</v>
+        <v>0.029841930465842721</v>
       </c>
       <c r="EV3">
-        <v>0.0012415775793614536</v>
+        <v>0.029009216949513611</v>
       </c>
       <c r="EW3">
-        <v>0.039294013686777395</v>
+        <v>0.044601911630428336</v>
       </c>
       <c r="EX3">
-        <v>0.046944912230620542</v>
+        <v>0.027328481245774937</v>
       </c>
       <c r="EY3">
-        <v>0.020779773788065482</v>
+        <v>0.022783886668886318</v>
       </c>
       <c r="EZ3">
-        <v>0.022113613883276789</v>
+        <v>0.002439604182477993</v>
       </c>
       <c r="FA3">
-        <v>0.031155237991801726</v>
+        <v>0.023015843377970781</v>
       </c>
       <c r="FB3">
-        <v>0.039759597365552179</v>
+        <v>0.024758577533404172</v>
       </c>
       <c r="FC3">
-        <v>-0.00024140759979308422</v>
+        <v>0.015400359121769467</v>
       </c>
       <c r="FD3">
-        <v>0.021430534342379959</v>
+        <v>0.01333915831014547</v>
       </c>
       <c r="FE3">
-        <v>0.0035464008810002913</v>
+        <v>0.045940505429502773</v>
       </c>
       <c r="FF3">
-        <v>0.018328399876464625</v>
+        <v>0.016773023700890597</v>
       </c>
       <c r="FG3">
-        <v>0.030742477601239885</v>
+        <v>0.01654221900364241</v>
       </c>
       <c r="FH3">
-        <v>0.04221914937085057</v>
+        <v>0.013918617421405816</v>
       </c>
       <c r="FI3">
-        <v>0.030142789077676504</v>
+        <v>0.0040369517395002245</v>
       </c>
       <c r="FJ3">
-        <v>-0.019006202819731307</v>
+        <v>0.037441341481404808</v>
       </c>
       <c r="FK3">
-        <v>0.024965085688613126</v>
+        <v>0.047135981270481658</v>
       </c>
       <c r="FL3">
-        <v>0.045002076919532709</v>
+        <v>0.046604729503890739</v>
       </c>
       <c r="FM3">
-        <v>0.0289210938337035</v>
+        <v>0.020354799831159859</v>
       </c>
       <c r="FN3">
-        <v>0.026809868340855528</v>
+        <v>0.040633970979133655</v>
       </c>
       <c r="FO3">
-        <v>-0.0051446645398673394</v>
+        <v>0.028004031509000302</v>
       </c>
       <c r="FP3">
-        <v>0.026192683620271062</v>
+        <v>-0.01583967157625292</v>
       </c>
       <c r="FQ3">
-        <v>0.005852114464400566</v>
+        <v>0.0031012413224111332</v>
       </c>
       <c r="FR3">
-        <v>0.029911830681014509</v>
+        <v>0.0055608178458046754</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -2209,7 +2329,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5307876532189342</v>
+        <v>-5.5377416370451122</v>
+      </c>
+      <c r="FW3">
+        <v>0.047135981270481776</v>
+      </c>
+      <c r="FX3">
+        <v>0.046604729503890309</v>
+      </c>
+      <c r="FY3">
+        <v>0.020354799831159152</v>
+      </c>
+      <c r="FZ3">
+        <v>0.040633970979132954</v>
+      </c>
+      <c r="GA3">
+        <v>0.028004031509000053</v>
+      </c>
+      <c r="GB3">
+        <v>-0.015839671576252389</v>
+      </c>
+      <c r="GC3">
+        <v>0.0031012413224115157</v>
+      </c>
+      <c r="GD3">
+        <v>0.005560817845803926</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.5377416370451122</v>
       </c>
     </row>
     <row r="4">
@@ -2217,523 +2373,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.023148087678647965</v>
+        <v>0.023068981067956316</v>
       </c>
       <c r="C4">
-        <v>0.012672200084391521</v>
+        <v>0.012656424779546888</v>
       </c>
       <c r="D4">
-        <v>0.014262951274254932</v>
+        <v>0.01423557402024069</v>
       </c>
       <c r="E4">
-        <v>0.014014734282607865</v>
+        <v>0.013992771293003746</v>
       </c>
       <c r="F4">
-        <v>0.014098213326846944</v>
+        <v>0.014087782489748081</v>
       </c>
       <c r="G4">
-        <v>0.016575774875234879</v>
+        <v>0.01668268513536916</v>
       </c>
       <c r="H4">
-        <v>0.019916556380071698</v>
+        <v>0.019800867830421797</v>
       </c>
       <c r="I4">
-        <v>0.016006621500384007</v>
+        <v>0.01594152091782396</v>
       </c>
       <c r="J4">
-        <v>0.013080652955861461</v>
+        <v>0.013107221555527246</v>
       </c>
       <c r="K4">
-        <v>0.010880107333376108</v>
+        <v>0.010828857564200881</v>
       </c>
       <c r="L4">
-        <v>0.011001188003278194</v>
+        <v>0.01099077698443645</v>
       </c>
       <c r="M4">
-        <v>0.011199784228367213</v>
+        <v>0.011189769689734341</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022268245970260434</v>
+        <v>0.022316891481084643</v>
       </c>
       <c r="P4">
-        <v>0.02207921611821452</v>
+        <v>0.022092124543175818</v>
       </c>
       <c r="Q4">
-        <v>0.027913616203902435</v>
+        <v>0.027778929675387351</v>
       </c>
       <c r="R4">
-        <v>0.027705560308579159</v>
+        <v>0.02788308420618631</v>
       </c>
       <c r="S4">
-        <v>0.028002198590614799</v>
+        <v>0.027953364540636405</v>
       </c>
       <c r="T4">
-        <v>0.027664418755884029</v>
+        <v>0.027924122495324482</v>
       </c>
       <c r="U4">
-        <v>0.027532761678269759</v>
+        <v>0.027530863336577713</v>
       </c>
       <c r="V4">
-        <v>0.027363779018307749</v>
+        <v>0.02738362843521985</v>
       </c>
       <c r="W4">
-        <v>0.027238679336138896</v>
+        <v>0.027429905976068539</v>
       </c>
       <c r="X4">
-        <v>0.027250784664835114</v>
+        <v>0.027381539442147881</v>
       </c>
       <c r="Y4">
-        <v>0.027446187665625888</v>
+        <v>0.0270494094653746</v>
       </c>
       <c r="Z4">
-        <v>0.027108287578197617</v>
+        <v>0.027224364228555793</v>
       </c>
       <c r="AA4">
-        <v>0.027069749528232667</v>
+        <v>0.027108648453975613</v>
       </c>
       <c r="AB4">
-        <v>0.027094748809804614</v>
+        <v>0.027118302242993792</v>
       </c>
       <c r="AC4">
-        <v>0.027137484160389677</v>
+        <v>0.027250400687085865</v>
       </c>
       <c r="AD4">
-        <v>0.027039235836263179</v>
+        <v>0.0269468449342266</v>
       </c>
       <c r="AE4">
-        <v>0.027096679603336282</v>
+        <v>0.027149382196668324</v>
       </c>
       <c r="AF4">
-        <v>0.026898018453485304</v>
+        <v>0.027019242413756736</v>
       </c>
       <c r="AG4">
-        <v>0.02688893756110038</v>
+        <v>0.027032406755932117</v>
       </c>
       <c r="AH4">
-        <v>0.026951191413573133</v>
+        <v>0.027087507657800779</v>
       </c>
       <c r="AI4">
-        <v>0.02663448783310093</v>
+        <v>0.026632232030032413</v>
       </c>
       <c r="AJ4">
-        <v>0.026901657944746374</v>
+        <v>0.027220376289843255</v>
       </c>
       <c r="AK4">
-        <v>0.026878073851190929</v>
+        <v>0.02693767767412553</v>
       </c>
       <c r="AL4">
-        <v>0.026803030897787291</v>
+        <v>0.026861673993625785</v>
       </c>
       <c r="AM4">
-        <v>0.026865445232427575</v>
+        <v>0.026782177596340939</v>
       </c>
       <c r="AN4">
-        <v>0.026896200315019568</v>
+        <v>0.026924886508329714</v>
       </c>
       <c r="AO4">
-        <v>0.026743538647297338</v>
+        <v>0.026926710764434193</v>
       </c>
       <c r="AP4">
-        <v>0.026843909944968151</v>
+        <v>0.027021119912319289</v>
       </c>
       <c r="AQ4">
-        <v>0.027005239305528235</v>
+        <v>0.026834956238615319</v>
       </c>
       <c r="AR4">
-        <v>0.026778400064199234</v>
+        <v>0.026941341577798119</v>
       </c>
       <c r="AS4">
-        <v>0.026923580399153005</v>
+        <v>0.02681021810838265</v>
       </c>
       <c r="AT4">
-        <v>0.026795974260854932</v>
+        <v>0.026824330876054413</v>
       </c>
       <c r="AU4">
-        <v>0.026471368891062441</v>
+        <v>0.026850960387276496</v>
       </c>
       <c r="AV4">
-        <v>0.026794212523083286</v>
+        <v>0.026754381242177917</v>
       </c>
       <c r="AW4">
-        <v>0.026722803425673129</v>
+        <v>0.026868836333506306</v>
       </c>
       <c r="AX4">
-        <v>0.026752218456203913</v>
+        <v>0.026702909508055428</v>
       </c>
       <c r="AY4">
-        <v>0.026634487984384846</v>
+        <v>0.026667371940364892</v>
       </c>
       <c r="AZ4">
-        <v>0.026860048087629589</v>
+        <v>0.026769986940865728</v>
       </c>
       <c r="BA4">
-        <v>0.026831413667798506</v>
+        <v>0.027017366242830212</v>
       </c>
       <c r="BB4">
-        <v>0.026903479360636584</v>
+        <v>0.026850960453583428</v>
       </c>
       <c r="BC4">
-        <v>0.026740073500632594</v>
+        <v>0.026761307718906269</v>
       </c>
       <c r="BD4">
-        <v>0.026964156708153539</v>
+        <v>0.026801429160381723</v>
       </c>
       <c r="BE4">
-        <v>0.026827852176856536</v>
+        <v>0.026622264431723521</v>
       </c>
       <c r="BF4">
-        <v>0.026838548585240582</v>
+        <v>0.026759574733608758</v>
       </c>
       <c r="BG4">
-        <v>0.026663089063751949</v>
+        <v>0.026738851883221865</v>
       </c>
       <c r="BH4">
-        <v>0.026888937808189097</v>
+        <v>0.02693767788481698</v>
       </c>
       <c r="BI4">
-        <v>0.026898018718170807</v>
+        <v>0.027122171831038031</v>
       </c>
       <c r="BJ4">
-        <v>0.026752218576105651</v>
+        <v>0.026899453905359909</v>
       </c>
       <c r="BK4">
-        <v>0.026495293809759235</v>
+        <v>0.027062694610490462</v>
       </c>
       <c r="BL4">
-        <v>0.026858251113662759</v>
+        <v>0.026815503310998155</v>
       </c>
       <c r="BM4">
-        <v>0.026867246566429664</v>
+        <v>0.026935847550884399</v>
       </c>
       <c r="BN4">
-        <v>0.026824294667142277</v>
+        <v>0.026842059591005784</v>
       </c>
       <c r="BO4">
-        <v>0.02689438338148251</v>
+        <v>0.026808458585851926</v>
       </c>
       <c r="BP4">
-        <v>0.027088963512651658</v>
+        <v>0.026773465431952023</v>
       </c>
       <c r="BQ4">
-        <v>0.026982767431653433</v>
+        <v>0.027002393820753479</v>
       </c>
       <c r="BR4">
-        <v>0.026799500918676684</v>
+        <v>0.026946845300989366</v>
       </c>
       <c r="BS4">
-        <v>0.026890752076803179</v>
+        <v>0.026759574869077377</v>
       </c>
       <c r="BT4">
-        <v>0.026954890870413306</v>
+        <v>0.026915780854000971</v>
       </c>
       <c r="BU4">
-        <v>0.026831413872575635</v>
+        <v>0.027087508013827338</v>
       </c>
       <c r="BV4">
-        <v>0.027236666374140517</v>
+        <v>0.026983773213305889</v>
       </c>
       <c r="BW4">
-        <v>0.027085112024871089</v>
+        <v>0.027004261746174818</v>
       </c>
       <c r="BX4">
-        <v>0.026953040841951128</v>
+        <v>0.027068404514112802</v>
       </c>
       <c r="BY4">
-        <v>0.026639621647091442</v>
+        <v>0.026330197339074036</v>
       </c>
       <c r="BZ4">
-        <v>0.026833505712848382</v>
+        <v>0.026735369030671897</v>
       </c>
       <c r="CA4">
-        <v>0.026546707327051423</v>
+        <v>0.026636563065657613</v>
       </c>
       <c r="CB4">
-        <v>0.026739187208611799</v>
+        <v>0.026653814461534548</v>
       </c>
       <c r="CC4">
-        <v>0.026478232267792126</v>
+        <v>0.026767040858892057</v>
       </c>
       <c r="CD4">
-        <v>0.026770205124241459</v>
+        <v>0.026596558525069165</v>
       </c>
       <c r="CE4">
-        <v>0.026776345153118431</v>
+        <v>0.026629454532414023</v>
       </c>
       <c r="CF4">
-        <v>0.026846531074183569</v>
+        <v>0.026552594081358578</v>
       </c>
       <c r="CG4">
-        <v>0.026620559510110903</v>
+        <v>0.026951104102976287</v>
       </c>
       <c r="CH4">
-        <v>0.026801013876181064</v>
+        <v>0.026798821383461523</v>
       </c>
       <c r="CI4">
-        <v>0.02652524214231897</v>
+        <v>0.026836486311607542</v>
       </c>
       <c r="CJ4">
-        <v>0.026950265556368314</v>
+        <v>0.026717164191691532</v>
       </c>
       <c r="CK4">
-        <v>0.026681535300009423</v>
+        <v>0.026983589888831951</v>
       </c>
       <c r="CL4">
-        <v>0.026986705739116816</v>
+        <v>0.026890442444306557</v>
       </c>
       <c r="CM4">
-        <v>0.026870183156670571</v>
+        <v>0.026998656993497055</v>
       </c>
       <c r="CN4">
-        <v>0.02737255140851878</v>
+        <v>0.027337149852266856</v>
       </c>
       <c r="CO4">
-        <v>0.027096885891603049</v>
+        <v>0.027149922461949853</v>
       </c>
       <c r="CP4">
-        <v>0.027264333705103901</v>
+        <v>0.027202469282862407</v>
       </c>
       <c r="CQ4">
-        <v>0.027856170338421877</v>
+        <v>0.027724712946584688</v>
       </c>
       <c r="CR4">
-        <v>0.027960354531914713</v>
+        <v>0.027730793074233581</v>
       </c>
       <c r="CS4">
-        <v>0.028095763775051356</v>
+        <v>0.0281097941426986</v>
       </c>
       <c r="CT4">
-        <v>0.025604619344207522</v>
+        <v>0.025567803414059856</v>
       </c>
       <c r="CU4">
-        <v>0.02568464025490183</v>
+        <v>0.02560580012356203</v>
       </c>
       <c r="CV4">
-        <v>0.024705566639911306</v>
+        <v>0.024509419834618837</v>
       </c>
       <c r="CW4">
-        <v>0.024621373558601323</v>
+        <v>0.024916707170257797</v>
       </c>
       <c r="CX4">
-        <v>0.024531751201044186</v>
+        <v>0.02445993147525749</v>
       </c>
       <c r="CY4">
-        <v>0.024363228887583559</v>
+        <v>0.024379244199140268</v>
       </c>
       <c r="CZ4">
-        <v>0.024451299268292405</v>
+        <v>0.024494274827245293</v>
       </c>
       <c r="DA4">
-        <v>0.024264023612617869</v>
+        <v>0.024427581089016034</v>
       </c>
       <c r="DB4">
-        <v>0.024323754473771411</v>
+        <v>0.024374031752383049</v>
       </c>
       <c r="DC4">
-        <v>0.024245041422060562</v>
+        <v>0.024185639816369078</v>
       </c>
       <c r="DD4">
-        <v>0.024480993161364709</v>
+        <v>0.024667617332048791</v>
       </c>
       <c r="DE4">
-        <v>0.024488301634546395</v>
+        <v>0.024440938287921696</v>
       </c>
       <c r="DF4">
-        <v>0.024595107831991932</v>
+        <v>0.024498473038642353</v>
       </c>
       <c r="DG4">
-        <v>0.024585437096843649</v>
+        <v>0.024509329833484278</v>
       </c>
       <c r="DH4">
-        <v>0.024271991152780715</v>
+        <v>0.024502836045982811</v>
       </c>
       <c r="DI4">
-        <v>0.024880744556364087</v>
+        <v>0.024851686665866544</v>
       </c>
       <c r="DJ4">
-        <v>0.024685364662078969</v>
+        <v>0.024864967039119931</v>
       </c>
       <c r="DK4">
-        <v>0.025224852298062258</v>
+        <v>0.02531079493953238</v>
       </c>
       <c r="DL4">
-        <v>0.025182730550048462</v>
+        <v>0.025223676391530135</v>
       </c>
       <c r="DM4">
-        <v>0.025494341996726653</v>
+        <v>0.025445202268369438</v>
       </c>
       <c r="DN4">
-        <v>0.022581345672758855</v>
+        <v>0.022422041175743309</v>
       </c>
       <c r="DO4">
-        <v>0.022321093881983171</v>
+        <v>0.022414110223048494</v>
       </c>
       <c r="DP4">
-        <v>0.021967632619189614</v>
+        <v>0.02201603339743561</v>
       </c>
       <c r="DQ4">
-        <v>0.021956204005492884</v>
+        <v>0.022059365485562005</v>
       </c>
       <c r="DR4">
-        <v>0.021959463818949553</v>
+        <v>0.022011083465267561</v>
       </c>
       <c r="DS4">
-        <v>0.021638171212915315</v>
+        <v>0.021691272380276232</v>
       </c>
       <c r="DT4">
-        <v>0.021923681302946824</v>
+        <v>0.021701237379236293</v>
       </c>
       <c r="DU4">
-        <v>0.021879813194886417</v>
+        <v>0.021911300077915839</v>
       </c>
       <c r="DV4">
-        <v>0.021850982887777981</v>
+        <v>0.021887865614975372</v>
       </c>
       <c r="DW4">
-        <v>0.021833129572270002</v>
+        <v>0.021817098346394538</v>
       </c>
       <c r="DX4">
-        <v>0.021984648693487326</v>
+        <v>0.021944288381057615</v>
       </c>
       <c r="DY4">
-        <v>0.021896356072542124</v>
+        <v>0.02197544096727402</v>
       </c>
       <c r="DZ4">
-        <v>0.021966001668006673</v>
+        <v>0.021819913619465548</v>
       </c>
       <c r="EA4">
-        <v>0.021992145672400258</v>
+        <v>0.021997662067094838</v>
       </c>
       <c r="EB4">
-        <v>0.021881933910289746</v>
+        <v>0.021992088780716998</v>
       </c>
       <c r="EC4">
-        <v>0.021872938252195682</v>
+        <v>0.022073801027346667</v>
       </c>
       <c r="ED4">
-        <v>0.022075858310374823</v>
+        <v>0.022030590373053244</v>
       </c>
       <c r="EE4">
-        <v>0.022141945679896226</v>
+        <v>0.022077592996946956</v>
       </c>
       <c r="EF4">
-        <v>0.021990892714134316</v>
+        <v>0.022028728114836832</v>
       </c>
       <c r="EG4">
-        <v>0.022087400405675767</v>
+        <v>0.022013877733264492</v>
       </c>
       <c r="EH4">
-        <v>0.021413683845979404</v>
+        <v>0.021277982527724934</v>
       </c>
       <c r="EI4">
-        <v>0.021442231398104434</v>
+        <v>0.021514858569833671</v>
       </c>
       <c r="EJ4">
-        <v>0.021371412176954839</v>
+        <v>0.021494143771813308</v>
       </c>
       <c r="EK4">
-        <v>0.021578760844574052</v>
+        <v>0.02164901941131166</v>
       </c>
       <c r="EL4">
-        <v>0.021357465935469631</v>
+        <v>0.021519020345669444</v>
       </c>
       <c r="EM4">
-        <v>0.02155945495711788</v>
+        <v>0.021675313501403171</v>
       </c>
       <c r="EN4">
-        <v>0.021397503547983313</v>
+        <v>0.021535729514949579</v>
       </c>
       <c r="EO4">
-        <v>0.021706427732390222</v>
+        <v>0.021302872926393459</v>
       </c>
       <c r="EP4">
-        <v>0.021708679614745093</v>
+        <v>0.02151278049770507</v>
       </c>
       <c r="EQ4">
-        <v>0.021641880616203465</v>
+        <v>0.021940237286999786</v>
       </c>
       <c r="ER4">
-        <v>0.021777062018186053</v>
+        <v>0.021733128470757219</v>
       </c>
       <c r="ES4">
-        <v>0.021628705996485142</v>
+        <v>0.021769293514906852</v>
       </c>
       <c r="ET4">
-        <v>0.021591705770766755</v>
+        <v>0.021642484260064886</v>
       </c>
       <c r="EU4">
-        <v>0.021793252019847605</v>
+        <v>0.021746637456844537</v>
       </c>
       <c r="EV4">
-        <v>0.021856549505009735</v>
+        <v>0.021771569093050652</v>
       </c>
       <c r="EW4">
-        <v>0.021681773554079121</v>
+        <v>0.021712983715405112</v>
       </c>
       <c r="EX4">
-        <v>0.021663974919569836</v>
+        <v>0.021822084664509297</v>
       </c>
       <c r="EY4">
-        <v>0.02181887575723707</v>
+        <v>0.021866426426798351</v>
       </c>
       <c r="EZ4">
-        <v>0.021832947124538381</v>
+        <v>0.021993754511885413</v>
       </c>
       <c r="FA4">
-        <v>0.021807201050304981</v>
+        <v>0.021906675539652167</v>
       </c>
       <c r="FB4">
-        <v>0.021783990105675395</v>
+        <v>0.021918618599245886</v>
       </c>
       <c r="FC4">
-        <v>0.022014705826376935</v>
+        <v>0.021988849774706491</v>
       </c>
       <c r="FD4">
-        <v>0.021921232884116668</v>
+        <v>0.022020875761062514</v>
       </c>
       <c r="FE4">
-        <v>0.022037274782452394</v>
+        <v>0.021871133528722234</v>
       </c>
       <c r="FF4">
-        <v>0.021979929901375039</v>
+        <v>0.022045744946739845</v>
       </c>
       <c r="FG4">
-        <v>0.021935799868205617</v>
+        <v>0.022068303294476118</v>
       </c>
       <c r="FH4">
-        <v>0.02189711201592905</v>
+        <v>0.022103730327294228</v>
       </c>
       <c r="FI4">
-        <v>0.021982400846617848</v>
+        <v>0.022178446342634016</v>
       </c>
       <c r="FJ4">
-        <v>0.022269861738559812</v>
+        <v>0.02202087610817385</v>
       </c>
       <c r="FK4">
-        <v>0.022052414675232525</v>
+        <v>0.02199130169142622</v>
       </c>
       <c r="FL4">
-        <v>0.021967606741946383</v>
+        <v>0.022015926919366231</v>
       </c>
       <c r="FM4">
-        <v>0.022075266014650253</v>
+        <v>0.022178446576656567</v>
       </c>
       <c r="FN4">
-        <v>0.022108577609086862</v>
+        <v>0.022091030835135705</v>
       </c>
       <c r="FO4">
-        <v>0.022305335380320167</v>
+        <v>0.022181055748004646</v>
       </c>
       <c r="FP4">
-        <v>0.022155305157078069</v>
+        <v>0.022445066791024804</v>
       </c>
       <c r="FQ4">
-        <v>0.02228891365866642</v>
+        <v>0.022361032462356253</v>
       </c>
       <c r="FR4">
-        <v>0.02217893646884142</v>
+        <v>0.022369336999328991</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -2745,7 +2901,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01581535297956602</v>
+        <v>0.015855060036552605</v>
+      </c>
+      <c r="FW4">
+        <v>0.021991301691426605</v>
+      </c>
+      <c r="FX4">
+        <v>0.022015926919366619</v>
+      </c>
+      <c r="FY4">
+        <v>0.022178446576656942</v>
+      </c>
+      <c r="FZ4">
+        <v>0.022091030835136086</v>
+      </c>
+      <c r="GA4">
+        <v>0.022181055748005024</v>
+      </c>
+      <c r="GB4">
+        <v>0.022445066791025179</v>
+      </c>
+      <c r="GC4">
+        <v>0.022361032462356614</v>
+      </c>
+      <c r="GD4">
+        <v>0.022369336999329366</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.015855060036553129</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3292,6 +3484,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -3825,529 +4053,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>1.9450911108345912</v>
+        <v>1.982327501096111</v>
       </c>
       <c r="C3">
-        <v>-0.75745762808610873</v>
+        <v>-0.76985141705254267</v>
       </c>
       <c r="D3">
-        <v>-0.76559145286435171</v>
+        <v>-0.78125733925452867</v>
       </c>
       <c r="E3">
-        <v>-0.79762606434595196</v>
+        <v>-0.79857087375986724</v>
       </c>
       <c r="F3">
-        <v>-0.79683470115120869</v>
+        <v>-0.81336730267471458</v>
       </c>
       <c r="G3">
-        <v>-0.81792898943707337</v>
+        <v>-0.8046541027574684</v>
       </c>
       <c r="H3">
-        <v>-0.83359186283177578</v>
+        <v>-0.83022904608334258</v>
       </c>
       <c r="I3">
-        <v>0.0074282995208080453</v>
+        <v>0.00051722554944332846</v>
       </c>
       <c r="J3">
-        <v>0.010414913179964923</v>
+        <v>0.0086281327624481621</v>
       </c>
       <c r="K3">
-        <v>0.0028482878221819377</v>
+        <v>0.0051682586157746112</v>
       </c>
       <c r="L3">
-        <v>0.0084831852474255807</v>
+        <v>-0.0016458136312779536</v>
       </c>
       <c r="M3">
-        <v>-0.021480984679065552</v>
+        <v>-0.0094554109280227307</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2476281541260803</v>
+        <v>1.2574345967590057</v>
       </c>
       <c r="P3">
-        <v>1.3537965751956789</v>
+        <v>1.3801581134908527</v>
       </c>
       <c r="Q3">
-        <v>-0.20500621927944673</v>
+        <v>-0.18523042905683512</v>
       </c>
       <c r="R3">
-        <v>-0.16896482095144197</v>
+        <v>-0.19768306274562028</v>
       </c>
       <c r="S3">
-        <v>-0.21922561204952182</v>
+        <v>-0.16723594458832597</v>
       </c>
       <c r="T3">
-        <v>-0.15491180134790522</v>
+        <v>-0.1823086437286203</v>
       </c>
       <c r="U3">
-        <v>-0.12143496185104863</v>
+        <v>-0.12399435933111258</v>
       </c>
       <c r="V3">
-        <v>-0.12547563799160269</v>
+        <v>-0.11124799721978924</v>
       </c>
       <c r="W3">
-        <v>-0.12573844114773916</v>
+        <v>-0.11305863971976972</v>
       </c>
       <c r="X3">
-        <v>-0.089280176493811439</v>
+        <v>-0.12066804664887107</v>
       </c>
       <c r="Y3">
-        <v>-0.087947435534930854</v>
+        <v>-0.04598681715343278</v>
       </c>
       <c r="Z3">
-        <v>-0.082203503343181175</v>
+        <v>-0.056179395016202088</v>
       </c>
       <c r="AA3">
-        <v>-0.073549076788495413</v>
+        <v>-0.077269616966679278</v>
       </c>
       <c r="AB3">
-        <v>-0.082435773506649795</v>
+        <v>-0.040113298894705621</v>
       </c>
       <c r="AC3">
-        <v>-0.051353163163760152</v>
+        <v>-0.079802031464829642</v>
       </c>
       <c r="AD3">
-        <v>-0.078588893231019474</v>
+        <v>-0.011489247801877078</v>
       </c>
       <c r="AE3">
-        <v>-0.048940052615401401</v>
+        <v>-0.040277063835277176</v>
       </c>
       <c r="AF3">
-        <v>-0.027685583393581768</v>
+        <v>-0.0075837000790303288</v>
       </c>
       <c r="AG3">
-        <v>-0.045002671539529894</v>
+        <v>-0.016335262850382355</v>
       </c>
       <c r="AH3">
-        <v>-0.043582488807145069</v>
+        <v>-0.04253438678341593</v>
       </c>
       <c r="AI3">
-        <v>0.01182497544253335</v>
+        <v>0.02574230094944769</v>
       </c>
       <c r="AJ3">
-        <v>-0.003391850039703033</v>
+        <v>-0.002462641652206814</v>
       </c>
       <c r="AK3">
-        <v>-0.013683568599807539</v>
+        <v>-0.015848746897912769</v>
       </c>
       <c r="AL3">
-        <v>-0.010802316165394848</v>
+        <v>0.012667299785218427</v>
       </c>
       <c r="AM3">
-        <v>6.4221106285660036e-05</v>
+        <v>0.043578961375688112</v>
       </c>
       <c r="AN3">
-        <v>0.0012325973049704083</v>
+        <v>0.045484365337447007</v>
       </c>
       <c r="AO3">
-        <v>0.0055127717362297166</v>
+        <v>0.03347932410162794</v>
       </c>
       <c r="AP3">
-        <v>-0.007914777234489058</v>
+        <v>0.021602016708357978</v>
       </c>
       <c r="AQ3">
-        <v>-0.006770632920043723</v>
+        <v>0.042002459029308707</v>
       </c>
       <c r="AR3">
-        <v>0.0020638636735305438</v>
+        <v>0.02224528947558229</v>
       </c>
       <c r="AS3">
-        <v>0.00497136369929836</v>
+        <v>0.066305093217576355</v>
       </c>
       <c r="AT3">
-        <v>0.050063650294957018</v>
+        <v>0.041920559813936067</v>
       </c>
       <c r="AU3">
-        <v>0.10899436702126954</v>
+        <v>0.053016894205113636</v>
       </c>
       <c r="AV3">
-        <v>0.046737729525325365</v>
+        <v>0.041632766857726045</v>
       </c>
       <c r="AW3">
-        <v>0.045325312724004758</v>
+        <v>0.01142354148921134</v>
       </c>
       <c r="AX3">
-        <v>0.059319431300943526</v>
+        <v>0.08478377221880018</v>
       </c>
       <c r="AY3">
-        <v>0.080404085919512591</v>
+        <v>0.062027771745739882</v>
       </c>
       <c r="AZ3">
-        <v>0.015967002068974324</v>
+        <v>0.051022048589633107</v>
       </c>
       <c r="BA3">
-        <v>0.054496044557309498</v>
+        <v>0.0098499254317583312</v>
       </c>
       <c r="BB3">
-        <v>0.026078788095544585</v>
+        <v>0.031541230100052692</v>
       </c>
       <c r="BC3">
-        <v>0.0707333082386115</v>
+        <v>0.075688010593278121</v>
       </c>
       <c r="BD3">
-        <v>0.0396417083871368</v>
+        <v>0.071242319926529629</v>
       </c>
       <c r="BE3">
-        <v>0.055552784097836622</v>
+        <v>0.09098960673203646</v>
       </c>
       <c r="BF3">
-        <v>0.048337063949315091</v>
+        <v>0.099288471946721094</v>
       </c>
       <c r="BG3">
-        <v>0.071249325841595615</v>
+        <v>0.066318698602812851</v>
       </c>
       <c r="BH3">
-        <v>0.030528888254604432</v>
+        <v>0.050655181355956778</v>
       </c>
       <c r="BI3">
-        <v>0.066090011428436027</v>
+        <v>0.031448809215432111</v>
       </c>
       <c r="BJ3">
-        <v>0.082156914989307647</v>
+        <v>0.066577085377344664</v>
       </c>
       <c r="BK3">
-        <v>0.093124122327137571</v>
+        <v>0.05814683632446524</v>
       </c>
       <c r="BL3">
-        <v>0.051673599400302542</v>
+        <v>0.062511874740910731</v>
       </c>
       <c r="BM3">
-        <v>0.052597819543112545</v>
+        <v>0.063759577140878362</v>
       </c>
       <c r="BN3">
-        <v>0.064511419126232775</v>
+        <v>0.05277444632642183</v>
       </c>
       <c r="BO3">
-        <v>0.054124463958690867</v>
+        <v>0.060309064861835369</v>
       </c>
       <c r="BP3">
-        <v>0.019825835741594303</v>
+        <v>0.090522968108352198</v>
       </c>
       <c r="BQ3">
-        <v>0.043707287001701435</v>
+        <v>0.067735033047812518</v>
       </c>
       <c r="BR3">
-        <v>0.058889941938858117</v>
+        <v>0.036377667112081284</v>
       </c>
       <c r="BS3">
-        <v>0.047622842387024411</v>
+        <v>0.096703911774141213</v>
       </c>
       <c r="BT3">
-        <v>0.013872040823958987</v>
+        <v>0.063781562096182173</v>
       </c>
       <c r="BU3">
-        <v>0.067118962556138084</v>
+        <v>0.054399395310116339</v>
       </c>
       <c r="BV3">
-        <v>0.017383156304939248</v>
+        <v>0.074317095892329807</v>
       </c>
       <c r="BW3">
-        <v>0.028324168443747157</v>
+        <v>0.071726536140080469</v>
       </c>
       <c r="BX3">
-        <v>0.014622755556503332</v>
+        <v>0.063093946800840975</v>
       </c>
       <c r="BY3">
-        <v>0.031205012768559175</v>
+        <v>0.10124936253307412</v>
       </c>
       <c r="BZ3">
-        <v>0.0014775755116464729</v>
+        <v>0.050951994857093279</v>
       </c>
       <c r="CA3">
-        <v>0.074035109812938052</v>
+        <v>0.067268276332467111</v>
       </c>
       <c r="CB3">
-        <v>0.014998125732339877</v>
+        <v>0.07704514550202303</v>
       </c>
       <c r="CC3">
-        <v>0.06599764651194491</v>
+        <v>0.048380254294908671</v>
       </c>
       <c r="CD3">
-        <v>0.028310416905830967</v>
+        <v>0.070301355091405643</v>
       </c>
       <c r="CE3">
-        <v>0.076784116556191107</v>
+        <v>0.098296641038727775</v>
       </c>
       <c r="CF3">
-        <v>0.017513843230039645</v>
+        <v>0.088937774946872661</v>
       </c>
       <c r="CG3">
-        <v>0.044389616087046314</v>
+        <v>0.024971382610223011</v>
       </c>
       <c r="CH3">
-        <v>0.076448879178992721</v>
+        <v>0.035910904861520182</v>
       </c>
       <c r="CI3">
-        <v>0.061058037912024375</v>
+        <v>0.034565702160601133</v>
       </c>
       <c r="CJ3">
-        <v>0.029689402620588792</v>
+        <v>0.059034476714098907</v>
       </c>
       <c r="CK3">
-        <v>0.065602076433563597</v>
+        <v>0.0049664134857362856</v>
       </c>
       <c r="CL3">
-        <v>0.0037258147143397441</v>
+        <v>0.0412450595632061</v>
       </c>
       <c r="CM3">
-        <v>0.051397451081408287</v>
+        <v>0.047665453012146315</v>
       </c>
       <c r="CN3">
-        <v>0.051890878680320267</v>
+        <v>0.029512352848005463</v>
       </c>
       <c r="CO3">
-        <v>0.04437904514945485</v>
+        <v>0.094778563125061277</v>
       </c>
       <c r="CP3">
-        <v>0.035617662851439802</v>
+        <v>0.054667447980959509</v>
       </c>
       <c r="CQ3">
-        <v>0.04597379107128987</v>
+        <v>0.10339689059555661</v>
       </c>
       <c r="CR3">
-        <v>0.054324081145308262</v>
+        <v>0.08734447433513147</v>
       </c>
       <c r="CS3">
-        <v>-0.061620032861999817</v>
+        <v>-0.095765816911385984</v>
       </c>
       <c r="CT3">
-        <v>0.04576098065452823</v>
+        <v>0.063057483214247145</v>
       </c>
       <c r="CU3">
-        <v>0.029287229802113887</v>
+        <v>0.048327735493215292</v>
       </c>
       <c r="CV3">
-        <v>0.057976593192330103</v>
+        <v>0.084412063788073519</v>
       </c>
       <c r="CW3">
-        <v>0.04891282488214297</v>
+        <v>0.0080534839418685868</v>
       </c>
       <c r="CX3">
-        <v>0.047669192305574433</v>
+        <v>0.08002721570282692</v>
       </c>
       <c r="CY3">
-        <v>0.043928784472108115</v>
+        <v>0.051779233460039355</v>
       </c>
       <c r="CZ3">
-        <v>0.026261409967259723</v>
+        <v>0.041168635092480213</v>
       </c>
       <c r="DA3">
-        <v>0.066156755520292224</v>
+        <v>0.054226862761222482</v>
       </c>
       <c r="DB3">
-        <v>0.066280388894610104</v>
+        <v>0.042324069365844763</v>
       </c>
       <c r="DC3">
-        <v>0.013074198511237756</v>
+        <v>0.034983731913689094</v>
       </c>
       <c r="DD3">
-        <v>0.037424677735633488</v>
+        <v>0.018961560566191634</v>
       </c>
       <c r="DE3">
-        <v>0.037356005849037227</v>
+        <v>0.074212960454875368</v>
       </c>
       <c r="DF3">
-        <v>0.034995907522713948</v>
+        <v>0.069294212606929695</v>
       </c>
       <c r="DG3">
-        <v>0.030551944145567212</v>
+        <v>0.08219481236661734</v>
       </c>
       <c r="DH3">
-        <v>0.070438671945707049</v>
+        <v>0.06282086311377251</v>
       </c>
       <c r="DI3">
-        <v>0.024625969729594053</v>
+        <v>0.048996940197380455</v>
       </c>
       <c r="DJ3">
-        <v>0.070309020629730892</v>
+        <v>0.047239889041290076</v>
       </c>
       <c r="DK3">
-        <v>0.069478726190882939</v>
+        <v>0.034036491277581987</v>
       </c>
       <c r="DL3">
-        <v>0.085435963097092282</v>
+        <v>0.063548742301841446</v>
       </c>
       <c r="DM3">
-        <v>0.12290233710212212</v>
+        <v>0.10606575606834306</v>
       </c>
       <c r="DN3">
-        <v>0.0080424236247153055</v>
+        <v>0.053924929009745354</v>
       </c>
       <c r="DO3">
-        <v>0.073710980172698518</v>
+        <v>0.059977778671826958</v>
       </c>
       <c r="DP3">
-        <v>0.047290220256657231</v>
+        <v>0.047945673543735343</v>
       </c>
       <c r="DQ3">
-        <v>0.054132083524214537</v>
+        <v>0.042114616050093062</v>
       </c>
       <c r="DR3">
-        <v>0.057587836399656443</v>
+        <v>0.057377860154354837</v>
       </c>
       <c r="DS3">
-        <v>0.069020330015988535</v>
+        <v>0.067879059441592587</v>
       </c>
       <c r="DT3">
-        <v>0.0092894803792529564</v>
+        <v>0.069827993096041971</v>
       </c>
       <c r="DU3">
-        <v>0.02292643157220119</v>
+        <v>0.02688885204876661</v>
       </c>
       <c r="DV3">
-        <v>0.033360012443389951</v>
+        <v>0.036126695827990378</v>
       </c>
       <c r="DW3">
-        <v>0.041429215827496375</v>
+        <v>0.055988223528833009</v>
       </c>
       <c r="DX3">
-        <v>0.013899263304612426</v>
+        <v>0.039041258427160989</v>
       </c>
       <c r="DY3">
-        <v>0.037267837110874058</v>
+        <v>0.03630390743612863</v>
       </c>
       <c r="DZ3">
-        <v>0.026138993582253398</v>
+        <v>0.074886358625628799</v>
       </c>
       <c r="EA3">
-        <v>0.024548269527820053</v>
+        <v>0.039783870434581217</v>
       </c>
       <c r="EB3">
-        <v>0.052773137543457263</v>
+        <v>0.045099382226781899</v>
       </c>
       <c r="EC3">
-        <v>0.079040499637181572</v>
+        <v>0.040895059688714201</v>
       </c>
       <c r="ED3">
-        <v>0.038909680662906447</v>
+        <v>0.054366081677649752</v>
       </c>
       <c r="EE3">
-        <v>0.028869233097316992</v>
+        <v>0.048308014370970195</v>
       </c>
       <c r="EF3">
-        <v>0.065432964541165081</v>
+        <v>0.063035654721808845</v>
       </c>
       <c r="EG3">
-        <v>0.048754422051610707</v>
+        <v>0.070457861500219349</v>
       </c>
       <c r="EH3">
-        <v>0.032221800087348505</v>
+        <v>0.072377486218493034</v>
       </c>
       <c r="EI3">
-        <v>0.030457973532081049</v>
+        <v>0.027402912000705763</v>
       </c>
       <c r="EJ3">
-        <v>0.049150329407102143</v>
+        <v>0.035685654676944893</v>
       </c>
       <c r="EK3">
-        <v>0.011034701126181325</v>
+        <v>0.0084768481191328862</v>
       </c>
       <c r="EL3">
-        <v>0.060231236681265031</v>
+        <v>0.038671453560614327</v>
       </c>
       <c r="EM3">
-        <v>0.023146630070499573</v>
+        <v>0.011313190033151338</v>
       </c>
       <c r="EN3">
-        <v>0.060221000144855985</v>
+        <v>0.043359100452049562</v>
       </c>
       <c r="EO3">
-        <v>0.0021794796461133757</v>
+        <v>0.095681337200866953</v>
       </c>
       <c r="EP3">
-        <v>0.0057158382623862906</v>
+        <v>0.05648859765308388</v>
       </c>
       <c r="EQ3">
-        <v>0.022917182935324926</v>
+        <v>-0.023716890725237014</v>
       </c>
       <c r="ER3">
-        <v>0.00038829430659393391</v>
+        <v>0.020335339720518156</v>
       </c>
       <c r="ES3">
-        <v>0.033573546712618627</v>
+        <v>0.017250035682916297</v>
       </c>
       <c r="ET3">
-        <v>0.045069099415088798</v>
+        <v>0.0463637650630059</v>
       </c>
       <c r="EU3">
-        <v>0.0094719643206199883</v>
+        <v>0.029841930465842353</v>
       </c>
       <c r="EV3">
-        <v>0.0012415775793623667</v>
+        <v>0.029009216949513753</v>
       </c>
       <c r="EW3">
-        <v>0.039294013686777429</v>
+        <v>0.044601911630428002</v>
       </c>
       <c r="EX3">
-        <v>0.046944912230620382</v>
+        <v>0.027328481245774507</v>
       </c>
       <c r="EY3">
-        <v>0.020779773788065333</v>
+        <v>0.022783886668887067</v>
       </c>
       <c r="EZ3">
-        <v>0.022113613883276605</v>
+        <v>0.0024396041824781365</v>
       </c>
       <c r="FA3">
-        <v>0.031155237991801529</v>
+        <v>0.023015843377971638</v>
       </c>
       <c r="FB3">
-        <v>0.039759597365552055</v>
+        <v>0.024758577533404387</v>
       </c>
       <c r="FC3">
-        <v>-0.00024140759979375423</v>
+        <v>0.015400359121769805</v>
       </c>
       <c r="FD3">
-        <v>0.021430534342379837</v>
+        <v>0.013339158310146036</v>
       </c>
       <c r="FE3">
-        <v>0.0035464008809995996</v>
+        <v>0.045940505429503703</v>
       </c>
       <c r="FF3">
-        <v>0.018328399876465357</v>
+        <v>0.01677302370089058</v>
       </c>
       <c r="FG3">
-        <v>0.030742477601240305</v>
+        <v>0.016542219003643388</v>
       </c>
       <c r="FH3">
-        <v>0.042219149370850549</v>
+        <v>0.01391861742140642</v>
       </c>
       <c r="FI3">
-        <v>0.03014278907767606</v>
+        <v>0.0040369517394996191</v>
       </c>
       <c r="FJ3">
-        <v>-0.019006202819731303</v>
+        <v>0.037441341481404503</v>
       </c>
       <c r="FK3">
-        <v>0.024965085688612554</v>
+        <v>0.047135981270481596</v>
       </c>
       <c r="FL3">
-        <v>0.045002076919532459</v>
+        <v>0.046604729503890913</v>
       </c>
       <c r="FM3">
-        <v>0.028921093833703768</v>
+        <v>0.020354799831159811</v>
       </c>
       <c r="FN3">
-        <v>0.02680986834085582</v>
+        <v>0.04063397097913346</v>
       </c>
       <c r="FO3">
-        <v>-0.0051446645398670887</v>
+        <v>0.028004031509000344</v>
       </c>
       <c r="FP3">
-        <v>0.026192683620270704</v>
+        <v>-0.015839671576252001</v>
       </c>
       <c r="FQ3">
-        <v>0.005852114464399716</v>
+        <v>0.003101241322411942</v>
       </c>
       <c r="FR3">
-        <v>0.02991183068101512</v>
+        <v>0.0055608178458047301</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -4359,7 +4623,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5307876532189342</v>
+        <v>-5.5377416370451122</v>
+      </c>
+      <c r="FW3">
+        <v>0.047135981270481866</v>
+      </c>
+      <c r="FX3">
+        <v>0.046604729503890399</v>
+      </c>
+      <c r="FY3">
+        <v>0.020354799831159936</v>
+      </c>
+      <c r="FZ3">
+        <v>0.040633970979132981</v>
+      </c>
+      <c r="GA3">
+        <v>0.028004031508999782</v>
+      </c>
+      <c r="GB3">
+        <v>-0.015839671576252344</v>
+      </c>
+      <c r="GC3">
+        <v>0.0031012413224115382</v>
+      </c>
+      <c r="GD3">
+        <v>0.005560817845803894</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.5377416370451122</v>
       </c>
     </row>
     <row r="4">
@@ -4367,523 +4667,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.01936052236333665</v>
+        <v>0.019515039538833035</v>
       </c>
       <c r="C4">
-        <v>0.013099567523219382</v>
+        <v>0.013097773900733016</v>
       </c>
       <c r="D4">
-        <v>0.014451648093928848</v>
+        <v>0.014495962349077155</v>
       </c>
       <c r="E4">
-        <v>0.014459975450009483</v>
+        <v>0.014441167250984989</v>
       </c>
       <c r="F4">
-        <v>0.014574209665215903</v>
+        <v>0.01457853394509478</v>
       </c>
       <c r="G4">
-        <v>0.017258100807124876</v>
+        <v>0.017218775789362983</v>
       </c>
       <c r="H4">
-        <v>0.020617226909828795</v>
+        <v>0.020621368175000959</v>
       </c>
       <c r="I4">
-        <v>0.016131170800977365</v>
+        <v>0.016101834627885517</v>
       </c>
       <c r="J4">
-        <v>0.013187424755171592</v>
+        <v>0.013239415598248556</v>
       </c>
       <c r="K4">
-        <v>0.010973613642607394</v>
+        <v>0.010920738605652939</v>
       </c>
       <c r="L4">
-        <v>0.01110588922729697</v>
+        <v>0.011083739010265665</v>
       </c>
       <c r="M4">
-        <v>0.011199995767128584</v>
+        <v>0.01119257045795952</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022719002946250469</v>
+        <v>0.022763812843821764</v>
       </c>
       <c r="P4">
-        <v>0.022521628359316537</v>
+        <v>0.022533686195775917</v>
       </c>
       <c r="Q4">
-        <v>0.028807766355558789</v>
+        <v>0.028820110558593855</v>
       </c>
       <c r="R4">
-        <v>0.028566517229726991</v>
+        <v>0.028919347354589495</v>
       </c>
       <c r="S4">
-        <v>0.028931065107476998</v>
+        <v>0.028714823962073057</v>
       </c>
       <c r="T4">
-        <v>0.02849104670061068</v>
+        <v>0.02883166001089545</v>
       </c>
       <c r="U4">
-        <v>0.0282756134758975</v>
+        <v>0.028438304491982702</v>
       </c>
       <c r="V4">
-        <v>0.028313660200237518</v>
+        <v>0.028363153213049788</v>
       </c>
       <c r="W4">
-        <v>0.028326427533639006</v>
+        <v>0.028386318649484595</v>
       </c>
       <c r="X4">
-        <v>0.028095750683303538</v>
+        <v>0.028448786572588838</v>
       </c>
       <c r="Y4">
-        <v>0.028098156893255944</v>
+        <v>0.027966589046466046</v>
       </c>
       <c r="Z4">
-        <v>0.028071774344839064</v>
+        <v>0.028043517613330175</v>
       </c>
       <c r="AA4">
-        <v>0.028026644334318583</v>
+        <v>0.028192554999208686</v>
       </c>
       <c r="AB4">
-        <v>0.02809575070500412</v>
+        <v>0.027961978586428154</v>
       </c>
       <c r="AC4">
-        <v>0.027905904455990536</v>
+        <v>0.028232006365243305</v>
       </c>
       <c r="AD4">
-        <v>0.028093346074326824</v>
+        <v>0.027802018010656574</v>
       </c>
       <c r="AE4">
-        <v>0.027912762205211068</v>
+        <v>0.027996700709283829</v>
       </c>
       <c r="AF4">
-        <v>0.027789069640990378</v>
+        <v>0.027799815409268226</v>
       </c>
       <c r="AG4">
-        <v>0.027910474858589818</v>
+        <v>0.027866494108310616</v>
       </c>
       <c r="AH4">
-        <v>0.027912762223202093</v>
+        <v>0.028045874313142184</v>
       </c>
       <c r="AI4">
-        <v>0.027576757359855368</v>
+        <v>0.027625830220733564</v>
       </c>
       <c r="AJ4">
-        <v>0.02768237879230908</v>
+        <v>0.02781305165796033</v>
       </c>
       <c r="AK4">
-        <v>0.02775825657981347</v>
+        <v>0.027909376226948689</v>
       </c>
       <c r="AL4">
-        <v>0.02775168847132262</v>
+        <v>0.027740857213112768</v>
       </c>
       <c r="AM4">
-        <v>0.027695270822267675</v>
+        <v>0.02756147761444425</v>
       </c>
       <c r="AN4">
-        <v>0.027699578706983988</v>
+        <v>0.027561477621486641</v>
       </c>
       <c r="AO4">
-        <v>0.02768452420688379</v>
+        <v>0.027646847245984537</v>
       </c>
       <c r="AP4">
-        <v>0.027780238644625713</v>
+        <v>0.027732205880591027</v>
       </c>
       <c r="AQ4">
-        <v>0.027784651439180071</v>
+        <v>0.027617459021712299</v>
       </c>
       <c r="AR4">
-        <v>0.027740768673537107</v>
+        <v>0.02775170143632788</v>
       </c>
       <c r="AS4">
-        <v>0.027734232934292547</v>
+        <v>0.027492257015516944</v>
       </c>
       <c r="AT4">
-        <v>0.027468215579911769</v>
+        <v>0.027653177257534151</v>
       </c>
       <c r="AU4">
-        <v>0.027130991928601404</v>
+        <v>0.027596619116505208</v>
       </c>
       <c r="AV4">
-        <v>0.027512854304507478</v>
+        <v>0.027678612903291908</v>
       </c>
       <c r="AW4">
-        <v>0.027533338766880567</v>
+        <v>0.027879980652300893</v>
       </c>
       <c r="AX4">
-        <v>0.027460161892740066</v>
+        <v>0.027438273188303837</v>
       </c>
       <c r="AY4">
-        <v>0.027345487479070146</v>
+        <v>0.027588318258110308</v>
       </c>
       <c r="AZ4">
-        <v>0.027751688568525529</v>
+        <v>0.027667992180769357</v>
       </c>
       <c r="BA4">
-        <v>0.027525130331746986</v>
+        <v>0.027939013976936447</v>
       </c>
       <c r="BB4">
-        <v>0.027712534202468848</v>
+        <v>0.027813051780127829</v>
       </c>
       <c r="BC4">
-        <v>0.027450121537728991</v>
+        <v>0.027551209990378838</v>
       </c>
       <c r="BD4">
-        <v>0.027652480794359183</v>
+        <v>0.027590391644882591</v>
       </c>
       <c r="BE4">
-        <v>0.027566370024369048</v>
+        <v>0.0274821950472529</v>
       </c>
       <c r="BF4">
-        <v>0.027622836488014772</v>
+        <v>0.027444229122908292</v>
       </c>
       <c r="BG4">
-        <v>0.027494522526706741</v>
+        <v>0.027657403746878296</v>
       </c>
       <c r="BH4">
-        <v>0.027758256742405969</v>
+        <v>0.027766939656602877</v>
       </c>
       <c r="BI4">
-        <v>0.027549814846275878</v>
+        <v>0.0279003059411034</v>
       </c>
       <c r="BJ4">
-        <v>0.027464186462862063</v>
+        <v>0.027691400709511909</v>
       </c>
       <c r="BK4">
-        <v>0.027410254722814817</v>
+        <v>0.027756048606999782</v>
       </c>
       <c r="BL4">
-        <v>0.027675950718103789</v>
+        <v>0.027740857399019478</v>
       </c>
       <c r="BM4">
-        <v>0.027682379003037078</v>
+        <v>0.02774519107429144</v>
       </c>
       <c r="BN4">
-        <v>0.027620728725179285</v>
+        <v>0.027826337565936214</v>
       </c>
       <c r="BO4">
-        <v>0.027697424307116622</v>
+        <v>0.027791018851445855</v>
       </c>
       <c r="BP4">
-        <v>0.02792651706680398</v>
+        <v>0.027615369554460215</v>
       </c>
       <c r="BQ4">
-        <v>0.027786860080602771</v>
+        <v>0.027769121975797541</v>
       </c>
       <c r="BR4">
-        <v>0.027703892094571872</v>
+        <v>0.027980456025014325</v>
       </c>
       <c r="BS4">
-        <v>0.027786860096165423</v>
+        <v>0.027613281185013622</v>
       </c>
       <c r="BT4">
-        <v>0.028014859857028489</v>
+        <v>0.027830777220529606</v>
       </c>
       <c r="BU4">
-        <v>0.027688819150407572</v>
+        <v>0.027902571500216071</v>
       </c>
       <c r="BV4">
-        <v>0.028017213799142154</v>
+        <v>0.027788823111901048</v>
       </c>
       <c r="BW4">
-        <v>0.027958815623374347</v>
+        <v>0.027817474993076897</v>
       </c>
       <c r="BX4">
-        <v>0.028059844626297827</v>
+        <v>0.027884487629135382</v>
       </c>
       <c r="BY4">
-        <v>0.027500816578888528</v>
+        <v>0.027213135387447688</v>
       </c>
       <c r="BZ4">
-        <v>0.027711265963307346</v>
+        <v>0.02755010504742135</v>
       </c>
       <c r="CA4">
-        <v>0.027247924979892299</v>
+        <v>0.027455945420932017</v>
       </c>
       <c r="CB4">
-        <v>0.027646442902811267</v>
+        <v>0.027405170159565374</v>
       </c>
       <c r="CC4">
-        <v>0.027324292896297231</v>
+        <v>0.027605377772817893</v>
       </c>
       <c r="CD4">
-        <v>0.027682645038133714</v>
+        <v>0.027506518599105557</v>
       </c>
       <c r="CE4">
-        <v>0.027375068289325368</v>
+        <v>0.02733715210403204</v>
       </c>
       <c r="CF4">
-        <v>0.027781554468475057</v>
+        <v>0.027410453423320606</v>
       </c>
       <c r="CG4">
-        <v>0.027613210344832169</v>
+        <v>0.027849247723178785</v>
       </c>
       <c r="CH4">
-        <v>0.02741453003852928</v>
+        <v>0.027787408377776667</v>
       </c>
       <c r="CI4">
-        <v>0.027546812749589193</v>
+        <v>0.027869828356454143</v>
       </c>
       <c r="CJ4">
-        <v>0.027769232926435065</v>
+        <v>0.027716690650053558</v>
       </c>
       <c r="CK4">
-        <v>0.027542019066440555</v>
+        <v>0.02810039329421652</v>
       </c>
       <c r="CL4">
-        <v>0.02797299014003566</v>
+        <v>0.027862066239117644</v>
       </c>
       <c r="CM4">
-        <v>0.027661374854072437</v>
+        <v>0.027831021341293723</v>
       </c>
       <c r="CN4">
-        <v>0.028107093925005933</v>
+        <v>0.028322544891223989</v>
       </c>
       <c r="CO4">
-        <v>0.028169975811775209</v>
+        <v>0.027902427134871489</v>
       </c>
       <c r="CP4">
-        <v>0.028241665159373611</v>
+        <v>0.028178962790119669</v>
       </c>
       <c r="CQ4">
-        <v>0.028762688214274804</v>
+        <v>0.028511769147945048</v>
       </c>
       <c r="CR4">
-        <v>0.02872000409838495</v>
+        <v>0.028627569849342473</v>
       </c>
       <c r="CS4">
-        <v>0.025359935249836089</v>
+        <v>0.025522270463069208</v>
       </c>
       <c r="CT4">
-        <v>0.025836564305363449</v>
+        <v>0.02585194948804731</v>
       </c>
       <c r="CU4">
-        <v>0.025927446243845995</v>
+        <v>0.025934510056919664</v>
       </c>
       <c r="CV4">
-        <v>0.024830965424441513</v>
+        <v>0.024804992348660231</v>
       </c>
       <c r="CW4">
-        <v>0.024890463395846472</v>
+        <v>0.025190830987015068</v>
       </c>
       <c r="CX4">
-        <v>0.024792571315105486</v>
+        <v>0.024714185573877043</v>
       </c>
       <c r="CY4">
-        <v>0.024583760294513025</v>
+        <v>0.024568611440712037</v>
       </c>
       <c r="CZ4">
-        <v>0.024690150728368224</v>
+        <v>0.024639091195903441</v>
       </c>
       <c r="DA4">
-        <v>0.024507961972823865</v>
+        <v>0.024590990695749097</v>
       </c>
       <c r="DB4">
-        <v>0.024524902976425969</v>
+        <v>0.02466834429985618</v>
       </c>
       <c r="DC4">
-        <v>0.024501983429288655</v>
+        <v>0.024445122280923146</v>
       </c>
       <c r="DD4">
-        <v>0.02472769972974392</v>
+        <v>0.024932971204123817</v>
       </c>
       <c r="DE4">
-        <v>0.024745686207121701</v>
+        <v>0.024668827268500965</v>
       </c>
       <c r="DF4">
-        <v>0.024775362568936247</v>
+        <v>0.024711184346427082</v>
       </c>
       <c r="DG4">
-        <v>0.024815786887473771</v>
+        <v>0.024664291995827689</v>
       </c>
       <c r="DH4">
-        <v>0.024582199114728854</v>
+        <v>0.024681173470708646</v>
       </c>
       <c r="DI4">
-        <v>0.025142590069871244</v>
+        <v>0.025001025056981003</v>
       </c>
       <c r="DJ4">
-        <v>0.024923890719414841</v>
+        <v>0.025028194237434142</v>
       </c>
       <c r="DK4">
-        <v>0.025398448488781141</v>
+        <v>0.025565387279681571</v>
       </c>
       <c r="DL4">
-        <v>0.025337301042266999</v>
+        <v>0.025433086844872624</v>
       </c>
       <c r="DM4">
-        <v>0.024605915498173963</v>
+        <v>0.024744237229536378</v>
       </c>
       <c r="DN4">
-        <v>0.022616619421900849</v>
+        <v>0.022471859538265162</v>
       </c>
       <c r="DO4">
-        <v>0.022356778246148436</v>
+        <v>0.02246394617333217</v>
       </c>
       <c r="DP4">
-        <v>0.021992409968489824</v>
+        <v>0.022051683868551771</v>
       </c>
       <c r="DQ4">
-        <v>0.02198099423697121</v>
+        <v>0.022094946040450585</v>
       </c>
       <c r="DR4">
-        <v>0.02198425037436565</v>
+        <v>0.022046741939758682</v>
       </c>
       <c r="DS4">
-        <v>0.021654667029315747</v>
+        <v>0.021701671393320965</v>
       </c>
       <c r="DT4">
-        <v>0.021939962457881854</v>
+        <v>0.021711631619453838</v>
       </c>
       <c r="DU4">
-        <v>0.021896126968214639</v>
+        <v>0.021921594715748425</v>
       </c>
       <c r="DV4">
-        <v>0.021867318169250475</v>
+        <v>0.021898171269736928</v>
       </c>
       <c r="DW4">
-        <v>0.021849478201172522</v>
+        <v>0.021827437413521736</v>
       </c>
       <c r="DX4">
-        <v>0.022001426061703654</v>
+        <v>0.021953701990255214</v>
       </c>
       <c r="DY4">
-        <v>0.021913201039726687</v>
+        <v>0.021984841237328571</v>
       </c>
       <c r="DZ4">
-        <v>0.02198279326748015</v>
+        <v>0.021829380864044619</v>
       </c>
       <c r="EA4">
-        <v>0.022008917325470476</v>
+        <v>0.022007052845495513</v>
       </c>
       <c r="EB4">
-        <v>0.02189878997095554</v>
+        <v>0.022001481938002342</v>
       </c>
       <c r="EC4">
-        <v>0.021857346319606199</v>
+        <v>0.022065927874674297</v>
       </c>
       <c r="ED4">
-        <v>0.022060409795199926</v>
+        <v>0.022022701773131339</v>
       </c>
       <c r="EE4">
-        <v>0.022126543305412281</v>
+        <v>0.022069721197364479</v>
       </c>
       <c r="EF4">
-        <v>0.021975384471281216</v>
+        <v>0.022020838848204622</v>
       </c>
       <c r="EG4">
-        <v>0.022071959969862224</v>
+        <v>0.022005983143047973</v>
       </c>
       <c r="EH4">
-        <v>0.021413683845980077</v>
+        <v>0.021277982527725187</v>
       </c>
       <c r="EI4">
-        <v>0.0214422313981051</v>
+        <v>0.0215148585698339</v>
       </c>
       <c r="EJ4">
-        <v>0.021371412176955512</v>
+        <v>0.021494143771813558</v>
       </c>
       <c r="EK4">
-        <v>0.021578760844574718</v>
+        <v>0.021649019411311893</v>
       </c>
       <c r="EL4">
-        <v>0.021357465935470301</v>
+        <v>0.021519020345669691</v>
       </c>
       <c r="EM4">
-        <v>0.021559454957118546</v>
+        <v>0.021675313501403403</v>
       </c>
       <c r="EN4">
-        <v>0.021397503547983979</v>
+        <v>0.021535729514949833</v>
       </c>
       <c r="EO4">
-        <v>0.021706427732390888</v>
+        <v>0.021302872926393723</v>
       </c>
       <c r="EP4">
-        <v>0.021708679614745777</v>
+        <v>0.021512780497705331</v>
       </c>
       <c r="EQ4">
-        <v>0.021641880616204125</v>
+        <v>0.021940237287000022</v>
       </c>
       <c r="ER4">
-        <v>0.021777062018186719</v>
+        <v>0.021733128470757458</v>
       </c>
       <c r="ES4">
-        <v>0.021628705996485802</v>
+        <v>0.021769293514907095</v>
       </c>
       <c r="ET4">
-        <v>0.021591705770767421</v>
+        <v>0.021642484260065147</v>
       </c>
       <c r="EU4">
-        <v>0.021793252019848268</v>
+        <v>0.021746637456844804</v>
       </c>
       <c r="EV4">
-        <v>0.021856549505010391</v>
+        <v>0.021771569093050898</v>
       </c>
       <c r="EW4">
-        <v>0.02168177355407977</v>
+        <v>0.021712983715405348</v>
       </c>
       <c r="EX4">
-        <v>0.021663974919570499</v>
+        <v>0.02182208466450956</v>
       </c>
       <c r="EY4">
-        <v>0.021818875757237736</v>
+        <v>0.021866426426798587</v>
       </c>
       <c r="EZ4">
-        <v>0.021832947124539041</v>
+        <v>0.021993754511885674</v>
       </c>
       <c r="FA4">
-        <v>0.021807201050305633</v>
+        <v>0.0219066755396524</v>
       </c>
       <c r="FB4">
-        <v>0.021783990105676044</v>
+        <v>0.021918618599246101</v>
       </c>
       <c r="FC4">
-        <v>0.022014705826377608</v>
+        <v>0.021988849774706738</v>
       </c>
       <c r="FD4">
-        <v>0.021921232884117327</v>
+        <v>0.022020875761062753</v>
       </c>
       <c r="FE4">
-        <v>0.022037274782453022</v>
+        <v>0.021871133528722466</v>
       </c>
       <c r="FF4">
-        <v>0.021979929901375702</v>
+        <v>0.022045744946740088</v>
       </c>
       <c r="FG4">
-        <v>0.021935799868206263</v>
+        <v>0.022068303294476364</v>
       </c>
       <c r="FH4">
-        <v>0.021897112015929702</v>
+        <v>0.022103730327294482</v>
       </c>
       <c r="FI4">
-        <v>0.021982400846618514</v>
+        <v>0.022178446342634269</v>
       </c>
       <c r="FJ4">
-        <v>0.022269861738560458</v>
+        <v>0.0220208761081741</v>
       </c>
       <c r="FK4">
-        <v>0.022052414675233171</v>
+        <v>0.021991301691426469</v>
       </c>
       <c r="FL4">
-        <v>0.021967606741947039</v>
+        <v>0.02201592691936647</v>
       </c>
       <c r="FM4">
-        <v>0.022075266014650898</v>
+        <v>0.0221784465766568</v>
       </c>
       <c r="FN4">
-        <v>0.022108577609087521</v>
+        <v>0.022091030835135951</v>
       </c>
       <c r="FO4">
-        <v>0.022305335380320812</v>
+        <v>0.022181055748004906</v>
       </c>
       <c r="FP4">
-        <v>0.022155305157078722</v>
+        <v>0.022445066791025051</v>
       </c>
       <c r="FQ4">
-        <v>0.022288913658667076</v>
+        <v>0.022361032462356493</v>
       </c>
       <c r="FR4">
-        <v>0.022178936468842062</v>
+        <v>0.022369336999329234</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -4895,7 +5195,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015815352979566911</v>
+        <v>0.015855060036552942</v>
+      </c>
+      <c r="FW4">
+        <v>0.021991301691425342</v>
+      </c>
+      <c r="FX4">
+        <v>0.022015926919365363</v>
+      </c>
+      <c r="FY4">
+        <v>0.022178446576655696</v>
+      </c>
+      <c r="FZ4">
+        <v>0.022091030835134834</v>
+      </c>
+      <c r="GA4">
+        <v>0.022181055748003779</v>
+      </c>
+      <c r="GB4">
+        <v>0.02244506679102394</v>
+      </c>
+      <c r="GC4">
+        <v>0.022361032462355383</v>
+      </c>
+      <c r="GD4">
+        <v>0.02236933699932812</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.015855060036551374</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +5240,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5442,6 +5778,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -5975,529 +6347,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>1.1884739935893207</v>
+        <v>1.1679908802879917</v>
       </c>
       <c r="C3">
-        <v>-1.8173233060957157</v>
+        <v>-1.8183830823207816</v>
       </c>
       <c r="D3">
-        <v>-1.8995290153744417</v>
+        <v>-1.868635445679989</v>
       </c>
       <c r="E3">
-        <v>-1.8585076175232633</v>
+        <v>-1.8638031670335922</v>
       </c>
       <c r="F3">
-        <v>-1.8252574448120158</v>
+        <v>-1.8267474438949955</v>
       </c>
       <c r="G3">
-        <v>-1.8069111496200632</v>
+        <v>-1.797281212665129</v>
       </c>
       <c r="H3">
-        <v>-1.813008552225833</v>
+        <v>-1.7976560727002797</v>
       </c>
       <c r="I3">
-        <v>0.79113090070874426</v>
+        <v>0.78168023661963904</v>
       </c>
       <c r="J3">
-        <v>0.71523392899942329</v>
+        <v>0.72710438645917452</v>
       </c>
       <c r="K3">
-        <v>0.61806053556440665</v>
+        <v>0.61467984468451353</v>
       </c>
       <c r="L3">
-        <v>0.51546598014897105</v>
+        <v>0.50538833094784108</v>
       </c>
       <c r="M3">
-        <v>0.40493277002640243</v>
+        <v>0.40391984410696213</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.433333467918299</v>
+        <v>1.4276825758753096</v>
       </c>
       <c r="P3">
-        <v>1.548446667079227</v>
+        <v>1.5287225511736731</v>
       </c>
       <c r="Q3">
-        <v>-0.016609392096718113</v>
+        <v>-0.0036386317453676858</v>
       </c>
       <c r="R3">
-        <v>0.0066971871926679322</v>
+        <v>0.044267936155350469</v>
       </c>
       <c r="S3">
-        <v>0.0037875091383737765</v>
+        <v>-0.024423081991658387</v>
       </c>
       <c r="T3">
-        <v>0.018742603728379499</v>
+        <v>-0.0034497903515316179</v>
       </c>
       <c r="U3">
-        <v>0.038735364937461783</v>
+        <v>0.049760489528093525</v>
       </c>
       <c r="V3">
-        <v>0.092745226317586651</v>
+        <v>0.11187450570700599</v>
       </c>
       <c r="W3">
-        <v>0.069298485618543709</v>
+        <v>0.06242565428417151</v>
       </c>
       <c r="X3">
-        <v>0.095031809695363761</v>
+        <v>0.055385399378377338</v>
       </c>
       <c r="Y3">
-        <v>0.085012314777751799</v>
+        <v>0.13583108061323479</v>
       </c>
       <c r="Z3">
-        <v>0.089899268002721619</v>
+        <v>0.092527095404759091</v>
       </c>
       <c r="AA3">
-        <v>0.082314611458153941</v>
+        <v>0.049777791853503638</v>
       </c>
       <c r="AB3">
-        <v>0.053360470115944858</v>
+        <v>0.12031093075555617</v>
       </c>
       <c r="AC3">
-        <v>0.1358646259827565</v>
+        <v>0.12349945345651518</v>
       </c>
       <c r="AD3">
-        <v>0.12867237629741035</v>
+        <v>0.13313336225566638</v>
       </c>
       <c r="AE3">
-        <v>0.15470715002558891</v>
+        <v>0.13550236607649171</v>
       </c>
       <c r="AF3">
-        <v>0.13182487293646541</v>
+        <v>0.15455072449944751</v>
       </c>
       <c r="AG3">
-        <v>0.14686324531824838</v>
+        <v>0.11842366027427242</v>
       </c>
       <c r="AH3">
-        <v>0.17328705425181645</v>
+        <v>0.12325394823410867</v>
       </c>
       <c r="AI3">
-        <v>0.14608248247233177</v>
+        <v>0.17324505200367363</v>
       </c>
       <c r="AJ3">
-        <v>0.15940733943646598</v>
+        <v>0.089176414487042388</v>
       </c>
       <c r="AK3">
-        <v>0.15316159312440644</v>
+        <v>0.17786481318169164</v>
       </c>
       <c r="AL3">
-        <v>0.12286986995585024</v>
+        <v>0.21581765523978386</v>
       </c>
       <c r="AM3">
-        <v>0.2346048131556174</v>
+        <v>0.15762462151202938</v>
       </c>
       <c r="AN3">
-        <v>0.16260003137259416</v>
+        <v>0.16940025221331481</v>
       </c>
       <c r="AO3">
-        <v>0.18192008596563494</v>
+        <v>0.22045098292496171</v>
       </c>
       <c r="AP3">
-        <v>0.18806873760534937</v>
+        <v>0.13362997500571389</v>
       </c>
       <c r="AQ3">
-        <v>0.13335613982245056</v>
+        <v>0.19951480339116087</v>
       </c>
       <c r="AR3">
-        <v>0.18889246861957684</v>
+        <v>0.099728288135718435</v>
       </c>
       <c r="AS3">
-        <v>0.19577950766065913</v>
+        <v>0.17490278086949226</v>
       </c>
       <c r="AT3">
-        <v>0.21087563843658202</v>
+        <v>0.18809722090021136</v>
       </c>
       <c r="AU3">
-        <v>0.20722231364460855</v>
+        <v>0.16631677302137909</v>
       </c>
       <c r="AV3">
-        <v>0.19066637296410188</v>
+        <v>0.1375276117692899</v>
       </c>
       <c r="AW3">
-        <v>0.20886831619890514</v>
+        <v>0.2065028043427557</v>
       </c>
       <c r="AX3">
-        <v>0.16212521134741642</v>
+        <v>0.17340893620243389</v>
       </c>
       <c r="AY3">
-        <v>0.21944506796778845</v>
+        <v>0.20051111639712368</v>
       </c>
       <c r="AZ3">
-        <v>0.17002562266668234</v>
+        <v>0.20056362797428412</v>
       </c>
       <c r="BA3">
-        <v>0.1542892654122584</v>
+        <v>0.19370827436218457</v>
       </c>
       <c r="BB3">
-        <v>0.19705735504591587</v>
+        <v>0.17821426929167272</v>
       </c>
       <c r="BC3">
-        <v>0.20016021409518092</v>
+        <v>0.20527969538725527</v>
       </c>
       <c r="BD3">
-        <v>0.18798670597745221</v>
+        <v>0.22198599413857167</v>
       </c>
       <c r="BE3">
-        <v>0.19417306706677975</v>
+        <v>0.18768768249049061</v>
       </c>
       <c r="BF3">
-        <v>0.18111876382587377</v>
+        <v>0.24515753099018653</v>
       </c>
       <c r="BG3">
-        <v>0.20570192855915248</v>
+        <v>0.20017115883318939</v>
       </c>
       <c r="BH3">
-        <v>0.18353154109526509</v>
+        <v>0.15133155465914039</v>
       </c>
       <c r="BI3">
-        <v>0.20202152526187564</v>
+        <v>0.16415704427722683</v>
       </c>
       <c r="BJ3">
-        <v>0.22395684992684881</v>
+        <v>0.25132596835270343</v>
       </c>
       <c r="BK3">
-        <v>0.27853789883428615</v>
+        <v>0.19878661466024278</v>
       </c>
       <c r="BL3">
-        <v>0.16653326038450547</v>
+        <v>0.16181653699069928</v>
       </c>
       <c r="BM3">
-        <v>0.20537872700674706</v>
+        <v>0.17693913706907782</v>
       </c>
       <c r="BN3">
-        <v>0.098516744386976093</v>
+        <v>0.13574468927540809</v>
       </c>
       <c r="BO3">
-        <v>0.17757093010599478</v>
+        <v>0.21194254879525656</v>
       </c>
       <c r="BP3">
-        <v>0.14648863705936213</v>
+        <v>0.20200293364659416</v>
       </c>
       <c r="BQ3">
-        <v>0.20165685653006094</v>
+        <v>0.16580823755477067</v>
       </c>
       <c r="BR3">
-        <v>0.22223277412140102</v>
+        <v>0.17617773761200523</v>
       </c>
       <c r="BS3">
-        <v>0.12599516516019107</v>
+        <v>0.21440645549101081</v>
       </c>
       <c r="BT3">
-        <v>0.17212987607609581</v>
+        <v>0.19902989382158348</v>
       </c>
       <c r="BU3">
-        <v>0.17213866656742696</v>
+        <v>0.17543427243452994</v>
       </c>
       <c r="BV3">
-        <v>0.1697639843328313</v>
+        <v>0.13970102048646912</v>
       </c>
       <c r="BW3">
-        <v>0.16017151643072036</v>
+        <v>0.15197757726710753</v>
       </c>
       <c r="BX3">
-        <v>0.14230918949504553</v>
+        <v>0.15030041305910158</v>
       </c>
       <c r="BY3">
-        <v>0.2398075406670204</v>
+        <v>0.21254508637720823</v>
       </c>
       <c r="BZ3">
-        <v>0.17915856249615669</v>
+        <v>0.18449100733978366</v>
       </c>
       <c r="CA3">
-        <v>0.22579798866746742</v>
+        <v>0.14714386326433571</v>
       </c>
       <c r="CB3">
-        <v>0.1807451793889451</v>
+        <v>0.20854684304896018</v>
       </c>
       <c r="CC3">
-        <v>0.20431414016265154</v>
+        <v>0.16711898439423109</v>
       </c>
       <c r="CD3">
-        <v>0.17840267287550285</v>
+        <v>0.19571783047745206</v>
       </c>
       <c r="CE3">
-        <v>0.19446621793011182</v>
+        <v>0.20213033532028304</v>
       </c>
       <c r="CF3">
-        <v>0.1478943210385702</v>
+        <v>0.14443056891414072</v>
       </c>
       <c r="CG3">
-        <v>0.20239682522728658</v>
+        <v>0.10801883861018002</v>
       </c>
       <c r="CH3">
-        <v>0.17016540623953338</v>
+        <v>0.22343934158993919</v>
       </c>
       <c r="CI3">
-        <v>0.16076057524008666</v>
+        <v>0.1688531104801699</v>
       </c>
       <c r="CJ3">
-        <v>0.15337645197688593</v>
+        <v>0.17370582246025737</v>
       </c>
       <c r="CK3">
-        <v>0.17124689040240332</v>
+        <v>0.11516704646712907</v>
       </c>
       <c r="CL3">
-        <v>0.11391400206627754</v>
+        <v>0.087092664110178852</v>
       </c>
       <c r="CM3">
-        <v>0.1540670056663995</v>
+        <v>0.1529902013792149</v>
       </c>
       <c r="CN3">
-        <v>0.10866703892929788</v>
+        <v>0.060166664617876321</v>
       </c>
       <c r="CO3">
-        <v>0.096547836753349561</v>
+        <v>0.14770338826763244</v>
       </c>
       <c r="CP3">
-        <v>0.14782980286162659</v>
+        <v>0.10214455205839633</v>
       </c>
       <c r="CQ3">
-        <v>0.13767006740332602</v>
+        <v>0.16170199739588059</v>
       </c>
       <c r="CR3">
-        <v>0.15086284864175023</v>
+        <v>0.12520975557200328</v>
       </c>
       <c r="CS3">
-        <v>-0.03878763003321823</v>
+        <v>-0.0026067688216059662</v>
       </c>
       <c r="CT3">
-        <v>0.29918572375677555</v>
+        <v>0.29355087378618805</v>
       </c>
       <c r="CU3">
-        <v>0.24211429201350324</v>
+        <v>0.2463698233645332</v>
       </c>
       <c r="CV3">
-        <v>0.2719599052600164</v>
+        <v>0.28596362105934703</v>
       </c>
       <c r="CW3">
-        <v>0.22671507353624329</v>
+        <v>0.2064398770506346</v>
       </c>
       <c r="CX3">
-        <v>0.19868732664504388</v>
+        <v>0.18241937790585125</v>
       </c>
       <c r="CY3">
-        <v>0.20091911336633433</v>
+        <v>0.23032726011437263</v>
       </c>
       <c r="CZ3">
-        <v>0.17516352080439362</v>
+        <v>0.1794160129004275</v>
       </c>
       <c r="DA3">
-        <v>0.159109478996004</v>
+        <v>0.15476401257496938</v>
       </c>
       <c r="DB3">
-        <v>0.10083210288835191</v>
+        <v>0.11430623356524199</v>
       </c>
       <c r="DC3">
-        <v>0.038623821198713076</v>
+        <v>0.068732510734500013</v>
       </c>
       <c r="DD3">
-        <v>0.12796504475267714</v>
+        <v>0.11559169237338204</v>
       </c>
       <c r="DE3">
-        <v>0.099579968346822825</v>
+        <v>0.12279607461222422</v>
       </c>
       <c r="DF3">
-        <v>0.041709322562797836</v>
+        <v>0.10848865474738893</v>
       </c>
       <c r="DG3">
-        <v>0.016758366247834028</v>
+        <v>0.038411080769706916</v>
       </c>
       <c r="DH3">
-        <v>0.037950496306051767</v>
+        <v>0.016663684393797517</v>
       </c>
       <c r="DI3">
-        <v>0.07808260649198423</v>
+        <v>0.070418235679806707</v>
       </c>
       <c r="DJ3">
-        <v>0.045049864755059628</v>
+        <v>0.066370723978352295</v>
       </c>
       <c r="DK3">
-        <v>0.041737779537679744</v>
+        <v>0.025710760317637135</v>
       </c>
       <c r="DL3">
-        <v>0.021835444613027683</v>
+        <v>0.026540512038951952</v>
       </c>
       <c r="DM3">
-        <v>-0.018063406019604447</v>
+        <v>0.0074298312579780066</v>
       </c>
       <c r="DN3">
-        <v>0.32662371791411882</v>
+        <v>0.36508470499918794</v>
       </c>
       <c r="DO3">
-        <v>0.32830514489594331</v>
+        <v>0.32142780874156096</v>
       </c>
       <c r="DP3">
-        <v>0.33795503601975141</v>
+        <v>0.34147561907123869</v>
       </c>
       <c r="DQ3">
-        <v>0.28476914862217478</v>
+        <v>0.28300151133373058</v>
       </c>
       <c r="DR3">
-        <v>0.28280446308994345</v>
+        <v>0.25084491926983021</v>
       </c>
       <c r="DS3">
-        <v>0.30498252216696037</v>
+        <v>0.31042770565778544</v>
       </c>
       <c r="DT3">
-        <v>0.2507311810550229</v>
+        <v>0.28048362121339904</v>
       </c>
       <c r="DU3">
-        <v>0.21847146862350639</v>
+        <v>0.23004936546659943</v>
       </c>
       <c r="DV3">
-        <v>0.19103770975508991</v>
+        <v>0.20876627329127811</v>
       </c>
       <c r="DW3">
-        <v>0.15794715741088222</v>
+        <v>0.18388431972363925</v>
       </c>
       <c r="DX3">
-        <v>0.19959432229193802</v>
+        <v>0.21752064191709103</v>
       </c>
       <c r="DY3">
-        <v>0.19174668207562362</v>
+        <v>0.19618044045050065</v>
       </c>
       <c r="DZ3">
-        <v>0.16047406702750727</v>
+        <v>0.19800894905425775</v>
       </c>
       <c r="EA3">
-        <v>0.1342155052423559</v>
+        <v>0.15256865587206581</v>
       </c>
       <c r="EB3">
-        <v>0.14000464461428719</v>
+        <v>0.12552864099296165</v>
       </c>
       <c r="EC3">
-        <v>0.1864150829994291</v>
+        <v>0.16202636716028004</v>
       </c>
       <c r="ED3">
-        <v>0.13972584779551342</v>
+        <v>0.15968163918622483</v>
       </c>
       <c r="EE3">
-        <v>0.10856370140578459</v>
+        <v>0.13016458923906341</v>
       </c>
       <c r="EF3">
-        <v>0.1175767445060712</v>
+        <v>0.12607552918294718</v>
       </c>
       <c r="EG3">
-        <v>0.087693550392806116</v>
+        <v>0.10261145727298546</v>
       </c>
       <c r="EH3">
-        <v>0.28802082987536204</v>
+        <v>0.3210849599846739</v>
       </c>
       <c r="EI3">
-        <v>0.27379859929508205</v>
+        <v>0.26643115596411332</v>
       </c>
       <c r="EJ3">
-        <v>0.27094152825211337</v>
+        <v>0.27212898174000477</v>
       </c>
       <c r="EK3">
-        <v>0.23739396970037871</v>
+        <v>0.23342908073235608</v>
       </c>
       <c r="EL3">
-        <v>0.24556407760704704</v>
+        <v>0.24026674334879269</v>
       </c>
       <c r="EM3">
-        <v>0.20489160335192555</v>
+        <v>0.211961126330447</v>
       </c>
       <c r="EN3">
-        <v>0.22600544802443615</v>
+        <v>0.21756509103379074</v>
       </c>
       <c r="EO3">
-        <v>0.17736557575901926</v>
+        <v>0.23836217492594036</v>
       </c>
       <c r="EP3">
-        <v>0.1728643716584688</v>
+        <v>0.20670842626136945</v>
       </c>
       <c r="EQ3">
-        <v>0.16039382596765345</v>
+        <v>0.11759406555764222</v>
       </c>
       <c r="ER3">
-        <v>0.13912627327079691</v>
+        <v>0.15723263685364358</v>
       </c>
       <c r="ES3">
-        <v>0.1599696915171652</v>
+        <v>0.14276681747712425</v>
       </c>
       <c r="ET3">
-        <v>0.16213178072512865</v>
+        <v>0.16024525374877885</v>
       </c>
       <c r="EU3">
-        <v>0.11447050786084849</v>
+        <v>0.12395451051359853</v>
       </c>
       <c r="EV3">
-        <v>0.10079269170989852</v>
+        <v>0.13205317452188131</v>
       </c>
       <c r="EW3">
-        <v>0.12277869367740565</v>
+        <v>0.13294920418720013</v>
       </c>
       <c r="EX3">
-        <v>0.12709889661612092</v>
+        <v>0.11409340354846852</v>
       </c>
       <c r="EY3">
-        <v>0.095341899028325183</v>
+        <v>0.10017334574842193</v>
       </c>
       <c r="EZ3">
-        <v>0.085510463478071133</v>
+        <v>0.072771087491607392</v>
       </c>
       <c r="FA3">
-        <v>0.088831322869427687</v>
+        <v>0.080490131486561381</v>
       </c>
       <c r="FB3">
-        <v>0.093579043013177973</v>
+        <v>0.088437147156235865</v>
       </c>
       <c r="FC3">
-        <v>0.052751298517806092</v>
+        <v>0.078962807058716944</v>
       </c>
       <c r="FD3">
-        <v>0.068261116311498102</v>
+        <v>0.072811654405677245</v>
       </c>
       <c r="FE3">
-        <v>0.038961373822104524</v>
+        <v>0.091994333037398984</v>
       </c>
       <c r="FF3">
-        <v>0.050170587582743481</v>
+        <v>0.063825119916982559</v>
       </c>
       <c r="FG3">
-        <v>0.067327213254874271</v>
+        <v>0.052766334992451626</v>
       </c>
       <c r="FH3">
-        <v>0.068595563663913936</v>
+        <v>0.043392954183236965</v>
       </c>
       <c r="FI3">
-        <v>0.05613027453082093</v>
+        <v>0.028438109140980279</v>
       </c>
       <c r="FJ3">
-        <v>0.0018247483936637973</v>
+        <v>0.054789911923297921</v>
       </c>
       <c r="FK3">
-        <v>0.051214760011081641</v>
+        <v>0.066553982378659338</v>
       </c>
       <c r="FL3">
-        <v>0.06842621446363617</v>
+        <v>0.063554534173531047</v>
       </c>
       <c r="FM3">
-        <v>0.037016830171826706</v>
+        <v>0.029159853384175195</v>
       </c>
       <c r="FN3">
-        <v>0.031880493457847547</v>
+        <v>0.049639016097328063</v>
       </c>
       <c r="FO3">
-        <v>0.0037745569201716534</v>
+        <v>0.036830236259185981</v>
       </c>
       <c r="FP3">
-        <v>0.031947548879698195</v>
+        <v>-0.016476449742702605</v>
       </c>
       <c r="FQ3">
-        <v>0.014575525644654823</v>
+        <v>0.014207921371494238</v>
       </c>
       <c r="FR3">
-        <v>0.033827159633492108</v>
+        <v>0.0063528903338643805</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -6509,7 +6917,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.4846232096679124</v>
+        <v>-5.493052148451949</v>
+      </c>
+      <c r="FW3">
+        <v>0.06284604261727976</v>
+      </c>
+      <c r="FX3">
+        <v>0.06525912468690849</v>
+      </c>
+      <c r="FY3">
+        <v>0.034006483209688354</v>
+      </c>
+      <c r="FZ3">
+        <v>0.055797416424288503</v>
+      </c>
+      <c r="GA3">
+        <v>0.040114901020039943</v>
+      </c>
+      <c r="GB3">
+        <v>0.0026174454488717431</v>
+      </c>
+      <c r="GC3">
+        <v>0.011706676998682927</v>
+      </c>
+      <c r="GD3">
+        <v>0.0063905440720801281</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.4955246530901727</v>
       </c>
     </row>
     <row r="4">
@@ -6517,523 +6961,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.019783438104170926</v>
+        <v>0.019635900568770875</v>
       </c>
       <c r="C4">
-        <v>0.016922537941060928</v>
+        <v>0.016970332312763861</v>
       </c>
       <c r="D4">
-        <v>0.017589298339554728</v>
+        <v>0.017486982574872908</v>
       </c>
       <c r="E4">
-        <v>0.017620438177645428</v>
+        <v>0.017682787549857824</v>
       </c>
       <c r="F4">
-        <v>0.018200289109306132</v>
+        <v>0.018150948009638491</v>
       </c>
       <c r="G4">
-        <v>0.022456458751738476</v>
+        <v>0.022526314205188667</v>
       </c>
       <c r="H4">
-        <v>0.027307329253074348</v>
+        <v>0.027315312709057495</v>
       </c>
       <c r="I4">
-        <v>0.012790706861586933</v>
+        <v>0.01274340391254058</v>
       </c>
       <c r="J4">
-        <v>0.010749732265742202</v>
+        <v>0.010808880939406487</v>
       </c>
       <c r="K4">
-        <v>0.0090920543092261694</v>
+        <v>0.0090529326584037548</v>
       </c>
       <c r="L4">
-        <v>0.0096651825809712724</v>
+        <v>0.0096561414488184876</v>
       </c>
       <c r="M4">
-        <v>0.01017179358066778</v>
+        <v>0.010165000190998637</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.027167344967241571</v>
+        <v>0.027284980252456438</v>
       </c>
       <c r="P4">
-        <v>0.026746832666848384</v>
+        <v>0.026910787538254658</v>
       </c>
       <c r="Q4">
-        <v>0.037947975869886692</v>
+        <v>0.037945551927484403</v>
       </c>
       <c r="R4">
-        <v>0.03767695722058647</v>
+        <v>0.037386871663468615</v>
       </c>
       <c r="S4">
-        <v>0.037719630886238753</v>
+        <v>0.038213766789012962</v>
       </c>
       <c r="T4">
-        <v>0.037550466717584309</v>
+        <v>0.03796752473471203</v>
       </c>
       <c r="U4">
-        <v>0.037324357858450778</v>
+        <v>0.037346470282187981</v>
       </c>
       <c r="V4">
-        <v>0.036715408071715049</v>
+        <v>0.036648558516866589</v>
       </c>
       <c r="W4">
-        <v>0.036988914779611526</v>
+        <v>0.03721678502383613</v>
       </c>
       <c r="X4">
-        <v>0.036706174255952177</v>
+        <v>0.037306304953306946</v>
       </c>
       <c r="Y4">
-        <v>0.036827227917370003</v>
+        <v>0.036407976518624242</v>
       </c>
       <c r="Z4">
-        <v>0.036780407490009222</v>
+        <v>0.036898299588949718</v>
       </c>
       <c r="AA4">
-        <v>0.03687437929888366</v>
+        <v>0.037397009150845081</v>
       </c>
       <c r="AB4">
-        <v>0.037214018293116727</v>
+        <v>0.036603331016551416</v>
       </c>
       <c r="AC4">
-        <v>0.036294894603959627</v>
+        <v>0.036576343834666694</v>
       </c>
       <c r="AD4">
-        <v>0.036382117503973216</v>
+        <v>0.036478336155290288</v>
       </c>
       <c r="AE4">
-        <v>0.0361070795046999</v>
+        <v>0.036460674382967774</v>
       </c>
       <c r="AF4">
-        <v>0.03636457836458834</v>
+        <v>0.036260967071502212</v>
       </c>
       <c r="AG4">
-        <v>0.036208839040533507</v>
+        <v>0.036666737253600194</v>
       </c>
       <c r="AH4">
-        <v>0.035932841942176476</v>
+        <v>0.036621384560241249</v>
       </c>
       <c r="AI4">
-        <v>0.036234534583036986</v>
+        <v>0.036083922978239154</v>
       </c>
       <c r="AJ4">
-        <v>0.036098672597088155</v>
+        <v>0.037021972883052555</v>
       </c>
       <c r="AK4">
-        <v>0.036174738273610854</v>
+        <v>0.036050754935989825</v>
       </c>
       <c r="AL4">
-        <v>0.036515194798511813</v>
+        <v>0.03565815166158872</v>
       </c>
       <c r="AM4">
-        <v>0.035332859052021111</v>
+        <v>0.036286666161751545</v>
       </c>
       <c r="AN4">
-        <v>0.036098672600690163</v>
+        <v>0.036167613743637708</v>
       </c>
       <c r="AO4">
-        <v>0.03590019441268727</v>
+        <v>0.035634907865400689</v>
       </c>
       <c r="AP4">
-        <v>0.035843468568767682</v>
+        <v>0.036576343845633338</v>
       </c>
       <c r="AQ4">
-        <v>0.036443881296777607</v>
+        <v>0.035871403694654691</v>
       </c>
       <c r="AR4">
-        <v>0.035851540733802797</v>
+        <v>0.036974135810584549</v>
       </c>
       <c r="AS4">
-        <v>0.035787254962414333</v>
+        <v>0.036150786799253799</v>
       </c>
       <c r="AT4">
-        <v>0.035637201370070398</v>
+        <v>0.036017760906165597</v>
       </c>
       <c r="AU4">
-        <v>0.035684193092648468</v>
+        <v>0.036260967084590819</v>
       </c>
       <c r="AV4">
-        <v>0.035867716508613021</v>
+        <v>0.036585327196699047</v>
       </c>
       <c r="AW4">
-        <v>0.035684193094632777</v>
+        <v>0.035847341859922749</v>
       </c>
       <c r="AX4">
-        <v>0.036191765899262374</v>
+        <v>0.036209877368699676</v>
       </c>
       <c r="AY4">
-        <v>0.035590567069573455</v>
+        <v>0.035927913093961254</v>
       </c>
       <c r="AZ4">
-        <v>0.03612392683202411</v>
+        <v>0.035936027898345026</v>
       </c>
       <c r="BA4">
-        <v>0.036303563983408886</v>
+        <v>0.036017760912725794</v>
       </c>
       <c r="BB4">
-        <v>0.035851540743460884</v>
+        <v>0.03619293816874343</v>
       </c>
       <c r="BC4">
-        <v>0.035827355594721069</v>
+        <v>0.035911715121298926</v>
       </c>
       <c r="BD4">
-        <v>0.035965660496978503</v>
+        <v>0.035744142298344876</v>
       </c>
       <c r="BE4">
-        <v>0.035908340356216609</v>
+        <v>0.036117266470861602</v>
       </c>
       <c r="BF4">
-        <v>0.036056804567246567</v>
+        <v>0.035520002160068315</v>
       </c>
       <c r="BG4">
-        <v>0.035803264155567671</v>
+        <v>0.036001328711536669</v>
       </c>
       <c r="BH4">
-        <v>0.036048464102540895</v>
+        <v>0.036540533679393562</v>
       </c>
       <c r="BI4">
-        <v>0.035859623388010541</v>
+        <v>0.036407976549781916</v>
       </c>
       <c r="BJ4">
-        <v>0.035637201386063216</v>
+        <v>0.035489725061489147</v>
       </c>
       <c r="BK4">
-        <v>0.035085777046601617</v>
+        <v>0.03605075496026771</v>
       </c>
       <c r="BL4">
-        <v>0.036268956500496857</v>
+        <v>0.036460674411931814</v>
       </c>
       <c r="BM4">
-        <v>0.035859623392069995</v>
+        <v>0.036303856463742824</v>
       </c>
       <c r="BN4">
-        <v>0.037046921371919506</v>
+        <v>0.03676762797375558</v>
       </c>
       <c r="BO4">
-        <v>0.03617473830152005</v>
+        <v>0.035944153288000269</v>
       </c>
       <c r="BP4">
-        <v>0.036524164105686943</v>
+        <v>0.036059030607620168</v>
       </c>
       <c r="BQ4">
-        <v>0.035932841975550731</v>
+        <v>0.036460674416459705</v>
       </c>
       <c r="BR4">
-        <v>0.035723628972778407</v>
+        <v>0.03635570568451911</v>
       </c>
       <c r="BS4">
-        <v>0.036780407528221877</v>
+        <v>0.035952289260094826</v>
       </c>
       <c r="BT4">
-        <v>0.036277590920625123</v>
+        <v>0.036125629932171686</v>
       </c>
       <c r="BU4">
-        <v>0.036286236958501528</v>
+        <v>0.036390505758489552</v>
       </c>
       <c r="BV4">
-        <v>0.036320937835069213</v>
+        <v>0.036795413299777674</v>
       </c>
       <c r="BW4">
-        <v>0.036435021842120031</v>
+        <v>0.036666737290024551</v>
       </c>
       <c r="BX4">
-        <v>0.036641896376757015</v>
+        <v>0.03669410004901566</v>
       </c>
       <c r="BY4">
-        <v>0.034936695702928469</v>
+        <v>0.035168109728821027</v>
       </c>
       <c r="BZ4">
-        <v>0.035631785925007618</v>
+        <v>0.035495275661160036</v>
       </c>
       <c r="CA4">
-        <v>0.035110432979913411</v>
+        <v>0.035937459123204472</v>
       </c>
       <c r="CB4">
-        <v>0.035631787952393468</v>
+        <v>0.035239451614007399</v>
       </c>
       <c r="CC4">
-        <v>0.035370671315853489</v>
+        <v>0.035722456077143958</v>
       </c>
       <c r="CD4">
-        <v>0.035448491044878162</v>
+        <v>0.035410429336303818</v>
       </c>
       <c r="CE4">
-        <v>0.035275023310062027</v>
+        <v>0.035346760034153386</v>
       </c>
       <c r="CF4">
-        <v>0.035818982449273278</v>
+        <v>0.036021801070754852</v>
       </c>
       <c r="CG4">
-        <v>0.035203299722142818</v>
+        <v>0.036464720720751923</v>
       </c>
       <c r="CH4">
-        <v>0.035579212388895227</v>
+        <v>0.035132944845632882</v>
       </c>
       <c r="CI4">
-        <v>0.035622425308567171</v>
+        <v>0.03564047172398517</v>
       </c>
       <c r="CJ4">
-        <v>0.035716003437652237</v>
+        <v>0.035594118202758998</v>
       </c>
       <c r="CK4">
-        <v>0.035520981745631813</v>
+        <v>0.036283563280991991</v>
       </c>
       <c r="CL4">
-        <v>0.036193775672297035</v>
+        <v>0.036628568366958249</v>
       </c>
       <c r="CM4">
-        <v>0.035734873292111495</v>
+        <v>0.035857885906133709</v>
       </c>
       <c r="CN4">
-        <v>0.036785180553863386</v>
+        <v>0.037436959443486406</v>
       </c>
       <c r="CO4">
-        <v>0.036935001726591858</v>
+        <v>0.036426705565052425</v>
       </c>
       <c r="CP4">
-        <v>0.036354562698298433</v>
+        <v>0.036958456622905637</v>
       </c>
       <c r="CQ4">
-        <v>0.03738409179757321</v>
+        <v>0.037178736381610608</v>
       </c>
       <c r="CR4">
-        <v>0.037246539620806471</v>
+        <v>0.037591673633557823</v>
       </c>
       <c r="CS4">
-        <v>0.026374011202627751</v>
+        <v>0.026261099252678874</v>
       </c>
       <c r="CT4">
-        <v>0.022083254733889428</v>
+        <v>0.022129494582819605</v>
       </c>
       <c r="CU4">
-        <v>0.022237732761745552</v>
+        <v>0.02226258079213549</v>
       </c>
       <c r="CV4">
-        <v>0.021348301636302879</v>
+        <v>0.021357552220810705</v>
       </c>
       <c r="CW4">
-        <v>0.021494370939520044</v>
+        <v>0.021593529264584781</v>
       </c>
       <c r="CX4">
-        <v>0.021534292258537431</v>
+        <v>0.021634978777136268</v>
       </c>
       <c r="CY4">
-        <v>0.021236032218962853</v>
+        <v>0.021199745129768795</v>
       </c>
       <c r="CZ4">
-        <v>0.021345622125921941</v>
+        <v>0.021388640075550188</v>
       </c>
       <c r="DA4">
-        <v>0.0214256088334643</v>
+        <v>0.021497275764149969</v>
       </c>
       <c r="DB4">
-        <v>0.021651219550997788</v>
+        <v>0.021662766973614529</v>
       </c>
       <c r="DC4">
-        <v>0.021789038363492944</v>
+        <v>0.021737076470084542</v>
       </c>
       <c r="DD4">
-        <v>0.022158549093136769</v>
+        <v>0.022297667629665497</v>
       </c>
       <c r="DE4">
-        <v>0.022291646557079495</v>
+        <v>0.02229683553584301</v>
       </c>
       <c r="DF4">
-        <v>0.022544537016003865</v>
+        <v>0.022377899952581291</v>
       </c>
       <c r="DG4">
-        <v>0.022672392274977412</v>
+        <v>0.022682684458362679</v>
       </c>
       <c r="DH4">
-        <v>0.022539605080097124</v>
+        <v>0.022720521540530208</v>
       </c>
       <c r="DI4">
-        <v>0.023081618051861121</v>
+        <v>0.023178440906040858</v>
       </c>
       <c r="DJ4">
-        <v>0.023250316606343437</v>
+        <v>0.023221764820417119</v>
       </c>
       <c r="DK4">
-        <v>0.023435552757820704</v>
+        <v>0.023568118470924874</v>
       </c>
       <c r="DL4">
-        <v>0.02355073269698774</v>
+        <v>0.023591000930444049</v>
       </c>
       <c r="DM4">
-        <v>0.023547880601180637</v>
+        <v>0.023472069565652065</v>
       </c>
       <c r="DN4">
-        <v>0.019934127224303873</v>
+        <v>0.019899428661254822</v>
       </c>
       <c r="DO4">
-        <v>0.019943300369355325</v>
+        <v>0.019995884775372327</v>
       </c>
       <c r="DP4">
-        <v>0.019363798591881705</v>
+        <v>0.019420216620578547</v>
       </c>
       <c r="DQ4">
-        <v>0.01949483405174075</v>
+        <v>0.019561882648204638</v>
       </c>
       <c r="DR4">
-        <v>0.019515518092732165</v>
+        <v>0.019650805957552631</v>
       </c>
       <c r="DS4">
-        <v>0.019168314452483608</v>
+        <v>0.019207084593775167</v>
       </c>
       <c r="DT4">
-        <v>0.019321226677355641</v>
+        <v>0.01929903206203808</v>
       </c>
       <c r="DU4">
-        <v>0.019423482608548787</v>
+        <v>0.019447000606609449</v>
       </c>
       <c r="DV4">
-        <v>0.019515817655319647</v>
+        <v>0.019522429820049318</v>
       </c>
       <c r="DW4">
-        <v>0.019626475885607873</v>
+        <v>0.019609439663641978</v>
       </c>
       <c r="DX4">
-        <v>0.019766073026608082</v>
+        <v>0.019783926117817922</v>
       </c>
       <c r="DY4">
-        <v>0.019807542509931265</v>
+        <v>0.019864712295464399</v>
       </c>
       <c r="DZ4">
-        <v>0.019919549812980147</v>
+        <v>0.019878041590577246</v>
       </c>
       <c r="EA4">
-        <v>0.020019164228319418</v>
+        <v>0.020034719964657069</v>
       </c>
       <c r="EB4">
-        <v>0.020020181189288694</v>
+        <v>0.020138763535440748</v>
       </c>
       <c r="EC4">
-        <v>0.020128784932134373</v>
+        <v>0.020268767035656759</v>
       </c>
       <c r="ED4">
-        <v>0.020300253422491209</v>
+        <v>0.020295321505931302</v>
       </c>
       <c r="EE4">
-        <v>0.020425007313577992</v>
+        <v>0.020413198859268379</v>
       </c>
       <c r="EF4">
-        <v>0.020413139152411081</v>
+        <v>0.020446269033603501</v>
       </c>
       <c r="EG4">
-        <v>0.020536728826391078</v>
+        <v>0.020546990954032722</v>
       </c>
       <c r="EH4">
-        <v>0.01970079362078863</v>
+        <v>0.019642666687674049</v>
       </c>
       <c r="EI4">
-        <v>0.019776559020551577</v>
+        <v>0.01987241256515658</v>
       </c>
       <c r="EJ4">
-        <v>0.01980883700585875</v>
+        <v>0.019871197048436685</v>
       </c>
       <c r="EK4">
-        <v>0.019962890013813902</v>
+        <v>0.020046313651653849</v>
       </c>
       <c r="EL4">
-        <v>0.019951293463767165</v>
+        <v>0.020039745927840195</v>
       </c>
       <c r="EM4">
-        <v>0.020138783198513602</v>
+        <v>0.020176939660129053</v>
       </c>
       <c r="EN4">
-        <v>0.02007274970369707</v>
+        <v>0.020174851337245746</v>
       </c>
       <c r="EO4">
-        <v>0.020298292948230597</v>
+        <v>0.020110354874590963</v>
       </c>
       <c r="EP4">
-        <v>0.020338950652241391</v>
+        <v>0.020263495858963813</v>
       </c>
       <c r="EQ4">
-        <v>0.020414526254562963</v>
+        <v>0.020675336497456624</v>
       </c>
       <c r="ER4">
-        <v>0.020529967815940058</v>
+        <v>0.020518732745479211</v>
       </c>
       <c r="ES4">
-        <v>0.020458783641636533</v>
+        <v>0.020604529808455972</v>
       </c>
       <c r="ET4">
-        <v>0.020470774288452873</v>
+        <v>0.020547818201383683</v>
       </c>
       <c r="EU4">
-        <v>0.020707537245591795</v>
+        <v>0.020733256848462996</v>
       </c>
       <c r="EV4">
-        <v>0.020792479853209912</v>
+        <v>0.020717567639597281</v>
       </c>
       <c r="EW4">
-        <v>0.020711939730069281</v>
+        <v>0.020735006164816643</v>
       </c>
       <c r="EX4">
-        <v>0.020713702835072515</v>
+        <v>0.020843993992174344</v>
       </c>
       <c r="EY4">
-        <v>0.020884013807398787</v>
+        <v>0.02093116020577121</v>
       </c>
       <c r="EZ4">
-        <v>0.020952609361491344</v>
+        <v>0.021084364122243827</v>
       </c>
       <c r="FA4">
-        <v>0.020958405186732747</v>
+        <v>0.021068451542419965</v>
       </c>
       <c r="FB4">
-        <v>0.020957438442701287</v>
+        <v>0.021051645034543442</v>
       </c>
       <c r="FC4">
-        <v>0.021178785722064119</v>
+        <v>0.021119497427964908</v>
       </c>
       <c r="FD4">
-        <v>0.021123823404576959</v>
+        <v>0.021171503194736759</v>
       </c>
       <c r="FE4">
-        <v>0.021292025578561039</v>
+        <v>0.021099366727963725</v>
       </c>
       <c r="FF4">
-        <v>0.021257362967958091</v>
+        <v>0.021260388789954631</v>
       </c>
       <c r="FG4">
-        <v>0.021193485641982961</v>
+        <v>0.0213379273688219</v>
       </c>
       <c r="FH4">
-        <v>0.021209320701957645</v>
+        <v>0.021407537388518916</v>
       </c>
       <c r="FI4">
-        <v>0.021294206263745369</v>
+        <v>0.021506491685192159</v>
       </c>
       <c r="FJ4">
-        <v>0.021597341450910666</v>
+        <v>0.02139303555341002</v>
       </c>
       <c r="FK4">
-        <v>0.021362630421639887</v>
+        <v>0.021355447748531597</v>
       </c>
       <c r="FL4">
-        <v>0.02129748018999833</v>
+        <v>0.02139303569542263</v>
       </c>
       <c r="FM4">
-        <v>0.021481145517279684</v>
+        <v>0.021593357288289126</v>
       </c>
       <c r="FN4">
-        <v>0.021530391242743366</v>
+        <v>0.021508806557328852</v>
       </c>
       <c r="FO4">
-        <v>0.021701886554206254</v>
+        <v>0.021598125851928572</v>
       </c>
       <c r="FP4">
-        <v>0.021574458663354668</v>
+        <v>0.021906772511223332</v>
       </c>
       <c r="FQ4">
-        <v>0.021689399377284826</v>
+        <v>0.021762386905943978</v>
       </c>
       <c r="FR4">
-        <v>0.021609455953843591</v>
+        <v>0.021827301776266371</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -7045,7 +7489,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015424838182205993</v>
+        <v>0.015474622434289192</v>
+      </c>
+      <c r="FW4">
+        <v>0.021402257311974957</v>
+      </c>
+      <c r="FX4">
+        <v>0.021412263295148309</v>
+      </c>
+      <c r="FY4">
+        <v>0.021596116727861745</v>
+      </c>
+      <c r="FZ4">
+        <v>0.021505050428608331</v>
+      </c>
+      <c r="GA4">
+        <v>0.021609187279245875</v>
+      </c>
+      <c r="GB4">
+        <v>0.021831517535851764</v>
+      </c>
+      <c r="GC4">
+        <v>0.021804729026577895</v>
+      </c>
+      <c r="GD4">
+        <v>0.021855956590763288</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.015495043581341638</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +7534,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7592,6 +8072,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -8125,529 +8641,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>-0.0097402853206776975</v>
+        <v>-0.018627065621763635</v>
       </c>
       <c r="C3">
-        <v>-0.63142858188409079</v>
+        <v>-0.65293355316670898</v>
       </c>
       <c r="D3">
-        <v>-0.67524853436630694</v>
+        <v>-0.68324799568746919</v>
       </c>
       <c r="E3">
-        <v>-0.68375100100851727</v>
+        <v>-0.69053193469928342</v>
       </c>
       <c r="F3">
-        <v>-0.67190465106004971</v>
+        <v>-0.6799678422106632</v>
       </c>
       <c r="G3">
-        <v>-0.67317595565419464</v>
+        <v>-0.69840650977450902</v>
       </c>
       <c r="H3">
-        <v>-0.68196548583983541</v>
+        <v>-0.69210148759397216</v>
       </c>
       <c r="I3">
-        <v>-0.0019422061594793236</v>
+        <v>-0.00044950687918760251</v>
       </c>
       <c r="J3">
-        <v>-0.0058533697643743691</v>
+        <v>-0.0044666057224272632</v>
       </c>
       <c r="K3">
-        <v>-0.00037307778738707295</v>
+        <v>0.00024037072552843134</v>
       </c>
       <c r="L3">
-        <v>0.0041665710583540516</v>
+        <v>0.0017424805085289035</v>
       </c>
       <c r="M3">
-        <v>0.0007705072269342106</v>
+        <v>0.0010044168312434312</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2580189885926447</v>
+        <v>1.2791291920602104</v>
       </c>
       <c r="P3">
-        <v>1.3699701490114093</v>
+        <v>1.3981670198813039</v>
       </c>
       <c r="Q3">
-        <v>-0.20888574844812252</v>
+        <v>-0.15799595569077857</v>
       </c>
       <c r="R3">
-        <v>-0.16423343223798609</v>
+        <v>-0.15955039319346087</v>
       </c>
       <c r="S3">
-        <v>-0.17327963273644731</v>
+        <v>-0.16481584456743484</v>
       </c>
       <c r="T3">
-        <v>-0.11708343033618532</v>
+        <v>-0.13820016026482645</v>
       </c>
       <c r="U3">
-        <v>-0.10732682116798901</v>
+        <v>-0.088096001305426247</v>
       </c>
       <c r="V3">
-        <v>-0.11022116067331175</v>
+        <v>-0.067457652320674494</v>
       </c>
       <c r="W3">
-        <v>-0.10559224517823655</v>
+        <v>-0.077439048452800682</v>
       </c>
       <c r="X3">
-        <v>-0.095859431882793764</v>
+        <v>-0.092787604639731652</v>
       </c>
       <c r="Y3">
-        <v>-0.068481492745011141</v>
+        <v>-0.025600672705732373</v>
       </c>
       <c r="Z3">
-        <v>-0.061232679364576041</v>
+        <v>-0.028503268204968603</v>
       </c>
       <c r="AA3">
-        <v>-0.070166492096814845</v>
+        <v>-0.038703707627543646</v>
       </c>
       <c r="AB3">
-        <v>-0.026179709102847989</v>
+        <v>-0.031110315252328234</v>
       </c>
       <c r="AC3">
-        <v>-0.021257564314213634</v>
+        <v>-0.038064558847112573</v>
       </c>
       <c r="AD3">
-        <v>-0.062085360935705158</v>
+        <v>-0.0020774133187532631</v>
       </c>
       <c r="AE3">
-        <v>-0.026476825460496185</v>
+        <v>-0.021810823153421189</v>
       </c>
       <c r="AF3">
-        <v>0.0046873231540202924</v>
+        <v>0.027062026676096709</v>
       </c>
       <c r="AG3">
-        <v>0.008053701479232709</v>
+        <v>0.01654514894900521</v>
       </c>
       <c r="AH3">
-        <v>0.0014212452587267421</v>
+        <v>-0.015613094336352919</v>
       </c>
       <c r="AI3">
-        <v>0.01757447395695699</v>
+        <v>0.045429495119479725</v>
       </c>
       <c r="AJ3">
-        <v>0.0066234428510694972</v>
+        <v>0.017700257645889554</v>
       </c>
       <c r="AK3">
-        <v>0.0052882910197477031</v>
+        <v>0.039698619603028139</v>
       </c>
       <c r="AL3">
-        <v>0.028911783293240602</v>
+        <v>0.059512524667875343</v>
       </c>
       <c r="AM3">
-        <v>0.021791245410632144</v>
+        <v>0.056757468514075746</v>
       </c>
       <c r="AN3">
-        <v>0.00065124206688940603</v>
+        <v>0.061396670329095682</v>
       </c>
       <c r="AO3">
-        <v>0.040885472691460992</v>
+        <v>0.044283138695224211</v>
       </c>
       <c r="AP3">
-        <v>0.051632102184185451</v>
+        <v>0.039490052917302794</v>
       </c>
       <c r="AQ3">
-        <v>0.044384847356569647</v>
+        <v>0.051697067044392274</v>
       </c>
       <c r="AR3">
-        <v>0.051183453799557778</v>
+        <v>0.062588797955447112</v>
       </c>
       <c r="AS3">
-        <v>0.071568375508683696</v>
+        <v>0.10374970629817687</v>
       </c>
       <c r="AT3">
-        <v>0.058720967691385732</v>
+        <v>0.081841715303276885</v>
       </c>
       <c r="AU3">
-        <v>0.095385927407605445</v>
+        <v>0.075772065441447656</v>
       </c>
       <c r="AV3">
-        <v>0.048552564085201581</v>
+        <v>0.10146215687067175</v>
       </c>
       <c r="AW3">
-        <v>0.081807909670634449</v>
+        <v>0.07468531099506201</v>
       </c>
       <c r="AX3">
-        <v>0.033078249150252079</v>
+        <v>0.108349763571502</v>
       </c>
       <c r="AY3">
-        <v>0.086578343518486062</v>
+        <v>0.10792578016057908</v>
       </c>
       <c r="AZ3">
-        <v>0.046662175264779324</v>
+        <v>0.11111425121131278</v>
       </c>
       <c r="BA3">
-        <v>0.094678350241388542</v>
+        <v>0.077844806383410778</v>
       </c>
       <c r="BB3">
-        <v>0.058353160915696312</v>
+        <v>0.10319744665124744</v>
       </c>
       <c r="BC3">
-        <v>0.076593521511997442</v>
+        <v>0.095357069439536576</v>
       </c>
       <c r="BD3">
-        <v>0.061626078574785019</v>
+        <v>0.12914783737150778</v>
       </c>
       <c r="BE3">
-        <v>0.066042115902244042</v>
+        <v>0.11310547575912727</v>
       </c>
       <c r="BF3">
-        <v>0.05770212560854731</v>
+        <v>0.13078836441318029</v>
       </c>
       <c r="BG3">
-        <v>0.092905995912809777</v>
+        <v>0.089996563241461616</v>
       </c>
       <c r="BH3">
-        <v>0.098247932203561442</v>
+        <v>0.089736835686056532</v>
       </c>
       <c r="BI3">
-        <v>0.076104011935765895</v>
+        <v>0.055607152261565394</v>
       </c>
       <c r="BJ3">
-        <v>0.10255044534018638</v>
+        <v>0.066187654022359099</v>
       </c>
       <c r="BK3">
-        <v>0.12167502210341659</v>
+        <v>0.10662652907888011</v>
       </c>
       <c r="BL3">
-        <v>0.082482158135780761</v>
+        <v>0.11663181101727299</v>
       </c>
       <c r="BM3">
-        <v>0.048169822466908284</v>
+        <v>0.12139540095481689</v>
       </c>
       <c r="BN3">
-        <v>0.097774462873881127</v>
+        <v>0.09157930027245384</v>
       </c>
       <c r="BO3">
-        <v>0.071179550895629939</v>
+        <v>0.10861665134972888</v>
       </c>
       <c r="BP3">
-        <v>0.068701215961018441</v>
+        <v>0.11246336802977445</v>
       </c>
       <c r="BQ3">
-        <v>0.069057333942233026</v>
+        <v>0.11100865182536547</v>
       </c>
       <c r="BR3">
-        <v>0.10104660908350005</v>
+        <v>0.073709736828191041</v>
       </c>
       <c r="BS3">
-        <v>0.079669134980990361</v>
+        <v>0.14785119588753604</v>
       </c>
       <c r="BT3">
-        <v>0.068925309456235151</v>
+        <v>0.11128963430354431</v>
       </c>
       <c r="BU3">
-        <v>0.076926667542008151</v>
+        <v>0.08253902643540742</v>
       </c>
       <c r="BV3">
-        <v>0.058642286076270818</v>
+        <v>0.10439991883906977</v>
       </c>
       <c r="BW3">
-        <v>0.07217735577570257</v>
+        <v>0.11492935843393155</v>
       </c>
       <c r="BX3">
-        <v>0.052377447016263685</v>
+        <v>0.10001240861220773</v>
       </c>
       <c r="BY3">
-        <v>0.109506814756059</v>
+        <v>0.15733975437318992</v>
       </c>
       <c r="BZ3">
-        <v>0.059576517589520268</v>
+        <v>0.068663776277326755</v>
       </c>
       <c r="CA3">
-        <v>0.10442437056511877</v>
+        <v>0.10719717990740982</v>
       </c>
       <c r="CB3">
-        <v>0.061864643279417562</v>
+        <v>0.091312485636355717</v>
       </c>
       <c r="CC3">
-        <v>0.081022887484628589</v>
+        <v>0.080709495525410624</v>
       </c>
       <c r="CD3">
-        <v>0.051193453361876966</v>
+        <v>0.11812085943005467</v>
       </c>
       <c r="CE3">
-        <v>0.081653865401453932</v>
+        <v>0.12458232708826174</v>
       </c>
       <c r="CF3">
-        <v>0.057034907383945121</v>
+        <v>0.12082886681211082</v>
       </c>
       <c r="CG3">
-        <v>0.05760430854168902</v>
+        <v>0.047198947000556275</v>
       </c>
       <c r="CH3">
-        <v>0.084519326154162161</v>
+        <v>0.098308053655034297</v>
       </c>
       <c r="CI3">
-        <v>0.11974843224322047</v>
+        <v>0.06808473206153029</v>
       </c>
       <c r="CJ3">
-        <v>0.083325800642965075</v>
+        <v>0.10243632953306665</v>
       </c>
       <c r="CK3">
-        <v>0.096027607785437327</v>
+        <v>0.045293227370784207</v>
       </c>
       <c r="CL3">
-        <v>0.004809174552580662</v>
+        <v>0.054757509103655892</v>
       </c>
       <c r="CM3">
-        <v>0.078552534479201547</v>
+        <v>0.069689715409800582</v>
       </c>
       <c r="CN3">
-        <v>0.051639636945318194</v>
+        <v>0.046543080576049813</v>
       </c>
       <c r="CO3">
-        <v>0.064362125111972118</v>
+        <v>0.092718038637575648</v>
       </c>
       <c r="CP3">
-        <v>0.093213504390582166</v>
+        <v>0.086858987569781526</v>
       </c>
       <c r="CQ3">
-        <v>0.043331788878604942</v>
+        <v>0.1393788200963007</v>
       </c>
       <c r="CR3">
-        <v>0.055510183602578284</v>
+        <v>0.099225768039190892</v>
       </c>
       <c r="CS3">
-        <v>0.082909548891393958</v>
+        <v>0.10736347503634619</v>
       </c>
       <c r="CT3">
-        <v>0.090258398998322761</v>
+        <v>0.10073783923983397</v>
       </c>
       <c r="CU3">
-        <v>0.043827575510675107</v>
+        <v>0.062390687439577534</v>
       </c>
       <c r="CV3">
-        <v>0.077211339309982793</v>
+        <v>0.1281687728244201</v>
       </c>
       <c r="CW3">
-        <v>0.087013347677879674</v>
+        <v>0.051366457822452485</v>
       </c>
       <c r="CX3">
-        <v>0.077950812143897055</v>
+        <v>0.10216603468404512</v>
       </c>
       <c r="CY3">
-        <v>0.069321275920051939</v>
+        <v>0.087264135361456857</v>
       </c>
       <c r="CZ3">
-        <v>0.022841078376835241</v>
+        <v>0.05866680524825147</v>
       </c>
       <c r="DA3">
-        <v>0.076792727749848022</v>
+        <v>0.06261763313936973</v>
       </c>
       <c r="DB3">
-        <v>0.081116327692206336</v>
+        <v>0.088080208539784127</v>
       </c>
       <c r="DC3">
-        <v>0.023121571772140869</v>
+        <v>0.062380689012861888</v>
       </c>
       <c r="DD3">
-        <v>0.049704296506274989</v>
+        <v>0.035835815926051326</v>
       </c>
       <c r="DE3">
-        <v>0.029257955126157219</v>
+        <v>0.10015880041589897</v>
       </c>
       <c r="DF3">
-        <v>0.042396174890581638</v>
+        <v>0.075374705266856731</v>
       </c>
       <c r="DG3">
-        <v>0.036491875764221339</v>
+        <v>0.076835153709276405</v>
       </c>
       <c r="DH3">
-        <v>0.065775935915875244</v>
+        <v>0.087538848557735222</v>
       </c>
       <c r="DI3">
-        <v>-0.0090744199417955272</v>
+        <v>0.061546638471649366</v>
       </c>
       <c r="DJ3">
-        <v>0.02496024217922474</v>
+        <v>0.0633078197810472</v>
       </c>
       <c r="DK3">
-        <v>0.044493401700253024</v>
+        <v>0.064147974854715781</v>
       </c>
       <c r="DL3">
-        <v>0.048123969342585469</v>
+        <v>0.053986027164889906</v>
       </c>
       <c r="DM3">
-        <v>0.042501200519634172</v>
+        <v>0.078920199821269854</v>
       </c>
       <c r="DN3">
-        <v>0.021578982611520994</v>
+        <v>0.062185305637813951</v>
       </c>
       <c r="DO3">
-        <v>0.073636206368747029</v>
+        <v>0.053504139906451288</v>
       </c>
       <c r="DP3">
-        <v>0.055415015553257972</v>
+        <v>0.055590873094558325</v>
       </c>
       <c r="DQ3">
-        <v>0.073329809418070116</v>
+        <v>0.051854664005992181</v>
       </c>
       <c r="DR3">
-        <v>0.071374857566578617</v>
+        <v>0.072338498659456338</v>
       </c>
       <c r="DS3">
-        <v>0.086573889221129324</v>
+        <v>0.076767781454423256</v>
       </c>
       <c r="DT3">
-        <v>0.0099814489976115528</v>
+        <v>0.073193811122796104</v>
       </c>
       <c r="DU3">
-        <v>0.024353369623069984</v>
+        <v>0.019700546067275962</v>
       </c>
       <c r="DV3">
-        <v>0.022940177290351429</v>
+        <v>0.037837882708883788</v>
       </c>
       <c r="DW3">
-        <v>0.041027769165267049</v>
+        <v>0.059908480600290762</v>
       </c>
       <c r="DX3">
-        <v>0.023638951391123701</v>
+        <v>0.042918254843741947</v>
       </c>
       <c r="DY3">
-        <v>0.032401061475827095</v>
+        <v>0.036204121990716667</v>
       </c>
       <c r="DZ3">
-        <v>0.022413626599374542</v>
+        <v>0.061152305544846589</v>
       </c>
       <c r="EA3">
-        <v>0.020128977656958827</v>
+        <v>0.036950635261722355</v>
       </c>
       <c r="EB3">
-        <v>0.047088102461731354</v>
+        <v>0.041347348418143429</v>
       </c>
       <c r="EC3">
-        <v>0.059467349409284533</v>
+        <v>0.040369762987453005</v>
       </c>
       <c r="ED3">
-        <v>0.02669110289722039</v>
+        <v>0.04024277976900998</v>
       </c>
       <c r="EE3">
-        <v>0.021759331141039805</v>
+        <v>0.043493243022034458</v>
       </c>
       <c r="EF3">
-        <v>0.051924291650279397</v>
+        <v>0.047481682176564663</v>
       </c>
       <c r="EG3">
-        <v>0.042542687082389986</v>
+        <v>0.0745044824838801</v>
       </c>
       <c r="EH3">
-        <v>0.033192431647882312</v>
+        <v>0.072602214401107396</v>
       </c>
       <c r="EI3">
-        <v>0.031428605092610917</v>
+        <v>0.027627640183314678</v>
       </c>
       <c r="EJ3">
-        <v>0.0520727315655704</v>
+        <v>0.037916463726309753</v>
       </c>
       <c r="EK3">
-        <v>0.013957103283742205</v>
+        <v>0.010707657168131445</v>
       </c>
       <c r="EL3">
-        <v>0.063153638840010559</v>
+        <v>0.040902262610020709</v>
       </c>
       <c r="EM3">
-        <v>0.023333151565861823</v>
+        <v>0.011192997448145489</v>
       </c>
       <c r="EN3">
-        <v>0.060407521640220993</v>
+        <v>0.043238907867045047</v>
       </c>
       <c r="EO3">
-        <v>0.0023660011414727389</v>
+        <v>0.095561144615864402</v>
       </c>
       <c r="EP3">
-        <v>0.0059023597577465697</v>
+        <v>0.056368405068080399</v>
       </c>
       <c r="EQ3">
-        <v>0.02310370443068583</v>
+        <v>-0.023837083310244696</v>
       </c>
       <c r="ER3">
-        <v>-0.0016971612546276059</v>
+        <v>0.019463719937531068</v>
       </c>
       <c r="ES3">
-        <v>0.031488091151787544</v>
+        <v>0.016378415899923181</v>
       </c>
       <c r="ET3">
-        <v>0.042983643854398672</v>
+        <v>0.045492145280074066</v>
       </c>
       <c r="EU3">
-        <v>0.0073865087595021521</v>
+        <v>0.028970310682875901</v>
       </c>
       <c r="EV3">
-        <v>-0.00084387798184984485</v>
+        <v>0.028137597166545486</v>
       </c>
       <c r="EW3">
-        <v>0.038908685863348752</v>
+        <v>0.044099577108521783</v>
       </c>
       <c r="EX3">
-        <v>0.046559584407194751</v>
+        <v>0.026826146723856154</v>
       </c>
       <c r="EY3">
-        <v>0.02039444596462877</v>
+        <v>0.022281552146964954</v>
       </c>
       <c r="EZ3">
-        <v>0.021728286059841027</v>
+        <v>0.001937269660542408</v>
       </c>
       <c r="FA3">
-        <v>0.030769910168368993</v>
+        <v>0.022513508856049722</v>
       </c>
       <c r="FB3">
-        <v>0.039759597365551534</v>
+        <v>0.024758577533403922</v>
       </c>
       <c r="FC3">
-        <v>-0.00024140759979379426</v>
+        <v>0.015400359121769874</v>
       </c>
       <c r="FD3">
-        <v>0.021430534342379695</v>
+        <v>0.013339158310146079</v>
       </c>
       <c r="FE3">
-        <v>0.0035464008809988805</v>
+        <v>0.045940505429503321</v>
       </c>
       <c r="FF3">
-        <v>0.018328399876464774</v>
+        <v>0.016773023700891163</v>
       </c>
       <c r="FG3">
-        <v>0.030742477601240083</v>
+        <v>0.016542219003642871</v>
       </c>
       <c r="FH3">
-        <v>0.042219149370850119</v>
+        <v>0.013918617421406451</v>
       </c>
       <c r="FI3">
-        <v>0.030142789077676178</v>
+        <v>0.0040369517394995324</v>
       </c>
       <c r="FJ3">
-        <v>-0.019006202819732518</v>
+        <v>0.037441341481404398</v>
       </c>
       <c r="FK3">
-        <v>0.024965085688612582</v>
+        <v>0.047135981270481776</v>
       </c>
       <c r="FL3">
-        <v>0.045002076919532341</v>
+        <v>0.0466047295038906</v>
       </c>
       <c r="FM3">
-        <v>0.028921093833703334</v>
+        <v>0.020354799831160248</v>
       </c>
       <c r="FN3">
-        <v>0.026809868340855372</v>
+        <v>0.040633970979134001</v>
       </c>
       <c r="FO3">
-        <v>-0.0051446645398683256</v>
+        <v>0.028004031508999949</v>
       </c>
       <c r="FP3">
-        <v>0.026192683620270611</v>
+        <v>-0.015839671576252157</v>
       </c>
       <c r="FQ3">
-        <v>0.0058521144643999589</v>
+        <v>0.0031012413224119459</v>
       </c>
       <c r="FR3">
-        <v>0.029911830681014634</v>
+        <v>0.0055608178458045453</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -8659,7 +9211,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5307876532189333</v>
+        <v>-5.5377416370451122</v>
+      </c>
+      <c r="FW3">
+        <v>0.047135981270481131</v>
+      </c>
+      <c r="FX3">
+        <v>0.046604729503890531</v>
+      </c>
+      <c r="FY3">
+        <v>0.020354799831159818</v>
+      </c>
+      <c r="FZ3">
+        <v>0.040633970979132891</v>
+      </c>
+      <c r="GA3">
+        <v>0.028004031509000164</v>
+      </c>
+      <c r="GB3">
+        <v>-0.015839671576252299</v>
+      </c>
+      <c r="GC3">
+        <v>0.0031012413224115842</v>
+      </c>
+      <c r="GD3">
+        <v>0.0055608178458046165</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.5377416370451122</v>
       </c>
     </row>
     <row r="4">
@@ -8667,523 +9255,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.024166353915947715</v>
+        <v>0.023967814559257013</v>
       </c>
       <c r="C4">
-        <v>0.013261610526005782</v>
+        <v>0.013266162897587246</v>
       </c>
       <c r="D4">
-        <v>0.014914303029961948</v>
+        <v>0.014940587632167664</v>
       </c>
       <c r="E4">
-        <v>0.014679314375470816</v>
+        <v>0.014676405620322429</v>
       </c>
       <c r="F4">
-        <v>0.014776057243239667</v>
+        <v>0.01473131230588922</v>
       </c>
       <c r="G4">
-        <v>0.017397132228876944</v>
+        <v>0.017482743515286794</v>
       </c>
       <c r="H4">
-        <v>0.020796545072810587</v>
+        <v>0.020861161928614612</v>
       </c>
       <c r="I4">
-        <v>0.016778745714290662</v>
+        <v>0.016711605264407976</v>
       </c>
       <c r="J4">
-        <v>0.013728785886918685</v>
+        <v>0.013834604370050475</v>
       </c>
       <c r="K4">
-        <v>0.011404670160546649</v>
+        <v>0.011365519071079798</v>
       </c>
       <c r="L4">
-        <v>0.011557895711342645</v>
+        <v>0.011540761105780823</v>
       </c>
       <c r="M4">
-        <v>0.011720912107875722</v>
+        <v>0.011788928750942482</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.022612071303780699</v>
+        <v>0.022656120840109581</v>
       </c>
       <c r="P4">
-        <v>0.022424805752628695</v>
+        <v>0.022455647983537379</v>
       </c>
       <c r="Q4">
-        <v>0.028296076703273474</v>
+        <v>0.028172228638713444</v>
       </c>
       <c r="R4">
-        <v>0.028016661902231725</v>
+        <v>0.02819372349172445</v>
       </c>
       <c r="S4">
-        <v>0.028086304510411147</v>
+        <v>0.028239517079433021</v>
       </c>
       <c r="T4">
-        <v>0.027742357793477265</v>
+        <v>0.028078193190889254</v>
       </c>
       <c r="U4">
-        <v>0.027693747316264762</v>
+        <v>0.027773572972633248</v>
       </c>
       <c r="V4">
-        <v>0.027723255251317823</v>
+        <v>0.027658341112630876</v>
       </c>
       <c r="W4">
-        <v>0.027706362866187086</v>
+        <v>0.027731225115139591</v>
       </c>
       <c r="X4">
-        <v>0.027658251174744138</v>
+        <v>0.02783807459100264</v>
       </c>
       <c r="Y4">
-        <v>0.027503910206333426</v>
+        <v>0.027440862716390485</v>
       </c>
       <c r="Z4">
-        <v>0.027472293483256104</v>
+        <v>0.027469969890057056</v>
       </c>
       <c r="AA4">
-        <v>0.027537830976346486</v>
+        <v>0.027542868812676941</v>
       </c>
       <c r="AB4">
-        <v>0.027288644715412817</v>
+        <v>0.027509178089869909</v>
       </c>
       <c r="AC4">
-        <v>0.027271940986627746</v>
+        <v>0.027562845260239586</v>
       </c>
       <c r="AD4">
-        <v>0.02752582007112463</v>
+        <v>0.027360695448606458</v>
       </c>
       <c r="AE4">
-        <v>0.027326072265175916</v>
+        <v>0.027489516651765043</v>
       </c>
       <c r="AF4">
-        <v>0.027157361796799485</v>
+        <v>0.027215020309536</v>
       </c>
       <c r="AG4">
-        <v>0.027150222624178533</v>
+        <v>0.027287964466173743</v>
       </c>
       <c r="AH4">
-        <v>0.027200533365246256</v>
+        <v>0.027489516676696749</v>
       </c>
       <c r="AI4">
-        <v>0.027120057605648104</v>
+        <v>0.02714545684947528</v>
       </c>
       <c r="AJ4">
-        <v>0.027195105172562059</v>
+        <v>0.027317607386637365</v>
       </c>
       <c r="AK4">
-        <v>0.027215053400332766</v>
+        <v>0.027202422905062199</v>
       </c>
       <c r="AL4">
-        <v>0.027091925331663168</v>
+        <v>0.027101650039847214</v>
       </c>
       <c r="AM4">
-        <v>0.027144878716319976</v>
+        <v>0.02712961671301295</v>
       </c>
       <c r="AN4">
-        <v>0.027279354419893685</v>
+        <v>0.027115602554835992</v>
       </c>
       <c r="AO4">
-        <v>0.027060571691527979</v>
+        <v>0.027225857597791874</v>
       </c>
       <c r="AP4">
-        <v>0.027012409911462379</v>
+        <v>0.027265908240475922</v>
       </c>
       <c r="AQ4">
-        <v>0.027065775806694597</v>
+        <v>0.027207815825770341</v>
       </c>
       <c r="AR4">
-        <v>0.027039840692551234</v>
+        <v>0.027157831779841546</v>
       </c>
       <c r="AS4">
-        <v>0.026938192110976613</v>
+        <v>0.026938884363889908</v>
       </c>
       <c r="AT4">
-        <v>0.027022668452616198</v>
+        <v>0.027073928502266878</v>
       </c>
       <c r="AU4">
-        <v>0.026831708362974174</v>
+        <v>0.027120850687993737</v>
       </c>
       <c r="AV4">
-        <v>0.02710596049090927</v>
+        <v>0.026988842427230968</v>
       </c>
       <c r="AW4">
-        <v>0.026931532029516106</v>
+        <v>0.027152522443192745</v>
       </c>
       <c r="AX4">
-        <v>0.027220515389894891</v>
+        <v>0.026975441377393775</v>
       </c>
       <c r="AY4">
-        <v>0.026929869254249016</v>
+        <v>0.02699052166409225</v>
       </c>
       <c r="AZ4">
-        <v>0.027168100653410247</v>
+        <v>0.02698548678028214</v>
       </c>
       <c r="BA4">
-        <v>0.026909985097064455</v>
+        <v>0.027186298615416576</v>
       </c>
       <c r="BB4">
-        <v>0.027127129869203067</v>
+        <v>0.027055010431282903</v>
       </c>
       <c r="BC4">
-        <v>0.027036398853006797</v>
+        <v>0.027112108820227358</v>
       </c>
       <c r="BD4">
-        <v>0.02713421766641181</v>
+        <v>0.026935582464714999</v>
       </c>
       <c r="BE4">
-        <v>0.027121824378406902</v>
+        <v>0.027037910439020069</v>
       </c>
       <c r="BF4">
-        <v>0.027182475006714255</v>
+        <v>0.026952128020266922</v>
       </c>
       <c r="BG4">
-        <v>0.026995386822744629</v>
+        <v>0.027195246701220054</v>
       </c>
       <c r="BH4">
-        <v>0.02697845568434578</v>
+        <v>0.027209615637342231</v>
       </c>
       <c r="BI4">
-        <v>0.027116527710916188</v>
+        <v>0.027421598758214746</v>
       </c>
       <c r="BJ4">
-        <v>0.026980144698766702</v>
+        <v>0.027372029767652566</v>
       </c>
       <c r="BK4">
-        <v>0.026886947722087145</v>
+        <v>0.027150754761324732</v>
       </c>
       <c r="BL4">
-        <v>0.027120057908906876</v>
+        <v>0.02710687529906915</v>
       </c>
       <c r="BM4">
-        <v>0.027331723724991583</v>
+        <v>0.027092961151847839</v>
       </c>
       <c r="BN4">
-        <v>0.027058839168145218</v>
+        <v>0.027276917920376235</v>
       </c>
       <c r="BO4">
-        <v>0.027224161942861206</v>
+        <v>0.027191664584260703</v>
       </c>
       <c r="BP4">
-        <v>0.027251641226746177</v>
+        <v>0.027182726554721363</v>
       </c>
       <c r="BQ4">
-        <v>0.027262698356711697</v>
+        <v>0.02720421985572645</v>
       </c>
       <c r="BR4">
-        <v>0.027091925677622863</v>
+        <v>0.027435072119477523</v>
       </c>
       <c r="BS4">
-        <v>0.027227812467387574</v>
+        <v>0.027020903393989357</v>
       </c>
       <c r="BT4">
-        <v>0.027303564918221276</v>
+        <v>0.027242182341253821</v>
       </c>
       <c r="BU4">
-        <v>0.027270090729168004</v>
+        <v>0.027423520295030153</v>
       </c>
       <c r="BV4">
-        <v>0.0273906928331005</v>
+        <v>0.027308315397356273</v>
       </c>
       <c r="BW4">
-        <v>0.027324191161625003</v>
+        <v>0.027260417860318898</v>
       </c>
       <c r="BX4">
-        <v>0.027454639462973607</v>
+        <v>0.027360695911658368</v>
       </c>
       <c r="BY4">
-        <v>0.027134217906990474</v>
+        <v>0.027044739501941504</v>
       </c>
       <c r="BZ4">
-        <v>0.02743902434479404</v>
+        <v>0.027574888456194626</v>
       </c>
       <c r="CA4">
-        <v>0.027189686547095693</v>
+        <v>0.02735881073555459</v>
       </c>
       <c r="CB4">
-        <v>0.02745268362561349</v>
+        <v>0.027466074754603633</v>
       </c>
       <c r="CC4">
-        <v>0.027352528078678929</v>
+        <v>0.02754286933763107</v>
       </c>
       <c r="CD4">
-        <v>0.02754385298692991</v>
+        <v>0.027334401025087721</v>
       </c>
       <c r="CE4">
-        <v>0.027375374148380493</v>
+        <v>0.027310171863975226</v>
       </c>
       <c r="CF4">
-        <v>0.027535826754754959</v>
+        <v>0.027345644523670727</v>
       </c>
       <c r="CG4">
-        <v>0.027545862556767744</v>
+        <v>0.027803526435396717</v>
       </c>
       <c r="CH4">
-        <v>0.027398378977615576</v>
+        <v>0.027505237147344878</v>
       </c>
       <c r="CI4">
-        <v>0.02720597129873463</v>
+        <v>0.027701887016114063</v>
       </c>
       <c r="CJ4">
-        <v>0.027433187537935843</v>
+        <v>0.027507207351978164</v>
       </c>
       <c r="CK4">
-        <v>0.027371555566673377</v>
+        <v>0.027870775919142807</v>
       </c>
       <c r="CL4">
-        <v>0.027943826513384482</v>
+        <v>0.027825079530710947</v>
       </c>
       <c r="CM4">
-        <v>0.027501926099830803</v>
+        <v>0.027745988861007168</v>
       </c>
       <c r="CN4">
-        <v>0.027679087731275025</v>
+        <v>0.027903782327534161</v>
       </c>
       <c r="CO4">
-        <v>0.027614902734917197</v>
+        <v>0.027631659415524725</v>
       </c>
       <c r="CP4">
-        <v>0.027454639671769417</v>
+        <v>0.027681082494023221</v>
       </c>
       <c r="CQ4">
-        <v>0.027772283132699575</v>
+        <v>0.027379607883645699</v>
       </c>
       <c r="CR4">
-        <v>0.027710578970864947</v>
+        <v>0.027633704571043319</v>
       </c>
       <c r="CS4">
-        <v>0.027275972406734406</v>
+        <v>0.027280963053737783</v>
       </c>
       <c r="CT4">
-        <v>0.027244201786784501</v>
+        <v>0.027336318806276964</v>
       </c>
       <c r="CU4">
-        <v>0.02755265623999675</v>
+        <v>0.027594248922169485</v>
       </c>
       <c r="CV4">
-        <v>0.027353554745781741</v>
+        <v>0.027193424655569662</v>
       </c>
       <c r="CW4">
-        <v>0.027306015756025384</v>
+        <v>0.027694746070731892</v>
       </c>
       <c r="CX4">
-        <v>0.02734326358742151</v>
+        <v>0.02733800531839365</v>
       </c>
       <c r="CY4">
-        <v>0.027412530680149382</v>
+        <v>0.02744710739154517</v>
       </c>
       <c r="CZ4">
-        <v>0.027730316128531968</v>
+        <v>0.027646848309446213</v>
       </c>
       <c r="DA4">
-        <v>0.027392335493278144</v>
+        <v>0.027634950157980589</v>
       </c>
       <c r="DB4">
-        <v>0.0273789229896386</v>
+        <v>0.027483502060809979</v>
       </c>
       <c r="DC4">
-        <v>0.027742045680652163</v>
+        <v>0.027638960297877734</v>
       </c>
       <c r="DD4">
-        <v>0.027580897558836269</v>
+        <v>0.027828945735613644</v>
       </c>
       <c r="DE4">
-        <v>0.027729810828843546</v>
+        <v>0.027422257838227587</v>
       </c>
       <c r="DF4">
-        <v>0.027657040363627448</v>
+        <v>0.027596487459959098</v>
       </c>
       <c r="DG4">
-        <v>0.027710285600514941</v>
+        <v>0.027601194536121625</v>
       </c>
       <c r="DH4">
-        <v>0.027902399119565012</v>
+        <v>0.027997141782420021</v>
       </c>
       <c r="DI4">
-        <v>0.028410979717727033</v>
+        <v>0.028180396460510338</v>
       </c>
       <c r="DJ4">
-        <v>0.028196242031715928</v>
+        <v>0.028182891460021491</v>
       </c>
       <c r="DK4">
-        <v>0.028676396647931097</v>
+        <v>0.028736836010642221</v>
       </c>
       <c r="DL4">
-        <v>0.028667014733336115</v>
+        <v>0.028816457899510477</v>
       </c>
       <c r="DM4">
-        <v>0.029016244653023111</v>
+        <v>0.028872951634627678</v>
       </c>
       <c r="DN4">
-        <v>0.026511163149009274</v>
+        <v>0.026359212220751431</v>
       </c>
       <c r="DO4">
-        <v>0.026275633306136512</v>
+        <v>0.026416294078360818</v>
       </c>
       <c r="DP4">
-        <v>0.025404161038915078</v>
+        <v>0.02549508453632866</v>
       </c>
       <c r="DQ4">
-        <v>0.025332004347370245</v>
+        <v>0.025530836137293112</v>
       </c>
       <c r="DR4">
-        <v>0.025161387826130574</v>
+        <v>0.025245619151527728</v>
       </c>
       <c r="DS4">
-        <v>0.024811372312417267</v>
+        <v>0.024912380221875599</v>
       </c>
       <c r="DT4">
-        <v>0.025226362998114545</v>
+        <v>0.024948862948572584</v>
       </c>
       <c r="DU4">
-        <v>0.025167992254760969</v>
+        <v>0.025246880671278258</v>
       </c>
       <c r="DV4">
-        <v>0.025193751897632208</v>
+        <v>0.025168682445614474</v>
       </c>
       <c r="DW4">
-        <v>0.02477385468532816</v>
+        <v>0.024728677579876457</v>
       </c>
       <c r="DX4">
-        <v>0.025241969593416413</v>
+        <v>0.025208711726148685</v>
       </c>
       <c r="DY4">
-        <v>0.025213858894372165</v>
+        <v>0.0252624546571628</v>
       </c>
       <c r="DZ4">
-        <v>0.025285292569337273</v>
+        <v>0.025149605568558882</v>
       </c>
       <c r="EA4">
-        <v>0.025315919722337019</v>
+        <v>0.025295723268223425</v>
       </c>
       <c r="EB4">
-        <v>0.025115311370891524</v>
+        <v>0.025249999028263619</v>
       </c>
       <c r="EC4">
-        <v>0.025310413947032845</v>
+        <v>0.02552423895554818</v>
       </c>
       <c r="ED4">
-        <v>0.025502518331803475</v>
+        <v>0.025543790504662985</v>
       </c>
       <c r="EE4">
-        <v>0.026033612693204724</v>
+        <v>0.026011544050503183</v>
       </c>
       <c r="EF4">
-        <v>0.025894637108608339</v>
+        <v>0.026010185831440647</v>
       </c>
       <c r="EG4">
-        <v>0.026136107612557642</v>
+        <v>0.026028861089665144</v>
       </c>
       <c r="EH4">
-        <v>0.022995451812405535</v>
+        <v>0.022859146908448473</v>
       </c>
       <c r="EI4">
-        <v>0.023022038040313008</v>
+        <v>0.02307980061013859</v>
       </c>
       <c r="EJ4">
-        <v>0.022440627084905292</v>
+        <v>0.02257507038030613</v>
       </c>
       <c r="EK4">
-        <v>0.022638184667844726</v>
+        <v>0.022722579687007374</v>
       </c>
       <c r="EL4">
-        <v>0.022427345735264406</v>
+        <v>0.022598757108152803</v>
       </c>
       <c r="EM4">
-        <v>0.022300551413584353</v>
+        <v>0.022408050656903954</v>
       </c>
       <c r="EN4">
-        <v>0.022144020714189229</v>
+        <v>0.02227305916568215</v>
       </c>
       <c r="EO4">
-        <v>0.022442671414117314</v>
+        <v>0.022047991150500865</v>
       </c>
       <c r="EP4">
-        <v>0.022444849429578143</v>
+        <v>0.022250870625635428</v>
       </c>
       <c r="EQ4">
-        <v>0.022380247807115828</v>
+        <v>0.022664411112347609</v>
       </c>
       <c r="ER4">
-        <v>0.022533884721439218</v>
+        <v>0.022487423370352817</v>
       </c>
       <c r="ES4">
-        <v>0.022390543842268913</v>
+        <v>0.022522377246866666</v>
       </c>
       <c r="ET4">
-        <v>0.022354804596606982</v>
+        <v>0.022399831732624095</v>
       </c>
       <c r="EU4">
-        <v>0.022549531349655882</v>
+        <v>0.022500479492390695</v>
       </c>
       <c r="EV4">
-        <v>0.022610711770298813</v>
+        <v>0.02252457674367719</v>
       </c>
       <c r="EW4">
-        <v>0.022460425589471908</v>
+        <v>0.022499628417657045</v>
       </c>
       <c r="EX4">
-        <v>0.022443244474104809</v>
+        <v>0.022604933006216826</v>
       </c>
       <c r="EY4">
-        <v>0.022592803113432224</v>
+        <v>0.022647742090327359</v>
       </c>
       <c r="EZ4">
-        <v>0.022606392754158284</v>
+        <v>0.022770701672197979</v>
       </c>
       <c r="FA4">
-        <v>0.022581528532397307</v>
+        <v>0.022686605085621585</v>
       </c>
       <c r="FB4">
-        <v>0.02178399010567492</v>
+        <v>0.021918618599246164</v>
       </c>
       <c r="FC4">
-        <v>0.022014705826376484</v>
+        <v>0.02198884977470679</v>
       </c>
       <c r="FD4">
-        <v>0.021921232884116189</v>
+        <v>0.022020875761062795</v>
       </c>
       <c r="FE4">
-        <v>0.022037274782451915</v>
+        <v>0.021871133528722522</v>
       </c>
       <c r="FF4">
-        <v>0.021979929901374571</v>
+        <v>0.022045744946740133</v>
       </c>
       <c r="FG4">
-        <v>0.021935799868205139</v>
+        <v>0.022068303294476406</v>
       </c>
       <c r="FH4">
-        <v>0.021897112015928588</v>
+        <v>0.02210373032729453</v>
       </c>
       <c r="FI4">
-        <v>0.021982400846617386</v>
+        <v>0.022178446342634311</v>
       </c>
       <c r="FJ4">
-        <v>0.022269861738559361</v>
+        <v>0.022020876108174152</v>
       </c>
       <c r="FK4">
-        <v>0.022052414675232054</v>
+        <v>0.021991301691426515</v>
       </c>
       <c r="FL4">
-        <v>0.021967606741945912</v>
+        <v>0.022015926919366522</v>
       </c>
       <c r="FM4">
-        <v>0.022075266014649784</v>
+        <v>0.022178446576656852</v>
       </c>
       <c r="FN4">
-        <v>0.022108577609086407</v>
+        <v>0.022091030835136</v>
       </c>
       <c r="FO4">
-        <v>0.022305335380319719</v>
+        <v>0.022181055748004958</v>
       </c>
       <c r="FP4">
-        <v>0.022155305157077615</v>
+        <v>0.022445066791025096</v>
       </c>
       <c r="FQ4">
-        <v>0.022288913658665973</v>
+        <v>0.022361032462356534</v>
       </c>
       <c r="FR4">
-        <v>0.022178936468840948</v>
+        <v>0.022369336999329296</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -9195,7 +9783,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015815352979565371</v>
+        <v>0.015855060036553018</v>
+      </c>
+      <c r="FW4">
+        <v>0.021991301691426445</v>
+      </c>
+      <c r="FX4">
+        <v>0.022015926919366456</v>
+      </c>
+      <c r="FY4">
+        <v>0.022178446576656782</v>
+      </c>
+      <c r="FZ4">
+        <v>0.022091030835135927</v>
+      </c>
+      <c r="GA4">
+        <v>0.022181055748004871</v>
+      </c>
+      <c r="GB4">
+        <v>0.022445066791025026</v>
+      </c>
+      <c r="GC4">
+        <v>0.022361032462356469</v>
+      </c>
+      <c r="GD4">
+        <v>0.022369336999329213</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.015855060036552904</v>
       </c>
     </row>
   </sheetData>
@@ -9204,7 +9828,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9742,6 +10366,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -10275,529 +10935,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>2.1651031595232935</v>
+        <v>2.1489335967747683</v>
       </c>
       <c r="C3">
-        <v>-0.75856201649220589</v>
+        <v>-0.75839686525658578</v>
       </c>
       <c r="D3">
-        <v>-0.77388406139013133</v>
+        <v>-0.77967582696138604</v>
       </c>
       <c r="E3">
-        <v>-0.80150881187944811</v>
+        <v>-0.79337572794859212</v>
       </c>
       <c r="F3">
-        <v>-0.8129750277927914</v>
+        <v>-0.80539315890493068</v>
       </c>
       <c r="G3">
-        <v>-0.81711705717120731</v>
+        <v>-0.80902722993879961</v>
       </c>
       <c r="H3">
-        <v>-0.80080020907828586</v>
+        <v>-0.82629037538111094</v>
       </c>
       <c r="I3">
-        <v>0.006159258091385629</v>
+        <v>0.00429807909768692</v>
       </c>
       <c r="J3">
-        <v>0.0013825100245130684</v>
+        <v>0.007255012748104867</v>
       </c>
       <c r="K3">
-        <v>-0.0012053605511442684</v>
+        <v>-0.0009452056138205434</v>
       </c>
       <c r="L3">
-        <v>0.0045245442045117618</v>
+        <v>0.0068242535290267232</v>
       </c>
       <c r="M3">
-        <v>-0.0068274200614856766</v>
+        <v>-0.012508296231656821</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.2831094374007055</v>
+        <v>1.2690216524982991</v>
       </c>
       <c r="P3">
-        <v>1.3908212810390288</v>
+        <v>1.3986571723267369</v>
       </c>
       <c r="Q3">
-        <v>-0.17154432801294217</v>
+        <v>-0.17197112273417176</v>
       </c>
       <c r="R3">
-        <v>-0.14096913042240808</v>
+        <v>-0.19837512602676599</v>
       </c>
       <c r="S3">
-        <v>-0.14893303602640612</v>
+        <v>-0.15582254274875756</v>
       </c>
       <c r="T3">
-        <v>-0.15175292738912619</v>
+        <v>-0.15099981116132141</v>
       </c>
       <c r="U3">
-        <v>-0.12157181882809763</v>
+        <v>-0.074550599680299867</v>
       </c>
       <c r="V3">
-        <v>-0.096331338686613963</v>
+        <v>-0.072838154084138101</v>
       </c>
       <c r="W3">
-        <v>-0.07758723785480913</v>
+        <v>-0.12356689448767903</v>
       </c>
       <c r="X3">
-        <v>-0.029239012650657273</v>
+        <v>-0.080447170406306112</v>
       </c>
       <c r="Y3">
-        <v>-0.073312912520563808</v>
+        <v>-0.040732556389835028</v>
       </c>
       <c r="Z3">
-        <v>-0.034717642261921998</v>
+        <v>-0.047776330910624172</v>
       </c>
       <c r="AA3">
-        <v>-0.018190726141946702</v>
+        <v>-0.019082636407393508</v>
       </c>
       <c r="AB3">
-        <v>-0.026404404952833617</v>
+        <v>-0.015836925659132504</v>
       </c>
       <c r="AC3">
-        <v>-0.032190127541828387</v>
+        <v>-0.019414631176614277</v>
       </c>
       <c r="AD3">
-        <v>-0.040975202748230882</v>
+        <v>-0.010777762755828067</v>
       </c>
       <c r="AE3">
-        <v>-0.0052842791344144737</v>
+        <v>-0.0021713834810434028</v>
       </c>
       <c r="AF3">
-        <v>-0.018085109798700396</v>
+        <v>0.02495781368539695</v>
       </c>
       <c r="AG3">
-        <v>0.02878011107126089</v>
+        <v>-0.00057498033235299983</v>
       </c>
       <c r="AH3">
-        <v>0.027245274738475676</v>
+        <v>-0.027294154779291088</v>
       </c>
       <c r="AI3">
-        <v>0.013845807232000264</v>
+        <v>0.053800302600176812</v>
       </c>
       <c r="AJ3">
-        <v>0.01080905750612497</v>
+        <v>-0.015515213700256669</v>
       </c>
       <c r="AK3">
-        <v>0.010217678093783255</v>
+        <v>0.038406439882606253</v>
       </c>
       <c r="AL3">
-        <v>0.037551156539461894</v>
+        <v>0.028860434751909247</v>
       </c>
       <c r="AM3">
-        <v>0.04016842399397838</v>
+        <v>0.034247267567562995</v>
       </c>
       <c r="AN3">
-        <v>0.023346814025103295</v>
+        <v>0.054783079322708365</v>
       </c>
       <c r="AO3">
-        <v>0.054614520324165958</v>
+        <v>0.049873839009237662</v>
       </c>
       <c r="AP3">
-        <v>0.040099272873457471</v>
+        <v>0.007491429512728103</v>
       </c>
       <c r="AQ3">
-        <v>0.046866992815331861</v>
+        <v>0.064283047058874818</v>
       </c>
       <c r="AR3">
-        <v>0.064195537783114681</v>
+        <v>0.045263766994620536</v>
       </c>
       <c r="AS3">
-        <v>0.058002361033695833</v>
+        <v>0.07733228020110719</v>
       </c>
       <c r="AT3">
-        <v>0.089290498509852156</v>
+        <v>0.078988454014093323</v>
       </c>
       <c r="AU3">
-        <v>0.11980778002126763</v>
+        <v>0.058804713869666951</v>
       </c>
       <c r="AV3">
-        <v>0.063754632158363925</v>
+        <v>0.069350932925467124</v>
       </c>
       <c r="AW3">
-        <v>0.06641870966277949</v>
+        <v>0.055467096737618259</v>
       </c>
       <c r="AX3">
-        <v>0.079284642711416636</v>
+        <v>0.084167071087404371</v>
       </c>
       <c r="AY3">
-        <v>0.077908270314650002</v>
+        <v>0.068420893332232419</v>
       </c>
       <c r="AZ3">
-        <v>0.070712739479852044</v>
+        <v>0.12339428977460944</v>
       </c>
       <c r="BA3">
-        <v>0.060995004776290537</v>
+        <v>0.030272730424838107</v>
       </c>
       <c r="BB3">
-        <v>0.068498094603796411</v>
+        <v>0.072317442051183872</v>
       </c>
       <c r="BC3">
-        <v>0.0929754696462292</v>
+        <v>0.076714350062517506</v>
       </c>
       <c r="BD3">
-        <v>0.061787201603309597</v>
+        <v>0.11189631161866495</v>
       </c>
       <c r="BE3">
-        <v>0.085128086757294372</v>
+        <v>0.11595684923582925</v>
       </c>
       <c r="BF3">
-        <v>0.097664941765742225</v>
+        <v>0.1059884277275778</v>
       </c>
       <c r="BG3">
-        <v>0.099713415431846919</v>
+        <v>0.090388537292954083</v>
       </c>
       <c r="BH3">
-        <v>0.074404933122246053</v>
+        <v>0.062868047176431172</v>
       </c>
       <c r="BI3">
-        <v>0.065950068931184547</v>
+        <v>0.018637671827843313</v>
       </c>
       <c r="BJ3">
-        <v>0.11482035467138246</v>
+        <v>0.072340435654993832</v>
       </c>
       <c r="BK3">
-        <v>0.12688494213381946</v>
+        <v>0.11454191323554376</v>
       </c>
       <c r="BL3">
-        <v>0.085353805106042929</v>
+        <v>0.11255976910655363</v>
       </c>
       <c r="BM3">
-        <v>0.072046485769039187</v>
+        <v>0.070358822554767927</v>
       </c>
       <c r="BN3">
-        <v>0.097295235817400419</v>
+        <v>0.096788578481167328</v>
       </c>
       <c r="BO3">
-        <v>0.057664887754166491</v>
+        <v>0.11014415063856652</v>
       </c>
       <c r="BP3">
-        <v>0.067469929079725544</v>
+        <v>0.1026053643653175</v>
       </c>
       <c r="BQ3">
-        <v>0.087392627720474139</v>
+        <v>0.085873959098192412</v>
       </c>
       <c r="BR3">
-        <v>0.093940990574111177</v>
+        <v>0.075879591475322972</v>
       </c>
       <c r="BS3">
-        <v>0.059230671168712404</v>
+        <v>0.11927364496122192</v>
       </c>
       <c r="BT3">
-        <v>0.081863722273914988</v>
+        <v>0.11038612686166493</v>
       </c>
       <c r="BU3">
-        <v>0.10895044843971936</v>
+        <v>0.07273144999328339</v>
       </c>
       <c r="BV3">
-        <v>0.048960152429210292</v>
+        <v>0.095999573843098235</v>
       </c>
       <c r="BW3">
-        <v>0.089664233830218446</v>
+        <v>0.10537455309007412</v>
       </c>
       <c r="BX3">
-        <v>0.075730961582899534</v>
+        <v>0.10672782200825914</v>
       </c>
       <c r="BY3">
-        <v>0.11528867268787688</v>
+        <v>0.11987670981143711</v>
       </c>
       <c r="BZ3">
-        <v>0.063595822092795004</v>
+        <v>0.07825901487135016</v>
       </c>
       <c r="CA3">
-        <v>0.090700735664193427</v>
+        <v>0.055825598160346962</v>
       </c>
       <c r="CB3">
-        <v>0.047045959792833505</v>
+        <v>0.10464524833265455</v>
       </c>
       <c r="CC3">
-        <v>0.089707434115858437</v>
+        <v>0.057238531609014931</v>
       </c>
       <c r="CD3">
-        <v>0.039082236444149751</v>
+        <v>0.098025212164623718</v>
       </c>
       <c r="CE3">
-        <v>0.046256692927491107</v>
+        <v>0.073365473282581029</v>
       </c>
       <c r="CF3">
-        <v>0.046333187059219245</v>
+        <v>0.10382463793100981</v>
       </c>
       <c r="CG3">
-        <v>0.063504828399337812</v>
+        <v>0.058577346715738207</v>
       </c>
       <c r="CH3">
-        <v>0.081570971363163283</v>
+        <v>0.10284112230361565</v>
       </c>
       <c r="CI3">
-        <v>0.10440465740739593</v>
+        <v>0.057349951369122965</v>
       </c>
       <c r="CJ3">
-        <v>0.074708938110892409</v>
+        <v>0.086639143109012662</v>
       </c>
       <c r="CK3">
-        <v>0.081831118491764568</v>
+        <v>0.027808079679961156</v>
       </c>
       <c r="CL3">
-        <v>0.0512195174521584</v>
+        <v>0.032412112548483786</v>
       </c>
       <c r="CM3">
-        <v>0.084707860695639972</v>
+        <v>0.030836486728114131</v>
       </c>
       <c r="CN3">
-        <v>0.065694278457541888</v>
+        <v>0.054208640607981445</v>
       </c>
       <c r="CO3">
-        <v>0.070285476913052439</v>
+        <v>0.070093396505527261</v>
       </c>
       <c r="CP3">
-        <v>0.07562080985095708</v>
+        <v>0.07915471089476199</v>
       </c>
       <c r="CQ3">
-        <v>0.052851875364433844</v>
+        <v>0.088184368201513416</v>
       </c>
       <c r="CR3">
-        <v>0.08476024011213229</v>
+        <v>0.054915547783414904</v>
       </c>
       <c r="CS3">
-        <v>0.064229949508277276</v>
+        <v>0.049529863427267486</v>
       </c>
       <c r="CT3">
-        <v>0.049327260225199072</v>
+        <v>0.062282343767294905</v>
       </c>
       <c r="CU3">
-        <v>0.030560777705056844</v>
+        <v>0.084794513180709838</v>
       </c>
       <c r="CV3">
-        <v>0.055096521461367273</v>
+        <v>0.10656772437087915</v>
       </c>
       <c r="CW3">
-        <v>0.084449657209202028</v>
+        <v>0.025393028084607396</v>
       </c>
       <c r="CX3">
-        <v>0.084437571131596126</v>
+        <v>0.098324565496492378</v>
       </c>
       <c r="CY3">
-        <v>0.062090926624063653</v>
+        <v>0.052880620085897244</v>
       </c>
       <c r="CZ3">
-        <v>0.030645174432411122</v>
+        <v>0.04127126752587499</v>
       </c>
       <c r="DA3">
-        <v>0.038965801890722435</v>
+        <v>0.039148925303383986</v>
       </c>
       <c r="DB3">
-        <v>0.075967915065515756</v>
+        <v>0.059752113427330174</v>
       </c>
       <c r="DC3">
-        <v>0.0075472549396218653</v>
+        <v>0.069255366294117382</v>
       </c>
       <c r="DD3">
-        <v>0.067859179519256491</v>
+        <v>0.01279263374646214</v>
       </c>
       <c r="DE3">
-        <v>0.04057066442571431</v>
+        <v>0.052317571590302807</v>
       </c>
       <c r="DF3">
-        <v>0.053362897819518168</v>
+        <v>0.064220354980863814</v>
       </c>
       <c r="DG3">
-        <v>0.039067498055898583</v>
+        <v>0.050088012269478163</v>
       </c>
       <c r="DH3">
-        <v>0.048702368872349584</v>
+        <v>0.048518382089193512</v>
       </c>
       <c r="DI3">
-        <v>0.0044788495376083129</v>
+        <v>0.037306972355255937</v>
       </c>
       <c r="DJ3">
-        <v>0.046300859970480078</v>
+        <v>0.036286018123987622</v>
       </c>
       <c r="DK3">
-        <v>0.031871457951175255</v>
+        <v>0.022859473691350635</v>
       </c>
       <c r="DL3">
-        <v>0.046843977249406393</v>
+        <v>0.046869241360199307</v>
       </c>
       <c r="DM3">
-        <v>-0.070728228673836879</v>
+        <v>-0.053440045209066755</v>
       </c>
       <c r="DN3">
-        <v>-0.0018276085042866386</v>
+        <v>0.044528100202915352</v>
       </c>
       <c r="DO3">
-        <v>0.072807580993751841</v>
+        <v>0.057345575085893406</v>
       </c>
       <c r="DP3">
-        <v>0.037267894959681754</v>
+        <v>0.045220339883676075</v>
       </c>
       <c r="DQ3">
-        <v>0.059016981845871341</v>
+        <v>0.034113758369913136</v>
       </c>
       <c r="DR3">
-        <v>0.072184513380492699</v>
+        <v>0.04950402419777488</v>
       </c>
       <c r="DS3">
-        <v>0.069703748103480803</v>
+        <v>0.070448423745220215</v>
       </c>
       <c r="DT3">
-        <v>0.0029683856481508733</v>
+        <v>0.072906198979651629</v>
       </c>
       <c r="DU3">
-        <v>0.027869534633809777</v>
+        <v>0.041789163054697653</v>
       </c>
       <c r="DV3">
-        <v>0.045384078761442508</v>
+        <v>0.032097379451942222</v>
       </c>
       <c r="DW3">
-        <v>0.045878363783609655</v>
+        <v>0.059346324470525146</v>
       </c>
       <c r="DX3">
-        <v>0.0057086653593202974</v>
+        <v>0.034043979718186276</v>
       </c>
       <c r="DY3">
-        <v>0.037477564447602273</v>
+        <v>0.021621146621259534</v>
       </c>
       <c r="DZ3">
-        <v>0.036206581086863594</v>
+        <v>0.055033996563483123</v>
       </c>
       <c r="EA3">
-        <v>0.01727368174587705</v>
+        <v>0.032654396061221093</v>
       </c>
       <c r="EB3">
-        <v>0.046204930727464247</v>
+        <v>0.038291096128651322</v>
       </c>
       <c r="EC3">
-        <v>0.071160664817307873</v>
+        <v>0.042349699440781194</v>
       </c>
       <c r="ED3">
-        <v>0.025902433640391336</v>
+        <v>0.051619348185472827</v>
       </c>
       <c r="EE3">
-        <v>0.013763396108490896</v>
+        <v>0.052590463848561871</v>
       </c>
       <c r="EF3">
-        <v>0.050000485373217496</v>
+        <v>0.071947842679210228</v>
       </c>
       <c r="EG3">
-        <v>0.095516195805496223</v>
+        <v>0.1240784033608245</v>
       </c>
       <c r="EH3">
-        <v>0.029137429004866683</v>
+        <v>0.070226137492827495</v>
       </c>
       <c r="EI3">
-        <v>0.027373602449552937</v>
+        <v>0.025251563274447979</v>
       </c>
       <c r="EJ3">
-        <v>0.048458835478811198</v>
+        <v>0.032051568934315322</v>
       </c>
       <c r="EK3">
-        <v>0.010343207197840733</v>
+        <v>0.0048427623755373265</v>
       </c>
       <c r="EL3">
-        <v>0.059539742752989906</v>
+        <v>0.035037367818094897</v>
       </c>
       <c r="EM3">
-        <v>0.023749128734824071</v>
+        <v>0.01178568116365393</v>
       </c>
       <c r="EN3">
-        <v>0.060823498809218141</v>
+        <v>0.043831591582572112</v>
       </c>
       <c r="EO3">
-        <v>0.0027819783104170454</v>
+        <v>0.096153828331423316</v>
       </c>
       <c r="EP3">
-        <v>0.0063183369266937156</v>
+        <v>0.056961088783614729</v>
       </c>
       <c r="EQ3">
-        <v>0.023519681599648679</v>
+        <v>-0.023244399594754498</v>
       </c>
       <c r="ER3">
-        <v>-0.0018765367243081346</v>
+        <v>0.016917391678421625</v>
       </c>
       <c r="ES3">
-        <v>0.031308715682176844</v>
+        <v>0.01383208764072336</v>
       </c>
       <c r="ET3">
-        <v>0.042804268384813292</v>
+        <v>0.042945817021745269</v>
       </c>
       <c r="EU3">
-        <v>0.0072071332898402934</v>
+        <v>0.026423982424046567</v>
       </c>
       <c r="EV3">
-        <v>-0.0010232534515290724</v>
+        <v>0.025591268907691176</v>
       </c>
       <c r="EW3">
-        <v>0.042701897037258726</v>
+        <v>0.050836502744618331</v>
       </c>
       <c r="EX3">
-        <v>0.050352795581355504</v>
+        <v>0.033563072358090563</v>
       </c>
       <c r="EY3">
-        <v>0.024187657137946666</v>
+        <v>0.029018477780719979</v>
       </c>
       <c r="EZ3">
-        <v>0.025521497233201025</v>
+        <v>0.0086741952922048358</v>
       </c>
       <c r="FA3">
-        <v>0.034563121342015952</v>
+        <v>0.029250434489829353</v>
       </c>
       <c r="FB3">
-        <v>0.039759597365552089</v>
+        <v>0.024758577533403932</v>
       </c>
       <c r="FC3">
-        <v>-0.00024140759979368796</v>
+        <v>0.01540035912176971</v>
       </c>
       <c r="FD3">
-        <v>0.021430534342379952</v>
+        <v>0.013339158310145153</v>
       </c>
       <c r="FE3">
-        <v>0.0035464008810002969</v>
+        <v>0.045940505429503009</v>
       </c>
       <c r="FF3">
-        <v>0.018328399876464951</v>
+        <v>0.016773023700890521</v>
       </c>
       <c r="FG3">
-        <v>0.030742477601240121</v>
+        <v>0.016542219003643163</v>
       </c>
       <c r="FH3">
-        <v>0.04221914937085082</v>
+        <v>0.01391861742140627</v>
       </c>
       <c r="FI3">
-        <v>0.030142789077676389</v>
+        <v>0.0040369517394994985</v>
       </c>
       <c r="FJ3">
-        <v>-0.019006202819731258</v>
+        <v>0.037441341481404308</v>
       </c>
       <c r="FK3">
-        <v>0.024965085688612373</v>
+        <v>0.047135981270481291</v>
       </c>
       <c r="FL3">
-        <v>0.045002076919532737</v>
+        <v>0.046604729503890274</v>
       </c>
       <c r="FM3">
-        <v>0.028921093833703598</v>
+        <v>0.020354799831159748</v>
       </c>
       <c r="FN3">
-        <v>0.026809868340856049</v>
+        <v>0.040633970979133287</v>
       </c>
       <c r="FO3">
-        <v>-0.0051446645398676681</v>
+        <v>0.028004031508999962</v>
       </c>
       <c r="FP3">
-        <v>0.026192683620271121</v>
+        <v>-0.015839671576252885</v>
       </c>
       <c r="FQ3">
-        <v>0.0058521144644000994</v>
+        <v>0.0031012413224109181</v>
       </c>
       <c r="FR3">
-        <v>0.029911830681015002</v>
+        <v>0.0055608178458043502</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -10809,7 +11505,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.5307876532189342</v>
+        <v>-5.5377416370451122</v>
+      </c>
+      <c r="FW3">
+        <v>0.047135981270481242</v>
+      </c>
+      <c r="FX3">
+        <v>0.046604729503890295</v>
+      </c>
+      <c r="FY3">
+        <v>0.020354799831159707</v>
+      </c>
+      <c r="FZ3">
+        <v>0.040633970979133079</v>
+      </c>
+      <c r="GA3">
+        <v>0.028004031509000403</v>
+      </c>
+      <c r="GB3">
+        <v>-0.01583967157625283</v>
+      </c>
+      <c r="GC3">
+        <v>0.0031012413224113457</v>
+      </c>
+      <c r="GD3">
+        <v>0.0055608178458038723</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.5377416370451122</v>
       </c>
     </row>
     <row r="4">
@@ -10817,523 +11549,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.020140496876556637</v>
+        <v>0.020068377082998932</v>
       </c>
       <c r="C4">
-        <v>0.013666244429556119</v>
+        <v>0.013657139275096973</v>
       </c>
       <c r="D4">
-        <v>0.015073581727183129</v>
+        <v>0.015079962611594271</v>
       </c>
       <c r="E4">
-        <v>0.015088769713283738</v>
+        <v>0.01505920170448668</v>
       </c>
       <c r="F4">
-        <v>0.015236592987286078</v>
+        <v>0.015181523680219841</v>
       </c>
       <c r="G4">
-        <v>0.018016325382488915</v>
+        <v>0.01803004253699865</v>
       </c>
       <c r="H4">
-        <v>0.021529812701318086</v>
+        <v>0.02159799953414045</v>
       </c>
       <c r="I4">
-        <v>0.016896908356230037</v>
+        <v>0.016815745774261044</v>
       </c>
       <c r="J4">
-        <v>0.013824818717652319</v>
+        <v>0.013933250794411959</v>
       </c>
       <c r="K4">
-        <v>0.011490796146504285</v>
+        <v>0.011444807907179565</v>
       </c>
       <c r="L4">
-        <v>0.011656233464032708</v>
+        <v>0.011629617063418468</v>
       </c>
       <c r="M4">
-        <v>0.011711452158417922</v>
+        <v>0.011773401433055452</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.023047111379526145</v>
+        <v>0.023110821670122166</v>
       </c>
       <c r="P4">
-        <v>0.022850459813402457</v>
+        <v>0.022869349797957825</v>
       </c>
       <c r="Q4">
-        <v>0.029075564343742748</v>
+        <v>0.029139057552024797</v>
       </c>
       <c r="R4">
-        <v>0.028874159891258473</v>
+        <v>0.029338259038983586</v>
       </c>
       <c r="S4">
-        <v>0.02894015787270339</v>
+        <v>0.029047282522474807</v>
       </c>
       <c r="T4">
-        <v>0.028970781813288118</v>
+        <v>0.029024665561786154</v>
       </c>
       <c r="U4">
-        <v>0.02877455500003448</v>
+        <v>0.028517991670030277</v>
       </c>
       <c r="V4">
-        <v>0.028615776895164344</v>
+        <v>0.028517991675538562</v>
       </c>
       <c r="W4">
-        <v>0.028502772741192593</v>
+        <v>0.0288698820518003</v>
       </c>
       <c r="X4">
-        <v>0.028201323777198202</v>
+        <v>0.028590332541003832</v>
       </c>
       <c r="Y4">
-        <v>0.028497828711570937</v>
+        <v>0.028341912674169259</v>
       </c>
       <c r="Z4">
-        <v>0.028258722128424348</v>
+        <v>0.028398875459783396</v>
       </c>
       <c r="AA4">
-        <v>0.02816506546728002</v>
+        <v>0.028226038239156419</v>
       </c>
       <c r="AB4">
-        <v>0.028228760635128188</v>
+        <v>0.028216927514072711</v>
       </c>
       <c r="AC4">
-        <v>0.028277284492054529</v>
+        <v>0.028251212852150313</v>
       </c>
       <c r="AD4">
-        <v>0.028345381256517393</v>
+        <v>0.028207839942624251</v>
       </c>
       <c r="AE4">
-        <v>0.028129172370343385</v>
+        <v>0.028164987291783721</v>
       </c>
       <c r="AF4">
-        <v>0.028221881760138543</v>
+        <v>0.028007156792264322</v>
       </c>
       <c r="AG4">
-        <v>0.027940158799176412</v>
+        <v>0.028178464095813909</v>
       </c>
       <c r="AH4">
-        <v>0.027961370934316068</v>
+        <v>0.028360801674525923</v>
       </c>
       <c r="AI4">
-        <v>0.028056272508402657</v>
+        <v>0.027864395272499995</v>
       </c>
       <c r="AJ4">
-        <v>0.028087015973289262</v>
+        <v>0.02830909150842003</v>
       </c>
       <c r="AK4">
-        <v>0.028102488876954275</v>
+        <v>0.027981530514183707</v>
       </c>
       <c r="AL4">
-        <v>0.027944390870887261</v>
+        <v>0.028052462035841965</v>
       </c>
       <c r="AM4">
-        <v>0.027940158842268623</v>
+        <v>0.028030814729131704</v>
       </c>
       <c r="AN4">
-        <v>0.028056272543741479</v>
+        <v>0.027916194968308692</v>
       </c>
       <c r="AO4">
-        <v>0.027875218205491357</v>
+        <v>0.027958205093000052</v>
       </c>
       <c r="AP4">
-        <v>0.02797629711622171</v>
+        <v>0.028235172307389794</v>
       </c>
       <c r="AQ4">
-        <v>0.02794650886982792</v>
+        <v>0.027893306471235654</v>
       </c>
       <c r="AR4">
-        <v>0.027852466992225794</v>
+        <v>0.028022193293763004</v>
       </c>
       <c r="AS4">
-        <v>0.027902302307928672</v>
+        <v>0.027837767067139241</v>
       </c>
       <c r="AT4">
-        <v>0.027725020177717247</v>
+        <v>0.027839808018013792</v>
       </c>
       <c r="AU4">
-        <v>0.027556639213670919</v>
+        <v>0.02797515349144785</v>
       </c>
       <c r="AV4">
-        <v>0.027904394596192761</v>
+        <v>0.027922463945361815</v>
       </c>
       <c r="AW4">
-        <v>0.02790021134840133</v>
+        <v>0.02802004129237573</v>
       </c>
       <c r="AX4">
-        <v>0.027833964470677729</v>
+        <v>0.027856179856789891</v>
       </c>
       <c r="AY4">
-        <v>0.027854529097371926</v>
+        <v>0.027964551069670589</v>
       </c>
       <c r="AZ4">
-        <v>0.027910679066701725</v>
+        <v>0.027645456361099496</v>
       </c>
       <c r="BA4">
-        <v>0.027982713806638401</v>
+        <v>0.028228319730323307</v>
       </c>
       <c r="BB4">
-        <v>0.027948628216269412</v>
+        <v>0.027977277941089961</v>
       </c>
       <c r="BC4">
-        <v>0.027811485950607572</v>
+        <v>0.027962434506507098</v>
       </c>
       <c r="BD4">
-        <v>0.028014975490469347</v>
+        <v>0.027761109523520951</v>
       </c>
       <c r="BE4">
-        <v>0.027883529145962278</v>
+        <v>0.027749163532595579</v>
       </c>
       <c r="BF4">
-        <v>0.027819642812746591</v>
+        <v>0.027821483666143471</v>
       </c>
       <c r="BG4">
-        <v>0.027819642821425024</v>
+        <v>0.027928744407570937</v>
       </c>
       <c r="BH4">
-        <v>0.027986998189454472</v>
+        <v>0.028111586802770309</v>
       </c>
       <c r="BI4">
-        <v>0.0280519026483168</v>
+        <v>0.028406058868522752</v>
       </c>
       <c r="BJ4">
-        <v>0.027764961431765333</v>
+        <v>0.028076429982754728</v>
       </c>
       <c r="BK4">
-        <v>0.027705226577488685</v>
+        <v>0.027829615691503502</v>
       </c>
       <c r="BL4">
-        <v>0.027969892521034139</v>
+        <v>0.027854129184371666</v>
       </c>
       <c r="BM4">
-        <v>0.028065029205883156</v>
+        <v>0.02812707895528432</v>
       </c>
       <c r="BN4">
-        <v>0.02792117880680426</v>
+        <v>0.027975153646336324</v>
       </c>
       <c r="BO4">
-        <v>0.02818088351172808</v>
+        <v>0.027905772367363711</v>
       </c>
       <c r="BP4">
-        <v>0.02813140537875735</v>
+        <v>0.027964551211037639</v>
       </c>
       <c r="BQ4">
-        <v>0.028019299790602459</v>
+        <v>0.028080805470708601</v>
       </c>
       <c r="BR4">
-        <v>0.027991287882950834</v>
+        <v>0.028156031376499861</v>
       </c>
       <c r="BS4">
-        <v>0.028221882055084354</v>
+        <v>0.027899533882960389</v>
       </c>
       <c r="BT4">
-        <v>0.028091430167183379</v>
+        <v>0.027966669138056722</v>
       </c>
       <c r="BU4">
-        <v>0.027935932261150914</v>
+        <v>0.028214653787703457</v>
       </c>
       <c r="BV4">
-        <v>0.028326468512851193</v>
+        <v>0.028080805513654123</v>
       </c>
       <c r="BW4">
-        <v>0.028080405760213676</v>
+        <v>0.028035133761107906</v>
       </c>
       <c r="BX4">
-        <v>0.028180883586859679</v>
+        <v>0.028039457861822298</v>
       </c>
       <c r="BY4">
-        <v>0.027946509154465234</v>
+        <v>0.027970908862069689</v>
       </c>
       <c r="BZ4">
-        <v>0.028284270386381323</v>
+        <v>0.0282443298871198</v>
       </c>
       <c r="CA4">
-        <v>0.02812471150547146</v>
+        <v>0.028401268670877108</v>
       </c>
       <c r="CB4">
-        <v>0.028417189617062535</v>
+        <v>0.028102764786839603</v>
       </c>
       <c r="CC4">
-        <v>0.028156058584714511</v>
+        <v>0.028418062327063419</v>
       </c>
       <c r="CD4">
-        <v>0.028495359561597527</v>
+        <v>0.028169474278532336</v>
       </c>
       <c r="CE4">
-        <v>0.028460956985406041</v>
+        <v>0.028339558865186753</v>
       </c>
       <c r="CF4">
-        <v>0.028473207056907941</v>
+        <v>0.028158268432232625</v>
       </c>
       <c r="CG4">
-        <v>0.02837393626547326</v>
+        <v>0.028461601556775493</v>
       </c>
       <c r="CH4">
-        <v>0.028270312868629736</v>
+        <v>0.028189734295815599</v>
       </c>
       <c r="CI4">
-        <v>0.028138112164254079</v>
+        <v>0.028495824009514861</v>
       </c>
       <c r="CJ4">
-        <v>0.028340644224666822</v>
+        <v>0.0283184391450866</v>
       </c>
       <c r="CK4">
-        <v>0.028307653325009428</v>
+        <v>0.028718420797677495</v>
       </c>
       <c r="CL4">
-        <v>0.028520129216180131</v>
+        <v>0.028700225916290623</v>
       </c>
       <c r="CM4">
-        <v>0.028314697678423293</v>
+        <v>0.028723635340231344</v>
       </c>
       <c r="CN4">
-        <v>0.028451186092552681</v>
+        <v>0.028580271428905034</v>
       </c>
       <c r="CO4">
-        <v>0.028434148777631972</v>
+        <v>0.028488464005929519</v>
       </c>
       <c r="CP4">
-        <v>0.028412358591307946</v>
+        <v>0.028442187309634177</v>
       </c>
       <c r="CQ4">
-        <v>0.02857520724583517</v>
+        <v>0.028396484717040711</v>
       </c>
       <c r="CR4">
-        <v>0.028378717198986415</v>
+        <v>0.028628305780928693</v>
       </c>
       <c r="CS4">
-        <v>0.028064441439894484</v>
+        <v>0.028242658543660322</v>
       </c>
       <c r="CT4">
-        <v>0.028179215586369676</v>
+        <v>0.028168508931113532</v>
       </c>
       <c r="CU4">
-        <v>0.028322106343172525</v>
+        <v>0.028029384499516818</v>
       </c>
       <c r="CV4">
-        <v>0.028166043913399982</v>
+        <v>0.027897600226001337</v>
       </c>
       <c r="CW4">
-        <v>0.027980621071911627</v>
+        <v>0.028465501998612305</v>
       </c>
       <c r="CX4">
-        <v>0.028077517595734732</v>
+        <v>0.028007240356627116</v>
       </c>
       <c r="CY4">
-        <v>0.028243988204658711</v>
+        <v>0.028331520763470154</v>
       </c>
       <c r="CZ4">
-        <v>0.028477460431715774</v>
+        <v>0.02842609205252437</v>
       </c>
       <c r="DA4">
-        <v>0.028431955234871305</v>
+        <v>0.028454339331977479</v>
       </c>
       <c r="DB4">
-        <v>0.028187767723080025</v>
+        <v>0.028323312534321847</v>
       </c>
       <c r="DC4">
-        <v>0.028742241563418935</v>
+        <v>0.028328074016336097</v>
       </c>
       <c r="DD4">
-        <v>0.028326637608765498</v>
+        <v>0.028742348732375904</v>
       </c>
       <c r="DE4">
-        <v>0.028532035885479073</v>
+        <v>0.028472860308145456</v>
       </c>
       <c r="DF4">
-        <v>0.028454862088580033</v>
+        <v>0.028402619884865386</v>
       </c>
       <c r="DG4">
-        <v>0.028569771471437133</v>
+        <v>0.028515615280242174</v>
       </c>
       <c r="DH4">
-        <v>0.028915002933342884</v>
+        <v>0.028956915996190612</v>
       </c>
       <c r="DI4">
-        <v>0.029243961017971699</v>
+        <v>0.029049242592282847</v>
       </c>
       <c r="DJ4">
-        <v>0.028958008562496813</v>
+        <v>0.029069746972527958</v>
       </c>
       <c r="DK4">
-        <v>0.029622330137231846</v>
+        <v>0.029806985009922609</v>
       </c>
       <c r="DL4">
-        <v>0.02953190255049136</v>
+        <v>0.029651243893679055</v>
       </c>
       <c r="DM4">
-        <v>0.025925827001965673</v>
+        <v>0.025897487784560684</v>
       </c>
       <c r="DN4">
-        <v>0.026801306150691886</v>
+        <v>0.026612278350822329</v>
       </c>
       <c r="DO4">
-        <v>0.02644953806459217</v>
+        <v>0.026564874798729297</v>
       </c>
       <c r="DP4">
-        <v>0.025625795624519106</v>
+        <v>0.025658320961166974</v>
       </c>
       <c r="DQ4">
-        <v>0.025531817555944317</v>
+        <v>0.025732372124639535</v>
       </c>
       <c r="DR4">
-        <v>0.025353223556423509</v>
+        <v>0.025511512465022736</v>
       </c>
       <c r="DS4">
-        <v>0.025090390135163988</v>
+        <v>0.025114990916820561</v>
       </c>
       <c r="DT4">
-        <v>0.025465090737585062</v>
+        <v>0.025120635360120824</v>
       </c>
       <c r="DU4">
-        <v>0.025347933169722104</v>
+        <v>0.025303064185457649</v>
       </c>
       <c r="DV4">
-        <v>0.025272347053200968</v>
+        <v>0.025373482525266656</v>
       </c>
       <c r="DW4">
-        <v>0.024987115696126931</v>
+        <v>0.024941098013832531</v>
       </c>
       <c r="DX4">
-        <v>0.025577829203207125</v>
+        <v>0.025446388673464933</v>
       </c>
       <c r="DY4">
-        <v>0.025422964385241571</v>
+        <v>0.025532435662901948</v>
       </c>
       <c r="DZ4">
-        <v>0.025448435042846308</v>
+        <v>0.025370477725035902</v>
       </c>
       <c r="EA4">
-        <v>0.025570562407081894</v>
+        <v>0.025509966906188057</v>
       </c>
       <c r="EB4">
-        <v>0.025351193351628328</v>
+        <v>0.025422282342604043</v>
       </c>
       <c r="EC4">
-        <v>0.025486467750778022</v>
+        <v>0.025727023344509905</v>
       </c>
       <c r="ED4">
-        <v>0.025751508241641408</v>
+        <v>0.025695563804406501</v>
       </c>
       <c r="EE4">
-        <v>0.026271242183758911</v>
+        <v>0.026196785329916199</v>
       </c>
       <c r="EF4">
-        <v>0.026095128623707404</v>
+        <v>0.026113210534627517</v>
       </c>
       <c r="EG4">
-        <v>0.02526776318250358</v>
+        <v>0.025235521238024947</v>
       </c>
       <c r="EH4">
-        <v>0.023029601249443948</v>
+        <v>0.02288556386141247</v>
       </c>
       <c r="EI4">
-        <v>0.023056148099520619</v>
+        <v>0.023105965293894384</v>
       </c>
       <c r="EJ4">
-        <v>0.02246296379555392</v>
+        <v>0.022602761686827226</v>
       </c>
       <c r="EK4">
-        <v>0.0226603266446978</v>
+        <v>0.022750091448415551</v>
       </c>
       <c r="EL4">
-        <v>0.022449695659931417</v>
+        <v>0.022626419425521897</v>
       </c>
       <c r="EM4">
-        <v>0.02231098206497031</v>
+        <v>0.022417274102240904</v>
       </c>
       <c r="EN4">
-        <v>0.022154525062609343</v>
+        <v>0.022282338488977545</v>
       </c>
       <c r="EO4">
-        <v>0.022453036043093021</v>
+        <v>0.022057365158240878</v>
       </c>
       <c r="EP4">
-        <v>0.022455213053261095</v>
+        <v>0.022260159198466172</v>
       </c>
       <c r="EQ4">
-        <v>0.022390641332069687</v>
+        <v>0.022673530271998178</v>
       </c>
       <c r="ER4">
-        <v>0.022546867474269417</v>
+        <v>0.022502711062841081</v>
       </c>
       <c r="ES4">
-        <v>0.022403609660345089</v>
+        <v>0.022537641229580109</v>
       </c>
       <c r="ET4">
-        <v>0.022367891291135946</v>
+        <v>0.022415179164246915</v>
       </c>
       <c r="EU4">
-        <v>0.022562505099203278</v>
+        <v>0.022515758319870873</v>
       </c>
       <c r="EV4">
-        <v>0.022623650435387846</v>
+        <v>0.022539839236648193</v>
       </c>
       <c r="EW4">
-        <v>0.022453398952383827</v>
+        <v>0.022487214509070579</v>
       </c>
       <c r="EX4">
-        <v>0.022436212456440275</v>
+        <v>0.022592576958264086</v>
       </c>
       <c r="EY4">
-        <v>0.022585817659545662</v>
+        <v>0.02263540941043541</v>
       </c>
       <c r="EZ4">
-        <v>0.022599411500857817</v>
+        <v>0.022758435622466072</v>
       </c>
       <c r="FA4">
-        <v>0.022574539590041114</v>
+        <v>0.022674293543563269</v>
       </c>
       <c r="FB4">
-        <v>0.021783990105674906</v>
+        <v>0.021918618599245942</v>
       </c>
       <c r="FC4">
-        <v>0.022014705826376456</v>
+        <v>0.021988849774706574</v>
       </c>
       <c r="FD4">
-        <v>0.021921232884116175</v>
+        <v>0.022020875761062576</v>
       </c>
       <c r="FE4">
-        <v>0.022037274782451884</v>
+        <v>0.021871133528722286</v>
       </c>
       <c r="FF4">
-        <v>0.021979929901374557</v>
+        <v>0.022045744946739925</v>
       </c>
       <c r="FG4">
-        <v>0.021935799868205114</v>
+        <v>0.022068303294476187</v>
       </c>
       <c r="FH4">
-        <v>0.02189711201592856</v>
+        <v>0.022103730327294308</v>
       </c>
       <c r="FI4">
-        <v>0.021982400846617362</v>
+        <v>0.022178446342634089</v>
       </c>
       <c r="FJ4">
-        <v>0.022269861738559327</v>
+        <v>0.022020876108173937</v>
       </c>
       <c r="FK4">
-        <v>0.022052414675232022</v>
+        <v>0.021991301691426296</v>
       </c>
       <c r="FL4">
-        <v>0.021967606741945873</v>
+        <v>0.022015926919366314</v>
       </c>
       <c r="FM4">
-        <v>0.02207526601464976</v>
+        <v>0.022178446576656644</v>
       </c>
       <c r="FN4">
-        <v>0.022108577609086379</v>
+        <v>0.022091030835135785</v>
       </c>
       <c r="FO4">
-        <v>0.022305335380319695</v>
+        <v>0.022181055748004729</v>
       </c>
       <c r="FP4">
-        <v>0.022155305157077584</v>
+        <v>0.022445066791024884</v>
       </c>
       <c r="FQ4">
-        <v>0.022288913658665952</v>
+        <v>0.022361032462356323</v>
       </c>
       <c r="FR4">
-        <v>0.022178936468840928</v>
+        <v>0.022369336999329067</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -11345,7 +12077,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.015815352979565336</v>
+        <v>0.015855060036552706</v>
+      </c>
+      <c r="FW4">
+        <v>0.021991301691426796</v>
+      </c>
+      <c r="FX4">
+        <v>0.0220159269193668</v>
+      </c>
+      <c r="FY4">
+        <v>0.02217844657665714</v>
+      </c>
+      <c r="FZ4">
+        <v>0.022091030835136274</v>
+      </c>
+      <c r="GA4">
+        <v>0.022181055748005232</v>
+      </c>
+      <c r="GB4">
+        <v>0.022445066791025366</v>
+      </c>
+      <c r="GC4">
+        <v>0.022361032462356809</v>
+      </c>
+      <c r="GD4">
+        <v>0.022369336999329564</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.0158550600365534</v>
       </c>
     </row>
   </sheetData>
@@ -11354,7 +12122,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FV4"/>
+  <dimension ref="A1:GH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11892,6 +12660,42 @@
       <c r="FV1" t="s">
         <v>1</v>
       </c>
+      <c r="FW1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>1</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="s">
@@ -12425,529 +13229,565 @@
       <c r="FV2" t="s">
         <v>178</v>
       </c>
+      <c r="FW2" t="s">
+        <v>167</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>168</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>169</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>176</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>177</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>179</v>
       </c>
       <c r="B3">
-        <v>1.1109265292775958</v>
+        <v>1.1414196806010217</v>
       </c>
       <c r="C3">
-        <v>-1.9205243928533366</v>
+        <v>-1.9407293248060129</v>
       </c>
       <c r="D3">
-        <v>-2.0204581071135217</v>
+        <v>-2.0273107940412274</v>
       </c>
       <c r="E3">
-        <v>-2.0153745958542442</v>
+        <v>-2.0315307376185117</v>
       </c>
       <c r="F3">
-        <v>-1.9562904272046802</v>
+        <v>-1.9872907063887755</v>
       </c>
       <c r="G3">
-        <v>-1.923278925012071</v>
+        <v>-1.9573561781731665</v>
       </c>
       <c r="H3">
-        <v>-1.9177744035391318</v>
+        <v>-1.9227465039625355</v>
       </c>
       <c r="I3">
-        <v>0.74447868664886596</v>
+        <v>0.72108806838170392</v>
       </c>
       <c r="J3">
-        <v>0.68083059277807301</v>
+        <v>0.67929950426075081</v>
       </c>
       <c r="K3">
-        <v>0.6152344817663723</v>
+        <v>0.61518567254626588</v>
       </c>
       <c r="L3">
-        <v>0.52612569352177552</v>
+        <v>0.51570779692911561</v>
       </c>
       <c r="M3">
-        <v>0.42676308037324112</v>
+        <v>0.43412517316480809</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.443480308664951</v>
+        <v>1.4725549866389691</v>
       </c>
       <c r="P3">
-        <v>1.5349124580070175</v>
+        <v>1.5703113440373233</v>
       </c>
       <c r="Q3">
-        <v>0.0052178877193223231</v>
+        <v>-0.040647540154550965</v>
       </c>
       <c r="R3">
-        <v>0.041025063944505218</v>
+        <v>-0.0029970598239870559</v>
       </c>
       <c r="S3">
-        <v>-0.014106627394732178</v>
+        <v>0.031559680621873892</v>
       </c>
       <c r="T3">
-        <v>0.028549695683603053</v>
+        <v>0.0048746015938572187</v>
       </c>
       <c r="U3">
-        <v>0.021368518298837666</v>
+        <v>0.12327726051324253</v>
       </c>
       <c r="V3">
-        <v>0.10655308866085444</v>
+        <v>0.13141958573752618</v>
       </c>
       <c r="W3">
-        <v>0.074394015015603762</v>
+        <v>0.055854717890622713</v>
       </c>
       <c r="X3">
-        <v>0.064205328797236588</v>
+        <v>0.10474852591670981</v>
       </c>
       <c r="Y3">
-        <v>0.084230279108540723</v>
+        <v>0.091117964376315058</v>
       </c>
       <c r="Z3">
-        <v>0.07665487242128434</v>
+        <v>0.12948750492531674</v>
       </c>
       <c r="AA3">
-        <v>0.12960207197601398</v>
+        <v>0.13271666402858542</v>
       </c>
       <c r="AB3">
-        <v>0.11599260439666542</v>
+        <v>0.15455099129397123</v>
       </c>
       <c r="AC3">
-        <v>0.11838925245431323</v>
+        <v>0.10098550004830106</v>
       </c>
       <c r="AD3">
-        <v>0.13355979757226499</v>
+        <v>0.1358459785055742</v>
       </c>
       <c r="AE3">
-        <v>0.12078097964879418</v>
+        <v>0.15926634733816689</v>
       </c>
       <c r="AF3">
-        <v>0.1571194790443084</v>
+        <v>0.18688611460727012</v>
       </c>
       <c r="AG3">
-        <v>0.12238915805733298</v>
+        <v>0.16167490855268768</v>
       </c>
       <c r="AH3">
-        <v>0.096283885359637097</v>
+        <v>0.16486456661984669</v>
       </c>
       <c r="AI3">
-        <v>0.22484104666411239</v>
+        <v>0.21162163008933779</v>
       </c>
       <c r="AJ3">
-        <v>0.11187608755553487</v>
+        <v>0.16010120298358479</v>
       </c>
       <c r="AK3">
-        <v>0.13680445960619256</v>
+        <v>0.15928958225347156</v>
       </c>
       <c r="AL3">
-        <v>0.18497687675326921</v>
+        <v>0.23364747030251573</v>
       </c>
       <c r="AM3">
-        <v>0.18201917296776349</v>
+        <v>0.18161461337287024</v>
       </c>
       <c r="AN3">
-        <v>0.15663182336669934</v>
+        <v>0.21723325876641486</v>
       </c>
       <c r="AO3">
-        <v>0.18519840359775583</v>
+        <v>0.21731363749470736</v>
       </c>
       <c r="AP3">
-        <v>0.19134773006507444</v>
+        <v>0.13738189902604028</v>
       </c>
       <c r="AQ3">
-        <v>0.18078752100949619</v>
+        <v>0.21052717884212657</v>
       </c>
       <c r="AR3">
-        <v>0.18924523663884665</v>
+        <v>0.24530395787069542</v>
       </c>
       <c r="AS3">
-        <v>0.14188741867083346</v>
+        <v>0.22594227550058482</v>
       </c>
       <c r="AT3">
-        <v>0.21563725297904834</v>
+        <v>0.23957328236598402</v>
       </c>
       <c r="AU3">
-        <v>0.22755184679861171</v>
+        <v>0.20623382288313458</v>
       </c>
       <c r="AV3">
-        <v>0.15946046060052668</v>
+        <v>0.21783104543751738</v>
       </c>
       <c r="AW3">
-        <v>0.16028108934567356</v>
+        <v>0.21022352612368955</v>
       </c>
       <c r="AX3">
-        <v>0.15401563649566152</v>
+        <v>0.27238962337400985</v>
       </c>
       <c r="AY3">
-        <v>0.21538897963420345</v>
+        <v>0.25497470756224699</v>
       </c>
       <c r="AZ3">
-        <v>0.18528604667251231</v>
+        <v>0.17749411358134148</v>
       </c>
       <c r="BA3">
-        <v>0.1845925877576666</v>
+        <v>0.16300402170874106</v>
       </c>
       <c r="BB3">
-        <v>0.18235589171945552</v>
+        <v>0.2312519293031739</v>
       </c>
       <c r="BC3">
-        <v>0.19773348794917947</v>
+        <v>0.28383750516951489</v>
       </c>
       <c r="BD3">
-        <v>0.16459179058029835</v>
+        <v>0.20062955967272489</v>
       </c>
       <c r="BE3">
-        <v>0.1879512689641642</v>
+        <v>0.23003090584036326</v>
       </c>
       <c r="BF3">
-        <v>0.14802075908100068</v>
+        <v>0.22630399348711139</v>
       </c>
       <c r="BG3">
-        <v>0.23026211096784749</v>
+        <v>0.20393988966598825</v>
       </c>
       <c r="BH3">
-        <v>0.22892715893386342</v>
+        <v>0.23484238310169403</v>
       </c>
       <c r="BI3">
-        <v>0.14899060917634516</v>
+        <v>0.17219579369612928</v>
       </c>
       <c r="BJ3">
-        <v>0.16254692236457344</v>
+        <v>0.17056850316725763</v>
       </c>
       <c r="BK3">
-        <v>0.25265896925241105</v>
+        <v>0.24411796982821127</v>
       </c>
       <c r="BL3">
-        <v>0.20460337435022527</v>
+        <v>0.24648956967454472</v>
       </c>
       <c r="BM3">
-        <v>0.18704865212049412</v>
+        <v>0.19238612692225032</v>
       </c>
       <c r="BN3">
-        <v>0.21312408059851162</v>
+        <v>0.22993022735976412</v>
       </c>
       <c r="BO3">
-        <v>0.15168688201454236</v>
+        <v>0.24827364978497124</v>
       </c>
       <c r="BP3">
-        <v>0.12974527515454284</v>
+        <v>0.23929195006663534</v>
       </c>
       <c r="BQ3">
-        <v>0.20115123250813946</v>
+        <v>0.19816970322892011</v>
       </c>
       <c r="BR3">
-        <v>0.17797379836851518</v>
+        <v>0.19342134608072589</v>
       </c>
       <c r="BS3">
-        <v>0.16299260041599745</v>
+        <v>0.20772421585710346</v>
       </c>
       <c r="BT3">
-        <v>0.14368652276853464</v>
+        <v>0.24643017279272261</v>
       </c>
       <c r="BU3">
-        <v>0.19214206788348306</v>
+        <v>0.18470041649619995</v>
       </c>
       <c r="BV3">
-        <v>0.10382601546717797</v>
+        <v>0.15933717719222595</v>
       </c>
       <c r="BW3">
-        <v>0.17101949572295699</v>
+        <v>0.19754858918090731</v>
       </c>
       <c r="BX3">
-        <v>0.13714061739361885</v>
+        <v>0.20235718629523516</v>
       </c>
       <c r="BY3">
-        <v>0.21155381985836627</v>
+        <v>0.22052979930435851</v>
       </c>
       <c r="BZ3">
-        <v>0.12474639385084133</v>
+        <v>0.16593707495216986</v>
       </c>
       <c r="CA3">
-        <v>0.22534683194131769</v>
+        <v>0.19041036428399899</v>
       </c>
       <c r="CB3">
-        <v>0.11299846254110578</v>
+        <v>0.1806854583628357</v>
       </c>
       <c r="CC3">
-        <v>0.15997507457025614</v>
+        <v>0.19767124729734961</v>
       </c>
       <c r="CD3">
-        <v>0.11037286574550018</v>
+        <v>0.18638905280407345</v>
       </c>
       <c r="CE3">
-        <v>0.13378661731309796</v>
+        <v>0.17659204905604217</v>
       </c>
       <c r="CF3">
-        <v>0.11280141215286162</v>
+        <v>0.18475837421597424</v>
       </c>
       <c r="CG3">
-        <v>0.20808651913970599</v>
+        <v>0.12165988807688648</v>
       </c>
       <c r="CH3">
-        <v>0.19887783821743624</v>
+        <v>0.20249865115731736</v>
       </c>
       <c r="CI3">
-        <v>0.17609835667066726</v>
+        <v>0.16741967374220265</v>
       </c>
       <c r="CJ3">
-        <v>0.1649035760326186</v>
+        <v>0.14807677572215999</v>
       </c>
       <c r="CK3">
-        <v>0.12791100615240608</v>
+        <v>0.10996467442791283</v>
       </c>
       <c r="CL3">
-        <v>0.067377143233552803</v>
+        <v>0.11071997863370986</v>
       </c>
       <c r="CM3">
-        <v>0.15672872094396822</v>
+        <v>0.14442043401690854</v>
       </c>
       <c r="CN3">
-        <v>0.13612081081444971</v>
+        <v>0.1297319987140842</v>
       </c>
       <c r="CO3">
-        <v>0.13442045521509371</v>
+        <v>0.18527459431460341</v>
       </c>
       <c r="CP3">
-        <v>0.12514957232636628</v>
+        <v>0.11823968543246283</v>
       </c>
       <c r="CQ3">
-        <v>0.055174450665917738</v>
+        <v>0.16110200137663566</v>
       </c>
       <c r="CR3">
-        <v>0.092359788507297841</v>
+        <v>0.17110956895871388</v>
       </c>
       <c r="CS3">
-        <v>0.14354226575826892</v>
+        <v>0.19308844075603368</v>
       </c>
       <c r="CT3">
-        <v>0.13906425973714764</v>
+        <v>0.22656720065076366</v>
       </c>
       <c r="CU3">
-        <v>0.17599204641091379</v>
+        <v>0.12408400036887472</v>
       </c>
       <c r="CV3">
-        <v>0.18939184531347208</v>
+        <v>0.27089773592719657</v>
       </c>
       <c r="CW3">
-        <v>0.18265407425531319</v>
+        <v>0.093141705099399022</v>
       </c>
       <c r="CX3">
-        <v>0.15801642732546009</v>
+        <v>0.17837340837633481</v>
       </c>
       <c r="CY3">
-        <v>0.10757796891137676</v>
+        <v>0.15804973483333726</v>
       </c>
       <c r="CZ3">
-        <v>0.12628256310444483</v>
+        <v>0.092705037477633992</v>
       </c>
       <c r="DA3">
-        <v>0.077787661635635857</v>
+        <v>0.20042758349739478</v>
       </c>
       <c r="DB3">
-        <v>0.13220494446495132</v>
+        <v>0.16385802008760059</v>
       </c>
       <c r="DC3">
-        <v>0.025594146454659988</v>
+        <v>0.15694643568996366</v>
       </c>
       <c r="DD3">
-        <v>0.091220358838266929</v>
+        <v>0.074004192570613817</v>
       </c>
       <c r="DE3">
-        <v>0.081138936725083752</v>
+        <v>0.15405845102151328</v>
       </c>
       <c r="DF3">
-        <v>0.040177292987953757</v>
+        <v>0.13266731017121017</v>
       </c>
       <c r="DG3">
-        <v>0.031384222204177241</v>
+        <v>0.11533217320698588</v>
       </c>
       <c r="DH3">
-        <v>0.07662163926613641</v>
+        <v>0.064839381625434581</v>
       </c>
       <c r="DI3">
-        <v>-0.028721563854159065</v>
+        <v>0.099974113223968819</v>
       </c>
       <c r="DJ3">
-        <v>0.0562475153607669</v>
+        <v>0.061554180661932946</v>
       </c>
       <c r="DK3">
-        <v>0.016751705213421932</v>
+        <v>0.054120185075778086</v>
       </c>
       <c r="DL3">
-        <v>0.063133814321976303</v>
+        <v>0.081791555490850459</v>
       </c>
       <c r="DM3">
-        <v>-0.067654554979406048</v>
+        <v>-0.07436969965216636</v>
       </c>
       <c r="DN3">
-        <v>0.2375973438323728</v>
+        <v>0.27200977605968851</v>
       </c>
       <c r="DO3">
-        <v>0.22222555720499942</v>
+        <v>0.2318384387370396</v>
       </c>
       <c r="DP3">
-        <v>0.22192678059695001</v>
+        <v>0.24428082263289613</v>
       </c>
       <c r="DQ3">
-        <v>0.19063021190719898</v>
+        <v>0.20284798472562815</v>
       </c>
       <c r="DR3">
-        <v>0.14349358544125565</v>
+        <v>0.16050452771044799</v>
       </c>
       <c r="DS3">
-        <v>0.17869674941098174</v>
+        <v>0.18296384441073416</v>
       </c>
       <c r="DT3">
-        <v>0.10081508417068015</v>
+        <v>0.14509034768322185</v>
       </c>
       <c r="DU3">
-        <v>0.067355167695523924</v>
+        <v>0.090993296801194015</v>
       </c>
       <c r="DV3">
-        <v>0.059751579598622324</v>
+        <v>0.063390984592392785</v>
       </c>
       <c r="DW3">
-        <v>0.026700214898358228</v>
+        <v>0.020001324911378748</v>
       </c>
       <c r="DX3">
-        <v>0.052894811816031811</v>
+        <v>0.085841757092856505</v>
       </c>
       <c r="DY3">
-        <v>0.048301901928951153</v>
+        <v>0.076157093181803595</v>
       </c>
       <c r="DZ3">
-        <v>0.0087636044914453596</v>
+        <v>0.046175344903670583</v>
       </c>
       <c r="EA3">
-        <v>-0.027234168215538906</v>
+        <v>-0.011770817195648282</v>
       </c>
       <c r="EB3">
-        <v>-0.023398509653094222</v>
+        <v>-0.022653473230544802</v>
       </c>
       <c r="EC3">
-        <v>0.044100523717004819</v>
+        <v>0.023052038699794095</v>
       </c>
       <c r="ED3">
-        <v>-0.0076523114497024577</v>
+        <v>0.0036958461140795401</v>
       </c>
       <c r="EE3">
-        <v>-0.031748309471093916</v>
+        <v>-0.029000755617285965</v>
       </c>
       <c r="EF3">
-        <v>-0.041344699123813639</v>
+        <v>-0.030793927791404576</v>
       </c>
       <c r="EG3">
-        <v>-0.051047317701781371</v>
+        <v>-0.057568724879145106</v>
       </c>
       <c r="EH3">
-        <v>0.30615962846340911</v>
+        <v>0.33167722475428729</v>
       </c>
       <c r="EI3">
-        <v>0.26583494255328599</v>
+        <v>0.29276481389329068</v>
       </c>
       <c r="EJ3">
-        <v>0.27262400643155765</v>
+        <v>0.28049152643497099</v>
       </c>
       <c r="EK3">
-        <v>0.22532098498531622</v>
+        <v>0.25128906385962757</v>
       </c>
       <c r="EL3">
-        <v>0.21829449355317776</v>
+        <v>0.21094118466409759</v>
       </c>
       <c r="EM3">
-        <v>0.22967092146171209</v>
+        <v>0.22223217034943918</v>
       </c>
       <c r="EN3">
-        <v>0.20874117899906705</v>
+        <v>0.2116294200730327</v>
       </c>
       <c r="EO3">
-        <v>0.14322386953293928</v>
+        <v>0.20186264735861709</v>
       </c>
       <c r="EP3">
-        <v>0.12715881045896535</v>
+        <v>0.16056308550201151</v>
       </c>
       <c r="EQ3">
-        <v>0.11333675806965941</v>
+        <v>0.090821570245475894</v>
       </c>
       <c r="ER3">
-        <v>0.13536644233251494</v>
+        <v>0.14860742865544871</v>
       </c>
       <c r="ES3">
-        <v>0.11769709065341244</v>
+        <v>0.12710822440787325</v>
       </c>
       <c r="ET3">
-        <v>0.11003724844334981</v>
+        <v>0.1146954304704358</v>
       </c>
       <c r="EU3">
-        <v>0.059139450606568382</v>
+        <v>0.084517862231977145</v>
       </c>
       <c r="EV3">
-        <v>0.036714740771106535</v>
+        <v>0.06879192343591059</v>
       </c>
       <c r="EW3">
-        <v>0.10939207292494338</v>
+        <v>0.1021699051124855</v>
       </c>
       <c r="EX3">
-        <v>0.073380125265057397</v>
+        <v>0.072018622395184362</v>
       </c>
       <c r="EY3">
-        <v>0.043634539109756301</v>
+        <v>0.051745399566946244</v>
       </c>
       <c r="EZ3">
-        <v>0.029219282061307285</v>
+        <v>0.002950389600580272</v>
       </c>
       <c r="FA3">
-        <v>0.011788339640568808</v>
+        <v>0.006792156799942493</v>
       </c>
       <c r="FB3">
-        <v>0.24123390077179252</v>
+        <v>0.23761083077810197</v>
       </c>
       <c r="FC3">
-        <v>0.2022348395938276</v>
+        <v>0.21683480305944886</v>
       </c>
       <c r="FD3">
-        <v>0.19447459045863003</v>
+        <v>0.20398503788335176</v>
       </c>
       <c r="FE3">
-        <v>0.15519317249515677</v>
+        <v>0.19894592377705989</v>
       </c>
       <c r="FF3">
-        <v>0.16306217432964679</v>
+        <v>0.17279917387831847</v>
       </c>
       <c r="FG3">
-        <v>0.154283669930316</v>
+        <v>0.16115911543816119</v>
       </c>
       <c r="FH3">
-        <v>0.15374625728452609</v>
+        <v>0.13676351239945905</v>
       </c>
       <c r="FI3">
-        <v>0.1214455716170102</v>
+        <v>0.12686485749308474</v>
       </c>
       <c r="FJ3">
-        <v>0.071767838395482925</v>
+        <v>0.13257336763518149</v>
       </c>
       <c r="FK3">
-        <v>0.10367592686530513</v>
+        <v>0.13188105154829577</v>
       </c>
       <c r="FL3">
-        <v>0.10097519732822906</v>
+        <v>0.10574030666736799</v>
       </c>
       <c r="FM3">
-        <v>0.082217390562374981</v>
+        <v>0.073968020976907412</v>
       </c>
       <c r="FN3">
-        <v>0.049934812440555351</v>
+        <v>0.073999409352195608</v>
       </c>
       <c r="FO3">
-        <v>0.02586042160559314</v>
+        <v>0.059378060699760669</v>
       </c>
       <c r="FP3">
-        <v>0.056068374102904668</v>
+        <v>0.01074202211466465</v>
       </c>
       <c r="FQ3">
-        <v>0.017476834219152363</v>
+        <v>0.021551954382988233</v>
       </c>
       <c r="FR3">
-        <v>0.025726071410274543</v>
+        <v>0.016699097365466795</v>
       </c>
       <c r="FS3">
         <v>0</v>
@@ -12959,7 +13799,43 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>-5.3447861581509359</v>
+        <v>-5.3580029937771583</v>
+      </c>
+      <c r="FW3">
+        <v>0.13112924411069798</v>
+      </c>
+      <c r="FX3">
+        <v>0.11128970975129114</v>
+      </c>
+      <c r="FY3">
+        <v>0.081061463784361881</v>
+      </c>
+      <c r="FZ3">
+        <v>0.094318899350565477</v>
+      </c>
+      <c r="GA3">
+        <v>0.051642691864233502</v>
+      </c>
+      <c r="GB3">
+        <v>0.026714262173129433</v>
+      </c>
+      <c r="GC3">
+        <v>0.016263123800206357</v>
+      </c>
+      <c r="GD3">
+        <v>0.023873524279933389</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>-5.3623481071222194</v>
       </c>
     </row>
     <row r="4">
@@ -12967,523 +13843,523 @@
         <v>180</v>
       </c>
       <c r="B4">
-        <v>0.019616732202837928</v>
+        <v>0.019705193291004994</v>
       </c>
       <c r="C4">
-        <v>0.017637345390999665</v>
+        <v>0.0176457014455513</v>
       </c>
       <c r="D4">
-        <v>0.01811502808026106</v>
+        <v>0.018150150952983314</v>
       </c>
       <c r="E4">
-        <v>0.018464825905733524</v>
+        <v>0.018507150047821858</v>
       </c>
       <c r="F4">
-        <v>0.018885517736838223</v>
+        <v>0.018951528803499665</v>
       </c>
       <c r="G4">
-        <v>0.02325239943580102</v>
+        <v>0.023593173454112892</v>
       </c>
       <c r="H4">
-        <v>0.028437515654761075</v>
+        <v>0.028521239520910392</v>
       </c>
       <c r="I4">
-        <v>0.012712586418453527</v>
+        <v>0.01267397857036575</v>
       </c>
       <c r="J4">
-        <v>0.01079160793091602</v>
+        <v>0.010812773971567125</v>
       </c>
       <c r="K4">
-        <v>0.0090709784471515176</v>
+        <v>0.0090736063577052627</v>
       </c>
       <c r="L4">
-        <v>0.0096851047144004433</v>
+        <v>0.0096897445759039618</v>
       </c>
       <c r="M4">
-        <v>0.01018532171774272</v>
+        <v>0.01026582589504319</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.026945843510259502</v>
+        <v>0.02700999651946236</v>
       </c>
       <c r="P4">
-        <v>0.026613049555621458</v>
+        <v>0.0266537395606583</v>
       </c>
       <c r="Q4">
-        <v>0.037524638372213752</v>
+        <v>0.038523218384163629</v>
       </c>
       <c r="R4">
-        <v>0.0371121315608995</v>
+        <v>0.038065121536426411</v>
       </c>
       <c r="S4">
-        <v>0.037773249393118692</v>
+        <v>0.037655607701745773</v>
       </c>
       <c r="T4">
-        <v>0.037274216520036214</v>
+        <v>0.037985841594631115</v>
       </c>
       <c r="U4">
-        <v>0.037367079248130444</v>
+        <v>0.036609059083881984</v>
       </c>
       <c r="V4">
-        <v>0.036399971777009772</v>
+        <v>0.036526446814956821</v>
       </c>
       <c r="W4">
-        <v>0.036770387931003741</v>
+        <v>0.037402032727084422</v>
       </c>
       <c r="X4">
-        <v>0.03689532535709527</v>
+        <v>0.0368440680145255</v>
       </c>
       <c r="Y4">
-        <v>0.036675834878542007</v>
+        <v>0.037008695480786682</v>
       </c>
       <c r="Z4">
-        <v>0.036770387933442998</v>
+        <v>0.036581406903846106</v>
       </c>
       <c r="AA4">
-        <v>0.03618732544447776</v>
+        <v>0.036553869727883159</v>
       </c>
       <c r="AB4">
-        <v>0.036346156874116992</v>
+        <v>0.036319923440599734</v>
       </c>
       <c r="AC4">
-        <v>0.036328316451083476</v>
+        <v>0.036930725337747418</v>
       </c>
       <c r="AD4">
-        <v>0.036169915110943619</v>
+        <v>0.036544716100747901</v>
       </c>
       <c r="AE4">
-        <v>0.036319414476999733</v>
+        <v>0.036293460834334941</v>
       </c>
       <c r="AF4">
-        <v>0.035930996906574565</v>
+        <v>0.036000901456524022</v>
       </c>
       <c r="AG4">
-        <v>0.036319414478895758</v>
+        <v>0.036284663876625711</v>
       </c>
       <c r="AH4">
-        <v>0.036619737542528813</v>
+        <v>0.036258344378693477</v>
       </c>
       <c r="AI4">
-        <v>0.035241815189097254</v>
+        <v>0.035761568726050158</v>
       </c>
       <c r="AJ4">
-        <v>0.036463318477701727</v>
+        <v>0.03632876831153288</v>
       </c>
       <c r="AK4">
-        <v>0.036196048231118112</v>
+        <v>0.036346494182411725</v>
       </c>
       <c r="AL4">
-        <v>0.035684611022015658</v>
+        <v>0.035554513749325951</v>
       </c>
       <c r="AM4">
-        <v>0.035725010253123309</v>
+        <v>0.036119757063656999</v>
       </c>
       <c r="AN4">
-        <v>0.036006823643476016</v>
+        <v>0.035745394249084517</v>
       </c>
       <c r="AO4">
-        <v>0.035708819213813116</v>
+        <v>0.035753476255814237</v>
       </c>
       <c r="AP4">
-        <v>0.035652478865035107</v>
+        <v>0.036636827039618722</v>
       </c>
       <c r="AQ4">
-        <v>0.035773836025140719</v>
+        <v>0.035843074031449505</v>
       </c>
       <c r="AR4">
-        <v>0.035692670002596204</v>
+        <v>0.035484428082252897</v>
       </c>
       <c r="AS4">
-        <v>0.036213529134617901</v>
+        <v>0.035697120937008109</v>
       </c>
       <c r="AT4">
-        <v>0.035432101289785044</v>
+        <v>0.035562350616271221</v>
       </c>
       <c r="AU4">
-        <v>0.03531721639709666</v>
+        <v>0.035925649853386817</v>
       </c>
       <c r="AV4">
-        <v>0.036049342224255668</v>
+        <v>0.035810344661575733</v>
       </c>
       <c r="AW4">
-        <v>0.036049342225268101</v>
+        <v>0.035900763414213492</v>
       </c>
       <c r="AX4">
-        <v>0.036126593592893337</v>
+        <v>0.035256459765782497</v>
       </c>
       <c r="AY4">
-        <v>0.03547866648774177</v>
+        <v>0.035445835156562085</v>
       </c>
       <c r="AZ4">
-        <v>0.035806598780906682</v>
+        <v>0.036284663895263525</v>
       </c>
       <c r="BA4">
-        <v>0.035823044339716413</v>
+        <v>0.036453872178188226</v>
       </c>
       <c r="BB4">
-        <v>0.03585606469217547</v>
+        <v>0.035721210862168194</v>
       </c>
       <c r="BC4">
-        <v>0.035700739403667407</v>
+        <v>0.035182342145817731</v>
       </c>
       <c r="BD4">
-        <v>0.036066429047981928</v>
+        <v>0.036068547887791277</v>
       </c>
       <c r="BE4">
-        <v>0.035823044343976707</v>
+        <v>0.035761568749281644</v>
       </c>
       <c r="BF4">
-        <v>0.03626625634355167</v>
+        <v>0.035810344672328714</v>
       </c>
       <c r="BG4">
-        <v>0.03539356551434656</v>
+        <v>0.036060052747461296</v>
       </c>
       <c r="BH4">
-        <v>0.035416657846653384</v>
+        <v>0.035737322714645643</v>
       </c>
       <c r="BI4">
-        <v>0.036283927579767131</v>
+        <v>0.036426862039372003</v>
       </c>
       <c r="BJ4">
-        <v>0.036143887318259682</v>
+        <v>0.036453872187145478</v>
       </c>
       <c r="BK4">
-        <v>0.035197021971568619</v>
+        <v>0.035665145529720887</v>
       </c>
       <c r="BL4">
-        <v>0.035708819238671849</v>
+        <v>0.035649219360730115</v>
       </c>
       <c r="BM4">
-        <v>0.035905920949672668</v>
+        <v>0.036240857311718964</v>
       </c>
       <c r="BN4">
-        <v>0.035636474763625629</v>
+        <v>0.035843074056037476</v>
       </c>
       <c r="BO4">
-        <v>0.036310524659964198</v>
+        <v>0.035657177337500817</v>
       </c>
       <c r="BP4">
-        <v>0.036564108572258121</v>
+        <v>0.035761568761295957</v>
       </c>
       <c r="BQ4">
-        <v>0.035790196088794843</v>
+        <v>0.036214715026639747</v>
       </c>
       <c r="BR4">
-        <v>0.036049342247264658</v>
+        <v>0.036275878867382372</v>
       </c>
       <c r="BS4">
-        <v>0.036222287328960358</v>
+        <v>0.036128331903366617</v>
       </c>
       <c r="BT4">
-        <v>0.036445157148595766</v>
+        <v>0.035721210881971707</v>
       </c>
       <c r="BU4">
-        <v>0.035922627272871217</v>
+        <v>0.036399962807320566</v>
       </c>
       <c r="BV4">
-        <v>0.036914752809232267</v>
+        <v>0.036692713221110118</v>
       </c>
       <c r="BW4">
-        <v>0.036169915156351408</v>
+        <v>0.036275878872500444</v>
       </c>
       <c r="BX4">
-        <v>0.036554882187704002</v>
+        <v>0.036232131470267291</v>
       </c>
       <c r="BY4">
-        <v>0.035749375648867876</v>
+        <v>0.036043096317214786</v>
       </c>
       <c r="BZ4">
-        <v>0.036713496373953255</v>
+        <v>0.036655403711491584</v>
       </c>
       <c r="CA4">
-        <v>0.035620511733790897</v>
+        <v>0.036391020921854159</v>
       </c>
       <c r="CB4">
-        <v>0.03686628819114552</v>
+        <v>0.036508228051396904</v>
       </c>
       <c r="CC4">
-        <v>0.036346156926512427</v>
+        <v>0.036328768356762783</v>
       </c>
       <c r="CD4">
-        <v>0.036914752816829426</v>
+        <v>0.036462900357065904</v>
       </c>
       <c r="CE4">
-        <v>0.036657083404356798</v>
+        <v>0.036581406958561422</v>
       </c>
       <c r="CF4">
-        <v>0.036905032168877874</v>
+        <v>0.036499137501009409</v>
       </c>
       <c r="CG4">
-        <v>0.035856064725478087</v>
+        <v>0.037227816798762511</v>
       </c>
       <c r="CH4">
-        <v>0.035964586321548662</v>
+        <v>0.03631992349825764</v>
       </c>
       <c r="CI4">
-        <v>0.03622228734533374</v>
+        <v>0.036720832971870447</v>
       </c>
       <c r="CJ4">
-        <v>0.036355095433114271</v>
+        <v>0.036950134186488806</v>
       </c>
       <c r="CK4">
-        <v>0.036779916903746934</v>
+        <v>0.037402032784473987</v>
       </c>
       <c r="CL4">
-        <v>0.037492843277069143</v>
+        <v>0.037402032785319797</v>
       </c>
       <c r="CM4">
-        <v>0.036472418014208148</v>
+        <v>0.037018504943241513</v>
       </c>
       <c r="CN4">
-        <v>0.036713496387602657</v>
+        <v>0.037197522154346865</v>
       </c>
       <c r="CO4">
-        <v>0.036741881970759269</v>
+        <v>0.036572215167384091</v>
       </c>
       <c r="CP4">
-        <v>0.036856636714175842</v>
+        <v>0.037350338293733819</v>
       </c>
       <c r="CQ4">
-        <v>0.03768578939188872</v>
+        <v>0.036863229420081564</v>
       </c>
       <c r="CR4">
-        <v>0.037253747424347769</v>
+        <v>0.03675851090433585</v>
       </c>
       <c r="CS4">
-        <v>0.036057982236568711</v>
+        <v>0.035815048687739014</v>
       </c>
       <c r="CT4">
-        <v>0.036121499102057142</v>
+        <v>0.035430653827584827</v>
       </c>
       <c r="CU4">
-        <v>0.035688191994099144</v>
+        <v>0.036674318960514644</v>
       </c>
       <c r="CV4">
-        <v>0.035539598895640408</v>
+        <v>0.034940211399937068</v>
       </c>
       <c r="CW4">
-        <v>0.035628380608710396</v>
+        <v>0.037083906199885511</v>
       </c>
       <c r="CX4">
-        <v>0.03594438924861957</v>
+        <v>0.036116613771070151</v>
       </c>
       <c r="CY4">
-        <v>0.036567901231633754</v>
+        <v>0.036372302903798476</v>
       </c>
       <c r="CZ4">
-        <v>0.036346859031427502</v>
+        <v>0.037196932553864602</v>
       </c>
       <c r="DA4">
-        <v>0.036959357255780007</v>
+        <v>0.03587980319432988</v>
       </c>
       <c r="DB4">
-        <v>0.0362926256253953</v>
+        <v>0.036329071658789826</v>
       </c>
       <c r="DC4">
-        <v>0.037341209897257449</v>
+        <v>0.036249224549197497</v>
       </c>
       <c r="DD4">
-        <v>0.036526395614804627</v>
+        <v>0.037285026116777642</v>
       </c>
       <c r="DE4">
-        <v>0.036659962947396665</v>
+        <v>0.036301945437962273</v>
       </c>
       <c r="DF4">
-        <v>0.037183142829090174</v>
+        <v>0.036571366027422031</v>
       </c>
       <c r="DG4">
-        <v>0.037304465446256554</v>
+        <v>0.036794248829413907</v>
       </c>
       <c r="DH4">
-        <v>0.037190378295066211</v>
+        <v>0.037922082862640233</v>
       </c>
       <c r="DI4">
-        <v>0.038518253568594001</v>
+        <v>0.037497889258371067</v>
       </c>
       <c r="DJ4">
-        <v>0.037455705263722189</v>
+        <v>0.03798145604449512</v>
       </c>
       <c r="DK4">
-        <v>0.038852432464798671</v>
+        <v>0.038782452488133015</v>
       </c>
       <c r="DL4">
-        <v>0.038301043587650088</v>
+        <v>0.038458457138447581</v>
       </c>
       <c r="DM4">
-        <v>0.025663940882575294</v>
+        <v>0.02576949522357265</v>
       </c>
       <c r="DN4">
-        <v>0.021337263610391757</v>
+        <v>0.021368488760748875</v>
       </c>
       <c r="DO4">
-        <v>0.021400046710236684</v>
+        <v>0.021491446287521209</v>
       </c>
       <c r="DP4">
-        <v>0.020585454873424985</v>
+        <v>0.020630526867701619</v>
       </c>
       <c r="DQ4">
-        <v>0.020700077447046179</v>
+        <v>0.020772225497705573</v>
       </c>
       <c r="DR4">
-        <v>0.020817422497038152</v>
+        <v>0.020878531694618719</v>
       </c>
       <c r="DS4">
-        <v>0.020270307454855811</v>
+        <v>0.020356859260423684</v>
       </c>
       <c r="DT4">
-        <v>0.020554945732081983</v>
+        <v>0.020509557722809421</v>
       </c>
       <c r="DU4">
-        <v>0.020700785689179824</v>
+        <v>0.02072279731237776</v>
       </c>
       <c r="DV4">
-        <v>0.02075828950720611</v>
+        <v>0.020850572105244419</v>
       </c>
       <c r="DW4">
-        <v>0.020794023295803203</v>
+        <v>0.020932480488884762</v>
       </c>
       <c r="DX4">
-        <v>0.02138353024135254</v>
+        <v>0.021407226517244027</v>
       </c>
       <c r="DY4">
-        <v>0.021431110010778479</v>
+        <v>0.021474013362492401</v>
       </c>
       <c r="DZ4">
-        <v>0.021616252545202337</v>
+        <v>0.021620671380887711</v>
       </c>
       <c r="EA4">
-        <v>0.021792759394945821</v>
+        <v>0.021885720661244334</v>
       </c>
       <c r="EB4">
-        <v>0.021728560712702891</v>
+        <v>0.021888342855712103</v>
       </c>
       <c r="EC4">
-        <v>0.022131176785964615</v>
+        <v>0.022343518380965093</v>
       </c>
       <c r="ED4">
-        <v>0.022383645028609955</v>
+        <v>0.022456734366067047</v>
       </c>
       <c r="EE4">
-        <v>0.022653624057456002</v>
+        <v>0.022749766766858845</v>
       </c>
       <c r="EF4">
-        <v>0.022727224789194169</v>
+        <v>0.022787831240332117</v>
       </c>
       <c r="EG4">
-        <v>0.022598066047998178</v>
+        <v>0.022739249950542537</v>
       </c>
       <c r="EH4">
-        <v>0.018943001333896373</v>
+        <v>0.018967826275162643</v>
       </c>
       <c r="EI4">
-        <v>0.019037713646636725</v>
+        <v>0.019060036317056019</v>
       </c>
       <c r="EJ4">
-        <v>0.018479116758486978</v>
+        <v>0.018558037451516136</v>
       </c>
       <c r="EK4">
-        <v>0.018604359647441806</v>
+        <v>0.018641581660331447</v>
       </c>
       <c r="EL4">
-        <v>0.018638934318066493</v>
+        <v>0.01875435876789704</v>
       </c>
       <c r="EM4">
-        <v>0.018259072825355618</v>
+        <v>0.018372548851181433</v>
       </c>
       <c r="EN4">
-        <v>0.018332983673420476</v>
+        <v>0.018420217666202339</v>
       </c>
       <c r="EO4">
-        <v>0.018528804298518008</v>
+        <v>0.018466404037490732</v>
       </c>
       <c r="EP4">
-        <v>0.018594457215915114</v>
+        <v>0.018598739201819224</v>
       </c>
       <c r="EQ4">
-        <v>0.018654812800657301</v>
+        <v>0.018818676402835095</v>
       </c>
       <c r="ER4">
-        <v>0.018853184748741206</v>
+        <v>0.018924692832537282</v>
       </c>
       <c r="ES4">
-        <v>0.018926999408023497</v>
+        <v>0.019010166527946536</v>
       </c>
       <c r="ET4">
-        <v>0.018971337414142128</v>
+        <v>0.019069204244649317</v>
       </c>
       <c r="EU4">
-        <v>0.01915292126173496</v>
+        <v>0.019185358213290968</v>
       </c>
       <c r="EV4">
-        <v>0.019247506609593852</v>
+        <v>0.019257347436531028</v>
       </c>
       <c r="EW4">
-        <v>0.019263891103132601</v>
+        <v>0.019394756328829393</v>
       </c>
       <c r="EX4">
-        <v>0.019405948931903342</v>
+        <v>0.019517467866920078</v>
       </c>
       <c r="EY4">
-        <v>0.019530400684098403</v>
+        <v>0.019608764294000956</v>
       </c>
       <c r="EZ4">
-        <v>0.019602946974417241</v>
+        <v>0.019804968066698431</v>
       </c>
       <c r="FA4">
-        <v>0.019687518641622593</v>
+        <v>0.019812130816917378</v>
       </c>
       <c r="FB4">
-        <v>0.018727184059233744</v>
+        <v>0.018848654908681251</v>
       </c>
       <c r="FC4">
-        <v>0.018906241988507134</v>
+        <v>0.018955108504945216</v>
       </c>
       <c r="FD4">
-        <v>0.01896158744648924</v>
+        <v>0.019030892959828193</v>
       </c>
       <c r="FE4">
-        <v>0.019149102351233585</v>
+        <v>0.019075260859227217</v>
       </c>
       <c r="FF4">
-        <v>0.019139466470675062</v>
+        <v>0.01920817346238432</v>
       </c>
       <c r="FG4">
-        <v>0.019200690575188393</v>
+        <v>0.0192814326343165</v>
       </c>
       <c r="FH4">
-        <v>0.019226905375605698</v>
+        <v>0.019410927537036996</v>
       </c>
       <c r="FI4">
-        <v>0.019391909143485937</v>
+        <v>0.019478321485273942</v>
       </c>
       <c r="FJ4">
-        <v>0.019640591180645307</v>
+        <v>0.019476786954029535</v>
       </c>
       <c r="FK4">
-        <v>0.019518431304228704</v>
+        <v>0.019503779850025521</v>
       </c>
       <c r="FL4">
-        <v>0.019554721115970071</v>
+        <v>0.019645690335177768</v>
       </c>
       <c r="FM4">
-        <v>0.019665048607609502</v>
+        <v>0.019816763227880702</v>
       </c>
       <c r="FN4">
-        <v>0.01984105242200454</v>
+        <v>0.019840492400133209</v>
       </c>
       <c r="FO4">
-        <v>0.019981231919171658</v>
+        <v>0.01993390290795231</v>
       </c>
       <c r="FP4">
-        <v>0.019859212403688382</v>
+        <v>0.020195387048829509</v>
       </c>
       <c r="FQ4">
-        <v>0.020071233106111235</v>
+        <v>0.020165427860957638</v>
       </c>
       <c r="FR4">
-        <v>0.020054564334764258</v>
+        <v>0.020213515578165205</v>
       </c>
       <c r="FS4">
         <v>0</v>
@@ -13495,7 +14371,43 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.01428864419358512</v>
+        <v>0.01436954996959588</v>
+      </c>
+      <c r="FW4">
+        <v>0.019549379570669424</v>
+      </c>
+      <c r="FX4">
+        <v>0.019662838332762576</v>
+      </c>
+      <c r="FY4">
+        <v>0.019826362007559724</v>
+      </c>
+      <c r="FZ4">
+        <v>0.019788370348536009</v>
+      </c>
+      <c r="GA4">
+        <v>0.020014569274114172</v>
+      </c>
+      <c r="GB4">
+        <v>0.020160063979538415</v>
+      </c>
+      <c r="GC4">
+        <v>0.02023574685641881</v>
+      </c>
+      <c r="GD4">
+        <v>0.020221652670850895</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+      <c r="GH4">
+        <v>0.014400805839158056</v>
       </c>
     </row>
   </sheetData>
